--- a/data/df_compare.xlsx
+++ b/data/df_compare.xlsx
@@ -28,9 +28,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>2021-03-02</t>
-  </si>
-  <si>
     <t>2021-03-03</t>
   </si>
   <si>
@@ -1427,6 +1424,9 @@
   </si>
   <si>
     <t>2022-06-11</t>
+  </si>
+  <si>
+    <t>2022-06-12</t>
   </si>
 </sst>
 </file>
@@ -1809,13 +1809,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>48486.2</v>
+        <v>50400</v>
       </c>
       <c r="C2">
-        <v>48677.65463697626</v>
+        <v>48573.53641445286</v>
       </c>
       <c r="D2">
-        <v>-191.4546369762611</v>
+        <v>1826.463585547142</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1823,13 +1823,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>50400</v>
+        <v>48330</v>
       </c>
       <c r="C3">
-        <v>48580.44925968719</v>
+        <v>50446.00363170364</v>
       </c>
       <c r="D3">
-        <v>1819.550740312807</v>
+        <v>-2116.003631703643</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1837,13 +1837,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>48330</v>
+        <v>48734.7</v>
       </c>
       <c r="C4">
-        <v>50458.38592886335</v>
+        <v>48981.09662770576</v>
       </c>
       <c r="D4">
-        <v>-2128.385928863347</v>
+        <v>-246.3966277057625</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1851,13 +1851,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>48734.7</v>
+        <v>48899.9</v>
       </c>
       <c r="C5">
-        <v>48983.04657587567</v>
+        <v>48397.90021697839</v>
       </c>
       <c r="D5">
-        <v>-248.346575875672</v>
+        <v>501.9997830216089</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1865,13 +1865,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>48899.9</v>
+        <v>50962.3</v>
       </c>
       <c r="C6">
-        <v>48412.43778561513</v>
+        <v>48549.97281082606</v>
       </c>
       <c r="D6">
-        <v>487.4622143848683</v>
+        <v>2412.327189173942</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1879,13 +1879,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>50962.3</v>
+        <v>52375</v>
       </c>
       <c r="C7">
-        <v>48564.49746198685</v>
+        <v>50655.33380431632</v>
       </c>
       <c r="D7">
-        <v>2397.802538013151</v>
+        <v>1719.666195683676</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1893,13 +1893,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>52375</v>
+        <v>54929</v>
       </c>
       <c r="C8">
-        <v>50670.93061163076</v>
+        <v>51739.62057333818</v>
       </c>
       <c r="D8">
-        <v>1704.069388369237</v>
+        <v>3189.379426661821</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1907,13 +1907,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>54929</v>
+        <v>55851</v>
       </c>
       <c r="C9">
-        <v>51752.85893971736</v>
+        <v>54346.85137249684</v>
       </c>
       <c r="D9">
-        <v>3176.141060282644</v>
+        <v>1504.148627503164</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1921,13 +1921,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>55851</v>
+        <v>57809.9</v>
       </c>
       <c r="C10">
-        <v>54357.61325935426</v>
+        <v>55712.80929002422</v>
       </c>
       <c r="D10">
-        <v>1493.386740645736</v>
+        <v>2097.090709975782</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1935,13 +1935,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>57809.9</v>
+        <v>57234</v>
       </c>
       <c r="C11">
-        <v>55713.74285352178</v>
+        <v>57257.29117060729</v>
       </c>
       <c r="D11">
-        <v>2096.157146478217</v>
+        <v>-23.29117060729186</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1949,13 +1949,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>57234</v>
+        <v>61174.9</v>
       </c>
       <c r="C12">
-        <v>57260.79187011778</v>
+        <v>57088.35304961642</v>
       </c>
       <c r="D12">
-        <v>-26.79187011777685</v>
+        <v>4086.546950383585</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1963,13 +1963,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>61174.9</v>
+        <v>59001.1</v>
       </c>
       <c r="C13">
-        <v>57083.15138714042</v>
+        <v>60385.51942224961</v>
       </c>
       <c r="D13">
-        <v>4091.748612859577</v>
+        <v>-1384.419422249608</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1977,13 +1977,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>59001.1</v>
+        <v>55600</v>
       </c>
       <c r="C14">
-        <v>60391.19011697412</v>
+        <v>59827.30689273778</v>
       </c>
       <c r="D14">
-        <v>-1390.090116974126</v>
+        <v>-4227.306892737775</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1991,13 +1991,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>55600</v>
+        <v>56891.1</v>
       </c>
       <c r="C15">
-        <v>59809.58073486164</v>
+        <v>56686.06068945219</v>
       </c>
       <c r="D15">
-        <v>-4209.580734861644</v>
+        <v>205.039310547807</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2005,13 +2005,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>56891.1</v>
+        <v>58933</v>
       </c>
       <c r="C16">
-        <v>56674.62907881619</v>
+        <v>56028.769785126</v>
       </c>
       <c r="D16">
-        <v>216.4709211838053</v>
+        <v>2904.230214873998</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2019,13 +2019,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>58933</v>
+        <v>57640.9</v>
       </c>
       <c r="C17">
-        <v>56041.10000307562</v>
+        <v>57887.15065485908</v>
       </c>
       <c r="D17">
-        <v>2891.899996924381</v>
+        <v>-246.2506548590827</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2033,13 +2033,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>57640.9</v>
+        <v>58101.8</v>
       </c>
       <c r="C18">
-        <v>57899.89430923336</v>
+        <v>58195.74953512748</v>
       </c>
       <c r="D18">
-        <v>-258.994309233356</v>
+        <v>-93.94953512748179</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2047,13 +2047,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>58101.8</v>
+        <v>58091.6</v>
       </c>
       <c r="C19">
-        <v>58189.72146401878</v>
+        <v>58107.05600038881</v>
       </c>
       <c r="D19">
-        <v>-87.92146401877835</v>
+        <v>-15.45600038881093</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2061,13 +2061,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>58091.6</v>
+        <v>57378.4</v>
       </c>
       <c r="C20">
-        <v>58111.7933067348</v>
+        <v>58483.15552444587</v>
       </c>
       <c r="D20">
-        <v>-20.19330673479999</v>
+        <v>-1104.755524445871</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2075,13 +2075,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>57378.4</v>
+        <v>54095.1</v>
       </c>
       <c r="C21">
-        <v>58484.06954378225</v>
+        <v>57353.7315391147</v>
       </c>
       <c r="D21">
-        <v>-1105.669543782249</v>
+        <v>-3258.6315391147</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2089,13 +2089,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>54095.1</v>
+        <v>54351.3</v>
       </c>
       <c r="C22">
-        <v>57358.74220201033</v>
+        <v>55055.863845977</v>
       </c>
       <c r="D22">
-        <v>-3263.642202010335</v>
+        <v>-704.563845976998</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2103,13 +2103,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>54351.3</v>
+        <v>52293.8</v>
       </c>
       <c r="C23">
-        <v>55054.35310995088</v>
+        <v>54403.64866592732</v>
       </c>
       <c r="D23">
-        <v>-703.0531099508735</v>
+        <v>-2109.848665927319</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2117,13 +2117,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>52293.8</v>
+        <v>51314.9</v>
       </c>
       <c r="C24">
-        <v>54417.58445803248</v>
+        <v>53266.28592525717</v>
       </c>
       <c r="D24">
-        <v>-2123.784458032482</v>
+        <v>-1951.385925257164</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2131,13 +2131,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>51314.9</v>
+        <v>55062.2</v>
       </c>
       <c r="C25">
-        <v>53274.16864389982</v>
+        <v>51528.81359123011</v>
       </c>
       <c r="D25">
-        <v>-1959.268643899821</v>
+        <v>3533.386408769889</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2145,13 +2145,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>55062.2</v>
+        <v>55852.4</v>
       </c>
       <c r="C26">
-        <v>51545.37110124465</v>
+        <v>54162.59292395171</v>
       </c>
       <c r="D26">
-        <v>3516.828898755346</v>
+        <v>1689.807076048288</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2159,13 +2159,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>55852.4</v>
+        <v>55782</v>
       </c>
       <c r="C27">
-        <v>54193.99916649852</v>
+        <v>55589.23630886729</v>
       </c>
       <c r="D27">
-        <v>1658.400833501481</v>
+        <v>192.7636911327136</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2173,13 +2173,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>55782</v>
+        <v>57624.2</v>
       </c>
       <c r="C28">
-        <v>55604.60123854416</v>
+        <v>55679.81401228937</v>
       </c>
       <c r="D28">
-        <v>177.3987614558355</v>
+        <v>1944.38598771063</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2187,13 +2187,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>57624.2</v>
+        <v>58781</v>
       </c>
       <c r="C29">
-        <v>55691.84481992661</v>
+        <v>57246.40127524981</v>
       </c>
       <c r="D29">
-        <v>1932.355180073391</v>
+        <v>1534.598724750191</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2201,13 +2201,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>58781</v>
+        <v>58786.2</v>
       </c>
       <c r="C30">
-        <v>57262.00052333784</v>
+        <v>58546.96188379932</v>
       </c>
       <c r="D30">
-        <v>1518.99947666216</v>
+        <v>239.2381162006786</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2215,13 +2215,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>58786.2</v>
+        <v>58732.9</v>
       </c>
       <c r="C31">
-        <v>58556.28945481752</v>
+        <v>58613.43806113632</v>
       </c>
       <c r="D31">
-        <v>229.9105451824798</v>
+        <v>119.4619388636856</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2229,13 +2229,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>58732.9</v>
+        <v>59020.7</v>
       </c>
       <c r="C32">
-        <v>58619.16118984388</v>
+        <v>58755.17684023411</v>
       </c>
       <c r="D32">
-        <v>113.7388101561228</v>
+        <v>265.5231597658858</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2243,13 +2243,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>59020.7</v>
+        <v>57099</v>
       </c>
       <c r="C33">
-        <v>58759.60264086212</v>
+        <v>59214.91376803251</v>
       </c>
       <c r="D33">
-        <v>261.0973591378788</v>
+        <v>-2115.913768032508</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2257,13 +2257,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>57099</v>
+        <v>58195</v>
       </c>
       <c r="C34">
-        <v>59218.13325608517</v>
+        <v>57727.2190283009</v>
       </c>
       <c r="D34">
-        <v>-2119.133256085166</v>
+        <v>467.7809716991032</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2271,13 +2271,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>58195</v>
+        <v>59120</v>
       </c>
       <c r="C35">
-        <v>57728.37138084739</v>
+        <v>57888.09340032353</v>
       </c>
       <c r="D35">
-        <v>466.6286191526087</v>
+        <v>1231.906599676469</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2285,13 +2285,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>59120</v>
+        <v>58017.1</v>
       </c>
       <c r="C36">
-        <v>57902.42401280185</v>
+        <v>58669.10355258474</v>
       </c>
       <c r="D36">
-        <v>1217.57598719815</v>
+        <v>-652.0035525847416</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2299,13 +2299,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>58017.1</v>
+        <v>55928.5</v>
       </c>
       <c r="C37">
-        <v>58681.47894540084</v>
+        <v>58228.38231367536</v>
       </c>
       <c r="D37">
-        <v>-664.3789454008365</v>
+        <v>-2299.882313675364</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2313,13 +2313,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>55928.5</v>
+        <v>58036.9</v>
       </c>
       <c r="C38">
-        <v>58232.94485623801</v>
+        <v>56480.77301212217</v>
       </c>
       <c r="D38">
-        <v>-2304.444856238006</v>
+        <v>1556.126987877833</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2327,13 +2327,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>58036.9</v>
+        <v>58110</v>
       </c>
       <c r="C39">
-        <v>56484.5145643568</v>
+        <v>57539.79679026452</v>
       </c>
       <c r="D39">
-        <v>1552.385435643198</v>
+        <v>570.2032097354822</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2341,13 +2341,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>58110</v>
+        <v>59775.6</v>
       </c>
       <c r="C40">
-        <v>57558.97559588738</v>
+        <v>58175.73944211836</v>
       </c>
       <c r="D40">
-        <v>551.0244041126207</v>
+        <v>1599.860557881642</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2355,13 +2355,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>59775.6</v>
+        <v>59956</v>
       </c>
       <c r="C41">
-        <v>58183.07902734876</v>
+        <v>59761.46573701265</v>
       </c>
       <c r="D41">
-        <v>1592.52097265124</v>
+        <v>194.5342629873485</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2369,13 +2369,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>59956</v>
+        <v>59823.7</v>
       </c>
       <c r="C42">
-        <v>59770.5502039124</v>
+        <v>59983.06025753761</v>
       </c>
       <c r="D42">
-        <v>185.449796087596</v>
+        <v>-159.3602575376135</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2383,13 +2383,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>59823.7</v>
+        <v>63587.2</v>
       </c>
       <c r="C43">
-        <v>59988.3070605457</v>
+        <v>60114.40574203749</v>
       </c>
       <c r="D43">
-        <v>-164.6070605456989</v>
+        <v>3472.794257962509</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2397,13 +2397,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>63587.2</v>
+        <v>62969</v>
       </c>
       <c r="C44">
-        <v>60117.83516164523</v>
+        <v>62911.02470443738</v>
       </c>
       <c r="D44">
-        <v>3469.364838354762</v>
+        <v>57.97529556261725</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2411,13 +2411,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>62969</v>
+        <v>63243</v>
       </c>
       <c r="C45">
-        <v>62925.93012901399</v>
+        <v>63180.8040383984</v>
       </c>
       <c r="D45">
-        <v>43.06987098600803</v>
+        <v>62.19596160159563</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2425,13 +2425,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>63243</v>
+        <v>61455</v>
       </c>
       <c r="C46">
-        <v>63178.75946396145</v>
+        <v>63222.56759880672</v>
       </c>
       <c r="D46">
-        <v>64.24053603855282</v>
+        <v>-1767.567598806723</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2439,13 +2439,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>61455</v>
+        <v>60085.2</v>
       </c>
       <c r="C47">
-        <v>63225.90244410348</v>
+        <v>61790.37080945246</v>
       </c>
       <c r="D47">
-        <v>-1770.902444103478</v>
+        <v>-1705.170809452466</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2453,13 +2453,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>60085.2</v>
+        <v>56239.8</v>
       </c>
       <c r="C48">
-        <v>61789.93819850367</v>
+        <v>60662.43615900833</v>
       </c>
       <c r="D48">
-        <v>-1704.73819850367</v>
+        <v>-4422.636159008325</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2467,13 +2467,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>56239.8</v>
+        <v>55720</v>
       </c>
       <c r="C49">
-        <v>60666.96683404447</v>
+        <v>56053.058234369</v>
       </c>
       <c r="D49">
-        <v>-4427.166834044467</v>
+        <v>-333.0582343690039</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2481,13 +2481,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>55720</v>
+        <v>56500</v>
       </c>
       <c r="C50">
-        <v>56065.42706304623</v>
+        <v>55829.87650736564</v>
       </c>
       <c r="D50">
-        <v>-345.4270630462343</v>
+        <v>670.1234926343604</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2495,13 +2495,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>56500</v>
+        <v>53815.2</v>
       </c>
       <c r="C51">
-        <v>55848.89766412476</v>
+        <v>55935.04245288114</v>
       </c>
       <c r="D51">
-        <v>651.1023358752354</v>
+        <v>-2119.842452881145</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2509,13 +2509,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>53815.2</v>
+        <v>51730</v>
       </c>
       <c r="C52">
-        <v>55959.49681081621</v>
+        <v>54388.79686564734</v>
       </c>
       <c r="D52">
-        <v>-2144.296810816209</v>
+        <v>-2658.796865647339</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2523,13 +2523,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>51730</v>
+        <v>51178.7</v>
       </c>
       <c r="C53">
-        <v>54401.54415943902</v>
+        <v>52264.93014954185</v>
       </c>
       <c r="D53">
-        <v>-2671.544159439021</v>
+        <v>-1086.230149541851</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2537,13 +2537,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>51178.7</v>
+        <v>50093.4</v>
       </c>
       <c r="C54">
-        <v>52281.67435993054</v>
+        <v>50511.01844073719</v>
       </c>
       <c r="D54">
-        <v>-1102.974359930544</v>
+        <v>-417.6184407371838</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2551,13 +2551,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>50093.4</v>
+        <v>49106.5</v>
       </c>
       <c r="C55">
-        <v>50539.17705573611</v>
+        <v>49875.87970280612</v>
       </c>
       <c r="D55">
-        <v>-445.7770557361073</v>
+        <v>-769.3797028061235</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2565,13 +2565,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>49106.5</v>
+        <v>54051.9</v>
       </c>
       <c r="C56">
-        <v>49901.58354467262</v>
+        <v>48775.39198980038</v>
       </c>
       <c r="D56">
-        <v>-795.0835446726196</v>
+        <v>5276.508010199621</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2579,13 +2579,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>54051.9</v>
+        <v>55078.7</v>
       </c>
       <c r="C57">
-        <v>48803.45270389599</v>
+        <v>52823.05262405158</v>
       </c>
       <c r="D57">
-        <v>5248.447296104016</v>
+        <v>2255.647375948422</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2593,13 +2593,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>55078.7</v>
+        <v>54899.3</v>
       </c>
       <c r="C58">
-        <v>52861.09621889258</v>
+        <v>54672.35358298532</v>
       </c>
       <c r="D58">
-        <v>2217.603781107413</v>
+        <v>226.9464170146821</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2607,13 +2607,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>54899.3</v>
+        <v>53579.6</v>
       </c>
       <c r="C59">
-        <v>54689.2333513072</v>
+        <v>54951.2725806646</v>
       </c>
       <c r="D59">
-        <v>210.0666486928021</v>
+        <v>-1371.672580664606</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2621,13 +2621,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>53579.6</v>
+        <v>57780</v>
       </c>
       <c r="C60">
-        <v>54961.91569526631</v>
+        <v>53572.722385954</v>
       </c>
       <c r="D60">
-        <v>-1382.315695266312</v>
+        <v>4207.277614046005</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2635,13 +2635,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>57780</v>
+        <v>57859.2</v>
       </c>
       <c r="C61">
-        <v>53582.94461918373</v>
+        <v>56659.92213111711</v>
       </c>
       <c r="D61">
-        <v>4197.055380816273</v>
+        <v>1199.277868882884</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2649,13 +2649,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>57859.2</v>
+        <v>56618.5</v>
       </c>
       <c r="C62">
-        <v>56685.22944368009</v>
+        <v>57797.73389284295</v>
       </c>
       <c r="D62">
-        <v>1173.970556319902</v>
+        <v>-1179.233892842953</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2663,13 +2663,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>56618.5</v>
+        <v>57193.5</v>
       </c>
       <c r="C63">
-        <v>57801.1895481918</v>
+        <v>56762.53001031119</v>
       </c>
       <c r="D63">
-        <v>-1182.689548191796</v>
+        <v>430.9699896888051</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2677,13 +2677,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>57193.5</v>
+        <v>53239.4</v>
       </c>
       <c r="C64">
-        <v>56765.55374531807</v>
+        <v>57447.60007956126</v>
       </c>
       <c r="D64">
-        <v>427.9462546819341</v>
+        <v>-4208.200079561262</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2691,13 +2691,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>53239.4</v>
+        <v>57497.1</v>
       </c>
       <c r="C65">
-        <v>57453.27565456645</v>
+        <v>54082.56324059423</v>
       </c>
       <c r="D65">
-        <v>-4213.875654566451</v>
+        <v>3414.536759405768</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2705,13 +2705,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>57497.1</v>
+        <v>56421.1</v>
       </c>
       <c r="C66">
-        <v>54080.78925676074</v>
+        <v>56575.66951870109</v>
       </c>
       <c r="D66">
-        <v>3416.310743239257</v>
+        <v>-154.5695187010933</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2719,13 +2719,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>56421.1</v>
+        <v>57383</v>
       </c>
       <c r="C67">
-        <v>56601.22922429635</v>
+        <v>56636.58253803599</v>
       </c>
       <c r="D67">
-        <v>-180.1292242963536</v>
+        <v>746.4174619640107</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2733,13 +2733,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>57383</v>
+        <v>58953.8</v>
       </c>
       <c r="C68">
-        <v>56639.524315375</v>
+        <v>57251.61678092653</v>
       </c>
       <c r="D68">
-        <v>743.475684625002</v>
+        <v>1702.183219073471</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2747,13 +2747,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>58953.8</v>
+        <v>58293.1</v>
       </c>
       <c r="C69">
-        <v>57260.69878493963</v>
+        <v>58695.67587704913</v>
       </c>
       <c r="D69">
-        <v>1693.101215060371</v>
+        <v>-402.5758770491302</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2761,13 +2761,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>58293.1</v>
+        <v>55888.1</v>
       </c>
       <c r="C70">
-        <v>58704.18167442908</v>
+        <v>58110.48361769217</v>
       </c>
       <c r="D70">
-        <v>-411.0816744290787</v>
+        <v>-2222.383617692169</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2775,13 +2775,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>55888.1</v>
+        <v>56747.5</v>
       </c>
       <c r="C71">
-        <v>58114.35389622421</v>
+        <v>56191.2375663539</v>
       </c>
       <c r="D71">
-        <v>-2226.253896224211</v>
+        <v>556.2624336461013</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2789,13 +2789,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>56747.5</v>
+        <v>49502.7</v>
       </c>
       <c r="C72">
-        <v>56192.90634024624</v>
+        <v>56297.31043606781</v>
       </c>
       <c r="D72">
-        <v>554.5936597537584</v>
+        <v>-6794.610436067815</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2803,13 +2803,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>49502.7</v>
+        <v>49675.2</v>
       </c>
       <c r="C73">
-        <v>56310.46363670627</v>
+        <v>51119.7237985403</v>
       </c>
       <c r="D73">
-        <v>-6807.763636706273</v>
+        <v>-1444.523798540307</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2817,13 +2817,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>49675.2</v>
+        <v>49899</v>
       </c>
       <c r="C74">
-        <v>51114.60207683466</v>
+        <v>48941.53719827443</v>
       </c>
       <c r="D74">
-        <v>-1439.40207683466</v>
+        <v>957.4628017255745</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2831,13 +2831,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>49899</v>
+        <v>46771.1</v>
       </c>
       <c r="C75">
-        <v>48969.26691933251</v>
+        <v>49948.27300332379</v>
       </c>
       <c r="D75">
-        <v>929.7330806674945</v>
+        <v>-3177.173003323791</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2845,13 +2845,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>46771.1</v>
+        <v>46482.4</v>
       </c>
       <c r="C76">
-        <v>49968.87847669511</v>
+        <v>47476.34250414401</v>
       </c>
       <c r="D76">
-        <v>-3197.778476695108</v>
+        <v>-993.9425041440045</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2859,13 +2859,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>46482.4</v>
+        <v>43551.8</v>
       </c>
       <c r="C77">
-        <v>47490.83106513258</v>
+        <v>46449.8421459067</v>
       </c>
       <c r="D77">
-        <v>-1008.43106513258</v>
+        <v>-2898.0421459067</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2873,13 +2873,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>43551.8</v>
+        <v>42895.2</v>
       </c>
       <c r="C78">
-        <v>46477.64918197634</v>
+        <v>43749.92335257115</v>
       </c>
       <c r="D78">
-        <v>-2925.849181976337</v>
+        <v>-854.723352571149</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2887,13 +2887,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>42895.2</v>
+        <v>36742.3</v>
       </c>
       <c r="C79">
-        <v>43770.62458424416</v>
+        <v>43217.94643372257</v>
       </c>
       <c r="D79">
-        <v>-875.4245842441669</v>
+        <v>-6475.646433722563</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2901,13 +2901,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>36742.3</v>
+        <v>40614.6</v>
       </c>
       <c r="C80">
-        <v>43244.40651282448</v>
+        <v>36557.79414050686</v>
       </c>
       <c r="D80">
-        <v>-6502.106512824474</v>
+        <v>4056.805859493143</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2915,13 +2915,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>40614.6</v>
+        <v>37331.7</v>
       </c>
       <c r="C81">
-        <v>36583.92331141208</v>
+        <v>39580.58514245224</v>
       </c>
       <c r="D81">
-        <v>4030.676688587919</v>
+        <v>-2248.885142452244</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2929,13 +2929,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>37331.7</v>
+        <v>37468.3</v>
       </c>
       <c r="C82">
-        <v>39629.9582470822</v>
+        <v>37335.9972641028</v>
       </c>
       <c r="D82">
-        <v>-2298.258247082202</v>
+        <v>132.3027358972031</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2943,13 +2943,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>37468.3</v>
+        <v>34718.8</v>
       </c>
       <c r="C83">
-        <v>37362.31490243841</v>
+        <v>37000.05956589663</v>
       </c>
       <c r="D83">
-        <v>105.9850975615918</v>
+        <v>-2281.259565896631</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2957,13 +2957,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>34718.8</v>
+        <v>38833.8</v>
       </c>
       <c r="C84">
-        <v>37036.02819043483</v>
+        <v>34420.4078189689</v>
       </c>
       <c r="D84">
-        <v>-2317.228190434827</v>
+        <v>4413.3921810311</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2971,13 +2971,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>38833.8</v>
+        <v>38388.1</v>
       </c>
       <c r="C85">
-        <v>34449.67714315741</v>
+        <v>37854.18950392303</v>
       </c>
       <c r="D85">
-        <v>4384.122856842594</v>
+        <v>533.9104960769691</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2985,13 +2985,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>38388.1</v>
+        <v>39283.9</v>
       </c>
       <c r="C86">
-        <v>37896.44691613771</v>
+        <v>38070.28966944633</v>
       </c>
       <c r="D86">
-        <v>491.6530838622857</v>
+        <v>1213.610330553674</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2999,13 +2999,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>39283.9</v>
+        <v>38516.4</v>
       </c>
       <c r="C87">
-        <v>38090.60133807531</v>
+        <v>39140.54531207186</v>
       </c>
       <c r="D87">
-        <v>1193.298661924695</v>
+        <v>-624.1453120718579</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3013,13 +3013,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>38516.4</v>
+        <v>35683.9</v>
       </c>
       <c r="C88">
-        <v>39161.22867929389</v>
+        <v>38414.48481387299</v>
       </c>
       <c r="D88">
-        <v>-644.8286792938889</v>
+        <v>-2730.584813872985</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3027,13 +3027,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>35683.9</v>
+        <v>34616.6</v>
       </c>
       <c r="C89">
-        <v>38428.88721201142</v>
+        <v>35959.02167321826</v>
       </c>
       <c r="D89">
-        <v>-2744.987212011416</v>
+        <v>-1342.421673218261</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3041,13 +3041,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>34616.6</v>
+        <v>35673.8</v>
       </c>
       <c r="C90">
-        <v>35971.22806933721</v>
+        <v>34764.52618532986</v>
       </c>
       <c r="D90">
-        <v>-1354.62806933721</v>
+        <v>909.2738146701449</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3055,13 +3055,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>35673.8</v>
+        <v>37303.8</v>
       </c>
       <c r="C91">
-        <v>34782.42024811326</v>
+        <v>35103.46070253651</v>
       </c>
       <c r="D91">
-        <v>891.3797518867432</v>
+        <v>2200.339297463492</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3069,13 +3069,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>37303.8</v>
+        <v>36676.3</v>
       </c>
       <c r="C92">
-        <v>35129.15715884529</v>
+        <v>36419.6928203502</v>
       </c>
       <c r="D92">
-        <v>2174.642841154717</v>
+        <v>256.6071796497999</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3083,13 +3083,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>36676.3</v>
+        <v>37565.3</v>
       </c>
       <c r="C93">
-        <v>36441.98105892077</v>
+        <v>36562.03451863254</v>
       </c>
       <c r="D93">
-        <v>234.3189410792329</v>
+        <v>1003.26548136746</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3097,13 +3097,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>37565.3</v>
+        <v>39196.6</v>
       </c>
       <c r="C94">
-        <v>36572.39862823211</v>
+        <v>37175.91346751124</v>
       </c>
       <c r="D94">
-        <v>992.9013717678972</v>
+        <v>2020.686532488755</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3111,13 +3111,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>39196.6</v>
+        <v>36847.7</v>
       </c>
       <c r="C95">
-        <v>37188.31135697506</v>
+        <v>38660.48021894682</v>
       </c>
       <c r="D95">
-        <v>2008.288643024935</v>
+        <v>-1812.78021894682</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3125,13 +3125,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>36847.7</v>
+        <v>35534.6</v>
       </c>
       <c r="C96">
-        <v>38671.78908805093</v>
+        <v>36960.2419091984</v>
       </c>
       <c r="D96">
-        <v>-1824.089088050932</v>
+        <v>-1425.641909198406</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3139,13 +3139,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>35534.6</v>
+        <v>35789</v>
       </c>
       <c r="C97">
-        <v>36960.58578581355</v>
+        <v>35773.27447958567</v>
       </c>
       <c r="D97">
-        <v>-1425.985785813551</v>
+        <v>15.72552041432937</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3153,13 +3153,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>35789</v>
+        <v>33587.6</v>
       </c>
       <c r="C98">
-        <v>35777.40248961538</v>
+        <v>35677.45910800304</v>
       </c>
       <c r="D98">
-        <v>11.59751038462127</v>
+        <v>-2089.859108003038</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3167,13 +3167,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>33587.6</v>
+        <v>33420</v>
       </c>
       <c r="C99">
-        <v>35687.00951755505</v>
+        <v>34097.47276861567</v>
       </c>
       <c r="D99">
-        <v>-2099.409517555046</v>
+        <v>-677.4727686156693</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3181,13 +3181,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>33420</v>
+        <v>37396.4</v>
       </c>
       <c r="C100">
-        <v>34101.32199808674</v>
+        <v>32887.77861625401</v>
       </c>
       <c r="D100">
-        <v>-681.3219980867361</v>
+        <v>4508.621383745987</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3195,13 +3195,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>37396.4</v>
+        <v>36678.4</v>
       </c>
       <c r="C101">
-        <v>32902.51451869575</v>
+        <v>36177.69322111562</v>
       </c>
       <c r="D101">
-        <v>4493.885481304256</v>
+        <v>500.7067788843779</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3209,13 +3209,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>36678.4</v>
+        <v>37322.2</v>
       </c>
       <c r="C102">
-        <v>36201.37162725043</v>
+        <v>36792.18945123817</v>
       </c>
       <c r="D102">
-        <v>477.0283727495698</v>
+        <v>530.0105487618275</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3223,13 +3223,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>37322.2</v>
+        <v>35544.9</v>
       </c>
       <c r="C103">
-        <v>36792.62732942479</v>
+        <v>37010.89205081321</v>
       </c>
       <c r="D103">
-        <v>529.5726705752095</v>
+        <v>-1465.992050813213</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3237,13 +3237,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>35544.9</v>
+        <v>39034.6</v>
       </c>
       <c r="C104">
-        <v>37017.61673414955</v>
+        <v>35681.98730660477</v>
       </c>
       <c r="D104">
-        <v>-1472.716734149551</v>
+        <v>3352.612693395226</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3251,13 +3251,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>39034.6</v>
+        <v>40530.8</v>
       </c>
       <c r="C105">
-        <v>35683.04363322564</v>
+        <v>38083.72842260008</v>
       </c>
       <c r="D105">
-        <v>3351.556366774355</v>
+        <v>2447.071577399925</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3265,13 +3265,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>40530.8</v>
+        <v>40166.6</v>
       </c>
       <c r="C106">
-        <v>38100.90606105468</v>
+        <v>40287.91063938793</v>
       </c>
       <c r="D106">
-        <v>2429.893938945323</v>
+        <v>-121.3106393879352</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3279,13 +3279,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>40166.6</v>
+        <v>38337.1</v>
       </c>
       <c r="C107">
-        <v>40288.31428460265</v>
+        <v>40319.62376230751</v>
       </c>
       <c r="D107">
-        <v>-121.7142846026545</v>
+        <v>-1982.523762307515</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3293,13 +3293,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>38337.1</v>
+        <v>38078.2</v>
       </c>
       <c r="C108">
-        <v>40313.97846493481</v>
+        <v>38781.20201531169</v>
       </c>
       <c r="D108">
-        <v>-1976.878464934809</v>
+        <v>-703.002015311693</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3307,13 +3307,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>38078.2</v>
+        <v>35824</v>
       </c>
       <c r="C109">
-        <v>38775.53614181001</v>
+        <v>38262.40863985682</v>
       </c>
       <c r="D109">
-        <v>-697.3361418100176</v>
+        <v>-2438.408639856818</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3321,13 +3321,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>35824</v>
+        <v>35490.5</v>
       </c>
       <c r="C110">
-        <v>38264.57987064389</v>
+        <v>36158.65697090328</v>
       </c>
       <c r="D110">
-        <v>-2440.579870643887</v>
+        <v>-668.1569709032774</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3335,13 +3335,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>35490.5</v>
+        <v>35595</v>
       </c>
       <c r="C111">
-        <v>36160.08822225387</v>
+        <v>35536.94530509409</v>
       </c>
       <c r="D111">
-        <v>-669.5882222538712</v>
+        <v>58.05469490590622</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3349,13 +3349,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>35595</v>
+        <v>31655.2</v>
       </c>
       <c r="C112">
-        <v>35546.40508687293</v>
+        <v>35139.98266900599</v>
       </c>
       <c r="D112">
-        <v>48.59491312706814</v>
+        <v>-3484.782669005985</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3363,13 +3363,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>31655.2</v>
+        <v>32516.2</v>
       </c>
       <c r="C113">
-        <v>35154.26141164095</v>
+        <v>32422.76344390679</v>
       </c>
       <c r="D113">
-        <v>-3499.061411640945</v>
+        <v>93.43655609320922</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3377,13 +3377,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>32516.2</v>
+        <v>33683.3</v>
       </c>
       <c r="C114">
-        <v>32424.65674966173</v>
+        <v>31781.84297608177</v>
       </c>
       <c r="D114">
-        <v>91.54325033827263</v>
+        <v>1901.457023918236</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3391,13 +3391,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>33683.3</v>
+        <v>34666.6</v>
       </c>
       <c r="C115">
-        <v>31803.99350341433</v>
+        <v>33587.6118945913</v>
       </c>
       <c r="D115">
-        <v>1879.306496585668</v>
+        <v>1078.988105408695</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3405,13 +3405,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>34666.6</v>
+        <v>31583.7</v>
       </c>
       <c r="C116">
-        <v>33602.74928096508</v>
+        <v>34178.04540420548</v>
       </c>
       <c r="D116">
-        <v>1063.850719034919</v>
+        <v>-2594.345404205476</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3419,13 +3419,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>31583.7</v>
+        <v>32277</v>
       </c>
       <c r="C117">
-        <v>34192.92485880809</v>
+        <v>32292.52084925506</v>
       </c>
       <c r="D117">
-        <v>-2609.224858808087</v>
+        <v>-15.52084925505915</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3433,13 +3433,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>32277</v>
+        <v>34675.3</v>
       </c>
       <c r="C118">
-        <v>32294.4763239711</v>
+        <v>31764.36550934691</v>
       </c>
       <c r="D118">
-        <v>-17.47632397109555</v>
+        <v>2910.93449065309</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3447,13 +3447,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>34675.3</v>
+        <v>34472</v>
       </c>
       <c r="C119">
-        <v>31781.94668862847</v>
+        <v>33965.15641735555</v>
       </c>
       <c r="D119">
-        <v>2893.353311371531</v>
+        <v>506.8435826444475</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3461,13 +3461,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>34472</v>
+        <v>35903.3</v>
       </c>
       <c r="C120">
-        <v>33984.0765521596</v>
+        <v>34441.8128824966</v>
       </c>
       <c r="D120">
-        <v>487.9234478404032</v>
+        <v>1461.487117503406</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3475,13 +3475,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>35903.3</v>
+        <v>35046.2</v>
       </c>
       <c r="C121">
-        <v>34447.38908333251</v>
+        <v>35638.21022287136</v>
       </c>
       <c r="D121">
-        <v>1455.910916667497</v>
+        <v>-592.0102228713658</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3489,13 +3489,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>35046.2</v>
+        <v>33532.4</v>
       </c>
       <c r="C122">
-        <v>35647.38591684434</v>
+        <v>34981.91545438633</v>
       </c>
       <c r="D122">
-        <v>-601.1859168443407</v>
+        <v>-1449.515454386325</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3503,13 +3503,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>33532.4</v>
+        <v>33802.9</v>
       </c>
       <c r="C123">
-        <v>34984.92004749494</v>
+        <v>33590.5810093983</v>
       </c>
       <c r="D123">
-        <v>-1452.520047494938</v>
+        <v>212.3189906016996</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3517,13 +3517,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>33802.9</v>
+        <v>34685.4</v>
       </c>
       <c r="C124">
-        <v>33595.49837942373</v>
+        <v>33517.76638227646</v>
       </c>
       <c r="D124">
-        <v>207.4016205762746</v>
+        <v>1167.633617723543</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3531,13 +3531,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>34685.4</v>
+        <v>35305</v>
       </c>
       <c r="C125">
-        <v>33528.58125066033</v>
+        <v>34360.13034383813</v>
       </c>
       <c r="D125">
-        <v>1156.818749339669</v>
+        <v>944.8696561618708</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3545,13 +3545,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>35305</v>
+        <v>33697.6</v>
       </c>
       <c r="C126">
-        <v>34370.73274719049</v>
+        <v>35168.74503693465</v>
       </c>
       <c r="D126">
-        <v>934.2672528095063</v>
+        <v>-1471.145036934649</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3559,13 +3559,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>33697.6</v>
+        <v>34235</v>
       </c>
       <c r="C127">
-        <v>35176.23044004723</v>
+        <v>33847.45741411569</v>
       </c>
       <c r="D127">
-        <v>-1478.630440047229</v>
+        <v>387.5425858843082</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3573,13 +3573,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>34235</v>
+        <v>33885.1</v>
       </c>
       <c r="C128">
-        <v>33849.57006995977</v>
+        <v>34231.67073196173</v>
       </c>
       <c r="D128">
-        <v>385.4299300402272</v>
+        <v>-346.5707319617286</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3587,13 +3587,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>33885.1</v>
+        <v>32882.2</v>
       </c>
       <c r="C129">
-        <v>34238.52059582162</v>
+        <v>34088.11545754326</v>
       </c>
       <c r="D129">
-        <v>-353.4205958216189</v>
+        <v>-1205.915457543262</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3601,13 +3601,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>32882.2</v>
+        <v>33791</v>
       </c>
       <c r="C130">
-        <v>34091.61769119823</v>
+        <v>32891.13836320429</v>
       </c>
       <c r="D130">
-        <v>-1209.417691198229</v>
+        <v>899.8616367957147</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3615,13 +3615,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>33791</v>
+        <v>33522.2</v>
       </c>
       <c r="C131">
-        <v>32895.98766284216</v>
+        <v>33444.95234694474</v>
       </c>
       <c r="D131">
-        <v>895.0123371578447</v>
+        <v>77.24765305525216</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3629,13 +3629,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>33522.2</v>
+        <v>34246.9</v>
       </c>
       <c r="C132">
-        <v>33456.06598615592</v>
+        <v>33491.51047351488</v>
       </c>
       <c r="D132">
-        <v>66.13401384407916</v>
+        <v>755.3895264851235</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3643,13 +3643,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>34246.9</v>
+        <v>33107.3</v>
       </c>
       <c r="C133">
-        <v>33497.2025845314</v>
+        <v>34051.22767438996</v>
       </c>
       <c r="D133">
-        <v>749.6974154686031</v>
+        <v>-943.9276743899536</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3657,13 +3657,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>33107.3</v>
+        <v>32722.9</v>
       </c>
       <c r="C134">
-        <v>34059.89242417541</v>
+        <v>33289.88003999664</v>
       </c>
       <c r="D134">
-        <v>-952.5924241754037</v>
+        <v>-566.9800399966407</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3671,13 +3671,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>32722.9</v>
+        <v>32815.2</v>
       </c>
       <c r="C135">
-        <v>33293.3726518853</v>
+        <v>32665.73493733577</v>
       </c>
       <c r="D135">
-        <v>-570.4726518852985</v>
+        <v>149.4650626642251</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3685,13 +3685,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>32815.2</v>
+        <v>31832.6</v>
       </c>
       <c r="C136">
-        <v>32672.44394645736</v>
+        <v>32508.32481898612</v>
       </c>
       <c r="D136">
-        <v>142.7560535426383</v>
+        <v>-675.7248189861202</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3699,13 +3699,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>31832.6</v>
+        <v>31405.9</v>
       </c>
       <c r="C137">
-        <v>32517.9517909842</v>
+        <v>31889.00213102857</v>
       </c>
       <c r="D137">
-        <v>-685.3517909842049</v>
+        <v>-483.1021310285651</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3713,13 +3713,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>31405.9</v>
+        <v>31510</v>
       </c>
       <c r="C138">
-        <v>31895.48209854653</v>
+        <v>31416.13436875294</v>
       </c>
       <c r="D138">
-        <v>-489.5820985465252</v>
+        <v>93.86563124705572</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3727,13 +3727,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>31510</v>
+        <v>31780.1</v>
       </c>
       <c r="C139">
-        <v>31424.428637707</v>
+        <v>31436.47345084709</v>
       </c>
       <c r="D139">
-        <v>85.57136229299795</v>
+        <v>343.626549152912</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3741,13 +3741,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>31780.1</v>
+        <v>30820.5</v>
       </c>
       <c r="C140">
-        <v>31446.32181302412</v>
+        <v>31674.98894047656</v>
       </c>
       <c r="D140">
-        <v>333.7781869758765</v>
+        <v>-854.4889404765563</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3755,13 +3755,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>30820.5</v>
+        <v>29788.1</v>
       </c>
       <c r="C141">
-        <v>31685.35717876512</v>
+        <v>30863.50584164701</v>
       </c>
       <c r="D141">
-        <v>-864.8571787651235</v>
+        <v>-1075.405841647014</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3769,13 +3769,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>29788.1</v>
+        <v>32125</v>
       </c>
       <c r="C142">
-        <v>30870.74831251044</v>
+        <v>29854.42403765424</v>
       </c>
       <c r="D142">
-        <v>-1082.648312510442</v>
+        <v>2270.575962345756</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3783,13 +3783,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>32125</v>
+        <v>32283.3</v>
       </c>
       <c r="C143">
-        <v>29862.46664355082</v>
+        <v>31601.5004753783</v>
       </c>
       <c r="D143">
-        <v>2262.533356449181</v>
+        <v>681.7995246216997</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3797,13 +3797,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>32283.3</v>
+        <v>33639</v>
       </c>
       <c r="C144">
-        <v>31618.87137722309</v>
+        <v>32147.37765923238</v>
       </c>
       <c r="D144">
-        <v>664.428622776908</v>
+        <v>1491.622340767615</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3811,13 +3811,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>33639</v>
+        <v>34284.6</v>
       </c>
       <c r="C145">
-        <v>32153.84679489909</v>
+        <v>33202.287335131</v>
       </c>
       <c r="D145">
-        <v>1485.153205100905</v>
+        <v>1082.312664869001</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3825,13 +3825,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>34284.6</v>
+        <v>35413.6</v>
       </c>
       <c r="C146">
-        <v>33211.72343210364</v>
+        <v>34133.794462594</v>
       </c>
       <c r="D146">
-        <v>1072.876567896354</v>
+        <v>1279.805537405999</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3839,13 +3839,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>35413.6</v>
+        <v>37274.9</v>
       </c>
       <c r="C147">
-        <v>34136.50820477715</v>
+        <v>35050.9297495677</v>
       </c>
       <c r="D147">
-        <v>1277.091795222848</v>
+        <v>2223.9702504323</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3853,13 +3853,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>37274.9</v>
+        <v>39506.2</v>
       </c>
       <c r="C148">
-        <v>35055.6538155797</v>
+        <v>37654.11346435713</v>
       </c>
       <c r="D148">
-        <v>2219.246184420306</v>
+        <v>1852.086535642869</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3867,13 +3867,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>39506.2</v>
+        <v>40011</v>
       </c>
       <c r="C149">
-        <v>37652.73394968041</v>
+        <v>38885.52134296353</v>
       </c>
       <c r="D149">
-        <v>1853.466050319585</v>
+        <v>1125.478657036467</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3881,13 +3881,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>40011</v>
+        <v>40000</v>
       </c>
       <c r="C150">
-        <v>38888.31149507027</v>
+        <v>40071.49280929426</v>
       </c>
       <c r="D150">
-        <v>1122.688504929734</v>
+        <v>-71.49280929425731</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3895,13 +3895,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>40000</v>
+        <v>42229.6</v>
       </c>
       <c r="C151">
-        <v>40063.8507845112</v>
+        <v>40081.98433961606</v>
       </c>
       <c r="D151">
-        <v>-63.85078451119625</v>
+        <v>2147.615660383941</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3909,13 +3909,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>42229.6</v>
+        <v>41488.5</v>
       </c>
       <c r="C152">
-        <v>40075.22781141557</v>
+        <v>41469.88097174803</v>
       </c>
       <c r="D152">
-        <v>2154.372188584428</v>
+        <v>18.61902825196739</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3923,13 +3923,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>41488.5</v>
+        <v>39889.1</v>
       </c>
       <c r="C153">
-        <v>41473.52823418409</v>
+        <v>41724.7620994726</v>
       </c>
       <c r="D153">
-        <v>14.97176581591339</v>
+        <v>-1835.662099472604</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3937,13 +3937,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>39889.1</v>
+        <v>39152.3</v>
       </c>
       <c r="C154">
-        <v>41713.78930477246</v>
+        <v>40494.15620946095</v>
       </c>
       <c r="D154">
-        <v>-1824.689304772459</v>
+        <v>-1341.856209460952</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3951,13 +3951,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>39152.3</v>
+        <v>38163</v>
       </c>
       <c r="C155">
-        <v>40484.72470836869</v>
+        <v>39415.48009528421</v>
       </c>
       <c r="D155">
-        <v>-1332.424708368686</v>
+        <v>-1252.480095284205</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3965,13 +3965,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>38163</v>
+        <v>39749</v>
       </c>
       <c r="C156">
-        <v>39411.7933577716</v>
+        <v>38462.60243134393</v>
       </c>
       <c r="D156">
-        <v>-1248.793357771596</v>
+        <v>1286.397568656073</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3979,13 +3979,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>39749</v>
+        <v>40886.4</v>
       </c>
       <c r="C157">
-        <v>38461.42877264717</v>
+        <v>39320.16580890151</v>
       </c>
       <c r="D157">
-        <v>1287.571227352826</v>
+        <v>1566.234191098491</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3993,13 +3993,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>40886.4</v>
+        <v>42823.9</v>
       </c>
       <c r="C158">
-        <v>39328.45184418394</v>
+        <v>40228.1879444427</v>
       </c>
       <c r="D158">
-        <v>1557.948155816062</v>
+        <v>2595.712055557298</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4007,13 +4007,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>42823.9</v>
+        <v>44610.7</v>
       </c>
       <c r="C159">
-        <v>40235.29211423483</v>
+        <v>42356.42559937132</v>
       </c>
       <c r="D159">
-        <v>2588.607885765174</v>
+        <v>2254.274400628681</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4021,13 +4021,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>44610.7</v>
+        <v>43845.6</v>
       </c>
       <c r="C160">
-        <v>42360.59825892552</v>
+        <v>44263.01526487077</v>
       </c>
       <c r="D160">
-        <v>2250.101741074475</v>
+        <v>-417.415264870775</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4035,13 +4035,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>43845.6</v>
+        <v>46307.1</v>
       </c>
       <c r="C161">
-        <v>44261.5996692337</v>
+        <v>44182.41576202953</v>
       </c>
       <c r="D161">
-        <v>-415.9996692337008</v>
+        <v>2124.684237970469</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4049,13 +4049,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>46307.1</v>
+        <v>45595.1</v>
       </c>
       <c r="C162">
-        <v>44172.51184176256</v>
+        <v>45675.74718743571</v>
       </c>
       <c r="D162">
-        <v>2134.588158237442</v>
+        <v>-80.64718743571575</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4063,13 +4063,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>45595.1</v>
+        <v>45571.7</v>
       </c>
       <c r="C163">
-        <v>45678.98431692887</v>
+        <v>45752.92685129744</v>
       </c>
       <c r="D163">
-        <v>-83.88431692887389</v>
+        <v>-181.2268512974406</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4077,13 +4077,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>45571.7</v>
+        <v>44401.1</v>
       </c>
       <c r="C164">
-        <v>45744.3167296887</v>
+        <v>45925.47936569876</v>
       </c>
       <c r="D164">
-        <v>-172.616729688707</v>
+        <v>-1524.379365698762</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4091,13 +4091,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>44401.1</v>
+        <v>47823.3</v>
       </c>
       <c r="C165">
-        <v>45919.22874703888</v>
+        <v>44762.3737964847</v>
       </c>
       <c r="D165">
-        <v>-1518.128747038878</v>
+        <v>3060.926203515308</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4105,13 +4105,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>47823.3</v>
+        <v>47115.2</v>
       </c>
       <c r="C166">
-        <v>44759.05686744003</v>
+        <v>47115.589208224</v>
       </c>
       <c r="D166">
-        <v>3064.243132559968</v>
+        <v>-0.3892082240054151</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4119,13 +4119,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>47115.2</v>
+        <v>47019.3</v>
       </c>
       <c r="C167">
-        <v>47127.79801558253</v>
+        <v>47197.39984927504</v>
       </c>
       <c r="D167">
-        <v>-12.59801558253093</v>
+        <v>-178.0998492750368</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4133,13 +4133,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>47019.3</v>
+        <v>45926.3</v>
       </c>
       <c r="C168">
-        <v>47193.74766203226</v>
+        <v>46842.19270926295</v>
       </c>
       <c r="D168">
-        <v>-174.4476620322603</v>
+        <v>-915.8927092629456</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4147,13 +4147,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>45926.3</v>
+        <v>44672.2</v>
       </c>
       <c r="C169">
-        <v>46843.55205814177</v>
+        <v>46433.84337015261</v>
       </c>
       <c r="D169">
-        <v>-917.2520581417702</v>
+        <v>-1761.643370152611</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4161,13 +4161,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>44672.2</v>
+        <v>44714.7</v>
       </c>
       <c r="C170">
-        <v>46430.80416723266</v>
+        <v>45227.11124858755</v>
       </c>
       <c r="D170">
-        <v>-1758.604167232661</v>
+        <v>-512.4112485875521</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4175,13 +4175,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>44714.7</v>
+        <v>46765.3</v>
       </c>
       <c r="C171">
-        <v>45227.18658277358</v>
+        <v>44947.78806153152</v>
       </c>
       <c r="D171">
-        <v>-512.4865827735848</v>
+        <v>1817.51193846848</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4189,13 +4189,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>46765.3</v>
+        <v>49345.4</v>
       </c>
       <c r="C172">
-        <v>44952.9026018832</v>
+        <v>46236.04527199789</v>
       </c>
       <c r="D172">
-        <v>1812.397398116802</v>
+        <v>3109.354728002108</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4203,13 +4203,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>49345.4</v>
+        <v>48865.4</v>
       </c>
       <c r="C173">
-        <v>46249.55248220027</v>
+        <v>48816.26463795081</v>
       </c>
       <c r="D173">
-        <v>3095.847517799732</v>
+        <v>49.13536204919365</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4217,13 +4217,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>48865.4</v>
+        <v>49293.6</v>
       </c>
       <c r="C174">
-        <v>48825.30624209683</v>
+        <v>49034.18223970215</v>
       </c>
       <c r="D174">
-        <v>40.09375790317426</v>
+        <v>259.4177602978525</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4231,13 +4231,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>49293.6</v>
+        <v>49517.3</v>
       </c>
       <c r="C175">
-        <v>49031.00539041949</v>
+        <v>49130.34188773425</v>
       </c>
       <c r="D175">
-        <v>262.594609580512</v>
+        <v>386.9581122657546</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4245,13 +4245,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>49517.3</v>
+        <v>47725.4</v>
       </c>
       <c r="C176">
-        <v>49133.21122011875</v>
+        <v>49731.35590094584</v>
       </c>
       <c r="D176">
-        <v>384.0887798812546</v>
+        <v>-2005.955900945839</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4259,13 +4259,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>47725.4</v>
+        <v>48991.3</v>
       </c>
       <c r="C177">
-        <v>49730.94946754602</v>
+        <v>48247.51177760432</v>
       </c>
       <c r="D177">
-        <v>-2005.549467546021</v>
+        <v>743.788222395684</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4273,13 +4273,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>48991.3</v>
+        <v>46848.9</v>
       </c>
       <c r="C178">
-        <v>48245.0046050835</v>
+        <v>48678.78349330189</v>
       </c>
       <c r="D178">
-        <v>746.2953949165021</v>
+        <v>-1829.883493301888</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4287,13 +4287,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>46848.9</v>
+        <v>49074.9</v>
       </c>
       <c r="C179">
-        <v>48689.00355168558</v>
+        <v>47300.96111093878</v>
       </c>
       <c r="D179">
-        <v>-1840.103551685577</v>
+        <v>1773.938889061224</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4301,13 +4301,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>49074.9</v>
+        <v>48895.7</v>
       </c>
       <c r="C180">
-        <v>47302.49757219016</v>
+        <v>48489.92508085625</v>
       </c>
       <c r="D180">
-        <v>1772.402427809837</v>
+        <v>405.774919143747</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4315,13 +4315,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>48895.7</v>
+        <v>48787.7</v>
       </c>
       <c r="C181">
-        <v>48506.73111131162</v>
+        <v>48884.59041112903</v>
       </c>
       <c r="D181">
-        <v>388.9688886883741</v>
+        <v>-96.89041112903215</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4329,13 +4329,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>48787.7</v>
+        <v>46985.7</v>
       </c>
       <c r="C182">
-        <v>48889.86510216806</v>
+        <v>48762.05503398771</v>
       </c>
       <c r="D182">
-        <v>-102.1651021680664</v>
+        <v>-1776.355033987711</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4343,13 +4343,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>46985.7</v>
+        <v>47140</v>
       </c>
       <c r="C183">
-        <v>48768.5132332336</v>
+        <v>47370.99334467348</v>
       </c>
       <c r="D183">
-        <v>-1782.813233233603</v>
+        <v>-230.9933446734794</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4357,13 +4357,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>47140</v>
+        <v>48872.2</v>
       </c>
       <c r="C184">
-        <v>47373.4711511584</v>
+        <v>47285.36581292067</v>
       </c>
       <c r="D184">
-        <v>-233.4711511583955</v>
+        <v>1586.834187079323</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4371,13 +4371,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>48872.2</v>
+        <v>49290.3</v>
       </c>
       <c r="C185">
-        <v>47294.4457292129</v>
+        <v>48375.93644423474</v>
       </c>
       <c r="D185">
-        <v>1577.754270787096</v>
+        <v>914.3635557652597</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4385,13 +4385,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>49290.3</v>
+        <v>50018.6</v>
       </c>
       <c r="C186">
-        <v>48390.94903202152</v>
+        <v>49402.220243627</v>
       </c>
       <c r="D186">
-        <v>899.3509679784838</v>
+        <v>616.3797563729968</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4399,13 +4399,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>50018.6</v>
+        <v>49956.1</v>
       </c>
       <c r="C187">
-        <v>49407.76716940857</v>
+        <v>49875.66655777613</v>
       </c>
       <c r="D187">
-        <v>610.8328305914329</v>
+        <v>80.43344222386804</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4413,13 +4413,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>49956.1</v>
+        <v>51767.9</v>
       </c>
       <c r="C188">
-        <v>49883.10721369735</v>
+        <v>49959.34106459108</v>
       </c>
       <c r="D188">
-        <v>72.99278630265326</v>
+        <v>1808.558935408924</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4427,13 +4427,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>51767.9</v>
+        <v>52688.3</v>
       </c>
       <c r="C189">
-        <v>49964.00863013013</v>
+        <v>51286.80633654955</v>
       </c>
       <c r="D189">
-        <v>1803.891369869874</v>
+        <v>1401.493663450456</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4441,13 +4441,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>52688.3</v>
+        <v>46882.1</v>
       </c>
       <c r="C190">
-        <v>51297.66652963617</v>
+        <v>52370.68607028655</v>
       </c>
       <c r="D190">
-        <v>1390.633470363835</v>
+        <v>-5488.586070286554</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4455,13 +4455,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>46882.1</v>
+        <v>46073.4</v>
       </c>
       <c r="C191">
-        <v>52375.59216762608</v>
+        <v>47031.42445843367</v>
       </c>
       <c r="D191">
-        <v>-5493.492167626086</v>
+        <v>-958.0244584336688</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4469,13 +4469,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>46073.4</v>
+        <v>46389.6</v>
       </c>
       <c r="C192">
-        <v>47031.86757508695</v>
+        <v>45887.41781000243</v>
       </c>
       <c r="D192">
-        <v>-958.4675750869501</v>
+        <v>502.1821899975694</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4483,13 +4483,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>46389.6</v>
+        <v>44842.2</v>
       </c>
       <c r="C193">
-        <v>45901.70642433636</v>
+        <v>46316.51525822302</v>
       </c>
       <c r="D193">
-        <v>487.8935756636347</v>
+        <v>-1474.315258223025</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4497,13 +4497,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>44842.2</v>
+        <v>45137.4</v>
       </c>
       <c r="C194">
-        <v>46330.81399783557</v>
+        <v>45048.27512696636</v>
       </c>
       <c r="D194">
-        <v>-1488.613997835571</v>
+        <v>89.12487303364469</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4511,13 +4511,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>45137.4</v>
+        <v>46061.3</v>
       </c>
       <c r="C195">
-        <v>45058.61667498554</v>
+        <v>45104.07995490209</v>
       </c>
       <c r="D195">
-        <v>78.7833250144613</v>
+        <v>957.2200450979144</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4525,13 +4525,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>46061.3</v>
+        <v>44965.8</v>
       </c>
       <c r="C196">
-        <v>45119.26530581935</v>
+        <v>45718.94648499991</v>
       </c>
       <c r="D196">
-        <v>942.0346941806565</v>
+        <v>-753.1464849999029</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4539,13 +4539,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>44965.8</v>
+        <v>47145.9</v>
       </c>
       <c r="C197">
-        <v>45735.48138772092</v>
+        <v>44874.25402842107</v>
       </c>
       <c r="D197">
-        <v>-769.6813877209133</v>
+        <v>2271.645971578931</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4553,13 +4553,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>47145.9</v>
+        <v>48152.3</v>
       </c>
       <c r="C198">
-        <v>44885.47803955069</v>
+        <v>46503.06706723064</v>
       </c>
       <c r="D198">
-        <v>2260.421960449312</v>
+        <v>1649.232932769359</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4567,13 +4567,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>48152.3</v>
+        <v>47786.9</v>
       </c>
       <c r="C199">
-        <v>46523.11048195689</v>
+        <v>47819.67487201357</v>
       </c>
       <c r="D199">
-        <v>1629.189518043109</v>
+        <v>-32.77487201356416</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4581,13 +4581,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>47786.9</v>
+        <v>47269.7</v>
       </c>
       <c r="C200">
-        <v>47829.86709847968</v>
+        <v>47687.12435441063</v>
       </c>
       <c r="D200">
-        <v>-42.96709847968305</v>
+        <v>-417.4243544106284</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4595,13 +4595,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>47269.7</v>
+        <v>48309.9</v>
       </c>
       <c r="C201">
-        <v>47693.08119887429</v>
+        <v>47274.89483102853</v>
       </c>
       <c r="D201">
-        <v>-423.3811988742891</v>
+        <v>1035.005168971467</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4609,13 +4609,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>48309.9</v>
+        <v>47237.8</v>
       </c>
       <c r="C202">
-        <v>47281.42085214862</v>
+        <v>48056.80937411814</v>
       </c>
       <c r="D202">
-        <v>1028.47914785138</v>
+        <v>-819.0093741181336</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4623,13 +4623,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>47237.8</v>
+        <v>42992.9</v>
       </c>
       <c r="C203">
-        <v>48067.54992985598</v>
+        <v>47309.53277310904</v>
       </c>
       <c r="D203">
-        <v>-829.7499298559778</v>
+        <v>-4316.632773109035</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4637,13 +4637,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>42992.9</v>
+        <v>40710.6</v>
       </c>
       <c r="C204">
-        <v>47314.73057149791</v>
+        <v>43722.17727432115</v>
       </c>
       <c r="D204">
-        <v>-4321.830571497907</v>
+        <v>-3011.577274321149</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4651,13 +4651,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>40710.6</v>
+        <v>43562.8</v>
       </c>
       <c r="C205">
-        <v>43724.60300904705</v>
+        <v>40943.98299678441</v>
       </c>
       <c r="D205">
-        <v>-3014.003009047054</v>
+        <v>2618.81700321559</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4665,13 +4665,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>43562.8</v>
+        <v>44889.8</v>
       </c>
       <c r="C206">
-        <v>40958.51242677414</v>
+        <v>42813.56149624952</v>
       </c>
       <c r="D206">
-        <v>2604.287573225862</v>
+        <v>2076.238503750486</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4679,13 +4679,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>44889.8</v>
+        <v>42833.2</v>
       </c>
       <c r="C207">
-        <v>42843.03443995477</v>
+        <v>44369.28819639416</v>
       </c>
       <c r="D207">
-        <v>2046.765560045234</v>
+        <v>-1536.088196394165</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4693,13 +4693,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>42833.2</v>
+        <v>42710.1</v>
       </c>
       <c r="C208">
-        <v>44386.97855941766</v>
+        <v>42703.32906006055</v>
       </c>
       <c r="D208">
-        <v>-1553.77855941766</v>
+        <v>6.770939939444361</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4707,13 +4707,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>42710.1</v>
+        <v>43204.6</v>
       </c>
       <c r="C209">
-        <v>42713.75671928656</v>
+        <v>42362.2511353156</v>
       </c>
       <c r="D209">
-        <v>-3.656719286562293</v>
+        <v>842.348864684398</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4721,13 +4721,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>43204.6</v>
+        <v>42176.3</v>
       </c>
       <c r="C210">
-        <v>42377.17754209266</v>
+        <v>42630.67105250276</v>
       </c>
       <c r="D210">
-        <v>827.4224579073343</v>
+        <v>-454.3710525027564</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4735,13 +4735,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>42176.3</v>
+        <v>41038.4</v>
       </c>
       <c r="C211">
-        <v>42647.39207469158</v>
+        <v>42498.90395906105</v>
       </c>
       <c r="D211">
-        <v>-471.0920746915726</v>
+        <v>-1460.503959061047</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4749,13 +4749,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>41038.4</v>
+        <v>41524.8</v>
       </c>
       <c r="C212">
-        <v>42505.80559456305</v>
+        <v>41221.84376093696</v>
       </c>
       <c r="D212">
-        <v>-1467.405594563053</v>
+        <v>302.9562390630454</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4763,13 +4763,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>41524.8</v>
+        <v>43798.7</v>
       </c>
       <c r="C213">
-        <v>41230.71841599636</v>
+        <v>41417.4325279755</v>
       </c>
       <c r="D213">
-        <v>294.0815840036448</v>
+        <v>2381.267472024498</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4777,13 +4777,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>43798.7</v>
+        <v>48163.7</v>
       </c>
       <c r="C214">
-        <v>41431.76694098284</v>
+        <v>43188.93017346752</v>
       </c>
       <c r="D214">
-        <v>2366.933059017152</v>
+        <v>4974.769826532473</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4791,13 +4791,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>48163.7</v>
+        <v>47662</v>
       </c>
       <c r="C215">
-        <v>43206.78685723828</v>
+        <v>47032.25310175429</v>
       </c>
       <c r="D215">
-        <v>4956.913142761718</v>
+        <v>629.7468982457067</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4805,13 +4805,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>47662</v>
+        <v>48230.2</v>
       </c>
       <c r="C216">
-        <v>47052.25640195082</v>
+        <v>47726.50196930673</v>
       </c>
       <c r="D216">
-        <v>609.7435980491791</v>
+        <v>503.6980306932674</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4819,13 +4819,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>48230.2</v>
+        <v>49243.3</v>
       </c>
       <c r="C217">
-        <v>47722.48781736126</v>
+        <v>48167.35218600853</v>
       </c>
       <c r="D217">
-        <v>507.7121826387374</v>
+        <v>1075.947813991472</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4833,13 +4833,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>49243.3</v>
+        <v>51487</v>
       </c>
       <c r="C218">
-        <v>48169.03590758958</v>
+        <v>48735.10167012524</v>
       </c>
       <c r="D218">
-        <v>1074.264092410427</v>
+        <v>2751.898329874763</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4847,13 +4847,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>51487</v>
+        <v>55350.2</v>
       </c>
       <c r="C219">
-        <v>48739.16639589702</v>
+        <v>51065.59671484676</v>
       </c>
       <c r="D219">
-        <v>2747.833604102976</v>
+        <v>4284.603285153236</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4861,13 +4861,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>55350.2</v>
+        <v>53817.3</v>
       </c>
       <c r="C220">
-        <v>51068.10285750961</v>
+        <v>54392.58713108688</v>
       </c>
       <c r="D220">
-        <v>4282.097142490391</v>
+        <v>-575.2871310868795</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4875,13 +4875,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>53817.3</v>
+        <v>53960.5</v>
       </c>
       <c r="C221">
-        <v>54397.06227817509</v>
+        <v>54164.78442861367</v>
       </c>
       <c r="D221">
-        <v>-579.7622781750906</v>
+        <v>-204.2844286136678</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4889,13 +4889,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>53960.5</v>
+        <v>54960.2</v>
       </c>
       <c r="C222">
-        <v>54147.83892102174</v>
+        <v>54493.30315991223</v>
       </c>
       <c r="D222">
-        <v>-187.3389210217356</v>
+        <v>466.8968400877638</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4903,13 +4903,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>54960.2</v>
+        <v>54677.5</v>
       </c>
       <c r="C223">
-        <v>54482.4484065566</v>
+        <v>54895.78551842732</v>
       </c>
       <c r="D223">
-        <v>477.7515934433977</v>
+        <v>-218.2855184273212</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4917,13 +4917,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>54677.5</v>
+        <v>57499.5</v>
       </c>
       <c r="C224">
-        <v>54890.91561865586</v>
+        <v>55076.42644086134</v>
       </c>
       <c r="D224">
-        <v>-213.4156186558612</v>
+        <v>2423.073559138662</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4931,13 +4931,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>57499.5</v>
+        <v>56010.1</v>
       </c>
       <c r="C225">
-        <v>55067.0234505511</v>
+        <v>57005.22559327481</v>
       </c>
       <c r="D225">
-        <v>2432.476549448904</v>
+        <v>-995.1255932748099</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4945,13 +4945,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>56010.1</v>
+        <v>57381.2</v>
       </c>
       <c r="C226">
-        <v>57007.80508686137</v>
+        <v>56022.80713207784</v>
       </c>
       <c r="D226">
-        <v>-997.7050868613733</v>
+        <v>1358.392867922157</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4959,13 +4959,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>57381.2</v>
+        <v>57377.6</v>
       </c>
       <c r="C227">
-        <v>56014.32395539134</v>
+        <v>56843.22179650867</v>
       </c>
       <c r="D227">
-        <v>1366.87604460866</v>
+        <v>534.3782034913238</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4973,13 +4973,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>57377.6</v>
+        <v>61656.2</v>
       </c>
       <c r="C228">
-        <v>56845.69918184062</v>
+        <v>57644.94764823111</v>
       </c>
       <c r="D228">
-        <v>531.9008181593817</v>
+        <v>4011.252351768882</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4987,13 +4987,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>61656.2</v>
+        <v>60873.4</v>
       </c>
       <c r="C229">
-        <v>57637.79382016525</v>
+        <v>60999.13383529527</v>
       </c>
       <c r="D229">
-        <v>4018.406179834747</v>
+        <v>-125.733835295272</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5001,13 +5001,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>60873.4</v>
+        <v>61526.5</v>
       </c>
       <c r="C230">
-        <v>61004.90999983424</v>
+        <v>61198.47370437282</v>
       </c>
       <c r="D230">
-        <v>-131.5099998342339</v>
+        <v>328.0262956271763</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5015,13 +5015,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>61526.5</v>
+        <v>62037.7</v>
       </c>
       <c r="C231">
-        <v>61184.88309115632</v>
+        <v>61073.48528017939</v>
       </c>
       <c r="D231">
-        <v>341.61690884368</v>
+        <v>964.2147198206076</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5029,13 +5029,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>62037.7</v>
+        <v>64284.9</v>
       </c>
       <c r="C232">
-        <v>61070.85771134098</v>
+        <v>61811.88332879619</v>
       </c>
       <c r="D232">
-        <v>966.8422886590197</v>
+        <v>2473.016671203812</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5043,13 +5043,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>64284.9</v>
+        <v>66035.8</v>
       </c>
       <c r="C233">
-        <v>61807.8156036572</v>
+        <v>63792.90218419253</v>
       </c>
       <c r="D233">
-        <v>2477.084396342805</v>
+        <v>2242.897815807475</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5057,13 +5057,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>66035.8</v>
+        <v>62198</v>
       </c>
       <c r="C234">
-        <v>63794.01485894164</v>
+        <v>65858.02708458112</v>
       </c>
       <c r="D234">
-        <v>2241.785141058361</v>
+        <v>-3660.027084581117</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5071,13 +5071,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>62198</v>
+        <v>60687.5</v>
       </c>
       <c r="C235">
-        <v>65854.0111397203</v>
+        <v>61299.50140913433</v>
       </c>
       <c r="D235">
-        <v>-3656.0111397203</v>
+        <v>-612.0014091343328</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5085,13 +5085,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>60687.5</v>
+        <v>61296.9</v>
       </c>
       <c r="C236">
-        <v>61301.80321573994</v>
+        <v>61259.62140828717</v>
       </c>
       <c r="D236">
-        <v>-614.3032157399357</v>
+        <v>37.27859171282762</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5099,13 +5099,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>61296.9</v>
+        <v>60882.5</v>
       </c>
       <c r="C237">
-        <v>61255.75425856558</v>
+        <v>61000.9034976087</v>
       </c>
       <c r="D237">
-        <v>41.1457414344186</v>
+        <v>-118.4034976086987</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5113,13 +5113,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>60882.5</v>
+        <v>63081.8</v>
       </c>
       <c r="C238">
-        <v>61008.43492768121</v>
+        <v>60679.35378572883</v>
       </c>
       <c r="D238">
-        <v>-125.9349276812063</v>
+        <v>2402.446214271171</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5127,13 +5127,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>63081.8</v>
+        <v>60310.2</v>
       </c>
       <c r="C239">
-        <v>60684.98975444589</v>
+        <v>62671.59021169876</v>
       </c>
       <c r="D239">
-        <v>2396.810245554116</v>
+        <v>-2361.390211698759</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5141,13 +5141,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>60310.2</v>
+        <v>58500.1</v>
       </c>
       <c r="C240">
-        <v>62682.88315391556</v>
+        <v>60829.09235220958</v>
       </c>
       <c r="D240">
-        <v>-2372.683153915561</v>
+        <v>-2328.992352209585</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5155,13 +5155,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>58500.1</v>
+        <v>60613.5</v>
       </c>
       <c r="C241">
-        <v>60826.30861770505</v>
+        <v>59032.15318259646</v>
       </c>
       <c r="D241">
-        <v>-2326.208617705051</v>
+        <v>1581.346817403537</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5169,13 +5169,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>60613.5</v>
+        <v>62246.5</v>
       </c>
       <c r="C242">
-        <v>59035.73070050221</v>
+        <v>60414.6455733043</v>
       </c>
       <c r="D242">
-        <v>1577.769299497792</v>
+        <v>1831.854426695703</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5183,13 +5183,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>62246.5</v>
+        <v>61866.3</v>
       </c>
       <c r="C243">
-        <v>60433.86356474207</v>
+        <v>61931.31248101938</v>
       </c>
       <c r="D243">
-        <v>1812.636435257933</v>
+        <v>-65.01248101938108</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5197,13 +5197,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>61866.3</v>
+        <v>61380.1</v>
       </c>
       <c r="C244">
-        <v>61944.61829748346</v>
+        <v>61693.05349214029</v>
       </c>
       <c r="D244">
-        <v>-78.31829748345626</v>
+        <v>-312.9534921402883</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5211,13 +5211,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>61380.1</v>
+        <v>60954.5</v>
       </c>
       <c r="C245">
-        <v>61701.63757113575</v>
+        <v>61273.66641893037</v>
       </c>
       <c r="D245">
-        <v>-321.5375711357483</v>
+        <v>-319.1664189303701</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5225,13 +5225,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>60954.5</v>
+        <v>63279.7</v>
       </c>
       <c r="C246">
-        <v>61283.85650135598</v>
+        <v>60902.01437977355</v>
       </c>
       <c r="D246">
-        <v>-329.3565013559783</v>
+        <v>2377.685620226446</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5239,13 +5239,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>63279.7</v>
+        <v>62942.9</v>
       </c>
       <c r="C247">
-        <v>60913.49263756435</v>
+        <v>62907.75190348664</v>
       </c>
       <c r="D247">
-        <v>2366.207362435649</v>
+        <v>35.14809651335963</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5253,13 +5253,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>62942.9</v>
+        <v>61449</v>
       </c>
       <c r="C248">
-        <v>62925.15862406776</v>
+        <v>62560.98645461941</v>
       </c>
       <c r="D248">
-        <v>17.74137593223713</v>
+        <v>-1111.986454619415</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5267,13 +5267,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>61449</v>
+        <v>61006.2</v>
       </c>
       <c r="C249">
-        <v>62570.81358070518</v>
+        <v>61586.39445147043</v>
       </c>
       <c r="D249">
-        <v>-1121.81358070518</v>
+        <v>-580.1944514704373</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5281,13 +5281,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>61006.2</v>
+        <v>61536.3</v>
       </c>
       <c r="C250">
-        <v>61592.77760420144</v>
+        <v>61269.3803598161</v>
       </c>
       <c r="D250">
-        <v>-586.5776042014404</v>
+        <v>266.9196401838999</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5295,13 +5295,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>61536.3</v>
+        <v>63317.8</v>
       </c>
       <c r="C251">
-        <v>61278.9091125365</v>
+        <v>61156.37204488597</v>
       </c>
       <c r="D251">
-        <v>257.3908874635017</v>
+        <v>2161.427955114035</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5309,13 +5309,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>63317.8</v>
+        <v>67559.8</v>
       </c>
       <c r="C252">
-        <v>61172.00245716421</v>
+        <v>62833.70295965808</v>
       </c>
       <c r="D252">
-        <v>2145.797542835797</v>
+        <v>4726.09704034192</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5323,13 +5323,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>67559.8</v>
+        <v>66950</v>
       </c>
       <c r="C253">
-        <v>62849.75917176027</v>
+        <v>66670.78873575342</v>
       </c>
       <c r="D253">
-        <v>4710.040828239733</v>
+        <v>279.21126424658</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5337,13 +5337,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>66950</v>
+        <v>64969</v>
       </c>
       <c r="C254">
-        <v>66688.28979890604</v>
+        <v>67213.18376979991</v>
       </c>
       <c r="D254">
-        <v>261.7102010939561</v>
+        <v>-2244.183769799914</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5351,13 +5351,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>64969</v>
+        <v>64825.4</v>
       </c>
       <c r="C255">
-        <v>67208.62195874969</v>
+        <v>65386.1507667996</v>
       </c>
       <c r="D255">
-        <v>-2239.621958749689</v>
+        <v>-560.7507667996033</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5365,13 +5365,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>64825.4</v>
+        <v>64153</v>
       </c>
       <c r="C256">
-        <v>65384.92343497449</v>
+        <v>64849.32120304563</v>
       </c>
       <c r="D256">
-        <v>-559.523434974486</v>
+        <v>-696.3212030456343</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5379,13 +5379,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>64153</v>
+        <v>64393.1</v>
       </c>
       <c r="C257">
-        <v>64855.02362127181</v>
+        <v>64013.84384894269</v>
       </c>
       <c r="D257">
-        <v>-702.0236212718082</v>
+        <v>379.2561510573069</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5393,13 +5393,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>64393.1</v>
+        <v>65495</v>
       </c>
       <c r="C258">
-        <v>64021.76272407352</v>
+        <v>64278.21812115653</v>
       </c>
       <c r="D258">
-        <v>371.3372759264748</v>
+        <v>1216.781878843467</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5407,13 +5407,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>65495</v>
+        <v>63615.8</v>
       </c>
       <c r="C259">
-        <v>64288.36005239076</v>
+        <v>65042.02375972838</v>
       </c>
       <c r="D259">
-        <v>1206.639947609241</v>
+        <v>-1426.223759728382</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5421,13 +5421,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>63615.8</v>
+        <v>60137.2</v>
       </c>
       <c r="C260">
-        <v>65054.89759185926</v>
+        <v>64145.89035768001</v>
       </c>
       <c r="D260">
-        <v>-1439.097591859252</v>
+        <v>-4008.69035768001</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5435,13 +5435,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>60137.2</v>
+        <v>60367.8</v>
       </c>
       <c r="C261">
-        <v>64148.31450237797</v>
+        <v>60479.46117627955</v>
       </c>
       <c r="D261">
-        <v>-4011.114502377975</v>
+        <v>-111.661176279551</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5449,13 +5449,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>60367.8</v>
+        <v>56921.7</v>
       </c>
       <c r="C262">
-        <v>60486.80877646615</v>
+        <v>59894.47782109558</v>
       </c>
       <c r="D262">
-        <v>-119.0087764661512</v>
+        <v>-2972.777821095588</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5463,13 +5463,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>56921.7</v>
+        <v>58099.6</v>
       </c>
       <c r="C263">
-        <v>59916.30916722844</v>
+        <v>57582.17000373287</v>
       </c>
       <c r="D263">
-        <v>-2994.609167228446</v>
+        <v>517.4299962671284</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5477,13 +5477,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>58099.6</v>
+        <v>59744.2</v>
       </c>
       <c r="C264">
-        <v>57592.48244461659</v>
+        <v>57418.10052672101</v>
       </c>
       <c r="D264">
-        <v>507.1175553834037</v>
+        <v>2326.099473278984</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5491,13 +5491,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>59744.2</v>
+        <v>58646.2</v>
       </c>
       <c r="C265">
-        <v>57447.51048983503</v>
+        <v>59056.49544945123</v>
       </c>
       <c r="D265">
-        <v>2296.689510164964</v>
+        <v>-410.2954494512378</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5505,13 +5505,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>58646.2</v>
+        <v>56295.5</v>
       </c>
       <c r="C266">
-        <v>59082.41659711421</v>
+        <v>58751.965386859</v>
       </c>
       <c r="D266">
-        <v>-436.2165971142167</v>
+        <v>-2456.465386858996</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5519,13 +5519,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>56295.5</v>
+        <v>57571.4</v>
       </c>
       <c r="C267">
-        <v>58765.5445195846</v>
+        <v>56637.01913574481</v>
       </c>
       <c r="D267">
-        <v>-2470.044519584604</v>
+        <v>934.3808642551958</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5533,13 +5533,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>57571.4</v>
+        <v>57203.3</v>
       </c>
       <c r="C268">
-        <v>56650.52521796627</v>
+        <v>56930.32892077303</v>
       </c>
       <c r="D268">
-        <v>920.8747820337303</v>
+        <v>272.9710792269761</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5547,13 +5547,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>57203.3</v>
+        <v>58932.6</v>
       </c>
       <c r="C269">
-        <v>56956.27796368293</v>
+        <v>56818.25695903387</v>
       </c>
       <c r="D269">
-        <v>247.0220363170738</v>
+        <v>2114.343040966131</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5561,13 +5561,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>58932.6</v>
+        <v>53789</v>
       </c>
       <c r="C270">
-        <v>56837.02605264067</v>
+        <v>58437.23315831585</v>
       </c>
       <c r="D270">
-        <v>2095.573947359328</v>
+        <v>-4648.233158315852</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5575,13 +5575,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>53789</v>
+        <v>54784.9</v>
       </c>
       <c r="C271">
-        <v>58459.43586512699</v>
+        <v>54738.97687042531</v>
       </c>
       <c r="D271">
-        <v>-4670.435865126994</v>
+        <v>45.92312957469403</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5589,13 +5589,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>54784.9</v>
+        <v>57300</v>
       </c>
       <c r="C272">
-        <v>54743.29572141576</v>
+        <v>54404.22161324674</v>
       </c>
       <c r="D272">
-        <v>41.60427858424373</v>
+        <v>2895.778386753256</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5603,13 +5603,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>57300</v>
+        <v>57830.2</v>
       </c>
       <c r="C273">
-        <v>54431.36039800337</v>
+        <v>56183.05184217411</v>
       </c>
       <c r="D273">
-        <v>2868.639601996627</v>
+        <v>1647.148157825883</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5617,13 +5617,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>57830.2</v>
+        <v>56980.7</v>
       </c>
       <c r="C274">
-        <v>56214.33225247105</v>
+        <v>57680.37269784373</v>
       </c>
       <c r="D274">
-        <v>1615.867747528951</v>
+        <v>-699.6726978437364</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5631,13 +5631,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>56980.7</v>
+        <v>57237.9</v>
       </c>
       <c r="C275">
-        <v>57693.98425882866</v>
+        <v>57104.57691587307</v>
       </c>
       <c r="D275">
-        <v>-713.2842588286658</v>
+        <v>133.3230841269324</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5645,13 +5645,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>57237.9</v>
+        <v>56526.4</v>
       </c>
       <c r="C276">
-        <v>57114.15001726736</v>
+        <v>57366.93024299465</v>
       </c>
       <c r="D276">
-        <v>123.7499827326392</v>
+        <v>-840.5302429946532</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5659,13 +5659,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>56526.4</v>
+        <v>53678.6</v>
       </c>
       <c r="C277">
-        <v>57378.63142765637</v>
+        <v>56419.3868435387</v>
       </c>
       <c r="D277">
-        <v>-852.2314276563702</v>
+        <v>-2740.786843538699</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5673,13 +5673,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>53678.6</v>
+        <v>49255.1</v>
       </c>
       <c r="C278">
-        <v>56430.44920300559</v>
+        <v>53941.69903866033</v>
       </c>
       <c r="D278">
-        <v>-2751.849203005593</v>
+        <v>-4686.59903866033</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5687,13 +5687,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>49255.1</v>
+        <v>49443.3</v>
       </c>
       <c r="C279">
-        <v>53953.42284831085</v>
+        <v>47845.42854042686</v>
       </c>
       <c r="D279">
-        <v>-4698.322848310854</v>
+        <v>1597.871459573144</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5701,13 +5701,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>49443.3</v>
+        <v>50564.3</v>
       </c>
       <c r="C280">
-        <v>47875.29298324307</v>
+        <v>48850.17399983536</v>
       </c>
       <c r="D280">
-        <v>1568.007016756928</v>
+        <v>1714.126000164644</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5715,13 +5715,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>50564.3</v>
+        <v>50650.1</v>
       </c>
       <c r="C281">
-        <v>48877.63705926986</v>
+        <v>49581.88580848189</v>
       </c>
       <c r="D281">
-        <v>1686.662940730144</v>
+        <v>1068.214191518106</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5729,13 +5729,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>50650.1</v>
+        <v>50515.1</v>
       </c>
       <c r="C282">
-        <v>49610.77688328509</v>
+        <v>50569.29308637252</v>
       </c>
       <c r="D282">
-        <v>1039.323116714906</v>
+        <v>-54.19308637252107</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5743,13 +5743,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>50515.1</v>
+        <v>47581.6</v>
       </c>
       <c r="C283">
-        <v>50585.33725681401</v>
+        <v>49928.94775613328</v>
       </c>
       <c r="D283">
-        <v>-70.23725681401265</v>
+        <v>-2347.347756133277</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5757,13 +5757,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>47581.6</v>
+        <v>47218.3</v>
       </c>
       <c r="C284">
-        <v>49947.24658989619</v>
+        <v>47923.00577353101</v>
       </c>
       <c r="D284">
-        <v>-2365.646589896191</v>
+        <v>-704.7057735310082</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5771,13 +5771,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>47218.3</v>
+        <v>49367.2</v>
       </c>
       <c r="C285">
-        <v>47932.36088782032</v>
+        <v>47507.38517009508</v>
       </c>
       <c r="D285">
-        <v>-714.0608878203129</v>
+        <v>1859.814829904921</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5785,13 +5785,13 @@
         <v>288</v>
       </c>
       <c r="B286">
-        <v>49367.2</v>
+        <v>50113.2</v>
       </c>
       <c r="C286">
-        <v>47523.55042032697</v>
+        <v>48545.55336513702</v>
       </c>
       <c r="D286">
-        <v>1843.649579673023</v>
+        <v>1567.646634862976</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5799,13 +5799,13 @@
         <v>289</v>
       </c>
       <c r="B287">
-        <v>50113.2</v>
+        <v>46732.2</v>
       </c>
       <c r="C287">
-        <v>48572.90182991399</v>
+        <v>49693.00358064758</v>
       </c>
       <c r="D287">
-        <v>1540.298170086004</v>
+        <v>-2960.803580647582</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5813,13 +5813,13 @@
         <v>290</v>
       </c>
       <c r="B288">
-        <v>46732.2</v>
+        <v>48399.2</v>
       </c>
       <c r="C288">
-        <v>49709.19833521688</v>
+        <v>47023.99814035092</v>
       </c>
       <c r="D288">
-        <v>-2976.998335216886</v>
+        <v>1375.201859649082</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5827,13 +5827,13 @@
         <v>291</v>
       </c>
       <c r="B289">
-        <v>48399.2</v>
+        <v>48881.3</v>
       </c>
       <c r="C289">
-        <v>47033.11095849999</v>
+        <v>47742.78380644161</v>
       </c>
       <c r="D289">
-        <v>1366.08904150001</v>
+        <v>1138.516193558389</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5841,13 +5841,13 @@
         <v>292</v>
       </c>
       <c r="B290">
-        <v>48881.3</v>
+        <v>47631</v>
       </c>
       <c r="C290">
-        <v>47766.24644526328</v>
+        <v>48273.60610955753</v>
       </c>
       <c r="D290">
-        <v>1115.053554736725</v>
+        <v>-642.6061095575278</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5855,13 +5855,13 @@
         <v>293</v>
       </c>
       <c r="B291">
-        <v>47631</v>
+        <v>46168.3</v>
       </c>
       <c r="C291">
-        <v>48291.69796479506</v>
+        <v>47827.27841552088</v>
       </c>
       <c r="D291">
-        <v>-660.6979647950575</v>
+        <v>-1658.978415520876</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5869,13 +5869,13 @@
         <v>294</v>
       </c>
       <c r="B292">
-        <v>46168.3</v>
+        <v>46864.3</v>
       </c>
       <c r="C292">
-        <v>47836.25484166994</v>
+        <v>46212.03132656074</v>
       </c>
       <c r="D292">
-        <v>-1667.954841669933</v>
+        <v>652.2686734392628</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5883,13 +5883,13 @@
         <v>295</v>
       </c>
       <c r="B293">
-        <v>46864.3</v>
+        <v>46688.4</v>
       </c>
       <c r="C293">
-        <v>46223.72944894544</v>
+        <v>46432.15802383714</v>
       </c>
       <c r="D293">
-        <v>640.5705510545595</v>
+        <v>256.2419761628626</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5897,13 +5897,13 @@
         <v>296</v>
       </c>
       <c r="B294">
-        <v>46688.4</v>
+        <v>46898.1</v>
       </c>
       <c r="C294">
-        <v>46451.56910424447</v>
+        <v>46793.19009666631</v>
       </c>
       <c r="D294">
-        <v>236.8308957555273</v>
+        <v>104.9099033336897</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5911,13 +5911,13 @@
         <v>297</v>
       </c>
       <c r="B295">
-        <v>46898.1</v>
+        <v>48925.9</v>
       </c>
       <c r="C295">
-        <v>46805.69496895097</v>
+        <v>46567.41623570203</v>
       </c>
       <c r="D295">
-        <v>92.40503104902746</v>
+        <v>2358.483764297976</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5925,13 +5925,13 @@
         <v>298</v>
       </c>
       <c r="B296">
-        <v>48925.9</v>
+        <v>48624.9</v>
       </c>
       <c r="C296">
-        <v>46582.55718098672</v>
+        <v>48339.52564968038</v>
       </c>
       <c r="D296">
-        <v>2343.342819013284</v>
+        <v>285.3743503196238</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5939,13 +5939,13 @@
         <v>299</v>
       </c>
       <c r="B297">
-        <v>48624.9</v>
+        <v>50818.8</v>
       </c>
       <c r="C297">
-        <v>48356.09388311138</v>
+        <v>48685.27955401249</v>
       </c>
       <c r="D297">
-        <v>268.8061168886197</v>
+        <v>2133.520445987509</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5953,13 +5953,13 @@
         <v>300</v>
       </c>
       <c r="B298">
-        <v>50818.8</v>
+        <v>50834.3</v>
       </c>
       <c r="C298">
-        <v>48690.35722777289</v>
+        <v>50201.03324540943</v>
       </c>
       <c r="D298">
-        <v>2128.442772227114</v>
+        <v>633.2667545905715</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5967,13 +5967,13 @@
         <v>301</v>
       </c>
       <c r="B299">
-        <v>50834.3</v>
+        <v>50436</v>
       </c>
       <c r="C299">
-        <v>50214.19227578349</v>
+        <v>50911.13347264507</v>
       </c>
       <c r="D299">
-        <v>620.107724216512</v>
+        <v>-475.1334726450732</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5981,13 +5981,13 @@
         <v>302</v>
       </c>
       <c r="B300">
-        <v>50436</v>
+        <v>50797.3</v>
       </c>
       <c r="C300">
-        <v>50911.79949746375</v>
+        <v>50456.48725573707</v>
       </c>
       <c r="D300">
-        <v>-475.7994974637477</v>
+        <v>340.8127442629338</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5995,13 +5995,13 @@
         <v>303</v>
       </c>
       <c r="B301">
-        <v>50797.3</v>
+        <v>50687.4</v>
       </c>
       <c r="C301">
-        <v>50458.36673203062</v>
+        <v>50481.41102186375</v>
       </c>
       <c r="D301">
-        <v>338.9332679693835</v>
+        <v>205.9889781362508</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6009,13 +6009,13 @@
         <v>304</v>
       </c>
       <c r="B302">
-        <v>50687.4</v>
+        <v>47548.1</v>
       </c>
       <c r="C302">
-        <v>50488.2813411259</v>
+        <v>50896.94807507761</v>
       </c>
       <c r="D302">
-        <v>199.1186588740966</v>
+        <v>-3348.848075077614</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6023,13 +6023,13 @@
         <v>305</v>
       </c>
       <c r="B303">
-        <v>47548.1</v>
+        <v>46473.2</v>
       </c>
       <c r="C303">
-        <v>50898.82059449272</v>
+        <v>48090.10840491866</v>
       </c>
       <c r="D303">
-        <v>-3350.720594492726</v>
+        <v>-1616.908404918664</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6037,13 +6037,13 @@
         <v>306</v>
       </c>
       <c r="B304">
-        <v>46473.2</v>
+        <v>47143.8</v>
       </c>
       <c r="C304">
-        <v>48089.15830079577</v>
+        <v>46628.75953673178</v>
       </c>
       <c r="D304">
-        <v>-1615.958300795777</v>
+        <v>515.0404632682184</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6051,13 +6051,13 @@
         <v>307</v>
       </c>
       <c r="B305">
-        <v>47143.8</v>
+        <v>46150</v>
       </c>
       <c r="C305">
-        <v>46638.32568037959</v>
+        <v>46891.13031455601</v>
       </c>
       <c r="D305">
-        <v>505.4743196204145</v>
+        <v>-741.1303145560087</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6065,13 +6065,13 @@
         <v>308</v>
       </c>
       <c r="B306">
-        <v>46150</v>
+        <v>47738.3</v>
       </c>
       <c r="C306">
-        <v>46906.99777437421</v>
+        <v>46403.62967684647</v>
       </c>
       <c r="D306">
-        <v>-756.9977743742129</v>
+        <v>1334.670323153536</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6079,13 +6079,13 @@
         <v>309</v>
       </c>
       <c r="B307">
-        <v>47738.3</v>
+        <v>47304.6</v>
       </c>
       <c r="C307">
-        <v>46413.11493773864</v>
+        <v>47271.1398810136</v>
       </c>
       <c r="D307">
-        <v>1325.185062261364</v>
+        <v>33.46011898639699</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6093,13 +6093,13 @@
         <v>310</v>
       </c>
       <c r="B308">
-        <v>47304.6</v>
+        <v>46452.6</v>
       </c>
       <c r="C308">
-        <v>47288.16159888355</v>
+        <v>47169.07223184587</v>
       </c>
       <c r="D308">
-        <v>16.43840111645113</v>
+        <v>-716.4722318458735</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6107,13 +6107,13 @@
         <v>311</v>
       </c>
       <c r="B309">
-        <v>46452.6</v>
+        <v>45858.5</v>
       </c>
       <c r="C309">
-        <v>47178.29581094857</v>
+        <v>46377.36057356599</v>
       </c>
       <c r="D309">
-        <v>-725.6958109485713</v>
+        <v>-518.8605735659949</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6121,13 +6121,13 @@
         <v>312</v>
       </c>
       <c r="B310">
-        <v>45858.5</v>
+        <v>43410</v>
       </c>
       <c r="C310">
-        <v>46386.54196984243</v>
+        <v>46015.59595068247</v>
       </c>
       <c r="D310">
-        <v>-528.0419698424303</v>
+        <v>-2605.595950682473</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6135,13 +6135,13 @@
         <v>313</v>
       </c>
       <c r="B311">
-        <v>43410</v>
+        <v>43124.4</v>
       </c>
       <c r="C311">
-        <v>46025.03004050538</v>
+        <v>43841.30916050531</v>
       </c>
       <c r="D311">
-        <v>-2615.030040505379</v>
+        <v>-716.9091605053036</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6149,13 +6149,13 @@
         <v>314</v>
       </c>
       <c r="B312">
-        <v>43124.4</v>
+        <v>41523.6</v>
       </c>
       <c r="C312">
-        <v>43849.64981791864</v>
+        <v>42936.15117836141</v>
       </c>
       <c r="D312">
-        <v>-725.2498179186368</v>
+        <v>-1412.551178361413</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6163,13 +6163,13 @@
         <v>315</v>
       </c>
       <c r="B313">
-        <v>41523.6</v>
+        <v>41693.2</v>
       </c>
       <c r="C313">
-        <v>42952.27827180102</v>
+        <v>41485.20606110935</v>
       </c>
       <c r="D313">
-        <v>-1428.678271801022</v>
+        <v>207.9939388906496</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6177,13 +6177,13 @@
         <v>316</v>
       </c>
       <c r="B314">
-        <v>41693.2</v>
+        <v>41862.9</v>
       </c>
       <c r="C314">
-        <v>41500.73970457353</v>
+        <v>41345.85910393303</v>
       </c>
       <c r="D314">
-        <v>192.4602954264628</v>
+        <v>517.0408960669665</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6191,13 +6191,13 @@
         <v>317</v>
       </c>
       <c r="B315">
-        <v>41862.9</v>
+        <v>41855.3</v>
       </c>
       <c r="C315">
-        <v>41367.30348267468</v>
+        <v>41704.56832318584</v>
       </c>
       <c r="D315">
-        <v>495.5965173253207</v>
+        <v>150.7316768141609</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6205,13 +6205,13 @@
         <v>318</v>
       </c>
       <c r="B316">
-        <v>41855.3</v>
+        <v>42728.8</v>
       </c>
       <c r="C316">
-        <v>41723.74501585239</v>
+        <v>41208.09294238439</v>
       </c>
       <c r="D316">
-        <v>131.5549841476095</v>
+        <v>1520.707057615611</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6219,13 +6219,13 @@
         <v>319</v>
       </c>
       <c r="B317">
-        <v>42728.8</v>
+        <v>43927.8</v>
       </c>
       <c r="C317">
-        <v>41228.87327764804</v>
+        <v>42298.24475173862</v>
       </c>
       <c r="D317">
-        <v>1499.926722351964</v>
+        <v>1629.555248261386</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6233,13 +6233,13 @@
         <v>320</v>
       </c>
       <c r="B318">
-        <v>43927.8</v>
+        <v>42550</v>
       </c>
       <c r="C318">
-        <v>42316.11063799458</v>
+        <v>43533.786337222</v>
       </c>
       <c r="D318">
-        <v>1611.689362005425</v>
+        <v>-983.7863372220017</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6247,13 +6247,13 @@
         <v>321</v>
       </c>
       <c r="B319">
-        <v>42550</v>
+        <v>43090</v>
       </c>
       <c r="C319">
-        <v>43548.98689140633</v>
+        <v>42761.08637475217</v>
       </c>
       <c r="D319">
-        <v>-998.9868914063336</v>
+        <v>328.9136252478347</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6261,13 +6261,13 @@
         <v>322</v>
       </c>
       <c r="B320">
-        <v>43090</v>
+        <v>43111.5</v>
       </c>
       <c r="C320">
-        <v>42766.61215559537</v>
+        <v>42724.82805828884</v>
       </c>
       <c r="D320">
-        <v>323.387844404635</v>
+        <v>386.6719417111599</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6275,13 +6275,13 @@
         <v>323</v>
       </c>
       <c r="B321">
-        <v>43111.5</v>
+        <v>43114.5</v>
       </c>
       <c r="C321">
-        <v>42738.38102509379</v>
+        <v>43000.35430182866</v>
       </c>
       <c r="D321">
-        <v>373.1189749062105</v>
+        <v>114.1456981713418</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6289,13 +6289,13 @@
         <v>324</v>
       </c>
       <c r="B322">
-        <v>43114.5</v>
+        <v>42248.1</v>
       </c>
       <c r="C322">
-        <v>43009.7451575879</v>
+        <v>42939.48131103202</v>
       </c>
       <c r="D322">
-        <v>104.7548424120978</v>
+        <v>-691.3813110320261</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6303,13 +6303,13 @@
         <v>325</v>
       </c>
       <c r="B323">
-        <v>42248.1</v>
+        <v>42383</v>
       </c>
       <c r="C323">
-        <v>42948.75037333513</v>
+        <v>42164.39134010873</v>
       </c>
       <c r="D323">
-        <v>-700.6503733351274</v>
+        <v>218.6086598912661</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6317,13 +6317,13 @@
         <v>326</v>
       </c>
       <c r="B324">
-        <v>42383</v>
+        <v>41686.2</v>
       </c>
       <c r="C324">
-        <v>42173.15632284075</v>
+        <v>42050.18061072839</v>
       </c>
       <c r="D324">
-        <v>209.843677159246</v>
+        <v>-363.9806107283948</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6331,13 +6331,13 @@
         <v>327</v>
       </c>
       <c r="B325">
-        <v>41686.2</v>
+        <v>40686.9</v>
       </c>
       <c r="C325">
-        <v>42062.39291705981</v>
+        <v>41623.86607651704</v>
       </c>
       <c r="D325">
-        <v>-376.1929170598087</v>
+        <v>-936.9660765170338</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6345,13 +6345,13 @@
         <v>328</v>
       </c>
       <c r="B326">
-        <v>40686.9</v>
+        <v>36468.4</v>
       </c>
       <c r="C326">
-        <v>41632.815405546</v>
+        <v>41164.12887395377</v>
       </c>
       <c r="D326">
-        <v>-945.9154055459949</v>
+        <v>-4695.728873953769</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6359,13 +6359,13 @@
         <v>329</v>
       </c>
       <c r="B327">
-        <v>36468.4</v>
+        <v>35067.6</v>
       </c>
       <c r="C327">
-        <v>41171.18831019704</v>
+        <v>37092.89156097814</v>
       </c>
       <c r="D327">
-        <v>-4702.788310197036</v>
+        <v>-2025.291560978141</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6373,13 +6373,13 @@
         <v>330</v>
       </c>
       <c r="B328">
-        <v>35067.6</v>
+        <v>36277.5</v>
       </c>
       <c r="C328">
-        <v>37098.55442332256</v>
+        <v>35008.70828800907</v>
       </c>
       <c r="D328">
-        <v>-2030.954423322561</v>
+        <v>1268.791711990925</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6387,13 +6387,13 @@
         <v>331</v>
       </c>
       <c r="B329">
-        <v>36277.5</v>
+        <v>36699.5</v>
       </c>
       <c r="C329">
-        <v>35027.44483543933</v>
+        <v>35719.78288888422</v>
       </c>
       <c r="D329">
-        <v>1250.055164560668</v>
+        <v>979.7171111157804</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6401,13 +6401,13 @@
         <v>332</v>
       </c>
       <c r="B330">
-        <v>36699.5</v>
+        <v>36987.8</v>
       </c>
       <c r="C330">
-        <v>35745.17885304764</v>
+        <v>35796.08161706312</v>
       </c>
       <c r="D330">
-        <v>954.3211469523594</v>
+        <v>1191.718382936888</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6415,13 +6415,13 @@
         <v>333</v>
       </c>
       <c r="B331">
-        <v>36987.8</v>
+        <v>36827.6</v>
       </c>
       <c r="C331">
-        <v>35819.74043568192</v>
+        <v>36611.94075809562</v>
       </c>
       <c r="D331">
-        <v>1168.059564318079</v>
+        <v>215.6592419043809</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6429,13 +6429,13 @@
         <v>334</v>
       </c>
       <c r="B332">
-        <v>36827.6</v>
+        <v>37200.5</v>
       </c>
       <c r="C332">
-        <v>36628.14323737118</v>
+        <v>36999.2088085766</v>
       </c>
       <c r="D332">
-        <v>199.456762628819</v>
+        <v>201.2911914233991</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6443,13 +6443,13 @@
         <v>335</v>
       </c>
       <c r="B333">
-        <v>37200.5</v>
+        <v>37737.9</v>
       </c>
       <c r="C333">
-        <v>37009.41334917886</v>
+        <v>36645.45334082504</v>
       </c>
       <c r="D333">
-        <v>191.0866508211402</v>
+        <v>1092.446659174959</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6457,13 +6457,13 @@
         <v>336</v>
       </c>
       <c r="B334">
-        <v>37737.9</v>
+        <v>38164.9</v>
       </c>
       <c r="C334">
-        <v>36660.15301501484</v>
+        <v>37274.60090547352</v>
       </c>
       <c r="D334">
-        <v>1077.746984985162</v>
+        <v>890.2990945264828</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6471,13 +6471,13 @@
         <v>337</v>
       </c>
       <c r="B335">
-        <v>38164.9</v>
+        <v>37930.1</v>
       </c>
       <c r="C335">
-        <v>37288.07014924911</v>
+        <v>37939.22371237632</v>
       </c>
       <c r="D335">
-        <v>876.829850750888</v>
+        <v>-9.123712376320327</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6485,13 +6485,13 @@
         <v>338</v>
       </c>
       <c r="B336">
-        <v>37930.1</v>
+        <v>38512.1</v>
       </c>
       <c r="C336">
-        <v>37948.55982960703</v>
+        <v>37745.55533071095</v>
       </c>
       <c r="D336">
-        <v>-18.45982960703259</v>
+        <v>766.5446692890473</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6499,13 +6499,13 @@
         <v>339</v>
       </c>
       <c r="B337">
-        <v>38512.1</v>
+        <v>38719.9</v>
       </c>
       <c r="C337">
-        <v>37753.48989644455</v>
+        <v>38005.95086302896</v>
       </c>
       <c r="D337">
-        <v>758.6101035554457</v>
+        <v>713.9491369710377</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6513,13 +6513,13 @@
         <v>340</v>
       </c>
       <c r="B338">
-        <v>38719.9</v>
+        <v>36903.3</v>
       </c>
       <c r="C338">
-        <v>38018.56436258191</v>
+        <v>38589.49051505819</v>
       </c>
       <c r="D338">
-        <v>701.3356374180876</v>
+        <v>-1686.190515058188</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6527,13 +6527,13 @@
         <v>341</v>
       </c>
       <c r="B339">
-        <v>36903.3</v>
+        <v>37324.4</v>
       </c>
       <c r="C339">
-        <v>38596.01338228171</v>
+        <v>37144.72705657888</v>
       </c>
       <c r="D339">
-        <v>-1692.713382281705</v>
+        <v>179.6729434211229</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6541,13 +6541,13 @@
         <v>342</v>
       </c>
       <c r="B340">
-        <v>37324.4</v>
+        <v>41585.5</v>
       </c>
       <c r="C340">
-        <v>37147.85628597352</v>
+        <v>36970.28959321833</v>
       </c>
       <c r="D340">
-        <v>176.5437140264839</v>
+        <v>4615.210406781669</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6555,13 +6555,13 @@
         <v>343</v>
       </c>
       <c r="B341">
-        <v>41585.5</v>
+        <v>41419</v>
       </c>
       <c r="C341">
-        <v>36981.90312111111</v>
+        <v>40502.60437774923</v>
       </c>
       <c r="D341">
-        <v>4603.596878888893</v>
+        <v>916.3956222507695</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6569,13 +6569,13 @@
         <v>344</v>
       </c>
       <c r="B342">
-        <v>41419</v>
+        <v>42419.5</v>
       </c>
       <c r="C342">
-        <v>40522.807865441</v>
+        <v>41369.14109980804</v>
       </c>
       <c r="D342">
-        <v>896.1921345590017</v>
+        <v>1050.358900191961</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6583,13 +6583,13 @@
         <v>345</v>
       </c>
       <c r="B343">
-        <v>42419.5</v>
+        <v>43867.2</v>
       </c>
       <c r="C343">
-        <v>41366.60886146694</v>
+        <v>42167.06641948785</v>
       </c>
       <c r="D343">
-        <v>1052.891138533065</v>
+        <v>1700.133580512149</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6597,13 +6597,13 @@
         <v>346</v>
       </c>
       <c r="B344">
-        <v>43867.2</v>
+        <v>44079.1</v>
       </c>
       <c r="C344">
-        <v>42168.4804775692</v>
+        <v>43542.0823270017</v>
       </c>
       <c r="D344">
-        <v>1698.719522430802</v>
+        <v>537.0176729982995</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6611,13 +6611,13 @@
         <v>347</v>
       </c>
       <c r="B345">
-        <v>44079.1</v>
+        <v>44420</v>
       </c>
       <c r="C345">
-        <v>43542.75007611683</v>
+        <v>44118.83346684859</v>
       </c>
       <c r="D345">
-        <v>536.3499238831719</v>
+        <v>301.1665331514087</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6625,13 +6625,13 @@
         <v>348</v>
       </c>
       <c r="B346">
-        <v>44420</v>
+        <v>43537.5</v>
       </c>
       <c r="C346">
-        <v>44113.74900415328</v>
+        <v>44277.11746432763</v>
       </c>
       <c r="D346">
-        <v>306.2509958467199</v>
+        <v>-739.6174643276318</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6639,13 +6639,13 @@
         <v>349</v>
       </c>
       <c r="B347">
-        <v>43537.5</v>
+        <v>42400.2</v>
       </c>
       <c r="C347">
-        <v>44273.59010869216</v>
+        <v>44066.42016803438</v>
       </c>
       <c r="D347">
-        <v>-736.0901086921585</v>
+        <v>-1666.220168034386</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6653,13 +6653,13 @@
         <v>350</v>
       </c>
       <c r="B348">
-        <v>42400.2</v>
+        <v>42241</v>
       </c>
       <c r="C348">
-        <v>44058.14025796924</v>
+        <v>42682.07190374075</v>
       </c>
       <c r="D348">
-        <v>-1657.940257969247</v>
+        <v>-441.0719037407544</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6667,13 +6667,13 @@
         <v>351</v>
       </c>
       <c r="B349">
-        <v>42241</v>
+        <v>42062.6</v>
       </c>
       <c r="C349">
-        <v>42679.38384717669</v>
+        <v>42316.60909127432</v>
       </c>
       <c r="D349">
-        <v>-438.3838471766867</v>
+        <v>-254.0090912743253</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6681,13 +6681,13 @@
         <v>352</v>
       </c>
       <c r="B350">
-        <v>42062.6</v>
+        <v>42563.5</v>
       </c>
       <c r="C350">
-        <v>42319.61908044582</v>
+        <v>42183.44742852799</v>
       </c>
       <c r="D350">
-        <v>-257.0190804458252</v>
+        <v>380.0525714720134</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6695,13 +6695,13 @@
         <v>353</v>
       </c>
       <c r="B351">
-        <v>42563.5</v>
+        <v>44563.1</v>
       </c>
       <c r="C351">
-        <v>42186.82880143604</v>
+        <v>42396.73979496892</v>
       </c>
       <c r="D351">
-        <v>376.6711985639631</v>
+        <v>2166.36020503108</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6709,13 +6709,13 @@
         <v>354</v>
       </c>
       <c r="B352">
-        <v>44563.1</v>
+        <v>43873.1</v>
       </c>
       <c r="C352">
-        <v>42403.60223753437</v>
+        <v>44137.84160004454</v>
       </c>
       <c r="D352">
-        <v>2159.497762465631</v>
+        <v>-264.7416000445446</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6723,13 +6723,13 @@
         <v>355</v>
       </c>
       <c r="B353">
-        <v>43873.1</v>
+        <v>40543.9</v>
       </c>
       <c r="C353">
-        <v>44147.57184243331</v>
+        <v>43889.70591892579</v>
       </c>
       <c r="D353">
-        <v>-274.4718424333114</v>
+        <v>-3345.805918925784</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6737,13 +6737,13 @@
         <v>356</v>
       </c>
       <c r="B354">
-        <v>40543.9</v>
+        <v>40007.4</v>
       </c>
       <c r="C354">
-        <v>43889.88965668763</v>
+        <v>41207.72838266095</v>
       </c>
       <c r="D354">
-        <v>-3345.989656687627</v>
+        <v>-1200.328382660948</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6751,13 +6751,13 @@
         <v>357</v>
       </c>
       <c r="B355">
-        <v>40007.4</v>
+        <v>40095.8</v>
       </c>
       <c r="C355">
-        <v>41205.41470316868</v>
+        <v>40036.68867152161</v>
       </c>
       <c r="D355">
-        <v>-1198.014703168679</v>
+        <v>59.11132847839326</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6765,13 +6765,13 @@
         <v>358</v>
       </c>
       <c r="B356">
-        <v>40095.8</v>
+        <v>38400</v>
       </c>
       <c r="C356">
-        <v>40045.79665288772</v>
+        <v>39998.4087193395</v>
       </c>
       <c r="D356">
-        <v>50.00334711228061</v>
+        <v>-1598.408719339495</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6779,13 +6779,13 @@
         <v>359</v>
       </c>
       <c r="B357">
-        <v>38400</v>
+        <v>37019.2</v>
       </c>
       <c r="C357">
-        <v>40009.81835625208</v>
+        <v>38591.51612461524</v>
       </c>
       <c r="D357">
-        <v>-1609.818356252079</v>
+        <v>-1572.316124615245</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6793,13 +6793,13 @@
         <v>360</v>
       </c>
       <c r="B358">
-        <v>37019.2</v>
+        <v>38256.3</v>
       </c>
       <c r="C358">
-        <v>38600.12986364042</v>
+        <v>37416.4313220226</v>
       </c>
       <c r="D358">
-        <v>-1580.92986364042</v>
+        <v>839.8686779773998</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6807,13 +6807,13 @@
         <v>361</v>
       </c>
       <c r="B359">
-        <v>38256.3</v>
+        <v>37250.1</v>
       </c>
       <c r="C359">
-        <v>37427.01609073248</v>
+        <v>37722.76268993059</v>
       </c>
       <c r="D359">
-        <v>829.2839092675204</v>
+        <v>-472.662689930592</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6821,13 +6821,13 @@
         <v>362</v>
       </c>
       <c r="B360">
-        <v>37250.1</v>
+        <v>38340.8</v>
       </c>
       <c r="C360">
-        <v>37744.23303467554</v>
+        <v>37524.03176936359</v>
       </c>
       <c r="D360">
-        <v>-494.1330346755421</v>
+        <v>816.768230636415</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6835,13 +6835,13 @@
         <v>363</v>
       </c>
       <c r="B361">
-        <v>38340.8</v>
+        <v>39233.5</v>
       </c>
       <c r="C361">
-        <v>37535.43652317802</v>
+        <v>37629.34367634359</v>
       </c>
       <c r="D361">
-        <v>805.3634768219854</v>
+        <v>1604.156323656411</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6849,13 +6849,13 @@
         <v>364</v>
       </c>
       <c r="B362">
-        <v>39233.5</v>
+        <v>39120.2</v>
       </c>
       <c r="C362">
-        <v>37651.07130760721</v>
+        <v>38964.57670012739</v>
       </c>
       <c r="D362">
-        <v>1582.428692392794</v>
+        <v>155.6232998726045</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6863,13 +6863,13 @@
         <v>365</v>
       </c>
       <c r="B363">
-        <v>39120.2</v>
+        <v>37709.1</v>
       </c>
       <c r="C363">
-        <v>38978.04343932812</v>
+        <v>39156.81644981296</v>
       </c>
       <c r="D363">
-        <v>142.1565606718723</v>
+        <v>-1447.716449812964</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6877,13 +6877,13 @@
         <v>366</v>
       </c>
       <c r="B364">
-        <v>37709.1</v>
+        <v>43194.7</v>
       </c>
       <c r="C364">
-        <v>39165.92956312447</v>
+        <v>37935.11446775714</v>
       </c>
       <c r="D364">
-        <v>-1456.829563124469</v>
+        <v>5259.585532242854</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6891,13 +6891,13 @@
         <v>367</v>
       </c>
       <c r="B365">
-        <v>43194.7</v>
+        <v>44427.9</v>
       </c>
       <c r="C365">
-        <v>37942.59138060391</v>
+        <v>42049.84836891716</v>
       </c>
       <c r="D365">
-        <v>5252.108619396087</v>
+        <v>2378.051631082846</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6905,13 +6905,13 @@
         <v>368</v>
       </c>
       <c r="B366">
-        <v>44427.9</v>
+        <v>43922.5</v>
       </c>
       <c r="C366">
-        <v>42075.72205408529</v>
+        <v>44257.03266820102</v>
       </c>
       <c r="D366">
-        <v>2352.177945914707</v>
+        <v>-334.53266820102</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6919,13 +6919,13 @@
         <v>369</v>
       </c>
       <c r="B367">
-        <v>43922.5</v>
+        <v>42465</v>
       </c>
       <c r="C367">
-        <v>44255.99622129367</v>
+        <v>44163.10985006928</v>
       </c>
       <c r="D367">
-        <v>-333.4962212936734</v>
+        <v>-1698.109850069275</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6933,13 +6933,13 @@
         <v>370</v>
       </c>
       <c r="B368">
-        <v>42465</v>
+        <v>39137.5</v>
       </c>
       <c r="C368">
-        <v>44158.44527604079</v>
+        <v>42707.30167208036</v>
       </c>
       <c r="D368">
-        <v>-1693.445276040795</v>
+        <v>-3569.801672080357</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6947,13 +6947,13 @@
         <v>371</v>
       </c>
       <c r="B369">
-        <v>39137.5</v>
+        <v>39396.4</v>
       </c>
       <c r="C369">
-        <v>42704.81706249147</v>
+        <v>39744.22841426794</v>
       </c>
       <c r="D369">
-        <v>-3567.317062491471</v>
+        <v>-347.8284142679404</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6961,13 +6961,13 @@
         <v>372</v>
       </c>
       <c r="B370">
-        <v>39396.4</v>
+        <v>38416.3</v>
       </c>
       <c r="C370">
-        <v>39742.22098386224</v>
+        <v>39222.74453513324</v>
       </c>
       <c r="D370">
-        <v>-345.8209838622424</v>
+        <v>-806.4445351332397</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6975,13 +6975,13 @@
         <v>373</v>
       </c>
       <c r="B371">
-        <v>38416.3</v>
+        <v>38024</v>
       </c>
       <c r="C371">
-        <v>39235.34397942859</v>
+        <v>38588.19283540419</v>
       </c>
       <c r="D371">
-        <v>-819.0439794285849</v>
+        <v>-564.1928354041884</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6989,13 +6989,13 @@
         <v>374</v>
       </c>
       <c r="B372">
-        <v>38024</v>
+        <v>38752.6</v>
       </c>
       <c r="C372">
-        <v>38596.81954295142</v>
+        <v>38124.94105701384</v>
       </c>
       <c r="D372">
-        <v>-572.8195429514235</v>
+        <v>627.658942986156</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7003,13 +7003,13 @@
         <v>375</v>
       </c>
       <c r="B373">
-        <v>38752.6</v>
+        <v>41965.3</v>
       </c>
       <c r="C373">
-        <v>38136.05372392238</v>
+        <v>38651.8534290682</v>
       </c>
       <c r="D373">
-        <v>616.5462760776136</v>
+        <v>3313.446570931803</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7017,13 +7017,13 @@
         <v>376</v>
       </c>
       <c r="B374">
-        <v>41965.3</v>
+        <v>39435.8</v>
       </c>
       <c r="C374">
-        <v>38664.27557252275</v>
+        <v>41353.37772176965</v>
       </c>
       <c r="D374">
-        <v>3301.024427477249</v>
+        <v>-1917.577721769645</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7031,13 +7031,13 @@
         <v>377</v>
       </c>
       <c r="B375">
-        <v>39435.8</v>
+        <v>38732.1</v>
       </c>
       <c r="C375">
-        <v>41369.86793604264</v>
+        <v>39790.64961641646</v>
       </c>
       <c r="D375">
-        <v>-1934.067936042637</v>
+        <v>-1058.549616416458</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7045,13 +7045,13 @@
         <v>378</v>
       </c>
       <c r="B376">
-        <v>38732.1</v>
+        <v>38785</v>
       </c>
       <c r="C376">
-        <v>39789.20147982121</v>
+        <v>38921.11108815519</v>
       </c>
       <c r="D376">
-        <v>-1057.101479821213</v>
+        <v>-136.1110881551867</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7059,13 +7059,13 @@
         <v>379</v>
       </c>
       <c r="B377">
-        <v>38785</v>
+        <v>37788.4</v>
       </c>
       <c r="C377">
-        <v>38926.93594852684</v>
+        <v>38870.06946334662</v>
       </c>
       <c r="D377">
-        <v>-141.9359485268433</v>
+        <v>-1081.669463346618</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7073,13 +7073,13 @@
         <v>380</v>
       </c>
       <c r="B378">
-        <v>37788.4</v>
+        <v>39689.2</v>
       </c>
       <c r="C378">
-        <v>38878.021505066</v>
+        <v>38000.38134734577</v>
       </c>
       <c r="D378">
-        <v>-1089.621505065996</v>
+        <v>1688.818652654227</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7087,13 +7087,13 @@
         <v>381</v>
       </c>
       <c r="B379">
-        <v>39689.2</v>
+        <v>39325.4</v>
       </c>
       <c r="C379">
-        <v>38008.03348537532</v>
+        <v>39189.51967539353</v>
       </c>
       <c r="D379">
-        <v>1681.166514624674</v>
+        <v>135.8803246064708</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7101,13 +7101,13 @@
         <v>382</v>
       </c>
       <c r="B380">
-        <v>39325.4</v>
+        <v>41124</v>
       </c>
       <c r="C380">
-        <v>39205.92637152857</v>
+        <v>39106.1202834275</v>
       </c>
       <c r="D380">
-        <v>119.4736284714309</v>
+        <v>2017.879716572497</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7115,13 +7115,13 @@
         <v>383</v>
       </c>
       <c r="B381">
-        <v>41124</v>
+        <v>40945.6</v>
       </c>
       <c r="C381">
-        <v>39114.30040013485</v>
+        <v>40699.41201805879</v>
       </c>
       <c r="D381">
-        <v>2009.699599865147</v>
+        <v>246.1879819412061</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7129,13 +7129,13 @@
         <v>384</v>
       </c>
       <c r="B382">
-        <v>40945.6</v>
+        <v>41775.1</v>
       </c>
       <c r="C382">
-        <v>40710.71843866699</v>
+        <v>40943.96567243669</v>
       </c>
       <c r="D382">
-        <v>234.881561333008</v>
+        <v>831.1343275633044</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7143,13 +7143,13 @@
         <v>385</v>
       </c>
       <c r="B383">
-        <v>41775.1</v>
+        <v>42218</v>
       </c>
       <c r="C383">
-        <v>40947.29606580703</v>
+        <v>41522.52684275806</v>
       </c>
       <c r="D383">
-        <v>827.8039341929689</v>
+        <v>695.4731572419405</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7157,13 +7157,13 @@
         <v>386</v>
       </c>
       <c r="B384">
-        <v>42218</v>
+        <v>41289</v>
       </c>
       <c r="C384">
-        <v>41529.39086935716</v>
+        <v>42074.40558864051</v>
       </c>
       <c r="D384">
-        <v>688.6091306428352</v>
+        <v>-785.4055886405113</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7171,13 +7171,13 @@
         <v>387</v>
       </c>
       <c r="B385">
-        <v>41289</v>
+        <v>41014.3</v>
       </c>
       <c r="C385">
-        <v>42078.73865937701</v>
+        <v>41421.83715951935</v>
       </c>
       <c r="D385">
-        <v>-789.7386593770134</v>
+        <v>-407.5371595193428</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7185,13 +7185,13 @@
         <v>388</v>
       </c>
       <c r="B386">
-        <v>41014.3</v>
+        <v>42377.8</v>
       </c>
       <c r="C386">
-        <v>41423.05878952484</v>
+        <v>41003.6567290634</v>
       </c>
       <c r="D386">
-        <v>-408.7587895248362</v>
+        <v>1374.143270936605</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7199,13 +7199,13 @@
         <v>389</v>
       </c>
       <c r="B387">
-        <v>42377.8</v>
+        <v>42910.3</v>
       </c>
       <c r="C387">
-        <v>41008.09588324096</v>
+        <v>42288.15268216908</v>
       </c>
       <c r="D387">
-        <v>1369.704116759043</v>
+        <v>622.1473178309243</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7213,13 +7213,13 @@
         <v>390</v>
       </c>
       <c r="B388">
-        <v>42910.3</v>
+        <v>43989</v>
       </c>
       <c r="C388">
-        <v>42295.98357229442</v>
+        <v>42699.78137969566</v>
       </c>
       <c r="D388">
-        <v>614.3164277055839</v>
+        <v>1289.218620304338</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7227,13 +7227,13 @@
         <v>391</v>
       </c>
       <c r="B389">
-        <v>43989</v>
+        <v>44315.5</v>
       </c>
       <c r="C389">
-        <v>42703.64386133583</v>
+        <v>43760.98796657106</v>
       </c>
       <c r="D389">
-        <v>1285.356138664174</v>
+        <v>554.5120334289386</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7241,13 +7241,13 @@
         <v>392</v>
       </c>
       <c r="B390">
-        <v>44315.5</v>
+        <v>44548</v>
       </c>
       <c r="C390">
-        <v>43765.53071826796</v>
+        <v>44424.68315249143</v>
       </c>
       <c r="D390">
-        <v>549.9692817320392</v>
+        <v>123.3168475085695</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7255,13 +7255,13 @@
         <v>393</v>
       </c>
       <c r="B391">
-        <v>44548</v>
+        <v>46855.2</v>
       </c>
       <c r="C391">
-        <v>44423.13097463633</v>
+        <v>44571.42678231679</v>
       </c>
       <c r="D391">
-        <v>124.8690253636669</v>
+        <v>2283.773217683207</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7269,13 +7269,13 @@
         <v>394</v>
       </c>
       <c r="B392">
-        <v>46855.2</v>
+        <v>47137.9</v>
       </c>
       <c r="C392">
-        <v>44571.73517207467</v>
+        <v>46386.5042556983</v>
       </c>
       <c r="D392">
-        <v>2283.464827925323</v>
+        <v>751.3957443017061</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7283,13 +7283,13 @@
         <v>395</v>
       </c>
       <c r="B393">
-        <v>47137.9</v>
+        <v>47440.2</v>
       </c>
       <c r="C393">
-        <v>46394.16503846393</v>
+        <v>47444.33261638109</v>
       </c>
       <c r="D393">
-        <v>743.7349615360727</v>
+        <v>-4.132616381088155</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7297,13 +7297,13 @@
         <v>396</v>
       </c>
       <c r="B394">
-        <v>47440.2</v>
+        <v>47059.3</v>
       </c>
       <c r="C394">
-        <v>47438.13996755949</v>
+        <v>47594.60606000444</v>
       </c>
       <c r="D394">
-        <v>2.060032440502255</v>
+        <v>-535.306060004441</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7311,13 +7311,13 @@
         <v>397</v>
       </c>
       <c r="B395">
-        <v>47059.3</v>
+        <v>45524.3</v>
       </c>
       <c r="C395">
-        <v>47592.01117212128</v>
+        <v>47198.03640399489</v>
       </c>
       <c r="D395">
-        <v>-532.7111721212787</v>
+        <v>-1673.736403994888</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7325,13 +7325,13 @@
         <v>398</v>
       </c>
       <c r="B396">
-        <v>45524.3</v>
+        <v>46312</v>
       </c>
       <c r="C396">
-        <v>47196.03988035621</v>
+        <v>46006.95091036923</v>
       </c>
       <c r="D396">
-        <v>-1671.739880356203</v>
+        <v>305.0490896307747</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7339,13 +7339,13 @@
         <v>399</v>
       </c>
       <c r="B397">
-        <v>46312</v>
+        <v>45828.6</v>
       </c>
       <c r="C397">
-        <v>46004.66589718362</v>
+        <v>45992.60207729053</v>
       </c>
       <c r="D397">
-        <v>307.3341028163777</v>
+        <v>-164.0020772905336</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7353,13 +7353,13 @@
         <v>400</v>
       </c>
       <c r="B398">
-        <v>45828.6</v>
+        <v>46423.4</v>
       </c>
       <c r="C398">
-        <v>46000.9945804283</v>
+        <v>46152.65807186489</v>
       </c>
       <c r="D398">
-        <v>-172.3945804282994</v>
+        <v>270.7419281351104</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7367,13 +7367,13 @@
         <v>401</v>
       </c>
       <c r="B399">
-        <v>46423.4</v>
+        <v>46617.1</v>
       </c>
       <c r="C399">
-        <v>46154.56604226848</v>
+        <v>46497.24449180395</v>
       </c>
       <c r="D399">
-        <v>268.8339577315201</v>
+        <v>119.855508196044</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7381,13 +7381,13 @@
         <v>402</v>
       </c>
       <c r="B400">
-        <v>46617.1</v>
+        <v>45479.2</v>
       </c>
       <c r="C400">
-        <v>46504.10363229167</v>
+        <v>46352.41323390708</v>
       </c>
       <c r="D400">
-        <v>112.9963677083288</v>
+        <v>-873.2132339070813</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7395,13 +7395,13 @@
         <v>403</v>
       </c>
       <c r="B401">
-        <v>45479.2</v>
+        <v>43179.4</v>
       </c>
       <c r="C401">
-        <v>46359.57610199255</v>
+        <v>45843.15687844119</v>
       </c>
       <c r="D401">
-        <v>-880.3761019925514</v>
+        <v>-2663.756878441192</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7409,13 +7409,13 @@
         <v>404</v>
       </c>
       <c r="B402">
-        <v>43179.4</v>
+        <v>43469.8</v>
       </c>
       <c r="C402">
-        <v>45844.80015619731</v>
+        <v>43673.03308847692</v>
       </c>
       <c r="D402">
-        <v>-2665.400156197313</v>
+        <v>-203.2330884769181</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7423,13 +7423,13 @@
         <v>405</v>
       </c>
       <c r="B403">
-        <v>43469.8</v>
+        <v>42282.6</v>
       </c>
       <c r="C403">
-        <v>43675.43735717028</v>
+        <v>43363.08002822928</v>
       </c>
       <c r="D403">
-        <v>-205.6373571702788</v>
+        <v>-1080.480028229278</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7437,13 +7437,13 @@
         <v>406</v>
       </c>
       <c r="B404">
-        <v>42282.6</v>
+        <v>42764</v>
       </c>
       <c r="C404">
-        <v>43376.207923457</v>
+        <v>42562.21555042156</v>
       </c>
       <c r="D404">
-        <v>-1093.607923457006</v>
+        <v>201.7844495784375</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7451,13 +7451,13 @@
         <v>407</v>
       </c>
       <c r="B405">
-        <v>42764</v>
+        <v>42160</v>
       </c>
       <c r="C405">
-        <v>42571.12817266421</v>
+        <v>42536.30004225235</v>
       </c>
       <c r="D405">
-        <v>192.8718273357881</v>
+        <v>-376.3000422523473</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7465,13 +7465,13 @@
         <v>408</v>
       </c>
       <c r="B406">
-        <v>42160</v>
+        <v>39534.6</v>
       </c>
       <c r="C406">
-        <v>42552.05604406939</v>
+        <v>42257.66603868172</v>
       </c>
       <c r="D406">
-        <v>-392.056044069388</v>
+        <v>-2723.066038681725</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7479,13 +7479,13 @@
         <v>409</v>
       </c>
       <c r="B407">
-        <v>39534.6</v>
+        <v>40078.7</v>
       </c>
       <c r="C407">
-        <v>42269.62534936664</v>
+        <v>39978.24982922064</v>
       </c>
       <c r="D407">
-        <v>-2735.025349366639</v>
+        <v>100.4501707793534</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7493,13 +7493,13 @@
         <v>410</v>
       </c>
       <c r="B408">
-        <v>40078.7</v>
+        <v>41150</v>
       </c>
       <c r="C408">
-        <v>39988.07407261831</v>
+        <v>39894.68218882239</v>
       </c>
       <c r="D408">
-        <v>90.62592738169042</v>
+        <v>1255.317811177607</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7507,13 +7507,13 @@
         <v>411</v>
       </c>
       <c r="B409">
-        <v>41150</v>
+        <v>39954.9</v>
       </c>
       <c r="C409">
-        <v>39914.64396689533</v>
+        <v>40755.68349812026</v>
       </c>
       <c r="D409">
-        <v>1235.356033104668</v>
+        <v>-800.7834981202541</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7521,13 +7521,13 @@
         <v>412</v>
       </c>
       <c r="B410">
-        <v>39954.9</v>
+        <v>40569.9</v>
       </c>
       <c r="C410">
-        <v>40775.64138972932</v>
+        <v>40068.15355301317</v>
       </c>
       <c r="D410">
-        <v>-820.7413897293154</v>
+        <v>501.7464469868355</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7535,13 +7535,13 @@
         <v>413</v>
       </c>
       <c r="B411">
-        <v>40569.9</v>
+        <v>40381</v>
       </c>
       <c r="C411">
-        <v>40079.85461025773</v>
+        <v>40322.55665269011</v>
       </c>
       <c r="D411">
-        <v>490.0453897422703</v>
+        <v>58.44334730989067</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7549,13 +7549,13 @@
         <v>414</v>
       </c>
       <c r="B412">
-        <v>40381</v>
+        <v>39681.2</v>
       </c>
       <c r="C412">
-        <v>40339.74603370048</v>
+        <v>40222.25979339369</v>
       </c>
       <c r="D412">
-        <v>41.25396629951865</v>
+        <v>-541.0597933936951</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7563,13 +7563,13 @@
         <v>415</v>
       </c>
       <c r="B413">
-        <v>39681.2</v>
+        <v>40811.3</v>
       </c>
       <c r="C413">
-        <v>40235.65776013473</v>
+        <v>39724.56496657807</v>
       </c>
       <c r="D413">
-        <v>-554.4577601347337</v>
+        <v>1086.735033421937</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7577,13 +7577,13 @@
         <v>416</v>
       </c>
       <c r="B414">
-        <v>40811.3</v>
+        <v>41506.2</v>
       </c>
       <c r="C414">
-        <v>39736.27654163849</v>
+        <v>40228.52119935138</v>
       </c>
       <c r="D414">
-        <v>1075.023458361517</v>
+        <v>1277.678800648617</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7591,13 +7591,13 @@
         <v>417</v>
       </c>
       <c r="B415">
-        <v>41506.2</v>
+        <v>41369.9</v>
       </c>
       <c r="C415">
-        <v>40246.98534091001</v>
+        <v>41269.96458222973</v>
       </c>
       <c r="D415">
-        <v>1259.214659089987</v>
+        <v>99.93541777026985</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7605,13 +7605,13 @@
         <v>418</v>
       </c>
       <c r="B416">
-        <v>41369.9</v>
+        <v>40484.1</v>
       </c>
       <c r="C416">
-        <v>41281.20391961881</v>
+        <v>41369.74777984733</v>
       </c>
       <c r="D416">
-        <v>88.69608038119623</v>
+        <v>-885.6477798473279</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7619,13 +7619,13 @@
         <v>419</v>
       </c>
       <c r="B417">
-        <v>40484.1</v>
+        <v>39715.9</v>
       </c>
       <c r="C417">
-        <v>41377.40404074998</v>
+        <v>40799.15967619434</v>
       </c>
       <c r="D417">
-        <v>-893.3040407499793</v>
+        <v>-1083.259676194335</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7633,13 +7633,13 @@
         <v>420</v>
       </c>
       <c r="B418">
-        <v>39715.9</v>
+        <v>39435.6</v>
       </c>
       <c r="C418">
-        <v>40805.43232278733</v>
+        <v>39730.73206039681</v>
       </c>
       <c r="D418">
-        <v>-1089.53232278733</v>
+        <v>-295.1320603968124</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7647,13 +7647,13 @@
         <v>421</v>
       </c>
       <c r="B419">
-        <v>39435.6</v>
+        <v>39467.9</v>
       </c>
       <c r="C419">
-        <v>39739.48182927512</v>
+        <v>39423.38461218603</v>
       </c>
       <c r="D419">
-        <v>-303.8818292751239</v>
+        <v>44.51538781397539</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7661,13 +7661,13 @@
         <v>422</v>
       </c>
       <c r="B420">
-        <v>39467.9</v>
+        <v>40438.5</v>
       </c>
       <c r="C420">
-        <v>39433.77635303833</v>
+        <v>39362.8480155642</v>
       </c>
       <c r="D420">
-        <v>34.1236469616706</v>
+        <v>1075.651984435797</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7675,13 +7675,13 @@
         <v>423</v>
       </c>
       <c r="B421">
-        <v>40438.5</v>
+        <v>38121.7</v>
       </c>
       <c r="C421">
-        <v>39374.20698131482</v>
+        <v>39880.06130927143</v>
       </c>
       <c r="D421">
-        <v>1064.293018685181</v>
+        <v>-1758.361309271437</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7689,13 +7689,13 @@
         <v>424</v>
       </c>
       <c r="B422">
-        <v>38121.7</v>
+        <v>39249.9</v>
       </c>
       <c r="C422">
-        <v>39894.89989480953</v>
+        <v>38509.72249551959</v>
       </c>
       <c r="D422">
-        <v>-1773.199894809535</v>
+        <v>740.1775044804162</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7703,13 +7703,13 @@
         <v>425</v>
       </c>
       <c r="B423">
-        <v>39249.9</v>
+        <v>39752.8</v>
       </c>
       <c r="C423">
-        <v>38513.56114010738</v>
+        <v>38890.42501568867</v>
       </c>
       <c r="D423">
-        <v>736.3388598926249</v>
+        <v>862.3749843113328</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7717,13 +7717,13 @@
         <v>426</v>
       </c>
       <c r="B424">
-        <v>39752.8</v>
+        <v>38599.5</v>
       </c>
       <c r="C424">
-        <v>38905.16780993751</v>
+        <v>39614.15009227477</v>
       </c>
       <c r="D424">
-        <v>847.6321900624971</v>
+        <v>-1014.650092274765</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7731,13 +7731,13 @@
         <v>427</v>
       </c>
       <c r="B425">
-        <v>38599.5</v>
+        <v>37660.8</v>
       </c>
       <c r="C425">
-        <v>39623.50734606031</v>
+        <v>38698.8051391278</v>
       </c>
       <c r="D425">
-        <v>-1024.007346060309</v>
+        <v>-1038.005139127796</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7745,13 +7745,13 @@
         <v>428</v>
       </c>
       <c r="B426">
-        <v>37660.8</v>
+        <v>38474.1</v>
       </c>
       <c r="C426">
-        <v>38704.25510299113</v>
+        <v>37790.15461000724</v>
       </c>
       <c r="D426">
-        <v>-1043.455102991131</v>
+        <v>683.9453899927539</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7759,13 +7759,13 @@
         <v>429</v>
       </c>
       <c r="B427">
-        <v>38474.1</v>
+        <v>38499.9</v>
       </c>
       <c r="C427">
-        <v>37797.62482449544</v>
+        <v>38167.13336526562</v>
       </c>
       <c r="D427">
-        <v>676.4751755045581</v>
+        <v>332.7666347343838</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7773,13 +7773,13 @@
         <v>430</v>
       </c>
       <c r="B428">
-        <v>38499.9</v>
+        <v>37727.9</v>
       </c>
       <c r="C428">
-        <v>38180.55550333687</v>
+        <v>38447.89126733816</v>
       </c>
       <c r="D428">
-        <v>319.3444966631359</v>
+        <v>-719.991267338155</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7787,13 +7787,13 @@
         <v>431</v>
       </c>
       <c r="B429">
-        <v>37727.9</v>
+        <v>39682.8</v>
       </c>
       <c r="C429">
-        <v>38456.78672734841</v>
+        <v>37785.58935355587</v>
       </c>
       <c r="D429">
-        <v>-728.8867273484066</v>
+        <v>1897.210646444131</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7801,13 +7801,13 @@
         <v>432</v>
       </c>
       <c r="B430">
-        <v>39682.8</v>
+        <v>36542.6</v>
       </c>
       <c r="C430">
-        <v>37793.28272014703</v>
+        <v>39223.09990737584</v>
       </c>
       <c r="D430">
-        <v>1889.517279852975</v>
+        <v>-2680.499907375844</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7815,13 +7815,13 @@
         <v>433</v>
       </c>
       <c r="B431">
-        <v>36542.6</v>
+        <v>36017.4</v>
       </c>
       <c r="C431">
-        <v>39237.90518724258</v>
+        <v>36889.71091222478</v>
       </c>
       <c r="D431">
-        <v>-2695.305187242586</v>
+        <v>-872.310912224777</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7829,13 +7829,13 @@
         <v>434</v>
       </c>
       <c r="B432">
-        <v>36017.4</v>
+        <v>35463</v>
       </c>
       <c r="C432">
-        <v>36892.49040565477</v>
+        <v>35865.8942526152</v>
       </c>
       <c r="D432">
-        <v>-875.0904056547733</v>
+        <v>-402.894252615195</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7843,13 +7843,13 @@
         <v>435</v>
       </c>
       <c r="B433">
-        <v>35463</v>
+        <v>34024.2</v>
       </c>
       <c r="C433">
-        <v>35878.09917723604</v>
+        <v>35300.00431584366</v>
       </c>
       <c r="D433">
-        <v>-415.0991772360358</v>
+        <v>-1275.804315843663</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7857,13 +7857,13 @@
         <v>436</v>
       </c>
       <c r="B434">
-        <v>34024.2</v>
+        <v>30075.5</v>
       </c>
       <c r="C434">
-        <v>35312.92019586659</v>
+        <v>34126.20380688063</v>
       </c>
       <c r="D434">
-        <v>-1288.72019586659</v>
+        <v>-4050.703806880629</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7871,13 +7871,13 @@
         <v>437</v>
       </c>
       <c r="B435">
-        <v>30075.5</v>
+        <v>30999.9</v>
       </c>
       <c r="C435">
-        <v>34136.97153513079</v>
+        <v>30823.85020776675</v>
       </c>
       <c r="D435">
-        <v>-4061.47153513079</v>
+        <v>176.0497922332506</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7885,13 +7885,13 @@
         <v>438</v>
       </c>
       <c r="B436">
-        <v>30999.9</v>
+        <v>28994.1</v>
       </c>
       <c r="C436">
-        <v>30830.80789028077</v>
+        <v>30940.66938669272</v>
       </c>
       <c r="D436">
-        <v>169.0921097192331</v>
+        <v>-1946.569386692725</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7899,13 +7899,13 @@
         <v>439</v>
       </c>
       <c r="B437">
-        <v>28994.1</v>
+        <v>28943.4</v>
       </c>
       <c r="C437">
-        <v>30962.48700964551</v>
+        <v>29235.74340523689</v>
       </c>
       <c r="D437">
-        <v>-1968.387009645507</v>
+        <v>-292.3434052368902</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7913,13 +7913,13 @@
         <v>440</v>
       </c>
       <c r="B438">
-        <v>28943.4</v>
+        <v>29222.6</v>
       </c>
       <c r="C438">
-        <v>29249.94693073349</v>
+        <v>28180.40573540318</v>
       </c>
       <c r="D438">
-        <v>-306.5469307334861</v>
+        <v>1042.194264596816</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7927,13 +7927,13 @@
         <v>441</v>
       </c>
       <c r="B439">
-        <v>29222.6</v>
+        <v>30048.2</v>
       </c>
       <c r="C439">
-        <v>28207.11313241971</v>
+        <v>29304.53165560449</v>
       </c>
       <c r="D439">
-        <v>1015.486867580286</v>
+        <v>743.6683443955153</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -7941,13 +7941,13 @@
         <v>442</v>
       </c>
       <c r="B440">
-        <v>30048.2</v>
+        <v>31296.9</v>
       </c>
       <c r="C440">
-        <v>29322.92846031866</v>
+        <v>29576.42221961106</v>
       </c>
       <c r="D440">
-        <v>725.2715396813401</v>
+        <v>1720.477780388937</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7955,13 +7955,13 @@
         <v>443</v>
       </c>
       <c r="B441">
-        <v>31296.9</v>
+        <v>29826.1</v>
       </c>
       <c r="C441">
-        <v>29597.09769481689</v>
+        <v>30718.42185347757</v>
       </c>
       <c r="D441">
-        <v>1699.802305183111</v>
+        <v>-892.3218534775733</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -7969,13 +7969,13 @@
         <v>444</v>
       </c>
       <c r="B442">
-        <v>29826.1</v>
+        <v>30408.3</v>
       </c>
       <c r="C442">
-        <v>30737.54970515316</v>
+        <v>29811.64196656621</v>
       </c>
       <c r="D442">
-        <v>-911.4497051531653</v>
+        <v>596.6580334337887</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7983,13 +7983,13 @@
         <v>445</v>
       </c>
       <c r="B443">
-        <v>30408.3</v>
+        <v>28664.3</v>
       </c>
       <c r="C443">
-        <v>29821.18939608907</v>
+        <v>30090.00364640797</v>
       </c>
       <c r="D443">
-        <v>587.1106039109327</v>
+        <v>-1425.703646407976</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -7997,13 +7997,13 @@
         <v>446</v>
       </c>
       <c r="B444">
-        <v>28664.3</v>
+        <v>30280.7</v>
       </c>
       <c r="C444">
-        <v>30103.86755350073</v>
+        <v>28916.15576542052</v>
       </c>
       <c r="D444">
-        <v>-1439.567553500729</v>
+        <v>1364.544234579476</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8011,13 +8011,13 @@
         <v>447</v>
       </c>
       <c r="B445">
-        <v>30280.7</v>
+        <v>29167.5</v>
       </c>
       <c r="C445">
-        <v>28923.37091308926</v>
+        <v>29804.08971393461</v>
       </c>
       <c r="D445">
-        <v>1357.32908691074</v>
+        <v>-636.5897139346052</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8025,13 +8025,13 @@
         <v>448</v>
       </c>
       <c r="B446">
-        <v>29167.5</v>
+        <v>29403.5</v>
       </c>
       <c r="C446">
-        <v>29821.20297954314</v>
+        <v>29237.54481008113</v>
       </c>
       <c r="D446">
-        <v>-653.7029795431372</v>
+        <v>165.9551899188664</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8039,13 +8039,13 @@
         <v>449</v>
       </c>
       <c r="B447">
-        <v>29403.5</v>
+        <v>30268</v>
       </c>
       <c r="C447">
-        <v>29244.62363181456</v>
+        <v>29178.57118666678</v>
       </c>
       <c r="D447">
-        <v>158.8763681854398</v>
+        <v>1089.428813333216</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8053,13 +8053,13 @@
         <v>450</v>
       </c>
       <c r="B448">
-        <v>30268</v>
+        <v>29070</v>
       </c>
       <c r="C448">
-        <v>29190.33729755789</v>
+        <v>29932.02073426355</v>
       </c>
       <c r="D448">
-        <v>1077.66270244211</v>
+        <v>-862.0207342635549</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8067,13 +8067,13 @@
         <v>451</v>
       </c>
       <c r="B449">
-        <v>29070</v>
+        <v>29631.8</v>
       </c>
       <c r="C449">
-        <v>29943.8833938626</v>
+        <v>29229.51487659845</v>
       </c>
       <c r="D449">
-        <v>-873.8833938625976</v>
+        <v>402.2851234015507</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8081,13 +8081,13 @@
         <v>452</v>
       </c>
       <c r="B450">
-        <v>29631.8</v>
+        <v>29520.3</v>
       </c>
       <c r="C450">
-        <v>29234.12141038669</v>
+        <v>29320.11151922948</v>
       </c>
       <c r="D450">
-        <v>397.6785896133115</v>
+        <v>200.1884807705173</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8095,13 +8095,13 @@
         <v>453</v>
       </c>
       <c r="B451">
-        <v>29520.3</v>
+        <v>29186.9</v>
       </c>
       <c r="C451">
-        <v>29329.96815367671</v>
+        <v>29519.98950911025</v>
       </c>
       <c r="D451">
-        <v>190.3318463232899</v>
+        <v>-333.0895091102502</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8109,13 +8109,13 @@
         <v>454</v>
       </c>
       <c r="B452">
-        <v>29186.9</v>
+        <v>28580</v>
       </c>
       <c r="C452">
-        <v>29525.4202819422</v>
+        <v>28833.47959222767</v>
       </c>
       <c r="D452">
-        <v>-338.5202819421975</v>
+        <v>-253.479592227668</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8123,13 +8123,13 @@
         <v>455</v>
       </c>
       <c r="B453">
-        <v>28580</v>
+        <v>29020</v>
       </c>
       <c r="C453">
-        <v>28841.26215693229</v>
+        <v>28595.63278183725</v>
       </c>
       <c r="D453">
-        <v>-261.2621569322873</v>
+        <v>424.367218162748</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8137,13 +8137,13 @@
         <v>456</v>
       </c>
       <c r="B454">
-        <v>29020</v>
+        <v>29450.4</v>
       </c>
       <c r="C454">
-        <v>28600.16473126744</v>
+        <v>28853.05403884729</v>
       </c>
       <c r="D454">
-        <v>419.8352687325605</v>
+        <v>597.3459611527142</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8151,13 +8151,13 @@
         <v>457</v>
       </c>
       <c r="B455">
-        <v>29450.4</v>
+        <v>31711.7</v>
       </c>
       <c r="C455">
-        <v>28860.41054410818</v>
+        <v>29237.58031171579</v>
       </c>
       <c r="D455">
-        <v>589.9894558918168</v>
+        <v>2474.119688284209</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8165,13 +8165,13 @@
         <v>458</v>
       </c>
       <c r="B456">
-        <v>31711.7</v>
+        <v>31780.9</v>
       </c>
       <c r="C456">
-        <v>29244.45248501456</v>
+        <v>31214.63589621015</v>
       </c>
       <c r="D456">
-        <v>2467.24751498544</v>
+        <v>566.2641037898502</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8179,13 +8179,13 @@
         <v>459</v>
       </c>
       <c r="B457">
-        <v>31780.9</v>
+        <v>29790</v>
       </c>
       <c r="C457">
-        <v>31224.56777853527</v>
+        <v>31767.40715124657</v>
       </c>
       <c r="D457">
-        <v>556.3322214647342</v>
+        <v>-1977.407151246574</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8193,13 +8193,13 @@
         <v>460</v>
       </c>
       <c r="B458">
-        <v>29790</v>
+        <v>30427</v>
       </c>
       <c r="C458">
-        <v>31766.2451551331</v>
+        <v>30109.34299581795</v>
       </c>
       <c r="D458">
-        <v>-1976.245155133096</v>
+        <v>317.6570041820523</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8207,13 +8207,13 @@
         <v>461</v>
       </c>
       <c r="B459">
-        <v>30427</v>
+        <v>29676.4</v>
       </c>
       <c r="C459">
-        <v>30106.48684340357</v>
+        <v>30409.47841385176</v>
       </c>
       <c r="D459">
-        <v>320.513156596433</v>
+        <v>-733.0784138517556</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8221,13 +8221,13 @@
         <v>462</v>
       </c>
       <c r="B460">
-        <v>29676.4</v>
+        <v>29850</v>
       </c>
       <c r="C460">
-        <v>30415.69547484366</v>
+        <v>29730.33447704949</v>
       </c>
       <c r="D460">
-        <v>-739.2954748436605</v>
+        <v>119.6655229505122</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8235,13 +8235,13 @@
         <v>463</v>
       </c>
       <c r="B461">
-        <v>29850</v>
+        <v>29907.6</v>
       </c>
       <c r="C461">
-        <v>29732.98410374299</v>
+        <v>29711.55919004584</v>
       </c>
       <c r="D461">
-        <v>117.0158962570058</v>
+        <v>196.0408099541601</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8249,13 +8249,13 @@
         <v>464</v>
       </c>
       <c r="B462">
-        <v>29907.6</v>
+        <v>31356.3</v>
       </c>
       <c r="C462">
-        <v>29717.6291074059</v>
+        <v>29803.85941675802</v>
       </c>
       <c r="D462">
-        <v>189.970892594094</v>
+        <v>1552.440583241983</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8263,13 +8263,13 @@
         <v>465</v>
       </c>
       <c r="B463">
-        <v>31356.3</v>
+        <v>31098.6</v>
       </c>
       <c r="C463">
-        <v>29809.50356475903</v>
+        <v>31051.98180600583</v>
       </c>
       <c r="D463">
-        <v>1546.796435240965</v>
+        <v>46.61819399416709</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8277,13 +8277,13 @@
         <v>466</v>
       </c>
       <c r="B464">
-        <v>31098.6</v>
+        <v>30190.8</v>
       </c>
       <c r="C464">
-        <v>31060.19143101469</v>
+        <v>30704.53094774115</v>
       </c>
       <c r="D464">
-        <v>38.4085689853091</v>
+        <v>-513.7309477411509</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8291,13 +8291,13 @@
         <v>467</v>
       </c>
       <c r="B465">
-        <v>30190.8</v>
+        <v>30075.3</v>
       </c>
       <c r="C465">
-        <v>30708.73190293003</v>
+        <v>30312.88357303149</v>
       </c>
       <c r="D465">
-        <v>-517.931902930035</v>
+        <v>-237.5835730314902</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8305,13 +8305,13 @@
         <v>468</v>
       </c>
       <c r="B466">
-        <v>30075.3</v>
+        <v>29054.9</v>
       </c>
       <c r="C466">
-        <v>30313.48217323155</v>
+        <v>30116.17326590087</v>
       </c>
       <c r="D466">
-        <v>-238.1821732315548</v>
+        <v>-1061.273265900869</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8319,13 +8319,13 @@
         <v>469</v>
       </c>
       <c r="B467">
-        <v>29054.9</v>
+        <v>28380.2</v>
       </c>
       <c r="C467">
-        <v>30119.18171199403</v>
+        <v>29233.80563950994</v>
       </c>
       <c r="D467">
-        <v>-1064.28171199403</v>
+        <v>-853.6056395099404</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8333,13 +8333,13 @@
         <v>470</v>
       </c>
       <c r="B468">
-        <v>28380.2</v>
+        <v>26569.6</v>
       </c>
       <c r="C468">
-        <v>29236.3561006404</v>
+        <v>28478.2255507704</v>
       </c>
       <c r="D468">
-        <v>-856.1561006403972</v>
+        <v>-1908.625550770397</v>
       </c>
     </row>
   </sheetData>

--- a/data/df_compare.xlsx
+++ b/data/df_compare.xlsx
@@ -28,9 +28,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
     <t>2021-03-04</t>
   </si>
   <si>
@@ -1427,6 +1424,9 @@
   </si>
   <si>
     <t>2022-06-12</t>
+  </si>
+  <si>
+    <t>2022-06-13</t>
   </si>
 </sst>
 </file>
@@ -1809,13 +1809,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>50400</v>
+        <v>48330</v>
       </c>
       <c r="C2">
-        <v>48573.53641445286</v>
+        <v>50463.27191280952</v>
       </c>
       <c r="D2">
-        <v>1826.463585547142</v>
+        <v>-2133.27191280952</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1823,13 +1823,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>48330</v>
+        <v>48734.7</v>
       </c>
       <c r="C3">
-        <v>50446.00363170364</v>
+        <v>49012.97950486379</v>
       </c>
       <c r="D3">
-        <v>-2116.003631703643</v>
+        <v>-278.2795048637927</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1837,13 +1837,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>48734.7</v>
+        <v>48899.9</v>
       </c>
       <c r="C4">
-        <v>48981.09662770576</v>
+        <v>48417.74418756409</v>
       </c>
       <c r="D4">
-        <v>-246.3966277057625</v>
+        <v>482.1558124359071</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1851,13 +1851,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>48899.9</v>
+        <v>50962.3</v>
       </c>
       <c r="C5">
-        <v>48397.90021697839</v>
+        <v>48570.45754743408</v>
       </c>
       <c r="D5">
-        <v>501.9997830216089</v>
+        <v>2391.842452565921</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1865,13 +1865,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>50962.3</v>
+        <v>52375</v>
       </c>
       <c r="C6">
-        <v>48549.97281082606</v>
+        <v>50668.18710885418</v>
       </c>
       <c r="D6">
-        <v>2412.327189173942</v>
+        <v>1706.812891145819</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1879,13 +1879,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>52375</v>
+        <v>54929</v>
       </c>
       <c r="C7">
-        <v>50655.33380431632</v>
+        <v>51760.16644482609</v>
       </c>
       <c r="D7">
-        <v>1719.666195683676</v>
+        <v>3168.833555173915</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1893,13 +1893,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>54929</v>
+        <v>55851</v>
       </c>
       <c r="C8">
-        <v>51739.62057333818</v>
+        <v>54366.40929387562</v>
       </c>
       <c r="D8">
-        <v>3189.379426661821</v>
+        <v>1484.590706124378</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1907,13 +1907,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>55851</v>
+        <v>57809.9</v>
       </c>
       <c r="C9">
-        <v>54346.85137249684</v>
+        <v>55740.99295411931</v>
       </c>
       <c r="D9">
-        <v>1504.148627503164</v>
+        <v>2068.907045880689</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1921,13 +1921,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>57809.9</v>
+        <v>57234</v>
       </c>
       <c r="C10">
-        <v>55712.80929002422</v>
+        <v>57282.76016340859</v>
       </c>
       <c r="D10">
-        <v>2097.090709975782</v>
+        <v>-48.76016340858769</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1935,13 +1935,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>57234</v>
+        <v>61174.9</v>
       </c>
       <c r="C11">
-        <v>57257.29117060729</v>
+        <v>57120.3152598897</v>
       </c>
       <c r="D11">
-        <v>-23.29117060729186</v>
+        <v>4054.584740110302</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1949,13 +1949,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>61174.9</v>
+        <v>59001.1</v>
       </c>
       <c r="C12">
-        <v>57088.35304961642</v>
+        <v>60397.94720699464</v>
       </c>
       <c r="D12">
-        <v>4086.546950383585</v>
+        <v>-1396.847206994637</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1963,13 +1963,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>59001.1</v>
+        <v>55600</v>
       </c>
       <c r="C13">
-        <v>60385.51942224961</v>
+        <v>59858.19851816221</v>
       </c>
       <c r="D13">
-        <v>-1384.419422249608</v>
+        <v>-4258.198518162215</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1977,13 +1977,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>55600</v>
+        <v>56891.1</v>
       </c>
       <c r="C14">
-        <v>59827.30689273778</v>
+        <v>56704.55717530631</v>
       </c>
       <c r="D14">
-        <v>-4227.306892737775</v>
+        <v>186.5428246936863</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1991,13 +1991,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>56891.1</v>
+        <v>58933</v>
       </c>
       <c r="C15">
-        <v>56686.06068945219</v>
+        <v>56026.88585887419</v>
       </c>
       <c r="D15">
-        <v>205.039310547807</v>
+        <v>2906.114141125814</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2005,13 +2005,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>58933</v>
+        <v>57640.9</v>
       </c>
       <c r="C16">
-        <v>56028.769785126</v>
+        <v>57889.04266902042</v>
       </c>
       <c r="D16">
-        <v>2904.230214873998</v>
+        <v>-248.1426690204171</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2019,13 +2019,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>57640.9</v>
+        <v>58101.8</v>
       </c>
       <c r="C17">
-        <v>57887.15065485908</v>
+        <v>58208.21182934061</v>
       </c>
       <c r="D17">
-        <v>-246.2506548590827</v>
+        <v>-106.4118293406063</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2033,13 +2033,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>58101.8</v>
+        <v>58091.6</v>
       </c>
       <c r="C18">
-        <v>58195.74953512748</v>
+        <v>58112.48058056665</v>
       </c>
       <c r="D18">
-        <v>-93.94953512748179</v>
+        <v>-20.88058056665614</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2047,13 +2047,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>58091.6</v>
+        <v>57378.4</v>
       </c>
       <c r="C19">
-        <v>58107.05600038881</v>
+        <v>58491.23362962867</v>
       </c>
       <c r="D19">
-        <v>-15.45600038881093</v>
+        <v>-1112.833629628665</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2061,13 +2061,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>57378.4</v>
+        <v>54095.1</v>
       </c>
       <c r="C20">
-        <v>58483.15552444587</v>
+        <v>57367.67629511093</v>
       </c>
       <c r="D20">
-        <v>-1104.755524445871</v>
+        <v>-3272.576295110928</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2075,13 +2075,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>54095.1</v>
+        <v>54351.3</v>
       </c>
       <c r="C21">
-        <v>57353.7315391147</v>
+        <v>55071.12961881125</v>
       </c>
       <c r="D21">
-        <v>-3258.6315391147</v>
+        <v>-719.8296188112436</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2089,13 +2089,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>54351.3</v>
+        <v>52293.8</v>
       </c>
       <c r="C22">
-        <v>55055.863845977</v>
+        <v>54401.43963818488</v>
       </c>
       <c r="D22">
-        <v>-704.563845976998</v>
+        <v>-2107.639638184875</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2103,13 +2103,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>52293.8</v>
+        <v>51314.9</v>
       </c>
       <c r="C23">
-        <v>54403.64866592732</v>
+        <v>53269.93859977741</v>
       </c>
       <c r="D23">
-        <v>-2109.848665927319</v>
+        <v>-1955.038599777406</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2117,13 +2117,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>51314.9</v>
+        <v>55062.2</v>
       </c>
       <c r="C24">
-        <v>53266.28592525717</v>
+        <v>51529.02463811031</v>
       </c>
       <c r="D24">
-        <v>-1951.385925257164</v>
+        <v>3533.175361889691</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2131,13 +2131,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>55062.2</v>
+        <v>55852.4</v>
       </c>
       <c r="C25">
-        <v>51528.81359123011</v>
+        <v>54156.67603918287</v>
       </c>
       <c r="D25">
-        <v>3533.386408769889</v>
+        <v>1695.723960817129</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2145,13 +2145,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>55852.4</v>
+        <v>55782</v>
       </c>
       <c r="C26">
-        <v>54162.59292395171</v>
+        <v>55607.80179772753</v>
       </c>
       <c r="D26">
-        <v>1689.807076048288</v>
+        <v>174.1982022724696</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2159,13 +2159,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>55782</v>
+        <v>57624.2</v>
       </c>
       <c r="C27">
-        <v>55589.23630886729</v>
+        <v>55705.32175325314</v>
       </c>
       <c r="D27">
-        <v>192.7636911327136</v>
+        <v>1918.878246746855</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2173,13 +2173,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>57624.2</v>
+        <v>58781</v>
       </c>
       <c r="C28">
-        <v>55679.81401228937</v>
+        <v>57267.58281027642</v>
       </c>
       <c r="D28">
-        <v>1944.38598771063</v>
+        <v>1513.417189723579</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2187,13 +2187,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>58781</v>
+        <v>58786.2</v>
       </c>
       <c r="C29">
-        <v>57246.40127524981</v>
+        <v>58575.30730158146</v>
       </c>
       <c r="D29">
-        <v>1534.598724750191</v>
+        <v>210.8926984185382</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2201,13 +2201,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>58786.2</v>
+        <v>58732.9</v>
       </c>
       <c r="C30">
-        <v>58546.96188379932</v>
+        <v>58644.23682347016</v>
       </c>
       <c r="D30">
-        <v>239.2381162006786</v>
+        <v>88.66317652984435</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2215,13 +2215,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>58732.9</v>
+        <v>59020.7</v>
       </c>
       <c r="C31">
-        <v>58613.43806113632</v>
+        <v>58780.57094320195</v>
       </c>
       <c r="D31">
-        <v>119.4619388636856</v>
+        <v>240.1290567980468</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2229,13 +2229,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>59020.7</v>
+        <v>57099</v>
       </c>
       <c r="C32">
-        <v>58755.17684023411</v>
+        <v>59231.64758690968</v>
       </c>
       <c r="D32">
-        <v>265.5231597658858</v>
+        <v>-2132.647586909676</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2243,13 +2243,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>57099</v>
+        <v>58195</v>
       </c>
       <c r="C33">
-        <v>59214.91376803251</v>
+        <v>57745.73387553814</v>
       </c>
       <c r="D33">
-        <v>-2115.913768032508</v>
+        <v>449.2661244618648</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2257,13 +2257,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>58195</v>
+        <v>59120</v>
       </c>
       <c r="C34">
-        <v>57727.2190283009</v>
+        <v>57893.30094381192</v>
       </c>
       <c r="D34">
-        <v>467.7809716991032</v>
+        <v>1226.699056188081</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2271,13 +2271,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>59120</v>
+        <v>58017.1</v>
       </c>
       <c r="C35">
-        <v>57888.09340032353</v>
+        <v>58677.81860960371</v>
       </c>
       <c r="D35">
-        <v>1231.906599676469</v>
+        <v>-660.7186096037112</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2285,13 +2285,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>58017.1</v>
+        <v>55928.5</v>
       </c>
       <c r="C36">
-        <v>58669.10355258474</v>
+        <v>58242.80812109911</v>
       </c>
       <c r="D36">
-        <v>-652.0035525847416</v>
+        <v>-2314.308121099108</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2299,13 +2299,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>55928.5</v>
+        <v>58036.9</v>
       </c>
       <c r="C37">
-        <v>58228.38231367536</v>
+        <v>56491.81685862073</v>
       </c>
       <c r="D37">
-        <v>-2299.882313675364</v>
+        <v>1545.083141379269</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2313,13 +2313,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>58036.9</v>
+        <v>58110</v>
       </c>
       <c r="C38">
-        <v>56480.77301212217</v>
+        <v>57538.09850494566</v>
       </c>
       <c r="D38">
-        <v>1556.126987877833</v>
+        <v>571.9014950543351</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2327,13 +2327,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>58110</v>
+        <v>59775.6</v>
       </c>
       <c r="C39">
-        <v>57539.79679026452</v>
+        <v>58187.50909203902</v>
       </c>
       <c r="D39">
-        <v>570.2032097354822</v>
+        <v>1588.090907960977</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2341,13 +2341,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>59775.6</v>
+        <v>59956</v>
       </c>
       <c r="C40">
-        <v>58175.73944211836</v>
+        <v>59768.82070807839</v>
       </c>
       <c r="D40">
-        <v>1599.860557881642</v>
+        <v>187.1792919216095</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2355,13 +2355,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>59956</v>
+        <v>59823.7</v>
       </c>
       <c r="C41">
-        <v>59761.46573701265</v>
+        <v>60000.50076449823</v>
       </c>
       <c r="D41">
-        <v>194.5342629873485</v>
+        <v>-176.8007644982281</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2369,13 +2369,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>59823.7</v>
+        <v>63587.2</v>
       </c>
       <c r="C42">
-        <v>59983.06025753761</v>
+        <v>60130.98255819362</v>
       </c>
       <c r="D42">
-        <v>-159.3602575376135</v>
+        <v>3456.217441806381</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2383,13 +2383,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>63587.2</v>
+        <v>62969</v>
       </c>
       <c r="C43">
-        <v>60114.40574203749</v>
+        <v>62919.48635100166</v>
       </c>
       <c r="D43">
-        <v>3472.794257962509</v>
+        <v>49.51364899834152</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2397,13 +2397,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>62969</v>
+        <v>63243</v>
       </c>
       <c r="C44">
-        <v>62911.02470443738</v>
+        <v>63209.29598415067</v>
       </c>
       <c r="D44">
-        <v>57.97529556261725</v>
+        <v>33.70401584933279</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2411,13 +2411,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>63243</v>
+        <v>61455</v>
       </c>
       <c r="C45">
-        <v>63180.8040383984</v>
+        <v>63242.69415599108</v>
       </c>
       <c r="D45">
-        <v>62.19596160159563</v>
+        <v>-1787.694155991077</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2425,13 +2425,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>61455</v>
+        <v>60085.2</v>
       </c>
       <c r="C46">
-        <v>63222.56759880672</v>
+        <v>61810.38575788826</v>
       </c>
       <c r="D46">
-        <v>-1767.567598806723</v>
+        <v>-1725.185757888263</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2439,13 +2439,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>60085.2</v>
+        <v>56239.8</v>
       </c>
       <c r="C47">
-        <v>61790.37080945246</v>
+        <v>60672.06345891039</v>
       </c>
       <c r="D47">
-        <v>-1705.170809452466</v>
+        <v>-4432.263458910384</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2453,13 +2453,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>56239.8</v>
+        <v>55720</v>
       </c>
       <c r="C48">
-        <v>60662.43615900833</v>
+        <v>56065.61408917414</v>
       </c>
       <c r="D48">
-        <v>-4422.636159008325</v>
+        <v>-345.6140891741379</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2467,13 +2467,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>55720</v>
+        <v>56500</v>
       </c>
       <c r="C49">
-        <v>56053.058234369</v>
+        <v>55821.17492933269</v>
       </c>
       <c r="D49">
-        <v>-333.0582343690039</v>
+        <v>678.8250706673134</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2481,13 +2481,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>56500</v>
+        <v>53815.2</v>
       </c>
       <c r="C50">
-        <v>55829.87650736564</v>
+        <v>55927.03267328802</v>
       </c>
       <c r="D50">
-        <v>670.1234926343604</v>
+        <v>-2111.832673288023</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2495,13 +2495,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>53815.2</v>
+        <v>51730</v>
       </c>
       <c r="C51">
-        <v>55935.04245288114</v>
+        <v>54394.80204351118</v>
       </c>
       <c r="D51">
-        <v>-2119.842452881145</v>
+        <v>-2664.802043511183</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2509,13 +2509,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>51730</v>
+        <v>51178.7</v>
       </c>
       <c r="C52">
-        <v>54388.79686564734</v>
+        <v>52265.37340714905</v>
       </c>
       <c r="D52">
-        <v>-2658.796865647339</v>
+        <v>-1086.67340714905</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2523,13 +2523,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>51178.7</v>
+        <v>50093.4</v>
       </c>
       <c r="C53">
-        <v>52264.93014954185</v>
+        <v>50511.31950261426</v>
       </c>
       <c r="D53">
-        <v>-1086.230149541851</v>
+        <v>-417.9195026142625</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2537,13 +2537,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>50093.4</v>
+        <v>49106.5</v>
       </c>
       <c r="C54">
-        <v>50511.01844073719</v>
+        <v>49883.01328887642</v>
       </c>
       <c r="D54">
-        <v>-417.6184407371838</v>
+        <v>-776.5132888764201</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2551,13 +2551,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>49106.5</v>
+        <v>54051.9</v>
       </c>
       <c r="C55">
-        <v>49875.87970280612</v>
+        <v>48784.02990322313</v>
       </c>
       <c r="D55">
-        <v>-769.3797028061235</v>
+        <v>5267.870096776875</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2565,13 +2565,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>54051.9</v>
+        <v>55078.7</v>
       </c>
       <c r="C56">
-        <v>48775.39198980038</v>
+        <v>52821.37642074976</v>
       </c>
       <c r="D56">
-        <v>5276.508010199621</v>
+        <v>2257.323579250238</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2579,13 +2579,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>55078.7</v>
+        <v>54899.3</v>
       </c>
       <c r="C57">
-        <v>52823.05262405158</v>
+        <v>54701.06439584302</v>
       </c>
       <c r="D57">
-        <v>2255.647375948422</v>
+        <v>198.2356041569874</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2593,13 +2593,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>54899.3</v>
+        <v>53579.6</v>
       </c>
       <c r="C58">
-        <v>54672.35358298532</v>
+        <v>54985.66604756613</v>
       </c>
       <c r="D58">
-        <v>226.9464170146821</v>
+        <v>-1406.066047566135</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2607,13 +2607,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>53579.6</v>
+        <v>57780</v>
       </c>
       <c r="C59">
-        <v>54951.2725806646</v>
+        <v>53608.99208493947</v>
       </c>
       <c r="D59">
-        <v>-1371.672580664606</v>
+        <v>4171.007915060531</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2621,13 +2621,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>57780</v>
+        <v>57859.2</v>
       </c>
       <c r="C60">
-        <v>53572.722385954</v>
+        <v>56679.45396865587</v>
       </c>
       <c r="D60">
-        <v>4207.277614046005</v>
+        <v>1179.746031344126</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2635,13 +2635,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>57859.2</v>
+        <v>56618.5</v>
       </c>
       <c r="C61">
-        <v>56659.92213111711</v>
+        <v>57835.6552632291</v>
       </c>
       <c r="D61">
-        <v>1199.277868882884</v>
+        <v>-1217.155263229099</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2649,13 +2649,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>56618.5</v>
+        <v>57193.5</v>
       </c>
       <c r="C62">
-        <v>57797.73389284295</v>
+        <v>56796.38270787292</v>
       </c>
       <c r="D62">
-        <v>-1179.233892842953</v>
+        <v>397.1172921270772</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2663,13 +2663,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>57193.5</v>
+        <v>53239.4</v>
       </c>
       <c r="C63">
-        <v>56762.53001031119</v>
+        <v>57463.90233424291</v>
       </c>
       <c r="D63">
-        <v>430.9699896888051</v>
+        <v>-4224.502334242912</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2677,13 +2677,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>53239.4</v>
+        <v>57497.1</v>
       </c>
       <c r="C64">
-        <v>57447.60007956126</v>
+        <v>54107.15112496703</v>
       </c>
       <c r="D64">
-        <v>-4208.200079561262</v>
+        <v>3389.948875032969</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2691,13 +2691,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>57497.1</v>
+        <v>56421.1</v>
       </c>
       <c r="C65">
-        <v>54082.56324059423</v>
+        <v>56569.43744079256</v>
       </c>
       <c r="D65">
-        <v>3414.536759405768</v>
+        <v>-148.3374407925658</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2705,13 +2705,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>56421.1</v>
+        <v>57383</v>
       </c>
       <c r="C66">
-        <v>56575.66951870109</v>
+        <v>56655.57855059096</v>
       </c>
       <c r="D66">
-        <v>-154.5695187010933</v>
+        <v>727.4214494090411</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2719,13 +2719,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>57383</v>
+        <v>58953.8</v>
       </c>
       <c r="C67">
-        <v>56636.58253803599</v>
+        <v>57259.39355793165</v>
       </c>
       <c r="D67">
-        <v>746.4174619640107</v>
+        <v>1694.406442068357</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2733,13 +2733,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>58953.8</v>
+        <v>58293.1</v>
       </c>
       <c r="C68">
-        <v>57251.61678092653</v>
+        <v>58706.54571082583</v>
       </c>
       <c r="D68">
-        <v>1702.183219073471</v>
+        <v>-413.4457108258284</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2747,13 +2747,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>58293.1</v>
+        <v>55888.1</v>
       </c>
       <c r="C69">
-        <v>58695.67587704913</v>
+        <v>58132.78483144226</v>
       </c>
       <c r="D69">
-        <v>-402.5758770491302</v>
+        <v>-2244.68483144226</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2761,13 +2761,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>55888.1</v>
+        <v>56747.5</v>
       </c>
       <c r="C70">
-        <v>58110.48361769217</v>
+        <v>56213.8307362333</v>
       </c>
       <c r="D70">
-        <v>-2222.383617692169</v>
+        <v>533.6692637667002</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2775,13 +2775,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>56747.5</v>
+        <v>49502.7</v>
       </c>
       <c r="C71">
-        <v>56191.2375663539</v>
+        <v>56304.50762701867</v>
       </c>
       <c r="D71">
-        <v>556.2624336461013</v>
+        <v>-6801.807627018672</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2789,13 +2789,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>49502.7</v>
+        <v>49675.2</v>
       </c>
       <c r="C72">
-        <v>56297.31043606781</v>
+        <v>51144.41831158818</v>
       </c>
       <c r="D72">
-        <v>-6794.610436067815</v>
+        <v>-1469.218311588178</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2803,13 +2803,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>49675.2</v>
+        <v>49899</v>
       </c>
       <c r="C73">
-        <v>51119.7237985403</v>
+        <v>48930.24282093067</v>
       </c>
       <c r="D73">
-        <v>-1444.523798540307</v>
+        <v>968.7571790693328</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2817,13 +2817,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>49899</v>
+        <v>46771.1</v>
       </c>
       <c r="C74">
-        <v>48941.53719827443</v>
+        <v>49940.94715517419</v>
       </c>
       <c r="D74">
-        <v>957.4628017255745</v>
+        <v>-3169.84715517419</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2831,13 +2831,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>46771.1</v>
+        <v>46482.4</v>
       </c>
       <c r="C75">
-        <v>49948.27300332379</v>
+        <v>47483.99443758666</v>
       </c>
       <c r="D75">
-        <v>-3177.173003323791</v>
+        <v>-1001.59443758666</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2845,13 +2845,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>46482.4</v>
+        <v>43551.8</v>
       </c>
       <c r="C76">
-        <v>47476.34250414401</v>
+        <v>46449.12213712084</v>
       </c>
       <c r="D76">
-        <v>-993.9425041440045</v>
+        <v>-2897.322137120835</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2859,13 +2859,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>43551.8</v>
+        <v>42895.2</v>
       </c>
       <c r="C77">
-        <v>46449.8421459067</v>
+        <v>43761.47972158564</v>
       </c>
       <c r="D77">
-        <v>-2898.0421459067</v>
+        <v>-866.2797215856408</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2873,13 +2873,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>42895.2</v>
+        <v>36742.3</v>
       </c>
       <c r="C78">
-        <v>43749.92335257115</v>
+        <v>43220.83582422693</v>
       </c>
       <c r="D78">
-        <v>-854.723352571149</v>
+        <v>-6478.535824226929</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2887,13 +2887,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>36742.3</v>
+        <v>40614.6</v>
       </c>
       <c r="C79">
-        <v>43217.94643372257</v>
+        <v>36579.883335366</v>
       </c>
       <c r="D79">
-        <v>-6475.646433722563</v>
+        <v>4034.716664633997</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2901,13 +2901,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>40614.6</v>
+        <v>37331.7</v>
       </c>
       <c r="C80">
-        <v>36557.79414050686</v>
+        <v>39564.74764070983</v>
       </c>
       <c r="D80">
-        <v>4056.805859493143</v>
+        <v>-2233.047640709832</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2915,13 +2915,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>37331.7</v>
+        <v>37468.3</v>
       </c>
       <c r="C81">
-        <v>39580.58514245224</v>
+        <v>37358.88671248549</v>
       </c>
       <c r="D81">
-        <v>-2248.885142452244</v>
+        <v>109.4132875145151</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2929,13 +2929,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>37468.3</v>
+        <v>34718.8</v>
       </c>
       <c r="C82">
-        <v>37335.9972641028</v>
+        <v>37010.72637061289</v>
       </c>
       <c r="D82">
-        <v>132.3027358972031</v>
+        <v>-2291.926370612884</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2943,13 +2943,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>34718.8</v>
+        <v>38833.8</v>
       </c>
       <c r="C83">
-        <v>37000.05956589663</v>
+        <v>34444.0338593038</v>
       </c>
       <c r="D83">
-        <v>-2281.259565896631</v>
+        <v>4389.7661406962</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2957,13 +2957,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>38833.8</v>
+        <v>38388.1</v>
       </c>
       <c r="C84">
-        <v>34420.4078189689</v>
+        <v>37859.35766543043</v>
       </c>
       <c r="D84">
-        <v>4413.3921810311</v>
+        <v>528.7423345695643</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2971,13 +2971,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>38388.1</v>
+        <v>39283.9</v>
       </c>
       <c r="C85">
-        <v>37854.18950392303</v>
+        <v>38104.95533333044</v>
       </c>
       <c r="D85">
-        <v>533.9104960769691</v>
+        <v>1178.944666669566</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2985,13 +2985,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>39283.9</v>
+        <v>38516.4</v>
       </c>
       <c r="C86">
-        <v>38070.28966944633</v>
+        <v>39168.7121699799</v>
       </c>
       <c r="D86">
-        <v>1213.610330553674</v>
+        <v>-652.3121699799012</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2999,13 +2999,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>38516.4</v>
+        <v>35683.9</v>
       </c>
       <c r="C87">
-        <v>39140.54531207186</v>
+        <v>38448.43358297224</v>
       </c>
       <c r="D87">
-        <v>-624.1453120718579</v>
+        <v>-2764.533582972239</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3013,13 +3013,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>35683.9</v>
+        <v>34616.6</v>
       </c>
       <c r="C88">
-        <v>38414.48481387299</v>
+        <v>35991.49704446283</v>
       </c>
       <c r="D88">
-        <v>-2730.584813872985</v>
+        <v>-1374.897044462828</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3027,13 +3027,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>34616.6</v>
+        <v>35673.8</v>
       </c>
       <c r="C89">
-        <v>35959.02167321826</v>
+        <v>34780.9695694691</v>
       </c>
       <c r="D89">
-        <v>-1342.421673218261</v>
+        <v>892.8304305308993</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3041,13 +3041,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>35673.8</v>
+        <v>37303.8</v>
       </c>
       <c r="C90">
-        <v>34764.52618532986</v>
+        <v>35112.15793069286</v>
       </c>
       <c r="D90">
-        <v>909.2738146701449</v>
+        <v>2191.642069307141</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3055,13 +3055,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>37303.8</v>
+        <v>36676.3</v>
       </c>
       <c r="C91">
-        <v>35103.46070253651</v>
+        <v>36431.11640127754</v>
       </c>
       <c r="D91">
-        <v>2200.339297463492</v>
+        <v>245.1835987224622</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3069,13 +3069,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>36676.3</v>
+        <v>37565.3</v>
       </c>
       <c r="C92">
-        <v>36419.6928203502</v>
+        <v>36582.72415714455</v>
       </c>
       <c r="D92">
-        <v>256.6071796497999</v>
+        <v>982.5758428554545</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3083,13 +3083,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>37565.3</v>
+        <v>39196.6</v>
       </c>
       <c r="C93">
-        <v>36562.03451863254</v>
+        <v>37192.08855627233</v>
       </c>
       <c r="D93">
-        <v>1003.26548136746</v>
+        <v>2004.511443727672</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3097,13 +3097,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>39196.6</v>
+        <v>36847.7</v>
       </c>
       <c r="C94">
-        <v>37175.91346751124</v>
+        <v>38678.67013053384</v>
       </c>
       <c r="D94">
-        <v>2020.686532488755</v>
+        <v>-1830.970130533839</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3111,13 +3111,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>36847.7</v>
+        <v>35534.6</v>
       </c>
       <c r="C95">
-        <v>38660.48021894682</v>
+        <v>36991.33492040448</v>
       </c>
       <c r="D95">
-        <v>-1812.78021894682</v>
+        <v>-1456.73492040448</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3125,13 +3125,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>35534.6</v>
+        <v>35789</v>
       </c>
       <c r="C96">
-        <v>36960.2419091984</v>
+        <v>35790.03042138502</v>
       </c>
       <c r="D96">
-        <v>-1425.641909198406</v>
+        <v>-1.030421385017689</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3139,13 +3139,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>35789</v>
+        <v>33587.6</v>
       </c>
       <c r="C97">
-        <v>35773.27447958567</v>
+        <v>35684.1372903653</v>
       </c>
       <c r="D97">
-        <v>15.72552041432937</v>
+        <v>-2096.537290365297</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3153,13 +3153,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>33587.6</v>
+        <v>33420</v>
       </c>
       <c r="C98">
-        <v>35677.45910800304</v>
+        <v>34108.45668436686</v>
       </c>
       <c r="D98">
-        <v>-2089.859108003038</v>
+        <v>-688.4566843668581</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3167,13 +3167,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>33420</v>
+        <v>37396.4</v>
       </c>
       <c r="C99">
-        <v>34097.47276861567</v>
+        <v>32890.04504450553</v>
       </c>
       <c r="D99">
-        <v>-677.4727686156693</v>
+        <v>4506.354955494469</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3181,13 +3181,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>37396.4</v>
+        <v>36678.4</v>
       </c>
       <c r="C100">
-        <v>32887.77861625401</v>
+        <v>36173.8772626576</v>
       </c>
       <c r="D100">
-        <v>4508.621383745987</v>
+        <v>504.5227373424059</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3195,13 +3195,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>36678.4</v>
+        <v>37322.2</v>
       </c>
       <c r="C101">
-        <v>36177.69322111562</v>
+        <v>36812.88699627997</v>
       </c>
       <c r="D101">
-        <v>500.7067788843779</v>
+        <v>509.3130037200317</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3209,13 +3209,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>37322.2</v>
+        <v>35544.9</v>
       </c>
       <c r="C102">
-        <v>36792.18945123817</v>
+        <v>37027.13139607655</v>
       </c>
       <c r="D102">
-        <v>530.0105487618275</v>
+        <v>-1482.231396076553</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3223,13 +3223,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>35544.9</v>
+        <v>39034.6</v>
       </c>
       <c r="C103">
-        <v>37010.89205081321</v>
+        <v>35705.20159845706</v>
       </c>
       <c r="D103">
-        <v>-1465.992050813213</v>
+        <v>3329.398401542938</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3237,13 +3237,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>39034.6</v>
+        <v>40530.8</v>
       </c>
       <c r="C104">
-        <v>35681.98730660477</v>
+        <v>38090.49420106382</v>
       </c>
       <c r="D104">
-        <v>3352.612693395226</v>
+        <v>2440.305798936184</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3251,13 +3251,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>40530.8</v>
+        <v>40166.6</v>
       </c>
       <c r="C105">
-        <v>38083.72842260008</v>
+        <v>40307.47922719407</v>
       </c>
       <c r="D105">
-        <v>2447.071577399925</v>
+        <v>-140.8792271940692</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3265,13 +3265,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>40166.6</v>
+        <v>38337.1</v>
       </c>
       <c r="C106">
-        <v>40287.91063938793</v>
+        <v>40343.32267755899</v>
       </c>
       <c r="D106">
-        <v>-121.3106393879352</v>
+        <v>-2006.222677558988</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3279,13 +3279,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>38337.1</v>
+        <v>38078.2</v>
       </c>
       <c r="C107">
-        <v>40319.62376230751</v>
+        <v>38800.68648794299</v>
       </c>
       <c r="D107">
-        <v>-1982.523762307515</v>
+        <v>-722.4864879429952</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3293,13 +3293,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>38078.2</v>
+        <v>35824</v>
       </c>
       <c r="C108">
-        <v>38781.20201531169</v>
+        <v>38269.43214647713</v>
       </c>
       <c r="D108">
-        <v>-703.002015311693</v>
+        <v>-2445.432146477135</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3307,13 +3307,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>35824</v>
+        <v>35490.5</v>
       </c>
       <c r="C109">
-        <v>38262.40863985682</v>
+        <v>36169.28658180163</v>
       </c>
       <c r="D109">
-        <v>-2438.408639856818</v>
+        <v>-678.7865818016289</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3321,13 +3321,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>35490.5</v>
+        <v>35595</v>
       </c>
       <c r="C110">
-        <v>36158.65697090328</v>
+        <v>35534.11915132488</v>
       </c>
       <c r="D110">
-        <v>-668.1569709032774</v>
+        <v>60.88084867512225</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3335,13 +3335,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>35595</v>
+        <v>31655.2</v>
       </c>
       <c r="C111">
-        <v>35536.94530509409</v>
+        <v>35136.69981930155</v>
       </c>
       <c r="D111">
-        <v>58.05469490590622</v>
+        <v>-3481.499819301545</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3349,13 +3349,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>31655.2</v>
+        <v>32516.2</v>
       </c>
       <c r="C112">
-        <v>35139.98266900599</v>
+        <v>32429.10603325296</v>
       </c>
       <c r="D112">
-        <v>-3484.782669005985</v>
+        <v>87.09396674704112</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3363,13 +3363,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>32516.2</v>
+        <v>33683.3</v>
       </c>
       <c r="C113">
-        <v>32422.76344390679</v>
+        <v>31772.07392182702</v>
       </c>
       <c r="D113">
-        <v>93.43655609320922</v>
+        <v>1911.226078172986</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3377,13 +3377,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>33683.3</v>
+        <v>34666.6</v>
       </c>
       <c r="C114">
-        <v>31781.84297608177</v>
+        <v>33583.5898030207</v>
       </c>
       <c r="D114">
-        <v>1901.457023918236</v>
+        <v>1083.010196979296</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3391,13 +3391,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>34666.6</v>
+        <v>31583.7</v>
       </c>
       <c r="C115">
-        <v>33587.6118945913</v>
+        <v>34185.61855005042</v>
       </c>
       <c r="D115">
-        <v>1078.988105408695</v>
+        <v>-2601.918550050421</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3405,13 +3405,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>31583.7</v>
+        <v>32277</v>
       </c>
       <c r="C116">
-        <v>34178.04540420548</v>
+        <v>32313.10393263152</v>
       </c>
       <c r="D116">
-        <v>-2594.345404205476</v>
+        <v>-36.10393263152218</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3419,13 +3419,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>32277</v>
+        <v>34675.3</v>
       </c>
       <c r="C117">
-        <v>32292.52084925506</v>
+        <v>31770.90147022129</v>
       </c>
       <c r="D117">
-        <v>-15.52084925505915</v>
+        <v>2904.398529778715</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3433,13 +3433,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>34675.3</v>
+        <v>34472</v>
       </c>
       <c r="C118">
-        <v>31764.36550934691</v>
+        <v>33973.57884705623</v>
       </c>
       <c r="D118">
-        <v>2910.93449065309</v>
+        <v>498.4211529437744</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3447,13 +3447,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>34472</v>
+        <v>35903.3</v>
       </c>
       <c r="C119">
-        <v>33965.15641735555</v>
+        <v>34464.31105349291</v>
       </c>
       <c r="D119">
-        <v>506.8435826444475</v>
+        <v>1438.988946507088</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3461,13 +3461,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>35903.3</v>
+        <v>35046.2</v>
       </c>
       <c r="C120">
-        <v>34441.8128824966</v>
+        <v>35654.93760376572</v>
       </c>
       <c r="D120">
-        <v>1461.487117503406</v>
+        <v>-608.7376037657232</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3475,13 +3475,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>35046.2</v>
+        <v>33532.4</v>
       </c>
       <c r="C121">
-        <v>35638.21022287136</v>
+        <v>35007.0397020758</v>
       </c>
       <c r="D121">
-        <v>-592.0102228713658</v>
+        <v>-1474.639702075794</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3489,13 +3489,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>33532.4</v>
+        <v>33802.9</v>
       </c>
       <c r="C122">
-        <v>34981.91545438633</v>
+        <v>33612.37735915839</v>
       </c>
       <c r="D122">
-        <v>-1449.515454386325</v>
+        <v>190.5226408416129</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3503,13 +3503,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>33802.9</v>
+        <v>34685.4</v>
       </c>
       <c r="C123">
-        <v>33590.5810093983</v>
+        <v>33528.22234856445</v>
       </c>
       <c r="D123">
-        <v>212.3189906016996</v>
+        <v>1157.177651435552</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3517,13 +3517,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>34685.4</v>
+        <v>35305</v>
       </c>
       <c r="C124">
-        <v>33517.76638227646</v>
+        <v>34368.80489539387</v>
       </c>
       <c r="D124">
-        <v>1167.633617723543</v>
+        <v>936.1951046061295</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3531,13 +3531,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>35305</v>
+        <v>33697.6</v>
       </c>
       <c r="C125">
-        <v>34360.13034383813</v>
+        <v>35178.67479879138</v>
       </c>
       <c r="D125">
-        <v>944.8696561618708</v>
+        <v>-1481.074798791386</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3545,13 +3545,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>33697.6</v>
+        <v>34235</v>
       </c>
       <c r="C126">
-        <v>35168.74503693465</v>
+        <v>33863.84253843522</v>
       </c>
       <c r="D126">
-        <v>-1471.145036934649</v>
+        <v>371.1574615647842</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3559,13 +3559,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>34235</v>
+        <v>33885.1</v>
       </c>
       <c r="C127">
-        <v>33847.45741411569</v>
+        <v>34236.5933016926</v>
       </c>
       <c r="D127">
-        <v>387.5425858843082</v>
+        <v>-351.4933016926007</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3573,13 +3573,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>33885.1</v>
+        <v>32882.2</v>
       </c>
       <c r="C128">
-        <v>34231.67073196173</v>
+        <v>34097.32315195765</v>
       </c>
       <c r="D128">
-        <v>-346.5707319617286</v>
+        <v>-1215.123151957654</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3587,13 +3587,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>32882.2</v>
+        <v>33791</v>
       </c>
       <c r="C129">
-        <v>34088.11545754326</v>
+        <v>32901.7007729107</v>
       </c>
       <c r="D129">
-        <v>-1205.915457543262</v>
+        <v>889.299227089301</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3601,13 +3601,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>33791</v>
+        <v>33522.2</v>
       </c>
       <c r="C130">
-        <v>32891.13836320429</v>
+        <v>33448.31009409353</v>
       </c>
       <c r="D130">
-        <v>899.8616367957147</v>
+        <v>73.88990590647154</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3615,13 +3615,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>33522.2</v>
+        <v>34246.9</v>
       </c>
       <c r="C131">
-        <v>33444.95234694474</v>
+        <v>33500.91201394322</v>
       </c>
       <c r="D131">
-        <v>77.24765305525216</v>
+        <v>745.9879860567817</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3629,13 +3629,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>34246.9</v>
+        <v>33107.3</v>
       </c>
       <c r="C132">
-        <v>33491.51047351488</v>
+        <v>34058.2636290903</v>
       </c>
       <c r="D132">
-        <v>755.3895264851235</v>
+        <v>-950.9636290902999</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3643,13 +3643,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>33107.3</v>
+        <v>32722.9</v>
       </c>
       <c r="C133">
-        <v>34051.22767438996</v>
+        <v>33303.91598102581</v>
       </c>
       <c r="D133">
-        <v>-943.9276743899536</v>
+        <v>-581.0159810258119</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3657,13 +3657,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>32722.9</v>
+        <v>32815.2</v>
       </c>
       <c r="C134">
-        <v>33289.88003999664</v>
+        <v>32675.00001171033</v>
       </c>
       <c r="D134">
-        <v>-566.9800399966407</v>
+        <v>140.1999882896635</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3671,13 +3671,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>32815.2</v>
+        <v>31832.6</v>
       </c>
       <c r="C135">
-        <v>32665.73493733577</v>
+        <v>32516.69639381472</v>
       </c>
       <c r="D135">
-        <v>149.4650626642251</v>
+        <v>-684.0963938147252</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3685,13 +3685,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>31832.6</v>
+        <v>31405.9</v>
       </c>
       <c r="C136">
-        <v>32508.32481898612</v>
+        <v>31900.20279536801</v>
       </c>
       <c r="D136">
-        <v>-675.7248189861202</v>
+        <v>-494.3027953680066</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3699,13 +3699,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>31405.9</v>
+        <v>31510</v>
       </c>
       <c r="C137">
-        <v>31889.00213102857</v>
+        <v>31423.2603979703</v>
       </c>
       <c r="D137">
-        <v>-483.1021310285651</v>
+        <v>86.73960202970193</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3713,13 +3713,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>31510</v>
+        <v>31780.1</v>
       </c>
       <c r="C138">
-        <v>31416.13436875294</v>
+        <v>31441.40869046698</v>
       </c>
       <c r="D138">
-        <v>93.86563124705572</v>
+        <v>338.6913095330165</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3727,13 +3727,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>31780.1</v>
+        <v>30820.5</v>
       </c>
       <c r="C139">
-        <v>31436.47345084709</v>
+        <v>31681.68253062834</v>
       </c>
       <c r="D139">
-        <v>343.626549152912</v>
+        <v>-861.1825306283426</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3741,13 +3741,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>30820.5</v>
+        <v>29788.1</v>
       </c>
       <c r="C140">
-        <v>31674.98894047656</v>
+        <v>30875.14293753955</v>
       </c>
       <c r="D140">
-        <v>-854.4889404765563</v>
+        <v>-1087.042937539554</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3755,13 +3755,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>29788.1</v>
+        <v>32125</v>
       </c>
       <c r="C141">
-        <v>30863.50584164701</v>
+        <v>29864.04929143764</v>
       </c>
       <c r="D141">
-        <v>-1075.405841647014</v>
+        <v>2260.950708562363</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3769,13 +3769,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>32125</v>
+        <v>32283.3</v>
       </c>
       <c r="C142">
-        <v>29854.42403765424</v>
+        <v>31602.52685386193</v>
       </c>
       <c r="D142">
-        <v>2270.575962345756</v>
+        <v>680.7731461380718</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3783,13 +3783,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>32283.3</v>
+        <v>33639</v>
       </c>
       <c r="C143">
-        <v>31601.5004753783</v>
+        <v>32162.400703539</v>
       </c>
       <c r="D143">
-        <v>681.7995246216997</v>
+        <v>1476.599296461005</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3797,13 +3797,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>33639</v>
+        <v>34284.6</v>
       </c>
       <c r="C144">
-        <v>32147.37765923238</v>
+        <v>33215.69684742947</v>
       </c>
       <c r="D144">
-        <v>1491.622340767615</v>
+        <v>1068.903152570529</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3811,13 +3811,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>34284.6</v>
+        <v>35413.6</v>
       </c>
       <c r="C145">
-        <v>33202.287335131</v>
+        <v>34151.08441288493</v>
       </c>
       <c r="D145">
-        <v>1082.312664869001</v>
+        <v>1262.515587115071</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3825,13 +3825,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>35413.6</v>
+        <v>37274.9</v>
       </c>
       <c r="C146">
-        <v>34133.794462594</v>
+        <v>35068.53643333487</v>
       </c>
       <c r="D146">
-        <v>1279.805537405999</v>
+        <v>2206.363566665132</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3839,13 +3839,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>37274.9</v>
+        <v>39506.2</v>
       </c>
       <c r="C147">
-        <v>35050.9297495677</v>
+        <v>37668.5193449595</v>
       </c>
       <c r="D147">
-        <v>2223.9702504323</v>
+        <v>1837.680655040502</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3853,13 +3853,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>39506.2</v>
+        <v>40011</v>
       </c>
       <c r="C148">
-        <v>37654.11346435713</v>
+        <v>38905.80045692809</v>
       </c>
       <c r="D148">
-        <v>1852.086535642869</v>
+        <v>1105.199543071911</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3867,13 +3867,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>40011</v>
+        <v>40000</v>
       </c>
       <c r="C149">
-        <v>38885.52134296353</v>
+        <v>40095.69418290947</v>
       </c>
       <c r="D149">
-        <v>1125.478657036467</v>
+        <v>-95.69418290947215</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3881,13 +3881,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>40000</v>
+        <v>42229.6</v>
       </c>
       <c r="C150">
-        <v>40071.49280929426</v>
+        <v>40103.44585562355</v>
       </c>
       <c r="D150">
-        <v>-71.49280929425731</v>
+        <v>2126.154144376451</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3895,13 +3895,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>42229.6</v>
+        <v>41488.5</v>
       </c>
       <c r="C151">
-        <v>40081.98433961606</v>
+        <v>41483.37774542725</v>
       </c>
       <c r="D151">
-        <v>2147.615660383941</v>
+        <v>5.122254572750535</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3909,13 +3909,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>41488.5</v>
+        <v>39889.1</v>
       </c>
       <c r="C152">
-        <v>41469.88097174803</v>
+        <v>41745.81291254965</v>
       </c>
       <c r="D152">
-        <v>18.61902825196739</v>
+        <v>-1856.71291254965</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3923,13 +3923,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>39889.1</v>
+        <v>39152.3</v>
       </c>
       <c r="C153">
-        <v>41724.7620994726</v>
+        <v>40508.4427108074</v>
       </c>
       <c r="D153">
-        <v>-1835.662099472604</v>
+        <v>-1356.142710807399</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3937,13 +3937,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>39152.3</v>
+        <v>38163</v>
       </c>
       <c r="C154">
-        <v>40494.15620946095</v>
+        <v>39418.9954186508</v>
       </c>
       <c r="D154">
-        <v>-1341.856209460952</v>
+        <v>-1255.995418650797</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3951,13 +3951,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>38163</v>
+        <v>39749</v>
       </c>
       <c r="C155">
-        <v>39415.48009528421</v>
+        <v>38462.44109655393</v>
       </c>
       <c r="D155">
-        <v>-1252.480095284205</v>
+        <v>1286.558903446072</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3965,13 +3965,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>39749</v>
+        <v>40886.4</v>
       </c>
       <c r="C156">
-        <v>38462.60243134393</v>
+        <v>39313.9719341117</v>
       </c>
       <c r="D156">
-        <v>1286.397568656073</v>
+        <v>1572.4280658883</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3979,13 +3979,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>40886.4</v>
+        <v>42823.9</v>
       </c>
       <c r="C157">
-        <v>39320.16580890151</v>
+        <v>40232.46768251812</v>
       </c>
       <c r="D157">
-        <v>1566.234191098491</v>
+        <v>2591.432317481878</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3993,13 +3993,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>42823.9</v>
+        <v>44610.7</v>
       </c>
       <c r="C158">
-        <v>40228.1879444427</v>
+        <v>42363.21561831763</v>
       </c>
       <c r="D158">
-        <v>2595.712055557298</v>
+        <v>2247.48438168237</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4007,13 +4007,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>44610.7</v>
+        <v>43845.6</v>
       </c>
       <c r="C159">
-        <v>42356.42559937132</v>
+        <v>44278.11888859904</v>
       </c>
       <c r="D159">
-        <v>2254.274400628681</v>
+        <v>-432.5188885990428</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4021,13 +4021,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>43845.6</v>
+        <v>46307.1</v>
       </c>
       <c r="C160">
-        <v>44263.01526487077</v>
+        <v>44206.78515733927</v>
       </c>
       <c r="D160">
-        <v>-417.415264870775</v>
+        <v>2100.314842660729</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4035,13 +4035,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>46307.1</v>
+        <v>45595.1</v>
       </c>
       <c r="C161">
-        <v>44182.41576202953</v>
+        <v>45690.43632789457</v>
       </c>
       <c r="D161">
-        <v>2124.684237970469</v>
+        <v>-95.33632789456897</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4049,13 +4049,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>45595.1</v>
+        <v>45571.7</v>
       </c>
       <c r="C162">
-        <v>45675.74718743571</v>
+        <v>45778.38637638369</v>
       </c>
       <c r="D162">
-        <v>-80.64718743571575</v>
+        <v>-206.6863763836882</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4063,13 +4063,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>45571.7</v>
+        <v>44401.1</v>
       </c>
       <c r="C163">
-        <v>45752.92685129744</v>
+        <v>45940.57251723658</v>
       </c>
       <c r="D163">
-        <v>-181.2268512974406</v>
+        <v>-1539.47251723658</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4077,13 +4077,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>44401.1</v>
+        <v>47823.3</v>
       </c>
       <c r="C164">
-        <v>45925.47936569876</v>
+        <v>44775.60306972501</v>
       </c>
       <c r="D164">
-        <v>-1524.379365698762</v>
+        <v>3047.696930274993</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4091,13 +4091,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>47823.3</v>
+        <v>47115.2</v>
       </c>
       <c r="C165">
-        <v>44762.3737964847</v>
+        <v>47114.24692493133</v>
       </c>
       <c r="D165">
-        <v>3060.926203515308</v>
+        <v>0.9530750686681131</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4105,13 +4105,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>47115.2</v>
+        <v>47019.3</v>
       </c>
       <c r="C166">
-        <v>47115.589208224</v>
+        <v>47215.95945006836</v>
       </c>
       <c r="D166">
-        <v>-0.3892082240054151</v>
+        <v>-196.6594500683568</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4119,13 +4119,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>47019.3</v>
+        <v>45926.3</v>
       </c>
       <c r="C167">
-        <v>47197.39984927504</v>
+        <v>46855.77274198245</v>
       </c>
       <c r="D167">
-        <v>-178.0998492750368</v>
+        <v>-929.4727419824485</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4133,13 +4133,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>45926.3</v>
+        <v>44672.2</v>
       </c>
       <c r="C168">
-        <v>46842.19270926295</v>
+        <v>46445.61046797593</v>
       </c>
       <c r="D168">
-        <v>-915.8927092629456</v>
+        <v>-1773.410467975933</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4147,13 +4147,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>44672.2</v>
+        <v>44714.7</v>
       </c>
       <c r="C169">
-        <v>46433.84337015261</v>
+        <v>45234.97179827018</v>
       </c>
       <c r="D169">
-        <v>-1761.643370152611</v>
+        <v>-520.271798270187</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4161,13 +4161,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>44714.7</v>
+        <v>46765.3</v>
       </c>
       <c r="C170">
-        <v>45227.11124858755</v>
+        <v>44949.86131434597</v>
       </c>
       <c r="D170">
-        <v>-512.4112485875521</v>
+        <v>1815.438685654037</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4175,13 +4175,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>46765.3</v>
+        <v>49345.4</v>
       </c>
       <c r="C171">
-        <v>44947.78806153152</v>
+        <v>46236.69647083592</v>
       </c>
       <c r="D171">
-        <v>1817.51193846848</v>
+        <v>3108.703529164086</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4189,13 +4189,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>49345.4</v>
+        <v>48865.4</v>
       </c>
       <c r="C172">
-        <v>46236.04527199789</v>
+        <v>48823.32639942571</v>
       </c>
       <c r="D172">
-        <v>3109.354728002108</v>
+        <v>42.07360057428741</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4203,13 +4203,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>48865.4</v>
+        <v>49293.6</v>
       </c>
       <c r="C173">
-        <v>48816.26463795081</v>
+        <v>49055.78717014787</v>
       </c>
       <c r="D173">
-        <v>49.13536204919365</v>
+        <v>237.812829852126</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4217,13 +4217,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>49293.6</v>
+        <v>49517.3</v>
       </c>
       <c r="C174">
-        <v>49034.18223970215</v>
+        <v>49148.68083526439</v>
       </c>
       <c r="D174">
-        <v>259.4177602978525</v>
+        <v>368.6191647356172</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4231,13 +4231,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>49517.3</v>
+        <v>47725.4</v>
       </c>
       <c r="C175">
-        <v>49130.34188773425</v>
+        <v>49748.8931665362</v>
       </c>
       <c r="D175">
-        <v>386.9581122657546</v>
+        <v>-2023.493166536202</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4245,13 +4245,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>47725.4</v>
+        <v>48991.3</v>
       </c>
       <c r="C176">
-        <v>49731.35590094584</v>
+        <v>48267.6467183723</v>
       </c>
       <c r="D176">
-        <v>-2005.955900945839</v>
+        <v>723.6532816277031</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4259,13 +4259,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>48991.3</v>
+        <v>46848.9</v>
       </c>
       <c r="C177">
-        <v>48247.51177760432</v>
+        <v>48684.93999027493</v>
       </c>
       <c r="D177">
-        <v>743.788222395684</v>
+        <v>-1836.039990274927</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4273,13 +4273,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>46848.9</v>
+        <v>49074.9</v>
       </c>
       <c r="C178">
-        <v>48678.78349330189</v>
+        <v>47316.03535094816</v>
       </c>
       <c r="D178">
-        <v>-1829.883493301888</v>
+        <v>1758.864649051837</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4287,13 +4287,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>49074.9</v>
+        <v>48895.7</v>
       </c>
       <c r="C179">
-        <v>47300.96111093878</v>
+        <v>48489.0494822023</v>
       </c>
       <c r="D179">
-        <v>1773.938889061224</v>
+        <v>406.6505177976942</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4301,13 +4301,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>48895.7</v>
+        <v>48787.7</v>
       </c>
       <c r="C180">
-        <v>48489.92508085625</v>
+        <v>48897.97131549826</v>
       </c>
       <c r="D180">
-        <v>405.774919143747</v>
+        <v>-110.271315498263</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4315,13 +4315,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>48787.7</v>
+        <v>46985.7</v>
       </c>
       <c r="C181">
-        <v>48884.59041112903</v>
+        <v>48775.13513161254</v>
       </c>
       <c r="D181">
-        <v>-96.89041112903215</v>
+        <v>-1789.435131612539</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4329,13 +4329,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>46985.7</v>
+        <v>47140</v>
       </c>
       <c r="C182">
-        <v>48762.05503398771</v>
+        <v>47387.65934584287</v>
       </c>
       <c r="D182">
-        <v>-1776.355033987711</v>
+        <v>-247.6593458428688</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4343,13 +4343,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>47140</v>
+        <v>48872.2</v>
       </c>
       <c r="C183">
-        <v>47370.99334467348</v>
+        <v>47291.64983794608</v>
       </c>
       <c r="D183">
-        <v>-230.9933446734794</v>
+        <v>1580.550162053914</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4357,13 +4357,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>48872.2</v>
+        <v>49290.3</v>
       </c>
       <c r="C184">
-        <v>47285.36581292067</v>
+        <v>48382.6268147323</v>
       </c>
       <c r="D184">
-        <v>1586.834187079323</v>
+        <v>907.673185267704</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4371,13 +4371,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>49290.3</v>
+        <v>50018.6</v>
       </c>
       <c r="C185">
-        <v>48375.93644423474</v>
+        <v>49416.27363824265</v>
       </c>
       <c r="D185">
-        <v>914.3635557652597</v>
+        <v>602.3263617573466</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4385,13 +4385,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>50018.6</v>
+        <v>49956.1</v>
       </c>
       <c r="C186">
-        <v>49402.220243627</v>
+        <v>49890.38293738366</v>
       </c>
       <c r="D186">
-        <v>616.3797563729968</v>
+        <v>65.71706261633517</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4399,13 +4399,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>49956.1</v>
+        <v>51767.9</v>
       </c>
       <c r="C187">
-        <v>49875.66655777613</v>
+        <v>49977.99283647208</v>
       </c>
       <c r="D187">
-        <v>80.43344222386804</v>
+        <v>1789.907163527918</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4413,13 +4413,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>51767.9</v>
+        <v>52688.3</v>
       </c>
       <c r="C188">
-        <v>49959.34106459108</v>
+        <v>51301.66889833994</v>
       </c>
       <c r="D188">
-        <v>1808.558935408924</v>
+        <v>1386.631101660067</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4427,13 +4427,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>52688.3</v>
+        <v>46882.1</v>
       </c>
       <c r="C189">
-        <v>51286.80633654955</v>
+        <v>52392.64213891368</v>
       </c>
       <c r="D189">
-        <v>1401.493663450456</v>
+        <v>-5510.542138913683</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4441,13 +4441,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>46882.1</v>
+        <v>46073.4</v>
       </c>
       <c r="C190">
-        <v>52370.68607028655</v>
+        <v>47071.91832664321</v>
       </c>
       <c r="D190">
-        <v>-5488.586070286554</v>
+        <v>-998.5183266432068</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4455,13 +4455,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>46073.4</v>
+        <v>46389.6</v>
       </c>
       <c r="C191">
-        <v>47031.42445843367</v>
+        <v>45893.76100785926</v>
       </c>
       <c r="D191">
-        <v>-958.0244584336688</v>
+        <v>495.8389921407434</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4469,13 +4469,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>46389.6</v>
+        <v>44842.2</v>
       </c>
       <c r="C192">
-        <v>45887.41781000243</v>
+        <v>46317.87364689622</v>
       </c>
       <c r="D192">
-        <v>502.1821899975694</v>
+        <v>-1475.673646896219</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4483,13 +4483,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>44842.2</v>
+        <v>45137.4</v>
       </c>
       <c r="C193">
-        <v>46316.51525822302</v>
+        <v>45057.51275861234</v>
       </c>
       <c r="D193">
-        <v>-1474.315258223025</v>
+        <v>79.88724138765974</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4497,13 +4497,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>45137.4</v>
+        <v>46061.3</v>
       </c>
       <c r="C194">
-        <v>45048.27512696636</v>
+        <v>45107.00219368088</v>
       </c>
       <c r="D194">
-        <v>89.12487303364469</v>
+        <v>954.2978063191258</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4511,13 +4511,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>46061.3</v>
+        <v>44965.8</v>
       </c>
       <c r="C195">
-        <v>45104.07995490209</v>
+        <v>45726.45051544817</v>
       </c>
       <c r="D195">
-        <v>957.2200450979144</v>
+        <v>-760.6505154481711</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4525,13 +4525,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>44965.8</v>
+        <v>47145.9</v>
       </c>
       <c r="C196">
-        <v>45718.94648499991</v>
+        <v>44894.9462158611</v>
       </c>
       <c r="D196">
-        <v>-753.1464849999029</v>
+        <v>2250.953784138903</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4539,13 +4539,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>47145.9</v>
+        <v>48152.3</v>
       </c>
       <c r="C197">
-        <v>44874.25402842107</v>
+        <v>46513.94241416708</v>
       </c>
       <c r="D197">
-        <v>2271.645971578931</v>
+        <v>1638.357585832928</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4553,13 +4553,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>48152.3</v>
+        <v>47786.9</v>
       </c>
       <c r="C198">
-        <v>46503.06706723064</v>
+        <v>47841.61575516383</v>
       </c>
       <c r="D198">
-        <v>1649.232932769359</v>
+        <v>-54.71575516383018</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4567,13 +4567,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>47786.9</v>
+        <v>47269.7</v>
       </c>
       <c r="C199">
-        <v>47819.67487201357</v>
+        <v>47714.82812842776</v>
       </c>
       <c r="D199">
-        <v>-32.77487201356416</v>
+        <v>-445.1281284277648</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4581,13 +4581,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>47269.7</v>
+        <v>48309.9</v>
       </c>
       <c r="C200">
-        <v>47687.12435441063</v>
+        <v>47298.87119273384</v>
       </c>
       <c r="D200">
-        <v>-417.4243544106284</v>
+        <v>1011.028807266157</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4595,13 +4595,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>48309.9</v>
+        <v>47237.8</v>
       </c>
       <c r="C201">
-        <v>47274.89483102853</v>
+        <v>48073.85746139879</v>
       </c>
       <c r="D201">
-        <v>1035.005168971467</v>
+        <v>-836.0574613987847</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4609,13 +4609,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>47237.8</v>
+        <v>42992.9</v>
       </c>
       <c r="C202">
-        <v>48056.80937411814</v>
+        <v>47332.97999635336</v>
       </c>
       <c r="D202">
-        <v>-819.0093741181336</v>
+        <v>-4340.079996353357</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4623,13 +4623,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>42992.9</v>
+        <v>40710.6</v>
       </c>
       <c r="C203">
-        <v>47309.53277310904</v>
+        <v>43745.77484020154</v>
       </c>
       <c r="D203">
-        <v>-4316.632773109035</v>
+        <v>-3035.174840201544</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4637,13 +4637,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>40710.6</v>
+        <v>43562.8</v>
       </c>
       <c r="C204">
-        <v>43722.17727432115</v>
+        <v>40948.41159747847</v>
       </c>
       <c r="D204">
-        <v>-3011.577274321149</v>
+        <v>2614.388402521538</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4651,13 +4651,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>43562.8</v>
+        <v>44889.8</v>
       </c>
       <c r="C205">
-        <v>40943.98299678441</v>
+        <v>42803.47904596865</v>
       </c>
       <c r="D205">
-        <v>2618.81700321559</v>
+        <v>2086.320954031355</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4665,13 +4665,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>44889.8</v>
+        <v>42833.2</v>
       </c>
       <c r="C206">
-        <v>42813.56149624952</v>
+        <v>44377.75982828703</v>
       </c>
       <c r="D206">
-        <v>2076.238503750486</v>
+        <v>-1544.559828287034</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4679,13 +4679,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>42833.2</v>
+        <v>42710.1</v>
       </c>
       <c r="C207">
-        <v>44369.28819639416</v>
+        <v>42727.4837360213</v>
       </c>
       <c r="D207">
-        <v>-1536.088196394165</v>
+        <v>-17.38373602130014</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4693,13 +4693,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>42710.1</v>
+        <v>43204.6</v>
       </c>
       <c r="C208">
-        <v>42703.32906006055</v>
+        <v>42377.18087301144</v>
       </c>
       <c r="D208">
-        <v>6.770939939444361</v>
+        <v>827.4191269885559</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4707,13 +4707,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>43204.6</v>
+        <v>42176.3</v>
       </c>
       <c r="C209">
-        <v>42362.2511353156</v>
+        <v>42647.90054986964</v>
       </c>
       <c r="D209">
-        <v>842.348864684398</v>
+        <v>-471.6005498696322</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4721,13 +4721,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>42176.3</v>
+        <v>41038.4</v>
       </c>
       <c r="C210">
-        <v>42630.67105250276</v>
+        <v>42520.16939992091</v>
       </c>
       <c r="D210">
-        <v>-454.3710525027564</v>
+        <v>-1481.769399920908</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4735,13 +4735,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>41038.4</v>
+        <v>41524.8</v>
       </c>
       <c r="C211">
-        <v>42498.90395906105</v>
+        <v>41239.97704555295</v>
       </c>
       <c r="D211">
-        <v>-1460.503959061047</v>
+        <v>284.8229544470523</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4749,13 +4749,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>41524.8</v>
+        <v>43798.7</v>
       </c>
       <c r="C212">
-        <v>41221.84376093696</v>
+        <v>41427.10500016765</v>
       </c>
       <c r="D212">
-        <v>302.9562390630454</v>
+        <v>2371.594999832349</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4763,13 +4763,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>43798.7</v>
+        <v>48163.7</v>
       </c>
       <c r="C213">
-        <v>41417.4325279755</v>
+        <v>43198.85087964646</v>
       </c>
       <c r="D213">
-        <v>2381.267472024498</v>
+        <v>4964.849120353538</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4777,13 +4777,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>48163.7</v>
+        <v>47662</v>
       </c>
       <c r="C214">
-        <v>43188.93017346752</v>
+        <v>47048.75075471791</v>
       </c>
       <c r="D214">
-        <v>4974.769826532473</v>
+        <v>613.2492452820879</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4791,13 +4791,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>47662</v>
+        <v>48230.2</v>
       </c>
       <c r="C215">
-        <v>47032.25310175429</v>
+        <v>47765.72159259339</v>
       </c>
       <c r="D215">
-        <v>629.7468982457067</v>
+        <v>464.478407406612</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4805,13 +4805,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>48230.2</v>
+        <v>49243.3</v>
       </c>
       <c r="C216">
-        <v>47726.50196930673</v>
+        <v>48197.69847087577</v>
       </c>
       <c r="D216">
-        <v>503.6980306932674</v>
+        <v>1045.601529124237</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4819,13 +4819,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>49243.3</v>
+        <v>51487</v>
       </c>
       <c r="C217">
-        <v>48167.35218600853</v>
+        <v>48763.76514278533</v>
       </c>
       <c r="D217">
-        <v>1075.947813991472</v>
+        <v>2723.234857214673</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4833,13 +4833,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>51487</v>
+        <v>55350.2</v>
       </c>
       <c r="C218">
-        <v>48735.10167012524</v>
+        <v>51089.1281663616</v>
       </c>
       <c r="D218">
-        <v>2751.898329874763</v>
+        <v>4261.071833638402</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4847,13 +4847,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>55350.2</v>
+        <v>53817.3</v>
       </c>
       <c r="C219">
-        <v>51065.59671484676</v>
+        <v>54415.98418358219</v>
       </c>
       <c r="D219">
-        <v>4284.603285153236</v>
+        <v>-598.6841835821833</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4861,13 +4861,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>53817.3</v>
+        <v>53960.5</v>
       </c>
       <c r="C220">
-        <v>54392.58713108688</v>
+        <v>54203.56028708394</v>
       </c>
       <c r="D220">
-        <v>-575.2871310868795</v>
+        <v>-243.0602870839357</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4875,13 +4875,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>53960.5</v>
+        <v>54960.2</v>
       </c>
       <c r="C221">
-        <v>54164.78442861367</v>
+        <v>54512.0710278608</v>
       </c>
       <c r="D221">
-        <v>-204.2844286136678</v>
+        <v>448.128972139195</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4889,13 +4889,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>54960.2</v>
+        <v>54677.5</v>
       </c>
       <c r="C222">
-        <v>54493.30315991223</v>
+        <v>54910.36607124412</v>
       </c>
       <c r="D222">
-        <v>466.8968400877638</v>
+        <v>-232.8660712441197</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4903,13 +4903,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>54677.5</v>
+        <v>57499.5</v>
       </c>
       <c r="C223">
-        <v>54895.78551842732</v>
+        <v>55092.10397522373</v>
       </c>
       <c r="D223">
-        <v>-218.2855184273212</v>
+        <v>2407.396024776273</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4917,13 +4917,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>57499.5</v>
+        <v>56010.1</v>
       </c>
       <c r="C224">
-        <v>55076.42644086134</v>
+        <v>57010.763859878</v>
       </c>
       <c r="D224">
-        <v>2423.073559138662</v>
+        <v>-1000.663859878005</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4931,13 +4931,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>56010.1</v>
+        <v>57381.2</v>
       </c>
       <c r="C225">
-        <v>57005.22559327481</v>
+        <v>56044.93414811802</v>
       </c>
       <c r="D225">
-        <v>-995.1255932748099</v>
+        <v>1336.265851881981</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4945,13 +4945,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>57381.2</v>
+        <v>57377.6</v>
       </c>
       <c r="C226">
-        <v>56022.80713207784</v>
+        <v>56851.09941452005</v>
       </c>
       <c r="D226">
-        <v>1358.392867922157</v>
+        <v>526.5005854799456</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4959,13 +4959,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>57377.6</v>
+        <v>61656.2</v>
       </c>
       <c r="C227">
-        <v>56843.22179650867</v>
+        <v>57658.01247237544</v>
       </c>
       <c r="D227">
-        <v>534.3782034913238</v>
+        <v>3998.187527624556</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4973,13 +4973,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>61656.2</v>
+        <v>60873.4</v>
       </c>
       <c r="C228">
-        <v>57644.94764823111</v>
+        <v>61003.40616298214</v>
       </c>
       <c r="D228">
-        <v>4011.252351768882</v>
+        <v>-130.0061629821357</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4987,13 +4987,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>60873.4</v>
+        <v>61526.5</v>
       </c>
       <c r="C229">
-        <v>60999.13383529527</v>
+        <v>61227.05006669922</v>
       </c>
       <c r="D229">
-        <v>-125.733835295272</v>
+        <v>299.4499333007843</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5001,13 +5001,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>61526.5</v>
+        <v>62037.7</v>
       </c>
       <c r="C230">
-        <v>61198.47370437282</v>
+        <v>61094.44553013207</v>
       </c>
       <c r="D230">
-        <v>328.0262956271763</v>
+        <v>943.2544698679267</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5015,13 +5015,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>62037.7</v>
+        <v>64284.9</v>
       </c>
       <c r="C231">
-        <v>61073.48528017939</v>
+        <v>61831.83675565119</v>
       </c>
       <c r="D231">
-        <v>964.2147198206076</v>
+        <v>2453.063244348807</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5029,13 +5029,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>64284.9</v>
+        <v>66035.8</v>
       </c>
       <c r="C232">
-        <v>61811.88332879619</v>
+        <v>63807.80735944287</v>
       </c>
       <c r="D232">
-        <v>2473.016671203812</v>
+        <v>2227.992640557131</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5043,13 +5043,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>66035.8</v>
+        <v>62198</v>
       </c>
       <c r="C233">
-        <v>63792.90218419253</v>
+        <v>65877.90389351064</v>
       </c>
       <c r="D233">
-        <v>2242.897815807475</v>
+        <v>-3679.903893510636</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5057,13 +5057,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>62198</v>
+        <v>60687.5</v>
       </c>
       <c r="C234">
-        <v>65858.02708458112</v>
+        <v>61342.79159705655</v>
       </c>
       <c r="D234">
-        <v>-3660.027084581117</v>
+        <v>-655.2915970565518</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5071,13 +5071,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>60687.5</v>
+        <v>61296.9</v>
       </c>
       <c r="C235">
-        <v>61299.50140913433</v>
+        <v>61274.24649743258</v>
       </c>
       <c r="D235">
-        <v>-612.0014091343328</v>
+        <v>22.65350256741658</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5085,13 +5085,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>61296.9</v>
+        <v>60882.5</v>
       </c>
       <c r="C236">
-        <v>61259.62140828717</v>
+        <v>61007.98745748168</v>
       </c>
       <c r="D236">
-        <v>37.27859171282762</v>
+        <v>-125.4874574816786</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5099,13 +5099,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>60882.5</v>
+        <v>63081.8</v>
       </c>
       <c r="C237">
-        <v>61000.9034976087</v>
+        <v>60692.24318876298</v>
       </c>
       <c r="D237">
-        <v>-118.4034976086987</v>
+        <v>2389.556811237024</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5113,13 +5113,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>63081.8</v>
+        <v>60310.2</v>
       </c>
       <c r="C238">
-        <v>60679.35378572883</v>
+        <v>62677.96625090821</v>
       </c>
       <c r="D238">
-        <v>2402.446214271171</v>
+        <v>-2367.766250908215</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5127,13 +5127,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>60310.2</v>
+        <v>58500.1</v>
       </c>
       <c r="C239">
-        <v>62671.59021169876</v>
+        <v>60855.34001586126</v>
       </c>
       <c r="D239">
-        <v>-2361.390211698759</v>
+        <v>-2355.240015861265</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5141,13 +5141,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>58500.1</v>
+        <v>60613.5</v>
       </c>
       <c r="C240">
-        <v>60829.09235220958</v>
+        <v>59048.13816939207</v>
       </c>
       <c r="D240">
-        <v>-2328.992352209585</v>
+        <v>1565.36183060793</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5155,13 +5155,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>60613.5</v>
+        <v>62246.5</v>
       </c>
       <c r="C241">
-        <v>59032.15318259646</v>
+        <v>60416.02160883602</v>
       </c>
       <c r="D241">
-        <v>1581.346817403537</v>
+        <v>1830.478391163982</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5169,13 +5169,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>62246.5</v>
+        <v>61866.3</v>
       </c>
       <c r="C242">
-        <v>60414.6455733043</v>
+        <v>61945.07667614904</v>
       </c>
       <c r="D242">
-        <v>1831.854426695703</v>
+        <v>-78.77667614903476</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5183,13 +5183,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>61866.3</v>
+        <v>61380.1</v>
       </c>
       <c r="C243">
-        <v>61931.31248101938</v>
+        <v>61718.39454025251</v>
       </c>
       <c r="D243">
-        <v>-65.01248101938108</v>
+        <v>-338.2945402525147</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5197,13 +5197,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>61380.1</v>
+        <v>60954.5</v>
       </c>
       <c r="C244">
-        <v>61693.05349214029</v>
+        <v>61297.18004723842</v>
       </c>
       <c r="D244">
-        <v>-312.9534921402883</v>
+        <v>-342.6800472384202</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5211,13 +5211,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>60954.5</v>
+        <v>63279.7</v>
       </c>
       <c r="C245">
-        <v>61273.66641893037</v>
+        <v>60923.8014245719</v>
       </c>
       <c r="D245">
-        <v>-319.1664189303701</v>
+        <v>2355.898575428102</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5225,13 +5225,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>63279.7</v>
+        <v>62942.9</v>
       </c>
       <c r="C246">
-        <v>60902.01437977355</v>
+        <v>62922.19976458489</v>
       </c>
       <c r="D246">
-        <v>2377.685620226446</v>
+        <v>20.70023541511182</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5239,13 +5239,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>62942.9</v>
+        <v>61449</v>
       </c>
       <c r="C247">
-        <v>62907.75190348664</v>
+        <v>62590.77377812698</v>
       </c>
       <c r="D247">
-        <v>35.14809651335963</v>
+        <v>-1141.773778126983</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5253,13 +5253,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>61449</v>
+        <v>61006.2</v>
       </c>
       <c r="C248">
-        <v>62560.98645461941</v>
+        <v>61612.87765762757</v>
       </c>
       <c r="D248">
-        <v>-1111.986454619415</v>
+        <v>-606.6776576275734</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5267,13 +5267,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>61006.2</v>
+        <v>61536.3</v>
       </c>
       <c r="C249">
-        <v>61586.39445147043</v>
+        <v>61285.60694582213</v>
       </c>
       <c r="D249">
-        <v>-580.1944514704373</v>
+        <v>250.6930541778711</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5281,13 +5281,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>61536.3</v>
+        <v>63317.8</v>
       </c>
       <c r="C250">
-        <v>61269.3803598161</v>
+        <v>61171.20458527392</v>
       </c>
       <c r="D250">
-        <v>266.9196401838999</v>
+        <v>2146.595414726078</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5295,13 +5295,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>63317.8</v>
+        <v>67559.8</v>
       </c>
       <c r="C251">
-        <v>61156.37204488597</v>
+        <v>62847.66709234257</v>
       </c>
       <c r="D251">
-        <v>2161.427955114035</v>
+        <v>4712.132907657433</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5309,13 +5309,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>67559.8</v>
+        <v>66950</v>
       </c>
       <c r="C252">
-        <v>62833.70295965808</v>
+        <v>66685.20748681115</v>
       </c>
       <c r="D252">
-        <v>4726.09704034192</v>
+        <v>264.7925131888478</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5323,13 +5323,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>66950</v>
+        <v>64969</v>
       </c>
       <c r="C253">
-        <v>66670.78873575342</v>
+        <v>67249.04262439441</v>
       </c>
       <c r="D253">
-        <v>279.21126424658</v>
+        <v>-2280.042624394409</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5337,13 +5337,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>64969</v>
+        <v>64825.4</v>
       </c>
       <c r="C254">
-        <v>67213.18376979991</v>
+        <v>65419.90886111488</v>
       </c>
       <c r="D254">
-        <v>-2244.183769799914</v>
+        <v>-594.5088611148749</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5351,13 +5351,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>64825.4</v>
+        <v>64153</v>
       </c>
       <c r="C255">
-        <v>65386.1507667996</v>
+        <v>64869.94865503476</v>
       </c>
       <c r="D255">
-        <v>-560.7507667996033</v>
+        <v>-716.9486550347647</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5365,13 +5365,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>64153</v>
+        <v>64393.1</v>
       </c>
       <c r="C256">
-        <v>64849.32120304563</v>
+        <v>64033.71999773703</v>
       </c>
       <c r="D256">
-        <v>-696.3212030456343</v>
+        <v>359.3800022629657</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5379,13 +5379,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>64393.1</v>
+        <v>65495</v>
       </c>
       <c r="C257">
-        <v>64013.84384894269</v>
+        <v>64291.1009143875</v>
       </c>
       <c r="D257">
-        <v>379.2561510573069</v>
+        <v>1203.899085612502</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5393,13 +5393,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>65495</v>
+        <v>63615.8</v>
       </c>
       <c r="C258">
-        <v>64278.21812115653</v>
+        <v>65052.95422594325</v>
       </c>
       <c r="D258">
-        <v>1216.781878843467</v>
+        <v>-1437.154225943246</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5407,13 +5407,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>63615.8</v>
+        <v>60137.2</v>
       </c>
       <c r="C259">
-        <v>65042.02375972838</v>
+        <v>64164.65591057716</v>
       </c>
       <c r="D259">
-        <v>-1426.223759728382</v>
+        <v>-4027.455910577162</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5421,13 +5421,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>60137.2</v>
+        <v>60367.8</v>
       </c>
       <c r="C260">
-        <v>64145.89035768001</v>
+        <v>60498.81201493432</v>
       </c>
       <c r="D260">
-        <v>-4008.69035768001</v>
+        <v>-131.0120149343129</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5435,13 +5435,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>60367.8</v>
+        <v>56921.7</v>
       </c>
       <c r="C261">
-        <v>60479.46117627955</v>
+        <v>59897.18669267051</v>
       </c>
       <c r="D261">
-        <v>-111.661176279551</v>
+        <v>-2975.486692670514</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5449,13 +5449,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>56921.7</v>
+        <v>58099.6</v>
       </c>
       <c r="C262">
-        <v>59894.47782109558</v>
+        <v>57595.8403397146</v>
       </c>
       <c r="D262">
-        <v>-2972.777821095588</v>
+        <v>503.7596602853955</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5463,13 +5463,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>58099.6</v>
+        <v>59744.2</v>
       </c>
       <c r="C263">
-        <v>57582.17000373287</v>
+        <v>57416.02694999654</v>
       </c>
       <c r="D263">
-        <v>517.4299962671284</v>
+        <v>2328.173050003461</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5477,13 +5477,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>59744.2</v>
+        <v>58646.2</v>
       </c>
       <c r="C264">
-        <v>57418.10052672101</v>
+        <v>59063.79132839519</v>
       </c>
       <c r="D264">
-        <v>2326.099473278984</v>
+        <v>-417.5913283951959</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5491,13 +5491,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>58646.2</v>
+        <v>56295.5</v>
       </c>
       <c r="C265">
-        <v>59056.49544945123</v>
+        <v>58774.50939282757</v>
       </c>
       <c r="D265">
-        <v>-410.2954494512378</v>
+        <v>-2479.009392827575</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5505,13 +5505,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>56295.5</v>
+        <v>57571.4</v>
       </c>
       <c r="C266">
-        <v>58751.965386859</v>
+        <v>56662.16318432416</v>
       </c>
       <c r="D266">
-        <v>-2456.465386858996</v>
+        <v>909.2368156758384</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5519,13 +5519,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>57571.4</v>
+        <v>57203.3</v>
       </c>
       <c r="C267">
-        <v>56637.01913574481</v>
+        <v>56943.84016055462</v>
       </c>
       <c r="D267">
-        <v>934.3808642551958</v>
+        <v>259.4598394453787</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5533,13 +5533,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>57203.3</v>
+        <v>58932.6</v>
       </c>
       <c r="C268">
-        <v>56930.32892077303</v>
+        <v>56842.64438799338</v>
       </c>
       <c r="D268">
-        <v>272.9710792269761</v>
+        <v>2089.955612006619</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5547,13 +5547,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>58932.6</v>
+        <v>53789</v>
       </c>
       <c r="C269">
-        <v>56818.25695903387</v>
+        <v>58455.36269758211</v>
       </c>
       <c r="D269">
-        <v>2114.343040966131</v>
+        <v>-4666.36269758211</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5561,13 +5561,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>53789</v>
+        <v>54784.9</v>
       </c>
       <c r="C270">
-        <v>58437.23315831585</v>
+        <v>54777.08477120128</v>
       </c>
       <c r="D270">
-        <v>-4648.233158315852</v>
+        <v>7.815228798725002</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5575,13 +5575,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>54784.9</v>
+        <v>57300</v>
       </c>
       <c r="C271">
-        <v>54738.97687042531</v>
+        <v>54412.37945980855</v>
       </c>
       <c r="D271">
-        <v>45.92312957469403</v>
+        <v>2887.620540191449</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5589,13 +5589,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>57300</v>
+        <v>57830.2</v>
       </c>
       <c r="C272">
-        <v>54404.22161324674</v>
+        <v>56196.90023128971</v>
       </c>
       <c r="D272">
-        <v>2895.778386753256</v>
+        <v>1633.299768710291</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5603,13 +5603,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>57830.2</v>
+        <v>56980.7</v>
       </c>
       <c r="C273">
-        <v>56183.05184217411</v>
+        <v>57705.74484054931</v>
       </c>
       <c r="D273">
-        <v>1647.148157825883</v>
+        <v>-725.044840549308</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5617,13 +5617,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>56980.7</v>
+        <v>57237.9</v>
       </c>
       <c r="C274">
-        <v>57680.37269784373</v>
+        <v>57133.55618726611</v>
       </c>
       <c r="D274">
-        <v>-699.6726978437364</v>
+        <v>104.3438127338959</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5631,13 +5631,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>57237.9</v>
+        <v>56526.4</v>
       </c>
       <c r="C275">
-        <v>57104.57691587307</v>
+        <v>57389.23560448928</v>
       </c>
       <c r="D275">
-        <v>133.3230841269324</v>
+        <v>-862.8356044892789</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5645,13 +5645,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>56526.4</v>
+        <v>53678.6</v>
       </c>
       <c r="C276">
-        <v>57366.93024299465</v>
+        <v>56445.63499980365</v>
       </c>
       <c r="D276">
-        <v>-840.5302429946532</v>
+        <v>-2767.034999803647</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5659,13 +5659,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>53678.6</v>
+        <v>49255.1</v>
       </c>
       <c r="C277">
-        <v>56419.3868435387</v>
+        <v>53968.87176863145</v>
       </c>
       <c r="D277">
-        <v>-2740.786843538699</v>
+        <v>-4713.77176863145</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5673,13 +5673,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>49255.1</v>
+        <v>49443.3</v>
       </c>
       <c r="C278">
-        <v>53941.69903866033</v>
+        <v>47874.69708798444</v>
       </c>
       <c r="D278">
-        <v>-4686.59903866033</v>
+        <v>1568.602912015558</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5687,13 +5687,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>49443.3</v>
+        <v>50564.3</v>
       </c>
       <c r="C279">
-        <v>47845.42854042686</v>
+        <v>48850.18587991319</v>
       </c>
       <c r="D279">
-        <v>1597.871459573144</v>
+        <v>1714.114120086815</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5701,13 +5701,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>50564.3</v>
+        <v>50650.1</v>
       </c>
       <c r="C280">
-        <v>48850.17399983536</v>
+        <v>49587.51854854563</v>
       </c>
       <c r="D280">
-        <v>1714.126000164644</v>
+        <v>1062.581451454367</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5715,13 +5715,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>50650.1</v>
+        <v>50515.1</v>
       </c>
       <c r="C281">
-        <v>49581.88580848189</v>
+        <v>50583.66087631436</v>
       </c>
       <c r="D281">
-        <v>1068.214191518106</v>
+        <v>-68.56087631436094</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5729,13 +5729,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>50515.1</v>
+        <v>47581.6</v>
       </c>
       <c r="C282">
-        <v>50569.29308637252</v>
+        <v>49952.02727648587</v>
       </c>
       <c r="D282">
-        <v>-54.19308637252107</v>
+        <v>-2370.427276485869</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5743,13 +5743,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>47581.6</v>
+        <v>47218.3</v>
       </c>
       <c r="C283">
-        <v>49928.94775613328</v>
+        <v>47955.15564514016</v>
       </c>
       <c r="D283">
-        <v>-2347.347756133277</v>
+        <v>-736.8556451401528</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5757,13 +5757,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>47218.3</v>
+        <v>49367.2</v>
       </c>
       <c r="C284">
-        <v>47923.00577353101</v>
+        <v>47524.8793153429</v>
       </c>
       <c r="D284">
-        <v>-704.7057735310082</v>
+        <v>1842.320684657097</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5771,13 +5771,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>49367.2</v>
+        <v>50113.2</v>
       </c>
       <c r="C285">
-        <v>47507.38517009508</v>
+        <v>48557.80905197468</v>
       </c>
       <c r="D285">
-        <v>1859.814829904921</v>
+        <v>1555.390948025321</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5785,13 +5785,13 @@
         <v>288</v>
       </c>
       <c r="B286">
-        <v>50113.2</v>
+        <v>46732.2</v>
       </c>
       <c r="C286">
-        <v>48545.55336513702</v>
+        <v>49717.34480563927</v>
       </c>
       <c r="D286">
-        <v>1567.646634862976</v>
+        <v>-2985.144805639269</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5799,13 +5799,13 @@
         <v>289</v>
       </c>
       <c r="B287">
-        <v>46732.2</v>
+        <v>48399.2</v>
       </c>
       <c r="C287">
-        <v>49693.00358064758</v>
+        <v>47058.68714444677</v>
       </c>
       <c r="D287">
-        <v>-2960.803580647582</v>
+        <v>1340.512855553228</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5813,13 +5813,13 @@
         <v>290</v>
       </c>
       <c r="B288">
-        <v>48399.2</v>
+        <v>48881.3</v>
       </c>
       <c r="C288">
-        <v>47023.99814035092</v>
+        <v>47755.98790166303</v>
       </c>
       <c r="D288">
-        <v>1375.201859649082</v>
+        <v>1125.312098336974</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5827,13 +5827,13 @@
         <v>291</v>
       </c>
       <c r="B289">
-        <v>48881.3</v>
+        <v>47631</v>
       </c>
       <c r="C289">
-        <v>47742.78380644161</v>
+        <v>48297.54967256833</v>
       </c>
       <c r="D289">
-        <v>1138.516193558389</v>
+        <v>-666.5496725683333</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5841,13 +5841,13 @@
         <v>292</v>
       </c>
       <c r="B290">
-        <v>47631</v>
+        <v>46168.3</v>
       </c>
       <c r="C290">
-        <v>48273.60610955753</v>
+        <v>47854.08545335822</v>
       </c>
       <c r="D290">
-        <v>-642.6061095575278</v>
+        <v>-1685.785453358214</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5855,13 +5855,13 @@
         <v>293</v>
       </c>
       <c r="B291">
-        <v>46168.3</v>
+        <v>46864.3</v>
       </c>
       <c r="C291">
-        <v>47827.27841552088</v>
+        <v>46233.96144839961</v>
       </c>
       <c r="D291">
-        <v>-1658.978415520876</v>
+        <v>630.3385516003909</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5869,13 +5869,13 @@
         <v>294</v>
       </c>
       <c r="B292">
-        <v>46864.3</v>
+        <v>46688.4</v>
       </c>
       <c r="C292">
-        <v>46212.03132656074</v>
+        <v>46444.032782625</v>
       </c>
       <c r="D292">
-        <v>652.2686734392628</v>
+        <v>244.3672173750019</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5883,13 +5883,13 @@
         <v>295</v>
       </c>
       <c r="B293">
-        <v>46688.4</v>
+        <v>46898.1</v>
       </c>
       <c r="C293">
-        <v>46432.15802383714</v>
+        <v>46808.97038187558</v>
       </c>
       <c r="D293">
-        <v>256.2419761628626</v>
+        <v>89.1296181244179</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5897,13 +5897,13 @@
         <v>296</v>
       </c>
       <c r="B294">
-        <v>46898.1</v>
+        <v>48925.9</v>
       </c>
       <c r="C294">
-        <v>46793.19009666631</v>
+        <v>46582.80810767319</v>
       </c>
       <c r="D294">
-        <v>104.9099033336897</v>
+        <v>2343.091892326811</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5911,13 +5911,13 @@
         <v>297</v>
       </c>
       <c r="B295">
-        <v>48925.9</v>
+        <v>48624.9</v>
       </c>
       <c r="C295">
-        <v>46567.41623570203</v>
+        <v>48352.3031559982</v>
       </c>
       <c r="D295">
-        <v>2358.483764297976</v>
+        <v>272.5968440017969</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5925,13 +5925,13 @@
         <v>298</v>
       </c>
       <c r="B296">
-        <v>48624.9</v>
+        <v>50818.8</v>
       </c>
       <c r="C296">
-        <v>48339.52564968038</v>
+        <v>48708.12973045939</v>
       </c>
       <c r="D296">
-        <v>285.3743503196238</v>
+        <v>2110.670269540613</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5939,13 +5939,13 @@
         <v>299</v>
       </c>
       <c r="B297">
-        <v>50818.8</v>
+        <v>50834.3</v>
       </c>
       <c r="C297">
-        <v>48685.27955401249</v>
+        <v>50218.32882151613</v>
       </c>
       <c r="D297">
-        <v>2133.520445987509</v>
+        <v>615.9711784838728</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5953,13 +5953,13 @@
         <v>300</v>
       </c>
       <c r="B298">
-        <v>50834.3</v>
+        <v>50436</v>
       </c>
       <c r="C298">
-        <v>50201.03324540943</v>
+        <v>50937.9264339582</v>
       </c>
       <c r="D298">
-        <v>633.2667545905715</v>
+        <v>-501.9264339582005</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5967,13 +5967,13 @@
         <v>301</v>
       </c>
       <c r="B299">
-        <v>50436</v>
+        <v>50797.3</v>
       </c>
       <c r="C299">
-        <v>50911.13347264507</v>
+        <v>50481.30857527643</v>
       </c>
       <c r="D299">
-        <v>-475.1334726450732</v>
+        <v>315.991424723572</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5981,13 +5981,13 @@
         <v>302</v>
       </c>
       <c r="B300">
-        <v>50797.3</v>
+        <v>50687.4</v>
       </c>
       <c r="C300">
-        <v>50456.48725573707</v>
+        <v>50500.71048206615</v>
       </c>
       <c r="D300">
-        <v>340.8127442629338</v>
+        <v>186.6895179338535</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5995,13 +5995,13 @@
         <v>303</v>
       </c>
       <c r="B301">
-        <v>50687.4</v>
+        <v>47548.1</v>
       </c>
       <c r="C301">
-        <v>50481.41102186375</v>
+        <v>50913.57883805549</v>
       </c>
       <c r="D301">
-        <v>205.9889781362508</v>
+        <v>-3365.478838055489</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6009,13 +6009,13 @@
         <v>304</v>
       </c>
       <c r="B302">
-        <v>47548.1</v>
+        <v>46473.2</v>
       </c>
       <c r="C302">
-        <v>50896.94807507761</v>
+        <v>48110.45278717708</v>
       </c>
       <c r="D302">
-        <v>-3348.848075077614</v>
+        <v>-1637.252787177087</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6023,13 +6023,13 @@
         <v>305</v>
       </c>
       <c r="B303">
-        <v>46473.2</v>
+        <v>47143.8</v>
       </c>
       <c r="C303">
-        <v>48090.10840491866</v>
+        <v>46633.25943094929</v>
       </c>
       <c r="D303">
-        <v>-1616.908404918664</v>
+        <v>510.5405690507177</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6037,13 +6037,13 @@
         <v>306</v>
       </c>
       <c r="B304">
-        <v>47143.8</v>
+        <v>46150</v>
       </c>
       <c r="C304">
-        <v>46628.75953673178</v>
+        <v>46889.87357815533</v>
       </c>
       <c r="D304">
-        <v>515.0404632682184</v>
+        <v>-739.873578155326</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6051,13 +6051,13 @@
         <v>307</v>
       </c>
       <c r="B305">
-        <v>46150</v>
+        <v>47738.3</v>
       </c>
       <c r="C305">
-        <v>46891.13031455601</v>
+        <v>46410.99157831239</v>
       </c>
       <c r="D305">
-        <v>-741.1303145560087</v>
+        <v>1327.308421687616</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6065,13 +6065,13 @@
         <v>308</v>
       </c>
       <c r="B306">
-        <v>47738.3</v>
+        <v>47304.6</v>
       </c>
       <c r="C306">
-        <v>46403.62967684647</v>
+        <v>47274.26407634624</v>
       </c>
       <c r="D306">
-        <v>1334.670323153536</v>
+        <v>30.33592365375807</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6079,13 +6079,13 @@
         <v>309</v>
       </c>
       <c r="B307">
-        <v>47304.6</v>
+        <v>46452.6</v>
       </c>
       <c r="C307">
-        <v>47271.1398810136</v>
+        <v>47184.94782656716</v>
       </c>
       <c r="D307">
-        <v>33.46011898639699</v>
+        <v>-732.3478265671656</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6093,13 +6093,13 @@
         <v>310</v>
       </c>
       <c r="B308">
-        <v>46452.6</v>
+        <v>45858.5</v>
       </c>
       <c r="C308">
-        <v>47169.07223184587</v>
+        <v>46395.1869465503</v>
       </c>
       <c r="D308">
-        <v>-716.4722318458735</v>
+        <v>-536.6869465502969</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6107,13 +6107,13 @@
         <v>311</v>
       </c>
       <c r="B309">
-        <v>45858.5</v>
+        <v>43410</v>
       </c>
       <c r="C309">
-        <v>46377.36057356599</v>
+        <v>46030.37862606029</v>
       </c>
       <c r="D309">
-        <v>-518.8605735659949</v>
+        <v>-2620.378626060294</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6121,13 +6121,13 @@
         <v>312</v>
       </c>
       <c r="B310">
-        <v>43410</v>
+        <v>43124.4</v>
       </c>
       <c r="C310">
-        <v>46015.59595068247</v>
+        <v>43859.68014961691</v>
       </c>
       <c r="D310">
-        <v>-2605.595950682473</v>
+        <v>-735.280149616905</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6135,13 +6135,13 @@
         <v>313</v>
       </c>
       <c r="B311">
-        <v>43124.4</v>
+        <v>41523.6</v>
       </c>
       <c r="C311">
-        <v>43841.30916050531</v>
+        <v>42943.24051717544</v>
       </c>
       <c r="D311">
-        <v>-716.9091605053036</v>
+        <v>-1419.640517175438</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6149,13 +6149,13 @@
         <v>314</v>
       </c>
       <c r="B312">
-        <v>41523.6</v>
+        <v>41693.2</v>
       </c>
       <c r="C312">
-        <v>42936.15117836141</v>
+        <v>41496.08617765899</v>
       </c>
       <c r="D312">
-        <v>-1412.551178361413</v>
+        <v>197.1138223410089</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6163,13 +6163,13 @@
         <v>315</v>
       </c>
       <c r="B313">
-        <v>41693.2</v>
+        <v>41862.9</v>
       </c>
       <c r="C313">
-        <v>41485.20606110935</v>
+        <v>41350.26702719872</v>
       </c>
       <c r="D313">
-        <v>207.9939388906496</v>
+        <v>512.6329728012861</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6177,13 +6177,13 @@
         <v>316</v>
       </c>
       <c r="B314">
-        <v>41862.9</v>
+        <v>41855.3</v>
       </c>
       <c r="C314">
-        <v>41345.85910393303</v>
+        <v>41713.47381361885</v>
       </c>
       <c r="D314">
-        <v>517.0408960669665</v>
+        <v>141.8261863811495</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6191,13 +6191,13 @@
         <v>317</v>
       </c>
       <c r="B315">
-        <v>41855.3</v>
+        <v>42728.8</v>
       </c>
       <c r="C315">
-        <v>41704.56832318584</v>
+        <v>41223.95963284955</v>
       </c>
       <c r="D315">
-        <v>150.7316768141609</v>
+        <v>1504.840367150449</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6205,13 +6205,13 @@
         <v>318</v>
       </c>
       <c r="B316">
-        <v>42728.8</v>
+        <v>43927.8</v>
       </c>
       <c r="C316">
-        <v>41208.09294238439</v>
+        <v>42314.01381224766</v>
       </c>
       <c r="D316">
-        <v>1520.707057615611</v>
+        <v>1613.786187752339</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6219,13 +6219,13 @@
         <v>319</v>
       </c>
       <c r="B317">
-        <v>43927.8</v>
+        <v>42550</v>
       </c>
       <c r="C317">
-        <v>42298.24475173862</v>
+        <v>43552.34148105592</v>
       </c>
       <c r="D317">
-        <v>1629.555248261386</v>
+        <v>-1002.341481055919</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6233,13 +6233,13 @@
         <v>320</v>
       </c>
       <c r="B318">
-        <v>42550</v>
+        <v>43090</v>
       </c>
       <c r="C318">
-        <v>43533.786337222</v>
+        <v>42789.2526855203</v>
       </c>
       <c r="D318">
-        <v>-983.7863372220017</v>
+        <v>300.7473144796968</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6247,13 +6247,13 @@
         <v>321</v>
       </c>
       <c r="B319">
-        <v>43090</v>
+        <v>43111.5</v>
       </c>
       <c r="C319">
-        <v>42761.08637475217</v>
+        <v>42743.55683728086</v>
       </c>
       <c r="D319">
-        <v>328.9136252478347</v>
+        <v>367.943162719137</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6261,13 +6261,13 @@
         <v>322</v>
       </c>
       <c r="B320">
-        <v>43111.5</v>
+        <v>43114.5</v>
       </c>
       <c r="C320">
-        <v>42724.82805828884</v>
+        <v>43019.79114019129</v>
       </c>
       <c r="D320">
-        <v>386.6719417111599</v>
+        <v>94.7088598087139</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6275,13 +6275,13 @@
         <v>323</v>
       </c>
       <c r="B321">
-        <v>43114.5</v>
+        <v>42248.1</v>
       </c>
       <c r="C321">
-        <v>43000.35430182866</v>
+        <v>42957.26202381862</v>
       </c>
       <c r="D321">
-        <v>114.1456981713418</v>
+        <v>-709.1620238186224</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6289,13 +6289,13 @@
         <v>324</v>
       </c>
       <c r="B322">
-        <v>42248.1</v>
+        <v>42383</v>
       </c>
       <c r="C322">
-        <v>42939.48131103202</v>
+        <v>42182.25525631581</v>
       </c>
       <c r="D322">
-        <v>-691.3813110320261</v>
+        <v>200.7447436841903</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6303,13 +6303,13 @@
         <v>325</v>
       </c>
       <c r="B323">
-        <v>42383</v>
+        <v>41686.2</v>
       </c>
       <c r="C323">
-        <v>42164.39134010873</v>
+        <v>42062.21250585184</v>
       </c>
       <c r="D323">
-        <v>218.6086598912661</v>
+        <v>-376.0125058518461</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6317,13 +6317,13 @@
         <v>326</v>
       </c>
       <c r="B324">
-        <v>41686.2</v>
+        <v>40686.9</v>
       </c>
       <c r="C324">
-        <v>42050.18061072839</v>
+        <v>41637.42208735074</v>
       </c>
       <c r="D324">
-        <v>-363.9806107283948</v>
+        <v>-950.5220873507424</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6331,13 +6331,13 @@
         <v>327</v>
       </c>
       <c r="B325">
-        <v>40686.9</v>
+        <v>36468.4</v>
       </c>
       <c r="C325">
-        <v>41623.86607651704</v>
+        <v>41174.72208289054</v>
       </c>
       <c r="D325">
-        <v>-936.9660765170338</v>
+        <v>-4706.32208289054</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6345,13 +6345,13 @@
         <v>328</v>
       </c>
       <c r="B326">
-        <v>36468.4</v>
+        <v>35067.6</v>
       </c>
       <c r="C326">
-        <v>41164.12887395377</v>
+        <v>37109.60331062667</v>
       </c>
       <c r="D326">
-        <v>-4695.728873953769</v>
+        <v>-2042.003310626671</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6359,13 +6359,13 @@
         <v>329</v>
       </c>
       <c r="B327">
-        <v>35067.6</v>
+        <v>36277.5</v>
       </c>
       <c r="C327">
-        <v>37092.89156097814</v>
+        <v>35007.36938859953</v>
       </c>
       <c r="D327">
-        <v>-2025.291560978141</v>
+        <v>1270.130611400469</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6373,13 +6373,13 @@
         <v>330</v>
       </c>
       <c r="B328">
-        <v>36277.5</v>
+        <v>36699.5</v>
       </c>
       <c r="C328">
-        <v>35008.70828800907</v>
+        <v>35713.83474278607</v>
       </c>
       <c r="D328">
-        <v>1268.791711990925</v>
+        <v>985.6652572139283</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6387,13 +6387,13 @@
         <v>331</v>
       </c>
       <c r="B329">
-        <v>36699.5</v>
+        <v>36987.8</v>
       </c>
       <c r="C329">
-        <v>35719.78288888422</v>
+        <v>35803.84880277581</v>
       </c>
       <c r="D329">
-        <v>979.7171111157804</v>
+        <v>1183.951197224189</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6401,13 +6401,13 @@
         <v>332</v>
       </c>
       <c r="B330">
-        <v>36987.8</v>
+        <v>36827.6</v>
       </c>
       <c r="C330">
-        <v>35796.08161706312</v>
+        <v>36624.4013708625</v>
       </c>
       <c r="D330">
-        <v>1191.718382936888</v>
+        <v>203.1986291374997</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6415,13 +6415,13 @@
         <v>333</v>
       </c>
       <c r="B331">
-        <v>36827.6</v>
+        <v>37200.5</v>
       </c>
       <c r="C331">
-        <v>36611.94075809562</v>
+        <v>37015.78991050835</v>
       </c>
       <c r="D331">
-        <v>215.6592419043809</v>
+        <v>184.7100894916512</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6429,13 +6429,13 @@
         <v>334</v>
       </c>
       <c r="B332">
-        <v>37200.5</v>
+        <v>37737.9</v>
       </c>
       <c r="C332">
-        <v>36999.2088085766</v>
+        <v>36665.82828513533</v>
       </c>
       <c r="D332">
-        <v>201.2911914233991</v>
+        <v>1072.071714864673</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6443,13 +6443,13 @@
         <v>335</v>
       </c>
       <c r="B333">
-        <v>37737.9</v>
+        <v>38164.9</v>
       </c>
       <c r="C333">
-        <v>36645.45334082504</v>
+        <v>37295.77335166113</v>
       </c>
       <c r="D333">
-        <v>1092.446659174959</v>
+        <v>869.1266483388681</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6457,13 +6457,13 @@
         <v>336</v>
       </c>
       <c r="B334">
-        <v>38164.9</v>
+        <v>37930.1</v>
       </c>
       <c r="C334">
-        <v>37274.60090547352</v>
+        <v>37960.9805557199</v>
       </c>
       <c r="D334">
-        <v>890.2990945264828</v>
+        <v>-30.88055571990117</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6471,13 +6471,13 @@
         <v>337</v>
       </c>
       <c r="B335">
-        <v>37930.1</v>
+        <v>38512.1</v>
       </c>
       <c r="C335">
-        <v>37939.22371237632</v>
+        <v>37768.29986950342</v>
       </c>
       <c r="D335">
-        <v>-9.123712376320327</v>
+        <v>743.8001304965801</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6485,13 +6485,13 @@
         <v>338</v>
       </c>
       <c r="B336">
-        <v>38512.1</v>
+        <v>38719.9</v>
       </c>
       <c r="C336">
-        <v>37745.55533071095</v>
+        <v>38023.65758384435</v>
       </c>
       <c r="D336">
-        <v>766.5446692890473</v>
+        <v>696.2424161556482</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6499,13 +6499,13 @@
         <v>339</v>
       </c>
       <c r="B337">
-        <v>38719.9</v>
+        <v>36903.3</v>
       </c>
       <c r="C337">
-        <v>38005.95086302896</v>
+        <v>38606.9827367925</v>
       </c>
       <c r="D337">
-        <v>713.9491369710377</v>
+        <v>-1703.6827367925</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6513,13 +6513,13 @@
         <v>340</v>
       </c>
       <c r="B338">
-        <v>36903.3</v>
+        <v>37324.4</v>
       </c>
       <c r="C338">
-        <v>38589.49051505819</v>
+        <v>37165.44325381983</v>
       </c>
       <c r="D338">
-        <v>-1686.190515058188</v>
+        <v>158.9567461801707</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6527,13 +6527,13 @@
         <v>341</v>
       </c>
       <c r="B339">
-        <v>37324.4</v>
+        <v>41585.5</v>
       </c>
       <c r="C339">
-        <v>37144.72705657888</v>
+        <v>36979.24117841633</v>
       </c>
       <c r="D339">
-        <v>179.6729434211229</v>
+        <v>4606.258821583673</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6541,13 +6541,13 @@
         <v>342</v>
       </c>
       <c r="B340">
-        <v>41585.5</v>
+        <v>41419</v>
       </c>
       <c r="C340">
-        <v>36970.28959321833</v>
+        <v>40505.90376496638</v>
       </c>
       <c r="D340">
-        <v>4615.210406781669</v>
+        <v>913.0962350336195</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6555,13 +6555,13 @@
         <v>343</v>
       </c>
       <c r="B341">
-        <v>41419</v>
+        <v>42419.5</v>
       </c>
       <c r="C341">
-        <v>40502.60437774923</v>
+        <v>41394.87480561709</v>
       </c>
       <c r="D341">
-        <v>916.3956222507695</v>
+        <v>1024.625194382912</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6569,13 +6569,13 @@
         <v>344</v>
       </c>
       <c r="B342">
-        <v>42419.5</v>
+        <v>43867.2</v>
       </c>
       <c r="C342">
-        <v>41369.14109980804</v>
+        <v>42186.88225188755</v>
       </c>
       <c r="D342">
-        <v>1050.358900191961</v>
+        <v>1680.317748112444</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6583,13 +6583,13 @@
         <v>345</v>
       </c>
       <c r="B343">
-        <v>43867.2</v>
+        <v>44079.1</v>
       </c>
       <c r="C343">
-        <v>42167.06641948785</v>
+        <v>43561.3316937534</v>
       </c>
       <c r="D343">
-        <v>1700.133580512149</v>
+        <v>517.7683062466022</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6597,13 +6597,13 @@
         <v>346</v>
       </c>
       <c r="B344">
-        <v>44079.1</v>
+        <v>44420</v>
       </c>
       <c r="C344">
-        <v>43542.0823270017</v>
+        <v>44142.16788190309</v>
       </c>
       <c r="D344">
-        <v>537.0176729982995</v>
+        <v>277.8321180969069</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6611,13 +6611,13 @@
         <v>347</v>
       </c>
       <c r="B345">
-        <v>44420</v>
+        <v>43537.5</v>
       </c>
       <c r="C345">
-        <v>44118.83346684859</v>
+        <v>44296.92019639735</v>
       </c>
       <c r="D345">
-        <v>301.1665331514087</v>
+        <v>-759.4201963973464</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6625,13 +6625,13 @@
         <v>348</v>
       </c>
       <c r="B346">
-        <v>43537.5</v>
+        <v>42400.2</v>
       </c>
       <c r="C346">
-        <v>44277.11746432763</v>
+        <v>44083.32469822306</v>
       </c>
       <c r="D346">
-        <v>-739.6174643276318</v>
+        <v>-1683.124698223066</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6639,13 +6639,13 @@
         <v>349</v>
       </c>
       <c r="B347">
-        <v>42400.2</v>
+        <v>42241</v>
       </c>
       <c r="C347">
-        <v>44066.42016803438</v>
+        <v>42691.96261127698</v>
       </c>
       <c r="D347">
-        <v>-1666.220168034386</v>
+        <v>-450.9626112769765</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6653,13 +6653,13 @@
         <v>350</v>
       </c>
       <c r="B348">
-        <v>42241</v>
+        <v>42062.6</v>
       </c>
       <c r="C348">
-        <v>42682.07190374075</v>
+        <v>42319.13473363852</v>
       </c>
       <c r="D348">
-        <v>-441.0719037407544</v>
+        <v>-256.5347336385239</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6667,13 +6667,13 @@
         <v>351</v>
       </c>
       <c r="B349">
-        <v>42062.6</v>
+        <v>42563.5</v>
       </c>
       <c r="C349">
-        <v>42316.60909127432</v>
+        <v>42185.21004813956</v>
       </c>
       <c r="D349">
-        <v>-254.0090912743253</v>
+        <v>378.289951860439</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6681,13 +6681,13 @@
         <v>352</v>
       </c>
       <c r="B350">
-        <v>42563.5</v>
+        <v>44563.1</v>
       </c>
       <c r="C350">
-        <v>42183.44742852799</v>
+        <v>42397.56897172428</v>
       </c>
       <c r="D350">
-        <v>380.0525714720134</v>
+        <v>2165.53102827572</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6695,13 +6695,13 @@
         <v>353</v>
       </c>
       <c r="B351">
-        <v>44563.1</v>
+        <v>43873.1</v>
       </c>
       <c r="C351">
-        <v>42396.73979496892</v>
+        <v>44139.12536421028</v>
       </c>
       <c r="D351">
-        <v>2166.36020503108</v>
+        <v>-266.0253642102834</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6709,13 +6709,13 @@
         <v>354</v>
       </c>
       <c r="B352">
-        <v>43873.1</v>
+        <v>40543.9</v>
       </c>
       <c r="C352">
-        <v>44137.84160004454</v>
+        <v>43905.37658570075</v>
       </c>
       <c r="D352">
-        <v>-264.7416000445446</v>
+        <v>-3361.476585700751</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6723,13 +6723,13 @@
         <v>355</v>
       </c>
       <c r="B353">
-        <v>40543.9</v>
+        <v>40007.4</v>
       </c>
       <c r="C353">
-        <v>43889.70591892579</v>
+        <v>41226.71598701016</v>
       </c>
       <c r="D353">
-        <v>-3345.805918925784</v>
+        <v>-1219.315987010159</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6737,13 +6737,13 @@
         <v>356</v>
       </c>
       <c r="B354">
-        <v>40007.4</v>
+        <v>40095.8</v>
       </c>
       <c r="C354">
-        <v>41207.72838266095</v>
+        <v>40039.47480982353</v>
       </c>
       <c r="D354">
-        <v>-1200.328382660948</v>
+        <v>56.32519017647428</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6751,13 +6751,13 @@
         <v>357</v>
       </c>
       <c r="B355">
-        <v>40095.8</v>
+        <v>38400</v>
       </c>
       <c r="C355">
-        <v>40036.68867152161</v>
+        <v>39999.92161375951</v>
       </c>
       <c r="D355">
-        <v>59.11132847839326</v>
+        <v>-1599.921613759507</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6765,13 +6765,13 @@
         <v>358</v>
       </c>
       <c r="B356">
-        <v>38400</v>
+        <v>37019.2</v>
       </c>
       <c r="C356">
-        <v>39998.4087193395</v>
+        <v>38599.35561490266</v>
       </c>
       <c r="D356">
-        <v>-1598.408719339495</v>
+        <v>-1580.155614902658</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6779,13 +6779,13 @@
         <v>359</v>
       </c>
       <c r="B357">
-        <v>37019.2</v>
+        <v>38256.3</v>
       </c>
       <c r="C357">
-        <v>38591.51612461524</v>
+        <v>37418.93621036512</v>
       </c>
       <c r="D357">
-        <v>-1572.316124615245</v>
+        <v>837.363789634881</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6793,13 +6793,13 @@
         <v>360</v>
       </c>
       <c r="B358">
-        <v>38256.3</v>
+        <v>37250.1</v>
       </c>
       <c r="C358">
-        <v>37416.4313220226</v>
+        <v>37721.09636687444</v>
       </c>
       <c r="D358">
-        <v>839.8686779773998</v>
+        <v>-470.9963668744385</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6807,13 +6807,13 @@
         <v>361</v>
       </c>
       <c r="B359">
-        <v>37250.1</v>
+        <v>38340.8</v>
       </c>
       <c r="C359">
-        <v>37722.76268993059</v>
+        <v>37535.47679728913</v>
       </c>
       <c r="D359">
-        <v>-472.662689930592</v>
+        <v>805.3232027108752</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6821,13 +6821,13 @@
         <v>362</v>
       </c>
       <c r="B360">
-        <v>38340.8</v>
+        <v>39233.5</v>
       </c>
       <c r="C360">
-        <v>37524.03176936359</v>
+        <v>37638.91547645189</v>
       </c>
       <c r="D360">
-        <v>816.768230636415</v>
+        <v>1594.58452354811</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6835,13 +6835,13 @@
         <v>363</v>
       </c>
       <c r="B361">
-        <v>39233.5</v>
+        <v>39120.2</v>
       </c>
       <c r="C361">
-        <v>37629.34367634359</v>
+        <v>38979.72057082684</v>
       </c>
       <c r="D361">
-        <v>1604.156323656411</v>
+        <v>140.4794291731523</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6849,13 +6849,13 @@
         <v>364</v>
       </c>
       <c r="B362">
-        <v>39120.2</v>
+        <v>37709.1</v>
       </c>
       <c r="C362">
-        <v>38964.57670012739</v>
+        <v>39178.00427168969</v>
       </c>
       <c r="D362">
-        <v>155.6232998726045</v>
+        <v>-1468.904271689687</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6863,13 +6863,13 @@
         <v>365</v>
       </c>
       <c r="B363">
-        <v>37709.1</v>
+        <v>43194.7</v>
       </c>
       <c r="C363">
-        <v>39156.81644981296</v>
+        <v>37958.48884316179</v>
       </c>
       <c r="D363">
-        <v>-1447.716449812964</v>
+        <v>5236.21115683821</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6877,13 +6877,13 @@
         <v>366</v>
       </c>
       <c r="B364">
-        <v>43194.7</v>
+        <v>44427.9</v>
       </c>
       <c r="C364">
-        <v>37935.11446775714</v>
+        <v>42055.50006054583</v>
       </c>
       <c r="D364">
-        <v>5259.585532242854</v>
+        <v>2372.399939454168</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6891,13 +6891,13 @@
         <v>367</v>
       </c>
       <c r="B365">
-        <v>44427.9</v>
+        <v>43922.5</v>
       </c>
       <c r="C365">
-        <v>42049.84836891716</v>
+        <v>44287.37504966609</v>
       </c>
       <c r="D365">
-        <v>2378.051631082846</v>
+        <v>-364.8750496660941</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6905,13 +6905,13 @@
         <v>368</v>
       </c>
       <c r="B366">
-        <v>43922.5</v>
+        <v>42465</v>
       </c>
       <c r="C366">
-        <v>44257.03266820102</v>
+        <v>44196.23583140553</v>
       </c>
       <c r="D366">
-        <v>-334.53266820102</v>
+        <v>-1731.235831405531</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6919,13 +6919,13 @@
         <v>369</v>
       </c>
       <c r="B367">
-        <v>42465</v>
+        <v>39137.5</v>
       </c>
       <c r="C367">
-        <v>44163.10985006928</v>
+        <v>42734.84324008643</v>
       </c>
       <c r="D367">
-        <v>-1698.109850069275</v>
+        <v>-3597.343240086426</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6933,13 +6933,13 @@
         <v>370</v>
       </c>
       <c r="B368">
-        <v>39137.5</v>
+        <v>39396.4</v>
       </c>
       <c r="C368">
-        <v>42707.30167208036</v>
+        <v>39766.41760241258</v>
       </c>
       <c r="D368">
-        <v>-3569.801672080357</v>
+        <v>-370.0176024125758</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6947,13 +6947,13 @@
         <v>371</v>
       </c>
       <c r="B369">
-        <v>39396.4</v>
+        <v>38416.3</v>
       </c>
       <c r="C369">
-        <v>39744.22841426794</v>
+        <v>39223.86836813195</v>
       </c>
       <c r="D369">
-        <v>-347.8284142679404</v>
+        <v>-807.5683681319497</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6961,13 +6961,13 @@
         <v>372</v>
       </c>
       <c r="B370">
-        <v>38416.3</v>
+        <v>38024</v>
       </c>
       <c r="C370">
-        <v>39222.74453513324</v>
+        <v>38590.8803784957</v>
       </c>
       <c r="D370">
-        <v>-806.4445351332397</v>
+        <v>-566.8803784956981</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6975,13 +6975,13 @@
         <v>373</v>
       </c>
       <c r="B371">
-        <v>38024</v>
+        <v>38752.6</v>
       </c>
       <c r="C371">
-        <v>38588.19283540419</v>
+        <v>38120.84973894036</v>
       </c>
       <c r="D371">
-        <v>-564.1928354041884</v>
+        <v>631.7502610596348</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6989,13 +6989,13 @@
         <v>374</v>
       </c>
       <c r="B372">
-        <v>38752.6</v>
+        <v>41965.3</v>
       </c>
       <c r="C372">
-        <v>38124.94105701384</v>
+        <v>38647.41257196353</v>
       </c>
       <c r="D372">
-        <v>627.658942986156</v>
+        <v>3317.887428036469</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7003,13 +7003,13 @@
         <v>375</v>
       </c>
       <c r="B373">
-        <v>41965.3</v>
+        <v>39435.8</v>
       </c>
       <c r="C373">
-        <v>38651.8534290682</v>
+        <v>41352.19638600212</v>
       </c>
       <c r="D373">
-        <v>3313.446570931803</v>
+        <v>-1916.396386002118</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7017,13 +7017,13 @@
         <v>376</v>
       </c>
       <c r="B374">
-        <v>39435.8</v>
+        <v>38732.1</v>
       </c>
       <c r="C374">
-        <v>41353.37772176965</v>
+        <v>39816.89385995845</v>
       </c>
       <c r="D374">
-        <v>-1917.577721769645</v>
+        <v>-1084.793859958452</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7031,13 +7031,13 @@
         <v>377</v>
       </c>
       <c r="B375">
-        <v>38732.1</v>
+        <v>38785</v>
       </c>
       <c r="C375">
-        <v>39790.64961641646</v>
+        <v>38934.31228085028</v>
       </c>
       <c r="D375">
-        <v>-1058.549616416458</v>
+        <v>-149.3122808502812</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7045,13 +7045,13 @@
         <v>378</v>
       </c>
       <c r="B376">
-        <v>38785</v>
+        <v>37788.4</v>
       </c>
       <c r="C376">
-        <v>38921.11108815519</v>
+        <v>38879.73726890367</v>
       </c>
       <c r="D376">
-        <v>-136.1110881551867</v>
+        <v>-1091.33726890367</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7059,13 +7059,13 @@
         <v>379</v>
       </c>
       <c r="B377">
-        <v>37788.4</v>
+        <v>39689.2</v>
       </c>
       <c r="C377">
-        <v>38870.06946334662</v>
+        <v>38013.15670848222</v>
       </c>
       <c r="D377">
-        <v>-1081.669463346618</v>
+        <v>1676.043291517781</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7073,13 +7073,13 @@
         <v>380</v>
       </c>
       <c r="B378">
-        <v>39689.2</v>
+        <v>39325.4</v>
       </c>
       <c r="C378">
-        <v>38000.38134734577</v>
+        <v>39193.78390607325</v>
       </c>
       <c r="D378">
-        <v>1688.818652654227</v>
+        <v>131.6160939267502</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7087,13 +7087,13 @@
         <v>381</v>
       </c>
       <c r="B379">
-        <v>39325.4</v>
+        <v>41124</v>
       </c>
       <c r="C379">
-        <v>39189.51967539353</v>
+        <v>39122.98016430202</v>
       </c>
       <c r="D379">
-        <v>135.8803246064708</v>
+        <v>2001.019835697982</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7101,13 +7101,13 @@
         <v>382</v>
       </c>
       <c r="B380">
-        <v>41124</v>
+        <v>40945.6</v>
       </c>
       <c r="C380">
-        <v>39106.1202834275</v>
+        <v>40709.31287184253</v>
       </c>
       <c r="D380">
-        <v>2017.879716572497</v>
+        <v>236.2871281574699</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7115,13 +7115,13 @@
         <v>383</v>
       </c>
       <c r="B381">
-        <v>40945.6</v>
+        <v>41775.1</v>
       </c>
       <c r="C381">
-        <v>40699.41201805879</v>
+        <v>40963.91044903939</v>
       </c>
       <c r="D381">
-        <v>246.1879819412061</v>
+        <v>811.1895509606038</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7129,13 +7129,13 @@
         <v>384</v>
       </c>
       <c r="B382">
-        <v>41775.1</v>
+        <v>42218</v>
       </c>
       <c r="C382">
-        <v>40943.96567243669</v>
+        <v>41539.05185915896</v>
       </c>
       <c r="D382">
-        <v>831.1343275633044</v>
+        <v>678.9481408410356</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7143,13 +7143,13 @@
         <v>385</v>
       </c>
       <c r="B383">
-        <v>42218</v>
+        <v>41289</v>
       </c>
       <c r="C383">
-        <v>41522.52684275806</v>
+        <v>42093.38911485992</v>
       </c>
       <c r="D383">
-        <v>695.4731572419405</v>
+        <v>-804.3891148599214</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7157,13 +7157,13 @@
         <v>386</v>
       </c>
       <c r="B384">
-        <v>41289</v>
+        <v>41014.3</v>
       </c>
       <c r="C384">
-        <v>42074.40558864051</v>
+        <v>41441.61063358834</v>
       </c>
       <c r="D384">
-        <v>-785.4055886405113</v>
+        <v>-427.3106335883349</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7171,13 +7171,13 @@
         <v>387</v>
       </c>
       <c r="B385">
-        <v>41014.3</v>
+        <v>42377.8</v>
       </c>
       <c r="C385">
-        <v>41421.83715951935</v>
+        <v>41015.28075158631</v>
       </c>
       <c r="D385">
-        <v>-407.5371595193428</v>
+        <v>1362.519248413693</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7185,13 +7185,13 @@
         <v>388</v>
       </c>
       <c r="B386">
-        <v>42377.8</v>
+        <v>42910.3</v>
       </c>
       <c r="C386">
-        <v>41003.6567290634</v>
+        <v>42292.44729952564</v>
       </c>
       <c r="D386">
-        <v>1374.143270936605</v>
+        <v>617.8527004743664</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7199,13 +7199,13 @@
         <v>389</v>
       </c>
       <c r="B387">
-        <v>42910.3</v>
+        <v>43989</v>
       </c>
       <c r="C387">
-        <v>42288.15268216908</v>
+        <v>42710.20381011275</v>
       </c>
       <c r="D387">
-        <v>622.1473178309243</v>
+        <v>1278.796189887245</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7213,13 +7213,13 @@
         <v>390</v>
       </c>
       <c r="B388">
-        <v>43989</v>
+        <v>44315.5</v>
       </c>
       <c r="C388">
-        <v>42699.78137969566</v>
+        <v>43771.32109313886</v>
       </c>
       <c r="D388">
-        <v>1289.218620304338</v>
+        <v>544.1789068611397</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7227,13 +7227,13 @@
         <v>391</v>
       </c>
       <c r="B389">
-        <v>44315.5</v>
+        <v>44548</v>
       </c>
       <c r="C389">
-        <v>43760.98796657106</v>
+        <v>44436.84376271494</v>
       </c>
       <c r="D389">
-        <v>554.5120334289386</v>
+        <v>111.1562372850603</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7241,13 +7241,13 @@
         <v>392</v>
       </c>
       <c r="B390">
-        <v>44548</v>
+        <v>46855.2</v>
       </c>
       <c r="C390">
-        <v>44424.68315249143</v>
+        <v>44584.01744655278</v>
       </c>
       <c r="D390">
-        <v>123.3168475085695</v>
+        <v>2271.182553447215</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7255,13 +7255,13 @@
         <v>393</v>
       </c>
       <c r="B391">
-        <v>46855.2</v>
+        <v>47137.9</v>
       </c>
       <c r="C391">
-        <v>44571.42678231679</v>
+        <v>46395.43339245213</v>
       </c>
       <c r="D391">
-        <v>2283.773217683207</v>
+        <v>742.4666075478672</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7269,13 +7269,13 @@
         <v>394</v>
       </c>
       <c r="B392">
-        <v>47137.9</v>
+        <v>47440.2</v>
       </c>
       <c r="C392">
-        <v>46386.5042556983</v>
+        <v>47459.92410302325</v>
       </c>
       <c r="D392">
-        <v>751.3957443017061</v>
+        <v>-19.72410302325443</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7283,13 +7283,13 @@
         <v>395</v>
       </c>
       <c r="B393">
-        <v>47440.2</v>
+        <v>47059.3</v>
       </c>
       <c r="C393">
-        <v>47444.33261638109</v>
+        <v>47607.98064139902</v>
       </c>
       <c r="D393">
-        <v>-4.132616381088155</v>
+        <v>-548.6806413990125</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7297,13 +7297,13 @@
         <v>396</v>
       </c>
       <c r="B394">
-        <v>47059.3</v>
+        <v>45524.3</v>
       </c>
       <c r="C394">
-        <v>47594.60606000444</v>
+        <v>47211.02238132438</v>
       </c>
       <c r="D394">
-        <v>-535.306060004441</v>
+        <v>-1686.722381324376</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7311,13 +7311,13 @@
         <v>397</v>
       </c>
       <c r="B395">
-        <v>45524.3</v>
+        <v>46312</v>
       </c>
       <c r="C395">
-        <v>47198.03640399489</v>
+        <v>46017.85439829211</v>
       </c>
       <c r="D395">
-        <v>-1673.736403994888</v>
+        <v>294.145601707889</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7325,13 +7325,13 @@
         <v>398</v>
       </c>
       <c r="B396">
-        <v>46312</v>
+        <v>45828.6</v>
       </c>
       <c r="C396">
-        <v>46006.95091036923</v>
+        <v>45994.08274868646</v>
       </c>
       <c r="D396">
-        <v>305.0490896307747</v>
+        <v>-165.4827486864597</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7339,13 +7339,13 @@
         <v>399</v>
       </c>
       <c r="B397">
-        <v>45828.6</v>
+        <v>46423.4</v>
       </c>
       <c r="C397">
-        <v>45992.60207729053</v>
+        <v>46158.02360161729</v>
       </c>
       <c r="D397">
-        <v>-164.0020772905336</v>
+        <v>265.3763983827157</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7353,13 +7353,13 @@
         <v>400</v>
       </c>
       <c r="B398">
-        <v>46423.4</v>
+        <v>46617.1</v>
       </c>
       <c r="C398">
-        <v>46152.65807186489</v>
+        <v>46498.41999185566</v>
       </c>
       <c r="D398">
-        <v>270.7419281351104</v>
+        <v>118.6800081443434</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7367,13 +7367,13 @@
         <v>401</v>
       </c>
       <c r="B399">
-        <v>46617.1</v>
+        <v>45479.2</v>
       </c>
       <c r="C399">
-        <v>46497.24449180395</v>
+        <v>46360.26736959009</v>
       </c>
       <c r="D399">
-        <v>119.855508196044</v>
+        <v>-881.0673695900914</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7381,13 +7381,13 @@
         <v>402</v>
       </c>
       <c r="B400">
-        <v>45479.2</v>
+        <v>43179.4</v>
       </c>
       <c r="C400">
-        <v>46352.41323390708</v>
+        <v>45854.59287097756</v>
       </c>
       <c r="D400">
-        <v>-873.2132339070813</v>
+        <v>-2675.19287097756</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7395,13 +7395,13 @@
         <v>403</v>
       </c>
       <c r="B401">
-        <v>43179.4</v>
+        <v>43469.8</v>
       </c>
       <c r="C401">
-        <v>45843.15687844119</v>
+        <v>43684.7737117325</v>
       </c>
       <c r="D401">
-        <v>-2663.756878441192</v>
+        <v>-214.9737117324985</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7409,13 +7409,13 @@
         <v>404</v>
       </c>
       <c r="B402">
-        <v>43469.8</v>
+        <v>42282.6</v>
       </c>
       <c r="C402">
-        <v>43673.03308847692</v>
+        <v>43363.00661384719</v>
       </c>
       <c r="D402">
-        <v>-203.2330884769181</v>
+        <v>-1080.40661384719</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7423,13 +7423,13 @@
         <v>405</v>
       </c>
       <c r="B403">
-        <v>42282.6</v>
+        <v>42764</v>
       </c>
       <c r="C403">
-        <v>43363.08002822928</v>
+        <v>42567.95447213959</v>
       </c>
       <c r="D403">
-        <v>-1080.480028229278</v>
+        <v>196.0455278604059</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7437,13 +7437,13 @@
         <v>406</v>
       </c>
       <c r="B404">
-        <v>42764</v>
+        <v>42160</v>
       </c>
       <c r="C404">
-        <v>42562.21555042156</v>
+        <v>42537.8088677818</v>
       </c>
       <c r="D404">
-        <v>201.7844495784375</v>
+        <v>-377.8088677818014</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7451,13 +7451,13 @@
         <v>407</v>
       </c>
       <c r="B405">
-        <v>42160</v>
+        <v>39534.6</v>
       </c>
       <c r="C405">
-        <v>42536.30004225235</v>
+        <v>42265.98054124249</v>
       </c>
       <c r="D405">
-        <v>-376.3000422523473</v>
+        <v>-2731.380541242492</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7465,13 +7465,13 @@
         <v>408</v>
       </c>
       <c r="B406">
-        <v>39534.6</v>
+        <v>40078.7</v>
       </c>
       <c r="C406">
-        <v>42257.66603868172</v>
+        <v>39991.81873098179</v>
       </c>
       <c r="D406">
-        <v>-2723.066038681725</v>
+        <v>86.88126901820942</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7479,13 +7479,13 @@
         <v>409</v>
       </c>
       <c r="B407">
-        <v>40078.7</v>
+        <v>41150</v>
       </c>
       <c r="C407">
-        <v>39978.24982922064</v>
+        <v>39896.39043471569</v>
       </c>
       <c r="D407">
-        <v>100.4501707793534</v>
+        <v>1253.609565284307</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7493,13 +7493,13 @@
         <v>410</v>
       </c>
       <c r="B408">
-        <v>41150</v>
+        <v>39954.9</v>
       </c>
       <c r="C408">
-        <v>39894.68218882239</v>
+        <v>40762.85850980307</v>
       </c>
       <c r="D408">
-        <v>1255.317811177607</v>
+        <v>-807.958509803073</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7507,13 +7507,13 @@
         <v>411</v>
       </c>
       <c r="B409">
-        <v>39954.9</v>
+        <v>40569.9</v>
       </c>
       <c r="C409">
-        <v>40755.68349812026</v>
+        <v>40086.31020655789</v>
       </c>
       <c r="D409">
-        <v>-800.7834981202541</v>
+        <v>483.5897934421155</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7521,13 +7521,13 @@
         <v>412</v>
       </c>
       <c r="B410">
-        <v>40569.9</v>
+        <v>40381</v>
       </c>
       <c r="C410">
-        <v>40068.15355301317</v>
+        <v>40334.38763548396</v>
       </c>
       <c r="D410">
-        <v>501.7464469868355</v>
+        <v>46.61236451604054</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7535,13 +7535,13 @@
         <v>413</v>
       </c>
       <c r="B411">
-        <v>40381</v>
+        <v>39681.2</v>
       </c>
       <c r="C411">
-        <v>40322.55665269011</v>
+        <v>40239.71267538174</v>
       </c>
       <c r="D411">
-        <v>58.44334730989067</v>
+        <v>-558.5126753817458</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7549,13 +7549,13 @@
         <v>414</v>
       </c>
       <c r="B412">
-        <v>39681.2</v>
+        <v>40811.3</v>
       </c>
       <c r="C412">
-        <v>40222.25979339369</v>
+        <v>39742.67641867365</v>
       </c>
       <c r="D412">
-        <v>-541.0597933936951</v>
+        <v>1068.623581326348</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7563,13 +7563,13 @@
         <v>415</v>
       </c>
       <c r="B413">
-        <v>40811.3</v>
+        <v>41506.2</v>
       </c>
       <c r="C413">
-        <v>39724.56496657807</v>
+        <v>40241.51229299509</v>
       </c>
       <c r="D413">
-        <v>1086.735033421937</v>
+        <v>1264.687707004909</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7577,13 +7577,13 @@
         <v>416</v>
       </c>
       <c r="B414">
-        <v>41506.2</v>
+        <v>41369.9</v>
       </c>
       <c r="C414">
-        <v>40228.52119935138</v>
+        <v>41286.59619441064</v>
       </c>
       <c r="D414">
-        <v>1277.678800648617</v>
+        <v>83.30380558936304</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7591,13 +7591,13 @@
         <v>417</v>
       </c>
       <c r="B415">
-        <v>41369.9</v>
+        <v>40484.1</v>
       </c>
       <c r="C415">
-        <v>41269.96458222973</v>
+        <v>41388.84169665523</v>
       </c>
       <c r="D415">
-        <v>99.93541777026985</v>
+        <v>-904.7416966552337</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7605,13 +7605,13 @@
         <v>418</v>
       </c>
       <c r="B416">
-        <v>40484.1</v>
+        <v>39715.9</v>
       </c>
       <c r="C416">
-        <v>41369.74777984733</v>
+        <v>40817.45415194309</v>
       </c>
       <c r="D416">
-        <v>-885.6477798473279</v>
+        <v>-1101.554151943092</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7619,13 +7619,13 @@
         <v>419</v>
       </c>
       <c r="B417">
-        <v>39715.9</v>
+        <v>39435.6</v>
       </c>
       <c r="C417">
-        <v>40799.15967619434</v>
+        <v>39745.67712399529</v>
       </c>
       <c r="D417">
-        <v>-1083.259676194335</v>
+        <v>-310.0771239952956</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7633,13 +7633,13 @@
         <v>420</v>
       </c>
       <c r="B418">
-        <v>39435.6</v>
+        <v>39467.9</v>
       </c>
       <c r="C418">
-        <v>39730.73206039681</v>
+        <v>39433.85236133647</v>
       </c>
       <c r="D418">
-        <v>-295.1320603968124</v>
+        <v>34.0476386635346</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7647,13 +7647,13 @@
         <v>421</v>
       </c>
       <c r="B419">
-        <v>39467.9</v>
+        <v>40438.5</v>
       </c>
       <c r="C419">
-        <v>39423.38461218603</v>
+        <v>39371.67381823991</v>
       </c>
       <c r="D419">
-        <v>44.51538781397539</v>
+        <v>1066.826181760087</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7661,13 +7661,13 @@
         <v>422</v>
       </c>
       <c r="B420">
-        <v>40438.5</v>
+        <v>38121.7</v>
       </c>
       <c r="C420">
-        <v>39362.8480155642</v>
+        <v>39887.82259393696</v>
       </c>
       <c r="D420">
-        <v>1075.651984435797</v>
+        <v>-1766.122593936961</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7675,13 +7675,13 @@
         <v>423</v>
       </c>
       <c r="B421">
-        <v>38121.7</v>
+        <v>39249.9</v>
       </c>
       <c r="C421">
-        <v>39880.06130927143</v>
+        <v>38527.42917170064</v>
       </c>
       <c r="D421">
-        <v>-1758.361309271437</v>
+        <v>722.4708282993597</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7689,13 +7689,13 @@
         <v>424</v>
       </c>
       <c r="B422">
-        <v>39249.9</v>
+        <v>39752.8</v>
       </c>
       <c r="C422">
-        <v>38509.72249551959</v>
+        <v>38894.67224445505</v>
       </c>
       <c r="D422">
-        <v>740.1775044804162</v>
+        <v>858.1277555449487</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7703,13 +7703,13 @@
         <v>425</v>
       </c>
       <c r="B423">
-        <v>39752.8</v>
+        <v>38599.5</v>
       </c>
       <c r="C423">
-        <v>38890.42501568867</v>
+        <v>39624.34838170288</v>
       </c>
       <c r="D423">
-        <v>862.3749843113328</v>
+        <v>-1024.848381702875</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7717,13 +7717,13 @@
         <v>426</v>
       </c>
       <c r="B424">
-        <v>38599.5</v>
+        <v>37660.8</v>
       </c>
       <c r="C424">
-        <v>39614.15009227477</v>
+        <v>38714.90980649067</v>
       </c>
       <c r="D424">
-        <v>-1014.650092274765</v>
+        <v>-1054.109806490669</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7731,13 +7731,13 @@
         <v>427</v>
       </c>
       <c r="B425">
-        <v>37660.8</v>
+        <v>38474.1</v>
       </c>
       <c r="C425">
-        <v>38698.8051391278</v>
+        <v>37801.72030138323</v>
       </c>
       <c r="D425">
-        <v>-1038.005139127796</v>
+        <v>672.3796986167654</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7745,13 +7745,13 @@
         <v>428</v>
       </c>
       <c r="B426">
-        <v>38474.1</v>
+        <v>38499.9</v>
       </c>
       <c r="C426">
-        <v>37790.15461000724</v>
+        <v>38173.06740511529</v>
       </c>
       <c r="D426">
-        <v>683.9453899927539</v>
+        <v>326.8325948847123</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7759,13 +7759,13 @@
         <v>429</v>
       </c>
       <c r="B427">
-        <v>38499.9</v>
+        <v>37727.9</v>
       </c>
       <c r="C427">
-        <v>38167.13336526562</v>
+        <v>38458.8181603548</v>
       </c>
       <c r="D427">
-        <v>332.7666347343838</v>
+        <v>-730.9181603547986</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7773,13 +7773,13 @@
         <v>430</v>
       </c>
       <c r="B428">
-        <v>37727.9</v>
+        <v>39682.8</v>
       </c>
       <c r="C428">
-        <v>38447.89126733816</v>
+        <v>37798.27938714411</v>
       </c>
       <c r="D428">
-        <v>-719.991267338155</v>
+        <v>1884.520612855893</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7787,13 +7787,13 @@
         <v>431</v>
       </c>
       <c r="B429">
-        <v>39682.8</v>
+        <v>36542.6</v>
       </c>
       <c r="C429">
-        <v>37785.58935355587</v>
+        <v>39228.32129385162</v>
       </c>
       <c r="D429">
-        <v>1897.210646444131</v>
+        <v>-2685.721293851624</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7801,13 +7801,13 @@
         <v>432</v>
       </c>
       <c r="B430">
-        <v>36542.6</v>
+        <v>36017.4</v>
       </c>
       <c r="C430">
-        <v>39223.09990737584</v>
+        <v>36914.25240587207</v>
       </c>
       <c r="D430">
-        <v>-2680.499907375844</v>
+        <v>-896.8524058720723</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7815,13 +7815,13 @@
         <v>433</v>
       </c>
       <c r="B431">
-        <v>36017.4</v>
+        <v>35463</v>
       </c>
       <c r="C431">
-        <v>36889.71091222478</v>
+        <v>35874.18786467184</v>
       </c>
       <c r="D431">
-        <v>-872.310912224777</v>
+        <v>-411.1878646718396</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7829,13 +7829,13 @@
         <v>434</v>
       </c>
       <c r="B432">
-        <v>35463</v>
+        <v>34024.2</v>
       </c>
       <c r="C432">
-        <v>35865.8942526152</v>
+        <v>35307.8751092286</v>
       </c>
       <c r="D432">
-        <v>-402.894252615195</v>
+        <v>-1283.675109228599</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7843,13 +7843,13 @@
         <v>435</v>
       </c>
       <c r="B433">
-        <v>34024.2</v>
+        <v>30075.5</v>
       </c>
       <c r="C433">
-        <v>35300.00431584366</v>
+        <v>34135.10322091231</v>
       </c>
       <c r="D433">
-        <v>-1275.804315843663</v>
+        <v>-4059.603220912308</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7857,13 +7857,13 @@
         <v>436</v>
       </c>
       <c r="B434">
-        <v>30075.5</v>
+        <v>30999.9</v>
       </c>
       <c r="C434">
-        <v>34126.20380688063</v>
+        <v>30834.81695557432</v>
       </c>
       <c r="D434">
-        <v>-4050.703806880629</v>
+        <v>165.083044425679</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7871,13 +7871,13 @@
         <v>437</v>
       </c>
       <c r="B435">
-        <v>30999.9</v>
+        <v>28994.1</v>
       </c>
       <c r="C435">
-        <v>30823.85020776675</v>
+        <v>30930.56613233886</v>
       </c>
       <c r="D435">
-        <v>176.0497922332506</v>
+        <v>-1936.466132338865</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7885,13 +7885,13 @@
         <v>438</v>
       </c>
       <c r="B436">
-        <v>28994.1</v>
+        <v>28943.4</v>
       </c>
       <c r="C436">
-        <v>30940.66938669272</v>
+        <v>29241.4507671087</v>
       </c>
       <c r="D436">
-        <v>-1946.569386692725</v>
+        <v>-298.0507671087034</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7899,13 +7899,13 @@
         <v>439</v>
       </c>
       <c r="B437">
-        <v>28943.4</v>
+        <v>29222.6</v>
       </c>
       <c r="C437">
-        <v>29235.74340523689</v>
+        <v>28182.02224701902</v>
       </c>
       <c r="D437">
-        <v>-292.3434052368902</v>
+        <v>1040.577752980978</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7913,13 +7913,13 @@
         <v>440</v>
       </c>
       <c r="B438">
-        <v>29222.6</v>
+        <v>30048.2</v>
       </c>
       <c r="C438">
-        <v>28180.40573540318</v>
+        <v>29307.66893978851</v>
       </c>
       <c r="D438">
-        <v>1042.194264596816</v>
+        <v>740.5310602114951</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7927,13 +7927,13 @@
         <v>441</v>
       </c>
       <c r="B439">
-        <v>30048.2</v>
+        <v>31296.9</v>
       </c>
       <c r="C439">
-        <v>29304.53165560449</v>
+        <v>29585.93411337532</v>
       </c>
       <c r="D439">
-        <v>743.6683443955153</v>
+        <v>1710.965886624683</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -7941,13 +7941,13 @@
         <v>442</v>
       </c>
       <c r="B440">
-        <v>31296.9</v>
+        <v>29826.1</v>
       </c>
       <c r="C440">
-        <v>29576.42221961106</v>
+        <v>30734.08320649053</v>
       </c>
       <c r="D440">
-        <v>1720.477780388937</v>
+        <v>-907.9832064905277</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7955,13 +7955,13 @@
         <v>443</v>
       </c>
       <c r="B441">
-        <v>29826.1</v>
+        <v>30408.3</v>
       </c>
       <c r="C441">
-        <v>30718.42185347757</v>
+        <v>29838.6030265002</v>
       </c>
       <c r="D441">
-        <v>-892.3218534775733</v>
+        <v>569.6969734997947</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -7969,13 +7969,13 @@
         <v>444</v>
       </c>
       <c r="B442">
-        <v>30408.3</v>
+        <v>28664.3</v>
       </c>
       <c r="C442">
-        <v>29811.64196656621</v>
+        <v>30107.22818800181</v>
       </c>
       <c r="D442">
-        <v>596.6580334337887</v>
+        <v>-1442.928188001813</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7983,13 +7983,13 @@
         <v>445</v>
       </c>
       <c r="B443">
-        <v>28664.3</v>
+        <v>30280.7</v>
       </c>
       <c r="C443">
-        <v>30090.00364640797</v>
+        <v>28938.90516674329</v>
       </c>
       <c r="D443">
-        <v>-1425.703646407976</v>
+        <v>1341.794833256707</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -7997,13 +7997,13 @@
         <v>446</v>
       </c>
       <c r="B444">
-        <v>30280.7</v>
+        <v>29167.5</v>
       </c>
       <c r="C444">
-        <v>28916.15576542052</v>
+        <v>29812.59632354781</v>
       </c>
       <c r="D444">
-        <v>1364.544234579476</v>
+        <v>-645.0963235478121</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8011,13 +8011,13 @@
         <v>447</v>
       </c>
       <c r="B445">
-        <v>29167.5</v>
+        <v>29403.5</v>
       </c>
       <c r="C445">
-        <v>29804.08971393461</v>
+        <v>29256.4097576926</v>
       </c>
       <c r="D445">
-        <v>-636.5897139346052</v>
+        <v>147.0902423074003</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8025,13 +8025,13 @@
         <v>448</v>
       </c>
       <c r="B446">
-        <v>29403.5</v>
+        <v>30268</v>
       </c>
       <c r="C446">
-        <v>29237.54481008113</v>
+        <v>29189.67018360966</v>
       </c>
       <c r="D446">
-        <v>165.9551899188664</v>
+        <v>1078.329816390338</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8039,13 +8039,13 @@
         <v>449</v>
       </c>
       <c r="B447">
-        <v>30268</v>
+        <v>29070</v>
       </c>
       <c r="C447">
-        <v>29178.57118666678</v>
+        <v>29942.44186541544</v>
       </c>
       <c r="D447">
-        <v>1089.428813333216</v>
+        <v>-872.4418654154433</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8053,13 +8053,13 @@
         <v>450</v>
       </c>
       <c r="B448">
-        <v>29070</v>
+        <v>29631.8</v>
       </c>
       <c r="C448">
-        <v>29932.02073426355</v>
+        <v>29246.56283072311</v>
       </c>
       <c r="D448">
-        <v>-862.0207342635549</v>
+        <v>385.2371692768902</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8067,13 +8067,13 @@
         <v>451</v>
       </c>
       <c r="B449">
-        <v>29631.8</v>
+        <v>29520.3</v>
       </c>
       <c r="C449">
-        <v>29229.51487659845</v>
+        <v>29329.60187675766</v>
       </c>
       <c r="D449">
-        <v>402.2851234015507</v>
+        <v>190.6981232423386</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8081,13 +8081,13 @@
         <v>452</v>
       </c>
       <c r="B450">
-        <v>29520.3</v>
+        <v>29186.9</v>
       </c>
       <c r="C450">
-        <v>29320.11151922948</v>
+        <v>29531.31571126898</v>
       </c>
       <c r="D450">
-        <v>200.1884807705173</v>
+        <v>-344.4157112689791</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8095,13 +8095,13 @@
         <v>453</v>
       </c>
       <c r="B451">
-        <v>29186.9</v>
+        <v>28580</v>
       </c>
       <c r="C451">
-        <v>29519.98950911025</v>
+        <v>28845.93125318867</v>
       </c>
       <c r="D451">
-        <v>-333.0895091102502</v>
+        <v>-265.9312531886681</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8109,13 +8109,13 @@
         <v>454</v>
       </c>
       <c r="B452">
-        <v>28580</v>
+        <v>29020</v>
       </c>
       <c r="C452">
-        <v>28833.47959222767</v>
+        <v>28604.94503486187</v>
       </c>
       <c r="D452">
-        <v>-253.479592227668</v>
+        <v>415.0549651381298</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8123,13 +8123,13 @@
         <v>455</v>
       </c>
       <c r="B453">
-        <v>29020</v>
+        <v>29450.4</v>
       </c>
       <c r="C453">
-        <v>28595.63278183725</v>
+        <v>28857.97221998661</v>
       </c>
       <c r="D453">
-        <v>424.367218162748</v>
+        <v>592.4277800133932</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8137,13 +8137,13 @@
         <v>456</v>
       </c>
       <c r="B454">
-        <v>29450.4</v>
+        <v>31711.7</v>
       </c>
       <c r="C454">
-        <v>28853.05403884729</v>
+        <v>29244.65533999896</v>
       </c>
       <c r="D454">
-        <v>597.3459611527142</v>
+        <v>2467.044660001036</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8151,13 +8151,13 @@
         <v>457</v>
       </c>
       <c r="B455">
-        <v>31711.7</v>
+        <v>31780.9</v>
       </c>
       <c r="C455">
-        <v>29237.58031171579</v>
+        <v>31220.18138779634</v>
       </c>
       <c r="D455">
-        <v>2474.119688284209</v>
+        <v>560.7186122036583</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8165,13 +8165,13 @@
         <v>458</v>
       </c>
       <c r="B456">
-        <v>31780.9</v>
+        <v>29790</v>
       </c>
       <c r="C456">
-        <v>31214.63589621015</v>
+        <v>31784.28923869775</v>
       </c>
       <c r="D456">
-        <v>566.2641037898502</v>
+        <v>-1994.289238697747</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8179,13 +8179,13 @@
         <v>459</v>
       </c>
       <c r="B457">
-        <v>29790</v>
+        <v>30427</v>
       </c>
       <c r="C457">
-        <v>31767.40715124657</v>
+        <v>30129.89665175462</v>
       </c>
       <c r="D457">
-        <v>-1977.407151246574</v>
+        <v>297.1033482453786</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8193,13 +8193,13 @@
         <v>460</v>
       </c>
       <c r="B458">
-        <v>30427</v>
+        <v>29676.4</v>
       </c>
       <c r="C458">
-        <v>30109.34299581795</v>
+        <v>30415.58844336111</v>
       </c>
       <c r="D458">
-        <v>317.6570041820523</v>
+        <v>-739.1884433611049</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8207,13 +8207,13 @@
         <v>461</v>
       </c>
       <c r="B459">
-        <v>29676.4</v>
+        <v>29850</v>
       </c>
       <c r="C459">
-        <v>30409.47841385176</v>
+        <v>29741.79295173788</v>
       </c>
       <c r="D459">
-        <v>-733.0784138517556</v>
+        <v>108.2070482621202</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8221,13 +8221,13 @@
         <v>462</v>
       </c>
       <c r="B460">
-        <v>29850</v>
+        <v>29907.6</v>
       </c>
       <c r="C460">
-        <v>29730.33447704949</v>
+        <v>29717.35069885899</v>
       </c>
       <c r="D460">
-        <v>119.6655229505122</v>
+        <v>190.2493011410043</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8235,13 +8235,13 @@
         <v>463</v>
       </c>
       <c r="B461">
-        <v>29907.6</v>
+        <v>31356.3</v>
       </c>
       <c r="C461">
-        <v>29711.55919004584</v>
+        <v>29809.87847021467</v>
       </c>
       <c r="D461">
-        <v>196.0408099541601</v>
+        <v>1546.421529785333</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8249,13 +8249,13 @@
         <v>464</v>
       </c>
       <c r="B462">
-        <v>31356.3</v>
+        <v>31098.6</v>
       </c>
       <c r="C462">
-        <v>29803.85941675802</v>
+        <v>31055.17995369717</v>
       </c>
       <c r="D462">
-        <v>1552.440583241983</v>
+        <v>43.42004630283191</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8263,13 +8263,13 @@
         <v>465</v>
       </c>
       <c r="B463">
-        <v>31098.6</v>
+        <v>30190.8</v>
       </c>
       <c r="C463">
-        <v>31051.98180600583</v>
+        <v>30719.44512825445</v>
       </c>
       <c r="D463">
-        <v>46.61819399416709</v>
+        <v>-528.6451282544476</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8277,13 +8277,13 @@
         <v>466</v>
       </c>
       <c r="B464">
-        <v>30190.8</v>
+        <v>30075.3</v>
       </c>
       <c r="C464">
-        <v>30704.53094774115</v>
+        <v>30326.19757516592</v>
       </c>
       <c r="D464">
-        <v>-513.7309477411509</v>
+        <v>-250.89757516592</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8291,13 +8291,13 @@
         <v>467</v>
       </c>
       <c r="B465">
-        <v>30075.3</v>
+        <v>29054.9</v>
       </c>
       <c r="C465">
-        <v>30312.88357303149</v>
+        <v>30123.7396907137</v>
       </c>
       <c r="D465">
-        <v>-237.5835730314902</v>
+        <v>-1068.839690713699</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8305,13 +8305,13 @@
         <v>468</v>
       </c>
       <c r="B466">
-        <v>29054.9</v>
+        <v>28380.2</v>
       </c>
       <c r="C466">
-        <v>30116.17326590087</v>
+        <v>29242.81577527196</v>
       </c>
       <c r="D466">
-        <v>-1061.273265900869</v>
+        <v>-862.6157752719555</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8319,13 +8319,13 @@
         <v>469</v>
       </c>
       <c r="B467">
-        <v>28380.2</v>
+        <v>26569.6</v>
       </c>
       <c r="C467">
-        <v>29233.80563950994</v>
+        <v>28482.63858765997</v>
       </c>
       <c r="D467">
-        <v>-853.6056395099404</v>
+        <v>-1913.038587659968</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8333,13 +8333,13 @@
         <v>470</v>
       </c>
       <c r="B468">
-        <v>26569.6</v>
+        <v>22460.1</v>
       </c>
       <c r="C468">
-        <v>28478.2255507704</v>
+        <v>26898.4011729904</v>
       </c>
       <c r="D468">
-        <v>-1908.625550770397</v>
+        <v>-4438.301172990403</v>
       </c>
     </row>
   </sheetData>

--- a/data/df_compare.xlsx
+++ b/data/df_compare.xlsx
@@ -28,9 +28,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>2021-03-04</t>
-  </si>
-  <si>
     <t>2021-03-05</t>
   </si>
   <si>
@@ -1427,6 +1424,9 @@
   </si>
   <si>
     <t>2022-06-13</t>
+  </si>
+  <si>
+    <t>2022-06-14</t>
   </si>
 </sst>
 </file>
@@ -1809,13 +1809,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>48330</v>
+        <v>48734.7</v>
       </c>
       <c r="C2">
-        <v>50463.27191280952</v>
+        <v>48965.9657347645</v>
       </c>
       <c r="D2">
-        <v>-2133.27191280952</v>
+        <v>-231.2657347644999</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1823,13 +1823,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>48734.7</v>
+        <v>48899.9</v>
       </c>
       <c r="C3">
-        <v>49012.97950486379</v>
+        <v>48379.7930886315</v>
       </c>
       <c r="D3">
-        <v>-278.2795048637927</v>
+        <v>520.1069113685007</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1837,13 +1837,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>48899.9</v>
+        <v>50962.3</v>
       </c>
       <c r="C4">
-        <v>48417.74418756409</v>
+        <v>48541.40142850354</v>
       </c>
       <c r="D4">
-        <v>482.1558124359071</v>
+        <v>2420.898571496466</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1851,13 +1851,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>50962.3</v>
+        <v>52375</v>
       </c>
       <c r="C5">
-        <v>48570.45754743408</v>
+        <v>50628.40067780562</v>
       </c>
       <c r="D5">
-        <v>2391.842452565921</v>
+        <v>1746.599322194379</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1865,13 +1865,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>52375</v>
+        <v>54929</v>
       </c>
       <c r="C6">
-        <v>50668.18710885418</v>
+        <v>51723.64901240479</v>
       </c>
       <c r="D6">
-        <v>1706.812891145819</v>
+        <v>3205.350987595215</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1879,13 +1879,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>54929</v>
+        <v>55851</v>
       </c>
       <c r="C7">
-        <v>51760.16644482609</v>
+        <v>54322.71116543535</v>
       </c>
       <c r="D7">
-        <v>3168.833555173915</v>
+        <v>1528.28883456465</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1893,13 +1893,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>55851</v>
+        <v>57809.9</v>
       </c>
       <c r="C8">
-        <v>54366.40929387562</v>
+        <v>55693.62002953136</v>
       </c>
       <c r="D8">
-        <v>1484.590706124378</v>
+        <v>2116.27997046864</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1907,13 +1907,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>57809.9</v>
+        <v>57234</v>
       </c>
       <c r="C9">
-        <v>55740.99295411931</v>
+        <v>57244.39160593948</v>
       </c>
       <c r="D9">
-        <v>2068.907045880689</v>
+        <v>-10.39160593948327</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1921,13 +1921,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>57234</v>
+        <v>61174.9</v>
       </c>
       <c r="C10">
-        <v>57282.76016340859</v>
+        <v>57094.84924643714</v>
       </c>
       <c r="D10">
-        <v>-48.76016340858769</v>
+        <v>4080.050753562864</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1935,13 +1935,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>61174.9</v>
+        <v>59001.1</v>
       </c>
       <c r="C11">
-        <v>57120.3152598897</v>
+        <v>60373.94972440152</v>
       </c>
       <c r="D11">
-        <v>4054.584740110302</v>
+        <v>-1372.849724401523</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1949,13 +1949,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>59001.1</v>
+        <v>55600</v>
       </c>
       <c r="C12">
-        <v>60397.94720699464</v>
+        <v>59848.91490126465</v>
       </c>
       <c r="D12">
-        <v>-1396.847206994637</v>
+        <v>-4248.914901264652</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1963,13 +1963,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>55600</v>
+        <v>56891.1</v>
       </c>
       <c r="C13">
-        <v>59858.19851816221</v>
+        <v>56716.61968560235</v>
       </c>
       <c r="D13">
-        <v>-4258.198518162215</v>
+        <v>174.4803143976533</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1977,13 +1977,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>56891.1</v>
+        <v>58933</v>
       </c>
       <c r="C14">
-        <v>56704.55717530631</v>
+        <v>56062.07670928925</v>
       </c>
       <c r="D14">
-        <v>186.5428246936863</v>
+        <v>2870.923290710751</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1991,13 +1991,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>58933</v>
+        <v>57640.9</v>
       </c>
       <c r="C15">
-        <v>56026.88585887419</v>
+        <v>57918.16473548725</v>
       </c>
       <c r="D15">
-        <v>2906.114141125814</v>
+        <v>-277.2647354872533</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2005,13 +2005,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>57640.9</v>
+        <v>58101.8</v>
       </c>
       <c r="C16">
-        <v>57889.04266902042</v>
+        <v>58223.10142871487</v>
       </c>
       <c r="D16">
-        <v>-248.1426690204171</v>
+        <v>-121.301428714869</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2019,13 +2019,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>58101.8</v>
+        <v>58091.6</v>
       </c>
       <c r="C17">
-        <v>58208.21182934061</v>
+        <v>58131.27012414322</v>
       </c>
       <c r="D17">
-        <v>-106.4118293406063</v>
+        <v>-39.6701241432238</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2033,13 +2033,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>58091.6</v>
+        <v>57378.4</v>
       </c>
       <c r="C18">
-        <v>58112.48058056665</v>
+        <v>58495.71064281475</v>
       </c>
       <c r="D18">
-        <v>-20.88058056665614</v>
+        <v>-1117.310642814751</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2047,13 +2047,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>57378.4</v>
+        <v>54095.1</v>
       </c>
       <c r="C19">
-        <v>58491.23362962867</v>
+        <v>57377.72045020986</v>
       </c>
       <c r="D19">
-        <v>-1112.833629628665</v>
+        <v>-3282.620450209863</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2061,13 +2061,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>54095.1</v>
+        <v>54351.3</v>
       </c>
       <c r="C20">
-        <v>57367.67629511093</v>
+        <v>55074.3043443088</v>
       </c>
       <c r="D20">
-        <v>-3272.576295110928</v>
+        <v>-723.0043443087925</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2075,13 +2075,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>54351.3</v>
+        <v>52293.8</v>
       </c>
       <c r="C21">
-        <v>55071.12961881125</v>
+        <v>54406.87459778794</v>
       </c>
       <c r="D21">
-        <v>-719.8296188112436</v>
+        <v>-2113.074597787941</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2089,13 +2089,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>52293.8</v>
+        <v>51314.9</v>
       </c>
       <c r="C22">
-        <v>54401.43963818488</v>
+        <v>53264.77536087012</v>
       </c>
       <c r="D22">
-        <v>-2107.639638184875</v>
+        <v>-1949.875360870115</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2103,13 +2103,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>51314.9</v>
+        <v>55062.2</v>
       </c>
       <c r="C23">
-        <v>53269.93859977741</v>
+        <v>51529.67492479092</v>
       </c>
       <c r="D23">
-        <v>-1955.038599777406</v>
+        <v>3532.52507520908</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2117,13 +2117,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>55062.2</v>
+        <v>55852.4</v>
       </c>
       <c r="C24">
-        <v>51529.02463811031</v>
+        <v>54144.23369698873</v>
       </c>
       <c r="D24">
-        <v>3533.175361889691</v>
+        <v>1708.166303011276</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2131,13 +2131,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>55852.4</v>
+        <v>55782</v>
       </c>
       <c r="C25">
-        <v>54156.67603918287</v>
+        <v>55579.37643837719</v>
       </c>
       <c r="D25">
-        <v>1695.723960817129</v>
+        <v>202.6235616228078</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2145,13 +2145,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>55782</v>
+        <v>57624.2</v>
       </c>
       <c r="C26">
-        <v>55607.80179772753</v>
+        <v>55670.97657257124</v>
       </c>
       <c r="D26">
-        <v>174.1982022724696</v>
+        <v>1953.223427428762</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2159,13 +2159,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>57624.2</v>
+        <v>58781</v>
       </c>
       <c r="C27">
-        <v>55705.32175325314</v>
+        <v>57221.69886682185</v>
       </c>
       <c r="D27">
-        <v>1918.878246746855</v>
+        <v>1559.301133178145</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2173,13 +2173,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>58781</v>
+        <v>58786.2</v>
       </c>
       <c r="C28">
-        <v>57267.58281027642</v>
+        <v>58525.72572879627</v>
       </c>
       <c r="D28">
-        <v>1513.417189723579</v>
+        <v>260.4742712037259</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2187,13 +2187,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>58786.2</v>
+        <v>58732.9</v>
       </c>
       <c r="C29">
-        <v>58575.30730158146</v>
+        <v>58597.78724770359</v>
       </c>
       <c r="D29">
-        <v>210.8926984185382</v>
+        <v>135.1127522964161</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2201,13 +2201,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>58732.9</v>
+        <v>59020.7</v>
       </c>
       <c r="C30">
-        <v>58644.23682347016</v>
+        <v>58741.53282599623</v>
       </c>
       <c r="D30">
-        <v>88.66317652984435</v>
+        <v>279.1671740037709</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2215,13 +2215,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>59020.7</v>
+        <v>57099</v>
       </c>
       <c r="C31">
-        <v>58780.57094320195</v>
+        <v>59196.03883306275</v>
       </c>
       <c r="D31">
-        <v>240.1290567980468</v>
+        <v>-2097.038833062747</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2229,13 +2229,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>57099</v>
+        <v>58195</v>
       </c>
       <c r="C32">
-        <v>59231.64758690968</v>
+        <v>57727.25368415064</v>
       </c>
       <c r="D32">
-        <v>-2132.647586909676</v>
+        <v>467.7463158493629</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2243,13 +2243,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>58195</v>
+        <v>59120</v>
       </c>
       <c r="C33">
-        <v>57745.73387553814</v>
+        <v>57885.14882534335</v>
       </c>
       <c r="D33">
-        <v>449.2661244618648</v>
+        <v>1234.851174656651</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2257,13 +2257,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>59120</v>
+        <v>58017.1</v>
       </c>
       <c r="C34">
-        <v>57893.30094381192</v>
+        <v>58666.85238426438</v>
       </c>
       <c r="D34">
-        <v>1226.699056188081</v>
+        <v>-649.7523842643786</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2271,13 +2271,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>58017.1</v>
+        <v>55928.5</v>
       </c>
       <c r="C35">
-        <v>58677.81860960371</v>
+        <v>58234.1650507937</v>
       </c>
       <c r="D35">
-        <v>-660.7186096037112</v>
+        <v>-2305.665050793701</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2285,13 +2285,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>55928.5</v>
+        <v>58036.9</v>
       </c>
       <c r="C36">
-        <v>58242.80812109911</v>
+        <v>56484.6907907406</v>
       </c>
       <c r="D36">
-        <v>-2314.308121099108</v>
+        <v>1552.209209259403</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2299,13 +2299,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>58036.9</v>
+        <v>58110</v>
       </c>
       <c r="C37">
-        <v>56491.81685862073</v>
+        <v>57535.89921961221</v>
       </c>
       <c r="D37">
-        <v>1545.083141379269</v>
+        <v>574.1007803877874</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2313,13 +2313,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>58110</v>
+        <v>59775.6</v>
       </c>
       <c r="C38">
-        <v>57538.09850494566</v>
+        <v>58175.0892741163</v>
       </c>
       <c r="D38">
-        <v>571.9014950543351</v>
+        <v>1600.510725883702</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2327,13 +2327,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>59775.6</v>
+        <v>59956</v>
       </c>
       <c r="C39">
-        <v>58187.50909203902</v>
+        <v>59743.57208550139</v>
       </c>
       <c r="D39">
-        <v>1588.090907960977</v>
+        <v>212.4279144986067</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2341,13 +2341,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>59956</v>
+        <v>59823.7</v>
       </c>
       <c r="C40">
-        <v>59768.82070807839</v>
+        <v>59980.88662154626</v>
       </c>
       <c r="D40">
-        <v>187.1792919216095</v>
+        <v>-157.1866215462651</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2355,13 +2355,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>59823.7</v>
+        <v>63587.2</v>
       </c>
       <c r="C41">
-        <v>60000.50076449823</v>
+        <v>60105.78790625796</v>
       </c>
       <c r="D41">
-        <v>-176.8007644982281</v>
+        <v>3481.412093742038</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2369,13 +2369,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>63587.2</v>
+        <v>62969</v>
       </c>
       <c r="C42">
-        <v>60130.98255819362</v>
+        <v>62884.71049617958</v>
       </c>
       <c r="D42">
-        <v>3456.217441806381</v>
+        <v>84.28950382041512</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2383,13 +2383,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>62969</v>
+        <v>63243</v>
       </c>
       <c r="C43">
-        <v>62919.48635100166</v>
+        <v>63170.55154760455</v>
       </c>
       <c r="D43">
-        <v>49.51364899834152</v>
+        <v>72.4484523954452</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2397,13 +2397,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>63243</v>
+        <v>61455</v>
       </c>
       <c r="C44">
-        <v>63209.29598415067</v>
+        <v>63216.55122426286</v>
       </c>
       <c r="D44">
-        <v>33.70401584933279</v>
+        <v>-1761.551224262861</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2411,13 +2411,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>61455</v>
+        <v>60085.2</v>
       </c>
       <c r="C45">
-        <v>63242.69415599108</v>
+        <v>61791.77985793521</v>
       </c>
       <c r="D45">
-        <v>-1787.694155991077</v>
+        <v>-1706.579857935212</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2425,13 +2425,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>60085.2</v>
+        <v>56239.8</v>
       </c>
       <c r="C46">
-        <v>61810.38575788826</v>
+        <v>60665.78131600335</v>
       </c>
       <c r="D46">
-        <v>-1725.185757888263</v>
+        <v>-4425.981316003352</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2439,13 +2439,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>56239.8</v>
+        <v>55720</v>
       </c>
       <c r="C47">
-        <v>60672.06345891039</v>
+        <v>56085.20043686486</v>
       </c>
       <c r="D47">
-        <v>-4432.263458910384</v>
+        <v>-365.2004368648631</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2453,13 +2453,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>55720</v>
+        <v>56500</v>
       </c>
       <c r="C48">
-        <v>56065.61408917414</v>
+        <v>55847.60130088858</v>
       </c>
       <c r="D48">
-        <v>-345.6140891741379</v>
+        <v>652.3986991114216</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2467,13 +2467,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>56500</v>
+        <v>53815.2</v>
       </c>
       <c r="C49">
-        <v>55821.17492933269</v>
+        <v>55951.44274454116</v>
       </c>
       <c r="D49">
-        <v>678.8250706673134</v>
+        <v>-2136.242744541159</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2481,13 +2481,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>53815.2</v>
+        <v>51730</v>
       </c>
       <c r="C50">
-        <v>55927.03267328802</v>
+        <v>54415.60071232132</v>
       </c>
       <c r="D50">
-        <v>-2111.832673288023</v>
+        <v>-2685.60071232132</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2495,13 +2495,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>51730</v>
+        <v>51178.7</v>
       </c>
       <c r="C51">
-        <v>54394.80204351118</v>
+        <v>52279.1591882252</v>
       </c>
       <c r="D51">
-        <v>-2664.802043511183</v>
+        <v>-1100.459188225199</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2509,13 +2509,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>51178.7</v>
+        <v>50093.4</v>
       </c>
       <c r="C52">
-        <v>52265.37340714905</v>
+        <v>50526.75953938358</v>
       </c>
       <c r="D52">
-        <v>-1086.67340714905</v>
+        <v>-433.3595393835785</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2523,13 +2523,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>50093.4</v>
+        <v>49106.5</v>
       </c>
       <c r="C53">
-        <v>50511.31950261426</v>
+        <v>49896.62183808096</v>
       </c>
       <c r="D53">
-        <v>-417.9195026142625</v>
+        <v>-790.1218380809587</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2537,13 +2537,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>49106.5</v>
+        <v>54051.9</v>
       </c>
       <c r="C54">
-        <v>49883.01328887642</v>
+        <v>48783.74636554741</v>
       </c>
       <c r="D54">
-        <v>-776.5132888764201</v>
+        <v>5268.153634452588</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2551,13 +2551,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>54051.9</v>
+        <v>55078.7</v>
       </c>
       <c r="C55">
-        <v>48784.02990322313</v>
+        <v>52793.28379052714</v>
       </c>
       <c r="D55">
-        <v>5267.870096776875</v>
+        <v>2285.416209472853</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2565,13 +2565,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>55078.7</v>
+        <v>54899.3</v>
       </c>
       <c r="C56">
-        <v>52821.37642074976</v>
+        <v>54656.82340648555</v>
       </c>
       <c r="D56">
-        <v>2257.323579250238</v>
+        <v>242.4765935144533</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2579,13 +2579,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>54899.3</v>
+        <v>53579.6</v>
       </c>
       <c r="C57">
-        <v>54701.06439584302</v>
+        <v>54936.0754998163</v>
       </c>
       <c r="D57">
-        <v>198.2356041569874</v>
+        <v>-1356.475499816304</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2593,13 +2593,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>53579.6</v>
+        <v>57780</v>
       </c>
       <c r="C58">
-        <v>54985.66604756613</v>
+        <v>53565.91454090577</v>
       </c>
       <c r="D58">
-        <v>-1406.066047566135</v>
+        <v>4214.085459094233</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2607,13 +2607,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>57780</v>
+        <v>57859.2</v>
       </c>
       <c r="C59">
-        <v>53608.99208493947</v>
+        <v>56627.48267869986</v>
       </c>
       <c r="D59">
-        <v>4171.007915060531</v>
+        <v>1231.717321300137</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2621,13 +2621,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>57859.2</v>
+        <v>56618.5</v>
       </c>
       <c r="C60">
-        <v>56679.45396865587</v>
+        <v>57782.7967418092</v>
       </c>
       <c r="D60">
-        <v>1179.746031344126</v>
+        <v>-1164.296741809201</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2635,13 +2635,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>56618.5</v>
+        <v>57193.5</v>
       </c>
       <c r="C61">
-        <v>57835.6552632291</v>
+        <v>56759.79250693775</v>
       </c>
       <c r="D61">
-        <v>-1217.155263229099</v>
+        <v>433.7074930622475</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2649,13 +2649,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>57193.5</v>
+        <v>53239.4</v>
       </c>
       <c r="C62">
-        <v>56796.38270787292</v>
+        <v>57428.92845124213</v>
       </c>
       <c r="D62">
-        <v>397.1172921270772</v>
+        <v>-4189.528451242128</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2663,13 +2663,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>53239.4</v>
+        <v>57497.1</v>
       </c>
       <c r="C63">
-        <v>57463.90233424291</v>
+        <v>54096.31189154476</v>
       </c>
       <c r="D63">
-        <v>-4224.502334242912</v>
+        <v>3400.788108455243</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2677,13 +2677,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>57497.1</v>
+        <v>56421.1</v>
       </c>
       <c r="C64">
-        <v>54107.15112496703</v>
+        <v>56564.56947285123</v>
       </c>
       <c r="D64">
-        <v>3389.948875032969</v>
+        <v>-143.4694728512331</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2691,13 +2691,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>56421.1</v>
+        <v>57383</v>
       </c>
       <c r="C65">
-        <v>56569.43744079256</v>
+        <v>56651.58241316027</v>
       </c>
       <c r="D65">
-        <v>-148.3374407925658</v>
+        <v>731.4175868397288</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2705,13 +2705,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>57383</v>
+        <v>58953.8</v>
       </c>
       <c r="C66">
-        <v>56655.57855059096</v>
+        <v>57256.60999054287</v>
       </c>
       <c r="D66">
-        <v>727.4214494090411</v>
+        <v>1697.190009457132</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2719,13 +2719,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>58953.8</v>
+        <v>58293.1</v>
       </c>
       <c r="C67">
-        <v>57259.39355793165</v>
+        <v>58702.46594521511</v>
       </c>
       <c r="D67">
-        <v>1694.406442068357</v>
+        <v>-409.3659452151114</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2733,13 +2733,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>58293.1</v>
+        <v>55888.1</v>
       </c>
       <c r="C68">
-        <v>58706.54571082583</v>
+        <v>58134.87572967843</v>
       </c>
       <c r="D68">
-        <v>-413.4457108258284</v>
+        <v>-2246.775729678433</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2747,13 +2747,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>55888.1</v>
+        <v>56747.5</v>
       </c>
       <c r="C69">
-        <v>58132.78483144226</v>
+        <v>56221.15153906133</v>
       </c>
       <c r="D69">
-        <v>-2244.68483144226</v>
+        <v>526.3484609386651</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2761,13 +2761,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>56747.5</v>
+        <v>49502.7</v>
       </c>
       <c r="C70">
-        <v>56213.8307362333</v>
+        <v>56317.63238385593</v>
       </c>
       <c r="D70">
-        <v>533.6692637667002</v>
+        <v>-6814.932383855936</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2775,13 +2775,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>49502.7</v>
+        <v>49675.2</v>
       </c>
       <c r="C71">
-        <v>56304.50762701867</v>
+        <v>51164.48514362698</v>
       </c>
       <c r="D71">
-        <v>-6801.807627018672</v>
+        <v>-1489.285143626985</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2789,13 +2789,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>49675.2</v>
+        <v>49899</v>
       </c>
       <c r="C72">
-        <v>51144.41831158818</v>
+        <v>48965.86627618413</v>
       </c>
       <c r="D72">
-        <v>-1469.218311588178</v>
+        <v>933.133723815874</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2803,13 +2803,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>49899</v>
+        <v>46771.1</v>
       </c>
       <c r="C73">
-        <v>48930.24282093067</v>
+        <v>49963.1964441555</v>
       </c>
       <c r="D73">
-        <v>968.7571790693328</v>
+        <v>-3192.096444155504</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2817,13 +2817,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>46771.1</v>
+        <v>46482.4</v>
       </c>
       <c r="C74">
-        <v>49940.94715517419</v>
+        <v>47504.42423854611</v>
       </c>
       <c r="D74">
-        <v>-3169.84715517419</v>
+        <v>-1022.02423854611</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2831,13 +2831,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>46482.4</v>
+        <v>43551.8</v>
       </c>
       <c r="C75">
-        <v>47483.99443758666</v>
+        <v>46463.49354776501</v>
       </c>
       <c r="D75">
-        <v>-1001.59443758666</v>
+        <v>-2911.693547765011</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2845,13 +2845,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>43551.8</v>
+        <v>42895.2</v>
       </c>
       <c r="C76">
-        <v>46449.12213712084</v>
+        <v>43770.31004755988</v>
       </c>
       <c r="D76">
-        <v>-2897.322137120835</v>
+        <v>-875.1100475598796</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2859,13 +2859,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>42895.2</v>
+        <v>36742.3</v>
       </c>
       <c r="C77">
-        <v>43761.47972158564</v>
+        <v>43219.27023332525</v>
       </c>
       <c r="D77">
-        <v>-866.2797215856408</v>
+        <v>-6476.97023332525</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2873,13 +2873,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>36742.3</v>
+        <v>40614.6</v>
       </c>
       <c r="C78">
-        <v>43220.83582422693</v>
+        <v>36586.00461850353</v>
       </c>
       <c r="D78">
-        <v>-6478.535824226929</v>
+        <v>4028.595381496467</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2887,13 +2887,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>40614.6</v>
+        <v>37331.7</v>
       </c>
       <c r="C79">
-        <v>36579.883335366</v>
+        <v>39561.92745322298</v>
       </c>
       <c r="D79">
-        <v>4034.716664633997</v>
+        <v>-2230.227453222979</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2901,13 +2901,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>37331.7</v>
+        <v>37468.3</v>
       </c>
       <c r="C80">
-        <v>39564.74764070983</v>
+        <v>37359.34163278682</v>
       </c>
       <c r="D80">
-        <v>-2233.047640709832</v>
+        <v>108.9583672131848</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2915,13 +2915,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>37468.3</v>
+        <v>34718.8</v>
       </c>
       <c r="C81">
-        <v>37358.88671248549</v>
+        <v>37015.61792996275</v>
       </c>
       <c r="D81">
-        <v>109.4132875145151</v>
+        <v>-2296.817929962752</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2929,13 +2929,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>34718.8</v>
+        <v>38833.8</v>
       </c>
       <c r="C82">
-        <v>37010.72637061289</v>
+        <v>34446.82065761823</v>
       </c>
       <c r="D82">
-        <v>-2291.926370612884</v>
+        <v>4386.979342381775</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2943,13 +2943,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>38833.8</v>
+        <v>38388.1</v>
       </c>
       <c r="C83">
-        <v>34444.0338593038</v>
+        <v>37843.43860933586</v>
       </c>
       <c r="D83">
-        <v>4389.7661406962</v>
+        <v>544.661390664136</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2957,13 +2957,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>38388.1</v>
+        <v>39283.9</v>
       </c>
       <c r="C84">
-        <v>37859.35766543043</v>
+        <v>38083.8504287485</v>
       </c>
       <c r="D84">
-        <v>528.7423345695643</v>
+        <v>1200.049571251504</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2971,13 +2971,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>39283.9</v>
+        <v>38516.4</v>
       </c>
       <c r="C85">
-        <v>38104.95533333044</v>
+        <v>39129.99495003695</v>
       </c>
       <c r="D85">
-        <v>1178.944666669566</v>
+        <v>-613.5949500369534</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2985,13 +2985,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>38516.4</v>
+        <v>35683.9</v>
       </c>
       <c r="C86">
-        <v>39168.7121699799</v>
+        <v>38417.31221352864</v>
       </c>
       <c r="D86">
-        <v>-652.3121699799012</v>
+        <v>-2733.412213528638</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2999,13 +2999,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>35683.9</v>
+        <v>34616.6</v>
       </c>
       <c r="C87">
-        <v>38448.43358297224</v>
+        <v>35970.18718070319</v>
       </c>
       <c r="D87">
-        <v>-2764.533582972239</v>
+        <v>-1353.587180703187</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3013,13 +3013,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>34616.6</v>
+        <v>35673.8</v>
       </c>
       <c r="C88">
-        <v>35991.49704446283</v>
+        <v>34772.6233354444</v>
       </c>
       <c r="D88">
-        <v>-1374.897044462828</v>
+        <v>901.1766645556054</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3027,13 +3027,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>35673.8</v>
+        <v>37303.8</v>
       </c>
       <c r="C89">
-        <v>34780.9695694691</v>
+        <v>35109.66501389578</v>
       </c>
       <c r="D89">
-        <v>892.8304305308993</v>
+        <v>2194.134986104225</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3041,13 +3041,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>37303.8</v>
+        <v>36676.3</v>
       </c>
       <c r="C90">
-        <v>35112.15793069286</v>
+        <v>36427.99570401246</v>
       </c>
       <c r="D90">
-        <v>2191.642069307141</v>
+        <v>248.3042959875456</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3055,13 +3055,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>36676.3</v>
+        <v>37565.3</v>
       </c>
       <c r="C91">
-        <v>36431.11640127754</v>
+        <v>36575.40673079996</v>
       </c>
       <c r="D91">
-        <v>245.1835987224622</v>
+        <v>989.893269200038</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3069,13 +3069,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>37565.3</v>
+        <v>39196.6</v>
       </c>
       <c r="C92">
-        <v>36582.72415714455</v>
+        <v>37184.25055507183</v>
       </c>
       <c r="D92">
-        <v>982.5758428554545</v>
+        <v>2012.349444928164</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3083,13 +3083,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>39196.6</v>
+        <v>36847.7</v>
       </c>
       <c r="C93">
-        <v>37192.08855627233</v>
+        <v>38668.13257531481</v>
       </c>
       <c r="D93">
-        <v>2004.511443727672</v>
+        <v>-1820.432575314815</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3097,13 +3097,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>36847.7</v>
+        <v>35534.6</v>
       </c>
       <c r="C94">
-        <v>38678.67013053384</v>
+        <v>36986.90475134351</v>
       </c>
       <c r="D94">
-        <v>-1830.970130533839</v>
+        <v>-1452.304751343509</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3111,13 +3111,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>35534.6</v>
+        <v>35789</v>
       </c>
       <c r="C95">
-        <v>36991.33492040448</v>
+        <v>35793.97660611043</v>
       </c>
       <c r="D95">
-        <v>-1456.73492040448</v>
+        <v>-4.976606110431021</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3125,13 +3125,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>35789</v>
+        <v>33587.6</v>
       </c>
       <c r="C96">
-        <v>35790.03042138502</v>
+        <v>35695.49752416924</v>
       </c>
       <c r="D96">
-        <v>-1.030421385017689</v>
+        <v>-2107.897524169246</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3139,13 +3139,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>33587.6</v>
+        <v>33420</v>
       </c>
       <c r="C97">
-        <v>35684.1372903653</v>
+        <v>34123.31661728263</v>
       </c>
       <c r="D97">
-        <v>-2096.537290365297</v>
+        <v>-703.3166172826313</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3153,13 +3153,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>33420</v>
+        <v>37396.4</v>
       </c>
       <c r="C98">
-        <v>34108.45668436686</v>
+        <v>32911.65774730101</v>
       </c>
       <c r="D98">
-        <v>-688.4566843668581</v>
+        <v>4484.74225269899</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3167,13 +3167,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>37396.4</v>
+        <v>36678.4</v>
       </c>
       <c r="C99">
-        <v>32890.04504450553</v>
+        <v>36184.5264694393</v>
       </c>
       <c r="D99">
-        <v>4506.354955494469</v>
+        <v>493.8735305607042</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3181,13 +3181,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>36678.4</v>
+        <v>37322.2</v>
       </c>
       <c r="C100">
-        <v>36173.8772626576</v>
+        <v>36812.48257574177</v>
       </c>
       <c r="D100">
-        <v>504.5227373424059</v>
+        <v>509.7174242582259</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3195,13 +3195,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>37322.2</v>
+        <v>35544.9</v>
       </c>
       <c r="C101">
-        <v>36812.88699627997</v>
+        <v>37028.88313105682</v>
       </c>
       <c r="D101">
-        <v>509.3130037200317</v>
+        <v>-1483.983131056819</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3209,13 +3209,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>35544.9</v>
+        <v>39034.6</v>
       </c>
       <c r="C102">
-        <v>37027.13139607655</v>
+        <v>35708.375782788</v>
       </c>
       <c r="D102">
-        <v>-1482.231396076553</v>
+        <v>3326.224217211995</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3223,13 +3223,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>39034.6</v>
+        <v>40530.8</v>
       </c>
       <c r="C103">
-        <v>35705.20159845706</v>
+        <v>38090.60501519529</v>
       </c>
       <c r="D103">
-        <v>3329.398401542938</v>
+        <v>2440.194984804708</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3237,13 +3237,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>40530.8</v>
+        <v>40166.6</v>
       </c>
       <c r="C104">
-        <v>38090.49420106382</v>
+        <v>40294.08065752315</v>
       </c>
       <c r="D104">
-        <v>2440.305798936184</v>
+        <v>-127.480657523156</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3251,13 +3251,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>40166.6</v>
+        <v>38337.1</v>
       </c>
       <c r="C105">
-        <v>40307.47922719407</v>
+        <v>40336.19916608723</v>
       </c>
       <c r="D105">
-        <v>-140.8792271940692</v>
+        <v>-1999.099166087231</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3265,13 +3265,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>38337.1</v>
+        <v>38078.2</v>
       </c>
       <c r="C106">
-        <v>40343.32267755899</v>
+        <v>38806.86154586836</v>
       </c>
       <c r="D106">
-        <v>-2006.222677558988</v>
+        <v>-728.6615458683664</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3279,13 +3279,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>38078.2</v>
+        <v>35824</v>
       </c>
       <c r="C107">
-        <v>38800.68648794299</v>
+        <v>38282.51528801362</v>
       </c>
       <c r="D107">
-        <v>-722.4864879429952</v>
+        <v>-2458.515288013616</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3293,13 +3293,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>35824</v>
+        <v>35490.5</v>
       </c>
       <c r="C108">
-        <v>38269.43214647713</v>
+        <v>36192.86445160815</v>
       </c>
       <c r="D108">
-        <v>-2445.432146477135</v>
+        <v>-702.3644516081549</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3307,13 +3307,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>35490.5</v>
+        <v>35595</v>
       </c>
       <c r="C109">
-        <v>36169.28658180163</v>
+        <v>35561.02020597557</v>
       </c>
       <c r="D109">
-        <v>-678.7865818016289</v>
+        <v>33.97979402443161</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3321,13 +3321,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>35595</v>
+        <v>31655.2</v>
       </c>
       <c r="C110">
-        <v>35534.11915132488</v>
+        <v>35166.44295851563</v>
       </c>
       <c r="D110">
-        <v>60.88084867512225</v>
+        <v>-3511.242958515631</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3335,13 +3335,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>31655.2</v>
+        <v>32516.2</v>
       </c>
       <c r="C111">
-        <v>35136.69981930155</v>
+        <v>32454.28518436218</v>
       </c>
       <c r="D111">
-        <v>-3481.499819301545</v>
+        <v>61.91481563782145</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3349,13 +3349,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>32516.2</v>
+        <v>33683.3</v>
       </c>
       <c r="C112">
-        <v>32429.10603325296</v>
+        <v>31801.60960008961</v>
       </c>
       <c r="D112">
-        <v>87.09396674704112</v>
+        <v>1881.690399910392</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3363,13 +3363,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>33683.3</v>
+        <v>34666.6</v>
       </c>
       <c r="C113">
-        <v>31772.07392182702</v>
+        <v>33597.46014658859</v>
       </c>
       <c r="D113">
-        <v>1911.226078172986</v>
+        <v>1069.139853411405</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3377,13 +3377,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>34666.6</v>
+        <v>31583.7</v>
       </c>
       <c r="C114">
-        <v>33583.5898030207</v>
+        <v>34193.76650737971</v>
       </c>
       <c r="D114">
-        <v>1083.010196979296</v>
+        <v>-2610.06650737971</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3391,13 +3391,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>31583.7</v>
+        <v>32277</v>
       </c>
       <c r="C115">
-        <v>34185.61855005042</v>
+        <v>32314.00916101857</v>
       </c>
       <c r="D115">
-        <v>-2601.918550050421</v>
+        <v>-37.00916101856637</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3405,13 +3405,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>32277</v>
+        <v>34675.3</v>
       </c>
       <c r="C116">
-        <v>32313.10393263152</v>
+        <v>31777.65755741275</v>
       </c>
       <c r="D116">
-        <v>-36.10393263152218</v>
+        <v>2897.64244258725</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3419,13 +3419,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>34675.3</v>
+        <v>34472</v>
       </c>
       <c r="C117">
-        <v>31770.90147022129</v>
+        <v>33965.00324602137</v>
       </c>
       <c r="D117">
-        <v>2904.398529778715</v>
+        <v>506.9967539786303</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3433,13 +3433,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>34472</v>
+        <v>35903.3</v>
       </c>
       <c r="C118">
-        <v>33973.57884705623</v>
+        <v>34443.17623972811</v>
       </c>
       <c r="D118">
-        <v>498.4211529437744</v>
+        <v>1460.12376027189</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3447,13 +3447,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>35903.3</v>
+        <v>35046.2</v>
       </c>
       <c r="C119">
-        <v>34464.31105349291</v>
+        <v>35626.30744789136</v>
       </c>
       <c r="D119">
-        <v>1438.988946507088</v>
+        <v>-580.1074478913652</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3461,13 +3461,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>35046.2</v>
+        <v>33532.4</v>
       </c>
       <c r="C120">
-        <v>35654.93760376572</v>
+        <v>34985.30132481334</v>
       </c>
       <c r="D120">
-        <v>-608.7376037657232</v>
+        <v>-1452.901324813334</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3475,13 +3475,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>33532.4</v>
+        <v>33802.9</v>
       </c>
       <c r="C121">
-        <v>35007.0397020758</v>
+        <v>33600.47703549539</v>
       </c>
       <c r="D121">
-        <v>-1474.639702075794</v>
+        <v>202.4229645046071</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3489,13 +3489,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>33802.9</v>
+        <v>34685.4</v>
       </c>
       <c r="C122">
-        <v>33612.37735915839</v>
+        <v>33518.16273842368</v>
       </c>
       <c r="D122">
-        <v>190.5226408416129</v>
+        <v>1167.237261576323</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3503,13 +3503,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>34685.4</v>
+        <v>35305</v>
       </c>
       <c r="C123">
-        <v>33528.22234856445</v>
+        <v>34357.65437633061</v>
       </c>
       <c r="D123">
-        <v>1157.177651435552</v>
+        <v>947.3456236693892</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3517,13 +3517,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>35305</v>
+        <v>33697.6</v>
       </c>
       <c r="C124">
-        <v>34368.80489539387</v>
+        <v>35167.48903737857</v>
       </c>
       <c r="D124">
-        <v>936.1951046061295</v>
+        <v>-1469.889037378576</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3531,13 +3531,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>33697.6</v>
+        <v>34235</v>
       </c>
       <c r="C125">
-        <v>35178.67479879138</v>
+        <v>33860.03180477006</v>
       </c>
       <c r="D125">
-        <v>-1481.074798791386</v>
+        <v>374.9681952299434</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3545,13 +3545,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>34235</v>
+        <v>33885.1</v>
       </c>
       <c r="C126">
-        <v>33863.84253843522</v>
+        <v>34230.42727848585</v>
       </c>
       <c r="D126">
-        <v>371.1574615647842</v>
+        <v>-345.3272784858491</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3559,13 +3559,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>33885.1</v>
+        <v>32882.2</v>
       </c>
       <c r="C127">
-        <v>34236.5933016926</v>
+        <v>34090.9723840213</v>
       </c>
       <c r="D127">
-        <v>-351.4933016926007</v>
+        <v>-1208.7723840213</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3573,13 +3573,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>32882.2</v>
+        <v>33791</v>
       </c>
       <c r="C128">
-        <v>34097.32315195765</v>
+        <v>32900.51898169352</v>
       </c>
       <c r="D128">
-        <v>-1215.123151957654</v>
+        <v>890.4810183064837</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3587,13 +3587,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>33791</v>
+        <v>33522.2</v>
       </c>
       <c r="C129">
-        <v>32901.7007729107</v>
+        <v>33447.17903932021</v>
       </c>
       <c r="D129">
-        <v>889.299227089301</v>
+        <v>75.02096067978709</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3601,13 +3601,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>33522.2</v>
+        <v>34246.9</v>
       </c>
       <c r="C130">
-        <v>33448.31009409353</v>
+        <v>33498.30027400807</v>
       </c>
       <c r="D130">
-        <v>73.88990590647154</v>
+        <v>748.5997259919313</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3615,13 +3615,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>34246.9</v>
+        <v>33107.3</v>
       </c>
       <c r="C131">
-        <v>33500.91201394322</v>
+        <v>34052.1846064369</v>
       </c>
       <c r="D131">
-        <v>745.9879860567817</v>
+        <v>-944.884606436899</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3629,13 +3629,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>33107.3</v>
+        <v>32722.9</v>
       </c>
       <c r="C132">
-        <v>34058.2636290903</v>
+        <v>33295.60335907334</v>
       </c>
       <c r="D132">
-        <v>-950.9636290902999</v>
+        <v>-572.7033590733408</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3643,13 +3643,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>32722.9</v>
+        <v>32815.2</v>
       </c>
       <c r="C133">
-        <v>33303.91598102581</v>
+        <v>32668.42987316748</v>
       </c>
       <c r="D133">
-        <v>-581.0159810258119</v>
+        <v>146.7701268325145</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3657,13 +3657,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>32815.2</v>
+        <v>31832.6</v>
       </c>
       <c r="C134">
-        <v>32675.00001171033</v>
+        <v>32511.41184424147</v>
       </c>
       <c r="D134">
-        <v>140.1999882896635</v>
+        <v>-678.811844241467</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3671,13 +3671,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>31832.6</v>
+        <v>31405.9</v>
       </c>
       <c r="C135">
-        <v>32516.69639381472</v>
+        <v>31892.16313742425</v>
       </c>
       <c r="D135">
-        <v>-684.0963938147252</v>
+        <v>-486.2631374242446</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3685,13 +3685,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>31405.9</v>
+        <v>31510</v>
       </c>
       <c r="C136">
-        <v>31900.20279536801</v>
+        <v>31415.31823118305</v>
       </c>
       <c r="D136">
-        <v>-494.3027953680066</v>
+        <v>94.68176881695035</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3699,13 +3699,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>31510</v>
+        <v>31780.1</v>
       </c>
       <c r="C137">
-        <v>31423.2603979703</v>
+        <v>31432.44889123721</v>
       </c>
       <c r="D137">
-        <v>86.73960202970193</v>
+        <v>347.6511087627914</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3713,13 +3713,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>31780.1</v>
+        <v>30820.5</v>
       </c>
       <c r="C138">
-        <v>31441.40869046698</v>
+        <v>31671.1447097754</v>
       </c>
       <c r="D138">
-        <v>338.6913095330165</v>
+        <v>-850.6447097754026</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3727,13 +3727,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>30820.5</v>
+        <v>29788.1</v>
       </c>
       <c r="C139">
-        <v>31681.68253062834</v>
+        <v>30865.28657014706</v>
       </c>
       <c r="D139">
-        <v>-861.1825306283426</v>
+        <v>-1077.186570147063</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3741,13 +3741,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>29788.1</v>
+        <v>32125</v>
       </c>
       <c r="C140">
-        <v>30875.14293753955</v>
+        <v>29855.37091396841</v>
       </c>
       <c r="D140">
-        <v>-1087.042937539554</v>
+        <v>2269.629086031589</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3755,13 +3755,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>32125</v>
+        <v>32283.3</v>
       </c>
       <c r="C141">
-        <v>29864.04929143764</v>
+        <v>31585.96109528674</v>
       </c>
       <c r="D141">
-        <v>2260.950708562363</v>
+        <v>697.3389047132587</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3769,13 +3769,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>32283.3</v>
+        <v>33639</v>
       </c>
       <c r="C142">
-        <v>31602.52685386193</v>
+        <v>32142.7027937655</v>
       </c>
       <c r="D142">
-        <v>680.7731461380718</v>
+        <v>1496.297206234503</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3783,13 +3783,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>33639</v>
+        <v>34284.6</v>
       </c>
       <c r="C143">
-        <v>32162.400703539</v>
+        <v>33193.50941713108</v>
       </c>
       <c r="D143">
-        <v>1476.599296461005</v>
+        <v>1091.090582868921</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3797,13 +3797,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>34284.6</v>
+        <v>35413.6</v>
       </c>
       <c r="C144">
-        <v>33215.69684742947</v>
+        <v>34123.29705666844</v>
       </c>
       <c r="D144">
-        <v>1068.903152570529</v>
+        <v>1290.302943331561</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3811,13 +3811,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>35413.6</v>
+        <v>37274.9</v>
       </c>
       <c r="C145">
-        <v>34151.08441288493</v>
+        <v>35045.11323011975</v>
       </c>
       <c r="D145">
-        <v>1262.515587115071</v>
+        <v>2229.786769880251</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3825,13 +3825,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>37274.9</v>
+        <v>39506.2</v>
       </c>
       <c r="C146">
-        <v>35068.53643333487</v>
+        <v>37626.71972554785</v>
       </c>
       <c r="D146">
-        <v>2206.363566665132</v>
+        <v>1879.480274452144</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3839,13 +3839,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>39506.2</v>
+        <v>40011</v>
       </c>
       <c r="C147">
-        <v>37668.5193449595</v>
+        <v>38882.54383024154</v>
       </c>
       <c r="D147">
-        <v>1837.680655040502</v>
+        <v>1128.456169758458</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3853,13 +3853,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>40011</v>
+        <v>40000</v>
       </c>
       <c r="C148">
-        <v>38905.80045692809</v>
+        <v>40071.09242882358</v>
       </c>
       <c r="D148">
-        <v>1105.199543071911</v>
+        <v>-71.09242882358376</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3867,13 +3867,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>40000</v>
+        <v>42229.6</v>
       </c>
       <c r="C149">
-        <v>40095.69418290947</v>
+        <v>40095.05832067088</v>
       </c>
       <c r="D149">
-        <v>-95.69418290947215</v>
+        <v>2134.541679329115</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3881,13 +3881,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>42229.6</v>
+        <v>41488.5</v>
       </c>
       <c r="C150">
-        <v>40103.44585562355</v>
+        <v>41484.31208677238</v>
       </c>
       <c r="D150">
-        <v>2126.154144376451</v>
+        <v>4.18791322762263</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3895,13 +3895,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>41488.5</v>
+        <v>39889.1</v>
       </c>
       <c r="C151">
-        <v>41483.37774542725</v>
+        <v>41749.80960524638</v>
       </c>
       <c r="D151">
-        <v>5.122254572750535</v>
+        <v>-1860.709605246382</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3909,13 +3909,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>39889.1</v>
+        <v>39152.3</v>
       </c>
       <c r="C152">
-        <v>41745.81291254965</v>
+        <v>40523.79965474631</v>
       </c>
       <c r="D152">
-        <v>-1856.71291254965</v>
+        <v>-1371.499654746309</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3923,13 +3923,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>39152.3</v>
+        <v>38163</v>
       </c>
       <c r="C153">
-        <v>40508.4427108074</v>
+        <v>39442.85049485872</v>
       </c>
       <c r="D153">
-        <v>-1356.142710807399</v>
+        <v>-1279.850494858722</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3937,13 +3937,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>38163</v>
+        <v>39749</v>
       </c>
       <c r="C154">
-        <v>39418.9954186508</v>
+        <v>38490.09701217912</v>
       </c>
       <c r="D154">
-        <v>-1255.995418650797</v>
+        <v>1258.902987820882</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3951,13 +3951,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>39749</v>
+        <v>40886.4</v>
       </c>
       <c r="C155">
-        <v>38462.44109655393</v>
+        <v>39338.64452637744</v>
       </c>
       <c r="D155">
-        <v>1286.558903446072</v>
+        <v>1547.755473622565</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3965,13 +3965,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>40886.4</v>
+        <v>42823.9</v>
       </c>
       <c r="C156">
-        <v>39313.9719341117</v>
+        <v>40250.63737472845</v>
       </c>
       <c r="D156">
-        <v>1572.4280658883</v>
+        <v>2573.262625271549</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3979,13 +3979,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>42823.9</v>
+        <v>44610.7</v>
       </c>
       <c r="C157">
-        <v>40232.46768251812</v>
+        <v>42364.74195534922</v>
       </c>
       <c r="D157">
-        <v>2591.432317481878</v>
+        <v>2245.958044650775</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3993,13 +3993,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>44610.7</v>
+        <v>43845.6</v>
       </c>
       <c r="C158">
-        <v>42363.21561831763</v>
+        <v>44268.27935729348</v>
       </c>
       <c r="D158">
-        <v>2247.48438168237</v>
+        <v>-422.6793572934766</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4007,13 +4007,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>43845.6</v>
+        <v>46307.1</v>
       </c>
       <c r="C159">
-        <v>44278.11888859904</v>
+        <v>44192.12996346303</v>
       </c>
       <c r="D159">
-        <v>-432.5188885990428</v>
+        <v>2114.970036536972</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4021,13 +4021,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>46307.1</v>
+        <v>45595.1</v>
       </c>
       <c r="C160">
-        <v>44206.78515733927</v>
+        <v>45674.69736296721</v>
       </c>
       <c r="D160">
-        <v>2100.314842660729</v>
+        <v>-79.5973629672153</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4035,13 +4035,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>45595.1</v>
+        <v>45571.7</v>
       </c>
       <c r="C161">
-        <v>45690.43632789457</v>
+        <v>45763.9328131791</v>
       </c>
       <c r="D161">
-        <v>-95.33632789456897</v>
+        <v>-192.2328131791</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4049,13 +4049,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>45571.7</v>
+        <v>44401.1</v>
       </c>
       <c r="C162">
-        <v>45778.38637638369</v>
+        <v>45927.77762552467</v>
       </c>
       <c r="D162">
-        <v>-206.6863763836882</v>
+        <v>-1526.677625524673</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4063,13 +4063,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>44401.1</v>
+        <v>47823.3</v>
       </c>
       <c r="C163">
-        <v>45940.57251723658</v>
+        <v>44773.95349969924</v>
       </c>
       <c r="D163">
-        <v>-1539.47251723658</v>
+        <v>3049.346500300759</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4077,13 +4077,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>47823.3</v>
+        <v>47115.2</v>
       </c>
       <c r="C164">
-        <v>44775.60306972501</v>
+        <v>47110.32783825771</v>
       </c>
       <c r="D164">
-        <v>3047.696930274993</v>
+        <v>4.872161742285243</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4091,13 +4091,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>47115.2</v>
+        <v>47019.3</v>
       </c>
       <c r="C165">
-        <v>47114.24692493133</v>
+        <v>47209.13514543543</v>
       </c>
       <c r="D165">
-        <v>0.9530750686681131</v>
+        <v>-189.835145435427</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4105,13 +4105,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>47019.3</v>
+        <v>45926.3</v>
       </c>
       <c r="C166">
-        <v>47215.95945006836</v>
+        <v>46853.88835441199</v>
       </c>
       <c r="D166">
-        <v>-196.6594500683568</v>
+        <v>-927.5883544119861</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4119,13 +4119,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>45926.3</v>
+        <v>44672.2</v>
       </c>
       <c r="C167">
-        <v>46855.77274198245</v>
+        <v>46438.12314153096</v>
       </c>
       <c r="D167">
-        <v>-929.4727419824485</v>
+        <v>-1765.923141530962</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4133,13 +4133,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>44672.2</v>
+        <v>44714.7</v>
       </c>
       <c r="C168">
-        <v>46445.61046797593</v>
+        <v>45231.97511422884</v>
       </c>
       <c r="D168">
-        <v>-1773.410467975933</v>
+        <v>-517.2751142288471</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4147,13 +4147,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>44714.7</v>
+        <v>46765.3</v>
       </c>
       <c r="C169">
-        <v>45234.97179827018</v>
+        <v>44946.24617096668</v>
       </c>
       <c r="D169">
-        <v>-520.271798270187</v>
+        <v>1819.053829033321</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4161,13 +4161,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>46765.3</v>
+        <v>49345.4</v>
       </c>
       <c r="C170">
-        <v>44949.86131434597</v>
+        <v>46231.97624551813</v>
       </c>
       <c r="D170">
-        <v>1815.438685654037</v>
+        <v>3113.423754481868</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4175,13 +4175,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>49345.4</v>
+        <v>48865.4</v>
       </c>
       <c r="C171">
-        <v>46236.69647083592</v>
+        <v>48804.59114500671</v>
       </c>
       <c r="D171">
-        <v>3108.703529164086</v>
+        <v>60.80885499329452</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4189,13 +4189,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>48865.4</v>
+        <v>49293.6</v>
       </c>
       <c r="C172">
-        <v>48823.32639942571</v>
+        <v>49032.15067870653</v>
       </c>
       <c r="D172">
-        <v>42.07360057428741</v>
+        <v>261.4493212934685</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4203,13 +4203,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>49293.6</v>
+        <v>49517.3</v>
       </c>
       <c r="C173">
-        <v>49055.78717014787</v>
+        <v>49128.08214913384</v>
       </c>
       <c r="D173">
-        <v>237.812829852126</v>
+        <v>389.21785086616</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4217,13 +4217,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>49517.3</v>
+        <v>47725.4</v>
       </c>
       <c r="C174">
-        <v>49148.68083526439</v>
+        <v>49718.72040195481</v>
       </c>
       <c r="D174">
-        <v>368.6191647356172</v>
+        <v>-1993.320401954807</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4231,13 +4231,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>47725.4</v>
+        <v>48991.3</v>
       </c>
       <c r="C175">
-        <v>49748.8931665362</v>
+        <v>48243.92761312204</v>
       </c>
       <c r="D175">
-        <v>-2023.493166536202</v>
+        <v>747.3723868779634</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4245,13 +4245,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>48991.3</v>
+        <v>46848.9</v>
       </c>
       <c r="C176">
-        <v>48267.6467183723</v>
+        <v>48666.46496202995</v>
       </c>
       <c r="D176">
-        <v>723.6532816277031</v>
+        <v>-1817.564962029945</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4259,13 +4259,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>46848.9</v>
+        <v>49074.9</v>
       </c>
       <c r="C177">
-        <v>48684.93999027493</v>
+        <v>47302.87928627702</v>
       </c>
       <c r="D177">
-        <v>-1836.039990274927</v>
+        <v>1772.020713722981</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4273,13 +4273,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>49074.9</v>
+        <v>48895.7</v>
       </c>
       <c r="C178">
-        <v>47316.03535094816</v>
+        <v>48478.01301979454</v>
       </c>
       <c r="D178">
-        <v>1758.864649051837</v>
+        <v>417.6869802054571</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4287,13 +4287,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>48895.7</v>
+        <v>48787.7</v>
       </c>
       <c r="C179">
-        <v>48489.0494822023</v>
+        <v>48881.18135001682</v>
       </c>
       <c r="D179">
-        <v>406.6505177976942</v>
+        <v>-93.48135001682385</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4301,13 +4301,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>48787.7</v>
+        <v>46985.7</v>
       </c>
       <c r="C180">
-        <v>48897.97131549826</v>
+        <v>48757.13926423964</v>
       </c>
       <c r="D180">
-        <v>-110.271315498263</v>
+        <v>-1771.439264239641</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4315,13 +4315,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>46985.7</v>
+        <v>47140</v>
       </c>
       <c r="C181">
-        <v>48775.13513161254</v>
+        <v>47370.81887925492</v>
       </c>
       <c r="D181">
-        <v>-1789.435131612539</v>
+        <v>-230.818879254919</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4329,13 +4329,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>47140</v>
+        <v>48872.2</v>
       </c>
       <c r="C182">
-        <v>47387.65934584287</v>
+        <v>47271.9208550422</v>
       </c>
       <c r="D182">
-        <v>-247.6593458428688</v>
+        <v>1600.279144957793</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4343,13 +4343,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>48872.2</v>
+        <v>49290.3</v>
       </c>
       <c r="C183">
-        <v>47291.64983794608</v>
+        <v>48359.31704395096</v>
       </c>
       <c r="D183">
-        <v>1580.550162053914</v>
+        <v>930.9829560490471</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4357,13 +4357,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>49290.3</v>
+        <v>50018.6</v>
       </c>
       <c r="C184">
-        <v>48382.6268147323</v>
+        <v>49383.5391740741</v>
       </c>
       <c r="D184">
-        <v>907.673185267704</v>
+        <v>635.0608259258952</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4371,13 +4371,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>50018.6</v>
+        <v>49956.1</v>
       </c>
       <c r="C185">
-        <v>49416.27363824265</v>
+        <v>49858.42417901545</v>
       </c>
       <c r="D185">
-        <v>602.3263617573466</v>
+        <v>97.67582098455023</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4385,13 +4385,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>49956.1</v>
+        <v>51767.9</v>
       </c>
       <c r="C186">
-        <v>49890.38293738366</v>
+        <v>49949.80160702657</v>
       </c>
       <c r="D186">
-        <v>65.71706261633517</v>
+        <v>1818.098392973428</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4399,13 +4399,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>51767.9</v>
+        <v>52688.3</v>
       </c>
       <c r="C187">
-        <v>49977.99283647208</v>
+        <v>51270.89775877987</v>
       </c>
       <c r="D187">
-        <v>1789.907163527918</v>
+        <v>1417.40224122013</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4413,13 +4413,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>52688.3</v>
+        <v>46882.1</v>
       </c>
       <c r="C188">
-        <v>51301.66889833994</v>
+        <v>52357.10144854159</v>
       </c>
       <c r="D188">
-        <v>1386.631101660067</v>
+        <v>-5475.001448541596</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4427,13 +4427,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>46882.1</v>
+        <v>46073.4</v>
       </c>
       <c r="C189">
-        <v>52392.64213891368</v>
+        <v>47064.49966815079</v>
       </c>
       <c r="D189">
-        <v>-5510.542138913683</v>
+        <v>-991.0996681507895</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4441,13 +4441,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>46073.4</v>
+        <v>46389.6</v>
       </c>
       <c r="C190">
-        <v>47071.91832664321</v>
+        <v>45897.98716641264</v>
       </c>
       <c r="D190">
-        <v>-998.5183266432068</v>
+        <v>491.6128335873582</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4455,13 +4455,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>46389.6</v>
+        <v>44842.2</v>
       </c>
       <c r="C191">
-        <v>45893.76100785926</v>
+        <v>46317.98833997408</v>
       </c>
       <c r="D191">
-        <v>495.8389921407434</v>
+        <v>-1475.788339974082</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4469,13 +4469,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>44842.2</v>
+        <v>45137.4</v>
       </c>
       <c r="C192">
-        <v>46317.87364689622</v>
+        <v>45058.84117646591</v>
       </c>
       <c r="D192">
-        <v>-1475.673646896219</v>
+        <v>78.55882353409106</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4483,13 +4483,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>45137.4</v>
+        <v>46061.3</v>
       </c>
       <c r="C193">
-        <v>45057.51275861234</v>
+        <v>45106.18546396363</v>
       </c>
       <c r="D193">
-        <v>79.88724138765974</v>
+        <v>955.1145360363735</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4497,13 +4497,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>46061.3</v>
+        <v>44965.8</v>
       </c>
       <c r="C194">
-        <v>45107.00219368088</v>
+        <v>45718.63097482428</v>
       </c>
       <c r="D194">
-        <v>954.2978063191258</v>
+        <v>-752.8309748242755</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4511,13 +4511,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>44965.8</v>
+        <v>47145.9</v>
       </c>
       <c r="C195">
-        <v>45726.45051544817</v>
+        <v>44881.07960781024</v>
       </c>
       <c r="D195">
-        <v>-760.6505154481711</v>
+        <v>2264.820392189758</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4525,13 +4525,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>47145.9</v>
+        <v>48152.3</v>
       </c>
       <c r="C196">
-        <v>44894.9462158611</v>
+        <v>46484.83208201206</v>
       </c>
       <c r="D196">
-        <v>2250.953784138903</v>
+        <v>1667.467917987946</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4539,13 +4539,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>48152.3</v>
+        <v>47786.9</v>
       </c>
       <c r="C197">
-        <v>46513.94241416708</v>
+        <v>47799.61459621132</v>
       </c>
       <c r="D197">
-        <v>1638.357585832928</v>
+        <v>-12.7145962113209</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4553,13 +4553,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>47786.9</v>
+        <v>47269.7</v>
       </c>
       <c r="C198">
-        <v>47841.61575516383</v>
+        <v>47674.03145545666</v>
       </c>
       <c r="D198">
-        <v>-54.71575516383018</v>
+        <v>-404.3314554566605</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4567,13 +4567,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>47269.7</v>
+        <v>48309.9</v>
       </c>
       <c r="C199">
-        <v>47714.82812842776</v>
+        <v>47262.30736860476</v>
       </c>
       <c r="D199">
-        <v>-445.1281284277648</v>
+        <v>1047.592631395244</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4581,13 +4581,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>48309.9</v>
+        <v>47237.8</v>
       </c>
       <c r="C200">
-        <v>47298.87119273384</v>
+        <v>48039.88931035844</v>
       </c>
       <c r="D200">
-        <v>1011.028807266157</v>
+        <v>-802.0893103584385</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4595,13 +4595,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>47237.8</v>
+        <v>42992.9</v>
       </c>
       <c r="C201">
-        <v>48073.85746139879</v>
+        <v>47305.13385689282</v>
       </c>
       <c r="D201">
-        <v>-836.0574613987847</v>
+        <v>-4312.233856892817</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4609,13 +4609,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>42992.9</v>
+        <v>40710.6</v>
       </c>
       <c r="C202">
-        <v>47332.97999635336</v>
+        <v>43730.55568831184</v>
       </c>
       <c r="D202">
-        <v>-4340.079996353357</v>
+        <v>-3019.955688311842</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4623,13 +4623,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>40710.6</v>
+        <v>43562.8</v>
       </c>
       <c r="C203">
-        <v>43745.77484020154</v>
+        <v>40948.59504131108</v>
       </c>
       <c r="D203">
-        <v>-3035.174840201544</v>
+        <v>2614.204958688919</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4637,13 +4637,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>43562.8</v>
+        <v>44889.8</v>
       </c>
       <c r="C204">
-        <v>40948.41159747847</v>
+        <v>42800.85914663505</v>
       </c>
       <c r="D204">
-        <v>2614.388402521538</v>
+        <v>2088.940853364955</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4651,13 +4651,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>44889.8</v>
+        <v>42833.2</v>
       </c>
       <c r="C205">
-        <v>42803.47904596865</v>
+        <v>44363.46254535715</v>
       </c>
       <c r="D205">
-        <v>2086.320954031355</v>
+        <v>-1530.262545357153</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4665,13 +4665,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>42833.2</v>
+        <v>42710.1</v>
       </c>
       <c r="C206">
-        <v>44377.75982828703</v>
+        <v>42717.68279597771</v>
       </c>
       <c r="D206">
-        <v>-1544.559828287034</v>
+        <v>-7.58279597771616</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4679,13 +4679,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>42710.1</v>
+        <v>43204.6</v>
       </c>
       <c r="C207">
-        <v>42727.4837360213</v>
+        <v>42369.67014400891</v>
       </c>
       <c r="D207">
-        <v>-17.38373602130014</v>
+        <v>834.9298559910894</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4693,13 +4693,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>43204.6</v>
+        <v>42176.3</v>
       </c>
       <c r="C208">
-        <v>42377.18087301144</v>
+        <v>42637.52875207312</v>
       </c>
       <c r="D208">
-        <v>827.4191269885559</v>
+        <v>-461.2287520731188</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4707,13 +4707,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>42176.3</v>
+        <v>41038.4</v>
       </c>
       <c r="C209">
-        <v>42647.90054986964</v>
+        <v>42497.31485315904</v>
       </c>
       <c r="D209">
-        <v>-471.6005498696322</v>
+        <v>-1458.91485315904</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4721,13 +4721,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>41038.4</v>
+        <v>41524.8</v>
       </c>
       <c r="C210">
-        <v>42520.16939992091</v>
+        <v>41220.00533992893</v>
       </c>
       <c r="D210">
-        <v>-1481.769399920908</v>
+        <v>304.7946600710711</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4735,13 +4735,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>41524.8</v>
+        <v>43798.7</v>
       </c>
       <c r="C211">
-        <v>41239.97704555295</v>
+        <v>41406.92444952173</v>
       </c>
       <c r="D211">
-        <v>284.8229544470523</v>
+        <v>2391.775550478269</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4749,13 +4749,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>43798.7</v>
+        <v>48163.7</v>
       </c>
       <c r="C212">
-        <v>41427.10500016765</v>
+        <v>43171.14534120206</v>
       </c>
       <c r="D212">
-        <v>2371.594999832349</v>
+        <v>4992.554658797933</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4763,13 +4763,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>48163.7</v>
+        <v>47662</v>
       </c>
       <c r="C213">
-        <v>43198.85087964646</v>
+        <v>47007.89188397102</v>
       </c>
       <c r="D213">
-        <v>4964.849120353538</v>
+        <v>654.1081160289759</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4777,13 +4777,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>47662</v>
+        <v>48230.2</v>
       </c>
       <c r="C214">
-        <v>47048.75075471791</v>
+        <v>47721.81181092214</v>
       </c>
       <c r="D214">
-        <v>613.2492452820879</v>
+        <v>508.3881890778575</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4791,13 +4791,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>48230.2</v>
+        <v>49243.3</v>
       </c>
       <c r="C215">
-        <v>47765.72159259339</v>
+        <v>48157.70811254164</v>
       </c>
       <c r="D215">
-        <v>464.478407406612</v>
+        <v>1085.591887458359</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4805,13 +4805,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>49243.3</v>
+        <v>51487</v>
       </c>
       <c r="C216">
-        <v>48197.69847087577</v>
+        <v>48732.58748082028</v>
       </c>
       <c r="D216">
-        <v>1045.601529124237</v>
+        <v>2754.412519179721</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4819,13 +4819,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>51487</v>
+        <v>55350.2</v>
       </c>
       <c r="C217">
-        <v>48763.76514278533</v>
+        <v>51055.42687009228</v>
       </c>
       <c r="D217">
-        <v>2723.234857214673</v>
+        <v>4294.773129907713</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4833,13 +4833,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>55350.2</v>
+        <v>53817.3</v>
       </c>
       <c r="C218">
-        <v>51089.1281663616</v>
+        <v>54384.7179342336</v>
       </c>
       <c r="D218">
-        <v>4261.071833638402</v>
+        <v>-567.4179342335992</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4847,13 +4847,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>53817.3</v>
+        <v>53960.5</v>
       </c>
       <c r="C219">
-        <v>54415.98418358219</v>
+        <v>54184.63291869132</v>
       </c>
       <c r="D219">
-        <v>-598.6841835821833</v>
+        <v>-224.1329186913208</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4861,13 +4861,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>53960.5</v>
+        <v>54960.2</v>
       </c>
       <c r="C220">
-        <v>54203.56028708394</v>
+        <v>54502.17466254748</v>
       </c>
       <c r="D220">
-        <v>-243.0602870839357</v>
+        <v>458.02533745252</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4875,13 +4875,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>54960.2</v>
+        <v>54677.5</v>
       </c>
       <c r="C221">
-        <v>54512.0710278608</v>
+        <v>54915.9807480395</v>
       </c>
       <c r="D221">
-        <v>448.128972139195</v>
+        <v>-238.4807480394957</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4889,13 +4889,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>54677.5</v>
+        <v>57499.5</v>
       </c>
       <c r="C222">
-        <v>54910.36607124412</v>
+        <v>55098.31162879537</v>
       </c>
       <c r="D222">
-        <v>-232.8660712441197</v>
+        <v>2401.188371204626</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4903,13 +4903,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>57499.5</v>
+        <v>56010.1</v>
       </c>
       <c r="C223">
-        <v>55092.10397522373</v>
+        <v>57017.67428481908</v>
       </c>
       <c r="D223">
-        <v>2407.396024776273</v>
+        <v>-1007.574284819078</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4917,13 +4917,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>56010.1</v>
+        <v>57381.2</v>
       </c>
       <c r="C224">
-        <v>57010.763859878</v>
+        <v>56061.25125616195</v>
       </c>
       <c r="D224">
-        <v>-1000.663859878005</v>
+        <v>1319.948743838046</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4931,13 +4931,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>57381.2</v>
+        <v>57377.6</v>
       </c>
       <c r="C225">
-        <v>56044.93414811802</v>
+        <v>56868.30649301439</v>
       </c>
       <c r="D225">
-        <v>1336.265851881981</v>
+        <v>509.2935069856103</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4945,13 +4945,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>57377.6</v>
+        <v>61656.2</v>
       </c>
       <c r="C226">
-        <v>56851.09941452005</v>
+        <v>57665.2093387382</v>
       </c>
       <c r="D226">
-        <v>526.5005854799456</v>
+        <v>3990.990661261792</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4959,13 +4959,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>61656.2</v>
+        <v>60873.4</v>
       </c>
       <c r="C227">
-        <v>57658.01247237544</v>
+        <v>60997.25795658163</v>
       </c>
       <c r="D227">
-        <v>3998.187527624556</v>
+        <v>-123.8579565816253</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4973,13 +4973,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>60873.4</v>
+        <v>61526.5</v>
       </c>
       <c r="C228">
-        <v>61003.40616298214</v>
+        <v>61222.12149503792</v>
       </c>
       <c r="D228">
-        <v>-130.0061629821357</v>
+        <v>304.3785049620783</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4987,13 +4987,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>61526.5</v>
+        <v>62037.7</v>
       </c>
       <c r="C229">
-        <v>61227.05006669922</v>
+        <v>61098.1434643406</v>
       </c>
       <c r="D229">
-        <v>299.4499333007843</v>
+        <v>939.5565356594016</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5001,13 +5001,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>62037.7</v>
+        <v>64284.9</v>
       </c>
       <c r="C230">
-        <v>61094.44553013207</v>
+        <v>61829.21696156479</v>
       </c>
       <c r="D230">
-        <v>943.2544698679267</v>
+        <v>2455.683038435214</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5015,13 +5015,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>64284.9</v>
+        <v>66035.8</v>
       </c>
       <c r="C231">
-        <v>61831.83675565119</v>
+        <v>63797.60172704764</v>
       </c>
       <c r="D231">
-        <v>2453.063244348807</v>
+        <v>2238.198272952359</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5029,13 +5029,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>66035.8</v>
+        <v>62198</v>
       </c>
       <c r="C232">
-        <v>63807.80735944287</v>
+        <v>65857.88476604101</v>
       </c>
       <c r="D232">
-        <v>2227.992640557131</v>
+        <v>-3659.88476604101</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5043,13 +5043,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>62198</v>
+        <v>60687.5</v>
       </c>
       <c r="C233">
-        <v>65877.90389351064</v>
+        <v>61366.95338043827</v>
       </c>
       <c r="D233">
-        <v>-3679.903893510636</v>
+        <v>-679.4533804382663</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5057,13 +5057,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>60687.5</v>
+        <v>61296.9</v>
       </c>
       <c r="C234">
-        <v>61342.79159705655</v>
+        <v>61281.85793414153</v>
       </c>
       <c r="D234">
-        <v>-655.2915970565518</v>
+        <v>15.04206585846987</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5071,13 +5071,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>61296.9</v>
+        <v>60882.5</v>
       </c>
       <c r="C235">
-        <v>61274.24649743258</v>
+        <v>61022.08979848801</v>
       </c>
       <c r="D235">
-        <v>22.65350256741658</v>
+        <v>-139.5897984880139</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5085,13 +5085,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>60882.5</v>
+        <v>63081.8</v>
       </c>
       <c r="C236">
-        <v>61007.98745748168</v>
+        <v>60701.12177196977</v>
       </c>
       <c r="D236">
-        <v>-125.4874574816786</v>
+        <v>2380.678228030229</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5099,13 +5099,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>63081.8</v>
+        <v>60310.2</v>
       </c>
       <c r="C237">
-        <v>60692.24318876298</v>
+        <v>62671.36466100562</v>
       </c>
       <c r="D237">
-        <v>2389.556811237024</v>
+        <v>-2361.16466100562</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5113,13 +5113,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>60310.2</v>
+        <v>58500.1</v>
       </c>
       <c r="C238">
-        <v>62677.96625090821</v>
+        <v>60849.1595430664</v>
       </c>
       <c r="D238">
-        <v>-2367.766250908215</v>
+        <v>-2349.059543066403</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5127,13 +5127,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>58500.1</v>
+        <v>60613.5</v>
       </c>
       <c r="C239">
-        <v>60855.34001586126</v>
+        <v>59039.26124422916</v>
       </c>
       <c r="D239">
-        <v>-2355.240015861265</v>
+        <v>1574.238755770843</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5141,13 +5141,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>60613.5</v>
+        <v>62246.5</v>
       </c>
       <c r="C240">
-        <v>59048.13816939207</v>
+        <v>60391.90891696099</v>
       </c>
       <c r="D240">
-        <v>1565.36183060793</v>
+        <v>1854.591083039006</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5155,13 +5155,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>62246.5</v>
+        <v>61866.3</v>
       </c>
       <c r="C241">
-        <v>60416.02160883602</v>
+        <v>61910.4434070508</v>
       </c>
       <c r="D241">
-        <v>1830.478391163982</v>
+        <v>-44.14340705079667</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5169,13 +5169,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>61866.3</v>
+        <v>61380.1</v>
       </c>
       <c r="C242">
-        <v>61945.07667614904</v>
+        <v>61683.01114003238</v>
       </c>
       <c r="D242">
-        <v>-78.77667614903476</v>
+        <v>-302.9111400323818</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5183,13 +5183,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>61380.1</v>
+        <v>60954.5</v>
       </c>
       <c r="C243">
-        <v>61718.39454025251</v>
+        <v>61263.11808608467</v>
       </c>
       <c r="D243">
-        <v>-338.2945402525147</v>
+        <v>-308.6180860846653</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5197,13 +5197,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>60954.5</v>
+        <v>63279.7</v>
       </c>
       <c r="C244">
-        <v>61297.18004723842</v>
+        <v>60888.31657163479</v>
       </c>
       <c r="D244">
-        <v>-342.6800472384202</v>
+        <v>2391.38342836521</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5211,13 +5211,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>63279.7</v>
+        <v>62942.9</v>
       </c>
       <c r="C245">
-        <v>60923.8014245719</v>
+        <v>62876.0530372613</v>
       </c>
       <c r="D245">
-        <v>2355.898575428102</v>
+        <v>66.84696273870213</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5225,13 +5225,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>62942.9</v>
+        <v>61449</v>
       </c>
       <c r="C246">
-        <v>62922.19976458489</v>
+        <v>62549.04661055229</v>
       </c>
       <c r="D246">
-        <v>20.70023541511182</v>
+        <v>-1100.046610552294</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5239,13 +5239,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>61449</v>
+        <v>61006.2</v>
       </c>
       <c r="C247">
-        <v>62590.77377812698</v>
+        <v>61575.56873417948</v>
       </c>
       <c r="D247">
-        <v>-1141.773778126983</v>
+        <v>-569.3687341794866</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5253,13 +5253,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>61006.2</v>
+        <v>61536.3</v>
       </c>
       <c r="C248">
-        <v>61612.87765762757</v>
+        <v>61250.36045394395</v>
       </c>
       <c r="D248">
-        <v>-606.6776576275734</v>
+        <v>285.9395460560481</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5267,13 +5267,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>61536.3</v>
+        <v>63317.8</v>
       </c>
       <c r="C249">
-        <v>61285.60694582213</v>
+        <v>61142.37989940285</v>
       </c>
       <c r="D249">
-        <v>250.6930541778711</v>
+        <v>2175.420100597155</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5281,13 +5281,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>63317.8</v>
+        <v>67559.8</v>
       </c>
       <c r="C250">
-        <v>61171.20458527392</v>
+        <v>62810.18901306967</v>
       </c>
       <c r="D250">
-        <v>2146.595414726078</v>
+        <v>4749.610986930333</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5295,13 +5295,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>67559.8</v>
+        <v>66950</v>
       </c>
       <c r="C251">
-        <v>62847.66709234257</v>
+        <v>66633.05169855146</v>
       </c>
       <c r="D251">
-        <v>4712.132907657433</v>
+        <v>316.948301448545</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5309,13 +5309,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>66950</v>
+        <v>64969</v>
       </c>
       <c r="C252">
-        <v>66685.20748681115</v>
+        <v>67196.50063155213</v>
       </c>
       <c r="D252">
-        <v>264.7925131888478</v>
+        <v>-2227.500631552131</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5323,13 +5323,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>64969</v>
+        <v>64825.4</v>
       </c>
       <c r="C253">
-        <v>67249.04262439441</v>
+        <v>65381.38320710394</v>
       </c>
       <c r="D253">
-        <v>-2280.042624394409</v>
+        <v>-555.9832071039345</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5337,13 +5337,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>64825.4</v>
+        <v>64153</v>
       </c>
       <c r="C254">
-        <v>65419.90886111488</v>
+        <v>64843.88556159678</v>
       </c>
       <c r="D254">
-        <v>-594.5088611148749</v>
+        <v>-690.8855615967768</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5351,13 +5351,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>64153</v>
+        <v>64393.1</v>
       </c>
       <c r="C255">
-        <v>64869.94865503476</v>
+        <v>64016.44233712298</v>
       </c>
       <c r="D255">
-        <v>-716.9486550347647</v>
+        <v>376.6576628770199</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5365,13 +5365,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>64393.1</v>
+        <v>65495</v>
       </c>
       <c r="C256">
-        <v>64033.71999773703</v>
+        <v>64277.89656778652</v>
       </c>
       <c r="D256">
-        <v>359.3800022629657</v>
+        <v>1217.10343221348</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5379,13 +5379,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>65495</v>
+        <v>63615.8</v>
       </c>
       <c r="C257">
-        <v>64291.1009143875</v>
+        <v>65042.61390924023</v>
       </c>
       <c r="D257">
-        <v>1203.899085612502</v>
+        <v>-1426.813909240227</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5393,13 +5393,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>63615.8</v>
+        <v>60137.2</v>
       </c>
       <c r="C258">
-        <v>65052.95422594325</v>
+        <v>64150.12313664902</v>
       </c>
       <c r="D258">
-        <v>-1437.154225943246</v>
+        <v>-4012.923136649028</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5407,13 +5407,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>60137.2</v>
+        <v>60367.8</v>
       </c>
       <c r="C259">
-        <v>64164.65591057716</v>
+        <v>60497.65320229181</v>
       </c>
       <c r="D259">
-        <v>-4027.455910577162</v>
+        <v>-129.853202291808</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5421,13 +5421,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>60367.8</v>
+        <v>56921.7</v>
       </c>
       <c r="C260">
-        <v>60498.81201493432</v>
+        <v>59896.06830555416</v>
       </c>
       <c r="D260">
-        <v>-131.0120149343129</v>
+        <v>-2974.368305554162</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5435,13 +5435,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>56921.7</v>
+        <v>58099.6</v>
       </c>
       <c r="C261">
-        <v>59897.18669267051</v>
+        <v>57589.98428390769</v>
       </c>
       <c r="D261">
-        <v>-2975.486692670514</v>
+        <v>509.6157160923103</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5449,13 +5449,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>58099.6</v>
+        <v>59744.2</v>
       </c>
       <c r="C262">
-        <v>57595.8403397146</v>
+        <v>57412.62048699142</v>
       </c>
       <c r="D262">
-        <v>503.7596602853955</v>
+        <v>2331.579513008575</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5463,13 +5463,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>59744.2</v>
+        <v>58646.2</v>
       </c>
       <c r="C263">
-        <v>57416.02694999654</v>
+        <v>59046.26955557743</v>
       </c>
       <c r="D263">
-        <v>2328.173050003461</v>
+        <v>-400.0695555774291</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5477,13 +5477,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>58646.2</v>
+        <v>56295.5</v>
       </c>
       <c r="C264">
-        <v>59063.79132839519</v>
+        <v>58745.64673148858</v>
       </c>
       <c r="D264">
-        <v>-417.5913283951959</v>
+        <v>-2450.146731488581</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5491,13 +5491,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>56295.5</v>
+        <v>57571.4</v>
       </c>
       <c r="C265">
-        <v>58774.50939282757</v>
+        <v>56633.39283292409</v>
       </c>
       <c r="D265">
-        <v>-2479.009392827575</v>
+        <v>938.0071670759135</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5505,13 +5505,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>57571.4</v>
+        <v>57203.3</v>
       </c>
       <c r="C266">
-        <v>56662.16318432416</v>
+        <v>56910.01929709307</v>
       </c>
       <c r="D266">
-        <v>909.2368156758384</v>
+        <v>293.2807029069372</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5519,13 +5519,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>57203.3</v>
+        <v>58932.6</v>
       </c>
       <c r="C267">
-        <v>56943.84016055462</v>
+        <v>56803.52761186959</v>
       </c>
       <c r="D267">
-        <v>259.4598394453787</v>
+        <v>2129.072388130407</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5533,13 +5533,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>58932.6</v>
+        <v>53789</v>
       </c>
       <c r="C268">
-        <v>56842.64438799338</v>
+        <v>58404.9515193043</v>
       </c>
       <c r="D268">
-        <v>2089.955612006619</v>
+        <v>-4615.951519304304</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5547,13 +5547,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>53789</v>
+        <v>54784.9</v>
       </c>
       <c r="C269">
-        <v>58455.36269758211</v>
+        <v>54735.30303717926</v>
       </c>
       <c r="D269">
-        <v>-4666.36269758211</v>
+        <v>49.59696282074583</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5561,13 +5561,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>54784.9</v>
+        <v>57300</v>
       </c>
       <c r="C270">
-        <v>54777.08477120128</v>
+        <v>54382.84343426075</v>
       </c>
       <c r="D270">
-        <v>7.815228798725002</v>
+        <v>2917.156565739249</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5575,13 +5575,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>57300</v>
+        <v>57830.2</v>
       </c>
       <c r="C271">
-        <v>54412.37945980855</v>
+        <v>56165.7323256832</v>
       </c>
       <c r="D271">
-        <v>2887.620540191449</v>
+        <v>1664.467674316795</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5589,13 +5589,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>57830.2</v>
+        <v>56980.7</v>
       </c>
       <c r="C272">
-        <v>56196.90023128971</v>
+        <v>57658.89788005021</v>
       </c>
       <c r="D272">
-        <v>1633.299768710291</v>
+        <v>-678.1978800502111</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5603,13 +5603,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>56980.7</v>
+        <v>57237.9</v>
       </c>
       <c r="C273">
-        <v>57705.74484054931</v>
+        <v>57091.00774470303</v>
       </c>
       <c r="D273">
-        <v>-725.044840549308</v>
+        <v>146.8922552969671</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5617,13 +5617,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>57237.9</v>
+        <v>56526.4</v>
       </c>
       <c r="C274">
-        <v>57133.55618726611</v>
+        <v>57350.11366861235</v>
       </c>
       <c r="D274">
-        <v>104.3438127338959</v>
+        <v>-823.7136686123486</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5631,13 +5631,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>56526.4</v>
+        <v>53678.6</v>
       </c>
       <c r="C275">
-        <v>57389.23560448928</v>
+        <v>56417.5905636455</v>
       </c>
       <c r="D275">
-        <v>-862.8356044892789</v>
+        <v>-2738.990563645501</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5645,13 +5645,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>53678.6</v>
+        <v>49255.1</v>
       </c>
       <c r="C276">
-        <v>56445.63499980365</v>
+        <v>53953.25306469516</v>
       </c>
       <c r="D276">
-        <v>-2767.034999803647</v>
+        <v>-4698.153064695165</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5659,13 +5659,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>49255.1</v>
+        <v>49443.3</v>
       </c>
       <c r="C277">
-        <v>53968.87176863145</v>
+        <v>47906.02208159081</v>
       </c>
       <c r="D277">
-        <v>-4713.77176863145</v>
+        <v>1537.277918409192</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5673,13 +5673,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>49443.3</v>
+        <v>50564.3</v>
       </c>
       <c r="C278">
-        <v>47874.69708798444</v>
+        <v>48870.17870182867</v>
       </c>
       <c r="D278">
-        <v>1568.602912015558</v>
+        <v>1694.121298171332</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5687,13 +5687,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>50564.3</v>
+        <v>50650.1</v>
       </c>
       <c r="C279">
-        <v>48850.18587991319</v>
+        <v>49601.34573769593</v>
       </c>
       <c r="D279">
-        <v>1714.114120086815</v>
+        <v>1048.754262304072</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5701,13 +5701,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>50650.1</v>
+        <v>50515.1</v>
       </c>
       <c r="C280">
-        <v>49587.51854854563</v>
+        <v>50577.41617589025</v>
       </c>
       <c r="D280">
-        <v>1062.581451454367</v>
+        <v>-62.31617589024972</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5715,13 +5715,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>50515.1</v>
+        <v>47581.6</v>
       </c>
       <c r="C281">
-        <v>50583.66087631436</v>
+        <v>49945.90505253267</v>
       </c>
       <c r="D281">
-        <v>-68.56087631436094</v>
+        <v>-2364.305052532676</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5729,13 +5729,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>47581.6</v>
+        <v>47218.3</v>
       </c>
       <c r="C282">
-        <v>49952.02727648587</v>
+        <v>47944.0709296744</v>
       </c>
       <c r="D282">
-        <v>-2370.427276485869</v>
+        <v>-725.7709296743997</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5743,13 +5743,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>47218.3</v>
+        <v>49367.2</v>
       </c>
       <c r="C283">
-        <v>47955.15564514016</v>
+        <v>47504.41280086414</v>
       </c>
       <c r="D283">
-        <v>-736.8556451401528</v>
+        <v>1862.787199135855</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5757,13 +5757,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>49367.2</v>
+        <v>50113.2</v>
       </c>
       <c r="C284">
-        <v>47524.8793153429</v>
+        <v>48530.63469417364</v>
       </c>
       <c r="D284">
-        <v>1842.320684657097</v>
+        <v>1582.565305826356</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5771,13 +5771,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>50113.2</v>
+        <v>46732.2</v>
       </c>
       <c r="C285">
-        <v>48557.80905197468</v>
+        <v>49680.95563601315</v>
       </c>
       <c r="D285">
-        <v>1555.390948025321</v>
+        <v>-2948.755636013157</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5785,13 +5785,13 @@
         <v>288</v>
       </c>
       <c r="B286">
-        <v>46732.2</v>
+        <v>48399.2</v>
       </c>
       <c r="C286">
-        <v>49717.34480563927</v>
+        <v>47030.97077113713</v>
       </c>
       <c r="D286">
-        <v>-2985.144805639269</v>
+        <v>1368.229228862867</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5799,13 +5799,13 @@
         <v>289</v>
       </c>
       <c r="B287">
-        <v>48399.2</v>
+        <v>48881.3</v>
       </c>
       <c r="C287">
-        <v>47058.68714444677</v>
+        <v>47730.34605275275</v>
       </c>
       <c r="D287">
-        <v>1340.512855553228</v>
+        <v>1150.953947247253</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5813,13 +5813,13 @@
         <v>290</v>
       </c>
       <c r="B288">
-        <v>48881.3</v>
+        <v>47631</v>
       </c>
       <c r="C288">
-        <v>47755.98790166303</v>
+        <v>48271.54544646715</v>
       </c>
       <c r="D288">
-        <v>1125.312098336974</v>
+        <v>-640.5454464671493</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5827,13 +5827,13 @@
         <v>291</v>
       </c>
       <c r="B289">
-        <v>47631</v>
+        <v>46168.3</v>
       </c>
       <c r="C289">
-        <v>48297.54967256833</v>
+        <v>47824.16393660742</v>
       </c>
       <c r="D289">
-        <v>-666.5496725683333</v>
+        <v>-1655.86393660742</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5841,13 +5841,13 @@
         <v>292</v>
       </c>
       <c r="B290">
-        <v>46168.3</v>
+        <v>46864.3</v>
       </c>
       <c r="C290">
-        <v>47854.08545335822</v>
+        <v>46213.39436032018</v>
       </c>
       <c r="D290">
-        <v>-1685.785453358214</v>
+        <v>650.905639679826</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5855,13 +5855,13 @@
         <v>293</v>
       </c>
       <c r="B291">
-        <v>46864.3</v>
+        <v>46688.4</v>
       </c>
       <c r="C291">
-        <v>46233.96144839961</v>
+        <v>46429.99341086243</v>
       </c>
       <c r="D291">
-        <v>630.3385516003909</v>
+        <v>258.4065891375722</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5869,13 +5869,13 @@
         <v>294</v>
       </c>
       <c r="B292">
-        <v>46688.4</v>
+        <v>46898.1</v>
       </c>
       <c r="C292">
-        <v>46444.032782625</v>
+        <v>46791.31125334674</v>
       </c>
       <c r="D292">
-        <v>244.3672173750019</v>
+        <v>106.7887466532629</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5883,13 +5883,13 @@
         <v>295</v>
       </c>
       <c r="B293">
-        <v>46898.1</v>
+        <v>48925.9</v>
       </c>
       <c r="C293">
-        <v>46808.97038187558</v>
+        <v>46568.25689811754</v>
       </c>
       <c r="D293">
-        <v>89.1296181244179</v>
+        <v>2357.643101882459</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5897,13 +5897,13 @@
         <v>296</v>
       </c>
       <c r="B294">
-        <v>48925.9</v>
+        <v>48624.9</v>
       </c>
       <c r="C294">
-        <v>46582.80810767319</v>
+        <v>48332.18744111841</v>
       </c>
       <c r="D294">
-        <v>2343.091892326811</v>
+        <v>292.7125588815907</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5911,13 +5911,13 @@
         <v>297</v>
       </c>
       <c r="B295">
-        <v>48624.9</v>
+        <v>50818.8</v>
       </c>
       <c r="C295">
-        <v>48352.3031559982</v>
+        <v>48685.93111267927</v>
       </c>
       <c r="D295">
-        <v>272.5968440017969</v>
+        <v>2132.868887320728</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5925,13 +5925,13 @@
         <v>298</v>
       </c>
       <c r="B296">
-        <v>50818.8</v>
+        <v>50834.3</v>
       </c>
       <c r="C296">
-        <v>48708.12973045939</v>
+        <v>50195.79131162429</v>
       </c>
       <c r="D296">
-        <v>2110.670269540613</v>
+        <v>638.5086883757176</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5939,13 +5939,13 @@
         <v>299</v>
       </c>
       <c r="B297">
-        <v>50834.3</v>
+        <v>50436</v>
       </c>
       <c r="C297">
-        <v>50218.32882151613</v>
+        <v>50909.14589702481</v>
       </c>
       <c r="D297">
-        <v>615.9711784838728</v>
+        <v>-473.1458970248059</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5953,13 +5953,13 @@
         <v>300</v>
       </c>
       <c r="B298">
-        <v>50436</v>
+        <v>50797.3</v>
       </c>
       <c r="C298">
-        <v>50937.9264339582</v>
+        <v>50462.34955960664</v>
       </c>
       <c r="D298">
-        <v>-501.9264339582005</v>
+        <v>334.9504403933679</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5967,13 +5967,13 @@
         <v>301</v>
       </c>
       <c r="B299">
-        <v>50797.3</v>
+        <v>50687.4</v>
       </c>
       <c r="C299">
-        <v>50481.30857527643</v>
+        <v>50490.28505985675</v>
       </c>
       <c r="D299">
-        <v>315.991424723572</v>
+        <v>197.1149401432558</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5981,13 +5981,13 @@
         <v>302</v>
       </c>
       <c r="B300">
-        <v>50687.4</v>
+        <v>47548.1</v>
       </c>
       <c r="C300">
-        <v>50500.71048206615</v>
+        <v>50900.30598323315</v>
       </c>
       <c r="D300">
-        <v>186.6895179338535</v>
+        <v>-3352.205983233151</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5995,13 +5995,13 @@
         <v>303</v>
       </c>
       <c r="B301">
-        <v>47548.1</v>
+        <v>46473.2</v>
       </c>
       <c r="C301">
-        <v>50913.57883805549</v>
+        <v>48113.26360034646</v>
       </c>
       <c r="D301">
-        <v>-3365.478838055489</v>
+        <v>-1640.063600346461</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6009,13 +6009,13 @@
         <v>304</v>
       </c>
       <c r="B302">
-        <v>46473.2</v>
+        <v>47143.8</v>
       </c>
       <c r="C302">
-        <v>48110.45278717708</v>
+        <v>46645.92834443782</v>
       </c>
       <c r="D302">
-        <v>-1637.252787177087</v>
+        <v>497.8716555621795</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6023,13 +6023,13 @@
         <v>305</v>
       </c>
       <c r="B303">
-        <v>47143.8</v>
+        <v>46150</v>
       </c>
       <c r="C303">
-        <v>46633.25943094929</v>
+        <v>46899.2580808349</v>
       </c>
       <c r="D303">
-        <v>510.5405690507177</v>
+        <v>-749.2580808349012</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6037,13 +6037,13 @@
         <v>306</v>
       </c>
       <c r="B304">
-        <v>46150</v>
+        <v>47738.3</v>
       </c>
       <c r="C304">
-        <v>46889.87357815533</v>
+        <v>46414.87571363529</v>
       </c>
       <c r="D304">
-        <v>-739.873578155326</v>
+        <v>1323.424286364709</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6051,13 +6051,13 @@
         <v>307</v>
       </c>
       <c r="B305">
-        <v>47738.3</v>
+        <v>47304.6</v>
       </c>
       <c r="C305">
-        <v>46410.99157831239</v>
+        <v>47274.69754362115</v>
       </c>
       <c r="D305">
-        <v>1327.308421687616</v>
+        <v>29.902456378848</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6065,13 +6065,13 @@
         <v>308</v>
       </c>
       <c r="B306">
-        <v>47304.6</v>
+        <v>46452.6</v>
       </c>
       <c r="C306">
-        <v>47274.26407634624</v>
+        <v>47177.93321955623</v>
       </c>
       <c r="D306">
-        <v>30.33592365375807</v>
+        <v>-725.3332195562325</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6079,13 +6079,13 @@
         <v>309</v>
       </c>
       <c r="B307">
-        <v>46452.6</v>
+        <v>45858.5</v>
       </c>
       <c r="C307">
-        <v>47184.94782656716</v>
+        <v>46385.88267027965</v>
       </c>
       <c r="D307">
-        <v>-732.3478265671656</v>
+        <v>-527.3826702796505</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6093,13 +6093,13 @@
         <v>310</v>
       </c>
       <c r="B308">
-        <v>45858.5</v>
+        <v>43410</v>
       </c>
       <c r="C308">
-        <v>46395.1869465503</v>
+        <v>46014.5294336857</v>
       </c>
       <c r="D308">
-        <v>-536.6869465502969</v>
+        <v>-2604.529433685704</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6107,13 +6107,13 @@
         <v>311</v>
       </c>
       <c r="B309">
-        <v>43410</v>
+        <v>43124.4</v>
       </c>
       <c r="C309">
-        <v>46030.37862606029</v>
+        <v>43848.24110102971</v>
       </c>
       <c r="D309">
-        <v>-2620.378626060294</v>
+        <v>-723.8411010297059</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6121,13 +6121,13 @@
         <v>312</v>
       </c>
       <c r="B310">
-        <v>43124.4</v>
+        <v>41523.6</v>
       </c>
       <c r="C310">
-        <v>43859.68014961691</v>
+        <v>42934.26487525104</v>
       </c>
       <c r="D310">
-        <v>-735.280149616905</v>
+        <v>-1410.664875251045</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6135,13 +6135,13 @@
         <v>313</v>
       </c>
       <c r="B311">
-        <v>41523.6</v>
+        <v>41693.2</v>
       </c>
       <c r="C311">
-        <v>42943.24051717544</v>
+        <v>41490.77079631703</v>
       </c>
       <c r="D311">
-        <v>-1419.640517175438</v>
+        <v>202.429203682972</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6149,13 +6149,13 @@
         <v>314</v>
       </c>
       <c r="B312">
-        <v>41693.2</v>
+        <v>41862.9</v>
       </c>
       <c r="C312">
-        <v>41496.08617765899</v>
+        <v>41343.24174413789</v>
       </c>
       <c r="D312">
-        <v>197.1138223410089</v>
+        <v>519.6582558621085</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6163,13 +6163,13 @@
         <v>315</v>
       </c>
       <c r="B313">
-        <v>41862.9</v>
+        <v>41855.3</v>
       </c>
       <c r="C313">
-        <v>41350.26702719872</v>
+        <v>41698.02105180253</v>
       </c>
       <c r="D313">
-        <v>512.6329728012861</v>
+        <v>157.278948197476</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6177,13 +6177,13 @@
         <v>316</v>
       </c>
       <c r="B314">
-        <v>41855.3</v>
+        <v>42728.8</v>
       </c>
       <c r="C314">
-        <v>41713.47381361885</v>
+        <v>41207.81043604456</v>
       </c>
       <c r="D314">
-        <v>141.8261863811495</v>
+        <v>1520.989563955445</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6191,13 +6191,13 @@
         <v>317</v>
       </c>
       <c r="B315">
-        <v>42728.8</v>
+        <v>43927.8</v>
       </c>
       <c r="C315">
-        <v>41223.95963284955</v>
+        <v>42285.41124333721</v>
       </c>
       <c r="D315">
-        <v>1504.840367150449</v>
+        <v>1642.388756662796</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6205,13 +6205,13 @@
         <v>318</v>
       </c>
       <c r="B316">
-        <v>43927.8</v>
+        <v>42550</v>
       </c>
       <c r="C316">
-        <v>42314.01381224766</v>
+        <v>43515.22686815282</v>
       </c>
       <c r="D316">
-        <v>1613.786187752339</v>
+        <v>-965.2268681528221</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6219,13 +6219,13 @@
         <v>319</v>
       </c>
       <c r="B317">
-        <v>42550</v>
+        <v>43090</v>
       </c>
       <c r="C317">
-        <v>43552.34148105592</v>
+        <v>42752.84021153735</v>
       </c>
       <c r="D317">
-        <v>-1002.341481055919</v>
+        <v>337.1597884626535</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6233,13 +6233,13 @@
         <v>320</v>
       </c>
       <c r="B318">
-        <v>43090</v>
+        <v>43111.5</v>
       </c>
       <c r="C318">
-        <v>42789.2526855203</v>
+        <v>42713.05994663353</v>
       </c>
       <c r="D318">
-        <v>300.7473144796968</v>
+        <v>398.4400533664739</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6247,13 +6247,13 @@
         <v>321</v>
       </c>
       <c r="B319">
-        <v>43111.5</v>
+        <v>43114.5</v>
       </c>
       <c r="C319">
-        <v>42743.55683728086</v>
+        <v>42991.07863594801</v>
       </c>
       <c r="D319">
-        <v>367.943162719137</v>
+        <v>123.4213640519883</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6261,13 +6261,13 @@
         <v>322</v>
       </c>
       <c r="B320">
-        <v>43114.5</v>
+        <v>42248.1</v>
       </c>
       <c r="C320">
-        <v>43019.79114019129</v>
+        <v>42935.06599526215</v>
       </c>
       <c r="D320">
-        <v>94.7088598087139</v>
+        <v>-686.9659952621514</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6275,13 +6275,13 @@
         <v>323</v>
       </c>
       <c r="B321">
-        <v>42248.1</v>
+        <v>42383</v>
       </c>
       <c r="C321">
-        <v>42957.26202381862</v>
+        <v>42165.89483924385</v>
       </c>
       <c r="D321">
-        <v>-709.1620238186224</v>
+        <v>217.1051607561531</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6289,13 +6289,13 @@
         <v>324</v>
       </c>
       <c r="B322">
-        <v>42383</v>
+        <v>41686.2</v>
       </c>
       <c r="C322">
-        <v>42182.25525631581</v>
+        <v>42049.45825500658</v>
       </c>
       <c r="D322">
-        <v>200.7447436841903</v>
+        <v>-363.2582550065854</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6303,13 +6303,13 @@
         <v>325</v>
       </c>
       <c r="B323">
-        <v>41686.2</v>
+        <v>40686.9</v>
       </c>
       <c r="C323">
-        <v>42062.21250585184</v>
+        <v>41625.17863752317</v>
       </c>
       <c r="D323">
-        <v>-376.0125058518461</v>
+        <v>-938.2786375231735</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6317,13 +6317,13 @@
         <v>326</v>
       </c>
       <c r="B324">
-        <v>40686.9</v>
+        <v>36468.4</v>
       </c>
       <c r="C324">
-        <v>41637.42208735074</v>
+        <v>41159.22218038546</v>
       </c>
       <c r="D324">
-        <v>-950.5220873507424</v>
+        <v>-4690.822180385461</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6331,13 +6331,13 @@
         <v>327</v>
       </c>
       <c r="B325">
-        <v>36468.4</v>
+        <v>35067.6</v>
       </c>
       <c r="C325">
-        <v>41174.72208289054</v>
+        <v>37110.79096515715</v>
       </c>
       <c r="D325">
-        <v>-4706.32208289054</v>
+        <v>-2043.190965157155</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6345,13 +6345,13 @@
         <v>328</v>
       </c>
       <c r="B326">
-        <v>35067.6</v>
+        <v>36277.5</v>
       </c>
       <c r="C326">
-        <v>37109.60331062667</v>
+        <v>35021.49503084153</v>
       </c>
       <c r="D326">
-        <v>-2042.003310626671</v>
+        <v>1256.004969158472</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6359,13 +6359,13 @@
         <v>329</v>
       </c>
       <c r="B327">
-        <v>36277.5</v>
+        <v>36699.5</v>
       </c>
       <c r="C327">
-        <v>35007.36938859953</v>
+        <v>35724.50561990857</v>
       </c>
       <c r="D327">
-        <v>1270.130611400469</v>
+        <v>974.9943800914334</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6373,13 +6373,13 @@
         <v>330</v>
       </c>
       <c r="B328">
-        <v>36699.5</v>
+        <v>36987.8</v>
       </c>
       <c r="C328">
-        <v>35713.83474278607</v>
+        <v>35809.67954165023</v>
       </c>
       <c r="D328">
-        <v>985.6652572139283</v>
+        <v>1178.120458349775</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6387,13 +6387,13 @@
         <v>331</v>
       </c>
       <c r="B329">
-        <v>36987.8</v>
+        <v>36827.6</v>
       </c>
       <c r="C329">
-        <v>35803.84880277581</v>
+        <v>36618.29436201914</v>
       </c>
       <c r="D329">
-        <v>1183.951197224189</v>
+        <v>209.3056379808622</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6401,13 +6401,13 @@
         <v>332</v>
       </c>
       <c r="B330">
-        <v>36827.6</v>
+        <v>37200.5</v>
       </c>
       <c r="C330">
-        <v>36624.4013708625</v>
+        <v>36995.85924069586</v>
       </c>
       <c r="D330">
-        <v>203.1986291374997</v>
+        <v>204.6407593041367</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6415,13 +6415,13 @@
         <v>333</v>
       </c>
       <c r="B331">
-        <v>37200.5</v>
+        <v>37737.9</v>
       </c>
       <c r="C331">
-        <v>37015.78991050835</v>
+        <v>36649.66796181264</v>
       </c>
       <c r="D331">
-        <v>184.7100894916512</v>
+        <v>1088.232038187365</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6429,13 +6429,13 @@
         <v>334</v>
       </c>
       <c r="B332">
-        <v>37737.9</v>
+        <v>38164.9</v>
       </c>
       <c r="C332">
-        <v>36665.82828513533</v>
+        <v>37270.36163272959</v>
       </c>
       <c r="D332">
-        <v>1072.071714864673</v>
+        <v>894.538367270412</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6443,13 +6443,13 @@
         <v>335</v>
       </c>
       <c r="B333">
-        <v>38164.9</v>
+        <v>37930.1</v>
       </c>
       <c r="C333">
-        <v>37295.77335166113</v>
+        <v>37930.30449087144</v>
       </c>
       <c r="D333">
-        <v>869.1266483388681</v>
+        <v>-0.2044908714378835</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6457,13 +6457,13 @@
         <v>336</v>
       </c>
       <c r="B334">
-        <v>37930.1</v>
+        <v>38512.1</v>
       </c>
       <c r="C334">
-        <v>37960.9805557199</v>
+        <v>37743.44850363198</v>
       </c>
       <c r="D334">
-        <v>-30.88055571990117</v>
+        <v>768.6514963680165</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6471,13 +6471,13 @@
         <v>337</v>
       </c>
       <c r="B335">
-        <v>38512.1</v>
+        <v>38719.9</v>
       </c>
       <c r="C335">
-        <v>37768.29986950342</v>
+        <v>38001.83763326844</v>
       </c>
       <c r="D335">
-        <v>743.8001304965801</v>
+        <v>718.0623667315595</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6485,13 +6485,13 @@
         <v>338</v>
       </c>
       <c r="B336">
-        <v>38719.9</v>
+        <v>36903.3</v>
       </c>
       <c r="C336">
-        <v>38023.65758384435</v>
+        <v>38583.95593861371</v>
       </c>
       <c r="D336">
-        <v>696.2424161556482</v>
+        <v>-1680.655938613709</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6499,13 +6499,13 @@
         <v>339</v>
       </c>
       <c r="B337">
-        <v>36903.3</v>
+        <v>37324.4</v>
       </c>
       <c r="C337">
-        <v>38606.9827367925</v>
+        <v>37151.25945032292</v>
       </c>
       <c r="D337">
-        <v>-1703.6827367925</v>
+        <v>173.1405496770822</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6513,13 +6513,13 @@
         <v>340</v>
       </c>
       <c r="B338">
-        <v>37324.4</v>
+        <v>41585.5</v>
       </c>
       <c r="C338">
-        <v>37165.44325381983</v>
+        <v>36972.02764135064</v>
       </c>
       <c r="D338">
-        <v>158.9567461801707</v>
+        <v>4613.472358649364</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6527,13 +6527,13 @@
         <v>341</v>
       </c>
       <c r="B339">
-        <v>41585.5</v>
+        <v>41419</v>
       </c>
       <c r="C339">
-        <v>36979.24117841633</v>
+        <v>40489.24324289028</v>
       </c>
       <c r="D339">
-        <v>4606.258821583673</v>
+        <v>929.756757109717</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6541,13 +6541,13 @@
         <v>342</v>
       </c>
       <c r="B340">
-        <v>41419</v>
+        <v>42419.5</v>
       </c>
       <c r="C340">
-        <v>40505.90376496638</v>
+        <v>41374.42424104791</v>
       </c>
       <c r="D340">
-        <v>913.0962350336195</v>
+        <v>1045.075758952094</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6555,13 +6555,13 @@
         <v>343</v>
       </c>
       <c r="B341">
-        <v>42419.5</v>
+        <v>43867.2</v>
       </c>
       <c r="C341">
-        <v>41394.87480561709</v>
+        <v>42170.52002866467</v>
       </c>
       <c r="D341">
-        <v>1024.625194382912</v>
+        <v>1696.679971335325</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6569,13 +6569,13 @@
         <v>344</v>
       </c>
       <c r="B342">
-        <v>43867.2</v>
+        <v>44079.1</v>
       </c>
       <c r="C342">
-        <v>42186.88225188755</v>
+        <v>43543.76692516301</v>
       </c>
       <c r="D342">
-        <v>1680.317748112444</v>
+        <v>535.3330748369845</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6583,13 +6583,13 @@
         <v>345</v>
       </c>
       <c r="B343">
-        <v>44079.1</v>
+        <v>44420</v>
       </c>
       <c r="C343">
-        <v>43561.3316937534</v>
+        <v>44128.74216012031</v>
       </c>
       <c r="D343">
-        <v>517.7683062466022</v>
+        <v>291.2578398796904</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6597,13 +6597,13 @@
         <v>346</v>
       </c>
       <c r="B344">
-        <v>44420</v>
+        <v>43537.5</v>
       </c>
       <c r="C344">
-        <v>44142.16788190309</v>
+        <v>44293.26833138763</v>
       </c>
       <c r="D344">
-        <v>277.8321180969069</v>
+        <v>-755.7683313876332</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6611,13 +6611,13 @@
         <v>347</v>
       </c>
       <c r="B345">
-        <v>43537.5</v>
+        <v>42400.2</v>
       </c>
       <c r="C345">
-        <v>44296.92019639735</v>
+        <v>44081.20467362273</v>
       </c>
       <c r="D345">
-        <v>-759.4201963973464</v>
+        <v>-1681.004673622738</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6625,13 +6625,13 @@
         <v>348</v>
       </c>
       <c r="B346">
-        <v>42400.2</v>
+        <v>42241</v>
       </c>
       <c r="C346">
-        <v>44083.32469822306</v>
+        <v>42704.12934476233</v>
       </c>
       <c r="D346">
-        <v>-1683.124698223066</v>
+        <v>-463.129344762332</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6639,13 +6639,13 @@
         <v>349</v>
       </c>
       <c r="B347">
-        <v>42241</v>
+        <v>42062.6</v>
       </c>
       <c r="C347">
-        <v>42691.96261127698</v>
+        <v>42337.75908015505</v>
       </c>
       <c r="D347">
-        <v>-450.9626112769765</v>
+        <v>-275.1590801550556</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6653,13 +6653,13 @@
         <v>350</v>
       </c>
       <c r="B348">
-        <v>42062.6</v>
+        <v>42563.5</v>
       </c>
       <c r="C348">
-        <v>42319.13473363852</v>
+        <v>42202.5223238738</v>
       </c>
       <c r="D348">
-        <v>-256.5347336385239</v>
+        <v>360.9776761262037</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6667,13 +6667,13 @@
         <v>351</v>
       </c>
       <c r="B349">
-        <v>42563.5</v>
+        <v>44563.1</v>
       </c>
       <c r="C349">
-        <v>42185.21004813956</v>
+        <v>42410.78242169251</v>
       </c>
       <c r="D349">
-        <v>378.289951860439</v>
+        <v>2152.317578307491</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6681,13 +6681,13 @@
         <v>352</v>
       </c>
       <c r="B350">
-        <v>44563.1</v>
+        <v>43873.1</v>
       </c>
       <c r="C350">
-        <v>42397.56897172428</v>
+        <v>44140.94585368584</v>
       </c>
       <c r="D350">
-        <v>2165.53102827572</v>
+        <v>-267.8458536858452</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6695,13 +6695,13 @@
         <v>353</v>
       </c>
       <c r="B351">
-        <v>43873.1</v>
+        <v>40543.9</v>
       </c>
       <c r="C351">
-        <v>44139.12536421028</v>
+        <v>43902.79908204218</v>
       </c>
       <c r="D351">
-        <v>-266.0253642102834</v>
+        <v>-3358.899082042182</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6709,13 +6709,13 @@
         <v>354</v>
       </c>
       <c r="B352">
-        <v>40543.9</v>
+        <v>40007.4</v>
       </c>
       <c r="C352">
-        <v>43905.37658570075</v>
+        <v>41228.18405802347</v>
       </c>
       <c r="D352">
-        <v>-3361.476585700751</v>
+        <v>-1220.78405802347</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6723,13 +6723,13 @@
         <v>355</v>
       </c>
       <c r="B353">
-        <v>40007.4</v>
+        <v>40095.8</v>
       </c>
       <c r="C353">
-        <v>41226.71598701016</v>
+        <v>40043.81597174433</v>
       </c>
       <c r="D353">
-        <v>-1219.315987010159</v>
+        <v>51.98402825566882</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6737,13 +6737,13 @@
         <v>356</v>
       </c>
       <c r="B354">
-        <v>40095.8</v>
+        <v>38400</v>
       </c>
       <c r="C354">
-        <v>40039.47480982353</v>
+        <v>40000.87092898437</v>
       </c>
       <c r="D354">
-        <v>56.32519017647428</v>
+        <v>-1600.870928984368</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6751,13 +6751,13 @@
         <v>357</v>
       </c>
       <c r="B355">
-        <v>38400</v>
+        <v>37019.2</v>
       </c>
       <c r="C355">
-        <v>39999.92161375951</v>
+        <v>38600.33359631465</v>
       </c>
       <c r="D355">
-        <v>-1599.921613759507</v>
+        <v>-1581.133596314656</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6765,13 +6765,13 @@
         <v>358</v>
       </c>
       <c r="B356">
-        <v>37019.2</v>
+        <v>38256.3</v>
       </c>
       <c r="C356">
-        <v>38599.35561490266</v>
+        <v>37415.84852474654</v>
       </c>
       <c r="D356">
-        <v>-1580.155614902658</v>
+        <v>840.4514752534596</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6779,13 +6779,13 @@
         <v>359</v>
       </c>
       <c r="B357">
-        <v>38256.3</v>
+        <v>37250.1</v>
       </c>
       <c r="C357">
-        <v>37418.93621036512</v>
+        <v>37716.52672004455</v>
       </c>
       <c r="D357">
-        <v>837.363789634881</v>
+        <v>-466.4267200445538</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6793,13 +6793,13 @@
         <v>360</v>
       </c>
       <c r="B358">
-        <v>37250.1</v>
+        <v>38340.8</v>
       </c>
       <c r="C358">
-        <v>37721.09636687444</v>
+        <v>37517.45462595025</v>
       </c>
       <c r="D358">
-        <v>-470.9963668744385</v>
+        <v>823.3453740497498</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6807,13 +6807,13 @@
         <v>361</v>
       </c>
       <c r="B359">
-        <v>38340.8</v>
+        <v>39233.5</v>
       </c>
       <c r="C359">
-        <v>37535.47679728913</v>
+        <v>37616.71198172439</v>
       </c>
       <c r="D359">
-        <v>805.3232027108752</v>
+        <v>1616.788018275605</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6821,13 +6821,13 @@
         <v>362</v>
       </c>
       <c r="B360">
-        <v>39233.5</v>
+        <v>39120.2</v>
       </c>
       <c r="C360">
-        <v>37638.91547645189</v>
+        <v>38947.90601079279</v>
       </c>
       <c r="D360">
-        <v>1594.58452354811</v>
+        <v>172.2939892072027</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6835,13 +6835,13 @@
         <v>363</v>
       </c>
       <c r="B361">
-        <v>39120.2</v>
+        <v>37709.1</v>
       </c>
       <c r="C361">
-        <v>38979.72057082684</v>
+        <v>39144.34782082055</v>
       </c>
       <c r="D361">
-        <v>140.4794291731523</v>
+        <v>-1435.24782082055</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6849,13 +6849,13 @@
         <v>364</v>
       </c>
       <c r="B362">
-        <v>37709.1</v>
+        <v>43194.7</v>
       </c>
       <c r="C362">
-        <v>39178.00427168969</v>
+        <v>37929.74924102941</v>
       </c>
       <c r="D362">
-        <v>-1468.904271689687</v>
+        <v>5264.95075897059</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6863,13 +6863,13 @@
         <v>365</v>
       </c>
       <c r="B363">
-        <v>43194.7</v>
+        <v>44427.9</v>
       </c>
       <c r="C363">
-        <v>37958.48884316179</v>
+        <v>42016.04296275054</v>
       </c>
       <c r="D363">
-        <v>5236.21115683821</v>
+        <v>2411.857037249465</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6877,13 +6877,13 @@
         <v>366</v>
       </c>
       <c r="B364">
-        <v>44427.9</v>
+        <v>43922.5</v>
       </c>
       <c r="C364">
-        <v>42055.50006054583</v>
+        <v>44236.5124846356</v>
       </c>
       <c r="D364">
-        <v>2372.399939454168</v>
+        <v>-314.0124846356048</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6891,13 +6891,13 @@
         <v>367</v>
       </c>
       <c r="B365">
-        <v>43922.5</v>
+        <v>42465</v>
       </c>
       <c r="C365">
-        <v>44287.37504966609</v>
+        <v>44160.30723082853</v>
       </c>
       <c r="D365">
-        <v>-364.8750496660941</v>
+        <v>-1695.307230828534</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6905,13 +6905,13 @@
         <v>368</v>
       </c>
       <c r="B366">
-        <v>42465</v>
+        <v>39137.5</v>
       </c>
       <c r="C366">
-        <v>44196.23583140553</v>
+        <v>42713.65037472511</v>
       </c>
       <c r="D366">
-        <v>-1731.235831405531</v>
+        <v>-3576.150374725112</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6919,13 +6919,13 @@
         <v>369</v>
       </c>
       <c r="B367">
-        <v>39137.5</v>
+        <v>39396.4</v>
       </c>
       <c r="C367">
-        <v>42734.84324008643</v>
+        <v>39764.77274210571</v>
       </c>
       <c r="D367">
-        <v>-3597.343240086426</v>
+        <v>-368.3727421057047</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6933,13 +6933,13 @@
         <v>370</v>
       </c>
       <c r="B368">
-        <v>39396.4</v>
+        <v>38416.3</v>
       </c>
       <c r="C368">
-        <v>39766.41760241258</v>
+        <v>39236.11759259427</v>
       </c>
       <c r="D368">
-        <v>-370.0176024125758</v>
+        <v>-819.8175925942633</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6947,13 +6947,13 @@
         <v>371</v>
       </c>
       <c r="B369">
-        <v>38416.3</v>
+        <v>38024</v>
       </c>
       <c r="C369">
-        <v>39223.86836813195</v>
+        <v>38604.73592963538</v>
       </c>
       <c r="D369">
-        <v>-807.5683681319497</v>
+        <v>-580.7359296353825</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6961,13 +6961,13 @@
         <v>372</v>
       </c>
       <c r="B370">
-        <v>38024</v>
+        <v>38752.6</v>
       </c>
       <c r="C370">
-        <v>38590.8803784957</v>
+        <v>38134.46783445621</v>
       </c>
       <c r="D370">
-        <v>-566.8803784956981</v>
+        <v>618.132165543786</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6975,13 +6975,13 @@
         <v>373</v>
       </c>
       <c r="B371">
-        <v>38752.6</v>
+        <v>41965.3</v>
       </c>
       <c r="C371">
-        <v>38120.84973894036</v>
+        <v>38655.58932944963</v>
       </c>
       <c r="D371">
-        <v>631.7502610596348</v>
+        <v>3309.710670550368</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6989,13 +6989,13 @@
         <v>374</v>
       </c>
       <c r="B372">
-        <v>41965.3</v>
+        <v>39435.8</v>
       </c>
       <c r="C372">
-        <v>38647.41257196353</v>
+        <v>41342.89351999457</v>
       </c>
       <c r="D372">
-        <v>3317.887428036469</v>
+        <v>-1907.093519994567</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7003,13 +7003,13 @@
         <v>375</v>
       </c>
       <c r="B373">
-        <v>39435.8</v>
+        <v>38732.1</v>
       </c>
       <c r="C373">
-        <v>41352.19638600212</v>
+        <v>39807.36745144796</v>
       </c>
       <c r="D373">
-        <v>-1916.396386002118</v>
+        <v>-1075.267451447966</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7017,13 +7017,13 @@
         <v>376</v>
       </c>
       <c r="B374">
-        <v>38732.1</v>
+        <v>38785</v>
       </c>
       <c r="C374">
-        <v>39816.89385995845</v>
+        <v>38924.73509947298</v>
       </c>
       <c r="D374">
-        <v>-1084.793859958452</v>
+        <v>-139.7350994729786</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7031,13 +7031,13 @@
         <v>377</v>
       </c>
       <c r="B375">
-        <v>38785</v>
+        <v>37788.4</v>
       </c>
       <c r="C375">
-        <v>38934.31228085028</v>
+        <v>38869.44892430858</v>
       </c>
       <c r="D375">
-        <v>-149.3122808502812</v>
+        <v>-1081.048924308583</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7045,13 +7045,13 @@
         <v>378</v>
       </c>
       <c r="B376">
-        <v>37788.4</v>
+        <v>39689.2</v>
       </c>
       <c r="C376">
-        <v>38879.73726890367</v>
+        <v>38004.58806459044</v>
       </c>
       <c r="D376">
-        <v>-1091.33726890367</v>
+        <v>1684.611935409557</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7059,13 +7059,13 @@
         <v>379</v>
       </c>
       <c r="B377">
-        <v>39689.2</v>
+        <v>39325.4</v>
       </c>
       <c r="C377">
-        <v>38013.15670848222</v>
+        <v>39180.69252354509</v>
       </c>
       <c r="D377">
-        <v>1676.043291517781</v>
+        <v>144.7074764549106</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7073,13 +7073,13 @@
         <v>380</v>
       </c>
       <c r="B378">
-        <v>39325.4</v>
+        <v>41124</v>
       </c>
       <c r="C378">
-        <v>39193.78390607325</v>
+        <v>39109.53955256226</v>
       </c>
       <c r="D378">
-        <v>131.6160939267502</v>
+        <v>2014.460447437741</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7087,13 +7087,13 @@
         <v>381</v>
       </c>
       <c r="B379">
-        <v>41124</v>
+        <v>40945.6</v>
       </c>
       <c r="C379">
-        <v>39122.98016430202</v>
+        <v>40682.97050843859</v>
       </c>
       <c r="D379">
-        <v>2001.019835697982</v>
+        <v>262.6294915614053</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7101,13 +7101,13 @@
         <v>382</v>
       </c>
       <c r="B380">
-        <v>40945.6</v>
+        <v>41775.1</v>
       </c>
       <c r="C380">
-        <v>40709.31287184253</v>
+        <v>40938.29512457814</v>
       </c>
       <c r="D380">
-        <v>236.2871281574699</v>
+        <v>836.8048754218544</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7115,13 +7115,13 @@
         <v>383</v>
       </c>
       <c r="B381">
-        <v>41775.1</v>
+        <v>42218</v>
       </c>
       <c r="C381">
-        <v>40963.91044903939</v>
+        <v>41512.22155726157</v>
       </c>
       <c r="D381">
-        <v>811.1895509606038</v>
+        <v>705.7784427384322</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7129,13 +7129,13 @@
         <v>384</v>
       </c>
       <c r="B382">
-        <v>42218</v>
+        <v>41289</v>
       </c>
       <c r="C382">
-        <v>41539.05185915896</v>
+        <v>42067.83571476702</v>
       </c>
       <c r="D382">
-        <v>678.9481408410356</v>
+        <v>-778.8357147670176</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7143,13 +7143,13 @@
         <v>385</v>
       </c>
       <c r="B383">
-        <v>41289</v>
+        <v>41014.3</v>
       </c>
       <c r="C383">
-        <v>42093.38911485992</v>
+        <v>41423.21894282816</v>
       </c>
       <c r="D383">
-        <v>-804.3891148599214</v>
+        <v>-408.9189428281534</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7157,13 +7157,13 @@
         <v>386</v>
       </c>
       <c r="B384">
-        <v>41014.3</v>
+        <v>42377.8</v>
       </c>
       <c r="C384">
-        <v>41441.61063358834</v>
+        <v>41005.24842773541</v>
       </c>
       <c r="D384">
-        <v>-427.3106335883349</v>
+        <v>1372.551572264594</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7171,13 +7171,13 @@
         <v>387</v>
       </c>
       <c r="B385">
-        <v>42377.8</v>
+        <v>42910.3</v>
       </c>
       <c r="C385">
-        <v>41015.28075158631</v>
+        <v>42280.71562521195</v>
       </c>
       <c r="D385">
-        <v>1362.519248413693</v>
+        <v>629.5843747880572</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7185,13 +7185,13 @@
         <v>388</v>
       </c>
       <c r="B386">
-        <v>42910.3</v>
+        <v>43989</v>
       </c>
       <c r="C386">
-        <v>42292.44729952564</v>
+        <v>42700.6552333328</v>
       </c>
       <c r="D386">
-        <v>617.8527004743664</v>
+        <v>1288.3447666672</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7199,13 +7199,13 @@
         <v>389</v>
       </c>
       <c r="B387">
-        <v>43989</v>
+        <v>44315.5</v>
       </c>
       <c r="C387">
-        <v>42710.20381011275</v>
+        <v>43760.28143651722</v>
       </c>
       <c r="D387">
-        <v>1278.796189887245</v>
+        <v>555.2185634827765</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7213,13 +7213,13 @@
         <v>390</v>
       </c>
       <c r="B388">
-        <v>44315.5</v>
+        <v>44548</v>
       </c>
       <c r="C388">
-        <v>43771.32109313886</v>
+        <v>44418.0189958034</v>
       </c>
       <c r="D388">
-        <v>544.1789068611397</v>
+        <v>129.9810041965975</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7227,13 +7227,13 @@
         <v>391</v>
       </c>
       <c r="B389">
-        <v>44548</v>
+        <v>46855.2</v>
       </c>
       <c r="C389">
-        <v>44436.84376271494</v>
+        <v>44572.96915280912</v>
       </c>
       <c r="D389">
-        <v>111.1562372850603</v>
+        <v>2282.230847190876</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7241,13 +7241,13 @@
         <v>392</v>
       </c>
       <c r="B390">
-        <v>46855.2</v>
+        <v>47137.9</v>
       </c>
       <c r="C390">
-        <v>44584.01744655278</v>
+        <v>46382.44490380472</v>
       </c>
       <c r="D390">
-        <v>2271.182553447215</v>
+        <v>755.4550961952846</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7255,13 +7255,13 @@
         <v>393</v>
       </c>
       <c r="B391">
-        <v>47137.9</v>
+        <v>47440.2</v>
       </c>
       <c r="C391">
-        <v>46395.43339245213</v>
+        <v>47434.5608050701</v>
       </c>
       <c r="D391">
-        <v>742.4666075478672</v>
+        <v>5.639194929899531</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7269,13 +7269,13 @@
         <v>394</v>
       </c>
       <c r="B392">
-        <v>47440.2</v>
+        <v>47059.3</v>
       </c>
       <c r="C392">
-        <v>47459.92410302325</v>
+        <v>47596.19461358091</v>
       </c>
       <c r="D392">
-        <v>-19.72410302325443</v>
+        <v>-536.8946135809092</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7283,13 +7283,13 @@
         <v>395</v>
       </c>
       <c r="B393">
-        <v>47059.3</v>
+        <v>45524.3</v>
       </c>
       <c r="C393">
-        <v>47607.98064139902</v>
+        <v>47207.095258724</v>
       </c>
       <c r="D393">
-        <v>-548.6806413990125</v>
+        <v>-1682.795258724</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7297,13 +7297,13 @@
         <v>396</v>
       </c>
       <c r="B394">
-        <v>45524.3</v>
+        <v>46312</v>
       </c>
       <c r="C394">
-        <v>47211.02238132438</v>
+        <v>46020.28371402077</v>
       </c>
       <c r="D394">
-        <v>-1686.722381324376</v>
+        <v>291.7162859792297</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7311,13 +7311,13 @@
         <v>397</v>
       </c>
       <c r="B395">
-        <v>46312</v>
+        <v>45828.6</v>
       </c>
       <c r="C395">
-        <v>46017.85439829211</v>
+        <v>46000.59055135603</v>
       </c>
       <c r="D395">
-        <v>294.145601707889</v>
+        <v>-171.9905513560298</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7325,13 +7325,13 @@
         <v>398</v>
       </c>
       <c r="B396">
-        <v>45828.6</v>
+        <v>46423.4</v>
       </c>
       <c r="C396">
-        <v>45994.08274868646</v>
+        <v>46160.16319485151</v>
       </c>
       <c r="D396">
-        <v>-165.4827486864597</v>
+        <v>263.2368051484882</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7339,13 +7339,13 @@
         <v>399</v>
       </c>
       <c r="B397">
-        <v>46423.4</v>
+        <v>46617.1</v>
       </c>
       <c r="C397">
-        <v>46158.02360161729</v>
+        <v>46499.66393759509</v>
       </c>
       <c r="D397">
-        <v>265.3763983827157</v>
+        <v>117.4360624049077</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7353,13 +7353,13 @@
         <v>400</v>
       </c>
       <c r="B398">
-        <v>46617.1</v>
+        <v>45479.2</v>
       </c>
       <c r="C398">
-        <v>46498.41999185566</v>
+        <v>46360.2167164791</v>
       </c>
       <c r="D398">
-        <v>118.6800081443434</v>
+        <v>-881.0167164791055</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7367,13 +7367,13 @@
         <v>401</v>
       </c>
       <c r="B399">
-        <v>45479.2</v>
+        <v>43179.4</v>
       </c>
       <c r="C399">
-        <v>46360.26736959009</v>
+        <v>45848.59870193683</v>
       </c>
       <c r="D399">
-        <v>-881.0673695900914</v>
+        <v>-2669.198701936832</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7381,13 +7381,13 @@
         <v>402</v>
       </c>
       <c r="B400">
-        <v>43179.4</v>
+        <v>43469.8</v>
       </c>
       <c r="C400">
-        <v>45854.59287097756</v>
+        <v>43682.3631397846</v>
       </c>
       <c r="D400">
-        <v>-2675.19287097756</v>
+        <v>-212.5631397846009</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7395,13 +7395,13 @@
         <v>403</v>
       </c>
       <c r="B401">
-        <v>43469.8</v>
+        <v>42282.6</v>
       </c>
       <c r="C401">
-        <v>43684.7737117325</v>
+        <v>43361.08033292642</v>
       </c>
       <c r="D401">
-        <v>-214.9737117324985</v>
+        <v>-1078.480332926418</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7409,13 +7409,13 @@
         <v>404</v>
       </c>
       <c r="B402">
-        <v>42282.6</v>
+        <v>42764</v>
       </c>
       <c r="C402">
-        <v>43363.00661384719</v>
+        <v>42560.54987368541</v>
       </c>
       <c r="D402">
-        <v>-1080.40661384719</v>
+        <v>203.4501263145939</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7423,13 +7423,13 @@
         <v>405</v>
       </c>
       <c r="B403">
-        <v>42764</v>
+        <v>42160</v>
       </c>
       <c r="C403">
-        <v>42567.95447213959</v>
+        <v>42529.59863208604</v>
       </c>
       <c r="D403">
-        <v>196.0455278604059</v>
+        <v>-369.5986320860393</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7437,13 +7437,13 @@
         <v>406</v>
       </c>
       <c r="B404">
-        <v>42160</v>
+        <v>39534.6</v>
       </c>
       <c r="C404">
-        <v>42537.8088677818</v>
+        <v>42249.90624556504</v>
       </c>
       <c r="D404">
-        <v>-377.8088677818014</v>
+        <v>-2715.306245565043</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7451,13 +7451,13 @@
         <v>407</v>
       </c>
       <c r="B405">
-        <v>39534.6</v>
+        <v>40078.7</v>
       </c>
       <c r="C405">
-        <v>42265.98054124249</v>
+        <v>39976.48650719179</v>
       </c>
       <c r="D405">
-        <v>-2731.380541242492</v>
+        <v>102.2134928082087</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7465,13 +7465,13 @@
         <v>408</v>
       </c>
       <c r="B406">
-        <v>40078.7</v>
+        <v>41150</v>
       </c>
       <c r="C406">
-        <v>39991.81873098179</v>
+        <v>39877.30580948933</v>
       </c>
       <c r="D406">
-        <v>86.88126901820942</v>
+        <v>1272.694190510665</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7479,13 +7479,13 @@
         <v>409</v>
       </c>
       <c r="B407">
-        <v>41150</v>
+        <v>39954.9</v>
       </c>
       <c r="C407">
-        <v>39896.39043471569</v>
+        <v>40733.77219604247</v>
       </c>
       <c r="D407">
-        <v>1253.609565284307</v>
+        <v>-778.8721960424664</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7493,13 +7493,13 @@
         <v>410</v>
       </c>
       <c r="B408">
-        <v>39954.9</v>
+        <v>40569.9</v>
       </c>
       <c r="C408">
-        <v>40762.85850980307</v>
+        <v>40054.12097989576</v>
       </c>
       <c r="D408">
-        <v>-807.958509803073</v>
+        <v>515.7790201042444</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7507,13 +7507,13 @@
         <v>411</v>
       </c>
       <c r="B409">
-        <v>40569.9</v>
+        <v>40381</v>
       </c>
       <c r="C409">
-        <v>40086.31020655789</v>
+        <v>40300.08015106563</v>
       </c>
       <c r="D409">
-        <v>483.5897934421155</v>
+        <v>80.91984893436893</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7521,13 +7521,13 @@
         <v>412</v>
       </c>
       <c r="B410">
-        <v>40381</v>
+        <v>39681.2</v>
       </c>
       <c r="C410">
-        <v>40334.38763548396</v>
+        <v>40205.11588925109</v>
       </c>
       <c r="D410">
-        <v>46.61236451604054</v>
+        <v>-523.9158892510895</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7535,13 +7535,13 @@
         <v>413</v>
       </c>
       <c r="B411">
-        <v>39681.2</v>
+        <v>40811.3</v>
       </c>
       <c r="C411">
-        <v>40239.71267538174</v>
+        <v>39708.38989676462</v>
       </c>
       <c r="D411">
-        <v>-558.5126753817458</v>
+        <v>1102.910103235379</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7549,13 +7549,13 @@
         <v>414</v>
       </c>
       <c r="B412">
-        <v>40811.3</v>
+        <v>41506.2</v>
       </c>
       <c r="C412">
-        <v>39742.67641867365</v>
+        <v>40207.70957394183</v>
       </c>
       <c r="D412">
-        <v>1068.623581326348</v>
+        <v>1298.490426058168</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7563,13 +7563,13 @@
         <v>415</v>
       </c>
       <c r="B413">
-        <v>41506.2</v>
+        <v>41369.9</v>
       </c>
       <c r="C413">
-        <v>40241.51229299509</v>
+        <v>41248.03874198726</v>
       </c>
       <c r="D413">
-        <v>1264.687707004909</v>
+        <v>121.8612580127447</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7577,13 +7577,13 @@
         <v>416</v>
       </c>
       <c r="B414">
-        <v>41369.9</v>
+        <v>40484.1</v>
       </c>
       <c r="C414">
-        <v>41286.59619441064</v>
+        <v>41351.18216154803</v>
       </c>
       <c r="D414">
-        <v>83.30380558936304</v>
+        <v>-867.0821615480309</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7591,13 +7591,13 @@
         <v>417</v>
       </c>
       <c r="B415">
-        <v>40484.1</v>
+        <v>39715.9</v>
       </c>
       <c r="C415">
-        <v>41388.84169665523</v>
+        <v>40784.25487884527</v>
       </c>
       <c r="D415">
-        <v>-904.7416966552337</v>
+        <v>-1068.354878845268</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7605,13 +7605,13 @@
         <v>418</v>
       </c>
       <c r="B416">
-        <v>39715.9</v>
+        <v>39435.6</v>
       </c>
       <c r="C416">
-        <v>40817.45415194309</v>
+        <v>39723.86707487924</v>
       </c>
       <c r="D416">
-        <v>-1101.554151943092</v>
+        <v>-288.267074879237</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7619,13 +7619,13 @@
         <v>419</v>
       </c>
       <c r="B417">
-        <v>39435.6</v>
+        <v>39467.9</v>
       </c>
       <c r="C417">
-        <v>39745.67712399529</v>
+        <v>39417.80010976925</v>
       </c>
       <c r="D417">
-        <v>-310.0771239952956</v>
+        <v>50.09989023075468</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7633,13 +7633,13 @@
         <v>420</v>
       </c>
       <c r="B418">
-        <v>39467.9</v>
+        <v>40438.5</v>
       </c>
       <c r="C418">
-        <v>39433.85236133647</v>
+        <v>39359.17892100677</v>
       </c>
       <c r="D418">
-        <v>34.0476386635346</v>
+        <v>1079.321078993235</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7647,13 +7647,13 @@
         <v>421</v>
       </c>
       <c r="B419">
-        <v>40438.5</v>
+        <v>38121.7</v>
       </c>
       <c r="C419">
-        <v>39371.67381823991</v>
+        <v>39875.33812092501</v>
       </c>
       <c r="D419">
-        <v>1066.826181760087</v>
+        <v>-1753.63812092501</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7661,13 +7661,13 @@
         <v>422</v>
       </c>
       <c r="B420">
-        <v>38121.7</v>
+        <v>39249.9</v>
       </c>
       <c r="C420">
-        <v>39887.82259393696</v>
+        <v>38517.37895445249</v>
       </c>
       <c r="D420">
-        <v>-1766.122593936961</v>
+        <v>732.5210455475099</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7675,13 +7675,13 @@
         <v>423</v>
       </c>
       <c r="B421">
-        <v>39249.9</v>
+        <v>39752.8</v>
       </c>
       <c r="C421">
-        <v>38527.42917170064</v>
+        <v>38886.42940972338</v>
       </c>
       <c r="D421">
-        <v>722.4708282993597</v>
+        <v>866.3705902766233</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7689,13 +7689,13 @@
         <v>424</v>
       </c>
       <c r="B422">
-        <v>39752.8</v>
+        <v>38599.5</v>
       </c>
       <c r="C422">
-        <v>38894.67224445505</v>
+        <v>39608.12905594951</v>
       </c>
       <c r="D422">
-        <v>858.1277555449487</v>
+        <v>-1008.62905594951</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7703,13 +7703,13 @@
         <v>425</v>
       </c>
       <c r="B423">
-        <v>38599.5</v>
+        <v>37660.8</v>
       </c>
       <c r="C423">
-        <v>39624.34838170288</v>
+        <v>38701.95017545254</v>
       </c>
       <c r="D423">
-        <v>-1024.848381702875</v>
+        <v>-1041.150175452538</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7717,13 +7717,13 @@
         <v>426</v>
       </c>
       <c r="B424">
-        <v>37660.8</v>
+        <v>38474.1</v>
       </c>
       <c r="C424">
-        <v>38714.90980649067</v>
+        <v>37793.59082722611</v>
       </c>
       <c r="D424">
-        <v>-1054.109806490669</v>
+        <v>680.5091727738836</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7731,13 +7731,13 @@
         <v>427</v>
       </c>
       <c r="B425">
-        <v>38474.1</v>
+        <v>38499.9</v>
       </c>
       <c r="C425">
-        <v>37801.72030138323</v>
+        <v>38163.72207782892</v>
       </c>
       <c r="D425">
-        <v>672.3796986167654</v>
+        <v>336.1779221710822</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7745,13 +7745,13 @@
         <v>428</v>
       </c>
       <c r="B426">
-        <v>38499.9</v>
+        <v>37727.9</v>
       </c>
       <c r="C426">
-        <v>38173.06740511529</v>
+        <v>38443.6365400145</v>
       </c>
       <c r="D426">
-        <v>326.8325948847123</v>
+        <v>-715.736540014499</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7759,13 +7759,13 @@
         <v>429</v>
       </c>
       <c r="B427">
-        <v>37727.9</v>
+        <v>39682.8</v>
       </c>
       <c r="C427">
-        <v>38458.8181603548</v>
+        <v>37785.46611666691</v>
       </c>
       <c r="D427">
-        <v>-730.9181603547986</v>
+        <v>1897.333883333093</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7773,13 +7773,13 @@
         <v>430</v>
       </c>
       <c r="B428">
-        <v>39682.8</v>
+        <v>36542.6</v>
       </c>
       <c r="C428">
-        <v>37798.27938714411</v>
+        <v>39209.09918271677</v>
       </c>
       <c r="D428">
-        <v>1884.520612855893</v>
+        <v>-2666.499182716776</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7787,13 +7787,13 @@
         <v>431</v>
       </c>
       <c r="B429">
-        <v>36542.6</v>
+        <v>36017.4</v>
       </c>
       <c r="C429">
-        <v>39228.32129385162</v>
+        <v>36903.56601298842</v>
       </c>
       <c r="D429">
-        <v>-2685.721293851624</v>
+        <v>-886.1660129884185</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7801,13 +7801,13 @@
         <v>432</v>
       </c>
       <c r="B430">
-        <v>36017.4</v>
+        <v>35463</v>
       </c>
       <c r="C430">
-        <v>36914.25240587207</v>
+        <v>35869.47876620624</v>
       </c>
       <c r="D430">
-        <v>-896.8524058720723</v>
+        <v>-406.4787662062445</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7815,13 +7815,13 @@
         <v>433</v>
       </c>
       <c r="B431">
-        <v>35463</v>
+        <v>34024.2</v>
       </c>
       <c r="C431">
-        <v>35874.18786467184</v>
+        <v>35304.83906820271</v>
       </c>
       <c r="D431">
-        <v>-411.1878646718396</v>
+        <v>-1280.639068202712</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7829,13 +7829,13 @@
         <v>434</v>
       </c>
       <c r="B432">
-        <v>34024.2</v>
+        <v>30075.5</v>
       </c>
       <c r="C432">
-        <v>35307.8751092286</v>
+        <v>34132.53468390691</v>
       </c>
       <c r="D432">
-        <v>-1283.675109228599</v>
+        <v>-4057.03468390691</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7843,13 +7843,13 @@
         <v>435</v>
       </c>
       <c r="B433">
-        <v>30075.5</v>
+        <v>30999.9</v>
       </c>
       <c r="C433">
-        <v>34135.10322091231</v>
+        <v>30838.18062166873</v>
       </c>
       <c r="D433">
-        <v>-4059.603220912308</v>
+        <v>161.7193783312723</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7857,13 +7857,13 @@
         <v>436</v>
       </c>
       <c r="B434">
-        <v>30999.9</v>
+        <v>28994.1</v>
       </c>
       <c r="C434">
-        <v>30834.81695557432</v>
+        <v>30932.33005216113</v>
       </c>
       <c r="D434">
-        <v>165.083044425679</v>
+        <v>-1938.230052161129</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7871,13 +7871,13 @@
         <v>437</v>
       </c>
       <c r="B435">
-        <v>28994.1</v>
+        <v>28943.4</v>
       </c>
       <c r="C435">
-        <v>30930.56613233886</v>
+        <v>29242.8436895684</v>
       </c>
       <c r="D435">
-        <v>-1936.466132338865</v>
+        <v>-299.4436895684012</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7885,13 +7885,13 @@
         <v>438</v>
       </c>
       <c r="B436">
-        <v>28943.4</v>
+        <v>29222.6</v>
       </c>
       <c r="C436">
-        <v>29241.4507671087</v>
+        <v>28190.23819860691</v>
       </c>
       <c r="D436">
-        <v>-298.0507671087034</v>
+        <v>1032.361801393086</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7899,13 +7899,13 @@
         <v>439</v>
       </c>
       <c r="B437">
-        <v>29222.6</v>
+        <v>30048.2</v>
       </c>
       <c r="C437">
-        <v>28182.02224701902</v>
+        <v>29299.84103100747</v>
       </c>
       <c r="D437">
-        <v>1040.577752980978</v>
+        <v>748.3589689925284</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7913,13 +7913,13 @@
         <v>440</v>
       </c>
       <c r="B438">
-        <v>30048.2</v>
+        <v>31296.9</v>
       </c>
       <c r="C438">
-        <v>29307.66893978851</v>
+        <v>29576.11286557303</v>
       </c>
       <c r="D438">
-        <v>740.5310602114951</v>
+        <v>1720.78713442697</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7927,13 +7927,13 @@
         <v>441</v>
       </c>
       <c r="B439">
-        <v>31296.9</v>
+        <v>29826.1</v>
       </c>
       <c r="C439">
-        <v>29585.93411337532</v>
+        <v>30716.17836193781</v>
       </c>
       <c r="D439">
-        <v>1710.965886624683</v>
+        <v>-890.0783619378162</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -7941,13 +7941,13 @@
         <v>442</v>
       </c>
       <c r="B440">
-        <v>29826.1</v>
+        <v>30408.3</v>
       </c>
       <c r="C440">
-        <v>30734.08320649053</v>
+        <v>29816.91283155096</v>
       </c>
       <c r="D440">
-        <v>-907.9832064905277</v>
+        <v>591.3871684490368</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7955,13 +7955,13 @@
         <v>443</v>
       </c>
       <c r="B441">
-        <v>30408.3</v>
+        <v>28664.3</v>
       </c>
       <c r="C441">
-        <v>29838.6030265002</v>
+        <v>30084.05615799659</v>
       </c>
       <c r="D441">
-        <v>569.6969734997947</v>
+        <v>-1419.756157996591</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -7969,13 +7969,13 @@
         <v>444</v>
       </c>
       <c r="B442">
-        <v>28664.3</v>
+        <v>30280.7</v>
       </c>
       <c r="C442">
-        <v>30107.22818800181</v>
+        <v>28917.57375253277</v>
       </c>
       <c r="D442">
-        <v>-1442.928188001813</v>
+        <v>1363.126247467226</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7983,13 +7983,13 @@
         <v>445</v>
       </c>
       <c r="B443">
-        <v>30280.7</v>
+        <v>29167.5</v>
       </c>
       <c r="C443">
-        <v>28938.90516674329</v>
+        <v>29790.59529318395</v>
       </c>
       <c r="D443">
-        <v>1341.794833256707</v>
+        <v>-623.0952931839456</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -7997,13 +7997,13 @@
         <v>446</v>
       </c>
       <c r="B444">
-        <v>29167.5</v>
+        <v>29403.5</v>
       </c>
       <c r="C444">
-        <v>29812.59632354781</v>
+        <v>29238.43556151484</v>
       </c>
       <c r="D444">
-        <v>-645.0963235478121</v>
+        <v>165.0644384851585</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8011,13 +8011,13 @@
         <v>447</v>
       </c>
       <c r="B445">
-        <v>29403.5</v>
+        <v>30268</v>
       </c>
       <c r="C445">
-        <v>29256.4097576926</v>
+        <v>29176.89606116097</v>
       </c>
       <c r="D445">
-        <v>147.0902423074003</v>
+        <v>1091.103938839031</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8025,13 +8025,13 @@
         <v>448</v>
       </c>
       <c r="B446">
-        <v>30268</v>
+        <v>29070</v>
       </c>
       <c r="C446">
-        <v>29189.67018360966</v>
+        <v>29928.93506266877</v>
       </c>
       <c r="D446">
-        <v>1078.329816390338</v>
+        <v>-858.9350626687701</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8039,13 +8039,13 @@
         <v>449</v>
       </c>
       <c r="B447">
-        <v>29070</v>
+        <v>29631.8</v>
       </c>
       <c r="C447">
-        <v>29942.44186541544</v>
+        <v>29234.26311478739</v>
       </c>
       <c r="D447">
-        <v>-872.4418654154433</v>
+        <v>397.5368852126048</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8053,13 +8053,13 @@
         <v>450</v>
       </c>
       <c r="B448">
-        <v>29631.8</v>
+        <v>29520.3</v>
       </c>
       <c r="C448">
-        <v>29246.56283072311</v>
+        <v>29322.39265007955</v>
       </c>
       <c r="D448">
-        <v>385.2371692768902</v>
+        <v>197.907349920446</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8067,13 +8067,13 @@
         <v>451</v>
       </c>
       <c r="B449">
-        <v>29520.3</v>
+        <v>29186.9</v>
       </c>
       <c r="C449">
-        <v>29329.60187675766</v>
+        <v>29522.30736898554</v>
       </c>
       <c r="D449">
-        <v>190.6981232423386</v>
+        <v>-335.4073689855395</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8081,13 +8081,13 @@
         <v>452</v>
       </c>
       <c r="B450">
-        <v>29186.9</v>
+        <v>28580</v>
       </c>
       <c r="C450">
-        <v>29531.31571126898</v>
+        <v>28844.6487724834</v>
       </c>
       <c r="D450">
-        <v>-344.4157112689791</v>
+        <v>-264.6487724834042</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8095,13 +8095,13 @@
         <v>453</v>
       </c>
       <c r="B451">
-        <v>28580</v>
+        <v>29020</v>
       </c>
       <c r="C451">
-        <v>28845.93125318867</v>
+        <v>28603.538274038</v>
       </c>
       <c r="D451">
-        <v>-265.9312531886681</v>
+        <v>416.4617259619954</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8109,13 +8109,13 @@
         <v>454</v>
       </c>
       <c r="B452">
-        <v>29020</v>
+        <v>29450.4</v>
       </c>
       <c r="C452">
-        <v>28604.94503486187</v>
+        <v>28859.80646385327</v>
       </c>
       <c r="D452">
-        <v>415.0549651381298</v>
+        <v>590.5935361467309</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8123,13 +8123,13 @@
         <v>455</v>
       </c>
       <c r="B453">
-        <v>29450.4</v>
+        <v>31711.7</v>
       </c>
       <c r="C453">
-        <v>28857.97221998661</v>
+        <v>29244.16812239234</v>
       </c>
       <c r="D453">
-        <v>592.4277800133932</v>
+        <v>2467.53187760766</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8137,13 +8137,13 @@
         <v>456</v>
       </c>
       <c r="B454">
-        <v>31711.7</v>
+        <v>31780.9</v>
       </c>
       <c r="C454">
-        <v>29244.65533999896</v>
+        <v>31210.45506065575</v>
       </c>
       <c r="D454">
-        <v>2467.044660001036</v>
+        <v>570.4449393442519</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8151,13 +8151,13 @@
         <v>457</v>
       </c>
       <c r="B455">
-        <v>31780.9</v>
+        <v>29790</v>
       </c>
       <c r="C455">
-        <v>31220.18138779634</v>
+        <v>31770.44574755599</v>
       </c>
       <c r="D455">
-        <v>560.7186122036583</v>
+        <v>-1980.445747555994</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8165,13 +8165,13 @@
         <v>458</v>
       </c>
       <c r="B456">
-        <v>29790</v>
+        <v>30427</v>
       </c>
       <c r="C456">
-        <v>31784.28923869775</v>
+        <v>30125.78790265251</v>
       </c>
       <c r="D456">
-        <v>-1994.289238697747</v>
+        <v>301.2120973474921</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8179,13 +8179,13 @@
         <v>459</v>
       </c>
       <c r="B457">
-        <v>30427</v>
+        <v>29676.4</v>
       </c>
       <c r="C457">
-        <v>30129.89665175462</v>
+        <v>30412.87826572091</v>
       </c>
       <c r="D457">
-        <v>297.1033482453786</v>
+        <v>-736.4782657209107</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8193,13 +8193,13 @@
         <v>460</v>
       </c>
       <c r="B458">
-        <v>29676.4</v>
+        <v>29850</v>
       </c>
       <c r="C458">
-        <v>30415.58844336111</v>
+        <v>29743.68916193852</v>
       </c>
       <c r="D458">
-        <v>-739.1884433611049</v>
+        <v>106.3108380614831</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8207,13 +8207,13 @@
         <v>461</v>
       </c>
       <c r="B459">
-        <v>29850</v>
+        <v>29907.6</v>
       </c>
       <c r="C459">
-        <v>29741.79295173788</v>
+        <v>29722.52905376681</v>
       </c>
       <c r="D459">
-        <v>108.2070482621202</v>
+        <v>185.0709462331906</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8221,13 +8221,13 @@
         <v>462</v>
       </c>
       <c r="B460">
-        <v>29907.6</v>
+        <v>31356.3</v>
       </c>
       <c r="C460">
-        <v>29717.35069885899</v>
+        <v>29815.05548825722</v>
       </c>
       <c r="D460">
-        <v>190.2493011410043</v>
+        <v>1541.244511742778</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8235,13 +8235,13 @@
         <v>463</v>
       </c>
       <c r="B461">
-        <v>31356.3</v>
+        <v>31098.6</v>
       </c>
       <c r="C461">
-        <v>29809.87847021467</v>
+        <v>31053.37807685628</v>
       </c>
       <c r="D461">
-        <v>1546.421529785333</v>
+        <v>45.22192314372296</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8249,13 +8249,13 @@
         <v>464</v>
       </c>
       <c r="B462">
-        <v>31098.6</v>
+        <v>30190.8</v>
       </c>
       <c r="C462">
-        <v>31055.17995369717</v>
+        <v>30719.14889352014</v>
       </c>
       <c r="D462">
-        <v>43.42004630283191</v>
+        <v>-528.3488935201385</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8263,13 +8263,13 @@
         <v>465</v>
       </c>
       <c r="B463">
-        <v>30190.8</v>
+        <v>30075.3</v>
       </c>
       <c r="C463">
-        <v>30719.44512825445</v>
+        <v>30322.97782273821</v>
       </c>
       <c r="D463">
-        <v>-528.6451282544476</v>
+        <v>-247.6778227382092</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8277,13 +8277,13 @@
         <v>466</v>
       </c>
       <c r="B464">
-        <v>30075.3</v>
+        <v>29054.9</v>
       </c>
       <c r="C464">
-        <v>30326.19757516592</v>
+        <v>30120.53113278645</v>
       </c>
       <c r="D464">
-        <v>-250.89757516592</v>
+        <v>-1065.63113278645</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8291,13 +8291,13 @@
         <v>467</v>
       </c>
       <c r="B465">
-        <v>29054.9</v>
+        <v>28380.2</v>
       </c>
       <c r="C465">
-        <v>30123.7396907137</v>
+        <v>29241.84903417512</v>
       </c>
       <c r="D465">
-        <v>-1068.839690713699</v>
+        <v>-861.6490341751196</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8305,13 +8305,13 @@
         <v>468</v>
       </c>
       <c r="B466">
-        <v>28380.2</v>
+        <v>26569.6</v>
       </c>
       <c r="C466">
-        <v>29242.81577527196</v>
+        <v>28485.75010757117</v>
       </c>
       <c r="D466">
-        <v>-862.6157752719555</v>
+        <v>-1916.150107571168</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8319,13 +8319,13 @@
         <v>469</v>
       </c>
       <c r="B467">
-        <v>26569.6</v>
+        <v>22460.1</v>
       </c>
       <c r="C467">
-        <v>28482.63858765997</v>
+        <v>26906.1530651821</v>
       </c>
       <c r="D467">
-        <v>-1913.038587659968</v>
+        <v>-4446.053065182099</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8333,13 +8333,13 @@
         <v>470</v>
       </c>
       <c r="B468">
-        <v>22460.1</v>
+        <v>22111</v>
       </c>
       <c r="C468">
-        <v>26898.4011729904</v>
+        <v>23256.27616702264</v>
       </c>
       <c r="D468">
-        <v>-4438.301172990403</v>
+        <v>-1145.276167022635</v>
       </c>
     </row>
   </sheetData>

--- a/data/df_compare.xlsx
+++ b/data/df_compare.xlsx
@@ -28,9 +28,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>2021-03-05</t>
-  </si>
-  <si>
     <t>2021-03-06</t>
   </si>
   <si>
@@ -1427,6 +1424,9 @@
   </si>
   <si>
     <t>2022-06-14</t>
+  </si>
+  <si>
+    <t>2022-06-15</t>
   </si>
 </sst>
 </file>
@@ -1809,13 +1809,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>48734.7</v>
+        <v>48899.9</v>
       </c>
       <c r="C2">
-        <v>48965.9657347645</v>
+        <v>48319.65397571382</v>
       </c>
       <c r="D2">
-        <v>-231.2657347644999</v>
+        <v>580.2460242861853</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1823,13 +1823,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>48899.9</v>
+        <v>50962.3</v>
       </c>
       <c r="C3">
-        <v>48379.7930886315</v>
+        <v>48495.81513159075</v>
       </c>
       <c r="D3">
-        <v>520.1069113685007</v>
+        <v>2466.48486840925</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1837,13 +1837,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>50962.3</v>
+        <v>52375</v>
       </c>
       <c r="C4">
-        <v>48541.40142850354</v>
+        <v>50569.97554934027</v>
       </c>
       <c r="D4">
-        <v>2420.898571496466</v>
+        <v>1805.02445065973</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1851,13 +1851,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>52375</v>
+        <v>54929</v>
       </c>
       <c r="C5">
-        <v>50628.40067780562</v>
+        <v>51669.8893750793</v>
       </c>
       <c r="D5">
-        <v>1746.599322194379</v>
+        <v>3259.110624920701</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1865,13 +1865,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>54929</v>
+        <v>55851</v>
       </c>
       <c r="C6">
-        <v>51723.64901240479</v>
+        <v>54258.20110982769</v>
       </c>
       <c r="D6">
-        <v>3205.350987595215</v>
+        <v>1592.798890172307</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1879,13 +1879,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>55851</v>
+        <v>57809.9</v>
       </c>
       <c r="C7">
-        <v>54322.71116543535</v>
+        <v>55627.49290236038</v>
       </c>
       <c r="D7">
-        <v>1528.28883456465</v>
+        <v>2182.407097639618</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1893,13 +1893,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>57809.9</v>
+        <v>57234</v>
       </c>
       <c r="C8">
-        <v>55693.62002953136</v>
+        <v>57186.58918352593</v>
       </c>
       <c r="D8">
-        <v>2116.27997046864</v>
+        <v>47.41081647406827</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1907,13 +1907,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>57234</v>
+        <v>61174.9</v>
       </c>
       <c r="C9">
-        <v>57244.39160593948</v>
+        <v>57060.61616629923</v>
       </c>
       <c r="D9">
-        <v>-10.39160593948327</v>
+        <v>4114.283833700771</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1921,13 +1921,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>61174.9</v>
+        <v>59001.1</v>
       </c>
       <c r="C10">
-        <v>57094.84924643714</v>
+        <v>60322.1998744269</v>
       </c>
       <c r="D10">
-        <v>4080.050753562864</v>
+        <v>-1321.099874426902</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1935,13 +1935,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>59001.1</v>
+        <v>55600</v>
       </c>
       <c r="C11">
-        <v>60373.94972440152</v>
+        <v>59834.97079211476</v>
       </c>
       <c r="D11">
-        <v>-1372.849724401523</v>
+        <v>-4234.970792114756</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1949,13 +1949,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>55600</v>
+        <v>56891.1</v>
       </c>
       <c r="C12">
-        <v>59848.91490126465</v>
+        <v>56725.58133049876</v>
       </c>
       <c r="D12">
-        <v>-4248.914901264652</v>
+        <v>165.518669501238</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1963,13 +1963,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>56891.1</v>
+        <v>58933</v>
       </c>
       <c r="C13">
-        <v>56716.61968560235</v>
+        <v>56076.87131452848</v>
       </c>
       <c r="D13">
-        <v>174.4803143976533</v>
+        <v>2856.128685471522</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1977,13 +1977,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>58933</v>
+        <v>57640.9</v>
       </c>
       <c r="C14">
-        <v>56062.07670928925</v>
+        <v>57921.96394085167</v>
       </c>
       <c r="D14">
-        <v>2870.923290710751</v>
+        <v>-281.0639408516727</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1991,13 +1991,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>57640.9</v>
+        <v>58101.8</v>
       </c>
       <c r="C15">
-        <v>57918.16473548725</v>
+        <v>58225.48381711807</v>
       </c>
       <c r="D15">
-        <v>-277.2647354872533</v>
+        <v>-123.6838171180643</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2005,13 +2005,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>58101.8</v>
+        <v>58091.6</v>
       </c>
       <c r="C16">
-        <v>58223.10142871487</v>
+        <v>58133.83265672216</v>
       </c>
       <c r="D16">
-        <v>-121.301428714869</v>
+        <v>-42.23265672216075</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2019,13 +2019,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>58091.6</v>
+        <v>57378.4</v>
       </c>
       <c r="C17">
-        <v>58131.27012414322</v>
+        <v>58490.6283472354</v>
       </c>
       <c r="D17">
-        <v>-39.6701241432238</v>
+        <v>-1112.228347235403</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2033,13 +2033,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>57378.4</v>
+        <v>54095.1</v>
       </c>
       <c r="C18">
-        <v>58495.71064281475</v>
+        <v>57377.10723049417</v>
       </c>
       <c r="D18">
-        <v>-1117.310642814751</v>
+        <v>-3282.007230494171</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2047,13 +2047,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>54095.1</v>
+        <v>54351.3</v>
       </c>
       <c r="C19">
-        <v>57377.72045020986</v>
+        <v>55078.18001752995</v>
       </c>
       <c r="D19">
-        <v>-3282.620450209863</v>
+        <v>-726.8800175299475</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2061,13 +2061,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>54351.3</v>
+        <v>52293.8</v>
       </c>
       <c r="C20">
-        <v>55074.3043443088</v>
+        <v>54408.09740591479</v>
       </c>
       <c r="D20">
-        <v>-723.0043443087925</v>
+        <v>-2114.297405914789</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2075,13 +2075,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>52293.8</v>
+        <v>51314.9</v>
       </c>
       <c r="C21">
-        <v>54406.87459778794</v>
+        <v>53261.04427022146</v>
       </c>
       <c r="D21">
-        <v>-2113.074597787941</v>
+        <v>-1946.144270221455</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2089,13 +2089,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>51314.9</v>
+        <v>55062.2</v>
       </c>
       <c r="C22">
-        <v>53264.77536087012</v>
+        <v>51527.07583384591</v>
       </c>
       <c r="D22">
-        <v>-1949.875360870115</v>
+        <v>3535.124166154092</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2103,13 +2103,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>55062.2</v>
+        <v>55852.4</v>
       </c>
       <c r="C23">
-        <v>51529.67492479092</v>
+        <v>54112.70938201967</v>
       </c>
       <c r="D23">
-        <v>3532.52507520908</v>
+        <v>1739.690617980334</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2117,13 +2117,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>55852.4</v>
+        <v>55782</v>
       </c>
       <c r="C24">
-        <v>54144.23369698873</v>
+        <v>55537.05141470001</v>
       </c>
       <c r="D24">
-        <v>1708.166303011276</v>
+        <v>244.948585299986</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2131,13 +2131,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>55782</v>
+        <v>57624.2</v>
       </c>
       <c r="C25">
-        <v>55579.37643837719</v>
+        <v>55627.91492031447</v>
       </c>
       <c r="D25">
-        <v>202.6235616228078</v>
+        <v>1996.285079685527</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2145,13 +2145,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>57624.2</v>
+        <v>58781</v>
       </c>
       <c r="C26">
-        <v>55670.97657257124</v>
+        <v>57161.62629375699</v>
       </c>
       <c r="D26">
-        <v>1953.223427428762</v>
+        <v>1619.373706243008</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2159,13 +2159,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>58781</v>
+        <v>58786.2</v>
       </c>
       <c r="C27">
-        <v>57221.69886682185</v>
+        <v>58466.17178993453</v>
       </c>
       <c r="D27">
-        <v>1559.301133178145</v>
+        <v>320.0282100654658</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2173,13 +2173,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>58786.2</v>
+        <v>58732.9</v>
       </c>
       <c r="C28">
-        <v>58525.72572879627</v>
+        <v>58548.39645523176</v>
       </c>
       <c r="D28">
-        <v>260.4742712037259</v>
+        <v>184.5035447682458</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2187,13 +2187,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>58732.9</v>
+        <v>59020.7</v>
       </c>
       <c r="C29">
-        <v>58597.78724770359</v>
+        <v>58706.97910552282</v>
       </c>
       <c r="D29">
-        <v>135.1127522964161</v>
+        <v>313.7208944771774</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2201,13 +2201,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>59020.7</v>
+        <v>57099</v>
       </c>
       <c r="C30">
-        <v>58741.53282599623</v>
+        <v>59167.70682029641</v>
       </c>
       <c r="D30">
-        <v>279.1671740037709</v>
+        <v>-2068.706820296407</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2215,13 +2215,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>57099</v>
+        <v>58195</v>
       </c>
       <c r="C31">
-        <v>59196.03883306275</v>
+        <v>57724.30410618375</v>
       </c>
       <c r="D31">
-        <v>-2097.038833062747</v>
+        <v>470.6958938162497</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2229,13 +2229,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>58195</v>
+        <v>59120</v>
       </c>
       <c r="C32">
-        <v>57727.25368415064</v>
+        <v>57884.41941979716</v>
       </c>
       <c r="D32">
-        <v>467.7463158493629</v>
+        <v>1235.580580202841</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2243,13 +2243,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>59120</v>
+        <v>58017.1</v>
       </c>
       <c r="C33">
-        <v>57885.14882534335</v>
+        <v>58663.08031001849</v>
       </c>
       <c r="D33">
-        <v>1234.851174656651</v>
+        <v>-645.9803100184945</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2257,13 +2257,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>58017.1</v>
+        <v>55928.5</v>
       </c>
       <c r="C34">
-        <v>58666.85238426438</v>
+        <v>58239.6680718105</v>
       </c>
       <c r="D34">
-        <v>-649.7523842643786</v>
+        <v>-2311.168071810498</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2271,13 +2271,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>55928.5</v>
+        <v>58036.9</v>
       </c>
       <c r="C35">
-        <v>58234.1650507937</v>
+        <v>56493.04397051097</v>
       </c>
       <c r="D35">
-        <v>-2305.665050793701</v>
+        <v>1543.856029489034</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2285,13 +2285,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>58036.9</v>
+        <v>58110</v>
       </c>
       <c r="C36">
-        <v>56484.6907907406</v>
+        <v>57537.29977103523</v>
       </c>
       <c r="D36">
-        <v>1552.209209259403</v>
+        <v>572.7002289647717</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2299,13 +2299,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>58110</v>
+        <v>59775.6</v>
       </c>
       <c r="C37">
-        <v>57535.89921961221</v>
+        <v>58172.25632263507</v>
       </c>
       <c r="D37">
-        <v>574.1007803877874</v>
+        <v>1603.34367736493</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2313,13 +2313,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>59775.6</v>
+        <v>59956</v>
       </c>
       <c r="C38">
-        <v>58175.0892741163</v>
+        <v>59719.80385762627</v>
       </c>
       <c r="D38">
-        <v>1600.510725883702</v>
+        <v>236.1961423737303</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2327,13 +2327,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>59956</v>
+        <v>59823.7</v>
       </c>
       <c r="C39">
-        <v>59743.57208550139</v>
+        <v>59969.99001637581</v>
       </c>
       <c r="D39">
-        <v>212.4279144986067</v>
+        <v>-146.2900163758095</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2341,13 +2341,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>59823.7</v>
+        <v>63587.2</v>
       </c>
       <c r="C40">
-        <v>59980.88662154626</v>
+        <v>60091.37603245561</v>
       </c>
       <c r="D40">
-        <v>-157.1866215462651</v>
+        <v>3495.823967544384</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2355,13 +2355,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>63587.2</v>
+        <v>62969</v>
       </c>
       <c r="C41">
-        <v>60105.78790625796</v>
+        <v>62842.36389499396</v>
       </c>
       <c r="D41">
-        <v>3481.412093742038</v>
+        <v>126.6361050060441</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2369,13 +2369,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>62969</v>
+        <v>63243</v>
       </c>
       <c r="C42">
-        <v>62884.71049617958</v>
+        <v>63136.17484564753</v>
       </c>
       <c r="D42">
-        <v>84.28950382041512</v>
+        <v>106.8251543524748</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2383,13 +2383,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>63243</v>
+        <v>61455</v>
       </c>
       <c r="C43">
-        <v>63170.55154760455</v>
+        <v>63197.10155441303</v>
       </c>
       <c r="D43">
-        <v>72.4484523954452</v>
+        <v>-1742.101554413028</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2397,13 +2397,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>61455</v>
+        <v>60085.2</v>
       </c>
       <c r="C44">
-        <v>63216.55122426286</v>
+        <v>61778.64617567491</v>
       </c>
       <c r="D44">
-        <v>-1761.551224262861</v>
+        <v>-1693.446175674915</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2411,13 +2411,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>60085.2</v>
+        <v>56239.8</v>
       </c>
       <c r="C45">
-        <v>61791.77985793521</v>
+        <v>60669.64667646068</v>
       </c>
       <c r="D45">
-        <v>-1706.579857935212</v>
+        <v>-4429.846676460678</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2425,13 +2425,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>56239.8</v>
+        <v>55720</v>
       </c>
       <c r="C46">
-        <v>60665.78131600335</v>
+        <v>56097.93480632855</v>
       </c>
       <c r="D46">
-        <v>-4425.981316003352</v>
+        <v>-377.9348063285506</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2439,13 +2439,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>55720</v>
+        <v>56500</v>
       </c>
       <c r="C47">
-        <v>56085.20043686486</v>
+        <v>55862.98864781809</v>
       </c>
       <c r="D47">
-        <v>-365.2004368648631</v>
+        <v>637.0113521819076</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2453,13 +2453,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>56500</v>
+        <v>53815.2</v>
       </c>
       <c r="C48">
-        <v>55847.60130088858</v>
+        <v>55956.77425984904</v>
       </c>
       <c r="D48">
-        <v>652.3986991114216</v>
+        <v>-2141.57425984904</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2467,13 +2467,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>53815.2</v>
+        <v>51730</v>
       </c>
       <c r="C49">
-        <v>55951.44274454116</v>
+        <v>54429.74404086841</v>
       </c>
       <c r="D49">
-        <v>-2136.242744541159</v>
+        <v>-2699.744040868412</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2481,13 +2481,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>51730</v>
+        <v>51178.7</v>
       </c>
       <c r="C50">
-        <v>54415.60071232132</v>
+        <v>52274.03307273285</v>
       </c>
       <c r="D50">
-        <v>-2685.60071232132</v>
+        <v>-1095.33307273285</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2495,13 +2495,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>51178.7</v>
+        <v>50093.4</v>
       </c>
       <c r="C51">
-        <v>52279.1591882252</v>
+        <v>50511.29127640172</v>
       </c>
       <c r="D51">
-        <v>-1100.459188225199</v>
+        <v>-417.891276401715</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2509,13 +2509,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>50093.4</v>
+        <v>49106.5</v>
       </c>
       <c r="C52">
-        <v>50526.75953938358</v>
+        <v>49885.96344631281</v>
       </c>
       <c r="D52">
-        <v>-433.3595393835785</v>
+        <v>-779.4634463128095</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2523,13 +2523,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>49106.5</v>
+        <v>54051.9</v>
       </c>
       <c r="C53">
-        <v>49896.62183808096</v>
+        <v>48770.03269699724</v>
       </c>
       <c r="D53">
-        <v>-790.1218380809587</v>
+        <v>5281.867303002757</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2537,13 +2537,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>54051.9</v>
+        <v>55078.7</v>
       </c>
       <c r="C54">
-        <v>48783.74636554741</v>
+        <v>52727.12784414842</v>
       </c>
       <c r="D54">
-        <v>5268.153634452588</v>
+        <v>2351.572155851572</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2551,13 +2551,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>55078.7</v>
+        <v>54899.3</v>
       </c>
       <c r="C55">
-        <v>52793.28379052714</v>
+        <v>54589.39799292268</v>
       </c>
       <c r="D55">
-        <v>2285.416209472853</v>
+        <v>309.9020070773186</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2565,13 +2565,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>54899.3</v>
+        <v>53579.6</v>
       </c>
       <c r="C56">
-        <v>54656.82340648555</v>
+        <v>54868.11267317493</v>
       </c>
       <c r="D56">
-        <v>242.4765935144533</v>
+        <v>-1288.512673174933</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2579,13 +2579,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>53579.6</v>
+        <v>57780</v>
       </c>
       <c r="C57">
-        <v>54936.0754998163</v>
+        <v>53514.04399791496</v>
       </c>
       <c r="D57">
-        <v>-1356.475499816304</v>
+        <v>4265.95600208504</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2593,13 +2593,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>57780</v>
+        <v>57859.2</v>
       </c>
       <c r="C58">
-        <v>53565.91454090577</v>
+        <v>56553.58648777534</v>
       </c>
       <c r="D58">
-        <v>4214.085459094233</v>
+        <v>1305.613512224656</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2607,13 +2607,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>57859.2</v>
+        <v>56618.5</v>
       </c>
       <c r="C59">
-        <v>56627.48267869986</v>
+        <v>57723.46036183627</v>
       </c>
       <c r="D59">
-        <v>1231.717321300137</v>
+        <v>-1104.960361836267</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2621,13 +2621,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>56618.5</v>
+        <v>57193.5</v>
       </c>
       <c r="C60">
-        <v>57782.7967418092</v>
+        <v>56728.27129204064</v>
       </c>
       <c r="D60">
-        <v>-1164.296741809201</v>
+        <v>465.2287079593589</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2635,13 +2635,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>57193.5</v>
+        <v>53239.4</v>
       </c>
       <c r="C61">
-        <v>56759.79250693775</v>
+        <v>57399.63323601439</v>
       </c>
       <c r="D61">
-        <v>433.7074930622475</v>
+        <v>-4160.233236014392</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2649,13 +2649,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>53239.4</v>
+        <v>57497.1</v>
       </c>
       <c r="C62">
-        <v>57428.92845124213</v>
+        <v>54099.89887621626</v>
       </c>
       <c r="D62">
-        <v>-4189.528451242128</v>
+        <v>3397.201123783743</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2663,13 +2663,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>57497.1</v>
+        <v>56421.1</v>
       </c>
       <c r="C63">
-        <v>54096.31189154476</v>
+        <v>56546.84808105876</v>
       </c>
       <c r="D63">
-        <v>3400.788108455243</v>
+        <v>-125.7480810587585</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2677,13 +2677,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>56421.1</v>
+        <v>57383</v>
       </c>
       <c r="C64">
-        <v>56564.56947285123</v>
+        <v>56650.16326511327</v>
       </c>
       <c r="D64">
-        <v>-143.4694728512331</v>
+        <v>732.836734886725</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2691,13 +2691,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>57383</v>
+        <v>58953.8</v>
       </c>
       <c r="C65">
-        <v>56651.58241316027</v>
+        <v>57251.57447938088</v>
       </c>
       <c r="D65">
-        <v>731.4175868397288</v>
+        <v>1702.225520619126</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2705,13 +2705,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>58953.8</v>
+        <v>58293.1</v>
       </c>
       <c r="C66">
-        <v>57256.60999054287</v>
+        <v>58691.77642550362</v>
       </c>
       <c r="D66">
-        <v>1697.190009457132</v>
+        <v>-398.6764255036251</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2719,13 +2719,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>58293.1</v>
+        <v>55888.1</v>
       </c>
       <c r="C67">
-        <v>58702.46594521511</v>
+        <v>58133.67517669568</v>
       </c>
       <c r="D67">
-        <v>-409.3659452151114</v>
+        <v>-2245.575176695682</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2733,13 +2733,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>55888.1</v>
+        <v>56747.5</v>
       </c>
       <c r="C68">
-        <v>58134.87572967843</v>
+        <v>56223.66173448506</v>
       </c>
       <c r="D68">
-        <v>-2246.775729678433</v>
+        <v>523.8382655149398</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2747,13 +2747,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>56747.5</v>
+        <v>49502.7</v>
       </c>
       <c r="C69">
-        <v>56221.15153906133</v>
+        <v>56323.60418304291</v>
       </c>
       <c r="D69">
-        <v>526.3484609386651</v>
+        <v>-6820.904183042912</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2761,13 +2761,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>49502.7</v>
+        <v>49675.2</v>
       </c>
       <c r="C70">
-        <v>56317.63238385593</v>
+        <v>51193.6313248038</v>
       </c>
       <c r="D70">
-        <v>-6814.932383855936</v>
+        <v>-1518.431324803802</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2775,13 +2775,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>49675.2</v>
+        <v>49899</v>
       </c>
       <c r="C71">
-        <v>51164.48514362698</v>
+        <v>48978.11109157022</v>
       </c>
       <c r="D71">
-        <v>-1489.285143626985</v>
+        <v>920.8889084297771</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2789,13 +2789,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>49899</v>
+        <v>46771.1</v>
       </c>
       <c r="C72">
-        <v>48965.86627618413</v>
+        <v>49966.17704656059</v>
       </c>
       <c r="D72">
-        <v>933.133723815874</v>
+        <v>-3195.077046560589</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2803,13 +2803,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>46771.1</v>
+        <v>46482.4</v>
       </c>
       <c r="C73">
-        <v>49963.1964441555</v>
+        <v>47511.43174353483</v>
       </c>
       <c r="D73">
-        <v>-3192.096444155504</v>
+        <v>-1029.031743534826</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2817,13 +2817,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>46482.4</v>
+        <v>43551.8</v>
       </c>
       <c r="C74">
-        <v>47504.42423854611</v>
+        <v>46447.66189389346</v>
       </c>
       <c r="D74">
-        <v>-1022.02423854611</v>
+        <v>-2895.86189389346</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2831,13 +2831,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>43551.8</v>
+        <v>42895.2</v>
       </c>
       <c r="C75">
-        <v>46463.49354776501</v>
+        <v>43754.01286243577</v>
       </c>
       <c r="D75">
-        <v>-2911.693547765011</v>
+        <v>-858.8128624357705</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2845,13 +2845,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>42895.2</v>
+        <v>36742.3</v>
       </c>
       <c r="C76">
-        <v>43770.31004755988</v>
+        <v>43185.62779884866</v>
       </c>
       <c r="D76">
-        <v>-875.1100475598796</v>
+        <v>-6443.327798848659</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2859,13 +2859,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>36742.3</v>
+        <v>40614.6</v>
       </c>
       <c r="C77">
-        <v>43219.27023332525</v>
+        <v>36549.12733291866</v>
       </c>
       <c r="D77">
-        <v>-6476.97023332525</v>
+        <v>4065.47266708134</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2873,13 +2873,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>40614.6</v>
+        <v>37331.7</v>
       </c>
       <c r="C78">
-        <v>36586.00461850353</v>
+        <v>39494.44899376338</v>
       </c>
       <c r="D78">
-        <v>4028.595381496467</v>
+        <v>-2162.748993763387</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2887,13 +2887,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>37331.7</v>
+        <v>37468.3</v>
       </c>
       <c r="C79">
-        <v>39561.92745322298</v>
+        <v>37301.02121012026</v>
       </c>
       <c r="D79">
-        <v>-2230.227453222979</v>
+        <v>167.2787898797469</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2901,13 +2901,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>37468.3</v>
+        <v>34718.8</v>
       </c>
       <c r="C80">
-        <v>37359.34163278682</v>
+        <v>36957.32847200782</v>
       </c>
       <c r="D80">
-        <v>108.9583672131848</v>
+        <v>-2238.528472007813</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2915,13 +2915,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>34718.8</v>
+        <v>38833.8</v>
       </c>
       <c r="C81">
-        <v>37015.61792996275</v>
+        <v>34385.37672071024</v>
       </c>
       <c r="D81">
-        <v>-2296.817929962752</v>
+        <v>4448.42327928976</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2929,13 +2929,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>38833.8</v>
+        <v>38388.1</v>
       </c>
       <c r="C82">
-        <v>34446.82065761823</v>
+        <v>37744.65157633449</v>
       </c>
       <c r="D82">
-        <v>4386.979342381775</v>
+        <v>643.4484236655117</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2943,13 +2943,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>38388.1</v>
+        <v>39283.9</v>
       </c>
       <c r="C83">
-        <v>37843.43860933586</v>
+        <v>37989.6083953781</v>
       </c>
       <c r="D83">
-        <v>544.661390664136</v>
+        <v>1294.291604621903</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2957,13 +2957,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>39283.9</v>
+        <v>38516.4</v>
       </c>
       <c r="C84">
-        <v>38083.8504287485</v>
+        <v>39040.46747050966</v>
       </c>
       <c r="D84">
-        <v>1200.049571251504</v>
+        <v>-524.0674705096608</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2971,13 +2971,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>38516.4</v>
+        <v>35683.9</v>
       </c>
       <c r="C85">
-        <v>39129.99495003695</v>
+        <v>38347.0057651587</v>
       </c>
       <c r="D85">
-        <v>-613.5949500369534</v>
+        <v>-2663.105765158703</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2985,13 +2985,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>35683.9</v>
+        <v>34616.6</v>
       </c>
       <c r="C86">
-        <v>38417.31221352864</v>
+        <v>35928.18019044174</v>
       </c>
       <c r="D86">
-        <v>-2733.412213528638</v>
+        <v>-1311.580190441746</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2999,13 +2999,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>34616.6</v>
+        <v>35673.8</v>
       </c>
       <c r="C87">
-        <v>35970.18718070319</v>
+        <v>34741.18477712594</v>
       </c>
       <c r="D87">
-        <v>-1353.587180703187</v>
+        <v>932.6152228740611</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3013,13 +3013,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>35673.8</v>
+        <v>37303.8</v>
       </c>
       <c r="C88">
-        <v>34772.6233354444</v>
+        <v>35089.16593456303</v>
       </c>
       <c r="D88">
-        <v>901.1766645556054</v>
+        <v>2214.634065436978</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3027,13 +3027,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>37303.8</v>
+        <v>36676.3</v>
       </c>
       <c r="C89">
-        <v>35109.66501389578</v>
+        <v>36405.76731638976</v>
       </c>
       <c r="D89">
-        <v>2194.134986104225</v>
+        <v>270.5326836102395</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3041,13 +3041,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>36676.3</v>
+        <v>37565.3</v>
       </c>
       <c r="C90">
-        <v>36427.99570401246</v>
+        <v>36559.10736411949</v>
       </c>
       <c r="D90">
-        <v>248.3042959875456</v>
+        <v>1006.192635880514</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3055,13 +3055,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>37565.3</v>
+        <v>39196.6</v>
       </c>
       <c r="C91">
-        <v>36575.40673079996</v>
+        <v>37162.78240655729</v>
       </c>
       <c r="D91">
-        <v>989.893269200038</v>
+        <v>2033.817593442713</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3069,13 +3069,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>39196.6</v>
+        <v>36847.7</v>
       </c>
       <c r="C92">
-        <v>37184.25055507183</v>
+        <v>38642.95171354495</v>
       </c>
       <c r="D92">
-        <v>2012.349444928164</v>
+        <v>-1795.251713544953</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3083,13 +3083,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>36847.7</v>
+        <v>35534.6</v>
       </c>
       <c r="C93">
-        <v>38668.13257531481</v>
+        <v>36979.99663210083</v>
       </c>
       <c r="D93">
-        <v>-1820.432575314815</v>
+        <v>-1445.396632100834</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3097,13 +3097,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>35534.6</v>
+        <v>35789</v>
       </c>
       <c r="C94">
-        <v>36986.90475134351</v>
+        <v>35797.37997405187</v>
       </c>
       <c r="D94">
-        <v>-1452.304751343509</v>
+        <v>-8.379974051866157</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3111,13 +3111,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>35789</v>
+        <v>33587.6</v>
       </c>
       <c r="C95">
-        <v>35793.97660611043</v>
+        <v>35707.0008173887</v>
       </c>
       <c r="D95">
-        <v>-4.976606110431021</v>
+        <v>-2119.400817388698</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3125,13 +3125,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>33587.6</v>
+        <v>33420</v>
       </c>
       <c r="C96">
-        <v>35695.49752416924</v>
+        <v>34145.17570830773</v>
       </c>
       <c r="D96">
-        <v>-2107.897524169246</v>
+        <v>-725.1757083077318</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3139,13 +3139,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>33420</v>
+        <v>37396.4</v>
       </c>
       <c r="C97">
-        <v>34123.31661728263</v>
+        <v>32927.9217512299</v>
       </c>
       <c r="D97">
-        <v>-703.3166172826313</v>
+        <v>4468.478248770101</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3153,13 +3153,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>37396.4</v>
+        <v>36678.4</v>
       </c>
       <c r="C98">
-        <v>32911.65774730101</v>
+        <v>36171.57536975882</v>
       </c>
       <c r="D98">
-        <v>4484.74225269899</v>
+        <v>506.8246302411862</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3167,13 +3167,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>36678.4</v>
+        <v>37322.2</v>
       </c>
       <c r="C99">
-        <v>36184.5264694393</v>
+        <v>36799.56789389272</v>
       </c>
       <c r="D99">
-        <v>493.8735305607042</v>
+        <v>522.632106107274</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3181,13 +3181,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>37322.2</v>
+        <v>35544.9</v>
       </c>
       <c r="C100">
-        <v>36812.48257574177</v>
+        <v>37018.4259126133</v>
       </c>
       <c r="D100">
-        <v>509.7174242582259</v>
+        <v>-1473.525912613302</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3195,13 +3195,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>35544.9</v>
+        <v>39034.6</v>
       </c>
       <c r="C101">
-        <v>37028.88313105682</v>
+        <v>35706.39371158421</v>
       </c>
       <c r="D101">
-        <v>-1483.983131056819</v>
+        <v>3328.206288415793</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3209,13 +3209,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>39034.6</v>
+        <v>40530.8</v>
       </c>
       <c r="C102">
-        <v>35708.375782788</v>
+        <v>38064.5490341272</v>
       </c>
       <c r="D102">
-        <v>3326.224217211995</v>
+        <v>2466.250965872801</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3223,13 +3223,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>40530.8</v>
+        <v>40166.6</v>
       </c>
       <c r="C103">
-        <v>38090.60501519529</v>
+        <v>40259.71797667615</v>
       </c>
       <c r="D103">
-        <v>2440.194984804708</v>
+        <v>-93.11797667614883</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3237,13 +3237,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>40166.6</v>
+        <v>38337.1</v>
       </c>
       <c r="C104">
-        <v>40294.08065752315</v>
+        <v>40318.70182675259</v>
       </c>
       <c r="D104">
-        <v>-127.480657523156</v>
+        <v>-1981.601826752594</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3251,13 +3251,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>38337.1</v>
+        <v>38078.2</v>
       </c>
       <c r="C105">
-        <v>40336.19916608723</v>
+        <v>38813.23240964032</v>
       </c>
       <c r="D105">
-        <v>-1999.099166087231</v>
+        <v>-735.0324096403274</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3265,13 +3265,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>38078.2</v>
+        <v>35824</v>
       </c>
       <c r="C106">
-        <v>38806.86154586836</v>
+        <v>38293.62162306753</v>
       </c>
       <c r="D106">
-        <v>-728.6615458683664</v>
+        <v>-2469.621623067527</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3279,13 +3279,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>35824</v>
+        <v>35490.5</v>
       </c>
       <c r="C107">
-        <v>38282.51528801362</v>
+        <v>36218.10914945532</v>
       </c>
       <c r="D107">
-        <v>-2458.515288013616</v>
+        <v>-727.6091494553184</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3293,13 +3293,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>35490.5</v>
+        <v>35595</v>
       </c>
       <c r="C108">
-        <v>36192.86445160815</v>
+        <v>35587.87401572376</v>
       </c>
       <c r="D108">
-        <v>-702.3644516081549</v>
+        <v>7.125984276244708</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3307,13 +3307,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>35595</v>
+        <v>31655.2</v>
       </c>
       <c r="C109">
-        <v>35561.02020597557</v>
+        <v>35194.57764647362</v>
       </c>
       <c r="D109">
-        <v>33.97979402443161</v>
+        <v>-3539.377646473618</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3321,13 +3321,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>31655.2</v>
+        <v>32516.2</v>
       </c>
       <c r="C110">
-        <v>35166.44295851563</v>
+        <v>32483.94360821452</v>
       </c>
       <c r="D110">
-        <v>-3511.242958515631</v>
+        <v>32.25639178548226</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3335,13 +3335,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>32516.2</v>
+        <v>33683.3</v>
       </c>
       <c r="C111">
-        <v>32454.28518436218</v>
+        <v>31813.3115503645</v>
       </c>
       <c r="D111">
-        <v>61.91481563782145</v>
+        <v>1869.988449635501</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3349,13 +3349,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>33683.3</v>
+        <v>34666.6</v>
       </c>
       <c r="C112">
-        <v>31801.60960008961</v>
+        <v>33594.28127032328</v>
       </c>
       <c r="D112">
-        <v>1881.690399910392</v>
+        <v>1072.318729676714</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3363,13 +3363,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>34666.6</v>
+        <v>31583.7</v>
       </c>
       <c r="C113">
-        <v>33597.46014658859</v>
+        <v>34181.77015249625</v>
       </c>
       <c r="D113">
-        <v>1069.139853411405</v>
+        <v>-2598.070152496253</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3377,13 +3377,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>31583.7</v>
+        <v>32277</v>
       </c>
       <c r="C114">
-        <v>34193.76650737971</v>
+        <v>32305.79139683019</v>
       </c>
       <c r="D114">
-        <v>-2610.06650737971</v>
+        <v>-28.79139683019457</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3391,13 +3391,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>32277</v>
+        <v>34675.3</v>
       </c>
       <c r="C115">
-        <v>32314.00916101857</v>
+        <v>31762.3097249098</v>
       </c>
       <c r="D115">
-        <v>-37.00916101856637</v>
+        <v>2912.990275090204</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3405,13 +3405,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>34675.3</v>
+        <v>34472</v>
       </c>
       <c r="C116">
-        <v>31777.65755741275</v>
+        <v>33929.5851857356</v>
       </c>
       <c r="D116">
-        <v>2897.64244258725</v>
+        <v>542.4148142644044</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3419,13 +3419,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>34472</v>
+        <v>35903.3</v>
       </c>
       <c r="C117">
-        <v>33965.00324602137</v>
+        <v>34407.94298221257</v>
       </c>
       <c r="D117">
-        <v>506.9967539786303</v>
+        <v>1495.357017787428</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3433,13 +3433,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>35903.3</v>
+        <v>35046.2</v>
       </c>
       <c r="C118">
-        <v>34443.17623972811</v>
+        <v>35584.36109421655</v>
       </c>
       <c r="D118">
-        <v>1460.12376027189</v>
+        <v>-538.1610942165498</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3447,13 +3447,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>35046.2</v>
+        <v>33532.4</v>
       </c>
       <c r="C119">
-        <v>35626.30744789136</v>
+        <v>34956.96109597044</v>
       </c>
       <c r="D119">
-        <v>-580.1074478913652</v>
+        <v>-1424.561095970435</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3461,13 +3461,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>33532.4</v>
+        <v>33802.9</v>
       </c>
       <c r="C120">
-        <v>34985.30132481334</v>
+        <v>33587.31126984522</v>
       </c>
       <c r="D120">
-        <v>-1452.901324813334</v>
+        <v>215.5887301547773</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3475,13 +3475,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>33802.9</v>
+        <v>34685.4</v>
       </c>
       <c r="C121">
-        <v>33600.47703549539</v>
+        <v>33506.51632797682</v>
       </c>
       <c r="D121">
-        <v>202.4229645046071</v>
+        <v>1178.883672023177</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3489,13 +3489,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>34685.4</v>
+        <v>35305</v>
       </c>
       <c r="C122">
-        <v>33518.16273842368</v>
+        <v>34345.9463100314</v>
       </c>
       <c r="D122">
-        <v>1167.237261576323</v>
+        <v>959.0536899686049</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3503,13 +3503,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>35305</v>
+        <v>33697.6</v>
       </c>
       <c r="C123">
-        <v>34357.65437633061</v>
+        <v>35158.90279721599</v>
       </c>
       <c r="D123">
-        <v>947.3456236693892</v>
+        <v>-1461.302797215991</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3517,13 +3517,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>33697.6</v>
+        <v>34235</v>
       </c>
       <c r="C124">
-        <v>35167.48903737857</v>
+        <v>33863.38446760255</v>
       </c>
       <c r="D124">
-        <v>-1469.889037378576</v>
+        <v>371.6155323974453</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3531,13 +3531,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>34235</v>
+        <v>33885.1</v>
       </c>
       <c r="C125">
-        <v>33860.03180477006</v>
+        <v>34226.46077607857</v>
       </c>
       <c r="D125">
-        <v>374.9681952299434</v>
+        <v>-341.3607760785671</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3545,13 +3545,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>33885.1</v>
+        <v>32882.2</v>
       </c>
       <c r="C126">
-        <v>34230.42727848585</v>
+        <v>34091.43638313395</v>
       </c>
       <c r="D126">
-        <v>-345.3272784858491</v>
+        <v>-1209.236383133953</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3559,13 +3559,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>32882.2</v>
+        <v>33791</v>
       </c>
       <c r="C127">
-        <v>34090.9723840213</v>
+        <v>32907.85309707594</v>
       </c>
       <c r="D127">
-        <v>-1208.7723840213</v>
+        <v>883.1469029240616</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3573,13 +3573,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>33791</v>
+        <v>33522.2</v>
       </c>
       <c r="C128">
-        <v>32900.51898169352</v>
+        <v>33449.36982671177</v>
       </c>
       <c r="D128">
-        <v>890.4810183064837</v>
+        <v>72.83017328823189</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3587,13 +3587,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>33522.2</v>
+        <v>34246.9</v>
       </c>
       <c r="C129">
-        <v>33447.17903932021</v>
+        <v>33503.22672197464</v>
       </c>
       <c r="D129">
-        <v>75.02096067978709</v>
+        <v>743.673278025366</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3601,13 +3601,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>34246.9</v>
+        <v>33107.3</v>
       </c>
       <c r="C130">
-        <v>33498.30027400807</v>
+        <v>34050.62919038347</v>
       </c>
       <c r="D130">
-        <v>748.5997259919313</v>
+        <v>-943.3291903834688</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3615,13 +3615,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>33107.3</v>
+        <v>32722.9</v>
       </c>
       <c r="C131">
-        <v>34052.1846064369</v>
+        <v>33297.34224813908</v>
       </c>
       <c r="D131">
-        <v>-944.884606436899</v>
+        <v>-574.4422481390793</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3629,13 +3629,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>32722.9</v>
+        <v>32815.2</v>
       </c>
       <c r="C132">
-        <v>33295.60335907334</v>
+        <v>32670.09664990336</v>
       </c>
       <c r="D132">
-        <v>-572.7033590733408</v>
+        <v>145.1033500966369</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3643,13 +3643,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>32815.2</v>
+        <v>31832.6</v>
       </c>
       <c r="C133">
-        <v>32668.42987316748</v>
+        <v>32512.03414610135</v>
       </c>
       <c r="D133">
-        <v>146.7701268325145</v>
+        <v>-679.4341461013537</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3657,13 +3657,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>31832.6</v>
+        <v>31405.9</v>
       </c>
       <c r="C134">
-        <v>32511.41184424147</v>
+        <v>31893.3829001215</v>
       </c>
       <c r="D134">
-        <v>-678.811844241467</v>
+        <v>-487.4829001214966</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3671,13 +3671,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>31405.9</v>
+        <v>31510</v>
       </c>
       <c r="C135">
-        <v>31892.16313742425</v>
+        <v>31415.99883951904</v>
       </c>
       <c r="D135">
-        <v>-486.2631374242446</v>
+        <v>94.00116048096243</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3685,13 +3685,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>31510</v>
+        <v>31780.1</v>
       </c>
       <c r="C136">
-        <v>31415.31823118305</v>
+        <v>31430.9914724864</v>
       </c>
       <c r="D136">
-        <v>94.68176881695035</v>
+        <v>349.1085275135993</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3699,13 +3699,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>31780.1</v>
+        <v>30820.5</v>
       </c>
       <c r="C137">
-        <v>31432.44889123721</v>
+        <v>31667.03130339542</v>
       </c>
       <c r="D137">
-        <v>347.6511087627914</v>
+        <v>-846.5313033954226</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3713,13 +3713,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>30820.5</v>
+        <v>29788.1</v>
       </c>
       <c r="C138">
-        <v>31671.1447097754</v>
+        <v>30865.378963862</v>
       </c>
       <c r="D138">
-        <v>-850.6447097754026</v>
+        <v>-1077.278963862002</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3727,13 +3727,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>29788.1</v>
+        <v>32125</v>
       </c>
       <c r="C139">
-        <v>30865.28657014706</v>
+        <v>29855.51458299858</v>
       </c>
       <c r="D139">
-        <v>-1077.186570147063</v>
+        <v>2269.485417001422</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3741,13 +3741,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>32125</v>
+        <v>32283.3</v>
       </c>
       <c r="C140">
-        <v>29855.37091396841</v>
+        <v>31564.93075706406</v>
       </c>
       <c r="D140">
-        <v>2269.629086031589</v>
+        <v>718.3692429359398</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3755,13 +3755,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>32283.3</v>
+        <v>33639</v>
       </c>
       <c r="C141">
-        <v>31585.96109528674</v>
+        <v>32126.25867983251</v>
       </c>
       <c r="D141">
-        <v>697.3389047132587</v>
+        <v>1512.741320167486</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3769,13 +3769,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>33639</v>
+        <v>34284.6</v>
       </c>
       <c r="C142">
-        <v>32142.7027937655</v>
+        <v>33170.62339933373</v>
       </c>
       <c r="D142">
-        <v>1496.297206234503</v>
+        <v>1113.976600666268</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3783,13 +3783,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>34284.6</v>
+        <v>35413.6</v>
       </c>
       <c r="C143">
-        <v>33193.50941713108</v>
+        <v>34094.73004905323</v>
       </c>
       <c r="D143">
-        <v>1091.090582868921</v>
+        <v>1318.86995094677</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3797,13 +3797,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>35413.6</v>
+        <v>37274.9</v>
       </c>
       <c r="C144">
-        <v>34123.29705666844</v>
+        <v>35019.73164163363</v>
       </c>
       <c r="D144">
-        <v>1290.302943331561</v>
+        <v>2255.168358366369</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3811,13 +3811,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>37274.9</v>
+        <v>39506.2</v>
       </c>
       <c r="C145">
-        <v>35045.11323011975</v>
+        <v>37573.64384494637</v>
       </c>
       <c r="D145">
-        <v>2229.786769880251</v>
+        <v>1932.556155053629</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3825,13 +3825,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>39506.2</v>
+        <v>40011</v>
       </c>
       <c r="C146">
-        <v>37626.71972554785</v>
+        <v>38844.78027196437</v>
       </c>
       <c r="D146">
-        <v>1879.480274452144</v>
+        <v>1166.219728035627</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3839,13 +3839,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>40011</v>
+        <v>40000</v>
       </c>
       <c r="C147">
-        <v>38882.54383024154</v>
+        <v>40040.43741457123</v>
       </c>
       <c r="D147">
-        <v>1128.456169758458</v>
+        <v>-40.43741457122815</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3853,13 +3853,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>40000</v>
+        <v>42229.6</v>
       </c>
       <c r="C148">
-        <v>40071.09242882358</v>
+        <v>40085.00473254808</v>
       </c>
       <c r="D148">
-        <v>-71.09242882358376</v>
+        <v>2144.595267451921</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3867,13 +3867,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>42229.6</v>
+        <v>41488.5</v>
       </c>
       <c r="C149">
-        <v>40095.05832067088</v>
+        <v>41472.47979795621</v>
       </c>
       <c r="D149">
-        <v>2134.541679329115</v>
+        <v>16.02020204379369</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3881,13 +3881,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>41488.5</v>
+        <v>39889.1</v>
       </c>
       <c r="C150">
-        <v>41484.31208677238</v>
+        <v>41752.58651659547</v>
       </c>
       <c r="D150">
-        <v>4.18791322762263</v>
+        <v>-1863.486516595469</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3895,13 +3895,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>39889.1</v>
+        <v>39152.3</v>
       </c>
       <c r="C151">
-        <v>41749.80960524638</v>
+        <v>40541.14319572847</v>
       </c>
       <c r="D151">
-        <v>-1860.709605246382</v>
+        <v>-1388.84319572847</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3909,13 +3909,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>39152.3</v>
+        <v>38163</v>
       </c>
       <c r="C152">
-        <v>40523.79965474631</v>
+        <v>39472.44951560999</v>
       </c>
       <c r="D152">
-        <v>-1371.499654746309</v>
+        <v>-1309.449515609995</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3923,13 +3923,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>38163</v>
+        <v>39749</v>
       </c>
       <c r="C153">
-        <v>39442.85049485872</v>
+        <v>38526.44497915837</v>
       </c>
       <c r="D153">
-        <v>-1279.850494858722</v>
+        <v>1222.555020841632</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3937,13 +3937,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>39749</v>
+        <v>40886.4</v>
       </c>
       <c r="C154">
-        <v>38490.09701217912</v>
+        <v>39362.58503312823</v>
       </c>
       <c r="D154">
-        <v>1258.902987820882</v>
+        <v>1523.814966871767</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3951,13 +3951,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>40886.4</v>
+        <v>42823.9</v>
       </c>
       <c r="C155">
-        <v>39338.64452637744</v>
+        <v>40261.63220238685</v>
       </c>
       <c r="D155">
-        <v>1547.755473622565</v>
+        <v>2562.267797613153</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3965,13 +3965,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>42823.9</v>
+        <v>44610.7</v>
       </c>
       <c r="C156">
-        <v>40250.63737472845</v>
+        <v>42356.16759726335</v>
       </c>
       <c r="D156">
-        <v>2573.262625271549</v>
+        <v>2254.532402736651</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3979,13 +3979,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>44610.7</v>
+        <v>43845.6</v>
       </c>
       <c r="C157">
-        <v>42364.74195534922</v>
+        <v>44245.25308525317</v>
       </c>
       <c r="D157">
-        <v>2245.958044650775</v>
+        <v>-399.6530852531723</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3993,13 +3993,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>43845.6</v>
+        <v>46307.1</v>
       </c>
       <c r="C158">
-        <v>44268.27935729348</v>
+        <v>44174.22695604566</v>
       </c>
       <c r="D158">
-        <v>-422.6793572934766</v>
+        <v>2132.873043954343</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4007,13 +4007,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>46307.1</v>
+        <v>45595.1</v>
       </c>
       <c r="C159">
-        <v>44192.12996346303</v>
+        <v>45642.56606397</v>
       </c>
       <c r="D159">
-        <v>2114.970036536972</v>
+        <v>-47.46606397000141</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4021,13 +4021,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>45595.1</v>
+        <v>45571.7</v>
       </c>
       <c r="C160">
-        <v>45674.69736296721</v>
+        <v>45744.87080027028</v>
       </c>
       <c r="D160">
-        <v>-79.5973629672153</v>
+        <v>-173.1708002702871</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4035,13 +4035,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>45571.7</v>
+        <v>44401.1</v>
       </c>
       <c r="C161">
-        <v>45763.9328131791</v>
+        <v>45913.08520384088</v>
       </c>
       <c r="D161">
-        <v>-192.2328131791</v>
+        <v>-1511.985203840886</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4049,13 +4049,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>44401.1</v>
+        <v>47823.3</v>
       </c>
       <c r="C162">
-        <v>45927.77762552467</v>
+        <v>44777.96978613803</v>
       </c>
       <c r="D162">
-        <v>-1526.677625524673</v>
+        <v>3045.330213861969</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4063,13 +4063,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>47823.3</v>
+        <v>47115.2</v>
       </c>
       <c r="C163">
-        <v>44773.95349969924</v>
+        <v>47097.89001219585</v>
       </c>
       <c r="D163">
-        <v>3049.346500300759</v>
+        <v>17.30998780414666</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4077,13 +4077,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>47115.2</v>
+        <v>47019.3</v>
       </c>
       <c r="C164">
-        <v>47110.32783825771</v>
+        <v>47205.43679937318</v>
       </c>
       <c r="D164">
-        <v>4.872161742285243</v>
+        <v>-186.1367993731765</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4091,13 +4091,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>47019.3</v>
+        <v>45926.3</v>
       </c>
       <c r="C165">
-        <v>47209.13514543543</v>
+        <v>46854.76139158895</v>
       </c>
       <c r="D165">
-        <v>-189.835145435427</v>
+        <v>-928.4613915889422</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4105,13 +4105,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>45926.3</v>
+        <v>44672.2</v>
       </c>
       <c r="C166">
-        <v>46853.88835441199</v>
+        <v>46439.68584272122</v>
       </c>
       <c r="D166">
-        <v>-927.5883544119861</v>
+        <v>-1767.485842721224</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4119,13 +4119,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>44672.2</v>
+        <v>44714.7</v>
       </c>
       <c r="C167">
-        <v>46438.12314153096</v>
+        <v>45238.18525275122</v>
       </c>
       <c r="D167">
-        <v>-1765.923141530962</v>
+        <v>-523.4852527512194</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4133,13 +4133,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>44714.7</v>
+        <v>46765.3</v>
       </c>
       <c r="C168">
-        <v>45231.97511422884</v>
+        <v>44947.55598648098</v>
       </c>
       <c r="D168">
-        <v>-517.2751142288471</v>
+        <v>1817.744013519019</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4147,13 +4147,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>46765.3</v>
+        <v>49345.4</v>
       </c>
       <c r="C169">
-        <v>44946.24617096668</v>
+        <v>46224.77517980389</v>
       </c>
       <c r="D169">
-        <v>1819.053829033321</v>
+        <v>3120.624820196113</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4161,13 +4161,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>49345.4</v>
+        <v>48865.4</v>
       </c>
       <c r="C170">
-        <v>46231.97624551813</v>
+        <v>48780.51677099583</v>
       </c>
       <c r="D170">
-        <v>3113.423754481868</v>
+        <v>84.88322900417552</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4175,13 +4175,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>48865.4</v>
+        <v>49293.6</v>
       </c>
       <c r="C171">
-        <v>48804.59114500671</v>
+        <v>49011.908340332</v>
       </c>
       <c r="D171">
-        <v>60.80885499329452</v>
+        <v>281.6916596679948</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4189,13 +4189,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>49293.6</v>
+        <v>49517.3</v>
       </c>
       <c r="C172">
-        <v>49032.15067870653</v>
+        <v>49110.4692141354</v>
       </c>
       <c r="D172">
-        <v>261.4493212934685</v>
+        <v>406.8307858646076</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4203,13 +4203,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>49517.3</v>
+        <v>47725.4</v>
       </c>
       <c r="C173">
-        <v>49128.08214913384</v>
+        <v>49693.88807035315</v>
       </c>
       <c r="D173">
-        <v>389.21785086616</v>
+        <v>-1968.488070353153</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4217,13 +4217,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>47725.4</v>
+        <v>48991.3</v>
       </c>
       <c r="C174">
-        <v>49718.72040195481</v>
+        <v>48233.57000351926</v>
       </c>
       <c r="D174">
-        <v>-1993.320401954807</v>
+        <v>757.7299964807389</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4231,13 +4231,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>48991.3</v>
+        <v>46848.9</v>
       </c>
       <c r="C175">
-        <v>48243.92761312204</v>
+        <v>48653.23337175362</v>
       </c>
       <c r="D175">
-        <v>747.3723868779634</v>
+        <v>-1804.333371753615</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4245,13 +4245,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>46848.9</v>
+        <v>49074.9</v>
       </c>
       <c r="C176">
-        <v>48666.46496202995</v>
+        <v>47305.8073877402</v>
       </c>
       <c r="D176">
-        <v>-1817.564962029945</v>
+        <v>1769.092612259803</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4259,13 +4259,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>49074.9</v>
+        <v>48895.7</v>
       </c>
       <c r="C177">
-        <v>47302.87928627702</v>
+        <v>48469.57819953054</v>
       </c>
       <c r="D177">
-        <v>1772.020713722981</v>
+        <v>426.1218004694601</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4273,13 +4273,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>48895.7</v>
+        <v>48787.7</v>
       </c>
       <c r="C178">
-        <v>48478.01301979454</v>
+        <v>48875.15044340429</v>
       </c>
       <c r="D178">
-        <v>417.6869802054571</v>
+        <v>-87.4504434042974</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4287,13 +4287,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>48787.7</v>
+        <v>46985.7</v>
       </c>
       <c r="C179">
-        <v>48881.18135001682</v>
+        <v>48748.78530961417</v>
       </c>
       <c r="D179">
-        <v>-93.48135001682385</v>
+        <v>-1763.085309614173</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4301,13 +4301,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>46985.7</v>
+        <v>47140</v>
       </c>
       <c r="C180">
-        <v>48757.13926423964</v>
+        <v>47367.60716245232</v>
       </c>
       <c r="D180">
-        <v>-1771.439264239641</v>
+        <v>-227.6071624523247</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4315,13 +4315,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>47140</v>
+        <v>48872.2</v>
       </c>
       <c r="C181">
-        <v>47370.81887925492</v>
+        <v>47262.37775747943</v>
       </c>
       <c r="D181">
-        <v>-230.818879254919</v>
+        <v>1609.822242520568</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4329,13 +4329,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>48872.2</v>
+        <v>49290.3</v>
       </c>
       <c r="C182">
-        <v>47271.9208550422</v>
+        <v>48339.1195466041</v>
       </c>
       <c r="D182">
-        <v>1600.279144957793</v>
+        <v>951.1804533959003</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4343,13 +4343,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>49290.3</v>
+        <v>50018.6</v>
       </c>
       <c r="C183">
-        <v>48359.31704395096</v>
+        <v>49360.36359293304</v>
       </c>
       <c r="D183">
-        <v>930.9829560490471</v>
+        <v>658.2364070669573</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4357,13 +4357,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>50018.6</v>
+        <v>49956.1</v>
       </c>
       <c r="C184">
-        <v>49383.5391740741</v>
+        <v>49834.17122382594</v>
       </c>
       <c r="D184">
-        <v>635.0608259258952</v>
+        <v>121.9287761740561</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4371,13 +4371,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>49956.1</v>
+        <v>51767.9</v>
       </c>
       <c r="C185">
-        <v>49858.42417901545</v>
+        <v>49932.54725376673</v>
       </c>
       <c r="D185">
-        <v>97.67582098455023</v>
+        <v>1835.352746233271</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4385,13 +4385,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>51767.9</v>
+        <v>52688.3</v>
       </c>
       <c r="C186">
-        <v>49949.80160702657</v>
+        <v>51244.33974144025</v>
       </c>
       <c r="D186">
-        <v>1818.098392973428</v>
+        <v>1443.960258559753</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4399,13 +4399,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>52688.3</v>
+        <v>46882.1</v>
       </c>
       <c r="C187">
-        <v>51270.89775877987</v>
+        <v>52328.61881446992</v>
       </c>
       <c r="D187">
-        <v>1417.40224122013</v>
+        <v>-5446.51881446992</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4413,13 +4413,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>46882.1</v>
+        <v>46073.4</v>
       </c>
       <c r="C188">
-        <v>52357.10144854159</v>
+        <v>47065.04142121111</v>
       </c>
       <c r="D188">
-        <v>-5475.001448541596</v>
+        <v>-991.6414212111122</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4427,13 +4427,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>46073.4</v>
+        <v>46389.6</v>
       </c>
       <c r="C189">
-        <v>47064.49966815079</v>
+        <v>45902.71981154673</v>
       </c>
       <c r="D189">
-        <v>-991.0996681507895</v>
+        <v>486.8801884532731</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4441,13 +4441,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>46389.6</v>
+        <v>44842.2</v>
       </c>
       <c r="C190">
-        <v>45897.98716641264</v>
+        <v>46315.28848484589</v>
       </c>
       <c r="D190">
-        <v>491.6128335873582</v>
+        <v>-1473.088484845888</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4455,13 +4455,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>44842.2</v>
+        <v>45137.4</v>
       </c>
       <c r="C191">
-        <v>46317.98833997408</v>
+        <v>45061.17060830094</v>
       </c>
       <c r="D191">
-        <v>-1475.788339974082</v>
+        <v>76.22939169906022</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4469,13 +4469,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>45137.4</v>
+        <v>46061.3</v>
       </c>
       <c r="C192">
-        <v>45058.84117646591</v>
+        <v>45101.61739308113</v>
       </c>
       <c r="D192">
-        <v>78.55882353409106</v>
+        <v>959.6826069188755</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4483,13 +4483,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>46061.3</v>
+        <v>44965.8</v>
       </c>
       <c r="C193">
-        <v>45106.18546396363</v>
+        <v>45703.44355108239</v>
       </c>
       <c r="D193">
-        <v>955.1145360363735</v>
+        <v>-737.6435510823867</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4497,13 +4497,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>44965.8</v>
+        <v>47145.9</v>
       </c>
       <c r="C194">
-        <v>45718.63097482428</v>
+        <v>44858.78639648473</v>
       </c>
       <c r="D194">
-        <v>-752.8309748242755</v>
+        <v>2287.113603515274</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4511,13 +4511,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>47145.9</v>
+        <v>48152.3</v>
       </c>
       <c r="C195">
-        <v>44881.07960781024</v>
+        <v>46452.07608305677</v>
       </c>
       <c r="D195">
-        <v>2264.820392189758</v>
+        <v>1700.223916943236</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4525,13 +4525,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>48152.3</v>
+        <v>47786.9</v>
       </c>
       <c r="C196">
-        <v>46484.83208201206</v>
+        <v>47758.23785521121</v>
       </c>
       <c r="D196">
-        <v>1667.467917987946</v>
+        <v>28.66214478878828</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4539,13 +4539,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>47786.9</v>
+        <v>47269.7</v>
       </c>
       <c r="C197">
-        <v>47799.61459621132</v>
+        <v>47640.66707421507</v>
       </c>
       <c r="D197">
-        <v>-12.7145962113209</v>
+        <v>-370.9670742150702</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4553,13 +4553,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>47269.7</v>
+        <v>48309.9</v>
       </c>
       <c r="C198">
-        <v>47674.03145545666</v>
+        <v>47238.026268865</v>
       </c>
       <c r="D198">
-        <v>-404.3314554566605</v>
+        <v>1071.873731134998</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4567,13 +4567,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>48309.9</v>
+        <v>47237.8</v>
       </c>
       <c r="C199">
-        <v>47262.30736860476</v>
+        <v>48014.06245324318</v>
       </c>
       <c r="D199">
-        <v>1047.592631395244</v>
+        <v>-776.2624532431728</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4581,13 +4581,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>47237.8</v>
+        <v>42992.9</v>
       </c>
       <c r="C200">
-        <v>48039.88931035844</v>
+        <v>47292.61707291181</v>
       </c>
       <c r="D200">
-        <v>-802.0893103584385</v>
+        <v>-4299.717072911808</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4595,13 +4595,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>42992.9</v>
+        <v>40710.6</v>
       </c>
       <c r="C201">
-        <v>47305.13385689282</v>
+        <v>43738.49136579473</v>
       </c>
       <c r="D201">
-        <v>-4312.233856892817</v>
+        <v>-3027.891365794727</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4609,13 +4609,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>40710.6</v>
+        <v>43562.8</v>
       </c>
       <c r="C202">
-        <v>43730.55568831184</v>
+        <v>40963.82196266826</v>
       </c>
       <c r="D202">
-        <v>-3019.955688311842</v>
+        <v>2598.978037331741</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4623,13 +4623,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>43562.8</v>
+        <v>44889.8</v>
       </c>
       <c r="C203">
-        <v>40948.59504131108</v>
+        <v>42795.76510291435</v>
       </c>
       <c r="D203">
-        <v>2614.204958688919</v>
+        <v>2094.03489708565</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4637,13 +4637,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>44889.8</v>
+        <v>42833.2</v>
       </c>
       <c r="C204">
-        <v>42800.85914663505</v>
+        <v>44347.20057227907</v>
       </c>
       <c r="D204">
-        <v>2088.940853364955</v>
+        <v>-1514.000572279074</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4651,13 +4651,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>42833.2</v>
+        <v>42710.1</v>
       </c>
       <c r="C205">
-        <v>44363.46254535715</v>
+        <v>42708.68559634033</v>
       </c>
       <c r="D205">
-        <v>-1530.262545357153</v>
+        <v>1.414403659669915</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4665,13 +4665,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>42710.1</v>
+        <v>43204.6</v>
       </c>
       <c r="C206">
-        <v>42717.68279597771</v>
+        <v>42359.32167404563</v>
       </c>
       <c r="D206">
-        <v>-7.58279597771616</v>
+        <v>845.2783259543648</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4679,13 +4679,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>43204.6</v>
+        <v>42176.3</v>
       </c>
       <c r="C207">
-        <v>42369.67014400891</v>
+        <v>42617.75519810413</v>
       </c>
       <c r="D207">
-        <v>834.9298559910894</v>
+        <v>-441.4551981041222</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4693,13 +4693,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>42176.3</v>
+        <v>41038.4</v>
       </c>
       <c r="C208">
-        <v>42637.52875207312</v>
+        <v>42475.2921950251</v>
       </c>
       <c r="D208">
-        <v>-461.2287520731188</v>
+        <v>-1436.892195025095</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4707,13 +4707,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>41038.4</v>
+        <v>41524.8</v>
       </c>
       <c r="C209">
-        <v>42497.31485315904</v>
+        <v>41206.72814741567</v>
       </c>
       <c r="D209">
-        <v>-1458.91485315904</v>
+        <v>318.0718525843331</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4721,13 +4721,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>41524.8</v>
+        <v>43798.7</v>
       </c>
       <c r="C210">
-        <v>41220.00533992893</v>
+        <v>41391.91068942649</v>
       </c>
       <c r="D210">
-        <v>304.7946600710711</v>
+        <v>2406.789310573506</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4735,13 +4735,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>43798.7</v>
+        <v>48163.7</v>
       </c>
       <c r="C211">
-        <v>41406.92444952173</v>
+        <v>43138.69852541916</v>
       </c>
       <c r="D211">
-        <v>2391.775550478269</v>
+        <v>5025.001474580837</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4749,13 +4749,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>48163.7</v>
+        <v>47662</v>
       </c>
       <c r="C212">
-        <v>43171.14534120206</v>
+        <v>46953.13039934175</v>
       </c>
       <c r="D212">
-        <v>4992.554658797933</v>
+        <v>708.8696006582541</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4763,13 +4763,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>47662</v>
+        <v>48230.2</v>
       </c>
       <c r="C213">
-        <v>47007.89188397102</v>
+        <v>47679.87824782769</v>
       </c>
       <c r="D213">
-        <v>654.1081160289759</v>
+        <v>550.3217521723054</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4777,13 +4777,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>48230.2</v>
+        <v>49243.3</v>
       </c>
       <c r="C214">
-        <v>47721.81181092214</v>
+        <v>48121.17656478704</v>
       </c>
       <c r="D214">
-        <v>508.3881890778575</v>
+        <v>1122.123435212961</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4791,13 +4791,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>49243.3</v>
+        <v>51487</v>
       </c>
       <c r="C215">
-        <v>48157.70811254164</v>
+        <v>48701.93984845571</v>
       </c>
       <c r="D215">
-        <v>1085.591887458359</v>
+        <v>2785.06015154429</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4805,13 +4805,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>51487</v>
+        <v>55350.2</v>
       </c>
       <c r="C216">
-        <v>48732.58748082028</v>
+        <v>51019.22677411875</v>
       </c>
       <c r="D216">
-        <v>2754.412519179721</v>
+        <v>4330.973225881251</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4819,13 +4819,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>55350.2</v>
+        <v>53817.3</v>
       </c>
       <c r="C217">
-        <v>51055.42687009228</v>
+        <v>54339.42582776519</v>
       </c>
       <c r="D217">
-        <v>4294.773129907713</v>
+        <v>-522.1258277651868</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4833,13 +4833,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>53817.3</v>
+        <v>53960.5</v>
       </c>
       <c r="C218">
-        <v>54384.7179342336</v>
+        <v>54172.67760994843</v>
       </c>
       <c r="D218">
-        <v>-567.4179342335992</v>
+        <v>-212.1776099484341</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4847,13 +4847,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>53960.5</v>
+        <v>54960.2</v>
       </c>
       <c r="C219">
-        <v>54184.63291869132</v>
+        <v>54502.14607469888</v>
       </c>
       <c r="D219">
-        <v>-224.1329186913208</v>
+        <v>458.0539253011157</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4861,13 +4861,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>54960.2</v>
+        <v>54677.5</v>
       </c>
       <c r="C220">
-        <v>54502.17466254748</v>
+        <v>54928.10982344657</v>
       </c>
       <c r="D220">
-        <v>458.02533745252</v>
+        <v>-250.609823446568</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4875,13 +4875,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>54677.5</v>
+        <v>57499.5</v>
       </c>
       <c r="C221">
-        <v>54915.9807480395</v>
+        <v>55115.66289939751</v>
       </c>
       <c r="D221">
-        <v>-238.4807480394957</v>
+        <v>2383.83710060249</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4889,13 +4889,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>57499.5</v>
+        <v>56010.1</v>
       </c>
       <c r="C222">
-        <v>55098.31162879537</v>
+        <v>57025.44524898004</v>
       </c>
       <c r="D222">
-        <v>2401.188371204626</v>
+        <v>-1015.34524898004</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4903,13 +4903,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>56010.1</v>
+        <v>57381.2</v>
       </c>
       <c r="C223">
-        <v>57017.67428481908</v>
+        <v>56088.45101384585</v>
       </c>
       <c r="D223">
-        <v>-1007.574284819078</v>
+        <v>1292.748986154147</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4917,13 +4917,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>57381.2</v>
+        <v>57377.6</v>
       </c>
       <c r="C224">
-        <v>56061.25125616195</v>
+        <v>56891.30156824737</v>
       </c>
       <c r="D224">
-        <v>1319.948743838046</v>
+        <v>486.2984317526279</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4931,13 +4931,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>57377.6</v>
+        <v>61656.2</v>
       </c>
       <c r="C225">
-        <v>56868.30649301439</v>
+        <v>57683.28393526913</v>
       </c>
       <c r="D225">
-        <v>509.2935069856103</v>
+        <v>3972.916064730867</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4945,13 +4945,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>61656.2</v>
+        <v>60873.4</v>
       </c>
       <c r="C226">
-        <v>57665.2093387382</v>
+        <v>60980.57281052478</v>
       </c>
       <c r="D226">
-        <v>3990.990661261792</v>
+        <v>-107.1728105247748</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4959,13 +4959,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>60873.4</v>
+        <v>61526.5</v>
       </c>
       <c r="C227">
-        <v>60997.25795658163</v>
+        <v>61222.9370171077</v>
       </c>
       <c r="D227">
-        <v>-123.8579565816253</v>
+        <v>303.5629828923047</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4973,13 +4973,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>61526.5</v>
+        <v>62037.7</v>
       </c>
       <c r="C228">
-        <v>61222.12149503792</v>
+        <v>61102.66511899596</v>
       </c>
       <c r="D228">
-        <v>304.3785049620783</v>
+        <v>935.0348810040377</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4987,13 +4987,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>62037.7</v>
+        <v>64284.9</v>
       </c>
       <c r="C229">
-        <v>61098.1434643406</v>
+        <v>61828.46429673113</v>
       </c>
       <c r="D229">
-        <v>939.5565356594016</v>
+        <v>2456.435703268871</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5001,13 +5001,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>64284.9</v>
+        <v>66035.8</v>
       </c>
       <c r="C230">
-        <v>61829.21696156479</v>
+        <v>63785.07645495881</v>
       </c>
       <c r="D230">
-        <v>2455.683038435214</v>
+        <v>2250.72354504119</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5015,13 +5015,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>66035.8</v>
+        <v>62198</v>
       </c>
       <c r="C231">
-        <v>63797.60172704764</v>
+        <v>65837.18198385154</v>
       </c>
       <c r="D231">
-        <v>2238.198272952359</v>
+        <v>-3639.181983851537</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5029,13 +5029,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>62198</v>
+        <v>60687.5</v>
       </c>
       <c r="C232">
-        <v>65857.88476604101</v>
+        <v>61386.87043633049</v>
       </c>
       <c r="D232">
-        <v>-3659.88476604101</v>
+        <v>-699.3704363304932</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5043,13 +5043,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>60687.5</v>
+        <v>61296.9</v>
       </c>
       <c r="C233">
-        <v>61366.95338043827</v>
+        <v>61290.29932295903</v>
       </c>
       <c r="D233">
-        <v>-679.4533804382663</v>
+        <v>6.600677040973096</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5057,13 +5057,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>61296.9</v>
+        <v>60882.5</v>
       </c>
       <c r="C234">
-        <v>61281.85793414153</v>
+        <v>61030.61136401514</v>
       </c>
       <c r="D234">
-        <v>15.04206585846987</v>
+        <v>-148.111364015138</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5071,13 +5071,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>60882.5</v>
+        <v>63081.8</v>
       </c>
       <c r="C235">
-        <v>61022.08979848801</v>
+        <v>60708.13721061101</v>
       </c>
       <c r="D235">
-        <v>-139.5897984880139</v>
+        <v>2373.662789388989</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5085,13 +5085,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>63081.8</v>
+        <v>60310.2</v>
       </c>
       <c r="C236">
-        <v>60701.12177196977</v>
+        <v>62654.38400795386</v>
       </c>
       <c r="D236">
-        <v>2380.678228030229</v>
+        <v>-2344.18400795386</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5099,13 +5099,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>60310.2</v>
+        <v>58500.1</v>
       </c>
       <c r="C237">
-        <v>62671.36466100562</v>
+        <v>60845.49006252799</v>
       </c>
       <c r="D237">
-        <v>-2361.16466100562</v>
+        <v>-2345.390062527993</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5113,13 +5113,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>58500.1</v>
+        <v>60613.5</v>
       </c>
       <c r="C238">
-        <v>60849.1595430664</v>
+        <v>59029.35248332342</v>
       </c>
       <c r="D238">
-        <v>-2349.059543066403</v>
+        <v>1584.147516676581</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5127,13 +5127,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>60613.5</v>
+        <v>62246.5</v>
       </c>
       <c r="C239">
-        <v>59039.26124422916</v>
+        <v>60367.13854425807</v>
       </c>
       <c r="D239">
-        <v>1574.238755770843</v>
+        <v>1879.361455741928</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5141,13 +5141,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>62246.5</v>
+        <v>61866.3</v>
       </c>
       <c r="C240">
-        <v>60391.90891696099</v>
+        <v>61876.10144494619</v>
       </c>
       <c r="D240">
-        <v>1854.591083039006</v>
+        <v>-9.801444946184347</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5155,13 +5155,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>61866.3</v>
+        <v>61380.1</v>
       </c>
       <c r="C241">
-        <v>61910.4434070508</v>
+        <v>61656.17178257804</v>
       </c>
       <c r="D241">
-        <v>-44.14340705079667</v>
+        <v>-276.0717825780448</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5169,13 +5169,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>61380.1</v>
+        <v>60954.5</v>
       </c>
       <c r="C242">
-        <v>61683.01114003238</v>
+        <v>61237.91256237524</v>
       </c>
       <c r="D242">
-        <v>-302.9111400323818</v>
+        <v>-283.4125623752407</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5183,13 +5183,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>60954.5</v>
+        <v>63279.7</v>
       </c>
       <c r="C243">
-        <v>61263.11808608467</v>
+        <v>60860.46114703756</v>
       </c>
       <c r="D243">
-        <v>-308.6180860846653</v>
+        <v>2419.238852962437</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5197,13 +5197,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>63279.7</v>
+        <v>62942.9</v>
       </c>
       <c r="C244">
-        <v>60888.31657163479</v>
+        <v>62828.64690805488</v>
       </c>
       <c r="D244">
-        <v>2391.38342836521</v>
+        <v>114.2530919451237</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5211,13 +5211,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>62942.9</v>
+        <v>61449</v>
       </c>
       <c r="C245">
-        <v>62876.0530372613</v>
+        <v>62514.22012952976</v>
       </c>
       <c r="D245">
-        <v>66.84696273870213</v>
+        <v>-1065.220129529764</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5225,13 +5225,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>61449</v>
+        <v>61006.2</v>
       </c>
       <c r="C246">
-        <v>62549.04661055229</v>
+        <v>61554.58976133144</v>
       </c>
       <c r="D246">
-        <v>-1100.046610552294</v>
+        <v>-548.3897613314402</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5239,13 +5239,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>61006.2</v>
+        <v>61536.3</v>
       </c>
       <c r="C247">
-        <v>61575.56873417948</v>
+        <v>61231.47870504949</v>
       </c>
       <c r="D247">
-        <v>-569.3687341794866</v>
+        <v>304.8212949505178</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5253,13 +5253,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>61536.3</v>
+        <v>63317.8</v>
       </c>
       <c r="C248">
-        <v>61250.36045394395</v>
+        <v>61126.33908042462</v>
       </c>
       <c r="D248">
-        <v>285.9395460560481</v>
+        <v>2191.46091957538</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5267,13 +5267,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>63317.8</v>
+        <v>67559.8</v>
       </c>
       <c r="C249">
-        <v>61142.37989940285</v>
+        <v>62782.05775146267</v>
       </c>
       <c r="D249">
-        <v>2175.420100597155</v>
+        <v>4777.742248537332</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5281,13 +5281,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>67559.8</v>
+        <v>66950</v>
       </c>
       <c r="C250">
-        <v>62810.18901306967</v>
+        <v>66577.88474080537</v>
       </c>
       <c r="D250">
-        <v>4749.610986930333</v>
+        <v>372.1152591946302</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5295,13 +5295,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>66950</v>
+        <v>64969</v>
       </c>
       <c r="C251">
-        <v>66633.05169855146</v>
+        <v>67157.65237249463</v>
       </c>
       <c r="D251">
-        <v>316.948301448545</v>
+        <v>-2188.652372494631</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5309,13 +5309,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>64969</v>
+        <v>64825.4</v>
       </c>
       <c r="C252">
-        <v>67196.50063155213</v>
+        <v>65355.40172744903</v>
       </c>
       <c r="D252">
-        <v>-2227.500631552131</v>
+        <v>-530.0017274490237</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5323,13 +5323,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>64825.4</v>
+        <v>64153</v>
       </c>
       <c r="C253">
-        <v>65381.38320710394</v>
+        <v>64831.40474414604</v>
       </c>
       <c r="D253">
-        <v>-555.9832071039345</v>
+        <v>-678.4047441460352</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5337,13 +5337,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>64153</v>
+        <v>64393.1</v>
       </c>
       <c r="C254">
-        <v>64843.88556159678</v>
+        <v>64012.28981815569</v>
       </c>
       <c r="D254">
-        <v>-690.8855615967768</v>
+        <v>380.8101818443101</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5351,13 +5351,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>64393.1</v>
+        <v>65495</v>
       </c>
       <c r="C255">
-        <v>64016.44233712298</v>
+        <v>64278.81221110507</v>
       </c>
       <c r="D255">
-        <v>376.6576628770199</v>
+        <v>1216.187788894931</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5365,13 +5365,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>65495</v>
+        <v>63615.8</v>
       </c>
       <c r="C256">
-        <v>64277.89656778652</v>
+        <v>65043.31546076631</v>
       </c>
       <c r="D256">
-        <v>1217.10343221348</v>
+        <v>-1427.515460766306</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5379,13 +5379,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>63615.8</v>
+        <v>60137.2</v>
       </c>
       <c r="C257">
-        <v>65042.61390924023</v>
+        <v>64156.81918633146</v>
       </c>
       <c r="D257">
-        <v>-1426.813909240227</v>
+        <v>-4019.619186331467</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5393,13 +5393,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>60137.2</v>
+        <v>60367.8</v>
       </c>
       <c r="C258">
-        <v>64150.12313664902</v>
+        <v>60514.11449573962</v>
       </c>
       <c r="D258">
-        <v>-4012.923136649028</v>
+        <v>-146.3144957396216</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5407,13 +5407,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>60367.8</v>
+        <v>56921.7</v>
       </c>
       <c r="C259">
-        <v>60497.65320229181</v>
+        <v>59909.72000659187</v>
       </c>
       <c r="D259">
-        <v>-129.853202291808</v>
+        <v>-2988.020006591869</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5421,13 +5421,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>56921.7</v>
+        <v>58099.6</v>
       </c>
       <c r="C260">
-        <v>59896.06830555416</v>
+        <v>57604.16053398872</v>
       </c>
       <c r="D260">
-        <v>-2974.368305554162</v>
+        <v>495.4394660112739</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5435,13 +5435,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>58099.6</v>
+        <v>59744.2</v>
       </c>
       <c r="C261">
-        <v>57589.98428390769</v>
+        <v>57416.55259369103</v>
       </c>
       <c r="D261">
-        <v>509.6157160923103</v>
+        <v>2327.647406308963</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5449,13 +5449,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>59744.2</v>
+        <v>58646.2</v>
       </c>
       <c r="C262">
-        <v>57412.62048699142</v>
+        <v>59031.40144008898</v>
       </c>
       <c r="D262">
-        <v>2331.579513008575</v>
+        <v>-385.2014400889821</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5463,13 +5463,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>58646.2</v>
+        <v>56295.5</v>
       </c>
       <c r="C263">
-        <v>59046.26955557743</v>
+        <v>58726.62566901504</v>
       </c>
       <c r="D263">
-        <v>-400.0695555774291</v>
+        <v>-2431.12566901504</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5477,13 +5477,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>56295.5</v>
+        <v>57571.4</v>
       </c>
       <c r="C264">
-        <v>58745.64673148858</v>
+        <v>56614.768015298</v>
       </c>
       <c r="D264">
-        <v>-2450.146731488581</v>
+        <v>956.6319847020059</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5491,13 +5491,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>57571.4</v>
+        <v>57203.3</v>
       </c>
       <c r="C265">
-        <v>56633.39283292409</v>
+        <v>56879.91664027533</v>
       </c>
       <c r="D265">
-        <v>938.0071670759135</v>
+        <v>323.3833597246776</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5505,13 +5505,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>57203.3</v>
+        <v>58932.6</v>
       </c>
       <c r="C266">
-        <v>56910.01929709307</v>
+        <v>56773.20215145777</v>
       </c>
       <c r="D266">
-        <v>293.2807029069372</v>
+        <v>2159.397848542227</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5519,13 +5519,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>58932.6</v>
+        <v>53789</v>
       </c>
       <c r="C267">
-        <v>56803.52761186959</v>
+        <v>58361.61180087941</v>
       </c>
       <c r="D267">
-        <v>2129.072388130407</v>
+        <v>-4572.611800879407</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5533,13 +5533,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>53789</v>
+        <v>54784.9</v>
       </c>
       <c r="C268">
-        <v>58404.9515193043</v>
+        <v>54715.99498037641</v>
       </c>
       <c r="D268">
-        <v>-4615.951519304304</v>
+        <v>68.90501962359122</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5547,13 +5547,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>54784.9</v>
+        <v>57300</v>
       </c>
       <c r="C269">
-        <v>54735.30303717926</v>
+        <v>54362.32690723598</v>
       </c>
       <c r="D269">
-        <v>49.59696282074583</v>
+        <v>2937.673092764024</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5561,13 +5561,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>57300</v>
+        <v>57830.2</v>
       </c>
       <c r="C270">
-        <v>54382.84343426075</v>
+        <v>56131.16609566265</v>
       </c>
       <c r="D270">
-        <v>2917.156565739249</v>
+        <v>1699.033904337346</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5575,13 +5575,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>57830.2</v>
+        <v>56980.7</v>
       </c>
       <c r="C271">
-        <v>56165.7323256832</v>
+        <v>57616.35209180737</v>
       </c>
       <c r="D271">
-        <v>1664.467674316795</v>
+        <v>-635.6520918073729</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5589,13 +5589,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>56980.7</v>
+        <v>57237.9</v>
       </c>
       <c r="C272">
-        <v>57658.89788005021</v>
+        <v>57055.46780665276</v>
       </c>
       <c r="D272">
-        <v>-678.1978800502111</v>
+        <v>182.4321933472384</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5603,13 +5603,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>57237.9</v>
+        <v>56526.4</v>
       </c>
       <c r="C273">
-        <v>57091.00774470303</v>
+        <v>57315.90482616025</v>
       </c>
       <c r="D273">
-        <v>146.8922552969671</v>
+        <v>-789.5048261602496</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5617,13 +5617,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>56526.4</v>
+        <v>53678.6</v>
       </c>
       <c r="C274">
-        <v>57350.11366861235</v>
+        <v>56397.43095715861</v>
       </c>
       <c r="D274">
-        <v>-823.7136686123486</v>
+        <v>-2718.830957158614</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5631,13 +5631,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>53678.6</v>
+        <v>49255.1</v>
       </c>
       <c r="C275">
-        <v>56417.5905636455</v>
+        <v>53953.04124362472</v>
       </c>
       <c r="D275">
-        <v>-2738.990563645501</v>
+        <v>-4697.941243624722</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5645,13 +5645,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>49255.1</v>
+        <v>49443.3</v>
       </c>
       <c r="C276">
-        <v>53953.25306469516</v>
+        <v>47931.12786652837</v>
       </c>
       <c r="D276">
-        <v>-4698.153064695165</v>
+        <v>1512.172133471635</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5659,13 +5659,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>49443.3</v>
+        <v>50564.3</v>
       </c>
       <c r="C277">
-        <v>47906.02208159081</v>
+        <v>48882.24545935611</v>
       </c>
       <c r="D277">
-        <v>1537.277918409192</v>
+        <v>1682.054540643898</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5673,13 +5673,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>50564.3</v>
+        <v>50650.1</v>
       </c>
       <c r="C278">
-        <v>48870.17870182867</v>
+        <v>49597.0930903826</v>
       </c>
       <c r="D278">
-        <v>1694.121298171332</v>
+        <v>1053.006909617397</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5687,13 +5687,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>50650.1</v>
+        <v>50515.1</v>
       </c>
       <c r="C279">
-        <v>49601.34573769593</v>
+        <v>50557.56109192609</v>
       </c>
       <c r="D279">
-        <v>1048.754262304072</v>
+        <v>-42.46109192608856</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5701,13 +5701,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>50515.1</v>
+        <v>47581.6</v>
       </c>
       <c r="C280">
-        <v>50577.41617589025</v>
+        <v>49923.66431195483</v>
       </c>
       <c r="D280">
-        <v>-62.31617589024972</v>
+        <v>-2342.064311954833</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5715,13 +5715,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>47581.6</v>
+        <v>47218.3</v>
       </c>
       <c r="C281">
-        <v>49945.90505253267</v>
+        <v>47922.36420703108</v>
       </c>
       <c r="D281">
-        <v>-2364.305052532676</v>
+        <v>-704.0642070310787</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5729,13 +5729,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>47218.3</v>
+        <v>49367.2</v>
       </c>
       <c r="C282">
-        <v>47944.0709296744</v>
+        <v>47470.6397108215</v>
       </c>
       <c r="D282">
-        <v>-725.7709296743997</v>
+        <v>1896.560289178502</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5743,13 +5743,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>49367.2</v>
+        <v>50113.2</v>
       </c>
       <c r="C283">
-        <v>47504.41280086414</v>
+        <v>48501.08709223803</v>
       </c>
       <c r="D283">
-        <v>1862.787199135855</v>
+        <v>1612.112907761963</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5757,13 +5757,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>50113.2</v>
+        <v>46732.2</v>
       </c>
       <c r="C284">
-        <v>48530.63469417364</v>
+        <v>49645.83861112277</v>
       </c>
       <c r="D284">
-        <v>1582.565305826356</v>
+        <v>-2913.638611122769</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5771,13 +5771,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>46732.2</v>
+        <v>48399.2</v>
       </c>
       <c r="C285">
-        <v>49680.95563601315</v>
+        <v>47017.38041556282</v>
       </c>
       <c r="D285">
-        <v>-2948.755636013157</v>
+        <v>1381.819584437173</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5785,13 +5785,13 @@
         <v>288</v>
       </c>
       <c r="B286">
-        <v>48399.2</v>
+        <v>48881.3</v>
       </c>
       <c r="C286">
-        <v>47030.97077113713</v>
+        <v>47703.31382270631</v>
       </c>
       <c r="D286">
-        <v>1368.229228862867</v>
+        <v>1177.986177293693</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5799,13 +5799,13 @@
         <v>289</v>
       </c>
       <c r="B287">
-        <v>48881.3</v>
+        <v>47631</v>
       </c>
       <c r="C287">
-        <v>47730.34605275275</v>
+        <v>48245.75978929304</v>
       </c>
       <c r="D287">
-        <v>1150.953947247253</v>
+        <v>-614.7597892930426</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5813,13 +5813,13 @@
         <v>290</v>
       </c>
       <c r="B288">
-        <v>47631</v>
+        <v>46168.3</v>
       </c>
       <c r="C288">
-        <v>48271.54544646715</v>
+        <v>47803.11960996105</v>
       </c>
       <c r="D288">
-        <v>-640.5454464671493</v>
+        <v>-1634.819609961043</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5827,13 +5827,13 @@
         <v>291</v>
       </c>
       <c r="B289">
-        <v>46168.3</v>
+        <v>46864.3</v>
       </c>
       <c r="C289">
-        <v>47824.16393660742</v>
+        <v>46203.08235651592</v>
       </c>
       <c r="D289">
-        <v>-1655.86393660742</v>
+        <v>661.2176434840876</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5841,13 +5841,13 @@
         <v>292</v>
       </c>
       <c r="B290">
-        <v>46864.3</v>
+        <v>46688.4</v>
       </c>
       <c r="C290">
-        <v>46213.39436032018</v>
+        <v>46422.45774812725</v>
       </c>
       <c r="D290">
-        <v>650.905639679826</v>
+        <v>265.9422518727515</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5855,13 +5855,13 @@
         <v>293</v>
       </c>
       <c r="B291">
-        <v>46688.4</v>
+        <v>46898.1</v>
       </c>
       <c r="C291">
-        <v>46429.99341086243</v>
+        <v>46782.67158773512</v>
       </c>
       <c r="D291">
-        <v>258.4065891375722</v>
+        <v>115.4284122648824</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5869,13 +5869,13 @@
         <v>294</v>
       </c>
       <c r="B292">
-        <v>46898.1</v>
+        <v>48925.9</v>
       </c>
       <c r="C292">
-        <v>46791.31125334674</v>
+        <v>46563.84613686098</v>
       </c>
       <c r="D292">
-        <v>106.7887466532629</v>
+        <v>2362.053863139023</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5883,13 +5883,13 @@
         <v>295</v>
       </c>
       <c r="B293">
-        <v>48925.9</v>
+        <v>48624.9</v>
       </c>
       <c r="C293">
-        <v>46568.25689811754</v>
+        <v>48316.355321859</v>
       </c>
       <c r="D293">
-        <v>2357.643101882459</v>
+        <v>308.5446781409992</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5897,13 +5897,13 @@
         <v>296</v>
       </c>
       <c r="B294">
-        <v>48624.9</v>
+        <v>50818.8</v>
       </c>
       <c r="C294">
-        <v>48332.18744111841</v>
+        <v>48678.0519778908</v>
       </c>
       <c r="D294">
-        <v>292.7125588815907</v>
+        <v>2140.748022109205</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5911,13 +5911,13 @@
         <v>297</v>
       </c>
       <c r="B295">
-        <v>50818.8</v>
+        <v>50834.3</v>
       </c>
       <c r="C295">
-        <v>48685.93111267927</v>
+        <v>50176.75313989934</v>
       </c>
       <c r="D295">
-        <v>2132.868887320728</v>
+        <v>657.5468601006651</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5925,13 +5925,13 @@
         <v>298</v>
       </c>
       <c r="B296">
-        <v>50834.3</v>
+        <v>50436</v>
       </c>
       <c r="C296">
-        <v>50195.79131162429</v>
+        <v>50893.4775239028</v>
       </c>
       <c r="D296">
-        <v>638.5086883757176</v>
+        <v>-457.4775239028022</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5939,13 +5939,13 @@
         <v>299</v>
       </c>
       <c r="B297">
-        <v>50436</v>
+        <v>50797.3</v>
       </c>
       <c r="C297">
-        <v>50909.14589702481</v>
+        <v>50461.73931985659</v>
       </c>
       <c r="D297">
-        <v>-473.1458970248059</v>
+        <v>335.5606801434114</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5953,13 +5953,13 @@
         <v>300</v>
       </c>
       <c r="B298">
-        <v>50797.3</v>
+        <v>50687.4</v>
       </c>
       <c r="C298">
-        <v>50462.34955960664</v>
+        <v>50496.86306387948</v>
       </c>
       <c r="D298">
-        <v>334.9504403933679</v>
+        <v>190.536936120523</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5967,13 +5967,13 @@
         <v>301</v>
       </c>
       <c r="B299">
-        <v>50687.4</v>
+        <v>47548.1</v>
       </c>
       <c r="C299">
-        <v>50490.28505985675</v>
+        <v>50907.88036512271</v>
       </c>
       <c r="D299">
-        <v>197.1149401432558</v>
+        <v>-3359.780365122715</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5981,13 +5981,13 @@
         <v>302</v>
       </c>
       <c r="B300">
-        <v>47548.1</v>
+        <v>46473.2</v>
       </c>
       <c r="C300">
-        <v>50900.30598323315</v>
+        <v>48143.99205650706</v>
       </c>
       <c r="D300">
-        <v>-3352.205983233151</v>
+        <v>-1670.79205650706</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5995,13 +5995,13 @@
         <v>303</v>
       </c>
       <c r="B301">
-        <v>46473.2</v>
+        <v>47143.8</v>
       </c>
       <c r="C301">
-        <v>48113.26360034646</v>
+        <v>46681.23839369538</v>
       </c>
       <c r="D301">
-        <v>-1640.063600346461</v>
+        <v>462.5616063046255</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6009,13 +6009,13 @@
         <v>304</v>
       </c>
       <c r="B302">
-        <v>47143.8</v>
+        <v>46150</v>
       </c>
       <c r="C302">
-        <v>46645.92834443782</v>
+        <v>46927.22207315347</v>
       </c>
       <c r="D302">
-        <v>497.8716555621795</v>
+        <v>-777.222073153469</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6023,13 +6023,13 @@
         <v>305</v>
       </c>
       <c r="B303">
-        <v>46150</v>
+        <v>47738.3</v>
       </c>
       <c r="C303">
-        <v>46899.2580808349</v>
+        <v>46438.13145327538</v>
       </c>
       <c r="D303">
-        <v>-749.2580808349012</v>
+        <v>1300.168546724621</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6037,13 +6037,13 @@
         <v>306</v>
       </c>
       <c r="B304">
-        <v>47738.3</v>
+        <v>47304.6</v>
       </c>
       <c r="C304">
-        <v>46414.87571363529</v>
+        <v>47284.55252142328</v>
       </c>
       <c r="D304">
-        <v>1323.424286364709</v>
+        <v>20.04747857671464</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6051,13 +6051,13 @@
         <v>307</v>
       </c>
       <c r="B305">
-        <v>47304.6</v>
+        <v>46452.6</v>
       </c>
       <c r="C305">
-        <v>47274.69754362115</v>
+        <v>47184.89942741358</v>
       </c>
       <c r="D305">
-        <v>29.902456378848</v>
+        <v>-732.2994274135854</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6065,13 +6065,13 @@
         <v>308</v>
       </c>
       <c r="B306">
-        <v>46452.6</v>
+        <v>45858.5</v>
       </c>
       <c r="C306">
-        <v>47177.93321955623</v>
+        <v>46389.78592267885</v>
       </c>
       <c r="D306">
-        <v>-725.3332195562325</v>
+        <v>-531.2859226788496</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6079,13 +6079,13 @@
         <v>309</v>
       </c>
       <c r="B307">
-        <v>45858.5</v>
+        <v>43410</v>
       </c>
       <c r="C307">
-        <v>46385.88267027965</v>
+        <v>46014.61712589795</v>
       </c>
       <c r="D307">
-        <v>-527.3826702796505</v>
+        <v>-2604.617125897952</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6093,13 +6093,13 @@
         <v>310</v>
       </c>
       <c r="B308">
-        <v>43410</v>
+        <v>43124.4</v>
       </c>
       <c r="C308">
-        <v>46014.5294336857</v>
+        <v>43854.00907421891</v>
       </c>
       <c r="D308">
-        <v>-2604.529433685704</v>
+        <v>-729.6090742189117</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6107,13 +6107,13 @@
         <v>311</v>
       </c>
       <c r="B309">
-        <v>43124.4</v>
+        <v>41523.6</v>
       </c>
       <c r="C309">
-        <v>43848.24110102971</v>
+        <v>42936.5633712983</v>
       </c>
       <c r="D309">
-        <v>-723.8411010297059</v>
+        <v>-1412.963371298305</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6121,13 +6121,13 @@
         <v>312</v>
       </c>
       <c r="B310">
-        <v>41523.6</v>
+        <v>41693.2</v>
       </c>
       <c r="C310">
-        <v>42934.26487525104</v>
+        <v>41500.70002481905</v>
       </c>
       <c r="D310">
-        <v>-1410.664875251045</v>
+        <v>192.4999751809446</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6135,13 +6135,13 @@
         <v>313</v>
       </c>
       <c r="B311">
-        <v>41693.2</v>
+        <v>41862.9</v>
       </c>
       <c r="C311">
-        <v>41490.77079631703</v>
+        <v>41345.38418690976</v>
       </c>
       <c r="D311">
-        <v>202.429203682972</v>
+        <v>517.5158130902419</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6149,13 +6149,13 @@
         <v>314</v>
       </c>
       <c r="B312">
-        <v>41862.9</v>
+        <v>41855.3</v>
       </c>
       <c r="C312">
-        <v>41343.24174413789</v>
+        <v>41690.81711632688</v>
       </c>
       <c r="D312">
-        <v>519.6582558621085</v>
+        <v>164.4828836731249</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6163,13 +6163,13 @@
         <v>315</v>
       </c>
       <c r="B313">
-        <v>41855.3</v>
+        <v>42728.8</v>
       </c>
       <c r="C313">
-        <v>41698.02105180253</v>
+        <v>41195.20163917905</v>
       </c>
       <c r="D313">
-        <v>157.278948197476</v>
+        <v>1533.598360820957</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6177,13 +6177,13 @@
         <v>316</v>
       </c>
       <c r="B314">
-        <v>42728.8</v>
+        <v>43927.8</v>
       </c>
       <c r="C314">
-        <v>41207.81043604456</v>
+        <v>42257.10163531216</v>
       </c>
       <c r="D314">
-        <v>1520.989563955445</v>
+        <v>1670.698364687843</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6191,13 +6191,13 @@
         <v>317</v>
       </c>
       <c r="B315">
-        <v>43927.8</v>
+        <v>42550</v>
       </c>
       <c r="C315">
-        <v>42285.41124333721</v>
+        <v>43480.78623607652</v>
       </c>
       <c r="D315">
-        <v>1642.388756662796</v>
+        <v>-930.7862360765212</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6205,13 +6205,13 @@
         <v>318</v>
       </c>
       <c r="B316">
-        <v>42550</v>
+        <v>43090</v>
       </c>
       <c r="C316">
-        <v>43515.22686815282</v>
+        <v>42726.63778542479</v>
       </c>
       <c r="D316">
-        <v>-965.2268681528221</v>
+        <v>363.3622145752088</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6219,13 +6219,13 @@
         <v>319</v>
       </c>
       <c r="B317">
-        <v>43090</v>
+        <v>43111.5</v>
       </c>
       <c r="C317">
-        <v>42752.84021153735</v>
+        <v>42690.07428569704</v>
       </c>
       <c r="D317">
-        <v>337.1597884626535</v>
+        <v>421.4257143029608</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6233,13 +6233,13 @@
         <v>320</v>
       </c>
       <c r="B318">
-        <v>43111.5</v>
+        <v>43114.5</v>
       </c>
       <c r="C318">
-        <v>42713.05994663353</v>
+        <v>42973.60959011997</v>
       </c>
       <c r="D318">
-        <v>398.4400533664739</v>
+        <v>140.890409880034</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6247,13 +6247,13 @@
         <v>321</v>
       </c>
       <c r="B319">
-        <v>43114.5</v>
+        <v>42248.1</v>
       </c>
       <c r="C319">
-        <v>42991.07863594801</v>
+        <v>42925.88388640651</v>
       </c>
       <c r="D319">
-        <v>123.4213640519883</v>
+        <v>-677.7838864065125</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6261,13 +6261,13 @@
         <v>322</v>
       </c>
       <c r="B320">
-        <v>42248.1</v>
+        <v>42383</v>
       </c>
       <c r="C320">
-        <v>42935.06599526215</v>
+        <v>42167.4621674075</v>
       </c>
       <c r="D320">
-        <v>-686.9659952621514</v>
+        <v>215.5378325925049</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6275,13 +6275,13 @@
         <v>323</v>
       </c>
       <c r="B321">
-        <v>42383</v>
+        <v>41686.2</v>
       </c>
       <c r="C321">
-        <v>42165.89483924385</v>
+        <v>42052.06127117326</v>
       </c>
       <c r="D321">
-        <v>217.1051607561531</v>
+        <v>-365.861271173264</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6289,13 +6289,13 @@
         <v>324</v>
       </c>
       <c r="B322">
-        <v>41686.2</v>
+        <v>40686.9</v>
       </c>
       <c r="C322">
-        <v>42049.45825500658</v>
+        <v>41631.01300274152</v>
       </c>
       <c r="D322">
-        <v>-363.2582550065854</v>
+        <v>-944.1130027415202</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6303,13 +6303,13 @@
         <v>325</v>
       </c>
       <c r="B323">
-        <v>40686.9</v>
+        <v>36468.4</v>
       </c>
       <c r="C323">
-        <v>41625.17863752317</v>
+        <v>41162.48880054912</v>
       </c>
       <c r="D323">
-        <v>-938.2786375231735</v>
+        <v>-4694.088800549114</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6317,13 +6317,13 @@
         <v>326</v>
       </c>
       <c r="B324">
-        <v>36468.4</v>
+        <v>35067.6</v>
       </c>
       <c r="C324">
-        <v>41159.22218038546</v>
+        <v>37131.32091076238</v>
       </c>
       <c r="D324">
-        <v>-4690.822180385461</v>
+        <v>-2063.720910762378</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6331,13 +6331,13 @@
         <v>327</v>
       </c>
       <c r="B325">
-        <v>35067.6</v>
+        <v>36277.5</v>
       </c>
       <c r="C325">
-        <v>37110.79096515715</v>
+        <v>35045.00547029895</v>
       </c>
       <c r="D325">
-        <v>-2043.190965157155</v>
+        <v>1232.494529701049</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6345,13 +6345,13 @@
         <v>328</v>
       </c>
       <c r="B326">
-        <v>36277.5</v>
+        <v>36699.5</v>
       </c>
       <c r="C326">
-        <v>35021.49503084153</v>
+        <v>35735.13312020239</v>
       </c>
       <c r="D326">
-        <v>1256.004969158472</v>
+        <v>964.3668797976061</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6359,13 +6359,13 @@
         <v>329</v>
       </c>
       <c r="B327">
-        <v>36699.5</v>
+        <v>36987.8</v>
       </c>
       <c r="C327">
-        <v>35724.50561990857</v>
+        <v>35807.3963126899</v>
       </c>
       <c r="D327">
-        <v>974.9943800914334</v>
+        <v>1180.403687310107</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6373,13 +6373,13 @@
         <v>330</v>
       </c>
       <c r="B328">
-        <v>36987.8</v>
+        <v>36827.6</v>
       </c>
       <c r="C328">
-        <v>35809.67954165023</v>
+        <v>36603.74954140459</v>
       </c>
       <c r="D328">
-        <v>1178.120458349775</v>
+        <v>223.850458595407</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6387,13 +6387,13 @@
         <v>331</v>
       </c>
       <c r="B329">
-        <v>36827.6</v>
+        <v>37200.5</v>
       </c>
       <c r="C329">
-        <v>36618.29436201914</v>
+        <v>36965.51409824864</v>
       </c>
       <c r="D329">
-        <v>209.3056379808622</v>
+        <v>234.9859017513591</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6401,13 +6401,13 @@
         <v>332</v>
       </c>
       <c r="B330">
-        <v>37200.5</v>
+        <v>37737.9</v>
       </c>
       <c r="C330">
-        <v>36995.85924069586</v>
+        <v>36620.39965662732</v>
       </c>
       <c r="D330">
-        <v>204.6407593041367</v>
+        <v>1117.500343372682</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6415,13 +6415,13 @@
         <v>333</v>
       </c>
       <c r="B331">
-        <v>37737.9</v>
+        <v>38164.9</v>
       </c>
       <c r="C331">
-        <v>36649.66796181264</v>
+        <v>37238.45097714246</v>
       </c>
       <c r="D331">
-        <v>1088.232038187365</v>
+        <v>926.4490228575451</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6429,13 +6429,13 @@
         <v>334</v>
       </c>
       <c r="B332">
-        <v>38164.9</v>
+        <v>37930.1</v>
       </c>
       <c r="C332">
-        <v>37270.36163272959</v>
+        <v>37897.3043891394</v>
       </c>
       <c r="D332">
-        <v>894.538367270412</v>
+        <v>32.7956108606013</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6443,13 +6443,13 @@
         <v>335</v>
       </c>
       <c r="B333">
-        <v>37930.1</v>
+        <v>38512.1</v>
       </c>
       <c r="C333">
-        <v>37930.30449087144</v>
+        <v>37721.40775154542</v>
       </c>
       <c r="D333">
-        <v>-0.2044908714378835</v>
+        <v>790.6922484545794</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6457,13 +6457,13 @@
         <v>336</v>
       </c>
       <c r="B334">
-        <v>38512.1</v>
+        <v>38719.9</v>
       </c>
       <c r="C334">
-        <v>37743.44850363198</v>
+        <v>37984.70417051337</v>
       </c>
       <c r="D334">
-        <v>768.6514963680165</v>
+        <v>735.1958294866345</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6471,13 +6471,13 @@
         <v>337</v>
       </c>
       <c r="B335">
-        <v>38719.9</v>
+        <v>36903.3</v>
       </c>
       <c r="C335">
-        <v>38001.83763326844</v>
+        <v>38567.30923795071</v>
       </c>
       <c r="D335">
-        <v>718.0623667315595</v>
+        <v>-1664.009237950704</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6485,13 +6485,13 @@
         <v>338</v>
       </c>
       <c r="B336">
-        <v>36903.3</v>
+        <v>37324.4</v>
       </c>
       <c r="C336">
-        <v>38583.95593861371</v>
+        <v>37151.54405397639</v>
       </c>
       <c r="D336">
-        <v>-1680.655938613709</v>
+        <v>172.8559460236138</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6499,13 +6499,13 @@
         <v>339</v>
       </c>
       <c r="B337">
-        <v>37324.4</v>
+        <v>41585.5</v>
       </c>
       <c r="C337">
-        <v>37151.25945032292</v>
+        <v>36974.75073703992</v>
       </c>
       <c r="D337">
-        <v>173.1405496770822</v>
+        <v>4610.749262960082</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6513,13 +6513,13 @@
         <v>340</v>
       </c>
       <c r="B338">
-        <v>41585.5</v>
+        <v>41419</v>
       </c>
       <c r="C338">
-        <v>36972.02764135064</v>
+        <v>40465.00583548532</v>
       </c>
       <c r="D338">
-        <v>4613.472358649364</v>
+        <v>953.9941645146828</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6527,13 +6527,13 @@
         <v>341</v>
       </c>
       <c r="B339">
-        <v>41419</v>
+        <v>42419.5</v>
       </c>
       <c r="C339">
-        <v>40489.24324289028</v>
+        <v>41358.85539875933</v>
       </c>
       <c r="D339">
-        <v>929.756757109717</v>
+        <v>1060.644601240674</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6541,13 +6541,13 @@
         <v>342</v>
       </c>
       <c r="B340">
-        <v>42419.5</v>
+        <v>43867.2</v>
       </c>
       <c r="C340">
-        <v>41374.42424104791</v>
+        <v>42156.33153404781</v>
       </c>
       <c r="D340">
-        <v>1045.075758952094</v>
+        <v>1710.86846595219</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6555,13 +6555,13 @@
         <v>343</v>
       </c>
       <c r="B341">
-        <v>43867.2</v>
+        <v>44079.1</v>
       </c>
       <c r="C341">
-        <v>42170.52002866467</v>
+        <v>43524.83157058761</v>
       </c>
       <c r="D341">
-        <v>1696.679971335325</v>
+        <v>554.2684294123901</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6569,13 +6569,13 @@
         <v>344</v>
       </c>
       <c r="B342">
-        <v>44079.1</v>
+        <v>44420</v>
       </c>
       <c r="C342">
-        <v>43543.76692516301</v>
+        <v>44116.15700521864</v>
       </c>
       <c r="D342">
-        <v>535.3330748369845</v>
+        <v>303.8429947813638</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6583,13 +6583,13 @@
         <v>345</v>
       </c>
       <c r="B343">
-        <v>44420</v>
+        <v>43537.5</v>
       </c>
       <c r="C343">
-        <v>44128.74216012031</v>
+        <v>44293.41632906475</v>
       </c>
       <c r="D343">
-        <v>291.2578398796904</v>
+        <v>-755.9163290647484</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6597,13 +6597,13 @@
         <v>346</v>
       </c>
       <c r="B344">
-        <v>43537.5</v>
+        <v>42400.2</v>
       </c>
       <c r="C344">
-        <v>44293.26833138763</v>
+        <v>44086.61109652992</v>
       </c>
       <c r="D344">
-        <v>-755.7683313876332</v>
+        <v>-1686.411096529926</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6611,13 +6611,13 @@
         <v>347</v>
       </c>
       <c r="B345">
-        <v>42400.2</v>
+        <v>42241</v>
       </c>
       <c r="C345">
-        <v>44081.20467362273</v>
+        <v>42729.23746233311</v>
       </c>
       <c r="D345">
-        <v>-1681.004673622738</v>
+        <v>-488.2374623331052</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6625,13 +6625,13 @@
         <v>348</v>
       </c>
       <c r="B346">
-        <v>42241</v>
+        <v>42062.6</v>
       </c>
       <c r="C346">
-        <v>42704.12934476233</v>
+        <v>42367.43511876885</v>
       </c>
       <c r="D346">
-        <v>-463.129344762332</v>
+        <v>-304.8351187688531</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6639,13 +6639,13 @@
         <v>349</v>
       </c>
       <c r="B347">
-        <v>42062.6</v>
+        <v>42563.5</v>
       </c>
       <c r="C347">
-        <v>42337.75908015505</v>
+        <v>42231.94519734327</v>
       </c>
       <c r="D347">
-        <v>-275.1590801550556</v>
+        <v>331.554802656734</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6653,13 +6653,13 @@
         <v>350</v>
       </c>
       <c r="B348">
-        <v>42563.5</v>
+        <v>44563.1</v>
       </c>
       <c r="C348">
-        <v>42202.5223238738</v>
+        <v>42434.96099867482</v>
       </c>
       <c r="D348">
-        <v>360.9776761262037</v>
+        <v>2128.13900132518</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6667,13 +6667,13 @@
         <v>351</v>
       </c>
       <c r="B349">
-        <v>44563.1</v>
+        <v>43873.1</v>
       </c>
       <c r="C349">
-        <v>42410.78242169251</v>
+        <v>44148.25874359882</v>
       </c>
       <c r="D349">
-        <v>2152.317578307491</v>
+        <v>-275.1587435988185</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6681,13 +6681,13 @@
         <v>352</v>
       </c>
       <c r="B350">
-        <v>43873.1</v>
+        <v>40543.9</v>
       </c>
       <c r="C350">
-        <v>44140.94585368584</v>
+        <v>43912.68855956685</v>
       </c>
       <c r="D350">
-        <v>-267.8458536858452</v>
+        <v>-3368.788559566849</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6695,13 +6695,13 @@
         <v>353</v>
       </c>
       <c r="B351">
-        <v>40543.9</v>
+        <v>40007.4</v>
       </c>
       <c r="C351">
-        <v>43902.79908204218</v>
+        <v>41248.635889725</v>
       </c>
       <c r="D351">
-        <v>-3358.899082042182</v>
+        <v>-1241.235889724994</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6709,13 +6709,13 @@
         <v>354</v>
       </c>
       <c r="B352">
-        <v>40007.4</v>
+        <v>40095.8</v>
       </c>
       <c r="C352">
-        <v>41228.18405802347</v>
+        <v>40060.9740752546</v>
       </c>
       <c r="D352">
-        <v>-1220.78405802347</v>
+        <v>34.82592474540434</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6723,13 +6723,13 @@
         <v>355</v>
       </c>
       <c r="B353">
-        <v>40095.8</v>
+        <v>38400</v>
       </c>
       <c r="C353">
-        <v>40043.81597174433</v>
+        <v>40014.09658218276</v>
       </c>
       <c r="D353">
-        <v>51.98402825566882</v>
+        <v>-1614.096582182763</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6737,13 +6737,13 @@
         <v>356</v>
       </c>
       <c r="B354">
-        <v>38400</v>
+        <v>37019.2</v>
       </c>
       <c r="C354">
-        <v>40000.87092898437</v>
+        <v>38615.94028056211</v>
       </c>
       <c r="D354">
-        <v>-1600.870928984368</v>
+        <v>-1596.740280562117</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6751,13 +6751,13 @@
         <v>357</v>
       </c>
       <c r="B355">
-        <v>37019.2</v>
+        <v>38256.3</v>
       </c>
       <c r="C355">
-        <v>38600.33359631465</v>
+        <v>37423.7118878051</v>
       </c>
       <c r="D355">
-        <v>-1581.133596314656</v>
+        <v>832.5881121948987</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6765,13 +6765,13 @@
         <v>358</v>
       </c>
       <c r="B356">
-        <v>38256.3</v>
+        <v>37250.1</v>
       </c>
       <c r="C356">
-        <v>37415.84852474654</v>
+        <v>37712.7996496832</v>
       </c>
       <c r="D356">
-        <v>840.4514752534596</v>
+        <v>-462.6996496831998</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6779,13 +6779,13 @@
         <v>359</v>
       </c>
       <c r="B357">
-        <v>37250.1</v>
+        <v>38340.8</v>
       </c>
       <c r="C357">
-        <v>37716.52672004455</v>
+        <v>37504.43333885576</v>
       </c>
       <c r="D357">
-        <v>-466.4267200445538</v>
+        <v>836.3666611442386</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6793,13 +6793,13 @@
         <v>360</v>
       </c>
       <c r="B358">
-        <v>38340.8</v>
+        <v>39233.5</v>
       </c>
       <c r="C358">
-        <v>37517.45462595025</v>
+        <v>37585.67484059973</v>
       </c>
       <c r="D358">
-        <v>823.3453740497498</v>
+        <v>1647.825159400272</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6807,13 +6807,13 @@
         <v>361</v>
       </c>
       <c r="B359">
-        <v>39233.5</v>
+        <v>39120.2</v>
       </c>
       <c r="C359">
-        <v>37616.71198172439</v>
+        <v>38909.3179476654</v>
       </c>
       <c r="D359">
-        <v>1616.788018275605</v>
+        <v>210.8820523346003</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6821,13 +6821,13 @@
         <v>362</v>
       </c>
       <c r="B360">
-        <v>39120.2</v>
+        <v>37709.1</v>
       </c>
       <c r="C360">
-        <v>38947.90601079279</v>
+        <v>39106.76597104014</v>
       </c>
       <c r="D360">
-        <v>172.2939892072027</v>
+        <v>-1397.665971040144</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6835,13 +6835,13 @@
         <v>363</v>
       </c>
       <c r="B361">
-        <v>37709.1</v>
+        <v>43194.7</v>
       </c>
       <c r="C361">
-        <v>39144.34782082055</v>
+        <v>37899.99226720852</v>
       </c>
       <c r="D361">
-        <v>-1435.24782082055</v>
+        <v>5294.707732791481</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6849,13 +6849,13 @@
         <v>364</v>
       </c>
       <c r="B362">
-        <v>43194.7</v>
+        <v>44427.9</v>
       </c>
       <c r="C362">
-        <v>37929.74924102941</v>
+        <v>41947.78458096409</v>
       </c>
       <c r="D362">
-        <v>5264.95075897059</v>
+        <v>2480.115419035908</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6863,13 +6863,13 @@
         <v>365</v>
       </c>
       <c r="B363">
-        <v>44427.9</v>
+        <v>43922.5</v>
       </c>
       <c r="C363">
-        <v>42016.04296275054</v>
+        <v>44165.0709486156</v>
       </c>
       <c r="D363">
-        <v>2411.857037249465</v>
+        <v>-242.5709486156047</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6877,13 +6877,13 @@
         <v>366</v>
       </c>
       <c r="B364">
-        <v>43922.5</v>
+        <v>42465</v>
       </c>
       <c r="C364">
-        <v>44236.5124846356</v>
+        <v>44113.57820828517</v>
       </c>
       <c r="D364">
-        <v>-314.0124846356048</v>
+        <v>-1648.578208285173</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6891,13 +6891,13 @@
         <v>367</v>
       </c>
       <c r="B365">
-        <v>42465</v>
+        <v>39137.5</v>
       </c>
       <c r="C365">
-        <v>44160.30723082853</v>
+        <v>42691.9337153169</v>
       </c>
       <c r="D365">
-        <v>-1695.307230828534</v>
+        <v>-3554.433715316896</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6905,13 +6905,13 @@
         <v>368</v>
       </c>
       <c r="B366">
-        <v>39137.5</v>
+        <v>39396.4</v>
       </c>
       <c r="C366">
-        <v>42713.65037472511</v>
+        <v>39766.00588716513</v>
       </c>
       <c r="D366">
-        <v>-3576.150374725112</v>
+        <v>-369.605887165133</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6919,13 +6919,13 @@
         <v>369</v>
       </c>
       <c r="B367">
-        <v>39396.4</v>
+        <v>38416.3</v>
       </c>
       <c r="C367">
-        <v>39764.77274210571</v>
+        <v>39245.29121389938</v>
       </c>
       <c r="D367">
-        <v>-368.3727421057047</v>
+        <v>-828.991213899375</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6933,13 +6933,13 @@
         <v>370</v>
       </c>
       <c r="B368">
-        <v>38416.3</v>
+        <v>38024</v>
       </c>
       <c r="C368">
-        <v>39236.11759259427</v>
+        <v>38621.81277210099</v>
       </c>
       <c r="D368">
-        <v>-819.8175925942633</v>
+        <v>-597.8127721009878</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6947,13 +6947,13 @@
         <v>371</v>
       </c>
       <c r="B369">
-        <v>38024</v>
+        <v>38752.6</v>
       </c>
       <c r="C369">
-        <v>38604.73592963538</v>
+        <v>38153.58310124845</v>
       </c>
       <c r="D369">
-        <v>-580.7359296353825</v>
+        <v>599.0168987515499</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6961,13 +6961,13 @@
         <v>372</v>
       </c>
       <c r="B370">
-        <v>38752.6</v>
+        <v>41965.3</v>
       </c>
       <c r="C370">
-        <v>38134.46783445621</v>
+        <v>38665.58288393926</v>
       </c>
       <c r="D370">
-        <v>618.132165543786</v>
+        <v>3299.717116060747</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6975,13 +6975,13 @@
         <v>373</v>
       </c>
       <c r="B371">
-        <v>41965.3</v>
+        <v>39435.8</v>
       </c>
       <c r="C371">
-        <v>38655.58932944963</v>
+        <v>41320.61334498924</v>
       </c>
       <c r="D371">
-        <v>3309.710670550368</v>
+        <v>-1884.813344989241</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6989,13 +6989,13 @@
         <v>374</v>
       </c>
       <c r="B372">
-        <v>39435.8</v>
+        <v>38732.1</v>
       </c>
       <c r="C372">
-        <v>41342.89351999457</v>
+        <v>39798.66447442781</v>
       </c>
       <c r="D372">
-        <v>-1907.093519994567</v>
+        <v>-1066.564474427811</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7003,13 +7003,13 @@
         <v>375</v>
       </c>
       <c r="B373">
-        <v>38732.1</v>
+        <v>38785</v>
       </c>
       <c r="C373">
-        <v>39807.36745144796</v>
+        <v>38917.39227259999</v>
       </c>
       <c r="D373">
-        <v>-1075.267451447966</v>
+        <v>-132.3922725999946</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7017,13 +7017,13 @@
         <v>376</v>
       </c>
       <c r="B374">
-        <v>38785</v>
+        <v>37788.4</v>
       </c>
       <c r="C374">
-        <v>38924.73509947298</v>
+        <v>38861.49841250074</v>
       </c>
       <c r="D374">
-        <v>-139.7350994729786</v>
+        <v>-1073.098412500738</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7031,13 +7031,13 @@
         <v>377</v>
       </c>
       <c r="B375">
-        <v>37788.4</v>
+        <v>39689.2</v>
       </c>
       <c r="C375">
-        <v>38869.44892430858</v>
+        <v>38002.72532165574</v>
       </c>
       <c r="D375">
-        <v>-1081.048924308583</v>
+        <v>1686.474678344261</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7045,13 +7045,13 @@
         <v>378</v>
       </c>
       <c r="B376">
-        <v>39689.2</v>
+        <v>39325.4</v>
       </c>
       <c r="C376">
-        <v>38004.58806459044</v>
+        <v>39165.24839742757</v>
       </c>
       <c r="D376">
-        <v>1684.611935409557</v>
+        <v>160.1516025724268</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7059,13 +7059,13 @@
         <v>379</v>
       </c>
       <c r="B377">
-        <v>39325.4</v>
+        <v>41124</v>
       </c>
       <c r="C377">
-        <v>39180.69252354509</v>
+        <v>39099.54441634393</v>
       </c>
       <c r="D377">
-        <v>144.7074764549106</v>
+        <v>2024.455583656068</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7073,13 +7073,13 @@
         <v>380</v>
       </c>
       <c r="B378">
-        <v>41124</v>
+        <v>40945.6</v>
       </c>
       <c r="C378">
-        <v>39109.53955256226</v>
+        <v>40652.11256766679</v>
       </c>
       <c r="D378">
-        <v>2014.460447437741</v>
+        <v>293.4874323332042</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7087,13 +7087,13 @@
         <v>381</v>
       </c>
       <c r="B379">
-        <v>40945.6</v>
+        <v>41775.1</v>
       </c>
       <c r="C379">
-        <v>40682.97050843859</v>
+        <v>40918.70858557906</v>
       </c>
       <c r="D379">
-        <v>262.6294915614053</v>
+        <v>856.3914144209411</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7101,13 +7101,13 @@
         <v>382</v>
       </c>
       <c r="B380">
-        <v>41775.1</v>
+        <v>42218</v>
       </c>
       <c r="C380">
-        <v>40938.29512457814</v>
+        <v>41487.65277811806</v>
       </c>
       <c r="D380">
-        <v>836.8048754218544</v>
+        <v>730.3472218819443</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7115,13 +7115,13 @@
         <v>383</v>
       </c>
       <c r="B381">
-        <v>42218</v>
+        <v>41289</v>
       </c>
       <c r="C381">
-        <v>41512.22155726157</v>
+        <v>42047.44719174541</v>
       </c>
       <c r="D381">
-        <v>705.7784427384322</v>
+        <v>-758.4471917454139</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7129,13 +7129,13 @@
         <v>384</v>
       </c>
       <c r="B382">
-        <v>41289</v>
+        <v>41014.3</v>
       </c>
       <c r="C382">
-        <v>42067.83571476702</v>
+        <v>41415.60549654785</v>
       </c>
       <c r="D382">
-        <v>-778.8357147670176</v>
+        <v>-401.3054965478441</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7143,13 +7143,13 @@
         <v>385</v>
       </c>
       <c r="B383">
-        <v>41014.3</v>
+        <v>42377.8</v>
       </c>
       <c r="C383">
-        <v>41423.21894282816</v>
+        <v>41006.80133115418</v>
       </c>
       <c r="D383">
-        <v>-408.9189428281534</v>
+        <v>1370.998668845823</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7157,13 +7157,13 @@
         <v>386</v>
       </c>
       <c r="B384">
-        <v>42377.8</v>
+        <v>42910.3</v>
       </c>
       <c r="C384">
-        <v>41005.24842773541</v>
+        <v>42275.05795298449</v>
       </c>
       <c r="D384">
-        <v>1372.551572264594</v>
+        <v>635.2420470155121</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7171,13 +7171,13 @@
         <v>387</v>
       </c>
       <c r="B385">
-        <v>42910.3</v>
+        <v>43989</v>
       </c>
       <c r="C385">
-        <v>42280.71562521195</v>
+        <v>42700.79969752882</v>
       </c>
       <c r="D385">
-        <v>629.5843747880572</v>
+        <v>1288.200302471181</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7185,13 +7185,13 @@
         <v>388</v>
       </c>
       <c r="B386">
-        <v>43989</v>
+        <v>44315.5</v>
       </c>
       <c r="C386">
-        <v>42700.6552333328</v>
+        <v>43757.42620109845</v>
       </c>
       <c r="D386">
-        <v>1288.3447666672</v>
+        <v>558.0737989015543</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7199,13 +7199,13 @@
         <v>389</v>
       </c>
       <c r="B387">
-        <v>44315.5</v>
+        <v>44548</v>
       </c>
       <c r="C387">
-        <v>43760.28143651722</v>
+        <v>44407.54642368227</v>
       </c>
       <c r="D387">
-        <v>555.2185634827765</v>
+        <v>140.4535763177337</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7213,13 +7213,13 @@
         <v>390</v>
       </c>
       <c r="B388">
-        <v>44548</v>
+        <v>46855.2</v>
       </c>
       <c r="C388">
-        <v>44418.0189958034</v>
+        <v>44572.43978007108</v>
       </c>
       <c r="D388">
-        <v>129.9810041965975</v>
+        <v>2282.760219928918</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7227,13 +7227,13 @@
         <v>391</v>
       </c>
       <c r="B389">
-        <v>46855.2</v>
+        <v>47137.9</v>
       </c>
       <c r="C389">
-        <v>44572.96915280912</v>
+        <v>46373.06417754001</v>
       </c>
       <c r="D389">
-        <v>2282.230847190876</v>
+        <v>764.8358224599942</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7241,13 +7241,13 @@
         <v>392</v>
       </c>
       <c r="B390">
-        <v>47137.9</v>
+        <v>47440.2</v>
       </c>
       <c r="C390">
-        <v>46382.44490380472</v>
+        <v>47414.55263951164</v>
       </c>
       <c r="D390">
-        <v>755.4550961952846</v>
+        <v>25.64736048835766</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7255,13 +7255,13 @@
         <v>393</v>
       </c>
       <c r="B391">
-        <v>47440.2</v>
+        <v>47059.3</v>
       </c>
       <c r="C391">
-        <v>47434.5608050701</v>
+        <v>47595.29171772999</v>
       </c>
       <c r="D391">
-        <v>5.639194929899531</v>
+        <v>-535.9917177299867</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7269,13 +7269,13 @@
         <v>394</v>
       </c>
       <c r="B392">
-        <v>47059.3</v>
+        <v>45524.3</v>
       </c>
       <c r="C392">
-        <v>47596.19461358091</v>
+        <v>47217.60540018233</v>
       </c>
       <c r="D392">
-        <v>-536.8946135809092</v>
+        <v>-1693.305400182326</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7283,13 +7283,13 @@
         <v>395</v>
       </c>
       <c r="B393">
-        <v>45524.3</v>
+        <v>46312</v>
       </c>
       <c r="C393">
-        <v>47207.095258724</v>
+        <v>46040.49114940638</v>
       </c>
       <c r="D393">
-        <v>-1682.795258724</v>
+        <v>271.5088505936219</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7297,13 +7297,13 @@
         <v>396</v>
       </c>
       <c r="B394">
-        <v>46312</v>
+        <v>45828.6</v>
       </c>
       <c r="C394">
-        <v>46020.28371402077</v>
+        <v>46016.67180766924</v>
       </c>
       <c r="D394">
-        <v>291.7162859792297</v>
+        <v>-188.0718076692428</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7311,13 +7311,13 @@
         <v>397</v>
       </c>
       <c r="B395">
-        <v>45828.6</v>
+        <v>46423.4</v>
       </c>
       <c r="C395">
-        <v>46000.59055135603</v>
+        <v>46176.42601072249</v>
       </c>
       <c r="D395">
-        <v>-171.9905513560298</v>
+        <v>246.9739892775106</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7325,13 +7325,13 @@
         <v>398</v>
       </c>
       <c r="B396">
-        <v>46423.4</v>
+        <v>46617.1</v>
       </c>
       <c r="C396">
-        <v>46160.16319485151</v>
+        <v>46512.48977262811</v>
       </c>
       <c r="D396">
-        <v>263.2368051484882</v>
+        <v>104.6102273718861</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7339,13 +7339,13 @@
         <v>399</v>
       </c>
       <c r="B397">
-        <v>46617.1</v>
+        <v>45479.2</v>
       </c>
       <c r="C397">
-        <v>46499.66393759509</v>
+        <v>46371.30184411545</v>
       </c>
       <c r="D397">
-        <v>117.4360624049077</v>
+        <v>-892.101844115452</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7353,13 +7353,13 @@
         <v>400</v>
       </c>
       <c r="B398">
-        <v>45479.2</v>
+        <v>43179.4</v>
       </c>
       <c r="C398">
-        <v>46360.2167164791</v>
+        <v>45857.59475389271</v>
       </c>
       <c r="D398">
-        <v>-881.0167164791055</v>
+        <v>-2678.194753892705</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7367,13 +7367,13 @@
         <v>401</v>
       </c>
       <c r="B399">
-        <v>43179.4</v>
+        <v>43469.8</v>
       </c>
       <c r="C399">
-        <v>45848.59870193683</v>
+        <v>43695.86218792493</v>
       </c>
       <c r="D399">
-        <v>-2669.198701936832</v>
+        <v>-226.0621879249302</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7381,13 +7381,13 @@
         <v>402</v>
       </c>
       <c r="B400">
-        <v>43469.8</v>
+        <v>42282.6</v>
       </c>
       <c r="C400">
-        <v>43682.3631397846</v>
+        <v>43370.18042341834</v>
       </c>
       <c r="D400">
-        <v>-212.5631397846009</v>
+        <v>-1087.580423418345</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7395,13 +7395,13 @@
         <v>403</v>
       </c>
       <c r="B401">
-        <v>42282.6</v>
+        <v>42764</v>
       </c>
       <c r="C401">
-        <v>43361.08033292642</v>
+        <v>42569.29966556638</v>
       </c>
       <c r="D401">
-        <v>-1078.480332926418</v>
+        <v>194.700334433619</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7409,13 +7409,13 @@
         <v>404</v>
       </c>
       <c r="B402">
-        <v>42764</v>
+        <v>42160</v>
       </c>
       <c r="C402">
-        <v>42560.54987368541</v>
+        <v>42533.75182486555</v>
       </c>
       <c r="D402">
-        <v>203.4501263145939</v>
+        <v>-373.751824865547</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7423,13 +7423,13 @@
         <v>405</v>
       </c>
       <c r="B403">
-        <v>42160</v>
+        <v>39534.6</v>
       </c>
       <c r="C403">
-        <v>42529.59863208604</v>
+        <v>42248.85511386525</v>
       </c>
       <c r="D403">
-        <v>-369.5986320860393</v>
+        <v>-2714.255113865249</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7437,13 +7437,13 @@
         <v>406</v>
       </c>
       <c r="B404">
-        <v>39534.6</v>
+        <v>40078.7</v>
       </c>
       <c r="C404">
-        <v>42249.90624556504</v>
+        <v>39978.43692462247</v>
       </c>
       <c r="D404">
-        <v>-2715.306245565043</v>
+        <v>100.2630753775229</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7451,13 +7451,13 @@
         <v>407</v>
       </c>
       <c r="B405">
-        <v>40078.7</v>
+        <v>41150</v>
       </c>
       <c r="C405">
-        <v>39976.48650719179</v>
+        <v>39866.18180058701</v>
       </c>
       <c r="D405">
-        <v>102.2134928082087</v>
+        <v>1283.818199412992</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7465,13 +7465,13 @@
         <v>408</v>
       </c>
       <c r="B406">
-        <v>41150</v>
+        <v>39954.9</v>
       </c>
       <c r="C406">
-        <v>39877.30580948933</v>
+        <v>40710.71298573058</v>
       </c>
       <c r="D406">
-        <v>1272.694190510665</v>
+        <v>-755.8129857305757</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7479,13 +7479,13 @@
         <v>409</v>
       </c>
       <c r="B407">
-        <v>39954.9</v>
+        <v>40569.9</v>
       </c>
       <c r="C407">
-        <v>40733.77219604247</v>
+        <v>40033.48214712828</v>
       </c>
       <c r="D407">
-        <v>-778.8721960424664</v>
+        <v>536.4178528717166</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7493,13 +7493,13 @@
         <v>410</v>
       </c>
       <c r="B408">
-        <v>40569.9</v>
+        <v>40381</v>
       </c>
       <c r="C408">
-        <v>40054.12097989576</v>
+        <v>40273.93689989924</v>
       </c>
       <c r="D408">
-        <v>515.7790201042444</v>
+        <v>107.0631001007641</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7507,13 +7507,13 @@
         <v>411</v>
       </c>
       <c r="B409">
-        <v>40381</v>
+        <v>39681.2</v>
       </c>
       <c r="C409">
-        <v>40300.08015106563</v>
+        <v>40180.3930804312</v>
       </c>
       <c r="D409">
-        <v>80.91984893436893</v>
+        <v>-499.1930804312069</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7521,13 +7521,13 @@
         <v>412</v>
       </c>
       <c r="B410">
-        <v>39681.2</v>
+        <v>40811.3</v>
       </c>
       <c r="C410">
-        <v>40205.11588925109</v>
+        <v>39686.31883096293</v>
       </c>
       <c r="D410">
-        <v>-523.9158892510895</v>
+        <v>1124.981169037077</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7535,13 +7535,13 @@
         <v>413</v>
       </c>
       <c r="B411">
-        <v>40811.3</v>
+        <v>41506.2</v>
       </c>
       <c r="C411">
-        <v>39708.38989676462</v>
+        <v>40180.40261215829</v>
       </c>
       <c r="D411">
-        <v>1102.910103235379</v>
+        <v>1325.797387841703</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7549,13 +7549,13 @@
         <v>414</v>
       </c>
       <c r="B412">
-        <v>41506.2</v>
+        <v>41369.9</v>
       </c>
       <c r="C412">
-        <v>40207.70957394183</v>
+        <v>41218.07826169693</v>
       </c>
       <c r="D412">
-        <v>1298.490426058168</v>
+        <v>151.8217383030715</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7563,13 +7563,13 @@
         <v>415</v>
       </c>
       <c r="B413">
-        <v>41369.9</v>
+        <v>40484.1</v>
       </c>
       <c r="C413">
-        <v>41248.03874198726</v>
+        <v>41325.73980283786</v>
       </c>
       <c r="D413">
-        <v>121.8612580127447</v>
+        <v>-841.6398028378608</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7577,13 +7577,13 @@
         <v>416</v>
       </c>
       <c r="B414">
-        <v>40484.1</v>
+        <v>39715.9</v>
       </c>
       <c r="C414">
-        <v>41351.18216154803</v>
+        <v>40764.04080378843</v>
       </c>
       <c r="D414">
-        <v>-867.0821615480309</v>
+        <v>-1048.140803788425</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7591,13 +7591,13 @@
         <v>417</v>
       </c>
       <c r="B415">
-        <v>39715.9</v>
+        <v>39435.6</v>
       </c>
       <c r="C415">
-        <v>40784.25487884527</v>
+        <v>39713.77564086799</v>
       </c>
       <c r="D415">
-        <v>-1068.354878845268</v>
+        <v>-278.1756408679939</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7605,13 +7605,13 @@
         <v>418</v>
       </c>
       <c r="B416">
-        <v>39435.6</v>
+        <v>39467.9</v>
       </c>
       <c r="C416">
-        <v>39723.86707487924</v>
+        <v>39414.06813165059</v>
       </c>
       <c r="D416">
-        <v>-288.267074879237</v>
+        <v>53.83186834941444</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7619,13 +7619,13 @@
         <v>419</v>
       </c>
       <c r="B417">
-        <v>39467.9</v>
+        <v>40438.5</v>
       </c>
       <c r="C417">
-        <v>39417.80010976925</v>
+        <v>39358.79052809439</v>
       </c>
       <c r="D417">
-        <v>50.09989023075468</v>
+        <v>1079.709471905611</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7633,13 +7633,13 @@
         <v>420</v>
       </c>
       <c r="B418">
-        <v>40438.5</v>
+        <v>38121.7</v>
       </c>
       <c r="C418">
-        <v>39359.17892100677</v>
+        <v>39869.8482229014</v>
       </c>
       <c r="D418">
-        <v>1079.321078993235</v>
+        <v>-1748.1482229014</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7647,13 +7647,13 @@
         <v>421</v>
       </c>
       <c r="B419">
-        <v>38121.7</v>
+        <v>39249.9</v>
       </c>
       <c r="C419">
-        <v>39875.33812092501</v>
+        <v>38521.16101711467</v>
       </c>
       <c r="D419">
-        <v>-1753.63812092501</v>
+        <v>728.7389828853338</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7661,13 +7661,13 @@
         <v>422</v>
       </c>
       <c r="B420">
-        <v>39249.9</v>
+        <v>39752.8</v>
       </c>
       <c r="C420">
-        <v>38517.37895445249</v>
+        <v>38881.98566199626</v>
       </c>
       <c r="D420">
-        <v>732.5210455475099</v>
+        <v>870.8143380037436</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7675,13 +7675,13 @@
         <v>423</v>
       </c>
       <c r="B421">
-        <v>39752.8</v>
+        <v>38599.5</v>
       </c>
       <c r="C421">
-        <v>38886.42940972338</v>
+        <v>39598.61017739324</v>
       </c>
       <c r="D421">
-        <v>866.3705902766233</v>
+        <v>-999.1101773932387</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7689,13 +7689,13 @@
         <v>424</v>
       </c>
       <c r="B422">
-        <v>38599.5</v>
+        <v>37660.8</v>
       </c>
       <c r="C422">
-        <v>39608.12905594951</v>
+        <v>38700.49579672654</v>
       </c>
       <c r="D422">
-        <v>-1008.62905594951</v>
+        <v>-1039.695796726541</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7703,13 +7703,13 @@
         <v>425</v>
       </c>
       <c r="B423">
-        <v>37660.8</v>
+        <v>38474.1</v>
       </c>
       <c r="C423">
-        <v>38701.95017545254</v>
+        <v>37797.27230089998</v>
       </c>
       <c r="D423">
-        <v>-1041.150175452538</v>
+        <v>676.8276991000166</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7717,13 +7717,13 @@
         <v>426</v>
       </c>
       <c r="B424">
-        <v>38474.1</v>
+        <v>38499.9</v>
       </c>
       <c r="C424">
-        <v>37793.59082722611</v>
+        <v>38159.82493910088</v>
       </c>
       <c r="D424">
-        <v>680.5091727738836</v>
+        <v>340.075060899122</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7731,13 +7731,13 @@
         <v>427</v>
       </c>
       <c r="B425">
-        <v>38499.9</v>
+        <v>37727.9</v>
       </c>
       <c r="C425">
-        <v>38163.72207782892</v>
+        <v>38437.36840891482</v>
       </c>
       <c r="D425">
-        <v>336.1779221710822</v>
+        <v>-709.4684089148213</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7745,13 +7745,13 @@
         <v>428</v>
       </c>
       <c r="B426">
-        <v>37727.9</v>
+        <v>39682.8</v>
       </c>
       <c r="C426">
-        <v>38443.6365400145</v>
+        <v>37787.26114037775</v>
       </c>
       <c r="D426">
-        <v>-715.736540014499</v>
+        <v>1895.538859622255</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7759,13 +7759,13 @@
         <v>429</v>
       </c>
       <c r="B427">
-        <v>39682.8</v>
+        <v>36542.6</v>
       </c>
       <c r="C427">
-        <v>37785.46611666691</v>
+        <v>39194.2349218185</v>
       </c>
       <c r="D427">
-        <v>1897.333883333093</v>
+        <v>-2651.634921818506</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7773,13 +7773,13 @@
         <v>430</v>
       </c>
       <c r="B428">
-        <v>36542.6</v>
+        <v>36017.4</v>
       </c>
       <c r="C428">
-        <v>39209.09918271677</v>
+        <v>36906.80010069187</v>
       </c>
       <c r="D428">
-        <v>-2666.499182716776</v>
+        <v>-889.4001006918697</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7787,13 +7787,13 @@
         <v>431</v>
       </c>
       <c r="B429">
-        <v>36017.4</v>
+        <v>35463</v>
       </c>
       <c r="C429">
-        <v>36903.56601298842</v>
+        <v>35873.08880099761</v>
       </c>
       <c r="D429">
-        <v>-886.1660129884185</v>
+        <v>-410.0888009976115</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7801,13 +7801,13 @@
         <v>432</v>
       </c>
       <c r="B430">
-        <v>35463</v>
+        <v>34024.2</v>
       </c>
       <c r="C430">
-        <v>35869.47876620624</v>
+        <v>35310.17267664705</v>
       </c>
       <c r="D430">
-        <v>-406.4787662062445</v>
+        <v>-1285.972676647049</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7815,13 +7815,13 @@
         <v>433</v>
       </c>
       <c r="B431">
-        <v>34024.2</v>
+        <v>30075.5</v>
       </c>
       <c r="C431">
-        <v>35304.83906820271</v>
+        <v>34139.88186869583</v>
       </c>
       <c r="D431">
-        <v>-1280.639068202712</v>
+        <v>-4064.381868695833</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7829,13 +7829,13 @@
         <v>434</v>
       </c>
       <c r="B432">
-        <v>30075.5</v>
+        <v>30999.9</v>
       </c>
       <c r="C432">
-        <v>34132.53468390691</v>
+        <v>30853.26346431817</v>
       </c>
       <c r="D432">
-        <v>-4057.03468390691</v>
+        <v>146.6365356818278</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7843,13 +7843,13 @@
         <v>435</v>
       </c>
       <c r="B433">
-        <v>30999.9</v>
+        <v>28994.1</v>
       </c>
       <c r="C433">
-        <v>30838.18062166873</v>
+        <v>30927.71622452311</v>
       </c>
       <c r="D433">
-        <v>161.7193783312723</v>
+        <v>-1933.61622452311</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7857,13 +7857,13 @@
         <v>436</v>
       </c>
       <c r="B434">
-        <v>28994.1</v>
+        <v>28943.4</v>
       </c>
       <c r="C434">
-        <v>30932.33005216113</v>
+        <v>29238.11205381786</v>
       </c>
       <c r="D434">
-        <v>-1938.230052161129</v>
+        <v>-294.7120538178569</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7871,13 +7871,13 @@
         <v>437</v>
       </c>
       <c r="B435">
-        <v>28943.4</v>
+        <v>29222.6</v>
       </c>
       <c r="C435">
-        <v>29242.8436895684</v>
+        <v>28182.69552877594</v>
       </c>
       <c r="D435">
-        <v>-299.4436895684012</v>
+        <v>1039.904471224057</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7885,13 +7885,13 @@
         <v>438</v>
       </c>
       <c r="B436">
-        <v>29222.6</v>
+        <v>30048.2</v>
       </c>
       <c r="C436">
-        <v>28190.23819860691</v>
+        <v>29275.62993062982</v>
       </c>
       <c r="D436">
-        <v>1032.361801393086</v>
+        <v>772.5700693701765</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7899,13 +7899,13 @@
         <v>439</v>
       </c>
       <c r="B437">
-        <v>30048.2</v>
+        <v>31296.9</v>
       </c>
       <c r="C437">
-        <v>29299.84103100747</v>
+        <v>29545.41526412562</v>
       </c>
       <c r="D437">
-        <v>748.3589689925284</v>
+        <v>1751.484735874386</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7913,13 +7913,13 @@
         <v>440</v>
       </c>
       <c r="B438">
-        <v>31296.9</v>
+        <v>29826.1</v>
       </c>
       <c r="C438">
-        <v>29576.11286557303</v>
+        <v>30674.90070803678</v>
       </c>
       <c r="D438">
-        <v>1720.78713442697</v>
+        <v>-848.8007080367825</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7927,13 +7927,13 @@
         <v>441</v>
       </c>
       <c r="B439">
-        <v>29826.1</v>
+        <v>30408.3</v>
       </c>
       <c r="C439">
-        <v>30716.17836193781</v>
+        <v>29783.17452251759</v>
       </c>
       <c r="D439">
-        <v>-890.0783619378162</v>
+        <v>625.1254774824083</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -7941,13 +7941,13 @@
         <v>442</v>
       </c>
       <c r="B440">
-        <v>30408.3</v>
+        <v>28664.3</v>
       </c>
       <c r="C440">
-        <v>29816.91283155096</v>
+        <v>30046.43091049411</v>
       </c>
       <c r="D440">
-        <v>591.3871684490368</v>
+        <v>-1382.130910494114</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7955,13 +7955,13 @@
         <v>443</v>
       </c>
       <c r="B441">
-        <v>28664.3</v>
+        <v>30280.7</v>
       </c>
       <c r="C441">
-        <v>30084.05615799659</v>
+        <v>28895.4838204817</v>
       </c>
       <c r="D441">
-        <v>-1419.756157996591</v>
+        <v>1385.216179518302</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -7969,13 +7969,13 @@
         <v>444</v>
       </c>
       <c r="B442">
-        <v>30280.7</v>
+        <v>29167.5</v>
       </c>
       <c r="C442">
-        <v>28917.57375253277</v>
+        <v>29763.56010801123</v>
       </c>
       <c r="D442">
-        <v>1363.126247467226</v>
+        <v>-596.0601080112319</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7983,13 +7983,13 @@
         <v>445</v>
       </c>
       <c r="B443">
-        <v>29167.5</v>
+        <v>29403.5</v>
       </c>
       <c r="C443">
-        <v>29790.59529318395</v>
+        <v>29223.84957200712</v>
       </c>
       <c r="D443">
-        <v>-623.0952931839456</v>
+        <v>179.6504279928849</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -7997,13 +7997,13 @@
         <v>446</v>
       </c>
       <c r="B444">
-        <v>29403.5</v>
+        <v>30268</v>
       </c>
       <c r="C444">
-        <v>29238.43556151484</v>
+        <v>29167.60167931757</v>
       </c>
       <c r="D444">
-        <v>165.0644384851585</v>
+        <v>1100.398320682427</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8011,13 +8011,13 @@
         <v>447</v>
       </c>
       <c r="B445">
-        <v>30268</v>
+        <v>29070</v>
       </c>
       <c r="C445">
-        <v>29176.89606116097</v>
+        <v>29917.33689725829</v>
       </c>
       <c r="D445">
-        <v>1091.103938839031</v>
+        <v>-847.3368972582903</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8025,13 +8025,13 @@
         <v>448</v>
       </c>
       <c r="B446">
-        <v>29070</v>
+        <v>29631.8</v>
       </c>
       <c r="C446">
-        <v>29928.93506266877</v>
+        <v>29230.52903690513</v>
       </c>
       <c r="D446">
-        <v>-858.9350626687701</v>
+        <v>401.2709630948702</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8039,13 +8039,13 @@
         <v>449</v>
       </c>
       <c r="B447">
-        <v>29631.8</v>
+        <v>29520.3</v>
       </c>
       <c r="C447">
-        <v>29234.26311478739</v>
+        <v>29318.72323091047</v>
       </c>
       <c r="D447">
-        <v>397.5368852126048</v>
+        <v>201.5767690895336</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8053,13 +8053,13 @@
         <v>450</v>
       </c>
       <c r="B448">
-        <v>29520.3</v>
+        <v>29186.9</v>
       </c>
       <c r="C448">
-        <v>29322.39265007955</v>
+        <v>29521.71614078436</v>
       </c>
       <c r="D448">
-        <v>197.907349920446</v>
+        <v>-334.8161407843581</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8067,13 +8067,13 @@
         <v>451</v>
       </c>
       <c r="B449">
-        <v>29186.9</v>
+        <v>28580</v>
       </c>
       <c r="C449">
-        <v>29522.30736898554</v>
+        <v>28849.6881662313</v>
       </c>
       <c r="D449">
-        <v>-335.4073689855395</v>
+        <v>-269.6881662313026</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8081,13 +8081,13 @@
         <v>452</v>
       </c>
       <c r="B450">
-        <v>28580</v>
+        <v>29020</v>
       </c>
       <c r="C450">
-        <v>28844.6487724834</v>
+        <v>28611.5030193279</v>
       </c>
       <c r="D450">
-        <v>-264.6487724834042</v>
+        <v>408.4969806720983</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8095,13 +8095,13 @@
         <v>453</v>
       </c>
       <c r="B451">
-        <v>29020</v>
+        <v>29450.4</v>
       </c>
       <c r="C451">
-        <v>28603.538274038</v>
+        <v>28868.21077021909</v>
       </c>
       <c r="D451">
-        <v>416.4617259619954</v>
+        <v>582.18922978091</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8109,13 +8109,13 @@
         <v>454</v>
       </c>
       <c r="B452">
-        <v>29450.4</v>
+        <v>31711.7</v>
       </c>
       <c r="C452">
-        <v>28859.80646385327</v>
+        <v>29250.38551248996</v>
       </c>
       <c r="D452">
-        <v>590.5935361467309</v>
+        <v>2461.314487510037</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8123,13 +8123,13 @@
         <v>455</v>
       </c>
       <c r="B453">
-        <v>31711.7</v>
+        <v>31780.9</v>
       </c>
       <c r="C453">
-        <v>29244.16812239234</v>
+        <v>31198.90334052231</v>
       </c>
       <c r="D453">
-        <v>2467.53187760766</v>
+        <v>581.9966594776924</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8137,13 +8137,13 @@
         <v>456</v>
       </c>
       <c r="B454">
-        <v>31780.9</v>
+        <v>29790</v>
       </c>
       <c r="C454">
-        <v>31210.45506065575</v>
+        <v>31759.19978946653</v>
       </c>
       <c r="D454">
-        <v>570.4449393442519</v>
+        <v>-1969.199789466533</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8151,13 +8151,13 @@
         <v>457</v>
       </c>
       <c r="B455">
-        <v>29790</v>
+        <v>30427</v>
       </c>
       <c r="C455">
-        <v>31770.44574755599</v>
+        <v>30129.42191167846</v>
       </c>
       <c r="D455">
-        <v>-1980.445747555994</v>
+        <v>297.5780883215411</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8165,13 +8165,13 @@
         <v>458</v>
       </c>
       <c r="B456">
-        <v>30427</v>
+        <v>29676.4</v>
       </c>
       <c r="C456">
-        <v>30125.78790265251</v>
+        <v>30413.59415421476</v>
       </c>
       <c r="D456">
-        <v>301.2120973474921</v>
+        <v>-737.1941542147542</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8179,13 +8179,13 @@
         <v>459</v>
       </c>
       <c r="B457">
-        <v>29676.4</v>
+        <v>29850</v>
       </c>
       <c r="C457">
-        <v>30412.87826572091</v>
+        <v>29752.70721131897</v>
       </c>
       <c r="D457">
-        <v>-736.4782657209107</v>
+        <v>97.29278868102847</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8193,13 +8193,13 @@
         <v>460</v>
       </c>
       <c r="B458">
-        <v>29850</v>
+        <v>29907.6</v>
       </c>
       <c r="C458">
-        <v>29743.68916193852</v>
+        <v>29734.10670867412</v>
       </c>
       <c r="D458">
-        <v>106.3108380614831</v>
+        <v>173.4932913258817</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8207,13 +8207,13 @@
         <v>461</v>
       </c>
       <c r="B459">
-        <v>29907.6</v>
+        <v>31356.3</v>
       </c>
       <c r="C459">
-        <v>29722.52905376681</v>
+        <v>29827.48758903849</v>
       </c>
       <c r="D459">
-        <v>185.0709462331906</v>
+        <v>1528.812410961506</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8221,13 +8221,13 @@
         <v>462</v>
       </c>
       <c r="B460">
-        <v>31356.3</v>
+        <v>31098.6</v>
       </c>
       <c r="C460">
-        <v>29815.05548825722</v>
+        <v>31054.62954224477</v>
       </c>
       <c r="D460">
-        <v>1541.244511742778</v>
+        <v>43.97045775523293</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8235,13 +8235,13 @@
         <v>463</v>
       </c>
       <c r="B461">
-        <v>31098.6</v>
+        <v>30190.8</v>
       </c>
       <c r="C461">
-        <v>31053.37807685628</v>
+        <v>30722.05960824386</v>
       </c>
       <c r="D461">
-        <v>45.22192314372296</v>
+        <v>-531.2596082438649</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8249,13 +8249,13 @@
         <v>464</v>
       </c>
       <c r="B462">
-        <v>30190.8</v>
+        <v>30075.3</v>
       </c>
       <c r="C462">
-        <v>30719.14889352014</v>
+        <v>30328.41796509842</v>
       </c>
       <c r="D462">
-        <v>-528.3488935201385</v>
+        <v>-253.1179650984232</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8263,13 +8263,13 @@
         <v>465</v>
       </c>
       <c r="B463">
-        <v>30075.3</v>
+        <v>29054.9</v>
       </c>
       <c r="C463">
-        <v>30322.97782273821</v>
+        <v>30125.33435519091</v>
       </c>
       <c r="D463">
-        <v>-247.6778227382092</v>
+        <v>-1070.434355190911</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8277,13 +8277,13 @@
         <v>466</v>
       </c>
       <c r="B464">
-        <v>29054.9</v>
+        <v>28380.2</v>
       </c>
       <c r="C464">
-        <v>30120.53113278645</v>
+        <v>29252.1984724529</v>
       </c>
       <c r="D464">
-        <v>-1065.63113278645</v>
+        <v>-871.9984724528949</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8291,13 +8291,13 @@
         <v>467</v>
       </c>
       <c r="B465">
-        <v>28380.2</v>
+        <v>26569.6</v>
       </c>
       <c r="C465">
-        <v>29241.84903417512</v>
+        <v>28497.7115509856</v>
       </c>
       <c r="D465">
-        <v>-861.6490341751196</v>
+        <v>-1928.111550985603</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8305,13 +8305,13 @@
         <v>468</v>
       </c>
       <c r="B466">
-        <v>26569.6</v>
+        <v>22460.1</v>
       </c>
       <c r="C466">
-        <v>28485.75010757117</v>
+        <v>26924.50145030123</v>
       </c>
       <c r="D466">
-        <v>-1916.150107571168</v>
+        <v>-4464.401450301229</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8319,13 +8319,13 @@
         <v>469</v>
       </c>
       <c r="B467">
-        <v>22460.1</v>
+        <v>22111</v>
       </c>
       <c r="C467">
-        <v>26906.1530651821</v>
+        <v>23276.65417338744</v>
       </c>
       <c r="D467">
-        <v>-4446.053065182099</v>
+        <v>-1165.65417338744</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8333,13 +8333,13 @@
         <v>470</v>
       </c>
       <c r="B468">
-        <v>22111</v>
+        <v>22559.6</v>
       </c>
       <c r="C468">
-        <v>23256.27616702264</v>
+        <v>21992.60832447121</v>
       </c>
       <c r="D468">
-        <v>-1145.276167022635</v>
+        <v>566.991675528785</v>
       </c>
     </row>
   </sheetData>

--- a/data/df_compare.xlsx
+++ b/data/df_compare.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="472">
   <si>
     <t>actual_price</t>
   </si>
@@ -1427,6 +1427,9 @@
   </si>
   <si>
     <t>2022-06-15</t>
+  </si>
+  <si>
+    <t>2022-06-16</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1787,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D468"/>
+  <dimension ref="A1:D469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8342,6 +8345,20 @@
         <v>566.991675528785</v>
       </c>
     </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B469">
+        <v>20366.3</v>
+      </c>
+      <c r="C469">
+        <v>21938.28206863417</v>
+      </c>
+      <c r="D469">
+        <v>-1571.982068634166</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/df_compare.xlsx
+++ b/data/df_compare.xlsx
@@ -28,9 +28,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>2021-03-06</t>
-  </si>
-  <si>
     <t>2021-03-07</t>
   </si>
   <si>
@@ -1430,6 +1427,9 @@
   </si>
   <si>
     <t>2022-06-16</t>
+  </si>
+  <si>
+    <t>2022-06-17</t>
   </si>
 </sst>
 </file>
@@ -1812,13 +1812,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>48899.9</v>
+        <v>50962.3</v>
       </c>
       <c r="C2">
-        <v>48319.65397571382</v>
+        <v>48556.59238089006</v>
       </c>
       <c r="D2">
-        <v>580.2460242861853</v>
+        <v>2405.707619109948</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1826,13 +1826,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>50962.3</v>
+        <v>52375</v>
       </c>
       <c r="C3">
-        <v>48495.81513159075</v>
+        <v>50634.58042402564</v>
       </c>
       <c r="D3">
-        <v>2466.48486840925</v>
+        <v>1740.41957597436</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1840,13 +1840,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>52375</v>
+        <v>54929</v>
       </c>
       <c r="C4">
-        <v>50569.97554934027</v>
+        <v>51727.47197927018</v>
       </c>
       <c r="D4">
-        <v>1805.02445065973</v>
+        <v>3201.52802072982</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1854,13 +1854,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>54929</v>
+        <v>55851</v>
       </c>
       <c r="C5">
-        <v>51669.8893750793</v>
+        <v>54313.70800533234</v>
       </c>
       <c r="D5">
-        <v>3259.110624920701</v>
+        <v>1537.291994667656</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1868,13 +1868,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>55851</v>
+        <v>57809.9</v>
       </c>
       <c r="C6">
-        <v>54258.20110982769</v>
+        <v>55670.56598613526</v>
       </c>
       <c r="D6">
-        <v>1592.798890172307</v>
+        <v>2139.33401386474</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1882,13 +1882,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>57809.9</v>
+        <v>57234</v>
       </c>
       <c r="C7">
-        <v>55627.49290236038</v>
+        <v>57226.64174284424</v>
       </c>
       <c r="D7">
-        <v>2182.407097639618</v>
+        <v>7.358257155763567</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1896,13 +1896,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>57234</v>
+        <v>61174.9</v>
       </c>
       <c r="C8">
-        <v>57186.58918352593</v>
+        <v>57082.13970763319</v>
       </c>
       <c r="D8">
-        <v>47.41081647406827</v>
+        <v>4092.760292366809</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1910,13 +1910,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>61174.9</v>
+        <v>59001.1</v>
       </c>
       <c r="C9">
-        <v>57060.61616629923</v>
+        <v>60355.06046682737</v>
       </c>
       <c r="D9">
-        <v>4114.283833700771</v>
+        <v>-1353.960466827375</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1924,13 +1924,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>59001.1</v>
+        <v>55600</v>
       </c>
       <c r="C10">
-        <v>60322.1998744269</v>
+        <v>59827.45525601959</v>
       </c>
       <c r="D10">
-        <v>-1321.099874426902</v>
+        <v>-4227.455256019588</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1938,13 +1938,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>55600</v>
+        <v>56891.1</v>
       </c>
       <c r="C11">
-        <v>59834.97079211476</v>
+        <v>56708.07656672872</v>
       </c>
       <c r="D11">
-        <v>-4234.970792114756</v>
+        <v>183.0234332712789</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1952,13 +1952,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>56891.1</v>
+        <v>58933</v>
       </c>
       <c r="C12">
-        <v>56725.58133049876</v>
+        <v>56087.99591454201</v>
       </c>
       <c r="D12">
-        <v>165.518669501238</v>
+        <v>2845.004085457986</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1966,13 +1966,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>58933</v>
+        <v>57640.9</v>
       </c>
       <c r="C13">
-        <v>56076.87131452848</v>
+        <v>57935.49952647691</v>
       </c>
       <c r="D13">
-        <v>2856.128685471522</v>
+        <v>-294.5995264769081</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1980,13 +1980,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>57640.9</v>
+        <v>58101.8</v>
       </c>
       <c r="C14">
-        <v>57921.96394085167</v>
+        <v>58221.22549900065</v>
       </c>
       <c r="D14">
-        <v>-281.0639408516727</v>
+        <v>-119.4254990006448</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1994,13 +1994,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>58101.8</v>
+        <v>58091.6</v>
       </c>
       <c r="C15">
-        <v>58225.48381711807</v>
+        <v>58139.38795001297</v>
       </c>
       <c r="D15">
-        <v>-123.6838171180643</v>
+        <v>-47.78795001297112</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2008,13 +2008,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>58091.6</v>
+        <v>57378.4</v>
       </c>
       <c r="C16">
-        <v>58133.83265672216</v>
+        <v>58495.89205659581</v>
       </c>
       <c r="D16">
-        <v>-42.23265672216075</v>
+        <v>-1117.492056595809</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2022,13 +2022,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>57378.4</v>
+        <v>54095.1</v>
       </c>
       <c r="C17">
-        <v>58490.6283472354</v>
+        <v>57384.80159044253</v>
       </c>
       <c r="D17">
-        <v>-1112.228347235403</v>
+        <v>-3289.701590442528</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2036,13 +2036,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>54095.1</v>
+        <v>54351.3</v>
       </c>
       <c r="C18">
-        <v>57377.10723049417</v>
+        <v>55078.32027638787</v>
       </c>
       <c r="D18">
-        <v>-3282.007230494171</v>
+        <v>-727.0202763878624</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2050,13 +2050,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>54351.3</v>
+        <v>52293.8</v>
       </c>
       <c r="C19">
-        <v>55078.18001752995</v>
+        <v>54430.51778832178</v>
       </c>
       <c r="D19">
-        <v>-726.8800175299475</v>
+        <v>-2136.717788321781</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2064,13 +2064,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>52293.8</v>
+        <v>51314.9</v>
       </c>
       <c r="C20">
-        <v>54408.09740591479</v>
+        <v>53271.94876204613</v>
       </c>
       <c r="D20">
-        <v>-2114.297405914789</v>
+        <v>-1957.048762046128</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2078,13 +2078,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>51314.9</v>
+        <v>55062.2</v>
       </c>
       <c r="C21">
-        <v>53261.04427022146</v>
+        <v>51555.87284074294</v>
       </c>
       <c r="D21">
-        <v>-1946.144270221455</v>
+        <v>3506.327159257053</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2092,13 +2092,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>55062.2</v>
+        <v>55852.4</v>
       </c>
       <c r="C22">
-        <v>51527.07583384591</v>
+        <v>54166.61603246357</v>
       </c>
       <c r="D22">
-        <v>3535.124166154092</v>
+        <v>1685.78396753643</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2106,13 +2106,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>55852.4</v>
+        <v>55782</v>
       </c>
       <c r="C23">
-        <v>54112.70938201967</v>
+        <v>55582.03435445087</v>
       </c>
       <c r="D23">
-        <v>1739.690617980334</v>
+        <v>199.9656455491349</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2120,13 +2120,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>55782</v>
+        <v>57624.2</v>
       </c>
       <c r="C24">
-        <v>55537.05141470001</v>
+        <v>55670.76914493537</v>
       </c>
       <c r="D24">
-        <v>244.948585299986</v>
+        <v>1953.430855064624</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2134,13 +2134,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>57624.2</v>
+        <v>58781</v>
       </c>
       <c r="C25">
-        <v>55627.91492031447</v>
+        <v>57213.02842068321</v>
       </c>
       <c r="D25">
-        <v>1996.285079685527</v>
+        <v>1567.971579316785</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2148,13 +2148,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>58781</v>
+        <v>58786.2</v>
       </c>
       <c r="C26">
-        <v>57161.62629375699</v>
+        <v>58514.22904451082</v>
       </c>
       <c r="D26">
-        <v>1619.373706243008</v>
+        <v>271.9709554891742</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2162,13 +2162,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>58786.2</v>
+        <v>58732.9</v>
       </c>
       <c r="C27">
-        <v>58466.17178993453</v>
+        <v>58587.27218514353</v>
       </c>
       <c r="D27">
-        <v>320.0282100654658</v>
+        <v>145.627814856467</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2176,13 +2176,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>58732.9</v>
+        <v>59020.7</v>
       </c>
       <c r="C28">
-        <v>58548.39645523176</v>
+        <v>58739.01780667571</v>
       </c>
       <c r="D28">
-        <v>184.5035447682458</v>
+        <v>281.68219332429</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2190,13 +2190,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>59020.7</v>
+        <v>57099</v>
       </c>
       <c r="C29">
-        <v>58706.97910552282</v>
+        <v>59192.00485030441</v>
       </c>
       <c r="D29">
-        <v>313.7208944771774</v>
+        <v>-2093.004850304409</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2204,13 +2204,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>57099</v>
+        <v>58195</v>
       </c>
       <c r="C30">
-        <v>59167.70682029641</v>
+        <v>57726.59370745982</v>
       </c>
       <c r="D30">
-        <v>-2068.706820296407</v>
+        <v>468.4062925401813</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2218,13 +2218,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>58195</v>
+        <v>59120</v>
       </c>
       <c r="C31">
-        <v>57724.30410618375</v>
+        <v>57901.23192470051</v>
       </c>
       <c r="D31">
-        <v>470.6958938162497</v>
+        <v>1218.768075299493</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2232,13 +2232,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>59120</v>
+        <v>58017.1</v>
       </c>
       <c r="C32">
-        <v>57884.41941979716</v>
+        <v>58678.73428842511</v>
       </c>
       <c r="D32">
-        <v>1235.580580202841</v>
+        <v>-661.6342884251135</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2246,13 +2246,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>58017.1</v>
+        <v>55928.5</v>
       </c>
       <c r="C33">
-        <v>58663.08031001849</v>
+        <v>58239.81672403529</v>
       </c>
       <c r="D33">
-        <v>-645.9803100184945</v>
+        <v>-2311.316724035292</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2260,13 +2260,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>55928.5</v>
+        <v>58036.9</v>
       </c>
       <c r="C34">
-        <v>58239.6680718105</v>
+        <v>56490.15479717807</v>
       </c>
       <c r="D34">
-        <v>-2311.168071810498</v>
+        <v>1546.745202821934</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2274,13 +2274,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>58036.9</v>
+        <v>58110</v>
       </c>
       <c r="C35">
-        <v>56493.04397051097</v>
+        <v>57552.52096106495</v>
       </c>
       <c r="D35">
-        <v>1543.856029489034</v>
+        <v>557.4790389350528</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2288,13 +2288,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>58110</v>
+        <v>59775.6</v>
       </c>
       <c r="C36">
-        <v>57537.29977103523</v>
+        <v>58179.69952652157</v>
       </c>
       <c r="D36">
-        <v>572.7002289647717</v>
+        <v>1595.900473478432</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2302,13 +2302,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>59775.6</v>
+        <v>59956</v>
       </c>
       <c r="C37">
-        <v>58172.25632263507</v>
+        <v>59735.92568508202</v>
       </c>
       <c r="D37">
-        <v>1603.34367736493</v>
+        <v>220.0743149179762</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2316,13 +2316,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>59956</v>
+        <v>59823.7</v>
       </c>
       <c r="C38">
-        <v>59719.80385762627</v>
+        <v>59979.40286492104</v>
       </c>
       <c r="D38">
-        <v>236.1961423737303</v>
+        <v>-155.7028649210406</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2330,13 +2330,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>59823.7</v>
+        <v>63587.2</v>
       </c>
       <c r="C39">
-        <v>59969.99001637581</v>
+        <v>60099.66032446262</v>
       </c>
       <c r="D39">
-        <v>-146.2900163758095</v>
+        <v>3487.53967553738</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2344,13 +2344,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>63587.2</v>
+        <v>62969</v>
       </c>
       <c r="C40">
-        <v>60091.37603245561</v>
+        <v>62873.43447533426</v>
       </c>
       <c r="D40">
-        <v>3495.823967544384</v>
+        <v>95.56552466574067</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2358,13 +2358,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>62969</v>
+        <v>63243</v>
       </c>
       <c r="C41">
-        <v>62842.36389499396</v>
+        <v>63151.885583221</v>
       </c>
       <c r="D41">
-        <v>126.6361050060441</v>
+        <v>91.11441677900439</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2372,13 +2372,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>63243</v>
+        <v>61455</v>
       </c>
       <c r="C42">
-        <v>63136.17484564753</v>
+        <v>63212.86725657429</v>
       </c>
       <c r="D42">
-        <v>106.8251543524748</v>
+        <v>-1757.867256574289</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2386,13 +2386,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>61455</v>
+        <v>60085.2</v>
       </c>
       <c r="C43">
-        <v>63197.10155441303</v>
+        <v>61788.39561145323</v>
       </c>
       <c r="D43">
-        <v>-1742.101554413028</v>
+        <v>-1703.195611453237</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2400,13 +2400,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>60085.2</v>
+        <v>56239.8</v>
       </c>
       <c r="C44">
-        <v>61778.64617567491</v>
+        <v>60672.46981926421</v>
       </c>
       <c r="D44">
-        <v>-1693.446175674915</v>
+        <v>-4432.669819264207</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2414,13 +2414,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>56239.8</v>
+        <v>55720</v>
       </c>
       <c r="C45">
-        <v>60669.64667646068</v>
+        <v>56106.20224086843</v>
       </c>
       <c r="D45">
-        <v>-4429.846676460678</v>
+        <v>-386.2022408684279</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2428,13 +2428,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>55720</v>
+        <v>56500</v>
       </c>
       <c r="C46">
-        <v>56097.93480632855</v>
+        <v>55880.87686897123</v>
       </c>
       <c r="D46">
-        <v>-377.9348063285506</v>
+        <v>619.1231310287694</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2442,13 +2442,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>56500</v>
+        <v>53815.2</v>
       </c>
       <c r="C47">
-        <v>55862.98864781809</v>
+        <v>55983.9300617799</v>
       </c>
       <c r="D47">
-        <v>637.0113521819076</v>
+        <v>-2168.730061779905</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2456,13 +2456,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>53815.2</v>
+        <v>51730</v>
       </c>
       <c r="C48">
-        <v>55956.77425984904</v>
+        <v>54435.73146709018</v>
       </c>
       <c r="D48">
-        <v>-2141.57425984904</v>
+        <v>-2705.731467090183</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2470,13 +2470,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>51730</v>
+        <v>51178.7</v>
       </c>
       <c r="C49">
-        <v>54429.74404086841</v>
+        <v>52294.97388471699</v>
       </c>
       <c r="D49">
-        <v>-2699.744040868412</v>
+        <v>-1116.273884716997</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2484,13 +2484,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>51178.7</v>
+        <v>50093.4</v>
       </c>
       <c r="C50">
-        <v>52274.03307273285</v>
+        <v>50557.151644098</v>
       </c>
       <c r="D50">
-        <v>-1095.33307273285</v>
+        <v>-463.7516440980035</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2498,13 +2498,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>50093.4</v>
+        <v>49106.5</v>
       </c>
       <c r="C51">
-        <v>50511.29127640172</v>
+        <v>49924.7922780169</v>
       </c>
       <c r="D51">
-        <v>-417.891276401715</v>
+        <v>-818.2922780169029</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2512,13 +2512,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>49106.5</v>
+        <v>54051.9</v>
       </c>
       <c r="C52">
-        <v>49885.96344631281</v>
+        <v>48810.58099350434</v>
       </c>
       <c r="D52">
-        <v>-779.4634463128095</v>
+        <v>5241.319006495665</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2526,13 +2526,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>54051.9</v>
+        <v>55078.7</v>
       </c>
       <c r="C53">
-        <v>48770.03269699724</v>
+        <v>52798.82957604727</v>
       </c>
       <c r="D53">
-        <v>5281.867303002757</v>
+        <v>2279.870423952729</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2540,13 +2540,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>55078.7</v>
+        <v>54899.3</v>
       </c>
       <c r="C54">
-        <v>52727.12784414842</v>
+        <v>54645.25523833623</v>
       </c>
       <c r="D54">
-        <v>2351.572155851572</v>
+        <v>254.0447616637684</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2554,13 +2554,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>54899.3</v>
+        <v>53579.6</v>
       </c>
       <c r="C55">
-        <v>54589.39799292268</v>
+        <v>54915.28557792703</v>
       </c>
       <c r="D55">
-        <v>309.9020070773186</v>
+        <v>-1335.685577927034</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2568,13 +2568,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>53579.6</v>
+        <v>57780</v>
       </c>
       <c r="C56">
-        <v>54868.11267317493</v>
+        <v>53555.52868129096</v>
       </c>
       <c r="D56">
-        <v>-1288.512673174933</v>
+        <v>4224.471318709038</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2582,13 +2582,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>57780</v>
+        <v>57859.2</v>
       </c>
       <c r="C57">
-        <v>53514.04399791496</v>
+        <v>56615.69909802785</v>
       </c>
       <c r="D57">
-        <v>4265.95600208504</v>
+        <v>1243.500901972147</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2596,13 +2596,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>57859.2</v>
+        <v>56618.5</v>
       </c>
       <c r="C58">
-        <v>56553.58648777534</v>
+        <v>57762.58396655727</v>
       </c>
       <c r="D58">
-        <v>1305.613512224656</v>
+        <v>-1144.083966557271</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2610,13 +2610,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>56618.5</v>
+        <v>57193.5</v>
       </c>
       <c r="C59">
-        <v>57723.46036183627</v>
+        <v>56751.74201410012</v>
       </c>
       <c r="D59">
-        <v>-1104.960361836267</v>
+        <v>441.7579858998797</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2624,13 +2624,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>57193.5</v>
+        <v>53239.4</v>
       </c>
       <c r="C60">
-        <v>56728.27129204064</v>
+        <v>57417.52552411477</v>
       </c>
       <c r="D60">
-        <v>465.2287079593589</v>
+        <v>-4178.125524114766</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2638,13 +2638,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>53239.4</v>
+        <v>57497.1</v>
       </c>
       <c r="C61">
-        <v>57399.63323601439</v>
+        <v>54090.76911641749</v>
       </c>
       <c r="D61">
-        <v>-4160.233236014392</v>
+        <v>3406.330883582508</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2652,13 +2652,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>57497.1</v>
+        <v>56421.1</v>
       </c>
       <c r="C62">
-        <v>54099.89887621626</v>
+        <v>56570.47845632509</v>
       </c>
       <c r="D62">
-        <v>3397.201123783743</v>
+        <v>-149.3784563250883</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2666,13 +2666,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>56421.1</v>
+        <v>57383</v>
       </c>
       <c r="C63">
-        <v>56546.84808105876</v>
+        <v>56647.20547749042</v>
       </c>
       <c r="D63">
-        <v>-125.7480810587585</v>
+        <v>735.7945225095755</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2680,13 +2680,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>57383</v>
+        <v>58953.8</v>
       </c>
       <c r="C64">
-        <v>56650.16326511327</v>
+        <v>57252.58243916578</v>
       </c>
       <c r="D64">
-        <v>732.836734886725</v>
+        <v>1701.217560834222</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2694,13 +2694,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>58953.8</v>
+        <v>58293.1</v>
       </c>
       <c r="C65">
-        <v>57251.57447938088</v>
+        <v>58693.45504654986</v>
       </c>
       <c r="D65">
-        <v>1702.225520619126</v>
+        <v>-400.3550465498629</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2708,13 +2708,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>58293.1</v>
+        <v>55888.1</v>
       </c>
       <c r="C66">
-        <v>58691.77642550362</v>
+        <v>58128.7338296013</v>
       </c>
       <c r="D66">
-        <v>-398.6764255036251</v>
+        <v>-2240.633829601305</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2722,13 +2722,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>55888.1</v>
+        <v>56747.5</v>
       </c>
       <c r="C67">
-        <v>58133.67517669568</v>
+        <v>56211.56205473769</v>
       </c>
       <c r="D67">
-        <v>-2245.575176695682</v>
+        <v>535.9379452623107</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2736,13 +2736,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>56747.5</v>
+        <v>49502.7</v>
       </c>
       <c r="C68">
-        <v>56223.66173448506</v>
+        <v>56329.9135350524</v>
       </c>
       <c r="D68">
-        <v>523.8382655149398</v>
+        <v>-6827.213535052404</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2750,13 +2750,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>49502.7</v>
+        <v>49675.2</v>
       </c>
       <c r="C69">
-        <v>56323.60418304291</v>
+        <v>51159.86886520417</v>
       </c>
       <c r="D69">
-        <v>-6820.904183042912</v>
+        <v>-1484.668865204178</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2764,13 +2764,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>49675.2</v>
+        <v>49899</v>
       </c>
       <c r="C70">
-        <v>51193.6313248038</v>
+        <v>49001.15211840249</v>
       </c>
       <c r="D70">
-        <v>-1518.431324803802</v>
+        <v>897.8478815975104</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2778,13 +2778,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>49899</v>
+        <v>46771.1</v>
       </c>
       <c r="C71">
-        <v>48978.11109157022</v>
+        <v>49987.58974453078</v>
       </c>
       <c r="D71">
-        <v>920.8889084297771</v>
+        <v>-3216.48974453078</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2792,13 +2792,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>46771.1</v>
+        <v>46482.4</v>
       </c>
       <c r="C72">
-        <v>49966.17704656059</v>
+        <v>47521.09485080662</v>
       </c>
       <c r="D72">
-        <v>-3195.077046560589</v>
+        <v>-1038.69485080662</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2806,13 +2806,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>46482.4</v>
+        <v>43551.8</v>
       </c>
       <c r="C73">
-        <v>47511.43174353483</v>
+        <v>46480.70301347591</v>
       </c>
       <c r="D73">
-        <v>-1029.031743534826</v>
+        <v>-2928.903013475909</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2820,13 +2820,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>43551.8</v>
+        <v>42895.2</v>
       </c>
       <c r="C74">
-        <v>46447.66189389346</v>
+        <v>43788.84369492512</v>
       </c>
       <c r="D74">
-        <v>-2895.86189389346</v>
+        <v>-893.643694925122</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2834,13 +2834,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>42895.2</v>
+        <v>36742.3</v>
       </c>
       <c r="C75">
-        <v>43754.01286243577</v>
+        <v>43232.21533533033</v>
       </c>
       <c r="D75">
-        <v>-858.8128624357705</v>
+        <v>-6489.915335330326</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2848,13 +2848,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>36742.3</v>
+        <v>40614.6</v>
       </c>
       <c r="C76">
-        <v>43185.62779884866</v>
+        <v>36599.85329098436</v>
       </c>
       <c r="D76">
-        <v>-6443.327798848659</v>
+        <v>4014.746709015635</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2862,13 +2862,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>40614.6</v>
+        <v>37331.7</v>
       </c>
       <c r="C77">
-        <v>36549.12733291866</v>
+        <v>39584.41882405952</v>
       </c>
       <c r="D77">
-        <v>4065.47266708134</v>
+        <v>-2252.718824059528</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2876,13 +2876,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>37331.7</v>
+        <v>37468.3</v>
       </c>
       <c r="C78">
-        <v>39494.44899376338</v>
+        <v>37363.18503833444</v>
       </c>
       <c r="D78">
-        <v>-2162.748993763387</v>
+        <v>105.1149616655603</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2890,13 +2890,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>37468.3</v>
+        <v>34718.8</v>
       </c>
       <c r="C79">
-        <v>37301.02121012026</v>
+        <v>37033.7484822558</v>
       </c>
       <c r="D79">
-        <v>167.2787898797469</v>
+        <v>-2314.948482255801</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2904,13 +2904,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>34718.8</v>
+        <v>38833.8</v>
       </c>
       <c r="C80">
-        <v>36957.32847200782</v>
+        <v>34454.95489866797</v>
       </c>
       <c r="D80">
-        <v>-2238.528472007813</v>
+        <v>4378.84510133203</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2918,13 +2918,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>38833.8</v>
+        <v>38388.1</v>
       </c>
       <c r="C81">
-        <v>34385.37672071024</v>
+        <v>37841.1947621919</v>
       </c>
       <c r="D81">
-        <v>4448.42327928976</v>
+        <v>546.9052378081033</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2932,13 +2932,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>38388.1</v>
+        <v>39283.9</v>
       </c>
       <c r="C82">
-        <v>37744.65157633449</v>
+        <v>38067.76249588148</v>
       </c>
       <c r="D82">
-        <v>643.4484236655117</v>
+        <v>1216.137504118517</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2946,13 +2946,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>39283.9</v>
+        <v>38516.4</v>
       </c>
       <c r="C83">
-        <v>37989.6083953781</v>
+        <v>39109.76164429328</v>
       </c>
       <c r="D83">
-        <v>1294.291604621903</v>
+        <v>-593.3616442932762</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2960,13 +2960,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>38516.4</v>
+        <v>35683.9</v>
       </c>
       <c r="C84">
-        <v>39040.46747050966</v>
+        <v>38397.43531510526</v>
       </c>
       <c r="D84">
-        <v>-524.0674705096608</v>
+        <v>-2713.535315105262</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2974,13 +2974,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>35683.9</v>
+        <v>34616.6</v>
       </c>
       <c r="C85">
-        <v>38347.0057651587</v>
+        <v>35957.11971679125</v>
       </c>
       <c r="D85">
-        <v>-2663.105765158703</v>
+        <v>-1340.519716791248</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2988,13 +2988,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>34616.6</v>
+        <v>35673.8</v>
       </c>
       <c r="C86">
-        <v>35928.18019044174</v>
+        <v>34769.05018624476</v>
       </c>
       <c r="D86">
-        <v>-1311.580190441746</v>
+        <v>904.7498137552466</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3002,13 +3002,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>35673.8</v>
+        <v>37303.8</v>
       </c>
       <c r="C87">
-        <v>34741.18477712594</v>
+        <v>35117.69642307116</v>
       </c>
       <c r="D87">
-        <v>932.6152228740611</v>
+        <v>2186.103576928843</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3016,13 +3016,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>37303.8</v>
+        <v>36676.3</v>
       </c>
       <c r="C88">
-        <v>35089.16593456303</v>
+        <v>36427.54019949214</v>
       </c>
       <c r="D88">
-        <v>2214.634065436978</v>
+        <v>248.7598005078617</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3030,13 +3030,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>36676.3</v>
+        <v>37565.3</v>
       </c>
       <c r="C89">
-        <v>36405.76731638976</v>
+        <v>36563.33387558114</v>
       </c>
       <c r="D89">
-        <v>270.5326836102395</v>
+        <v>1001.966124418861</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3044,13 +3044,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>37565.3</v>
+        <v>39196.6</v>
       </c>
       <c r="C90">
-        <v>36559.10736411949</v>
+        <v>37169.56321068325</v>
       </c>
       <c r="D90">
-        <v>1006.192635880514</v>
+        <v>2027.036789316749</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3058,13 +3058,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>39196.6</v>
+        <v>36847.7</v>
       </c>
       <c r="C91">
-        <v>37162.78240655729</v>
+        <v>38647.19272188177</v>
       </c>
       <c r="D91">
-        <v>2033.817593442713</v>
+        <v>-1799.492721881776</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3072,13 +3072,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>36847.7</v>
+        <v>35534.6</v>
       </c>
       <c r="C92">
-        <v>38642.95171354495</v>
+        <v>36964.65927586659</v>
       </c>
       <c r="D92">
-        <v>-1795.251713544953</v>
+        <v>-1430.059275866595</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3086,13 +3086,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>35534.6</v>
+        <v>35789</v>
       </c>
       <c r="C93">
-        <v>36979.99663210083</v>
+        <v>35781.35906193491</v>
       </c>
       <c r="D93">
-        <v>-1445.396632100834</v>
+        <v>7.640938065087539</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3100,13 +3100,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>35789</v>
+        <v>33587.6</v>
       </c>
       <c r="C94">
-        <v>35797.37997405187</v>
+        <v>35694.58630115645</v>
       </c>
       <c r="D94">
-        <v>-8.379974051866157</v>
+        <v>-2106.986301156452</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3114,13 +3114,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>33587.6</v>
+        <v>33420</v>
       </c>
       <c r="C95">
-        <v>35707.0008173887</v>
+        <v>34115.94174315363</v>
       </c>
       <c r="D95">
-        <v>-2119.400817388698</v>
+        <v>-695.9417431536276</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3128,13 +3128,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>33420</v>
+        <v>37396.4</v>
       </c>
       <c r="C96">
-        <v>34145.17570830773</v>
+        <v>32920.03498249281</v>
       </c>
       <c r="D96">
-        <v>-725.1757083077318</v>
+        <v>4476.365017507189</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3142,13 +3142,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>37396.4</v>
+        <v>36678.4</v>
       </c>
       <c r="C97">
-        <v>32927.9217512299</v>
+        <v>36180.01975991968</v>
       </c>
       <c r="D97">
-        <v>4468.478248770101</v>
+        <v>498.3802400803179</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3156,13 +3156,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>36678.4</v>
+        <v>37322.2</v>
       </c>
       <c r="C98">
-        <v>36171.57536975882</v>
+        <v>36787.75627221922</v>
       </c>
       <c r="D98">
-        <v>506.8246302411862</v>
+        <v>534.4437277807738</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3170,13 +3170,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>37322.2</v>
+        <v>35544.9</v>
       </c>
       <c r="C99">
-        <v>36799.56789389272</v>
+        <v>37011.94553804999</v>
       </c>
       <c r="D99">
-        <v>522.632106107274</v>
+        <v>-1467.045538049984</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3184,13 +3184,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>35544.9</v>
+        <v>39034.6</v>
       </c>
       <c r="C100">
-        <v>37018.4259126133</v>
+        <v>35691.66858483905</v>
       </c>
       <c r="D100">
-        <v>-1473.525912613302</v>
+        <v>3342.931415160951</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3198,13 +3198,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>39034.6</v>
+        <v>40530.8</v>
       </c>
       <c r="C101">
-        <v>35706.39371158421</v>
+        <v>38074.38332548404</v>
       </c>
       <c r="D101">
-        <v>3328.206288415793</v>
+        <v>2456.41667451596</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3212,13 +3212,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>40530.8</v>
+        <v>40166.6</v>
       </c>
       <c r="C102">
-        <v>38064.5490341272</v>
+        <v>40262.86729601822</v>
       </c>
       <c r="D102">
-        <v>2466.250965872801</v>
+        <v>-96.26729601821717</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3226,13 +3226,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>40166.6</v>
+        <v>38337.1</v>
       </c>
       <c r="C103">
-        <v>40259.71797667615</v>
+        <v>40308.3090629551</v>
       </c>
       <c r="D103">
-        <v>-93.11797667614883</v>
+        <v>-1971.209062955102</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3240,13 +3240,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>38337.1</v>
+        <v>38078.2</v>
       </c>
       <c r="C104">
-        <v>40318.70182675259</v>
+        <v>38787.03551415812</v>
       </c>
       <c r="D104">
-        <v>-1981.601826752594</v>
+        <v>-708.8355141581269</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3254,13 +3254,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>38078.2</v>
+        <v>35824</v>
       </c>
       <c r="C105">
-        <v>38813.23240964032</v>
+        <v>38272.14911145491</v>
       </c>
       <c r="D105">
-        <v>-735.0324096403274</v>
+        <v>-2448.149111454914</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3268,13 +3268,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>35824</v>
+        <v>35490.5</v>
       </c>
       <c r="C106">
-        <v>38293.62162306753</v>
+        <v>36191.90571920857</v>
       </c>
       <c r="D106">
-        <v>-2469.621623067527</v>
+        <v>-701.4057192085747</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3282,13 +3282,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>35490.5</v>
+        <v>35595</v>
       </c>
       <c r="C107">
-        <v>36218.10914945532</v>
+        <v>35572.86097104031</v>
       </c>
       <c r="D107">
-        <v>-727.6091494553184</v>
+        <v>22.13902895968931</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3296,13 +3296,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>35595</v>
+        <v>31655.2</v>
       </c>
       <c r="C108">
-        <v>35587.87401572376</v>
+        <v>35182.44448414493</v>
       </c>
       <c r="D108">
-        <v>7.125984276244708</v>
+        <v>-3527.244484144929</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3310,13 +3310,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>31655.2</v>
+        <v>32516.2</v>
       </c>
       <c r="C109">
-        <v>35194.57764647362</v>
+        <v>32455.83201567658</v>
       </c>
       <c r="D109">
-        <v>-3539.377646473618</v>
+        <v>60.36798432341675</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3324,13 +3324,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>32516.2</v>
+        <v>33683.3</v>
       </c>
       <c r="C110">
-        <v>32483.94360821452</v>
+        <v>31819.20996115166</v>
       </c>
       <c r="D110">
-        <v>32.25639178548226</v>
+        <v>1864.090038848342</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3338,13 +3338,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>33683.3</v>
+        <v>34666.6</v>
       </c>
       <c r="C111">
-        <v>31813.3115503645</v>
+        <v>33599.07216858429</v>
       </c>
       <c r="D111">
-        <v>1869.988449635501</v>
+        <v>1067.527831415711</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3352,13 +3352,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>34666.6</v>
+        <v>31583.7</v>
       </c>
       <c r="C112">
-        <v>33594.28127032328</v>
+        <v>34192.10177306474</v>
       </c>
       <c r="D112">
-        <v>1072.318729676714</v>
+        <v>-2608.401773064743</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3366,13 +3366,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>31583.7</v>
+        <v>32277</v>
       </c>
       <c r="C113">
-        <v>34181.77015249625</v>
+        <v>32301.07354916223</v>
       </c>
       <c r="D113">
-        <v>-2598.070152496253</v>
+        <v>-24.07354916223267</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3380,13 +3380,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>32277</v>
+        <v>34675.3</v>
       </c>
       <c r="C114">
-        <v>32305.79139683019</v>
+        <v>31785.1127328158</v>
       </c>
       <c r="D114">
-        <v>-28.79139683019457</v>
+        <v>2890.187267184199</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3394,13 +3394,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>34675.3</v>
+        <v>34472</v>
       </c>
       <c r="C115">
-        <v>31762.3097249098</v>
+        <v>33962.22665270914</v>
       </c>
       <c r="D115">
-        <v>2912.990275090204</v>
+        <v>509.7733472908585</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3408,13 +3408,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>34472</v>
+        <v>35903.3</v>
       </c>
       <c r="C116">
-        <v>33929.5851857356</v>
+        <v>34431.46079089689</v>
       </c>
       <c r="D116">
-        <v>542.4148142644044</v>
+        <v>1471.839209103113</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3422,13 +3422,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>35903.3</v>
+        <v>35046.2</v>
       </c>
       <c r="C117">
-        <v>34407.94298221257</v>
+        <v>35612.85454285996</v>
       </c>
       <c r="D117">
-        <v>1495.357017787428</v>
+        <v>-566.6545428599638</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3436,13 +3436,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>35046.2</v>
+        <v>33532.4</v>
       </c>
       <c r="C118">
-        <v>35584.36109421655</v>
+        <v>34973.9976123536</v>
       </c>
       <c r="D118">
-        <v>-538.1610942165498</v>
+        <v>-1441.597612353602</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3450,13 +3450,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>33532.4</v>
+        <v>33802.9</v>
       </c>
       <c r="C119">
-        <v>34956.96109597044</v>
+        <v>33596.9326767965</v>
       </c>
       <c r="D119">
-        <v>-1424.561095970435</v>
+        <v>205.9673232035057</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3464,13 +3464,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>33802.9</v>
+        <v>34685.4</v>
       </c>
       <c r="C120">
-        <v>33587.31126984522</v>
+        <v>33523.84708272231</v>
       </c>
       <c r="D120">
-        <v>215.5887301547773</v>
+        <v>1161.552917277695</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3478,13 +3478,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>34685.4</v>
+        <v>35305</v>
       </c>
       <c r="C121">
-        <v>33506.51632797682</v>
+        <v>34361.97665337251</v>
       </c>
       <c r="D121">
-        <v>1178.883672023177</v>
+        <v>943.0233466274949</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3492,13 +3492,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>35305</v>
+        <v>33697.6</v>
       </c>
       <c r="C122">
-        <v>34345.9463100314</v>
+        <v>35165.60214696116</v>
       </c>
       <c r="D122">
-        <v>959.0536899686049</v>
+        <v>-1468.00214696116</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3506,13 +3506,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>33697.6</v>
+        <v>34235</v>
       </c>
       <c r="C123">
-        <v>35158.90279721599</v>
+        <v>33858.33920767596</v>
       </c>
       <c r="D123">
-        <v>-1461.302797215991</v>
+        <v>376.6607923240372</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3520,13 +3520,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>34235</v>
+        <v>33885.1</v>
       </c>
       <c r="C124">
-        <v>33863.38446760255</v>
+        <v>34229.10180013771</v>
       </c>
       <c r="D124">
-        <v>371.6155323974453</v>
+        <v>-344.0018001377102</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3534,13 +3534,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>33885.1</v>
+        <v>32882.2</v>
       </c>
       <c r="C125">
-        <v>34226.46077607857</v>
+        <v>34087.53308004355</v>
       </c>
       <c r="D125">
-        <v>-341.3607760785671</v>
+        <v>-1205.333080043551</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3548,13 +3548,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>32882.2</v>
+        <v>33791</v>
       </c>
       <c r="C126">
-        <v>34091.43638313395</v>
+        <v>32904.23452413593</v>
       </c>
       <c r="D126">
-        <v>-1209.236383133953</v>
+        <v>886.765475864071</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3562,13 +3562,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>33791</v>
+        <v>33522.2</v>
       </c>
       <c r="C127">
-        <v>32907.85309707594</v>
+        <v>33454.16506629977</v>
       </c>
       <c r="D127">
-        <v>883.1469029240616</v>
+        <v>68.03493370022625</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3576,13 +3576,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>33522.2</v>
+        <v>34246.9</v>
       </c>
       <c r="C128">
-        <v>33449.36982671177</v>
+        <v>33500.89682336496</v>
       </c>
       <c r="D128">
-        <v>72.83017328823189</v>
+        <v>746.0031766350367</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3590,13 +3590,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>34246.9</v>
+        <v>33107.3</v>
       </c>
       <c r="C129">
-        <v>33503.22672197464</v>
+        <v>34053.05373587592</v>
       </c>
       <c r="D129">
-        <v>743.673278025366</v>
+        <v>-945.7537358759146</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3604,13 +3604,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>33107.3</v>
+        <v>32722.9</v>
       </c>
       <c r="C130">
-        <v>34050.62919038347</v>
+        <v>33293.30249377519</v>
       </c>
       <c r="D130">
-        <v>-943.3291903834688</v>
+        <v>-570.4024937751892</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3618,13 +3618,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>32722.9</v>
+        <v>32815.2</v>
       </c>
       <c r="C131">
-        <v>33297.34224813908</v>
+        <v>32673.04301839969</v>
       </c>
       <c r="D131">
-        <v>-574.4422481390793</v>
+        <v>142.156981600303</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3632,13 +3632,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>32815.2</v>
+        <v>31832.6</v>
       </c>
       <c r="C132">
-        <v>32670.09664990336</v>
+        <v>32518.26516955787</v>
       </c>
       <c r="D132">
-        <v>145.1033500966369</v>
+        <v>-685.6651695578694</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3646,13 +3646,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>31832.6</v>
+        <v>31405.9</v>
       </c>
       <c r="C133">
-        <v>32512.03414610135</v>
+        <v>31896.4184595534</v>
       </c>
       <c r="D133">
-        <v>-679.4341461013537</v>
+        <v>-490.518459553401</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3660,13 +3660,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>31405.9</v>
+        <v>31510</v>
       </c>
       <c r="C134">
-        <v>31893.3829001215</v>
+        <v>31422.91995954121</v>
       </c>
       <c r="D134">
-        <v>-487.4829001214966</v>
+        <v>87.08004045879352</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3674,13 +3674,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>31510</v>
+        <v>31780.1</v>
       </c>
       <c r="C135">
-        <v>31415.99883951904</v>
+        <v>31440.16173839844</v>
       </c>
       <c r="D135">
-        <v>94.00116048096243</v>
+        <v>339.9382616015573</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3688,13 +3688,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>31780.1</v>
+        <v>30820.5</v>
       </c>
       <c r="C136">
-        <v>31430.9914724864</v>
+        <v>31675.35396797943</v>
       </c>
       <c r="D136">
-        <v>349.1085275135993</v>
+        <v>-854.8539679794339</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3702,13 +3702,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>30820.5</v>
+        <v>29788.1</v>
       </c>
       <c r="C137">
-        <v>31667.03130339542</v>
+        <v>30868.79310346486</v>
       </c>
       <c r="D137">
-        <v>-846.5313033954226</v>
+        <v>-1080.693103464866</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3716,13 +3716,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>29788.1</v>
+        <v>32125</v>
       </c>
       <c r="C138">
-        <v>30865.378963862</v>
+        <v>29860.85894451171</v>
       </c>
       <c r="D138">
-        <v>-1077.278963862002</v>
+        <v>2264.14105548829</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3730,13 +3730,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>32125</v>
+        <v>32283.3</v>
       </c>
       <c r="C139">
-        <v>29855.51458299858</v>
+        <v>31585.84333027231</v>
       </c>
       <c r="D139">
-        <v>2269.485417001422</v>
+        <v>697.4566697276859</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3744,13 +3744,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>32283.3</v>
+        <v>33639</v>
       </c>
       <c r="C140">
-        <v>31564.93075706406</v>
+        <v>32138.77306270156</v>
       </c>
       <c r="D140">
-        <v>718.3692429359398</v>
+        <v>1500.226937298445</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3758,13 +3758,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>33639</v>
+        <v>34284.6</v>
       </c>
       <c r="C141">
-        <v>32126.25867983251</v>
+        <v>33187.56465517842</v>
       </c>
       <c r="D141">
-        <v>1512.741320167486</v>
+        <v>1097.035344821583</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3772,13 +3772,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>34284.6</v>
+        <v>35413.6</v>
       </c>
       <c r="C142">
-        <v>33170.62339933373</v>
+        <v>34109.69998953858</v>
       </c>
       <c r="D142">
-        <v>1113.976600666268</v>
+        <v>1303.900010461417</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3786,13 +3786,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>35413.6</v>
+        <v>37274.9</v>
       </c>
       <c r="C143">
-        <v>34094.73004905323</v>
+        <v>35032.34153095148</v>
       </c>
       <c r="D143">
-        <v>1318.86995094677</v>
+        <v>2242.558469048519</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3800,13 +3800,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>37274.9</v>
+        <v>39506.2</v>
       </c>
       <c r="C144">
-        <v>35019.73164163363</v>
+        <v>37584.96752742211</v>
       </c>
       <c r="D144">
-        <v>2255.168358366369</v>
+        <v>1921.232472577889</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3814,13 +3814,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>39506.2</v>
+        <v>40011</v>
       </c>
       <c r="C145">
-        <v>37573.64384494637</v>
+        <v>38860.86809668639</v>
       </c>
       <c r="D145">
-        <v>1932.556155053629</v>
+        <v>1150.13190331361</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3828,13 +3828,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>40011</v>
+        <v>40000</v>
       </c>
       <c r="C146">
-        <v>38844.78027196437</v>
+        <v>40042.45791289893</v>
       </c>
       <c r="D146">
-        <v>1166.219728035627</v>
+        <v>-42.45791289892804</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3842,13 +3842,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>40000</v>
+        <v>42229.6</v>
       </c>
       <c r="C147">
-        <v>40040.43741457123</v>
+        <v>40076.81889092895</v>
       </c>
       <c r="D147">
-        <v>-40.43741457122815</v>
+        <v>2152.781109071053</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3856,13 +3856,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>42229.6</v>
+        <v>41488.5</v>
       </c>
       <c r="C148">
-        <v>40085.00473254808</v>
+        <v>41472.38809595593</v>
       </c>
       <c r="D148">
-        <v>2144.595267451921</v>
+        <v>16.11190404406807</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3870,13 +3870,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>41488.5</v>
+        <v>39889.1</v>
       </c>
       <c r="C149">
-        <v>41472.47979795621</v>
+        <v>41734.91895635622</v>
       </c>
       <c r="D149">
-        <v>16.02020204379369</v>
+        <v>-1845.818956356226</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3884,13 +3884,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>39889.1</v>
+        <v>39152.3</v>
       </c>
       <c r="C150">
-        <v>41752.58651659547</v>
+        <v>40513.94450951777</v>
       </c>
       <c r="D150">
-        <v>-1863.486516595469</v>
+        <v>-1361.644509517762</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3898,13 +3898,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>39152.3</v>
+        <v>38163</v>
       </c>
       <c r="C151">
-        <v>40541.14319572847</v>
+        <v>39448.51946498321</v>
       </c>
       <c r="D151">
-        <v>-1388.84319572847</v>
+        <v>-1285.519464983212</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3912,13 +3912,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>38163</v>
+        <v>39749</v>
       </c>
       <c r="C152">
-        <v>39472.44951560999</v>
+        <v>38500.22132043426</v>
       </c>
       <c r="D152">
-        <v>-1309.449515609995</v>
+        <v>1248.778679565745</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3926,13 +3926,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>39749</v>
+        <v>40886.4</v>
       </c>
       <c r="C153">
-        <v>38526.44497915837</v>
+        <v>39352.08136241855</v>
       </c>
       <c r="D153">
-        <v>1222.555020841632</v>
+        <v>1534.318637581448</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3940,13 +3940,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>40886.4</v>
+        <v>42823.9</v>
       </c>
       <c r="C154">
-        <v>39362.58503312823</v>
+        <v>40257.55513922013</v>
       </c>
       <c r="D154">
-        <v>1523.814966871767</v>
+        <v>2566.344860779871</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3954,13 +3954,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>42823.9</v>
+        <v>44610.7</v>
       </c>
       <c r="C155">
-        <v>40261.63220238685</v>
+        <v>42358.02904483756</v>
       </c>
       <c r="D155">
-        <v>2562.267797613153</v>
+        <v>2252.670955162437</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3968,13 +3968,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>44610.7</v>
+        <v>43845.6</v>
       </c>
       <c r="C156">
-        <v>42356.16759726335</v>
+        <v>44251.48993629268</v>
       </c>
       <c r="D156">
-        <v>2254.532402736651</v>
+        <v>-405.8899362926823</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3982,13 +3982,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>43845.6</v>
+        <v>46307.1</v>
       </c>
       <c r="C157">
-        <v>44245.25308525317</v>
+        <v>44171.83993367421</v>
       </c>
       <c r="D157">
-        <v>-399.6530852531723</v>
+        <v>2135.260066325784</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3996,13 +3996,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>46307.1</v>
+        <v>45595.1</v>
       </c>
       <c r="C158">
-        <v>44174.22695604566</v>
+        <v>45661.84488057425</v>
       </c>
       <c r="D158">
-        <v>2132.873043954343</v>
+        <v>-66.74488057425333</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4010,13 +4010,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>45595.1</v>
+        <v>45571.7</v>
       </c>
       <c r="C159">
-        <v>45642.56606397</v>
+        <v>45751.21419550224</v>
       </c>
       <c r="D159">
-        <v>-47.46606397000141</v>
+        <v>-179.5141955022409</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4024,13 +4024,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>45571.7</v>
+        <v>44401.1</v>
       </c>
       <c r="C160">
-        <v>45744.87080027028</v>
+        <v>45920.22080789287</v>
       </c>
       <c r="D160">
-        <v>-173.1708002702871</v>
+        <v>-1519.120807892868</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4038,13 +4038,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>44401.1</v>
+        <v>47823.3</v>
       </c>
       <c r="C161">
-        <v>45913.08520384088</v>
+        <v>44776.68328483678</v>
       </c>
       <c r="D161">
-        <v>-1511.985203840886</v>
+        <v>3046.616715163225</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4052,13 +4052,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>47823.3</v>
+        <v>47115.2</v>
       </c>
       <c r="C162">
-        <v>44777.96978613803</v>
+        <v>47116.26253265249</v>
       </c>
       <c r="D162">
-        <v>3045.330213861969</v>
+        <v>-1.062532652489608</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4066,13 +4066,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>47115.2</v>
+        <v>47019.3</v>
       </c>
       <c r="C163">
-        <v>47097.89001219585</v>
+        <v>47207.87283864182</v>
       </c>
       <c r="D163">
-        <v>17.30998780414666</v>
+        <v>-188.5728386418195</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4080,13 +4080,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>47019.3</v>
+        <v>45926.3</v>
       </c>
       <c r="C164">
-        <v>47205.43679937318</v>
+        <v>46861.71978437183</v>
       </c>
       <c r="D164">
-        <v>-186.1367993731765</v>
+        <v>-935.4197843718284</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4094,13 +4094,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>45926.3</v>
+        <v>44672.2</v>
       </c>
       <c r="C165">
-        <v>46854.76139158895</v>
+        <v>46439.10117808548</v>
       </c>
       <c r="D165">
-        <v>-928.4613915889422</v>
+        <v>-1766.901178085478</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4108,13 +4108,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>44672.2</v>
+        <v>44714.7</v>
       </c>
       <c r="C166">
-        <v>46439.68584272122</v>
+        <v>45237.97867017191</v>
       </c>
       <c r="D166">
-        <v>-1767.485842721224</v>
+        <v>-523.278670171916</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4122,13 +4122,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>44714.7</v>
+        <v>46765.3</v>
       </c>
       <c r="C167">
-        <v>45238.18525275122</v>
+        <v>44959.6873188709</v>
       </c>
       <c r="D167">
-        <v>-523.4852527512194</v>
+        <v>1805.612681129103</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4136,13 +4136,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>46765.3</v>
+        <v>49345.4</v>
       </c>
       <c r="C168">
-        <v>44947.55598648098</v>
+        <v>46247.78161447351</v>
       </c>
       <c r="D168">
-        <v>1817.744013519019</v>
+        <v>3097.61838552649</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4150,13 +4150,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>49345.4</v>
+        <v>48865.4</v>
       </c>
       <c r="C169">
-        <v>46224.77517980389</v>
+        <v>48805.65192553612</v>
       </c>
       <c r="D169">
-        <v>3120.624820196113</v>
+        <v>59.74807446388149</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4164,13 +4164,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>48865.4</v>
+        <v>49293.6</v>
       </c>
       <c r="C170">
-        <v>48780.51677099583</v>
+        <v>49024.51467969194</v>
       </c>
       <c r="D170">
-        <v>84.88322900417552</v>
+        <v>269.0853203080551</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4178,13 +4178,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>49293.6</v>
+        <v>49517.3</v>
       </c>
       <c r="C171">
-        <v>49011.908340332</v>
+        <v>49128.63954076315</v>
       </c>
       <c r="D171">
-        <v>281.6916596679948</v>
+        <v>388.6604592368531</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4192,13 +4192,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>49517.3</v>
+        <v>47725.4</v>
       </c>
       <c r="C172">
-        <v>49110.4692141354</v>
+        <v>49713.41232616555</v>
       </c>
       <c r="D172">
-        <v>406.8307858646076</v>
+        <v>-1988.012326165546</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4206,13 +4206,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>47725.4</v>
+        <v>48991.3</v>
       </c>
       <c r="C173">
-        <v>49693.88807035315</v>
+        <v>48245.38933996564</v>
       </c>
       <c r="D173">
-        <v>-1968.488070353153</v>
+        <v>745.9106600343657</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4220,13 +4220,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>48991.3</v>
+        <v>46848.9</v>
       </c>
       <c r="C174">
-        <v>48233.57000351926</v>
+        <v>48681.68545059492</v>
       </c>
       <c r="D174">
-        <v>757.7299964807389</v>
+        <v>-1832.785450594914</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4234,13 +4234,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>46848.9</v>
+        <v>49074.9</v>
       </c>
       <c r="C175">
-        <v>48653.23337175362</v>
+        <v>47315.19536784723</v>
       </c>
       <c r="D175">
-        <v>-1804.333371753615</v>
+        <v>1759.704632152767</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4248,13 +4248,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>49074.9</v>
+        <v>48895.7</v>
       </c>
       <c r="C176">
-        <v>47305.8073877402</v>
+        <v>48497.34068466422</v>
       </c>
       <c r="D176">
-        <v>1769.092612259803</v>
+        <v>398.3593153357797</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4262,13 +4262,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>48895.7</v>
+        <v>48787.7</v>
       </c>
       <c r="C177">
-        <v>48469.57819953054</v>
+        <v>48892.87647979039</v>
       </c>
       <c r="D177">
-        <v>426.1218004694601</v>
+        <v>-105.1764797903888</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4276,13 +4276,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>48787.7</v>
+        <v>46985.7</v>
       </c>
       <c r="C178">
-        <v>48875.15044340429</v>
+        <v>48767.11927146029</v>
       </c>
       <c r="D178">
-        <v>-87.4504434042974</v>
+        <v>-1781.419271460298</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4290,13 +4290,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>46985.7</v>
+        <v>47140</v>
       </c>
       <c r="C179">
-        <v>48748.78530961417</v>
+        <v>47380.07270614452</v>
       </c>
       <c r="D179">
-        <v>-1763.085309614173</v>
+        <v>-240.0727061445214</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4304,13 +4304,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>47140</v>
+        <v>48872.2</v>
       </c>
       <c r="C180">
-        <v>47367.60716245232</v>
+        <v>47285.63822210797</v>
       </c>
       <c r="D180">
-        <v>-227.6071624523247</v>
+        <v>1586.561777892028</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4318,13 +4318,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>48872.2</v>
+        <v>49290.3</v>
       </c>
       <c r="C181">
-        <v>47262.37775747943</v>
+        <v>48372.54600763477</v>
       </c>
       <c r="D181">
-        <v>1609.822242520568</v>
+        <v>917.7539923652366</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4332,13 +4332,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>49290.3</v>
+        <v>50018.6</v>
       </c>
       <c r="C182">
-        <v>48339.1195466041</v>
+        <v>49385.02056776932</v>
       </c>
       <c r="D182">
-        <v>951.1804533959003</v>
+        <v>633.5794322306829</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4346,13 +4346,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>50018.6</v>
+        <v>49956.1</v>
       </c>
       <c r="C183">
-        <v>49360.36359293304</v>
+        <v>49859.38484096497</v>
       </c>
       <c r="D183">
-        <v>658.2364070669573</v>
+        <v>96.71515903503314</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4360,13 +4360,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>49956.1</v>
+        <v>51767.9</v>
       </c>
       <c r="C184">
-        <v>49834.17122382594</v>
+        <v>49952.31840278844</v>
       </c>
       <c r="D184">
-        <v>121.9287761740561</v>
+        <v>1815.58159721156</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4374,13 +4374,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>51767.9</v>
+        <v>52688.3</v>
       </c>
       <c r="C185">
-        <v>49932.54725376673</v>
+        <v>51272.28496469917</v>
       </c>
       <c r="D185">
-        <v>1835.352746233271</v>
+        <v>1416.015035300836</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4388,13 +4388,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>52688.3</v>
+        <v>46882.1</v>
       </c>
       <c r="C186">
-        <v>51244.33974144025</v>
+        <v>52354.37896223734</v>
       </c>
       <c r="D186">
-        <v>1443.960258559753</v>
+        <v>-5472.278962237346</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4402,13 +4402,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>46882.1</v>
+        <v>46073.4</v>
       </c>
       <c r="C187">
-        <v>52328.61881446992</v>
+        <v>47066.13930531235</v>
       </c>
       <c r="D187">
-        <v>-5446.51881446992</v>
+        <v>-992.7393053123451</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4416,13 +4416,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>46073.4</v>
+        <v>46389.6</v>
       </c>
       <c r="C188">
-        <v>47065.04142121111</v>
+        <v>45928.33891503322</v>
       </c>
       <c r="D188">
-        <v>-991.6414212111122</v>
+        <v>461.2610849667763</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4430,13 +4430,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>46389.6</v>
+        <v>44842.2</v>
       </c>
       <c r="C189">
-        <v>45902.71981154673</v>
+        <v>46342.640760472</v>
       </c>
       <c r="D189">
-        <v>486.8801884532731</v>
+        <v>-1500.440760472004</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4444,13 +4444,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>44842.2</v>
+        <v>45137.4</v>
       </c>
       <c r="C190">
-        <v>46315.28848484589</v>
+        <v>45079.77152451767</v>
       </c>
       <c r="D190">
-        <v>-1473.088484845888</v>
+        <v>57.62847548233549</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4458,13 +4458,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>45137.4</v>
+        <v>46061.3</v>
       </c>
       <c r="C191">
-        <v>45061.17060830094</v>
+        <v>45129.10245474755</v>
       </c>
       <c r="D191">
-        <v>76.22939169906022</v>
+        <v>932.1975452524493</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4472,13 +4472,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>46061.3</v>
+        <v>44965.8</v>
       </c>
       <c r="C192">
-        <v>45101.61739308113</v>
+        <v>45734.80323931087</v>
       </c>
       <c r="D192">
-        <v>959.6826069188755</v>
+        <v>-769.0032393108704</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4486,13 +4486,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>44965.8</v>
+        <v>47145.9</v>
       </c>
       <c r="C193">
-        <v>45703.44355108239</v>
+        <v>44885.24193052649</v>
       </c>
       <c r="D193">
-        <v>-737.6435510823867</v>
+        <v>2260.658069473509</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4500,13 +4500,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>47145.9</v>
+        <v>48152.3</v>
       </c>
       <c r="C194">
-        <v>44858.78639648473</v>
+        <v>46490.1441539392</v>
       </c>
       <c r="D194">
-        <v>2287.113603515274</v>
+        <v>1662.155846060807</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4514,13 +4514,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>48152.3</v>
+        <v>47786.9</v>
       </c>
       <c r="C195">
-        <v>46452.07608305677</v>
+        <v>47794.4536514301</v>
       </c>
       <c r="D195">
-        <v>1700.223916943236</v>
+        <v>-7.553651430098398</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4528,13 +4528,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>47786.9</v>
+        <v>47269.7</v>
       </c>
       <c r="C196">
-        <v>47758.23785521121</v>
+        <v>47668.97348068502</v>
       </c>
       <c r="D196">
-        <v>28.66214478878828</v>
+        <v>-399.2734806850203</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4542,13 +4542,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>47269.7</v>
+        <v>48309.9</v>
       </c>
       <c r="C197">
-        <v>47640.66707421507</v>
+        <v>47261.31404785898</v>
       </c>
       <c r="D197">
-        <v>-370.9670742150702</v>
+        <v>1048.585952141024</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4556,13 +4556,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>48309.9</v>
+        <v>47237.8</v>
       </c>
       <c r="C198">
-        <v>47238.026268865</v>
+        <v>48040.7774173786</v>
       </c>
       <c r="D198">
-        <v>1071.873731134998</v>
+        <v>-802.9774173785991</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4570,13 +4570,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>47237.8</v>
+        <v>42992.9</v>
       </c>
       <c r="C199">
-        <v>48014.06245324318</v>
+        <v>47307.71831830965</v>
       </c>
       <c r="D199">
-        <v>-776.2624532431728</v>
+        <v>-4314.818318309648</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4584,13 +4584,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>42992.9</v>
+        <v>40710.6</v>
       </c>
       <c r="C200">
-        <v>47292.61707291181</v>
+        <v>43736.9032585064</v>
       </c>
       <c r="D200">
-        <v>-4299.717072911808</v>
+        <v>-3026.303258506399</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4598,13 +4598,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>40710.6</v>
+        <v>43562.8</v>
       </c>
       <c r="C201">
-        <v>43738.49136579473</v>
+        <v>40974.43270314748</v>
       </c>
       <c r="D201">
-        <v>-3027.891365794727</v>
+        <v>2588.367296852521</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4612,13 +4612,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>43562.8</v>
+        <v>44889.8</v>
       </c>
       <c r="C202">
-        <v>40963.82196266826</v>
+        <v>42827.28999672581</v>
       </c>
       <c r="D202">
-        <v>2598.978037331741</v>
+        <v>2062.51000327419</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4626,13 +4626,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>44889.8</v>
+        <v>42833.2</v>
       </c>
       <c r="C203">
-        <v>42795.76510291435</v>
+        <v>44374.69960727218</v>
       </c>
       <c r="D203">
-        <v>2094.03489708565</v>
+        <v>-1541.499607272184</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4640,13 +4640,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>42833.2</v>
+        <v>42710.1</v>
       </c>
       <c r="C204">
-        <v>44347.20057227907</v>
+        <v>42722.56653751388</v>
       </c>
       <c r="D204">
-        <v>-1514.000572279074</v>
+        <v>-12.4665375138793</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4654,13 +4654,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>42710.1</v>
+        <v>43204.6</v>
       </c>
       <c r="C205">
-        <v>42708.68559634033</v>
+        <v>42381.47794424843</v>
       </c>
       <c r="D205">
-        <v>1.414403659669915</v>
+        <v>823.1220557515699</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4668,13 +4668,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>43204.6</v>
+        <v>42176.3</v>
       </c>
       <c r="C206">
-        <v>42359.32167404563</v>
+        <v>42641.64647729498</v>
       </c>
       <c r="D206">
-        <v>845.2783259543648</v>
+        <v>-465.346477294981</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4682,13 +4682,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>42176.3</v>
+        <v>41038.4</v>
       </c>
       <c r="C207">
-        <v>42617.75519810413</v>
+        <v>42491.22838039974</v>
       </c>
       <c r="D207">
-        <v>-441.4551981041222</v>
+        <v>-1452.82838039974</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4696,13 +4696,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>41038.4</v>
+        <v>41524.8</v>
       </c>
       <c r="C208">
-        <v>42475.2921950251</v>
+        <v>41224.58464873368</v>
       </c>
       <c r="D208">
-        <v>-1436.892195025095</v>
+        <v>300.2153512663208</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4710,13 +4710,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>41524.8</v>
+        <v>43798.7</v>
       </c>
       <c r="C209">
-        <v>41206.72814741567</v>
+        <v>41413.91841529093</v>
       </c>
       <c r="D209">
-        <v>318.0718525843331</v>
+        <v>2384.781584709068</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4724,13 +4724,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>43798.7</v>
+        <v>48163.7</v>
       </c>
       <c r="C210">
-        <v>41391.91068942649</v>
+        <v>43169.34619621652</v>
       </c>
       <c r="D210">
-        <v>2406.789310573506</v>
+        <v>4994.353803783481</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4738,13 +4738,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>48163.7</v>
+        <v>47662</v>
       </c>
       <c r="C211">
-        <v>43138.69852541916</v>
+        <v>46989.29130651416</v>
       </c>
       <c r="D211">
-        <v>5025.001474580837</v>
+        <v>672.708693485838</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4752,13 +4752,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>47662</v>
+        <v>48230.2</v>
       </c>
       <c r="C212">
-        <v>46953.13039934175</v>
+        <v>47695.00718319758</v>
       </c>
       <c r="D212">
-        <v>708.8696006582541</v>
+        <v>535.1928168024169</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4766,13 +4766,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>48230.2</v>
+        <v>49243.3</v>
       </c>
       <c r="C213">
-        <v>47679.87824782769</v>
+        <v>48134.3615933321</v>
       </c>
       <c r="D213">
-        <v>550.3217521723054</v>
+        <v>1108.938406667905</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4780,13 +4780,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>49243.3</v>
+        <v>51487</v>
       </c>
       <c r="C214">
-        <v>48121.17656478704</v>
+        <v>48715.7824854529</v>
       </c>
       <c r="D214">
-        <v>1122.123435212961</v>
+        <v>2771.217514547097</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4794,13 +4794,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>51487</v>
+        <v>55350.2</v>
       </c>
       <c r="C215">
-        <v>48701.93984845571</v>
+        <v>51032.97169366477</v>
       </c>
       <c r="D215">
-        <v>2785.06015154429</v>
+        <v>4317.228306335222</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4808,13 +4808,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>55350.2</v>
+        <v>53817.3</v>
       </c>
       <c r="C216">
-        <v>51019.22677411875</v>
+        <v>54355.39380139032</v>
       </c>
       <c r="D216">
-        <v>4330.973225881251</v>
+        <v>-538.0938013903215</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4822,13 +4822,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>53817.3</v>
+        <v>53960.5</v>
       </c>
       <c r="C217">
-        <v>54339.42582776519</v>
+        <v>54155.98535966749</v>
       </c>
       <c r="D217">
-        <v>-522.1258277651868</v>
+        <v>-195.4853596674948</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4836,13 +4836,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>53960.5</v>
+        <v>54960.2</v>
       </c>
       <c r="C218">
-        <v>54172.67760994843</v>
+        <v>54476.58063335386</v>
       </c>
       <c r="D218">
-        <v>-212.1776099484341</v>
+        <v>483.6193666461331</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4850,13 +4850,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>54960.2</v>
+        <v>54677.5</v>
       </c>
       <c r="C219">
-        <v>54502.14607469888</v>
+        <v>54904.01440682115</v>
       </c>
       <c r="D219">
-        <v>458.0539253011157</v>
+        <v>-226.5144068211521</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4864,13 +4864,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>54677.5</v>
+        <v>57499.5</v>
       </c>
       <c r="C220">
-        <v>54928.10982344657</v>
+        <v>55085.30782083214</v>
       </c>
       <c r="D220">
-        <v>-250.609823446568</v>
+        <v>2414.192179167861</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4878,13 +4878,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>57499.5</v>
+        <v>56010.1</v>
       </c>
       <c r="C221">
-        <v>55115.66289939751</v>
+        <v>57011.53700919963</v>
       </c>
       <c r="D221">
-        <v>2383.83710060249</v>
+        <v>-1001.437009199632</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4892,13 +4892,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>56010.1</v>
+        <v>57381.2</v>
       </c>
       <c r="C222">
-        <v>57025.44524898004</v>
+        <v>56056.78644610468</v>
       </c>
       <c r="D222">
-        <v>-1015.34524898004</v>
+        <v>1324.413553895312</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4906,13 +4906,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>57381.2</v>
+        <v>57377.6</v>
       </c>
       <c r="C223">
-        <v>56088.45101384585</v>
+        <v>56869.85328855952</v>
       </c>
       <c r="D223">
-        <v>1292.748986154147</v>
+        <v>507.746711440479</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4920,13 +4920,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>57377.6</v>
+        <v>61656.2</v>
       </c>
       <c r="C224">
-        <v>56891.30156824737</v>
+        <v>57657.16701569322</v>
       </c>
       <c r="D224">
-        <v>486.2984317526279</v>
+        <v>3999.032984306774</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4934,13 +4934,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>61656.2</v>
+        <v>60873.4</v>
       </c>
       <c r="C225">
-        <v>57683.28393526913</v>
+        <v>60979.42534739037</v>
       </c>
       <c r="D225">
-        <v>3972.916064730867</v>
+        <v>-106.0253473903649</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4948,13 +4948,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>60873.4</v>
+        <v>61526.5</v>
       </c>
       <c r="C226">
-        <v>60980.57281052478</v>
+        <v>61203.72307341117</v>
       </c>
       <c r="D226">
-        <v>-107.1728105247748</v>
+        <v>322.7769265888346</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4962,13 +4962,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>61526.5</v>
+        <v>62037.7</v>
       </c>
       <c r="C227">
-        <v>61222.9370171077</v>
+        <v>61096.09088949279</v>
       </c>
       <c r="D227">
-        <v>303.5629828923047</v>
+        <v>941.6091105072119</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4976,13 +4976,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>62037.7</v>
+        <v>64284.9</v>
       </c>
       <c r="C228">
-        <v>61102.66511899596</v>
+        <v>61824.50193080558</v>
       </c>
       <c r="D228">
-        <v>935.0348810040377</v>
+        <v>2460.398069194423</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4990,13 +4990,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>64284.9</v>
+        <v>66035.8</v>
       </c>
       <c r="C229">
-        <v>61828.46429673113</v>
+        <v>63791.84647417172</v>
       </c>
       <c r="D229">
-        <v>2456.435703268871</v>
+        <v>2243.953525828285</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5004,13 +5004,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>66035.8</v>
+        <v>62198</v>
       </c>
       <c r="C230">
-        <v>63785.07645495881</v>
+        <v>65843.61904591318</v>
       </c>
       <c r="D230">
-        <v>2250.72354504119</v>
+        <v>-3645.619045913176</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5018,13 +5018,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>62198</v>
+        <v>60687.5</v>
       </c>
       <c r="C231">
-        <v>65837.18198385154</v>
+        <v>61374.82076032039</v>
       </c>
       <c r="D231">
-        <v>-3639.181983851537</v>
+        <v>-687.3207603203919</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5032,13 +5032,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>60687.5</v>
+        <v>61296.9</v>
       </c>
       <c r="C232">
-        <v>61386.87043633049</v>
+        <v>61290.13407538809</v>
       </c>
       <c r="D232">
-        <v>-699.3704363304932</v>
+        <v>6.765924611907394</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5046,13 +5046,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>61296.9</v>
+        <v>60882.5</v>
       </c>
       <c r="C233">
-        <v>61290.29932295903</v>
+        <v>61046.56974106895</v>
       </c>
       <c r="D233">
-        <v>6.600677040973096</v>
+        <v>-164.0697410689463</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5060,13 +5060,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>60882.5</v>
+        <v>63081.8</v>
       </c>
       <c r="C234">
-        <v>61030.61136401514</v>
+        <v>60726.58691695392</v>
       </c>
       <c r="D234">
-        <v>-148.111364015138</v>
+        <v>2355.213083046081</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5074,13 +5074,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>63081.8</v>
+        <v>60310.2</v>
       </c>
       <c r="C235">
-        <v>60708.13721061101</v>
+        <v>62686.43841082834</v>
       </c>
       <c r="D235">
-        <v>2373.662789388989</v>
+        <v>-2376.238410828344</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5088,13 +5088,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>60310.2</v>
+        <v>58500.1</v>
       </c>
       <c r="C236">
-        <v>62654.38400795386</v>
+        <v>60857.62722112284</v>
       </c>
       <c r="D236">
-        <v>-2344.18400795386</v>
+        <v>-2357.527221122837</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5102,13 +5102,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>58500.1</v>
+        <v>60613.5</v>
       </c>
       <c r="C237">
-        <v>60845.49006252799</v>
+        <v>59051.28919169355</v>
       </c>
       <c r="D237">
-        <v>-2345.390062527993</v>
+        <v>1562.210808306452</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5116,13 +5116,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>60613.5</v>
+        <v>62246.5</v>
       </c>
       <c r="C238">
-        <v>59029.35248332342</v>
+        <v>60405.33849519711</v>
       </c>
       <c r="D238">
-        <v>1584.147516676581</v>
+        <v>1841.161504802891</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5130,13 +5130,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>62246.5</v>
+        <v>61866.3</v>
       </c>
       <c r="C239">
-        <v>60367.13854425807</v>
+        <v>61919.44487558176</v>
       </c>
       <c r="D239">
-        <v>1879.361455741928</v>
+        <v>-53.1448755817546</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5144,13 +5144,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>61866.3</v>
+        <v>61380.1</v>
       </c>
       <c r="C240">
-        <v>61876.10144494619</v>
+        <v>61695.70463009983</v>
       </c>
       <c r="D240">
-        <v>-9.801444946184347</v>
+        <v>-315.604630099835</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5158,13 +5158,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>61380.1</v>
+        <v>60954.5</v>
       </c>
       <c r="C241">
-        <v>61656.17178257804</v>
+        <v>61276.56119574279</v>
       </c>
       <c r="D241">
-        <v>-276.0717825780448</v>
+        <v>-322.06119574279</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5172,13 +5172,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>60954.5</v>
+        <v>63279.7</v>
       </c>
       <c r="C242">
-        <v>61237.91256237524</v>
+        <v>60899.95548973307</v>
       </c>
       <c r="D242">
-        <v>-283.4125623752407</v>
+        <v>2379.74451026693</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5186,13 +5186,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>63279.7</v>
+        <v>62942.9</v>
       </c>
       <c r="C243">
-        <v>60860.46114703756</v>
+        <v>62880.68824572173</v>
       </c>
       <c r="D243">
-        <v>2419.238852962437</v>
+        <v>62.21175427827256</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5200,13 +5200,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>62942.9</v>
+        <v>61449</v>
       </c>
       <c r="C244">
-        <v>62828.64690805488</v>
+        <v>62560.02365330329</v>
       </c>
       <c r="D244">
-        <v>114.2530919451237</v>
+        <v>-1111.023653303288</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5214,13 +5214,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>61449</v>
+        <v>61006.2</v>
       </c>
       <c r="C245">
-        <v>62514.22012952976</v>
+        <v>61587.91393323983</v>
       </c>
       <c r="D245">
-        <v>-1065.220129529764</v>
+        <v>-581.7139332398365</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5228,13 +5228,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>61006.2</v>
+        <v>61536.3</v>
       </c>
       <c r="C246">
-        <v>61554.58976133144</v>
+        <v>61263.78628813116</v>
       </c>
       <c r="D246">
-        <v>-548.3897613314402</v>
+        <v>272.5137118688435</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5242,13 +5242,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>61536.3</v>
+        <v>63317.8</v>
       </c>
       <c r="C247">
-        <v>61231.47870504949</v>
+        <v>61164.81448786125</v>
       </c>
       <c r="D247">
-        <v>304.8212949505178</v>
+        <v>2152.985512138752</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5256,13 +5256,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>63317.8</v>
+        <v>67559.8</v>
       </c>
       <c r="C248">
-        <v>61126.33908042462</v>
+        <v>62824.19046545071</v>
       </c>
       <c r="D248">
-        <v>2191.46091957538</v>
+        <v>4735.609534549294</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5270,13 +5270,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>67559.8</v>
+        <v>66950</v>
       </c>
       <c r="C249">
-        <v>62782.05775146267</v>
+        <v>66627.76066719923</v>
       </c>
       <c r="D249">
-        <v>4777.742248537332</v>
+        <v>322.2393328007747</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5284,13 +5284,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>66950</v>
+        <v>64969</v>
       </c>
       <c r="C250">
-        <v>66577.88474080537</v>
+        <v>67178.76237074473</v>
       </c>
       <c r="D250">
-        <v>372.1152591946302</v>
+        <v>-2209.762370744735</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5298,13 +5298,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>64969</v>
+        <v>64825.4</v>
       </c>
       <c r="C251">
-        <v>67157.65237249463</v>
+        <v>65366.04798946915</v>
       </c>
       <c r="D251">
-        <v>-2188.652372494631</v>
+        <v>-540.6479894691511</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5312,13 +5312,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>64825.4</v>
+        <v>64153</v>
       </c>
       <c r="C252">
-        <v>65355.40172744903</v>
+        <v>64852.37207010786</v>
       </c>
       <c r="D252">
-        <v>-530.0017274490237</v>
+        <v>-699.3720701078564</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5326,13 +5326,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>64153</v>
+        <v>64393.1</v>
       </c>
       <c r="C253">
-        <v>64831.40474414604</v>
+        <v>64031.10715311499</v>
       </c>
       <c r="D253">
-        <v>-678.4047441460352</v>
+        <v>361.9928468850048</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5340,13 +5340,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>64393.1</v>
+        <v>65495</v>
       </c>
       <c r="C254">
-        <v>64012.28981815569</v>
+        <v>64298.4909261666</v>
       </c>
       <c r="D254">
-        <v>380.8101818443101</v>
+        <v>1196.509073833397</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5354,13 +5354,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>65495</v>
+        <v>63615.8</v>
       </c>
       <c r="C255">
-        <v>64278.81221110507</v>
+        <v>65063.55831627928</v>
       </c>
       <c r="D255">
-        <v>1216.187788894931</v>
+        <v>-1447.758316279273</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5368,13 +5368,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>63615.8</v>
+        <v>60137.2</v>
       </c>
       <c r="C256">
-        <v>65043.31546076631</v>
+        <v>64157.00364736067</v>
       </c>
       <c r="D256">
-        <v>-1427.515460766306</v>
+        <v>-4019.803647360677</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5382,13 +5382,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>60137.2</v>
+        <v>60367.8</v>
       </c>
       <c r="C257">
-        <v>64156.81918633146</v>
+        <v>60515.44427697944</v>
       </c>
       <c r="D257">
-        <v>-4019.619186331467</v>
+        <v>-147.6442769794376</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5396,13 +5396,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>60367.8</v>
+        <v>56921.7</v>
       </c>
       <c r="C258">
-        <v>60514.11449573962</v>
+        <v>59931.2102138835</v>
       </c>
       <c r="D258">
-        <v>-146.3144957396216</v>
+        <v>-3009.510213883506</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5410,13 +5410,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>56921.7</v>
+        <v>58099.6</v>
       </c>
       <c r="C259">
-        <v>59909.72000659187</v>
+        <v>57611.29539304449</v>
       </c>
       <c r="D259">
-        <v>-2988.020006591869</v>
+        <v>488.3046069555057</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5424,13 +5424,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>58099.6</v>
+        <v>59744.2</v>
       </c>
       <c r="C260">
-        <v>57604.16053398872</v>
+        <v>57451.75840741159</v>
       </c>
       <c r="D260">
-        <v>495.4394660112739</v>
+        <v>2292.44159258841</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5438,13 +5438,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>59744.2</v>
+        <v>58646.2</v>
       </c>
       <c r="C261">
-        <v>57416.55259369103</v>
+        <v>59070.71181369292</v>
       </c>
       <c r="D261">
-        <v>2327.647406308963</v>
+        <v>-424.5118136929232</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5452,13 +5452,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>58646.2</v>
+        <v>56295.5</v>
       </c>
       <c r="C262">
-        <v>59031.40144008898</v>
+        <v>58755.53728228585</v>
       </c>
       <c r="D262">
-        <v>-385.2014400889821</v>
+        <v>-2460.037282285848</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5466,13 +5466,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>56295.5</v>
+        <v>57571.4</v>
       </c>
       <c r="C263">
-        <v>58726.62566901504</v>
+        <v>56639.72704504344</v>
       </c>
       <c r="D263">
-        <v>-2431.12566901504</v>
+        <v>931.6729549565571</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5480,13 +5480,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>57571.4</v>
+        <v>57203.3</v>
       </c>
       <c r="C264">
-        <v>56614.768015298</v>
+        <v>56927.62196922746</v>
       </c>
       <c r="D264">
-        <v>956.6319847020059</v>
+        <v>275.6780307725421</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5494,13 +5494,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>57203.3</v>
+        <v>58932.6</v>
       </c>
       <c r="C265">
-        <v>56879.91664027533</v>
+        <v>56816.13533314898</v>
       </c>
       <c r="D265">
-        <v>323.3833597246776</v>
+        <v>2116.464666851018</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5508,13 +5508,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>58932.6</v>
+        <v>53789</v>
       </c>
       <c r="C266">
-        <v>56773.20215145777</v>
+        <v>58410.18997126097</v>
       </c>
       <c r="D266">
-        <v>2159.397848542227</v>
+        <v>-4621.189971260974</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5522,13 +5522,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>53789</v>
+        <v>54784.9</v>
       </c>
       <c r="C267">
-        <v>58361.61180087941</v>
+        <v>54732.39923542248</v>
       </c>
       <c r="D267">
-        <v>-4572.611800879407</v>
+        <v>52.50076457752584</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5536,13 +5536,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>54784.9</v>
+        <v>57300</v>
       </c>
       <c r="C268">
-        <v>54715.99498037641</v>
+        <v>54406.08258842885</v>
       </c>
       <c r="D268">
-        <v>68.90501962359122</v>
+        <v>2893.91741157115</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5550,13 +5550,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>57300</v>
+        <v>57830.2</v>
       </c>
       <c r="C269">
-        <v>54362.32690723598</v>
+        <v>56179.56461935649</v>
       </c>
       <c r="D269">
-        <v>2937.673092764024</v>
+        <v>1650.635380643507</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5564,13 +5564,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>57830.2</v>
+        <v>56980.7</v>
       </c>
       <c r="C270">
-        <v>56131.16609566265</v>
+        <v>57653.21463117057</v>
       </c>
       <c r="D270">
-        <v>1699.033904337346</v>
+        <v>-672.5146311705757</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5578,13 +5578,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>56980.7</v>
+        <v>57237.9</v>
       </c>
       <c r="C271">
-        <v>57616.35209180737</v>
+        <v>57081.8678828155</v>
       </c>
       <c r="D271">
-        <v>-635.6520918073729</v>
+        <v>156.0321171845062</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5592,13 +5592,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>57237.9</v>
+        <v>56526.4</v>
       </c>
       <c r="C272">
-        <v>57055.46780665276</v>
+        <v>57341.71441477355</v>
       </c>
       <c r="D272">
-        <v>182.4321933472384</v>
+        <v>-815.3144147735511</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5606,13 +5606,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>56526.4</v>
+        <v>53678.6</v>
       </c>
       <c r="C273">
-        <v>57315.90482616025</v>
+        <v>56417.63252138723</v>
       </c>
       <c r="D273">
-        <v>-789.5048261602496</v>
+        <v>-2739.032521387235</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5620,13 +5620,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>53678.6</v>
+        <v>49255.1</v>
       </c>
       <c r="C274">
-        <v>56397.43095715861</v>
+        <v>53955.12595370375</v>
       </c>
       <c r="D274">
-        <v>-2718.830957158614</v>
+        <v>-4700.025953703756</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5634,13 +5634,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>49255.1</v>
+        <v>49443.3</v>
       </c>
       <c r="C275">
-        <v>53953.04124362472</v>
+        <v>47942.11590455011</v>
       </c>
       <c r="D275">
-        <v>-4697.941243624722</v>
+        <v>1501.184095449891</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5648,13 +5648,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>49443.3</v>
+        <v>50564.3</v>
       </c>
       <c r="C276">
-        <v>47931.12786652837</v>
+        <v>48909.31170199825</v>
       </c>
       <c r="D276">
-        <v>1512.172133471635</v>
+        <v>1654.988298001757</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5662,13 +5662,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>50564.3</v>
+        <v>50650.1</v>
       </c>
       <c r="C277">
-        <v>48882.24545935611</v>
+        <v>49627.29353948838</v>
       </c>
       <c r="D277">
-        <v>1682.054540643898</v>
+        <v>1022.806460511616</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5676,13 +5676,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>50650.1</v>
+        <v>50515.1</v>
       </c>
       <c r="C278">
-        <v>49597.0930903826</v>
+        <v>50582.15091770938</v>
       </c>
       <c r="D278">
-        <v>1053.006909617397</v>
+        <v>-67.05091770938452</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5690,13 +5690,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>50515.1</v>
+        <v>47581.6</v>
       </c>
       <c r="C279">
-        <v>50557.56109192609</v>
+        <v>49951.90373248728</v>
       </c>
       <c r="D279">
-        <v>-42.46109192608856</v>
+        <v>-2370.303732487278</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5704,13 +5704,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>47581.6</v>
+        <v>47218.3</v>
       </c>
       <c r="C280">
-        <v>49923.66431195483</v>
+        <v>47939.63712003287</v>
       </c>
       <c r="D280">
-        <v>-2342.064311954833</v>
+        <v>-721.3371200328693</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5718,13 +5718,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>47218.3</v>
+        <v>49367.2</v>
       </c>
       <c r="C281">
-        <v>47922.36420703108</v>
+        <v>47498.81423330358</v>
       </c>
       <c r="D281">
-        <v>-704.0642070310787</v>
+        <v>1868.385766696418</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5732,13 +5732,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>49367.2</v>
+        <v>50113.2</v>
       </c>
       <c r="C282">
-        <v>47470.6397108215</v>
+        <v>48537.72886256552</v>
       </c>
       <c r="D282">
-        <v>1896.560289178502</v>
+        <v>1575.471137434477</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5746,13 +5746,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>50113.2</v>
+        <v>46732.2</v>
       </c>
       <c r="C283">
-        <v>48501.08709223803</v>
+        <v>49675.56232715207</v>
       </c>
       <c r="D283">
-        <v>1612.112907761963</v>
+        <v>-2943.362327152077</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5760,13 +5760,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>46732.2</v>
+        <v>48399.2</v>
       </c>
       <c r="C284">
-        <v>49645.83861112277</v>
+        <v>47025.77196265875</v>
       </c>
       <c r="D284">
-        <v>-2913.638611122769</v>
+        <v>1373.428037341248</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5774,13 +5774,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>48399.2</v>
+        <v>48881.3</v>
       </c>
       <c r="C285">
-        <v>47017.38041556282</v>
+        <v>47735.2197971157</v>
       </c>
       <c r="D285">
-        <v>1381.819584437173</v>
+        <v>1146.080202884303</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5788,13 +5788,13 @@
         <v>288</v>
       </c>
       <c r="B286">
-        <v>48881.3</v>
+        <v>47631</v>
       </c>
       <c r="C286">
-        <v>47703.31382270631</v>
+        <v>48269.7442631951</v>
       </c>
       <c r="D286">
-        <v>1177.986177293693</v>
+        <v>-638.744263195098</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5802,13 +5802,13 @@
         <v>289</v>
       </c>
       <c r="B287">
-        <v>47631</v>
+        <v>46168.3</v>
       </c>
       <c r="C287">
-        <v>48245.75978929304</v>
+        <v>47816.10064432367</v>
       </c>
       <c r="D287">
-        <v>-614.7597892930426</v>
+        <v>-1647.800644323666</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5816,13 +5816,13 @@
         <v>290</v>
       </c>
       <c r="B288">
-        <v>46168.3</v>
+        <v>46864.3</v>
       </c>
       <c r="C288">
-        <v>47803.11960996105</v>
+        <v>46214.92876029304</v>
       </c>
       <c r="D288">
-        <v>-1634.819609961043</v>
+        <v>649.3712397069612</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5830,13 +5830,13 @@
         <v>291</v>
       </c>
       <c r="B289">
-        <v>46864.3</v>
+        <v>46688.4</v>
       </c>
       <c r="C289">
-        <v>46203.08235651592</v>
+        <v>46438.04842124261</v>
       </c>
       <c r="D289">
-        <v>661.2176434840876</v>
+        <v>250.3515787573924</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5844,13 +5844,13 @@
         <v>292</v>
       </c>
       <c r="B290">
-        <v>46688.4</v>
+        <v>46898.1</v>
       </c>
       <c r="C290">
-        <v>46422.45774812725</v>
+        <v>46786.51204233336</v>
       </c>
       <c r="D290">
-        <v>265.9422518727515</v>
+        <v>111.5879576666412</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5858,13 +5858,13 @@
         <v>293</v>
       </c>
       <c r="B291">
-        <v>46898.1</v>
+        <v>48925.9</v>
       </c>
       <c r="C291">
-        <v>46782.67158773512</v>
+        <v>46569.1562790149</v>
       </c>
       <c r="D291">
-        <v>115.4284122648824</v>
+        <v>2356.743720985098</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5872,13 +5872,13 @@
         <v>294</v>
       </c>
       <c r="B292">
-        <v>48925.9</v>
+        <v>48624.9</v>
       </c>
       <c r="C292">
-        <v>46563.84613686098</v>
+        <v>48325.14644819564</v>
       </c>
       <c r="D292">
-        <v>2362.053863139023</v>
+        <v>299.753551804366</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5886,13 +5886,13 @@
         <v>295</v>
       </c>
       <c r="B293">
-        <v>48624.9</v>
+        <v>50818.8</v>
       </c>
       <c r="C293">
-        <v>48316.355321859</v>
+        <v>48670.79157730158</v>
       </c>
       <c r="D293">
-        <v>308.5446781409992</v>
+        <v>2148.008422698418</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5900,13 +5900,13 @@
         <v>296</v>
       </c>
       <c r="B294">
-        <v>50818.8</v>
+        <v>50834.3</v>
       </c>
       <c r="C294">
-        <v>48678.0519778908</v>
+        <v>50178.32147891315</v>
       </c>
       <c r="D294">
-        <v>2140.748022109205</v>
+        <v>655.9785210868577</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5914,13 +5914,13 @@
         <v>297</v>
       </c>
       <c r="B295">
-        <v>50834.3</v>
+        <v>50436</v>
       </c>
       <c r="C295">
-        <v>50176.75313989934</v>
+        <v>50886.27254038643</v>
       </c>
       <c r="D295">
-        <v>657.5468601006651</v>
+        <v>-450.2725403864315</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5928,13 +5928,13 @@
         <v>298</v>
       </c>
       <c r="B296">
-        <v>50436</v>
+        <v>50797.3</v>
       </c>
       <c r="C296">
-        <v>50893.4775239028</v>
+        <v>50449.19673663947</v>
       </c>
       <c r="D296">
-        <v>-457.4775239028022</v>
+        <v>348.1032633605355</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5942,13 +5942,13 @@
         <v>299</v>
       </c>
       <c r="B297">
-        <v>50797.3</v>
+        <v>50687.4</v>
       </c>
       <c r="C297">
-        <v>50461.73931985659</v>
+        <v>50484.21159462609</v>
       </c>
       <c r="D297">
-        <v>335.5606801434114</v>
+        <v>203.1884053739122</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5956,13 +5956,13 @@
         <v>300</v>
       </c>
       <c r="B298">
-        <v>50687.4</v>
+        <v>47548.1</v>
       </c>
       <c r="C298">
-        <v>50496.86306387948</v>
+        <v>50889.30782870053</v>
       </c>
       <c r="D298">
-        <v>190.536936120523</v>
+        <v>-3341.207828700535</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5970,13 +5970,13 @@
         <v>301</v>
       </c>
       <c r="B299">
-        <v>47548.1</v>
+        <v>46473.2</v>
       </c>
       <c r="C299">
-        <v>50907.88036512271</v>
+        <v>48110.26081413742</v>
       </c>
       <c r="D299">
-        <v>-3359.780365122715</v>
+        <v>-1637.060814137425</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5984,13 +5984,13 @@
         <v>302</v>
       </c>
       <c r="B300">
-        <v>46473.2</v>
+        <v>47143.8</v>
       </c>
       <c r="C300">
-        <v>48143.99205650706</v>
+        <v>46659.54036071729</v>
       </c>
       <c r="D300">
-        <v>-1670.79205650706</v>
+        <v>484.2596392827109</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5998,13 +5998,13 @@
         <v>303</v>
       </c>
       <c r="B301">
-        <v>47143.8</v>
+        <v>46150</v>
       </c>
       <c r="C301">
-        <v>46681.23839369538</v>
+        <v>46914.9943479779</v>
       </c>
       <c r="D301">
-        <v>462.5616063046255</v>
+        <v>-764.9943479779031</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6012,13 +6012,13 @@
         <v>304</v>
       </c>
       <c r="B302">
-        <v>46150</v>
+        <v>47738.3</v>
       </c>
       <c r="C302">
-        <v>46927.22207315347</v>
+        <v>46419.11262077997</v>
       </c>
       <c r="D302">
-        <v>-777.222073153469</v>
+        <v>1319.187379220035</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6026,13 +6026,13 @@
         <v>305</v>
       </c>
       <c r="B303">
-        <v>47738.3</v>
+        <v>47304.6</v>
       </c>
       <c r="C303">
-        <v>46438.13145327538</v>
+        <v>47283.64579024982</v>
       </c>
       <c r="D303">
-        <v>1300.168546724621</v>
+        <v>20.95420975017623</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6040,13 +6040,13 @@
         <v>306</v>
       </c>
       <c r="B304">
-        <v>47304.6</v>
+        <v>46452.6</v>
       </c>
       <c r="C304">
-        <v>47284.55252142328</v>
+        <v>47180.35350163617</v>
       </c>
       <c r="D304">
-        <v>20.04747857671464</v>
+        <v>-727.7535016361726</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6054,13 +6054,13 @@
         <v>307</v>
       </c>
       <c r="B305">
-        <v>46452.6</v>
+        <v>45858.5</v>
       </c>
       <c r="C305">
-        <v>47184.89942741358</v>
+        <v>46386.48396171375</v>
       </c>
       <c r="D305">
-        <v>-732.2994274135854</v>
+        <v>-527.9839617137477</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6068,13 +6068,13 @@
         <v>308</v>
       </c>
       <c r="B306">
-        <v>45858.5</v>
+        <v>43410</v>
       </c>
       <c r="C306">
-        <v>46389.78592267885</v>
+        <v>46013.55610865353</v>
       </c>
       <c r="D306">
-        <v>-531.2859226788496</v>
+        <v>-2603.556108653531</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6082,13 +6082,13 @@
         <v>309</v>
       </c>
       <c r="B307">
-        <v>43410</v>
+        <v>43124.4</v>
       </c>
       <c r="C307">
-        <v>46014.61712589795</v>
+        <v>43849.00764250605</v>
       </c>
       <c r="D307">
-        <v>-2604.617125897952</v>
+        <v>-724.6076425060528</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6096,13 +6096,13 @@
         <v>310</v>
       </c>
       <c r="B308">
-        <v>43124.4</v>
+        <v>41523.6</v>
       </c>
       <c r="C308">
-        <v>43854.00907421891</v>
+        <v>42951.33278148084</v>
       </c>
       <c r="D308">
-        <v>-729.6090742189117</v>
+        <v>-1427.732781480845</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6110,13 +6110,13 @@
         <v>311</v>
       </c>
       <c r="B309">
-        <v>41523.6</v>
+        <v>41693.2</v>
       </c>
       <c r="C309">
-        <v>42936.5633712983</v>
+        <v>41508.68878142438</v>
       </c>
       <c r="D309">
-        <v>-1412.963371298305</v>
+        <v>184.5112185756152</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6124,13 +6124,13 @@
         <v>312</v>
       </c>
       <c r="B310">
-        <v>41693.2</v>
+        <v>41862.9</v>
       </c>
       <c r="C310">
-        <v>41500.70002481905</v>
+        <v>41363.47327975098</v>
       </c>
       <c r="D310">
-        <v>192.4999751809446</v>
+        <v>499.4267202490228</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6138,13 +6138,13 @@
         <v>313</v>
       </c>
       <c r="B311">
-        <v>41862.9</v>
+        <v>41855.3</v>
       </c>
       <c r="C311">
-        <v>41345.38418690976</v>
+        <v>41709.30868775902</v>
       </c>
       <c r="D311">
-        <v>517.5158130902419</v>
+        <v>145.991312240978</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6152,13 +6152,13 @@
         <v>314</v>
       </c>
       <c r="B312">
-        <v>41855.3</v>
+        <v>42728.8</v>
       </c>
       <c r="C312">
-        <v>41690.81711632688</v>
+        <v>41219.87823859065</v>
       </c>
       <c r="D312">
-        <v>164.4828836731249</v>
+        <v>1508.92176140935</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6166,13 +6166,13 @@
         <v>315</v>
       </c>
       <c r="B313">
-        <v>42728.8</v>
+        <v>43927.8</v>
       </c>
       <c r="C313">
-        <v>41195.20163917905</v>
+        <v>42286.17150272599</v>
       </c>
       <c r="D313">
-        <v>1533.598360820957</v>
+        <v>1641.62849727401</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6180,13 +6180,13 @@
         <v>316</v>
       </c>
       <c r="B314">
-        <v>43927.8</v>
+        <v>42550</v>
       </c>
       <c r="C314">
-        <v>42257.10163531216</v>
+        <v>43508.00730445642</v>
       </c>
       <c r="D314">
-        <v>1670.698364687843</v>
+        <v>-958.0073044564197</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6194,13 +6194,13 @@
         <v>317</v>
       </c>
       <c r="B315">
-        <v>42550</v>
+        <v>43090</v>
       </c>
       <c r="C315">
-        <v>43480.78623607652</v>
+        <v>42740.69938924145</v>
       </c>
       <c r="D315">
-        <v>-930.7862360765212</v>
+        <v>349.3006107585534</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6208,13 +6208,13 @@
         <v>318</v>
       </c>
       <c r="B316">
-        <v>43090</v>
+        <v>43111.5</v>
       </c>
       <c r="C316">
-        <v>42726.63778542479</v>
+        <v>42711.85135568214</v>
       </c>
       <c r="D316">
-        <v>363.3622145752088</v>
+        <v>399.6486443178583</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6222,13 +6222,13 @@
         <v>319</v>
       </c>
       <c r="B317">
-        <v>43111.5</v>
+        <v>43114.5</v>
       </c>
       <c r="C317">
-        <v>42690.07428569704</v>
+        <v>42987.82785007371</v>
       </c>
       <c r="D317">
-        <v>421.4257143029608</v>
+        <v>126.6721499262931</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6236,13 +6236,13 @@
         <v>320</v>
       </c>
       <c r="B318">
-        <v>43114.5</v>
+        <v>42248.1</v>
       </c>
       <c r="C318">
-        <v>42973.60959011997</v>
+        <v>42934.98499554193</v>
       </c>
       <c r="D318">
-        <v>140.890409880034</v>
+        <v>-686.8849955419355</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6250,13 +6250,13 @@
         <v>321</v>
       </c>
       <c r="B319">
-        <v>42248.1</v>
+        <v>42383</v>
       </c>
       <c r="C319">
-        <v>42925.88388640651</v>
+        <v>42169.00621674773</v>
       </c>
       <c r="D319">
-        <v>-677.7838864065125</v>
+        <v>213.9937832522701</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6264,13 +6264,13 @@
         <v>322</v>
       </c>
       <c r="B320">
-        <v>42383</v>
+        <v>41686.2</v>
       </c>
       <c r="C320">
-        <v>42167.4621674075</v>
+        <v>42056.64005849753</v>
       </c>
       <c r="D320">
-        <v>215.5378325925049</v>
+        <v>-370.4400584975374</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6278,13 +6278,13 @@
         <v>323</v>
       </c>
       <c r="B321">
-        <v>41686.2</v>
+        <v>40686.9</v>
       </c>
       <c r="C321">
-        <v>42052.06127117326</v>
+        <v>41629.25870635624</v>
       </c>
       <c r="D321">
-        <v>-365.861271173264</v>
+        <v>-942.3587063562372</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6292,13 +6292,13 @@
         <v>324</v>
       </c>
       <c r="B322">
-        <v>40686.9</v>
+        <v>36468.4</v>
       </c>
       <c r="C322">
-        <v>41631.01300274152</v>
+        <v>41155.00053737788</v>
       </c>
       <c r="D322">
-        <v>-944.1130027415202</v>
+        <v>-4686.600537377883</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6306,13 +6306,13 @@
         <v>325</v>
       </c>
       <c r="B323">
-        <v>36468.4</v>
+        <v>35067.6</v>
       </c>
       <c r="C323">
-        <v>41162.48880054912</v>
+        <v>37115.93340604803</v>
       </c>
       <c r="D323">
-        <v>-4694.088800549114</v>
+        <v>-2048.333406048034</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6320,13 +6320,13 @@
         <v>326</v>
       </c>
       <c r="B324">
-        <v>35067.6</v>
+        <v>36277.5</v>
       </c>
       <c r="C324">
-        <v>37131.32091076238</v>
+        <v>35048.19525943421</v>
       </c>
       <c r="D324">
-        <v>-2063.720910762378</v>
+        <v>1229.304740565785</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6334,13 +6334,13 @@
         <v>327</v>
       </c>
       <c r="B325">
-        <v>36277.5</v>
+        <v>36699.5</v>
       </c>
       <c r="C325">
-        <v>35045.00547029895</v>
+        <v>35750.58667415082</v>
       </c>
       <c r="D325">
-        <v>1232.494529701049</v>
+        <v>948.9133258491784</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6348,13 +6348,13 @@
         <v>328</v>
       </c>
       <c r="B326">
-        <v>36699.5</v>
+        <v>36987.8</v>
       </c>
       <c r="C326">
-        <v>35735.13312020239</v>
+        <v>35825.7496762589</v>
       </c>
       <c r="D326">
-        <v>964.3668797976061</v>
+        <v>1162.050323741103</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6362,13 +6362,13 @@
         <v>329</v>
       </c>
       <c r="B327">
-        <v>36987.8</v>
+        <v>36827.6</v>
       </c>
       <c r="C327">
-        <v>35807.3963126899</v>
+        <v>36623.17931417668</v>
       </c>
       <c r="D327">
-        <v>1180.403687310107</v>
+        <v>204.4206858233156</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6376,13 +6376,13 @@
         <v>330</v>
       </c>
       <c r="B328">
-        <v>36827.6</v>
+        <v>37200.5</v>
       </c>
       <c r="C328">
-        <v>36603.74954140459</v>
+        <v>36983.64971534007</v>
       </c>
       <c r="D328">
-        <v>223.850458595407</v>
+        <v>216.8502846599295</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6390,13 +6390,13 @@
         <v>331</v>
       </c>
       <c r="B329">
-        <v>37200.5</v>
+        <v>37737.9</v>
       </c>
       <c r="C329">
-        <v>36965.51409824864</v>
+        <v>36647.12248487589</v>
       </c>
       <c r="D329">
-        <v>234.9859017513591</v>
+        <v>1090.777515124115</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6404,13 +6404,13 @@
         <v>332</v>
       </c>
       <c r="B330">
-        <v>37737.9</v>
+        <v>38164.9</v>
       </c>
       <c r="C330">
-        <v>36620.39965662732</v>
+        <v>37264.16329417216</v>
       </c>
       <c r="D330">
-        <v>1117.500343372682</v>
+        <v>900.7367058278396</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6418,13 +6418,13 @@
         <v>333</v>
       </c>
       <c r="B331">
-        <v>38164.9</v>
+        <v>37930.1</v>
       </c>
       <c r="C331">
-        <v>37238.45097714246</v>
+        <v>37920.68411052252</v>
       </c>
       <c r="D331">
-        <v>926.4490228575451</v>
+        <v>9.41588947748096</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6432,13 +6432,13 @@
         <v>334</v>
       </c>
       <c r="B332">
-        <v>37930.1</v>
+        <v>38512.1</v>
       </c>
       <c r="C332">
-        <v>37897.3043891394</v>
+        <v>37738.18383144568</v>
       </c>
       <c r="D332">
-        <v>32.7956108606013</v>
+        <v>773.9161685543149</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6446,13 +6446,13 @@
         <v>335</v>
       </c>
       <c r="B333">
-        <v>38512.1</v>
+        <v>38719.9</v>
       </c>
       <c r="C333">
-        <v>37721.40775154542</v>
+        <v>37999.28853024724</v>
       </c>
       <c r="D333">
-        <v>790.6922484545794</v>
+        <v>720.6114697527591</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6460,13 +6460,13 @@
         <v>336</v>
       </c>
       <c r="B334">
-        <v>38719.9</v>
+        <v>36903.3</v>
       </c>
       <c r="C334">
-        <v>37984.70417051337</v>
+        <v>38574.9382314323</v>
       </c>
       <c r="D334">
-        <v>735.1958294866345</v>
+        <v>-1671.638231432298</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6474,13 +6474,13 @@
         <v>337</v>
       </c>
       <c r="B335">
-        <v>36903.3</v>
+        <v>37324.4</v>
       </c>
       <c r="C335">
-        <v>38567.30923795071</v>
+        <v>37145.08079346411</v>
       </c>
       <c r="D335">
-        <v>-1664.009237950704</v>
+        <v>179.3192065358962</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6488,13 +6488,13 @@
         <v>338</v>
       </c>
       <c r="B336">
-        <v>37324.4</v>
+        <v>41585.5</v>
       </c>
       <c r="C336">
-        <v>37151.54405397639</v>
+        <v>36978.11676040692</v>
       </c>
       <c r="D336">
-        <v>172.8559460236138</v>
+        <v>4607.38323959308</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6502,13 +6502,13 @@
         <v>339</v>
       </c>
       <c r="B337">
-        <v>41585.5</v>
+        <v>41419</v>
       </c>
       <c r="C337">
-        <v>36974.75073703992</v>
+        <v>40480.00388219881</v>
       </c>
       <c r="D337">
-        <v>4610.749262960082</v>
+        <v>938.9961178011872</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6516,13 +6516,13 @@
         <v>340</v>
       </c>
       <c r="B338">
-        <v>41419</v>
+        <v>42419.5</v>
       </c>
       <c r="C338">
-        <v>40465.00583548532</v>
+        <v>41353.94337999918</v>
       </c>
       <c r="D338">
-        <v>953.9941645146828</v>
+        <v>1065.556620000818</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6530,13 +6530,13 @@
         <v>341</v>
       </c>
       <c r="B339">
-        <v>42419.5</v>
+        <v>43867.2</v>
       </c>
       <c r="C339">
-        <v>41358.85539875933</v>
+        <v>42151.83439058955</v>
       </c>
       <c r="D339">
-        <v>1060.644601240674</v>
+        <v>1715.365609410452</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6544,13 +6544,13 @@
         <v>342</v>
       </c>
       <c r="B340">
-        <v>43867.2</v>
+        <v>44079.1</v>
       </c>
       <c r="C340">
-        <v>42156.33153404781</v>
+        <v>43519.52683014747</v>
       </c>
       <c r="D340">
-        <v>1710.86846595219</v>
+        <v>559.5731698525269</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6558,13 +6558,13 @@
         <v>343</v>
       </c>
       <c r="B341">
-        <v>44079.1</v>
+        <v>44420</v>
       </c>
       <c r="C341">
-        <v>43524.83157058761</v>
+        <v>44101.31831312318</v>
       </c>
       <c r="D341">
-        <v>554.2684294123901</v>
+        <v>318.6816868768219</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6572,13 +6572,13 @@
         <v>344</v>
       </c>
       <c r="B342">
-        <v>44420</v>
+        <v>43537.5</v>
       </c>
       <c r="C342">
-        <v>44116.15700521864</v>
+        <v>44277.67602547335</v>
       </c>
       <c r="D342">
-        <v>303.8429947813638</v>
+        <v>-740.1760254733526</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6586,13 +6586,13 @@
         <v>345</v>
       </c>
       <c r="B343">
-        <v>43537.5</v>
+        <v>42400.2</v>
       </c>
       <c r="C343">
-        <v>44293.41632906475</v>
+        <v>44063.0728430125</v>
       </c>
       <c r="D343">
-        <v>-755.9163290647484</v>
+        <v>-1662.872843012505</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6600,13 +6600,13 @@
         <v>346</v>
       </c>
       <c r="B344">
-        <v>42400.2</v>
+        <v>42241</v>
       </c>
       <c r="C344">
-        <v>44086.61109652992</v>
+        <v>42702.74257721442</v>
       </c>
       <c r="D344">
-        <v>-1686.411096529926</v>
+        <v>-461.7425772144197</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6614,13 +6614,13 @@
         <v>347</v>
       </c>
       <c r="B345">
-        <v>42241</v>
+        <v>42062.6</v>
       </c>
       <c r="C345">
-        <v>42729.23746233311</v>
+        <v>42344.43184055683</v>
       </c>
       <c r="D345">
-        <v>-488.2374623331052</v>
+        <v>-281.8318405568352</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6628,13 +6628,13 @@
         <v>348</v>
       </c>
       <c r="B346">
-        <v>42062.6</v>
+        <v>42563.5</v>
       </c>
       <c r="C346">
-        <v>42367.43511876885</v>
+        <v>42211.55481630676</v>
       </c>
       <c r="D346">
-        <v>-304.8351187688531</v>
+        <v>351.9451836932421</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6642,13 +6642,13 @@
         <v>349</v>
       </c>
       <c r="B347">
-        <v>42563.5</v>
+        <v>44563.1</v>
       </c>
       <c r="C347">
-        <v>42231.94519734327</v>
+        <v>42420.17009903664</v>
       </c>
       <c r="D347">
-        <v>331.554802656734</v>
+        <v>2142.929900963361</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6656,13 +6656,13 @@
         <v>350</v>
       </c>
       <c r="B348">
-        <v>44563.1</v>
+        <v>43873.1</v>
       </c>
       <c r="C348">
-        <v>42434.96099867482</v>
+        <v>44141.50913394876</v>
       </c>
       <c r="D348">
-        <v>2128.13900132518</v>
+        <v>-268.4091339487568</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6670,13 +6670,13 @@
         <v>351</v>
       </c>
       <c r="B349">
-        <v>43873.1</v>
+        <v>40543.9</v>
       </c>
       <c r="C349">
-        <v>44148.25874359882</v>
+        <v>43899.50489382404</v>
       </c>
       <c r="D349">
-        <v>-275.1587435988185</v>
+        <v>-3355.604893824035</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6684,13 +6684,13 @@
         <v>352</v>
       </c>
       <c r="B350">
-        <v>40543.9</v>
+        <v>40007.4</v>
       </c>
       <c r="C350">
-        <v>43912.68855956685</v>
+        <v>41224.7019565126</v>
       </c>
       <c r="D350">
-        <v>-3368.788559566849</v>
+        <v>-1217.301956512594</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6698,13 +6698,13 @@
         <v>353</v>
       </c>
       <c r="B351">
-        <v>40007.4</v>
+        <v>40095.8</v>
       </c>
       <c r="C351">
-        <v>41248.635889725</v>
+        <v>40059.57779854398</v>
       </c>
       <c r="D351">
-        <v>-1241.235889724994</v>
+        <v>36.22220145602478</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6712,13 +6712,13 @@
         <v>354</v>
       </c>
       <c r="B352">
-        <v>40095.8</v>
+        <v>38400</v>
       </c>
       <c r="C352">
-        <v>40060.9740752546</v>
+        <v>40019.32509691537</v>
       </c>
       <c r="D352">
-        <v>34.82592474540434</v>
+        <v>-1619.325096915374</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6726,13 +6726,13 @@
         <v>355</v>
       </c>
       <c r="B353">
-        <v>38400</v>
+        <v>37019.2</v>
       </c>
       <c r="C353">
-        <v>40014.09658218276</v>
+        <v>38617.0323651283</v>
       </c>
       <c r="D353">
-        <v>-1614.096582182763</v>
+        <v>-1597.832365128299</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6740,13 +6740,13 @@
         <v>356</v>
       </c>
       <c r="B354">
-        <v>37019.2</v>
+        <v>38256.3</v>
       </c>
       <c r="C354">
-        <v>38615.94028056211</v>
+        <v>37430.83069162974</v>
       </c>
       <c r="D354">
-        <v>-1596.740280562117</v>
+        <v>825.4693083702587</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6754,13 +6754,13 @@
         <v>357</v>
       </c>
       <c r="B355">
-        <v>38256.3</v>
+        <v>37250.1</v>
       </c>
       <c r="C355">
-        <v>37423.7118878051</v>
+        <v>37738.15949578518</v>
       </c>
       <c r="D355">
-        <v>832.5881121948987</v>
+        <v>-488.059495785179</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6768,13 +6768,13 @@
         <v>358</v>
       </c>
       <c r="B356">
-        <v>37250.1</v>
+        <v>38340.8</v>
       </c>
       <c r="C356">
-        <v>37712.7996496832</v>
+        <v>37522.75283531209</v>
       </c>
       <c r="D356">
-        <v>-462.6996496831998</v>
+        <v>818.0471646879159</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6782,13 +6782,13 @@
         <v>359</v>
       </c>
       <c r="B357">
-        <v>38340.8</v>
+        <v>39233.5</v>
       </c>
       <c r="C357">
-        <v>37504.43333885576</v>
+        <v>37622.70177734403</v>
       </c>
       <c r="D357">
-        <v>836.3666611442386</v>
+        <v>1610.798222655969</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6796,13 +6796,13 @@
         <v>360</v>
       </c>
       <c r="B358">
-        <v>39233.5</v>
+        <v>39120.2</v>
       </c>
       <c r="C358">
-        <v>37585.67484059973</v>
+        <v>38948.17563917876</v>
       </c>
       <c r="D358">
-        <v>1647.825159400272</v>
+        <v>172.0243608212331</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6810,13 +6810,13 @@
         <v>361</v>
       </c>
       <c r="B359">
-        <v>39120.2</v>
+        <v>37709.1</v>
       </c>
       <c r="C359">
-        <v>38909.3179476654</v>
+        <v>39138.92556065564</v>
       </c>
       <c r="D359">
-        <v>210.8820523346003</v>
+        <v>-1429.825560655641</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6824,13 +6824,13 @@
         <v>362</v>
       </c>
       <c r="B360">
-        <v>37709.1</v>
+        <v>43194.7</v>
       </c>
       <c r="C360">
-        <v>39106.76597104014</v>
+        <v>37925.64251810066</v>
       </c>
       <c r="D360">
-        <v>-1397.665971040144</v>
+        <v>5269.057481899334</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6838,13 +6838,13 @@
         <v>363</v>
       </c>
       <c r="B361">
-        <v>43194.7</v>
+        <v>44427.9</v>
       </c>
       <c r="C361">
-        <v>37899.99226720852</v>
+        <v>42002.66279077627</v>
       </c>
       <c r="D361">
-        <v>5294.707732791481</v>
+        <v>2425.237209223727</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6852,13 +6852,13 @@
         <v>364</v>
       </c>
       <c r="B362">
-        <v>44427.9</v>
+        <v>43922.5</v>
       </c>
       <c r="C362">
-        <v>41947.78458096409</v>
+        <v>44206.66939002681</v>
       </c>
       <c r="D362">
-        <v>2480.115419035908</v>
+        <v>-284.1693900268147</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6866,13 +6866,13 @@
         <v>365</v>
       </c>
       <c r="B363">
-        <v>43922.5</v>
+        <v>42465</v>
       </c>
       <c r="C363">
-        <v>44165.0709486156</v>
+        <v>44134.54792686611</v>
       </c>
       <c r="D363">
-        <v>-242.5709486156047</v>
+        <v>-1669.547926866115</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6880,13 +6880,13 @@
         <v>366</v>
       </c>
       <c r="B364">
-        <v>42465</v>
+        <v>39137.5</v>
       </c>
       <c r="C364">
-        <v>44113.57820828517</v>
+        <v>42702.210620168</v>
       </c>
       <c r="D364">
-        <v>-1648.578208285173</v>
+        <v>-3564.710620168</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6894,13 +6894,13 @@
         <v>367</v>
       </c>
       <c r="B365">
-        <v>39137.5</v>
+        <v>39396.4</v>
       </c>
       <c r="C365">
-        <v>42691.9337153169</v>
+        <v>39763.12416031484</v>
       </c>
       <c r="D365">
-        <v>-3554.433715316896</v>
+        <v>-366.7241603148359</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6908,13 +6908,13 @@
         <v>368</v>
       </c>
       <c r="B366">
-        <v>39396.4</v>
+        <v>38416.3</v>
       </c>
       <c r="C366">
-        <v>39766.00588716513</v>
+        <v>39257.96606675973</v>
       </c>
       <c r="D366">
-        <v>-369.605887165133</v>
+        <v>-841.6660667597316</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6922,13 +6922,13 @@
         <v>369</v>
       </c>
       <c r="B367">
-        <v>38416.3</v>
+        <v>38024</v>
       </c>
       <c r="C367">
-        <v>39245.29121389938</v>
+        <v>38625.4487848282</v>
       </c>
       <c r="D367">
-        <v>-828.991213899375</v>
+        <v>-601.4487848282006</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6936,13 +6936,13 @@
         <v>370</v>
       </c>
       <c r="B368">
-        <v>38024</v>
+        <v>38752.6</v>
       </c>
       <c r="C368">
-        <v>38621.81277210099</v>
+        <v>38152.64233671153</v>
       </c>
       <c r="D368">
-        <v>-597.8127721009878</v>
+        <v>599.9576632884637</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6950,13 +6950,13 @@
         <v>371</v>
       </c>
       <c r="B369">
-        <v>38752.6</v>
+        <v>41965.3</v>
       </c>
       <c r="C369">
-        <v>38153.58310124845</v>
+        <v>38667.33334885766</v>
       </c>
       <c r="D369">
-        <v>599.0168987515499</v>
+        <v>3297.966651142342</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6964,13 +6964,13 @@
         <v>372</v>
       </c>
       <c r="B370">
-        <v>41965.3</v>
+        <v>39435.8</v>
       </c>
       <c r="C370">
-        <v>38665.58288393926</v>
+        <v>41337.19160540101</v>
       </c>
       <c r="D370">
-        <v>3299.717116060747</v>
+        <v>-1901.391605401004</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6978,13 +6978,13 @@
         <v>373</v>
       </c>
       <c r="B371">
-        <v>39435.8</v>
+        <v>38732.1</v>
       </c>
       <c r="C371">
-        <v>41320.61334498924</v>
+        <v>39795.05863073275</v>
       </c>
       <c r="D371">
-        <v>-1884.813344989241</v>
+        <v>-1062.958630732748</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6992,13 +6992,13 @@
         <v>374</v>
       </c>
       <c r="B372">
-        <v>38732.1</v>
+        <v>38785</v>
       </c>
       <c r="C372">
-        <v>39798.66447442781</v>
+        <v>38923.97067370715</v>
       </c>
       <c r="D372">
-        <v>-1066.564474427811</v>
+        <v>-138.9706737071538</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7006,13 +7006,13 @@
         <v>375</v>
       </c>
       <c r="B373">
-        <v>38785</v>
+        <v>37788.4</v>
       </c>
       <c r="C373">
-        <v>38917.39227259999</v>
+        <v>38873.836697804</v>
       </c>
       <c r="D373">
-        <v>-132.3922725999946</v>
+        <v>-1085.436697803998</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7020,13 +7020,13 @@
         <v>376</v>
       </c>
       <c r="B374">
-        <v>37788.4</v>
+        <v>39689.2</v>
       </c>
       <c r="C374">
-        <v>38861.49841250074</v>
+        <v>38010.82668805787</v>
       </c>
       <c r="D374">
-        <v>-1073.098412500738</v>
+        <v>1678.373311942123</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7034,13 +7034,13 @@
         <v>377</v>
       </c>
       <c r="B375">
-        <v>39689.2</v>
+        <v>39325.4</v>
       </c>
       <c r="C375">
-        <v>38002.72532165574</v>
+        <v>39188.88405200552</v>
       </c>
       <c r="D375">
-        <v>1686.474678344261</v>
+        <v>136.5159479944778</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7048,13 +7048,13 @@
         <v>378</v>
       </c>
       <c r="B376">
-        <v>39325.4</v>
+        <v>41124</v>
       </c>
       <c r="C376">
-        <v>39165.24839742757</v>
+        <v>39114.9667198384</v>
       </c>
       <c r="D376">
-        <v>160.1516025724268</v>
+        <v>2009.033280161602</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7062,13 +7062,13 @@
         <v>379</v>
       </c>
       <c r="B377">
-        <v>41124</v>
+        <v>40945.6</v>
       </c>
       <c r="C377">
-        <v>39099.54441634393</v>
+        <v>40676.21672296726</v>
       </c>
       <c r="D377">
-        <v>2024.455583656068</v>
+        <v>269.3832770327354</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7076,13 +7076,13 @@
         <v>380</v>
       </c>
       <c r="B378">
-        <v>40945.6</v>
+        <v>41775.1</v>
       </c>
       <c r="C378">
-        <v>40652.11256766679</v>
+        <v>40930.05935803482</v>
       </c>
       <c r="D378">
-        <v>293.4874323332042</v>
+        <v>845.0406419651772</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7090,13 +7090,13 @@
         <v>381</v>
       </c>
       <c r="B379">
-        <v>41775.1</v>
+        <v>42218</v>
       </c>
       <c r="C379">
-        <v>40918.70858557906</v>
+        <v>41504.19586436301</v>
       </c>
       <c r="D379">
-        <v>856.3914144209411</v>
+        <v>713.804135636994</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7104,13 +7104,13 @@
         <v>382</v>
       </c>
       <c r="B380">
-        <v>42218</v>
+        <v>41289</v>
       </c>
       <c r="C380">
-        <v>41487.65277811806</v>
+        <v>42062.0154761178</v>
       </c>
       <c r="D380">
-        <v>730.3472218819443</v>
+        <v>-773.0154761177982</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7118,13 +7118,13 @@
         <v>383</v>
       </c>
       <c r="B381">
-        <v>41289</v>
+        <v>41014.3</v>
       </c>
       <c r="C381">
-        <v>42047.44719174541</v>
+        <v>41419.78323985027</v>
       </c>
       <c r="D381">
-        <v>-758.4471917454139</v>
+        <v>-405.4832398502622</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7132,13 +7132,13 @@
         <v>384</v>
       </c>
       <c r="B382">
-        <v>41014.3</v>
+        <v>42377.8</v>
       </c>
       <c r="C382">
-        <v>41415.60549654785</v>
+        <v>41008.73888367841</v>
       </c>
       <c r="D382">
-        <v>-401.3054965478441</v>
+        <v>1369.061116321594</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7146,13 +7146,13 @@
         <v>385</v>
       </c>
       <c r="B383">
-        <v>42377.8</v>
+        <v>42910.3</v>
       </c>
       <c r="C383">
-        <v>41006.80133115418</v>
+        <v>42277.60238914272</v>
       </c>
       <c r="D383">
-        <v>1370.998668845823</v>
+        <v>632.6976108572853</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7160,13 +7160,13 @@
         <v>386</v>
       </c>
       <c r="B384">
-        <v>42910.3</v>
+        <v>43989</v>
       </c>
       <c r="C384">
-        <v>42275.05795298449</v>
+        <v>42699.61621524922</v>
       </c>
       <c r="D384">
-        <v>635.2420470155121</v>
+        <v>1289.383784750782</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7174,13 +7174,13 @@
         <v>387</v>
       </c>
       <c r="B385">
-        <v>43989</v>
+        <v>44315.5</v>
       </c>
       <c r="C385">
-        <v>42700.79969752882</v>
+        <v>43755.25630315133</v>
       </c>
       <c r="D385">
-        <v>1288.200302471181</v>
+        <v>560.2436968486727</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7188,13 +7188,13 @@
         <v>388</v>
       </c>
       <c r="B386">
-        <v>44315.5</v>
+        <v>44548</v>
       </c>
       <c r="C386">
-        <v>43757.42620109845</v>
+        <v>44404.96846847866</v>
       </c>
       <c r="D386">
-        <v>558.0737989015543</v>
+        <v>143.0315315213375</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7202,13 +7202,13 @@
         <v>389</v>
       </c>
       <c r="B387">
-        <v>44548</v>
+        <v>46855.2</v>
       </c>
       <c r="C387">
-        <v>44407.54642368227</v>
+        <v>44566.47629759934</v>
       </c>
       <c r="D387">
-        <v>140.4535763177337</v>
+        <v>2288.723702400661</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7216,13 +7216,13 @@
         <v>390</v>
       </c>
       <c r="B388">
-        <v>46855.2</v>
+        <v>47137.9</v>
       </c>
       <c r="C388">
-        <v>44572.43978007108</v>
+        <v>46374.54823148299</v>
       </c>
       <c r="D388">
-        <v>2282.760219928918</v>
+        <v>763.3517685170154</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7230,13 +7230,13 @@
         <v>391</v>
       </c>
       <c r="B389">
-        <v>47137.9</v>
+        <v>47440.2</v>
       </c>
       <c r="C389">
-        <v>46373.06417754001</v>
+        <v>47413.92379755103</v>
       </c>
       <c r="D389">
-        <v>764.8358224599942</v>
+        <v>26.27620244896389</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7244,13 +7244,13 @@
         <v>392</v>
       </c>
       <c r="B390">
-        <v>47440.2</v>
+        <v>47059.3</v>
       </c>
       <c r="C390">
-        <v>47414.55263951164</v>
+        <v>47585.84883259058</v>
       </c>
       <c r="D390">
-        <v>25.64736048835766</v>
+        <v>-526.5488325905753</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7258,13 +7258,13 @@
         <v>393</v>
       </c>
       <c r="B391">
-        <v>47059.3</v>
+        <v>45524.3</v>
       </c>
       <c r="C391">
-        <v>47595.29171772999</v>
+        <v>47204.0900944856</v>
       </c>
       <c r="D391">
-        <v>-535.9917177299867</v>
+        <v>-1679.790094485594</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7272,13 +7272,13 @@
         <v>394</v>
       </c>
       <c r="B392">
-        <v>45524.3</v>
+        <v>46312</v>
       </c>
       <c r="C392">
-        <v>47217.60540018233</v>
+        <v>46020.32547478711</v>
       </c>
       <c r="D392">
-        <v>-1693.305400182326</v>
+        <v>291.6745252128894</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7286,13 +7286,13 @@
         <v>395</v>
       </c>
       <c r="B393">
-        <v>46312</v>
+        <v>45828.6</v>
       </c>
       <c r="C393">
-        <v>46040.49114940638</v>
+        <v>46012.37919689961</v>
       </c>
       <c r="D393">
-        <v>271.5088505936219</v>
+        <v>-183.7791968996098</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7300,13 +7300,13 @@
         <v>396</v>
       </c>
       <c r="B394">
-        <v>45828.6</v>
+        <v>46423.4</v>
       </c>
       <c r="C394">
-        <v>46016.67180766924</v>
+        <v>46166.96743688123</v>
       </c>
       <c r="D394">
-        <v>-188.0718076692428</v>
+        <v>256.4325631187749</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7314,13 +7314,13 @@
         <v>397</v>
       </c>
       <c r="B395">
-        <v>46423.4</v>
+        <v>46617.1</v>
       </c>
       <c r="C395">
-        <v>46176.42601072249</v>
+        <v>46507.81726461639</v>
       </c>
       <c r="D395">
-        <v>246.9739892775106</v>
+        <v>109.282735383611</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7328,13 +7328,13 @@
         <v>398</v>
       </c>
       <c r="B396">
-        <v>46617.1</v>
+        <v>45479.2</v>
       </c>
       <c r="C396">
-        <v>46512.48977262811</v>
+        <v>46370.96949981099</v>
       </c>
       <c r="D396">
-        <v>104.6102273718861</v>
+        <v>-891.7694998109946</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7342,13 +7342,13 @@
         <v>399</v>
       </c>
       <c r="B397">
-        <v>45479.2</v>
+        <v>43179.4</v>
       </c>
       <c r="C397">
-        <v>46371.30184411545</v>
+        <v>45852.51895800441</v>
       </c>
       <c r="D397">
-        <v>-892.101844115452</v>
+        <v>-2673.118958004408</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7356,13 +7356,13 @@
         <v>400</v>
       </c>
       <c r="B398">
-        <v>43179.4</v>
+        <v>43469.8</v>
       </c>
       <c r="C398">
-        <v>45857.59475389271</v>
+        <v>43692.2399981054</v>
       </c>
       <c r="D398">
-        <v>-2678.194753892705</v>
+        <v>-222.4399981054012</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7370,13 +7370,13 @@
         <v>401</v>
       </c>
       <c r="B399">
-        <v>43469.8</v>
+        <v>42282.6</v>
       </c>
       <c r="C399">
-        <v>43695.86218792493</v>
+        <v>43383.02278605929</v>
       </c>
       <c r="D399">
-        <v>-226.0621879249302</v>
+        <v>-1100.422786059287</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7384,13 +7384,13 @@
         <v>402</v>
       </c>
       <c r="B400">
-        <v>42282.6</v>
+        <v>42764</v>
       </c>
       <c r="C400">
-        <v>43370.18042341834</v>
+        <v>42577.39715840832</v>
       </c>
       <c r="D400">
-        <v>-1087.580423418345</v>
+        <v>186.6028415916808</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7398,13 +7398,13 @@
         <v>403</v>
       </c>
       <c r="B401">
-        <v>42764</v>
+        <v>42160</v>
       </c>
       <c r="C401">
-        <v>42569.29966556638</v>
+        <v>42552.99665334112</v>
       </c>
       <c r="D401">
-        <v>194.700334433619</v>
+        <v>-392.9966533411207</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7412,13 +7412,13 @@
         <v>404</v>
       </c>
       <c r="B402">
-        <v>42160</v>
+        <v>39534.6</v>
       </c>
       <c r="C402">
-        <v>42533.75182486555</v>
+        <v>42264.93367110415</v>
       </c>
       <c r="D402">
-        <v>-373.751824865547</v>
+        <v>-2730.333671104156</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7426,13 +7426,13 @@
         <v>405</v>
       </c>
       <c r="B403">
-        <v>39534.6</v>
+        <v>40078.7</v>
       </c>
       <c r="C403">
-        <v>42248.85511386525</v>
+        <v>39989.98381827465</v>
       </c>
       <c r="D403">
-        <v>-2714.255113865249</v>
+        <v>88.71618172535091</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7440,13 +7440,13 @@
         <v>406</v>
       </c>
       <c r="B404">
-        <v>40078.7</v>
+        <v>41150</v>
       </c>
       <c r="C404">
-        <v>39978.43692462247</v>
+        <v>39898.07511095035</v>
       </c>
       <c r="D404">
-        <v>100.2630753775229</v>
+        <v>1251.924889049653</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7454,13 +7454,13 @@
         <v>407</v>
       </c>
       <c r="B405">
-        <v>41150</v>
+        <v>39954.9</v>
       </c>
       <c r="C405">
-        <v>39866.18180058701</v>
+        <v>40748.37946313755</v>
       </c>
       <c r="D405">
-        <v>1283.818199412992</v>
+        <v>-793.479463137548</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7468,13 +7468,13 @@
         <v>408</v>
       </c>
       <c r="B406">
-        <v>39954.9</v>
+        <v>40569.9</v>
       </c>
       <c r="C406">
-        <v>40710.71298573058</v>
+        <v>40062.47465792361</v>
       </c>
       <c r="D406">
-        <v>-755.8129857305757</v>
+        <v>507.4253420763926</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7482,13 +7482,13 @@
         <v>409</v>
       </c>
       <c r="B407">
-        <v>40569.9</v>
+        <v>40381</v>
       </c>
       <c r="C407">
-        <v>40033.48214712828</v>
+        <v>40311.54145223919</v>
       </c>
       <c r="D407">
-        <v>536.4178528717166</v>
+        <v>69.45854776080523</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7496,13 +7496,13 @@
         <v>410</v>
       </c>
       <c r="B408">
-        <v>40381</v>
+        <v>39681.2</v>
       </c>
       <c r="C408">
-        <v>40273.93689989924</v>
+        <v>40213.96947933371</v>
       </c>
       <c r="D408">
-        <v>107.0631001007641</v>
+        <v>-532.7694793337141</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7510,13 +7510,13 @@
         <v>411</v>
       </c>
       <c r="B409">
-        <v>39681.2</v>
+        <v>40811.3</v>
       </c>
       <c r="C409">
-        <v>40180.3930804312</v>
+        <v>39714.05659910616</v>
       </c>
       <c r="D409">
-        <v>-499.1930804312069</v>
+        <v>1097.243400893843</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7524,13 +7524,13 @@
         <v>412</v>
       </c>
       <c r="B410">
-        <v>40811.3</v>
+        <v>41506.2</v>
       </c>
       <c r="C410">
-        <v>39686.31883096293</v>
+        <v>40215.63967266648</v>
       </c>
       <c r="D410">
-        <v>1124.981169037077</v>
+        <v>1290.560327333515</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7538,13 +7538,13 @@
         <v>413</v>
       </c>
       <c r="B411">
-        <v>41506.2</v>
+        <v>41369.9</v>
       </c>
       <c r="C411">
-        <v>40180.40261215829</v>
+        <v>41248.54088088915</v>
       </c>
       <c r="D411">
-        <v>1325.797387841703</v>
+        <v>121.3591191108499</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7552,13 +7552,13 @@
         <v>414</v>
       </c>
       <c r="B412">
-        <v>41369.9</v>
+        <v>40484.1</v>
       </c>
       <c r="C412">
-        <v>41218.07826169693</v>
+        <v>41347.70291371907</v>
       </c>
       <c r="D412">
-        <v>151.8217383030715</v>
+        <v>-863.6029137190708</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7566,13 +7566,13 @@
         <v>415</v>
       </c>
       <c r="B413">
-        <v>40484.1</v>
+        <v>39715.9</v>
       </c>
       <c r="C413">
-        <v>41325.73980283786</v>
+        <v>40776.95288308155</v>
       </c>
       <c r="D413">
-        <v>-841.6398028378608</v>
+        <v>-1061.052883081553</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7580,13 +7580,13 @@
         <v>416</v>
       </c>
       <c r="B414">
-        <v>39715.9</v>
+        <v>39435.6</v>
       </c>
       <c r="C414">
-        <v>40764.04080378843</v>
+        <v>39729.2944402054</v>
       </c>
       <c r="D414">
-        <v>-1048.140803788425</v>
+        <v>-293.6944402053996</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7594,13 +7594,13 @@
         <v>417</v>
       </c>
       <c r="B415">
-        <v>39435.6</v>
+        <v>39467.9</v>
       </c>
       <c r="C415">
-        <v>39713.77564086799</v>
+        <v>39427.6200270533</v>
       </c>
       <c r="D415">
-        <v>-278.1756408679939</v>
+        <v>40.27997294670058</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7608,13 +7608,13 @@
         <v>418</v>
       </c>
       <c r="B416">
-        <v>39467.9</v>
+        <v>40438.5</v>
       </c>
       <c r="C416">
-        <v>39414.06813165059</v>
+        <v>39369.90498692948</v>
       </c>
       <c r="D416">
-        <v>53.83186834941444</v>
+        <v>1068.595013070517</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7622,13 +7622,13 @@
         <v>419</v>
       </c>
       <c r="B417">
-        <v>40438.5</v>
+        <v>38121.7</v>
       </c>
       <c r="C417">
-        <v>39358.79052809439</v>
+        <v>39884.1196029141</v>
       </c>
       <c r="D417">
-        <v>1079.709471905611</v>
+        <v>-1762.419602914102</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7636,13 +7636,13 @@
         <v>420</v>
       </c>
       <c r="B418">
-        <v>38121.7</v>
+        <v>39249.9</v>
       </c>
       <c r="C418">
-        <v>39869.8482229014</v>
+        <v>38516.69509020024</v>
       </c>
       <c r="D418">
-        <v>-1748.1482229014</v>
+        <v>733.2049097997588</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7650,13 +7650,13 @@
         <v>421</v>
       </c>
       <c r="B419">
-        <v>39249.9</v>
+        <v>39752.8</v>
       </c>
       <c r="C419">
-        <v>38521.16101711467</v>
+        <v>38894.8275169886</v>
       </c>
       <c r="D419">
-        <v>728.7389828853338</v>
+        <v>857.9724830113992</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7664,13 +7664,13 @@
         <v>422</v>
       </c>
       <c r="B420">
-        <v>39752.8</v>
+        <v>38599.5</v>
       </c>
       <c r="C420">
-        <v>38881.98566199626</v>
+        <v>39607.73557658306</v>
       </c>
       <c r="D420">
-        <v>870.8143380037436</v>
+        <v>-1008.235576583058</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7678,13 +7678,13 @@
         <v>423</v>
       </c>
       <c r="B421">
-        <v>38599.5</v>
+        <v>37660.8</v>
       </c>
       <c r="C421">
-        <v>39598.61017739324</v>
+        <v>38701.87963382948</v>
       </c>
       <c r="D421">
-        <v>-999.1101773932387</v>
+        <v>-1041.079633829475</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7692,13 +7692,13 @@
         <v>424</v>
       </c>
       <c r="B422">
-        <v>37660.8</v>
+        <v>38474.1</v>
       </c>
       <c r="C422">
-        <v>38700.49579672654</v>
+        <v>37799.22987629006</v>
       </c>
       <c r="D422">
-        <v>-1039.695796726541</v>
+        <v>674.8701237099376</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7706,13 +7706,13 @@
         <v>425</v>
       </c>
       <c r="B423">
-        <v>38474.1</v>
+        <v>38499.9</v>
       </c>
       <c r="C423">
-        <v>37797.27230089998</v>
+        <v>38171.83422727276</v>
       </c>
       <c r="D423">
-        <v>676.8276991000166</v>
+        <v>328.065772727241</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7720,13 +7720,13 @@
         <v>426</v>
       </c>
       <c r="B424">
-        <v>38499.9</v>
+        <v>37727.9</v>
       </c>
       <c r="C424">
-        <v>38159.82493910088</v>
+        <v>38444.66367093859</v>
       </c>
       <c r="D424">
-        <v>340.075060899122</v>
+        <v>-716.7636709385915</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7734,13 +7734,13 @@
         <v>427</v>
       </c>
       <c r="B425">
-        <v>37727.9</v>
+        <v>39682.8</v>
       </c>
       <c r="C425">
-        <v>38437.36840891482</v>
+        <v>37788.43967226222</v>
       </c>
       <c r="D425">
-        <v>-709.4684089148213</v>
+        <v>1894.360327737784</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7748,13 +7748,13 @@
         <v>428</v>
       </c>
       <c r="B426">
-        <v>39682.8</v>
+        <v>36542.6</v>
       </c>
       <c r="C426">
-        <v>37787.26114037775</v>
+        <v>39208.44542336756</v>
       </c>
       <c r="D426">
-        <v>1895.538859622255</v>
+        <v>-2665.845423367566</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7762,13 +7762,13 @@
         <v>429</v>
       </c>
       <c r="B427">
-        <v>36542.6</v>
+        <v>36017.4</v>
       </c>
       <c r="C427">
-        <v>39194.2349218185</v>
+        <v>36898.08976394143</v>
       </c>
       <c r="D427">
-        <v>-2651.634921818506</v>
+        <v>-880.689763941431</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7776,13 +7776,13 @@
         <v>430</v>
       </c>
       <c r="B428">
-        <v>36017.4</v>
+        <v>35463</v>
       </c>
       <c r="C428">
-        <v>36906.80010069187</v>
+        <v>35880.88832130648</v>
       </c>
       <c r="D428">
-        <v>-889.4001006918697</v>
+        <v>-417.8883213064837</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7790,13 +7790,13 @@
         <v>431</v>
       </c>
       <c r="B429">
-        <v>35463</v>
+        <v>34024.2</v>
       </c>
       <c r="C429">
-        <v>35873.08880099761</v>
+        <v>35318.56802362383</v>
       </c>
       <c r="D429">
-        <v>-410.0888009976115</v>
+        <v>-1294.368023623829</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7804,13 +7804,13 @@
         <v>432</v>
       </c>
       <c r="B430">
-        <v>34024.2</v>
+        <v>30075.5</v>
       </c>
       <c r="C430">
-        <v>35310.17267664705</v>
+        <v>34144.57634028867</v>
       </c>
       <c r="D430">
-        <v>-1285.972676647049</v>
+        <v>-4069.076340288666</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7818,13 +7818,13 @@
         <v>433</v>
       </c>
       <c r="B431">
-        <v>30075.5</v>
+        <v>30999.9</v>
       </c>
       <c r="C431">
-        <v>34139.88186869583</v>
+        <v>30847.43480683073</v>
       </c>
       <c r="D431">
-        <v>-4064.381868695833</v>
+        <v>152.4651931692715</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7832,13 +7832,13 @@
         <v>434</v>
       </c>
       <c r="B432">
-        <v>30999.9</v>
+        <v>28994.1</v>
       </c>
       <c r="C432">
-        <v>30853.26346431817</v>
+        <v>30948.76975869889</v>
       </c>
       <c r="D432">
-        <v>146.6365356818278</v>
+        <v>-1954.669758698896</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7846,13 +7846,13 @@
         <v>435</v>
       </c>
       <c r="B433">
-        <v>28994.1</v>
+        <v>28943.4</v>
       </c>
       <c r="C433">
-        <v>30927.71622452311</v>
+        <v>29250.83522177376</v>
       </c>
       <c r="D433">
-        <v>-1933.61622452311</v>
+        <v>-307.4352217737542</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7860,13 +7860,13 @@
         <v>436</v>
       </c>
       <c r="B434">
-        <v>28943.4</v>
+        <v>29222.6</v>
       </c>
       <c r="C434">
-        <v>29238.11205381786</v>
+        <v>28210.13841088531</v>
       </c>
       <c r="D434">
-        <v>-294.7120538178569</v>
+        <v>1012.46158911469</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7874,13 +7874,13 @@
         <v>437</v>
       </c>
       <c r="B435">
-        <v>29222.6</v>
+        <v>30048.2</v>
       </c>
       <c r="C435">
-        <v>28182.69552877594</v>
+        <v>29303.06851215668</v>
       </c>
       <c r="D435">
-        <v>1039.904471224057</v>
+        <v>745.1314878433222</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7888,13 +7888,13 @@
         <v>438</v>
       </c>
       <c r="B436">
-        <v>30048.2</v>
+        <v>31296.9</v>
       </c>
       <c r="C436">
-        <v>29275.62993062982</v>
+        <v>29580.36507434609</v>
       </c>
       <c r="D436">
-        <v>772.5700693701765</v>
+        <v>1716.534925653912</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7902,13 +7902,13 @@
         <v>439</v>
       </c>
       <c r="B437">
-        <v>31296.9</v>
+        <v>29826.1</v>
       </c>
       <c r="C437">
-        <v>29545.41526412562</v>
+        <v>30711.45683790257</v>
       </c>
       <c r="D437">
-        <v>1751.484735874386</v>
+        <v>-885.3568379025746</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7916,13 +7916,13 @@
         <v>440</v>
       </c>
       <c r="B438">
-        <v>29826.1</v>
+        <v>30408.3</v>
       </c>
       <c r="C438">
-        <v>30674.90070803678</v>
+        <v>29807.75136085696</v>
       </c>
       <c r="D438">
-        <v>-848.8007080367825</v>
+        <v>600.5486391430422</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7930,13 +7930,13 @@
         <v>441</v>
       </c>
       <c r="B439">
-        <v>30408.3</v>
+        <v>28664.3</v>
       </c>
       <c r="C439">
-        <v>29783.17452251759</v>
+        <v>30078.53074486915</v>
       </c>
       <c r="D439">
-        <v>625.1254774824083</v>
+        <v>-1414.230744869146</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -7944,13 +7944,13 @@
         <v>442</v>
       </c>
       <c r="B440">
-        <v>28664.3</v>
+        <v>30280.7</v>
       </c>
       <c r="C440">
-        <v>30046.43091049411</v>
+        <v>28909.83890571991</v>
       </c>
       <c r="D440">
-        <v>-1382.130910494114</v>
+        <v>1370.861094280091</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7958,13 +7958,13 @@
         <v>443</v>
       </c>
       <c r="B441">
-        <v>30280.7</v>
+        <v>29167.5</v>
       </c>
       <c r="C441">
-        <v>28895.4838204817</v>
+        <v>29789.53379776655</v>
       </c>
       <c r="D441">
-        <v>1385.216179518302</v>
+        <v>-622.0337977665477</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -7972,13 +7972,13 @@
         <v>444</v>
       </c>
       <c r="B442">
-        <v>29167.5</v>
+        <v>29403.5</v>
       </c>
       <c r="C442">
-        <v>29763.56010801123</v>
+        <v>29232.13247725715</v>
       </c>
       <c r="D442">
-        <v>-596.0601080112319</v>
+        <v>171.3675227428466</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7986,13 +7986,13 @@
         <v>445</v>
       </c>
       <c r="B443">
-        <v>29403.5</v>
+        <v>30268</v>
       </c>
       <c r="C443">
-        <v>29223.84957200712</v>
+        <v>29178.92086593069</v>
       </c>
       <c r="D443">
-        <v>179.6504279928849</v>
+        <v>1089.07913406931</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8000,13 +8000,13 @@
         <v>446</v>
       </c>
       <c r="B444">
-        <v>30268</v>
+        <v>29070</v>
       </c>
       <c r="C444">
-        <v>29167.60167931757</v>
+        <v>29925.55004833787</v>
       </c>
       <c r="D444">
-        <v>1100.398320682427</v>
+        <v>-855.550048337871</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8014,13 +8014,13 @@
         <v>447</v>
       </c>
       <c r="B445">
-        <v>29070</v>
+        <v>29631.8</v>
       </c>
       <c r="C445">
-        <v>29917.33689725829</v>
+        <v>29225.9174952996</v>
       </c>
       <c r="D445">
-        <v>-847.3368972582903</v>
+        <v>405.8825047004029</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8028,13 +8028,13 @@
         <v>448</v>
       </c>
       <c r="B446">
-        <v>29631.8</v>
+        <v>29520.3</v>
       </c>
       <c r="C446">
-        <v>29230.52903690513</v>
+        <v>29320.43037482069</v>
       </c>
       <c r="D446">
-        <v>401.2709630948702</v>
+        <v>199.8696251793117</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8042,13 +8042,13 @@
         <v>449</v>
       </c>
       <c r="B447">
-        <v>29520.3</v>
+        <v>29186.9</v>
       </c>
       <c r="C447">
-        <v>29318.72323091047</v>
+        <v>29516.57478027594</v>
       </c>
       <c r="D447">
-        <v>201.5767690895336</v>
+        <v>-329.6747802759419</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8056,13 +8056,13 @@
         <v>450</v>
       </c>
       <c r="B448">
-        <v>29186.9</v>
+        <v>28580</v>
       </c>
       <c r="C448">
-        <v>29521.71614078436</v>
+        <v>28843.12415126168</v>
       </c>
       <c r="D448">
-        <v>-334.8161407843581</v>
+        <v>-263.1241512616834</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8070,13 +8070,13 @@
         <v>451</v>
       </c>
       <c r="B449">
-        <v>28580</v>
+        <v>29020</v>
       </c>
       <c r="C449">
-        <v>28849.6881662313</v>
+        <v>28600.35222176941</v>
       </c>
       <c r="D449">
-        <v>-269.6881662313026</v>
+        <v>419.6477782305883</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8084,13 +8084,13 @@
         <v>452</v>
       </c>
       <c r="B450">
-        <v>29020</v>
+        <v>29450.4</v>
       </c>
       <c r="C450">
-        <v>28611.5030193279</v>
+        <v>28859.44675144131</v>
       </c>
       <c r="D450">
-        <v>408.4969806720983</v>
+        <v>590.9532485586897</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8098,13 +8098,13 @@
         <v>453</v>
       </c>
       <c r="B451">
-        <v>29450.4</v>
+        <v>31711.7</v>
       </c>
       <c r="C451">
-        <v>28868.21077021909</v>
+        <v>29241.72649764518</v>
       </c>
       <c r="D451">
-        <v>582.18922978091</v>
+        <v>2469.973502354816</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8112,13 +8112,13 @@
         <v>454</v>
       </c>
       <c r="B452">
-        <v>31711.7</v>
+        <v>31780.9</v>
       </c>
       <c r="C452">
-        <v>29250.38551248996</v>
+        <v>31197.03703863936</v>
       </c>
       <c r="D452">
-        <v>2461.314487510037</v>
+        <v>583.862961360639</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8126,13 +8126,13 @@
         <v>455</v>
       </c>
       <c r="B453">
-        <v>31780.9</v>
+        <v>29790</v>
       </c>
       <c r="C453">
-        <v>31198.90334052231</v>
+        <v>31751.62061935528</v>
       </c>
       <c r="D453">
-        <v>581.9966594776924</v>
+        <v>-1961.620619355279</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8140,13 +8140,13 @@
         <v>456</v>
       </c>
       <c r="B454">
-        <v>29790</v>
+        <v>30427</v>
       </c>
       <c r="C454">
-        <v>31759.19978946653</v>
+        <v>30110.91429018469</v>
       </c>
       <c r="D454">
-        <v>-1969.199789466533</v>
+        <v>316.0857098153065</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8154,13 +8154,13 @@
         <v>457</v>
       </c>
       <c r="B455">
-        <v>30427</v>
+        <v>29676.4</v>
       </c>
       <c r="C455">
-        <v>30129.42191167846</v>
+        <v>30406.25289690841</v>
       </c>
       <c r="D455">
-        <v>297.5780883215411</v>
+        <v>-729.8528969084073</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8168,13 +8168,13 @@
         <v>458</v>
       </c>
       <c r="B456">
-        <v>29676.4</v>
+        <v>29850</v>
       </c>
       <c r="C456">
-        <v>30413.59415421476</v>
+        <v>29741.37549653917</v>
       </c>
       <c r="D456">
-        <v>-737.1941542147542</v>
+        <v>108.6245034608291</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8182,13 +8182,13 @@
         <v>459</v>
       </c>
       <c r="B457">
-        <v>29850</v>
+        <v>29907.6</v>
       </c>
       <c r="C457">
-        <v>29752.70721131897</v>
+        <v>29726.89471349237</v>
       </c>
       <c r="D457">
-        <v>97.29278868102847</v>
+        <v>180.705286507633</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8196,13 +8196,13 @@
         <v>460</v>
       </c>
       <c r="B458">
-        <v>29907.6</v>
+        <v>31356.3</v>
       </c>
       <c r="C458">
-        <v>29734.10670867412</v>
+        <v>29818.95252813335</v>
       </c>
       <c r="D458">
-        <v>173.4932913258817</v>
+        <v>1537.347471866651</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8210,13 +8210,13 @@
         <v>461</v>
       </c>
       <c r="B459">
-        <v>31356.3</v>
+        <v>31098.6</v>
       </c>
       <c r="C459">
-        <v>29827.48758903849</v>
+        <v>31049.44457590416</v>
       </c>
       <c r="D459">
-        <v>1528.812410961506</v>
+        <v>49.15542409584305</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8224,13 +8224,13 @@
         <v>462</v>
       </c>
       <c r="B460">
-        <v>31098.6</v>
+        <v>30190.8</v>
       </c>
       <c r="C460">
-        <v>31054.62954224477</v>
+        <v>30714.05888103637</v>
       </c>
       <c r="D460">
-        <v>43.97045775523293</v>
+        <v>-523.2588810363704</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8238,13 +8238,13 @@
         <v>463</v>
       </c>
       <c r="B461">
-        <v>30190.8</v>
+        <v>30075.3</v>
       </c>
       <c r="C461">
-        <v>30722.05960824386</v>
+        <v>30316.97693697539</v>
       </c>
       <c r="D461">
-        <v>-531.2596082438649</v>
+        <v>-241.6769369753929</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8252,13 +8252,13 @@
         <v>464</v>
       </c>
       <c r="B462">
-        <v>30075.3</v>
+        <v>29054.9</v>
       </c>
       <c r="C462">
-        <v>30328.41796509842</v>
+        <v>30118.61310260466</v>
       </c>
       <c r="D462">
-        <v>-253.1179650984232</v>
+        <v>-1063.713102604663</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8266,13 +8266,13 @@
         <v>465</v>
       </c>
       <c r="B463">
-        <v>29054.9</v>
+        <v>28380.2</v>
       </c>
       <c r="C463">
-        <v>30125.33435519091</v>
+        <v>29241.99105447084</v>
       </c>
       <c r="D463">
-        <v>-1070.434355190911</v>
+        <v>-861.7910544708393</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8280,13 +8280,13 @@
         <v>466</v>
       </c>
       <c r="B464">
-        <v>28380.2</v>
+        <v>26569.6</v>
       </c>
       <c r="C464">
-        <v>29252.1984724529</v>
+        <v>28491.49105139781</v>
       </c>
       <c r="D464">
-        <v>-871.9984724528949</v>
+        <v>-1921.891051397812</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8294,13 +8294,13 @@
         <v>467</v>
       </c>
       <c r="B465">
-        <v>26569.6</v>
+        <v>22460.1</v>
       </c>
       <c r="C465">
-        <v>28497.7115509856</v>
+        <v>26914.91750431292</v>
       </c>
       <c r="D465">
-        <v>-1928.111550985603</v>
+        <v>-4454.817504312923</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8308,13 +8308,13 @@
         <v>468</v>
       </c>
       <c r="B466">
-        <v>22460.1</v>
+        <v>22111</v>
       </c>
       <c r="C466">
-        <v>26924.50145030123</v>
+        <v>23263.81908241559</v>
       </c>
       <c r="D466">
-        <v>-4464.401450301229</v>
+        <v>-1152.81908241559</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8322,13 +8322,13 @@
         <v>469</v>
       </c>
       <c r="B467">
-        <v>22111</v>
+        <v>22559.6</v>
       </c>
       <c r="C467">
-        <v>23276.65417338744</v>
+        <v>22002.45773123816</v>
       </c>
       <c r="D467">
-        <v>-1165.65417338744</v>
+        <v>557.1422687618397</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8336,13 +8336,13 @@
         <v>470</v>
       </c>
       <c r="B468">
-        <v>22559.6</v>
+        <v>20366.3</v>
       </c>
       <c r="C468">
-        <v>21992.60832447121</v>
+        <v>21959.95696309597</v>
       </c>
       <c r="D468">
-        <v>566.991675528785</v>
+        <v>-1593.656963095975</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8350,13 +8350,13 @@
         <v>471</v>
       </c>
       <c r="B469">
-        <v>20366.3</v>
+        <v>20432.9</v>
       </c>
       <c r="C469">
-        <v>21938.28206863417</v>
+        <v>20760.87879704173</v>
       </c>
       <c r="D469">
-        <v>-1571.982068634166</v>
+        <v>-327.978797041731</v>
       </c>
     </row>
   </sheetData>

--- a/data/df_compare.xlsx
+++ b/data/df_compare.xlsx
@@ -28,9 +28,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>2021-03-07</t>
-  </si>
-  <si>
     <t>2021-03-08</t>
   </si>
   <si>
@@ -1430,6 +1427,9 @@
   </si>
   <si>
     <t>2022-06-17</t>
+  </si>
+  <si>
+    <t>2022-06-18</t>
   </si>
 </sst>
 </file>
@@ -1812,13 +1812,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>50962.3</v>
+        <v>52375</v>
       </c>
       <c r="C2">
-        <v>48556.59238089006</v>
+        <v>50683.11086998637</v>
       </c>
       <c r="D2">
-        <v>2405.707619109948</v>
+        <v>1691.889130013631</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1826,13 +1826,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>52375</v>
+        <v>54929</v>
       </c>
       <c r="C3">
-        <v>50634.58042402564</v>
+        <v>51778.40733569708</v>
       </c>
       <c r="D3">
-        <v>1740.41957597436</v>
+        <v>3150.592664302923</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1840,13 +1840,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>54929</v>
+        <v>55851</v>
       </c>
       <c r="C4">
-        <v>51727.47197927018</v>
+        <v>54356.64084658773</v>
       </c>
       <c r="D4">
-        <v>3201.52802072982</v>
+        <v>1494.359153412268</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1854,13 +1854,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>55851</v>
+        <v>57809.9</v>
       </c>
       <c r="C5">
-        <v>54313.70800533234</v>
+        <v>55711.42162065954</v>
       </c>
       <c r="D5">
-        <v>1537.291994667656</v>
+        <v>2098.478379340457</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1868,13 +1868,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>57809.9</v>
+        <v>57234</v>
       </c>
       <c r="C6">
-        <v>55670.56598613526</v>
+        <v>57268.18513778226</v>
       </c>
       <c r="D6">
-        <v>2139.33401386474</v>
+        <v>-34.18513778226043</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1882,13 +1882,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>57234</v>
+        <v>61174.9</v>
       </c>
       <c r="C7">
-        <v>57226.64174284424</v>
+        <v>57136.72841871715</v>
       </c>
       <c r="D7">
-        <v>7.358257155763567</v>
+        <v>4038.171581282855</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1896,13 +1896,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>61174.9</v>
+        <v>59001.1</v>
       </c>
       <c r="C8">
-        <v>57082.13970763319</v>
+        <v>60362.6835049267</v>
       </c>
       <c r="D8">
-        <v>4092.760292366809</v>
+        <v>-1361.583504926697</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1910,13 +1910,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>59001.1</v>
+        <v>55600</v>
       </c>
       <c r="C9">
-        <v>60355.06046682737</v>
+        <v>59880.89763681438</v>
       </c>
       <c r="D9">
-        <v>-1353.960466827375</v>
+        <v>-4280.897636814378</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1924,13 +1924,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>55600</v>
+        <v>56891.1</v>
       </c>
       <c r="C10">
-        <v>59827.45525601959</v>
+        <v>56722.54719390532</v>
       </c>
       <c r="D10">
-        <v>-4227.455256019588</v>
+        <v>168.5528060946745</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1938,13 +1938,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>56891.1</v>
+        <v>58933</v>
       </c>
       <c r="C11">
-        <v>56708.07656672872</v>
+        <v>56085.47461931176</v>
       </c>
       <c r="D11">
-        <v>183.0234332712789</v>
+        <v>2847.525380688239</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1952,13 +1952,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>58933</v>
+        <v>57640.9</v>
       </c>
       <c r="C12">
-        <v>56087.99591454201</v>
+        <v>57934.03375965579</v>
       </c>
       <c r="D12">
-        <v>2845.004085457986</v>
+        <v>-293.1337596557933</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1966,13 +1966,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>57640.9</v>
+        <v>58101.8</v>
       </c>
       <c r="C13">
-        <v>57935.49952647691</v>
+        <v>58243.0477007694</v>
       </c>
       <c r="D13">
-        <v>-294.5995264769081</v>
+        <v>-141.247700769396</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1980,13 +1980,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>58101.8</v>
+        <v>58091.6</v>
       </c>
       <c r="C14">
-        <v>58221.22549900065</v>
+        <v>58158.19124009887</v>
       </c>
       <c r="D14">
-        <v>-119.4254990006448</v>
+        <v>-66.59124009886727</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1994,13 +1994,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>58091.6</v>
+        <v>57378.4</v>
       </c>
       <c r="C15">
-        <v>58139.38795001297</v>
+        <v>58520.41882736782</v>
       </c>
       <c r="D15">
-        <v>-47.78795001297112</v>
+        <v>-1142.018827367814</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2008,13 +2008,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>57378.4</v>
+        <v>54095.1</v>
       </c>
       <c r="C16">
-        <v>58495.89205659581</v>
+        <v>57413.08238633895</v>
       </c>
       <c r="D16">
-        <v>-1117.492056595809</v>
+        <v>-3317.982386338954</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2022,13 +2022,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>54095.1</v>
+        <v>54351.3</v>
       </c>
       <c r="C17">
-        <v>57384.80159044253</v>
+        <v>55100.5968994797</v>
       </c>
       <c r="D17">
-        <v>-3289.701590442528</v>
+        <v>-749.2968994796975</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2036,13 +2036,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>54351.3</v>
+        <v>52293.8</v>
       </c>
       <c r="C18">
-        <v>55078.32027638787</v>
+        <v>54443.70542406691</v>
       </c>
       <c r="D18">
-        <v>-727.0202763878624</v>
+        <v>-2149.905424066907</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2050,13 +2050,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>52293.8</v>
+        <v>51314.9</v>
       </c>
       <c r="C19">
-        <v>54430.51778832178</v>
+        <v>53271.70603574182</v>
       </c>
       <c r="D19">
-        <v>-2136.717788321781</v>
+        <v>-1956.806035741822</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2064,13 +2064,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>51314.9</v>
+        <v>55062.2</v>
       </c>
       <c r="C20">
-        <v>53271.94876204613</v>
+        <v>51567.98653545229</v>
       </c>
       <c r="D20">
-        <v>-1957.048762046128</v>
+        <v>3494.213464547705</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2078,13 +2078,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>55062.2</v>
+        <v>55852.4</v>
       </c>
       <c r="C21">
-        <v>51555.87284074294</v>
+        <v>54174.81675603405</v>
       </c>
       <c r="D21">
-        <v>3506.327159257053</v>
+        <v>1677.58324396595</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2092,13 +2092,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>55852.4</v>
+        <v>55782</v>
       </c>
       <c r="C22">
-        <v>54166.61603246357</v>
+        <v>55626.83984578033</v>
       </c>
       <c r="D22">
-        <v>1685.78396753643</v>
+        <v>155.1601542196731</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2106,13 +2106,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>55782</v>
+        <v>57624.2</v>
       </c>
       <c r="C23">
-        <v>55582.03435445087</v>
+        <v>55731.23007446666</v>
       </c>
       <c r="D23">
-        <v>199.9656455491349</v>
+        <v>1892.96992553334</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2120,13 +2120,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>57624.2</v>
+        <v>58781</v>
       </c>
       <c r="C24">
-        <v>55670.76914493537</v>
+        <v>57254.60951301585</v>
       </c>
       <c r="D24">
-        <v>1953.430855064624</v>
+        <v>1526.39048698415</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2134,13 +2134,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>58781</v>
+        <v>58786.2</v>
       </c>
       <c r="C25">
-        <v>57213.02842068321</v>
+        <v>58574.43776681992</v>
       </c>
       <c r="D25">
-        <v>1567.971579316785</v>
+        <v>211.7622331800812</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2148,13 +2148,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>58786.2</v>
+        <v>58732.9</v>
       </c>
       <c r="C26">
-        <v>58514.22904451082</v>
+        <v>58641.87063270291</v>
       </c>
       <c r="D26">
-        <v>271.9709554891742</v>
+        <v>91.02936729709472</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2162,13 +2162,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>58732.9</v>
+        <v>59020.7</v>
       </c>
       <c r="C27">
-        <v>58587.27218514353</v>
+        <v>58798.50203399074</v>
       </c>
       <c r="D27">
-        <v>145.627814856467</v>
+        <v>222.197966009262</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2176,13 +2176,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>59020.7</v>
+        <v>57099</v>
       </c>
       <c r="C28">
-        <v>58739.01780667571</v>
+        <v>59231.52441931325</v>
       </c>
       <c r="D28">
-        <v>281.68219332429</v>
+        <v>-2132.524419313253</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2190,13 +2190,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>57099</v>
+        <v>58195</v>
       </c>
       <c r="C29">
-        <v>59192.00485030441</v>
+        <v>57763.88017531099</v>
       </c>
       <c r="D29">
-        <v>-2093.004850304409</v>
+        <v>431.1198246890126</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2204,13 +2204,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>58195</v>
+        <v>59120</v>
       </c>
       <c r="C30">
-        <v>57726.59370745982</v>
+        <v>57930.24283315694</v>
       </c>
       <c r="D30">
-        <v>468.4062925401813</v>
+        <v>1189.757166843061</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2218,13 +2218,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>59120</v>
+        <v>58017.1</v>
       </c>
       <c r="C31">
-        <v>57901.23192470051</v>
+        <v>58703.59781293101</v>
       </c>
       <c r="D31">
-        <v>1218.768075299493</v>
+        <v>-686.4978129310111</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2232,13 +2232,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>58017.1</v>
+        <v>55928.5</v>
       </c>
       <c r="C32">
-        <v>58678.73428842511</v>
+        <v>58273.66014731397</v>
       </c>
       <c r="D32">
-        <v>-661.6342884251135</v>
+        <v>-2345.160147313974</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2246,13 +2246,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>55928.5</v>
+        <v>58036.9</v>
       </c>
       <c r="C33">
-        <v>58239.81672403529</v>
+        <v>56505.59000380831</v>
       </c>
       <c r="D33">
-        <v>-2311.316724035292</v>
+        <v>1531.309996191696</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2260,13 +2260,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>58036.9</v>
+        <v>58110</v>
       </c>
       <c r="C34">
-        <v>56490.15479717807</v>
+        <v>57566.93495572188</v>
       </c>
       <c r="D34">
-        <v>1546.745202821934</v>
+        <v>543.0650442781189</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2274,13 +2274,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>58110</v>
+        <v>59775.6</v>
       </c>
       <c r="C35">
-        <v>57552.52096106495</v>
+        <v>58212.96187213434</v>
       </c>
       <c r="D35">
-        <v>557.4790389350528</v>
+        <v>1562.638127865655</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2288,13 +2288,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>59775.6</v>
+        <v>59956</v>
       </c>
       <c r="C36">
-        <v>58179.69952652157</v>
+        <v>59745.40279823895</v>
       </c>
       <c r="D36">
-        <v>1595.900473478432</v>
+        <v>210.5972017610475</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2302,13 +2302,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>59956</v>
+        <v>59823.7</v>
       </c>
       <c r="C37">
-        <v>59735.92568508202</v>
+        <v>60023.7923179631</v>
       </c>
       <c r="D37">
-        <v>220.0743149179762</v>
+        <v>-200.0923179631063</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2316,13 +2316,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>59823.7</v>
+        <v>63587.2</v>
       </c>
       <c r="C38">
-        <v>59979.40286492104</v>
+        <v>60135.81748001791</v>
       </c>
       <c r="D38">
-        <v>-155.7028649210406</v>
+        <v>3451.382519982086</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2330,13 +2330,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>63587.2</v>
+        <v>62969</v>
       </c>
       <c r="C39">
-        <v>60099.66032446262</v>
+        <v>62883.39202354288</v>
       </c>
       <c r="D39">
-        <v>3487.53967553738</v>
+        <v>85.60797645711864</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2344,13 +2344,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>62969</v>
+        <v>63243</v>
       </c>
       <c r="C40">
-        <v>62873.43447533426</v>
+        <v>63189.40673244842</v>
       </c>
       <c r="D40">
-        <v>95.56552466574067</v>
+        <v>53.59326755157963</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2358,13 +2358,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>63243</v>
+        <v>61455</v>
       </c>
       <c r="C41">
-        <v>63151.885583221</v>
+        <v>63260.19784434127</v>
       </c>
       <c r="D41">
-        <v>91.11441677900439</v>
+        <v>-1805.197844341266</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2372,13 +2372,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>61455</v>
+        <v>60085.2</v>
       </c>
       <c r="C42">
-        <v>63212.86725657429</v>
+        <v>61813.46338448081</v>
       </c>
       <c r="D42">
-        <v>-1757.867256574289</v>
+        <v>-1728.263384480815</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2386,13 +2386,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>60085.2</v>
+        <v>56239.8</v>
       </c>
       <c r="C43">
-        <v>61788.39561145323</v>
+        <v>60700.59497257155</v>
       </c>
       <c r="D43">
-        <v>-1703.195611453237</v>
+        <v>-4460.794972571544</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2400,13 +2400,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>56239.8</v>
+        <v>55720</v>
       </c>
       <c r="C44">
-        <v>60672.46981926421</v>
+        <v>56083.59749728603</v>
       </c>
       <c r="D44">
-        <v>-4432.669819264207</v>
+        <v>-363.5974972860276</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2414,13 +2414,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>55720</v>
+        <v>56500</v>
       </c>
       <c r="C45">
-        <v>56106.20224086843</v>
+        <v>55885.38269650498</v>
       </c>
       <c r="D45">
-        <v>-386.2022408684279</v>
+        <v>614.6173034950189</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2428,13 +2428,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>56500</v>
+        <v>53815.2</v>
       </c>
       <c r="C46">
-        <v>55880.87686897123</v>
+        <v>55984.15044974229</v>
       </c>
       <c r="D46">
-        <v>619.1231310287694</v>
+        <v>-2168.950449742289</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2442,13 +2442,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>53815.2</v>
+        <v>51730</v>
       </c>
       <c r="C47">
-        <v>55983.9300617799</v>
+        <v>54462.56746670768</v>
       </c>
       <c r="D47">
-        <v>-2168.730061779905</v>
+        <v>-2732.567466707682</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2456,13 +2456,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>51730</v>
+        <v>51178.7</v>
       </c>
       <c r="C48">
-        <v>54435.73146709018</v>
+        <v>52293.1629607606</v>
       </c>
       <c r="D48">
-        <v>-2705.731467090183</v>
+        <v>-1114.462960760604</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2470,13 +2470,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>51178.7</v>
+        <v>50093.4</v>
       </c>
       <c r="C49">
-        <v>52294.97388471699</v>
+        <v>50553.20027902194</v>
       </c>
       <c r="D49">
-        <v>-1116.273884716997</v>
+        <v>-459.8002790219398</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2484,13 +2484,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>50093.4</v>
+        <v>49106.5</v>
       </c>
       <c r="C50">
-        <v>50557.151644098</v>
+        <v>49964.68463925233</v>
       </c>
       <c r="D50">
-        <v>-463.7516440980035</v>
+        <v>-858.1846392523294</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2498,13 +2498,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>49106.5</v>
+        <v>54051.9</v>
       </c>
       <c r="C51">
-        <v>49924.7922780169</v>
+        <v>48843.23345624541</v>
       </c>
       <c r="D51">
-        <v>-818.2922780169029</v>
+        <v>5208.666543754596</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2512,13 +2512,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>54051.9</v>
+        <v>55078.7</v>
       </c>
       <c r="C52">
-        <v>48810.58099350434</v>
+        <v>52800.24107364244</v>
       </c>
       <c r="D52">
-        <v>5241.319006495665</v>
+        <v>2278.458926357562</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2526,13 +2526,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>55078.7</v>
+        <v>54899.3</v>
       </c>
       <c r="C53">
-        <v>52798.82957604727</v>
+        <v>54704.68570695522</v>
       </c>
       <c r="D53">
-        <v>2279.870423952729</v>
+        <v>194.6142930447822</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2540,13 +2540,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>54899.3</v>
+        <v>53579.6</v>
       </c>
       <c r="C54">
-        <v>54645.25523833623</v>
+        <v>54978.44656980097</v>
       </c>
       <c r="D54">
-        <v>254.0447616637684</v>
+        <v>-1398.846569800975</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2554,13 +2554,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>53579.6</v>
+        <v>57780</v>
       </c>
       <c r="C55">
-        <v>54915.28557792703</v>
+        <v>53621.57041189382</v>
       </c>
       <c r="D55">
-        <v>-1335.685577927034</v>
+        <v>4158.429588106184</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2568,13 +2568,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>57780</v>
+        <v>57859.2</v>
       </c>
       <c r="C56">
-        <v>53555.52868129096</v>
+        <v>56644.56733134943</v>
       </c>
       <c r="D56">
-        <v>4224.471318709038</v>
+        <v>1214.632668650564</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2582,13 +2582,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>57859.2</v>
+        <v>56618.5</v>
       </c>
       <c r="C57">
-        <v>56615.69909802785</v>
+        <v>57830.04762680373</v>
       </c>
       <c r="D57">
-        <v>1243.500901972147</v>
+        <v>-1211.547626803731</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2596,13 +2596,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>56618.5</v>
+        <v>57193.5</v>
       </c>
       <c r="C58">
-        <v>57762.58396655727</v>
+        <v>56815.06280341079</v>
       </c>
       <c r="D58">
-        <v>-1144.083966557271</v>
+        <v>378.437196589206</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2610,13 +2610,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>57193.5</v>
+        <v>53239.4</v>
       </c>
       <c r="C59">
-        <v>56751.74201410012</v>
+        <v>57443.50304564169</v>
       </c>
       <c r="D59">
-        <v>441.7579858998797</v>
+        <v>-4204.103045641685</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2624,13 +2624,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>53239.4</v>
+        <v>57497.1</v>
       </c>
       <c r="C60">
-        <v>57417.52552411477</v>
+        <v>54110.08274259554</v>
       </c>
       <c r="D60">
-        <v>-4178.125524114766</v>
+        <v>3387.017257404463</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2638,13 +2638,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>57497.1</v>
+        <v>56421.1</v>
       </c>
       <c r="C61">
-        <v>54090.76911641749</v>
+        <v>56550.3501325884</v>
       </c>
       <c r="D61">
-        <v>3406.330883582508</v>
+        <v>-129.2501325884004</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2652,13 +2652,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>56421.1</v>
+        <v>57383</v>
       </c>
       <c r="C62">
-        <v>56570.47845632509</v>
+        <v>56668.98130623288</v>
       </c>
       <c r="D62">
-        <v>-149.3784563250883</v>
+        <v>714.0186937671242</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2666,13 +2666,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>57383</v>
+        <v>58953.8</v>
       </c>
       <c r="C63">
-        <v>56647.20547749042</v>
+        <v>57254.30140149857</v>
       </c>
       <c r="D63">
-        <v>735.7945225095755</v>
+        <v>1699.498598501435</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2680,13 +2680,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>58953.8</v>
+        <v>58293.1</v>
       </c>
       <c r="C64">
-        <v>57252.58243916578</v>
+        <v>58704.88336706969</v>
       </c>
       <c r="D64">
-        <v>1701.217560834222</v>
+        <v>-411.7833670696928</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2694,13 +2694,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>58293.1</v>
+        <v>55888.1</v>
       </c>
       <c r="C65">
-        <v>58693.45504654986</v>
+        <v>58155.56765025387</v>
       </c>
       <c r="D65">
-        <v>-400.3550465498629</v>
+        <v>-2267.467650253871</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2708,13 +2708,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>55888.1</v>
+        <v>56747.5</v>
       </c>
       <c r="C66">
-        <v>58128.7338296013</v>
+        <v>56217.12162407082</v>
       </c>
       <c r="D66">
-        <v>-2240.633829601305</v>
+        <v>530.3783759291837</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2722,13 +2722,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>56747.5</v>
+        <v>49502.7</v>
       </c>
       <c r="C67">
-        <v>56211.56205473769</v>
+        <v>56345.49943517249</v>
       </c>
       <c r="D67">
-        <v>535.9379452623107</v>
+        <v>-6842.799435172492</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2736,13 +2736,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>49502.7</v>
+        <v>49675.2</v>
       </c>
       <c r="C68">
-        <v>56329.9135350524</v>
+        <v>51153.40308460691</v>
       </c>
       <c r="D68">
-        <v>-6827.213535052404</v>
+        <v>-1478.20308460691</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2750,13 +2750,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>49675.2</v>
+        <v>49899</v>
       </c>
       <c r="C69">
-        <v>51159.86886520417</v>
+        <v>48953.83594212269</v>
       </c>
       <c r="D69">
-        <v>-1484.668865204178</v>
+        <v>945.1640578773076</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2764,13 +2764,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>49899</v>
+        <v>46771.1</v>
       </c>
       <c r="C70">
-        <v>49001.15211840249</v>
+        <v>49982.00208956133</v>
       </c>
       <c r="D70">
-        <v>897.8478815975104</v>
+        <v>-3210.902089561328</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2778,13 +2778,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>46771.1</v>
+        <v>46482.4</v>
       </c>
       <c r="C71">
-        <v>49987.58974453078</v>
+        <v>47530.54831500333</v>
       </c>
       <c r="D71">
-        <v>-3216.48974453078</v>
+        <v>-1048.148315003324</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2792,13 +2792,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>46482.4</v>
+        <v>43551.8</v>
       </c>
       <c r="C72">
-        <v>47521.09485080662</v>
+        <v>46466.09981794261</v>
       </c>
       <c r="D72">
-        <v>-1038.69485080662</v>
+        <v>-2914.299817942607</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2806,13 +2806,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>43551.8</v>
+        <v>42895.2</v>
       </c>
       <c r="C73">
-        <v>46480.70301347591</v>
+        <v>43792.51471528814</v>
       </c>
       <c r="D73">
-        <v>-2928.903013475909</v>
+        <v>-897.3147152881429</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2820,13 +2820,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>42895.2</v>
+        <v>36742.3</v>
       </c>
       <c r="C74">
-        <v>43788.84369492512</v>
+        <v>43239.78143675563</v>
       </c>
       <c r="D74">
-        <v>-893.643694925122</v>
+        <v>-6497.481436755625</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2834,13 +2834,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>36742.3</v>
+        <v>40614.6</v>
       </c>
       <c r="C75">
-        <v>43232.21533533033</v>
+        <v>36544.81268150061</v>
       </c>
       <c r="D75">
-        <v>-6489.915335330326</v>
+        <v>4069.787318499388</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2848,13 +2848,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>40614.6</v>
+        <v>37331.7</v>
       </c>
       <c r="C76">
-        <v>36599.85329098436</v>
+        <v>39545.02387196831</v>
       </c>
       <c r="D76">
-        <v>4014.746709015635</v>
+        <v>-2213.323871968314</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2862,13 +2862,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>37331.7</v>
+        <v>37468.3</v>
       </c>
       <c r="C77">
-        <v>39584.41882405952</v>
+        <v>37364.27139638162</v>
       </c>
       <c r="D77">
-        <v>-2252.718824059528</v>
+        <v>104.0286036183825</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2876,13 +2876,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>37468.3</v>
+        <v>34718.8</v>
       </c>
       <c r="C78">
-        <v>37363.18503833444</v>
+        <v>37065.38748228287</v>
       </c>
       <c r="D78">
-        <v>105.1149616655603</v>
+        <v>-2346.587482282863</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2890,13 +2890,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>34718.8</v>
+        <v>38833.8</v>
       </c>
       <c r="C79">
-        <v>37033.7484822558</v>
+        <v>34470.34564136605</v>
       </c>
       <c r="D79">
-        <v>-2314.948482255801</v>
+        <v>4363.454358633957</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2904,13 +2904,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>38833.8</v>
+        <v>38388.1</v>
       </c>
       <c r="C80">
-        <v>34454.95489866797</v>
+        <v>37849.99455699247</v>
       </c>
       <c r="D80">
-        <v>4378.84510133203</v>
+        <v>538.1054430075237</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2918,13 +2918,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>38388.1</v>
+        <v>39283.9</v>
       </c>
       <c r="C81">
-        <v>37841.1947621919</v>
+        <v>38121.91450431065</v>
       </c>
       <c r="D81">
-        <v>546.9052378081033</v>
+        <v>1161.985495689347</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2932,13 +2932,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>39283.9</v>
+        <v>38516.4</v>
       </c>
       <c r="C82">
-        <v>38067.76249588148</v>
+        <v>39155.45804923215</v>
       </c>
       <c r="D82">
-        <v>1216.137504118517</v>
+        <v>-639.0580492321533</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2946,13 +2946,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>38516.4</v>
+        <v>35683.9</v>
       </c>
       <c r="C83">
-        <v>39109.76164429328</v>
+        <v>38445.71029118537</v>
       </c>
       <c r="D83">
-        <v>-593.3616442932762</v>
+        <v>-2761.810291185371</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2960,13 +2960,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>35683.9</v>
+        <v>34616.6</v>
       </c>
       <c r="C84">
-        <v>38397.43531510526</v>
+        <v>35989.08257440587</v>
       </c>
       <c r="D84">
-        <v>-2713.535315105262</v>
+        <v>-1372.482574405869</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2974,13 +2974,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>34616.6</v>
+        <v>35673.8</v>
       </c>
       <c r="C85">
-        <v>35957.11971679125</v>
+        <v>34784.24949767995</v>
       </c>
       <c r="D85">
-        <v>-1340.519716791248</v>
+        <v>889.5505023200531</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2988,13 +2988,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>35673.8</v>
+        <v>37303.8</v>
       </c>
       <c r="C86">
-        <v>34769.05018624476</v>
+        <v>35126.41250644023</v>
       </c>
       <c r="D86">
-        <v>904.7498137552466</v>
+        <v>2177.387493559771</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3002,13 +3002,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>37303.8</v>
+        <v>36676.3</v>
       </c>
       <c r="C87">
-        <v>35117.69642307116</v>
+        <v>36428.88578321169</v>
       </c>
       <c r="D87">
-        <v>2186.103576928843</v>
+        <v>247.414216788311</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3016,13 +3016,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>36676.3</v>
+        <v>37565.3</v>
       </c>
       <c r="C88">
-        <v>36427.54019949214</v>
+        <v>36574.85518274446</v>
       </c>
       <c r="D88">
-        <v>248.7598005078617</v>
+        <v>990.4448172555421</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3030,13 +3030,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>37565.3</v>
+        <v>39196.6</v>
       </c>
       <c r="C89">
-        <v>36563.33387558114</v>
+        <v>37172.17829428845</v>
       </c>
       <c r="D89">
-        <v>1001.966124418861</v>
+        <v>2024.421705711553</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3044,13 +3044,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>39196.6</v>
+        <v>36847.7</v>
       </c>
       <c r="C90">
-        <v>37169.56321068325</v>
+        <v>38651.86824842346</v>
       </c>
       <c r="D90">
-        <v>2027.036789316749</v>
+        <v>-1804.168248423463</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3058,13 +3058,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>36847.7</v>
+        <v>35534.6</v>
       </c>
       <c r="C91">
-        <v>38647.19272188177</v>
+        <v>36975.22459714492</v>
       </c>
       <c r="D91">
-        <v>-1799.492721881776</v>
+        <v>-1440.624597144917</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3072,13 +3072,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>35534.6</v>
+        <v>35789</v>
       </c>
       <c r="C92">
-        <v>36964.65927586659</v>
+        <v>35780.12741079227</v>
       </c>
       <c r="D92">
-        <v>-1430.059275866595</v>
+        <v>8.872589207734563</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3086,13 +3086,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>35789</v>
+        <v>33587.6</v>
       </c>
       <c r="C93">
-        <v>35781.35906193491</v>
+        <v>35693.79742229699</v>
       </c>
       <c r="D93">
-        <v>7.640938065087539</v>
+        <v>-2106.197422296995</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3100,13 +3100,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>33587.6</v>
+        <v>33420</v>
       </c>
       <c r="C94">
-        <v>35694.58630115645</v>
+        <v>34102.60751150335</v>
       </c>
       <c r="D94">
-        <v>-2106.986301156452</v>
+        <v>-682.6075115033454</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3114,13 +3114,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>33420</v>
+        <v>37396.4</v>
       </c>
       <c r="C95">
-        <v>34115.94174315363</v>
+        <v>32890.23476453427</v>
       </c>
       <c r="D95">
-        <v>-695.9417431536276</v>
+        <v>4506.165235465734</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3128,13 +3128,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>37396.4</v>
+        <v>36678.4</v>
       </c>
       <c r="C96">
-        <v>32920.03498249281</v>
+        <v>36136.09065397947</v>
       </c>
       <c r="D96">
-        <v>4476.365017507189</v>
+        <v>542.3093460205346</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3142,13 +3142,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>36678.4</v>
+        <v>37322.2</v>
       </c>
       <c r="C97">
-        <v>36180.01975991968</v>
+        <v>36786.20327413241</v>
       </c>
       <c r="D97">
-        <v>498.3802400803179</v>
+        <v>535.9967258675897</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3156,13 +3156,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>37322.2</v>
+        <v>35544.9</v>
       </c>
       <c r="C98">
-        <v>36787.75627221922</v>
+        <v>37016.86434496588</v>
       </c>
       <c r="D98">
-        <v>534.4437277807738</v>
+        <v>-1471.964344965883</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3170,13 +3170,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>35544.9</v>
+        <v>39034.6</v>
       </c>
       <c r="C99">
-        <v>37011.94553804999</v>
+        <v>35702.76321465686</v>
       </c>
       <c r="D99">
-        <v>-1467.045538049984</v>
+        <v>3331.836785343134</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3184,13 +3184,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>39034.6</v>
+        <v>40530.8</v>
       </c>
       <c r="C100">
-        <v>35691.66858483905</v>
+        <v>38056.11104322785</v>
       </c>
       <c r="D100">
-        <v>3342.931415160951</v>
+        <v>2474.688956772152</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3198,13 +3198,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>40530.8</v>
+        <v>40166.6</v>
       </c>
       <c r="C101">
-        <v>38074.38332548404</v>
+        <v>40265.29780482374</v>
       </c>
       <c r="D101">
-        <v>2456.41667451596</v>
+        <v>-98.69780482374335</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3212,13 +3212,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>40166.6</v>
+        <v>38337.1</v>
       </c>
       <c r="C102">
-        <v>40262.86729601822</v>
+        <v>40321.90058685116</v>
       </c>
       <c r="D102">
-        <v>-96.26729601821717</v>
+        <v>-1984.800586851161</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3226,13 +3226,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>38337.1</v>
+        <v>38078.2</v>
       </c>
       <c r="C103">
-        <v>40308.3090629551</v>
+        <v>38793.68529882819</v>
       </c>
       <c r="D103">
-        <v>-1971.209062955102</v>
+        <v>-715.4852988281928</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3240,13 +3240,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>38078.2</v>
+        <v>35824</v>
       </c>
       <c r="C104">
-        <v>38787.03551415812</v>
+        <v>38265.13139476338</v>
       </c>
       <c r="D104">
-        <v>-708.8355141581269</v>
+        <v>-2441.131394763375</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3254,13 +3254,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>35824</v>
+        <v>35490.5</v>
       </c>
       <c r="C105">
-        <v>38272.14911145491</v>
+        <v>36188.09935802263</v>
       </c>
       <c r="D105">
-        <v>-2448.149111454914</v>
+        <v>-697.599358022635</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3268,13 +3268,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>35490.5</v>
+        <v>35595</v>
       </c>
       <c r="C106">
-        <v>36191.90571920857</v>
+        <v>35564.33073360387</v>
       </c>
       <c r="D106">
-        <v>-701.4057192085747</v>
+        <v>30.66926639612939</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3282,13 +3282,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>35595</v>
+        <v>31655.2</v>
       </c>
       <c r="C107">
-        <v>35572.86097104031</v>
+        <v>35167.64420001394</v>
       </c>
       <c r="D107">
-        <v>22.13902895968931</v>
+        <v>-3512.444200013935</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3296,13 +3296,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>31655.2</v>
+        <v>32516.2</v>
       </c>
       <c r="C108">
-        <v>35182.44448414493</v>
+        <v>32431.79218555354</v>
       </c>
       <c r="D108">
-        <v>-3527.244484144929</v>
+        <v>84.407814446462</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3310,13 +3310,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>32516.2</v>
+        <v>33683.3</v>
       </c>
       <c r="C109">
-        <v>32455.83201567658</v>
+        <v>31776.43226281794</v>
       </c>
       <c r="D109">
-        <v>60.36798432341675</v>
+        <v>1906.867737182067</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3324,13 +3324,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>33683.3</v>
+        <v>34666.6</v>
       </c>
       <c r="C110">
-        <v>31819.20996115166</v>
+        <v>33585.79845331649</v>
       </c>
       <c r="D110">
-        <v>1864.090038848342</v>
+        <v>1080.801546683513</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3338,13 +3338,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>34666.6</v>
+        <v>31583.7</v>
       </c>
       <c r="C111">
-        <v>33599.07216858429</v>
+        <v>34195.34954397196</v>
       </c>
       <c r="D111">
-        <v>1067.527831415711</v>
+        <v>-2611.649543971955</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3352,13 +3352,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>31583.7</v>
+        <v>32277</v>
       </c>
       <c r="C112">
-        <v>34192.10177306474</v>
+        <v>32312.1181937667</v>
       </c>
       <c r="D112">
-        <v>-2608.401773064743</v>
+        <v>-35.11819376669882</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3366,13 +3366,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>32277</v>
+        <v>34675.3</v>
       </c>
       <c r="C113">
-        <v>32301.07354916223</v>
+        <v>31791.88239946401</v>
       </c>
       <c r="D113">
-        <v>-24.07354916223267</v>
+        <v>2883.417600535991</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3380,13 +3380,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>34675.3</v>
+        <v>34472</v>
       </c>
       <c r="C114">
-        <v>31785.1127328158</v>
+        <v>33973.08914203486</v>
       </c>
       <c r="D114">
-        <v>2890.187267184199</v>
+        <v>498.9108579651365</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3394,13 +3394,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>34472</v>
+        <v>35903.3</v>
       </c>
       <c r="C115">
-        <v>33962.22665270914</v>
+        <v>34465.44157980241</v>
       </c>
       <c r="D115">
-        <v>509.7733472908585</v>
+        <v>1437.85842019759</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3408,13 +3408,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>35903.3</v>
+        <v>35046.2</v>
       </c>
       <c r="C116">
-        <v>34431.46079089689</v>
+        <v>35633.38759933067</v>
       </c>
       <c r="D116">
-        <v>1471.839209103113</v>
+        <v>-587.1875993306749</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3422,13 +3422,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>35046.2</v>
+        <v>33532.4</v>
       </c>
       <c r="C117">
-        <v>35612.85454285996</v>
+        <v>35004.68133127478</v>
       </c>
       <c r="D117">
-        <v>-566.6545428599638</v>
+        <v>-1472.281331274782</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3436,13 +3436,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>33532.4</v>
+        <v>33802.9</v>
       </c>
       <c r="C118">
-        <v>34973.9976123536</v>
+        <v>33624.30461905447</v>
       </c>
       <c r="D118">
-        <v>-1441.597612353602</v>
+        <v>178.5953809455314</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3450,13 +3450,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>33802.9</v>
+        <v>34685.4</v>
       </c>
       <c r="C119">
-        <v>33596.9326767965</v>
+        <v>33544.23772075547</v>
       </c>
       <c r="D119">
-        <v>205.9673232035057</v>
+        <v>1141.162279244534</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3464,13 +3464,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>34685.4</v>
+        <v>35305</v>
       </c>
       <c r="C120">
-        <v>33523.84708272231</v>
+        <v>34380.63884676703</v>
       </c>
       <c r="D120">
-        <v>1161.552917277695</v>
+        <v>924.3611532329669</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3478,13 +3478,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>35305</v>
+        <v>33697.6</v>
       </c>
       <c r="C121">
-        <v>34361.97665337251</v>
+        <v>35183.1328298053</v>
       </c>
       <c r="D121">
-        <v>943.0233466274949</v>
+        <v>-1485.532829805299</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3492,13 +3492,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>33697.6</v>
+        <v>34235</v>
       </c>
       <c r="C122">
-        <v>35165.60214696116</v>
+        <v>33874.72594728066</v>
       </c>
       <c r="D122">
-        <v>-1468.00214696116</v>
+        <v>360.2740527193382</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3506,13 +3506,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>34235</v>
+        <v>33885.1</v>
       </c>
       <c r="C123">
-        <v>33858.33920767596</v>
+        <v>34232.51213047125</v>
       </c>
       <c r="D123">
-        <v>376.6607923240372</v>
+        <v>-347.4121304712535</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3520,13 +3520,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>33885.1</v>
+        <v>32882.2</v>
       </c>
       <c r="C124">
-        <v>34229.10180013771</v>
+        <v>34099.13799445324</v>
       </c>
       <c r="D124">
-        <v>-344.0018001377102</v>
+        <v>-1216.937994453241</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3534,13 +3534,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>32882.2</v>
+        <v>33791</v>
       </c>
       <c r="C125">
-        <v>34087.53308004355</v>
+        <v>32913.73547324796</v>
       </c>
       <c r="D125">
-        <v>-1205.333080043551</v>
+        <v>877.264526752042</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3548,13 +3548,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>33791</v>
+        <v>33522.2</v>
       </c>
       <c r="C126">
-        <v>32904.23452413593</v>
+        <v>33457.86528474516</v>
       </c>
       <c r="D126">
-        <v>886.765475864071</v>
+        <v>64.33471525483765</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3562,13 +3562,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>33522.2</v>
+        <v>34246.9</v>
       </c>
       <c r="C127">
-        <v>33454.16506629977</v>
+        <v>33514.83396707232</v>
       </c>
       <c r="D127">
-        <v>68.03493370022625</v>
+        <v>732.0660329276798</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3576,13 +3576,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>34246.9</v>
+        <v>33107.3</v>
       </c>
       <c r="C128">
-        <v>33500.89682336496</v>
+        <v>34065.45887354789</v>
       </c>
       <c r="D128">
-        <v>746.0031766350367</v>
+        <v>-958.1588735478872</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3590,13 +3590,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>33107.3</v>
+        <v>32722.9</v>
       </c>
       <c r="C129">
-        <v>34053.05373587592</v>
+        <v>33309.11070342966</v>
       </c>
       <c r="D129">
-        <v>-945.7537358759146</v>
+        <v>-586.2107034296569</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3604,13 +3604,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>32722.9</v>
+        <v>32815.2</v>
       </c>
       <c r="C130">
-        <v>33293.30249377519</v>
+        <v>32687.30717972318</v>
       </c>
       <c r="D130">
-        <v>-570.4024937751892</v>
+        <v>127.8928202768147</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3618,13 +3618,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>32815.2</v>
+        <v>31832.6</v>
       </c>
       <c r="C131">
-        <v>32673.04301839969</v>
+        <v>32529.23755604081</v>
       </c>
       <c r="D131">
-        <v>142.156981600303</v>
+        <v>-696.6375560408123</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3632,13 +3632,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>31832.6</v>
+        <v>31405.9</v>
       </c>
       <c r="C132">
-        <v>32518.26516955787</v>
+        <v>31909.05091235779</v>
       </c>
       <c r="D132">
-        <v>-685.6651695578694</v>
+        <v>-503.1509123577925</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3646,13 +3646,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>31405.9</v>
+        <v>31510</v>
       </c>
       <c r="C133">
-        <v>31896.4184595534</v>
+        <v>31435.87620844862</v>
       </c>
       <c r="D133">
-        <v>-490.518459553401</v>
+        <v>74.12379155137751</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3660,13 +3660,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>31510</v>
+        <v>31780.1</v>
       </c>
       <c r="C134">
-        <v>31422.91995954121</v>
+        <v>31452.46926046947</v>
       </c>
       <c r="D134">
-        <v>87.08004045879352</v>
+        <v>327.6307395305266</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3674,13 +3674,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>31780.1</v>
+        <v>30820.5</v>
       </c>
       <c r="C135">
-        <v>31440.16173839844</v>
+        <v>31689.55618482167</v>
       </c>
       <c r="D135">
-        <v>339.9382616015573</v>
+        <v>-869.0561848216748</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3688,13 +3688,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>30820.5</v>
+        <v>29788.1</v>
       </c>
       <c r="C136">
-        <v>31675.35396797943</v>
+        <v>30886.24035691538</v>
       </c>
       <c r="D136">
-        <v>-854.8539679794339</v>
+        <v>-1098.140356915384</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3702,13 +3702,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>29788.1</v>
+        <v>32125</v>
       </c>
       <c r="C137">
-        <v>30868.79310346486</v>
+        <v>29872.77702963242</v>
       </c>
       <c r="D137">
-        <v>-1080.693103464866</v>
+        <v>2252.222970367584</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3716,13 +3716,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>32125</v>
+        <v>32283.3</v>
       </c>
       <c r="C138">
-        <v>29860.85894451171</v>
+        <v>31578.26171119179</v>
       </c>
       <c r="D138">
-        <v>2264.14105548829</v>
+        <v>705.0382888082058</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3730,13 +3730,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>32283.3</v>
+        <v>33639</v>
       </c>
       <c r="C139">
-        <v>31585.84333027231</v>
+        <v>32163.7775669926</v>
       </c>
       <c r="D139">
-        <v>697.4566697276859</v>
+        <v>1475.222433007395</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3744,13 +3744,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>33639</v>
+        <v>34284.6</v>
       </c>
       <c r="C140">
-        <v>32138.77306270156</v>
+        <v>33207.04599910307</v>
       </c>
       <c r="D140">
-        <v>1500.226937298445</v>
+        <v>1077.554000896933</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3758,13 +3758,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>34284.6</v>
+        <v>35413.6</v>
       </c>
       <c r="C141">
-        <v>33187.56465517842</v>
+        <v>34128.99489552352</v>
       </c>
       <c r="D141">
-        <v>1097.035344821583</v>
+        <v>1284.605104476483</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3772,13 +3772,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>35413.6</v>
+        <v>37274.9</v>
       </c>
       <c r="C142">
-        <v>34109.69998953858</v>
+        <v>35054.9227398193</v>
       </c>
       <c r="D142">
-        <v>1303.900010461417</v>
+        <v>2219.977260180698</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3786,13 +3786,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>37274.9</v>
+        <v>39506.2</v>
       </c>
       <c r="C143">
-        <v>35032.34153095148</v>
+        <v>37571.66311010327</v>
       </c>
       <c r="D143">
-        <v>2242.558469048519</v>
+        <v>1934.536889896728</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3800,13 +3800,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>39506.2</v>
+        <v>40011</v>
       </c>
       <c r="C144">
-        <v>37584.96752742211</v>
+        <v>38875.98383747028</v>
       </c>
       <c r="D144">
-        <v>1921.232472577889</v>
+        <v>1135.016162529719</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3814,13 +3814,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>40011</v>
+        <v>40000</v>
       </c>
       <c r="C145">
-        <v>38860.86809668639</v>
+        <v>40065.35104006891</v>
       </c>
       <c r="D145">
-        <v>1150.13190331361</v>
+        <v>-65.35104006891197</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3828,13 +3828,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>40000</v>
+        <v>42229.6</v>
       </c>
       <c r="C146">
-        <v>40042.45791289893</v>
+        <v>40106.4117417021</v>
       </c>
       <c r="D146">
-        <v>-42.45791289892804</v>
+        <v>2123.188258297894</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3842,13 +3842,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>42229.6</v>
+        <v>41488.5</v>
       </c>
       <c r="C147">
-        <v>40076.81889092895</v>
+        <v>41478.0586222835</v>
       </c>
       <c r="D147">
-        <v>2152.781109071053</v>
+        <v>10.44137771650276</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3856,13 +3856,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>41488.5</v>
+        <v>39889.1</v>
       </c>
       <c r="C148">
-        <v>41472.38809595593</v>
+        <v>41762.47245058384</v>
       </c>
       <c r="D148">
-        <v>16.11190404406807</v>
+        <v>-1873.37245058384</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3870,13 +3870,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>39889.1</v>
+        <v>39152.3</v>
       </c>
       <c r="C149">
-        <v>41734.91895635622</v>
+        <v>40524.07350604089</v>
       </c>
       <c r="D149">
-        <v>-1845.818956356226</v>
+        <v>-1371.773506040889</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3884,13 +3884,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>39152.3</v>
+        <v>38163</v>
       </c>
       <c r="C150">
-        <v>40513.94450951777</v>
+        <v>39451.30694012567</v>
       </c>
       <c r="D150">
-        <v>-1361.644509517762</v>
+        <v>-1288.306940125665</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3898,13 +3898,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>38163</v>
+        <v>39749</v>
       </c>
       <c r="C151">
-        <v>39448.51946498321</v>
+        <v>38495.68523054708</v>
       </c>
       <c r="D151">
-        <v>-1285.519464983212</v>
+        <v>1253.314769452918</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3912,13 +3912,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>39749</v>
+        <v>40886.4</v>
       </c>
       <c r="C152">
-        <v>38500.22132043426</v>
+        <v>39339.18289565855</v>
       </c>
       <c r="D152">
-        <v>1248.778679565745</v>
+        <v>1547.217104341449</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3926,13 +3926,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>40886.4</v>
+        <v>42823.9</v>
       </c>
       <c r="C153">
-        <v>39352.08136241855</v>
+        <v>40247.93466207296</v>
       </c>
       <c r="D153">
-        <v>1534.318637581448</v>
+        <v>2575.965337927038</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3940,13 +3940,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>42823.9</v>
+        <v>44610.7</v>
       </c>
       <c r="C154">
-        <v>40257.55513922013</v>
+        <v>42353.84386883567</v>
       </c>
       <c r="D154">
-        <v>2566.344860779871</v>
+        <v>2256.856131164328</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3954,13 +3954,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>44610.7</v>
+        <v>43845.6</v>
       </c>
       <c r="C155">
-        <v>42358.02904483756</v>
+        <v>44263.97377839811</v>
       </c>
       <c r="D155">
-        <v>2252.670955162437</v>
+        <v>-418.3737783981123</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3968,13 +3968,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>43845.6</v>
+        <v>46307.1</v>
       </c>
       <c r="C156">
-        <v>44251.48993629268</v>
+        <v>44202.68093908999</v>
       </c>
       <c r="D156">
-        <v>-405.8899362926823</v>
+        <v>2104.419060910011</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3982,13 +3982,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>46307.1</v>
+        <v>45595.1</v>
       </c>
       <c r="C157">
-        <v>44171.83993367421</v>
+        <v>45675.25708479474</v>
       </c>
       <c r="D157">
-        <v>2135.260066325784</v>
+        <v>-80.15708479473687</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3996,13 +3996,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>45595.1</v>
+        <v>45571.7</v>
       </c>
       <c r="C158">
-        <v>45661.84488057425</v>
+        <v>45791.24498312605</v>
       </c>
       <c r="D158">
-        <v>-66.74488057425333</v>
+        <v>-219.5449831260485</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4010,13 +4010,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>45571.7</v>
+        <v>44401.1</v>
       </c>
       <c r="C159">
-        <v>45751.21419550224</v>
+        <v>45953.07810372826</v>
       </c>
       <c r="D159">
-        <v>-179.5141955022409</v>
+        <v>-1551.978103728259</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4024,13 +4024,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>44401.1</v>
+        <v>47823.3</v>
       </c>
       <c r="C160">
-        <v>45920.22080789287</v>
+        <v>44804.63395637316</v>
       </c>
       <c r="D160">
-        <v>-1519.120807892868</v>
+        <v>3018.666043626843</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4038,13 +4038,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>47823.3</v>
+        <v>47115.2</v>
       </c>
       <c r="C161">
-        <v>44776.68328483678</v>
+        <v>47121.23085609048</v>
       </c>
       <c r="D161">
-        <v>3046.616715163225</v>
+        <v>-6.030856090481393</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4052,13 +4052,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>47115.2</v>
+        <v>47019.3</v>
       </c>
       <c r="C162">
-        <v>47116.26253265249</v>
+        <v>47242.8955948779</v>
       </c>
       <c r="D162">
-        <v>-1.062532652489608</v>
+        <v>-223.595594877901</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4066,13 +4066,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>47019.3</v>
+        <v>45926.3</v>
       </c>
       <c r="C163">
-        <v>47207.87283864182</v>
+        <v>46894.05939215342</v>
       </c>
       <c r="D163">
-        <v>-188.5728386418195</v>
+        <v>-967.7593921534135</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4080,13 +4080,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>45926.3</v>
+        <v>44672.2</v>
       </c>
       <c r="C164">
-        <v>46861.71978437183</v>
+        <v>46463.75732182099</v>
       </c>
       <c r="D164">
-        <v>-935.4197843718284</v>
+        <v>-1791.55732182099</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4094,13 +4094,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>44672.2</v>
+        <v>44714.7</v>
       </c>
       <c r="C165">
-        <v>46439.10117808548</v>
+        <v>45255.27803128671</v>
       </c>
       <c r="D165">
-        <v>-1766.901178085478</v>
+        <v>-540.5780312867137</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4108,13 +4108,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>44714.7</v>
+        <v>46765.3</v>
       </c>
       <c r="C166">
-        <v>45237.97867017191</v>
+        <v>44975.95014065986</v>
       </c>
       <c r="D166">
-        <v>-523.278670171916</v>
+        <v>1789.349859340145</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4122,13 +4122,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>46765.3</v>
+        <v>49345.4</v>
       </c>
       <c r="C167">
-        <v>44959.6873188709</v>
+        <v>46258.98623205764</v>
       </c>
       <c r="D167">
-        <v>1805.612681129103</v>
+        <v>3086.413767942366</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4136,13 +4136,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>49345.4</v>
+        <v>48865.4</v>
       </c>
       <c r="C168">
-        <v>46247.78161447351</v>
+        <v>48823.5476265558</v>
       </c>
       <c r="D168">
-        <v>3097.61838552649</v>
+        <v>41.85237344420602</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4150,13 +4150,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>48865.4</v>
+        <v>49293.6</v>
       </c>
       <c r="C169">
-        <v>48805.65192553612</v>
+        <v>49064.6068126732</v>
       </c>
       <c r="D169">
-        <v>59.74807446388149</v>
+        <v>228.9931873267997</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4164,13 +4164,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>49293.6</v>
+        <v>49517.3</v>
       </c>
       <c r="C170">
-        <v>49024.51467969194</v>
+        <v>49173.44240784847</v>
       </c>
       <c r="D170">
-        <v>269.0853203080551</v>
+        <v>343.8575921515294</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4178,13 +4178,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>49517.3</v>
+        <v>47725.4</v>
       </c>
       <c r="C171">
-        <v>49128.63954076315</v>
+        <v>49755.62975443855</v>
       </c>
       <c r="D171">
-        <v>388.6604592368531</v>
+        <v>-2030.229754438544</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4192,13 +4192,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>47725.4</v>
+        <v>48991.3</v>
       </c>
       <c r="C172">
-        <v>49713.41232616555</v>
+        <v>48289.3964742495</v>
       </c>
       <c r="D172">
-        <v>-1988.012326165546</v>
+        <v>701.903525750502</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4206,13 +4206,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>48991.3</v>
+        <v>46848.9</v>
       </c>
       <c r="C173">
-        <v>48245.38933996564</v>
+        <v>48711.76223530165</v>
       </c>
       <c r="D173">
-        <v>745.9106600343657</v>
+        <v>-1862.862235301647</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4220,13 +4220,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>46848.9</v>
+        <v>49074.9</v>
       </c>
       <c r="C174">
-        <v>48681.68545059492</v>
+        <v>47350.58836524018</v>
       </c>
       <c r="D174">
-        <v>-1832.785450594914</v>
+        <v>1724.311634759819</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4234,13 +4234,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>49074.9</v>
+        <v>48895.7</v>
       </c>
       <c r="C175">
-        <v>47315.19536784723</v>
+        <v>48513.59755010549</v>
       </c>
       <c r="D175">
-        <v>1759.704632152767</v>
+        <v>382.1024498945044</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4248,13 +4248,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>48895.7</v>
+        <v>48787.7</v>
       </c>
       <c r="C176">
-        <v>48497.34068466422</v>
+        <v>48936.88864719872</v>
       </c>
       <c r="D176">
-        <v>398.3593153357797</v>
+        <v>-149.1886471987236</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4262,13 +4262,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>48787.7</v>
+        <v>46985.7</v>
       </c>
       <c r="C177">
-        <v>48892.87647979039</v>
+        <v>48805.01031239574</v>
       </c>
       <c r="D177">
-        <v>-105.1764797903888</v>
+        <v>-1819.310312395741</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4276,13 +4276,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>46985.7</v>
+        <v>47140</v>
       </c>
       <c r="C178">
-        <v>48767.11927146029</v>
+        <v>47418.85364448566</v>
       </c>
       <c r="D178">
-        <v>-1781.419271460298</v>
+        <v>-278.8536444856582</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4290,13 +4290,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>47140</v>
+        <v>48872.2</v>
       </c>
       <c r="C179">
-        <v>47380.07270614452</v>
+        <v>47314.42346617176</v>
       </c>
       <c r="D179">
-        <v>-240.0727061445214</v>
+        <v>1557.776533828233</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4304,13 +4304,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>48872.2</v>
+        <v>49290.3</v>
       </c>
       <c r="C180">
-        <v>47285.63822210797</v>
+        <v>48397.23319162928</v>
       </c>
       <c r="D180">
-        <v>1586.561777892028</v>
+        <v>893.0668083707278</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4318,13 +4318,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>49290.3</v>
+        <v>50018.6</v>
       </c>
       <c r="C181">
-        <v>48372.54600763477</v>
+        <v>49421.20387268205</v>
       </c>
       <c r="D181">
-        <v>917.7539923652366</v>
+        <v>597.3961273179521</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4332,13 +4332,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>50018.6</v>
+        <v>49956.1</v>
       </c>
       <c r="C182">
-        <v>49385.02056776932</v>
+        <v>49890.70232858993</v>
       </c>
       <c r="D182">
-        <v>633.5794322306829</v>
+        <v>65.3976714100645</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4346,13 +4346,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>49956.1</v>
+        <v>51767.9</v>
       </c>
       <c r="C183">
-        <v>49859.38484096497</v>
+        <v>49998.62239094537</v>
       </c>
       <c r="D183">
-        <v>96.71515903503314</v>
+        <v>1769.277609054632</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4360,13 +4360,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>51767.9</v>
+        <v>52688.3</v>
       </c>
       <c r="C184">
-        <v>49952.31840278844</v>
+        <v>51308.47273754475</v>
       </c>
       <c r="D184">
-        <v>1815.58159721156</v>
+        <v>1379.827262455248</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4374,13 +4374,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>52688.3</v>
+        <v>46882.1</v>
       </c>
       <c r="C185">
-        <v>51272.28496469917</v>
+        <v>52401.50568861298</v>
       </c>
       <c r="D185">
-        <v>1416.015035300836</v>
+        <v>-5519.405688612977</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4388,13 +4388,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>46882.1</v>
+        <v>46073.4</v>
       </c>
       <c r="C186">
-        <v>52354.37896223734</v>
+        <v>47080.15754246146</v>
       </c>
       <c r="D186">
-        <v>-5472.278962237346</v>
+        <v>-1006.757542461455</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4402,13 +4402,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>46073.4</v>
+        <v>46389.6</v>
       </c>
       <c r="C187">
-        <v>47066.13930531235</v>
+        <v>45949.60714047095</v>
       </c>
       <c r="D187">
-        <v>-992.7393053123451</v>
+        <v>439.9928595290476</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4416,13 +4416,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>46389.6</v>
+        <v>44842.2</v>
       </c>
       <c r="C188">
-        <v>45928.33891503322</v>
+        <v>46361.51536731851</v>
       </c>
       <c r="D188">
-        <v>461.2610849667763</v>
+        <v>-1519.315367318515</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4430,13 +4430,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>44842.2</v>
+        <v>45137.4</v>
       </c>
       <c r="C189">
-        <v>46342.640760472</v>
+        <v>45101.50045895668</v>
       </c>
       <c r="D189">
-        <v>-1500.440760472004</v>
+        <v>35.89954104331991</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4444,13 +4444,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>45137.4</v>
+        <v>46061.3</v>
       </c>
       <c r="C190">
-        <v>45079.77152451767</v>
+        <v>45153.79617925845</v>
       </c>
       <c r="D190">
-        <v>57.62847548233549</v>
+        <v>907.5038207415491</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4458,13 +4458,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>46061.3</v>
+        <v>44965.8</v>
       </c>
       <c r="C191">
-        <v>45129.10245474755</v>
+        <v>45760.68536900317</v>
       </c>
       <c r="D191">
-        <v>932.1975452524493</v>
+        <v>-794.8853690031683</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4472,13 +4472,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>44965.8</v>
+        <v>47145.9</v>
       </c>
       <c r="C192">
-        <v>45734.80323931087</v>
+        <v>44911.7024977822</v>
       </c>
       <c r="D192">
-        <v>-769.0032393108704</v>
+        <v>2234.197502217801</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4486,13 +4486,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>47145.9</v>
+        <v>48152.3</v>
       </c>
       <c r="C193">
-        <v>44885.24193052649</v>
+        <v>46514.26808348369</v>
       </c>
       <c r="D193">
-        <v>2260.658069473509</v>
+        <v>1638.031916516309</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4500,13 +4500,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>48152.3</v>
+        <v>47786.9</v>
       </c>
       <c r="C194">
-        <v>46490.1441539392</v>
+        <v>47837.23491951554</v>
       </c>
       <c r="D194">
-        <v>1662.155846060807</v>
+        <v>-50.33491951553879</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4514,13 +4514,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>47786.9</v>
+        <v>47269.7</v>
       </c>
       <c r="C195">
-        <v>47794.4536514301</v>
+        <v>47719.85784791868</v>
       </c>
       <c r="D195">
-        <v>-7.553651430098398</v>
+        <v>-450.1578479186865</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4528,13 +4528,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>47269.7</v>
+        <v>48309.9</v>
       </c>
       <c r="C196">
-        <v>47668.97348068502</v>
+        <v>47308.4343158072</v>
       </c>
       <c r="D196">
-        <v>-399.2734806850203</v>
+        <v>1001.465684192801</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4542,13 +4542,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>48309.9</v>
+        <v>47237.8</v>
       </c>
       <c r="C197">
-        <v>47261.31404785898</v>
+        <v>48079.38963851142</v>
       </c>
       <c r="D197">
-        <v>1048.585952141024</v>
+        <v>-841.5896385114174</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4556,13 +4556,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>47237.8</v>
+        <v>42992.9</v>
       </c>
       <c r="C198">
-        <v>48040.7774173786</v>
+        <v>47354.26469108705</v>
       </c>
       <c r="D198">
-        <v>-802.9774173785991</v>
+        <v>-4361.364691087052</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4570,13 +4570,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>42992.9</v>
+        <v>40710.6</v>
       </c>
       <c r="C199">
-        <v>47307.71831830965</v>
+        <v>43760.22531660854</v>
       </c>
       <c r="D199">
-        <v>-4314.818318309648</v>
+        <v>-3049.625316608544</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4584,13 +4584,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>40710.6</v>
+        <v>43562.8</v>
       </c>
       <c r="C200">
-        <v>43736.9032585064</v>
+        <v>40974.74367588821</v>
       </c>
       <c r="D200">
-        <v>-3026.303258506399</v>
+        <v>2588.056324111792</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4598,13 +4598,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>43562.8</v>
+        <v>44889.8</v>
       </c>
       <c r="C201">
-        <v>40974.43270314748</v>
+        <v>42816.53930106795</v>
       </c>
       <c r="D201">
-        <v>2588.367296852521</v>
+        <v>2073.260698932048</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4612,13 +4612,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>44889.8</v>
+        <v>42833.2</v>
       </c>
       <c r="C202">
-        <v>42827.28999672581</v>
+        <v>44392.25341448507</v>
       </c>
       <c r="D202">
-        <v>2062.51000327419</v>
+        <v>-1559.053414485068</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4626,13 +4626,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>42833.2</v>
+        <v>42710.1</v>
       </c>
       <c r="C203">
-        <v>44374.69960727218</v>
+        <v>42744.00688798663</v>
       </c>
       <c r="D203">
-        <v>-1541.499607272184</v>
+        <v>-33.90688798663177</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4640,13 +4640,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>42710.1</v>
+        <v>43204.6</v>
       </c>
       <c r="C204">
-        <v>42722.56653751388</v>
+        <v>42411.19583008315</v>
       </c>
       <c r="D204">
-        <v>-12.4665375138793</v>
+        <v>793.404169916852</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4654,13 +4654,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>43204.6</v>
+        <v>42176.3</v>
       </c>
       <c r="C205">
-        <v>42381.47794424843</v>
+        <v>42661.88293604854</v>
       </c>
       <c r="D205">
-        <v>823.1220557515699</v>
+        <v>-485.5829360485368</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4668,13 +4668,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>42176.3</v>
+        <v>41038.4</v>
       </c>
       <c r="C206">
-        <v>42641.64647729498</v>
+        <v>42522.25252410727</v>
       </c>
       <c r="D206">
-        <v>-465.346477294981</v>
+        <v>-1483.852524107271</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4682,13 +4682,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>41038.4</v>
+        <v>41524.8</v>
       </c>
       <c r="C207">
-        <v>42491.22838039974</v>
+        <v>41255.17414059494</v>
       </c>
       <c r="D207">
-        <v>-1452.82838039974</v>
+        <v>269.6258594050596</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4696,13 +4696,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>41524.8</v>
+        <v>43798.7</v>
       </c>
       <c r="C208">
-        <v>41224.58464873368</v>
+        <v>41432.96655737569</v>
       </c>
       <c r="D208">
-        <v>300.2153512663208</v>
+        <v>2365.733442624303</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4710,13 +4710,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>43798.7</v>
+        <v>48163.7</v>
       </c>
       <c r="C209">
-        <v>41413.91841529093</v>
+        <v>43176.43682810788</v>
       </c>
       <c r="D209">
-        <v>2384.781584709068</v>
+        <v>4987.263171892118</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4724,13 +4724,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>48163.7</v>
+        <v>47662</v>
       </c>
       <c r="C210">
-        <v>43169.34619621652</v>
+        <v>46994.22216735654</v>
       </c>
       <c r="D210">
-        <v>4994.353803783481</v>
+        <v>667.7778326434636</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4738,13 +4738,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>47662</v>
+        <v>48230.2</v>
       </c>
       <c r="C211">
-        <v>46989.29130651416</v>
+        <v>47751.7158026636</v>
       </c>
       <c r="D211">
-        <v>672.708693485838</v>
+        <v>478.4841973363946</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4752,13 +4752,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>48230.2</v>
+        <v>49243.3</v>
       </c>
       <c r="C212">
-        <v>47695.00718319758</v>
+        <v>48174.71282925778</v>
       </c>
       <c r="D212">
-        <v>535.1928168024169</v>
+        <v>1068.587170742219</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4766,13 +4766,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>49243.3</v>
+        <v>51487</v>
       </c>
       <c r="C213">
-        <v>48134.3615933321</v>
+        <v>48749.39437499364</v>
       </c>
       <c r="D213">
-        <v>1108.938406667905</v>
+        <v>2737.605625006356</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4780,13 +4780,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>51487</v>
+        <v>55350.2</v>
       </c>
       <c r="C214">
-        <v>48715.7824854529</v>
+        <v>51057.68633498588</v>
       </c>
       <c r="D214">
-        <v>2771.217514547097</v>
+        <v>4292.513665014121</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4794,13 +4794,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>55350.2</v>
+        <v>53817.3</v>
       </c>
       <c r="C215">
-        <v>51032.97169366477</v>
+        <v>54362.52866856595</v>
       </c>
       <c r="D215">
-        <v>4317.228306335222</v>
+        <v>-545.2286685659492</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4808,13 +4808,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>53817.3</v>
+        <v>53960.5</v>
       </c>
       <c r="C216">
-        <v>54355.39380139032</v>
+        <v>54200.08066918708</v>
       </c>
       <c r="D216">
-        <v>-538.0938013903215</v>
+        <v>-239.5806691870821</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4822,13 +4822,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>53960.5</v>
+        <v>54960.2</v>
       </c>
       <c r="C217">
-        <v>54155.98535966749</v>
+        <v>54491.44688708232</v>
       </c>
       <c r="D217">
-        <v>-195.4853596674948</v>
+        <v>468.7531129176787</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4836,13 +4836,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>54960.2</v>
+        <v>54677.5</v>
       </c>
       <c r="C218">
-        <v>54476.58063335386</v>
+        <v>54919.16277261976</v>
       </c>
       <c r="D218">
-        <v>483.6193666461331</v>
+        <v>-241.6627726197621</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4850,13 +4850,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>54677.5</v>
+        <v>57499.5</v>
       </c>
       <c r="C219">
-        <v>54904.01440682115</v>
+        <v>55099.20157803046</v>
       </c>
       <c r="D219">
-        <v>-226.5144068211521</v>
+        <v>2400.298421969535</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4864,13 +4864,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>57499.5</v>
+        <v>56010.1</v>
       </c>
       <c r="C220">
-        <v>55085.30782083214</v>
+        <v>57008.43045160898</v>
       </c>
       <c r="D220">
-        <v>2414.192179167861</v>
+        <v>-998.3304516089775</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4878,13 +4878,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>56010.1</v>
+        <v>57381.2</v>
       </c>
       <c r="C221">
-        <v>57011.53700919963</v>
+        <v>56072.14290947611</v>
       </c>
       <c r="D221">
-        <v>-1001.437009199632</v>
+        <v>1309.057090523886</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4892,13 +4892,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>57381.2</v>
+        <v>57377.6</v>
       </c>
       <c r="C222">
-        <v>56056.78644610468</v>
+        <v>56868.13117987152</v>
       </c>
       <c r="D222">
-        <v>1324.413553895312</v>
+        <v>509.4688201284807</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4906,13 +4906,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>57377.6</v>
+        <v>61656.2</v>
       </c>
       <c r="C223">
-        <v>56869.85328855952</v>
+        <v>57671.59708158176</v>
       </c>
       <c r="D223">
-        <v>507.746711440479</v>
+        <v>3984.602918418241</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4920,13 +4920,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>61656.2</v>
+        <v>60873.4</v>
       </c>
       <c r="C224">
-        <v>57657.16701569322</v>
+        <v>60959.4338366805</v>
       </c>
       <c r="D224">
-        <v>3999.032984306774</v>
+        <v>-86.03383668050083</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4934,13 +4934,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>60873.4</v>
+        <v>61526.5</v>
       </c>
       <c r="C225">
-        <v>60979.42534739037</v>
+        <v>61241.71850906762</v>
       </c>
       <c r="D225">
-        <v>-106.0253473903649</v>
+        <v>284.7814909323788</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4948,13 +4948,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>61526.5</v>
+        <v>62037.7</v>
       </c>
       <c r="C226">
-        <v>61203.72307341117</v>
+        <v>61125.60063672448</v>
       </c>
       <c r="D226">
-        <v>322.7769265888346</v>
+        <v>912.0993632755126</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4962,13 +4962,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>62037.7</v>
+        <v>64284.9</v>
       </c>
       <c r="C227">
-        <v>61096.09088949279</v>
+        <v>61853.04172525245</v>
       </c>
       <c r="D227">
-        <v>941.6091105072119</v>
+        <v>2431.858274747552</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4976,13 +4976,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>64284.9</v>
+        <v>66035.8</v>
       </c>
       <c r="C228">
-        <v>61824.50193080558</v>
+        <v>63814.93707295645</v>
       </c>
       <c r="D228">
-        <v>2460.398069194423</v>
+        <v>2220.862927043549</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4990,13 +4990,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>66035.8</v>
+        <v>62198</v>
       </c>
       <c r="C229">
-        <v>63791.84647417172</v>
+        <v>65873.23906392309</v>
       </c>
       <c r="D229">
-        <v>2243.953525828285</v>
+        <v>-3675.239063923087</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5004,13 +5004,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>62198</v>
+        <v>60687.5</v>
       </c>
       <c r="C230">
-        <v>65843.61904591318</v>
+        <v>61392.57517185992</v>
       </c>
       <c r="D230">
-        <v>-3645.619045913176</v>
+        <v>-705.0751718599204</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5018,13 +5018,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>60687.5</v>
+        <v>61296.9</v>
       </c>
       <c r="C231">
-        <v>61374.82076032039</v>
+        <v>61315.52103938027</v>
       </c>
       <c r="D231">
-        <v>-687.3207603203919</v>
+        <v>-18.62103938026848</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5032,13 +5032,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>61296.9</v>
+        <v>60882.5</v>
       </c>
       <c r="C232">
-        <v>61290.13407538809</v>
+        <v>61076.19118216158</v>
       </c>
       <c r="D232">
-        <v>6.765924611907394</v>
+        <v>-193.6911821615795</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5046,13 +5046,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>60882.5</v>
+        <v>63081.8</v>
       </c>
       <c r="C233">
-        <v>61046.56974106895</v>
+        <v>60766.34677002802</v>
       </c>
       <c r="D233">
-        <v>-164.0697410689463</v>
+        <v>2315.453229971987</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5060,13 +5060,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>63081.8</v>
+        <v>60310.2</v>
       </c>
       <c r="C234">
-        <v>60726.58691695392</v>
+        <v>62711.45357837346</v>
       </c>
       <c r="D234">
-        <v>2355.213083046081</v>
+        <v>-2401.253578373464</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5074,13 +5074,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>60310.2</v>
+        <v>58500.1</v>
       </c>
       <c r="C235">
-        <v>62686.43841082834</v>
+        <v>60903.28421347852</v>
       </c>
       <c r="D235">
-        <v>-2376.238410828344</v>
+        <v>-2403.184213478518</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5088,13 +5088,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>58500.1</v>
+        <v>60613.5</v>
       </c>
       <c r="C236">
-        <v>60857.62722112284</v>
+        <v>59080.09912290038</v>
       </c>
       <c r="D236">
-        <v>-2357.527221122837</v>
+        <v>1533.400877099615</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5102,13 +5102,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>60613.5</v>
+        <v>62246.5</v>
       </c>
       <c r="C237">
-        <v>59051.28919169355</v>
+        <v>60415.80217716009</v>
       </c>
       <c r="D237">
-        <v>1562.210808306452</v>
+        <v>1830.697822839909</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5116,13 +5116,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>62246.5</v>
+        <v>61866.3</v>
       </c>
       <c r="C238">
-        <v>60405.33849519711</v>
+        <v>61960.93927499482</v>
       </c>
       <c r="D238">
-        <v>1841.161504802891</v>
+        <v>-94.6392749948136</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5130,13 +5130,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>61866.3</v>
+        <v>61380.1</v>
       </c>
       <c r="C239">
-        <v>61919.44487558176</v>
+        <v>61761.53889617593</v>
       </c>
       <c r="D239">
-        <v>-53.1448755817546</v>
+        <v>-381.4388961759323</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5144,13 +5144,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>61380.1</v>
+        <v>60954.5</v>
       </c>
       <c r="C240">
-        <v>61695.70463009983</v>
+        <v>61336.03524399818</v>
       </c>
       <c r="D240">
-        <v>-315.604630099835</v>
+        <v>-381.5352439981798</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5158,13 +5158,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>60954.5</v>
+        <v>63279.7</v>
       </c>
       <c r="C241">
-        <v>61276.56119574279</v>
+        <v>60952.75421590202</v>
       </c>
       <c r="D241">
-        <v>-322.06119574279</v>
+        <v>2326.945784097974</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5172,13 +5172,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>63279.7</v>
+        <v>62942.9</v>
       </c>
       <c r="C242">
-        <v>60899.95548973307</v>
+        <v>62920.26047506074</v>
       </c>
       <c r="D242">
-        <v>2379.74451026693</v>
+        <v>22.63952493925899</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5186,13 +5186,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>62942.9</v>
+        <v>61449</v>
       </c>
       <c r="C243">
-        <v>62880.68824572173</v>
+        <v>62627.00569968323</v>
       </c>
       <c r="D243">
-        <v>62.21175427827256</v>
+        <v>-1178.005699683228</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5200,13 +5200,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>61449</v>
+        <v>61006.2</v>
       </c>
       <c r="C244">
-        <v>62560.02365330329</v>
+        <v>61652.15068636822</v>
       </c>
       <c r="D244">
-        <v>-1111.023653303288</v>
+        <v>-645.9506863682182</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5214,13 +5214,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>61006.2</v>
+        <v>61536.3</v>
       </c>
       <c r="C245">
-        <v>61587.91393323983</v>
+        <v>61316.6235474336</v>
       </c>
       <c r="D245">
-        <v>-581.7139332398365</v>
+        <v>219.6764525664039</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5228,13 +5228,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>61536.3</v>
+        <v>63317.8</v>
       </c>
       <c r="C246">
-        <v>61263.78628813116</v>
+        <v>61218.00324783845</v>
       </c>
       <c r="D246">
-        <v>272.5137118688435</v>
+        <v>2099.79675216155</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5242,13 +5242,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>63317.8</v>
+        <v>67559.8</v>
       </c>
       <c r="C247">
-        <v>61164.81448786125</v>
+        <v>62872.23538043817</v>
       </c>
       <c r="D247">
-        <v>2152.985512138752</v>
+        <v>4687.564619561832</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5256,13 +5256,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>67559.8</v>
+        <v>66950</v>
       </c>
       <c r="C248">
-        <v>62824.19046545071</v>
+        <v>66655.89477000288</v>
       </c>
       <c r="D248">
-        <v>4735.609534549294</v>
+        <v>294.1052299971197</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5270,13 +5270,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>66950</v>
+        <v>64969</v>
       </c>
       <c r="C249">
-        <v>66627.76066719923</v>
+        <v>67242.73312955014</v>
       </c>
       <c r="D249">
-        <v>322.2393328007747</v>
+        <v>-2273.733129550135</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5284,13 +5284,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>64969</v>
+        <v>64825.4</v>
       </c>
       <c r="C250">
-        <v>67178.76237074473</v>
+        <v>65401.42319777365</v>
       </c>
       <c r="D250">
-        <v>-2209.762370744735</v>
+        <v>-576.0231977736476</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5298,13 +5298,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>64825.4</v>
+        <v>64153</v>
       </c>
       <c r="C251">
-        <v>65366.04798946915</v>
+        <v>64906.1578957076</v>
       </c>
       <c r="D251">
-        <v>-540.6479894691511</v>
+        <v>-753.1578957075981</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5312,13 +5312,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>64153</v>
+        <v>64393.1</v>
       </c>
       <c r="C252">
-        <v>64852.37207010786</v>
+        <v>64074.58250379587</v>
       </c>
       <c r="D252">
-        <v>-699.3720701078564</v>
+        <v>318.5174962041274</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5326,13 +5326,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>64393.1</v>
+        <v>65495</v>
       </c>
       <c r="C253">
-        <v>64031.10715311499</v>
+        <v>64345.69159611729</v>
       </c>
       <c r="D253">
-        <v>361.9928468850048</v>
+        <v>1149.308403882707</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5340,13 +5340,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>65495</v>
+        <v>63615.8</v>
       </c>
       <c r="C254">
-        <v>64298.4909261666</v>
+        <v>65103.75177852031</v>
       </c>
       <c r="D254">
-        <v>1196.509073833397</v>
+        <v>-1487.951778520306</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5354,13 +5354,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>63615.8</v>
+        <v>60137.2</v>
       </c>
       <c r="C255">
-        <v>65063.55831627928</v>
+        <v>64194.36644993916</v>
       </c>
       <c r="D255">
-        <v>-1447.758316279273</v>
+        <v>-4057.166449939163</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5368,13 +5368,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>60137.2</v>
+        <v>60367.8</v>
       </c>
       <c r="C256">
-        <v>64157.00364736067</v>
+        <v>60535.63798968548</v>
       </c>
       <c r="D256">
-        <v>-4019.803647360677</v>
+        <v>-167.8379896854749</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5382,13 +5382,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>60367.8</v>
+        <v>56921.7</v>
       </c>
       <c r="C257">
-        <v>60515.44427697944</v>
+        <v>59953.16272791168</v>
       </c>
       <c r="D257">
-        <v>-147.6442769794376</v>
+        <v>-3031.462727911683</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5396,13 +5396,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>56921.7</v>
+        <v>58099.6</v>
       </c>
       <c r="C258">
-        <v>59931.2102138835</v>
+        <v>57632.41521800983</v>
       </c>
       <c r="D258">
-        <v>-3009.510213883506</v>
+        <v>467.1847819901668</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5410,13 +5410,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>58099.6</v>
+        <v>59744.2</v>
       </c>
       <c r="C259">
-        <v>57611.29539304449</v>
+        <v>57466.85293377722</v>
       </c>
       <c r="D259">
-        <v>488.3046069555057</v>
+        <v>2277.347066222777</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5424,13 +5424,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>59744.2</v>
+        <v>58646.2</v>
       </c>
       <c r="C260">
-        <v>57451.75840741159</v>
+        <v>59101.32952060083</v>
       </c>
       <c r="D260">
-        <v>2292.44159258841</v>
+        <v>-455.1295206008363</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5438,13 +5438,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>58646.2</v>
+        <v>56295.5</v>
       </c>
       <c r="C261">
-        <v>59070.71181369292</v>
+        <v>58807.83511705404</v>
       </c>
       <c r="D261">
-        <v>-424.5118136929232</v>
+        <v>-2512.335117054041</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5452,13 +5452,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>56295.5</v>
+        <v>57571.4</v>
       </c>
       <c r="C262">
-        <v>58755.53728228585</v>
+        <v>56679.84660991347</v>
       </c>
       <c r="D262">
-        <v>-2460.037282285848</v>
+        <v>891.5533900865339</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5466,13 +5466,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>57571.4</v>
+        <v>57203.3</v>
       </c>
       <c r="C263">
-        <v>56639.72704504344</v>
+        <v>56961.77387259055</v>
       </c>
       <c r="D263">
-        <v>931.6729549565571</v>
+        <v>241.5261274094519</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5480,13 +5480,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>57203.3</v>
+        <v>58932.6</v>
       </c>
       <c r="C264">
-        <v>56927.62196922746</v>
+        <v>56868.13801351147</v>
       </c>
       <c r="D264">
-        <v>275.6780307725421</v>
+        <v>2064.461986488524</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5494,13 +5494,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>58932.6</v>
+        <v>53789</v>
       </c>
       <c r="C265">
-        <v>56816.13533314898</v>
+        <v>58452.92654210083</v>
       </c>
       <c r="D265">
-        <v>2116.464666851018</v>
+        <v>-4663.926542100831</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5508,13 +5508,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>53789</v>
+        <v>54784.9</v>
       </c>
       <c r="C266">
-        <v>58410.18997126097</v>
+        <v>54777.32460406648</v>
       </c>
       <c r="D266">
-        <v>-4621.189971260974</v>
+        <v>7.575395933519758</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5522,13 +5522,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>54784.9</v>
+        <v>57300</v>
       </c>
       <c r="C267">
-        <v>54732.39923542248</v>
+        <v>54439.97266914679</v>
       </c>
       <c r="D267">
-        <v>52.50076457752584</v>
+        <v>2860.027330853205</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5536,13 +5536,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>57300</v>
+        <v>57830.2</v>
       </c>
       <c r="C268">
-        <v>54406.08258842885</v>
+        <v>56204.4480890213</v>
       </c>
       <c r="D268">
-        <v>2893.91741157115</v>
+        <v>1625.751910978695</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5550,13 +5550,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>57830.2</v>
+        <v>56980.7</v>
       </c>
       <c r="C269">
-        <v>56179.56461935649</v>
+        <v>57695.78553593038</v>
       </c>
       <c r="D269">
-        <v>1650.635380643507</v>
+        <v>-715.0855359303823</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5564,13 +5564,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>56980.7</v>
+        <v>57237.9</v>
       </c>
       <c r="C270">
-        <v>57653.21463117057</v>
+        <v>57119.85489577435</v>
       </c>
       <c r="D270">
-        <v>-672.5146311705757</v>
+        <v>118.0451042256536</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5578,13 +5578,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>57237.9</v>
+        <v>56526.4</v>
       </c>
       <c r="C271">
-        <v>57081.8678828155</v>
+        <v>57374.6866821997</v>
       </c>
       <c r="D271">
-        <v>156.0321171845062</v>
+        <v>-848.286682199694</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5592,13 +5592,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>56526.4</v>
+        <v>53678.6</v>
       </c>
       <c r="C272">
-        <v>57341.71441477355</v>
+        <v>56461.15463907474</v>
       </c>
       <c r="D272">
-        <v>-815.3144147735511</v>
+        <v>-2782.55463907474</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5606,13 +5606,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>53678.6</v>
+        <v>49255.1</v>
       </c>
       <c r="C273">
-        <v>56417.63252138723</v>
+        <v>53978.6719061263</v>
       </c>
       <c r="D273">
-        <v>-2739.032521387235</v>
+        <v>-4723.571906126301</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5620,13 +5620,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>49255.1</v>
+        <v>49443.3</v>
       </c>
       <c r="C274">
-        <v>53955.12595370375</v>
+        <v>47919.60495803707</v>
       </c>
       <c r="D274">
-        <v>-4700.025953703756</v>
+        <v>1523.695041962928</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5634,13 +5634,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>49443.3</v>
+        <v>50564.3</v>
       </c>
       <c r="C275">
-        <v>47942.11590455011</v>
+        <v>48917.29811608001</v>
       </c>
       <c r="D275">
-        <v>1501.184095449891</v>
+        <v>1647.001883919991</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5648,13 +5648,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>50564.3</v>
+        <v>50650.1</v>
       </c>
       <c r="C276">
-        <v>48909.31170199825</v>
+        <v>49629.29103552039</v>
       </c>
       <c r="D276">
-        <v>1654.988298001757</v>
+        <v>1020.808964479605</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5662,13 +5662,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>50650.1</v>
+        <v>50515.1</v>
       </c>
       <c r="C277">
-        <v>49627.29353948838</v>
+        <v>50602.13165946699</v>
       </c>
       <c r="D277">
-        <v>1022.806460511616</v>
+        <v>-87.03165946699301</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5676,13 +5676,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>50515.1</v>
+        <v>47581.6</v>
       </c>
       <c r="C278">
-        <v>50582.15091770938</v>
+        <v>49981.59421509232</v>
       </c>
       <c r="D278">
-        <v>-67.05091770938452</v>
+        <v>-2399.994215092323</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5690,13 +5690,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>47581.6</v>
+        <v>47218.3</v>
       </c>
       <c r="C279">
-        <v>49951.90373248728</v>
+        <v>47973.84651663301</v>
       </c>
       <c r="D279">
-        <v>-2370.303732487278</v>
+        <v>-755.5465166330105</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5704,13 +5704,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>47218.3</v>
+        <v>49367.2</v>
       </c>
       <c r="C280">
-        <v>47939.63712003287</v>
+        <v>47515.85478617639</v>
       </c>
       <c r="D280">
-        <v>-721.3371200328693</v>
+        <v>1851.345213823603</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5718,13 +5718,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>49367.2</v>
+        <v>50113.2</v>
       </c>
       <c r="C281">
-        <v>47498.81423330358</v>
+        <v>48556.98997001526</v>
       </c>
       <c r="D281">
-        <v>1868.385766696418</v>
+        <v>1556.210029984737</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5732,13 +5732,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>50113.2</v>
+        <v>46732.2</v>
       </c>
       <c r="C282">
-        <v>48537.72886256552</v>
+        <v>49711.11445791791</v>
       </c>
       <c r="D282">
-        <v>1575.471137434477</v>
+        <v>-2978.914457917912</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5746,13 +5746,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>46732.2</v>
+        <v>48399.2</v>
       </c>
       <c r="C283">
-        <v>49675.56232715207</v>
+        <v>47056.83026209114</v>
       </c>
       <c r="D283">
-        <v>-2943.362327152077</v>
+        <v>1342.369737908855</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5760,13 +5760,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>48399.2</v>
+        <v>48881.3</v>
       </c>
       <c r="C284">
-        <v>47025.77196265875</v>
+        <v>47748.44443926793</v>
       </c>
       <c r="D284">
-        <v>1373.428037341248</v>
+        <v>1132.855560732074</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5774,13 +5774,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>48881.3</v>
+        <v>47631</v>
       </c>
       <c r="C285">
-        <v>47735.2197971157</v>
+        <v>48293.37834417137</v>
       </c>
       <c r="D285">
-        <v>1146.080202884303</v>
+        <v>-662.3783441713749</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5788,13 +5788,13 @@
         <v>288</v>
       </c>
       <c r="B286">
-        <v>47631</v>
+        <v>46168.3</v>
       </c>
       <c r="C286">
-        <v>48269.7442631951</v>
+        <v>47848.72101655252</v>
       </c>
       <c r="D286">
-        <v>-638.744263195098</v>
+        <v>-1680.421016552515</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5802,13 +5802,13 @@
         <v>289</v>
       </c>
       <c r="B287">
-        <v>46168.3</v>
+        <v>46864.3</v>
       </c>
       <c r="C287">
-        <v>47816.10064432367</v>
+        <v>46238.07008928152</v>
       </c>
       <c r="D287">
-        <v>-1647.800644323666</v>
+        <v>626.2299107184808</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5816,13 +5816,13 @@
         <v>290</v>
       </c>
       <c r="B288">
-        <v>46864.3</v>
+        <v>46688.4</v>
       </c>
       <c r="C288">
-        <v>46214.92876029304</v>
+        <v>46454.94769812374</v>
       </c>
       <c r="D288">
-        <v>649.3712397069612</v>
+        <v>233.4523018762629</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5830,13 +5830,13 @@
         <v>291</v>
       </c>
       <c r="B289">
-        <v>46688.4</v>
+        <v>46898.1</v>
       </c>
       <c r="C289">
-        <v>46438.04842124261</v>
+        <v>46805.13677271515</v>
       </c>
       <c r="D289">
-        <v>250.3515787573924</v>
+        <v>92.96322728484665</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5844,13 +5844,13 @@
         <v>292</v>
       </c>
       <c r="B290">
-        <v>46898.1</v>
+        <v>48925.9</v>
       </c>
       <c r="C290">
-        <v>46786.51204233336</v>
+        <v>46584.6625970087</v>
       </c>
       <c r="D290">
-        <v>111.5879576666412</v>
+        <v>2341.237402991297</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5858,13 +5858,13 @@
         <v>293</v>
       </c>
       <c r="B291">
-        <v>48925.9</v>
+        <v>48624.9</v>
       </c>
       <c r="C291">
-        <v>46569.1562790149</v>
+        <v>48332.91737541476</v>
       </c>
       <c r="D291">
-        <v>2356.743720985098</v>
+        <v>291.9826245852382</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5872,13 +5872,13 @@
         <v>294</v>
       </c>
       <c r="B292">
-        <v>48624.9</v>
+        <v>50818.8</v>
       </c>
       <c r="C292">
-        <v>48325.14644819564</v>
+        <v>48695.6312205913</v>
       </c>
       <c r="D292">
-        <v>299.753551804366</v>
+        <v>2123.168779408705</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5886,13 +5886,13 @@
         <v>295</v>
       </c>
       <c r="B293">
-        <v>50818.8</v>
+        <v>50834.3</v>
       </c>
       <c r="C293">
-        <v>48670.79157730158</v>
+        <v>50183.74647971829</v>
       </c>
       <c r="D293">
-        <v>2148.008422698418</v>
+        <v>650.5535202817118</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5900,13 +5900,13 @@
         <v>296</v>
       </c>
       <c r="B294">
-        <v>50834.3</v>
+        <v>50436</v>
       </c>
       <c r="C294">
-        <v>50178.32147891315</v>
+        <v>50913.32613310167</v>
       </c>
       <c r="D294">
-        <v>655.9785210868577</v>
+        <v>-477.3261331016693</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5914,13 +5914,13 @@
         <v>297</v>
       </c>
       <c r="B295">
-        <v>50436</v>
+        <v>50797.3</v>
       </c>
       <c r="C295">
-        <v>50886.27254038643</v>
+        <v>50481.49601905541</v>
       </c>
       <c r="D295">
-        <v>-450.2725403864315</v>
+        <v>315.8039809445909</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5928,13 +5928,13 @@
         <v>298</v>
       </c>
       <c r="B296">
-        <v>50797.3</v>
+        <v>50687.4</v>
       </c>
       <c r="C296">
-        <v>50449.19673663947</v>
+        <v>50505.94872434034</v>
       </c>
       <c r="D296">
-        <v>348.1032633605355</v>
+        <v>181.4512756596596</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5942,13 +5942,13 @@
         <v>299</v>
       </c>
       <c r="B297">
-        <v>50687.4</v>
+        <v>47548.1</v>
       </c>
       <c r="C297">
-        <v>50484.21159462609</v>
+        <v>50905.07007879821</v>
       </c>
       <c r="D297">
-        <v>203.1884053739122</v>
+        <v>-3356.970078798207</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5956,13 +5956,13 @@
         <v>300</v>
       </c>
       <c r="B298">
-        <v>47548.1</v>
+        <v>46473.2</v>
       </c>
       <c r="C298">
-        <v>50889.30782870053</v>
+        <v>48118.7988166953</v>
       </c>
       <c r="D298">
-        <v>-3341.207828700535</v>
+        <v>-1645.598816695303</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5970,13 +5970,13 @@
         <v>301</v>
       </c>
       <c r="B299">
-        <v>46473.2</v>
+        <v>47143.8</v>
       </c>
       <c r="C299">
-        <v>48110.26081413742</v>
+        <v>46658.63567779878</v>
       </c>
       <c r="D299">
-        <v>-1637.060814137425</v>
+        <v>485.1643222012208</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5984,13 +5984,13 @@
         <v>302</v>
       </c>
       <c r="B300">
-        <v>47143.8</v>
+        <v>46150</v>
       </c>
       <c r="C300">
-        <v>46659.54036071729</v>
+        <v>46908.7549467332</v>
       </c>
       <c r="D300">
-        <v>484.2596392827109</v>
+        <v>-758.7549467331992</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5998,13 +5998,13 @@
         <v>303</v>
       </c>
       <c r="B301">
-        <v>46150</v>
+        <v>47738.3</v>
       </c>
       <c r="C301">
-        <v>46914.9943479779</v>
+        <v>46415.25194281478</v>
       </c>
       <c r="D301">
-        <v>-764.9943479779031</v>
+        <v>1323.048057185224</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6012,13 +6012,13 @@
         <v>304</v>
       </c>
       <c r="B302">
-        <v>47738.3</v>
+        <v>47304.6</v>
       </c>
       <c r="C302">
-        <v>46419.11262077997</v>
+        <v>47284.26066127875</v>
       </c>
       <c r="D302">
-        <v>1319.187379220035</v>
+        <v>20.33933872124908</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6026,13 +6026,13 @@
         <v>305</v>
       </c>
       <c r="B303">
-        <v>47304.6</v>
+        <v>46452.6</v>
       </c>
       <c r="C303">
-        <v>47283.64579024982</v>
+        <v>47199.86515259572</v>
       </c>
       <c r="D303">
-        <v>20.95420975017623</v>
+        <v>-747.2651525957262</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6040,13 +6040,13 @@
         <v>306</v>
       </c>
       <c r="B304">
-        <v>46452.6</v>
+        <v>45858.5</v>
       </c>
       <c r="C304">
-        <v>47180.35350163617</v>
+        <v>46405.46654485939</v>
       </c>
       <c r="D304">
-        <v>-727.7535016361726</v>
+        <v>-546.9665448593878</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6054,13 +6054,13 @@
         <v>307</v>
       </c>
       <c r="B305">
-        <v>45858.5</v>
+        <v>43410</v>
       </c>
       <c r="C305">
-        <v>46386.48396171375</v>
+        <v>46031.01935358673</v>
       </c>
       <c r="D305">
-        <v>-527.9839617137477</v>
+        <v>-2621.019353586729</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6068,13 +6068,13 @@
         <v>308</v>
       </c>
       <c r="B306">
-        <v>43410</v>
+        <v>43124.4</v>
       </c>
       <c r="C306">
-        <v>46013.55610865353</v>
+        <v>43857.81343264748</v>
       </c>
       <c r="D306">
-        <v>-2603.556108653531</v>
+        <v>-733.4134326474814</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6082,13 +6082,13 @@
         <v>309</v>
       </c>
       <c r="B307">
-        <v>43124.4</v>
+        <v>41523.6</v>
       </c>
       <c r="C307">
-        <v>43849.00764250605</v>
+        <v>42961.56964392374</v>
       </c>
       <c r="D307">
-        <v>-724.6076425060528</v>
+        <v>-1437.969643923738</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6096,13 +6096,13 @@
         <v>310</v>
       </c>
       <c r="B308">
-        <v>41523.6</v>
+        <v>41693.2</v>
       </c>
       <c r="C308">
-        <v>42951.33278148084</v>
+        <v>41521.93273150401</v>
       </c>
       <c r="D308">
-        <v>-1427.732781480845</v>
+        <v>171.2672684959834</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6110,13 +6110,13 @@
         <v>311</v>
       </c>
       <c r="B309">
-        <v>41693.2</v>
+        <v>41862.9</v>
       </c>
       <c r="C309">
-        <v>41508.68878142438</v>
+        <v>41375.65540041133</v>
       </c>
       <c r="D309">
-        <v>184.5112185756152</v>
+        <v>487.2445995886737</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6124,13 +6124,13 @@
         <v>312</v>
       </c>
       <c r="B310">
-        <v>41862.9</v>
+        <v>41855.3</v>
       </c>
       <c r="C310">
-        <v>41363.47327975098</v>
+        <v>41730.21872438853</v>
       </c>
       <c r="D310">
-        <v>499.4267202490228</v>
+        <v>125.0812756114756</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6138,13 +6138,13 @@
         <v>313</v>
       </c>
       <c r="B311">
-        <v>41855.3</v>
+        <v>42728.8</v>
       </c>
       <c r="C311">
-        <v>41709.30868775902</v>
+        <v>41241.20121858861</v>
       </c>
       <c r="D311">
-        <v>145.991312240978</v>
+        <v>1487.598781411391</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6152,13 +6152,13 @@
         <v>314</v>
       </c>
       <c r="B312">
-        <v>42728.8</v>
+        <v>43927.8</v>
       </c>
       <c r="C312">
-        <v>41219.87823859065</v>
+        <v>42310.94742209798</v>
       </c>
       <c r="D312">
-        <v>1508.92176140935</v>
+        <v>1616.852577902027</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6166,13 +6166,13 @@
         <v>315</v>
       </c>
       <c r="B313">
-        <v>43927.8</v>
+        <v>42550</v>
       </c>
       <c r="C313">
-        <v>42286.17150272599</v>
+        <v>43536.90176437075</v>
       </c>
       <c r="D313">
-        <v>1641.62849727401</v>
+        <v>-986.9017643707484</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6180,13 +6180,13 @@
         <v>316</v>
       </c>
       <c r="B314">
-        <v>42550</v>
+        <v>43090</v>
       </c>
       <c r="C314">
-        <v>43508.00730445642</v>
+        <v>42779.02300438761</v>
       </c>
       <c r="D314">
-        <v>-958.0073044564197</v>
+        <v>310.9769956123928</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6194,13 +6194,13 @@
         <v>317</v>
       </c>
       <c r="B315">
-        <v>43090</v>
+        <v>43111.5</v>
       </c>
       <c r="C315">
-        <v>42740.69938924145</v>
+        <v>42740.82014347393</v>
       </c>
       <c r="D315">
-        <v>349.3006107585534</v>
+        <v>370.6798565260688</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6208,13 +6208,13 @@
         <v>318</v>
       </c>
       <c r="B316">
-        <v>43111.5</v>
+        <v>43114.5</v>
       </c>
       <c r="C316">
-        <v>42711.85135568214</v>
+        <v>43020.08144607856</v>
       </c>
       <c r="D316">
-        <v>399.6486443178583</v>
+        <v>94.41855392143771</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6222,13 +6222,13 @@
         <v>319</v>
       </c>
       <c r="B317">
-        <v>43114.5</v>
+        <v>42248.1</v>
       </c>
       <c r="C317">
-        <v>42987.82785007371</v>
+        <v>42966.43238168415</v>
       </c>
       <c r="D317">
-        <v>126.6721499262931</v>
+        <v>-718.3323816841512</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6236,13 +6236,13 @@
         <v>320</v>
       </c>
       <c r="B318">
-        <v>42248.1</v>
+        <v>42383</v>
       </c>
       <c r="C318">
-        <v>42934.98499554193</v>
+        <v>42195.56606467643</v>
       </c>
       <c r="D318">
-        <v>-686.8849955419355</v>
+        <v>187.43393532357</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6250,13 +6250,13 @@
         <v>321</v>
       </c>
       <c r="B319">
-        <v>42383</v>
+        <v>41686.2</v>
       </c>
       <c r="C319">
-        <v>42169.00621674773</v>
+        <v>42075.86644241803</v>
       </c>
       <c r="D319">
-        <v>213.9937832522701</v>
+        <v>-389.6664424180344</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6264,13 +6264,13 @@
         <v>322</v>
       </c>
       <c r="B320">
-        <v>41686.2</v>
+        <v>40686.9</v>
       </c>
       <c r="C320">
-        <v>42056.64005849753</v>
+        <v>41647.51507440537</v>
       </c>
       <c r="D320">
-        <v>-370.4400584975374</v>
+        <v>-960.6150744053666</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6278,13 +6278,13 @@
         <v>323</v>
       </c>
       <c r="B321">
-        <v>40686.9</v>
+        <v>36468.4</v>
       </c>
       <c r="C321">
-        <v>41629.25870635624</v>
+        <v>41161.0110693868</v>
       </c>
       <c r="D321">
-        <v>-942.3587063562372</v>
+        <v>-4692.611069386803</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6292,13 +6292,13 @@
         <v>324</v>
       </c>
       <c r="B322">
-        <v>36468.4</v>
+        <v>35067.6</v>
       </c>
       <c r="C322">
-        <v>41155.00053737788</v>
+        <v>37108.73480693971</v>
       </c>
       <c r="D322">
-        <v>-4686.600537377883</v>
+        <v>-2041.134806939714</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6306,13 +6306,13 @@
         <v>325</v>
       </c>
       <c r="B323">
-        <v>35067.6</v>
+        <v>36277.5</v>
       </c>
       <c r="C323">
-        <v>37115.93340604803</v>
+        <v>35036.29177595388</v>
       </c>
       <c r="D323">
-        <v>-2048.333406048034</v>
+        <v>1241.208224046117</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6320,13 +6320,13 @@
         <v>326</v>
       </c>
       <c r="B324">
-        <v>36277.5</v>
+        <v>36699.5</v>
       </c>
       <c r="C324">
-        <v>35048.19525943421</v>
+        <v>35743.71549701384</v>
       </c>
       <c r="D324">
-        <v>1229.304740565785</v>
+        <v>955.7845029861637</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6334,13 +6334,13 @@
         <v>327</v>
       </c>
       <c r="B325">
-        <v>36699.5</v>
+        <v>36987.8</v>
       </c>
       <c r="C325">
-        <v>35750.58667415082</v>
+        <v>35816.8972020868</v>
       </c>
       <c r="D325">
-        <v>948.9133258491784</v>
+        <v>1170.902797913208</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6348,13 +6348,13 @@
         <v>328</v>
       </c>
       <c r="B326">
-        <v>36987.8</v>
+        <v>36827.6</v>
       </c>
       <c r="C326">
-        <v>35825.7496762589</v>
+        <v>36637.03522324721</v>
       </c>
       <c r="D326">
-        <v>1162.050323741103</v>
+        <v>190.5647767527917</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6362,13 +6362,13 @@
         <v>329</v>
       </c>
       <c r="B327">
-        <v>36827.6</v>
+        <v>37200.5</v>
       </c>
       <c r="C327">
-        <v>36623.17931417668</v>
+        <v>36994.31078617911</v>
       </c>
       <c r="D327">
-        <v>204.4206858233156</v>
+        <v>206.1892138208932</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6376,13 +6376,13 @@
         <v>330</v>
       </c>
       <c r="B328">
-        <v>37200.5</v>
+        <v>37737.9</v>
       </c>
       <c r="C328">
-        <v>36983.64971534007</v>
+        <v>36672.41020489587</v>
       </c>
       <c r="D328">
-        <v>216.8502846599295</v>
+        <v>1065.489795104128</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6390,13 +6390,13 @@
         <v>331</v>
       </c>
       <c r="B329">
-        <v>37737.9</v>
+        <v>38164.9</v>
       </c>
       <c r="C329">
-        <v>36647.12248487589</v>
+        <v>37292.88416332177</v>
       </c>
       <c r="D329">
-        <v>1090.777515124115</v>
+        <v>872.0158366782343</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6404,13 +6404,13 @@
         <v>332</v>
       </c>
       <c r="B330">
-        <v>38164.9</v>
+        <v>37930.1</v>
       </c>
       <c r="C330">
-        <v>37264.16329417216</v>
+        <v>37953.26690125417</v>
       </c>
       <c r="D330">
-        <v>900.7367058278396</v>
+        <v>-23.16690125417517</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6418,13 +6418,13 @@
         <v>333</v>
       </c>
       <c r="B331">
-        <v>37930.1</v>
+        <v>38512.1</v>
       </c>
       <c r="C331">
-        <v>37920.68411052252</v>
+        <v>37775.45856919805</v>
       </c>
       <c r="D331">
-        <v>9.41588947748096</v>
+        <v>736.6414308019521</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6432,13 +6432,13 @@
         <v>334</v>
       </c>
       <c r="B332">
-        <v>38512.1</v>
+        <v>38719.9</v>
       </c>
       <c r="C332">
-        <v>37738.18383144568</v>
+        <v>38021.05876409677</v>
       </c>
       <c r="D332">
-        <v>773.9161685543149</v>
+        <v>698.84123590323</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6446,13 +6446,13 @@
         <v>335</v>
       </c>
       <c r="B333">
-        <v>38719.9</v>
+        <v>36903.3</v>
       </c>
       <c r="C333">
-        <v>37999.28853024724</v>
+        <v>38596.75376638061</v>
       </c>
       <c r="D333">
-        <v>720.6114697527591</v>
+        <v>-1693.453766380611</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6460,13 +6460,13 @@
         <v>336</v>
       </c>
       <c r="B334">
-        <v>36903.3</v>
+        <v>37324.4</v>
       </c>
       <c r="C334">
-        <v>38574.9382314323</v>
+        <v>37166.31754527577</v>
       </c>
       <c r="D334">
-        <v>-1671.638231432298</v>
+        <v>158.08245472423</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6474,13 +6474,13 @@
         <v>337</v>
       </c>
       <c r="B335">
-        <v>37324.4</v>
+        <v>41585.5</v>
       </c>
       <c r="C335">
-        <v>37145.08079346411</v>
+        <v>36990.09718534049</v>
       </c>
       <c r="D335">
-        <v>179.3192065358962</v>
+        <v>4595.402814659508</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6488,13 +6488,13 @@
         <v>338</v>
       </c>
       <c r="B336">
-        <v>41585.5</v>
+        <v>41419</v>
       </c>
       <c r="C336">
-        <v>36978.11676040692</v>
+        <v>40463.54726936064</v>
       </c>
       <c r="D336">
-        <v>4607.38323959308</v>
+        <v>955.4527306393575</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6502,13 +6502,13 @@
         <v>339</v>
       </c>
       <c r="B337">
-        <v>41419</v>
+        <v>42419.5</v>
       </c>
       <c r="C337">
-        <v>40480.00388219881</v>
+        <v>41380.38353398409</v>
       </c>
       <c r="D337">
-        <v>938.9961178011872</v>
+        <v>1039.116466015912</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6516,13 +6516,13 @@
         <v>340</v>
       </c>
       <c r="B338">
-        <v>42419.5</v>
+        <v>43867.2</v>
       </c>
       <c r="C338">
-        <v>41353.94337999918</v>
+        <v>42169.87253808921</v>
       </c>
       <c r="D338">
-        <v>1065.556620000818</v>
+        <v>1697.327461910783</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6530,13 +6530,13 @@
         <v>341</v>
       </c>
       <c r="B339">
-        <v>43867.2</v>
+        <v>44079.1</v>
       </c>
       <c r="C339">
-        <v>42151.83439058955</v>
+        <v>43525.43385192131</v>
       </c>
       <c r="D339">
-        <v>1715.365609410452</v>
+        <v>553.6661480786934</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6544,13 +6544,13 @@
         <v>342</v>
       </c>
       <c r="B340">
-        <v>44079.1</v>
+        <v>44420</v>
       </c>
       <c r="C340">
-        <v>43519.52683014747</v>
+        <v>44112.47505641439</v>
       </c>
       <c r="D340">
-        <v>559.5731698525269</v>
+        <v>307.5249435856094</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6558,13 +6558,13 @@
         <v>343</v>
       </c>
       <c r="B341">
-        <v>44420</v>
+        <v>43537.5</v>
       </c>
       <c r="C341">
-        <v>44101.31831312318</v>
+        <v>44294.90971513629</v>
       </c>
       <c r="D341">
-        <v>318.6816868768219</v>
+        <v>-757.4097151362948</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6572,13 +6572,13 @@
         <v>344</v>
       </c>
       <c r="B342">
-        <v>43537.5</v>
+        <v>42400.2</v>
       </c>
       <c r="C342">
-        <v>44277.67602547335</v>
+        <v>44070.30463887939</v>
       </c>
       <c r="D342">
-        <v>-740.1760254733526</v>
+        <v>-1670.104638879391</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6586,13 +6586,13 @@
         <v>345</v>
       </c>
       <c r="B343">
-        <v>42400.2</v>
+        <v>42241</v>
       </c>
       <c r="C343">
-        <v>44063.0728430125</v>
+        <v>42707.42837369831</v>
       </c>
       <c r="D343">
-        <v>-1662.872843012505</v>
+        <v>-466.4283736983052</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6600,13 +6600,13 @@
         <v>346</v>
       </c>
       <c r="B344">
-        <v>42241</v>
+        <v>42062.6</v>
       </c>
       <c r="C344">
-        <v>42702.74257721442</v>
+        <v>42346.54018111499</v>
       </c>
       <c r="D344">
-        <v>-461.7425772144197</v>
+        <v>-283.9401811149946</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6614,13 +6614,13 @@
         <v>347</v>
       </c>
       <c r="B345">
-        <v>42062.6</v>
+        <v>42563.5</v>
       </c>
       <c r="C345">
-        <v>42344.43184055683</v>
+        <v>42217.61903421835</v>
       </c>
       <c r="D345">
-        <v>-281.8318405568352</v>
+        <v>345.8809657816455</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6628,13 +6628,13 @@
         <v>348</v>
       </c>
       <c r="B346">
-        <v>42563.5</v>
+        <v>44563.1</v>
       </c>
       <c r="C346">
-        <v>42211.55481630676</v>
+        <v>42421.76735861898</v>
       </c>
       <c r="D346">
-        <v>351.9451836932421</v>
+        <v>2141.332641381021</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6642,13 +6642,13 @@
         <v>349</v>
       </c>
       <c r="B347">
-        <v>44563.1</v>
+        <v>43873.1</v>
       </c>
       <c r="C347">
-        <v>42420.17009903664</v>
+        <v>44139.22349883521</v>
       </c>
       <c r="D347">
-        <v>2142.929900963361</v>
+        <v>-266.1234988352153</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6656,13 +6656,13 @@
         <v>350</v>
       </c>
       <c r="B348">
-        <v>43873.1</v>
+        <v>40543.9</v>
       </c>
       <c r="C348">
-        <v>44141.50913394876</v>
+        <v>43920.92842274714</v>
       </c>
       <c r="D348">
-        <v>-268.4091339487568</v>
+        <v>-3377.028422747135</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6670,13 +6670,13 @@
         <v>351</v>
       </c>
       <c r="B349">
-        <v>40543.9</v>
+        <v>40007.4</v>
       </c>
       <c r="C349">
-        <v>43899.50489382404</v>
+        <v>41237.14353049679</v>
       </c>
       <c r="D349">
-        <v>-3355.604893824035</v>
+        <v>-1229.743530496788</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6684,13 +6684,13 @@
         <v>352</v>
       </c>
       <c r="B350">
-        <v>40007.4</v>
+        <v>40095.8</v>
       </c>
       <c r="C350">
-        <v>41224.7019565126</v>
+        <v>40067.33865738737</v>
       </c>
       <c r="D350">
-        <v>-1217.301956512594</v>
+        <v>28.46134261263069</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6698,13 +6698,13 @@
         <v>353</v>
       </c>
       <c r="B351">
-        <v>40095.8</v>
+        <v>38400</v>
       </c>
       <c r="C351">
-        <v>40059.57779854398</v>
+        <v>40033.97283307811</v>
       </c>
       <c r="D351">
-        <v>36.22220145602478</v>
+        <v>-1633.972833078107</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6712,13 +6712,13 @@
         <v>354</v>
       </c>
       <c r="B352">
-        <v>38400</v>
+        <v>37019.2</v>
       </c>
       <c r="C352">
-        <v>40019.32509691537</v>
+        <v>38632.39594817329</v>
       </c>
       <c r="D352">
-        <v>-1619.325096915374</v>
+        <v>-1613.195948173292</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6726,13 +6726,13 @@
         <v>355</v>
       </c>
       <c r="B353">
-        <v>37019.2</v>
+        <v>38256.3</v>
       </c>
       <c r="C353">
-        <v>38617.0323651283</v>
+        <v>37433.45270857691</v>
       </c>
       <c r="D353">
-        <v>-1597.832365128299</v>
+        <v>822.8472914230952</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6740,13 +6740,13 @@
         <v>356</v>
       </c>
       <c r="B354">
-        <v>38256.3</v>
+        <v>37250.1</v>
       </c>
       <c r="C354">
-        <v>37430.83069162974</v>
+        <v>37743.24028529455</v>
       </c>
       <c r="D354">
-        <v>825.4693083702587</v>
+        <v>-493.1402852945539</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6754,13 +6754,13 @@
         <v>357</v>
       </c>
       <c r="B355">
-        <v>37250.1</v>
+        <v>38340.8</v>
       </c>
       <c r="C355">
-        <v>37738.15949578518</v>
+        <v>37544.13556171856</v>
       </c>
       <c r="D355">
-        <v>-488.059495785179</v>
+        <v>796.6644382814411</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6768,13 +6768,13 @@
         <v>358</v>
       </c>
       <c r="B356">
-        <v>38340.8</v>
+        <v>39233.5</v>
       </c>
       <c r="C356">
-        <v>37522.75283531209</v>
+        <v>37620.73837846333</v>
       </c>
       <c r="D356">
-        <v>818.0471646879159</v>
+        <v>1612.761621536672</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6782,13 +6782,13 @@
         <v>359</v>
       </c>
       <c r="B357">
-        <v>39233.5</v>
+        <v>39120.2</v>
       </c>
       <c r="C357">
-        <v>37622.70177734403</v>
+        <v>38979.61017925064</v>
       </c>
       <c r="D357">
-        <v>1610.798222655969</v>
+        <v>140.5898207493592</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6796,13 +6796,13 @@
         <v>360</v>
       </c>
       <c r="B358">
-        <v>39120.2</v>
+        <v>37709.1</v>
       </c>
       <c r="C358">
-        <v>38948.17563917876</v>
+        <v>39179.8747364568</v>
       </c>
       <c r="D358">
-        <v>172.0243608212331</v>
+        <v>-1470.774736456799</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6810,13 +6810,13 @@
         <v>361</v>
       </c>
       <c r="B359">
-        <v>37709.1</v>
+        <v>43194.7</v>
       </c>
       <c r="C359">
-        <v>39138.92556065564</v>
+        <v>37960.9393327204</v>
       </c>
       <c r="D359">
-        <v>-1429.825560655641</v>
+        <v>5233.760667279596</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6824,13 +6824,13 @@
         <v>362</v>
       </c>
       <c r="B360">
-        <v>43194.7</v>
+        <v>44427.9</v>
       </c>
       <c r="C360">
-        <v>37925.64251810066</v>
+        <v>41992.71981847195</v>
       </c>
       <c r="D360">
-        <v>5269.057481899334</v>
+        <v>2435.180181528056</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6838,13 +6838,13 @@
         <v>363</v>
       </c>
       <c r="B361">
-        <v>44427.9</v>
+        <v>43922.5</v>
       </c>
       <c r="C361">
-        <v>42002.66279077627</v>
+        <v>44238.06550290862</v>
       </c>
       <c r="D361">
-        <v>2425.237209223727</v>
+        <v>-315.5655029086192</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6852,13 +6852,13 @@
         <v>364</v>
       </c>
       <c r="B362">
-        <v>43922.5</v>
+        <v>42465</v>
       </c>
       <c r="C362">
-        <v>44206.66939002681</v>
+        <v>44181.12723480184</v>
       </c>
       <c r="D362">
-        <v>-284.1693900268147</v>
+        <v>-1716.127234801839</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6866,13 +6866,13 @@
         <v>365</v>
       </c>
       <c r="B363">
-        <v>42465</v>
+        <v>39137.5</v>
       </c>
       <c r="C363">
-        <v>44134.54792686611</v>
+        <v>42741.63792294606</v>
       </c>
       <c r="D363">
-        <v>-1669.547926866115</v>
+        <v>-3604.137922946058</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6880,13 +6880,13 @@
         <v>366</v>
       </c>
       <c r="B364">
-        <v>39137.5</v>
+        <v>39396.4</v>
       </c>
       <c r="C364">
-        <v>42702.210620168</v>
+        <v>39784.97453910955</v>
       </c>
       <c r="D364">
-        <v>-3564.710620168</v>
+        <v>-388.5745391095479</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6894,13 +6894,13 @@
         <v>367</v>
       </c>
       <c r="B365">
-        <v>39396.4</v>
+        <v>38416.3</v>
       </c>
       <c r="C365">
-        <v>39763.12416031484</v>
+        <v>39276.05297357061</v>
       </c>
       <c r="D365">
-        <v>-366.7241603148359</v>
+        <v>-859.7529735706048</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6908,13 +6908,13 @@
         <v>368</v>
       </c>
       <c r="B366">
-        <v>38416.3</v>
+        <v>38024</v>
       </c>
       <c r="C366">
-        <v>39257.96606675973</v>
+        <v>38642.0651949217</v>
       </c>
       <c r="D366">
-        <v>-841.6660667597316</v>
+        <v>-618.065194921699</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6922,13 +6922,13 @@
         <v>369</v>
       </c>
       <c r="B367">
-        <v>38024</v>
+        <v>38752.6</v>
       </c>
       <c r="C367">
-        <v>38625.4487848282</v>
+        <v>38150.21137958726</v>
       </c>
       <c r="D367">
-        <v>-601.4487848282006</v>
+        <v>602.3886204127411</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6936,13 +6936,13 @@
         <v>370</v>
       </c>
       <c r="B368">
-        <v>38752.6</v>
+        <v>41965.3</v>
       </c>
       <c r="C368">
-        <v>38152.64233671153</v>
+        <v>38662.56789281541</v>
       </c>
       <c r="D368">
-        <v>599.9576632884637</v>
+        <v>3302.732107184594</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6950,13 +6950,13 @@
         <v>371</v>
       </c>
       <c r="B369">
-        <v>41965.3</v>
+        <v>39435.8</v>
       </c>
       <c r="C369">
-        <v>38667.33334885766</v>
+        <v>41321.50519160331</v>
       </c>
       <c r="D369">
-        <v>3297.966651142342</v>
+        <v>-1885.705191603309</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6964,13 +6964,13 @@
         <v>372</v>
       </c>
       <c r="B370">
-        <v>39435.8</v>
+        <v>38732.1</v>
       </c>
       <c r="C370">
-        <v>41337.19160540101</v>
+        <v>39818.95583843596</v>
       </c>
       <c r="D370">
-        <v>-1901.391605401004</v>
+        <v>-1086.855838435957</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6978,13 +6978,13 @@
         <v>373</v>
       </c>
       <c r="B371">
-        <v>38732.1</v>
+        <v>38785</v>
       </c>
       <c r="C371">
-        <v>39795.05863073275</v>
+        <v>38945.11257832068</v>
       </c>
       <c r="D371">
-        <v>-1062.958630732748</v>
+        <v>-160.1125783206808</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6992,13 +6992,13 @@
         <v>374</v>
       </c>
       <c r="B372">
-        <v>38785</v>
+        <v>37788.4</v>
       </c>
       <c r="C372">
-        <v>38923.97067370715</v>
+        <v>38901.52328819914</v>
       </c>
       <c r="D372">
-        <v>-138.9706737071538</v>
+        <v>-1113.123288199138</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7006,13 +7006,13 @@
         <v>375</v>
       </c>
       <c r="B373">
-        <v>37788.4</v>
+        <v>39689.2</v>
       </c>
       <c r="C373">
-        <v>38873.836697804</v>
+        <v>38038.90172970564</v>
       </c>
       <c r="D373">
-        <v>-1085.436697803998</v>
+        <v>1650.298270294355</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7020,13 +7020,13 @@
         <v>376</v>
       </c>
       <c r="B374">
-        <v>39689.2</v>
+        <v>39325.4</v>
       </c>
       <c r="C374">
-        <v>38010.82668805787</v>
+        <v>39200.75936177549</v>
       </c>
       <c r="D374">
-        <v>1678.373311942123</v>
+        <v>124.6406382245113</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7034,13 +7034,13 @@
         <v>377</v>
       </c>
       <c r="B375">
-        <v>39325.4</v>
+        <v>41124</v>
       </c>
       <c r="C375">
-        <v>39188.88405200552</v>
+        <v>39144.54644371387</v>
       </c>
       <c r="D375">
-        <v>136.5159479944778</v>
+        <v>1979.453556286127</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7048,13 +7048,13 @@
         <v>378</v>
       </c>
       <c r="B376">
-        <v>41124</v>
+        <v>40945.6</v>
       </c>
       <c r="C376">
-        <v>39114.9667198384</v>
+        <v>40679.91899858166</v>
       </c>
       <c r="D376">
-        <v>2009.033280161602</v>
+        <v>265.6810014183357</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7062,13 +7062,13 @@
         <v>379</v>
       </c>
       <c r="B377">
-        <v>40945.6</v>
+        <v>41775.1</v>
       </c>
       <c r="C377">
-        <v>40676.21672296726</v>
+        <v>40962.76476593335</v>
       </c>
       <c r="D377">
-        <v>269.3832770327354</v>
+        <v>812.3352340666534</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7076,13 +7076,13 @@
         <v>380</v>
       </c>
       <c r="B378">
-        <v>41775.1</v>
+        <v>42218</v>
       </c>
       <c r="C378">
-        <v>40930.05935803482</v>
+        <v>41527.4822361449</v>
       </c>
       <c r="D378">
-        <v>845.0406419651772</v>
+        <v>690.5177638550958</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7090,13 +7090,13 @@
         <v>381</v>
       </c>
       <c r="B379">
-        <v>42218</v>
+        <v>41289</v>
       </c>
       <c r="C379">
-        <v>41504.19586436301</v>
+        <v>42099.8615966802</v>
       </c>
       <c r="D379">
-        <v>713.804135636994</v>
+        <v>-810.8615966802026</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7104,13 +7104,13 @@
         <v>382</v>
       </c>
       <c r="B380">
-        <v>41289</v>
+        <v>41014.3</v>
       </c>
       <c r="C380">
-        <v>42062.0154761178</v>
+        <v>41454.82113402626</v>
       </c>
       <c r="D380">
-        <v>-773.0154761177982</v>
+        <v>-440.5211340262613</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7118,13 +7118,13 @@
         <v>383</v>
       </c>
       <c r="B381">
-        <v>41014.3</v>
+        <v>42377.8</v>
       </c>
       <c r="C381">
-        <v>41419.78323985027</v>
+        <v>41033.73277085509</v>
       </c>
       <c r="D381">
-        <v>-405.4832398502622</v>
+        <v>1344.067229144915</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7132,13 +7132,13 @@
         <v>384</v>
       </c>
       <c r="B382">
-        <v>42377.8</v>
+        <v>42910.3</v>
       </c>
       <c r="C382">
-        <v>41008.73888367841</v>
+        <v>42282.4303380022</v>
       </c>
       <c r="D382">
-        <v>1369.061116321594</v>
+        <v>627.8696619978</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7146,13 +7146,13 @@
         <v>385</v>
       </c>
       <c r="B383">
-        <v>42910.3</v>
+        <v>43989</v>
       </c>
       <c r="C383">
-        <v>42277.60238914272</v>
+        <v>42715.70054082193</v>
       </c>
       <c r="D383">
-        <v>632.6976108572853</v>
+        <v>1273.299459178073</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7160,13 +7160,13 @@
         <v>386</v>
       </c>
       <c r="B384">
-        <v>43989</v>
+        <v>44315.5</v>
       </c>
       <c r="C384">
-        <v>42699.61621524922</v>
+        <v>43770.98814806064</v>
       </c>
       <c r="D384">
-        <v>1289.383784750782</v>
+        <v>544.5118519393582</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7174,13 +7174,13 @@
         <v>387</v>
       </c>
       <c r="B385">
-        <v>44315.5</v>
+        <v>44548</v>
       </c>
       <c r="C385">
-        <v>43755.25630315133</v>
+        <v>44413.59195149485</v>
       </c>
       <c r="D385">
-        <v>560.2436968486727</v>
+        <v>134.4080485051527</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7188,13 +7188,13 @@
         <v>388</v>
       </c>
       <c r="B386">
-        <v>44548</v>
+        <v>46855.2</v>
       </c>
       <c r="C386">
-        <v>44404.96846847866</v>
+        <v>44590.27584358626</v>
       </c>
       <c r="D386">
-        <v>143.0315315213375</v>
+        <v>2264.924156413734</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7202,13 +7202,13 @@
         <v>389</v>
       </c>
       <c r="B387">
-        <v>46855.2</v>
+        <v>47137.9</v>
       </c>
       <c r="C387">
-        <v>44566.47629759934</v>
+        <v>46389.76300435742</v>
       </c>
       <c r="D387">
-        <v>2288.723702400661</v>
+        <v>748.1369956425842</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7216,13 +7216,13 @@
         <v>390</v>
       </c>
       <c r="B388">
-        <v>47137.9</v>
+        <v>47440.2</v>
       </c>
       <c r="C388">
-        <v>46374.54823148299</v>
+        <v>47428.64852879346</v>
       </c>
       <c r="D388">
-        <v>763.3517685170154</v>
+        <v>11.55147120653419</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7230,13 +7230,13 @@
         <v>391</v>
       </c>
       <c r="B389">
-        <v>47440.2</v>
+        <v>47059.3</v>
       </c>
       <c r="C389">
-        <v>47413.92379755103</v>
+        <v>47612.61861000031</v>
       </c>
       <c r="D389">
-        <v>26.27620244896389</v>
+        <v>-553.3186100003077</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7244,13 +7244,13 @@
         <v>392</v>
       </c>
       <c r="B390">
-        <v>47059.3</v>
+        <v>45524.3</v>
       </c>
       <c r="C390">
-        <v>47585.84883259058</v>
+        <v>47232.06987360011</v>
       </c>
       <c r="D390">
-        <v>-526.5488325905753</v>
+        <v>-1707.769873600104</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7258,13 +7258,13 @@
         <v>393</v>
       </c>
       <c r="B391">
-        <v>45524.3</v>
+        <v>46312</v>
       </c>
       <c r="C391">
-        <v>47204.0900944856</v>
+        <v>46040.13826867602</v>
       </c>
       <c r="D391">
-        <v>-1679.790094485594</v>
+        <v>271.8617313239811</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7272,13 +7272,13 @@
         <v>394</v>
       </c>
       <c r="B392">
-        <v>46312</v>
+        <v>45828.6</v>
       </c>
       <c r="C392">
-        <v>46020.32547478711</v>
+        <v>46018.36594071575</v>
       </c>
       <c r="D392">
-        <v>291.6745252128894</v>
+        <v>-189.7659407157553</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7286,13 +7286,13 @@
         <v>395</v>
       </c>
       <c r="B393">
-        <v>45828.6</v>
+        <v>46423.4</v>
       </c>
       <c r="C393">
-        <v>46012.37919689961</v>
+        <v>46186.00236552024</v>
       </c>
       <c r="D393">
-        <v>-183.7791968996098</v>
+        <v>237.3976344797629</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7300,13 +7300,13 @@
         <v>396</v>
       </c>
       <c r="B394">
-        <v>46423.4</v>
+        <v>46617.1</v>
       </c>
       <c r="C394">
-        <v>46166.96743688123</v>
+        <v>46521.43953804839</v>
       </c>
       <c r="D394">
-        <v>256.4325631187749</v>
+        <v>95.66046195160743</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7314,13 +7314,13 @@
         <v>397</v>
       </c>
       <c r="B395">
-        <v>46617.1</v>
+        <v>45479.2</v>
       </c>
       <c r="C395">
-        <v>46507.81726461639</v>
+        <v>46390.39621444939</v>
       </c>
       <c r="D395">
-        <v>109.282735383611</v>
+        <v>-911.1962144493882</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7328,13 +7328,13 @@
         <v>398</v>
       </c>
       <c r="B396">
-        <v>45479.2</v>
+        <v>43179.4</v>
       </c>
       <c r="C396">
-        <v>46370.96949981099</v>
+        <v>45876.48338774782</v>
       </c>
       <c r="D396">
-        <v>-891.7694998109946</v>
+        <v>-2697.083387747822</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7342,13 +7342,13 @@
         <v>399</v>
       </c>
       <c r="B397">
-        <v>43179.4</v>
+        <v>43469.8</v>
       </c>
       <c r="C397">
-        <v>45852.51895800441</v>
+        <v>43711.88446330051</v>
       </c>
       <c r="D397">
-        <v>-2673.118958004408</v>
+        <v>-242.0844633005036</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7356,13 +7356,13 @@
         <v>400</v>
       </c>
       <c r="B398">
-        <v>43469.8</v>
+        <v>42282.6</v>
       </c>
       <c r="C398">
-        <v>43692.2399981054</v>
+        <v>43400.0076645704</v>
       </c>
       <c r="D398">
-        <v>-222.4399981054012</v>
+        <v>-1117.407664570397</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7370,13 +7370,13 @@
         <v>401</v>
       </c>
       <c r="B399">
-        <v>42282.6</v>
+        <v>42764</v>
       </c>
       <c r="C399">
-        <v>43383.02278605929</v>
+        <v>42597.70149185542</v>
       </c>
       <c r="D399">
-        <v>-1100.422786059287</v>
+        <v>166.2985081445804</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7384,13 +7384,13 @@
         <v>402</v>
       </c>
       <c r="B400">
-        <v>42764</v>
+        <v>42160</v>
       </c>
       <c r="C400">
-        <v>42577.39715840832</v>
+        <v>42578.09465226564</v>
       </c>
       <c r="D400">
-        <v>186.6028415916808</v>
+        <v>-418.094652265645</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7398,13 +7398,13 @@
         <v>403</v>
       </c>
       <c r="B401">
-        <v>42160</v>
+        <v>39534.6</v>
       </c>
       <c r="C401">
-        <v>42552.99665334112</v>
+        <v>42294.23695995063</v>
       </c>
       <c r="D401">
-        <v>-392.9966533411207</v>
+        <v>-2759.636959950636</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7412,13 +7412,13 @@
         <v>404</v>
       </c>
       <c r="B402">
-        <v>39534.6</v>
+        <v>40078.7</v>
       </c>
       <c r="C402">
-        <v>42264.93367110415</v>
+        <v>40013.62047160523</v>
       </c>
       <c r="D402">
-        <v>-2730.333671104156</v>
+        <v>65.07952839476638</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7426,13 +7426,13 @@
         <v>405</v>
       </c>
       <c r="B403">
-        <v>40078.7</v>
+        <v>41150</v>
       </c>
       <c r="C403">
-        <v>39989.98381827465</v>
+        <v>39917.98024623517</v>
       </c>
       <c r="D403">
-        <v>88.71618172535091</v>
+        <v>1232.019753764835</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7440,13 +7440,13 @@
         <v>406</v>
       </c>
       <c r="B404">
-        <v>41150</v>
+        <v>39954.9</v>
       </c>
       <c r="C404">
-        <v>39898.07511095035</v>
+        <v>40773.81525425929</v>
       </c>
       <c r="D404">
-        <v>1251.924889049653</v>
+        <v>-818.9152542592856</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7454,13 +7454,13 @@
         <v>407</v>
       </c>
       <c r="B405">
-        <v>39954.9</v>
+        <v>40569.9</v>
       </c>
       <c r="C405">
-        <v>40748.37946313755</v>
+        <v>40102.19492857043</v>
       </c>
       <c r="D405">
-        <v>-793.479463137548</v>
+        <v>467.7050714295692</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7468,13 +7468,13 @@
         <v>408</v>
       </c>
       <c r="B406">
-        <v>40569.9</v>
+        <v>40381</v>
       </c>
       <c r="C406">
-        <v>40062.47465792361</v>
+        <v>40347.93091884583</v>
       </c>
       <c r="D406">
-        <v>507.4253420763926</v>
+        <v>33.06908115417173</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7482,13 +7482,13 @@
         <v>409</v>
       </c>
       <c r="B407">
-        <v>40381</v>
+        <v>39681.2</v>
       </c>
       <c r="C407">
-        <v>40311.54145223919</v>
+        <v>40258.66805344088</v>
       </c>
       <c r="D407">
-        <v>69.45854776080523</v>
+        <v>-577.4680534408835</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7496,13 +7496,13 @@
         <v>410</v>
       </c>
       <c r="B408">
-        <v>39681.2</v>
+        <v>40811.3</v>
       </c>
       <c r="C408">
-        <v>40213.96947933371</v>
+        <v>39755.87647973334</v>
       </c>
       <c r="D408">
-        <v>-532.7694793337141</v>
+        <v>1055.42352026666</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7510,13 +7510,13 @@
         <v>411</v>
       </c>
       <c r="B409">
-        <v>40811.3</v>
+        <v>41506.2</v>
       </c>
       <c r="C409">
-        <v>39714.05659910616</v>
+        <v>40241.44483636176</v>
       </c>
       <c r="D409">
-        <v>1097.243400893843</v>
+        <v>1264.755163638241</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7524,13 +7524,13 @@
         <v>412</v>
       </c>
       <c r="B410">
-        <v>41506.2</v>
+        <v>41369.9</v>
       </c>
       <c r="C410">
-        <v>40215.63967266648</v>
+        <v>41284.32499969557</v>
       </c>
       <c r="D410">
-        <v>1290.560327333515</v>
+        <v>85.57500030443043</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7538,13 +7538,13 @@
         <v>413</v>
       </c>
       <c r="B411">
-        <v>41369.9</v>
+        <v>40484.1</v>
       </c>
       <c r="C411">
-        <v>41248.54088088915</v>
+        <v>41383.03015140143</v>
       </c>
       <c r="D411">
-        <v>121.3591191108499</v>
+        <v>-898.9301514014296</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7552,13 +7552,13 @@
         <v>414</v>
       </c>
       <c r="B412">
-        <v>40484.1</v>
+        <v>39715.9</v>
       </c>
       <c r="C412">
-        <v>41347.70291371907</v>
+        <v>40800.19026196263</v>
       </c>
       <c r="D412">
-        <v>-863.6029137190708</v>
+        <v>-1084.290261962633</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7566,13 +7566,13 @@
         <v>415</v>
       </c>
       <c r="B413">
-        <v>39715.9</v>
+        <v>39435.6</v>
       </c>
       <c r="C413">
-        <v>40776.95288308155</v>
+        <v>39756.22436249979</v>
       </c>
       <c r="D413">
-        <v>-1061.052883081553</v>
+        <v>-320.6243624997951</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7580,13 +7580,13 @@
         <v>416</v>
       </c>
       <c r="B414">
-        <v>39435.6</v>
+        <v>39467.9</v>
       </c>
       <c r="C414">
-        <v>39729.2944402054</v>
+        <v>39456.02810146516</v>
       </c>
       <c r="D414">
-        <v>-293.6944402053996</v>
+        <v>11.87189853484597</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7594,13 +7594,13 @@
         <v>417</v>
       </c>
       <c r="B415">
-        <v>39467.9</v>
+        <v>40438.5</v>
       </c>
       <c r="C415">
-        <v>39427.6200270533</v>
+        <v>39395.28735184945</v>
       </c>
       <c r="D415">
-        <v>40.27997294670058</v>
+        <v>1043.212648150555</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7608,13 +7608,13 @@
         <v>418</v>
       </c>
       <c r="B416">
-        <v>40438.5</v>
+        <v>38121.7</v>
       </c>
       <c r="C416">
-        <v>39369.90498692948</v>
+        <v>39894.41601890426</v>
       </c>
       <c r="D416">
-        <v>1068.595013070517</v>
+        <v>-1772.716018904262</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7622,13 +7622,13 @@
         <v>419</v>
       </c>
       <c r="B417">
-        <v>38121.7</v>
+        <v>39249.9</v>
       </c>
       <c r="C417">
-        <v>39884.1196029141</v>
+        <v>38533.43873480514</v>
       </c>
       <c r="D417">
-        <v>-1762.419602914102</v>
+        <v>716.4612651948628</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7636,13 +7636,13 @@
         <v>420</v>
       </c>
       <c r="B418">
-        <v>39249.9</v>
+        <v>39752.8</v>
       </c>
       <c r="C418">
-        <v>38516.69509020024</v>
+        <v>38903.77468617437</v>
       </c>
       <c r="D418">
-        <v>733.2049097997588</v>
+        <v>849.0253138256376</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7650,13 +7650,13 @@
         <v>421</v>
       </c>
       <c r="B419">
-        <v>39752.8</v>
+        <v>38599.5</v>
       </c>
       <c r="C419">
-        <v>38894.8275169886</v>
+        <v>39623.32396471834</v>
       </c>
       <c r="D419">
-        <v>857.9724830113992</v>
+        <v>-1023.823964718336</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7664,13 +7664,13 @@
         <v>422</v>
       </c>
       <c r="B420">
-        <v>38599.5</v>
+        <v>37660.8</v>
       </c>
       <c r="C420">
-        <v>39607.73557658306</v>
+        <v>38723.60088794619</v>
       </c>
       <c r="D420">
-        <v>-1008.235576583058</v>
+        <v>-1062.800887946185</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7678,13 +7678,13 @@
         <v>423</v>
       </c>
       <c r="B421">
-        <v>37660.8</v>
+        <v>38474.1</v>
       </c>
       <c r="C421">
-        <v>38701.87963382948</v>
+        <v>37820.52012132191</v>
       </c>
       <c r="D421">
-        <v>-1041.079633829475</v>
+        <v>653.579878678087</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7692,13 +7692,13 @@
         <v>424</v>
       </c>
       <c r="B422">
-        <v>38474.1</v>
+        <v>38499.9</v>
       </c>
       <c r="C422">
-        <v>37799.22987629006</v>
+        <v>38185.17315680716</v>
       </c>
       <c r="D422">
-        <v>674.8701237099376</v>
+        <v>314.726843192846</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7706,13 +7706,13 @@
         <v>425</v>
       </c>
       <c r="B423">
-        <v>38499.9</v>
+        <v>37727.9</v>
       </c>
       <c r="C423">
-        <v>38171.83422727276</v>
+        <v>38462.40395883501</v>
       </c>
       <c r="D423">
-        <v>328.065772727241</v>
+        <v>-734.5039588350119</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7720,13 +7720,13 @@
         <v>426</v>
       </c>
       <c r="B424">
-        <v>37727.9</v>
+        <v>39682.8</v>
       </c>
       <c r="C424">
-        <v>38444.66367093859</v>
+        <v>37810.63422363131</v>
       </c>
       <c r="D424">
-        <v>-716.7636709385915</v>
+        <v>1872.165776368696</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7734,13 +7734,13 @@
         <v>427</v>
       </c>
       <c r="B425">
-        <v>39682.8</v>
+        <v>36542.6</v>
       </c>
       <c r="C425">
-        <v>37788.43967226222</v>
+        <v>39213.42734963047</v>
       </c>
       <c r="D425">
-        <v>1894.360327737784</v>
+        <v>-2670.827349630468</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7748,13 +7748,13 @@
         <v>428</v>
       </c>
       <c r="B426">
-        <v>36542.6</v>
+        <v>36017.4</v>
       </c>
       <c r="C426">
-        <v>39208.44542336756</v>
+        <v>36913.87049843515</v>
       </c>
       <c r="D426">
-        <v>-2665.845423367566</v>
+        <v>-896.4704984351483</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7762,13 +7762,13 @@
         <v>429</v>
       </c>
       <c r="B427">
-        <v>36017.4</v>
+        <v>35463</v>
       </c>
       <c r="C427">
-        <v>36898.08976394143</v>
+        <v>35893.24950912145</v>
       </c>
       <c r="D427">
-        <v>-880.689763941431</v>
+        <v>-430.2495091214514</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7776,13 +7776,13 @@
         <v>430</v>
       </c>
       <c r="B428">
-        <v>35463</v>
+        <v>34024.2</v>
       </c>
       <c r="C428">
-        <v>35880.88832130648</v>
+        <v>35334.11991631849</v>
       </c>
       <c r="D428">
-        <v>-417.8883213064837</v>
+        <v>-1309.919916318497</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7790,13 +7790,13 @@
         <v>431</v>
       </c>
       <c r="B429">
-        <v>34024.2</v>
+        <v>30075.5</v>
       </c>
       <c r="C429">
-        <v>35318.56802362383</v>
+        <v>34156.85895149798</v>
       </c>
       <c r="D429">
-        <v>-1294.368023623829</v>
+        <v>-4081.358951497983</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7804,13 +7804,13 @@
         <v>432</v>
       </c>
       <c r="B430">
-        <v>30075.5</v>
+        <v>30999.9</v>
       </c>
       <c r="C430">
-        <v>34144.57634028867</v>
+        <v>30843.41328782558</v>
       </c>
       <c r="D430">
-        <v>-4069.076340288666</v>
+        <v>156.4867121744246</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7818,13 +7818,13 @@
         <v>433</v>
       </c>
       <c r="B431">
-        <v>30999.9</v>
+        <v>28994.1</v>
       </c>
       <c r="C431">
-        <v>30847.43480683073</v>
+        <v>30924.44006349701</v>
       </c>
       <c r="D431">
-        <v>152.4651931692715</v>
+        <v>-1930.340063497009</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7832,13 +7832,13 @@
         <v>434</v>
       </c>
       <c r="B432">
-        <v>28994.1</v>
+        <v>28943.4</v>
       </c>
       <c r="C432">
-        <v>30948.76975869889</v>
+        <v>29234.19819080782</v>
       </c>
       <c r="D432">
-        <v>-1954.669758698896</v>
+        <v>-290.7981908078145</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7846,13 +7846,13 @@
         <v>435</v>
       </c>
       <c r="B433">
-        <v>28943.4</v>
+        <v>29222.6</v>
       </c>
       <c r="C433">
-        <v>29250.83522177376</v>
+        <v>28191.12467320537</v>
       </c>
       <c r="D433">
-        <v>-307.4352217737542</v>
+        <v>1031.475326794629</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7860,13 +7860,13 @@
         <v>436</v>
       </c>
       <c r="B434">
-        <v>29222.6</v>
+        <v>30048.2</v>
       </c>
       <c r="C434">
-        <v>28210.13841088531</v>
+        <v>29306.50105578746</v>
       </c>
       <c r="D434">
-        <v>1012.46158911469</v>
+        <v>741.6989442125378</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7874,13 +7874,13 @@
         <v>437</v>
       </c>
       <c r="B435">
-        <v>30048.2</v>
+        <v>31296.9</v>
       </c>
       <c r="C435">
-        <v>29303.06851215668</v>
+        <v>29596.24537558194</v>
       </c>
       <c r="D435">
-        <v>745.1314878433222</v>
+        <v>1700.654624418057</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7888,13 +7888,13 @@
         <v>438</v>
       </c>
       <c r="B436">
-        <v>31296.9</v>
+        <v>29826.1</v>
       </c>
       <c r="C436">
-        <v>29580.36507434609</v>
+        <v>30735.03011922156</v>
       </c>
       <c r="D436">
-        <v>1716.534925653912</v>
+        <v>-908.9301192215571</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7902,13 +7902,13 @@
         <v>439</v>
       </c>
       <c r="B437">
-        <v>29826.1</v>
+        <v>30408.3</v>
       </c>
       <c r="C437">
-        <v>30711.45683790257</v>
+        <v>29844.24356802582</v>
       </c>
       <c r="D437">
-        <v>-885.3568379025746</v>
+        <v>564.0564319741788</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7916,13 +7916,13 @@
         <v>440</v>
       </c>
       <c r="B438">
-        <v>30408.3</v>
+        <v>28664.3</v>
       </c>
       <c r="C438">
-        <v>29807.75136085696</v>
+        <v>30106.84901450571</v>
       </c>
       <c r="D438">
-        <v>600.5486391430422</v>
+        <v>-1442.549014505716</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7930,13 +7930,13 @@
         <v>441</v>
       </c>
       <c r="B439">
-        <v>28664.3</v>
+        <v>30280.7</v>
       </c>
       <c r="C439">
-        <v>30078.53074486915</v>
+        <v>28939.15755618383</v>
       </c>
       <c r="D439">
-        <v>-1414.230744869146</v>
+        <v>1341.542443816175</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -7944,13 +7944,13 @@
         <v>442</v>
       </c>
       <c r="B440">
-        <v>30280.7</v>
+        <v>29167.5</v>
       </c>
       <c r="C440">
-        <v>28909.83890571991</v>
+        <v>29799.89793515901</v>
       </c>
       <c r="D440">
-        <v>1370.861094280091</v>
+        <v>-632.3979351590096</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7958,13 +7958,13 @@
         <v>443</v>
       </c>
       <c r="B441">
-        <v>29167.5</v>
+        <v>29403.5</v>
       </c>
       <c r="C441">
-        <v>29789.53379776655</v>
+        <v>29252.42805232688</v>
       </c>
       <c r="D441">
-        <v>-622.0337977665477</v>
+        <v>151.0719476731174</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -7972,13 +7972,13 @@
         <v>444</v>
       </c>
       <c r="B442">
-        <v>29403.5</v>
+        <v>30268</v>
       </c>
       <c r="C442">
-        <v>29232.13247725715</v>
+        <v>29196.1408584936</v>
       </c>
       <c r="D442">
-        <v>171.3675227428466</v>
+        <v>1071.8591415064</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7986,13 +7986,13 @@
         <v>445</v>
       </c>
       <c r="B443">
-        <v>30268</v>
+        <v>29070</v>
       </c>
       <c r="C443">
-        <v>29178.92086593069</v>
+        <v>29935.794258273</v>
       </c>
       <c r="D443">
-        <v>1089.07913406931</v>
+        <v>-865.7942582730029</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8000,13 +8000,13 @@
         <v>446</v>
       </c>
       <c r="B444">
-        <v>29070</v>
+        <v>29631.8</v>
       </c>
       <c r="C444">
-        <v>29925.55004833787</v>
+        <v>29238.48503993735</v>
       </c>
       <c r="D444">
-        <v>-855.550048337871</v>
+        <v>393.3149600626457</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8014,13 +8014,13 @@
         <v>447</v>
       </c>
       <c r="B445">
-        <v>29631.8</v>
+        <v>29520.3</v>
       </c>
       <c r="C445">
-        <v>29225.9174952996</v>
+        <v>29326.16084278337</v>
       </c>
       <c r="D445">
-        <v>405.8825047004029</v>
+        <v>194.1391572166285</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8028,13 +8028,13 @@
         <v>448</v>
       </c>
       <c r="B446">
-        <v>29520.3</v>
+        <v>29186.9</v>
       </c>
       <c r="C446">
-        <v>29320.43037482069</v>
+        <v>29525.45343373028</v>
       </c>
       <c r="D446">
-        <v>199.8696251793117</v>
+        <v>-338.5534337302743</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8042,13 +8042,13 @@
         <v>449</v>
       </c>
       <c r="B447">
-        <v>29186.9</v>
+        <v>28580</v>
       </c>
       <c r="C447">
-        <v>29516.57478027594</v>
+        <v>28843.54205155263</v>
       </c>
       <c r="D447">
-        <v>-329.6747802759419</v>
+        <v>-263.5420515526348</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8056,13 +8056,13 @@
         <v>450</v>
       </c>
       <c r="B448">
-        <v>28580</v>
+        <v>29020</v>
       </c>
       <c r="C448">
-        <v>28843.12415126168</v>
+        <v>28600.88427306632</v>
       </c>
       <c r="D448">
-        <v>-263.1241512616834</v>
+        <v>419.1157269336836</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8070,13 +8070,13 @@
         <v>451</v>
       </c>
       <c r="B449">
-        <v>29020</v>
+        <v>29450.4</v>
       </c>
       <c r="C449">
-        <v>28600.35222176941</v>
+        <v>28860.51203256393</v>
       </c>
       <c r="D449">
-        <v>419.6477782305883</v>
+        <v>589.8879674360724</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8084,13 +8084,13 @@
         <v>452</v>
       </c>
       <c r="B450">
-        <v>29450.4</v>
+        <v>31711.7</v>
       </c>
       <c r="C450">
-        <v>28859.44675144131</v>
+        <v>29245.60386976482</v>
       </c>
       <c r="D450">
-        <v>590.9532485586897</v>
+        <v>2466.096130235182</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8098,13 +8098,13 @@
         <v>453</v>
       </c>
       <c r="B451">
-        <v>31711.7</v>
+        <v>31780.9</v>
       </c>
       <c r="C451">
-        <v>29241.72649764518</v>
+        <v>31185.73136915924</v>
       </c>
       <c r="D451">
-        <v>2469.973502354816</v>
+        <v>595.1686308407589</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8112,13 +8112,13 @@
         <v>454</v>
       </c>
       <c r="B452">
-        <v>31780.9</v>
+        <v>29790</v>
       </c>
       <c r="C452">
-        <v>31197.03703863936</v>
+        <v>31760.96755321232</v>
       </c>
       <c r="D452">
-        <v>583.862961360639</v>
+        <v>-1970.967553212322</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8126,13 +8126,13 @@
         <v>455</v>
       </c>
       <c r="B453">
-        <v>29790</v>
+        <v>30427</v>
       </c>
       <c r="C453">
-        <v>31751.62061935528</v>
+        <v>30121.13481758382</v>
       </c>
       <c r="D453">
-        <v>-1961.620619355279</v>
+        <v>305.8651824161789</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8140,13 +8140,13 @@
         <v>456</v>
       </c>
       <c r="B454">
-        <v>30427</v>
+        <v>29676.4</v>
       </c>
       <c r="C454">
-        <v>30110.91429018469</v>
+        <v>30406.08352822167</v>
       </c>
       <c r="D454">
-        <v>316.0857098153065</v>
+        <v>-729.6835282216707</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8154,13 +8154,13 @@
         <v>457</v>
       </c>
       <c r="B455">
-        <v>29676.4</v>
+        <v>29850</v>
       </c>
       <c r="C455">
-        <v>30406.25289690841</v>
+        <v>29750.41276364049</v>
       </c>
       <c r="D455">
-        <v>-729.8528969084073</v>
+        <v>99.58723635951173</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8168,13 +8168,13 @@
         <v>458</v>
       </c>
       <c r="B456">
-        <v>29850</v>
+        <v>29907.6</v>
       </c>
       <c r="C456">
-        <v>29741.37549653917</v>
+        <v>29735.22390062547</v>
       </c>
       <c r="D456">
-        <v>108.6245034608291</v>
+        <v>172.3760993745309</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8182,13 +8182,13 @@
         <v>459</v>
       </c>
       <c r="B457">
-        <v>29907.6</v>
+        <v>31356.3</v>
       </c>
       <c r="C457">
-        <v>29726.89471349237</v>
+        <v>29826.57486965787</v>
       </c>
       <c r="D457">
-        <v>180.705286507633</v>
+        <v>1529.725130342133</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8196,13 +8196,13 @@
         <v>460</v>
       </c>
       <c r="B458">
-        <v>31356.3</v>
+        <v>31098.6</v>
       </c>
       <c r="C458">
-        <v>29818.95252813335</v>
+        <v>31044.11892556718</v>
       </c>
       <c r="D458">
-        <v>1537.347471866651</v>
+        <v>54.48107443282061</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8210,13 +8210,13 @@
         <v>461</v>
       </c>
       <c r="B459">
-        <v>31098.6</v>
+        <v>30190.8</v>
       </c>
       <c r="C459">
-        <v>31049.44457590416</v>
+        <v>30717.34081527255</v>
       </c>
       <c r="D459">
-        <v>49.15542409584305</v>
+        <v>-526.5408152725468</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8224,13 +8224,13 @@
         <v>462</v>
       </c>
       <c r="B460">
-        <v>30190.8</v>
+        <v>30075.3</v>
       </c>
       <c r="C460">
-        <v>30714.05888103637</v>
+        <v>30326.02031938019</v>
       </c>
       <c r="D460">
-        <v>-523.2588810363704</v>
+        <v>-250.720319380187</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8238,13 +8238,13 @@
         <v>463</v>
       </c>
       <c r="B461">
-        <v>30075.3</v>
+        <v>29054.9</v>
       </c>
       <c r="C461">
-        <v>30316.97693697539</v>
+        <v>30126.66808020412</v>
       </c>
       <c r="D461">
-        <v>-241.6769369753929</v>
+        <v>-1071.768080204121</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8252,13 +8252,13 @@
         <v>464</v>
       </c>
       <c r="B462">
-        <v>29054.9</v>
+        <v>28380.2</v>
       </c>
       <c r="C462">
-        <v>30118.61310260466</v>
+        <v>29248.93814680133</v>
       </c>
       <c r="D462">
-        <v>-1063.713102604663</v>
+        <v>-868.73814680133</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8266,13 +8266,13 @@
         <v>465</v>
       </c>
       <c r="B463">
-        <v>28380.2</v>
+        <v>26569.6</v>
       </c>
       <c r="C463">
-        <v>29241.99105447084</v>
+        <v>28494.30703978396</v>
       </c>
       <c r="D463">
-        <v>-861.7910544708393</v>
+        <v>-1924.707039783963</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8280,13 +8280,13 @@
         <v>466</v>
       </c>
       <c r="B464">
-        <v>26569.6</v>
+        <v>22460.1</v>
       </c>
       <c r="C464">
-        <v>28491.49105139781</v>
+        <v>26916.51999042742</v>
       </c>
       <c r="D464">
-        <v>-1921.891051397812</v>
+        <v>-4456.419990427421</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8294,13 +8294,13 @@
         <v>467</v>
       </c>
       <c r="B465">
-        <v>22460.1</v>
+        <v>22111</v>
       </c>
       <c r="C465">
-        <v>26914.91750431292</v>
+        <v>23238.35938819787</v>
       </c>
       <c r="D465">
-        <v>-4454.817504312923</v>
+        <v>-1127.359388197874</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8308,13 +8308,13 @@
         <v>468</v>
       </c>
       <c r="B466">
-        <v>22111</v>
+        <v>22559.6</v>
       </c>
       <c r="C466">
-        <v>23263.81908241559</v>
+        <v>21973.98535759613</v>
       </c>
       <c r="D466">
-        <v>-1152.81908241559</v>
+        <v>585.614642403867</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8322,13 +8322,13 @@
         <v>469</v>
       </c>
       <c r="B467">
-        <v>22559.6</v>
+        <v>20366.3</v>
       </c>
       <c r="C467">
-        <v>22002.45773123816</v>
+        <v>21938.33412715439</v>
       </c>
       <c r="D467">
-        <v>557.1422687618397</v>
+        <v>-1572.034127154391</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8336,13 +8336,13 @@
         <v>470</v>
       </c>
       <c r="B468">
-        <v>20366.3</v>
+        <v>20432.9</v>
       </c>
       <c r="C468">
-        <v>21959.95696309597</v>
+        <v>20761.50226271468</v>
       </c>
       <c r="D468">
-        <v>-1593.656963095975</v>
+        <v>-328.6022627146813</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8350,13 +8350,13 @@
         <v>471</v>
       </c>
       <c r="B469">
-        <v>20432.9</v>
+        <v>18950</v>
       </c>
       <c r="C469">
-        <v>20760.87879704173</v>
+        <v>20444.93424435108</v>
       </c>
       <c r="D469">
-        <v>-327.978797041731</v>
+        <v>-1494.934244351083</v>
       </c>
     </row>
   </sheetData>

--- a/data/df_compare.xlsx
+++ b/data/df_compare.xlsx
@@ -28,9 +28,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>2021-03-08</t>
-  </si>
-  <si>
     <t>2021-03-09</t>
   </si>
   <si>
@@ -1430,6 +1427,9 @@
   </si>
   <si>
     <t>2022-06-18</t>
+  </si>
+  <si>
+    <t>2022-06-19</t>
   </si>
 </sst>
 </file>
@@ -1812,13 +1812,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>52375</v>
+        <v>54929</v>
       </c>
       <c r="C2">
-        <v>50683.11086998637</v>
+        <v>51793.13713892827</v>
       </c>
       <c r="D2">
-        <v>1691.889130013631</v>
+        <v>3135.862861071728</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1826,13 +1826,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>54929</v>
+        <v>55851</v>
       </c>
       <c r="C3">
-        <v>51778.40733569708</v>
+        <v>54375.8669684897</v>
       </c>
       <c r="D3">
-        <v>3150.592664302923</v>
+        <v>1475.133031510297</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1840,13 +1840,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>55851</v>
+        <v>57809.9</v>
       </c>
       <c r="C4">
-        <v>54356.64084658773</v>
+        <v>55729.30898857275</v>
       </c>
       <c r="D4">
-        <v>1494.359153412268</v>
+        <v>2080.591011427248</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1854,13 +1854,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>57809.9</v>
+        <v>57234</v>
       </c>
       <c r="C5">
-        <v>55711.42162065954</v>
+        <v>57283.97317140551</v>
       </c>
       <c r="D5">
-        <v>2098.478379340457</v>
+        <v>-49.97317140550877</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1868,13 +1868,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>57234</v>
+        <v>61174.9</v>
       </c>
       <c r="C6">
-        <v>57268.18513778226</v>
+        <v>57148.83370539262</v>
       </c>
       <c r="D6">
-        <v>-34.18513778226043</v>
+        <v>4026.066294607379</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1882,13 +1882,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>61174.9</v>
+        <v>59001.1</v>
       </c>
       <c r="C7">
-        <v>57136.72841871715</v>
+        <v>60375.09261687229</v>
       </c>
       <c r="D7">
-        <v>4038.171581282855</v>
+        <v>-1373.992616872296</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1896,13 +1896,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>59001.1</v>
+        <v>55600</v>
       </c>
       <c r="C8">
-        <v>60362.6835049267</v>
+        <v>59891.3721138629</v>
       </c>
       <c r="D8">
-        <v>-1361.583504926697</v>
+        <v>-4291.372113862904</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1910,13 +1910,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>55600</v>
+        <v>56891.1</v>
       </c>
       <c r="C9">
-        <v>59880.89763681438</v>
+        <v>56717.26626209544</v>
       </c>
       <c r="D9">
-        <v>-4280.897636814378</v>
+        <v>173.8337379045624</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1924,13 +1924,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>56891.1</v>
+        <v>58933</v>
       </c>
       <c r="C10">
-        <v>56722.54719390532</v>
+        <v>56072.35259074903</v>
       </c>
       <c r="D10">
-        <v>168.5528060946745</v>
+        <v>2860.647409250974</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1938,13 +1938,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>58933</v>
+        <v>57640.9</v>
       </c>
       <c r="C11">
-        <v>56085.47461931176</v>
+        <v>57920.62155299138</v>
       </c>
       <c r="D11">
-        <v>2847.525380688239</v>
+        <v>-279.7215529913738</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1952,13 +1952,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>57640.9</v>
+        <v>58101.8</v>
       </c>
       <c r="C12">
-        <v>57934.03375965579</v>
+        <v>58240.4795706898</v>
       </c>
       <c r="D12">
-        <v>-293.1337596557933</v>
+        <v>-138.6795706897974</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1966,13 +1966,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>58101.8</v>
+        <v>58091.6</v>
       </c>
       <c r="C13">
-        <v>58243.0477007694</v>
+        <v>58152.77454505126</v>
       </c>
       <c r="D13">
-        <v>-141.247700769396</v>
+        <v>-61.17454505126079</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1980,13 +1980,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>58091.6</v>
+        <v>57378.4</v>
       </c>
       <c r="C14">
-        <v>58158.19124009887</v>
+        <v>58520.48855272667</v>
       </c>
       <c r="D14">
-        <v>-66.59124009886727</v>
+        <v>-1142.088552726673</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1994,13 +1994,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>57378.4</v>
+        <v>54095.1</v>
       </c>
       <c r="C15">
-        <v>58520.41882736782</v>
+        <v>57405.57198554471</v>
       </c>
       <c r="D15">
-        <v>-1142.018827367814</v>
+        <v>-3310.471985544711</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2008,13 +2008,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>54095.1</v>
+        <v>54351.3</v>
       </c>
       <c r="C16">
-        <v>57413.08238633895</v>
+        <v>55095.8319062603</v>
       </c>
       <c r="D16">
-        <v>-3317.982386338954</v>
+        <v>-744.5319062602939</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2022,13 +2022,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>54351.3</v>
+        <v>52293.8</v>
       </c>
       <c r="C17">
-        <v>55100.5968994797</v>
+        <v>54443.53770909285</v>
       </c>
       <c r="D17">
-        <v>-749.2968994796975</v>
+        <v>-2149.737709092849</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2036,13 +2036,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>52293.8</v>
+        <v>51314.9</v>
       </c>
       <c r="C18">
-        <v>54443.70542406691</v>
+        <v>53268.79463887347</v>
       </c>
       <c r="D18">
-        <v>-2149.905424066907</v>
+        <v>-1953.894638873469</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2050,13 +2050,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>51314.9</v>
+        <v>55062.2</v>
       </c>
       <c r="C19">
-        <v>53271.70603574182</v>
+        <v>51566.61686549337</v>
       </c>
       <c r="D19">
-        <v>-1956.806035741822</v>
+        <v>3495.583134506625</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2064,13 +2064,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>55062.2</v>
+        <v>55852.4</v>
       </c>
       <c r="C20">
-        <v>51567.98653545229</v>
+        <v>54177.51042562276</v>
       </c>
       <c r="D20">
-        <v>3494.213464547705</v>
+        <v>1674.889574377237</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2078,13 +2078,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>55852.4</v>
+        <v>55782</v>
       </c>
       <c r="C21">
-        <v>54174.81675603405</v>
+        <v>55636.38590643466</v>
       </c>
       <c r="D21">
-        <v>1677.58324396595</v>
+        <v>145.6140935653384</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2092,13 +2092,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>55782</v>
+        <v>57624.2</v>
       </c>
       <c r="C22">
-        <v>55626.83984578033</v>
+        <v>55743.89890472979</v>
       </c>
       <c r="D22">
-        <v>155.1601542196731</v>
+        <v>1880.301095270202</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2106,13 +2106,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>57624.2</v>
+        <v>58781</v>
       </c>
       <c r="C23">
-        <v>55731.23007446666</v>
+        <v>57271.64630841573</v>
       </c>
       <c r="D23">
-        <v>1892.96992553334</v>
+        <v>1509.353691584271</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2120,13 +2120,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>58781</v>
+        <v>58786.2</v>
       </c>
       <c r="C24">
-        <v>57254.60951301585</v>
+        <v>58596.82472307105</v>
       </c>
       <c r="D24">
-        <v>1526.39048698415</v>
+        <v>189.3752769289422</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2134,13 +2134,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>58786.2</v>
+        <v>58732.9</v>
       </c>
       <c r="C25">
-        <v>58574.43776681992</v>
+        <v>58661.36891144975</v>
       </c>
       <c r="D25">
-        <v>211.7622331800812</v>
+        <v>71.53108855024766</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2148,13 +2148,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>58732.9</v>
+        <v>59020.7</v>
       </c>
       <c r="C26">
-        <v>58641.87063270291</v>
+        <v>58820.11354522458</v>
       </c>
       <c r="D26">
-        <v>91.02936729709472</v>
+        <v>200.5864547754172</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2162,13 +2162,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>59020.7</v>
+        <v>57099</v>
       </c>
       <c r="C27">
-        <v>58798.50203399074</v>
+        <v>59252.19475991269</v>
       </c>
       <c r="D27">
-        <v>222.197966009262</v>
+        <v>-2153.194759912687</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2176,13 +2176,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>57099</v>
+        <v>58195</v>
       </c>
       <c r="C28">
-        <v>59231.52441931325</v>
+        <v>57771.33959355731</v>
       </c>
       <c r="D28">
-        <v>-2132.524419313253</v>
+        <v>423.6604064426938</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2190,13 +2190,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>58195</v>
+        <v>59120</v>
       </c>
       <c r="C29">
-        <v>57763.88017531099</v>
+        <v>57935.80444280124</v>
       </c>
       <c r="D29">
-        <v>431.1198246890126</v>
+        <v>1184.195557198764</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2204,13 +2204,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>59120</v>
+        <v>58017.1</v>
       </c>
       <c r="C30">
-        <v>57930.24283315694</v>
+        <v>58707.87199793202</v>
       </c>
       <c r="D30">
-        <v>1189.757166843061</v>
+        <v>-690.7719979320173</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2218,13 +2218,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>58017.1</v>
+        <v>55928.5</v>
       </c>
       <c r="C31">
-        <v>58703.59781293101</v>
+        <v>58276.09922123454</v>
       </c>
       <c r="D31">
-        <v>-686.4978129310111</v>
+        <v>-2347.599221234545</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2232,13 +2232,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>55928.5</v>
+        <v>58036.9</v>
       </c>
       <c r="C32">
-        <v>58273.66014731397</v>
+        <v>56505.25629910624</v>
       </c>
       <c r="D32">
-        <v>-2345.160147313974</v>
+        <v>1531.643700893757</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2246,13 +2246,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>58036.9</v>
+        <v>58110</v>
       </c>
       <c r="C33">
-        <v>56505.59000380831</v>
+        <v>57567.15602658103</v>
       </c>
       <c r="D33">
-        <v>1531.309996191696</v>
+        <v>542.8439734189742</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2260,13 +2260,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>58110</v>
+        <v>59775.6</v>
       </c>
       <c r="C34">
-        <v>57566.93495572188</v>
+        <v>58218.86885674183</v>
       </c>
       <c r="D34">
-        <v>543.0650442781189</v>
+        <v>1556.73114325817</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2274,13 +2274,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>59775.6</v>
+        <v>59956</v>
       </c>
       <c r="C35">
-        <v>58212.96187213434</v>
+        <v>59755.92744846783</v>
       </c>
       <c r="D35">
-        <v>1562.638127865655</v>
+        <v>200.0725515321683</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2288,13 +2288,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>59956</v>
+        <v>59823.7</v>
       </c>
       <c r="C36">
-        <v>59745.40279823895</v>
+        <v>60033.59463386408</v>
       </c>
       <c r="D36">
-        <v>210.5972017610475</v>
+        <v>-209.8946338640817</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2302,13 +2302,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>59823.7</v>
+        <v>63587.2</v>
       </c>
       <c r="C37">
-        <v>60023.7923179631</v>
+        <v>60147.13801428753</v>
       </c>
       <c r="D37">
-        <v>-200.0923179631063</v>
+        <v>3440.061985712469</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2316,13 +2316,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>63587.2</v>
+        <v>62969</v>
       </c>
       <c r="C38">
-        <v>60135.81748001791</v>
+        <v>62896.81701954575</v>
       </c>
       <c r="D38">
-        <v>3451.382519982086</v>
+        <v>72.18298045425036</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2330,13 +2330,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>62969</v>
+        <v>63243</v>
       </c>
       <c r="C39">
-        <v>62883.39202354288</v>
+        <v>63205.6089761794</v>
       </c>
       <c r="D39">
-        <v>85.60797645711864</v>
+        <v>37.39102382060082</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2344,13 +2344,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>63243</v>
+        <v>61455</v>
       </c>
       <c r="C40">
-        <v>63189.40673244842</v>
+        <v>63275.22659653782</v>
       </c>
       <c r="D40">
-        <v>53.59326755157963</v>
+        <v>-1820.226596537817</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2358,13 +2358,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>61455</v>
+        <v>60085.2</v>
       </c>
       <c r="C41">
-        <v>63260.19784434127</v>
+        <v>61822.04569423119</v>
       </c>
       <c r="D41">
-        <v>-1805.197844341266</v>
+        <v>-1736.84569423119</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2372,13 +2372,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>60085.2</v>
+        <v>56239.8</v>
       </c>
       <c r="C42">
-        <v>61813.46338448081</v>
+        <v>60705.16490941601</v>
       </c>
       <c r="D42">
-        <v>-1728.263384480815</v>
+        <v>-4465.364909416006</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2386,13 +2386,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>56239.8</v>
+        <v>55720</v>
       </c>
       <c r="C43">
-        <v>60700.59497257155</v>
+        <v>56061.47987143484</v>
       </c>
       <c r="D43">
-        <v>-4460.794972571544</v>
+        <v>-341.4798714348435</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2400,13 +2400,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>55720</v>
+        <v>56500</v>
       </c>
       <c r="C44">
-        <v>56083.59749728603</v>
+        <v>55878.38484552324</v>
       </c>
       <c r="D44">
-        <v>-363.5974972860276</v>
+        <v>621.6151544767636</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2414,13 +2414,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>56500</v>
+        <v>53815.2</v>
       </c>
       <c r="C45">
-        <v>55885.38269650498</v>
+        <v>55973.69943580499</v>
       </c>
       <c r="D45">
-        <v>614.6173034950189</v>
+        <v>-2158.499435804988</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2428,13 +2428,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>53815.2</v>
+        <v>51730</v>
       </c>
       <c r="C46">
-        <v>55984.15044974229</v>
+        <v>54451.0155692702</v>
       </c>
       <c r="D46">
-        <v>-2168.950449742289</v>
+        <v>-2721.015569270196</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2442,13 +2442,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>51730</v>
+        <v>51178.7</v>
       </c>
       <c r="C47">
-        <v>54462.56746670768</v>
+        <v>52282.76130415213</v>
       </c>
       <c r="D47">
-        <v>-2732.567466707682</v>
+        <v>-1104.061304152128</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2456,13 +2456,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>51178.7</v>
+        <v>50093.4</v>
       </c>
       <c r="C48">
-        <v>52293.1629607606</v>
+        <v>50540.89373722016</v>
       </c>
       <c r="D48">
-        <v>-1114.462960760604</v>
+        <v>-447.4937372201603</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2470,13 +2470,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>50093.4</v>
+        <v>49106.5</v>
       </c>
       <c r="C49">
-        <v>50553.20027902194</v>
+        <v>49956.50723595753</v>
       </c>
       <c r="D49">
-        <v>-459.8002790219398</v>
+        <v>-850.0072359575279</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2484,13 +2484,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>49106.5</v>
+        <v>54051.9</v>
       </c>
       <c r="C50">
-        <v>49964.68463925233</v>
+        <v>48837.45801548644</v>
       </c>
       <c r="D50">
-        <v>-858.1846392523294</v>
+        <v>5214.441984513564</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2498,13 +2498,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>54051.9</v>
+        <v>55078.7</v>
       </c>
       <c r="C51">
-        <v>48843.23345624541</v>
+        <v>52808.20580363581</v>
       </c>
       <c r="D51">
-        <v>5208.666543754596</v>
+        <v>2270.49419636419</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2512,13 +2512,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>55078.7</v>
+        <v>54899.3</v>
       </c>
       <c r="C52">
-        <v>52800.24107364244</v>
+        <v>54722.96542480421</v>
       </c>
       <c r="D52">
-        <v>2278.458926357562</v>
+        <v>176.3345751957968</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2526,13 +2526,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>54899.3</v>
+        <v>53579.6</v>
       </c>
       <c r="C53">
-        <v>54704.68570695522</v>
+        <v>54998.83464098065</v>
       </c>
       <c r="D53">
-        <v>194.6142930447822</v>
+        <v>-1419.234640980656</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2540,13 +2540,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>53579.6</v>
+        <v>57780</v>
       </c>
       <c r="C54">
-        <v>54978.44656980097</v>
+        <v>53638.59304826539</v>
       </c>
       <c r="D54">
-        <v>-1398.846569800975</v>
+        <v>4141.406951734607</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2554,13 +2554,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>57780</v>
+        <v>57859.2</v>
       </c>
       <c r="C55">
-        <v>53621.57041189382</v>
+        <v>56665.37319116115</v>
       </c>
       <c r="D55">
-        <v>4158.429588106184</v>
+        <v>1193.826808838843</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2568,13 +2568,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>57859.2</v>
+        <v>56618.5</v>
       </c>
       <c r="C56">
-        <v>56644.56733134943</v>
+        <v>57858.78908734368</v>
       </c>
       <c r="D56">
-        <v>1214.632668650564</v>
+        <v>-1240.289087343685</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2582,13 +2582,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>56618.5</v>
+        <v>57193.5</v>
       </c>
       <c r="C57">
-        <v>57830.04762680373</v>
+        <v>56836.4949936192</v>
       </c>
       <c r="D57">
-        <v>-1211.547626803731</v>
+        <v>357.0050063808012</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2596,13 +2596,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>57193.5</v>
+        <v>53239.4</v>
       </c>
       <c r="C58">
-        <v>56815.06280341079</v>
+        <v>57464.07206194322</v>
       </c>
       <c r="D58">
-        <v>378.437196589206</v>
+        <v>-4224.672061943224</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2610,13 +2610,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>53239.4</v>
+        <v>57497.1</v>
       </c>
       <c r="C59">
-        <v>57443.50304564169</v>
+        <v>54112.33024251756</v>
       </c>
       <c r="D59">
-        <v>-4204.103045641685</v>
+        <v>3384.769757482434</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2624,13 +2624,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>57497.1</v>
+        <v>56421.1</v>
       </c>
       <c r="C60">
-        <v>54110.08274259554</v>
+        <v>56552.75698051999</v>
       </c>
       <c r="D60">
-        <v>3387.017257404463</v>
+        <v>-131.6569805199906</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2638,13 +2638,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>56421.1</v>
+        <v>57383</v>
       </c>
       <c r="C61">
-        <v>56550.3501325884</v>
+        <v>56673.50341123059</v>
       </c>
       <c r="D61">
-        <v>-129.2501325884004</v>
+        <v>709.4965887694125</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2652,13 +2652,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>57383</v>
+        <v>58953.8</v>
       </c>
       <c r="C62">
-        <v>56668.98130623288</v>
+        <v>57257.56965364622</v>
       </c>
       <c r="D62">
-        <v>714.0186937671242</v>
+        <v>1696.230346353783</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2666,13 +2666,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>58953.8</v>
+        <v>58293.1</v>
       </c>
       <c r="C63">
-        <v>57254.30140149857</v>
+        <v>58709.40373806846</v>
       </c>
       <c r="D63">
-        <v>1699.498598501435</v>
+        <v>-416.3037380684618</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2680,13 +2680,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>58293.1</v>
+        <v>55888.1</v>
       </c>
       <c r="C64">
-        <v>58704.88336706969</v>
+        <v>58154.87966411056</v>
       </c>
       <c r="D64">
-        <v>-411.7833670696928</v>
+        <v>-2266.77966411056</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2694,13 +2694,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>55888.1</v>
+        <v>56747.5</v>
       </c>
       <c r="C65">
-        <v>58155.56765025387</v>
+        <v>56208.48071717257</v>
       </c>
       <c r="D65">
-        <v>-2267.467650253871</v>
+        <v>539.0192828274303</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2708,13 +2708,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>56747.5</v>
+        <v>49502.7</v>
       </c>
       <c r="C66">
-        <v>56217.12162407082</v>
+        <v>56345.23562630704</v>
       </c>
       <c r="D66">
-        <v>530.3783759291837</v>
+        <v>-6842.535626307043</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2722,13 +2722,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>49502.7</v>
+        <v>49675.2</v>
       </c>
       <c r="C67">
-        <v>56345.49943517249</v>
+        <v>51132.81401975641</v>
       </c>
       <c r="D67">
-        <v>-6842.799435172492</v>
+        <v>-1457.614019756409</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2736,13 +2736,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>49675.2</v>
+        <v>49899</v>
       </c>
       <c r="C68">
-        <v>51153.40308460691</v>
+        <v>48935.93379476278</v>
       </c>
       <c r="D68">
-        <v>-1478.20308460691</v>
+        <v>963.0662052372209</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2750,13 +2750,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>49899</v>
+        <v>46771.1</v>
       </c>
       <c r="C69">
-        <v>48953.83594212269</v>
+        <v>49977.8399995817</v>
       </c>
       <c r="D69">
-        <v>945.1640578773076</v>
+        <v>-3206.739999581703</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2764,13 +2764,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>46771.1</v>
+        <v>46482.4</v>
       </c>
       <c r="C70">
-        <v>49982.00208956133</v>
+        <v>47519.15329658364</v>
       </c>
       <c r="D70">
-        <v>-3210.902089561328</v>
+        <v>-1036.753296583636</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2778,13 +2778,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>46482.4</v>
+        <v>43551.8</v>
       </c>
       <c r="C71">
-        <v>47530.54831500333</v>
+        <v>46454.15441266379</v>
       </c>
       <c r="D71">
-        <v>-1048.148315003324</v>
+        <v>-2902.354412663786</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2792,13 +2792,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>43551.8</v>
+        <v>42895.2</v>
       </c>
       <c r="C72">
-        <v>46466.09981794261</v>
+        <v>43784.05565930983</v>
       </c>
       <c r="D72">
-        <v>-2914.299817942607</v>
+        <v>-888.8556593098328</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2806,13 +2806,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>42895.2</v>
+        <v>36742.3</v>
       </c>
       <c r="C73">
-        <v>43792.51471528814</v>
+        <v>43239.92351380915</v>
       </c>
       <c r="D73">
-        <v>-897.3147152881429</v>
+        <v>-6497.623513809143</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2820,13 +2820,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>36742.3</v>
+        <v>40614.6</v>
       </c>
       <c r="C74">
-        <v>43239.78143675563</v>
+        <v>36518.41688609416</v>
       </c>
       <c r="D74">
-        <v>-6497.481436755625</v>
+        <v>4096.183113905841</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2834,13 +2834,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>40614.6</v>
+        <v>37331.7</v>
       </c>
       <c r="C75">
-        <v>36544.81268150061</v>
+        <v>39545.03143594503</v>
       </c>
       <c r="D75">
-        <v>4069.787318499388</v>
+        <v>-2213.331435945031</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2848,13 +2848,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>37331.7</v>
+        <v>37468.3</v>
       </c>
       <c r="C76">
-        <v>39545.02387196831</v>
+        <v>37354.9286944382</v>
       </c>
       <c r="D76">
-        <v>-2213.323871968314</v>
+        <v>113.3713055617991</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2862,13 +2862,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>37468.3</v>
+        <v>34718.8</v>
       </c>
       <c r="C77">
-        <v>37364.27139638162</v>
+        <v>37066.82883950994</v>
       </c>
       <c r="D77">
-        <v>104.0286036183825</v>
+        <v>-2348.028839509934</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2876,13 +2876,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>34718.8</v>
+        <v>38833.8</v>
       </c>
       <c r="C78">
-        <v>37065.38748228287</v>
+        <v>34463.00240154016</v>
       </c>
       <c r="D78">
-        <v>-2346.587482282863</v>
+        <v>4370.797598459845</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2890,13 +2890,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>38833.8</v>
+        <v>38388.1</v>
       </c>
       <c r="C79">
-        <v>34470.34564136605</v>
+        <v>37860.69207500496</v>
       </c>
       <c r="D79">
-        <v>4363.454358633957</v>
+        <v>527.4079249950373</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2904,13 +2904,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>38388.1</v>
+        <v>39283.9</v>
       </c>
       <c r="C80">
-        <v>37849.99455699247</v>
+        <v>38136.50608502967</v>
       </c>
       <c r="D80">
-        <v>538.1054430075237</v>
+        <v>1147.393914970329</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2918,13 +2918,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>39283.9</v>
+        <v>38516.4</v>
       </c>
       <c r="C81">
-        <v>38121.91450431065</v>
+        <v>39179.97574630137</v>
       </c>
       <c r="D81">
-        <v>1161.985495689347</v>
+        <v>-663.5757463013651</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2932,13 +2932,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>38516.4</v>
+        <v>35683.9</v>
       </c>
       <c r="C82">
-        <v>39155.45804923215</v>
+        <v>38463.0152844785</v>
       </c>
       <c r="D82">
-        <v>-639.0580492321533</v>
+        <v>-2779.115284478503</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2946,13 +2946,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>35683.9</v>
+        <v>34616.6</v>
       </c>
       <c r="C83">
-        <v>38445.71029118537</v>
+        <v>35998.08951612523</v>
       </c>
       <c r="D83">
-        <v>-2761.810291185371</v>
+        <v>-1381.489516125228</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2960,13 +2960,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>34616.6</v>
+        <v>35673.8</v>
       </c>
       <c r="C84">
-        <v>35989.08257440587</v>
+        <v>34791.71325791498</v>
       </c>
       <c r="D84">
-        <v>-1372.482574405869</v>
+        <v>882.0867420850263</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2974,13 +2974,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>35673.8</v>
+        <v>37303.8</v>
       </c>
       <c r="C85">
-        <v>34784.24949767995</v>
+        <v>35132.48714248957</v>
       </c>
       <c r="D85">
-        <v>889.5505023200531</v>
+        <v>2171.312857510435</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2988,13 +2988,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>37303.8</v>
+        <v>36676.3</v>
       </c>
       <c r="C86">
-        <v>35126.41250644023</v>
+        <v>36432.69052025866</v>
       </c>
       <c r="D86">
-        <v>2177.387493559771</v>
+        <v>243.6094797413389</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3002,13 +3002,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>36676.3</v>
+        <v>37565.3</v>
       </c>
       <c r="C87">
-        <v>36428.88578321169</v>
+        <v>36580.80013562074</v>
       </c>
       <c r="D87">
-        <v>247.414216788311</v>
+        <v>984.4998643792642</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3016,13 +3016,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>37565.3</v>
+        <v>39196.6</v>
       </c>
       <c r="C88">
-        <v>36574.85518274446</v>
+        <v>37178.1892597413</v>
       </c>
       <c r="D88">
-        <v>990.4448172555421</v>
+        <v>2018.410740258703</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3030,13 +3030,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>39196.6</v>
+        <v>36847.7</v>
       </c>
       <c r="C89">
-        <v>37172.17829428845</v>
+        <v>38658.65540736784</v>
       </c>
       <c r="D89">
-        <v>2024.421705711553</v>
+        <v>-1810.955407367845</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3044,13 +3044,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>36847.7</v>
+        <v>35534.6</v>
       </c>
       <c r="C90">
-        <v>38651.86824842346</v>
+        <v>36975.25140166921</v>
       </c>
       <c r="D90">
-        <v>-1804.168248423463</v>
+        <v>-1440.651401669216</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3058,13 +3058,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>35534.6</v>
+        <v>35789</v>
       </c>
       <c r="C91">
-        <v>36975.22459714492</v>
+        <v>35781.66035231044</v>
       </c>
       <c r="D91">
-        <v>-1440.624597144917</v>
+        <v>7.339647689557751</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3072,13 +3072,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>35789</v>
+        <v>33587.6</v>
       </c>
       <c r="C92">
-        <v>35780.12741079227</v>
+        <v>35696.36299203719</v>
       </c>
       <c r="D92">
-        <v>8.872589207734563</v>
+        <v>-2108.762992037191</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3086,13 +3086,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>33587.6</v>
+        <v>33420</v>
       </c>
       <c r="C93">
-        <v>35693.79742229699</v>
+        <v>34096.8626972373</v>
       </c>
       <c r="D93">
-        <v>-2106.197422296995</v>
+        <v>-676.8626972373022</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3100,13 +3100,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>33420</v>
+        <v>37396.4</v>
       </c>
       <c r="C94">
-        <v>34102.60751150335</v>
+        <v>32882.30115871188</v>
       </c>
       <c r="D94">
-        <v>-682.6075115033454</v>
+        <v>4514.09884128812</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3114,13 +3114,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>37396.4</v>
+        <v>36678.4</v>
       </c>
       <c r="C95">
-        <v>32890.23476453427</v>
+        <v>36130.7820832694</v>
       </c>
       <c r="D95">
-        <v>4506.165235465734</v>
+        <v>547.6179167306036</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3128,13 +3128,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>36678.4</v>
+        <v>37322.2</v>
       </c>
       <c r="C96">
-        <v>36136.09065397947</v>
+        <v>36788.16368011675</v>
       </c>
       <c r="D96">
-        <v>542.3093460205346</v>
+        <v>534.0363198832492</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3142,13 +3142,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>37322.2</v>
+        <v>35544.9</v>
       </c>
       <c r="C97">
-        <v>36786.20327413241</v>
+        <v>37019.1291301663</v>
       </c>
       <c r="D97">
-        <v>535.9967258675897</v>
+        <v>-1474.229130166299</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3156,13 +3156,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>35544.9</v>
+        <v>39034.6</v>
       </c>
       <c r="C98">
-        <v>37016.86434496588</v>
+        <v>35701.92124893311</v>
       </c>
       <c r="D98">
-        <v>-1471.964344965883</v>
+        <v>3332.678751066887</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3170,13 +3170,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>39034.6</v>
+        <v>40530.8</v>
       </c>
       <c r="C99">
-        <v>35702.76321465686</v>
+        <v>38057.10807127012</v>
       </c>
       <c r="D99">
-        <v>3331.836785343134</v>
+        <v>2473.691928729881</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3184,13 +3184,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>40530.8</v>
+        <v>40166.6</v>
       </c>
       <c r="C100">
-        <v>38056.11104322785</v>
+        <v>40279.19577753141</v>
       </c>
       <c r="D100">
-        <v>2474.688956772152</v>
+        <v>-112.5957775314091</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3198,13 +3198,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>40166.6</v>
+        <v>38337.1</v>
       </c>
       <c r="C101">
-        <v>40265.29780482374</v>
+        <v>40334.0926321365</v>
       </c>
       <c r="D101">
-        <v>-98.69780482374335</v>
+        <v>-1996.992632136498</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3212,13 +3212,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>38337.1</v>
+        <v>38078.2</v>
       </c>
       <c r="C102">
-        <v>40321.90058685116</v>
+        <v>38795.91070010276</v>
       </c>
       <c r="D102">
-        <v>-1984.800586851161</v>
+        <v>-717.7107001027616</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3226,13 +3226,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>38078.2</v>
+        <v>35824</v>
       </c>
       <c r="C103">
-        <v>38793.68529882819</v>
+        <v>38264.90753118107</v>
       </c>
       <c r="D103">
-        <v>-715.4852988281928</v>
+        <v>-2440.907531181074</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3240,13 +3240,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>35824</v>
+        <v>35490.5</v>
       </c>
       <c r="C104">
-        <v>38265.13139476338</v>
+        <v>36179.68501280116</v>
       </c>
       <c r="D104">
-        <v>-2441.131394763375</v>
+        <v>-689.1850128011574</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3254,13 +3254,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>35490.5</v>
+        <v>35595</v>
       </c>
       <c r="C105">
-        <v>36188.09935802263</v>
+        <v>35559.5082106724</v>
       </c>
       <c r="D105">
-        <v>-697.599358022635</v>
+        <v>35.49178932759969</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3268,13 +3268,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>35595</v>
+        <v>31655.2</v>
       </c>
       <c r="C106">
-        <v>35564.33073360387</v>
+        <v>35155.79266006853</v>
       </c>
       <c r="D106">
-        <v>30.66926639612939</v>
+        <v>-3500.592660068531</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3282,13 +3282,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>31655.2</v>
+        <v>32516.2</v>
       </c>
       <c r="C107">
-        <v>35167.64420001394</v>
+        <v>32415.97131781235</v>
       </c>
       <c r="D107">
-        <v>-3512.444200013935</v>
+        <v>100.2286821876514</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3296,13 +3296,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>32516.2</v>
+        <v>33683.3</v>
       </c>
       <c r="C108">
-        <v>32431.79218555354</v>
+        <v>31759.77148380068</v>
       </c>
       <c r="D108">
-        <v>84.407814446462</v>
+        <v>1923.528516199323</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3310,13 +3310,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>33683.3</v>
+        <v>34666.6</v>
       </c>
       <c r="C109">
-        <v>31776.43226281794</v>
+        <v>33581.02965796906</v>
       </c>
       <c r="D109">
-        <v>1906.867737182067</v>
+        <v>1085.570342030936</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3324,13 +3324,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>34666.6</v>
+        <v>31583.7</v>
       </c>
       <c r="C110">
-        <v>33585.79845331649</v>
+        <v>34189.70146457614</v>
       </c>
       <c r="D110">
-        <v>1080.801546683513</v>
+        <v>-2606.001464576137</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3338,13 +3338,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>31583.7</v>
+        <v>32277</v>
       </c>
       <c r="C111">
-        <v>34195.34954397196</v>
+        <v>32307.10504879033</v>
       </c>
       <c r="D111">
-        <v>-2611.649543971955</v>
+        <v>-30.10504879032669</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3352,13 +3352,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>32277</v>
+        <v>34675.3</v>
       </c>
       <c r="C112">
-        <v>32312.1181937667</v>
+        <v>31789.52883329893</v>
       </c>
       <c r="D112">
-        <v>-35.11819376669882</v>
+        <v>2885.771166701074</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3366,13 +3366,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>34675.3</v>
+        <v>34472</v>
       </c>
       <c r="C113">
-        <v>31791.88239946401</v>
+        <v>33977.43935370159</v>
       </c>
       <c r="D113">
-        <v>2883.417600535991</v>
+        <v>494.5606462984142</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3380,13 +3380,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>34472</v>
+        <v>35903.3</v>
       </c>
       <c r="C114">
-        <v>33973.08914203486</v>
+        <v>34477.66587523448</v>
       </c>
       <c r="D114">
-        <v>498.9108579651365</v>
+        <v>1425.634124765522</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3394,13 +3394,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>35903.3</v>
+        <v>35046.2</v>
       </c>
       <c r="C115">
-        <v>34465.44157980241</v>
+        <v>35648.71465625828</v>
       </c>
       <c r="D115">
-        <v>1437.85842019759</v>
+        <v>-602.5146562582813</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3408,13 +3408,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>35046.2</v>
+        <v>33532.4</v>
       </c>
       <c r="C116">
-        <v>35633.38759933067</v>
+        <v>35014.92290489808</v>
       </c>
       <c r="D116">
-        <v>-587.1875993306749</v>
+        <v>-1482.522904898076</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3422,13 +3422,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>33532.4</v>
+        <v>33802.9</v>
       </c>
       <c r="C117">
-        <v>35004.68133127478</v>
+        <v>33627.77755582244</v>
       </c>
       <c r="D117">
-        <v>-1472.281331274782</v>
+        <v>175.122444177563</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3436,13 +3436,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>33802.9</v>
+        <v>34685.4</v>
       </c>
       <c r="C118">
-        <v>33624.30461905447</v>
+        <v>33550.75775103278</v>
       </c>
       <c r="D118">
-        <v>178.5953809455314</v>
+        <v>1134.642248967219</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3450,13 +3450,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>34685.4</v>
+        <v>35305</v>
       </c>
       <c r="C119">
-        <v>33544.23772075547</v>
+        <v>34388.21977522458</v>
       </c>
       <c r="D119">
-        <v>1141.162279244534</v>
+        <v>916.7802247754153</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3464,13 +3464,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>35305</v>
+        <v>33697.6</v>
       </c>
       <c r="C120">
-        <v>34380.63884676703</v>
+        <v>35189.16396852034</v>
       </c>
       <c r="D120">
-        <v>924.3611532329669</v>
+        <v>-1491.563968520342</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3478,13 +3478,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>33697.6</v>
+        <v>34235</v>
       </c>
       <c r="C121">
-        <v>35183.1328298053</v>
+        <v>33874.20160459429</v>
       </c>
       <c r="D121">
-        <v>-1485.532829805299</v>
+        <v>360.7983954057127</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3492,13 +3492,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>34235</v>
+        <v>33885.1</v>
       </c>
       <c r="C122">
-        <v>33874.72594728066</v>
+        <v>34235.68961774894</v>
       </c>
       <c r="D122">
-        <v>360.2740527193382</v>
+        <v>-350.5896177489412</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3506,13 +3506,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>33885.1</v>
+        <v>32882.2</v>
       </c>
       <c r="C123">
-        <v>34232.51213047125</v>
+        <v>34102.0873033518</v>
       </c>
       <c r="D123">
-        <v>-347.4121304712535</v>
+        <v>-1219.887303351803</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3520,13 +3520,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>32882.2</v>
+        <v>33791</v>
       </c>
       <c r="C124">
-        <v>34099.13799445324</v>
+        <v>32912.9038998396</v>
       </c>
       <c r="D124">
-        <v>-1216.937994453241</v>
+        <v>878.096100160401</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3534,13 +3534,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>33791</v>
+        <v>33522.2</v>
       </c>
       <c r="C125">
-        <v>32913.73547324796</v>
+        <v>33458.36324349615</v>
       </c>
       <c r="D125">
-        <v>877.264526752042</v>
+        <v>63.83675650384976</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3548,13 +3548,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>33522.2</v>
+        <v>34246.9</v>
       </c>
       <c r="C126">
-        <v>33457.86528474516</v>
+        <v>33515.92420418251</v>
       </c>
       <c r="D126">
-        <v>64.33471525483765</v>
+        <v>730.975795817496</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3562,13 +3562,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>34246.9</v>
+        <v>33107.3</v>
       </c>
       <c r="C127">
-        <v>33514.83396707232</v>
+        <v>34067.40752369042</v>
       </c>
       <c r="D127">
-        <v>732.0660329276798</v>
+        <v>-960.1075236904144</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3576,13 +3576,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>33107.3</v>
+        <v>32722.9</v>
       </c>
       <c r="C128">
-        <v>34065.45887354789</v>
+        <v>33309.88750421621</v>
       </c>
       <c r="D128">
-        <v>-958.1588735478872</v>
+        <v>-586.9875042162093</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3590,13 +3590,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>32722.9</v>
+        <v>32815.2</v>
       </c>
       <c r="C129">
-        <v>33309.11070342966</v>
+        <v>32689.61178105432</v>
       </c>
       <c r="D129">
-        <v>-586.2107034296569</v>
+        <v>125.5882189456752</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3604,13 +3604,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>32815.2</v>
+        <v>31832.6</v>
       </c>
       <c r="C130">
-        <v>32687.30717972318</v>
+        <v>32529.678048794</v>
       </c>
       <c r="D130">
-        <v>127.8928202768147</v>
+        <v>-697.0780487939992</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3618,13 +3618,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>31832.6</v>
+        <v>31405.9</v>
       </c>
       <c r="C131">
-        <v>32529.23755604081</v>
+        <v>31910.04069748594</v>
       </c>
       <c r="D131">
-        <v>-696.6375560408123</v>
+        <v>-504.1406974859347</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3632,13 +3632,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>31405.9</v>
+        <v>31510</v>
       </c>
       <c r="C132">
-        <v>31909.05091235779</v>
+        <v>31438.84636474455</v>
       </c>
       <c r="D132">
-        <v>-503.1509123577925</v>
+        <v>71.15363525545399</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3646,13 +3646,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>31510</v>
+        <v>31780.1</v>
       </c>
       <c r="C133">
-        <v>31435.87620844862</v>
+        <v>31456.57652268579</v>
       </c>
       <c r="D133">
-        <v>74.12379155137751</v>
+        <v>323.5234773142074</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3660,13 +3660,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>31780.1</v>
+        <v>30820.5</v>
       </c>
       <c r="C134">
-        <v>31452.46926046947</v>
+        <v>31692.27568144447</v>
       </c>
       <c r="D134">
-        <v>327.6307395305266</v>
+        <v>-871.7756814444729</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3674,13 +3674,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>30820.5</v>
+        <v>29788.1</v>
       </c>
       <c r="C135">
-        <v>31689.55618482167</v>
+        <v>30887.32285220239</v>
       </c>
       <c r="D135">
-        <v>-869.0561848216748</v>
+        <v>-1099.222852202387</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3688,13 +3688,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>29788.1</v>
+        <v>32125</v>
       </c>
       <c r="C136">
-        <v>30886.24035691538</v>
+        <v>29873.66818627001</v>
       </c>
       <c r="D136">
-        <v>-1098.140356915384</v>
+        <v>2251.331813729994</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3702,13 +3702,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>32125</v>
+        <v>32283.3</v>
       </c>
       <c r="C137">
-        <v>29872.77702963242</v>
+        <v>31581.67523026823</v>
       </c>
       <c r="D137">
-        <v>2252.222970367584</v>
+        <v>701.6247697317704</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3716,13 +3716,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>32283.3</v>
+        <v>33639</v>
       </c>
       <c r="C138">
-        <v>31578.26171119179</v>
+        <v>32172.09326850998</v>
       </c>
       <c r="D138">
-        <v>705.0382888082058</v>
+        <v>1466.906731490017</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3730,13 +3730,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>33639</v>
+        <v>34284.6</v>
       </c>
       <c r="C139">
-        <v>32163.7775669926</v>
+        <v>33215.81243000612</v>
       </c>
       <c r="D139">
-        <v>1475.222433007395</v>
+        <v>1068.787569993881</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3744,13 +3744,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>34284.6</v>
+        <v>35413.6</v>
       </c>
       <c r="C140">
-        <v>33207.04599910307</v>
+        <v>34142.34297651202</v>
       </c>
       <c r="D140">
-        <v>1077.554000896933</v>
+        <v>1271.257023487975</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3758,13 +3758,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>35413.6</v>
+        <v>37274.9</v>
       </c>
       <c r="C141">
-        <v>34128.99489552352</v>
+        <v>35065.28621076357</v>
       </c>
       <c r="D141">
-        <v>1284.605104476483</v>
+        <v>2209.613789236428</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3772,13 +3772,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>37274.9</v>
+        <v>39506.2</v>
       </c>
       <c r="C142">
-        <v>35054.9227398193</v>
+        <v>37589.04778108142</v>
       </c>
       <c r="D142">
-        <v>2219.977260180698</v>
+        <v>1917.152218918578</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3786,13 +3786,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>39506.2</v>
+        <v>40011</v>
       </c>
       <c r="C143">
-        <v>37571.66311010327</v>
+        <v>38888.73677838333</v>
       </c>
       <c r="D143">
-        <v>1934.536889896728</v>
+        <v>1122.263221616668</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3800,13 +3800,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>40011</v>
+        <v>40000</v>
       </c>
       <c r="C144">
-        <v>38875.98383747028</v>
+        <v>40081.55562346605</v>
       </c>
       <c r="D144">
-        <v>1135.016162529719</v>
+        <v>-81.55562346604711</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3814,13 +3814,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>40000</v>
+        <v>42229.6</v>
       </c>
       <c r="C145">
-        <v>40065.35104006891</v>
+        <v>40116.24487775391</v>
       </c>
       <c r="D145">
-        <v>-65.35104006891197</v>
+        <v>2113.355122246088</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3828,13 +3828,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>42229.6</v>
+        <v>41488.5</v>
       </c>
       <c r="C146">
-        <v>40106.4117417021</v>
+        <v>41479.10591160432</v>
       </c>
       <c r="D146">
-        <v>2123.188258297894</v>
+        <v>9.394088395682047</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3842,13 +3842,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>41488.5</v>
+        <v>39889.1</v>
       </c>
       <c r="C147">
-        <v>41478.0586222835</v>
+        <v>41767.78942807623</v>
       </c>
       <c r="D147">
-        <v>10.44137771650276</v>
+        <v>-1878.689428076228</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3856,13 +3856,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>39889.1</v>
+        <v>39152.3</v>
       </c>
       <c r="C148">
-        <v>41762.47245058384</v>
+        <v>40521.11795260049</v>
       </c>
       <c r="D148">
-        <v>-1873.37245058384</v>
+        <v>-1368.817952600482</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3870,13 +3870,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>39152.3</v>
+        <v>38163</v>
       </c>
       <c r="C149">
-        <v>40524.07350604089</v>
+        <v>39445.86758571678</v>
       </c>
       <c r="D149">
-        <v>-1371.773506040889</v>
+        <v>-1282.867585716784</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3884,13 +3884,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>38163</v>
+        <v>39749</v>
       </c>
       <c r="C150">
-        <v>39451.30694012567</v>
+        <v>38485.31081867592</v>
       </c>
       <c r="D150">
-        <v>-1288.306940125665</v>
+        <v>1263.68918132408</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3898,13 +3898,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>39749</v>
+        <v>40886.4</v>
       </c>
       <c r="C151">
-        <v>38495.68523054708</v>
+        <v>39328.6882304616</v>
       </c>
       <c r="D151">
-        <v>1253.314769452918</v>
+        <v>1557.7117695384</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3912,13 +3912,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>40886.4</v>
+        <v>42823.9</v>
       </c>
       <c r="C152">
-        <v>39339.18289565855</v>
+        <v>40235.64931903947</v>
       </c>
       <c r="D152">
-        <v>1547.217104341449</v>
+        <v>2588.250680960533</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3926,13 +3926,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>42823.9</v>
+        <v>44610.7</v>
       </c>
       <c r="C153">
-        <v>40247.93466207296</v>
+        <v>42350.19352682972</v>
       </c>
       <c r="D153">
-        <v>2575.965337927038</v>
+        <v>2260.506473170273</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3940,13 +3940,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>44610.7</v>
+        <v>43845.6</v>
       </c>
       <c r="C154">
-        <v>42353.84386883567</v>
+        <v>44267.87250648158</v>
       </c>
       <c r="D154">
-        <v>2256.856131164328</v>
+        <v>-422.2725064815822</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3954,13 +3954,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>43845.6</v>
+        <v>46307.1</v>
       </c>
       <c r="C155">
-        <v>44263.97377839811</v>
+        <v>44208.98981684721</v>
       </c>
       <c r="D155">
-        <v>-418.3737783981123</v>
+        <v>2098.110183152785</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3968,13 +3968,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>46307.1</v>
+        <v>45595.1</v>
       </c>
       <c r="C156">
-        <v>44202.68093908999</v>
+        <v>45681.55869043861</v>
       </c>
       <c r="D156">
-        <v>2104.419060910011</v>
+        <v>-86.45869043861603</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3982,13 +3982,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>45595.1</v>
+        <v>45571.7</v>
       </c>
       <c r="C157">
-        <v>45675.25708479474</v>
+        <v>45800.69413569618</v>
       </c>
       <c r="D157">
-        <v>-80.15708479473687</v>
+        <v>-228.994135696179</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3996,13 +3996,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>45571.7</v>
+        <v>44401.1</v>
       </c>
       <c r="C158">
-        <v>45791.24498312605</v>
+        <v>45965.20759938635</v>
       </c>
       <c r="D158">
-        <v>-219.5449831260485</v>
+        <v>-1564.107599386356</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4010,13 +4010,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>44401.1</v>
+        <v>47823.3</v>
       </c>
       <c r="C159">
-        <v>45953.07810372826</v>
+        <v>44807.167543904</v>
       </c>
       <c r="D159">
-        <v>-1551.978103728259</v>
+        <v>3016.132456096006</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4024,13 +4024,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>47823.3</v>
+        <v>47115.2</v>
       </c>
       <c r="C160">
-        <v>44804.63395637316</v>
+        <v>47122.87441402559</v>
       </c>
       <c r="D160">
-        <v>3018.666043626843</v>
+        <v>-7.674414025590522</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4038,13 +4038,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>47115.2</v>
+        <v>47019.3</v>
       </c>
       <c r="C161">
-        <v>47121.23085609048</v>
+        <v>47245.12880649399</v>
       </c>
       <c r="D161">
-        <v>-6.030856090481393</v>
+        <v>-225.8288064939843</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4052,13 +4052,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>47019.3</v>
+        <v>45926.3</v>
       </c>
       <c r="C162">
-        <v>47242.8955948779</v>
+        <v>46894.41220831305</v>
       </c>
       <c r="D162">
-        <v>-223.595594877901</v>
+        <v>-968.1122083130467</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4066,13 +4066,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>45926.3</v>
+        <v>44672.2</v>
       </c>
       <c r="C163">
-        <v>46894.05939215342</v>
+        <v>46465.43579853511</v>
       </c>
       <c r="D163">
-        <v>-967.7593921534135</v>
+        <v>-1793.235798535112</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4080,13 +4080,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>44672.2</v>
+        <v>44714.7</v>
       </c>
       <c r="C164">
-        <v>46463.75732182099</v>
+        <v>45253.95938625791</v>
       </c>
       <c r="D164">
-        <v>-1791.55732182099</v>
+        <v>-539.2593862579088</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4094,13 +4094,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>44714.7</v>
+        <v>46765.3</v>
       </c>
       <c r="C165">
-        <v>45255.27803128671</v>
+        <v>44978.13729466537</v>
       </c>
       <c r="D165">
-        <v>-540.5780312867137</v>
+        <v>1787.162705334631</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4108,13 +4108,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>46765.3</v>
+        <v>49345.4</v>
       </c>
       <c r="C166">
-        <v>44975.95014065986</v>
+        <v>46259.05627160305</v>
       </c>
       <c r="D166">
-        <v>1789.349859340145</v>
+        <v>3086.343728396947</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4122,13 +4122,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>49345.4</v>
+        <v>48865.4</v>
       </c>
       <c r="C167">
-        <v>46258.98623205764</v>
+        <v>48829.58512373718</v>
       </c>
       <c r="D167">
-        <v>3086.413767942366</v>
+        <v>35.81487626281887</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4136,13 +4136,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>48865.4</v>
+        <v>49293.6</v>
       </c>
       <c r="C168">
-        <v>48823.5476265558</v>
+        <v>49072.92938771537</v>
       </c>
       <c r="D168">
-        <v>41.85237344420602</v>
+        <v>220.6706122846299</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4150,13 +4150,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>49293.6</v>
+        <v>49517.3</v>
       </c>
       <c r="C169">
-        <v>49064.6068126732</v>
+        <v>49180.48483559747</v>
       </c>
       <c r="D169">
-        <v>228.9931873267997</v>
+        <v>336.8151644025347</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4164,13 +4164,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>49517.3</v>
+        <v>47725.4</v>
       </c>
       <c r="C170">
-        <v>49173.44240784847</v>
+        <v>49768.85104599995</v>
       </c>
       <c r="D170">
-        <v>343.8575921515294</v>
+        <v>-2043.451045999951</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4178,13 +4178,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>47725.4</v>
+        <v>48991.3</v>
       </c>
       <c r="C171">
-        <v>49755.62975443855</v>
+        <v>48297.92727858557</v>
       </c>
       <c r="D171">
-        <v>-2030.229754438544</v>
+        <v>693.372721414431</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4192,13 +4192,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>48991.3</v>
+        <v>46848.9</v>
       </c>
       <c r="C172">
-        <v>48289.3964742495</v>
+        <v>48720.49072570151</v>
       </c>
       <c r="D172">
-        <v>701.903525750502</v>
+        <v>-1871.590725701513</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4206,13 +4206,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>46848.9</v>
+        <v>49074.9</v>
       </c>
       <c r="C173">
-        <v>48711.76223530165</v>
+        <v>47352.55614885817</v>
       </c>
       <c r="D173">
-        <v>-1862.862235301647</v>
+        <v>1722.343851141828</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4220,13 +4220,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>49074.9</v>
+        <v>48895.7</v>
       </c>
       <c r="C174">
-        <v>47350.58836524018</v>
+        <v>48514.99860432315</v>
       </c>
       <c r="D174">
-        <v>1724.311634759819</v>
+        <v>380.7013956768496</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4234,13 +4234,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>48895.7</v>
+        <v>48787.7</v>
       </c>
       <c r="C175">
-        <v>48513.59755010549</v>
+        <v>48942.33229051124</v>
       </c>
       <c r="D175">
-        <v>382.1024498945044</v>
+        <v>-154.6322905112465</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4248,13 +4248,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>48787.7</v>
+        <v>46985.7</v>
       </c>
       <c r="C176">
-        <v>48936.88864719872</v>
+        <v>48809.0504127899</v>
       </c>
       <c r="D176">
-        <v>-149.1886471987236</v>
+        <v>-1823.350412789907</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4262,13 +4262,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>46985.7</v>
+        <v>47140</v>
       </c>
       <c r="C177">
-        <v>48805.01031239574</v>
+        <v>47421.19253510215</v>
       </c>
       <c r="D177">
-        <v>-1819.310312395741</v>
+        <v>-281.1925351021491</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4276,13 +4276,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>47140</v>
+        <v>48872.2</v>
       </c>
       <c r="C178">
-        <v>47418.85364448566</v>
+        <v>47321.4002359154</v>
       </c>
       <c r="D178">
-        <v>-278.8536444856582</v>
+        <v>1550.799764084601</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4290,13 +4290,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>48872.2</v>
+        <v>49290.3</v>
       </c>
       <c r="C179">
-        <v>47314.42346617176</v>
+        <v>48403.07345489135</v>
       </c>
       <c r="D179">
-        <v>1557.776533828233</v>
+        <v>887.2265451086569</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4304,13 +4304,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>49290.3</v>
+        <v>50018.6</v>
       </c>
       <c r="C180">
-        <v>48397.23319162928</v>
+        <v>49433.96706278763</v>
       </c>
       <c r="D180">
-        <v>893.0668083707278</v>
+        <v>584.6329372123655</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4318,13 +4318,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>50018.6</v>
+        <v>49956.1</v>
       </c>
       <c r="C181">
-        <v>49421.20387268205</v>
+        <v>49900.48396673026</v>
       </c>
       <c r="D181">
-        <v>597.3961273179521</v>
+        <v>55.61603326974</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4332,13 +4332,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>49956.1</v>
+        <v>51767.9</v>
       </c>
       <c r="C182">
-        <v>49890.70232858993</v>
+        <v>50008.72740424676</v>
       </c>
       <c r="D182">
-        <v>65.3976714100645</v>
+        <v>1759.17259575324</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4346,13 +4346,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>51767.9</v>
+        <v>52688.3</v>
       </c>
       <c r="C183">
-        <v>49998.62239094537</v>
+        <v>51318.09018603417</v>
       </c>
       <c r="D183">
-        <v>1769.277609054632</v>
+        <v>1370.209813965834</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4360,13 +4360,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>52688.3</v>
+        <v>46882.1</v>
       </c>
       <c r="C184">
-        <v>51308.47273754475</v>
+        <v>52415.56487785351</v>
       </c>
       <c r="D184">
-        <v>1379.827262455248</v>
+        <v>-5533.464877853512</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4374,13 +4374,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>46882.1</v>
+        <v>46073.4</v>
       </c>
       <c r="C185">
-        <v>52401.50568861298</v>
+        <v>47059.90958269149</v>
       </c>
       <c r="D185">
-        <v>-5519.405688612977</v>
+        <v>-986.509582691484</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4388,13 +4388,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>46073.4</v>
+        <v>46389.6</v>
       </c>
       <c r="C186">
-        <v>47080.15754246146</v>
+        <v>45946.74499360095</v>
       </c>
       <c r="D186">
-        <v>-1006.757542461455</v>
+        <v>442.8550063990479</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4402,13 +4402,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>46389.6</v>
+        <v>44842.2</v>
       </c>
       <c r="C187">
-        <v>45949.60714047095</v>
+        <v>46363.09811318877</v>
       </c>
       <c r="D187">
-        <v>439.9928595290476</v>
+        <v>-1520.89811318877</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4416,13 +4416,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>44842.2</v>
+        <v>45137.4</v>
       </c>
       <c r="C188">
-        <v>46361.51536731851</v>
+        <v>45098.02799359111</v>
       </c>
       <c r="D188">
-        <v>-1519.315367318515</v>
+        <v>39.37200640889205</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4430,13 +4430,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>45137.4</v>
+        <v>46061.3</v>
       </c>
       <c r="C189">
-        <v>45101.50045895668</v>
+        <v>45155.36872127069</v>
       </c>
       <c r="D189">
-        <v>35.89954104331991</v>
+        <v>905.9312787293165</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4444,13 +4444,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>46061.3</v>
+        <v>44965.8</v>
       </c>
       <c r="C190">
-        <v>45153.79617925845</v>
+        <v>45761.87730598332</v>
       </c>
       <c r="D190">
-        <v>907.5038207415491</v>
+        <v>-796.0773059833155</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4458,13 +4458,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>44965.8</v>
+        <v>47145.9</v>
       </c>
       <c r="C191">
-        <v>45760.68536900317</v>
+        <v>44908.64804854502</v>
       </c>
       <c r="D191">
-        <v>-794.8853690031683</v>
+        <v>2237.251951454986</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4472,13 +4472,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>47145.9</v>
+        <v>48152.3</v>
       </c>
       <c r="C192">
-        <v>44911.7024977822</v>
+        <v>46521.23326038812</v>
       </c>
       <c r="D192">
-        <v>2234.197502217801</v>
+        <v>1631.066739611881</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4486,13 +4486,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>48152.3</v>
+        <v>47786.9</v>
       </c>
       <c r="C193">
-        <v>46514.26808348369</v>
+        <v>47853.56056667519</v>
       </c>
       <c r="D193">
-        <v>1638.031916516309</v>
+        <v>-66.66056667519297</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4500,13 +4500,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>47786.9</v>
+        <v>47269.7</v>
       </c>
       <c r="C194">
-        <v>47837.23491951554</v>
+        <v>47735.54838146553</v>
       </c>
       <c r="D194">
-        <v>-50.33491951553879</v>
+        <v>-465.8483814655337</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4514,13 +4514,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>47269.7</v>
+        <v>48309.9</v>
       </c>
       <c r="C195">
-        <v>47719.85784791868</v>
+        <v>47323.08724670378</v>
       </c>
       <c r="D195">
-        <v>-450.1578479186865</v>
+        <v>986.8127532962171</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4528,13 +4528,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>48309.9</v>
+        <v>47237.8</v>
       </c>
       <c r="C196">
-        <v>47308.4343158072</v>
+        <v>48094.24389264644</v>
       </c>
       <c r="D196">
-        <v>1001.465684192801</v>
+        <v>-856.4438926464354</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4542,13 +4542,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>47237.8</v>
+        <v>42992.9</v>
       </c>
       <c r="C197">
-        <v>48079.38963851142</v>
+        <v>47365.08801955548</v>
       </c>
       <c r="D197">
-        <v>-841.5896385114174</v>
+        <v>-4372.188019555477</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4556,13 +4556,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>42992.9</v>
+        <v>40710.6</v>
       </c>
       <c r="C198">
-        <v>47354.26469108705</v>
+        <v>43758.38724912405</v>
       </c>
       <c r="D198">
-        <v>-4361.364691087052</v>
+        <v>-3047.787249124049</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4570,13 +4570,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>40710.6</v>
+        <v>43562.8</v>
       </c>
       <c r="C199">
-        <v>43760.22531660854</v>
+        <v>40969.21634178857</v>
       </c>
       <c r="D199">
-        <v>-3049.625316608544</v>
+        <v>2593.583658211428</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4584,13 +4584,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>43562.8</v>
+        <v>44889.8</v>
       </c>
       <c r="C200">
-        <v>40974.74367588821</v>
+        <v>42814.40503875118</v>
       </c>
       <c r="D200">
-        <v>2588.056324111792</v>
+        <v>2075.394961248821</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4598,13 +4598,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>44889.8</v>
+        <v>42833.2</v>
       </c>
       <c r="C201">
-        <v>42816.53930106795</v>
+        <v>44396.64341912583</v>
       </c>
       <c r="D201">
-        <v>2073.260698932048</v>
+        <v>-1563.443419125833</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4612,13 +4612,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>42833.2</v>
+        <v>42710.1</v>
       </c>
       <c r="C202">
-        <v>44392.25341448507</v>
+        <v>42738.63180346949</v>
       </c>
       <c r="D202">
-        <v>-1559.053414485068</v>
+        <v>-28.53180346948648</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4626,13 +4626,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>42710.1</v>
+        <v>43204.6</v>
       </c>
       <c r="C203">
-        <v>42744.00688798663</v>
+        <v>42412.11089429336</v>
       </c>
       <c r="D203">
-        <v>-33.90688798663177</v>
+        <v>792.4891057066343</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4640,13 +4640,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>43204.6</v>
+        <v>42176.3</v>
       </c>
       <c r="C204">
-        <v>42411.19583008315</v>
+        <v>42660.00859417005</v>
       </c>
       <c r="D204">
-        <v>793.404169916852</v>
+        <v>-483.7085941700498</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4654,13 +4654,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>42176.3</v>
+        <v>41038.4</v>
       </c>
       <c r="C205">
-        <v>42661.88293604854</v>
+        <v>42530.57946154407</v>
       </c>
       <c r="D205">
-        <v>-485.5829360485368</v>
+        <v>-1492.179461544067</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4668,13 +4668,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>41038.4</v>
+        <v>41524.8</v>
       </c>
       <c r="C206">
-        <v>42522.25252410727</v>
+        <v>41264.74481513725</v>
       </c>
       <c r="D206">
-        <v>-1483.852524107271</v>
+        <v>260.055184862751</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4682,13 +4682,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>41524.8</v>
+        <v>43798.7</v>
       </c>
       <c r="C207">
-        <v>41255.17414059494</v>
+        <v>41442.75211454362</v>
       </c>
       <c r="D207">
-        <v>269.6258594050596</v>
+        <v>2355.947885456379</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4696,13 +4696,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>43798.7</v>
+        <v>48163.7</v>
       </c>
       <c r="C208">
-        <v>41432.96655737569</v>
+        <v>43186.52764023388</v>
       </c>
       <c r="D208">
-        <v>2365.733442624303</v>
+        <v>4977.172359766118</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4710,13 +4710,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>48163.7</v>
+        <v>47662</v>
       </c>
       <c r="C209">
-        <v>43176.43682810788</v>
+        <v>47005.86735006895</v>
       </c>
       <c r="D209">
-        <v>4987.263171892118</v>
+        <v>656.1326499310526</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4724,13 +4724,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>47662</v>
+        <v>48230.2</v>
       </c>
       <c r="C210">
-        <v>46994.22216735654</v>
+        <v>47773.04454516368</v>
       </c>
       <c r="D210">
-        <v>667.7778326434636</v>
+        <v>457.1554548363201</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4738,13 +4738,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>48230.2</v>
+        <v>49243.3</v>
       </c>
       <c r="C211">
-        <v>47751.7158026636</v>
+        <v>48192.48397617856</v>
       </c>
       <c r="D211">
-        <v>478.4841973363946</v>
+        <v>1050.816023821448</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4752,13 +4752,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>49243.3</v>
+        <v>51487</v>
       </c>
       <c r="C212">
-        <v>48174.71282925778</v>
+        <v>48762.90505483047</v>
       </c>
       <c r="D212">
-        <v>1068.587170742219</v>
+        <v>2724.094945169534</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4766,13 +4766,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>51487</v>
+        <v>55350.2</v>
       </c>
       <c r="C213">
-        <v>48749.39437499364</v>
+        <v>51076.45562020318</v>
       </c>
       <c r="D213">
-        <v>2737.605625006356</v>
+        <v>4273.744379796815</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4780,13 +4780,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>55350.2</v>
+        <v>53817.3</v>
       </c>
       <c r="C214">
-        <v>51057.68633498588</v>
+        <v>54377.81534147311</v>
       </c>
       <c r="D214">
-        <v>4292.513665014121</v>
+        <v>-560.515341473103</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4794,13 +4794,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>53817.3</v>
+        <v>53960.5</v>
       </c>
       <c r="C215">
-        <v>54362.52866856595</v>
+        <v>54215.02580294384</v>
       </c>
       <c r="D215">
-        <v>-545.2286685659492</v>
+        <v>-254.525802943841</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4808,13 +4808,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>53960.5</v>
+        <v>54960.2</v>
       </c>
       <c r="C216">
-        <v>54200.08066918708</v>
+        <v>54501.54011401608</v>
       </c>
       <c r="D216">
-        <v>-239.5806691870821</v>
+        <v>458.6598859839141</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4822,13 +4822,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>54960.2</v>
+        <v>54677.5</v>
       </c>
       <c r="C217">
-        <v>54491.44688708232</v>
+        <v>54922.49341694025</v>
       </c>
       <c r="D217">
-        <v>468.7531129176787</v>
+        <v>-244.993416940255</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4836,13 +4836,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>54677.5</v>
+        <v>57499.5</v>
       </c>
       <c r="C218">
-        <v>54919.16277261976</v>
+        <v>55102.00572015437</v>
       </c>
       <c r="D218">
-        <v>-241.6627726197621</v>
+        <v>2397.494279845632</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4850,13 +4850,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>57499.5</v>
+        <v>56010.1</v>
       </c>
       <c r="C219">
-        <v>55099.20157803046</v>
+        <v>57009.90960072148</v>
       </c>
       <c r="D219">
-        <v>2400.298421969535</v>
+        <v>-999.8096007214845</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4864,13 +4864,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>56010.1</v>
+        <v>57381.2</v>
       </c>
       <c r="C220">
-        <v>57008.43045160898</v>
+        <v>56064.81788538278</v>
       </c>
       <c r="D220">
-        <v>-998.3304516089775</v>
+        <v>1316.382114617212</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4878,13 +4878,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>57381.2</v>
+        <v>57377.6</v>
       </c>
       <c r="C221">
-        <v>56072.14290947611</v>
+        <v>56859.20885405572</v>
       </c>
       <c r="D221">
-        <v>1309.057090523886</v>
+        <v>518.3911459442825</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4892,13 +4892,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>57377.6</v>
+        <v>61656.2</v>
       </c>
       <c r="C222">
-        <v>56868.13117987152</v>
+        <v>57671.29491701313</v>
       </c>
       <c r="D222">
-        <v>509.4688201284807</v>
+        <v>3984.905082986865</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4906,13 +4906,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>61656.2</v>
+        <v>60873.4</v>
       </c>
       <c r="C223">
-        <v>57671.59708158176</v>
+        <v>60959.77012880628</v>
       </c>
       <c r="D223">
-        <v>3984.602918418241</v>
+        <v>-86.37012880628026</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4920,13 +4920,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>60873.4</v>
+        <v>61526.5</v>
       </c>
       <c r="C224">
-        <v>60959.4338366805</v>
+        <v>61246.53941212727</v>
       </c>
       <c r="D224">
-        <v>-86.03383668050083</v>
+        <v>279.9605878727307</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4934,13 +4934,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>61526.5</v>
+        <v>62037.7</v>
       </c>
       <c r="C225">
-        <v>61241.71850906762</v>
+        <v>61125.09220298011</v>
       </c>
       <c r="D225">
-        <v>284.7814909323788</v>
+        <v>912.6077970198821</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4948,13 +4948,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>62037.7</v>
+        <v>64284.9</v>
       </c>
       <c r="C226">
-        <v>61125.60063672448</v>
+        <v>61855.03735230003</v>
       </c>
       <c r="D226">
-        <v>912.0993632755126</v>
+        <v>2429.862647699971</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4962,13 +4962,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>64284.9</v>
+        <v>66035.8</v>
       </c>
       <c r="C227">
-        <v>61853.04172525245</v>
+        <v>63820.7526880598</v>
       </c>
       <c r="D227">
-        <v>2431.858274747552</v>
+        <v>2215.047311940201</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4976,13 +4976,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>66035.8</v>
+        <v>62198</v>
       </c>
       <c r="C228">
-        <v>63814.93707295645</v>
+        <v>65883.62883345452</v>
       </c>
       <c r="D228">
-        <v>2220.862927043549</v>
+        <v>-3685.628833454524</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4990,13 +4990,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>62198</v>
+        <v>60687.5</v>
       </c>
       <c r="C229">
-        <v>65873.23906392309</v>
+        <v>61357.3474849926</v>
       </c>
       <c r="D229">
-        <v>-3675.239063923087</v>
+        <v>-669.8474849925988</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5004,13 +5004,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>60687.5</v>
+        <v>61296.9</v>
       </c>
       <c r="C230">
-        <v>61392.57517185992</v>
+        <v>61313.06658057102</v>
       </c>
       <c r="D230">
-        <v>-705.0751718599204</v>
+        <v>-16.16658057101449</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5018,13 +5018,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>61296.9</v>
+        <v>60882.5</v>
       </c>
       <c r="C231">
-        <v>61315.52103938027</v>
+        <v>61072.23290646459</v>
       </c>
       <c r="D231">
-        <v>-18.62103938026848</v>
+        <v>-189.7329064645892</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5032,13 +5032,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>60882.5</v>
+        <v>63081.8</v>
       </c>
       <c r="C232">
-        <v>61076.19118216158</v>
+        <v>60763.47421217257</v>
       </c>
       <c r="D232">
-        <v>-193.6911821615795</v>
+        <v>2318.325787827431</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5046,13 +5046,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>63081.8</v>
+        <v>60310.2</v>
       </c>
       <c r="C233">
-        <v>60766.34677002802</v>
+        <v>62714.74860191169</v>
       </c>
       <c r="D233">
-        <v>2315.453229971987</v>
+        <v>-2404.548601911694</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5060,13 +5060,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>60310.2</v>
+        <v>58500.1</v>
       </c>
       <c r="C234">
-        <v>62711.45357837346</v>
+        <v>60900.76492114949</v>
       </c>
       <c r="D234">
-        <v>-2401.253578373464</v>
+        <v>-2400.664921149488</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5074,13 +5074,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>58500.1</v>
+        <v>60613.5</v>
       </c>
       <c r="C235">
-        <v>60903.28421347852</v>
+        <v>59078.30891363339</v>
       </c>
       <c r="D235">
-        <v>-2403.184213478518</v>
+        <v>1535.191086366613</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5088,13 +5088,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>60613.5</v>
+        <v>62246.5</v>
       </c>
       <c r="C236">
-        <v>59080.09912290038</v>
+        <v>60418.65937629809</v>
       </c>
       <c r="D236">
-        <v>1533.400877099615</v>
+        <v>1827.840623701908</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5102,13 +5102,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>62246.5</v>
+        <v>61866.3</v>
       </c>
       <c r="C237">
-        <v>60415.80217716009</v>
+        <v>61972.66023729988</v>
       </c>
       <c r="D237">
-        <v>1830.697822839909</v>
+        <v>-106.3602372998721</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5116,13 +5116,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>61866.3</v>
+        <v>61380.1</v>
       </c>
       <c r="C238">
-        <v>61960.93927499482</v>
+        <v>61773.81962574706</v>
       </c>
       <c r="D238">
-        <v>-94.6392749948136</v>
+        <v>-393.7196257470569</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5130,13 +5130,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>61380.1</v>
+        <v>60954.5</v>
       </c>
       <c r="C239">
-        <v>61761.53889617593</v>
+        <v>61346.50199352395</v>
       </c>
       <c r="D239">
-        <v>-381.4388961759323</v>
+        <v>-392.0019935239543</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5144,13 +5144,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>60954.5</v>
+        <v>63279.7</v>
       </c>
       <c r="C240">
-        <v>61336.03524399818</v>
+        <v>60961.70816536232</v>
       </c>
       <c r="D240">
-        <v>-381.5352439981798</v>
+        <v>2317.99183463768</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5158,13 +5158,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>63279.7</v>
+        <v>62942.9</v>
       </c>
       <c r="C241">
-        <v>60952.75421590202</v>
+        <v>62935.5206091185</v>
       </c>
       <c r="D241">
-        <v>2326.945784097974</v>
+        <v>7.379390881505969</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5172,13 +5172,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>62942.9</v>
+        <v>61449</v>
       </c>
       <c r="C242">
-        <v>62920.26047506074</v>
+        <v>62641.05553075082</v>
       </c>
       <c r="D242">
-        <v>22.63952493925899</v>
+        <v>-1192.055530750818</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5186,13 +5186,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>61449</v>
+        <v>61006.2</v>
       </c>
       <c r="C243">
-        <v>62627.00569968323</v>
+        <v>61664.59646929939</v>
       </c>
       <c r="D243">
-        <v>-1178.005699683228</v>
+        <v>-658.3964692993904</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5200,13 +5200,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>61006.2</v>
+        <v>61536.3</v>
       </c>
       <c r="C244">
-        <v>61652.15068636822</v>
+        <v>61329.62953709373</v>
       </c>
       <c r="D244">
-        <v>-645.9506863682182</v>
+        <v>206.6704629062733</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5214,13 +5214,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>61536.3</v>
+        <v>63317.8</v>
       </c>
       <c r="C245">
-        <v>61316.6235474336</v>
+        <v>61227.439159574</v>
       </c>
       <c r="D245">
-        <v>219.6764525664039</v>
+        <v>2090.360840426001</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5228,13 +5228,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>63317.8</v>
+        <v>67559.8</v>
       </c>
       <c r="C246">
-        <v>61218.00324783845</v>
+        <v>62885.86800571771</v>
       </c>
       <c r="D246">
-        <v>2099.79675216155</v>
+        <v>4673.931994282291</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5242,13 +5242,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>67559.8</v>
+        <v>66950</v>
       </c>
       <c r="C247">
-        <v>62872.23538043817</v>
+        <v>66673.52017199861</v>
       </c>
       <c r="D247">
-        <v>4687.564619561832</v>
+        <v>276.4798280013929</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5256,13 +5256,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>66950</v>
+        <v>64969</v>
       </c>
       <c r="C248">
-        <v>66655.89477000288</v>
+        <v>67262.62767933206</v>
       </c>
       <c r="D248">
-        <v>294.1052299971197</v>
+        <v>-2293.627679332058</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5270,13 +5270,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>64969</v>
+        <v>64825.4</v>
       </c>
       <c r="C249">
-        <v>67242.73312955014</v>
+        <v>65406.60122983147</v>
       </c>
       <c r="D249">
-        <v>-2273.733129550135</v>
+        <v>-581.201229831473</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5284,13 +5284,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>64825.4</v>
+        <v>64153</v>
       </c>
       <c r="C250">
-        <v>65401.42319777365</v>
+        <v>64918.33296098387</v>
       </c>
       <c r="D250">
-        <v>-576.0231977736476</v>
+        <v>-765.3329609838693</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5298,13 +5298,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>64153</v>
+        <v>64393.1</v>
       </c>
       <c r="C251">
-        <v>64906.1578957076</v>
+        <v>64080.01691050916</v>
       </c>
       <c r="D251">
-        <v>-753.1578957075981</v>
+        <v>313.0830894908358</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5312,13 +5312,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>64393.1</v>
+        <v>65495</v>
       </c>
       <c r="C252">
-        <v>64074.58250379587</v>
+        <v>64354.48308838172</v>
       </c>
       <c r="D252">
-        <v>318.5174962041274</v>
+        <v>1140.516911618281</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5326,13 +5326,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>65495</v>
+        <v>63615.8</v>
       </c>
       <c r="C253">
-        <v>64345.69159611729</v>
+        <v>65109.76515758819</v>
       </c>
       <c r="D253">
-        <v>1149.308403882707</v>
+        <v>-1493.965157588187</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5340,13 +5340,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>63615.8</v>
+        <v>60137.2</v>
       </c>
       <c r="C254">
-        <v>65103.75177852031</v>
+        <v>64196.07977010608</v>
       </c>
       <c r="D254">
-        <v>-1487.951778520306</v>
+        <v>-4058.879770106083</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5354,13 +5354,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>60137.2</v>
+        <v>60367.8</v>
       </c>
       <c r="C255">
-        <v>64194.36644993916</v>
+        <v>60524.21959068372</v>
       </c>
       <c r="D255">
-        <v>-4057.166449939163</v>
+        <v>-156.4195906837122</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5368,13 +5368,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>60367.8</v>
+        <v>56921.7</v>
       </c>
       <c r="C256">
-        <v>60535.63798968548</v>
+        <v>59948.16711640534</v>
       </c>
       <c r="D256">
-        <v>-167.8379896854749</v>
+        <v>-3026.467116405343</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5382,13 +5382,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>56921.7</v>
+        <v>58099.6</v>
       </c>
       <c r="C257">
-        <v>59953.16272791168</v>
+        <v>57625.81470195945</v>
       </c>
       <c r="D257">
-        <v>-3031.462727911683</v>
+        <v>473.7852980405514</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5396,13 +5396,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>58099.6</v>
+        <v>59744.2</v>
       </c>
       <c r="C258">
-        <v>57632.41521800983</v>
+        <v>57463.44876753243</v>
       </c>
       <c r="D258">
-        <v>467.1847819901668</v>
+        <v>2280.751232467563</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5410,13 +5410,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>59744.2</v>
+        <v>58646.2</v>
       </c>
       <c r="C259">
-        <v>57466.85293377722</v>
+        <v>59104.27534600154</v>
       </c>
       <c r="D259">
-        <v>2277.347066222777</v>
+        <v>-458.0753460015403</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5424,13 +5424,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>58646.2</v>
+        <v>56295.5</v>
       </c>
       <c r="C260">
-        <v>59101.32952060083</v>
+        <v>58815.33742509906</v>
       </c>
       <c r="D260">
-        <v>-455.1295206008363</v>
+        <v>-2519.83742509906</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5438,13 +5438,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>56295.5</v>
+        <v>57571.4</v>
       </c>
       <c r="C261">
-        <v>58807.83511705404</v>
+        <v>56681.90257820654</v>
       </c>
       <c r="D261">
-        <v>-2512.335117054041</v>
+        <v>889.4974217934578</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5452,13 +5452,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>57571.4</v>
+        <v>57203.3</v>
       </c>
       <c r="C262">
-        <v>56679.84660991347</v>
+        <v>56971.34906728887</v>
       </c>
       <c r="D262">
-        <v>891.5533900865339</v>
+        <v>231.95093271113</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5466,13 +5466,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>57203.3</v>
+        <v>58932.6</v>
       </c>
       <c r="C263">
-        <v>56961.77387259055</v>
+        <v>56880.70228534982</v>
       </c>
       <c r="D263">
-        <v>241.5261274094519</v>
+        <v>2051.897714650178</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5480,13 +5480,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>58932.6</v>
+        <v>53789</v>
       </c>
       <c r="C264">
-        <v>56868.13801351147</v>
+        <v>58472.27570772589</v>
       </c>
       <c r="D264">
-        <v>2064.461986488524</v>
+        <v>-4683.275707725887</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5494,13 +5494,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>53789</v>
+        <v>54784.9</v>
       </c>
       <c r="C265">
-        <v>58452.92654210083</v>
+        <v>54784.36177528369</v>
       </c>
       <c r="D265">
-        <v>-4663.926542100831</v>
+        <v>0.5382247163142893</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5508,13 +5508,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>54784.9</v>
+        <v>57300</v>
       </c>
       <c r="C266">
-        <v>54777.32460406648</v>
+        <v>54451.7542549456</v>
       </c>
       <c r="D266">
-        <v>7.575395933519758</v>
+        <v>2848.245745054403</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5522,13 +5522,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>57300</v>
+        <v>57830.2</v>
       </c>
       <c r="C267">
-        <v>54439.97266914679</v>
+        <v>56210.42553933094</v>
       </c>
       <c r="D267">
-        <v>2860.027330853205</v>
+        <v>1619.774460669054</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5536,13 +5536,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>57830.2</v>
+        <v>56980.7</v>
       </c>
       <c r="C268">
-        <v>56204.4480890213</v>
+        <v>57715.57581474188</v>
       </c>
       <c r="D268">
-        <v>1625.751910978695</v>
+        <v>-734.8758147418848</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5550,13 +5550,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>56980.7</v>
+        <v>57237.9</v>
       </c>
       <c r="C269">
-        <v>57695.78553593038</v>
+        <v>57135.40863375877</v>
       </c>
       <c r="D269">
-        <v>-715.0855359303823</v>
+        <v>102.4913662412364</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5564,13 +5564,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>57237.9</v>
+        <v>56526.4</v>
       </c>
       <c r="C270">
-        <v>57119.85489577435</v>
+        <v>57392.11670500362</v>
       </c>
       <c r="D270">
-        <v>118.0451042256536</v>
+        <v>-865.7167050036151</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5578,13 +5578,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>56526.4</v>
+        <v>53678.6</v>
       </c>
       <c r="C271">
-        <v>57374.6866821997</v>
+        <v>56472.87876205026</v>
       </c>
       <c r="D271">
-        <v>-848.286682199694</v>
+        <v>-2794.278762050257</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5592,13 +5592,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>53678.6</v>
+        <v>49255.1</v>
       </c>
       <c r="C272">
-        <v>56461.15463907474</v>
+        <v>53975.95132505642</v>
       </c>
       <c r="D272">
-        <v>-2782.55463907474</v>
+        <v>-4720.851325056421</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5606,13 +5606,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>49255.1</v>
+        <v>49443.3</v>
       </c>
       <c r="C273">
-        <v>53978.6719061263</v>
+        <v>47877.89687254433</v>
       </c>
       <c r="D273">
-        <v>-4723.571906126301</v>
+        <v>1565.403127455676</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5620,13 +5620,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>49443.3</v>
+        <v>50564.3</v>
       </c>
       <c r="C274">
-        <v>47919.60495803707</v>
+        <v>48912.79734159603</v>
       </c>
       <c r="D274">
-        <v>1523.695041962928</v>
+        <v>1651.502658403973</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5634,13 +5634,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>50564.3</v>
+        <v>50650.1</v>
       </c>
       <c r="C275">
-        <v>48917.29811608001</v>
+        <v>49620.53981144731</v>
       </c>
       <c r="D275">
-        <v>1647.001883919991</v>
+        <v>1029.560188552692</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5648,13 +5648,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>50650.1</v>
+        <v>50515.1</v>
       </c>
       <c r="C276">
-        <v>49629.29103552039</v>
+        <v>50606.5995885289</v>
       </c>
       <c r="D276">
-        <v>1020.808964479605</v>
+        <v>-91.49958852890268</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5662,13 +5662,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>50515.1</v>
+        <v>47581.6</v>
       </c>
       <c r="C277">
-        <v>50602.13165946699</v>
+        <v>49980.94156650758</v>
       </c>
       <c r="D277">
-        <v>-87.03165946699301</v>
+        <v>-2399.341566507581</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5676,13 +5676,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>47581.6</v>
+        <v>47218.3</v>
       </c>
       <c r="C278">
-        <v>49981.59421509232</v>
+        <v>47972.82381001076</v>
       </c>
       <c r="D278">
-        <v>-2399.994215092323</v>
+        <v>-754.5238100107526</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5690,13 +5690,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>47218.3</v>
+        <v>49367.2</v>
       </c>
       <c r="C279">
-        <v>47973.84651663301</v>
+        <v>47523.03690169578</v>
       </c>
       <c r="D279">
-        <v>-755.5465166330105</v>
+        <v>1844.163098304212</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5704,13 +5704,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>49367.2</v>
+        <v>50113.2</v>
       </c>
       <c r="C280">
-        <v>47515.85478617639</v>
+        <v>48566.80404147941</v>
       </c>
       <c r="D280">
-        <v>1851.345213823603</v>
+        <v>1546.395958520588</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5718,13 +5718,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>50113.2</v>
+        <v>46732.2</v>
       </c>
       <c r="C281">
-        <v>48556.98997001526</v>
+        <v>49727.38072804087</v>
       </c>
       <c r="D281">
-        <v>1556.210029984737</v>
+        <v>-2995.180728040868</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5732,13 +5732,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>46732.2</v>
+        <v>48399.2</v>
       </c>
       <c r="C282">
-        <v>49711.11445791791</v>
+        <v>47061.39676859196</v>
       </c>
       <c r="D282">
-        <v>-2978.914457917912</v>
+        <v>1337.803231408034</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5746,13 +5746,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>48399.2</v>
+        <v>48881.3</v>
       </c>
       <c r="C283">
-        <v>47056.83026209114</v>
+        <v>47759.40000870409</v>
       </c>
       <c r="D283">
-        <v>1342.369737908855</v>
+        <v>1121.899991295912</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5760,13 +5760,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>48881.3</v>
+        <v>47631</v>
       </c>
       <c r="C284">
-        <v>47748.44443926793</v>
+        <v>48301.72477233993</v>
       </c>
       <c r="D284">
-        <v>1132.855560732074</v>
+        <v>-670.7247723399341</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5774,13 +5774,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>47631</v>
+        <v>46168.3</v>
       </c>
       <c r="C285">
-        <v>48293.37834417137</v>
+        <v>47862.55911446117</v>
       </c>
       <c r="D285">
-        <v>-662.3783441713749</v>
+        <v>-1694.259114461165</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5788,13 +5788,13 @@
         <v>288</v>
       </c>
       <c r="B286">
-        <v>46168.3</v>
+        <v>46864.3</v>
       </c>
       <c r="C286">
-        <v>47848.72101655252</v>
+        <v>46247.1403689838</v>
       </c>
       <c r="D286">
-        <v>-1680.421016552515</v>
+        <v>617.1596310161985</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5802,13 +5802,13 @@
         <v>289</v>
       </c>
       <c r="B287">
-        <v>46864.3</v>
+        <v>46688.4</v>
       </c>
       <c r="C287">
-        <v>46238.07008928152</v>
+        <v>46462.21713573321</v>
       </c>
       <c r="D287">
-        <v>626.2299107184808</v>
+        <v>226.1828642667897</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5816,13 +5816,13 @@
         <v>290</v>
       </c>
       <c r="B288">
-        <v>46688.4</v>
+        <v>46898.1</v>
       </c>
       <c r="C288">
-        <v>46454.94769812374</v>
+        <v>46813.06772698059</v>
       </c>
       <c r="D288">
-        <v>233.4523018762629</v>
+        <v>85.03227301940933</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5830,13 +5830,13 @@
         <v>291</v>
       </c>
       <c r="B289">
-        <v>46898.1</v>
+        <v>48925.9</v>
       </c>
       <c r="C289">
-        <v>46805.13677271515</v>
+        <v>46590.65761407938</v>
       </c>
       <c r="D289">
-        <v>92.96322728484665</v>
+        <v>2335.242385920625</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5844,13 +5844,13 @@
         <v>292</v>
       </c>
       <c r="B290">
-        <v>48925.9</v>
+        <v>48624.9</v>
       </c>
       <c r="C290">
-        <v>46584.6625970087</v>
+        <v>48341.68607990553</v>
       </c>
       <c r="D290">
-        <v>2341.237402991297</v>
+        <v>283.213920094473</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5858,13 +5858,13 @@
         <v>293</v>
       </c>
       <c r="B291">
-        <v>48624.9</v>
+        <v>50818.8</v>
       </c>
       <c r="C291">
-        <v>48332.91737541476</v>
+        <v>48706.45252962007</v>
       </c>
       <c r="D291">
-        <v>291.9826245852382</v>
+        <v>2112.347470379929</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5872,13 +5872,13 @@
         <v>294</v>
       </c>
       <c r="B292">
-        <v>50818.8</v>
+        <v>50834.3</v>
       </c>
       <c r="C292">
-        <v>48695.6312205913</v>
+        <v>50191.43325929107</v>
       </c>
       <c r="D292">
-        <v>2123.168779408705</v>
+        <v>642.8667407089379</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5886,13 +5886,13 @@
         <v>295</v>
       </c>
       <c r="B293">
-        <v>50834.3</v>
+        <v>50436</v>
       </c>
       <c r="C293">
-        <v>50183.74647971829</v>
+        <v>50929.10703145545</v>
       </c>
       <c r="D293">
-        <v>650.5535202817118</v>
+        <v>-493.1070314554527</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5900,13 +5900,13 @@
         <v>296</v>
       </c>
       <c r="B294">
-        <v>50436</v>
+        <v>50797.3</v>
       </c>
       <c r="C294">
-        <v>50913.32613310167</v>
+        <v>50493.47734627004</v>
       </c>
       <c r="D294">
-        <v>-477.3261331016693</v>
+        <v>303.8226537299633</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5914,13 +5914,13 @@
         <v>297</v>
       </c>
       <c r="B295">
-        <v>50797.3</v>
+        <v>50687.4</v>
       </c>
       <c r="C295">
-        <v>50481.49601905541</v>
+        <v>50512.31163806688</v>
       </c>
       <c r="D295">
-        <v>315.8039809445909</v>
+        <v>175.0883619331216</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5928,13 +5928,13 @@
         <v>298</v>
       </c>
       <c r="B296">
-        <v>50687.4</v>
+        <v>47548.1</v>
       </c>
       <c r="C296">
-        <v>50505.94872434034</v>
+        <v>50914.99731460177</v>
       </c>
       <c r="D296">
-        <v>181.4512756596596</v>
+        <v>-3366.897314601774</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5942,13 +5942,13 @@
         <v>299</v>
       </c>
       <c r="B297">
-        <v>47548.1</v>
+        <v>46473.2</v>
       </c>
       <c r="C297">
-        <v>50905.07007879821</v>
+        <v>48115.01771795891</v>
       </c>
       <c r="D297">
-        <v>-3356.970078798207</v>
+        <v>-1641.817717958911</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5956,13 +5956,13 @@
         <v>300</v>
       </c>
       <c r="B298">
-        <v>46473.2</v>
+        <v>47143.8</v>
       </c>
       <c r="C298">
-        <v>48118.7988166953</v>
+        <v>46654.53191368991</v>
       </c>
       <c r="D298">
-        <v>-1645.598816695303</v>
+        <v>489.2680863100977</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5970,13 +5970,13 @@
         <v>301</v>
       </c>
       <c r="B299">
-        <v>47143.8</v>
+        <v>46150</v>
       </c>
       <c r="C299">
-        <v>46658.63567779878</v>
+        <v>46904.74040934835</v>
       </c>
       <c r="D299">
-        <v>485.1643222012208</v>
+        <v>-754.7404093483492</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5984,13 +5984,13 @@
         <v>302</v>
       </c>
       <c r="B300">
-        <v>46150</v>
+        <v>47738.3</v>
       </c>
       <c r="C300">
-        <v>46908.7549467332</v>
+        <v>46409.83331214749</v>
       </c>
       <c r="D300">
-        <v>-758.7549467331992</v>
+        <v>1328.466687852517</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5998,13 +5998,13 @@
         <v>303</v>
       </c>
       <c r="B301">
-        <v>47738.3</v>
+        <v>47304.6</v>
       </c>
       <c r="C301">
-        <v>46415.25194281478</v>
+        <v>47283.59021069687</v>
       </c>
       <c r="D301">
-        <v>1323.048057185224</v>
+        <v>21.00978930312704</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6012,13 +6012,13 @@
         <v>304</v>
       </c>
       <c r="B302">
-        <v>47304.6</v>
+        <v>46452.6</v>
       </c>
       <c r="C302">
-        <v>47284.26066127875</v>
+        <v>47201.12580130696</v>
       </c>
       <c r="D302">
-        <v>20.33933872124908</v>
+        <v>-748.5258013069615</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6026,13 +6026,13 @@
         <v>305</v>
       </c>
       <c r="B303">
-        <v>46452.6</v>
+        <v>45858.5</v>
       </c>
       <c r="C303">
-        <v>47199.86515259572</v>
+        <v>46405.4006358089</v>
       </c>
       <c r="D303">
-        <v>-747.2651525957262</v>
+        <v>-546.9006358088955</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6040,13 +6040,13 @@
         <v>306</v>
       </c>
       <c r="B304">
-        <v>45858.5</v>
+        <v>43410</v>
       </c>
       <c r="C304">
-        <v>46405.46654485939</v>
+        <v>46035.46867841082</v>
       </c>
       <c r="D304">
-        <v>-546.9665448593878</v>
+        <v>-2625.46867841082</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6054,13 +6054,13 @@
         <v>307</v>
       </c>
       <c r="B305">
-        <v>43410</v>
+        <v>43124.4</v>
       </c>
       <c r="C305">
-        <v>46031.01935358673</v>
+        <v>43855.74946877679</v>
       </c>
       <c r="D305">
-        <v>-2621.019353586729</v>
+        <v>-731.3494687767889</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6068,13 +6068,13 @@
         <v>308</v>
       </c>
       <c r="B306">
-        <v>43124.4</v>
+        <v>41523.6</v>
       </c>
       <c r="C306">
-        <v>43857.81343264748</v>
+        <v>42966.43709573055</v>
       </c>
       <c r="D306">
-        <v>-733.4134326474814</v>
+        <v>-1442.837095730552</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6082,13 +6082,13 @@
         <v>309</v>
       </c>
       <c r="B307">
-        <v>41523.6</v>
+        <v>41693.2</v>
       </c>
       <c r="C307">
-        <v>42961.56964392374</v>
+        <v>41520.85855420657</v>
       </c>
       <c r="D307">
-        <v>-1437.969643923738</v>
+        <v>172.3414457934268</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6096,13 +6096,13 @@
         <v>310</v>
       </c>
       <c r="B308">
-        <v>41693.2</v>
+        <v>41862.9</v>
       </c>
       <c r="C308">
-        <v>41521.93273150401</v>
+        <v>41376.43658304984</v>
       </c>
       <c r="D308">
-        <v>171.2672684959834</v>
+        <v>486.4634169501587</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6110,13 +6110,13 @@
         <v>311</v>
       </c>
       <c r="B309">
-        <v>41862.9</v>
+        <v>41855.3</v>
       </c>
       <c r="C309">
-        <v>41375.65540041133</v>
+        <v>41734.18748692748</v>
       </c>
       <c r="D309">
-        <v>487.2445995886737</v>
+        <v>121.1125130725268</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6124,13 +6124,13 @@
         <v>312</v>
       </c>
       <c r="B310">
-        <v>41855.3</v>
+        <v>42728.8</v>
       </c>
       <c r="C310">
-        <v>41730.21872438853</v>
+        <v>41241.49665767651</v>
       </c>
       <c r="D310">
-        <v>125.0812756114756</v>
+        <v>1487.303342323488</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6138,13 +6138,13 @@
         <v>313</v>
       </c>
       <c r="B311">
-        <v>42728.8</v>
+        <v>43927.8</v>
       </c>
       <c r="C311">
-        <v>41241.20121858861</v>
+        <v>42320.05630276682</v>
       </c>
       <c r="D311">
-        <v>1487.598781411391</v>
+        <v>1607.743697233178</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6152,13 +6152,13 @@
         <v>314</v>
       </c>
       <c r="B312">
-        <v>43927.8</v>
+        <v>42550</v>
       </c>
       <c r="C312">
-        <v>42310.94742209798</v>
+        <v>43550.22666926844</v>
       </c>
       <c r="D312">
-        <v>1616.852577902027</v>
+        <v>-1000.226669268435</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6166,13 +6166,13 @@
         <v>315</v>
       </c>
       <c r="B313">
-        <v>42550</v>
+        <v>43090</v>
       </c>
       <c r="C313">
-        <v>43536.90176437075</v>
+        <v>42791.7977624077</v>
       </c>
       <c r="D313">
-        <v>-986.9017643707484</v>
+        <v>298.202237592297</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6180,13 +6180,13 @@
         <v>316</v>
       </c>
       <c r="B314">
-        <v>43090</v>
+        <v>43111.5</v>
       </c>
       <c r="C314">
-        <v>42779.02300438761</v>
+        <v>42753.3218554069</v>
       </c>
       <c r="D314">
-        <v>310.9769956123928</v>
+        <v>358.1781445930974</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6194,13 +6194,13 @@
         <v>317</v>
       </c>
       <c r="B315">
-        <v>43111.5</v>
+        <v>43114.5</v>
       </c>
       <c r="C315">
-        <v>42740.82014347393</v>
+        <v>43033.53667268644</v>
       </c>
       <c r="D315">
-        <v>370.6798565260688</v>
+        <v>80.96332731355506</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6208,13 +6208,13 @@
         <v>318</v>
       </c>
       <c r="B316">
-        <v>43114.5</v>
+        <v>42248.1</v>
       </c>
       <c r="C316">
-        <v>43020.08144607856</v>
+        <v>42977.60321455485</v>
       </c>
       <c r="D316">
-        <v>94.41855392143771</v>
+        <v>-729.5032145548539</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6222,13 +6222,13 @@
         <v>319</v>
       </c>
       <c r="B317">
-        <v>42248.1</v>
+        <v>42383</v>
       </c>
       <c r="C317">
-        <v>42966.43238168415</v>
+        <v>42201.64782487242</v>
       </c>
       <c r="D317">
-        <v>-718.3323816841512</v>
+        <v>181.3521751275839</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6236,13 +6236,13 @@
         <v>320</v>
       </c>
       <c r="B318">
-        <v>42383</v>
+        <v>41686.2</v>
       </c>
       <c r="C318">
-        <v>42195.56606467643</v>
+        <v>42080.89445753214</v>
       </c>
       <c r="D318">
-        <v>187.43393532357</v>
+        <v>-394.6944575321395</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6250,13 +6250,13 @@
         <v>321</v>
       </c>
       <c r="B319">
-        <v>41686.2</v>
+        <v>40686.9</v>
       </c>
       <c r="C319">
-        <v>42075.86644241803</v>
+        <v>41650.91601454963</v>
       </c>
       <c r="D319">
-        <v>-389.6664424180344</v>
+        <v>-964.0160145496266</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6264,13 +6264,13 @@
         <v>322</v>
       </c>
       <c r="B320">
-        <v>40686.9</v>
+        <v>36468.4</v>
       </c>
       <c r="C320">
-        <v>41647.51507440537</v>
+        <v>41164.38744838284</v>
       </c>
       <c r="D320">
-        <v>-960.6150744053666</v>
+        <v>-4695.987448382839</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6278,13 +6278,13 @@
         <v>323</v>
       </c>
       <c r="B321">
-        <v>36468.4</v>
+        <v>35067.6</v>
       </c>
       <c r="C321">
-        <v>41161.0110693868</v>
+        <v>37097.56544932172</v>
       </c>
       <c r="D321">
-        <v>-4692.611069386803</v>
+        <v>-2029.965449321717</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6292,13 +6292,13 @@
         <v>324</v>
       </c>
       <c r="B322">
-        <v>35067.6</v>
+        <v>36277.5</v>
       </c>
       <c r="C322">
-        <v>37108.73480693971</v>
+        <v>35026.86316314225</v>
       </c>
       <c r="D322">
-        <v>-2041.134806939714</v>
+        <v>1250.636836857753</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6306,13 +6306,13 @@
         <v>325</v>
       </c>
       <c r="B323">
-        <v>36277.5</v>
+        <v>36699.5</v>
       </c>
       <c r="C323">
-        <v>35036.29177595388</v>
+        <v>35737.96043379609</v>
       </c>
       <c r="D323">
-        <v>1241.208224046117</v>
+        <v>961.5395662039082</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6320,13 +6320,13 @@
         <v>326</v>
       </c>
       <c r="B324">
-        <v>36699.5</v>
+        <v>36987.8</v>
       </c>
       <c r="C324">
-        <v>35743.71549701384</v>
+        <v>35806.03302501985</v>
       </c>
       <c r="D324">
-        <v>955.7845029861637</v>
+        <v>1181.766974980157</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6334,13 +6334,13 @@
         <v>327</v>
       </c>
       <c r="B325">
-        <v>36987.8</v>
+        <v>36827.6</v>
       </c>
       <c r="C325">
-        <v>35816.8972020868</v>
+        <v>36637.97493422586</v>
       </c>
       <c r="D325">
-        <v>1170.902797913208</v>
+        <v>189.6250657741402</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6348,13 +6348,13 @@
         <v>328</v>
       </c>
       <c r="B326">
-        <v>36827.6</v>
+        <v>37200.5</v>
       </c>
       <c r="C326">
-        <v>36637.03522324721</v>
+        <v>37001.03406286899</v>
       </c>
       <c r="D326">
-        <v>190.5647767527917</v>
+        <v>199.4659371310117</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6362,13 +6362,13 @@
         <v>329</v>
       </c>
       <c r="B327">
-        <v>37200.5</v>
+        <v>37737.9</v>
       </c>
       <c r="C327">
-        <v>36994.31078617911</v>
+        <v>36677.14477066339</v>
       </c>
       <c r="D327">
-        <v>206.1892138208932</v>
+        <v>1060.75522933661</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6376,13 +6376,13 @@
         <v>330</v>
       </c>
       <c r="B328">
-        <v>37737.9</v>
+        <v>38164.9</v>
       </c>
       <c r="C328">
-        <v>36672.41020489587</v>
+        <v>37302.59711673517</v>
       </c>
       <c r="D328">
-        <v>1065.489795104128</v>
+        <v>862.3028832648342</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6390,13 +6390,13 @@
         <v>331</v>
       </c>
       <c r="B329">
-        <v>38164.9</v>
+        <v>37930.1</v>
       </c>
       <c r="C329">
-        <v>37292.88416332177</v>
+        <v>37968.81430069062</v>
       </c>
       <c r="D329">
-        <v>872.0158366782343</v>
+        <v>-38.71430069061898</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6404,13 +6404,13 @@
         <v>332</v>
       </c>
       <c r="B330">
-        <v>37930.1</v>
+        <v>38512.1</v>
       </c>
       <c r="C330">
-        <v>37953.26690125417</v>
+        <v>37788.69328869363</v>
       </c>
       <c r="D330">
-        <v>-23.16690125417517</v>
+        <v>723.406711306372</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6418,13 +6418,13 @@
         <v>333</v>
       </c>
       <c r="B331">
-        <v>38512.1</v>
+        <v>38719.9</v>
       </c>
       <c r="C331">
-        <v>37775.45856919805</v>
+        <v>38029.48478864318</v>
       </c>
       <c r="D331">
-        <v>736.6414308019521</v>
+        <v>690.4152113568198</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6432,13 +6432,13 @@
         <v>334</v>
       </c>
       <c r="B332">
-        <v>38719.9</v>
+        <v>36903.3</v>
       </c>
       <c r="C332">
-        <v>38021.05876409677</v>
+        <v>38608.6276668166</v>
       </c>
       <c r="D332">
-        <v>698.84123590323</v>
+        <v>-1705.327666816593</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6446,13 +6446,13 @@
         <v>335</v>
       </c>
       <c r="B333">
-        <v>36903.3</v>
+        <v>37324.4</v>
       </c>
       <c r="C333">
-        <v>38596.75376638061</v>
+        <v>37170.53409573199</v>
       </c>
       <c r="D333">
-        <v>-1693.453766380611</v>
+        <v>153.8659042680156</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6460,13 +6460,13 @@
         <v>336</v>
       </c>
       <c r="B334">
-        <v>37324.4</v>
+        <v>41585.5</v>
       </c>
       <c r="C334">
-        <v>37166.31754527577</v>
+        <v>36994.66168128322</v>
       </c>
       <c r="D334">
-        <v>158.08245472423</v>
+        <v>4590.838318716778</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6474,13 +6474,13 @@
         <v>337</v>
       </c>
       <c r="B335">
-        <v>41585.5</v>
+        <v>41419</v>
       </c>
       <c r="C335">
-        <v>36990.09718534049</v>
+        <v>40467.07922587563</v>
       </c>
       <c r="D335">
-        <v>4595.402814659508</v>
+        <v>951.9207741243736</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6488,13 +6488,13 @@
         <v>338</v>
       </c>
       <c r="B336">
-        <v>41419</v>
+        <v>42419.5</v>
       </c>
       <c r="C336">
-        <v>40463.54726936064</v>
+        <v>41391.4699841111</v>
       </c>
       <c r="D336">
-        <v>955.4527306393575</v>
+        <v>1028.0300158889</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6502,13 +6502,13 @@
         <v>339</v>
       </c>
       <c r="B337">
-        <v>42419.5</v>
+        <v>43867.2</v>
       </c>
       <c r="C337">
-        <v>41380.38353398409</v>
+        <v>42179.28839111932</v>
       </c>
       <c r="D337">
-        <v>1039.116466015912</v>
+        <v>1687.911608880677</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6516,13 +6516,13 @@
         <v>340</v>
       </c>
       <c r="B338">
-        <v>43867.2</v>
+        <v>44079.1</v>
       </c>
       <c r="C338">
-        <v>42169.87253808921</v>
+        <v>43534.03646691599</v>
       </c>
       <c r="D338">
-        <v>1697.327461910783</v>
+        <v>545.0635330840087</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6530,13 +6530,13 @@
         <v>341</v>
       </c>
       <c r="B339">
-        <v>44079.1</v>
+        <v>44420</v>
       </c>
       <c r="C339">
-        <v>43525.43385192131</v>
+        <v>44119.82277360621</v>
       </c>
       <c r="D339">
-        <v>553.6661480786934</v>
+        <v>300.1772263937892</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6544,13 +6544,13 @@
         <v>342</v>
       </c>
       <c r="B340">
-        <v>44420</v>
+        <v>43537.5</v>
       </c>
       <c r="C340">
-        <v>44112.47505641439</v>
+        <v>44301.70065982397</v>
       </c>
       <c r="D340">
-        <v>307.5249435856094</v>
+        <v>-764.2006598239677</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6558,13 +6558,13 @@
         <v>343</v>
       </c>
       <c r="B341">
-        <v>43537.5</v>
+        <v>42400.2</v>
       </c>
       <c r="C341">
-        <v>44294.90971513629</v>
+        <v>44077.38203932765</v>
       </c>
       <c r="D341">
-        <v>-757.4097151362948</v>
+        <v>-1677.182039327658</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6572,13 +6572,13 @@
         <v>344</v>
       </c>
       <c r="B342">
-        <v>42400.2</v>
+        <v>42241</v>
       </c>
       <c r="C342">
-        <v>44070.30463887939</v>
+        <v>42705.91938261378</v>
       </c>
       <c r="D342">
-        <v>-1670.104638879391</v>
+        <v>-464.919382613778</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6586,13 +6586,13 @@
         <v>345</v>
       </c>
       <c r="B343">
-        <v>42241</v>
+        <v>42062.6</v>
       </c>
       <c r="C343">
-        <v>42707.42837369831</v>
+        <v>42342.61733791717</v>
       </c>
       <c r="D343">
-        <v>-466.4283736983052</v>
+        <v>-280.0173379171683</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6600,13 +6600,13 @@
         <v>346</v>
       </c>
       <c r="B344">
-        <v>42062.6</v>
+        <v>42563.5</v>
       </c>
       <c r="C344">
-        <v>42346.54018111499</v>
+        <v>42214.27974536007</v>
       </c>
       <c r="D344">
-        <v>-283.9401811149946</v>
+        <v>349.2202546399349</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6614,13 +6614,13 @@
         <v>347</v>
       </c>
       <c r="B345">
-        <v>42563.5</v>
+        <v>44563.1</v>
       </c>
       <c r="C345">
-        <v>42217.61903421835</v>
+        <v>42417.26768256493</v>
       </c>
       <c r="D345">
-        <v>345.8809657816455</v>
+        <v>2145.832317435073</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6628,13 +6628,13 @@
         <v>348</v>
       </c>
       <c r="B346">
-        <v>44563.1</v>
+        <v>43873.1</v>
       </c>
       <c r="C346">
-        <v>42421.76735861898</v>
+        <v>44136.88244218439</v>
       </c>
       <c r="D346">
-        <v>2141.332641381021</v>
+        <v>-263.7824421843907</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6642,13 +6642,13 @@
         <v>349</v>
       </c>
       <c r="B347">
-        <v>43873.1</v>
+        <v>40543.9</v>
       </c>
       <c r="C347">
-        <v>44139.22349883521</v>
+        <v>43920.05445524318</v>
       </c>
       <c r="D347">
-        <v>-266.1234988352153</v>
+        <v>-3376.154455243181</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6656,13 +6656,13 @@
         <v>350</v>
       </c>
       <c r="B348">
-        <v>40543.9</v>
+        <v>40007.4</v>
       </c>
       <c r="C348">
-        <v>43920.92842274714</v>
+        <v>41227.95513628192</v>
       </c>
       <c r="D348">
-        <v>-3377.028422747135</v>
+        <v>-1220.555136281917</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6670,13 +6670,13 @@
         <v>351</v>
       </c>
       <c r="B349">
-        <v>40007.4</v>
+        <v>40095.8</v>
       </c>
       <c r="C349">
-        <v>41237.14353049679</v>
+        <v>40064.84568110055</v>
       </c>
       <c r="D349">
-        <v>-1229.743530496788</v>
+        <v>30.95431889945758</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6684,13 +6684,13 @@
         <v>352</v>
       </c>
       <c r="B350">
-        <v>40095.8</v>
+        <v>38400</v>
       </c>
       <c r="C350">
-        <v>40067.33865738737</v>
+        <v>40034.42151447937</v>
       </c>
       <c r="D350">
-        <v>28.46134261263069</v>
+        <v>-1634.421514479371</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6698,13 +6698,13 @@
         <v>353</v>
       </c>
       <c r="B351">
-        <v>38400</v>
+        <v>37019.2</v>
       </c>
       <c r="C351">
-        <v>40033.97283307811</v>
+        <v>38628.85953936916</v>
       </c>
       <c r="D351">
-        <v>-1633.972833078107</v>
+        <v>-1609.659539369168</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6712,13 +6712,13 @@
         <v>354</v>
       </c>
       <c r="B352">
-        <v>37019.2</v>
+        <v>38256.3</v>
       </c>
       <c r="C352">
-        <v>38632.39594817329</v>
+        <v>37431.76857746723</v>
       </c>
       <c r="D352">
-        <v>-1613.195948173292</v>
+        <v>824.5314225327747</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6726,13 +6726,13 @@
         <v>355</v>
       </c>
       <c r="B353">
-        <v>38256.3</v>
+        <v>37250.1</v>
       </c>
       <c r="C353">
-        <v>37433.45270857691</v>
+        <v>37741.12822643532</v>
       </c>
       <c r="D353">
-        <v>822.8472914230952</v>
+        <v>-491.0282264353227</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6740,13 +6740,13 @@
         <v>356</v>
       </c>
       <c r="B354">
-        <v>37250.1</v>
+        <v>38340.8</v>
       </c>
       <c r="C354">
-        <v>37743.24028529455</v>
+        <v>37546.10446867814</v>
       </c>
       <c r="D354">
-        <v>-493.1402852945539</v>
+        <v>794.6955313218641</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6754,13 +6754,13 @@
         <v>357</v>
       </c>
       <c r="B355">
-        <v>38340.8</v>
+        <v>39233.5</v>
       </c>
       <c r="C355">
-        <v>37544.13556171856</v>
+        <v>37619.29926739896</v>
       </c>
       <c r="D355">
-        <v>796.6644382814411</v>
+        <v>1614.200732601035</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6768,13 +6768,13 @@
         <v>358</v>
       </c>
       <c r="B356">
-        <v>39233.5</v>
+        <v>39120.2</v>
       </c>
       <c r="C356">
-        <v>37620.73837846333</v>
+        <v>38992.32235485975</v>
       </c>
       <c r="D356">
-        <v>1612.761621536672</v>
+        <v>127.8776451402518</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6782,13 +6782,13 @@
         <v>359</v>
       </c>
       <c r="B357">
-        <v>39120.2</v>
+        <v>37709.1</v>
       </c>
       <c r="C357">
-        <v>38979.61017925064</v>
+        <v>39192.96626482961</v>
       </c>
       <c r="D357">
-        <v>140.5898207493592</v>
+        <v>-1483.866264829609</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6796,13 +6796,13 @@
         <v>360</v>
       </c>
       <c r="B358">
-        <v>37709.1</v>
+        <v>43194.7</v>
       </c>
       <c r="C358">
-        <v>39179.8747364568</v>
+        <v>37969.70085292937</v>
       </c>
       <c r="D358">
-        <v>-1470.774736456799</v>
+        <v>5224.99914707063</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6810,13 +6810,13 @@
         <v>361</v>
       </c>
       <c r="B359">
-        <v>43194.7</v>
+        <v>44427.9</v>
       </c>
       <c r="C359">
-        <v>37960.9393327204</v>
+        <v>42004.6482507513</v>
       </c>
       <c r="D359">
-        <v>5233.760667279596</v>
+        <v>2423.251749248702</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6824,13 +6824,13 @@
         <v>362</v>
       </c>
       <c r="B360">
-        <v>44427.9</v>
+        <v>43922.5</v>
       </c>
       <c r="C360">
-        <v>41992.71981847195</v>
+        <v>44264.93351378782</v>
       </c>
       <c r="D360">
-        <v>2435.180181528056</v>
+        <v>-342.4335137878224</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6838,13 +6838,13 @@
         <v>363</v>
       </c>
       <c r="B361">
-        <v>43922.5</v>
+        <v>42465</v>
       </c>
       <c r="C361">
-        <v>44238.06550290862</v>
+        <v>44201.04954932716</v>
       </c>
       <c r="D361">
-        <v>-315.5655029086192</v>
+        <v>-1736.049549327159</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6852,13 +6852,13 @@
         <v>364</v>
       </c>
       <c r="B362">
-        <v>42465</v>
+        <v>39137.5</v>
       </c>
       <c r="C362">
-        <v>44181.12723480184</v>
+        <v>42753.21493767745</v>
       </c>
       <c r="D362">
-        <v>-1716.127234801839</v>
+        <v>-3615.714937677447</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6866,13 +6866,13 @@
         <v>365</v>
       </c>
       <c r="B363">
-        <v>39137.5</v>
+        <v>39396.4</v>
       </c>
       <c r="C363">
-        <v>42741.63792294606</v>
+        <v>39784.44290824463</v>
       </c>
       <c r="D363">
-        <v>-3604.137922946058</v>
+        <v>-388.0429082446281</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6880,13 +6880,13 @@
         <v>366</v>
       </c>
       <c r="B364">
-        <v>39396.4</v>
+        <v>38416.3</v>
       </c>
       <c r="C364">
-        <v>39784.97453910955</v>
+        <v>39276.90981573115</v>
       </c>
       <c r="D364">
-        <v>-388.5745391095479</v>
+        <v>-860.6098157311499</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6894,13 +6894,13 @@
         <v>367</v>
       </c>
       <c r="B365">
-        <v>38416.3</v>
+        <v>38024</v>
       </c>
       <c r="C365">
-        <v>39276.05297357061</v>
+        <v>38641.22170672913</v>
       </c>
       <c r="D365">
-        <v>-859.7529735706048</v>
+        <v>-617.2217067291349</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6908,13 +6908,13 @@
         <v>368</v>
       </c>
       <c r="B366">
-        <v>38024</v>
+        <v>38752.6</v>
       </c>
       <c r="C366">
-        <v>38642.0651949217</v>
+        <v>38144.70609417635</v>
       </c>
       <c r="D366">
-        <v>-618.065194921699</v>
+        <v>607.8939058236501</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6922,13 +6922,13 @@
         <v>369</v>
       </c>
       <c r="B367">
-        <v>38752.6</v>
+        <v>41965.3</v>
       </c>
       <c r="C367">
-        <v>38150.21137958726</v>
+        <v>38658.30267653252</v>
       </c>
       <c r="D367">
-        <v>602.3886204127411</v>
+        <v>3306.997323467484</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6936,13 +6936,13 @@
         <v>370</v>
       </c>
       <c r="B368">
-        <v>41965.3</v>
+        <v>39435.8</v>
       </c>
       <c r="C368">
-        <v>38662.56789281541</v>
+        <v>41320.098210974</v>
       </c>
       <c r="D368">
-        <v>3302.732107184594</v>
+        <v>-1884.298210973997</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6950,13 +6950,13 @@
         <v>371</v>
       </c>
       <c r="B369">
-        <v>39435.8</v>
+        <v>38732.1</v>
       </c>
       <c r="C369">
-        <v>41321.50519160331</v>
+        <v>39815.33798542513</v>
       </c>
       <c r="D369">
-        <v>-1885.705191603309</v>
+        <v>-1083.237985425127</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6964,13 +6964,13 @@
         <v>372</v>
       </c>
       <c r="B370">
-        <v>38732.1</v>
+        <v>38785</v>
       </c>
       <c r="C370">
-        <v>39818.95583843596</v>
+        <v>38948.11500892568</v>
       </c>
       <c r="D370">
-        <v>-1086.855838435957</v>
+        <v>-163.1150089256844</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6978,13 +6978,13 @@
         <v>373</v>
       </c>
       <c r="B371">
-        <v>38785</v>
+        <v>37788.4</v>
       </c>
       <c r="C371">
-        <v>38945.11257832068</v>
+        <v>38908.79176074655</v>
       </c>
       <c r="D371">
-        <v>-160.1125783206808</v>
+        <v>-1120.391760746548</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6992,13 +6992,13 @@
         <v>374</v>
       </c>
       <c r="B372">
-        <v>37788.4</v>
+        <v>39689.2</v>
       </c>
       <c r="C372">
-        <v>38901.52328819914</v>
+        <v>38042.84413772299</v>
       </c>
       <c r="D372">
-        <v>-1113.123288199138</v>
+        <v>1646.355862277007</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7006,13 +7006,13 @@
         <v>375</v>
       </c>
       <c r="B373">
-        <v>39689.2</v>
+        <v>39325.4</v>
       </c>
       <c r="C373">
-        <v>38038.90172970564</v>
+        <v>39207.26366677989</v>
       </c>
       <c r="D373">
-        <v>1650.298270294355</v>
+        <v>118.1363332201072</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7020,13 +7020,13 @@
         <v>376</v>
       </c>
       <c r="B374">
-        <v>39325.4</v>
+        <v>41124</v>
       </c>
       <c r="C374">
-        <v>39200.75936177549</v>
+        <v>39150.20648553445</v>
       </c>
       <c r="D374">
-        <v>124.6406382245113</v>
+        <v>1973.793514465549</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7034,13 +7034,13 @@
         <v>377</v>
       </c>
       <c r="B375">
-        <v>41124</v>
+        <v>40945.6</v>
       </c>
       <c r="C375">
-        <v>39144.54644371387</v>
+        <v>40688.94936971307</v>
       </c>
       <c r="D375">
-        <v>1979.453556286127</v>
+        <v>256.6506302869311</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7048,13 +7048,13 @@
         <v>378</v>
       </c>
       <c r="B376">
-        <v>40945.6</v>
+        <v>41775.1</v>
       </c>
       <c r="C376">
-        <v>40679.91899858166</v>
+        <v>40973.2586457143</v>
       </c>
       <c r="D376">
-        <v>265.6810014183357</v>
+        <v>801.8413542856943</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7062,13 +7062,13 @@
         <v>379</v>
       </c>
       <c r="B377">
-        <v>41775.1</v>
+        <v>42218</v>
       </c>
       <c r="C377">
-        <v>40962.76476593335</v>
+        <v>41537.67307812108</v>
       </c>
       <c r="D377">
-        <v>812.3352340666534</v>
+        <v>680.326921878921</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7076,13 +7076,13 @@
         <v>380</v>
       </c>
       <c r="B378">
-        <v>42218</v>
+        <v>41289</v>
       </c>
       <c r="C378">
-        <v>41527.4822361449</v>
+        <v>42112.82258084825</v>
       </c>
       <c r="D378">
-        <v>690.5177638550958</v>
+        <v>-823.822580848253</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7090,13 +7090,13 @@
         <v>381</v>
       </c>
       <c r="B379">
-        <v>41289</v>
+        <v>41014.3</v>
       </c>
       <c r="C379">
-        <v>42099.8615966802</v>
+        <v>41463.95747340001</v>
       </c>
       <c r="D379">
-        <v>-810.8615966802026</v>
+        <v>-449.6574734000023</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7104,13 +7104,13 @@
         <v>382</v>
       </c>
       <c r="B380">
-        <v>41014.3</v>
+        <v>42377.8</v>
       </c>
       <c r="C380">
-        <v>41454.82113402626</v>
+        <v>41040.0217320411</v>
       </c>
       <c r="D380">
-        <v>-440.5211340262613</v>
+        <v>1337.7782679589</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7118,13 +7118,13 @@
         <v>383</v>
       </c>
       <c r="B381">
-        <v>42377.8</v>
+        <v>42910.3</v>
       </c>
       <c r="C381">
-        <v>41033.73277085509</v>
+        <v>42288.4697440678</v>
       </c>
       <c r="D381">
-        <v>1344.067229144915</v>
+        <v>621.8302559322037</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7132,13 +7132,13 @@
         <v>384</v>
       </c>
       <c r="B382">
-        <v>42910.3</v>
+        <v>43989</v>
       </c>
       <c r="C382">
-        <v>42282.4303380022</v>
+        <v>42721.04416270139</v>
       </c>
       <c r="D382">
-        <v>627.8696619978</v>
+        <v>1267.955837298607</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7146,13 +7146,13 @@
         <v>385</v>
       </c>
       <c r="B383">
-        <v>43989</v>
+        <v>44315.5</v>
       </c>
       <c r="C383">
-        <v>42715.70054082193</v>
+        <v>43776.36254314247</v>
       </c>
       <c r="D383">
-        <v>1273.299459178073</v>
+        <v>539.1374568575266</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7160,13 +7160,13 @@
         <v>386</v>
       </c>
       <c r="B384">
-        <v>44315.5</v>
+        <v>44548</v>
       </c>
       <c r="C384">
-        <v>43770.98814806064</v>
+        <v>44423.2755092396</v>
       </c>
       <c r="D384">
-        <v>544.5118519393582</v>
+        <v>124.7244907604036</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7174,13 +7174,13 @@
         <v>387</v>
       </c>
       <c r="B385">
-        <v>44548</v>
+        <v>46855.2</v>
       </c>
       <c r="C385">
-        <v>44413.59195149485</v>
+        <v>44597.13407739972</v>
       </c>
       <c r="D385">
-        <v>134.4080485051527</v>
+        <v>2258.065922600275</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7188,13 +7188,13 @@
         <v>388</v>
       </c>
       <c r="B386">
-        <v>46855.2</v>
+        <v>47137.9</v>
       </c>
       <c r="C386">
-        <v>44590.27584358626</v>
+        <v>46394.89667783318</v>
       </c>
       <c r="D386">
-        <v>2264.924156413734</v>
+        <v>743.00332216682</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7202,13 +7202,13 @@
         <v>389</v>
       </c>
       <c r="B387">
-        <v>47137.9</v>
+        <v>47440.2</v>
       </c>
       <c r="C387">
-        <v>46389.76300435742</v>
+        <v>47444.15131582993</v>
       </c>
       <c r="D387">
-        <v>748.1369956425842</v>
+        <v>-3.951315829937812</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7216,13 +7216,13 @@
         <v>390</v>
       </c>
       <c r="B388">
-        <v>47440.2</v>
+        <v>47059.3</v>
       </c>
       <c r="C388">
-        <v>47428.64852879346</v>
+        <v>47621.48748796374</v>
       </c>
       <c r="D388">
-        <v>11.55147120653419</v>
+        <v>-562.1874879637326</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7230,13 +7230,13 @@
         <v>391</v>
       </c>
       <c r="B389">
-        <v>47059.3</v>
+        <v>45524.3</v>
       </c>
       <c r="C389">
-        <v>47612.61861000031</v>
+        <v>47236.56388493297</v>
       </c>
       <c r="D389">
-        <v>-553.3186100003077</v>
+        <v>-1712.263884932967</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7244,13 +7244,13 @@
         <v>392</v>
       </c>
       <c r="B390">
-        <v>45524.3</v>
+        <v>46312</v>
       </c>
       <c r="C390">
-        <v>47232.06987360011</v>
+        <v>46038.90878030604</v>
       </c>
       <c r="D390">
-        <v>-1707.769873600104</v>
+        <v>273.0912196939607</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7258,13 +7258,13 @@
         <v>393</v>
       </c>
       <c r="B391">
-        <v>46312</v>
+        <v>45828.6</v>
       </c>
       <c r="C391">
-        <v>46040.13826867602</v>
+        <v>46015.42403081326</v>
       </c>
       <c r="D391">
-        <v>271.8617313239811</v>
+        <v>-186.824030813259</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7272,13 +7272,13 @@
         <v>394</v>
       </c>
       <c r="B392">
-        <v>45828.6</v>
+        <v>46423.4</v>
       </c>
       <c r="C392">
-        <v>46018.36594071575</v>
+        <v>46187.20951229885</v>
       </c>
       <c r="D392">
-        <v>-189.7659407157553</v>
+        <v>236.1904877011475</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7286,13 +7286,13 @@
         <v>395</v>
       </c>
       <c r="B393">
-        <v>46423.4</v>
+        <v>46617.1</v>
       </c>
       <c r="C393">
-        <v>46186.00236552024</v>
+        <v>46521.11396566678</v>
       </c>
       <c r="D393">
-        <v>237.3976344797629</v>
+        <v>95.98603433321841</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7300,13 +7300,13 @@
         <v>396</v>
       </c>
       <c r="B394">
-        <v>46617.1</v>
+        <v>45479.2</v>
       </c>
       <c r="C394">
-        <v>46521.43953804839</v>
+        <v>46387.76592185888</v>
       </c>
       <c r="D394">
-        <v>95.66046195160743</v>
+        <v>-908.5659218588844</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7314,13 +7314,13 @@
         <v>397</v>
       </c>
       <c r="B395">
-        <v>45479.2</v>
+        <v>43179.4</v>
       </c>
       <c r="C395">
-        <v>46390.39621444939</v>
+        <v>45876.29729137848</v>
       </c>
       <c r="D395">
-        <v>-911.1962144493882</v>
+        <v>-2696.897291378475</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7328,13 +7328,13 @@
         <v>398</v>
       </c>
       <c r="B396">
-        <v>43179.4</v>
+        <v>43469.8</v>
       </c>
       <c r="C396">
-        <v>45876.48338774782</v>
+        <v>43708.47281554142</v>
       </c>
       <c r="D396">
-        <v>-2697.083387747822</v>
+        <v>-238.6728155414166</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7342,13 +7342,13 @@
         <v>399</v>
       </c>
       <c r="B397">
-        <v>43469.8</v>
+        <v>42282.6</v>
       </c>
       <c r="C397">
-        <v>43711.88446330051</v>
+        <v>43400.12275760759</v>
       </c>
       <c r="D397">
-        <v>-242.0844633005036</v>
+        <v>-1117.522757607592</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7356,13 +7356,13 @@
         <v>400</v>
       </c>
       <c r="B398">
-        <v>42282.6</v>
+        <v>42764</v>
       </c>
       <c r="C398">
-        <v>43400.0076645704</v>
+        <v>42597.77597100164</v>
       </c>
       <c r="D398">
-        <v>-1117.407664570397</v>
+        <v>166.2240289983602</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7370,13 +7370,13 @@
         <v>401</v>
       </c>
       <c r="B399">
-        <v>42764</v>
+        <v>42160</v>
       </c>
       <c r="C399">
-        <v>42597.70149185542</v>
+        <v>42580.21432026564</v>
       </c>
       <c r="D399">
-        <v>166.2985081445804</v>
+        <v>-420.2143202656443</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7384,13 +7384,13 @@
         <v>402</v>
       </c>
       <c r="B400">
-        <v>42160</v>
+        <v>39534.6</v>
       </c>
       <c r="C400">
-        <v>42578.09465226564</v>
+        <v>42296.43996691164</v>
       </c>
       <c r="D400">
-        <v>-418.094652265645</v>
+        <v>-2761.839966911641</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7398,13 +7398,13 @@
         <v>403</v>
       </c>
       <c r="B401">
-        <v>39534.6</v>
+        <v>40078.7</v>
       </c>
       <c r="C401">
-        <v>42294.23695995063</v>
+        <v>40010.60393189975</v>
       </c>
       <c r="D401">
-        <v>-2759.636959950636</v>
+        <v>68.09606810024707</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7412,13 +7412,13 @@
         <v>404</v>
       </c>
       <c r="B402">
-        <v>40078.7</v>
+        <v>41150</v>
       </c>
       <c r="C402">
-        <v>40013.62047160523</v>
+        <v>39921.98921307961</v>
       </c>
       <c r="D402">
-        <v>65.07952839476638</v>
+        <v>1228.010786920393</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7426,13 +7426,13 @@
         <v>405</v>
       </c>
       <c r="B403">
-        <v>41150</v>
+        <v>39954.9</v>
       </c>
       <c r="C403">
-        <v>39917.98024623517</v>
+        <v>40781.5424625124</v>
       </c>
       <c r="D403">
-        <v>1232.019753764835</v>
+        <v>-826.6424625123982</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7440,13 +7440,13 @@
         <v>406</v>
       </c>
       <c r="B404">
-        <v>39954.9</v>
+        <v>40569.9</v>
       </c>
       <c r="C404">
-        <v>40773.81525425929</v>
+        <v>40110.75062734859</v>
       </c>
       <c r="D404">
-        <v>-818.9152542592856</v>
+        <v>459.1493726514091</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7454,13 +7454,13 @@
         <v>407</v>
       </c>
       <c r="B405">
-        <v>40569.9</v>
+        <v>40381</v>
       </c>
       <c r="C405">
-        <v>40102.19492857043</v>
+        <v>40360.07168987895</v>
       </c>
       <c r="D405">
-        <v>467.7050714295692</v>
+        <v>20.9283101210458</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7468,13 +7468,13 @@
         <v>408</v>
       </c>
       <c r="B406">
-        <v>40381</v>
+        <v>39681.2</v>
       </c>
       <c r="C406">
-        <v>40347.93091884583</v>
+        <v>40270.96395135172</v>
       </c>
       <c r="D406">
-        <v>33.06908115417173</v>
+        <v>-589.7639513517206</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7482,13 +7482,13 @@
         <v>409</v>
       </c>
       <c r="B407">
-        <v>39681.2</v>
+        <v>40811.3</v>
       </c>
       <c r="C407">
-        <v>40258.66805344088</v>
+        <v>39767.02519027285</v>
       </c>
       <c r="D407">
-        <v>-577.4680534408835</v>
+        <v>1044.274809727154</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7496,13 +7496,13 @@
         <v>410</v>
       </c>
       <c r="B408">
-        <v>40811.3</v>
+        <v>41506.2</v>
       </c>
       <c r="C408">
-        <v>39755.87647973334</v>
+        <v>40251.0699691261</v>
       </c>
       <c r="D408">
-        <v>1055.42352026666</v>
+        <v>1255.130030873901</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7510,13 +7510,13 @@
         <v>411</v>
       </c>
       <c r="B409">
-        <v>41506.2</v>
+        <v>41369.9</v>
       </c>
       <c r="C409">
-        <v>40241.44483636176</v>
+        <v>41300.3035716407</v>
       </c>
       <c r="D409">
-        <v>1264.755163638241</v>
+        <v>69.59642835929844</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7524,13 +7524,13 @@
         <v>412</v>
       </c>
       <c r="B410">
-        <v>41369.9</v>
+        <v>40484.1</v>
       </c>
       <c r="C410">
-        <v>41284.32499969557</v>
+        <v>41397.43884456366</v>
       </c>
       <c r="D410">
-        <v>85.57500030443043</v>
+        <v>-913.3388445636592</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7538,13 +7538,13 @@
         <v>413</v>
       </c>
       <c r="B411">
-        <v>40484.1</v>
+        <v>39715.9</v>
       </c>
       <c r="C411">
-        <v>41383.03015140143</v>
+        <v>40809.83125992359</v>
       </c>
       <c r="D411">
-        <v>-898.9301514014296</v>
+        <v>-1093.931259923593</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7552,13 +7552,13 @@
         <v>414</v>
       </c>
       <c r="B412">
-        <v>39715.9</v>
+        <v>39435.6</v>
       </c>
       <c r="C412">
-        <v>40800.19026196263</v>
+        <v>39764.07449871856</v>
       </c>
       <c r="D412">
-        <v>-1084.290261962633</v>
+        <v>-328.4744987185622</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7566,13 +7566,13 @@
         <v>415</v>
       </c>
       <c r="B413">
-        <v>39435.6</v>
+        <v>39467.9</v>
       </c>
       <c r="C413">
-        <v>39756.22436249979</v>
+        <v>39463.90710408376</v>
       </c>
       <c r="D413">
-        <v>-320.6243624997951</v>
+        <v>3.99289591624256</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7580,13 +7580,13 @@
         <v>416</v>
       </c>
       <c r="B414">
-        <v>39467.9</v>
+        <v>40438.5</v>
       </c>
       <c r="C414">
-        <v>39456.02810146516</v>
+        <v>39401.5408630554</v>
       </c>
       <c r="D414">
-        <v>11.87189853484597</v>
+        <v>1036.959136944599</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7594,13 +7594,13 @@
         <v>417</v>
       </c>
       <c r="B415">
-        <v>40438.5</v>
+        <v>38121.7</v>
       </c>
       <c r="C415">
-        <v>39395.28735184945</v>
+        <v>39897.10232983333</v>
       </c>
       <c r="D415">
-        <v>1043.212648150555</v>
+        <v>-1775.402329833334</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7608,13 +7608,13 @@
         <v>418</v>
       </c>
       <c r="B416">
-        <v>38121.7</v>
+        <v>39249.9</v>
       </c>
       <c r="C416">
-        <v>39894.41601890426</v>
+        <v>38532.32666997986</v>
       </c>
       <c r="D416">
-        <v>-1772.716018904262</v>
+        <v>717.5733300201464</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7622,13 +7622,13 @@
         <v>419</v>
       </c>
       <c r="B417">
-        <v>39249.9</v>
+        <v>39752.8</v>
       </c>
       <c r="C417">
-        <v>38533.43873480514</v>
+        <v>38906.67612883101</v>
       </c>
       <c r="D417">
-        <v>716.4612651948628</v>
+        <v>846.1238711689948</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7636,13 +7636,13 @@
         <v>420</v>
       </c>
       <c r="B418">
-        <v>39752.8</v>
+        <v>38599.5</v>
       </c>
       <c r="C418">
-        <v>38903.77468617437</v>
+        <v>39629.31902680521</v>
       </c>
       <c r="D418">
-        <v>849.0253138256376</v>
+        <v>-1029.819026805213</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7650,13 +7650,13 @@
         <v>421</v>
       </c>
       <c r="B419">
-        <v>38599.5</v>
+        <v>37660.8</v>
       </c>
       <c r="C419">
-        <v>39623.32396471834</v>
+        <v>38726.76526378254</v>
       </c>
       <c r="D419">
-        <v>-1023.823964718336</v>
+        <v>-1065.965263782535</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7664,13 +7664,13 @@
         <v>422</v>
       </c>
       <c r="B420">
-        <v>37660.8</v>
+        <v>38474.1</v>
       </c>
       <c r="C420">
-        <v>38723.60088794619</v>
+        <v>37823.79305162675</v>
       </c>
       <c r="D420">
-        <v>-1062.800887946185</v>
+        <v>650.306948373247</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7678,13 +7678,13 @@
         <v>423</v>
       </c>
       <c r="B421">
-        <v>38474.1</v>
+        <v>38499.9</v>
       </c>
       <c r="C421">
-        <v>37820.52012132191</v>
+        <v>38189.67692162695</v>
       </c>
       <c r="D421">
-        <v>653.579878678087</v>
+        <v>310.2230783730556</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7692,13 +7692,13 @@
         <v>424</v>
       </c>
       <c r="B422">
-        <v>38499.9</v>
+        <v>37727.9</v>
       </c>
       <c r="C422">
-        <v>38185.17315680716</v>
+        <v>38468.59574131078</v>
       </c>
       <c r="D422">
-        <v>314.726843192846</v>
+        <v>-740.6957413107812</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7706,13 +7706,13 @@
         <v>425</v>
       </c>
       <c r="B423">
-        <v>37727.9</v>
+        <v>39682.8</v>
       </c>
       <c r="C423">
-        <v>38462.40395883501</v>
+        <v>37815.126019056</v>
       </c>
       <c r="D423">
-        <v>-734.5039588350119</v>
+        <v>1867.673980944004</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7720,13 +7720,13 @@
         <v>426</v>
       </c>
       <c r="B424">
-        <v>39682.8</v>
+        <v>36542.6</v>
       </c>
       <c r="C424">
-        <v>37810.63422363131</v>
+        <v>39220.3412827179</v>
       </c>
       <c r="D424">
-        <v>1872.165776368696</v>
+        <v>-2677.7412827179</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7734,13 +7734,13 @@
         <v>427</v>
       </c>
       <c r="B425">
-        <v>36542.6</v>
+        <v>36017.4</v>
       </c>
       <c r="C425">
-        <v>39213.42734963047</v>
+        <v>36909.07563093067</v>
       </c>
       <c r="D425">
-        <v>-2670.827349630468</v>
+        <v>-891.6756309306729</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7748,13 +7748,13 @@
         <v>428</v>
       </c>
       <c r="B426">
-        <v>36017.4</v>
+        <v>35463</v>
       </c>
       <c r="C426">
-        <v>36913.87049843515</v>
+        <v>35894.53127297603</v>
       </c>
       <c r="D426">
-        <v>-896.4704984351483</v>
+        <v>-431.5312729760335</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7762,13 +7762,13 @@
         <v>429</v>
       </c>
       <c r="B427">
-        <v>35463</v>
+        <v>34024.2</v>
       </c>
       <c r="C427">
-        <v>35893.24950912145</v>
+        <v>35334.94845430764</v>
       </c>
       <c r="D427">
-        <v>-430.2495091214514</v>
+        <v>-1310.748454307643</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7776,13 +7776,13 @@
         <v>430</v>
       </c>
       <c r="B428">
-        <v>34024.2</v>
+        <v>30075.5</v>
       </c>
       <c r="C428">
-        <v>35334.11991631849</v>
+        <v>34156.49951368758</v>
       </c>
       <c r="D428">
-        <v>-1309.919916318497</v>
+        <v>-4080.99951368758</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7790,13 +7790,13 @@
         <v>431</v>
       </c>
       <c r="B429">
-        <v>30075.5</v>
+        <v>30999.9</v>
       </c>
       <c r="C429">
-        <v>34156.85895149798</v>
+        <v>30835.59075677842</v>
       </c>
       <c r="D429">
-        <v>-4081.358951497983</v>
+        <v>164.3092432215853</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7804,13 +7804,13 @@
         <v>432</v>
       </c>
       <c r="B430">
-        <v>30999.9</v>
+        <v>28994.1</v>
       </c>
       <c r="C430">
-        <v>30843.41328782558</v>
+        <v>30924.05215544281</v>
       </c>
       <c r="D430">
-        <v>156.4867121744246</v>
+        <v>-1929.952155442814</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7818,13 +7818,13 @@
         <v>433</v>
       </c>
       <c r="B431">
-        <v>28994.1</v>
+        <v>28943.4</v>
       </c>
       <c r="C431">
-        <v>30924.44006349701</v>
+        <v>29227.15807205944</v>
       </c>
       <c r="D431">
-        <v>-1930.340063497009</v>
+        <v>-283.7580720594342</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7832,13 +7832,13 @@
         <v>434</v>
       </c>
       <c r="B432">
-        <v>28943.4</v>
+        <v>29222.6</v>
       </c>
       <c r="C432">
-        <v>29234.19819080782</v>
+        <v>28178.8473318685</v>
       </c>
       <c r="D432">
-        <v>-290.7981908078145</v>
+        <v>1043.752668131499</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7846,13 +7846,13 @@
         <v>435</v>
       </c>
       <c r="B433">
-        <v>29222.6</v>
+        <v>30048.2</v>
       </c>
       <c r="C433">
-        <v>28191.12467320537</v>
+        <v>29309.54954290029</v>
       </c>
       <c r="D433">
-        <v>1031.475326794629</v>
+        <v>738.6504570997095</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7860,13 +7860,13 @@
         <v>436</v>
       </c>
       <c r="B434">
-        <v>30048.2</v>
+        <v>31296.9</v>
       </c>
       <c r="C434">
-        <v>29306.50105578746</v>
+        <v>29599.52960915923</v>
       </c>
       <c r="D434">
-        <v>741.6989442125378</v>
+        <v>1697.37039084077</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7874,13 +7874,13 @@
         <v>437</v>
       </c>
       <c r="B435">
-        <v>31296.9</v>
+        <v>29826.1</v>
       </c>
       <c r="C435">
-        <v>29596.24537558194</v>
+        <v>30741.3112100772</v>
       </c>
       <c r="D435">
-        <v>1700.654624418057</v>
+        <v>-915.2112100771992</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7888,13 +7888,13 @@
         <v>438</v>
       </c>
       <c r="B436">
-        <v>29826.1</v>
+        <v>30408.3</v>
       </c>
       <c r="C436">
-        <v>30735.03011922156</v>
+        <v>29852.04898353598</v>
       </c>
       <c r="D436">
-        <v>-908.9301192215571</v>
+        <v>556.2510164640225</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7902,13 +7902,13 @@
         <v>439</v>
       </c>
       <c r="B437">
-        <v>30408.3</v>
+        <v>28664.3</v>
       </c>
       <c r="C437">
-        <v>29844.24356802582</v>
+        <v>30119.41013672433</v>
       </c>
       <c r="D437">
-        <v>564.0564319741788</v>
+        <v>-1455.110136724328</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7916,13 +7916,13 @@
         <v>440</v>
       </c>
       <c r="B438">
-        <v>28664.3</v>
+        <v>30280.7</v>
       </c>
       <c r="C438">
-        <v>30106.84901450571</v>
+        <v>28948.4059632865</v>
       </c>
       <c r="D438">
-        <v>-1442.549014505716</v>
+        <v>1332.294036713505</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7930,13 +7930,13 @@
         <v>441</v>
       </c>
       <c r="B439">
-        <v>30280.7</v>
+        <v>29167.5</v>
       </c>
       <c r="C439">
-        <v>28939.15755618383</v>
+        <v>29811.79467985866</v>
       </c>
       <c r="D439">
-        <v>1341.542443816175</v>
+        <v>-644.2946798586636</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -7944,13 +7944,13 @@
         <v>442</v>
       </c>
       <c r="B440">
-        <v>29167.5</v>
+        <v>29403.5</v>
       </c>
       <c r="C440">
-        <v>29799.89793515901</v>
+        <v>29260.33081531482</v>
       </c>
       <c r="D440">
-        <v>-632.3979351590096</v>
+        <v>143.1691846851754</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7958,13 +7958,13 @@
         <v>443</v>
       </c>
       <c r="B441">
-        <v>29403.5</v>
+        <v>30268</v>
       </c>
       <c r="C441">
-        <v>29252.42805232688</v>
+        <v>29204.38808606959</v>
       </c>
       <c r="D441">
-        <v>151.0719476731174</v>
+        <v>1063.611913930406</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -7972,13 +7972,13 @@
         <v>444</v>
       </c>
       <c r="B442">
-        <v>30268</v>
+        <v>29070</v>
       </c>
       <c r="C442">
-        <v>29196.1408584936</v>
+        <v>29942.07802661628</v>
       </c>
       <c r="D442">
-        <v>1071.8591415064</v>
+        <v>-872.0780266162765</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7986,13 +7986,13 @@
         <v>445</v>
       </c>
       <c r="B443">
-        <v>29070</v>
+        <v>29631.8</v>
       </c>
       <c r="C443">
-        <v>29935.794258273</v>
+        <v>29242.43925106406</v>
       </c>
       <c r="D443">
-        <v>-865.7942582730029</v>
+        <v>389.3607489359383</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8000,13 +8000,13 @@
         <v>446</v>
       </c>
       <c r="B444">
-        <v>29631.8</v>
+        <v>29520.3</v>
       </c>
       <c r="C444">
-        <v>29238.48503993735</v>
+        <v>29330.1677822569</v>
       </c>
       <c r="D444">
-        <v>393.3149600626457</v>
+        <v>190.1322177430957</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8014,13 +8014,13 @@
         <v>447</v>
       </c>
       <c r="B445">
-        <v>29520.3</v>
+        <v>29186.9</v>
       </c>
       <c r="C445">
-        <v>29326.16084278337</v>
+        <v>29531.51476106487</v>
       </c>
       <c r="D445">
-        <v>194.1391572166285</v>
+        <v>-344.6147610648695</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8028,13 +8028,13 @@
         <v>448</v>
       </c>
       <c r="B446">
-        <v>29186.9</v>
+        <v>28580</v>
       </c>
       <c r="C446">
-        <v>29525.45343373028</v>
+        <v>28841.70976020089</v>
       </c>
       <c r="D446">
-        <v>-338.5534337302743</v>
+        <v>-261.7097602008871</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8042,13 +8042,13 @@
         <v>449</v>
       </c>
       <c r="B447">
-        <v>28580</v>
+        <v>29020</v>
       </c>
       <c r="C447">
-        <v>28843.54205155263</v>
+        <v>28602.70646502993</v>
       </c>
       <c r="D447">
-        <v>-263.5420515526348</v>
+        <v>417.2935349700711</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8056,13 +8056,13 @@
         <v>450</v>
       </c>
       <c r="B448">
-        <v>29020</v>
+        <v>29450.4</v>
       </c>
       <c r="C448">
-        <v>28600.88427306632</v>
+        <v>28862.16585087185</v>
       </c>
       <c r="D448">
-        <v>419.1157269336836</v>
+        <v>588.2341491281477</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8070,13 +8070,13 @@
         <v>451</v>
       </c>
       <c r="B449">
-        <v>29450.4</v>
+        <v>31711.7</v>
       </c>
       <c r="C449">
-        <v>28860.51203256393</v>
+        <v>29247.1273697586</v>
       </c>
       <c r="D449">
-        <v>589.8879674360724</v>
+        <v>2464.5726302414</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8084,13 +8084,13 @@
         <v>452</v>
       </c>
       <c r="B450">
-        <v>31711.7</v>
+        <v>31780.9</v>
       </c>
       <c r="C450">
-        <v>29245.60386976482</v>
+        <v>31188.74724043708</v>
       </c>
       <c r="D450">
-        <v>2466.096130235182</v>
+        <v>592.1527595629232</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8098,13 +8098,13 @@
         <v>453</v>
       </c>
       <c r="B451">
-        <v>31780.9</v>
+        <v>29790</v>
       </c>
       <c r="C451">
-        <v>31185.73136915924</v>
+        <v>31768.76847651359</v>
       </c>
       <c r="D451">
-        <v>595.1686308407589</v>
+        <v>-1978.768476513593</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8112,13 +8112,13 @@
         <v>454</v>
       </c>
       <c r="B452">
-        <v>29790</v>
+        <v>30427</v>
       </c>
       <c r="C452">
-        <v>31760.96755321232</v>
+        <v>30120.74186978381</v>
       </c>
       <c r="D452">
-        <v>-1970.967553212322</v>
+        <v>306.2581302161852</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8126,13 +8126,13 @@
         <v>455</v>
       </c>
       <c r="B453">
-        <v>30427</v>
+        <v>29676.4</v>
       </c>
       <c r="C453">
-        <v>30121.13481758382</v>
+        <v>30408.87107860122</v>
       </c>
       <c r="D453">
-        <v>305.8651824161789</v>
+        <v>-732.471078601222</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8140,13 +8140,13 @@
         <v>456</v>
       </c>
       <c r="B454">
-        <v>29676.4</v>
+        <v>29850</v>
       </c>
       <c r="C454">
-        <v>30406.08352822167</v>
+        <v>29751.39050348844</v>
       </c>
       <c r="D454">
-        <v>-729.6835282216707</v>
+        <v>98.60949651156261</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8154,13 +8154,13 @@
         <v>457</v>
       </c>
       <c r="B455">
-        <v>29850</v>
+        <v>29907.6</v>
       </c>
       <c r="C455">
-        <v>29750.41276364049</v>
+        <v>29737.17146239252</v>
       </c>
       <c r="D455">
-        <v>99.58723635951173</v>
+        <v>170.4285376074768</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8168,13 +8168,13 @@
         <v>458</v>
       </c>
       <c r="B456">
-        <v>29907.6</v>
+        <v>31356.3</v>
       </c>
       <c r="C456">
-        <v>29735.22390062547</v>
+        <v>29827.73638668461</v>
       </c>
       <c r="D456">
-        <v>172.3760993745309</v>
+        <v>1528.563613315386</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8182,13 +8182,13 @@
         <v>459</v>
       </c>
       <c r="B457">
-        <v>31356.3</v>
+        <v>31098.6</v>
       </c>
       <c r="C457">
-        <v>29826.57486965787</v>
+        <v>31045.1699726667</v>
       </c>
       <c r="D457">
-        <v>1529.725130342133</v>
+        <v>53.43002733329922</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8196,13 +8196,13 @@
         <v>460</v>
       </c>
       <c r="B458">
-        <v>31098.6</v>
+        <v>30190.8</v>
       </c>
       <c r="C458">
-        <v>31044.11892556718</v>
+        <v>30713.53960038957</v>
       </c>
       <c r="D458">
-        <v>54.48107443282061</v>
+        <v>-522.7396003895738</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8210,13 +8210,13 @@
         <v>461</v>
       </c>
       <c r="B459">
-        <v>30190.8</v>
+        <v>30075.3</v>
       </c>
       <c r="C459">
-        <v>30717.34081527255</v>
+        <v>30326.66027704279</v>
       </c>
       <c r="D459">
-        <v>-526.5408152725468</v>
+        <v>-251.360277042786</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8224,13 +8224,13 @@
         <v>462</v>
       </c>
       <c r="B460">
-        <v>30075.3</v>
+        <v>29054.9</v>
       </c>
       <c r="C460">
-        <v>30326.02031938019</v>
+        <v>30129.49935839477</v>
       </c>
       <c r="D460">
-        <v>-250.720319380187</v>
+        <v>-1074.599358394764</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8238,13 +8238,13 @@
         <v>463</v>
       </c>
       <c r="B461">
-        <v>29054.9</v>
+        <v>28380.2</v>
       </c>
       <c r="C461">
-        <v>30126.66808020412</v>
+        <v>29248.96807991904</v>
       </c>
       <c r="D461">
-        <v>-1071.768080204121</v>
+        <v>-868.7680799190384</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8252,13 +8252,13 @@
         <v>464</v>
       </c>
       <c r="B462">
-        <v>28380.2</v>
+        <v>26569.6</v>
       </c>
       <c r="C462">
-        <v>29248.93814680133</v>
+        <v>28493.35221316299</v>
       </c>
       <c r="D462">
-        <v>-868.73814680133</v>
+        <v>-1923.752213162988</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8266,13 +8266,13 @@
         <v>465</v>
       </c>
       <c r="B463">
-        <v>26569.6</v>
+        <v>22460.1</v>
       </c>
       <c r="C463">
-        <v>28494.30703978396</v>
+        <v>26911.64582878348</v>
       </c>
       <c r="D463">
-        <v>-1924.707039783963</v>
+        <v>-4451.545828783484</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8280,13 +8280,13 @@
         <v>466</v>
       </c>
       <c r="B464">
-        <v>22460.1</v>
+        <v>22111</v>
       </c>
       <c r="C464">
-        <v>26916.51999042742</v>
+        <v>23226.03332362702</v>
       </c>
       <c r="D464">
-        <v>-4456.419990427421</v>
+        <v>-1115.033323627023</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8294,13 +8294,13 @@
         <v>467</v>
       </c>
       <c r="B465">
-        <v>22111</v>
+        <v>22559.6</v>
       </c>
       <c r="C465">
-        <v>23238.35938819787</v>
+        <v>21963.02619736278</v>
       </c>
       <c r="D465">
-        <v>-1127.359388197874</v>
+        <v>596.5738026372201</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8308,13 +8308,13 @@
         <v>468</v>
       </c>
       <c r="B466">
-        <v>22559.6</v>
+        <v>20366.3</v>
       </c>
       <c r="C466">
-        <v>21973.98535759613</v>
+        <v>21928.49309143728</v>
       </c>
       <c r="D466">
-        <v>585.614642403867</v>
+        <v>-1562.193091437282</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8322,13 +8322,13 @@
         <v>469</v>
       </c>
       <c r="B467">
-        <v>20366.3</v>
+        <v>20432.9</v>
       </c>
       <c r="C467">
-        <v>21938.33412715439</v>
+        <v>20752.37335183036</v>
       </c>
       <c r="D467">
-        <v>-1572.034127154391</v>
+        <v>-319.4733518303619</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8336,13 +8336,13 @@
         <v>470</v>
       </c>
       <c r="B468">
-        <v>20432.9</v>
+        <v>18950</v>
       </c>
       <c r="C468">
-        <v>20761.50226271468</v>
+        <v>20443.25737215429</v>
       </c>
       <c r="D468">
-        <v>-328.6022627146813</v>
+        <v>-1493.257372154287</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8350,13 +8350,13 @@
         <v>471</v>
       </c>
       <c r="B469">
-        <v>18950</v>
+        <v>20555.5</v>
       </c>
       <c r="C469">
-        <v>20444.93424435108</v>
+        <v>18891.83642998368</v>
       </c>
       <c r="D469">
-        <v>-1494.934244351083</v>
+        <v>1663.663570016317</v>
       </c>
     </row>
   </sheetData>

--- a/data/df_compare.xlsx
+++ b/data/df_compare.xlsx
@@ -28,9 +28,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>2021-03-09</t>
-  </si>
-  <si>
     <t>2021-03-10</t>
   </si>
   <si>
@@ -1430,6 +1427,9 @@
   </si>
   <si>
     <t>2022-06-19</t>
+  </si>
+  <si>
+    <t>2022-06-20</t>
   </si>
 </sst>
 </file>
@@ -1812,13 +1812,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>54929</v>
+        <v>55851</v>
       </c>
       <c r="C2">
-        <v>51793.13713892827</v>
+        <v>54400.01449791622</v>
       </c>
       <c r="D2">
-        <v>3135.862861071728</v>
+        <v>1450.985502083779</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1826,13 +1826,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>55851</v>
+        <v>57809.9</v>
       </c>
       <c r="C3">
-        <v>54375.8669684897</v>
+        <v>55755.6090628008</v>
       </c>
       <c r="D3">
-        <v>1475.133031510297</v>
+        <v>2054.290937199199</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1840,13 +1840,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>57809.9</v>
+        <v>57234</v>
       </c>
       <c r="C4">
-        <v>55729.30898857275</v>
+        <v>57312.01557514768</v>
       </c>
       <c r="D4">
-        <v>2080.591011427248</v>
+        <v>-78.01557514767774</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1854,13 +1854,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>57234</v>
+        <v>61174.9</v>
       </c>
       <c r="C5">
-        <v>57283.97317140551</v>
+        <v>57176.96752215419</v>
       </c>
       <c r="D5">
-        <v>-49.97317140550877</v>
+        <v>3997.93247784581</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1868,13 +1868,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>61174.9</v>
+        <v>59001.1</v>
       </c>
       <c r="C6">
-        <v>57148.83370539262</v>
+        <v>60401.41207927318</v>
       </c>
       <c r="D6">
-        <v>4026.066294607379</v>
+        <v>-1400.312079273179</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1882,13 +1882,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>59001.1</v>
+        <v>55600</v>
       </c>
       <c r="C7">
-        <v>60375.09261687229</v>
+        <v>59909.18979715132</v>
       </c>
       <c r="D7">
-        <v>-1373.992616872296</v>
+        <v>-4309.189797151317</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1896,13 +1896,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>55600</v>
+        <v>56891.1</v>
       </c>
       <c r="C8">
-        <v>59891.3721138629</v>
+        <v>56727.84653788326</v>
       </c>
       <c r="D8">
-        <v>-4291.372113862904</v>
+        <v>163.2534621167433</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1910,13 +1910,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>56891.1</v>
+        <v>58933</v>
       </c>
       <c r="C9">
-        <v>56717.26626209544</v>
+        <v>56086.47764878075</v>
       </c>
       <c r="D9">
-        <v>173.8337379045624</v>
+        <v>2846.522351219253</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1924,13 +1924,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>58933</v>
+        <v>57640.9</v>
       </c>
       <c r="C10">
-        <v>56072.35259074903</v>
+        <v>57937.48713436779</v>
       </c>
       <c r="D10">
-        <v>2860.647409250974</v>
+        <v>-296.5871343677863</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1938,13 +1938,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>57640.9</v>
+        <v>58101.8</v>
       </c>
       <c r="C11">
-        <v>57920.62155299138</v>
+        <v>58246.1074295647</v>
       </c>
       <c r="D11">
-        <v>-279.7215529913738</v>
+        <v>-144.307429564702</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1952,13 +1952,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>58101.8</v>
+        <v>58091.6</v>
       </c>
       <c r="C12">
-        <v>58240.4795706898</v>
+        <v>58159.04601728262</v>
       </c>
       <c r="D12">
-        <v>-138.6795706897974</v>
+        <v>-67.44601728262205</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1966,13 +1966,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>58091.6</v>
+        <v>57378.4</v>
       </c>
       <c r="C13">
-        <v>58152.77454505126</v>
+        <v>58523.83551893954</v>
       </c>
       <c r="D13">
-        <v>-61.17454505126079</v>
+        <v>-1145.435518939543</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1980,13 +1980,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>57378.4</v>
+        <v>54095.1</v>
       </c>
       <c r="C14">
-        <v>58520.48855272667</v>
+        <v>57415.66088749847</v>
       </c>
       <c r="D14">
-        <v>-1142.088552726673</v>
+        <v>-3320.560887498475</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1994,13 +1994,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>54095.1</v>
+        <v>54351.3</v>
       </c>
       <c r="C15">
-        <v>57405.57198554471</v>
+        <v>55101.7543615684</v>
       </c>
       <c r="D15">
-        <v>-3310.471985544711</v>
+        <v>-750.4543615684015</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2008,13 +2008,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>54351.3</v>
+        <v>52293.8</v>
       </c>
       <c r="C16">
-        <v>55095.8319062603</v>
+        <v>54448.86763311789</v>
       </c>
       <c r="D16">
-        <v>-744.5319062602939</v>
+        <v>-2155.067633117891</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2022,13 +2022,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>52293.8</v>
+        <v>51314.9</v>
       </c>
       <c r="C17">
-        <v>54443.53770909285</v>
+        <v>53271.25451301892</v>
       </c>
       <c r="D17">
-        <v>-2149.737709092849</v>
+        <v>-1956.354513018916</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2036,13 +2036,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>51314.9</v>
+        <v>55062.2</v>
       </c>
       <c r="C18">
-        <v>53268.79463887347</v>
+        <v>51570.94593935318</v>
       </c>
       <c r="D18">
-        <v>-1953.894638873469</v>
+        <v>3491.254060646817</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2050,13 +2050,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>55062.2</v>
+        <v>55852.4</v>
       </c>
       <c r="C19">
-        <v>51566.61686549337</v>
+        <v>54189.36237842614</v>
       </c>
       <c r="D19">
-        <v>3495.583134506625</v>
+        <v>1663.037621573865</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2064,13 +2064,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>55852.4</v>
+        <v>55782</v>
       </c>
       <c r="C20">
-        <v>54177.51042562276</v>
+        <v>55654.43532015806</v>
       </c>
       <c r="D20">
-        <v>1674.889574377237</v>
+        <v>127.5646798419402</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2078,13 +2078,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>55782</v>
+        <v>57624.2</v>
       </c>
       <c r="C21">
-        <v>55636.38590643466</v>
+        <v>55764.29524017568</v>
       </c>
       <c r="D21">
-        <v>145.6140935653384</v>
+        <v>1859.904759824312</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2092,13 +2092,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>57624.2</v>
+        <v>58781</v>
       </c>
       <c r="C22">
-        <v>55743.89890472979</v>
+        <v>57296.6123809183</v>
       </c>
       <c r="D22">
-        <v>1880.301095270202</v>
+        <v>1484.387619081703</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2106,13 +2106,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>58781</v>
+        <v>58786.2</v>
       </c>
       <c r="C23">
-        <v>57271.64630841573</v>
+        <v>58624.72716227905</v>
       </c>
       <c r="D23">
-        <v>1509.353691584271</v>
+        <v>161.4728377209467</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2120,13 +2120,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>58786.2</v>
+        <v>58732.9</v>
       </c>
       <c r="C24">
-        <v>58596.82472307105</v>
+        <v>58692.50394335858</v>
       </c>
       <c r="D24">
-        <v>189.3752769289422</v>
+        <v>40.39605664141709</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2134,13 +2134,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>58732.9</v>
+        <v>59020.7</v>
       </c>
       <c r="C25">
-        <v>58661.36891144975</v>
+        <v>58846.42705707247</v>
       </c>
       <c r="D25">
-        <v>71.53108855024766</v>
+        <v>174.2729429275278</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2148,13 +2148,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>59020.7</v>
+        <v>57099</v>
       </c>
       <c r="C26">
-        <v>58820.11354522458</v>
+        <v>59272.98674961719</v>
       </c>
       <c r="D26">
-        <v>200.5864547754172</v>
+        <v>-2173.986749617186</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2162,13 +2162,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>57099</v>
+        <v>58195</v>
       </c>
       <c r="C27">
-        <v>59252.19475991269</v>
+        <v>57788.0832350234</v>
       </c>
       <c r="D27">
-        <v>-2153.194759912687</v>
+        <v>406.916764976595</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2176,13 +2176,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>58195</v>
+        <v>59120</v>
       </c>
       <c r="C28">
-        <v>57771.33959355731</v>
+        <v>57952.32486204839</v>
       </c>
       <c r="D28">
-        <v>423.6604064426938</v>
+        <v>1167.675137951614</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2190,13 +2190,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>59120</v>
+        <v>58017.1</v>
       </c>
       <c r="C29">
-        <v>57935.80444280124</v>
+        <v>58728.09186095923</v>
       </c>
       <c r="D29">
-        <v>1184.195557198764</v>
+        <v>-710.9918609592278</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2204,13 +2204,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>58017.1</v>
+        <v>55928.5</v>
       </c>
       <c r="C30">
-        <v>58707.87199793202</v>
+        <v>58291.69864817724</v>
       </c>
       <c r="D30">
-        <v>-690.7719979320173</v>
+        <v>-2363.19864817724</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2218,13 +2218,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>55928.5</v>
+        <v>58036.9</v>
       </c>
       <c r="C31">
-        <v>58276.09922123454</v>
+        <v>56516.80202140098</v>
       </c>
       <c r="D31">
-        <v>-2347.599221234545</v>
+        <v>1520.09797859902</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2232,13 +2232,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>58036.9</v>
+        <v>58110</v>
       </c>
       <c r="C32">
-        <v>56505.25629910624</v>
+        <v>57579.9055891739</v>
       </c>
       <c r="D32">
-        <v>1531.643700893757</v>
+        <v>530.0944108260956</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2246,13 +2246,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>58110</v>
+        <v>59775.6</v>
       </c>
       <c r="C33">
-        <v>57567.15602658103</v>
+        <v>58232.90503514888</v>
       </c>
       <c r="D33">
-        <v>542.8439734189742</v>
+        <v>1542.694964851122</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2260,13 +2260,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>59775.6</v>
+        <v>59956</v>
       </c>
       <c r="C34">
-        <v>58218.86885674183</v>
+        <v>59771.47986090303</v>
       </c>
       <c r="D34">
-        <v>1556.73114325817</v>
+        <v>184.5201390969669</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2274,13 +2274,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>59956</v>
+        <v>59823.7</v>
       </c>
       <c r="C35">
-        <v>59755.92744846783</v>
+        <v>60052.81476925297</v>
       </c>
       <c r="D35">
-        <v>200.0725515321683</v>
+        <v>-229.1147692529703</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2288,13 +2288,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>59823.7</v>
+        <v>63587.2</v>
       </c>
       <c r="C36">
-        <v>60033.59463386408</v>
+        <v>60163.67298780554</v>
       </c>
       <c r="D36">
-        <v>-209.8946338640817</v>
+        <v>3423.527012194456</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2302,13 +2302,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>63587.2</v>
+        <v>62969</v>
       </c>
       <c r="C37">
-        <v>60147.13801428753</v>
+        <v>62920.59531186845</v>
       </c>
       <c r="D37">
-        <v>3440.061985712469</v>
+        <v>48.40468813155167</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2316,13 +2316,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>62969</v>
+        <v>63243</v>
       </c>
       <c r="C38">
-        <v>62896.81701954575</v>
+        <v>63233.30043898267</v>
       </c>
       <c r="D38">
-        <v>72.18298045425036</v>
+        <v>9.699561017325323</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2330,13 +2330,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>63243</v>
+        <v>61455</v>
       </c>
       <c r="C39">
-        <v>63205.6089761794</v>
+        <v>63299.17189322061</v>
       </c>
       <c r="D39">
-        <v>37.39102382060082</v>
+        <v>-1844.171893220606</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2344,13 +2344,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>61455</v>
+        <v>60085.2</v>
       </c>
       <c r="C40">
-        <v>63275.22659653782</v>
+        <v>61843.86467742609</v>
       </c>
       <c r="D40">
-        <v>-1820.226596537817</v>
+        <v>-1758.664677426095</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2358,13 +2358,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>60085.2</v>
+        <v>56239.8</v>
       </c>
       <c r="C41">
-        <v>61822.04569423119</v>
+        <v>60717.41649298822</v>
       </c>
       <c r="D41">
-        <v>-1736.84569423119</v>
+        <v>-4477.616492988214</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2372,13 +2372,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>56239.8</v>
+        <v>55720</v>
       </c>
       <c r="C42">
-        <v>60705.16490941601</v>
+        <v>56087.09602982173</v>
       </c>
       <c r="D42">
-        <v>-4465.364909416006</v>
+        <v>-367.0960298217324</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2386,13 +2386,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>55720</v>
+        <v>56500</v>
       </c>
       <c r="C43">
-        <v>56061.47987143484</v>
+        <v>55882.59342511296</v>
       </c>
       <c r="D43">
-        <v>-341.4798714348435</v>
+        <v>617.4065748870416</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2400,13 +2400,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>56500</v>
+        <v>53815.2</v>
       </c>
       <c r="C44">
-        <v>55878.38484552324</v>
+        <v>55983.54867111843</v>
       </c>
       <c r="D44">
-        <v>621.6151544767636</v>
+        <v>-2168.348671118431</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2414,13 +2414,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>53815.2</v>
+        <v>51730</v>
       </c>
       <c r="C45">
-        <v>55973.69943580499</v>
+        <v>54454.74690141559</v>
       </c>
       <c r="D45">
-        <v>-2158.499435804988</v>
+        <v>-2724.746901415587</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2428,13 +2428,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>51730</v>
+        <v>51178.7</v>
       </c>
       <c r="C46">
-        <v>54451.0155692702</v>
+        <v>52285.62401230369</v>
       </c>
       <c r="D46">
-        <v>-2721.015569270196</v>
+        <v>-1106.924012303694</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2442,13 +2442,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>51178.7</v>
+        <v>50093.4</v>
       </c>
       <c r="C47">
-        <v>52282.76130415213</v>
+        <v>50554.05706047803</v>
       </c>
       <c r="D47">
-        <v>-1104.061304152128</v>
+        <v>-460.6570604780281</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2456,13 +2456,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>50093.4</v>
+        <v>49106.5</v>
       </c>
       <c r="C48">
-        <v>50540.89373722016</v>
+        <v>49966.15790474846</v>
       </c>
       <c r="D48">
-        <v>-447.4937372201603</v>
+        <v>-859.6579047484629</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2470,13 +2470,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>49106.5</v>
+        <v>54051.9</v>
       </c>
       <c r="C49">
-        <v>49956.50723595753</v>
+        <v>48853.27546624316</v>
       </c>
       <c r="D49">
-        <v>-850.0072359575279</v>
+        <v>5198.62453375684</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2484,13 +2484,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>54051.9</v>
+        <v>55078.7</v>
       </c>
       <c r="C50">
-        <v>48837.45801548644</v>
+        <v>52830.86474085705</v>
       </c>
       <c r="D50">
-        <v>5214.441984513564</v>
+        <v>2247.83525914295</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2498,13 +2498,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>55078.7</v>
+        <v>54899.3</v>
       </c>
       <c r="C51">
-        <v>52808.20580363581</v>
+        <v>54751.393212317</v>
       </c>
       <c r="D51">
-        <v>2270.49419636419</v>
+        <v>147.9067876830013</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2512,13 +2512,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>54899.3</v>
+        <v>53579.6</v>
       </c>
       <c r="C52">
-        <v>54722.96542480421</v>
+        <v>55027.59795265998</v>
       </c>
       <c r="D52">
-        <v>176.3345751957968</v>
+        <v>-1447.997952659978</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2526,13 +2526,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>53579.6</v>
+        <v>57780</v>
       </c>
       <c r="C53">
-        <v>54998.83464098065</v>
+        <v>53671.51854533432</v>
       </c>
       <c r="D53">
-        <v>-1419.234640980656</v>
+        <v>4108.481454665678</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2540,13 +2540,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>57780</v>
+        <v>57859.2</v>
       </c>
       <c r="C54">
-        <v>53638.59304826539</v>
+        <v>56702.75181768914</v>
       </c>
       <c r="D54">
-        <v>4141.406951734607</v>
+        <v>1156.448182310858</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2554,13 +2554,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>57859.2</v>
+        <v>56618.5</v>
       </c>
       <c r="C55">
-        <v>56665.37319116115</v>
+        <v>57894.71359491992</v>
       </c>
       <c r="D55">
-        <v>1193.826808838843</v>
+        <v>-1276.213594919922</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2568,13 +2568,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>56618.5</v>
+        <v>57193.5</v>
       </c>
       <c r="C56">
-        <v>57858.78908734368</v>
+        <v>56869.95624736651</v>
       </c>
       <c r="D56">
-        <v>-1240.289087343685</v>
+        <v>323.5437526334936</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2582,13 +2582,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>57193.5</v>
+        <v>53239.4</v>
       </c>
       <c r="C57">
-        <v>56836.4949936192</v>
+        <v>57487.61831282144</v>
       </c>
       <c r="D57">
-        <v>357.0050063808012</v>
+        <v>-4248.218312821438</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2596,13 +2596,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>53239.4</v>
+        <v>57497.1</v>
       </c>
       <c r="C58">
-        <v>57464.07206194322</v>
+        <v>54133.32995556747</v>
       </c>
       <c r="D58">
-        <v>-4224.672061943224</v>
+        <v>3363.770044432531</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2610,13 +2610,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>57497.1</v>
+        <v>56421.1</v>
       </c>
       <c r="C59">
-        <v>54112.33024251756</v>
+        <v>56572.05462643857</v>
       </c>
       <c r="D59">
-        <v>3384.769757482434</v>
+        <v>-150.9546264385717</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2624,13 +2624,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>56421.1</v>
+        <v>57383</v>
       </c>
       <c r="C60">
-        <v>56552.75698051999</v>
+        <v>56694.80344276538</v>
       </c>
       <c r="D60">
-        <v>-131.6569805199906</v>
+        <v>688.1965572346162</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2638,13 +2638,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>57383</v>
+        <v>58953.8</v>
       </c>
       <c r="C61">
-        <v>56673.50341123059</v>
+        <v>57276.1475986692</v>
       </c>
       <c r="D61">
-        <v>709.4965887694125</v>
+        <v>1677.652401330801</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2652,13 +2652,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>58953.8</v>
+        <v>58293.1</v>
       </c>
       <c r="C62">
-        <v>57257.56965364622</v>
+        <v>58728.07379513069</v>
       </c>
       <c r="D62">
-        <v>1696.230346353783</v>
+        <v>-434.9737951306888</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2666,13 +2666,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>58293.1</v>
+        <v>55888.1</v>
       </c>
       <c r="C63">
-        <v>58709.40373806846</v>
+        <v>58179.10773772654</v>
       </c>
       <c r="D63">
-        <v>-416.3037380684618</v>
+        <v>-2291.007737726541</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2680,13 +2680,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>55888.1</v>
+        <v>56747.5</v>
       </c>
       <c r="C64">
-        <v>58154.87966411056</v>
+        <v>56230.75291877756</v>
       </c>
       <c r="D64">
-        <v>-2266.77966411056</v>
+        <v>516.7470812224419</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2694,13 +2694,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>56747.5</v>
+        <v>49502.7</v>
       </c>
       <c r="C65">
-        <v>56208.48071717257</v>
+        <v>56363.83559905744</v>
       </c>
       <c r="D65">
-        <v>539.0192828274303</v>
+        <v>-6861.135599057445</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2708,13 +2708,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>49502.7</v>
+        <v>49675.2</v>
       </c>
       <c r="C66">
-        <v>56345.23562630704</v>
+        <v>51147.63835558465</v>
       </c>
       <c r="D66">
-        <v>-6842.535626307043</v>
+        <v>-1472.438355584651</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2722,13 +2722,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>49675.2</v>
+        <v>49899</v>
       </c>
       <c r="C67">
-        <v>51132.81401975641</v>
+        <v>48949.15264313011</v>
       </c>
       <c r="D67">
-        <v>-1457.614019756409</v>
+        <v>949.8473568698901</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2736,13 +2736,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>49899</v>
+        <v>46771.1</v>
       </c>
       <c r="C68">
-        <v>48935.93379476278</v>
+        <v>49980.31639377986</v>
       </c>
       <c r="D68">
-        <v>963.0662052372209</v>
+        <v>-3209.216393779861</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2750,13 +2750,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>46771.1</v>
+        <v>46482.4</v>
       </c>
       <c r="C69">
-        <v>49977.8399995817</v>
+        <v>47523.23683137669</v>
       </c>
       <c r="D69">
-        <v>-3206.739999581703</v>
+        <v>-1040.836831376684</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2764,13 +2764,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>46482.4</v>
+        <v>43551.8</v>
       </c>
       <c r="C70">
-        <v>47519.15329658364</v>
+        <v>46460.8209850092</v>
       </c>
       <c r="D70">
-        <v>-1036.753296583636</v>
+        <v>-2909.0209850092</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2778,13 +2778,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>43551.8</v>
+        <v>42895.2</v>
       </c>
       <c r="C71">
-        <v>46454.15441266379</v>
+        <v>43795.72935155666</v>
       </c>
       <c r="D71">
-        <v>-2902.354412663786</v>
+        <v>-900.5293515566664</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2792,13 +2792,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>42895.2</v>
+        <v>36742.3</v>
       </c>
       <c r="C72">
-        <v>43784.05565930983</v>
+        <v>43244.10244580993</v>
       </c>
       <c r="D72">
-        <v>-888.8556593098328</v>
+        <v>-6501.802445809932</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2806,13 +2806,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>36742.3</v>
+        <v>40614.6</v>
       </c>
       <c r="C73">
-        <v>43239.92351380915</v>
+        <v>36552.5792712702</v>
       </c>
       <c r="D73">
-        <v>-6497.623513809143</v>
+        <v>4062.020728729796</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2820,13 +2820,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>40614.6</v>
+        <v>37331.7</v>
       </c>
       <c r="C74">
-        <v>36518.41688609416</v>
+        <v>39558.82452862123</v>
       </c>
       <c r="D74">
-        <v>4096.183113905841</v>
+        <v>-2227.124528621229</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2834,13 +2834,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>37331.7</v>
+        <v>37468.3</v>
       </c>
       <c r="C75">
-        <v>39545.03143594503</v>
+        <v>37379.40945773235</v>
       </c>
       <c r="D75">
-        <v>-2213.331435945031</v>
+        <v>88.89054226765438</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2848,13 +2848,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>37468.3</v>
+        <v>34718.8</v>
       </c>
       <c r="C76">
-        <v>37354.9286944382</v>
+        <v>37082.38316638798</v>
       </c>
       <c r="D76">
-        <v>113.3713055617991</v>
+        <v>-2363.583166387973</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2862,13 +2862,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>34718.8</v>
+        <v>38833.8</v>
       </c>
       <c r="C77">
-        <v>37066.82883950994</v>
+        <v>34488.25876005562</v>
       </c>
       <c r="D77">
-        <v>-2348.028839509934</v>
+        <v>4345.541239944381</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2876,13 +2876,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>38833.8</v>
+        <v>38388.1</v>
       </c>
       <c r="C78">
-        <v>34463.00240154016</v>
+        <v>37880.8700954968</v>
       </c>
       <c r="D78">
-        <v>4370.797598459845</v>
+        <v>507.2299045031978</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2890,13 +2890,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>38388.1</v>
+        <v>39283.9</v>
       </c>
       <c r="C79">
-        <v>37860.69207500496</v>
+        <v>38165.06141419194</v>
       </c>
       <c r="D79">
-        <v>527.4079249950373</v>
+        <v>1118.838585808058</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2904,13 +2904,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>39283.9</v>
+        <v>38516.4</v>
       </c>
       <c r="C80">
-        <v>38136.50608502967</v>
+        <v>39208.86676793177</v>
       </c>
       <c r="D80">
-        <v>1147.393914970329</v>
+        <v>-692.4667679317645</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2918,13 +2918,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>38516.4</v>
+        <v>35683.9</v>
       </c>
       <c r="C81">
-        <v>39179.97574630137</v>
+        <v>38496.21007967179</v>
       </c>
       <c r="D81">
-        <v>-663.5757463013651</v>
+        <v>-2812.310079671792</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2932,13 +2932,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>35683.9</v>
+        <v>34616.6</v>
       </c>
       <c r="C82">
-        <v>38463.0152844785</v>
+        <v>36028.4154903619</v>
       </c>
       <c r="D82">
-        <v>-2779.115284478503</v>
+        <v>-1411.8154903619</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2946,13 +2946,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>34616.6</v>
+        <v>35673.8</v>
       </c>
       <c r="C83">
-        <v>35998.08951612523</v>
+        <v>34813.66283261689</v>
       </c>
       <c r="D83">
-        <v>-1381.489516125228</v>
+        <v>860.137167383109</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2960,13 +2960,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>35673.8</v>
+        <v>37303.8</v>
       </c>
       <c r="C84">
-        <v>34791.71325791498</v>
+        <v>35157.52571071572</v>
       </c>
       <c r="D84">
-        <v>882.0867420850263</v>
+        <v>2146.274289284287</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2974,13 +2974,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>37303.8</v>
+        <v>36676.3</v>
       </c>
       <c r="C85">
-        <v>35132.48714248957</v>
+        <v>36462.5332347274</v>
       </c>
       <c r="D85">
-        <v>2171.312857510435</v>
+        <v>213.7667652726013</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2988,13 +2988,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>36676.3</v>
+        <v>37565.3</v>
       </c>
       <c r="C86">
-        <v>36432.69052025866</v>
+        <v>36605.56892517219</v>
       </c>
       <c r="D86">
-        <v>243.6094797413389</v>
+        <v>959.7310748278178</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3002,13 +3002,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>37565.3</v>
+        <v>39196.6</v>
       </c>
       <c r="C87">
-        <v>36580.80013562074</v>
+        <v>37202.40012305653</v>
       </c>
       <c r="D87">
-        <v>984.4998643792642</v>
+        <v>1994.199876943472</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3016,13 +3016,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>39196.6</v>
+        <v>36847.7</v>
       </c>
       <c r="C88">
-        <v>37178.1892597413</v>
+        <v>38684.52825914822</v>
       </c>
       <c r="D88">
-        <v>2018.410740258703</v>
+        <v>-1836.82825914822</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3030,13 +3030,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>36847.7</v>
+        <v>35534.6</v>
       </c>
       <c r="C89">
-        <v>38658.65540736784</v>
+        <v>37004.07817147338</v>
       </c>
       <c r="D89">
-        <v>-1810.955407367845</v>
+        <v>-1469.478171473384</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3044,13 +3044,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>35534.6</v>
+        <v>35789</v>
       </c>
       <c r="C90">
-        <v>36975.25140166921</v>
+        <v>35802.73693485768</v>
       </c>
       <c r="D90">
-        <v>-1440.651401669216</v>
+        <v>-13.73693485768308</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3058,13 +3058,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>35789</v>
+        <v>33587.6</v>
       </c>
       <c r="C91">
-        <v>35781.66035231044</v>
+        <v>35713.41319167906</v>
       </c>
       <c r="D91">
-        <v>7.339647689557751</v>
+        <v>-2125.813191679059</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3072,13 +3072,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>33587.6</v>
+        <v>33420</v>
       </c>
       <c r="C92">
-        <v>35696.36299203719</v>
+        <v>34111.76251555508</v>
       </c>
       <c r="D92">
-        <v>-2108.762992037191</v>
+        <v>-691.762515555085</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3086,13 +3086,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>33420</v>
+        <v>37396.4</v>
       </c>
       <c r="C93">
-        <v>34096.8626972373</v>
+        <v>32901.67140926913</v>
       </c>
       <c r="D93">
-        <v>-676.8626972373022</v>
+        <v>4494.728590730869</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3100,13 +3100,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>37396.4</v>
+        <v>36678.4</v>
       </c>
       <c r="C94">
-        <v>32882.30115871188</v>
+        <v>36152.99749371969</v>
       </c>
       <c r="D94">
-        <v>4514.09884128812</v>
+        <v>525.4025062803121</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3114,13 +3114,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>36678.4</v>
+        <v>37322.2</v>
       </c>
       <c r="C95">
-        <v>36130.7820832694</v>
+        <v>36807.92057530353</v>
       </c>
       <c r="D95">
-        <v>547.6179167306036</v>
+        <v>514.2794246964695</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3128,13 +3128,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>37322.2</v>
+        <v>35544.9</v>
       </c>
       <c r="C96">
-        <v>36788.16368011675</v>
+        <v>37039.28902811165</v>
       </c>
       <c r="D96">
-        <v>534.0363198832492</v>
+        <v>-1494.389028111647</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3142,13 +3142,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>35544.9</v>
+        <v>39034.6</v>
       </c>
       <c r="C97">
-        <v>37019.1291301663</v>
+        <v>35723.9535327876</v>
       </c>
       <c r="D97">
-        <v>-1474.229130166299</v>
+        <v>3310.646467212398</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3156,13 +3156,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>39034.6</v>
+        <v>40530.8</v>
       </c>
       <c r="C98">
-        <v>35701.92124893311</v>
+        <v>38081.79744458621</v>
       </c>
       <c r="D98">
-        <v>3332.678751066887</v>
+        <v>2449.00255541379</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3170,13 +3170,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>40530.8</v>
+        <v>40166.6</v>
       </c>
       <c r="C99">
-        <v>38057.10807127012</v>
+        <v>40304.68365024249</v>
       </c>
       <c r="D99">
-        <v>2473.691928729881</v>
+        <v>-138.0836502424936</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3184,13 +3184,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>40166.6</v>
+        <v>38337.1</v>
       </c>
       <c r="C100">
-        <v>40279.19577753141</v>
+        <v>40358.77480980068</v>
       </c>
       <c r="D100">
-        <v>-112.5957775314091</v>
+        <v>-2021.674809800679</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3198,13 +3198,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>38337.1</v>
+        <v>38078.2</v>
       </c>
       <c r="C101">
-        <v>40334.0926321365</v>
+        <v>38815.50817571267</v>
       </c>
       <c r="D101">
-        <v>-1996.992632136498</v>
+        <v>-737.3081757126711</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3212,13 +3212,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>38078.2</v>
+        <v>35824</v>
       </c>
       <c r="C102">
-        <v>38795.91070010276</v>
+        <v>38278.33552288757</v>
       </c>
       <c r="D102">
-        <v>-717.7107001027616</v>
+        <v>-2454.335522887566</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3226,13 +3226,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>35824</v>
+        <v>35490.5</v>
       </c>
       <c r="C103">
-        <v>38264.90753118107</v>
+        <v>36193.2495172085</v>
       </c>
       <c r="D103">
-        <v>-2440.907531181074</v>
+        <v>-702.7495172084964</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3240,13 +3240,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>35490.5</v>
+        <v>35595</v>
       </c>
       <c r="C104">
-        <v>36179.68501280116</v>
+        <v>35567.16328237908</v>
       </c>
       <c r="D104">
-        <v>-689.1850128011574</v>
+        <v>27.83671762092126</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3254,13 +3254,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>35595</v>
+        <v>31655.2</v>
       </c>
       <c r="C105">
-        <v>35559.5082106724</v>
+        <v>35168.76957306869</v>
       </c>
       <c r="D105">
-        <v>35.49178932759969</v>
+        <v>-3513.569573068689</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3268,13 +3268,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>31655.2</v>
+        <v>32516.2</v>
       </c>
       <c r="C106">
-        <v>35155.79266006853</v>
+        <v>32422.65612195713</v>
       </c>
       <c r="D106">
-        <v>-3500.592660068531</v>
+        <v>93.54387804287398</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3282,13 +3282,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>32516.2</v>
+        <v>33683.3</v>
       </c>
       <c r="C107">
-        <v>32415.97131781235</v>
+        <v>31770.31873570631</v>
       </c>
       <c r="D107">
-        <v>100.2286821876514</v>
+        <v>1912.981264293692</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3296,13 +3296,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>33683.3</v>
+        <v>34666.6</v>
       </c>
       <c r="C108">
-        <v>31759.77148380068</v>
+        <v>33584.34451554492</v>
       </c>
       <c r="D108">
-        <v>1923.528516199323</v>
+        <v>1082.255484455076</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3310,13 +3310,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>34666.6</v>
+        <v>31583.7</v>
       </c>
       <c r="C109">
-        <v>33581.02965796906</v>
+        <v>34203.24134634416</v>
       </c>
       <c r="D109">
-        <v>1085.570342030936</v>
+        <v>-2619.541346344155</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3324,13 +3324,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>31583.7</v>
+        <v>32277</v>
       </c>
       <c r="C110">
-        <v>34189.70146457614</v>
+        <v>32318.5227743805</v>
       </c>
       <c r="D110">
-        <v>-2606.001464576137</v>
+        <v>-41.52277438049714</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3338,13 +3338,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>32277</v>
+        <v>34675.3</v>
       </c>
       <c r="C111">
-        <v>32307.10504879033</v>
+        <v>31803.37485562432</v>
       </c>
       <c r="D111">
-        <v>-30.10504879032669</v>
+        <v>2871.925144375684</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3352,13 +3352,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>34675.3</v>
+        <v>34472</v>
       </c>
       <c r="C112">
-        <v>31789.52883329893</v>
+        <v>33994.09409291621</v>
       </c>
       <c r="D112">
-        <v>2885.771166701074</v>
+        <v>477.9059070837902</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3366,13 +3366,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>34472</v>
+        <v>35903.3</v>
       </c>
       <c r="C113">
-        <v>33977.43935370159</v>
+        <v>34496.93222576727</v>
       </c>
       <c r="D113">
-        <v>494.5606462984142</v>
+        <v>1406.367774232735</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3380,13 +3380,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>35903.3</v>
+        <v>35046.2</v>
       </c>
       <c r="C114">
-        <v>34477.66587523448</v>
+        <v>35670.55236087254</v>
       </c>
       <c r="D114">
-        <v>1425.634124765522</v>
+        <v>-624.3523608725445</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3394,13 +3394,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>35046.2</v>
+        <v>33532.4</v>
       </c>
       <c r="C115">
-        <v>35648.71465625828</v>
+        <v>35038.90850099488</v>
       </c>
       <c r="D115">
-        <v>-602.5146562582813</v>
+        <v>-1506.508500994882</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3408,13 +3408,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>33532.4</v>
+        <v>33802.9</v>
       </c>
       <c r="C116">
-        <v>35014.92290489808</v>
+        <v>33647.10973613611</v>
       </c>
       <c r="D116">
-        <v>-1482.522904898076</v>
+        <v>155.7902638638916</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3422,13 +3422,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>33802.9</v>
+        <v>34685.4</v>
       </c>
       <c r="C117">
-        <v>33627.77755582244</v>
+        <v>33567.03507988467</v>
       </c>
       <c r="D117">
-        <v>175.122444177563</v>
+        <v>1118.364920115331</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3436,13 +3436,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>34685.4</v>
+        <v>35305</v>
       </c>
       <c r="C118">
-        <v>33550.75775103278</v>
+        <v>34405.2802755494</v>
       </c>
       <c r="D118">
-        <v>1134.642248967219</v>
+        <v>899.7197244506024</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3450,13 +3450,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>35305</v>
+        <v>33697.6</v>
       </c>
       <c r="C119">
-        <v>34388.21977522458</v>
+        <v>35204.23243925215</v>
       </c>
       <c r="D119">
-        <v>916.7802247754153</v>
+        <v>-1506.632439252149</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3464,13 +3464,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>33697.6</v>
+        <v>34235</v>
       </c>
       <c r="C120">
-        <v>35189.16396852034</v>
+        <v>33889.5972981162</v>
       </c>
       <c r="D120">
-        <v>-1491.563968520342</v>
+        <v>345.4027018838024</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3478,13 +3478,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>34235</v>
+        <v>33885.1</v>
       </c>
       <c r="C121">
-        <v>33874.20160459429</v>
+        <v>34244.71774535409</v>
       </c>
       <c r="D121">
-        <v>360.7983954057127</v>
+        <v>-359.6177453540877</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3492,13 +3492,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>33885.1</v>
+        <v>32882.2</v>
       </c>
       <c r="C122">
-        <v>34235.68961774894</v>
+        <v>34111.2317540552</v>
       </c>
       <c r="D122">
-        <v>-350.5896177489412</v>
+        <v>-1229.031754055199</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3506,13 +3506,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>32882.2</v>
+        <v>33791</v>
       </c>
       <c r="C123">
-        <v>34102.0873033518</v>
+        <v>32926.47653212437</v>
       </c>
       <c r="D123">
-        <v>-1219.887303351803</v>
+        <v>864.5234678756315</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3520,13 +3520,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>33791</v>
+        <v>33522.2</v>
       </c>
       <c r="C124">
-        <v>32912.9038998396</v>
+        <v>33470.82563385569</v>
       </c>
       <c r="D124">
-        <v>878.096100160401</v>
+        <v>51.37436614430771</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3534,13 +3534,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>33522.2</v>
+        <v>34246.9</v>
       </c>
       <c r="C125">
-        <v>33458.36324349615</v>
+        <v>33528.10126450047</v>
       </c>
       <c r="D125">
-        <v>63.83675650384976</v>
+        <v>718.7987354995275</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3548,13 +3548,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>34246.9</v>
+        <v>33107.3</v>
       </c>
       <c r="C126">
-        <v>33515.92420418251</v>
+        <v>34078.73495918484</v>
       </c>
       <c r="D126">
-        <v>730.975795817496</v>
+        <v>-971.4349591848368</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3562,13 +3562,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>33107.3</v>
+        <v>32722.9</v>
       </c>
       <c r="C127">
-        <v>34067.40752369042</v>
+        <v>33322.60827449166</v>
       </c>
       <c r="D127">
-        <v>-960.1075236904144</v>
+        <v>-599.7082744916552</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3576,13 +3576,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>32722.9</v>
+        <v>32815.2</v>
       </c>
       <c r="C128">
-        <v>33309.88750421621</v>
+        <v>32701.81628771728</v>
       </c>
       <c r="D128">
-        <v>-586.9875042162093</v>
+        <v>113.3837122827135</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3590,13 +3590,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>32815.2</v>
+        <v>31832.6</v>
       </c>
       <c r="C129">
-        <v>32689.61178105432</v>
+        <v>32543.73919089026</v>
       </c>
       <c r="D129">
-        <v>125.5882189456752</v>
+        <v>-711.1391908902624</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3604,13 +3604,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>31832.6</v>
+        <v>31405.9</v>
       </c>
       <c r="C130">
-        <v>32529.678048794</v>
+        <v>31923.01412732461</v>
       </c>
       <c r="D130">
-        <v>-697.0780487939992</v>
+        <v>-517.1141273246067</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3618,13 +3618,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>31405.9</v>
+        <v>31510</v>
       </c>
       <c r="C131">
-        <v>31910.04069748594</v>
+        <v>31449.80215262307</v>
       </c>
       <c r="D131">
-        <v>-504.1406974859347</v>
+        <v>60.19784737693044</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3632,13 +3632,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>31510</v>
+        <v>31780.1</v>
       </c>
       <c r="C132">
-        <v>31438.84636474455</v>
+        <v>31466.25995856436</v>
       </c>
       <c r="D132">
-        <v>71.15363525545399</v>
+        <v>313.8400414356402</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3646,13 +3646,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>31780.1</v>
+        <v>30820.5</v>
       </c>
       <c r="C133">
-        <v>31456.57652268579</v>
+        <v>31702.95130758211</v>
       </c>
       <c r="D133">
-        <v>323.5234773142074</v>
+        <v>-882.4513075821123</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3660,13 +3660,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>30820.5</v>
+        <v>29788.1</v>
       </c>
       <c r="C134">
-        <v>31692.27568144447</v>
+        <v>30899.77191845598</v>
       </c>
       <c r="D134">
-        <v>-871.7756814444729</v>
+        <v>-1111.671918455981</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3674,13 +3674,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>29788.1</v>
+        <v>32125</v>
       </c>
       <c r="C135">
-        <v>30887.32285220239</v>
+        <v>29885.74229051852</v>
       </c>
       <c r="D135">
-        <v>-1099.222852202387</v>
+        <v>2239.257709481481</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3688,13 +3688,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>32125</v>
+        <v>32283.3</v>
       </c>
       <c r="C136">
-        <v>29873.66818627001</v>
+        <v>31595.80745057205</v>
       </c>
       <c r="D136">
-        <v>2251.331813729994</v>
+        <v>687.4925494279451</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3702,13 +3702,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>32283.3</v>
+        <v>33639</v>
       </c>
       <c r="C137">
-        <v>31581.67523026823</v>
+        <v>32188.08084520904</v>
       </c>
       <c r="D137">
-        <v>701.6247697317704</v>
+        <v>1450.919154790961</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3716,13 +3716,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>33639</v>
+        <v>34284.6</v>
       </c>
       <c r="C138">
-        <v>32172.09326850998</v>
+        <v>33234.60648809381</v>
       </c>
       <c r="D138">
-        <v>1466.906731490017</v>
+        <v>1049.993511906185</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3730,13 +3730,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>34284.6</v>
+        <v>35413.6</v>
       </c>
       <c r="C139">
-        <v>33215.81243000612</v>
+        <v>34160.31532621579</v>
       </c>
       <c r="D139">
-        <v>1068.787569993881</v>
+        <v>1253.284673784205</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3744,13 +3744,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>35413.6</v>
+        <v>37274.9</v>
       </c>
       <c r="C140">
-        <v>34142.34297651202</v>
+        <v>35085.95896760235</v>
       </c>
       <c r="D140">
-        <v>1271.257023487975</v>
+        <v>2188.941032397648</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3758,13 +3758,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>37274.9</v>
+        <v>39506.2</v>
       </c>
       <c r="C141">
-        <v>35065.28621076357</v>
+        <v>37606.63463038763</v>
       </c>
       <c r="D141">
-        <v>2209.613789236428</v>
+        <v>1899.56536961237</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3772,13 +3772,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>39506.2</v>
+        <v>40011</v>
       </c>
       <c r="C142">
-        <v>37589.04778108142</v>
+        <v>38916.52406833496</v>
       </c>
       <c r="D142">
-        <v>1917.152218918578</v>
+        <v>1094.475931665038</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3786,13 +3786,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>40011</v>
+        <v>40000</v>
       </c>
       <c r="C143">
-        <v>38888.73677838333</v>
+        <v>40105.52451936712</v>
       </c>
       <c r="D143">
-        <v>1122.263221616668</v>
+        <v>-105.5245193671217</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3800,13 +3800,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>40000</v>
+        <v>42229.6</v>
       </c>
       <c r="C144">
-        <v>40081.55562346605</v>
+        <v>40135.99776384247</v>
       </c>
       <c r="D144">
-        <v>-81.55562346604711</v>
+        <v>2093.602236157531</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3814,13 +3814,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>42229.6</v>
+        <v>41488.5</v>
       </c>
       <c r="C145">
-        <v>40116.24487775391</v>
+        <v>41503.595772262</v>
       </c>
       <c r="D145">
-        <v>2113.355122246088</v>
+        <v>-15.09577226200054</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3828,13 +3828,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>41488.5</v>
+        <v>39889.1</v>
       </c>
       <c r="C146">
-        <v>41479.10591160432</v>
+        <v>41783.73613557785</v>
       </c>
       <c r="D146">
-        <v>9.394088395682047</v>
+        <v>-1894.63613557785</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3842,13 +3842,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>39889.1</v>
+        <v>39152.3</v>
       </c>
       <c r="C147">
-        <v>41767.78942807623</v>
+        <v>40530.52711372081</v>
       </c>
       <c r="D147">
-        <v>-1878.689428076228</v>
+        <v>-1378.227113720808</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3856,13 +3856,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>39152.3</v>
+        <v>38163</v>
       </c>
       <c r="C148">
-        <v>40521.11795260049</v>
+        <v>39451.01928059283</v>
       </c>
       <c r="D148">
-        <v>-1368.817952600482</v>
+        <v>-1288.019280592831</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3870,13 +3870,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>38163</v>
+        <v>39749</v>
       </c>
       <c r="C149">
-        <v>39445.86758571678</v>
+        <v>38486.58557270855</v>
       </c>
       <c r="D149">
-        <v>-1282.867585716784</v>
+        <v>1262.414427291449</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3884,13 +3884,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>39749</v>
+        <v>40886.4</v>
       </c>
       <c r="C150">
-        <v>38485.31081867592</v>
+        <v>39332.57006714133</v>
       </c>
       <c r="D150">
-        <v>1263.68918132408</v>
+        <v>1553.829932858673</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3898,13 +3898,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>40886.4</v>
+        <v>42823.9</v>
       </c>
       <c r="C151">
-        <v>39328.6882304616</v>
+        <v>40247.82544592978</v>
       </c>
       <c r="D151">
-        <v>1557.7117695384</v>
+        <v>2576.074554070219</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3912,13 +3912,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>42823.9</v>
+        <v>44610.7</v>
       </c>
       <c r="C152">
-        <v>40235.64931903947</v>
+        <v>42361.58246812184</v>
       </c>
       <c r="D152">
-        <v>2588.250680960533</v>
+        <v>2249.117531878153</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3926,13 +3926,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>44610.7</v>
+        <v>43845.6</v>
       </c>
       <c r="C153">
-        <v>42350.19352682972</v>
+        <v>44281.3114692506</v>
       </c>
       <c r="D153">
-        <v>2260.506473170273</v>
+        <v>-435.7114692506002</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3940,13 +3940,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>43845.6</v>
+        <v>46307.1</v>
       </c>
       <c r="C154">
-        <v>44267.87250648158</v>
+        <v>44222.0202342358</v>
       </c>
       <c r="D154">
-        <v>-422.2725064815822</v>
+        <v>2085.079765764196</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3954,13 +3954,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>46307.1</v>
+        <v>45595.1</v>
       </c>
       <c r="C155">
-        <v>44208.98981684721</v>
+        <v>45701.43397000625</v>
       </c>
       <c r="D155">
-        <v>2098.110183152785</v>
+        <v>-106.3339700062497</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3968,13 +3968,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>45595.1</v>
+        <v>45571.7</v>
       </c>
       <c r="C156">
-        <v>45681.55869043861</v>
+        <v>45818.5078192945</v>
       </c>
       <c r="D156">
-        <v>-86.45869043861603</v>
+        <v>-246.8078192945031</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3982,13 +3982,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>45571.7</v>
+        <v>44401.1</v>
       </c>
       <c r="C157">
-        <v>45800.69413569618</v>
+        <v>45976.2381063639</v>
       </c>
       <c r="D157">
-        <v>-228.994135696179</v>
+        <v>-1575.138106363898</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3996,13 +3996,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>44401.1</v>
+        <v>47823.3</v>
       </c>
       <c r="C158">
-        <v>45965.20759938635</v>
+        <v>44817.87323039698</v>
       </c>
       <c r="D158">
-        <v>-1564.107599386356</v>
+        <v>3005.426769603022</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4010,13 +4010,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>47823.3</v>
+        <v>47115.2</v>
       </c>
       <c r="C159">
-        <v>44807.167543904</v>
+        <v>47135.87228001527</v>
       </c>
       <c r="D159">
-        <v>3016.132456096006</v>
+        <v>-20.6722800152711</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4024,13 +4024,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>47115.2</v>
+        <v>47019.3</v>
       </c>
       <c r="C160">
-        <v>47122.87441402559</v>
+        <v>47258.80170351029</v>
       </c>
       <c r="D160">
-        <v>-7.674414025590522</v>
+        <v>-239.5017035102865</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4038,13 +4038,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>47019.3</v>
+        <v>45926.3</v>
       </c>
       <c r="C161">
-        <v>47245.12880649399</v>
+        <v>46906.72174052062</v>
       </c>
       <c r="D161">
-        <v>-225.8288064939843</v>
+        <v>-980.4217405206218</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4052,13 +4052,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>45926.3</v>
+        <v>44672.2</v>
       </c>
       <c r="C162">
-        <v>46894.41220831305</v>
+        <v>46471.11269957643</v>
       </c>
       <c r="D162">
-        <v>-968.1122083130467</v>
+        <v>-1798.912699576431</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4066,13 +4066,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>44672.2</v>
+        <v>44714.7</v>
       </c>
       <c r="C163">
-        <v>46465.43579853511</v>
+        <v>45256.92325892516</v>
       </c>
       <c r="D163">
-        <v>-1793.235798535112</v>
+        <v>-542.223258925158</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4080,13 +4080,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>44714.7</v>
+        <v>46765.3</v>
       </c>
       <c r="C164">
-        <v>45253.95938625791</v>
+        <v>44980.20349336876</v>
       </c>
       <c r="D164">
-        <v>-539.2593862579088</v>
+        <v>1785.096506631242</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4094,13 +4094,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>46765.3</v>
+        <v>49345.4</v>
       </c>
       <c r="C165">
-        <v>44978.13729466537</v>
+        <v>46268.7187252153</v>
       </c>
       <c r="D165">
-        <v>1787.162705334631</v>
+        <v>3076.6812747847</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4108,13 +4108,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>49345.4</v>
+        <v>48865.4</v>
       </c>
       <c r="C166">
-        <v>46259.05627160305</v>
+        <v>48842.9848163034</v>
       </c>
       <c r="D166">
-        <v>3086.343728396947</v>
+        <v>22.4151836966048</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4122,13 +4122,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>48865.4</v>
+        <v>49293.6</v>
       </c>
       <c r="C167">
-        <v>48829.58512373718</v>
+        <v>49086.08630327319</v>
       </c>
       <c r="D167">
-        <v>35.81487626281887</v>
+        <v>207.5136967268045</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4136,13 +4136,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>49293.6</v>
+        <v>49517.3</v>
       </c>
       <c r="C168">
-        <v>49072.92938771537</v>
+        <v>49195.22370729471</v>
       </c>
       <c r="D168">
-        <v>220.6706122846299</v>
+        <v>322.0762927052929</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4150,13 +4150,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>49517.3</v>
+        <v>47725.4</v>
       </c>
       <c r="C169">
-        <v>49180.48483559747</v>
+        <v>49781.30125502111</v>
       </c>
       <c r="D169">
-        <v>336.8151644025347</v>
+        <v>-2055.901255021105</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4164,13 +4164,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>47725.4</v>
+        <v>48991.3</v>
       </c>
       <c r="C170">
-        <v>49768.85104599995</v>
+        <v>48310.92070704094</v>
       </c>
       <c r="D170">
-        <v>-2043.451045999951</v>
+        <v>680.3792929590636</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4178,13 +4178,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>48991.3</v>
+        <v>46848.9</v>
       </c>
       <c r="C171">
-        <v>48297.92727858557</v>
+        <v>48734.16426557559</v>
       </c>
       <c r="D171">
-        <v>693.372721414431</v>
+        <v>-1885.264265575592</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4192,13 +4192,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>46848.9</v>
+        <v>49074.9</v>
       </c>
       <c r="C172">
-        <v>48720.49072570151</v>
+        <v>47364.41371700259</v>
       </c>
       <c r="D172">
-        <v>-1871.590725701513</v>
+        <v>1710.486282997415</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4206,13 +4206,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>49074.9</v>
+        <v>48895.7</v>
       </c>
       <c r="C173">
-        <v>47352.55614885817</v>
+        <v>48525.78450575297</v>
       </c>
       <c r="D173">
-        <v>1722.343851141828</v>
+        <v>369.9154942470268</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4220,13 +4220,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>48895.7</v>
+        <v>48787.7</v>
       </c>
       <c r="C174">
-        <v>48514.99860432315</v>
+        <v>48952.66897710862</v>
       </c>
       <c r="D174">
-        <v>380.7013956768496</v>
+        <v>-164.9689771086196</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4234,13 +4234,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>48787.7</v>
+        <v>46985.7</v>
       </c>
       <c r="C175">
-        <v>48942.33229051124</v>
+        <v>48820.33346125967</v>
       </c>
       <c r="D175">
-        <v>-154.6322905112465</v>
+        <v>-1834.633461259677</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4248,13 +4248,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>46985.7</v>
+        <v>47140</v>
       </c>
       <c r="C176">
-        <v>48809.0504127899</v>
+        <v>47430.467120561</v>
       </c>
       <c r="D176">
-        <v>-1823.350412789907</v>
+        <v>-290.4671205609993</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4262,13 +4262,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>47140</v>
+        <v>48872.2</v>
       </c>
       <c r="C177">
-        <v>47421.19253510215</v>
+        <v>47327.61506775372</v>
       </c>
       <c r="D177">
-        <v>-281.1925351021491</v>
+        <v>1544.584932246282</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4276,13 +4276,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>48872.2</v>
+        <v>49290.3</v>
       </c>
       <c r="C178">
-        <v>47321.4002359154</v>
+        <v>48416.95782011274</v>
       </c>
       <c r="D178">
-        <v>1550.799764084601</v>
+        <v>873.342179887266</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4290,13 +4290,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>49290.3</v>
+        <v>50018.6</v>
       </c>
       <c r="C179">
-        <v>48403.07345489135</v>
+        <v>49446.9775136326</v>
       </c>
       <c r="D179">
-        <v>887.2265451086569</v>
+        <v>571.6224863673997</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4304,13 +4304,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>50018.6</v>
+        <v>49956.1</v>
       </c>
       <c r="C180">
-        <v>49433.96706278763</v>
+        <v>49917.51697367157</v>
       </c>
       <c r="D180">
-        <v>584.6329372123655</v>
+        <v>38.5830263284297</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4318,13 +4318,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>49956.1</v>
+        <v>51767.9</v>
       </c>
       <c r="C181">
-        <v>49900.48396673026</v>
+        <v>50024.19675320379</v>
       </c>
       <c r="D181">
-        <v>55.61603326974</v>
+        <v>1743.703246796213</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4332,13 +4332,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>51767.9</v>
+        <v>52688.3</v>
       </c>
       <c r="C182">
-        <v>50008.72740424676</v>
+        <v>51337.14853174237</v>
       </c>
       <c r="D182">
-        <v>1759.17259575324</v>
+        <v>1351.151468257631</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4346,13 +4346,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>52688.3</v>
+        <v>46882.1</v>
       </c>
       <c r="C183">
-        <v>51318.09018603417</v>
+        <v>52438.20830615631</v>
       </c>
       <c r="D183">
-        <v>1370.209813965834</v>
+        <v>-5556.108306156311</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4360,13 +4360,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>46882.1</v>
+        <v>46073.4</v>
       </c>
       <c r="C184">
-        <v>52415.56487785351</v>
+        <v>47095.13327261047</v>
       </c>
       <c r="D184">
-        <v>-5533.464877853512</v>
+        <v>-1021.733272610465</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4374,13 +4374,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>46073.4</v>
+        <v>46389.6</v>
       </c>
       <c r="C185">
-        <v>47059.90958269149</v>
+        <v>45957.91624811659</v>
       </c>
       <c r="D185">
-        <v>-986.509582691484</v>
+        <v>431.6837518834072</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4388,13 +4388,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>46389.6</v>
+        <v>44842.2</v>
       </c>
       <c r="C186">
-        <v>45946.74499360095</v>
+        <v>46368.36379493293</v>
       </c>
       <c r="D186">
-        <v>442.8550063990479</v>
+        <v>-1526.163794932938</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4402,13 +4402,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>44842.2</v>
+        <v>45137.4</v>
       </c>
       <c r="C187">
-        <v>46363.09811318877</v>
+        <v>45105.22506088496</v>
       </c>
       <c r="D187">
-        <v>-1520.89811318877</v>
+        <v>32.17493911503698</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4416,13 +4416,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>45137.4</v>
+        <v>46061.3</v>
       </c>
       <c r="C188">
-        <v>45098.02799359111</v>
+        <v>45159.10785649348</v>
       </c>
       <c r="D188">
-        <v>39.37200640889205</v>
+        <v>902.1921435065233</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4430,13 +4430,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>46061.3</v>
+        <v>44965.8</v>
       </c>
       <c r="C189">
-        <v>45155.36872127069</v>
+        <v>45770.71126074423</v>
       </c>
       <c r="D189">
-        <v>905.9312787293165</v>
+        <v>-804.9112607442294</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4444,13 +4444,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>44965.8</v>
+        <v>47145.9</v>
       </c>
       <c r="C190">
-        <v>45761.87730598332</v>
+        <v>44922.76975518693</v>
       </c>
       <c r="D190">
-        <v>-796.0773059833155</v>
+        <v>2223.130244813074</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4458,13 +4458,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>47145.9</v>
+        <v>48152.3</v>
       </c>
       <c r="C191">
-        <v>44908.64804854502</v>
+        <v>46538.06479880622</v>
       </c>
       <c r="D191">
-        <v>2237.251951454986</v>
+        <v>1614.235201193784</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4472,13 +4472,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>48152.3</v>
+        <v>47786.9</v>
       </c>
       <c r="C192">
-        <v>46521.23326038812</v>
+        <v>47877.14769940105</v>
       </c>
       <c r="D192">
-        <v>1631.066739611881</v>
+        <v>-90.24769940105034</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4486,13 +4486,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>47786.9</v>
+        <v>47269.7</v>
       </c>
       <c r="C193">
-        <v>47853.56056667519</v>
+        <v>47760.44308591873</v>
       </c>
       <c r="D193">
-        <v>-66.66056667519297</v>
+        <v>-490.7430859187371</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4500,13 +4500,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>47269.7</v>
+        <v>48309.9</v>
       </c>
       <c r="C194">
-        <v>47735.54838146553</v>
+        <v>47345.67234864159</v>
       </c>
       <c r="D194">
-        <v>-465.8483814655337</v>
+        <v>964.2276513584075</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4514,13 +4514,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>48309.9</v>
+        <v>47237.8</v>
       </c>
       <c r="C195">
-        <v>47323.08724670378</v>
+        <v>48116.09755965966</v>
       </c>
       <c r="D195">
-        <v>986.8127532962171</v>
+        <v>-878.2975596596589</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4528,13 +4528,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>47237.8</v>
+        <v>42992.9</v>
       </c>
       <c r="C196">
-        <v>48094.24389264644</v>
+        <v>47386.86554452254</v>
       </c>
       <c r="D196">
-        <v>-856.4438926464354</v>
+        <v>-4393.965544522536</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4542,13 +4542,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>42992.9</v>
+        <v>40710.6</v>
       </c>
       <c r="C197">
-        <v>47365.08801955548</v>
+        <v>43777.48994517767</v>
       </c>
       <c r="D197">
-        <v>-4372.188019555477</v>
+        <v>-3066.889945177667</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4556,13 +4556,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>40710.6</v>
+        <v>43562.8</v>
       </c>
       <c r="C198">
-        <v>43758.38724912405</v>
+        <v>40981.13854404935</v>
       </c>
       <c r="D198">
-        <v>-3047.787249124049</v>
+        <v>2581.661455950649</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4570,13 +4570,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>43562.8</v>
+        <v>44889.8</v>
       </c>
       <c r="C199">
-        <v>40969.21634178857</v>
+        <v>42823.83288431422</v>
       </c>
       <c r="D199">
-        <v>2593.583658211428</v>
+        <v>2065.967115685788</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4584,13 +4584,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>44889.8</v>
+        <v>42833.2</v>
       </c>
       <c r="C200">
-        <v>42814.40503875118</v>
+        <v>44412.28000003496</v>
       </c>
       <c r="D200">
-        <v>2075.394961248821</v>
+        <v>-1579.080000034963</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4598,13 +4598,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>42833.2</v>
+        <v>42710.1</v>
       </c>
       <c r="C201">
-        <v>44396.64341912583</v>
+        <v>42760.24515419777</v>
       </c>
       <c r="D201">
-        <v>-1563.443419125833</v>
+        <v>-50.14515419777308</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4612,13 +4612,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>42710.1</v>
+        <v>43204.6</v>
       </c>
       <c r="C202">
-        <v>42738.63180346949</v>
+        <v>42426.88594628833</v>
       </c>
       <c r="D202">
-        <v>-28.53180346948648</v>
+        <v>777.7140537116647</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4626,13 +4626,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>43204.6</v>
+        <v>42176.3</v>
       </c>
       <c r="C203">
-        <v>42412.11089429336</v>
+        <v>42678.99349052835</v>
       </c>
       <c r="D203">
-        <v>792.4891057066343</v>
+        <v>-502.6934905283488</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4640,13 +4640,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>42176.3</v>
+        <v>41038.4</v>
       </c>
       <c r="C204">
-        <v>42660.00859417005</v>
+        <v>42545.54573378547</v>
       </c>
       <c r="D204">
-        <v>-483.7085941700498</v>
+        <v>-1507.145733785466</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4654,13 +4654,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>41038.4</v>
+        <v>41524.8</v>
       </c>
       <c r="C205">
-        <v>42530.57946154407</v>
+        <v>41282.79494844648</v>
       </c>
       <c r="D205">
-        <v>-1492.179461544067</v>
+        <v>242.0050515535186</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4668,13 +4668,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>41524.8</v>
+        <v>43798.7</v>
       </c>
       <c r="C206">
-        <v>41264.74481513725</v>
+        <v>41459.33692133314</v>
       </c>
       <c r="D206">
-        <v>260.055184862751</v>
+        <v>2339.363078666858</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4682,13 +4682,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>43798.7</v>
+        <v>48163.7</v>
       </c>
       <c r="C207">
-        <v>41442.75211454362</v>
+        <v>43207.31083010961</v>
       </c>
       <c r="D207">
-        <v>2355.947885456379</v>
+        <v>4956.389169890383</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4696,13 +4696,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>48163.7</v>
+        <v>47662</v>
       </c>
       <c r="C208">
-        <v>43186.52764023388</v>
+        <v>47038.20961488915</v>
       </c>
       <c r="D208">
-        <v>4977.172359766118</v>
+        <v>623.7903851108495</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4710,13 +4710,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>47662</v>
+        <v>48230.2</v>
       </c>
       <c r="C209">
-        <v>47005.86735006895</v>
+        <v>47803.3030134918</v>
       </c>
       <c r="D209">
-        <v>656.1326499310526</v>
+        <v>426.8969865081963</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4724,13 +4724,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>48230.2</v>
+        <v>49243.3</v>
       </c>
       <c r="C210">
-        <v>47773.04454516368</v>
+        <v>48220.62370826668</v>
       </c>
       <c r="D210">
-        <v>457.1554548363201</v>
+        <v>1022.676291733318</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4738,13 +4738,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>49243.3</v>
+        <v>51487</v>
       </c>
       <c r="C211">
-        <v>48192.48397617856</v>
+        <v>48795.13791813513</v>
       </c>
       <c r="D211">
-        <v>1050.816023821448</v>
+        <v>2691.862081864871</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4752,13 +4752,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>51487</v>
+        <v>55350.2</v>
       </c>
       <c r="C212">
-        <v>48762.90505483047</v>
+        <v>51106.58291294261</v>
       </c>
       <c r="D212">
-        <v>2724.094945169534</v>
+        <v>4243.617087057391</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4766,13 +4766,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>55350.2</v>
+        <v>53817.3</v>
       </c>
       <c r="C213">
-        <v>51076.45562020318</v>
+        <v>54416.02902741757</v>
       </c>
       <c r="D213">
-        <v>4273.744379796815</v>
+        <v>-598.7290274175684</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4780,13 +4780,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>53817.3</v>
+        <v>53960.5</v>
       </c>
       <c r="C214">
-        <v>54377.81534147311</v>
+        <v>54245.06062353595</v>
       </c>
       <c r="D214">
-        <v>-560.515341473103</v>
+        <v>-284.5606235359519</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4794,13 +4794,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>53960.5</v>
+        <v>54960.2</v>
       </c>
       <c r="C215">
-        <v>54215.02580294384</v>
+        <v>54517.97405324563</v>
       </c>
       <c r="D215">
-        <v>-254.525802943841</v>
+        <v>442.2259467543699</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4808,13 +4808,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>54960.2</v>
+        <v>54677.5</v>
       </c>
       <c r="C216">
-        <v>54501.54011401608</v>
+        <v>54939.35207421889</v>
       </c>
       <c r="D216">
-        <v>458.6598859839141</v>
+        <v>-261.8520742188921</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4822,13 +4822,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>54677.5</v>
+        <v>57499.5</v>
       </c>
       <c r="C217">
-        <v>54922.49341694025</v>
+        <v>55115.8599698128</v>
       </c>
       <c r="D217">
-        <v>-244.993416940255</v>
+        <v>2383.640030187198</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4836,13 +4836,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>57499.5</v>
+        <v>56010.1</v>
       </c>
       <c r="C218">
-        <v>55102.00572015437</v>
+        <v>57027.46833215771</v>
       </c>
       <c r="D218">
-        <v>2397.494279845632</v>
+        <v>-1017.368332157712</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4850,13 +4850,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>56010.1</v>
+        <v>57381.2</v>
       </c>
       <c r="C219">
-        <v>57009.90960072148</v>
+        <v>56085.94939090379</v>
       </c>
       <c r="D219">
-        <v>-999.8096007214845</v>
+        <v>1295.250609096205</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4864,13 +4864,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>57381.2</v>
+        <v>57377.6</v>
       </c>
       <c r="C220">
-        <v>56064.81788538278</v>
+        <v>56875.59888605146</v>
       </c>
       <c r="D220">
-        <v>1316.382114617212</v>
+        <v>502.0011139485432</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4878,13 +4878,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>57377.6</v>
+        <v>61656.2</v>
       </c>
       <c r="C221">
-        <v>56859.20885405572</v>
+        <v>57680.84457254317</v>
       </c>
       <c r="D221">
-        <v>518.3911459442825</v>
+        <v>3975.355427456823</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4892,13 +4892,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>61656.2</v>
+        <v>60873.4</v>
       </c>
       <c r="C222">
-        <v>57671.29491701313</v>
+        <v>60977.4070570783</v>
       </c>
       <c r="D222">
-        <v>3984.905082986865</v>
+        <v>-104.0070570782991</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4906,13 +4906,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>60873.4</v>
+        <v>61526.5</v>
       </c>
       <c r="C223">
-        <v>60959.77012880628</v>
+        <v>61264.62862116873</v>
       </c>
       <c r="D223">
-        <v>-86.37012880628026</v>
+        <v>261.8713788312671</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4920,13 +4920,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>61526.5</v>
+        <v>62037.7</v>
       </c>
       <c r="C224">
-        <v>61246.53941212727</v>
+        <v>61146.57886036559</v>
       </c>
       <c r="D224">
-        <v>279.9605878727307</v>
+        <v>891.1211396344079</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4934,13 +4934,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>62037.7</v>
+        <v>64284.9</v>
       </c>
       <c r="C225">
-        <v>61125.09220298011</v>
+        <v>61874.01441711578</v>
       </c>
       <c r="D225">
-        <v>912.6077970198821</v>
+        <v>2410.885582884221</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4948,13 +4948,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>64284.9</v>
+        <v>66035.8</v>
       </c>
       <c r="C226">
-        <v>61855.03735230003</v>
+        <v>63840.19420823723</v>
       </c>
       <c r="D226">
-        <v>2429.862647699971</v>
+        <v>2195.60579176277</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4962,13 +4962,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>66035.8</v>
+        <v>62198</v>
       </c>
       <c r="C227">
-        <v>63820.7526880598</v>
+        <v>65904.45832334542</v>
       </c>
       <c r="D227">
-        <v>2215.047311940201</v>
+        <v>-3706.458323345418</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4976,13 +4976,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>62198</v>
+        <v>60687.5</v>
       </c>
       <c r="C228">
-        <v>65883.62883345452</v>
+        <v>61401.82796721473</v>
       </c>
       <c r="D228">
-        <v>-3685.628833454524</v>
+        <v>-714.3279672147255</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4990,13 +4990,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>60687.5</v>
+        <v>61296.9</v>
       </c>
       <c r="C229">
-        <v>61357.3474849926</v>
+        <v>61319.46449433995</v>
       </c>
       <c r="D229">
-        <v>-669.8474849925988</v>
+        <v>-22.56449433995294</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5004,13 +5004,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>61296.9</v>
+        <v>60882.5</v>
       </c>
       <c r="C230">
-        <v>61313.06658057102</v>
+        <v>61079.21688283177</v>
       </c>
       <c r="D230">
-        <v>-16.16658057101449</v>
+        <v>-196.7168828317735</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5018,13 +5018,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>60882.5</v>
+        <v>63081.8</v>
       </c>
       <c r="C231">
-        <v>61072.23290646459</v>
+        <v>60772.95348987715</v>
       </c>
       <c r="D231">
-        <v>-189.7329064645892</v>
+        <v>2308.846510122858</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5032,13 +5032,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>63081.8</v>
+        <v>60310.2</v>
       </c>
       <c r="C232">
-        <v>60763.47421217257</v>
+        <v>62723.88111744734</v>
       </c>
       <c r="D232">
-        <v>2318.325787827431</v>
+        <v>-2413.681117447348</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5046,13 +5046,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>60310.2</v>
+        <v>58500.1</v>
       </c>
       <c r="C233">
-        <v>62714.74860191169</v>
+        <v>60911.46635101262</v>
       </c>
       <c r="D233">
-        <v>-2404.548601911694</v>
+        <v>-2411.366351012621</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5060,13 +5060,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>58500.1</v>
+        <v>60613.5</v>
       </c>
       <c r="C234">
-        <v>60900.76492114949</v>
+        <v>59081.81130154717</v>
       </c>
       <c r="D234">
-        <v>-2400.664921149488</v>
+        <v>1531.688698452832</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5074,13 +5074,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>60613.5</v>
+        <v>62246.5</v>
       </c>
       <c r="C235">
-        <v>59078.30891363339</v>
+        <v>60425.62577304149</v>
       </c>
       <c r="D235">
-        <v>1535.191086366613</v>
+        <v>1820.874226958513</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5088,13 +5088,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>62246.5</v>
+        <v>61866.3</v>
       </c>
       <c r="C236">
-        <v>60418.65937629809</v>
+        <v>61989.0189684927</v>
       </c>
       <c r="D236">
-        <v>1827.840623701908</v>
+        <v>-122.7189684926925</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5102,13 +5102,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>61866.3</v>
+        <v>61380.1</v>
       </c>
       <c r="C237">
-        <v>61972.66023729988</v>
+        <v>61794.52731862377</v>
       </c>
       <c r="D237">
-        <v>-106.3602372998721</v>
+        <v>-414.4273186237697</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5116,13 +5116,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>61380.1</v>
+        <v>60954.5</v>
       </c>
       <c r="C238">
-        <v>61773.81962574706</v>
+        <v>61366.45682118624</v>
       </c>
       <c r="D238">
-        <v>-393.7196257470569</v>
+        <v>-411.9568211862425</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5130,13 +5130,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>60954.5</v>
+        <v>63279.7</v>
       </c>
       <c r="C239">
-        <v>61346.50199352395</v>
+        <v>60980.65813911506</v>
       </c>
       <c r="D239">
-        <v>-392.0019935239543</v>
+        <v>2299.041860884936</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5144,13 +5144,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>63279.7</v>
+        <v>62942.9</v>
       </c>
       <c r="C240">
-        <v>60961.70816536232</v>
+        <v>62954.39998119049</v>
       </c>
       <c r="D240">
-        <v>2317.99183463768</v>
+        <v>-11.49998119048541</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5158,13 +5158,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>62942.9</v>
+        <v>61449</v>
       </c>
       <c r="C241">
-        <v>62935.5206091185</v>
+        <v>62669.87535242967</v>
       </c>
       <c r="D241">
-        <v>7.379390881505969</v>
+        <v>-1220.87535242967</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5172,13 +5172,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>61449</v>
+        <v>61006.2</v>
       </c>
       <c r="C242">
-        <v>62641.05553075082</v>
+        <v>61687.12866938159</v>
       </c>
       <c r="D242">
-        <v>-1192.055530750818</v>
+        <v>-680.9286693815884</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5186,13 +5186,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>61006.2</v>
+        <v>61536.3</v>
       </c>
       <c r="C243">
-        <v>61664.59646929939</v>
+        <v>61343.65050567725</v>
       </c>
       <c r="D243">
-        <v>-658.3964692993904</v>
+        <v>192.6494943227517</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5200,13 +5200,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>61536.3</v>
+        <v>63317.8</v>
       </c>
       <c r="C244">
-        <v>61329.62953709373</v>
+        <v>61245.58031176034</v>
       </c>
       <c r="D244">
-        <v>206.6704629062733</v>
+        <v>2072.21968823966</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5214,13 +5214,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>63317.8</v>
+        <v>67559.8</v>
       </c>
       <c r="C245">
-        <v>61227.439159574</v>
+        <v>62905.60667309233</v>
       </c>
       <c r="D245">
-        <v>2090.360840426001</v>
+        <v>4654.193326907676</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5228,13 +5228,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>67559.8</v>
+        <v>66950</v>
       </c>
       <c r="C246">
-        <v>62885.86800571771</v>
+        <v>66700.8155605725</v>
       </c>
       <c r="D246">
-        <v>4673.931994282291</v>
+        <v>249.1844394274958</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5242,13 +5242,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>66950</v>
+        <v>64969</v>
       </c>
       <c r="C247">
-        <v>66673.52017199861</v>
+        <v>67289.21464124719</v>
       </c>
       <c r="D247">
-        <v>276.4798280013929</v>
+        <v>-2320.214641247192</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5256,13 +5256,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>64969</v>
+        <v>64825.4</v>
       </c>
       <c r="C248">
-        <v>67262.62767933206</v>
+        <v>65433.37465847401</v>
       </c>
       <c r="D248">
-        <v>-2293.627679332058</v>
+        <v>-607.974658474006</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5270,13 +5270,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>64825.4</v>
+        <v>64153</v>
       </c>
       <c r="C249">
-        <v>65406.60122983147</v>
+        <v>64937.56692199689</v>
       </c>
       <c r="D249">
-        <v>-581.201229831473</v>
+        <v>-784.5669219968913</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5284,13 +5284,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>64153</v>
+        <v>64393.1</v>
       </c>
       <c r="C250">
-        <v>64918.33296098387</v>
+        <v>64102.70309032611</v>
       </c>
       <c r="D250">
-        <v>-765.3329609838693</v>
+        <v>290.3969096738874</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5298,13 +5298,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>64393.1</v>
+        <v>65495</v>
       </c>
       <c r="C251">
-        <v>64080.01691050916</v>
+        <v>64371.77189634415</v>
       </c>
       <c r="D251">
-        <v>313.0830894908358</v>
+        <v>1123.228103655849</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5312,13 +5312,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>65495</v>
+        <v>63615.8</v>
       </c>
       <c r="C252">
-        <v>64354.48308838172</v>
+        <v>65128.79458016594</v>
       </c>
       <c r="D252">
-        <v>1140.516911618281</v>
+        <v>-1512.994580165941</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5326,13 +5326,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>63615.8</v>
+        <v>60137.2</v>
       </c>
       <c r="C253">
-        <v>65109.76515758819</v>
+        <v>64209.42083667627</v>
       </c>
       <c r="D253">
-        <v>-1493.965157588187</v>
+        <v>-4072.220836676272</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5340,13 +5340,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>60137.2</v>
+        <v>60367.8</v>
       </c>
       <c r="C254">
-        <v>64196.07977010608</v>
+        <v>60539.26930293506</v>
       </c>
       <c r="D254">
-        <v>-4058.879770106083</v>
+        <v>-171.4693029350528</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5354,13 +5354,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>60367.8</v>
+        <v>56921.7</v>
       </c>
       <c r="C255">
-        <v>60524.21959068372</v>
+        <v>59960.44648335668</v>
       </c>
       <c r="D255">
-        <v>-156.4195906837122</v>
+        <v>-3038.746483356685</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5368,13 +5368,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>56921.7</v>
+        <v>58099.6</v>
       </c>
       <c r="C256">
-        <v>59948.16711640534</v>
+        <v>57635.91113528054</v>
       </c>
       <c r="D256">
-        <v>-3026.467116405343</v>
+        <v>463.6888647194573</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5382,13 +5382,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>58099.6</v>
+        <v>59744.2</v>
       </c>
       <c r="C257">
-        <v>57625.81470195945</v>
+        <v>57475.67627969289</v>
       </c>
       <c r="D257">
-        <v>473.7852980405514</v>
+        <v>2268.523720307108</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5396,13 +5396,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>59744.2</v>
+        <v>58646.2</v>
       </c>
       <c r="C258">
-        <v>57463.44876753243</v>
+        <v>59121.46396206719</v>
       </c>
       <c r="D258">
-        <v>2280.751232467563</v>
+        <v>-475.2639620671907</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5410,13 +5410,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>58646.2</v>
+        <v>56295.5</v>
       </c>
       <c r="C259">
-        <v>59104.27534600154</v>
+        <v>58832.30734739546</v>
       </c>
       <c r="D259">
-        <v>-458.0753460015403</v>
+        <v>-2536.807347395465</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5424,13 +5424,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>56295.5</v>
+        <v>57571.4</v>
       </c>
       <c r="C260">
-        <v>58815.33742509906</v>
+        <v>56700.23728446669</v>
       </c>
       <c r="D260">
-        <v>-2519.83742509906</v>
+        <v>871.1627155333117</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5438,13 +5438,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>57571.4</v>
+        <v>57203.3</v>
       </c>
       <c r="C261">
-        <v>56681.90257820654</v>
+        <v>56994.02739472819</v>
       </c>
       <c r="D261">
-        <v>889.4974217934578</v>
+        <v>209.2726052718135</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5452,13 +5452,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>57203.3</v>
+        <v>58932.6</v>
       </c>
       <c r="C262">
-        <v>56971.34906728887</v>
+        <v>56908.02295055977</v>
       </c>
       <c r="D262">
-        <v>231.95093271113</v>
+        <v>2024.577049440224</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5466,13 +5466,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>58932.6</v>
+        <v>53789</v>
       </c>
       <c r="C263">
-        <v>56880.70228534982</v>
+        <v>58499.67187751932</v>
       </c>
       <c r="D263">
-        <v>2051.897714650178</v>
+        <v>-4710.671877519322</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5480,13 +5480,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>53789</v>
+        <v>54784.9</v>
       </c>
       <c r="C264">
-        <v>58472.27570772589</v>
+        <v>54813.2071924354</v>
       </c>
       <c r="D264">
-        <v>-4683.275707725887</v>
+        <v>-28.30719243540079</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5494,13 +5494,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>54784.9</v>
+        <v>57300</v>
       </c>
       <c r="C265">
-        <v>54784.36177528369</v>
+        <v>54471.40629182259</v>
       </c>
       <c r="D265">
-        <v>0.5382247163142893</v>
+        <v>2828.59370817741</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5508,13 +5508,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>57300</v>
+        <v>57830.2</v>
       </c>
       <c r="C266">
-        <v>54451.7542549456</v>
+        <v>56239.996392562</v>
       </c>
       <c r="D266">
-        <v>2848.245745054403</v>
+        <v>1590.203607437994</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5522,13 +5522,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>57830.2</v>
+        <v>56980.7</v>
       </c>
       <c r="C267">
-        <v>56210.42553933094</v>
+        <v>57743.01494757116</v>
       </c>
       <c r="D267">
-        <v>1619.774460669054</v>
+        <v>-762.3149475711616</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5536,13 +5536,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>56980.7</v>
+        <v>57237.9</v>
       </c>
       <c r="C268">
-        <v>57715.57581474188</v>
+        <v>57164.23916961152</v>
       </c>
       <c r="D268">
-        <v>-734.8758147418848</v>
+        <v>73.66083038848592</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5550,13 +5550,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>57237.9</v>
+        <v>56526.4</v>
       </c>
       <c r="C269">
-        <v>57135.40863375877</v>
+        <v>57416.43402585289</v>
       </c>
       <c r="D269">
-        <v>102.4913662412364</v>
+        <v>-890.0340258528886</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5564,13 +5564,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>56526.4</v>
+        <v>53678.6</v>
       </c>
       <c r="C270">
-        <v>57392.11670500362</v>
+        <v>56499.69398423206</v>
       </c>
       <c r="D270">
-        <v>-865.7167050036151</v>
+        <v>-2821.093984232066</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5578,13 +5578,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>53678.6</v>
+        <v>49255.1</v>
       </c>
       <c r="C271">
-        <v>56472.87876205026</v>
+        <v>54004.03621660619</v>
       </c>
       <c r="D271">
-        <v>-2794.278762050257</v>
+        <v>-4748.936216606191</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5592,13 +5592,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>49255.1</v>
+        <v>49443.3</v>
       </c>
       <c r="C272">
-        <v>53975.95132505642</v>
+        <v>47927.46758673044</v>
       </c>
       <c r="D272">
-        <v>-4720.851325056421</v>
+        <v>1515.832413269563</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5606,13 +5606,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>49443.3</v>
+        <v>50564.3</v>
       </c>
       <c r="C273">
-        <v>47877.89687254433</v>
+        <v>48927.05008519695</v>
       </c>
       <c r="D273">
-        <v>1565.403127455676</v>
+        <v>1637.249914803055</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5620,13 +5620,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>50564.3</v>
+        <v>50650.1</v>
       </c>
       <c r="C274">
-        <v>48912.79734159603</v>
+        <v>49640.36329922127</v>
       </c>
       <c r="D274">
-        <v>1651.502658403973</v>
+        <v>1009.736700778725</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5634,13 +5634,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>50650.1</v>
+        <v>50515.1</v>
       </c>
       <c r="C275">
-        <v>49620.53981144731</v>
+        <v>50620.71197972276</v>
       </c>
       <c r="D275">
-        <v>1029.560188552692</v>
+        <v>-105.6119797227584</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5648,13 +5648,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>50515.1</v>
+        <v>47581.6</v>
       </c>
       <c r="C276">
-        <v>50606.5995885289</v>
+        <v>50004.76153079552</v>
       </c>
       <c r="D276">
-        <v>-91.49958852890268</v>
+        <v>-2423.161530795522</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5662,13 +5662,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>47581.6</v>
+        <v>47218.3</v>
       </c>
       <c r="C277">
-        <v>49980.94156650758</v>
+        <v>47992.59467661434</v>
       </c>
       <c r="D277">
-        <v>-2399.341566507581</v>
+        <v>-774.2946766143359</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5676,13 +5676,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>47218.3</v>
+        <v>49367.2</v>
       </c>
       <c r="C278">
-        <v>47972.82381001076</v>
+        <v>47537.21380804628</v>
       </c>
       <c r="D278">
-        <v>-754.5238100107526</v>
+        <v>1829.986191953714</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5690,13 +5690,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>49367.2</v>
+        <v>50113.2</v>
       </c>
       <c r="C279">
-        <v>47523.03690169578</v>
+        <v>48593.91803544656</v>
       </c>
       <c r="D279">
-        <v>1844.163098304212</v>
+        <v>1519.28196455344</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5704,13 +5704,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>50113.2</v>
+        <v>46732.2</v>
       </c>
       <c r="C280">
-        <v>48566.80404147941</v>
+        <v>49759.69245656991</v>
       </c>
       <c r="D280">
-        <v>1546.395958520588</v>
+        <v>-3027.492456569911</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5718,13 +5718,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>46732.2</v>
+        <v>48399.2</v>
       </c>
       <c r="C281">
-        <v>49727.38072804087</v>
+        <v>47093.90972586795</v>
       </c>
       <c r="D281">
-        <v>-2995.180728040868</v>
+        <v>1305.29027413205</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5732,13 +5732,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>48399.2</v>
+        <v>48881.3</v>
       </c>
       <c r="C282">
-        <v>47061.39676859196</v>
+        <v>47785.81261093665</v>
       </c>
       <c r="D282">
-        <v>1337.803231408034</v>
+        <v>1095.487389063353</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5746,13 +5746,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>48881.3</v>
+        <v>47631</v>
       </c>
       <c r="C283">
-        <v>47759.40000870409</v>
+        <v>48333.33235417793</v>
       </c>
       <c r="D283">
-        <v>1121.899991295912</v>
+        <v>-702.3323541779318</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5760,13 +5760,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>47631</v>
+        <v>46168.3</v>
       </c>
       <c r="C284">
-        <v>48301.72477233993</v>
+        <v>47888.7303759663</v>
       </c>
       <c r="D284">
-        <v>-670.7247723399341</v>
+        <v>-1720.430375966294</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5774,13 +5774,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>46168.3</v>
+        <v>46864.3</v>
       </c>
       <c r="C285">
-        <v>47862.55911446117</v>
+        <v>46273.77251210411</v>
       </c>
       <c r="D285">
-        <v>-1694.259114461165</v>
+        <v>590.5274878958953</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5788,13 +5788,13 @@
         <v>288</v>
       </c>
       <c r="B286">
-        <v>46864.3</v>
+        <v>46688.4</v>
       </c>
       <c r="C286">
-        <v>46247.1403689838</v>
+        <v>46485.9499309364</v>
       </c>
       <c r="D286">
-        <v>617.1596310161985</v>
+        <v>202.450069063605</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5802,13 +5802,13 @@
         <v>289</v>
       </c>
       <c r="B287">
-        <v>46688.4</v>
+        <v>46898.1</v>
       </c>
       <c r="C287">
-        <v>46462.21713573321</v>
+        <v>46832.59180145537</v>
       </c>
       <c r="D287">
-        <v>226.1828642667897</v>
+        <v>65.50819854463043</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5816,13 +5816,13 @@
         <v>290</v>
       </c>
       <c r="B288">
-        <v>46898.1</v>
+        <v>48925.9</v>
       </c>
       <c r="C288">
-        <v>46813.06772698059</v>
+        <v>46615.40626621451</v>
       </c>
       <c r="D288">
-        <v>85.03227301940933</v>
+        <v>2310.493733785494</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5830,13 +5830,13 @@
         <v>291</v>
       </c>
       <c r="B289">
-        <v>48925.9</v>
+        <v>48624.9</v>
       </c>
       <c r="C289">
-        <v>46590.65761407938</v>
+        <v>48369.01423068287</v>
       </c>
       <c r="D289">
-        <v>2335.242385920625</v>
+        <v>255.8857693171303</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5844,13 +5844,13 @@
         <v>292</v>
       </c>
       <c r="B290">
-        <v>48624.9</v>
+        <v>50818.8</v>
       </c>
       <c r="C290">
-        <v>48341.68607990553</v>
+        <v>48731.12307083864</v>
       </c>
       <c r="D290">
-        <v>283.213920094473</v>
+        <v>2087.676929161367</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5858,13 +5858,13 @@
         <v>293</v>
       </c>
       <c r="B291">
-        <v>50818.8</v>
+        <v>50834.3</v>
       </c>
       <c r="C291">
-        <v>48706.45252962007</v>
+        <v>50221.10024641356</v>
       </c>
       <c r="D291">
-        <v>2112.347470379929</v>
+        <v>613.199753586443</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5872,13 +5872,13 @@
         <v>294</v>
       </c>
       <c r="B292">
-        <v>50834.3</v>
+        <v>50436</v>
       </c>
       <c r="C292">
-        <v>50191.43325929107</v>
+        <v>50957.27409273448</v>
       </c>
       <c r="D292">
-        <v>642.8667407089379</v>
+        <v>-521.2740927344785</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5886,13 +5886,13 @@
         <v>295</v>
       </c>
       <c r="B293">
-        <v>50436</v>
+        <v>50797.3</v>
       </c>
       <c r="C293">
-        <v>50929.10703145545</v>
+        <v>50521.21017699946</v>
       </c>
       <c r="D293">
-        <v>-493.1070314554527</v>
+        <v>276.0898230005478</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5900,13 +5900,13 @@
         <v>296</v>
       </c>
       <c r="B294">
-        <v>50797.3</v>
+        <v>50687.4</v>
       </c>
       <c r="C294">
-        <v>50493.47734627004</v>
+        <v>50540.33935476663</v>
       </c>
       <c r="D294">
-        <v>303.8226537299633</v>
+        <v>147.0606452333741</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5914,13 +5914,13 @@
         <v>297</v>
       </c>
       <c r="B295">
-        <v>50687.4</v>
+        <v>47548.1</v>
       </c>
       <c r="C295">
-        <v>50512.31163806688</v>
+        <v>50936.84934038114</v>
       </c>
       <c r="D295">
-        <v>175.0883619331216</v>
+        <v>-3388.749340381139</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5928,13 +5928,13 @@
         <v>298</v>
       </c>
       <c r="B296">
-        <v>47548.1</v>
+        <v>46473.2</v>
       </c>
       <c r="C296">
-        <v>50914.99731460177</v>
+        <v>48136.49061362464</v>
       </c>
       <c r="D296">
-        <v>-3366.897314601774</v>
+        <v>-1663.290613624638</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5942,13 +5942,13 @@
         <v>299</v>
       </c>
       <c r="B297">
-        <v>46473.2</v>
+        <v>47143.8</v>
       </c>
       <c r="C297">
-        <v>48115.01771795891</v>
+        <v>46667.8813594168</v>
       </c>
       <c r="D297">
-        <v>-1641.817717958911</v>
+        <v>475.9186405832079</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5956,13 +5956,13 @@
         <v>300</v>
       </c>
       <c r="B298">
-        <v>47143.8</v>
+        <v>46150</v>
       </c>
       <c r="C298">
-        <v>46654.53191368991</v>
+        <v>46917.67211512413</v>
       </c>
       <c r="D298">
-        <v>489.2680863100977</v>
+        <v>-767.672115124129</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5970,13 +5970,13 @@
         <v>301</v>
       </c>
       <c r="B299">
-        <v>46150</v>
+        <v>47738.3</v>
       </c>
       <c r="C299">
-        <v>46904.74040934835</v>
+        <v>46422.17087094676</v>
       </c>
       <c r="D299">
-        <v>-754.7404093483492</v>
+        <v>1316.129129053246</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5984,13 +5984,13 @@
         <v>302</v>
       </c>
       <c r="B300">
-        <v>47738.3</v>
+        <v>47304.6</v>
       </c>
       <c r="C300">
-        <v>46409.83331214749</v>
+        <v>47298.37905804828</v>
       </c>
       <c r="D300">
-        <v>1328.466687852517</v>
+        <v>6.220941951716668</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5998,13 +5998,13 @@
         <v>303</v>
       </c>
       <c r="B301">
-        <v>47304.6</v>
+        <v>46452.6</v>
       </c>
       <c r="C301">
-        <v>47283.59021069687</v>
+        <v>47219.06360850941</v>
       </c>
       <c r="D301">
-        <v>21.00978930312704</v>
+        <v>-766.4636085094098</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6012,13 +6012,13 @@
         <v>304</v>
       </c>
       <c r="B302">
-        <v>46452.6</v>
+        <v>45858.5</v>
       </c>
       <c r="C302">
-        <v>47201.12580130696</v>
+        <v>46423.9234536654</v>
       </c>
       <c r="D302">
-        <v>-748.5258013069615</v>
+        <v>-565.4234536654039</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6026,13 +6026,13 @@
         <v>305</v>
       </c>
       <c r="B303">
-        <v>45858.5</v>
+        <v>43410</v>
       </c>
       <c r="C303">
-        <v>46405.4006358089</v>
+        <v>46051.55319324884</v>
       </c>
       <c r="D303">
-        <v>-546.9006358088955</v>
+        <v>-2641.553193248845</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6040,13 +6040,13 @@
         <v>306</v>
       </c>
       <c r="B304">
-        <v>43410</v>
+        <v>43124.4</v>
       </c>
       <c r="C304">
-        <v>46035.46867841082</v>
+        <v>43874.85778599352</v>
       </c>
       <c r="D304">
-        <v>-2625.46867841082</v>
+        <v>-750.4577859935234</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6054,13 +6054,13 @@
         <v>307</v>
       </c>
       <c r="B305">
-        <v>43124.4</v>
+        <v>41523.6</v>
       </c>
       <c r="C305">
-        <v>43855.74946877679</v>
+        <v>42983.02455130054</v>
       </c>
       <c r="D305">
-        <v>-731.3494687767889</v>
+        <v>-1459.424551300544</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6068,13 +6068,13 @@
         <v>308</v>
       </c>
       <c r="B306">
-        <v>41523.6</v>
+        <v>41693.2</v>
       </c>
       <c r="C306">
-        <v>42966.43709573055</v>
+        <v>41538.79579772551</v>
       </c>
       <c r="D306">
-        <v>-1442.837095730552</v>
+        <v>154.4042022744907</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6082,13 +6082,13 @@
         <v>309</v>
       </c>
       <c r="B307">
-        <v>41693.2</v>
+        <v>41862.9</v>
       </c>
       <c r="C307">
-        <v>41520.85855420657</v>
+        <v>41391.49037253237</v>
       </c>
       <c r="D307">
-        <v>172.3414457934268</v>
+        <v>471.4096274676267</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6096,13 +6096,13 @@
         <v>310</v>
       </c>
       <c r="B308">
-        <v>41862.9</v>
+        <v>41855.3</v>
       </c>
       <c r="C308">
-        <v>41376.43658304984</v>
+        <v>41748.61777274725</v>
       </c>
       <c r="D308">
-        <v>486.4634169501587</v>
+        <v>106.682227252757</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6110,13 +6110,13 @@
         <v>311</v>
       </c>
       <c r="B309">
-        <v>41855.3</v>
+        <v>42728.8</v>
       </c>
       <c r="C309">
-        <v>41734.18748692748</v>
+        <v>41265.22204902321</v>
       </c>
       <c r="D309">
-        <v>121.1125130725268</v>
+        <v>1463.577950976796</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6124,13 +6124,13 @@
         <v>312</v>
       </c>
       <c r="B310">
-        <v>42728.8</v>
+        <v>43927.8</v>
       </c>
       <c r="C310">
-        <v>41241.49665767651</v>
+        <v>42341.20663218085</v>
       </c>
       <c r="D310">
-        <v>1487.303342323488</v>
+        <v>1586.593367819158</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6138,13 +6138,13 @@
         <v>313</v>
       </c>
       <c r="B311">
-        <v>43927.8</v>
+        <v>42550</v>
       </c>
       <c r="C311">
-        <v>42320.05630276682</v>
+        <v>43574.174717408</v>
       </c>
       <c r="D311">
-        <v>1607.743697233178</v>
+        <v>-1024.174717408001</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6152,13 +6152,13 @@
         <v>314</v>
       </c>
       <c r="B312">
-        <v>42550</v>
+        <v>43090</v>
       </c>
       <c r="C312">
-        <v>43550.22666926844</v>
+        <v>42816.58320280337</v>
       </c>
       <c r="D312">
-        <v>-1000.226669268435</v>
+        <v>273.4167971966308</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6166,13 +6166,13 @@
         <v>315</v>
       </c>
       <c r="B313">
-        <v>43090</v>
+        <v>43111.5</v>
       </c>
       <c r="C313">
-        <v>42791.7977624077</v>
+        <v>42778.85999540392</v>
       </c>
       <c r="D313">
-        <v>298.202237592297</v>
+        <v>332.6400045960836</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6180,13 +6180,13 @@
         <v>316</v>
       </c>
       <c r="B314">
-        <v>43111.5</v>
+        <v>43114.5</v>
       </c>
       <c r="C314">
-        <v>42753.3218554069</v>
+        <v>43056.93667536675</v>
       </c>
       <c r="D314">
-        <v>358.1781445930974</v>
+        <v>57.56332463325089</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6194,13 +6194,13 @@
         <v>317</v>
       </c>
       <c r="B315">
-        <v>43114.5</v>
+        <v>42248.1</v>
       </c>
       <c r="C315">
-        <v>43033.53667268644</v>
+        <v>43000.43338790787</v>
       </c>
       <c r="D315">
-        <v>80.96332731355506</v>
+        <v>-752.3333879078709</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6208,13 +6208,13 @@
         <v>318</v>
       </c>
       <c r="B316">
-        <v>42248.1</v>
+        <v>42383</v>
       </c>
       <c r="C316">
-        <v>42977.60321455485</v>
+        <v>42224.36155112013</v>
       </c>
       <c r="D316">
-        <v>-729.5032145548539</v>
+        <v>158.6384488798722</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6222,13 +6222,13 @@
         <v>319</v>
       </c>
       <c r="B317">
-        <v>42383</v>
+        <v>41686.2</v>
       </c>
       <c r="C317">
-        <v>42201.64782487242</v>
+        <v>42102.24324871987</v>
       </c>
       <c r="D317">
-        <v>181.3521751275839</v>
+        <v>-416.0432487198777</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6236,13 +6236,13 @@
         <v>320</v>
       </c>
       <c r="B318">
-        <v>41686.2</v>
+        <v>40686.9</v>
       </c>
       <c r="C318">
-        <v>42080.89445753214</v>
+        <v>41669.39030252439</v>
       </c>
       <c r="D318">
-        <v>-394.6944575321395</v>
+        <v>-982.4903025243839</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6250,13 +6250,13 @@
         <v>321</v>
       </c>
       <c r="B319">
-        <v>40686.9</v>
+        <v>36468.4</v>
       </c>
       <c r="C319">
-        <v>41650.91601454963</v>
+        <v>41177.29364459261</v>
       </c>
       <c r="D319">
-        <v>-964.0160145496266</v>
+        <v>-4708.893644592608</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6264,13 +6264,13 @@
         <v>322</v>
       </c>
       <c r="B320">
-        <v>36468.4</v>
+        <v>35067.6</v>
       </c>
       <c r="C320">
-        <v>41164.38744838284</v>
+        <v>37114.88510525492</v>
       </c>
       <c r="D320">
-        <v>-4695.987448382839</v>
+        <v>-2047.285105254923</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6278,13 +6278,13 @@
         <v>323</v>
       </c>
       <c r="B321">
-        <v>35067.6</v>
+        <v>36277.5</v>
       </c>
       <c r="C321">
-        <v>37097.56544932172</v>
+        <v>35035.78316285203</v>
       </c>
       <c r="D321">
-        <v>-2029.965449321717</v>
+        <v>1241.716837147971</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6292,13 +6292,13 @@
         <v>324</v>
       </c>
       <c r="B322">
-        <v>36277.5</v>
+        <v>36699.5</v>
       </c>
       <c r="C322">
-        <v>35026.86316314225</v>
+        <v>35746.35033566954</v>
       </c>
       <c r="D322">
-        <v>1250.636836857753</v>
+        <v>953.1496643304636</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6306,13 +6306,13 @@
         <v>325</v>
       </c>
       <c r="B323">
-        <v>36699.5</v>
+        <v>36987.8</v>
       </c>
       <c r="C323">
-        <v>35737.96043379609</v>
+        <v>35827.53227823397</v>
       </c>
       <c r="D323">
-        <v>961.5395662039082</v>
+        <v>1160.267721766031</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6320,13 +6320,13 @@
         <v>326</v>
       </c>
       <c r="B324">
-        <v>36987.8</v>
+        <v>36827.6</v>
       </c>
       <c r="C324">
-        <v>35806.03302501985</v>
+        <v>36653.66391984246</v>
       </c>
       <c r="D324">
-        <v>1181.766974980157</v>
+        <v>173.9360801575385</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6334,13 +6334,13 @@
         <v>327</v>
       </c>
       <c r="B325">
-        <v>36827.6</v>
+        <v>37200.5</v>
       </c>
       <c r="C325">
-        <v>36637.97493422586</v>
+        <v>37015.04992933499</v>
       </c>
       <c r="D325">
-        <v>189.6250657741402</v>
+        <v>185.4500706650069</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6348,13 +6348,13 @@
         <v>328</v>
       </c>
       <c r="B326">
-        <v>37200.5</v>
+        <v>37737.9</v>
       </c>
       <c r="C326">
-        <v>37001.03406286899</v>
+        <v>36699.14617217289</v>
       </c>
       <c r="D326">
-        <v>199.4659371310117</v>
+        <v>1038.753827827109</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6362,13 +6362,13 @@
         <v>329</v>
       </c>
       <c r="B327">
-        <v>37737.9</v>
+        <v>38164.9</v>
       </c>
       <c r="C327">
-        <v>36677.14477066339</v>
+        <v>37326.65509388573</v>
       </c>
       <c r="D327">
-        <v>1060.75522933661</v>
+        <v>838.2449061142688</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6376,13 +6376,13 @@
         <v>330</v>
       </c>
       <c r="B328">
-        <v>38164.9</v>
+        <v>37930.1</v>
       </c>
       <c r="C328">
-        <v>37302.59711673517</v>
+        <v>37993.70802710969</v>
       </c>
       <c r="D328">
-        <v>862.3028832648342</v>
+        <v>-63.6080271096871</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6390,13 +6390,13 @@
         <v>331</v>
       </c>
       <c r="B329">
-        <v>37930.1</v>
+        <v>38512.1</v>
       </c>
       <c r="C329">
-        <v>37968.81430069062</v>
+        <v>37813.83251253129</v>
       </c>
       <c r="D329">
-        <v>-38.71430069061898</v>
+        <v>698.2674874687073</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6404,13 +6404,13 @@
         <v>332</v>
       </c>
       <c r="B330">
-        <v>38512.1</v>
+        <v>38719.9</v>
       </c>
       <c r="C330">
-        <v>37788.69328869363</v>
+        <v>38056.3148045347</v>
       </c>
       <c r="D330">
-        <v>723.406711306372</v>
+        <v>663.5851954653044</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6418,13 +6418,13 @@
         <v>333</v>
       </c>
       <c r="B331">
-        <v>38719.9</v>
+        <v>36903.3</v>
       </c>
       <c r="C331">
-        <v>38029.48478864318</v>
+        <v>38631.39458036877</v>
       </c>
       <c r="D331">
-        <v>690.4152113568198</v>
+        <v>-1728.094580368772</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6432,13 +6432,13 @@
         <v>334</v>
       </c>
       <c r="B332">
-        <v>36903.3</v>
+        <v>37324.4</v>
       </c>
       <c r="C332">
-        <v>38608.6276668166</v>
+        <v>37191.56099516468</v>
       </c>
       <c r="D332">
-        <v>-1705.327666816593</v>
+        <v>132.8390048353176</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6446,13 +6446,13 @@
         <v>335</v>
       </c>
       <c r="B333">
-        <v>37324.4</v>
+        <v>41585.5</v>
       </c>
       <c r="C333">
-        <v>37170.53409573199</v>
+        <v>37013.4542467559</v>
       </c>
       <c r="D333">
-        <v>153.8659042680156</v>
+        <v>4572.0457532441</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6460,13 +6460,13 @@
         <v>336</v>
       </c>
       <c r="B334">
-        <v>41585.5</v>
+        <v>41419</v>
       </c>
       <c r="C334">
-        <v>36994.66168128322</v>
+        <v>40492.26720133529</v>
       </c>
       <c r="D334">
-        <v>4590.838318716778</v>
+        <v>926.7327986647069</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6474,13 +6474,13 @@
         <v>337</v>
       </c>
       <c r="B335">
-        <v>41419</v>
+        <v>42419.5</v>
       </c>
       <c r="C335">
-        <v>40467.07922587563</v>
+        <v>41415.59366139258</v>
       </c>
       <c r="D335">
-        <v>951.9207741243736</v>
+        <v>1003.906338607419</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6488,13 +6488,13 @@
         <v>338</v>
       </c>
       <c r="B336">
-        <v>42419.5</v>
+        <v>43867.2</v>
       </c>
       <c r="C336">
-        <v>41391.4699841111</v>
+        <v>42202.09700305001</v>
       </c>
       <c r="D336">
-        <v>1028.0300158889</v>
+        <v>1665.102996949987</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6502,13 +6502,13 @@
         <v>339</v>
       </c>
       <c r="B337">
-        <v>43867.2</v>
+        <v>44079.1</v>
       </c>
       <c r="C337">
-        <v>42179.28839111932</v>
+        <v>43559.06107426488</v>
       </c>
       <c r="D337">
-        <v>1687.911608880677</v>
+        <v>520.0389257351198</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6516,13 +6516,13 @@
         <v>340</v>
       </c>
       <c r="B338">
-        <v>44079.1</v>
+        <v>44420</v>
       </c>
       <c r="C338">
-        <v>43534.03646691599</v>
+        <v>44142.96490727971</v>
       </c>
       <c r="D338">
-        <v>545.0635330840087</v>
+        <v>277.035092720289</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6530,13 +6530,13 @@
         <v>341</v>
       </c>
       <c r="B339">
-        <v>44420</v>
+        <v>43537.5</v>
       </c>
       <c r="C339">
-        <v>44119.82277360621</v>
+        <v>44324.41635843245</v>
       </c>
       <c r="D339">
-        <v>300.1772263937892</v>
+        <v>-786.9163584324488</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6544,13 +6544,13 @@
         <v>342</v>
       </c>
       <c r="B340">
-        <v>43537.5</v>
+        <v>42400.2</v>
       </c>
       <c r="C340">
-        <v>44301.70065982397</v>
+        <v>44094.4588771411</v>
       </c>
       <c r="D340">
-        <v>-764.2006598239677</v>
+        <v>-1694.258877141103</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6558,13 +6558,13 @@
         <v>343</v>
       </c>
       <c r="B341">
-        <v>42400.2</v>
+        <v>42241</v>
       </c>
       <c r="C341">
-        <v>44077.38203932765</v>
+        <v>42719.40542347931</v>
       </c>
       <c r="D341">
-        <v>-1677.182039327658</v>
+        <v>-478.4054234793075</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6572,13 +6572,13 @@
         <v>344</v>
       </c>
       <c r="B342">
-        <v>42241</v>
+        <v>42062.6</v>
       </c>
       <c r="C342">
-        <v>42705.91938261378</v>
+        <v>42351.04632228608</v>
       </c>
       <c r="D342">
-        <v>-464.919382613778</v>
+        <v>-288.4463222860795</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6586,13 +6586,13 @@
         <v>345</v>
       </c>
       <c r="B343">
-        <v>42062.6</v>
+        <v>42563.5</v>
       </c>
       <c r="C343">
-        <v>42342.61733791717</v>
+        <v>42220.57600282826</v>
       </c>
       <c r="D343">
-        <v>-280.0173379171683</v>
+        <v>342.9239971717398</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6600,13 +6600,13 @@
         <v>346</v>
       </c>
       <c r="B344">
-        <v>42563.5</v>
+        <v>44563.1</v>
       </c>
       <c r="C344">
-        <v>42214.27974536007</v>
+        <v>42425.68232918377</v>
       </c>
       <c r="D344">
-        <v>349.2202546399349</v>
+        <v>2137.417670816227</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6614,13 +6614,13 @@
         <v>347</v>
       </c>
       <c r="B345">
-        <v>44563.1</v>
+        <v>43873.1</v>
       </c>
       <c r="C345">
-        <v>42417.26768256493</v>
+        <v>44148.24116728761</v>
       </c>
       <c r="D345">
-        <v>2145.832317435073</v>
+        <v>-275.1411672876129</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6628,13 +6628,13 @@
         <v>348</v>
       </c>
       <c r="B346">
-        <v>43873.1</v>
+        <v>40543.9</v>
       </c>
       <c r="C346">
-        <v>44136.88244218439</v>
+        <v>43934.12731279687</v>
       </c>
       <c r="D346">
-        <v>-263.7824421843907</v>
+        <v>-3390.227312796866</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6642,13 +6642,13 @@
         <v>349</v>
       </c>
       <c r="B347">
-        <v>40543.9</v>
+        <v>40007.4</v>
       </c>
       <c r="C347">
-        <v>43920.05445524318</v>
+        <v>41240.14656053842</v>
       </c>
       <c r="D347">
-        <v>-3376.154455243181</v>
+        <v>-1232.74656053842</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6656,13 +6656,13 @@
         <v>350</v>
       </c>
       <c r="B348">
-        <v>40007.4</v>
+        <v>40095.8</v>
       </c>
       <c r="C348">
-        <v>41227.95513628192</v>
+        <v>40072.51168134777</v>
       </c>
       <c r="D348">
-        <v>-1220.555136281917</v>
+        <v>23.28831865223037</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6670,13 +6670,13 @@
         <v>351</v>
       </c>
       <c r="B349">
-        <v>40095.8</v>
+        <v>38400</v>
       </c>
       <c r="C349">
-        <v>40064.84568110055</v>
+        <v>40042.05193713093</v>
       </c>
       <c r="D349">
-        <v>30.95431889945758</v>
+        <v>-1642.051937130927</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6684,13 +6684,13 @@
         <v>352</v>
       </c>
       <c r="B350">
-        <v>38400</v>
+        <v>37019.2</v>
       </c>
       <c r="C350">
-        <v>40034.42151447937</v>
+        <v>38638.45521018602</v>
       </c>
       <c r="D350">
-        <v>-1634.421514479371</v>
+        <v>-1619.255210186027</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6698,13 +6698,13 @@
         <v>353</v>
       </c>
       <c r="B351">
-        <v>37019.2</v>
+        <v>38256.3</v>
       </c>
       <c r="C351">
-        <v>38628.85953936916</v>
+        <v>37436.90981299047</v>
       </c>
       <c r="D351">
-        <v>-1609.659539369168</v>
+        <v>819.390187009536</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6712,13 +6712,13 @@
         <v>354</v>
       </c>
       <c r="B352">
-        <v>38256.3</v>
+        <v>37250.1</v>
       </c>
       <c r="C352">
-        <v>37431.76857746723</v>
+        <v>37750.53977486716</v>
       </c>
       <c r="D352">
-        <v>824.5314225327747</v>
+        <v>-500.4397748671618</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6726,13 +6726,13 @@
         <v>355</v>
       </c>
       <c r="B353">
-        <v>37250.1</v>
+        <v>38340.8</v>
       </c>
       <c r="C353">
-        <v>37741.12822643532</v>
+        <v>37554.06162343123</v>
       </c>
       <c r="D353">
-        <v>-491.0282264353227</v>
+        <v>786.7383765687773</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6740,13 +6740,13 @@
         <v>356</v>
       </c>
       <c r="B354">
-        <v>38340.8</v>
+        <v>39233.5</v>
       </c>
       <c r="C354">
-        <v>37546.10446867814</v>
+        <v>37640.71862190698</v>
       </c>
       <c r="D354">
-        <v>794.6955313218641</v>
+        <v>1592.781378093023</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6754,13 +6754,13 @@
         <v>357</v>
       </c>
       <c r="B355">
-        <v>39233.5</v>
+        <v>39120.2</v>
       </c>
       <c r="C355">
-        <v>37619.29926739896</v>
+        <v>39009.42050868276</v>
       </c>
       <c r="D355">
-        <v>1614.200732601035</v>
+        <v>110.7794913172329</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6768,13 +6768,13 @@
         <v>358</v>
       </c>
       <c r="B356">
-        <v>39120.2</v>
+        <v>37709.1</v>
       </c>
       <c r="C356">
-        <v>38992.32235485975</v>
+        <v>39210.34401061779</v>
       </c>
       <c r="D356">
-        <v>127.8776451402518</v>
+        <v>-1501.244010617796</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6782,13 +6782,13 @@
         <v>359</v>
       </c>
       <c r="B357">
-        <v>37709.1</v>
+        <v>43194.7</v>
       </c>
       <c r="C357">
-        <v>39192.96626482961</v>
+        <v>37988.12203392672</v>
       </c>
       <c r="D357">
-        <v>-1483.866264829609</v>
+        <v>5206.577966073273</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6796,13 +6796,13 @@
         <v>360</v>
       </c>
       <c r="B358">
-        <v>43194.7</v>
+        <v>44427.9</v>
       </c>
       <c r="C358">
-        <v>37969.70085292937</v>
+        <v>42030.91528845247</v>
       </c>
       <c r="D358">
-        <v>5224.99914707063</v>
+        <v>2396.984711547528</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6810,13 +6810,13 @@
         <v>361</v>
       </c>
       <c r="B359">
-        <v>44427.9</v>
+        <v>43922.5</v>
       </c>
       <c r="C359">
-        <v>42004.6482507513</v>
+        <v>44292.93592059075</v>
       </c>
       <c r="D359">
-        <v>2423.251749248702</v>
+        <v>-370.4359205907458</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6824,13 +6824,13 @@
         <v>362</v>
       </c>
       <c r="B360">
-        <v>43922.5</v>
+        <v>42465</v>
       </c>
       <c r="C360">
-        <v>44264.93351378782</v>
+        <v>44226.08009739753</v>
       </c>
       <c r="D360">
-        <v>-342.4335137878224</v>
+        <v>-1761.080097397535</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6838,13 +6838,13 @@
         <v>363</v>
       </c>
       <c r="B361">
-        <v>42465</v>
+        <v>39137.5</v>
       </c>
       <c r="C361">
-        <v>44201.04954932716</v>
+        <v>42776.13431290078</v>
       </c>
       <c r="D361">
-        <v>-1736.049549327159</v>
+        <v>-3638.63431290078</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6852,13 +6852,13 @@
         <v>364</v>
       </c>
       <c r="B362">
-        <v>39137.5</v>
+        <v>39396.4</v>
       </c>
       <c r="C362">
-        <v>42753.21493767745</v>
+        <v>39801.84138334494</v>
       </c>
       <c r="D362">
-        <v>-3615.714937677447</v>
+        <v>-405.4413833449362</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6866,13 +6866,13 @@
         <v>365</v>
       </c>
       <c r="B363">
-        <v>39396.4</v>
+        <v>38416.3</v>
       </c>
       <c r="C363">
-        <v>39784.44290824463</v>
+        <v>39285.07371750201</v>
       </c>
       <c r="D363">
-        <v>-388.0429082446281</v>
+        <v>-868.7737175020084</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6880,13 +6880,13 @@
         <v>366</v>
       </c>
       <c r="B364">
-        <v>38416.3</v>
+        <v>38024</v>
       </c>
       <c r="C364">
-        <v>39276.90981573115</v>
+        <v>38648.3081275732</v>
       </c>
       <c r="D364">
-        <v>-860.6098157311499</v>
+        <v>-624.3081275732038</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6894,13 +6894,13 @@
         <v>367</v>
       </c>
       <c r="B365">
-        <v>38024</v>
+        <v>38752.6</v>
       </c>
       <c r="C365">
-        <v>38641.22170672913</v>
+        <v>38149.5317569828</v>
       </c>
       <c r="D365">
-        <v>-617.2217067291349</v>
+        <v>603.0682430172019</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6908,13 +6908,13 @@
         <v>368</v>
       </c>
       <c r="B366">
-        <v>38752.6</v>
+        <v>41965.3</v>
       </c>
       <c r="C366">
-        <v>38144.70609417635</v>
+        <v>38661.10456075075</v>
       </c>
       <c r="D366">
-        <v>607.8939058236501</v>
+        <v>3304.195439249255</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6922,13 +6922,13 @@
         <v>369</v>
       </c>
       <c r="B367">
-        <v>41965.3</v>
+        <v>39435.8</v>
       </c>
       <c r="C367">
-        <v>38658.30267653252</v>
+        <v>41330.2860594811</v>
       </c>
       <c r="D367">
-        <v>3306.997323467484</v>
+        <v>-1894.486059481096</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6936,13 +6936,13 @@
         <v>370</v>
       </c>
       <c r="B368">
-        <v>39435.8</v>
+        <v>38732.1</v>
       </c>
       <c r="C368">
-        <v>41320.098210974</v>
+        <v>39831.21402478056</v>
       </c>
       <c r="D368">
-        <v>-1884.298210973997</v>
+        <v>-1099.11402478056</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6950,13 +6950,13 @@
         <v>371</v>
       </c>
       <c r="B369">
-        <v>38732.1</v>
+        <v>38785</v>
       </c>
       <c r="C369">
-        <v>39815.33798542513</v>
+        <v>38959.56299403529</v>
       </c>
       <c r="D369">
-        <v>-1083.237985425127</v>
+        <v>-174.5629940352883</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6964,13 +6964,13 @@
         <v>372</v>
       </c>
       <c r="B370">
-        <v>38785</v>
+        <v>37788.4</v>
       </c>
       <c r="C370">
-        <v>38948.11500892568</v>
+        <v>38919.53314391964</v>
       </c>
       <c r="D370">
-        <v>-163.1150089256844</v>
+        <v>-1131.133143919636</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6978,13 +6978,13 @@
         <v>373</v>
       </c>
       <c r="B371">
-        <v>37788.4</v>
+        <v>39689.2</v>
       </c>
       <c r="C371">
-        <v>38908.79176074655</v>
+        <v>38055.4035551457</v>
       </c>
       <c r="D371">
-        <v>-1120.391760746548</v>
+        <v>1633.796444854299</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6992,13 +6992,13 @@
         <v>374</v>
       </c>
       <c r="B372">
-        <v>39689.2</v>
+        <v>39325.4</v>
       </c>
       <c r="C372">
-        <v>38042.84413772299</v>
+        <v>39223.23683876851</v>
       </c>
       <c r="D372">
-        <v>1646.355862277007</v>
+        <v>102.1631612314959</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7006,13 +7006,13 @@
         <v>375</v>
       </c>
       <c r="B373">
-        <v>39325.4</v>
+        <v>41124</v>
       </c>
       <c r="C373">
-        <v>39207.26366677989</v>
+        <v>39169.49563769543</v>
       </c>
       <c r="D373">
-        <v>118.1363332201072</v>
+        <v>1954.504362304571</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7020,13 +7020,13 @@
         <v>376</v>
       </c>
       <c r="B374">
-        <v>41124</v>
+        <v>40945.6</v>
       </c>
       <c r="C374">
-        <v>39150.20648553445</v>
+        <v>40707.31381842375</v>
       </c>
       <c r="D374">
-        <v>1973.793514465549</v>
+        <v>238.2861815762444</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7034,13 +7034,13 @@
         <v>377</v>
       </c>
       <c r="B375">
-        <v>40945.6</v>
+        <v>41775.1</v>
       </c>
       <c r="C375">
-        <v>40688.94936971307</v>
+        <v>40990.62482312165</v>
       </c>
       <c r="D375">
-        <v>256.6506302869311</v>
+        <v>784.4751768783462</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7048,13 +7048,13 @@
         <v>378</v>
       </c>
       <c r="B376">
-        <v>41775.1</v>
+        <v>42218</v>
       </c>
       <c r="C376">
-        <v>40973.2586457143</v>
+        <v>41557.9217796072</v>
       </c>
       <c r="D376">
-        <v>801.8413542856943</v>
+        <v>660.0782203928029</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7062,13 +7062,13 @@
         <v>379</v>
       </c>
       <c r="B377">
-        <v>42218</v>
+        <v>41289</v>
       </c>
       <c r="C377">
-        <v>41537.67307812108</v>
+        <v>42132.67779072008</v>
       </c>
       <c r="D377">
-        <v>680.326921878921</v>
+        <v>-843.6777907200812</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7076,13 +7076,13 @@
         <v>380</v>
       </c>
       <c r="B378">
-        <v>41289</v>
+        <v>41014.3</v>
       </c>
       <c r="C378">
-        <v>42112.82258084825</v>
+        <v>41482.81290952481</v>
       </c>
       <c r="D378">
-        <v>-823.822580848253</v>
+        <v>-468.5129095248049</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7090,13 +7090,13 @@
         <v>381</v>
       </c>
       <c r="B379">
-        <v>41014.3</v>
+        <v>42377.8</v>
       </c>
       <c r="C379">
-        <v>41463.95747340001</v>
+        <v>41055.71066200015</v>
       </c>
       <c r="D379">
-        <v>-449.6574734000023</v>
+        <v>1322.089337999852</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7104,13 +7104,13 @@
         <v>382</v>
       </c>
       <c r="B380">
-        <v>42377.8</v>
+        <v>42910.3</v>
       </c>
       <c r="C380">
-        <v>41040.0217320411</v>
+        <v>42302.0157979244</v>
       </c>
       <c r="D380">
-        <v>1337.7782679589</v>
+        <v>608.2842020755998</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7118,13 +7118,13 @@
         <v>383</v>
       </c>
       <c r="B381">
-        <v>42910.3</v>
+        <v>43989</v>
       </c>
       <c r="C381">
-        <v>42288.4697440678</v>
+        <v>42737.62492579214</v>
       </c>
       <c r="D381">
-        <v>621.8302559322037</v>
+        <v>1251.375074207863</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7132,13 +7132,13 @@
         <v>384</v>
       </c>
       <c r="B382">
-        <v>43989</v>
+        <v>44315.5</v>
       </c>
       <c r="C382">
-        <v>42721.04416270139</v>
+        <v>43792.82904261596</v>
       </c>
       <c r="D382">
-        <v>1267.955837298607</v>
+        <v>522.6709573840417</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7146,13 +7146,13 @@
         <v>385</v>
       </c>
       <c r="B383">
-        <v>44315.5</v>
+        <v>44548</v>
       </c>
       <c r="C383">
-        <v>43776.36254314247</v>
+        <v>44437.99975636521</v>
       </c>
       <c r="D383">
-        <v>539.1374568575266</v>
+        <v>110.0002436347932</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7160,13 +7160,13 @@
         <v>386</v>
       </c>
       <c r="B384">
-        <v>44548</v>
+        <v>46855.2</v>
       </c>
       <c r="C384">
-        <v>44423.2755092396</v>
+        <v>44611.43439432717</v>
       </c>
       <c r="D384">
-        <v>124.7244907604036</v>
+        <v>2243.765605672823</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7174,13 +7174,13 @@
         <v>387</v>
       </c>
       <c r="B385">
-        <v>46855.2</v>
+        <v>47137.9</v>
       </c>
       <c r="C385">
-        <v>44597.13407739972</v>
+        <v>46413.61138282269</v>
       </c>
       <c r="D385">
-        <v>2258.065922600275</v>
+        <v>724.2886171773134</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7188,13 +7188,13 @@
         <v>388</v>
       </c>
       <c r="B386">
-        <v>47137.9</v>
+        <v>47440.2</v>
       </c>
       <c r="C386">
-        <v>46394.89667783318</v>
+        <v>47460.20149893108</v>
       </c>
       <c r="D386">
-        <v>743.00332216682</v>
+        <v>-20.00149893108028</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7202,13 +7202,13 @@
         <v>389</v>
       </c>
       <c r="B387">
-        <v>47440.2</v>
+        <v>47059.3</v>
       </c>
       <c r="C387">
-        <v>47444.15131582993</v>
+        <v>47637.51157419408</v>
       </c>
       <c r="D387">
-        <v>-3.951315829937812</v>
+        <v>-578.2115741940725</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7216,13 +7216,13 @@
         <v>390</v>
       </c>
       <c r="B388">
-        <v>47059.3</v>
+        <v>45524.3</v>
       </c>
       <c r="C388">
-        <v>47621.48748796374</v>
+        <v>47251.8273754175</v>
       </c>
       <c r="D388">
-        <v>-562.1874879637326</v>
+        <v>-1727.527375417492</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7230,13 +7230,13 @@
         <v>391</v>
       </c>
       <c r="B389">
-        <v>45524.3</v>
+        <v>46312</v>
       </c>
       <c r="C389">
-        <v>47236.56388493297</v>
+        <v>46050.25862462959</v>
       </c>
       <c r="D389">
-        <v>-1712.263884932967</v>
+        <v>261.7413753704095</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7244,13 +7244,13 @@
         <v>392</v>
       </c>
       <c r="B390">
-        <v>46312</v>
+        <v>45828.6</v>
       </c>
       <c r="C390">
-        <v>46038.90878030604</v>
+        <v>46028.62202988438</v>
       </c>
       <c r="D390">
-        <v>273.0912196939607</v>
+        <v>-200.0220298843778</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7258,13 +7258,13 @@
         <v>393</v>
       </c>
       <c r="B391">
-        <v>45828.6</v>
+        <v>46423.4</v>
       </c>
       <c r="C391">
-        <v>46015.42403081326</v>
+        <v>46194.56972917543</v>
       </c>
       <c r="D391">
-        <v>-186.824030813259</v>
+        <v>228.8302708245756</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7272,13 +7272,13 @@
         <v>394</v>
       </c>
       <c r="B392">
-        <v>46423.4</v>
+        <v>46617.1</v>
       </c>
       <c r="C392">
-        <v>46187.20951229885</v>
+        <v>46528.23665729515</v>
       </c>
       <c r="D392">
-        <v>236.1904877011475</v>
+        <v>88.86334270484804</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7286,13 +7286,13 @@
         <v>395</v>
       </c>
       <c r="B393">
-        <v>46617.1</v>
+        <v>45479.2</v>
       </c>
       <c r="C393">
-        <v>46521.11396566678</v>
+        <v>46400.13377291369</v>
       </c>
       <c r="D393">
-        <v>95.98603433321841</v>
+        <v>-920.9337729136969</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7300,13 +7300,13 @@
         <v>396</v>
       </c>
       <c r="B394">
-        <v>45479.2</v>
+        <v>43179.4</v>
       </c>
       <c r="C394">
-        <v>46387.76592185888</v>
+        <v>45884.16101385217</v>
       </c>
       <c r="D394">
-        <v>-908.5659218588844</v>
+        <v>-2704.76101385217</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7314,13 +7314,13 @@
         <v>397</v>
       </c>
       <c r="B395">
-        <v>43179.4</v>
+        <v>43469.8</v>
       </c>
       <c r="C395">
-        <v>45876.29729137848</v>
+        <v>43716.08690701603</v>
       </c>
       <c r="D395">
-        <v>-2696.897291378475</v>
+        <v>-246.2869070160305</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7328,13 +7328,13 @@
         <v>398</v>
       </c>
       <c r="B396">
-        <v>43469.8</v>
+        <v>42282.6</v>
       </c>
       <c r="C396">
-        <v>43708.47281554142</v>
+        <v>43405.79869489259</v>
       </c>
       <c r="D396">
-        <v>-238.6728155414166</v>
+        <v>-1123.198694892591</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7342,13 +7342,13 @@
         <v>399</v>
       </c>
       <c r="B397">
-        <v>42282.6</v>
+        <v>42764</v>
       </c>
       <c r="C397">
-        <v>43400.12275760759</v>
+        <v>42604.4635354874</v>
       </c>
       <c r="D397">
-        <v>-1117.522757607592</v>
+        <v>159.5364645126028</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7356,13 +7356,13 @@
         <v>400</v>
       </c>
       <c r="B398">
-        <v>42764</v>
+        <v>42160</v>
       </c>
       <c r="C398">
-        <v>42597.77597100164</v>
+        <v>42587.97373680873</v>
       </c>
       <c r="D398">
-        <v>166.2240289983602</v>
+        <v>-427.9737368087299</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7370,13 +7370,13 @@
         <v>401</v>
       </c>
       <c r="B399">
-        <v>42160</v>
+        <v>39534.6</v>
       </c>
       <c r="C399">
-        <v>42580.21432026564</v>
+        <v>42305.49027035016</v>
       </c>
       <c r="D399">
-        <v>-420.2143202656443</v>
+        <v>-2770.890270350166</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7384,13 +7384,13 @@
         <v>402</v>
       </c>
       <c r="B400">
-        <v>39534.6</v>
+        <v>40078.7</v>
       </c>
       <c r="C400">
-        <v>42296.43996691164</v>
+        <v>40020.32577762104</v>
       </c>
       <c r="D400">
-        <v>-2761.839966911641</v>
+        <v>58.37422237895225</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7398,13 +7398,13 @@
         <v>403</v>
       </c>
       <c r="B401">
-        <v>40078.7</v>
+        <v>41150</v>
       </c>
       <c r="C401">
-        <v>40010.60393189975</v>
+        <v>39929.62863118342</v>
       </c>
       <c r="D401">
-        <v>68.09606810024707</v>
+        <v>1220.371368816581</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7412,13 +7412,13 @@
         <v>404</v>
       </c>
       <c r="B402">
-        <v>41150</v>
+        <v>39954.9</v>
       </c>
       <c r="C402">
-        <v>39921.98921307961</v>
+        <v>40795.97426605752</v>
       </c>
       <c r="D402">
-        <v>1228.010786920393</v>
+        <v>-841.0742660575197</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7426,13 +7426,13 @@
         <v>405</v>
       </c>
       <c r="B403">
-        <v>39954.9</v>
+        <v>40569.9</v>
       </c>
       <c r="C403">
-        <v>40781.5424625124</v>
+        <v>40127.04711643284</v>
       </c>
       <c r="D403">
-        <v>-826.6424625123982</v>
+        <v>442.8528835671605</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7440,13 +7440,13 @@
         <v>406</v>
       </c>
       <c r="B404">
-        <v>40569.9</v>
+        <v>40381</v>
       </c>
       <c r="C404">
-        <v>40110.75062734859</v>
+        <v>40375.98870735843</v>
       </c>
       <c r="D404">
-        <v>459.1493726514091</v>
+        <v>5.011292641567707</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7454,13 +7454,13 @@
         <v>407</v>
       </c>
       <c r="B405">
-        <v>40381</v>
+        <v>39681.2</v>
       </c>
       <c r="C405">
-        <v>40360.07168987895</v>
+        <v>40288.77340249529</v>
       </c>
       <c r="D405">
-        <v>20.9283101210458</v>
+        <v>-607.5734024952908</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7468,13 +7468,13 @@
         <v>408</v>
       </c>
       <c r="B406">
-        <v>39681.2</v>
+        <v>40811.3</v>
       </c>
       <c r="C406">
-        <v>40270.96395135172</v>
+        <v>39783.77124964193</v>
       </c>
       <c r="D406">
-        <v>-589.7639513517206</v>
+        <v>1027.528750358069</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7482,13 +7482,13 @@
         <v>409</v>
       </c>
       <c r="B407">
-        <v>40811.3</v>
+        <v>41506.2</v>
       </c>
       <c r="C407">
-        <v>39767.02519027285</v>
+        <v>40273.6639381366</v>
       </c>
       <c r="D407">
-        <v>1044.274809727154</v>
+        <v>1232.536061863393</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7496,13 +7496,13 @@
         <v>410</v>
       </c>
       <c r="B408">
-        <v>41506.2</v>
+        <v>41369.9</v>
       </c>
       <c r="C408">
-        <v>40251.0699691261</v>
+        <v>41321.52872043144</v>
       </c>
       <c r="D408">
-        <v>1255.130030873901</v>
+        <v>48.37127956855693</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7510,13 +7510,13 @@
         <v>411</v>
       </c>
       <c r="B409">
-        <v>41369.9</v>
+        <v>40484.1</v>
       </c>
       <c r="C409">
-        <v>41300.3035716407</v>
+        <v>41417.76247266387</v>
       </c>
       <c r="D409">
-        <v>69.59642835929844</v>
+        <v>-933.6624726638693</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7524,13 +7524,13 @@
         <v>412</v>
       </c>
       <c r="B410">
-        <v>40484.1</v>
+        <v>39715.9</v>
       </c>
       <c r="C410">
-        <v>41397.43884456366</v>
+        <v>40828.25869460102</v>
       </c>
       <c r="D410">
-        <v>-913.3388445636592</v>
+        <v>-1112.358694601018</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7538,13 +7538,13 @@
         <v>413</v>
       </c>
       <c r="B411">
-        <v>39715.9</v>
+        <v>39435.6</v>
       </c>
       <c r="C411">
-        <v>40809.83125992359</v>
+        <v>39781.80136583173</v>
       </c>
       <c r="D411">
-        <v>-1093.931259923593</v>
+        <v>-346.2013658317301</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7552,13 +7552,13 @@
         <v>414</v>
       </c>
       <c r="B412">
-        <v>39435.6</v>
+        <v>39467.9</v>
       </c>
       <c r="C412">
-        <v>39764.07449871856</v>
+        <v>39477.91632136604</v>
       </c>
       <c r="D412">
-        <v>-328.4744987185622</v>
+        <v>-10.01632136604167</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7566,13 +7566,13 @@
         <v>415</v>
       </c>
       <c r="B413">
-        <v>39467.9</v>
+        <v>40438.5</v>
       </c>
       <c r="C413">
-        <v>39463.90710408376</v>
+        <v>39415.95920576994</v>
       </c>
       <c r="D413">
-        <v>3.99289591624256</v>
+        <v>1022.540794230059</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7580,13 +7580,13 @@
         <v>416</v>
       </c>
       <c r="B414">
-        <v>40438.5</v>
+        <v>38121.7</v>
       </c>
       <c r="C414">
-        <v>39401.5408630554</v>
+        <v>39917.01926559685</v>
       </c>
       <c r="D414">
-        <v>1036.959136944599</v>
+        <v>-1795.319265596852</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7594,13 +7594,13 @@
         <v>417</v>
       </c>
       <c r="B415">
-        <v>38121.7</v>
+        <v>39249.9</v>
       </c>
       <c r="C415">
-        <v>39897.10232983333</v>
+        <v>38548.12776143786</v>
       </c>
       <c r="D415">
-        <v>-1775.402329833334</v>
+        <v>701.7722385621455</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7608,13 +7608,13 @@
         <v>418</v>
       </c>
       <c r="B416">
-        <v>39249.9</v>
+        <v>39752.8</v>
       </c>
       <c r="C416">
-        <v>38532.32666997986</v>
+        <v>38919.75931308617</v>
       </c>
       <c r="D416">
-        <v>717.5733300201464</v>
+        <v>833.0406869138315</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7622,13 +7622,13 @@
         <v>419</v>
       </c>
       <c r="B417">
-        <v>39752.8</v>
+        <v>38599.5</v>
       </c>
       <c r="C417">
-        <v>38906.67612883101</v>
+        <v>39643.95945888607</v>
       </c>
       <c r="D417">
-        <v>846.1238711689948</v>
+        <v>-1044.459458886071</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7636,13 +7636,13 @@
         <v>420</v>
       </c>
       <c r="B418">
-        <v>38599.5</v>
+        <v>37660.8</v>
       </c>
       <c r="C418">
-        <v>39629.31902680521</v>
+        <v>38742.96676665723</v>
       </c>
       <c r="D418">
-        <v>-1029.819026805213</v>
+        <v>-1082.166766657225</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7650,13 +7650,13 @@
         <v>421</v>
       </c>
       <c r="B419">
-        <v>37660.8</v>
+        <v>38474.1</v>
       </c>
       <c r="C419">
-        <v>38726.76526378254</v>
+        <v>37836.5862643465</v>
       </c>
       <c r="D419">
-        <v>-1065.965263782535</v>
+        <v>637.5137356534979</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7664,13 +7664,13 @@
         <v>422</v>
       </c>
       <c r="B420">
-        <v>38474.1</v>
+        <v>38499.9</v>
       </c>
       <c r="C420">
-        <v>37823.79305162675</v>
+        <v>38203.71297116765</v>
       </c>
       <c r="D420">
-        <v>650.306948373247</v>
+        <v>296.1870288323553</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7678,13 +7678,13 @@
         <v>423</v>
       </c>
       <c r="B421">
-        <v>38499.9</v>
+        <v>37727.9</v>
       </c>
       <c r="C421">
-        <v>38189.67692162695</v>
+        <v>38483.3569436399</v>
       </c>
       <c r="D421">
-        <v>310.2230783730556</v>
+        <v>-755.4569436399033</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7692,13 +7692,13 @@
         <v>424</v>
       </c>
       <c r="B422">
-        <v>37727.9</v>
+        <v>39682.8</v>
       </c>
       <c r="C422">
-        <v>38468.59574131078</v>
+        <v>37830.53884659857</v>
       </c>
       <c r="D422">
-        <v>-740.6957413107812</v>
+        <v>1852.261153401436</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7706,13 +7706,13 @@
         <v>425</v>
       </c>
       <c r="B423">
-        <v>39682.8</v>
+        <v>36542.6</v>
       </c>
       <c r="C423">
-        <v>37815.126019056</v>
+        <v>39238.30665556002</v>
       </c>
       <c r="D423">
-        <v>1867.673980944004</v>
+        <v>-2695.706655560018</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7720,13 +7720,13 @@
         <v>426</v>
       </c>
       <c r="B424">
-        <v>36542.6</v>
+        <v>36017.4</v>
       </c>
       <c r="C424">
-        <v>39220.3412827179</v>
+        <v>36930.59269378143</v>
       </c>
       <c r="D424">
-        <v>-2677.7412827179</v>
+        <v>-913.1926937814278</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7734,13 +7734,13 @@
         <v>427</v>
       </c>
       <c r="B425">
-        <v>36017.4</v>
+        <v>35463</v>
       </c>
       <c r="C425">
-        <v>36909.07563093067</v>
+        <v>35908.61847152093</v>
       </c>
       <c r="D425">
-        <v>-891.6756309306729</v>
+        <v>-445.6184715209311</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7748,13 +7748,13 @@
         <v>428</v>
       </c>
       <c r="B426">
-        <v>35463</v>
+        <v>34024.2</v>
       </c>
       <c r="C426">
-        <v>35894.53127297603</v>
+        <v>35348.80040405636</v>
       </c>
       <c r="D426">
-        <v>-431.5312729760335</v>
+        <v>-1324.600404056364</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7762,13 +7762,13 @@
         <v>429</v>
       </c>
       <c r="B427">
-        <v>34024.2</v>
+        <v>30075.5</v>
       </c>
       <c r="C427">
-        <v>35334.94845430764</v>
+        <v>34169.22158634864</v>
       </c>
       <c r="D427">
-        <v>-1310.748454307643</v>
+        <v>-4093.721586348642</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7776,13 +7776,13 @@
         <v>430</v>
       </c>
       <c r="B428">
-        <v>30075.5</v>
+        <v>30999.9</v>
       </c>
       <c r="C428">
-        <v>34156.49951368758</v>
+        <v>30845.75566599973</v>
       </c>
       <c r="D428">
-        <v>-4080.99951368758</v>
+        <v>154.1443340002697</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7790,13 +7790,13 @@
         <v>431</v>
       </c>
       <c r="B429">
-        <v>30999.9</v>
+        <v>28994.1</v>
       </c>
       <c r="C429">
-        <v>30835.59075677842</v>
+        <v>30928.1411422254</v>
       </c>
       <c r="D429">
-        <v>164.3092432215853</v>
+        <v>-1934.0411422254</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7804,13 +7804,13 @@
         <v>432</v>
       </c>
       <c r="B430">
-        <v>28994.1</v>
+        <v>28943.4</v>
       </c>
       <c r="C430">
-        <v>30924.05215544281</v>
+        <v>29237.5195144617</v>
       </c>
       <c r="D430">
-        <v>-1929.952155442814</v>
+        <v>-294.1195144616977</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7818,13 +7818,13 @@
         <v>433</v>
       </c>
       <c r="B431">
-        <v>28943.4</v>
+        <v>29222.6</v>
       </c>
       <c r="C431">
-        <v>29227.15807205944</v>
+        <v>28194.81989124995</v>
       </c>
       <c r="D431">
-        <v>-283.7580720594342</v>
+        <v>1027.780108750052</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7832,13 +7832,13 @@
         <v>434</v>
       </c>
       <c r="B432">
-        <v>29222.6</v>
+        <v>30048.2</v>
       </c>
       <c r="C432">
-        <v>28178.8473318685</v>
+        <v>29315.24027319361</v>
       </c>
       <c r="D432">
-        <v>1043.752668131499</v>
+        <v>732.9597268063881</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7846,13 +7846,13 @@
         <v>435</v>
       </c>
       <c r="B433">
-        <v>30048.2</v>
+        <v>31296.9</v>
       </c>
       <c r="C433">
-        <v>29309.54954290029</v>
+        <v>29613.05611165645</v>
       </c>
       <c r="D433">
-        <v>738.6504570997095</v>
+        <v>1683.843888343556</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7860,13 +7860,13 @@
         <v>436</v>
       </c>
       <c r="B434">
-        <v>31296.9</v>
+        <v>29826.1</v>
       </c>
       <c r="C434">
-        <v>29599.52960915923</v>
+        <v>30759.48639290947</v>
       </c>
       <c r="D434">
-        <v>1697.37039084077</v>
+        <v>-933.3863929094696</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7874,13 +7874,13 @@
         <v>437</v>
       </c>
       <c r="B435">
-        <v>29826.1</v>
+        <v>30408.3</v>
       </c>
       <c r="C435">
-        <v>30741.3112100772</v>
+        <v>29874.61567613207</v>
       </c>
       <c r="D435">
-        <v>-915.2112100771992</v>
+        <v>533.6843238679285</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7888,13 +7888,13 @@
         <v>438</v>
       </c>
       <c r="B436">
-        <v>30408.3</v>
+        <v>28664.3</v>
       </c>
       <c r="C436">
-        <v>29852.04898353598</v>
+        <v>30140.45036056352</v>
       </c>
       <c r="D436">
-        <v>556.2510164640225</v>
+        <v>-1476.150360563523</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7902,13 +7902,13 @@
         <v>439</v>
       </c>
       <c r="B437">
-        <v>28664.3</v>
+        <v>30280.7</v>
       </c>
       <c r="C437">
-        <v>30119.41013672433</v>
+        <v>28969.32762886914</v>
       </c>
       <c r="D437">
-        <v>-1455.110136724328</v>
+        <v>1311.372371130863</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7916,13 +7916,13 @@
         <v>440</v>
       </c>
       <c r="B438">
-        <v>30280.7</v>
+        <v>29167.5</v>
       </c>
       <c r="C438">
-        <v>28948.4059632865</v>
+        <v>29833.29172919796</v>
       </c>
       <c r="D438">
-        <v>1332.294036713505</v>
+        <v>-665.7917291979647</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7930,13 +7930,13 @@
         <v>441</v>
       </c>
       <c r="B439">
-        <v>29167.5</v>
+        <v>29403.5</v>
       </c>
       <c r="C439">
-        <v>29811.79467985866</v>
+        <v>29282.286675729</v>
       </c>
       <c r="D439">
-        <v>-644.2946798586636</v>
+        <v>121.2133242710006</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -7944,13 +7944,13 @@
         <v>442</v>
       </c>
       <c r="B440">
-        <v>29403.5</v>
+        <v>30268</v>
       </c>
       <c r="C440">
-        <v>29260.33081531482</v>
+        <v>29221.92224733795</v>
       </c>
       <c r="D440">
-        <v>143.1691846851754</v>
+        <v>1046.077752662055</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7958,13 +7958,13 @@
         <v>443</v>
       </c>
       <c r="B441">
-        <v>30268</v>
+        <v>29070</v>
       </c>
       <c r="C441">
-        <v>29204.38808606959</v>
+        <v>29959.95852355056</v>
       </c>
       <c r="D441">
-        <v>1063.611913930406</v>
+        <v>-889.9585235505619</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -7972,13 +7972,13 @@
         <v>444</v>
       </c>
       <c r="B442">
-        <v>29070</v>
+        <v>29631.8</v>
       </c>
       <c r="C442">
-        <v>29942.07802661628</v>
+        <v>29259.78824245558</v>
       </c>
       <c r="D442">
-        <v>-872.0780266162765</v>
+        <v>372.0117575444165</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7986,13 +7986,13 @@
         <v>445</v>
       </c>
       <c r="B443">
-        <v>29631.8</v>
+        <v>29520.3</v>
       </c>
       <c r="C443">
-        <v>29242.43925106406</v>
+        <v>29347.14947229705</v>
       </c>
       <c r="D443">
-        <v>389.3607489359383</v>
+        <v>173.1505277029501</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8000,13 +8000,13 @@
         <v>446</v>
       </c>
       <c r="B444">
-        <v>29520.3</v>
+        <v>29186.9</v>
       </c>
       <c r="C444">
-        <v>29330.1677822569</v>
+        <v>29546.9098283544</v>
       </c>
       <c r="D444">
-        <v>190.1322177430957</v>
+        <v>-360.0098283543957</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8014,13 +8014,13 @@
         <v>447</v>
       </c>
       <c r="B445">
-        <v>29186.9</v>
+        <v>28580</v>
       </c>
       <c r="C445">
-        <v>29531.51476106487</v>
+        <v>28862.18341158887</v>
       </c>
       <c r="D445">
-        <v>-344.6147610648695</v>
+        <v>-282.1834115888742</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8028,13 +8028,13 @@
         <v>448</v>
       </c>
       <c r="B446">
-        <v>28580</v>
+        <v>29020</v>
       </c>
       <c r="C446">
-        <v>28841.70976020089</v>
+        <v>28616.81036553329</v>
       </c>
       <c r="D446">
-        <v>-261.7097602008871</v>
+        <v>403.1896344667075</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8042,13 +8042,13 @@
         <v>449</v>
       </c>
       <c r="B447">
-        <v>29020</v>
+        <v>29450.4</v>
       </c>
       <c r="C447">
-        <v>28602.70646502993</v>
+        <v>28874.18706153921</v>
       </c>
       <c r="D447">
-        <v>417.2935349700711</v>
+        <v>576.2129384607942</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8056,13 +8056,13 @@
         <v>450</v>
       </c>
       <c r="B448">
-        <v>29450.4</v>
+        <v>31711.7</v>
       </c>
       <c r="C448">
-        <v>28862.16585087185</v>
+        <v>29260.45456020967</v>
       </c>
       <c r="D448">
-        <v>588.2341491281477</v>
+        <v>2451.245439790328</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8070,13 +8070,13 @@
         <v>451</v>
       </c>
       <c r="B449">
-        <v>31711.7</v>
+        <v>31780.9</v>
       </c>
       <c r="C449">
-        <v>29247.1273697586</v>
+        <v>31206.72227454741</v>
       </c>
       <c r="D449">
-        <v>2464.5726302414</v>
+        <v>574.1777254525914</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8084,13 +8084,13 @@
         <v>452</v>
       </c>
       <c r="B450">
-        <v>31780.9</v>
+        <v>29790</v>
       </c>
       <c r="C450">
-        <v>31188.74724043708</v>
+        <v>31786.82425302782</v>
       </c>
       <c r="D450">
-        <v>592.1527595629232</v>
+        <v>-1996.824253027818</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8098,13 +8098,13 @@
         <v>453</v>
       </c>
       <c r="B451">
-        <v>29790</v>
+        <v>30427</v>
       </c>
       <c r="C451">
-        <v>31768.76847651359</v>
+        <v>30138.60192670545</v>
       </c>
       <c r="D451">
-        <v>-1978.768476513593</v>
+        <v>288.3980732945529</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8112,13 +8112,13 @@
         <v>454</v>
       </c>
       <c r="B452">
-        <v>30427</v>
+        <v>29676.4</v>
       </c>
       <c r="C452">
-        <v>30120.74186978381</v>
+        <v>30421.01173187104</v>
       </c>
       <c r="D452">
-        <v>306.2581302161852</v>
+        <v>-744.6117318710349</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8126,13 +8126,13 @@
         <v>455</v>
       </c>
       <c r="B453">
-        <v>29676.4</v>
+        <v>29850</v>
       </c>
       <c r="C453">
-        <v>30408.87107860122</v>
+        <v>29765.75198551654</v>
       </c>
       <c r="D453">
-        <v>-732.471078601222</v>
+        <v>84.24801448345897</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8140,13 +8140,13 @@
         <v>456</v>
       </c>
       <c r="B454">
-        <v>29850</v>
+        <v>29907.6</v>
       </c>
       <c r="C454">
-        <v>29751.39050348844</v>
+        <v>29748.83068404351</v>
       </c>
       <c r="D454">
-        <v>98.60949651156261</v>
+        <v>158.7693159564915</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8154,13 +8154,13 @@
         <v>457</v>
       </c>
       <c r="B455">
-        <v>29907.6</v>
+        <v>31356.3</v>
       </c>
       <c r="C455">
-        <v>29737.17146239252</v>
+        <v>29838.92173846185</v>
       </c>
       <c r="D455">
-        <v>170.4285376074768</v>
+        <v>1517.37826153815</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8168,13 +8168,13 @@
         <v>458</v>
       </c>
       <c r="B456">
-        <v>31356.3</v>
+        <v>31098.6</v>
       </c>
       <c r="C456">
-        <v>29827.73638668461</v>
+        <v>31057.70830824566</v>
       </c>
       <c r="D456">
-        <v>1528.563613315386</v>
+        <v>40.89169175433562</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8182,13 +8182,13 @@
         <v>459</v>
       </c>
       <c r="B457">
-        <v>31098.6</v>
+        <v>30190.8</v>
       </c>
       <c r="C457">
-        <v>31045.1699726667</v>
+        <v>30732.64622287283</v>
       </c>
       <c r="D457">
-        <v>53.43002733329922</v>
+        <v>-541.8462228728313</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8196,13 +8196,13 @@
         <v>460</v>
       </c>
       <c r="B458">
-        <v>30190.8</v>
+        <v>30075.3</v>
       </c>
       <c r="C458">
-        <v>30713.53960038957</v>
+        <v>30339.06249062971</v>
       </c>
       <c r="D458">
-        <v>-522.7396003895738</v>
+        <v>-263.7624906297133</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8210,13 +8210,13 @@
         <v>461</v>
       </c>
       <c r="B459">
-        <v>30075.3</v>
+        <v>29054.9</v>
       </c>
       <c r="C459">
-        <v>30326.66027704279</v>
+        <v>30139.66840621785</v>
       </c>
       <c r="D459">
-        <v>-251.360277042786</v>
+        <v>-1084.768406217849</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8224,13 +8224,13 @@
         <v>462</v>
       </c>
       <c r="B460">
-        <v>29054.9</v>
+        <v>28380.2</v>
       </c>
       <c r="C460">
-        <v>30129.49935839477</v>
+        <v>29259.85729650076</v>
       </c>
       <c r="D460">
-        <v>-1074.599358394764</v>
+        <v>-879.6572965007581</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8238,13 +8238,13 @@
         <v>463</v>
       </c>
       <c r="B461">
-        <v>28380.2</v>
+        <v>26569.6</v>
       </c>
       <c r="C461">
-        <v>29248.96807991904</v>
+        <v>28501.46858446556</v>
       </c>
       <c r="D461">
-        <v>-868.7680799190384</v>
+        <v>-1931.868584465559</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8252,13 +8252,13 @@
         <v>464</v>
       </c>
       <c r="B462">
-        <v>26569.6</v>
+        <v>22460.1</v>
       </c>
       <c r="C462">
-        <v>28493.35221316299</v>
+        <v>26918.34141006216</v>
       </c>
       <c r="D462">
-        <v>-1923.752213162988</v>
+        <v>-4458.241410062157</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8266,13 +8266,13 @@
         <v>465</v>
       </c>
       <c r="B463">
-        <v>22460.1</v>
+        <v>22111</v>
       </c>
       <c r="C463">
-        <v>26911.64582878348</v>
+        <v>23232.59820407167</v>
       </c>
       <c r="D463">
-        <v>-4451.545828783484</v>
+        <v>-1121.598204071674</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8280,13 +8280,13 @@
         <v>466</v>
       </c>
       <c r="B464">
-        <v>22111</v>
+        <v>22559.6</v>
       </c>
       <c r="C464">
-        <v>23226.03332362702</v>
+        <v>21963.09832749066</v>
       </c>
       <c r="D464">
-        <v>-1115.033323627023</v>
+        <v>596.501672509341</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8294,13 +8294,13 @@
         <v>467</v>
       </c>
       <c r="B465">
-        <v>22559.6</v>
+        <v>20366.3</v>
       </c>
       <c r="C465">
-        <v>21963.02619736278</v>
+        <v>21936.05202611246</v>
       </c>
       <c r="D465">
-        <v>596.5738026372201</v>
+        <v>-1569.752026112459</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8308,13 +8308,13 @@
         <v>468</v>
       </c>
       <c r="B466">
-        <v>20366.3</v>
+        <v>20432.9</v>
       </c>
       <c r="C466">
-        <v>21928.49309143728</v>
+        <v>20753.30825078916</v>
       </c>
       <c r="D466">
-        <v>-1562.193091437282</v>
+        <v>-320.4082507891617</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8322,13 +8322,13 @@
         <v>469</v>
       </c>
       <c r="B467">
-        <v>20432.9</v>
+        <v>18950</v>
       </c>
       <c r="C467">
-        <v>20752.37335183036</v>
+        <v>20442.47510671286</v>
       </c>
       <c r="D467">
-        <v>-319.4733518303619</v>
+        <v>-1492.475106712864</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8336,13 +8336,13 @@
         <v>470</v>
       </c>
       <c r="B468">
-        <v>18950</v>
+        <v>20555.5</v>
       </c>
       <c r="C468">
-        <v>20443.25737215429</v>
+        <v>18900.0530271975</v>
       </c>
       <c r="D468">
-        <v>-1493.257372154287</v>
+        <v>1655.446972802503</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8350,13 +8350,13 @@
         <v>471</v>
       </c>
       <c r="B469">
-        <v>20555.5</v>
+        <v>20550</v>
       </c>
       <c r="C469">
-        <v>18891.83642998368</v>
+        <v>19859.13275806734</v>
       </c>
       <c r="D469">
-        <v>1663.663570016317</v>
+        <v>690.8672419326649</v>
       </c>
     </row>
   </sheetData>

--- a/data/df_compare.xlsx
+++ b/data/df_compare.xlsx
@@ -28,9 +28,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
     <t>2021-03-11</t>
   </si>
   <si>
@@ -1430,6 +1427,9 @@
   </si>
   <si>
     <t>2022-06-20</t>
+  </si>
+  <si>
+    <t>2022-06-21</t>
   </si>
 </sst>
 </file>
@@ -1812,13 +1812,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>55851</v>
+        <v>57809.9</v>
       </c>
       <c r="C2">
-        <v>54400.01449791622</v>
+        <v>55794.31558205892</v>
       </c>
       <c r="D2">
-        <v>1450.985502083779</v>
+        <v>2015.584417941085</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1826,13 +1826,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>57809.9</v>
+        <v>57234</v>
       </c>
       <c r="C3">
-        <v>55755.6090628008</v>
+        <v>57350.15762929438</v>
       </c>
       <c r="D3">
-        <v>2054.290937199199</v>
+        <v>-116.1576292943791</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1840,13 +1840,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>57234</v>
+        <v>61174.9</v>
       </c>
       <c r="C4">
-        <v>57312.01557514768</v>
+        <v>57209.53858195725</v>
       </c>
       <c r="D4">
-        <v>-78.01557514767774</v>
+        <v>3965.361418042747</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1854,13 +1854,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>61174.9</v>
+        <v>59001.1</v>
       </c>
       <c r="C5">
-        <v>57176.96752215419</v>
+        <v>60440.45713362438</v>
       </c>
       <c r="D5">
-        <v>3997.93247784581</v>
+        <v>-1439.357133624384</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1868,13 +1868,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>59001.1</v>
+        <v>55600</v>
       </c>
       <c r="C6">
-        <v>60401.41207927318</v>
+        <v>59940.59147930332</v>
       </c>
       <c r="D6">
-        <v>-1400.312079273179</v>
+        <v>-4340.591479303315</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1882,13 +1882,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>55600</v>
+        <v>56891.1</v>
       </c>
       <c r="C7">
-        <v>59909.18979715132</v>
+        <v>56747.8612143902</v>
       </c>
       <c r="D7">
-        <v>-4309.189797151317</v>
+        <v>143.2387856097994</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1896,13 +1896,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>56891.1</v>
+        <v>58933</v>
       </c>
       <c r="C8">
-        <v>56727.84653788326</v>
+        <v>56088.74691784231</v>
       </c>
       <c r="D8">
-        <v>163.2534621167433</v>
+        <v>2844.253082157695</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1910,13 +1910,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>58933</v>
+        <v>57640.9</v>
       </c>
       <c r="C9">
-        <v>56086.47764878075</v>
+        <v>57948.56259002071</v>
       </c>
       <c r="D9">
-        <v>2846.522351219253</v>
+        <v>-307.6625900207073</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1924,13 +1924,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>57640.9</v>
+        <v>58101.8</v>
       </c>
       <c r="C10">
-        <v>57937.48713436779</v>
+        <v>58257.68397725545</v>
       </c>
       <c r="D10">
-        <v>-296.5871343677863</v>
+        <v>-155.8839772554493</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1938,13 +1938,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>58101.8</v>
+        <v>58091.6</v>
       </c>
       <c r="C11">
-        <v>58246.1074295647</v>
+        <v>58168.35196431336</v>
       </c>
       <c r="D11">
-        <v>-144.307429564702</v>
+        <v>-76.75196431336371</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1952,13 +1952,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>58091.6</v>
+        <v>57378.4</v>
       </c>
       <c r="C12">
-        <v>58159.04601728262</v>
+        <v>58533.09087885753</v>
       </c>
       <c r="D12">
-        <v>-67.44601728262205</v>
+        <v>-1154.690878857531</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1966,13 +1966,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>57378.4</v>
+        <v>54095.1</v>
       </c>
       <c r="C13">
-        <v>58523.83551893954</v>
+        <v>57425.49519263118</v>
       </c>
       <c r="D13">
-        <v>-1145.435518939543</v>
+        <v>-3330.395192631178</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1980,13 +1980,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>54095.1</v>
+        <v>54351.3</v>
       </c>
       <c r="C14">
-        <v>57415.66088749847</v>
+        <v>55109.66152018495</v>
       </c>
       <c r="D14">
-        <v>-3320.560887498475</v>
+        <v>-758.3615201849461</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1994,13 +1994,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>54351.3</v>
+        <v>52293.8</v>
       </c>
       <c r="C15">
-        <v>55101.7543615684</v>
+        <v>54444.8638753375</v>
       </c>
       <c r="D15">
-        <v>-750.4543615684015</v>
+        <v>-2151.063875337495</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2008,13 +2008,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>52293.8</v>
+        <v>51314.9</v>
       </c>
       <c r="C16">
-        <v>54448.86763311789</v>
+        <v>53273.80516007505</v>
       </c>
       <c r="D16">
-        <v>-2155.067633117891</v>
+        <v>-1958.905160075046</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2022,13 +2022,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>51314.9</v>
+        <v>55062.2</v>
       </c>
       <c r="C17">
-        <v>53271.25451301892</v>
+        <v>51561.36279097188</v>
       </c>
       <c r="D17">
-        <v>-1956.354513018916</v>
+        <v>3500.837209028119</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2036,13 +2036,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>55062.2</v>
+        <v>55852.4</v>
       </c>
       <c r="C18">
-        <v>51570.94593935318</v>
+        <v>54192.75700885733</v>
       </c>
       <c r="D18">
-        <v>3491.254060646817</v>
+        <v>1659.642991142675</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2050,13 +2050,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>55852.4</v>
+        <v>55782</v>
       </c>
       <c r="C19">
-        <v>54189.36237842614</v>
+        <v>55670.20796967734</v>
       </c>
       <c r="D19">
-        <v>1663.037621573865</v>
+        <v>111.7920303226565</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2064,13 +2064,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>55782</v>
+        <v>57624.2</v>
       </c>
       <c r="C20">
-        <v>55654.43532015806</v>
+        <v>55782.29481927308</v>
       </c>
       <c r="D20">
-        <v>127.5646798419402</v>
+        <v>1841.905180726913</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2078,13 +2078,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>57624.2</v>
+        <v>58781</v>
       </c>
       <c r="C21">
-        <v>55764.29524017568</v>
+        <v>57324.00303364987</v>
       </c>
       <c r="D21">
-        <v>1859.904759824312</v>
+        <v>1456.996966350125</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2092,13 +2092,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>58781</v>
+        <v>58786.2</v>
       </c>
       <c r="C22">
-        <v>57296.6123809183</v>
+        <v>58654.35948080008</v>
       </c>
       <c r="D22">
-        <v>1484.387619081703</v>
+        <v>131.8405191999191</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2106,13 +2106,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>58786.2</v>
+        <v>58732.9</v>
       </c>
       <c r="C23">
-        <v>58624.72716227905</v>
+        <v>58721.70767463534</v>
       </c>
       <c r="D23">
-        <v>161.4728377209467</v>
+        <v>11.19232536466006</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2120,13 +2120,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>58732.9</v>
+        <v>59020.7</v>
       </c>
       <c r="C24">
-        <v>58692.50394335858</v>
+        <v>58868.31780136321</v>
       </c>
       <c r="D24">
-        <v>40.39605664141709</v>
+        <v>152.3821986367839</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2134,13 +2134,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>59020.7</v>
+        <v>57099</v>
       </c>
       <c r="C25">
-        <v>58846.42705707247</v>
+        <v>59288.9819236575</v>
       </c>
       <c r="D25">
-        <v>174.2729429275278</v>
+        <v>-2189.981923657499</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2148,13 +2148,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>57099</v>
+        <v>58195</v>
       </c>
       <c r="C26">
-        <v>59272.98674961719</v>
+        <v>57800.43140201681</v>
       </c>
       <c r="D26">
-        <v>-2173.986749617186</v>
+        <v>394.5685979831906</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2162,13 +2162,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>58195</v>
+        <v>59120</v>
       </c>
       <c r="C27">
-        <v>57788.0832350234</v>
+        <v>57956.70930191854</v>
       </c>
       <c r="D27">
-        <v>406.916764976595</v>
+        <v>1163.290698081459</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2176,13 +2176,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>59120</v>
+        <v>58017.1</v>
       </c>
       <c r="C28">
-        <v>57952.32486204839</v>
+        <v>58734.74339240862</v>
       </c>
       <c r="D28">
-        <v>1167.675137951614</v>
+        <v>-717.6433924086232</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2190,13 +2190,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>58017.1</v>
+        <v>55928.5</v>
       </c>
       <c r="C29">
-        <v>58728.09186095923</v>
+        <v>58297.71863820884</v>
       </c>
       <c r="D29">
-        <v>-710.9918609592278</v>
+        <v>-2369.21863820884</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2204,13 +2204,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>55928.5</v>
+        <v>58036.9</v>
       </c>
       <c r="C30">
-        <v>58291.69864817724</v>
+        <v>56518.01391323825</v>
       </c>
       <c r="D30">
-        <v>-2363.19864817724</v>
+        <v>1518.886086761755</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2218,13 +2218,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>58036.9</v>
+        <v>58110</v>
       </c>
       <c r="C31">
-        <v>56516.80202140098</v>
+        <v>57580.53885271991</v>
       </c>
       <c r="D31">
-        <v>1520.09797859902</v>
+        <v>529.4611472800898</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2232,13 +2232,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>58110</v>
+        <v>59775.6</v>
       </c>
       <c r="C32">
-        <v>57579.9055891739</v>
+        <v>58238.72625837696</v>
       </c>
       <c r="D32">
-        <v>530.0944108260956</v>
+        <v>1536.873741623036</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2246,13 +2246,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>59775.6</v>
+        <v>59956</v>
       </c>
       <c r="C33">
-        <v>58232.90503514888</v>
+        <v>59786.27044132305</v>
       </c>
       <c r="D33">
-        <v>1542.694964851122</v>
+        <v>169.7295586769469</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2260,13 +2260,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>59956</v>
+        <v>59823.7</v>
       </c>
       <c r="C34">
-        <v>59771.47986090303</v>
+        <v>60066.46733671398</v>
       </c>
       <c r="D34">
-        <v>184.5201390969669</v>
+        <v>-242.7673367139796</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2274,13 +2274,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>59823.7</v>
+        <v>63587.2</v>
       </c>
       <c r="C35">
-        <v>60052.81476925297</v>
+        <v>60177.14265563042</v>
       </c>
       <c r="D35">
-        <v>-229.1147692529703</v>
+        <v>3410.057344369576</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2288,13 +2288,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>63587.2</v>
+        <v>62969</v>
       </c>
       <c r="C36">
-        <v>60163.67298780554</v>
+        <v>62945.27388051795</v>
       </c>
       <c r="D36">
-        <v>3423.527012194456</v>
+        <v>23.72611948204576</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2302,13 +2302,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>62969</v>
+        <v>63243</v>
       </c>
       <c r="C37">
-        <v>62920.59531186845</v>
+        <v>63261.552789076</v>
       </c>
       <c r="D37">
-        <v>48.40468813155167</v>
+        <v>-18.55278907599859</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2316,13 +2316,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>63243</v>
+        <v>61455</v>
       </c>
       <c r="C38">
-        <v>63233.30043898267</v>
+        <v>63317.80953793257</v>
       </c>
       <c r="D38">
-        <v>9.699561017325323</v>
+        <v>-1862.809537932568</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2330,13 +2330,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>61455</v>
+        <v>60085.2</v>
       </c>
       <c r="C39">
-        <v>63299.17189322061</v>
+        <v>61857.12470899359</v>
       </c>
       <c r="D39">
-        <v>-1844.171893220606</v>
+        <v>-1771.924708993596</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2344,13 +2344,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>60085.2</v>
+        <v>56239.8</v>
       </c>
       <c r="C40">
-        <v>61843.86467742609</v>
+        <v>60722.62189351031</v>
       </c>
       <c r="D40">
-        <v>-1758.664677426095</v>
+        <v>-4482.821893510307</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2358,13 +2358,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>56239.8</v>
+        <v>55720</v>
       </c>
       <c r="C41">
-        <v>60717.41649298822</v>
+        <v>56087.81419221041</v>
       </c>
       <c r="D41">
-        <v>-4477.616492988214</v>
+        <v>-367.8141922104114</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2372,13 +2372,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>55720</v>
+        <v>56500</v>
       </c>
       <c r="C42">
-        <v>56087.09602982173</v>
+        <v>55868.41786066929</v>
       </c>
       <c r="D42">
-        <v>-367.0960298217324</v>
+        <v>631.5821393307124</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2386,13 +2386,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>56500</v>
+        <v>53815.2</v>
       </c>
       <c r="C43">
-        <v>55882.59342511296</v>
+        <v>55971.49285805982</v>
       </c>
       <c r="D43">
-        <v>617.4065748870416</v>
+        <v>-2156.292858059824</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2400,13 +2400,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>53815.2</v>
+        <v>51730</v>
       </c>
       <c r="C44">
-        <v>55983.54867111843</v>
+        <v>54446.03859328054</v>
       </c>
       <c r="D44">
-        <v>-2168.348671118431</v>
+        <v>-2716.038593280537</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2414,13 +2414,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>51730</v>
+        <v>51178.7</v>
       </c>
       <c r="C45">
-        <v>54454.74690141559</v>
+        <v>52276.17656273855</v>
       </c>
       <c r="D45">
-        <v>-2724.746901415587</v>
+        <v>-1097.47656273855</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2428,13 +2428,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>51178.7</v>
+        <v>50093.4</v>
       </c>
       <c r="C46">
-        <v>52285.62401230369</v>
+        <v>50540.20670321831</v>
       </c>
       <c r="D46">
-        <v>-1106.924012303694</v>
+        <v>-446.8067032183098</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2442,13 +2442,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>50093.4</v>
+        <v>49106.5</v>
       </c>
       <c r="C47">
-        <v>50554.05706047803</v>
+        <v>49955.95721395357</v>
       </c>
       <c r="D47">
-        <v>-460.6570604780281</v>
+        <v>-849.457213953574</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2456,13 +2456,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>49106.5</v>
+        <v>54051.9</v>
       </c>
       <c r="C48">
-        <v>49966.15790474846</v>
+        <v>48846.78065940883</v>
       </c>
       <c r="D48">
-        <v>-859.6579047484629</v>
+        <v>5205.119340591169</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2470,13 +2470,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>54051.9</v>
+        <v>55078.7</v>
       </c>
       <c r="C49">
-        <v>48853.27546624316</v>
+        <v>52844.35723387368</v>
       </c>
       <c r="D49">
-        <v>5198.62453375684</v>
+        <v>2234.342766126312</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2484,13 +2484,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>55078.7</v>
+        <v>54899.3</v>
       </c>
       <c r="C50">
-        <v>52830.86474085705</v>
+        <v>54774.47028937202</v>
       </c>
       <c r="D50">
-        <v>2247.83525914295</v>
+        <v>124.8297106279788</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2498,13 +2498,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>54899.3</v>
+        <v>53579.6</v>
       </c>
       <c r="C51">
-        <v>54751.393212317</v>
+        <v>55056.28934868632</v>
       </c>
       <c r="D51">
-        <v>147.9067876830013</v>
+        <v>-1476.689348686319</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2512,13 +2512,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>53579.6</v>
+        <v>57780</v>
       </c>
       <c r="C52">
-        <v>55027.59795265998</v>
+        <v>53696.27664362942</v>
       </c>
       <c r="D52">
-        <v>-1447.997952659978</v>
+        <v>4083.723356370581</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2526,13 +2526,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>57780</v>
+        <v>57859.2</v>
       </c>
       <c r="C53">
-        <v>53671.51854533432</v>
+        <v>56736.31125469765</v>
       </c>
       <c r="D53">
-        <v>4108.481454665678</v>
+        <v>1122.888745302349</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2540,13 +2540,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>57859.2</v>
+        <v>56618.5</v>
       </c>
       <c r="C54">
-        <v>56702.75181768914</v>
+        <v>57926.7800088918</v>
       </c>
       <c r="D54">
-        <v>1156.448182310858</v>
+        <v>-1308.280008891801</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2554,13 +2554,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>56618.5</v>
+        <v>57193.5</v>
       </c>
       <c r="C55">
-        <v>57894.71359491992</v>
+        <v>56893.9578187548</v>
       </c>
       <c r="D55">
-        <v>-1276.213594919922</v>
+        <v>299.5421812451968</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2568,13 +2568,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>57193.5</v>
+        <v>53239.4</v>
       </c>
       <c r="C56">
-        <v>56869.95624736651</v>
+        <v>57505.05858449856</v>
       </c>
       <c r="D56">
-        <v>323.5437526334936</v>
+        <v>-4265.65858449856</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2582,13 +2582,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>53239.4</v>
+        <v>57497.1</v>
       </c>
       <c r="C57">
-        <v>57487.61831282144</v>
+        <v>54141.80044984774</v>
       </c>
       <c r="D57">
-        <v>-4248.218312821438</v>
+        <v>3355.29955015226</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2596,13 +2596,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>57497.1</v>
+        <v>56421.1</v>
       </c>
       <c r="C58">
-        <v>54133.32995556747</v>
+        <v>56580.86090314877</v>
       </c>
       <c r="D58">
-        <v>3363.770044432531</v>
+        <v>-159.7609031487737</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2610,13 +2610,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>56421.1</v>
+        <v>57383</v>
       </c>
       <c r="C59">
-        <v>56572.05462643857</v>
+        <v>56706.20172221737</v>
       </c>
       <c r="D59">
-        <v>-150.9546264385717</v>
+        <v>676.7982777826255</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2624,13 +2624,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>57383</v>
+        <v>58953.8</v>
       </c>
       <c r="C60">
-        <v>56694.80344276538</v>
+        <v>57284.48806647141</v>
       </c>
       <c r="D60">
-        <v>688.1965572346162</v>
+        <v>1669.311933528588</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2638,13 +2638,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>58953.8</v>
+        <v>58293.1</v>
       </c>
       <c r="C61">
-        <v>57276.1475986692</v>
+        <v>58740.70149611894</v>
       </c>
       <c r="D61">
-        <v>1677.652401330801</v>
+        <v>-447.601496118943</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2652,13 +2652,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>58293.1</v>
+        <v>55888.1</v>
       </c>
       <c r="C62">
-        <v>58728.07379513069</v>
+        <v>58192.90246289378</v>
       </c>
       <c r="D62">
-        <v>-434.9737951306888</v>
+        <v>-2304.802462893778</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2666,13 +2666,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>55888.1</v>
+        <v>56747.5</v>
       </c>
       <c r="C63">
-        <v>58179.10773772654</v>
+        <v>56245.81526937571</v>
       </c>
       <c r="D63">
-        <v>-2291.007737726541</v>
+        <v>501.6847306242853</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2680,13 +2680,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>56747.5</v>
+        <v>49502.7</v>
       </c>
       <c r="C64">
-        <v>56230.75291877756</v>
+        <v>56366.74024551435</v>
       </c>
       <c r="D64">
-        <v>516.7470812224419</v>
+        <v>-6864.040245514348</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2694,13 +2694,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>49502.7</v>
+        <v>49675.2</v>
       </c>
       <c r="C65">
-        <v>56363.83559905744</v>
+        <v>51155.38899364704</v>
       </c>
       <c r="D65">
-        <v>-6861.135599057445</v>
+        <v>-1480.18899364704</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2708,13 +2708,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>49675.2</v>
+        <v>49899</v>
       </c>
       <c r="C66">
-        <v>51147.63835558465</v>
+        <v>48931.60467999236</v>
       </c>
       <c r="D66">
-        <v>-1472.438355584651</v>
+        <v>967.3953200076357</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2722,13 +2722,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>49899</v>
+        <v>46771.1</v>
       </c>
       <c r="C67">
-        <v>48949.15264313011</v>
+        <v>49964.45622899319</v>
       </c>
       <c r="D67">
-        <v>949.8473568698901</v>
+        <v>-3193.356228993194</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2736,13 +2736,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>46771.1</v>
+        <v>46482.4</v>
       </c>
       <c r="C68">
-        <v>49980.31639377986</v>
+        <v>47512.89388323034</v>
       </c>
       <c r="D68">
-        <v>-3209.216393779861</v>
+        <v>-1030.493883230338</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2750,13 +2750,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>46482.4</v>
+        <v>43551.8</v>
       </c>
       <c r="C69">
-        <v>47523.23683137669</v>
+        <v>46453.82574935094</v>
       </c>
       <c r="D69">
-        <v>-1040.836831376684</v>
+        <v>-2902.025749350942</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2764,13 +2764,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>43551.8</v>
+        <v>42895.2</v>
       </c>
       <c r="C70">
-        <v>46460.8209850092</v>
+        <v>43784.66031253739</v>
       </c>
       <c r="D70">
-        <v>-2909.0209850092</v>
+        <v>-889.4603125373978</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2778,13 +2778,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>42895.2</v>
+        <v>36742.3</v>
       </c>
       <c r="C71">
-        <v>43795.72935155666</v>
+        <v>43234.52419938752</v>
       </c>
       <c r="D71">
-        <v>-900.5293515566664</v>
+        <v>-6492.224199387521</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2792,13 +2792,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>36742.3</v>
+        <v>40614.6</v>
       </c>
       <c r="C72">
-        <v>43244.10244580993</v>
+        <v>36553.25060757139</v>
       </c>
       <c r="D72">
-        <v>-6501.802445809932</v>
+        <v>4061.349392428609</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2806,13 +2806,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>40614.6</v>
+        <v>37331.7</v>
       </c>
       <c r="C73">
-        <v>36552.5792712702</v>
+        <v>39551.87172144718</v>
       </c>
       <c r="D73">
-        <v>4062.020728729796</v>
+        <v>-2220.171721447186</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2820,13 +2820,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>37331.7</v>
+        <v>37468.3</v>
       </c>
       <c r="C74">
-        <v>39558.82452862123</v>
+        <v>37386.18045822284</v>
       </c>
       <c r="D74">
-        <v>-2227.124528621229</v>
+        <v>82.11954177716689</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2834,13 +2834,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>37468.3</v>
+        <v>34718.8</v>
       </c>
       <c r="C75">
-        <v>37379.40945773235</v>
+        <v>37079.48387442998</v>
       </c>
       <c r="D75">
-        <v>88.89054226765438</v>
+        <v>-2360.683874429975</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2848,13 +2848,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>34718.8</v>
+        <v>38833.8</v>
       </c>
       <c r="C76">
-        <v>37082.38316638798</v>
+        <v>34492.19511244397</v>
       </c>
       <c r="D76">
-        <v>-2363.583166387973</v>
+        <v>4341.604887556037</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2862,13 +2862,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>38833.8</v>
+        <v>38388.1</v>
       </c>
       <c r="C77">
-        <v>34488.25876005562</v>
+        <v>37895.28894441974</v>
       </c>
       <c r="D77">
-        <v>4345.541239944381</v>
+        <v>492.8110555802632</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2876,13 +2876,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>38388.1</v>
+        <v>39283.9</v>
       </c>
       <c r="C78">
-        <v>37880.8700954968</v>
+        <v>38186.0920712362</v>
       </c>
       <c r="D78">
-        <v>507.2299045031978</v>
+        <v>1097.807928763803</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2890,13 +2890,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>39283.9</v>
+        <v>38516.4</v>
       </c>
       <c r="C79">
-        <v>38165.06141419194</v>
+        <v>39233.97647201925</v>
       </c>
       <c r="D79">
-        <v>1118.838585808058</v>
+        <v>-717.5764720192456</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2904,13 +2904,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>38516.4</v>
+        <v>35683.9</v>
       </c>
       <c r="C80">
-        <v>39208.86676793177</v>
+        <v>38517.86676376077</v>
       </c>
       <c r="D80">
-        <v>-692.4667679317645</v>
+        <v>-2833.966763760771</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2918,13 +2918,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>35683.9</v>
+        <v>34616.6</v>
       </c>
       <c r="C81">
-        <v>38496.21007967179</v>
+        <v>36043.39650701193</v>
       </c>
       <c r="D81">
-        <v>-2812.310079671792</v>
+        <v>-1426.796507011932</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2932,13 +2932,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>34616.6</v>
+        <v>35673.8</v>
       </c>
       <c r="C82">
-        <v>36028.4154903619</v>
+        <v>34818.0390957765</v>
       </c>
       <c r="D82">
-        <v>-1411.8154903619</v>
+        <v>855.7609042234981</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2946,13 +2946,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>35673.8</v>
+        <v>37303.8</v>
       </c>
       <c r="C83">
-        <v>34813.66283261689</v>
+        <v>35158.79143498754</v>
       </c>
       <c r="D83">
-        <v>860.137167383109</v>
+        <v>2145.008565012467</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2960,13 +2960,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>37303.8</v>
+        <v>36676.3</v>
       </c>
       <c r="C84">
-        <v>35157.52571071572</v>
+        <v>36468.09475858035</v>
       </c>
       <c r="D84">
-        <v>2146.274289284287</v>
+        <v>208.2052414196514</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2974,13 +2974,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>36676.3</v>
+        <v>37565.3</v>
       </c>
       <c r="C85">
-        <v>36462.5332347274</v>
+        <v>36612.9409500802</v>
       </c>
       <c r="D85">
-        <v>213.7667652726013</v>
+        <v>952.3590499198035</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2988,13 +2988,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>37565.3</v>
+        <v>39196.6</v>
       </c>
       <c r="C86">
-        <v>36605.56892517219</v>
+        <v>37211.03446634597</v>
       </c>
       <c r="D86">
-        <v>959.7310748278178</v>
+        <v>1985.565533654029</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3002,13 +3002,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>39196.6</v>
+        <v>36847.7</v>
       </c>
       <c r="C87">
-        <v>37202.40012305653</v>
+        <v>38699.08162693409</v>
       </c>
       <c r="D87">
-        <v>1994.199876943472</v>
+        <v>-1851.38162693409</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3016,13 +3016,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>36847.7</v>
+        <v>35534.6</v>
       </c>
       <c r="C88">
-        <v>38684.52825914822</v>
+        <v>37018.91563042556</v>
       </c>
       <c r="D88">
-        <v>-1836.82825914822</v>
+        <v>-1484.315630425561</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3030,13 +3030,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>35534.6</v>
+        <v>35789</v>
       </c>
       <c r="C89">
-        <v>37004.07817147338</v>
+        <v>35808.81803099884</v>
       </c>
       <c r="D89">
-        <v>-1469.478171473384</v>
+        <v>-19.81803099883837</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3044,13 +3044,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>35789</v>
+        <v>33587.6</v>
       </c>
       <c r="C90">
-        <v>35802.73693485768</v>
+        <v>35710.39058528654</v>
       </c>
       <c r="D90">
-        <v>-13.73693485768308</v>
+        <v>-2122.790585286544</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3058,13 +3058,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>33587.6</v>
+        <v>33420</v>
       </c>
       <c r="C91">
-        <v>35713.41319167906</v>
+        <v>34110.02292455864</v>
       </c>
       <c r="D91">
-        <v>-2125.813191679059</v>
+        <v>-690.0229245586379</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3072,13 +3072,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>33420</v>
+        <v>37396.4</v>
       </c>
       <c r="C92">
-        <v>34111.76251555508</v>
+        <v>32891.5533266603</v>
       </c>
       <c r="D92">
-        <v>-691.762515555085</v>
+        <v>4504.8466733397</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3086,13 +3086,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>37396.4</v>
+        <v>36678.4</v>
       </c>
       <c r="C93">
-        <v>32901.67140926913</v>
+        <v>36158.7336273111</v>
       </c>
       <c r="D93">
-        <v>4494.728590730869</v>
+        <v>519.6663726889019</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3100,13 +3100,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>36678.4</v>
+        <v>37322.2</v>
       </c>
       <c r="C94">
-        <v>36152.99749371969</v>
+        <v>36819.15572869222</v>
       </c>
       <c r="D94">
-        <v>525.4025062803121</v>
+        <v>503.0442713077791</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3114,13 +3114,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>37322.2</v>
+        <v>35544.9</v>
       </c>
       <c r="C95">
-        <v>36807.92057530353</v>
+        <v>37048.49381380808</v>
       </c>
       <c r="D95">
-        <v>514.2794246964695</v>
+        <v>-1503.593813808075</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3128,13 +3128,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>35544.9</v>
+        <v>39034.6</v>
       </c>
       <c r="C96">
-        <v>37039.28902811165</v>
+        <v>35733.61921144495</v>
       </c>
       <c r="D96">
-        <v>-1494.389028111647</v>
+        <v>3300.980788555047</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3142,13 +3142,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>39034.6</v>
+        <v>40530.8</v>
       </c>
       <c r="C97">
-        <v>35723.9535327876</v>
+        <v>38099.23938118602</v>
       </c>
       <c r="D97">
-        <v>3310.646467212398</v>
+        <v>2431.560618813979</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3156,13 +3156,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>40530.8</v>
+        <v>40166.6</v>
       </c>
       <c r="C98">
-        <v>38081.79744458621</v>
+        <v>40327.31920986308</v>
       </c>
       <c r="D98">
-        <v>2449.00255541379</v>
+        <v>-160.719209863084</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3170,13 +3170,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>40166.6</v>
+        <v>38337.1</v>
       </c>
       <c r="C99">
-        <v>40304.68365024249</v>
+        <v>40378.35554605353</v>
       </c>
       <c r="D99">
-        <v>-138.0836502424936</v>
+        <v>-2041.25554605353</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3184,13 +3184,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>38337.1</v>
+        <v>38078.2</v>
       </c>
       <c r="C100">
-        <v>40358.77480980068</v>
+        <v>38825.98482770022</v>
       </c>
       <c r="D100">
-        <v>-2021.674809800679</v>
+        <v>-747.7848277002195</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3198,13 +3198,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>38078.2</v>
+        <v>35824</v>
       </c>
       <c r="C101">
-        <v>38815.50817571267</v>
+        <v>38281.82157325494</v>
       </c>
       <c r="D101">
-        <v>-737.3081757126711</v>
+        <v>-2457.821573254943</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3212,13 +3212,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>35824</v>
+        <v>35490.5</v>
       </c>
       <c r="C102">
-        <v>38278.33552288757</v>
+        <v>36191.42398319408</v>
       </c>
       <c r="D102">
-        <v>-2454.335522887566</v>
+        <v>-700.9239831940795</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3226,13 +3226,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>35490.5</v>
+        <v>35595</v>
       </c>
       <c r="C103">
-        <v>36193.2495172085</v>
+        <v>35555.84192314197</v>
       </c>
       <c r="D103">
-        <v>-702.7495172084964</v>
+        <v>39.15807685803156</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3240,13 +3240,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>35595</v>
+        <v>31655.2</v>
       </c>
       <c r="C104">
-        <v>35567.16328237908</v>
+        <v>35157.64767563035</v>
       </c>
       <c r="D104">
-        <v>27.83671762092126</v>
+        <v>-3502.447675630345</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3254,13 +3254,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>31655.2</v>
+        <v>32516.2</v>
       </c>
       <c r="C105">
-        <v>35168.76957306869</v>
+        <v>32413.06506046417</v>
       </c>
       <c r="D105">
-        <v>-3513.569573068689</v>
+        <v>103.1349395358338</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3268,13 +3268,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>32516.2</v>
+        <v>33683.3</v>
       </c>
       <c r="C106">
-        <v>32422.65612195713</v>
+        <v>31757.15112995731</v>
       </c>
       <c r="D106">
-        <v>93.54387804287398</v>
+        <v>1926.148870042689</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3282,13 +3282,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>33683.3</v>
+        <v>34666.6</v>
       </c>
       <c r="C107">
-        <v>31770.31873570631</v>
+        <v>33578.84837353634</v>
       </c>
       <c r="D107">
-        <v>1912.981264293692</v>
+        <v>1087.751626463658</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3296,13 +3296,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>34666.6</v>
+        <v>31583.7</v>
       </c>
       <c r="C108">
-        <v>33584.34451554492</v>
+        <v>34207.16095952966</v>
       </c>
       <c r="D108">
-        <v>1082.255484455076</v>
+        <v>-2623.460959529661</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3310,13 +3310,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>31583.7</v>
+        <v>32277</v>
       </c>
       <c r="C109">
-        <v>34203.24134634416</v>
+        <v>32327.06691713957</v>
       </c>
       <c r="D109">
-        <v>-2619.541346344155</v>
+        <v>-50.06691713956752</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3324,13 +3324,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>32277</v>
+        <v>34675.3</v>
       </c>
       <c r="C110">
-        <v>32318.5227743805</v>
+        <v>31803.05354124831</v>
       </c>
       <c r="D110">
-        <v>-41.52277438049714</v>
+        <v>2872.246458751692</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3338,13 +3338,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>34675.3</v>
+        <v>34472</v>
       </c>
       <c r="C111">
-        <v>31803.37485562432</v>
+        <v>34004.61953380943</v>
       </c>
       <c r="D111">
-        <v>2871.925144375684</v>
+        <v>467.3804661905742</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3352,13 +3352,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>34472</v>
+        <v>35903.3</v>
       </c>
       <c r="C112">
-        <v>33994.09409291621</v>
+        <v>34512.09187437271</v>
       </c>
       <c r="D112">
-        <v>477.9059070837902</v>
+        <v>1391.208125627294</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3366,13 +3366,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>35903.3</v>
+        <v>35046.2</v>
       </c>
       <c r="C113">
-        <v>34496.93222576727</v>
+        <v>35689.68097513932</v>
       </c>
       <c r="D113">
-        <v>1406.367774232735</v>
+        <v>-643.4809751393186</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3380,13 +3380,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>35046.2</v>
+        <v>33532.4</v>
       </c>
       <c r="C114">
-        <v>35670.55236087254</v>
+        <v>35056.12882753715</v>
       </c>
       <c r="D114">
-        <v>-624.3523608725445</v>
+        <v>-1523.728827537147</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3394,13 +3394,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>33532.4</v>
+        <v>33802.9</v>
       </c>
       <c r="C115">
-        <v>35038.90850099488</v>
+        <v>33657.97655504372</v>
       </c>
       <c r="D115">
-        <v>-1506.508500994882</v>
+        <v>144.9234449562864</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3408,13 +3408,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>33802.9</v>
+        <v>34685.4</v>
       </c>
       <c r="C116">
-        <v>33647.10973613611</v>
+        <v>33571.24169897716</v>
       </c>
       <c r="D116">
-        <v>155.7902638638916</v>
+        <v>1114.158301022842</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3422,13 +3422,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>34685.4</v>
+        <v>35305</v>
       </c>
       <c r="C117">
-        <v>33567.03507988467</v>
+        <v>34411.64674988927</v>
       </c>
       <c r="D117">
-        <v>1118.364920115331</v>
+        <v>893.3532501107256</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3436,13 +3436,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>35305</v>
+        <v>33697.6</v>
       </c>
       <c r="C118">
-        <v>34405.2802755494</v>
+        <v>35212.47646599278</v>
       </c>
       <c r="D118">
-        <v>899.7197244506024</v>
+        <v>-1514.876465992777</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3450,13 +3450,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>33697.6</v>
+        <v>34235</v>
       </c>
       <c r="C119">
-        <v>35204.23243925215</v>
+        <v>33896.18407542392</v>
       </c>
       <c r="D119">
-        <v>-1506.632439252149</v>
+        <v>338.8159245760762</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3464,13 +3464,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>34235</v>
+        <v>33885.1</v>
       </c>
       <c r="C120">
-        <v>33889.5972981162</v>
+        <v>34247.26697569637</v>
       </c>
       <c r="D120">
-        <v>345.4027018838024</v>
+        <v>-362.1669756963747</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3478,13 +3478,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>33885.1</v>
+        <v>32882.2</v>
       </c>
       <c r="C121">
-        <v>34244.71774535409</v>
+        <v>34115.04705252094</v>
       </c>
       <c r="D121">
-        <v>-359.6177453540877</v>
+        <v>-1232.847052520941</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3492,13 +3492,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>32882.2</v>
+        <v>33791</v>
       </c>
       <c r="C122">
-        <v>34111.2317540552</v>
+        <v>32927.75280922398</v>
       </c>
       <c r="D122">
-        <v>-1229.031754055199</v>
+        <v>863.2471907760191</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3506,13 +3506,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>33791</v>
+        <v>33522.2</v>
       </c>
       <c r="C123">
-        <v>32926.47653212437</v>
+        <v>33471.61971538415</v>
       </c>
       <c r="D123">
-        <v>864.5234678756315</v>
+        <v>50.58028461584763</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3520,13 +3520,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>33522.2</v>
+        <v>34246.9</v>
       </c>
       <c r="C124">
-        <v>33470.82563385569</v>
+        <v>33530.33924706411</v>
       </c>
       <c r="D124">
-        <v>51.37436614430771</v>
+        <v>716.5607529358895</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3534,13 +3534,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>34246.9</v>
+        <v>33107.3</v>
       </c>
       <c r="C125">
-        <v>33528.10126450047</v>
+        <v>34082.56550595726</v>
       </c>
       <c r="D125">
-        <v>718.7987354995275</v>
+        <v>-975.2655059572571</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3548,13 +3548,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>33107.3</v>
+        <v>32722.9</v>
       </c>
       <c r="C126">
-        <v>34078.73495918484</v>
+        <v>33328.2689863063</v>
       </c>
       <c r="D126">
-        <v>-971.4349591848368</v>
+        <v>-605.3689863062973</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3562,13 +3562,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>32722.9</v>
+        <v>32815.2</v>
       </c>
       <c r="C127">
-        <v>33322.60827449166</v>
+        <v>32702.21348380172</v>
       </c>
       <c r="D127">
-        <v>-599.7082744916552</v>
+        <v>112.986516198278</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3576,13 +3576,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>32815.2</v>
+        <v>31832.6</v>
       </c>
       <c r="C128">
-        <v>32701.81628771728</v>
+        <v>32544.98939865443</v>
       </c>
       <c r="D128">
-        <v>113.3837122827135</v>
+        <v>-712.3893986544317</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3590,13 +3590,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>31832.6</v>
+        <v>31405.9</v>
       </c>
       <c r="C129">
-        <v>32543.73919089026</v>
+        <v>31925.37305742618</v>
       </c>
       <c r="D129">
-        <v>-711.1391908902624</v>
+        <v>-519.4730574261812</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3604,13 +3604,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>31405.9</v>
+        <v>31510</v>
       </c>
       <c r="C130">
-        <v>31923.01412732461</v>
+        <v>31448.24350310946</v>
       </c>
       <c r="D130">
-        <v>-517.1141273246067</v>
+        <v>61.75649689053898</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3618,13 +3618,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>31510</v>
+        <v>31780.1</v>
       </c>
       <c r="C131">
-        <v>31449.80215262307</v>
+        <v>31463.7914840449</v>
       </c>
       <c r="D131">
-        <v>60.19784737693044</v>
+        <v>316.3085159550938</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3632,13 +3632,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>31780.1</v>
+        <v>30820.5</v>
       </c>
       <c r="C132">
-        <v>31466.25995856436</v>
+        <v>31704.0944096494</v>
       </c>
       <c r="D132">
-        <v>313.8400414356402</v>
+        <v>-883.5944096494022</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3646,13 +3646,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>30820.5</v>
+        <v>29788.1</v>
       </c>
       <c r="C133">
-        <v>31702.95130758211</v>
+        <v>30901.1152288822</v>
       </c>
       <c r="D133">
-        <v>-882.4513075821123</v>
+        <v>-1113.015228882203</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3660,13 +3660,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>29788.1</v>
+        <v>32125</v>
       </c>
       <c r="C134">
-        <v>30899.77191845598</v>
+        <v>29885.21767558675</v>
       </c>
       <c r="D134">
-        <v>-1111.671918455981</v>
+        <v>2239.782324413249</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3674,13 +3674,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>32125</v>
+        <v>32283.3</v>
       </c>
       <c r="C135">
-        <v>29885.74229051852</v>
+        <v>31603.76314204737</v>
       </c>
       <c r="D135">
-        <v>2239.257709481481</v>
+        <v>679.5368579526257</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3688,13 +3688,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>32283.3</v>
+        <v>33639</v>
       </c>
       <c r="C136">
-        <v>31595.80745057205</v>
+        <v>32196.5038607424</v>
       </c>
       <c r="D136">
-        <v>687.4925494279451</v>
+        <v>1442.496139257597</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3702,13 +3702,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>33639</v>
+        <v>34284.6</v>
       </c>
       <c r="C137">
-        <v>32188.08084520904</v>
+        <v>33247.73192394547</v>
       </c>
       <c r="D137">
-        <v>1450.919154790961</v>
+        <v>1036.868076054532</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3716,13 +3716,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>34284.6</v>
+        <v>35413.6</v>
       </c>
       <c r="C138">
-        <v>33234.60648809381</v>
+        <v>34174.65248341439</v>
       </c>
       <c r="D138">
-        <v>1049.993511906185</v>
+        <v>1238.947516585606</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3730,13 +3730,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>35413.6</v>
+        <v>37274.9</v>
       </c>
       <c r="C139">
-        <v>34160.31532621579</v>
+        <v>35103.98844058535</v>
       </c>
       <c r="D139">
-        <v>1253.284673784205</v>
+        <v>2170.91155941465</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3744,13 +3744,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>37274.9</v>
+        <v>39506.2</v>
       </c>
       <c r="C140">
-        <v>35085.95896760235</v>
+        <v>37642.24251074734</v>
       </c>
       <c r="D140">
-        <v>2188.941032397648</v>
+        <v>1863.957489252658</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3758,13 +3758,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>39506.2</v>
+        <v>40011</v>
       </c>
       <c r="C141">
-        <v>37606.63463038763</v>
+        <v>38947.06510715061</v>
       </c>
       <c r="D141">
-        <v>1899.56536961237</v>
+        <v>1063.934892849386</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3772,13 +3772,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>40011</v>
+        <v>40000</v>
       </c>
       <c r="C142">
-        <v>38916.52406833496</v>
+        <v>40135.61081662282</v>
       </c>
       <c r="D142">
-        <v>1094.475931665038</v>
+        <v>-135.6108166228223</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3786,13 +3786,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>40000</v>
+        <v>42229.6</v>
       </c>
       <c r="C143">
-        <v>40105.52451936712</v>
+        <v>40159.03683060975</v>
       </c>
       <c r="D143">
-        <v>-105.5245193671217</v>
+        <v>2070.563169390247</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3800,13 +3800,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>42229.6</v>
+        <v>41488.5</v>
       </c>
       <c r="C144">
-        <v>40135.99776384247</v>
+        <v>41529.68882944499</v>
       </c>
       <c r="D144">
-        <v>2093.602236157531</v>
+        <v>-41.1888294449891</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3814,13 +3814,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>41488.5</v>
+        <v>39889.1</v>
       </c>
       <c r="C145">
-        <v>41503.595772262</v>
+        <v>41803.48368357404</v>
       </c>
       <c r="D145">
-        <v>-15.09577226200054</v>
+        <v>-1914.383683574044</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3828,13 +3828,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>39889.1</v>
+        <v>39152.3</v>
       </c>
       <c r="C146">
-        <v>41783.73613557785</v>
+        <v>40545.27936036134</v>
       </c>
       <c r="D146">
-        <v>-1894.63613557785</v>
+        <v>-1392.979360361336</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3842,13 +3842,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>39152.3</v>
+        <v>38163</v>
       </c>
       <c r="C147">
-        <v>40530.52711372081</v>
+        <v>39452.36057297661</v>
       </c>
       <c r="D147">
-        <v>-1378.227113720808</v>
+        <v>-1289.360572976613</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3856,13 +3856,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>38163</v>
+        <v>39749</v>
       </c>
       <c r="C148">
-        <v>39451.01928059283</v>
+        <v>38482.61373623597</v>
       </c>
       <c r="D148">
-        <v>-1288.019280592831</v>
+        <v>1266.386263764027</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3870,13 +3870,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>39749</v>
+        <v>40886.4</v>
       </c>
       <c r="C149">
-        <v>38486.58557270855</v>
+        <v>39330.67984563028</v>
       </c>
       <c r="D149">
-        <v>1262.414427291449</v>
+        <v>1555.720154369723</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3884,13 +3884,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>40886.4</v>
+        <v>42823.9</v>
       </c>
       <c r="C150">
-        <v>39332.57006714133</v>
+        <v>40255.937554206</v>
       </c>
       <c r="D150">
-        <v>1553.829932858673</v>
+        <v>2567.962445794001</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3898,13 +3898,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>42823.9</v>
+        <v>44610.7</v>
       </c>
       <c r="C151">
-        <v>40247.82544592978</v>
+        <v>42377.3358341165</v>
       </c>
       <c r="D151">
-        <v>2576.074554070219</v>
+        <v>2233.364165883497</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3912,13 +3912,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>44610.7</v>
+        <v>43845.6</v>
       </c>
       <c r="C152">
-        <v>42361.58246812184</v>
+        <v>44303.63059116394</v>
       </c>
       <c r="D152">
-        <v>2249.117531878153</v>
+        <v>-458.0305911639371</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3926,13 +3926,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>43845.6</v>
+        <v>46307.1</v>
       </c>
       <c r="C153">
-        <v>44281.3114692506</v>
+        <v>44245.96269528221</v>
       </c>
       <c r="D153">
-        <v>-435.7114692506002</v>
+        <v>2061.137304717784</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3940,13 +3940,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>46307.1</v>
+        <v>45595.1</v>
       </c>
       <c r="C154">
-        <v>44222.0202342358</v>
+        <v>45729.65634787062</v>
       </c>
       <c r="D154">
-        <v>2085.079765764196</v>
+        <v>-134.5563478706244</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3954,13 +3954,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>45595.1</v>
+        <v>45571.7</v>
       </c>
       <c r="C155">
-        <v>45701.43397000625</v>
+        <v>45843.85477326205</v>
       </c>
       <c r="D155">
-        <v>-106.3339700062497</v>
+        <v>-272.1547732620529</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3968,13 +3968,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>45571.7</v>
+        <v>44401.1</v>
       </c>
       <c r="C156">
-        <v>45818.5078192945</v>
+        <v>45994.95124904119</v>
       </c>
       <c r="D156">
-        <v>-246.8078192945031</v>
+        <v>-1593.851249041189</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3982,13 +3982,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>44401.1</v>
+        <v>47823.3</v>
       </c>
       <c r="C157">
-        <v>45976.2381063639</v>
+        <v>44830.56822882031</v>
       </c>
       <c r="D157">
-        <v>-1575.138106363898</v>
+        <v>2992.731771179693</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3996,13 +3996,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>47823.3</v>
+        <v>47115.2</v>
       </c>
       <c r="C158">
-        <v>44817.87323039698</v>
+        <v>47152.56214625403</v>
       </c>
       <c r="D158">
-        <v>3005.426769603022</v>
+        <v>-37.36214625403227</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4010,13 +4010,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>47115.2</v>
+        <v>47019.3</v>
       </c>
       <c r="C159">
-        <v>47135.87228001527</v>
+        <v>47275.77904149471</v>
       </c>
       <c r="D159">
-        <v>-20.6722800152711</v>
+        <v>-256.4790414947056</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4024,13 +4024,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>47019.3</v>
+        <v>45926.3</v>
       </c>
       <c r="C160">
-        <v>47258.80170351029</v>
+        <v>46918.65408250681</v>
       </c>
       <c r="D160">
-        <v>-239.5017035102865</v>
+        <v>-992.3540825068048</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4038,13 +4038,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>45926.3</v>
+        <v>44672.2</v>
       </c>
       <c r="C161">
-        <v>46906.72174052062</v>
+        <v>46481.71364831857</v>
       </c>
       <c r="D161">
-        <v>-980.4217405206218</v>
+        <v>-1809.513648318578</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4052,13 +4052,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>44672.2</v>
+        <v>44714.7</v>
       </c>
       <c r="C162">
-        <v>46471.11269957643</v>
+        <v>45263.40318525239</v>
       </c>
       <c r="D162">
-        <v>-1798.912699576431</v>
+        <v>-548.7031852523942</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4066,13 +4066,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>44714.7</v>
+        <v>46765.3</v>
       </c>
       <c r="C163">
-        <v>45256.92325892516</v>
+        <v>44981.74447337823</v>
       </c>
       <c r="D163">
-        <v>-542.223258925158</v>
+        <v>1783.555526621771</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4080,13 +4080,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>46765.3</v>
+        <v>49345.4</v>
       </c>
       <c r="C164">
-        <v>44980.20349336876</v>
+        <v>46276.92408686035</v>
       </c>
       <c r="D164">
-        <v>1785.096506631242</v>
+        <v>3068.475913139649</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4094,13 +4094,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>49345.4</v>
+        <v>48865.4</v>
       </c>
       <c r="C165">
-        <v>46268.7187252153</v>
+        <v>48860.49386847523</v>
       </c>
       <c r="D165">
-        <v>3076.6812747847</v>
+        <v>4.906131524774537</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4108,13 +4108,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>48865.4</v>
+        <v>49293.6</v>
       </c>
       <c r="C166">
-        <v>48842.9848163034</v>
+        <v>49105.32578353293</v>
       </c>
       <c r="D166">
-        <v>22.4151836966048</v>
+        <v>188.2742164670708</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4122,13 +4122,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>49293.6</v>
+        <v>49517.3</v>
       </c>
       <c r="C167">
-        <v>49086.08630327319</v>
+        <v>49213.06276279723</v>
       </c>
       <c r="D167">
-        <v>207.5136967268045</v>
+        <v>304.2372372027748</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4136,13 +4136,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>49517.3</v>
+        <v>47725.4</v>
       </c>
       <c r="C168">
-        <v>49195.22370729471</v>
+        <v>49800.91234956059</v>
       </c>
       <c r="D168">
-        <v>322.0762927052929</v>
+        <v>-2075.512349560588</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4150,13 +4150,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>47725.4</v>
+        <v>48991.3</v>
       </c>
       <c r="C169">
-        <v>49781.30125502111</v>
+        <v>48326.53312458942</v>
       </c>
       <c r="D169">
-        <v>-2055.901255021105</v>
+        <v>664.7668754105835</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4164,13 +4164,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>48991.3</v>
+        <v>46848.9</v>
       </c>
       <c r="C170">
-        <v>48310.92070704094</v>
+        <v>48744.5879139569</v>
       </c>
       <c r="D170">
-        <v>680.3792929590636</v>
+        <v>-1895.687913956899</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4178,13 +4178,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>46848.9</v>
+        <v>49074.9</v>
       </c>
       <c r="C171">
-        <v>48734.16426557559</v>
+        <v>47373.40694679695</v>
       </c>
       <c r="D171">
-        <v>-1885.264265575592</v>
+        <v>1701.493053203048</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4192,13 +4192,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>49074.9</v>
+        <v>48895.7</v>
       </c>
       <c r="C172">
-        <v>47364.41371700259</v>
+        <v>48532.19102470137</v>
       </c>
       <c r="D172">
-        <v>1710.486282997415</v>
+        <v>363.5089752986241</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4206,13 +4206,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>48895.7</v>
+        <v>48787.7</v>
       </c>
       <c r="C173">
-        <v>48525.78450575297</v>
+        <v>48960.85406248138</v>
       </c>
       <c r="D173">
-        <v>369.9154942470268</v>
+        <v>-173.1540624813788</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4220,13 +4220,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>48787.7</v>
+        <v>46985.7</v>
       </c>
       <c r="C174">
-        <v>48952.66897710862</v>
+        <v>48830.21343511622</v>
       </c>
       <c r="D174">
-        <v>-164.9689771086196</v>
+        <v>-1844.513435116227</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4234,13 +4234,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>46985.7</v>
+        <v>47140</v>
       </c>
       <c r="C175">
-        <v>48820.33346125967</v>
+        <v>47437.78397873245</v>
       </c>
       <c r="D175">
-        <v>-1834.633461259677</v>
+        <v>-297.7839787324483</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4248,13 +4248,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>47140</v>
+        <v>48872.2</v>
       </c>
       <c r="C176">
-        <v>47430.467120561</v>
+        <v>47331.44874235993</v>
       </c>
       <c r="D176">
-        <v>-290.4671205609993</v>
+        <v>1540.751257640062</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4262,13 +4262,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>48872.2</v>
+        <v>49290.3</v>
       </c>
       <c r="C177">
-        <v>47327.61506775372</v>
+        <v>48426.80028497244</v>
       </c>
       <c r="D177">
-        <v>1544.584932246282</v>
+        <v>863.4997150275594</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4276,13 +4276,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>49290.3</v>
+        <v>50018.6</v>
       </c>
       <c r="C178">
-        <v>48416.95782011274</v>
+        <v>49461.74779127029</v>
       </c>
       <c r="D178">
-        <v>873.342179887266</v>
+        <v>556.8522087297097</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4290,13 +4290,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>50018.6</v>
+        <v>49956.1</v>
       </c>
       <c r="C179">
-        <v>49446.9775136326</v>
+        <v>49934.17357704006</v>
       </c>
       <c r="D179">
-        <v>571.6224863673997</v>
+        <v>21.92642295994301</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4304,13 +4304,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>49956.1</v>
+        <v>51767.9</v>
       </c>
       <c r="C180">
-        <v>49917.51697367157</v>
+        <v>50038.46033942868</v>
       </c>
       <c r="D180">
-        <v>38.5830263284297</v>
+        <v>1729.439660571319</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4318,13 +4318,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>51767.9</v>
+        <v>52688.3</v>
       </c>
       <c r="C181">
-        <v>50024.19675320379</v>
+        <v>51356.56447427772</v>
       </c>
       <c r="D181">
-        <v>1743.703246796213</v>
+        <v>1331.735525722281</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4332,13 +4332,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>52688.3</v>
+        <v>46882.1</v>
       </c>
       <c r="C182">
-        <v>51337.14853174237</v>
+        <v>52461.1075725985</v>
       </c>
       <c r="D182">
-        <v>1351.151468257631</v>
+        <v>-5579.007572598501</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4346,13 +4346,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>46882.1</v>
+        <v>46073.4</v>
       </c>
       <c r="C183">
-        <v>52438.20830615631</v>
+        <v>47123.36298985482</v>
       </c>
       <c r="D183">
-        <v>-5556.108306156311</v>
+        <v>-1049.962989854823</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4360,13 +4360,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>46073.4</v>
+        <v>46389.6</v>
       </c>
       <c r="C184">
-        <v>47095.13327261047</v>
+        <v>45954.91853538656</v>
       </c>
       <c r="D184">
-        <v>-1021.733272610465</v>
+        <v>434.6814646134371</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4374,13 +4374,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>46389.6</v>
+        <v>44842.2</v>
       </c>
       <c r="C185">
-        <v>45957.91624811659</v>
+        <v>46364.90459041978</v>
       </c>
       <c r="D185">
-        <v>431.6837518834072</v>
+        <v>-1522.704590419788</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4388,13 +4388,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>44842.2</v>
+        <v>45137.4</v>
       </c>
       <c r="C186">
-        <v>46368.36379493293</v>
+        <v>45103.46115465488</v>
       </c>
       <c r="D186">
-        <v>-1526.163794932938</v>
+        <v>33.93884534511744</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4402,13 +4402,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>45137.4</v>
+        <v>46061.3</v>
       </c>
       <c r="C187">
-        <v>45105.22506088496</v>
+        <v>45154.40010649664</v>
       </c>
       <c r="D187">
-        <v>32.17493911503698</v>
+        <v>906.8998935033596</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4416,13 +4416,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>46061.3</v>
+        <v>44965.8</v>
       </c>
       <c r="C188">
-        <v>45159.10785649348</v>
+        <v>45771.98485150875</v>
       </c>
       <c r="D188">
-        <v>902.1921435065233</v>
+        <v>-806.1848515087477</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4430,13 +4430,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>44965.8</v>
+        <v>47145.9</v>
       </c>
       <c r="C189">
-        <v>45770.71126074423</v>
+        <v>44932.17805438398</v>
       </c>
       <c r="D189">
-        <v>-804.9112607442294</v>
+        <v>2213.721945616016</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4444,13 +4444,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>47145.9</v>
+        <v>48152.3</v>
       </c>
       <c r="C190">
-        <v>44922.76975518693</v>
+        <v>46549.83166934457</v>
       </c>
       <c r="D190">
-        <v>2223.130244813074</v>
+        <v>1602.468330655436</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4458,13 +4458,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>48152.3</v>
+        <v>47786.9</v>
       </c>
       <c r="C191">
-        <v>46538.06479880622</v>
+        <v>47896.07493089023</v>
       </c>
       <c r="D191">
-        <v>1614.235201193784</v>
+        <v>-109.174930890229</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4472,13 +4472,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>47786.9</v>
+        <v>47269.7</v>
       </c>
       <c r="C192">
-        <v>47877.14769940105</v>
+        <v>47779.5443616907</v>
       </c>
       <c r="D192">
-        <v>-90.24769940105034</v>
+        <v>-509.8443616907025</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4486,13 +4486,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>47269.7</v>
+        <v>48309.9</v>
       </c>
       <c r="C193">
-        <v>47760.44308591873</v>
+        <v>47361.30270633037</v>
       </c>
       <c r="D193">
-        <v>-490.7430859187371</v>
+        <v>948.5972936696271</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4500,13 +4500,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>48309.9</v>
+        <v>47237.8</v>
       </c>
       <c r="C194">
-        <v>47345.67234864159</v>
+        <v>48131.81652423902</v>
       </c>
       <c r="D194">
-        <v>964.2276513584075</v>
+        <v>-894.0165242390212</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4514,13 +4514,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>47237.8</v>
+        <v>42992.9</v>
       </c>
       <c r="C195">
-        <v>48116.09755965966</v>
+        <v>47399.68492119253</v>
       </c>
       <c r="D195">
-        <v>-878.2975596596589</v>
+        <v>-4406.784921192528</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4528,13 +4528,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>42992.9</v>
+        <v>40710.6</v>
       </c>
       <c r="C196">
-        <v>47386.86554452254</v>
+        <v>43785.29103494846</v>
       </c>
       <c r="D196">
-        <v>-4393.965544522536</v>
+        <v>-3074.691034948461</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4542,13 +4542,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>40710.6</v>
+        <v>43562.8</v>
       </c>
       <c r="C197">
-        <v>43777.48994517767</v>
+        <v>40971.70494437232</v>
       </c>
       <c r="D197">
-        <v>-3066.889945177667</v>
+        <v>2591.09505562768</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4556,13 +4556,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>43562.8</v>
+        <v>44889.8</v>
       </c>
       <c r="C198">
-        <v>40981.13854404935</v>
+        <v>42817.09885729733</v>
       </c>
       <c r="D198">
-        <v>2581.661455950649</v>
+        <v>2072.701142702674</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4570,13 +4570,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>44889.8</v>
+        <v>42833.2</v>
       </c>
       <c r="C199">
-        <v>42823.83288431422</v>
+        <v>44415.23926033836</v>
       </c>
       <c r="D199">
-        <v>2065.967115685788</v>
+        <v>-1582.039260338366</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4584,13 +4584,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>42833.2</v>
+        <v>42710.1</v>
       </c>
       <c r="C200">
-        <v>44412.28000003496</v>
+        <v>42769.35325887235</v>
       </c>
       <c r="D200">
-        <v>-1579.080000034963</v>
+        <v>-59.25325887234794</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4598,13 +4598,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>42710.1</v>
+        <v>43204.6</v>
       </c>
       <c r="C201">
-        <v>42760.24515419777</v>
+        <v>42427.23284732137</v>
       </c>
       <c r="D201">
-        <v>-50.14515419777308</v>
+        <v>777.3671526786275</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4612,13 +4612,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>43204.6</v>
+        <v>42176.3</v>
       </c>
       <c r="C202">
-        <v>42426.88594628833</v>
+        <v>42687.7671454431</v>
       </c>
       <c r="D202">
-        <v>777.7140537116647</v>
+        <v>-511.4671454430936</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4626,13 +4626,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>42176.3</v>
+        <v>41038.4</v>
       </c>
       <c r="C203">
-        <v>42678.99349052835</v>
+        <v>42556.7617416424</v>
       </c>
       <c r="D203">
-        <v>-502.6934905283488</v>
+        <v>-1518.361741642402</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4640,13 +4640,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>41038.4</v>
+        <v>41524.8</v>
       </c>
       <c r="C204">
-        <v>42545.54573378547</v>
+        <v>41288.48883112156</v>
       </c>
       <c r="D204">
-        <v>-1507.145733785466</v>
+        <v>236.3111688784411</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4654,13 +4654,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>41524.8</v>
+        <v>43798.7</v>
       </c>
       <c r="C205">
-        <v>41282.79494844648</v>
+        <v>41462.46663595719</v>
       </c>
       <c r="D205">
-        <v>242.0050515535186</v>
+        <v>2336.233364042811</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4668,13 +4668,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>43798.7</v>
+        <v>48163.7</v>
       </c>
       <c r="C206">
-        <v>41459.33692133314</v>
+        <v>43218.37916448046</v>
       </c>
       <c r="D206">
-        <v>2339.363078666858</v>
+        <v>4945.320835519538</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4682,13 +4682,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>48163.7</v>
+        <v>47662</v>
       </c>
       <c r="C207">
-        <v>43207.31083010961</v>
+        <v>47071.4897349157</v>
       </c>
       <c r="D207">
-        <v>4956.389169890383</v>
+        <v>590.5102650843037</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4696,13 +4696,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>47662</v>
+        <v>48230.2</v>
       </c>
       <c r="C208">
-        <v>47038.20961488915</v>
+        <v>47833.44030859793</v>
       </c>
       <c r="D208">
-        <v>623.7903851108495</v>
+        <v>396.7596914020687</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4710,13 +4710,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>48230.2</v>
+        <v>49243.3</v>
       </c>
       <c r="C209">
-        <v>47803.3030134918</v>
+        <v>48250.09233143117</v>
       </c>
       <c r="D209">
-        <v>426.8969865081963</v>
+        <v>993.2076685688371</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4724,13 +4724,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>49243.3</v>
+        <v>51487</v>
       </c>
       <c r="C210">
-        <v>48220.62370826668</v>
+        <v>48823.39864728853</v>
       </c>
       <c r="D210">
-        <v>1022.676291733318</v>
+        <v>2663.60135271147</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4738,13 +4738,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>51487</v>
+        <v>55350.2</v>
       </c>
       <c r="C211">
-        <v>48795.13791813513</v>
+        <v>51139.00776919472</v>
       </c>
       <c r="D211">
-        <v>2691.862081864871</v>
+        <v>4211.192230805274</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4752,13 +4752,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>55350.2</v>
+        <v>53817.3</v>
       </c>
       <c r="C212">
-        <v>51106.58291294261</v>
+        <v>54460.73822964169</v>
       </c>
       <c r="D212">
-        <v>4243.617087057391</v>
+        <v>-643.4382296416879</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4766,13 +4766,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>53817.3</v>
+        <v>53960.5</v>
       </c>
       <c r="C213">
-        <v>54416.02902741757</v>
+        <v>54278.72493192717</v>
       </c>
       <c r="D213">
-        <v>-598.7290274175684</v>
+        <v>-318.224931927165</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4780,13 +4780,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>53960.5</v>
+        <v>54960.2</v>
       </c>
       <c r="C214">
-        <v>54245.06062353595</v>
+        <v>54542.54435247494</v>
       </c>
       <c r="D214">
-        <v>-284.5606235359519</v>
+        <v>417.6556475250545</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4794,13 +4794,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>54960.2</v>
+        <v>54677.5</v>
       </c>
       <c r="C215">
-        <v>54517.97405324563</v>
+        <v>54957.59054833153</v>
       </c>
       <c r="D215">
-        <v>442.2259467543699</v>
+        <v>-280.0905483315291</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4808,13 +4808,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>54677.5</v>
+        <v>57499.5</v>
       </c>
       <c r="C216">
-        <v>54939.35207421889</v>
+        <v>55133.03640641729</v>
       </c>
       <c r="D216">
-        <v>-261.8520742188921</v>
+        <v>2366.46359358271</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4822,13 +4822,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>57499.5</v>
+        <v>56010.1</v>
       </c>
       <c r="C217">
-        <v>55115.8599698128</v>
+        <v>57046.35063147248</v>
       </c>
       <c r="D217">
-        <v>2383.640030187198</v>
+        <v>-1036.250631472481</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4836,13 +4836,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>56010.1</v>
+        <v>57381.2</v>
       </c>
       <c r="C218">
-        <v>57027.46833215771</v>
+        <v>56102.91890558699</v>
       </c>
       <c r="D218">
-        <v>-1017.368332157712</v>
+        <v>1278.281094413003</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4850,13 +4850,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>57381.2</v>
+        <v>57377.6</v>
       </c>
       <c r="C219">
-        <v>56085.94939090379</v>
+        <v>56887.71375381976</v>
       </c>
       <c r="D219">
-        <v>1295.250609096205</v>
+        <v>489.8862461802419</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4864,13 +4864,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>57377.6</v>
+        <v>61656.2</v>
       </c>
       <c r="C220">
-        <v>56875.59888605146</v>
+        <v>57693.77898657526</v>
       </c>
       <c r="D220">
-        <v>502.0011139485432</v>
+        <v>3962.421013424741</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4878,13 +4878,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>61656.2</v>
+        <v>60873.4</v>
       </c>
       <c r="C221">
-        <v>57680.84457254317</v>
+        <v>61007.64784351885</v>
       </c>
       <c r="D221">
-        <v>3975.355427456823</v>
+        <v>-134.2478435188459</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4892,13 +4892,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>60873.4</v>
+        <v>61526.5</v>
       </c>
       <c r="C222">
-        <v>60977.4070570783</v>
+        <v>61291.88331238387</v>
       </c>
       <c r="D222">
-        <v>-104.0070570782991</v>
+        <v>234.6166876161296</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4906,13 +4906,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>61526.5</v>
+        <v>62037.7</v>
       </c>
       <c r="C223">
-        <v>61264.62862116873</v>
+        <v>61168.78450860741</v>
       </c>
       <c r="D223">
-        <v>261.8713788312671</v>
+        <v>868.9154913925886</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4920,13 +4920,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>62037.7</v>
+        <v>64284.9</v>
       </c>
       <c r="C224">
-        <v>61146.57886036559</v>
+        <v>61896.11458874276</v>
       </c>
       <c r="D224">
-        <v>891.1211396344079</v>
+        <v>2388.785411257246</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4934,13 +4934,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>64284.9</v>
+        <v>66035.8</v>
       </c>
       <c r="C225">
-        <v>61874.01441711578</v>
+        <v>63866.34113840436</v>
       </c>
       <c r="D225">
-        <v>2410.885582884221</v>
+        <v>2169.458861595645</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4948,13 +4948,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>66035.8</v>
+        <v>62198</v>
       </c>
       <c r="C226">
-        <v>63840.19420823723</v>
+        <v>65936.6727971916</v>
       </c>
       <c r="D226">
-        <v>2195.60579176277</v>
+        <v>-3738.672797191597</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4962,13 +4962,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>62198</v>
+        <v>60687.5</v>
       </c>
       <c r="C227">
-        <v>65904.45832334542</v>
+        <v>61441.42623547409</v>
       </c>
       <c r="D227">
-        <v>-3706.458323345418</v>
+        <v>-753.9262354740931</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4976,13 +4976,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>60687.5</v>
+        <v>61296.9</v>
       </c>
       <c r="C228">
-        <v>61401.82796721473</v>
+        <v>61331.81059433788</v>
       </c>
       <c r="D228">
-        <v>-714.3279672147255</v>
+        <v>-34.9105943378745</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4990,13 +4990,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>61296.9</v>
+        <v>60882.5</v>
       </c>
       <c r="C229">
-        <v>61319.46449433995</v>
+        <v>61083.97894911145</v>
       </c>
       <c r="D229">
-        <v>-22.56449433995294</v>
+        <v>-201.4789491114498</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5004,13 +5004,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>60882.5</v>
+        <v>63081.8</v>
       </c>
       <c r="C230">
-        <v>61079.21688283177</v>
+        <v>60777.55048200232</v>
       </c>
       <c r="D230">
-        <v>-196.7168828317735</v>
+        <v>2304.249517997683</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5018,13 +5018,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>63081.8</v>
+        <v>60310.2</v>
       </c>
       <c r="C231">
-        <v>60772.95348987715</v>
+        <v>62737.44645754079</v>
       </c>
       <c r="D231">
-        <v>2308.846510122858</v>
+        <v>-2427.246457540794</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5032,13 +5032,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>60310.2</v>
+        <v>58500.1</v>
       </c>
       <c r="C232">
-        <v>62723.88111744734</v>
+        <v>60925.70356787197</v>
       </c>
       <c r="D232">
-        <v>-2413.681117447348</v>
+        <v>-2425.603567871971</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5046,13 +5046,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>58500.1</v>
+        <v>60613.5</v>
       </c>
       <c r="C233">
-        <v>60911.46635101262</v>
+        <v>59088.44835056533</v>
       </c>
       <c r="D233">
-        <v>-2411.366351012621</v>
+        <v>1525.051649434667</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5060,13 +5060,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>60613.5</v>
+        <v>62246.5</v>
       </c>
       <c r="C234">
-        <v>59081.81130154717</v>
+        <v>60436.30333437689</v>
       </c>
       <c r="D234">
-        <v>1531.688698452832</v>
+        <v>1810.196665623109</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5074,13 +5074,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>62246.5</v>
+        <v>61866.3</v>
       </c>
       <c r="C235">
-        <v>60425.62577304149</v>
+        <v>62006.00373665855</v>
       </c>
       <c r="D235">
-        <v>1820.874226958513</v>
+        <v>-139.7037366585428</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5088,13 +5088,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>61866.3</v>
+        <v>61380.1</v>
       </c>
       <c r="C236">
-        <v>61989.0189684927</v>
+        <v>61810.8446097853</v>
       </c>
       <c r="D236">
-        <v>-122.7189684926925</v>
+        <v>-430.7446097853026</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5102,13 +5102,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>61380.1</v>
+        <v>60954.5</v>
       </c>
       <c r="C237">
-        <v>61794.52731862377</v>
+        <v>61382.45938979168</v>
       </c>
       <c r="D237">
-        <v>-414.4273186237697</v>
+        <v>-427.9593897916784</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5116,13 +5116,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>60954.5</v>
+        <v>63279.7</v>
       </c>
       <c r="C238">
-        <v>61366.45682118624</v>
+        <v>60996.68812257855</v>
       </c>
       <c r="D238">
-        <v>-411.9568211862425</v>
+        <v>2283.01187742145</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5130,13 +5130,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>63279.7</v>
+        <v>62942.9</v>
       </c>
       <c r="C239">
-        <v>60980.65813911506</v>
+        <v>62977.52693564305</v>
       </c>
       <c r="D239">
-        <v>2299.041860884936</v>
+        <v>-34.62693564304936</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5144,13 +5144,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>62942.9</v>
+        <v>61449</v>
       </c>
       <c r="C240">
-        <v>62954.39998119049</v>
+        <v>62692.61919516325</v>
       </c>
       <c r="D240">
-        <v>-11.49998119048541</v>
+        <v>-1243.61919516325</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5158,13 +5158,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>61449</v>
+        <v>61006.2</v>
       </c>
       <c r="C241">
-        <v>62669.87535242967</v>
+        <v>61703.73383098817</v>
       </c>
       <c r="D241">
-        <v>-1220.87535242967</v>
+        <v>-697.5338309881772</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5172,13 +5172,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>61006.2</v>
+        <v>61536.3</v>
       </c>
       <c r="C242">
-        <v>61687.12866938159</v>
+        <v>61354.33441248379</v>
       </c>
       <c r="D242">
-        <v>-680.9286693815884</v>
+        <v>181.9655875162134</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5186,13 +5186,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>61536.3</v>
+        <v>63317.8</v>
       </c>
       <c r="C243">
-        <v>61343.65050567725</v>
+        <v>61253.28652227181</v>
       </c>
       <c r="D243">
-        <v>192.6494943227517</v>
+        <v>2064.513477728193</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5200,13 +5200,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>63317.8</v>
+        <v>67559.8</v>
       </c>
       <c r="C244">
-        <v>61245.58031176034</v>
+        <v>62919.93909069774</v>
       </c>
       <c r="D244">
-        <v>2072.21968823966</v>
+        <v>4639.860909302268</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5214,13 +5214,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>67559.8</v>
+        <v>66950</v>
       </c>
       <c r="C245">
-        <v>62905.60667309233</v>
+        <v>66733.17046086059</v>
       </c>
       <c r="D245">
-        <v>4654.193326907676</v>
+        <v>216.8295391394058</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5228,13 +5228,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>66950</v>
+        <v>64969</v>
       </c>
       <c r="C246">
-        <v>66700.8155605725</v>
+        <v>67321.9783078219</v>
       </c>
       <c r="D246">
-        <v>249.1844394274958</v>
+        <v>-2352.978307821904</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5242,13 +5242,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>64969</v>
+        <v>64825.4</v>
       </c>
       <c r="C247">
-        <v>67289.21464124719</v>
+        <v>65466.46199139685</v>
       </c>
       <c r="D247">
-        <v>-2320.214641247192</v>
+        <v>-641.0619913968476</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5256,13 +5256,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>64825.4</v>
+        <v>64153</v>
       </c>
       <c r="C248">
-        <v>65433.37465847401</v>
+        <v>64951.96797304973</v>
       </c>
       <c r="D248">
-        <v>-607.974658474006</v>
+        <v>-798.9679730497301</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5270,13 +5270,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>64153</v>
+        <v>64393.1</v>
       </c>
       <c r="C249">
-        <v>64937.56692199689</v>
+        <v>64115.97420851863</v>
       </c>
       <c r="D249">
-        <v>-784.5669219968913</v>
+        <v>277.1257914813687</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5284,13 +5284,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>64393.1</v>
+        <v>65495</v>
       </c>
       <c r="C250">
-        <v>64102.70309032611</v>
+        <v>64379.1673340298</v>
       </c>
       <c r="D250">
-        <v>290.3969096738874</v>
+        <v>1115.8326659702</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5298,13 +5298,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>65495</v>
+        <v>63615.8</v>
       </c>
       <c r="C251">
-        <v>64371.77189634415</v>
+        <v>65136.44500709692</v>
       </c>
       <c r="D251">
-        <v>1123.228103655849</v>
+        <v>-1520.645007096915</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5312,13 +5312,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>63615.8</v>
+        <v>60137.2</v>
       </c>
       <c r="C252">
-        <v>65128.79458016594</v>
+        <v>64218.01621054031</v>
       </c>
       <c r="D252">
-        <v>-1512.994580165941</v>
+        <v>-4080.816210540317</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5326,13 +5326,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>60137.2</v>
+        <v>60367.8</v>
       </c>
       <c r="C253">
-        <v>64209.42083667627</v>
+        <v>60540.53082215029</v>
       </c>
       <c r="D253">
-        <v>-4072.220836676272</v>
+        <v>-172.7308221502899</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5340,13 +5340,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>60367.8</v>
+        <v>56921.7</v>
       </c>
       <c r="C254">
-        <v>60539.26930293506</v>
+        <v>59951.4860217715</v>
       </c>
       <c r="D254">
-        <v>-171.4693029350528</v>
+        <v>-3029.786021771506</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5354,13 +5354,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>56921.7</v>
+        <v>58099.6</v>
       </c>
       <c r="C255">
-        <v>59960.44648335668</v>
+        <v>57631.27095243611</v>
       </c>
       <c r="D255">
-        <v>-3038.746483356685</v>
+        <v>468.329047563886</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5368,13 +5368,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>58099.6</v>
+        <v>59744.2</v>
       </c>
       <c r="C256">
-        <v>57635.91113528054</v>
+        <v>57463.93224453653</v>
       </c>
       <c r="D256">
-        <v>463.6888647194573</v>
+        <v>2280.267755463472</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5382,13 +5382,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>59744.2</v>
+        <v>58646.2</v>
       </c>
       <c r="C257">
-        <v>57475.67627969289</v>
+        <v>59121.90688600714</v>
       </c>
       <c r="D257">
-        <v>2268.523720307108</v>
+        <v>-475.7068860071449</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5396,13 +5396,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>58646.2</v>
+        <v>56295.5</v>
       </c>
       <c r="C258">
-        <v>59121.46396206719</v>
+        <v>58837.58303907694</v>
       </c>
       <c r="D258">
-        <v>-475.2639620671907</v>
+        <v>-2542.083039076941</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5410,13 +5410,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>56295.5</v>
+        <v>57571.4</v>
       </c>
       <c r="C259">
-        <v>58832.30734739546</v>
+        <v>56707.97192290481</v>
       </c>
       <c r="D259">
-        <v>-2536.807347395465</v>
+        <v>863.4280770951955</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5424,13 +5424,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>57571.4</v>
+        <v>57203.3</v>
       </c>
       <c r="C260">
-        <v>56700.23728446669</v>
+        <v>56998.60867258618</v>
       </c>
       <c r="D260">
-        <v>871.1627155333117</v>
+        <v>204.6913274138205</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5438,13 +5438,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>57203.3</v>
+        <v>58932.6</v>
       </c>
       <c r="C261">
-        <v>56994.02739472819</v>
+        <v>56915.5399836979</v>
       </c>
       <c r="D261">
-        <v>209.2726052718135</v>
+        <v>2017.060016302094</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5452,13 +5452,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>58932.6</v>
+        <v>53789</v>
       </c>
       <c r="C262">
-        <v>56908.02295055977</v>
+        <v>58514.64642238989</v>
       </c>
       <c r="D262">
-        <v>2024.577049440224</v>
+        <v>-4725.646422389895</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5466,13 +5466,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>53789</v>
+        <v>54784.9</v>
       </c>
       <c r="C263">
-        <v>58499.67187751932</v>
+        <v>54829.37275201184</v>
       </c>
       <c r="D263">
-        <v>-4710.671877519322</v>
+        <v>-44.47275201183948</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5480,13 +5480,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>54784.9</v>
+        <v>57300</v>
       </c>
       <c r="C264">
-        <v>54813.2071924354</v>
+        <v>54468.97037182646</v>
       </c>
       <c r="D264">
-        <v>-28.30719243540079</v>
+        <v>2831.029628173535</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5494,13 +5494,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>57300</v>
+        <v>57830.2</v>
       </c>
       <c r="C265">
-        <v>54471.40629182259</v>
+        <v>56251.67584943469</v>
       </c>
       <c r="D265">
-        <v>2828.59370817741</v>
+        <v>1578.52415056531</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5508,13 +5508,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>57830.2</v>
+        <v>56980.7</v>
       </c>
       <c r="C266">
-        <v>56239.996392562</v>
+        <v>57760.19298729842</v>
       </c>
       <c r="D266">
-        <v>1590.203607437994</v>
+        <v>-779.4929872984212</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5522,13 +5522,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>56980.7</v>
+        <v>57237.9</v>
       </c>
       <c r="C267">
-        <v>57743.01494757116</v>
+        <v>57182.70294577599</v>
       </c>
       <c r="D267">
-        <v>-762.3149475711616</v>
+        <v>55.19705422400875</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5536,13 +5536,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>57237.9</v>
+        <v>56526.4</v>
       </c>
       <c r="C268">
-        <v>57164.23916961152</v>
+        <v>57432.6583827759</v>
       </c>
       <c r="D268">
-        <v>73.66083038848592</v>
+        <v>-906.2583827759008</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5550,13 +5550,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>56526.4</v>
+        <v>53678.6</v>
       </c>
       <c r="C269">
-        <v>57416.43402585289</v>
+        <v>56509.69399495708</v>
       </c>
       <c r="D269">
-        <v>-890.0340258528886</v>
+        <v>-2831.093994957082</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5564,13 +5564,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>53678.6</v>
+        <v>49255.1</v>
       </c>
       <c r="C270">
-        <v>56499.69398423206</v>
+        <v>54017.0946150652</v>
       </c>
       <c r="D270">
-        <v>-2821.093984232066</v>
+        <v>-4761.994615065203</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5578,13 +5578,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>49255.1</v>
+        <v>49443.3</v>
       </c>
       <c r="C271">
-        <v>54004.03621660619</v>
+        <v>47934.60693872612</v>
       </c>
       <c r="D271">
-        <v>-4748.936216606191</v>
+        <v>1508.69306127388</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5592,13 +5592,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>49443.3</v>
+        <v>50564.3</v>
       </c>
       <c r="C272">
-        <v>47927.46758673044</v>
+        <v>48908.48286821571</v>
       </c>
       <c r="D272">
-        <v>1515.832413269563</v>
+        <v>1655.817131784293</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5606,13 +5606,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>50564.3</v>
+        <v>50650.1</v>
       </c>
       <c r="C273">
-        <v>48927.05008519695</v>
+        <v>49633.96379695562</v>
       </c>
       <c r="D273">
-        <v>1637.249914803055</v>
+        <v>1016.136203044378</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5620,13 +5620,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>50650.1</v>
+        <v>50515.1</v>
       </c>
       <c r="C274">
-        <v>49640.36329922127</v>
+        <v>50621.03993922268</v>
       </c>
       <c r="D274">
-        <v>1009.736700778725</v>
+        <v>-105.9399392226842</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5634,13 +5634,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>50515.1</v>
+        <v>47581.6</v>
       </c>
       <c r="C275">
-        <v>50620.71197972276</v>
+        <v>50010.45666183755</v>
       </c>
       <c r="D275">
-        <v>-105.6119797227584</v>
+        <v>-2428.856661837555</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5648,13 +5648,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>47581.6</v>
+        <v>47218.3</v>
       </c>
       <c r="C276">
-        <v>50004.76153079552</v>
+        <v>48001.21455966579</v>
       </c>
       <c r="D276">
-        <v>-2423.161530795522</v>
+        <v>-782.9145596657909</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5662,13 +5662,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>47218.3</v>
+        <v>49367.2</v>
       </c>
       <c r="C277">
-        <v>47992.59467661434</v>
+        <v>47544.04514984577</v>
       </c>
       <c r="D277">
-        <v>-774.2946766143359</v>
+        <v>1823.154850154227</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5676,13 +5676,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>49367.2</v>
+        <v>50113.2</v>
       </c>
       <c r="C278">
-        <v>47537.21380804628</v>
+        <v>48600.16208590777</v>
       </c>
       <c r="D278">
-        <v>1829.986191953714</v>
+        <v>1513.03791409223</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5690,13 +5690,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>50113.2</v>
+        <v>46732.2</v>
       </c>
       <c r="C279">
-        <v>48593.91803544656</v>
+        <v>49773.64846661148</v>
       </c>
       <c r="D279">
-        <v>1519.28196455344</v>
+        <v>-3041.448466611488</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5704,13 +5704,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>46732.2</v>
+        <v>48399.2</v>
       </c>
       <c r="C280">
-        <v>49759.69245656991</v>
+        <v>47106.93575212525</v>
       </c>
       <c r="D280">
-        <v>-3027.492456569911</v>
+        <v>1292.264247874744</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5718,13 +5718,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>48399.2</v>
+        <v>48881.3</v>
       </c>
       <c r="C281">
-        <v>47093.90972586795</v>
+        <v>47790.87181301246</v>
       </c>
       <c r="D281">
-        <v>1305.29027413205</v>
+        <v>1090.428186987541</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5732,13 +5732,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>48881.3</v>
+        <v>47631</v>
       </c>
       <c r="C282">
-        <v>47785.81261093665</v>
+        <v>48344.99037641002</v>
       </c>
       <c r="D282">
-        <v>1095.487389063353</v>
+        <v>-713.9903764100163</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5746,13 +5746,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>47631</v>
+        <v>46168.3</v>
       </c>
       <c r="C283">
-        <v>48333.33235417793</v>
+        <v>47899.20064041286</v>
       </c>
       <c r="D283">
-        <v>-702.3323541779318</v>
+        <v>-1730.90064041286</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5760,13 +5760,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>46168.3</v>
+        <v>46864.3</v>
       </c>
       <c r="C284">
-        <v>47888.7303759663</v>
+        <v>46277.98562181855</v>
       </c>
       <c r="D284">
-        <v>-1720.430375966294</v>
+        <v>586.3143781814579</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5774,13 +5774,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>46864.3</v>
+        <v>46688.4</v>
       </c>
       <c r="C285">
-        <v>46273.77251210411</v>
+        <v>46485.91625262602</v>
       </c>
       <c r="D285">
-        <v>590.5274878958953</v>
+        <v>202.4837473739826</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5788,13 +5788,13 @@
         <v>288</v>
       </c>
       <c r="B286">
-        <v>46688.4</v>
+        <v>46898.1</v>
       </c>
       <c r="C286">
-        <v>46485.9499309364</v>
+        <v>46836.73145887794</v>
       </c>
       <c r="D286">
-        <v>202.450069063605</v>
+        <v>61.36854112205765</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5802,13 +5802,13 @@
         <v>289</v>
       </c>
       <c r="B287">
-        <v>46898.1</v>
+        <v>48925.9</v>
       </c>
       <c r="C287">
-        <v>46832.59180145537</v>
+        <v>46618.47866400596</v>
       </c>
       <c r="D287">
-        <v>65.50819854463043</v>
+        <v>2307.42133599404</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5816,13 +5816,13 @@
         <v>290</v>
       </c>
       <c r="B288">
-        <v>48925.9</v>
+        <v>48624.9</v>
       </c>
       <c r="C288">
-        <v>46615.40626621451</v>
+        <v>48379.53279476005</v>
       </c>
       <c r="D288">
-        <v>2310.493733785494</v>
+        <v>245.3672052399561</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5830,13 +5830,13 @@
         <v>291</v>
       </c>
       <c r="B289">
-        <v>48624.9</v>
+        <v>50818.8</v>
       </c>
       <c r="C289">
-        <v>48369.01423068287</v>
+        <v>48741.56778710248</v>
       </c>
       <c r="D289">
-        <v>255.8857693171303</v>
+        <v>2077.232212897521</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5844,13 +5844,13 @@
         <v>292</v>
       </c>
       <c r="B290">
-        <v>50818.8</v>
+        <v>50834.3</v>
       </c>
       <c r="C290">
-        <v>48731.12307083864</v>
+        <v>50239.90464823018</v>
       </c>
       <c r="D290">
-        <v>2087.676929161367</v>
+        <v>594.3953517698246</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5858,13 +5858,13 @@
         <v>293</v>
       </c>
       <c r="B291">
-        <v>50834.3</v>
+        <v>50436</v>
       </c>
       <c r="C291">
-        <v>50221.10024641356</v>
+        <v>50975.93583362494</v>
       </c>
       <c r="D291">
-        <v>613.199753586443</v>
+        <v>-539.9358336249425</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5872,13 +5872,13 @@
         <v>294</v>
       </c>
       <c r="B292">
-        <v>50436</v>
+        <v>50797.3</v>
       </c>
       <c r="C292">
-        <v>50957.27409273448</v>
+        <v>50534.55730609701</v>
       </c>
       <c r="D292">
-        <v>-521.2740927344785</v>
+        <v>262.7426939029974</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5886,13 +5886,13 @@
         <v>295</v>
       </c>
       <c r="B293">
-        <v>50797.3</v>
+        <v>50687.4</v>
       </c>
       <c r="C293">
-        <v>50521.21017699946</v>
+        <v>50551.780242006</v>
       </c>
       <c r="D293">
-        <v>276.0898230005478</v>
+        <v>135.6197579939981</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5900,13 +5900,13 @@
         <v>296</v>
       </c>
       <c r="B294">
-        <v>50687.4</v>
+        <v>47548.1</v>
       </c>
       <c r="C294">
-        <v>50540.33935476663</v>
+        <v>50947.01927563571</v>
       </c>
       <c r="D294">
-        <v>147.0606452333741</v>
+        <v>-3398.919275635715</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5914,13 +5914,13 @@
         <v>297</v>
       </c>
       <c r="B295">
-        <v>47548.1</v>
+        <v>46473.2</v>
       </c>
       <c r="C295">
-        <v>50936.84934038114</v>
+        <v>48139.82569101074</v>
       </c>
       <c r="D295">
-        <v>-3388.749340381139</v>
+        <v>-1666.625691010748</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5928,13 +5928,13 @@
         <v>298</v>
       </c>
       <c r="B296">
-        <v>46473.2</v>
+        <v>47143.8</v>
       </c>
       <c r="C296">
-        <v>48136.49061362464</v>
+        <v>46658.65646016848</v>
       </c>
       <c r="D296">
-        <v>-1663.290613624638</v>
+        <v>485.1435398315225</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5942,13 +5942,13 @@
         <v>299</v>
       </c>
       <c r="B297">
-        <v>47143.8</v>
+        <v>46150</v>
       </c>
       <c r="C297">
-        <v>46667.8813594168</v>
+        <v>46907.86863025921</v>
       </c>
       <c r="D297">
-        <v>475.9186405832079</v>
+        <v>-757.8686302592105</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5956,13 +5956,13 @@
         <v>300</v>
       </c>
       <c r="B298">
-        <v>46150</v>
+        <v>47738.3</v>
       </c>
       <c r="C298">
-        <v>46917.67211512413</v>
+        <v>46418.83240731171</v>
       </c>
       <c r="D298">
-        <v>-767.672115124129</v>
+        <v>1319.467592688292</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5970,13 +5970,13 @@
         <v>301</v>
       </c>
       <c r="B299">
-        <v>47738.3</v>
+        <v>47304.6</v>
       </c>
       <c r="C299">
-        <v>46422.17087094676</v>
+        <v>47295.51077514063</v>
       </c>
       <c r="D299">
-        <v>1316.129129053246</v>
+        <v>9.089224859366368</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5984,13 +5984,13 @@
         <v>302</v>
       </c>
       <c r="B300">
-        <v>47304.6</v>
+        <v>46452.6</v>
       </c>
       <c r="C300">
-        <v>47298.37905804828</v>
+        <v>47219.78333352634</v>
       </c>
       <c r="D300">
-        <v>6.220941951716668</v>
+        <v>-767.1833335263436</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5998,13 +5998,13 @@
         <v>303</v>
       </c>
       <c r="B301">
-        <v>46452.6</v>
+        <v>45858.5</v>
       </c>
       <c r="C301">
-        <v>47219.06360850941</v>
+        <v>46426.41460737272</v>
       </c>
       <c r="D301">
-        <v>-766.4636085094098</v>
+        <v>-567.914607372717</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6012,13 +6012,13 @@
         <v>304</v>
       </c>
       <c r="B302">
-        <v>45858.5</v>
+        <v>43410</v>
       </c>
       <c r="C302">
-        <v>46423.9234536654</v>
+        <v>46055.09626239893</v>
       </c>
       <c r="D302">
-        <v>-565.4234536654039</v>
+        <v>-2645.096262398933</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6026,13 +6026,13 @@
         <v>305</v>
       </c>
       <c r="B303">
-        <v>43410</v>
+        <v>43124.4</v>
       </c>
       <c r="C303">
-        <v>46051.55319324884</v>
+        <v>43879.98480356555</v>
       </c>
       <c r="D303">
-        <v>-2641.553193248845</v>
+        <v>-755.5848035655436</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6040,13 +6040,13 @@
         <v>306</v>
       </c>
       <c r="B304">
-        <v>43124.4</v>
+        <v>41523.6</v>
       </c>
       <c r="C304">
-        <v>43874.85778599352</v>
+        <v>42974.88154595689</v>
       </c>
       <c r="D304">
-        <v>-750.4577859935234</v>
+        <v>-1451.281545956888</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6054,13 +6054,13 @@
         <v>307</v>
       </c>
       <c r="B305">
-        <v>41523.6</v>
+        <v>41693.2</v>
       </c>
       <c r="C305">
-        <v>42983.02455130054</v>
+        <v>41532.00707648695</v>
       </c>
       <c r="D305">
-        <v>-1459.424551300544</v>
+        <v>161.1929235130519</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6068,13 +6068,13 @@
         <v>308</v>
       </c>
       <c r="B306">
-        <v>41693.2</v>
+        <v>41862.9</v>
       </c>
       <c r="C306">
-        <v>41538.79579772551</v>
+        <v>41382.29454521195</v>
       </c>
       <c r="D306">
-        <v>154.4042022744907</v>
+        <v>480.6054547880558</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6082,13 +6082,13 @@
         <v>309</v>
       </c>
       <c r="B307">
-        <v>41862.9</v>
+        <v>41855.3</v>
       </c>
       <c r="C307">
-        <v>41391.49037253237</v>
+        <v>41745.5476221141</v>
       </c>
       <c r="D307">
-        <v>471.4096274676267</v>
+        <v>109.7523778859031</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6096,13 +6096,13 @@
         <v>310</v>
       </c>
       <c r="B308">
-        <v>41855.3</v>
+        <v>42728.8</v>
       </c>
       <c r="C308">
-        <v>41748.61777274725</v>
+        <v>41266.52333431118</v>
       </c>
       <c r="D308">
-        <v>106.682227252757</v>
+        <v>1462.276665688827</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6110,13 +6110,13 @@
         <v>311</v>
       </c>
       <c r="B309">
-        <v>42728.8</v>
+        <v>43927.8</v>
       </c>
       <c r="C309">
-        <v>41265.22204902321</v>
+        <v>42347.8561786972</v>
       </c>
       <c r="D309">
-        <v>1463.577950976796</v>
+        <v>1579.943821302804</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6124,13 +6124,13 @@
         <v>312</v>
       </c>
       <c r="B310">
-        <v>43927.8</v>
+        <v>42550</v>
       </c>
       <c r="C310">
-        <v>42341.20663218085</v>
+        <v>43587.53991547506</v>
       </c>
       <c r="D310">
-        <v>1586.593367819158</v>
+        <v>-1037.539915475063</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6138,13 +6138,13 @@
         <v>313</v>
       </c>
       <c r="B311">
-        <v>42550</v>
+        <v>43090</v>
       </c>
       <c r="C311">
-        <v>43574.174717408</v>
+        <v>42831.55009933058</v>
       </c>
       <c r="D311">
-        <v>-1024.174717408001</v>
+        <v>258.4499006694241</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6152,13 +6152,13 @@
         <v>314</v>
       </c>
       <c r="B312">
-        <v>43090</v>
+        <v>43111.5</v>
       </c>
       <c r="C312">
-        <v>42816.58320280337</v>
+        <v>42789.37770857217</v>
       </c>
       <c r="D312">
-        <v>273.4167971966308</v>
+        <v>322.1222914278333</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6166,13 +6166,13 @@
         <v>315</v>
       </c>
       <c r="B313">
-        <v>43111.5</v>
+        <v>43114.5</v>
       </c>
       <c r="C313">
-        <v>42778.85999540392</v>
+        <v>43066.50288763671</v>
       </c>
       <c r="D313">
-        <v>332.6400045960836</v>
+        <v>47.99711236328585</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6180,13 +6180,13 @@
         <v>316</v>
       </c>
       <c r="B314">
-        <v>43114.5</v>
+        <v>42248.1</v>
       </c>
       <c r="C314">
-        <v>43056.93667536675</v>
+        <v>43007.54665890423</v>
       </c>
       <c r="D314">
-        <v>57.56332463325089</v>
+        <v>-759.4466589042349</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6194,13 +6194,13 @@
         <v>317</v>
       </c>
       <c r="B315">
-        <v>42248.1</v>
+        <v>42383</v>
       </c>
       <c r="C315">
-        <v>43000.43338790787</v>
+        <v>42229.27185939596</v>
       </c>
       <c r="D315">
-        <v>-752.3333879078709</v>
+        <v>153.728140604042</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6208,13 +6208,13 @@
         <v>318</v>
       </c>
       <c r="B316">
-        <v>42383</v>
+        <v>41686.2</v>
       </c>
       <c r="C316">
-        <v>42224.36155112013</v>
+        <v>42103.8459180459</v>
       </c>
       <c r="D316">
-        <v>158.6384488798722</v>
+        <v>-417.645918045906</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6222,13 +6222,13 @@
         <v>319</v>
       </c>
       <c r="B317">
-        <v>41686.2</v>
+        <v>40686.9</v>
       </c>
       <c r="C317">
-        <v>42102.24324871987</v>
+        <v>41670.09505118584</v>
       </c>
       <c r="D317">
-        <v>-416.0432487198777</v>
+        <v>-983.1950511858377</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6236,13 +6236,13 @@
         <v>320</v>
       </c>
       <c r="B318">
-        <v>40686.9</v>
+        <v>36468.4</v>
       </c>
       <c r="C318">
-        <v>41669.39030252439</v>
+        <v>41181.58554972138</v>
       </c>
       <c r="D318">
-        <v>-982.4903025243839</v>
+        <v>-4713.185549721376</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6250,13 +6250,13 @@
         <v>321</v>
       </c>
       <c r="B319">
-        <v>36468.4</v>
+        <v>35067.6</v>
       </c>
       <c r="C319">
-        <v>41177.29364459261</v>
+        <v>37114.1130402954</v>
       </c>
       <c r="D319">
-        <v>-4708.893644592608</v>
+        <v>-2046.513040295402</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6264,13 +6264,13 @@
         <v>322</v>
       </c>
       <c r="B320">
-        <v>35067.6</v>
+        <v>36277.5</v>
       </c>
       <c r="C320">
-        <v>37114.88510525492</v>
+        <v>35017.38610670136</v>
       </c>
       <c r="D320">
-        <v>-2047.285105254923</v>
+        <v>1260.113893298636</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6278,13 +6278,13 @@
         <v>323</v>
       </c>
       <c r="B321">
-        <v>36277.5</v>
+        <v>36699.5</v>
       </c>
       <c r="C321">
-        <v>35035.78316285203</v>
+        <v>35730.66124069493</v>
       </c>
       <c r="D321">
-        <v>1241.716837147971</v>
+        <v>968.838759305072</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6292,13 +6292,13 @@
         <v>324</v>
       </c>
       <c r="B322">
-        <v>36699.5</v>
+        <v>36987.8</v>
       </c>
       <c r="C322">
-        <v>35746.35033566954</v>
+        <v>35825.89650660782</v>
       </c>
       <c r="D322">
-        <v>953.1496643304636</v>
+        <v>1161.903493392179</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6306,13 +6306,13 @@
         <v>325</v>
       </c>
       <c r="B323">
-        <v>36987.8</v>
+        <v>36827.6</v>
       </c>
       <c r="C323">
-        <v>35827.53227823397</v>
+        <v>36653.91498278844</v>
       </c>
       <c r="D323">
-        <v>1160.267721766031</v>
+        <v>173.6850172115592</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6320,13 +6320,13 @@
         <v>326</v>
       </c>
       <c r="B324">
-        <v>36827.6</v>
+        <v>37200.5</v>
       </c>
       <c r="C324">
-        <v>36653.66391984246</v>
+        <v>37024.30390259737</v>
       </c>
       <c r="D324">
-        <v>173.9360801575385</v>
+        <v>176.1960974026297</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6334,13 +6334,13 @@
         <v>327</v>
       </c>
       <c r="B325">
-        <v>37200.5</v>
+        <v>37737.9</v>
       </c>
       <c r="C325">
-        <v>37015.04992933499</v>
+        <v>36707.14151646604</v>
       </c>
       <c r="D325">
-        <v>185.4500706650069</v>
+        <v>1030.758483533958</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6348,13 +6348,13 @@
         <v>328</v>
       </c>
       <c r="B326">
-        <v>37737.9</v>
+        <v>38164.9</v>
       </c>
       <c r="C326">
-        <v>36699.14617217289</v>
+        <v>37339.06291947284</v>
       </c>
       <c r="D326">
-        <v>1038.753827827109</v>
+        <v>825.8370805271625</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6362,13 +6362,13 @@
         <v>329</v>
       </c>
       <c r="B327">
-        <v>38164.9</v>
+        <v>37930.1</v>
       </c>
       <c r="C327">
-        <v>37326.65509388573</v>
+        <v>38008.07559136281</v>
       </c>
       <c r="D327">
-        <v>838.2449061142688</v>
+        <v>-77.97559136281052</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6376,13 +6376,13 @@
         <v>330</v>
       </c>
       <c r="B328">
-        <v>37930.1</v>
+        <v>38512.1</v>
       </c>
       <c r="C328">
-        <v>37993.70802710969</v>
+        <v>37825.28906766011</v>
       </c>
       <c r="D328">
-        <v>-63.6080271096871</v>
+        <v>686.8109323398894</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6390,13 +6390,13 @@
         <v>331</v>
       </c>
       <c r="B329">
-        <v>38512.1</v>
+        <v>38719.9</v>
       </c>
       <c r="C329">
-        <v>37813.83251253129</v>
+        <v>38067.80635595424</v>
       </c>
       <c r="D329">
-        <v>698.2674874687073</v>
+        <v>652.0936440457663</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6404,13 +6404,13 @@
         <v>332</v>
       </c>
       <c r="B330">
-        <v>38719.9</v>
+        <v>36903.3</v>
       </c>
       <c r="C330">
-        <v>38056.3148045347</v>
+        <v>38642.08208382718</v>
       </c>
       <c r="D330">
-        <v>663.5851954653044</v>
+        <v>-1738.782083827173</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6418,13 +6418,13 @@
         <v>333</v>
       </c>
       <c r="B331">
-        <v>36903.3</v>
+        <v>37324.4</v>
       </c>
       <c r="C331">
-        <v>38631.39458036877</v>
+        <v>37199.79072477875</v>
       </c>
       <c r="D331">
-        <v>-1728.094580368772</v>
+        <v>124.6092752212498</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6432,13 +6432,13 @@
         <v>334</v>
       </c>
       <c r="B332">
-        <v>37324.4</v>
+        <v>41585.5</v>
       </c>
       <c r="C332">
-        <v>37191.56099516468</v>
+        <v>37013.26724612751</v>
       </c>
       <c r="D332">
-        <v>132.8390048353176</v>
+        <v>4572.232753872493</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6446,13 +6446,13 @@
         <v>335</v>
       </c>
       <c r="B333">
-        <v>41585.5</v>
+        <v>41419</v>
       </c>
       <c r="C333">
-        <v>37013.4542467559</v>
+        <v>40511.03366294759</v>
       </c>
       <c r="D333">
-        <v>4572.0457532441</v>
+        <v>907.9663370524067</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6460,13 +6460,13 @@
         <v>336</v>
       </c>
       <c r="B334">
-        <v>41419</v>
+        <v>42419.5</v>
       </c>
       <c r="C334">
-        <v>40492.26720133529</v>
+        <v>41433.69254641523</v>
       </c>
       <c r="D334">
-        <v>926.7327986647069</v>
+        <v>985.80745358477</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6474,13 +6474,13 @@
         <v>337</v>
       </c>
       <c r="B335">
-        <v>42419.5</v>
+        <v>43867.2</v>
       </c>
       <c r="C335">
-        <v>41415.59366139258</v>
+        <v>42220.79301276858</v>
       </c>
       <c r="D335">
-        <v>1003.906338607419</v>
+        <v>1646.406987231414</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6488,13 +6488,13 @@
         <v>338</v>
       </c>
       <c r="B336">
-        <v>43867.2</v>
+        <v>44079.1</v>
       </c>
       <c r="C336">
-        <v>42202.09700305001</v>
+        <v>43582.68798397697</v>
       </c>
       <c r="D336">
-        <v>1665.102996949987</v>
+        <v>496.4120160230304</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6502,13 +6502,13 @@
         <v>339</v>
       </c>
       <c r="B337">
-        <v>44079.1</v>
+        <v>44420</v>
       </c>
       <c r="C337">
-        <v>43559.06107426488</v>
+        <v>44167.41732816279</v>
       </c>
       <c r="D337">
-        <v>520.0389257351198</v>
+        <v>252.5826718372118</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6516,13 +6516,13 @@
         <v>340</v>
       </c>
       <c r="B338">
-        <v>44420</v>
+        <v>43537.5</v>
       </c>
       <c r="C338">
-        <v>44142.96490727971</v>
+        <v>44342.68055876586</v>
       </c>
       <c r="D338">
-        <v>277.035092720289</v>
+        <v>-805.18055876586</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6530,13 +6530,13 @@
         <v>341</v>
       </c>
       <c r="B339">
-        <v>43537.5</v>
+        <v>42400.2</v>
       </c>
       <c r="C339">
-        <v>44324.41635843245</v>
+        <v>44111.43966181949</v>
       </c>
       <c r="D339">
-        <v>-786.9163584324488</v>
+        <v>-1711.239661819491</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6544,13 +6544,13 @@
         <v>342</v>
       </c>
       <c r="B340">
-        <v>42400.2</v>
+        <v>42241</v>
       </c>
       <c r="C340">
-        <v>44094.4588771411</v>
+        <v>42722.68782388815</v>
       </c>
       <c r="D340">
-        <v>-1694.258877141103</v>
+        <v>-481.6878238881472</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6558,13 +6558,13 @@
         <v>343</v>
       </c>
       <c r="B341">
-        <v>42241</v>
+        <v>42062.6</v>
       </c>
       <c r="C341">
-        <v>42719.40542347931</v>
+        <v>42348.51624736798</v>
       </c>
       <c r="D341">
-        <v>-478.4054234793075</v>
+        <v>-285.9162473679826</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6572,13 +6572,13 @@
         <v>344</v>
       </c>
       <c r="B342">
-        <v>42062.6</v>
+        <v>42563.5</v>
       </c>
       <c r="C342">
-        <v>42351.04632228608</v>
+        <v>42215.54808836558</v>
       </c>
       <c r="D342">
-        <v>-288.4463222860795</v>
+        <v>347.9519116344163</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6586,13 +6586,13 @@
         <v>345</v>
       </c>
       <c r="B343">
-        <v>42563.5</v>
+        <v>44563.1</v>
       </c>
       <c r="C343">
-        <v>42220.57600282826</v>
+        <v>42421.7621611417</v>
       </c>
       <c r="D343">
-        <v>342.9239971717398</v>
+        <v>2141.337838858301</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6600,13 +6600,13 @@
         <v>346</v>
       </c>
       <c r="B344">
-        <v>44563.1</v>
+        <v>43873.1</v>
       </c>
       <c r="C344">
-        <v>42425.68232918377</v>
+        <v>44153.74844040518</v>
       </c>
       <c r="D344">
-        <v>2137.417670816227</v>
+        <v>-280.6484404051807</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6614,13 +6614,13 @@
         <v>347</v>
       </c>
       <c r="B345">
-        <v>43873.1</v>
+        <v>40543.9</v>
       </c>
       <c r="C345">
-        <v>44148.24116728761</v>
+        <v>43941.02608121777</v>
       </c>
       <c r="D345">
-        <v>-275.1411672876129</v>
+        <v>-3397.126081217772</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6628,13 +6628,13 @@
         <v>348</v>
       </c>
       <c r="B346">
-        <v>40543.9</v>
+        <v>40007.4</v>
       </c>
       <c r="C346">
-        <v>43934.12731279687</v>
+        <v>41247.51119058477</v>
       </c>
       <c r="D346">
-        <v>-3390.227312796866</v>
+        <v>-1240.111190584772</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6642,13 +6642,13 @@
         <v>349</v>
       </c>
       <c r="B347">
-        <v>40007.4</v>
+        <v>40095.8</v>
       </c>
       <c r="C347">
-        <v>41240.14656053842</v>
+        <v>40065.91444903324</v>
       </c>
       <c r="D347">
-        <v>-1232.74656053842</v>
+        <v>29.88555096676282</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6656,13 +6656,13 @@
         <v>350</v>
       </c>
       <c r="B348">
-        <v>40095.8</v>
+        <v>38400</v>
       </c>
       <c r="C348">
-        <v>40072.51168134777</v>
+        <v>40034.70733273961</v>
       </c>
       <c r="D348">
-        <v>23.28831865223037</v>
+        <v>-1634.707332739606</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6670,13 +6670,13 @@
         <v>351</v>
       </c>
       <c r="B349">
-        <v>38400</v>
+        <v>37019.2</v>
       </c>
       <c r="C349">
-        <v>40042.05193713093</v>
+        <v>38633.44460514886</v>
       </c>
       <c r="D349">
-        <v>-1642.051937130927</v>
+        <v>-1614.244605148866</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6684,13 +6684,13 @@
         <v>352</v>
       </c>
       <c r="B350">
-        <v>37019.2</v>
+        <v>38256.3</v>
       </c>
       <c r="C350">
-        <v>38638.45521018602</v>
+        <v>37430.2892209343</v>
       </c>
       <c r="D350">
-        <v>-1619.255210186027</v>
+        <v>826.0107790657057</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6698,13 +6698,13 @@
         <v>353</v>
       </c>
       <c r="B351">
-        <v>38256.3</v>
+        <v>37250.1</v>
       </c>
       <c r="C351">
-        <v>37436.90981299047</v>
+        <v>37743.78056738403</v>
       </c>
       <c r="D351">
-        <v>819.390187009536</v>
+        <v>-493.6805673840354</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6712,13 +6712,13 @@
         <v>354</v>
       </c>
       <c r="B352">
-        <v>37250.1</v>
+        <v>38340.8</v>
       </c>
       <c r="C352">
-        <v>37750.53977486716</v>
+        <v>37555.61479308168</v>
       </c>
       <c r="D352">
-        <v>-500.4397748671618</v>
+        <v>785.1852069183224</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6726,13 +6726,13 @@
         <v>355</v>
       </c>
       <c r="B353">
-        <v>38340.8</v>
+        <v>39233.5</v>
       </c>
       <c r="C353">
-        <v>37554.06162343123</v>
+        <v>37652.20245914857</v>
       </c>
       <c r="D353">
-        <v>786.7383765687773</v>
+        <v>1581.297540851432</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6740,13 +6740,13 @@
         <v>356</v>
       </c>
       <c r="B354">
-        <v>39233.5</v>
+        <v>39120.2</v>
       </c>
       <c r="C354">
-        <v>37640.71862190698</v>
+        <v>39020.27713571326</v>
       </c>
       <c r="D354">
-        <v>1592.781378093023</v>
+        <v>99.92286428673833</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6754,13 +6754,13 @@
         <v>357</v>
       </c>
       <c r="B355">
-        <v>39120.2</v>
+        <v>37709.1</v>
       </c>
       <c r="C355">
-        <v>39009.42050868276</v>
+        <v>39225.31050967888</v>
       </c>
       <c r="D355">
-        <v>110.7794913172329</v>
+        <v>-1516.21050967888</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6768,13 +6768,13 @@
         <v>358</v>
       </c>
       <c r="B356">
-        <v>37709.1</v>
+        <v>43194.7</v>
       </c>
       <c r="C356">
-        <v>39210.34401061779</v>
+        <v>38002.69646302157</v>
       </c>
       <c r="D356">
-        <v>-1501.244010617796</v>
+        <v>5192.003536978431</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6782,13 +6782,13 @@
         <v>359</v>
       </c>
       <c r="B357">
-        <v>43194.7</v>
+        <v>44427.9</v>
       </c>
       <c r="C357">
-        <v>37988.12203392672</v>
+        <v>42064.14385020439</v>
       </c>
       <c r="D357">
-        <v>5206.577966073273</v>
+        <v>2363.756149795612</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6796,13 +6796,13 @@
         <v>360</v>
       </c>
       <c r="B358">
-        <v>44427.9</v>
+        <v>43922.5</v>
       </c>
       <c r="C358">
-        <v>42030.91528845247</v>
+        <v>44326.33847743197</v>
       </c>
       <c r="D358">
-        <v>2396.984711547528</v>
+        <v>-403.8384774319711</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6810,13 +6810,13 @@
         <v>361</v>
       </c>
       <c r="B359">
-        <v>43922.5</v>
+        <v>42465</v>
       </c>
       <c r="C359">
-        <v>44292.93592059075</v>
+        <v>44258.0476155467</v>
       </c>
       <c r="D359">
-        <v>-370.4359205907458</v>
+        <v>-1793.047615546704</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6824,13 +6824,13 @@
         <v>362</v>
       </c>
       <c r="B360">
-        <v>42465</v>
+        <v>39137.5</v>
       </c>
       <c r="C360">
-        <v>44226.08009739753</v>
+        <v>42797.10576822169</v>
       </c>
       <c r="D360">
-        <v>-1761.080097397535</v>
+        <v>-3659.605768221692</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6838,13 +6838,13 @@
         <v>363</v>
       </c>
       <c r="B361">
-        <v>39137.5</v>
+        <v>39396.4</v>
       </c>
       <c r="C361">
-        <v>42776.13431290078</v>
+        <v>39813.43208934099</v>
       </c>
       <c r="D361">
-        <v>-3638.63431290078</v>
+        <v>-417.032089340988</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6852,13 +6852,13 @@
         <v>364</v>
       </c>
       <c r="B362">
-        <v>39396.4</v>
+        <v>38416.3</v>
       </c>
       <c r="C362">
-        <v>39801.84138334494</v>
+        <v>39279.49281207658</v>
       </c>
       <c r="D362">
-        <v>-405.4413833449362</v>
+        <v>-863.1928120765806</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6866,13 +6866,13 @@
         <v>365</v>
       </c>
       <c r="B363">
-        <v>38416.3</v>
+        <v>38024</v>
       </c>
       <c r="C363">
-        <v>39285.07371750201</v>
+        <v>38642.17484957195</v>
       </c>
       <c r="D363">
-        <v>-868.7737175020084</v>
+        <v>-618.1748495719512</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6880,13 +6880,13 @@
         <v>366</v>
       </c>
       <c r="B364">
-        <v>38024</v>
+        <v>38752.6</v>
       </c>
       <c r="C364">
-        <v>38648.3081275732</v>
+        <v>38140.03261659987</v>
       </c>
       <c r="D364">
-        <v>-624.3081275732038</v>
+        <v>612.5673834001282</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6894,13 +6894,13 @@
         <v>367</v>
       </c>
       <c r="B365">
-        <v>38752.6</v>
+        <v>41965.3</v>
       </c>
       <c r="C365">
-        <v>38149.5317569828</v>
+        <v>38653.22533226162</v>
       </c>
       <c r="D365">
-        <v>603.0682430172019</v>
+        <v>3312.074667738387</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6908,13 +6908,13 @@
         <v>368</v>
       </c>
       <c r="B366">
-        <v>41965.3</v>
+        <v>39435.8</v>
       </c>
       <c r="C366">
-        <v>38661.10456075075</v>
+        <v>41340.62626380098</v>
       </c>
       <c r="D366">
-        <v>3304.195439249255</v>
+        <v>-1904.826263800976</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6922,13 +6922,13 @@
         <v>369</v>
       </c>
       <c r="B367">
-        <v>39435.8</v>
+        <v>38732.1</v>
       </c>
       <c r="C367">
-        <v>41330.2860594811</v>
+        <v>39845.53570164737</v>
       </c>
       <c r="D367">
-        <v>-1894.486059481096</v>
+        <v>-1113.435701647373</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6936,13 +6936,13 @@
         <v>370</v>
       </c>
       <c r="B368">
-        <v>38732.1</v>
+        <v>38785</v>
       </c>
       <c r="C368">
-        <v>39831.21402478056</v>
+        <v>38966.05249765841</v>
       </c>
       <c r="D368">
-        <v>-1099.11402478056</v>
+        <v>-181.0524976584129</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6950,13 +6950,13 @@
         <v>371</v>
       </c>
       <c r="B369">
-        <v>38785</v>
+        <v>37788.4</v>
       </c>
       <c r="C369">
-        <v>38959.56299403529</v>
+        <v>38922.75530427738</v>
       </c>
       <c r="D369">
-        <v>-174.5629940352883</v>
+        <v>-1134.355304277378</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6964,13 +6964,13 @@
         <v>372</v>
       </c>
       <c r="B370">
-        <v>37788.4</v>
+        <v>39689.2</v>
       </c>
       <c r="C370">
-        <v>38919.53314391964</v>
+        <v>38059.62827634145</v>
       </c>
       <c r="D370">
-        <v>-1131.133143919636</v>
+        <v>1629.571723658548</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6978,13 +6978,13 @@
         <v>373</v>
       </c>
       <c r="B371">
-        <v>39689.2</v>
+        <v>39325.4</v>
       </c>
       <c r="C371">
-        <v>38055.4035551457</v>
+        <v>39230.02489993456</v>
       </c>
       <c r="D371">
-        <v>1633.796444854299</v>
+        <v>95.37510006543744</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6992,13 +6992,13 @@
         <v>374</v>
       </c>
       <c r="B372">
-        <v>39325.4</v>
+        <v>41124</v>
       </c>
       <c r="C372">
-        <v>39223.23683876851</v>
+        <v>39177.68938188729</v>
       </c>
       <c r="D372">
-        <v>102.1631612314959</v>
+        <v>1946.310618112708</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7006,13 +7006,13 @@
         <v>375</v>
       </c>
       <c r="B373">
-        <v>41124</v>
+        <v>40945.6</v>
       </c>
       <c r="C373">
-        <v>39169.49563769543</v>
+        <v>40721.20134242627</v>
       </c>
       <c r="D373">
-        <v>1954.504362304571</v>
+        <v>224.398657573729</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7020,13 +7020,13 @@
         <v>376</v>
       </c>
       <c r="B374">
-        <v>40945.6</v>
+        <v>41775.1</v>
       </c>
       <c r="C374">
-        <v>40707.31381842375</v>
+        <v>41003.57584635061</v>
       </c>
       <c r="D374">
-        <v>238.2861815762444</v>
+        <v>771.5241536493922</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7034,13 +7034,13 @@
         <v>377</v>
       </c>
       <c r="B375">
-        <v>41775.1</v>
+        <v>42218</v>
       </c>
       <c r="C375">
-        <v>40990.62482312165</v>
+        <v>41573.92895918369</v>
       </c>
       <c r="D375">
-        <v>784.4751768783462</v>
+        <v>644.0710408163141</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7048,13 +7048,13 @@
         <v>378</v>
       </c>
       <c r="B376">
-        <v>42218</v>
+        <v>41289</v>
       </c>
       <c r="C376">
-        <v>41557.9217796072</v>
+        <v>42147.60372466317</v>
       </c>
       <c r="D376">
-        <v>660.0782203928029</v>
+        <v>-858.6037246631749</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7062,13 +7062,13 @@
         <v>379</v>
       </c>
       <c r="B377">
-        <v>41289</v>
+        <v>41014.3</v>
       </c>
       <c r="C377">
-        <v>42132.67779072008</v>
+        <v>41495.14906690212</v>
       </c>
       <c r="D377">
-        <v>-843.6777907200812</v>
+        <v>-480.8490669021121</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7076,13 +7076,13 @@
         <v>380</v>
       </c>
       <c r="B378">
-        <v>41014.3</v>
+        <v>42377.8</v>
       </c>
       <c r="C378">
-        <v>41482.81290952481</v>
+        <v>41060.89601946255</v>
       </c>
       <c r="D378">
-        <v>-468.5129095248049</v>
+        <v>1316.903980537449</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7090,13 +7090,13 @@
         <v>381</v>
       </c>
       <c r="B379">
-        <v>42377.8</v>
+        <v>42910.3</v>
       </c>
       <c r="C379">
-        <v>41055.71066200015</v>
+        <v>42311.999800552</v>
       </c>
       <c r="D379">
-        <v>1322.089337999852</v>
+        <v>598.3001994480001</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7104,13 +7104,13 @@
         <v>382</v>
       </c>
       <c r="B380">
-        <v>42910.3</v>
+        <v>43989</v>
       </c>
       <c r="C380">
-        <v>42302.0157979244</v>
+        <v>42744.65007898721</v>
       </c>
       <c r="D380">
-        <v>608.2842020755998</v>
+        <v>1244.349921012792</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7118,13 +7118,13 @@
         <v>383</v>
       </c>
       <c r="B381">
-        <v>43989</v>
+        <v>44315.5</v>
       </c>
       <c r="C381">
-        <v>42737.62492579214</v>
+        <v>43804.48254909116</v>
       </c>
       <c r="D381">
-        <v>1251.375074207863</v>
+        <v>511.0174509088392</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7132,13 +7132,13 @@
         <v>384</v>
       </c>
       <c r="B382">
-        <v>44315.5</v>
+        <v>44548</v>
       </c>
       <c r="C382">
-        <v>43792.82904261596</v>
+        <v>44449.28064228164</v>
       </c>
       <c r="D382">
-        <v>522.6709573840417</v>
+        <v>98.71935771836434</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7146,13 +7146,13 @@
         <v>385</v>
       </c>
       <c r="B383">
-        <v>44548</v>
+        <v>46855.2</v>
       </c>
       <c r="C383">
-        <v>44437.99975636521</v>
+        <v>44620.62339856036</v>
       </c>
       <c r="D383">
-        <v>110.0002436347932</v>
+        <v>2234.576601439636</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7160,13 +7160,13 @@
         <v>386</v>
       </c>
       <c r="B384">
-        <v>46855.2</v>
+        <v>47137.9</v>
       </c>
       <c r="C384">
-        <v>44611.43439432717</v>
+        <v>46431.84145084757</v>
       </c>
       <c r="D384">
-        <v>2243.765605672823</v>
+        <v>706.0585491524325</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7174,13 +7174,13 @@
         <v>387</v>
       </c>
       <c r="B385">
-        <v>47137.9</v>
+        <v>47440.2</v>
       </c>
       <c r="C385">
-        <v>46413.61138282269</v>
+        <v>47478.10044247151</v>
       </c>
       <c r="D385">
-        <v>724.2886171773134</v>
+        <v>-37.90044247150945</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7188,13 +7188,13 @@
         <v>388</v>
       </c>
       <c r="B386">
-        <v>47440.2</v>
+        <v>47059.3</v>
       </c>
       <c r="C386">
-        <v>47460.20149893108</v>
+        <v>47652.64375706066</v>
       </c>
       <c r="D386">
-        <v>-20.00149893108028</v>
+        <v>-593.343757060662</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7202,13 +7202,13 @@
         <v>389</v>
       </c>
       <c r="B387">
-        <v>47059.3</v>
+        <v>45524.3</v>
       </c>
       <c r="C387">
-        <v>47637.51157419408</v>
+        <v>47262.37617813406</v>
       </c>
       <c r="D387">
-        <v>-578.2115741940725</v>
+        <v>-1738.076178134055</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7216,13 +7216,13 @@
         <v>390</v>
       </c>
       <c r="B388">
-        <v>45524.3</v>
+        <v>46312</v>
       </c>
       <c r="C388">
-        <v>47251.8273754175</v>
+        <v>46057.23302237317</v>
       </c>
       <c r="D388">
-        <v>-1727.527375417492</v>
+        <v>254.7669776268303</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7230,13 +7230,13 @@
         <v>391</v>
       </c>
       <c r="B389">
-        <v>46312</v>
+        <v>45828.6</v>
       </c>
       <c r="C389">
-        <v>46050.25862462959</v>
+        <v>46031.61304156511</v>
       </c>
       <c r="D389">
-        <v>261.7413753704095</v>
+        <v>-203.0130415651147</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7244,13 +7244,13 @@
         <v>392</v>
       </c>
       <c r="B390">
-        <v>45828.6</v>
+        <v>46423.4</v>
       </c>
       <c r="C390">
-        <v>46028.62202988438</v>
+        <v>46197.26388848471</v>
       </c>
       <c r="D390">
-        <v>-200.0220298843778</v>
+        <v>226.1361115152904</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7258,13 +7258,13 @@
         <v>393</v>
       </c>
       <c r="B391">
-        <v>46423.4</v>
+        <v>46617.1</v>
       </c>
       <c r="C391">
-        <v>46194.56972917543</v>
+        <v>46530.83668386517</v>
       </c>
       <c r="D391">
-        <v>228.8302708245756</v>
+        <v>86.26331613482762</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7272,13 +7272,13 @@
         <v>394</v>
       </c>
       <c r="B392">
-        <v>46617.1</v>
+        <v>45479.2</v>
       </c>
       <c r="C392">
-        <v>46528.23665729515</v>
+        <v>46403.53697708127</v>
       </c>
       <c r="D392">
-        <v>88.86334270484804</v>
+        <v>-924.3369770812715</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7286,13 +7286,13 @@
         <v>395</v>
       </c>
       <c r="B393">
-        <v>45479.2</v>
+        <v>43179.4</v>
       </c>
       <c r="C393">
-        <v>46400.13377291369</v>
+        <v>45888.80258786358</v>
       </c>
       <c r="D393">
-        <v>-920.9337729136969</v>
+        <v>-2709.40258786358</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7300,13 +7300,13 @@
         <v>396</v>
       </c>
       <c r="B394">
-        <v>43179.4</v>
+        <v>43469.8</v>
       </c>
       <c r="C394">
-        <v>45884.16101385217</v>
+        <v>43716.25400819679</v>
       </c>
       <c r="D394">
-        <v>-2704.76101385217</v>
+        <v>-246.4540081967862</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7314,13 +7314,13 @@
         <v>397</v>
       </c>
       <c r="B395">
-        <v>43469.8</v>
+        <v>42282.6</v>
       </c>
       <c r="C395">
-        <v>43716.08690701603</v>
+        <v>43399.44451099297</v>
       </c>
       <c r="D395">
-        <v>-246.2869070160305</v>
+        <v>-1116.844510992967</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7328,13 +7328,13 @@
         <v>398</v>
       </c>
       <c r="B396">
-        <v>42282.6</v>
+        <v>42764</v>
       </c>
       <c r="C396">
-        <v>43405.79869489259</v>
+        <v>42600.42492812398</v>
       </c>
       <c r="D396">
-        <v>-1123.198694892591</v>
+        <v>163.5750718760246</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7342,13 +7342,13 @@
         <v>399</v>
       </c>
       <c r="B397">
-        <v>42764</v>
+        <v>42160</v>
       </c>
       <c r="C397">
-        <v>42604.4635354874</v>
+        <v>42581.71648977045</v>
       </c>
       <c r="D397">
-        <v>159.5364645126028</v>
+        <v>-421.7164897704497</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7356,13 +7356,13 @@
         <v>400</v>
       </c>
       <c r="B398">
-        <v>42160</v>
+        <v>39534.6</v>
       </c>
       <c r="C398">
-        <v>42587.97373680873</v>
+        <v>42304.8178761201</v>
       </c>
       <c r="D398">
-        <v>-427.9737368087299</v>
+        <v>-2770.217876120099</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7370,13 +7370,13 @@
         <v>401</v>
       </c>
       <c r="B399">
-        <v>39534.6</v>
+        <v>40078.7</v>
       </c>
       <c r="C399">
-        <v>42305.49027035016</v>
+        <v>40019.45633125916</v>
       </c>
       <c r="D399">
-        <v>-2770.890270350166</v>
+        <v>59.24366874083353</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7384,13 +7384,13 @@
         <v>402</v>
       </c>
       <c r="B400">
-        <v>40078.7</v>
+        <v>41150</v>
       </c>
       <c r="C400">
-        <v>40020.32577762104</v>
+        <v>39923.90545766009</v>
       </c>
       <c r="D400">
-        <v>58.37422237895225</v>
+        <v>1226.09454233991</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7398,13 +7398,13 @@
         <v>403</v>
       </c>
       <c r="B401">
-        <v>41150</v>
+        <v>39954.9</v>
       </c>
       <c r="C401">
-        <v>39929.62863118342</v>
+        <v>40799.00784838494</v>
       </c>
       <c r="D401">
-        <v>1220.371368816581</v>
+        <v>-844.1078483849342</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7412,13 +7412,13 @@
         <v>404</v>
       </c>
       <c r="B402">
-        <v>39954.9</v>
+        <v>40569.9</v>
       </c>
       <c r="C402">
-        <v>40795.97426605752</v>
+        <v>40132.97654028866</v>
       </c>
       <c r="D402">
-        <v>-841.0742660575197</v>
+        <v>436.9234597113464</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7426,13 +7426,13 @@
         <v>405</v>
       </c>
       <c r="B403">
-        <v>40569.9</v>
+        <v>40381</v>
       </c>
       <c r="C403">
-        <v>40127.04711643284</v>
+        <v>40380.75686459432</v>
       </c>
       <c r="D403">
-        <v>442.8528835671605</v>
+        <v>0.2431354056752753</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7440,13 +7440,13 @@
         <v>406</v>
       </c>
       <c r="B404">
-        <v>40381</v>
+        <v>39681.2</v>
       </c>
       <c r="C404">
-        <v>40375.98870735843</v>
+        <v>40294.52773780708</v>
       </c>
       <c r="D404">
-        <v>5.011292641567707</v>
+        <v>-613.3277378070779</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7454,13 +7454,13 @@
         <v>407</v>
       </c>
       <c r="B405">
-        <v>39681.2</v>
+        <v>40811.3</v>
       </c>
       <c r="C405">
-        <v>40288.77340249529</v>
+        <v>39790.30990266791</v>
       </c>
       <c r="D405">
-        <v>-607.5734024952908</v>
+        <v>1020.990097332091</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7468,13 +7468,13 @@
         <v>408</v>
       </c>
       <c r="B406">
-        <v>40811.3</v>
+        <v>41506.2</v>
       </c>
       <c r="C406">
-        <v>39783.77124964193</v>
+        <v>40283.63085118885</v>
       </c>
       <c r="D406">
-        <v>1027.528750358069</v>
+        <v>1222.569148811148</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7482,13 +7482,13 @@
         <v>409</v>
       </c>
       <c r="B407">
-        <v>41506.2</v>
+        <v>41369.9</v>
       </c>
       <c r="C407">
-        <v>40273.6639381366</v>
+        <v>41333.24497337631</v>
       </c>
       <c r="D407">
-        <v>1232.536061863393</v>
+        <v>36.65502662369545</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7496,13 +7496,13 @@
         <v>410</v>
       </c>
       <c r="B408">
-        <v>41369.9</v>
+        <v>40484.1</v>
       </c>
       <c r="C408">
-        <v>41321.52872043144</v>
+        <v>41430.22113442022</v>
       </c>
       <c r="D408">
-        <v>48.37127956855693</v>
+        <v>-946.1211344202238</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7510,13 +7510,13 @@
         <v>411</v>
       </c>
       <c r="B409">
-        <v>40484.1</v>
+        <v>39715.9</v>
       </c>
       <c r="C409">
-        <v>41417.76247266387</v>
+        <v>40843.02176342948</v>
       </c>
       <c r="D409">
-        <v>-933.6624726638693</v>
+        <v>-1127.121763429481</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7524,13 +7524,13 @@
         <v>412</v>
       </c>
       <c r="B410">
-        <v>39715.9</v>
+        <v>39435.6</v>
       </c>
       <c r="C410">
-        <v>40828.25869460102</v>
+        <v>39786.68039665825</v>
       </c>
       <c r="D410">
-        <v>-1112.358694601018</v>
+        <v>-351.0803966582534</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7538,13 +7538,13 @@
         <v>413</v>
       </c>
       <c r="B411">
-        <v>39435.6</v>
+        <v>39467.9</v>
       </c>
       <c r="C411">
-        <v>39781.80136583173</v>
+        <v>39478.27747668963</v>
       </c>
       <c r="D411">
-        <v>-346.2013658317301</v>
+        <v>-10.37747668963129</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7552,13 +7552,13 @@
         <v>414</v>
       </c>
       <c r="B412">
-        <v>39467.9</v>
+        <v>40438.5</v>
       </c>
       <c r="C412">
-        <v>39477.91632136604</v>
+        <v>39416.39328512215</v>
       </c>
       <c r="D412">
-        <v>-10.01632136604167</v>
+        <v>1022.106714877853</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7566,13 +7566,13 @@
         <v>415</v>
       </c>
       <c r="B413">
-        <v>40438.5</v>
+        <v>38121.7</v>
       </c>
       <c r="C413">
-        <v>39415.95920576994</v>
+        <v>39921.38135048762</v>
       </c>
       <c r="D413">
-        <v>1022.540794230059</v>
+        <v>-1799.681350487619</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7580,13 +7580,13 @@
         <v>416</v>
       </c>
       <c r="B414">
-        <v>38121.7</v>
+        <v>39249.9</v>
       </c>
       <c r="C414">
-        <v>39917.01926559685</v>
+        <v>38553.89761678604</v>
       </c>
       <c r="D414">
-        <v>-1795.319265596852</v>
+        <v>696.0023832139632</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7594,13 +7594,13 @@
         <v>417</v>
       </c>
       <c r="B415">
-        <v>39249.9</v>
+        <v>39752.8</v>
       </c>
       <c r="C415">
-        <v>38548.12776143786</v>
+        <v>38919.86800157058</v>
       </c>
       <c r="D415">
-        <v>701.7722385621455</v>
+        <v>832.931998429427</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7608,13 +7608,13 @@
         <v>418</v>
       </c>
       <c r="B416">
-        <v>39752.8</v>
+        <v>38599.5</v>
       </c>
       <c r="C416">
-        <v>38919.75931308617</v>
+        <v>39648.98512498778</v>
       </c>
       <c r="D416">
-        <v>833.0406869138315</v>
+        <v>-1049.485124987783</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7622,13 +7622,13 @@
         <v>419</v>
       </c>
       <c r="B417">
-        <v>38599.5</v>
+        <v>37660.8</v>
       </c>
       <c r="C417">
-        <v>39643.95945888607</v>
+        <v>38747.66239278999</v>
       </c>
       <c r="D417">
-        <v>-1044.459458886071</v>
+        <v>-1086.86239278999</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7636,13 +7636,13 @@
         <v>420</v>
       </c>
       <c r="B418">
-        <v>37660.8</v>
+        <v>38474.1</v>
       </c>
       <c r="C418">
-        <v>38742.96676665723</v>
+        <v>37836.13894737588</v>
       </c>
       <c r="D418">
-        <v>-1082.166766657225</v>
+        <v>637.9610526241231</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7650,13 +7650,13 @@
         <v>421</v>
       </c>
       <c r="B419">
-        <v>38474.1</v>
+        <v>38499.9</v>
       </c>
       <c r="C419">
-        <v>37836.5862643465</v>
+        <v>38203.58018934922</v>
       </c>
       <c r="D419">
-        <v>637.5137356534979</v>
+        <v>296.3198106507843</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7664,13 +7664,13 @@
         <v>422</v>
       </c>
       <c r="B420">
-        <v>38499.9</v>
+        <v>37727.9</v>
       </c>
       <c r="C420">
-        <v>38203.71297116765</v>
+        <v>38486.14483390056</v>
       </c>
       <c r="D420">
-        <v>296.1870288323553</v>
+        <v>-758.2448339005568</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7678,13 +7678,13 @@
         <v>423</v>
       </c>
       <c r="B421">
-        <v>37727.9</v>
+        <v>39682.8</v>
       </c>
       <c r="C421">
-        <v>38483.3569436399</v>
+        <v>37832.24972838885</v>
       </c>
       <c r="D421">
-        <v>-755.4569436399033</v>
+        <v>1850.550271611151</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7692,13 +7692,13 @@
         <v>424</v>
       </c>
       <c r="B422">
-        <v>39682.8</v>
+        <v>36542.6</v>
       </c>
       <c r="C422">
-        <v>37830.53884659857</v>
+        <v>39245.70328641505</v>
       </c>
       <c r="D422">
-        <v>1852.261153401436</v>
+        <v>-2703.103286415055</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7706,13 +7706,13 @@
         <v>425</v>
       </c>
       <c r="B423">
-        <v>36542.6</v>
+        <v>36017.4</v>
       </c>
       <c r="C423">
-        <v>39238.30665556002</v>
+        <v>36941.46313528775</v>
       </c>
       <c r="D423">
-        <v>-2695.706655560018</v>
+        <v>-924.0631352877463</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7720,13 +7720,13 @@
         <v>426</v>
       </c>
       <c r="B424">
-        <v>36017.4</v>
+        <v>35463</v>
       </c>
       <c r="C424">
-        <v>36930.59269378143</v>
+        <v>35904.44282203354</v>
       </c>
       <c r="D424">
-        <v>-913.1926937814278</v>
+        <v>-441.4428220335394</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7734,13 +7734,13 @@
         <v>427</v>
       </c>
       <c r="B425">
-        <v>35463</v>
+        <v>34024.2</v>
       </c>
       <c r="C425">
-        <v>35908.61847152093</v>
+        <v>35343.71771690427</v>
       </c>
       <c r="D425">
-        <v>-445.6184715209311</v>
+        <v>-1319.517716904273</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7748,13 +7748,13 @@
         <v>428</v>
       </c>
       <c r="B426">
-        <v>34024.2</v>
+        <v>30075.5</v>
       </c>
       <c r="C426">
-        <v>35348.80040405636</v>
+        <v>34163.55081822231</v>
       </c>
       <c r="D426">
-        <v>-1324.600404056364</v>
+        <v>-4088.050818222313</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7762,13 +7762,13 @@
         <v>429</v>
       </c>
       <c r="B427">
-        <v>30075.5</v>
+        <v>30999.9</v>
       </c>
       <c r="C427">
-        <v>34169.22158634864</v>
+        <v>30839.3331647616</v>
       </c>
       <c r="D427">
-        <v>-4093.721586348642</v>
+        <v>160.5668352384055</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7776,13 +7776,13 @@
         <v>430</v>
       </c>
       <c r="B428">
-        <v>30999.9</v>
+        <v>28994.1</v>
       </c>
       <c r="C428">
-        <v>30845.75566599973</v>
+        <v>30915.57472740681</v>
       </c>
       <c r="D428">
-        <v>154.1443340002697</v>
+        <v>-1921.47472740681</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7790,13 +7790,13 @@
         <v>431</v>
       </c>
       <c r="B429">
-        <v>28994.1</v>
+        <v>28943.4</v>
       </c>
       <c r="C429">
-        <v>30928.1411422254</v>
+        <v>29230.7188055111</v>
       </c>
       <c r="D429">
-        <v>-1934.0411422254</v>
+        <v>-287.3188055110986</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7804,13 +7804,13 @@
         <v>432</v>
       </c>
       <c r="B430">
-        <v>28943.4</v>
+        <v>29222.6</v>
       </c>
       <c r="C430">
-        <v>29237.5195144617</v>
+        <v>28186.14170015018</v>
       </c>
       <c r="D430">
-        <v>-294.1195144616977</v>
+        <v>1036.458299849819</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7818,13 +7818,13 @@
         <v>433</v>
       </c>
       <c r="B431">
-        <v>29222.6</v>
+        <v>30048.2</v>
       </c>
       <c r="C431">
-        <v>28194.81989124995</v>
+        <v>29310.37377530876</v>
       </c>
       <c r="D431">
-        <v>1027.780108750052</v>
+        <v>737.8262246912418</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7832,13 +7832,13 @@
         <v>434</v>
       </c>
       <c r="B432">
-        <v>30048.2</v>
+        <v>31296.9</v>
       </c>
       <c r="C432">
-        <v>29315.24027319361</v>
+        <v>29612.0101996109</v>
       </c>
       <c r="D432">
-        <v>732.9597268063881</v>
+        <v>1684.889800389104</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7846,13 +7846,13 @@
         <v>435</v>
       </c>
       <c r="B433">
-        <v>31296.9</v>
+        <v>29826.1</v>
       </c>
       <c r="C433">
-        <v>29613.05611165645</v>
+        <v>30767.75617948747</v>
       </c>
       <c r="D433">
-        <v>1683.843888343556</v>
+        <v>-941.656179487476</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7860,13 +7860,13 @@
         <v>436</v>
       </c>
       <c r="B434">
-        <v>29826.1</v>
+        <v>30408.3</v>
       </c>
       <c r="C434">
-        <v>30759.48639290947</v>
+        <v>29887.07178055313</v>
       </c>
       <c r="D434">
-        <v>-933.3863929094696</v>
+        <v>521.2282194468717</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7874,13 +7874,13 @@
         <v>437</v>
       </c>
       <c r="B435">
-        <v>30408.3</v>
+        <v>28664.3</v>
       </c>
       <c r="C435">
-        <v>29874.61567613207</v>
+        <v>30149.58406794538</v>
       </c>
       <c r="D435">
-        <v>533.6843238679285</v>
+        <v>-1485.28406794538</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7888,13 +7888,13 @@
         <v>438</v>
       </c>
       <c r="B436">
-        <v>28664.3</v>
+        <v>30280.7</v>
       </c>
       <c r="C436">
-        <v>30140.45036056352</v>
+        <v>28979.555925398</v>
       </c>
       <c r="D436">
-        <v>-1476.150360563523</v>
+        <v>1301.144074602002</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7902,13 +7902,13 @@
         <v>439</v>
       </c>
       <c r="B437">
-        <v>30280.7</v>
+        <v>29167.5</v>
       </c>
       <c r="C437">
-        <v>28969.32762886914</v>
+        <v>29840.31711777446</v>
       </c>
       <c r="D437">
-        <v>1311.372371130863</v>
+        <v>-672.8171177744625</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7916,13 +7916,13 @@
         <v>440</v>
       </c>
       <c r="B438">
-        <v>29167.5</v>
+        <v>29403.5</v>
       </c>
       <c r="C438">
-        <v>29833.29172919796</v>
+        <v>29290.78413747124</v>
       </c>
       <c r="D438">
-        <v>-665.7917291979647</v>
+        <v>112.7158625287593</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7930,13 +7930,13 @@
         <v>441</v>
       </c>
       <c r="B439">
-        <v>29403.5</v>
+        <v>30268</v>
       </c>
       <c r="C439">
-        <v>29282.286675729</v>
+        <v>29223.20203571501</v>
       </c>
       <c r="D439">
-        <v>121.2133242710006</v>
+        <v>1044.797964284986</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -7944,13 +7944,13 @@
         <v>442</v>
       </c>
       <c r="B440">
-        <v>30268</v>
+        <v>29070</v>
       </c>
       <c r="C440">
-        <v>29221.92224733795</v>
+        <v>29964.74825946804</v>
       </c>
       <c r="D440">
-        <v>1046.077752662055</v>
+        <v>-894.7482594680441</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7958,13 +7958,13 @@
         <v>443</v>
       </c>
       <c r="B441">
-        <v>29070</v>
+        <v>29631.8</v>
       </c>
       <c r="C441">
-        <v>29959.95852355056</v>
+        <v>29265.94171023075</v>
       </c>
       <c r="D441">
-        <v>-889.9585235505619</v>
+        <v>365.858289769254</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -7972,13 +7972,13 @@
         <v>444</v>
       </c>
       <c r="B442">
-        <v>29631.8</v>
+        <v>29520.3</v>
       </c>
       <c r="C442">
-        <v>29259.78824245558</v>
+        <v>29349.25794328827</v>
       </c>
       <c r="D442">
-        <v>372.0117575444165</v>
+        <v>171.0420567117253</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7986,13 +7986,13 @@
         <v>445</v>
       </c>
       <c r="B443">
-        <v>29520.3</v>
+        <v>29186.9</v>
       </c>
       <c r="C443">
-        <v>29347.14947229705</v>
+        <v>29550.26511073376</v>
       </c>
       <c r="D443">
-        <v>173.1505277029501</v>
+        <v>-363.3651107337537</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8000,13 +8000,13 @@
         <v>446</v>
       </c>
       <c r="B444">
-        <v>29186.9</v>
+        <v>28580</v>
       </c>
       <c r="C444">
-        <v>29546.9098283544</v>
+        <v>28865.65600272864</v>
       </c>
       <c r="D444">
-        <v>-360.0098283543957</v>
+        <v>-285.6560027286432</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8014,13 +8014,13 @@
         <v>447</v>
       </c>
       <c r="B445">
-        <v>28580</v>
+        <v>29020</v>
       </c>
       <c r="C445">
-        <v>28862.18341158887</v>
+        <v>28616.48836421605</v>
       </c>
       <c r="D445">
-        <v>-282.1834115888742</v>
+        <v>403.511635783947</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8028,13 +8028,13 @@
         <v>448</v>
       </c>
       <c r="B446">
-        <v>29020</v>
+        <v>29450.4</v>
       </c>
       <c r="C446">
-        <v>28616.81036553329</v>
+        <v>28871.83651260256</v>
       </c>
       <c r="D446">
-        <v>403.1896344667075</v>
+        <v>578.563487397445</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8042,13 +8042,13 @@
         <v>449</v>
       </c>
       <c r="B447">
-        <v>29450.4</v>
+        <v>31711.7</v>
       </c>
       <c r="C447">
-        <v>28874.18706153921</v>
+        <v>29260.30052823865</v>
       </c>
       <c r="D447">
-        <v>576.2129384607942</v>
+        <v>2451.399471761346</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8056,13 +8056,13 @@
         <v>450</v>
       </c>
       <c r="B448">
-        <v>31711.7</v>
+        <v>31780.9</v>
       </c>
       <c r="C448">
-        <v>29260.45456020967</v>
+        <v>31219.50596741677</v>
       </c>
       <c r="D448">
-        <v>2451.245439790328</v>
+        <v>561.3940325832336</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8070,13 +8070,13 @@
         <v>451</v>
       </c>
       <c r="B449">
-        <v>31780.9</v>
+        <v>29790</v>
       </c>
       <c r="C449">
-        <v>31206.72227454741</v>
+        <v>31798.95072706416</v>
       </c>
       <c r="D449">
-        <v>574.1777254525914</v>
+        <v>-2008.950727064159</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8084,13 +8084,13 @@
         <v>452</v>
       </c>
       <c r="B450">
-        <v>29790</v>
+        <v>30427</v>
       </c>
       <c r="C450">
-        <v>31786.82425302782</v>
+        <v>30150.04653121139</v>
       </c>
       <c r="D450">
-        <v>-1996.824253027818</v>
+        <v>276.953468788608</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8098,13 +8098,13 @@
         <v>453</v>
       </c>
       <c r="B451">
-        <v>30427</v>
+        <v>29676.4</v>
       </c>
       <c r="C451">
-        <v>30138.60192670545</v>
+        <v>30426.66017841694</v>
       </c>
       <c r="D451">
-        <v>288.3980732945529</v>
+        <v>-750.2601784169419</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8112,13 +8112,13 @@
         <v>454</v>
       </c>
       <c r="B452">
-        <v>29676.4</v>
+        <v>29850</v>
       </c>
       <c r="C452">
-        <v>30421.01173187104</v>
+        <v>29768.8964858626</v>
       </c>
       <c r="D452">
-        <v>-744.6117318710349</v>
+        <v>81.103514137405</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8126,13 +8126,13 @@
         <v>455</v>
       </c>
       <c r="B453">
-        <v>29850</v>
+        <v>29907.6</v>
       </c>
       <c r="C453">
-        <v>29765.75198551654</v>
+        <v>29747.06872891316</v>
       </c>
       <c r="D453">
-        <v>84.24801448345897</v>
+        <v>160.531271086842</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8140,13 +8140,13 @@
         <v>456</v>
       </c>
       <c r="B454">
-        <v>29907.6</v>
+        <v>31356.3</v>
       </c>
       <c r="C454">
-        <v>29748.83068404351</v>
+        <v>29837.59567253194</v>
       </c>
       <c r="D454">
-        <v>158.7693159564915</v>
+        <v>1518.704327468062</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8154,13 +8154,13 @@
         <v>457</v>
       </c>
       <c r="B455">
-        <v>31356.3</v>
+        <v>31098.6</v>
       </c>
       <c r="C455">
-        <v>29838.92173846185</v>
+        <v>31062.64261002812</v>
       </c>
       <c r="D455">
-        <v>1517.37826153815</v>
+        <v>35.957389971878</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8168,13 +8168,13 @@
         <v>458</v>
       </c>
       <c r="B456">
-        <v>31098.6</v>
+        <v>30190.8</v>
       </c>
       <c r="C456">
-        <v>31057.70830824566</v>
+        <v>30740.99408524413</v>
       </c>
       <c r="D456">
-        <v>40.89169175433562</v>
+        <v>-550.194085244133</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8182,13 +8182,13 @@
         <v>459</v>
       </c>
       <c r="B457">
-        <v>30190.8</v>
+        <v>30075.3</v>
       </c>
       <c r="C457">
-        <v>30732.64622287283</v>
+        <v>30344.05449573369</v>
       </c>
       <c r="D457">
-        <v>-541.8462228728313</v>
+        <v>-268.7544957336941</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8196,13 +8196,13 @@
         <v>460</v>
       </c>
       <c r="B458">
-        <v>30075.3</v>
+        <v>29054.9</v>
       </c>
       <c r="C458">
-        <v>30339.06249062971</v>
+        <v>30140.7159030502</v>
       </c>
       <c r="D458">
-        <v>-263.7624906297133</v>
+        <v>-1085.815903050203</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8210,13 +8210,13 @@
         <v>461</v>
       </c>
       <c r="B459">
-        <v>29054.9</v>
+        <v>28380.2</v>
       </c>
       <c r="C459">
-        <v>30139.66840621785</v>
+        <v>29261.04269753443</v>
       </c>
       <c r="D459">
-        <v>-1084.768406217849</v>
+        <v>-880.8426975344264</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8224,13 +8224,13 @@
         <v>462</v>
       </c>
       <c r="B460">
-        <v>28380.2</v>
+        <v>26569.6</v>
       </c>
       <c r="C460">
-        <v>29259.85729650076</v>
+        <v>28497.61915575793</v>
       </c>
       <c r="D460">
-        <v>-879.6572965007581</v>
+        <v>-1928.019155757927</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8238,13 +8238,13 @@
         <v>463</v>
       </c>
       <c r="B461">
-        <v>26569.6</v>
+        <v>22460.1</v>
       </c>
       <c r="C461">
-        <v>28501.46858446556</v>
+        <v>26912.43491380007</v>
       </c>
       <c r="D461">
-        <v>-1931.868584465559</v>
+        <v>-4452.334913800067</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8252,13 +8252,13 @@
         <v>464</v>
       </c>
       <c r="B462">
-        <v>22460.1</v>
+        <v>22111</v>
       </c>
       <c r="C462">
-        <v>26918.34141006216</v>
+        <v>23225.11337146665</v>
       </c>
       <c r="D462">
-        <v>-4458.241410062157</v>
+        <v>-1114.113371466647</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8266,13 +8266,13 @@
         <v>465</v>
       </c>
       <c r="B463">
-        <v>22111</v>
+        <v>22559.6</v>
       </c>
       <c r="C463">
-        <v>23232.59820407167</v>
+        <v>21941.1943435088</v>
       </c>
       <c r="D463">
-        <v>-1121.598204071674</v>
+        <v>618.4056564911989</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8280,13 +8280,13 @@
         <v>466</v>
       </c>
       <c r="B464">
-        <v>22559.6</v>
+        <v>20366.3</v>
       </c>
       <c r="C464">
-        <v>21963.09832749066</v>
+        <v>21920.38400078503</v>
       </c>
       <c r="D464">
-        <v>596.501672509341</v>
+        <v>-1554.084000785035</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8294,13 +8294,13 @@
         <v>467</v>
       </c>
       <c r="B465">
-        <v>20366.3</v>
+        <v>20432.9</v>
       </c>
       <c r="C465">
-        <v>21936.05202611246</v>
+        <v>20741.99088320392</v>
       </c>
       <c r="D465">
-        <v>-1569.752026112459</v>
+        <v>-309.0908832039167</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8308,13 +8308,13 @@
         <v>468</v>
       </c>
       <c r="B466">
-        <v>20432.9</v>
+        <v>18950</v>
       </c>
       <c r="C466">
-        <v>20753.30825078916</v>
+        <v>20428.96176582486</v>
       </c>
       <c r="D466">
-        <v>-320.4082507891617</v>
+        <v>-1478.961765824857</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8322,13 +8322,13 @@
         <v>469</v>
       </c>
       <c r="B467">
-        <v>18950</v>
+        <v>20555.5</v>
       </c>
       <c r="C467">
-        <v>20442.47510671286</v>
+        <v>18893.92762693508</v>
       </c>
       <c r="D467">
-        <v>-1492.475106712864</v>
+        <v>1661.572373064922</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8336,13 +8336,13 @@
         <v>470</v>
       </c>
       <c r="B468">
-        <v>20555.5</v>
+        <v>20550</v>
       </c>
       <c r="C468">
-        <v>18900.0530271975</v>
+        <v>19857.79120643732</v>
       </c>
       <c r="D468">
-        <v>1655.446972802503</v>
+        <v>692.2087935626805</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8350,13 +8350,13 @@
         <v>471</v>
       </c>
       <c r="B469">
-        <v>20550</v>
+        <v>20701.9</v>
       </c>
       <c r="C469">
-        <v>19859.13275806734</v>
+        <v>20349.92703963592</v>
       </c>
       <c r="D469">
-        <v>690.8672419326649</v>
+        <v>351.9729603640844</v>
       </c>
     </row>
   </sheetData>

--- a/data/df_compare.xlsx
+++ b/data/df_compare.xlsx
@@ -28,9 +28,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>2021-03-11</t>
-  </si>
-  <si>
     <t>2021-03-12</t>
   </si>
   <si>
@@ -1430,6 +1427,9 @@
   </si>
   <si>
     <t>2022-06-21</t>
+  </si>
+  <si>
+    <t>2022-06-22</t>
   </si>
 </sst>
 </file>
@@ -1812,13 +1812,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>57809.9</v>
+        <v>57234</v>
       </c>
       <c r="C2">
-        <v>55794.31558205892</v>
+        <v>57394.56442292337</v>
       </c>
       <c r="D2">
-        <v>2015.584417941085</v>
+        <v>-160.5644229233731</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1826,13 +1826,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>57234</v>
+        <v>61174.9</v>
       </c>
       <c r="C3">
-        <v>57350.15762929438</v>
+        <v>57259.32350730352</v>
       </c>
       <c r="D3">
-        <v>-116.1576292943791</v>
+        <v>3915.576492696484</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1840,13 +1840,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>61174.9</v>
+        <v>59001.1</v>
       </c>
       <c r="C4">
-        <v>57209.53858195725</v>
+        <v>60462.74037026041</v>
       </c>
       <c r="D4">
-        <v>3965.361418042747</v>
+        <v>-1461.640370260408</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1854,13 +1854,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>59001.1</v>
+        <v>55600</v>
       </c>
       <c r="C5">
-        <v>60440.45713362438</v>
+        <v>59986.67485735155</v>
       </c>
       <c r="D5">
-        <v>-1439.357133624384</v>
+        <v>-4386.674857351551</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1868,13 +1868,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>55600</v>
+        <v>56891.1</v>
       </c>
       <c r="C6">
-        <v>59940.59147930332</v>
+        <v>56778.01890820675</v>
       </c>
       <c r="D6">
-        <v>-4340.591479303315</v>
+        <v>113.0810917932467</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1882,13 +1882,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>56891.1</v>
+        <v>58933</v>
       </c>
       <c r="C7">
-        <v>56747.8612143902</v>
+        <v>56057.88665354744</v>
       </c>
       <c r="D7">
-        <v>143.2387856097994</v>
+        <v>2875.113346452563</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1896,13 +1896,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>58933</v>
+        <v>57640.9</v>
       </c>
       <c r="C8">
-        <v>56088.74691784231</v>
+        <v>57924.96411108025</v>
       </c>
       <c r="D8">
-        <v>2844.253082157695</v>
+        <v>-284.0641110802462</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1910,13 +1910,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>57640.9</v>
+        <v>58101.8</v>
       </c>
       <c r="C9">
-        <v>57948.56259002071</v>
+        <v>58263.15479254891</v>
       </c>
       <c r="D9">
-        <v>-307.6625900207073</v>
+        <v>-161.3547925489111</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1924,13 +1924,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>58101.8</v>
+        <v>58091.6</v>
       </c>
       <c r="C10">
-        <v>58257.68397725545</v>
+        <v>58153.02339099444</v>
       </c>
       <c r="D10">
-        <v>-155.8839772554493</v>
+        <v>-61.4233909944378</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1938,13 +1938,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>58091.6</v>
+        <v>57378.4</v>
       </c>
       <c r="C11">
-        <v>58168.35196431336</v>
+        <v>58529.5697118153</v>
       </c>
       <c r="D11">
-        <v>-76.75196431336371</v>
+        <v>-1151.169711815302</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1952,13 +1952,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>57378.4</v>
+        <v>54095.1</v>
       </c>
       <c r="C12">
-        <v>58533.09087885753</v>
+        <v>57428.11955621289</v>
       </c>
       <c r="D12">
-        <v>-1154.690878857531</v>
+        <v>-3333.019556212887</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1966,13 +1966,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>54095.1</v>
+        <v>54351.3</v>
       </c>
       <c r="C13">
-        <v>57425.49519263118</v>
+        <v>55130.64033774828</v>
       </c>
       <c r="D13">
-        <v>-3330.395192631178</v>
+        <v>-779.3403377482755</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1980,13 +1980,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>54351.3</v>
+        <v>52293.8</v>
       </c>
       <c r="C14">
-        <v>55109.66152018495</v>
+        <v>54423.89296783836</v>
       </c>
       <c r="D14">
-        <v>-758.3615201849461</v>
+        <v>-2130.092967838355</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1994,13 +1994,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>52293.8</v>
+        <v>51314.9</v>
       </c>
       <c r="C15">
-        <v>54444.8638753375</v>
+        <v>53282.13073779002</v>
       </c>
       <c r="D15">
-        <v>-2151.063875337495</v>
+        <v>-1967.230737790022</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2008,13 +2008,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>51314.9</v>
+        <v>55062.2</v>
       </c>
       <c r="C16">
-        <v>53273.80516007505</v>
+        <v>51549.21070687773</v>
       </c>
       <c r="D16">
-        <v>-1958.905160075046</v>
+        <v>3512.989293122271</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2022,13 +2022,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>55062.2</v>
+        <v>55852.4</v>
       </c>
       <c r="C17">
-        <v>51561.36279097188</v>
+        <v>54162.95551235916</v>
       </c>
       <c r="D17">
-        <v>3500.837209028119</v>
+        <v>1689.444487640845</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2036,13 +2036,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>55852.4</v>
+        <v>55782</v>
       </c>
       <c r="C18">
-        <v>54192.75700885733</v>
+        <v>55687.11972228703</v>
       </c>
       <c r="D18">
-        <v>1659.642991142675</v>
+        <v>94.88027771297493</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2050,13 +2050,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>55782</v>
+        <v>57624.2</v>
       </c>
       <c r="C19">
-        <v>55670.20796967734</v>
+        <v>55810.56294239478</v>
       </c>
       <c r="D19">
-        <v>111.7920303226565</v>
+        <v>1813.637057605214</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2064,13 +2064,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>57624.2</v>
+        <v>58781</v>
       </c>
       <c r="C20">
-        <v>55782.29481927308</v>
+        <v>57355.36118333018</v>
       </c>
       <c r="D20">
-        <v>1841.905180726913</v>
+        <v>1425.638816669816</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2078,13 +2078,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>58781</v>
+        <v>58786.2</v>
       </c>
       <c r="C21">
-        <v>57324.00303364987</v>
+        <v>58694.77521267385</v>
       </c>
       <c r="D21">
-        <v>1456.996966350125</v>
+        <v>91.42478732614836</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2092,13 +2092,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>58786.2</v>
+        <v>58732.9</v>
       </c>
       <c r="C22">
-        <v>58654.35948080008</v>
+        <v>58773.43675435465</v>
       </c>
       <c r="D22">
-        <v>131.8405191999191</v>
+        <v>-40.53675435465266</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2106,13 +2106,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>58732.9</v>
+        <v>59020.7</v>
       </c>
       <c r="C23">
-        <v>58721.70767463534</v>
+        <v>58904.56904252339</v>
       </c>
       <c r="D23">
-        <v>11.19232536466006</v>
+        <v>116.1309574766055</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2120,13 +2120,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>59020.7</v>
+        <v>57099</v>
       </c>
       <c r="C24">
-        <v>58868.31780136321</v>
+        <v>59317.5219866955</v>
       </c>
       <c r="D24">
-        <v>152.3821986367839</v>
+        <v>-2218.521986695501</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2134,13 +2134,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>57099</v>
+        <v>58195</v>
       </c>
       <c r="C25">
-        <v>59288.9819236575</v>
+        <v>57829.41233399289</v>
       </c>
       <c r="D25">
-        <v>-2189.981923657499</v>
+        <v>365.5876660071081</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2148,13 +2148,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>58195</v>
+        <v>59120</v>
       </c>
       <c r="C26">
-        <v>57800.43140201681</v>
+        <v>57948.09326733503</v>
       </c>
       <c r="D26">
-        <v>394.5685979831906</v>
+        <v>1171.906732664967</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2162,13 +2162,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>59120</v>
+        <v>58017.1</v>
       </c>
       <c r="C27">
-        <v>57956.70930191854</v>
+        <v>58736.73160129788</v>
       </c>
       <c r="D27">
-        <v>1163.290698081459</v>
+        <v>-719.6316012978859</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2176,13 +2176,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>58017.1</v>
+        <v>55928.5</v>
       </c>
       <c r="C28">
-        <v>58734.74339240862</v>
+        <v>58311.49056516471</v>
       </c>
       <c r="D28">
-        <v>-717.6433924086232</v>
+        <v>-2382.990565164713</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2190,13 +2190,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>55928.5</v>
+        <v>58036.9</v>
       </c>
       <c r="C29">
-        <v>58297.71863820884</v>
+        <v>56535.69421939246</v>
       </c>
       <c r="D29">
-        <v>-2369.21863820884</v>
+        <v>1501.205780607539</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2204,13 +2204,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>58036.9</v>
+        <v>58110</v>
       </c>
       <c r="C30">
-        <v>56518.01391323825</v>
+        <v>57558.01495660757</v>
       </c>
       <c r="D30">
-        <v>1518.886086761755</v>
+        <v>551.9850433924294</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2218,13 +2218,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>58110</v>
+        <v>59775.6</v>
       </c>
       <c r="C31">
-        <v>57580.53885271991</v>
+        <v>58243.61351124782</v>
       </c>
       <c r="D31">
-        <v>529.4611472800898</v>
+        <v>1531.986488752176</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2232,13 +2232,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>59775.6</v>
+        <v>59956</v>
       </c>
       <c r="C32">
-        <v>58238.72625837696</v>
+        <v>59798.48645737066</v>
       </c>
       <c r="D32">
-        <v>1536.873741623036</v>
+        <v>157.5135426293418</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2246,13 +2246,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>59956</v>
+        <v>59823.7</v>
       </c>
       <c r="C33">
-        <v>59786.27044132305</v>
+        <v>60081.67895705017</v>
       </c>
       <c r="D33">
-        <v>169.7295586769469</v>
+        <v>-257.9789570501744</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2260,13 +2260,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>59823.7</v>
+        <v>63587.2</v>
       </c>
       <c r="C34">
-        <v>60066.46733671398</v>
+        <v>60199.64409298127</v>
       </c>
       <c r="D34">
-        <v>-242.7673367139796</v>
+        <v>3387.55590701873</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2274,13 +2274,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>63587.2</v>
+        <v>62969</v>
       </c>
       <c r="C35">
-        <v>60177.14265563042</v>
+        <v>62958.34956239091</v>
       </c>
       <c r="D35">
-        <v>3410.057344369576</v>
+        <v>10.65043760908884</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2288,13 +2288,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>62969</v>
+        <v>63243</v>
       </c>
       <c r="C36">
-        <v>62945.27388051795</v>
+        <v>63315.61690179072</v>
       </c>
       <c r="D36">
-        <v>23.72611948204576</v>
+        <v>-72.6169017907232</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2302,13 +2302,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>63243</v>
+        <v>61455</v>
       </c>
       <c r="C37">
-        <v>63261.552789076</v>
+        <v>63343.19344344886</v>
       </c>
       <c r="D37">
-        <v>-18.55278907599859</v>
+        <v>-1888.193443448865</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2316,13 +2316,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>61455</v>
+        <v>60085.2</v>
       </c>
       <c r="C38">
-        <v>63317.80953793257</v>
+        <v>61896.46206714778</v>
       </c>
       <c r="D38">
-        <v>-1862.809537932568</v>
+        <v>-1811.262067147778</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2330,13 +2330,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>60085.2</v>
+        <v>56239.8</v>
       </c>
       <c r="C39">
-        <v>61857.12470899359</v>
+        <v>60733.15150408522</v>
       </c>
       <c r="D39">
-        <v>-1771.924708993596</v>
+        <v>-4493.351504085222</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2344,13 +2344,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>56239.8</v>
+        <v>55720</v>
       </c>
       <c r="C40">
-        <v>60722.62189351031</v>
+        <v>56115.50880929406</v>
       </c>
       <c r="D40">
-        <v>-4482.821893510307</v>
+        <v>-395.5088092940568</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2358,13 +2358,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>55720</v>
+        <v>56500</v>
       </c>
       <c r="C41">
-        <v>56087.81419221041</v>
+        <v>55833.0626819194</v>
       </c>
       <c r="D41">
-        <v>-367.8141922104114</v>
+        <v>666.9373180805997</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2372,13 +2372,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>56500</v>
+        <v>53815.2</v>
       </c>
       <c r="C42">
-        <v>55868.41786066929</v>
+        <v>55935.17979942291</v>
       </c>
       <c r="D42">
-        <v>631.5821393307124</v>
+        <v>-2119.979799422916</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2386,13 +2386,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>53815.2</v>
+        <v>51730</v>
       </c>
       <c r="C43">
-        <v>55971.49285805982</v>
+        <v>54435.89877981576</v>
       </c>
       <c r="D43">
-        <v>-2156.292858059824</v>
+        <v>-2705.898779815761</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2400,13 +2400,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>51730</v>
+        <v>51178.7</v>
       </c>
       <c r="C44">
-        <v>54446.03859328054</v>
+        <v>52269.12203452128</v>
       </c>
       <c r="D44">
-        <v>-2716.038593280537</v>
+        <v>-1090.422034521282</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2414,13 +2414,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>51178.7</v>
+        <v>50093.4</v>
       </c>
       <c r="C45">
-        <v>52276.17656273855</v>
+        <v>50525.61080673011</v>
       </c>
       <c r="D45">
-        <v>-1097.47656273855</v>
+        <v>-432.2108067301087</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2428,13 +2428,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>50093.4</v>
+        <v>49106.5</v>
       </c>
       <c r="C46">
-        <v>50540.20670321831</v>
+        <v>49938.07981612458</v>
       </c>
       <c r="D46">
-        <v>-446.8067032183098</v>
+        <v>-831.5798161245766</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2442,13 +2442,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>49106.5</v>
+        <v>54051.9</v>
       </c>
       <c r="C47">
-        <v>49955.95721395357</v>
+        <v>48840.86803132624</v>
       </c>
       <c r="D47">
-        <v>-849.457213953574</v>
+        <v>5211.031968673757</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2456,13 +2456,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>54051.9</v>
+        <v>55078.7</v>
       </c>
       <c r="C48">
-        <v>48846.78065940883</v>
+        <v>52832.0119411296</v>
       </c>
       <c r="D48">
-        <v>5205.119340591169</v>
+        <v>2246.688058870393</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2470,13 +2470,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>55078.7</v>
+        <v>54899.3</v>
       </c>
       <c r="C49">
-        <v>52844.35723387368</v>
+        <v>54811.31504968117</v>
       </c>
       <c r="D49">
-        <v>2234.342766126312</v>
+        <v>87.98495031883067</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2484,13 +2484,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>54899.3</v>
+        <v>53579.6</v>
       </c>
       <c r="C50">
-        <v>54774.47028937202</v>
+        <v>55110.04111171109</v>
       </c>
       <c r="D50">
-        <v>124.8297106279788</v>
+        <v>-1530.441111711094</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2498,13 +2498,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>53579.6</v>
+        <v>57780</v>
       </c>
       <c r="C51">
-        <v>55056.28934868632</v>
+        <v>53749.91851434024</v>
       </c>
       <c r="D51">
-        <v>-1476.689348686319</v>
+        <v>4030.081485659757</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2512,13 +2512,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>57780</v>
+        <v>57859.2</v>
       </c>
       <c r="C52">
-        <v>53696.27664362942</v>
+        <v>56761.5614734547</v>
       </c>
       <c r="D52">
-        <v>4083.723356370581</v>
+        <v>1097.638526545299</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2526,13 +2526,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>57859.2</v>
+        <v>56618.5</v>
       </c>
       <c r="C53">
-        <v>56736.31125469765</v>
+        <v>57983.21562123139</v>
       </c>
       <c r="D53">
-        <v>1122.888745302349</v>
+        <v>-1364.715621231386</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2540,13 +2540,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>56618.5</v>
+        <v>57193.5</v>
       </c>
       <c r="C54">
-        <v>57926.7800088918</v>
+        <v>56939.71266850852</v>
       </c>
       <c r="D54">
-        <v>-1308.280008891801</v>
+        <v>253.7873314914759</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2554,13 +2554,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>57193.5</v>
+        <v>53239.4</v>
       </c>
       <c r="C55">
-        <v>56893.9578187548</v>
+        <v>57531.21008787269</v>
       </c>
       <c r="D55">
-        <v>299.5421812451968</v>
+        <v>-4291.810087872691</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2568,13 +2568,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>53239.4</v>
+        <v>57497.1</v>
       </c>
       <c r="C56">
-        <v>57505.05858449856</v>
+        <v>54184.01133686793</v>
       </c>
       <c r="D56">
-        <v>-4265.65858449856</v>
+        <v>3313.088663132068</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2582,13 +2582,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>57497.1</v>
+        <v>56421.1</v>
       </c>
       <c r="C57">
-        <v>54141.80044984774</v>
+        <v>56554.06598231106</v>
       </c>
       <c r="D57">
-        <v>3355.29955015226</v>
+        <v>-132.9659823110633</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2596,13 +2596,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>56421.1</v>
+        <v>57383</v>
       </c>
       <c r="C58">
-        <v>56580.86090314877</v>
+        <v>56722.54974601802</v>
       </c>
       <c r="D58">
-        <v>-159.7609031487737</v>
+        <v>660.4502539819805</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2610,13 +2610,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>57383</v>
+        <v>58953.8</v>
       </c>
       <c r="C59">
-        <v>56706.20172221737</v>
+        <v>57283.68411745835</v>
       </c>
       <c r="D59">
-        <v>676.7982777826255</v>
+        <v>1670.11588254165</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2624,13 +2624,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>58953.8</v>
+        <v>58293.1</v>
       </c>
       <c r="C60">
-        <v>57284.48806647141</v>
+        <v>58739.92350113898</v>
       </c>
       <c r="D60">
-        <v>1669.311933528588</v>
+        <v>-446.8235011389843</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2638,13 +2638,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>58293.1</v>
+        <v>55888.1</v>
       </c>
       <c r="C61">
-        <v>58740.70149611894</v>
+        <v>58208.20571561583</v>
       </c>
       <c r="D61">
-        <v>-447.601496118943</v>
+        <v>-2320.105715615828</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2652,13 +2652,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>55888.1</v>
+        <v>56747.5</v>
       </c>
       <c r="C62">
-        <v>58192.90246289378</v>
+        <v>56273.39846375096</v>
       </c>
       <c r="D62">
-        <v>-2304.802462893778</v>
+        <v>474.1015362490434</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2666,13 +2666,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>56747.5</v>
+        <v>49502.7</v>
       </c>
       <c r="C63">
-        <v>56245.81526937571</v>
+        <v>56348.96384693708</v>
       </c>
       <c r="D63">
-        <v>501.6847306242853</v>
+        <v>-6846.263846937087</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2680,13 +2680,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>49502.7</v>
+        <v>49675.2</v>
       </c>
       <c r="C64">
-        <v>56366.74024551435</v>
+        <v>51198.44341267672</v>
       </c>
       <c r="D64">
-        <v>-6864.040245514348</v>
+        <v>-1523.243412676718</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2694,13 +2694,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>49675.2</v>
+        <v>49899</v>
       </c>
       <c r="C65">
-        <v>51155.38899364704</v>
+        <v>48893.81803406551</v>
       </c>
       <c r="D65">
-        <v>-1480.18899364704</v>
+        <v>1005.181965934491</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2708,13 +2708,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>49899</v>
+        <v>46771.1</v>
       </c>
       <c r="C66">
-        <v>48931.60467999236</v>
+        <v>49925.44875806748</v>
       </c>
       <c r="D66">
-        <v>967.3953200076357</v>
+        <v>-3154.348758067477</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2722,13 +2722,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>46771.1</v>
+        <v>46482.4</v>
       </c>
       <c r="C67">
-        <v>49964.45622899319</v>
+        <v>47503.27448599393</v>
       </c>
       <c r="D67">
-        <v>-3193.356228993194</v>
+        <v>-1020.874485993925</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2736,13 +2736,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>46482.4</v>
+        <v>43551.8</v>
       </c>
       <c r="C68">
-        <v>47512.89388323034</v>
+        <v>46431.22715250854</v>
       </c>
       <c r="D68">
-        <v>-1030.493883230338</v>
+        <v>-2879.427152508535</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2750,13 +2750,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>43551.8</v>
+        <v>42895.2</v>
       </c>
       <c r="C69">
-        <v>46453.82574935094</v>
+        <v>43787.28292445399</v>
       </c>
       <c r="D69">
-        <v>-2902.025749350942</v>
+        <v>-892.0829244539927</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2764,13 +2764,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>42895.2</v>
+        <v>36742.3</v>
       </c>
       <c r="C70">
-        <v>43784.66031253739</v>
+        <v>43219.37555351135</v>
       </c>
       <c r="D70">
-        <v>-889.4603125373978</v>
+        <v>-6477.075553511342</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2778,13 +2778,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>36742.3</v>
+        <v>40614.6</v>
       </c>
       <c r="C71">
-        <v>43234.52419938752</v>
+        <v>36611.6754235251</v>
       </c>
       <c r="D71">
-        <v>-6492.224199387521</v>
+        <v>4002.924576474899</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2792,13 +2792,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>40614.6</v>
+        <v>37331.7</v>
       </c>
       <c r="C72">
-        <v>36553.25060757139</v>
+        <v>39512.95701969173</v>
       </c>
       <c r="D72">
-        <v>4061.349392428609</v>
+        <v>-2181.257019691737</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2806,13 +2806,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>37331.7</v>
+        <v>37468.3</v>
       </c>
       <c r="C73">
-        <v>39551.87172144718</v>
+        <v>37416.62695930965</v>
       </c>
       <c r="D73">
-        <v>-2220.171721447186</v>
+        <v>51.67304069035163</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2820,13 +2820,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>37468.3</v>
+        <v>34718.8</v>
       </c>
       <c r="C74">
-        <v>37386.18045822284</v>
+        <v>37062.50612970939</v>
       </c>
       <c r="D74">
-        <v>82.11954177716689</v>
+        <v>-2343.70612970939</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2834,13 +2834,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>34718.8</v>
+        <v>38833.8</v>
       </c>
       <c r="C75">
-        <v>37079.48387442998</v>
+        <v>34515.46025039718</v>
       </c>
       <c r="D75">
-        <v>-2360.683874429975</v>
+        <v>4318.339749602819</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2848,13 +2848,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>38833.8</v>
+        <v>38388.1</v>
       </c>
       <c r="C76">
-        <v>34492.19511244397</v>
+        <v>37878.95108085277</v>
       </c>
       <c r="D76">
-        <v>4341.604887556037</v>
+        <v>509.1489191472283</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2862,13 +2862,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>38388.1</v>
+        <v>39283.9</v>
       </c>
       <c r="C77">
-        <v>37895.28894441974</v>
+        <v>38219.8486616239</v>
       </c>
       <c r="D77">
-        <v>492.8110555802632</v>
+        <v>1064.051338376106</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2876,13 +2876,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>39283.9</v>
+        <v>38516.4</v>
       </c>
       <c r="C78">
-        <v>38186.0920712362</v>
+        <v>39265.52403216195</v>
       </c>
       <c r="D78">
-        <v>1097.807928763803</v>
+        <v>-749.124032161948</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2890,13 +2890,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>38516.4</v>
+        <v>35683.9</v>
       </c>
       <c r="C79">
-        <v>39233.97647201925</v>
+        <v>38558.83928556181</v>
       </c>
       <c r="D79">
-        <v>-717.5764720192456</v>
+        <v>-2874.939285561813</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2904,13 +2904,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>35683.9</v>
+        <v>34616.6</v>
       </c>
       <c r="C80">
-        <v>38517.86676376077</v>
+        <v>36089.29641756692</v>
       </c>
       <c r="D80">
-        <v>-2833.966763760771</v>
+        <v>-1472.69641756692</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2918,13 +2918,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>34616.6</v>
+        <v>35673.8</v>
       </c>
       <c r="C81">
-        <v>36043.39650701193</v>
+        <v>34828.24584920978</v>
       </c>
       <c r="D81">
-        <v>-1426.796507011932</v>
+        <v>845.5541507902235</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2932,13 +2932,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>35673.8</v>
+        <v>37303.8</v>
       </c>
       <c r="C82">
-        <v>34818.0390957765</v>
+        <v>35146.03400452767</v>
       </c>
       <c r="D82">
-        <v>855.7609042234981</v>
+        <v>2157.765995472335</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2946,13 +2946,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>37303.8</v>
+        <v>36676.3</v>
       </c>
       <c r="C83">
-        <v>35158.79143498754</v>
+        <v>36460.97538544395</v>
       </c>
       <c r="D83">
-        <v>2145.008565012467</v>
+        <v>215.3246145560552</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2960,13 +2960,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>36676.3</v>
+        <v>37565.3</v>
       </c>
       <c r="C84">
-        <v>36468.09475858035</v>
+        <v>36628.29645609556</v>
       </c>
       <c r="D84">
-        <v>208.2052414196514</v>
+        <v>937.0035439044441</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2974,13 +2974,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>37565.3</v>
+        <v>39196.6</v>
       </c>
       <c r="C85">
-        <v>36612.9409500802</v>
+        <v>37217.15561164008</v>
       </c>
       <c r="D85">
-        <v>952.3590499198035</v>
+        <v>1979.444388359923</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2988,13 +2988,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>39196.6</v>
+        <v>36847.7</v>
       </c>
       <c r="C86">
-        <v>37211.03446634597</v>
+        <v>38707.8546468218</v>
       </c>
       <c r="D86">
-        <v>1985.565533654029</v>
+        <v>-1860.1546468218</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3002,13 +3002,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>36847.7</v>
+        <v>35534.6</v>
       </c>
       <c r="C87">
-        <v>38699.08162693409</v>
+        <v>37057.54199775116</v>
       </c>
       <c r="D87">
-        <v>-1851.38162693409</v>
+        <v>-1522.941997751164</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3016,13 +3016,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>35534.6</v>
+        <v>35789</v>
       </c>
       <c r="C88">
-        <v>37018.91563042556</v>
+        <v>35819.7190196141</v>
       </c>
       <c r="D88">
-        <v>-1484.315630425561</v>
+        <v>-30.71901961410185</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3030,13 +3030,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>35789</v>
+        <v>33587.6</v>
       </c>
       <c r="C89">
-        <v>35808.81803099884</v>
+        <v>35694.60681689056</v>
       </c>
       <c r="D89">
-        <v>-19.81803099883837</v>
+        <v>-2107.006816890564</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3044,13 +3044,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>33587.6</v>
+        <v>33420</v>
       </c>
       <c r="C90">
-        <v>35710.39058528654</v>
+        <v>34112.66693132714</v>
       </c>
       <c r="D90">
-        <v>-2122.790585286544</v>
+        <v>-692.6669313271414</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3058,13 +3058,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>33420</v>
+        <v>37396.4</v>
       </c>
       <c r="C91">
-        <v>34110.02292455864</v>
+        <v>32874.17939383801</v>
       </c>
       <c r="D91">
-        <v>-690.0229245586379</v>
+        <v>4522.220606161987</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3072,13 +3072,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>37396.4</v>
+        <v>36678.4</v>
       </c>
       <c r="C92">
-        <v>32891.5533266603</v>
+        <v>36130.44027822212</v>
       </c>
       <c r="D92">
-        <v>4504.8466733397</v>
+        <v>547.9597217778864</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3086,13 +3086,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>36678.4</v>
+        <v>37322.2</v>
       </c>
       <c r="C93">
-        <v>36158.7336273111</v>
+        <v>36839.15106641018</v>
       </c>
       <c r="D93">
-        <v>519.6663726889019</v>
+        <v>483.0489335898164</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3100,13 +3100,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>37322.2</v>
+        <v>35544.9</v>
       </c>
       <c r="C94">
-        <v>36819.15572869222</v>
+        <v>37053.29673337284</v>
       </c>
       <c r="D94">
-        <v>503.0442713077791</v>
+        <v>-1508.396733372843</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3114,13 +3114,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>35544.9</v>
+        <v>39034.6</v>
       </c>
       <c r="C95">
-        <v>37048.49381380808</v>
+        <v>35755.81777254352</v>
       </c>
       <c r="D95">
-        <v>-1503.593813808075</v>
+        <v>3278.782227456475</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3128,13 +3128,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>39034.6</v>
+        <v>40530.8</v>
       </c>
       <c r="C96">
-        <v>35733.61921144495</v>
+        <v>38089.92662450619</v>
       </c>
       <c r="D96">
-        <v>3300.980788555047</v>
+        <v>2440.873375493815</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3142,13 +3142,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>40530.8</v>
+        <v>40166.6</v>
       </c>
       <c r="C97">
-        <v>38099.23938118602</v>
+        <v>40349.78068859541</v>
       </c>
       <c r="D97">
-        <v>2431.560618813979</v>
+        <v>-183.1806885954065</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3156,13 +3156,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>40166.6</v>
+        <v>38337.1</v>
       </c>
       <c r="C98">
-        <v>40327.31920986308</v>
+        <v>40405.71992730701</v>
       </c>
       <c r="D98">
-        <v>-160.719209863084</v>
+        <v>-2068.619927307016</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3170,13 +3170,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>38337.1</v>
+        <v>38078.2</v>
       </c>
       <c r="C99">
-        <v>40378.35554605353</v>
+        <v>38847.06326448891</v>
       </c>
       <c r="D99">
-        <v>-2041.25554605353</v>
+        <v>-768.8632644889149</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3184,13 +3184,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>38078.2</v>
+        <v>35824</v>
       </c>
       <c r="C100">
-        <v>38825.98482770022</v>
+        <v>38278.76024362847</v>
       </c>
       <c r="D100">
-        <v>-747.7848277002195</v>
+        <v>-2454.760243628465</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3198,13 +3198,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>35824</v>
+        <v>35490.5</v>
       </c>
       <c r="C101">
-        <v>38281.82157325494</v>
+        <v>36191.00684111449</v>
       </c>
       <c r="D101">
-        <v>-2457.821573254943</v>
+        <v>-700.5068411144894</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3212,13 +3212,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>35490.5</v>
+        <v>35595</v>
       </c>
       <c r="C102">
-        <v>36191.42398319408</v>
+        <v>35527.52724713998</v>
       </c>
       <c r="D102">
-        <v>-700.9239831940795</v>
+        <v>67.47275286001968</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3226,13 +3226,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>35595</v>
+        <v>31655.2</v>
       </c>
       <c r="C103">
-        <v>35555.84192314197</v>
+        <v>35127.71655657346</v>
       </c>
       <c r="D103">
-        <v>39.15807685803156</v>
+        <v>-3472.516556573461</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3240,13 +3240,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>31655.2</v>
+        <v>32516.2</v>
       </c>
       <c r="C104">
-        <v>35157.64767563035</v>
+        <v>32420.21386241101</v>
       </c>
       <c r="D104">
-        <v>-3502.447675630345</v>
+        <v>95.98613758899228</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3254,13 +3254,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>32516.2</v>
+        <v>33683.3</v>
       </c>
       <c r="C105">
-        <v>32413.06506046417</v>
+        <v>31722.38602368659</v>
       </c>
       <c r="D105">
-        <v>103.1349395358338</v>
+        <v>1960.913976313415</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3268,13 +3268,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>33683.3</v>
+        <v>34666.6</v>
       </c>
       <c r="C106">
-        <v>31757.15112995731</v>
+        <v>33553.52177976366</v>
       </c>
       <c r="D106">
-        <v>1926.148870042689</v>
+        <v>1113.078220236341</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3282,13 +3282,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>34666.6</v>
+        <v>31583.7</v>
       </c>
       <c r="C107">
-        <v>33578.84837353634</v>
+        <v>34197.52383466097</v>
       </c>
       <c r="D107">
-        <v>1087.751626463658</v>
+        <v>-2613.823834660969</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3296,13 +3296,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>31583.7</v>
+        <v>32277</v>
       </c>
       <c r="C108">
-        <v>34207.16095952966</v>
+        <v>32354.98997716731</v>
       </c>
       <c r="D108">
-        <v>-2623.460959529661</v>
+        <v>-77.9899771673081</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3310,13 +3310,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>32277</v>
+        <v>34675.3</v>
       </c>
       <c r="C109">
-        <v>32327.06691713957</v>
+        <v>31790.46239451569</v>
       </c>
       <c r="D109">
-        <v>-50.06691713956752</v>
+        <v>2884.83760548431</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3324,13 +3324,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>34675.3</v>
+        <v>34472</v>
       </c>
       <c r="C110">
-        <v>31803.05354124831</v>
+        <v>33997.97839007538</v>
       </c>
       <c r="D110">
-        <v>2872.246458751692</v>
+        <v>474.0216099246172</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3338,13 +3338,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>34472</v>
+        <v>35903.3</v>
       </c>
       <c r="C111">
-        <v>34004.61953380943</v>
+        <v>34538.14476972184</v>
       </c>
       <c r="D111">
-        <v>467.3804661905742</v>
+        <v>1365.155230278164</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3352,13 +3352,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>35903.3</v>
+        <v>35046.2</v>
       </c>
       <c r="C112">
-        <v>34512.09187437271</v>
+        <v>35708.8994504642</v>
       </c>
       <c r="D112">
-        <v>1391.208125627294</v>
+        <v>-662.6994504642062</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3366,13 +3366,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>35046.2</v>
+        <v>33532.4</v>
       </c>
       <c r="C113">
-        <v>35689.68097513932</v>
+        <v>35089.86396394001</v>
       </c>
       <c r="D113">
-        <v>-643.4809751393186</v>
+        <v>-1557.463963940005</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3380,13 +3380,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>33532.4</v>
+        <v>33802.9</v>
       </c>
       <c r="C114">
-        <v>35056.12882753715</v>
+        <v>33683.40365008669</v>
       </c>
       <c r="D114">
-        <v>-1523.728827537147</v>
+        <v>119.4963499133082</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3394,13 +3394,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>33802.9</v>
+        <v>34685.4</v>
       </c>
       <c r="C115">
-        <v>33657.97655504372</v>
+        <v>33575.52902679209</v>
       </c>
       <c r="D115">
-        <v>144.9234449562864</v>
+        <v>1109.870973207908</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3408,13 +3408,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>34685.4</v>
+        <v>35305</v>
       </c>
       <c r="C116">
-        <v>33571.24169897716</v>
+        <v>34411.68187427209</v>
       </c>
       <c r="D116">
-        <v>1114.158301022842</v>
+        <v>893.3181257279066</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3422,13 +3422,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>35305</v>
+        <v>33697.6</v>
       </c>
       <c r="C117">
-        <v>34411.64674988927</v>
+        <v>35217.46842248962</v>
       </c>
       <c r="D117">
-        <v>893.3532501107256</v>
+        <v>-1519.868422489621</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3436,13 +3436,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>33697.6</v>
+        <v>34235</v>
       </c>
       <c r="C118">
-        <v>35212.47646599278</v>
+        <v>33914.52234464028</v>
       </c>
       <c r="D118">
-        <v>-1514.876465992777</v>
+        <v>320.4776553597185</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3450,13 +3450,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>34235</v>
+        <v>33885.1</v>
       </c>
       <c r="C119">
-        <v>33896.18407542392</v>
+        <v>34246.06795199262</v>
       </c>
       <c r="D119">
-        <v>338.8159245760762</v>
+        <v>-360.9679519926212</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3464,13 +3464,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>33885.1</v>
+        <v>32882.2</v>
       </c>
       <c r="C120">
-        <v>34247.26697569637</v>
+        <v>34120.16891490485</v>
       </c>
       <c r="D120">
-        <v>-362.1669756963747</v>
+        <v>-1237.96891490485</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3478,13 +3478,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>32882.2</v>
+        <v>33791</v>
       </c>
       <c r="C121">
-        <v>34115.04705252094</v>
+        <v>32934.14898665549</v>
       </c>
       <c r="D121">
-        <v>-1232.847052520941</v>
+        <v>856.8510133445088</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3492,13 +3492,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>33791</v>
+        <v>33522.2</v>
       </c>
       <c r="C122">
-        <v>32927.75280922398</v>
+        <v>33461.88810870849</v>
       </c>
       <c r="D122">
-        <v>863.2471907760191</v>
+        <v>60.3118912915088</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3506,13 +3506,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>33522.2</v>
+        <v>34246.9</v>
       </c>
       <c r="C123">
-        <v>33471.61971538415</v>
+        <v>33531.76095743661</v>
       </c>
       <c r="D123">
-        <v>50.58028461584763</v>
+        <v>715.1390425633945</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3520,13 +3520,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>34246.9</v>
+        <v>33107.3</v>
       </c>
       <c r="C124">
-        <v>33530.33924706411</v>
+        <v>34079.94081395734</v>
       </c>
       <c r="D124">
-        <v>716.5607529358895</v>
+        <v>-972.6408139573323</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3534,13 +3534,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>33107.3</v>
+        <v>32722.9</v>
       </c>
       <c r="C125">
-        <v>34082.56550595726</v>
+        <v>33343.52825112539</v>
       </c>
       <c r="D125">
-        <v>-975.2655059572571</v>
+        <v>-620.6282511253885</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3548,13 +3548,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>32722.9</v>
+        <v>32815.2</v>
       </c>
       <c r="C126">
-        <v>33328.2689863063</v>
+        <v>32705.63990163794</v>
       </c>
       <c r="D126">
-        <v>-605.3689863062973</v>
+        <v>109.5600983620534</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3562,13 +3562,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>32815.2</v>
+        <v>31832.6</v>
       </c>
       <c r="C127">
-        <v>32702.21348380172</v>
+        <v>32546.23195789751</v>
       </c>
       <c r="D127">
-        <v>112.986516198278</v>
+        <v>-713.6319578975163</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3576,13 +3576,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>31832.6</v>
+        <v>31405.9</v>
       </c>
       <c r="C128">
-        <v>32544.98939865443</v>
+        <v>31936.08594303133</v>
       </c>
       <c r="D128">
-        <v>-712.3893986544317</v>
+        <v>-530.185943031327</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3590,13 +3590,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>31405.9</v>
+        <v>31510</v>
       </c>
       <c r="C129">
-        <v>31925.37305742618</v>
+        <v>31450.06239169232</v>
       </c>
       <c r="D129">
-        <v>-519.4730574261812</v>
+        <v>59.9376083076786</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3604,13 +3604,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>31510</v>
+        <v>31780.1</v>
       </c>
       <c r="C130">
-        <v>31448.24350310946</v>
+        <v>31461.8014147674</v>
       </c>
       <c r="D130">
-        <v>61.75649689053898</v>
+        <v>318.2985852326019</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3618,13 +3618,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>31780.1</v>
+        <v>30820.5</v>
       </c>
       <c r="C131">
-        <v>31463.7914840449</v>
+        <v>31704.38202347787</v>
       </c>
       <c r="D131">
-        <v>316.3085159550938</v>
+        <v>-883.8820234778686</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3632,13 +3632,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>30820.5</v>
+        <v>29788.1</v>
       </c>
       <c r="C132">
-        <v>31704.0944096494</v>
+        <v>30912.2081318101</v>
       </c>
       <c r="D132">
-        <v>-883.5944096494022</v>
+        <v>-1124.108131810099</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3646,13 +3646,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>29788.1</v>
+        <v>32125</v>
       </c>
       <c r="C133">
-        <v>30901.1152288822</v>
+        <v>29893.74606812203</v>
       </c>
       <c r="D133">
-        <v>-1113.015228882203</v>
+        <v>2231.253931877975</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3660,13 +3660,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>32125</v>
+        <v>32283.3</v>
       </c>
       <c r="C134">
-        <v>29885.21767558675</v>
+        <v>31599.12019812653</v>
       </c>
       <c r="D134">
-        <v>2239.782324413249</v>
+        <v>684.1798018734662</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3674,13 +3674,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>32283.3</v>
+        <v>33639</v>
       </c>
       <c r="C135">
-        <v>31603.76314204737</v>
+        <v>32211.93434709847</v>
       </c>
       <c r="D135">
-        <v>679.5368579526257</v>
+        <v>1427.065652901525</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3688,13 +3688,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>33639</v>
+        <v>34284.6</v>
       </c>
       <c r="C136">
-        <v>32196.5038607424</v>
+        <v>33260.27279667137</v>
       </c>
       <c r="D136">
-        <v>1442.496139257597</v>
+        <v>1024.327203328627</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3702,13 +3702,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>34284.6</v>
+        <v>35413.6</v>
       </c>
       <c r="C137">
-        <v>33247.73192394547</v>
+        <v>34201.50302570086</v>
       </c>
       <c r="D137">
-        <v>1036.868076054532</v>
+        <v>1212.096974299136</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3716,13 +3716,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>35413.6</v>
+        <v>37274.9</v>
       </c>
       <c r="C138">
-        <v>34174.65248341439</v>
+        <v>35125.90111355751</v>
       </c>
       <c r="D138">
-        <v>1238.947516585606</v>
+        <v>2148.998886442489</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3730,13 +3730,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>37274.9</v>
+        <v>39506.2</v>
       </c>
       <c r="C139">
-        <v>35103.98844058535</v>
+        <v>37684.25034039773</v>
       </c>
       <c r="D139">
-        <v>2170.91155941465</v>
+        <v>1821.949659602265</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3744,13 +3744,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>39506.2</v>
+        <v>40011</v>
       </c>
       <c r="C140">
-        <v>37642.24251074734</v>
+        <v>38972.72174440816</v>
       </c>
       <c r="D140">
-        <v>1863.957489252658</v>
+        <v>1038.278255591838</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3758,13 +3758,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>40011</v>
+        <v>40000</v>
       </c>
       <c r="C141">
-        <v>38947.06510715061</v>
+        <v>40173.30157846611</v>
       </c>
       <c r="D141">
-        <v>1063.934892849386</v>
+        <v>-173.3015784661111</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3772,13 +3772,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>40000</v>
+        <v>42229.6</v>
       </c>
       <c r="C142">
-        <v>40135.61081662282</v>
+        <v>40182.61461382094</v>
       </c>
       <c r="D142">
-        <v>-135.6108166228223</v>
+        <v>2046.985386179054</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3786,13 +3786,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>42229.6</v>
+        <v>41488.5</v>
       </c>
       <c r="C143">
-        <v>40159.03683060975</v>
+        <v>41535.4008404302</v>
       </c>
       <c r="D143">
-        <v>2070.563169390247</v>
+        <v>-46.90084043020033</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3800,13 +3800,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>41488.5</v>
+        <v>39889.1</v>
       </c>
       <c r="C144">
-        <v>41529.68882944499</v>
+        <v>41822.04550484291</v>
       </c>
       <c r="D144">
-        <v>-41.1888294449891</v>
+        <v>-1932.945504842915</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3814,13 +3814,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>39889.1</v>
+        <v>39152.3</v>
       </c>
       <c r="C145">
-        <v>41803.48368357404</v>
+        <v>40554.81824230312</v>
       </c>
       <c r="D145">
-        <v>-1914.383683574044</v>
+        <v>-1402.518242303122</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3828,13 +3828,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>39152.3</v>
+        <v>38163</v>
       </c>
       <c r="C146">
-        <v>40545.27936036134</v>
+        <v>39438.74468572249</v>
       </c>
       <c r="D146">
-        <v>-1392.979360361336</v>
+        <v>-1275.744685722486</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3842,13 +3842,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>38163</v>
+        <v>39749</v>
       </c>
       <c r="C147">
-        <v>39452.36057297661</v>
+        <v>38463.60715223808</v>
       </c>
       <c r="D147">
-        <v>-1289.360572976613</v>
+        <v>1285.392847761919</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3856,13 +3856,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>39749</v>
+        <v>40886.4</v>
       </c>
       <c r="C148">
-        <v>38482.61373623597</v>
+        <v>39296.95709990826</v>
       </c>
       <c r="D148">
-        <v>1266.386263764027</v>
+        <v>1589.442900091737</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3870,13 +3870,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>40886.4</v>
+        <v>42823.9</v>
       </c>
       <c r="C149">
-        <v>39330.67984563028</v>
+        <v>40242.9544037712</v>
       </c>
       <c r="D149">
-        <v>1555.720154369723</v>
+        <v>2580.945596228798</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3884,13 +3884,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>42823.9</v>
+        <v>44610.7</v>
       </c>
       <c r="C150">
-        <v>40255.937554206</v>
+        <v>42374.78053536837</v>
       </c>
       <c r="D150">
-        <v>2567.962445794001</v>
+        <v>2235.919464631632</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3898,13 +3898,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>44610.7</v>
+        <v>43845.6</v>
       </c>
       <c r="C151">
-        <v>42377.3358341165</v>
+        <v>44317.27337957895</v>
       </c>
       <c r="D151">
-        <v>2233.364165883497</v>
+        <v>-471.6733795789551</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3912,13 +3912,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>43845.6</v>
+        <v>46307.1</v>
       </c>
       <c r="C152">
-        <v>44303.63059116394</v>
+        <v>44280.8468065543</v>
       </c>
       <c r="D152">
-        <v>-458.0305911639371</v>
+        <v>2026.2531934457</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3926,13 +3926,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>46307.1</v>
+        <v>45595.1</v>
       </c>
       <c r="C153">
-        <v>44245.96269528221</v>
+        <v>45745.0083865819</v>
       </c>
       <c r="D153">
-        <v>2061.137304717784</v>
+        <v>-149.9083865819048</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3940,13 +3940,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>45595.1</v>
+        <v>45571.7</v>
       </c>
       <c r="C154">
-        <v>45729.65634787062</v>
+        <v>45878.26242919202</v>
       </c>
       <c r="D154">
-        <v>-134.5563478706244</v>
+        <v>-306.5624291920249</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3954,13 +3954,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>45571.7</v>
+        <v>44401.1</v>
       </c>
       <c r="C155">
-        <v>45843.85477326205</v>
+        <v>46012.54452637702</v>
       </c>
       <c r="D155">
-        <v>-272.1547732620529</v>
+        <v>-1611.444526377025</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3968,13 +3968,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>44401.1</v>
+        <v>47823.3</v>
       </c>
       <c r="C156">
-        <v>45994.95124904119</v>
+        <v>44844.01812131604</v>
       </c>
       <c r="D156">
-        <v>-1593.851249041189</v>
+        <v>2979.281878683963</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3982,13 +3982,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>47823.3</v>
+        <v>47115.2</v>
       </c>
       <c r="C157">
-        <v>44830.56822882031</v>
+        <v>47136.25587431484</v>
       </c>
       <c r="D157">
-        <v>2992.731771179693</v>
+        <v>-21.05587431484309</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3996,13 +3996,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>47115.2</v>
+        <v>47019.3</v>
       </c>
       <c r="C158">
-        <v>47152.56214625403</v>
+        <v>47295.65794297622</v>
       </c>
       <c r="D158">
-        <v>-37.36214625403227</v>
+        <v>-276.3579429762176</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4010,13 +4010,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>47019.3</v>
+        <v>45926.3</v>
       </c>
       <c r="C159">
-        <v>47275.77904149471</v>
+        <v>46925.81961281548</v>
       </c>
       <c r="D159">
-        <v>-256.4790414947056</v>
+        <v>-999.5196128154785</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4024,13 +4024,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>45926.3</v>
+        <v>44672.2</v>
       </c>
       <c r="C160">
-        <v>46918.65408250681</v>
+        <v>46495.8505502773</v>
       </c>
       <c r="D160">
-        <v>-992.3540825068048</v>
+        <v>-1823.650550277307</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4038,13 +4038,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>44672.2</v>
+        <v>44714.7</v>
       </c>
       <c r="C161">
-        <v>46481.71364831857</v>
+        <v>45270.81124689998</v>
       </c>
       <c r="D161">
-        <v>-1809.513648318578</v>
+        <v>-556.1112468999781</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4052,13 +4052,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>44714.7</v>
+        <v>46765.3</v>
       </c>
       <c r="C162">
-        <v>45263.40318525239</v>
+        <v>44974.2611836156</v>
       </c>
       <c r="D162">
-        <v>-548.7031852523942</v>
+        <v>1791.038816384404</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4066,13 +4066,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>46765.3</v>
+        <v>49345.4</v>
       </c>
       <c r="C163">
-        <v>44981.74447337823</v>
+        <v>46262.5630573791</v>
       </c>
       <c r="D163">
-        <v>1783.555526621771</v>
+        <v>3082.836942620903</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4080,13 +4080,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>49345.4</v>
+        <v>48865.4</v>
       </c>
       <c r="C164">
-        <v>46276.92408686035</v>
+        <v>48861.86135926485</v>
       </c>
       <c r="D164">
-        <v>3068.475913139649</v>
+        <v>3.538640735154331</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4094,13 +4094,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>48865.4</v>
+        <v>49293.6</v>
       </c>
       <c r="C165">
-        <v>48860.49386847523</v>
+        <v>49137.0135083379</v>
       </c>
       <c r="D165">
-        <v>4.906131524774537</v>
+        <v>156.5864916620994</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4108,13 +4108,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>49293.6</v>
+        <v>49517.3</v>
       </c>
       <c r="C166">
-        <v>49105.32578353293</v>
+        <v>49230.89967610105</v>
       </c>
       <c r="D166">
-        <v>188.2742164670708</v>
+        <v>286.4003238989535</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4122,13 +4122,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>49517.3</v>
+        <v>47725.4</v>
       </c>
       <c r="C167">
-        <v>49213.06276279723</v>
+        <v>49827.03178164599</v>
       </c>
       <c r="D167">
-        <v>304.2372372027748</v>
+        <v>-2101.631781645985</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4136,13 +4136,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>47725.4</v>
+        <v>48991.3</v>
       </c>
       <c r="C168">
-        <v>49800.91234956059</v>
+        <v>48359.49425883315</v>
       </c>
       <c r="D168">
-        <v>-2075.512349560588</v>
+        <v>631.805741166856</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4150,13 +4150,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>48991.3</v>
+        <v>46848.9</v>
       </c>
       <c r="C169">
-        <v>48326.53312458942</v>
+        <v>48745.66471452414</v>
       </c>
       <c r="D169">
-        <v>664.7668754105835</v>
+        <v>-1896.764714524143</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4164,13 +4164,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>46848.9</v>
+        <v>49074.9</v>
       </c>
       <c r="C170">
-        <v>48744.5879139569</v>
+        <v>47395.64517459061</v>
       </c>
       <c r="D170">
-        <v>-1895.687913956899</v>
+        <v>1679.254825409393</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4178,13 +4178,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>49074.9</v>
+        <v>48895.7</v>
       </c>
       <c r="C171">
-        <v>47373.40694679695</v>
+        <v>48518.29303050486</v>
       </c>
       <c r="D171">
-        <v>1701.493053203048</v>
+        <v>377.4069694951322</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4192,13 +4192,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>48895.7</v>
+        <v>48787.7</v>
       </c>
       <c r="C172">
-        <v>48532.19102470137</v>
+        <v>48970.52348822157</v>
       </c>
       <c r="D172">
-        <v>363.5089752986241</v>
+        <v>-182.8234882215766</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4206,13 +4206,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>48787.7</v>
+        <v>46985.7</v>
       </c>
       <c r="C173">
-        <v>48960.85406248138</v>
+        <v>48841.40538602645</v>
       </c>
       <c r="D173">
-        <v>-173.1540624813788</v>
+        <v>-1855.705386026457</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4220,13 +4220,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>46985.7</v>
+        <v>47140</v>
       </c>
       <c r="C174">
-        <v>48830.21343511622</v>
+        <v>47459.18687442783</v>
       </c>
       <c r="D174">
-        <v>-1844.513435116227</v>
+        <v>-319.1868744278327</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4234,13 +4234,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>47140</v>
+        <v>48872.2</v>
       </c>
       <c r="C175">
-        <v>47437.78397873245</v>
+        <v>47334.65717416941</v>
       </c>
       <c r="D175">
-        <v>-297.7839787324483</v>
+        <v>1537.542825830591</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4248,13 +4248,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>48872.2</v>
+        <v>49290.3</v>
       </c>
       <c r="C176">
-        <v>47331.44874235993</v>
+        <v>48427.95695205379</v>
       </c>
       <c r="D176">
-        <v>1540.751257640062</v>
+        <v>862.3430479462113</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4262,13 +4262,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>49290.3</v>
+        <v>50018.6</v>
       </c>
       <c r="C177">
-        <v>48426.80028497244</v>
+        <v>49482.54924534561</v>
       </c>
       <c r="D177">
-        <v>863.4997150275594</v>
+        <v>536.0507546543886</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4276,13 +4276,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>50018.6</v>
+        <v>49956.1</v>
       </c>
       <c r="C178">
-        <v>49461.74779127029</v>
+        <v>49955.83715935011</v>
       </c>
       <c r="D178">
-        <v>556.8522087297097</v>
+        <v>0.2628406498915865</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4290,13 +4290,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>49956.1</v>
+        <v>51767.9</v>
       </c>
       <c r="C179">
-        <v>49934.17357704006</v>
+        <v>50060.92678741534</v>
       </c>
       <c r="D179">
-        <v>21.92642295994301</v>
+        <v>1706.973212584657</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4304,13 +4304,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>51767.9</v>
+        <v>52688.3</v>
       </c>
       <c r="C180">
-        <v>50038.46033942868</v>
+        <v>51371.48300871172</v>
       </c>
       <c r="D180">
-        <v>1729.439660571319</v>
+        <v>1316.816991288288</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4318,13 +4318,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>52688.3</v>
+        <v>46882.1</v>
       </c>
       <c r="C181">
-        <v>51356.56447427772</v>
+        <v>52490.02541876549</v>
       </c>
       <c r="D181">
-        <v>1331.735525722281</v>
+        <v>-5607.925418765495</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4332,13 +4332,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>46882.1</v>
+        <v>46073.4</v>
       </c>
       <c r="C182">
-        <v>52461.1075725985</v>
+        <v>47199.71395554414</v>
       </c>
       <c r="D182">
-        <v>-5579.007572598501</v>
+        <v>-1126.313955544138</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4346,13 +4346,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>46073.4</v>
+        <v>46389.6</v>
       </c>
       <c r="C183">
-        <v>47123.36298985482</v>
+        <v>45945.0825982813</v>
       </c>
       <c r="D183">
-        <v>-1049.962989854823</v>
+        <v>444.5174017187019</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4360,13 +4360,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>46389.6</v>
+        <v>44842.2</v>
       </c>
       <c r="C184">
-        <v>45954.91853538656</v>
+        <v>46346.75678279286</v>
       </c>
       <c r="D184">
-        <v>434.6814646134371</v>
+        <v>-1504.556782792861</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4374,13 +4374,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>44842.2</v>
+        <v>45137.4</v>
       </c>
       <c r="C185">
-        <v>46364.90459041978</v>
+        <v>45101.34411853997</v>
       </c>
       <c r="D185">
-        <v>-1522.704590419788</v>
+        <v>36.05588146002992</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4388,13 +4388,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>45137.4</v>
+        <v>46061.3</v>
       </c>
       <c r="C186">
-        <v>45103.46115465488</v>
+        <v>45134.44361198982</v>
       </c>
       <c r="D186">
-        <v>33.93884534511744</v>
+        <v>926.8563880101865</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4402,13 +4402,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>46061.3</v>
+        <v>44965.8</v>
       </c>
       <c r="C187">
-        <v>45154.40010649664</v>
+        <v>45760.55824774495</v>
       </c>
       <c r="D187">
-        <v>906.8998935033596</v>
+        <v>-794.7582477449469</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4416,13 +4416,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>44965.8</v>
+        <v>47145.9</v>
       </c>
       <c r="C188">
-        <v>45771.98485150875</v>
+        <v>44951.89873244759</v>
       </c>
       <c r="D188">
-        <v>-806.1848515087477</v>
+        <v>2194.001267552412</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4430,13 +4430,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>47145.9</v>
+        <v>48152.3</v>
       </c>
       <c r="C189">
-        <v>44932.17805438398</v>
+        <v>46554.68304117527</v>
       </c>
       <c r="D189">
-        <v>2213.721945616016</v>
+        <v>1597.616958824728</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4444,13 +4444,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>48152.3</v>
+        <v>47786.9</v>
       </c>
       <c r="C190">
-        <v>46549.83166934457</v>
+        <v>47924.30323267361</v>
       </c>
       <c r="D190">
-        <v>1602.468330655436</v>
+        <v>-137.4032326736124</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4458,13 +4458,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>47786.9</v>
+        <v>47269.7</v>
       </c>
       <c r="C191">
-        <v>47896.07493089023</v>
+        <v>47818.41915524154</v>
       </c>
       <c r="D191">
-        <v>-109.174930890229</v>
+        <v>-548.7191552415461</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4472,13 +4472,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>47269.7</v>
+        <v>48309.9</v>
       </c>
       <c r="C192">
-        <v>47779.5443616907</v>
+        <v>47394.20470990537</v>
       </c>
       <c r="D192">
-        <v>-509.8443616907025</v>
+        <v>915.6952900946271</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4486,13 +4486,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>48309.9</v>
+        <v>47237.8</v>
       </c>
       <c r="C193">
-        <v>47361.30270633037</v>
+        <v>48149.77183891216</v>
       </c>
       <c r="D193">
-        <v>948.5972936696271</v>
+        <v>-911.9718389121554</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4500,13 +4500,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>47237.8</v>
+        <v>42992.9</v>
       </c>
       <c r="C194">
-        <v>48131.81652423902</v>
+        <v>47428.29716667085</v>
       </c>
       <c r="D194">
-        <v>-894.0165242390212</v>
+        <v>-4435.397166670846</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4514,13 +4514,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>42992.9</v>
+        <v>40710.6</v>
       </c>
       <c r="C195">
-        <v>47399.68492119253</v>
+        <v>43825.8339094331</v>
       </c>
       <c r="D195">
-        <v>-4406.784921192528</v>
+        <v>-3115.233909433104</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4528,13 +4528,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>40710.6</v>
+        <v>43562.8</v>
       </c>
       <c r="C196">
-        <v>43785.29103494846</v>
+        <v>40970.93829680313</v>
       </c>
       <c r="D196">
-        <v>-3074.691034948461</v>
+        <v>2591.861703196875</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4542,13 +4542,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>43562.8</v>
+        <v>44889.8</v>
       </c>
       <c r="C197">
-        <v>40971.70494437232</v>
+        <v>42780.11754860621</v>
       </c>
       <c r="D197">
-        <v>2591.09505562768</v>
+        <v>2109.68245139379</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4556,13 +4556,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>44889.8</v>
+        <v>42833.2</v>
       </c>
       <c r="C198">
-        <v>42817.09885729733</v>
+        <v>44409.09310903077</v>
       </c>
       <c r="D198">
-        <v>2072.701142702674</v>
+        <v>-1575.893109030774</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4570,13 +4570,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>42833.2</v>
+        <v>42710.1</v>
       </c>
       <c r="C199">
-        <v>44415.23926033836</v>
+        <v>42795.82145816062</v>
       </c>
       <c r="D199">
-        <v>-1582.039260338366</v>
+        <v>-85.72145816061675</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4584,13 +4584,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>42710.1</v>
+        <v>43204.6</v>
       </c>
       <c r="C200">
-        <v>42769.35325887235</v>
+        <v>42426.41066653159</v>
       </c>
       <c r="D200">
-        <v>-59.25325887234794</v>
+        <v>778.1893334684064</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4598,13 +4598,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>43204.6</v>
+        <v>42176.3</v>
       </c>
       <c r="C201">
-        <v>42427.23284732137</v>
+        <v>42694.20894456597</v>
       </c>
       <c r="D201">
-        <v>777.3671526786275</v>
+        <v>-517.9089445659629</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4612,13 +4612,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>42176.3</v>
+        <v>41038.4</v>
       </c>
       <c r="C202">
-        <v>42687.7671454431</v>
+        <v>42580.15296334802</v>
       </c>
       <c r="D202">
-        <v>-511.4671454430936</v>
+        <v>-1541.752963348023</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4626,13 +4626,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>41038.4</v>
+        <v>41524.8</v>
       </c>
       <c r="C203">
-        <v>42556.7617416424</v>
+        <v>41304.64919539608</v>
       </c>
       <c r="D203">
-        <v>-1518.361741642402</v>
+        <v>220.1508046039235</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4640,13 +4640,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>41524.8</v>
+        <v>43798.7</v>
       </c>
       <c r="C204">
-        <v>41288.48883112156</v>
+        <v>41464.2803956377</v>
       </c>
       <c r="D204">
-        <v>236.3111688784411</v>
+        <v>2334.419604362294</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4654,13 +4654,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>43798.7</v>
+        <v>48163.7</v>
       </c>
       <c r="C205">
-        <v>41462.46663595719</v>
+        <v>43224.59661670588</v>
       </c>
       <c r="D205">
-        <v>2336.233364042811</v>
+        <v>4939.103383294118</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4668,13 +4668,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>48163.7</v>
+        <v>47662</v>
       </c>
       <c r="C206">
-        <v>43218.37916448046</v>
+        <v>47089.91567909461</v>
       </c>
       <c r="D206">
-        <v>4945.320835519538</v>
+        <v>572.0843209053855</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4682,13 +4682,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>47662</v>
+        <v>48230.2</v>
       </c>
       <c r="C207">
-        <v>47071.4897349157</v>
+        <v>47888.28514162041</v>
       </c>
       <c r="D207">
-        <v>590.5102650843037</v>
+        <v>341.9148583795904</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4696,13 +4696,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>48230.2</v>
+        <v>49243.3</v>
       </c>
       <c r="C208">
-        <v>47833.44030859793</v>
+        <v>48291.53999762624</v>
       </c>
       <c r="D208">
-        <v>396.7596914020687</v>
+        <v>951.7600023737614</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4710,13 +4710,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>49243.3</v>
+        <v>51487</v>
       </c>
       <c r="C209">
-        <v>48250.09233143117</v>
+        <v>48858.61203376952</v>
       </c>
       <c r="D209">
-        <v>993.2076685688371</v>
+        <v>2628.387966230483</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4724,13 +4724,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>51487</v>
+        <v>55350.2</v>
       </c>
       <c r="C210">
-        <v>48823.39864728853</v>
+        <v>51167.98698853396</v>
       </c>
       <c r="D210">
-        <v>2663.60135271147</v>
+        <v>4182.213011466039</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4738,13 +4738,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>55350.2</v>
+        <v>53817.3</v>
       </c>
       <c r="C211">
-        <v>51139.00776919472</v>
+        <v>54490.36783694406</v>
       </c>
       <c r="D211">
-        <v>4211.192230805274</v>
+        <v>-673.0678369440575</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4752,13 +4752,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>53817.3</v>
+        <v>53960.5</v>
       </c>
       <c r="C212">
-        <v>54460.73822964169</v>
+        <v>54331.05489775192</v>
       </c>
       <c r="D212">
-        <v>-643.4382296416879</v>
+        <v>-370.5548977519211</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4766,13 +4766,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>53960.5</v>
+        <v>54960.2</v>
       </c>
       <c r="C213">
-        <v>54278.72493192717</v>
+        <v>54563.85398284878</v>
       </c>
       <c r="D213">
-        <v>-318.224931927165</v>
+        <v>396.3460171512124</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4780,13 +4780,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>54960.2</v>
+        <v>54677.5</v>
       </c>
       <c r="C214">
-        <v>54542.54435247494</v>
+        <v>54958.04169273228</v>
       </c>
       <c r="D214">
-        <v>417.6556475250545</v>
+        <v>-280.5416927322804</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4794,13 +4794,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>54677.5</v>
+        <v>57499.5</v>
       </c>
       <c r="C215">
-        <v>54957.59054833153</v>
+        <v>55139.90980689376</v>
       </c>
       <c r="D215">
-        <v>-280.0905483315291</v>
+        <v>2359.59019310624</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4808,13 +4808,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>57499.5</v>
+        <v>56010.1</v>
       </c>
       <c r="C216">
-        <v>55133.03640641729</v>
+        <v>57031.86013848407</v>
       </c>
       <c r="D216">
-        <v>2366.46359358271</v>
+        <v>-1021.760138484075</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4822,13 +4822,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>56010.1</v>
+        <v>57381.2</v>
       </c>
       <c r="C217">
-        <v>57046.35063147248</v>
+        <v>56117.06280611421</v>
       </c>
       <c r="D217">
-        <v>-1036.250631472481</v>
+        <v>1264.137193885792</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4836,13 +4836,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>57381.2</v>
+        <v>57377.6</v>
       </c>
       <c r="C218">
-        <v>56102.91890558699</v>
+        <v>56874.90376146007</v>
       </c>
       <c r="D218">
-        <v>1278.281094413003</v>
+        <v>502.6962385399311</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4850,13 +4850,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>57377.6</v>
+        <v>61656.2</v>
       </c>
       <c r="C219">
-        <v>56887.71375381976</v>
+        <v>57695.18424769168</v>
       </c>
       <c r="D219">
-        <v>489.8862461802419</v>
+        <v>3961.015752308318</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4864,13 +4864,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>61656.2</v>
+        <v>60873.4</v>
       </c>
       <c r="C220">
-        <v>57693.77898657526</v>
+        <v>61002.49658394462</v>
       </c>
       <c r="D220">
-        <v>3962.421013424741</v>
+        <v>-129.0965839446217</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4878,13 +4878,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>60873.4</v>
+        <v>61526.5</v>
       </c>
       <c r="C221">
-        <v>61007.64784351885</v>
+        <v>61320.00292718003</v>
       </c>
       <c r="D221">
-        <v>-134.2478435188459</v>
+        <v>206.4970728199696</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4892,13 +4892,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>61526.5</v>
+        <v>62037.7</v>
       </c>
       <c r="C222">
-        <v>61291.88331238387</v>
+        <v>61177.7863281926</v>
       </c>
       <c r="D222">
-        <v>234.6166876161296</v>
+        <v>859.9136718074005</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4906,13 +4906,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>62037.7</v>
+        <v>64284.9</v>
       </c>
       <c r="C223">
-        <v>61168.78450860741</v>
+        <v>61909.41882744865</v>
       </c>
       <c r="D223">
-        <v>868.9154913925886</v>
+        <v>2375.48117255135</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4920,13 +4920,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>64284.9</v>
+        <v>66035.8</v>
       </c>
       <c r="C224">
-        <v>61896.11458874276</v>
+        <v>63873.81186865506</v>
       </c>
       <c r="D224">
-        <v>2388.785411257246</v>
+        <v>2161.988131344944</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4934,13 +4934,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>66035.8</v>
+        <v>62198</v>
       </c>
       <c r="C225">
-        <v>63866.34113840436</v>
+        <v>65958.81497202214</v>
       </c>
       <c r="D225">
-        <v>2169.458861595645</v>
+        <v>-3760.814972022141</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4948,13 +4948,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>62198</v>
+        <v>60687.5</v>
       </c>
       <c r="C226">
-        <v>65936.6727971916</v>
+        <v>61494.00027710205</v>
       </c>
       <c r="D226">
-        <v>-3738.672797191597</v>
+        <v>-806.5002771020518</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4962,13 +4962,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>60687.5</v>
+        <v>61296.9</v>
       </c>
       <c r="C227">
-        <v>61441.42623547409</v>
+        <v>61336.84724397835</v>
       </c>
       <c r="D227">
-        <v>-753.9262354740931</v>
+        <v>-39.94724397834943</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4976,13 +4976,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>61296.9</v>
+        <v>60882.5</v>
       </c>
       <c r="C228">
-        <v>61331.81059433788</v>
+        <v>61062.23757954731</v>
       </c>
       <c r="D228">
-        <v>-34.9105943378745</v>
+        <v>-179.7375795473054</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4990,13 +4990,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>60882.5</v>
+        <v>63081.8</v>
       </c>
       <c r="C229">
-        <v>61083.97894911145</v>
+        <v>60767.12312853342</v>
       </c>
       <c r="D229">
-        <v>-201.4789491114498</v>
+        <v>2314.676871466581</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5004,13 +5004,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>63081.8</v>
+        <v>60310.2</v>
       </c>
       <c r="C230">
-        <v>60777.55048200232</v>
+        <v>62723.30857110673</v>
       </c>
       <c r="D230">
-        <v>2304.249517997683</v>
+        <v>-2413.108571106728</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5018,13 +5018,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>60310.2</v>
+        <v>58500.1</v>
       </c>
       <c r="C231">
-        <v>62737.44645754079</v>
+        <v>60951.62220629732</v>
       </c>
       <c r="D231">
-        <v>-2427.246457540794</v>
+        <v>-2451.522206297326</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5032,13 +5032,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>58500.1</v>
+        <v>60613.5</v>
       </c>
       <c r="C232">
-        <v>60925.70356787197</v>
+        <v>59101.42365408043</v>
       </c>
       <c r="D232">
-        <v>-2425.603567871971</v>
+        <v>1512.076345919573</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5046,13 +5046,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>60613.5</v>
+        <v>62246.5</v>
       </c>
       <c r="C233">
-        <v>59088.44835056533</v>
+        <v>60430.58599168836</v>
       </c>
       <c r="D233">
-        <v>1525.051649434667</v>
+        <v>1815.914008311636</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5060,13 +5060,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>62246.5</v>
+        <v>61866.3</v>
       </c>
       <c r="C234">
-        <v>60436.30333437689</v>
+        <v>62017.4408093681</v>
       </c>
       <c r="D234">
-        <v>1810.196665623109</v>
+        <v>-151.1408093680948</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5074,13 +5074,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>61866.3</v>
+        <v>61380.1</v>
       </c>
       <c r="C235">
-        <v>62006.00373665855</v>
+        <v>61838.34622435042</v>
       </c>
       <c r="D235">
-        <v>-139.7037366585428</v>
+        <v>-458.2462243504197</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5088,13 +5088,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>61380.1</v>
+        <v>60954.5</v>
       </c>
       <c r="C236">
-        <v>61810.8446097853</v>
+        <v>61409.24768764971</v>
       </c>
       <c r="D236">
-        <v>-430.7446097853026</v>
+        <v>-454.7476876497094</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5102,13 +5102,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>60954.5</v>
+        <v>63279.7</v>
       </c>
       <c r="C237">
-        <v>61382.45938979168</v>
+        <v>61023.70537920378</v>
       </c>
       <c r="D237">
-        <v>-427.9593897916784</v>
+        <v>2255.99462079622</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5116,13 +5116,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>63279.7</v>
+        <v>62942.9</v>
       </c>
       <c r="C238">
-        <v>60996.68812257855</v>
+        <v>62996.23022721245</v>
       </c>
       <c r="D238">
-        <v>2283.01187742145</v>
+        <v>-53.33022721244924</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5130,13 +5130,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>62942.9</v>
+        <v>61449</v>
       </c>
       <c r="C239">
-        <v>62977.52693564305</v>
+        <v>62731.50876235287</v>
       </c>
       <c r="D239">
-        <v>-34.62693564304936</v>
+        <v>-1282.508762352867</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5144,13 +5144,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>61449</v>
+        <v>61006.2</v>
       </c>
       <c r="C240">
-        <v>62692.61919516325</v>
+        <v>61740.79769619359</v>
       </c>
       <c r="D240">
-        <v>-1243.61919516325</v>
+        <v>-734.5976961935958</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5158,13 +5158,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>61006.2</v>
+        <v>61536.3</v>
       </c>
       <c r="C241">
-        <v>61703.73383098817</v>
+        <v>61374.11614796438</v>
       </c>
       <c r="D241">
-        <v>-697.5338309881772</v>
+        <v>162.183852035625</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5172,13 +5172,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>61536.3</v>
+        <v>63317.8</v>
       </c>
       <c r="C242">
-        <v>61354.33441248379</v>
+        <v>61261.46055968601</v>
       </c>
       <c r="D242">
-        <v>181.9655875162134</v>
+        <v>2056.339440313997</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5186,13 +5186,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>63317.8</v>
+        <v>67559.8</v>
       </c>
       <c r="C243">
-        <v>61253.28652227181</v>
+        <v>62930.47871207187</v>
       </c>
       <c r="D243">
-        <v>2064.513477728193</v>
+        <v>4629.321287928135</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5200,13 +5200,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>67559.8</v>
+        <v>66950</v>
       </c>
       <c r="C244">
-        <v>62919.93909069774</v>
+        <v>66754.75770468113</v>
       </c>
       <c r="D244">
-        <v>4639.860909302268</v>
+        <v>195.2422953188652</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5214,13 +5214,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>66950</v>
+        <v>64969</v>
       </c>
       <c r="C245">
-        <v>66733.17046086059</v>
+        <v>67382.33223789686</v>
       </c>
       <c r="D245">
-        <v>216.8295391394058</v>
+        <v>-2413.332237896859</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5228,13 +5228,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>64969</v>
+        <v>64825.4</v>
       </c>
       <c r="C246">
-        <v>67321.9783078219</v>
+        <v>65529.35313973564</v>
       </c>
       <c r="D246">
-        <v>-2352.978307821904</v>
+        <v>-703.9531397356404</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5242,13 +5242,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>64825.4</v>
+        <v>64153</v>
       </c>
       <c r="C247">
-        <v>65466.46199139685</v>
+        <v>64970.04129269317</v>
       </c>
       <c r="D247">
-        <v>-641.0619913968476</v>
+        <v>-817.0412926931749</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5256,13 +5256,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>64153</v>
+        <v>64393.1</v>
       </c>
       <c r="C248">
-        <v>64951.96797304973</v>
+        <v>64133.20679658873</v>
       </c>
       <c r="D248">
-        <v>-798.9679730497301</v>
+        <v>259.8932034112731</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5270,13 +5270,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>64393.1</v>
+        <v>65495</v>
       </c>
       <c r="C249">
-        <v>64115.97420851863</v>
+        <v>64376.77479737374</v>
       </c>
       <c r="D249">
-        <v>277.1257914813687</v>
+        <v>1118.225202626258</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5284,13 +5284,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>65495</v>
+        <v>63615.8</v>
       </c>
       <c r="C250">
-        <v>64379.1673340298</v>
+        <v>65128.64103437576</v>
       </c>
       <c r="D250">
-        <v>1115.8326659702</v>
+        <v>-1512.841034375757</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5298,13 +5298,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>63615.8</v>
+        <v>60137.2</v>
       </c>
       <c r="C251">
-        <v>65136.44500709692</v>
+        <v>64237.52494342625</v>
       </c>
       <c r="D251">
-        <v>-1520.645007096915</v>
+        <v>-4100.324943426254</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5312,13 +5312,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>60137.2</v>
+        <v>60367.8</v>
       </c>
       <c r="C252">
-        <v>64218.01621054031</v>
+        <v>60562.54842705029</v>
       </c>
       <c r="D252">
-        <v>-4080.816210540317</v>
+        <v>-194.74842705029</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5326,13 +5326,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>60367.8</v>
+        <v>56921.7</v>
       </c>
       <c r="C253">
-        <v>60540.53082215029</v>
+        <v>59931.50902860495</v>
       </c>
       <c r="D253">
-        <v>-172.7308221502899</v>
+        <v>-3009.809028604956</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5340,13 +5340,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>56921.7</v>
+        <v>58099.6</v>
       </c>
       <c r="C254">
-        <v>59951.4860217715</v>
+        <v>57645.07991000827</v>
       </c>
       <c r="D254">
-        <v>-3029.786021771506</v>
+        <v>454.5200899917327</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5354,13 +5354,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>58099.6</v>
+        <v>59744.2</v>
       </c>
       <c r="C255">
-        <v>57631.27095243611</v>
+        <v>57434.44830753145</v>
       </c>
       <c r="D255">
-        <v>468.329047563886</v>
+        <v>2309.751692468548</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5368,13 +5368,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>59744.2</v>
+        <v>58646.2</v>
       </c>
       <c r="C256">
-        <v>57463.93224453653</v>
+        <v>59108.77527686802</v>
       </c>
       <c r="D256">
-        <v>2280.267755463472</v>
+        <v>-462.575276868025</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5382,13 +5382,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>58646.2</v>
+        <v>56295.5</v>
       </c>
       <c r="C257">
-        <v>59121.90688600714</v>
+        <v>58857.08835885394</v>
       </c>
       <c r="D257">
-        <v>-475.7068860071449</v>
+        <v>-2561.588358853944</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5396,13 +5396,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>56295.5</v>
+        <v>57571.4</v>
       </c>
       <c r="C258">
-        <v>58837.58303907694</v>
+        <v>56740.62043073983</v>
       </c>
       <c r="D258">
-        <v>-2542.083039076941</v>
+        <v>830.7795692601721</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5410,13 +5410,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>57571.4</v>
+        <v>57203.3</v>
       </c>
       <c r="C259">
-        <v>56707.97192290481</v>
+        <v>57003.8958298956</v>
       </c>
       <c r="D259">
-        <v>863.4280770951955</v>
+        <v>199.4041701044043</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5424,13 +5424,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>57203.3</v>
+        <v>58932.6</v>
       </c>
       <c r="C260">
-        <v>56998.60867258618</v>
+        <v>56941.05098682694</v>
       </c>
       <c r="D260">
-        <v>204.6913274138205</v>
+        <v>1991.549013173055</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5438,13 +5438,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>58932.6</v>
+        <v>53789</v>
       </c>
       <c r="C261">
-        <v>56915.5399836979</v>
+        <v>58535.72226594147</v>
       </c>
       <c r="D261">
-        <v>2017.060016302094</v>
+        <v>-4746.722265941469</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5452,13 +5452,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>53789</v>
+        <v>54784.9</v>
       </c>
       <c r="C262">
-        <v>58514.64642238989</v>
+        <v>54899.56658420392</v>
       </c>
       <c r="D262">
-        <v>-4725.646422389895</v>
+        <v>-114.6665842039147</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5466,13 +5466,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>54784.9</v>
+        <v>57300</v>
       </c>
       <c r="C263">
-        <v>54829.37275201184</v>
+        <v>54462.80386972477</v>
       </c>
       <c r="D263">
-        <v>-44.47275201183948</v>
+        <v>2837.196130275232</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5480,13 +5480,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>57300</v>
+        <v>57830.2</v>
       </c>
       <c r="C264">
-        <v>54468.97037182646</v>
+        <v>56254.03707287993</v>
       </c>
       <c r="D264">
-        <v>2831.029628173535</v>
+        <v>1576.162927120065</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5494,13 +5494,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>57830.2</v>
+        <v>56980.7</v>
       </c>
       <c r="C265">
-        <v>56251.67584943469</v>
+        <v>57793.38676167987</v>
       </c>
       <c r="D265">
-        <v>1578.52415056531</v>
+        <v>-812.68676167987</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5508,13 +5508,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>56980.7</v>
+        <v>57237.9</v>
       </c>
       <c r="C266">
-        <v>57760.19298729842</v>
+        <v>57225.45436069777</v>
       </c>
       <c r="D266">
-        <v>-779.4929872984212</v>
+        <v>12.44563930223376</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5522,13 +5522,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>57237.9</v>
+        <v>56526.4</v>
       </c>
       <c r="C267">
-        <v>57182.70294577599</v>
+        <v>57459.69843464947</v>
       </c>
       <c r="D267">
-        <v>55.19705422400875</v>
+        <v>-933.2984346494704</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5536,13 +5536,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>56526.4</v>
+        <v>53678.6</v>
       </c>
       <c r="C268">
-        <v>57432.6583827759</v>
+        <v>56534.24938737368</v>
       </c>
       <c r="D268">
-        <v>-906.2583827759008</v>
+        <v>-2855.649387373684</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5550,13 +5550,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>53678.6</v>
+        <v>49255.1</v>
       </c>
       <c r="C269">
-        <v>56509.69399495708</v>
+        <v>54051.77156513053</v>
       </c>
       <c r="D269">
-        <v>-2831.093994957082</v>
+        <v>-4796.671565130535</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5564,13 +5564,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>49255.1</v>
+        <v>49443.3</v>
       </c>
       <c r="C270">
-        <v>54017.0946150652</v>
+        <v>47961.56458307672</v>
       </c>
       <c r="D270">
-        <v>-4761.994615065203</v>
+        <v>1481.735416923286</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5578,13 +5578,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>49443.3</v>
+        <v>50564.3</v>
       </c>
       <c r="C271">
-        <v>47934.60693872612</v>
+        <v>48866.8961001045</v>
       </c>
       <c r="D271">
-        <v>1508.69306127388</v>
+        <v>1697.403899895507</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5592,13 +5592,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>50564.3</v>
+        <v>50650.1</v>
       </c>
       <c r="C272">
-        <v>48908.48286821571</v>
+        <v>49604.82513854827</v>
       </c>
       <c r="D272">
-        <v>1655.817131784293</v>
+        <v>1045.274861451726</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5606,13 +5606,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>50650.1</v>
+        <v>50515.1</v>
       </c>
       <c r="C273">
-        <v>49633.96379695562</v>
+        <v>50616.27176528863</v>
       </c>
       <c r="D273">
-        <v>1016.136203044378</v>
+        <v>-101.1717652886364</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5620,13 +5620,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>50515.1</v>
+        <v>47581.6</v>
       </c>
       <c r="C274">
-        <v>50621.03993922268</v>
+        <v>50015.60427734064</v>
       </c>
       <c r="D274">
-        <v>-105.9399392226842</v>
+        <v>-2434.004277340639</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5634,13 +5634,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>47581.6</v>
+        <v>47218.3</v>
       </c>
       <c r="C275">
-        <v>50010.45666183755</v>
+        <v>48031.6218526556</v>
       </c>
       <c r="D275">
-        <v>-2428.856661837555</v>
+        <v>-813.3218526556011</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5648,13 +5648,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>47218.3</v>
+        <v>49367.2</v>
       </c>
       <c r="C276">
-        <v>48001.21455966579</v>
+        <v>47555.11719133286</v>
       </c>
       <c r="D276">
-        <v>-782.9145596657909</v>
+        <v>1812.082808667139</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5662,13 +5662,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>49367.2</v>
+        <v>50113.2</v>
       </c>
       <c r="C277">
-        <v>47544.04514984577</v>
+        <v>48597.82404329933</v>
       </c>
       <c r="D277">
-        <v>1823.154850154227</v>
+        <v>1515.375956700664</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5676,13 +5676,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>50113.2</v>
+        <v>46732.2</v>
       </c>
       <c r="C278">
-        <v>48600.16208590777</v>
+        <v>49796.41385488192</v>
       </c>
       <c r="D278">
-        <v>1513.03791409223</v>
+        <v>-3064.21385488192</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5690,13 +5690,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>46732.2</v>
+        <v>48399.2</v>
       </c>
       <c r="C279">
-        <v>49773.64846661148</v>
+        <v>47155.42167011267</v>
       </c>
       <c r="D279">
-        <v>-3041.448466611488</v>
+        <v>1243.778329887326</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5704,13 +5704,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>48399.2</v>
+        <v>48881.3</v>
       </c>
       <c r="C280">
-        <v>47106.93575212525</v>
+        <v>47791.92501479568</v>
       </c>
       <c r="D280">
-        <v>1292.264247874744</v>
+        <v>1089.374985204326</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5718,13 +5718,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>48881.3</v>
+        <v>47631</v>
       </c>
       <c r="C281">
-        <v>47790.87181301246</v>
+        <v>48363.42584851244</v>
       </c>
       <c r="D281">
-        <v>1090.428186987541</v>
+        <v>-732.4258485124446</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5732,13 +5732,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>47631</v>
+        <v>46168.3</v>
       </c>
       <c r="C282">
-        <v>48344.99037641002</v>
+        <v>47929.87894254146</v>
       </c>
       <c r="D282">
-        <v>-713.9903764100163</v>
+        <v>-1761.578942541455</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5746,13 +5746,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>46168.3</v>
+        <v>46864.3</v>
       </c>
       <c r="C283">
-        <v>47899.20064041286</v>
+        <v>46300.1945885098</v>
       </c>
       <c r="D283">
-        <v>-1730.90064041286</v>
+        <v>564.1054114902072</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5760,13 +5760,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>46864.3</v>
+        <v>46688.4</v>
       </c>
       <c r="C284">
-        <v>46277.98562181855</v>
+        <v>46482.61557993447</v>
       </c>
       <c r="D284">
-        <v>586.3143781814579</v>
+        <v>205.7844200655309</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5774,13 +5774,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>46688.4</v>
+        <v>46898.1</v>
       </c>
       <c r="C285">
-        <v>46485.91625262602</v>
+        <v>46845.37283769279</v>
       </c>
       <c r="D285">
-        <v>202.4837473739826</v>
+        <v>52.72716230720835</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5788,13 +5788,13 @@
         <v>288</v>
       </c>
       <c r="B286">
-        <v>46898.1</v>
+        <v>48925.9</v>
       </c>
       <c r="C286">
-        <v>46836.73145887794</v>
+        <v>46624.96131528312</v>
       </c>
       <c r="D286">
-        <v>61.36854112205765</v>
+        <v>2300.938684716886</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5802,13 +5802,13 @@
         <v>289</v>
       </c>
       <c r="B287">
-        <v>48925.9</v>
+        <v>48624.9</v>
       </c>
       <c r="C287">
-        <v>46618.47866400596</v>
+        <v>48381.74824028136</v>
       </c>
       <c r="D287">
-        <v>2307.42133599404</v>
+        <v>243.1517597186394</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5816,13 +5816,13 @@
         <v>290</v>
       </c>
       <c r="B288">
-        <v>48624.9</v>
+        <v>50818.8</v>
       </c>
       <c r="C288">
-        <v>48379.53279476005</v>
+        <v>48764.33898128397</v>
       </c>
       <c r="D288">
-        <v>245.3672052399561</v>
+        <v>2054.461018716029</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5830,13 +5830,13 @@
         <v>291</v>
       </c>
       <c r="B289">
-        <v>50818.8</v>
+        <v>50834.3</v>
       </c>
       <c r="C289">
-        <v>48741.56778710248</v>
+        <v>50253.05121063616</v>
       </c>
       <c r="D289">
-        <v>2077.232212897521</v>
+        <v>581.2487893638463</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5844,13 +5844,13 @@
         <v>292</v>
       </c>
       <c r="B290">
-        <v>50834.3</v>
+        <v>50436</v>
       </c>
       <c r="C290">
-        <v>50239.90464823018</v>
+        <v>51008.29849598109</v>
       </c>
       <c r="D290">
-        <v>594.3953517698246</v>
+        <v>-572.2984959810856</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5858,13 +5858,13 @@
         <v>293</v>
       </c>
       <c r="B291">
-        <v>50436</v>
+        <v>50797.3</v>
       </c>
       <c r="C291">
-        <v>50975.93583362494</v>
+        <v>50556.74312842311</v>
       </c>
       <c r="D291">
-        <v>-539.9358336249425</v>
+        <v>240.5568715768895</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5872,13 +5872,13 @@
         <v>294</v>
       </c>
       <c r="B292">
-        <v>50797.3</v>
+        <v>50687.4</v>
       </c>
       <c r="C292">
-        <v>50534.55730609701</v>
+        <v>50562.03393512362</v>
       </c>
       <c r="D292">
-        <v>262.7426939029974</v>
+        <v>125.3660648763835</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5886,13 +5886,13 @@
         <v>295</v>
       </c>
       <c r="B293">
-        <v>50687.4</v>
+        <v>47548.1</v>
       </c>
       <c r="C293">
-        <v>50551.780242006</v>
+        <v>50959.19945601819</v>
       </c>
       <c r="D293">
-        <v>135.6197579939981</v>
+        <v>-3411.099456018193</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5900,13 +5900,13 @@
         <v>296</v>
       </c>
       <c r="B294">
-        <v>47548.1</v>
+        <v>46473.2</v>
       </c>
       <c r="C294">
-        <v>50947.01927563571</v>
+        <v>48160.72136070189</v>
       </c>
       <c r="D294">
-        <v>-3398.919275635715</v>
+        <v>-1687.521360701896</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5914,13 +5914,13 @@
         <v>297</v>
       </c>
       <c r="B295">
-        <v>46473.2</v>
+        <v>47143.8</v>
       </c>
       <c r="C295">
-        <v>48139.82569101074</v>
+        <v>46642.76190899604</v>
       </c>
       <c r="D295">
-        <v>-1666.625691010748</v>
+        <v>501.0380910039676</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5928,13 +5928,13 @@
         <v>298</v>
       </c>
       <c r="B296">
-        <v>47143.8</v>
+        <v>46150</v>
       </c>
       <c r="C296">
-        <v>46658.65646016848</v>
+        <v>46880.20651039039</v>
       </c>
       <c r="D296">
-        <v>485.1435398315225</v>
+        <v>-730.2065103903878</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5942,13 +5942,13 @@
         <v>299</v>
       </c>
       <c r="B297">
-        <v>46150</v>
+        <v>47738.3</v>
       </c>
       <c r="C297">
-        <v>46907.86863025921</v>
+        <v>46413.47357438417</v>
       </c>
       <c r="D297">
-        <v>-757.8686302592105</v>
+        <v>1324.826425615829</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5956,13 +5956,13 @@
         <v>300</v>
       </c>
       <c r="B298">
-        <v>47738.3</v>
+        <v>47304.6</v>
       </c>
       <c r="C298">
-        <v>46418.83240731171</v>
+        <v>47273.00142518559</v>
       </c>
       <c r="D298">
-        <v>1319.467592688292</v>
+        <v>31.59857481440849</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5970,13 +5970,13 @@
         <v>301</v>
       </c>
       <c r="B299">
-        <v>47304.6</v>
+        <v>46452.6</v>
       </c>
       <c r="C299">
-        <v>47295.51077514063</v>
+        <v>47223.20918821922</v>
       </c>
       <c r="D299">
-        <v>9.089224859366368</v>
+        <v>-770.6091882192195</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5984,13 +5984,13 @@
         <v>302</v>
       </c>
       <c r="B300">
-        <v>46452.6</v>
+        <v>45858.5</v>
       </c>
       <c r="C300">
-        <v>47219.78333352634</v>
+        <v>46436.82032826479</v>
       </c>
       <c r="D300">
-        <v>-767.1833335263436</v>
+        <v>-578.3203282647883</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5998,13 +5998,13 @@
         <v>303</v>
       </c>
       <c r="B301">
-        <v>45858.5</v>
+        <v>43410</v>
       </c>
       <c r="C301">
-        <v>46426.41460737272</v>
+        <v>46065.27735525588</v>
       </c>
       <c r="D301">
-        <v>-567.914607372717</v>
+        <v>-2655.277355255879</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6012,13 +6012,13 @@
         <v>304</v>
       </c>
       <c r="B302">
-        <v>43410</v>
+        <v>43124.4</v>
       </c>
       <c r="C302">
-        <v>46055.09626239893</v>
+        <v>43902.15706766979</v>
       </c>
       <c r="D302">
-        <v>-2645.096262398933</v>
+        <v>-777.7570676697869</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6026,13 +6026,13 @@
         <v>305</v>
       </c>
       <c r="B303">
-        <v>43124.4</v>
+        <v>41523.6</v>
       </c>
       <c r="C303">
-        <v>43879.98480356555</v>
+        <v>42968.40410347481</v>
       </c>
       <c r="D303">
-        <v>-755.5848035655436</v>
+        <v>-1444.804103474809</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6040,13 +6040,13 @@
         <v>306</v>
       </c>
       <c r="B304">
-        <v>41523.6</v>
+        <v>41693.2</v>
       </c>
       <c r="C304">
-        <v>42974.88154595689</v>
+        <v>41533.96379263414</v>
       </c>
       <c r="D304">
-        <v>-1451.281545956888</v>
+        <v>159.2362073658587</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6054,13 +6054,13 @@
         <v>307</v>
       </c>
       <c r="B305">
-        <v>41693.2</v>
+        <v>41862.9</v>
       </c>
       <c r="C305">
-        <v>41532.00707648695</v>
+        <v>41369.23201482953</v>
       </c>
       <c r="D305">
-        <v>161.1929235130519</v>
+        <v>493.6679851704757</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6068,13 +6068,13 @@
         <v>308</v>
       </c>
       <c r="B306">
-        <v>41862.9</v>
+        <v>41855.3</v>
       </c>
       <c r="C306">
-        <v>41382.29454521195</v>
+        <v>41741.77584819726</v>
       </c>
       <c r="D306">
-        <v>480.6054547880558</v>
+        <v>113.5241518027469</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6082,13 +6082,13 @@
         <v>309</v>
       </c>
       <c r="B307">
-        <v>41855.3</v>
+        <v>42728.8</v>
       </c>
       <c r="C307">
-        <v>41745.5476221141</v>
+        <v>41274.07335173228</v>
       </c>
       <c r="D307">
-        <v>109.7523778859031</v>
+        <v>1454.726648267722</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6096,13 +6096,13 @@
         <v>310</v>
       </c>
       <c r="B308">
-        <v>42728.8</v>
+        <v>43927.8</v>
       </c>
       <c r="C308">
-        <v>41266.52333431118</v>
+        <v>42360.47282772488</v>
       </c>
       <c r="D308">
-        <v>1462.276665688827</v>
+        <v>1567.327172275123</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6110,13 +6110,13 @@
         <v>311</v>
       </c>
       <c r="B309">
-        <v>43927.8</v>
+        <v>42550</v>
       </c>
       <c r="C309">
-        <v>42347.8561786972</v>
+        <v>43609.94554833387</v>
       </c>
       <c r="D309">
-        <v>1579.943821302804</v>
+        <v>-1059.945548333868</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6124,13 +6124,13 @@
         <v>312</v>
       </c>
       <c r="B310">
-        <v>42550</v>
+        <v>43090</v>
       </c>
       <c r="C310">
-        <v>43587.53991547506</v>
+        <v>42873.59332822243</v>
       </c>
       <c r="D310">
-        <v>-1037.539915475063</v>
+        <v>216.4066717775713</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6138,13 +6138,13 @@
         <v>313</v>
       </c>
       <c r="B311">
-        <v>43090</v>
+        <v>43111.5</v>
       </c>
       <c r="C311">
-        <v>42831.55009933058</v>
+        <v>42809.12721362789</v>
       </c>
       <c r="D311">
-        <v>258.4499006694241</v>
+        <v>302.3727863721142</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6152,13 +6152,13 @@
         <v>314</v>
       </c>
       <c r="B312">
-        <v>43111.5</v>
+        <v>43114.5</v>
       </c>
       <c r="C312">
-        <v>42789.37770857217</v>
+        <v>43087.46550956654</v>
       </c>
       <c r="D312">
-        <v>322.1222914278333</v>
+        <v>27.03449043346336</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6166,13 +6166,13 @@
         <v>315</v>
       </c>
       <c r="B313">
-        <v>43114.5</v>
+        <v>42248.1</v>
       </c>
       <c r="C313">
-        <v>43066.50288763671</v>
+        <v>43022.62295527902</v>
       </c>
       <c r="D313">
-        <v>47.99711236328585</v>
+        <v>-774.5229552790188</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6180,13 +6180,13 @@
         <v>316</v>
       </c>
       <c r="B314">
-        <v>42248.1</v>
+        <v>42383</v>
       </c>
       <c r="C314">
-        <v>43007.54665890423</v>
+        <v>42245.54110335882</v>
       </c>
       <c r="D314">
-        <v>-759.4466589042349</v>
+        <v>137.4588966411829</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6194,13 +6194,13 @@
         <v>317</v>
       </c>
       <c r="B315">
-        <v>42383</v>
+        <v>41686.2</v>
       </c>
       <c r="C315">
-        <v>42229.27185939596</v>
+        <v>42107.80477202541</v>
       </c>
       <c r="D315">
-        <v>153.728140604042</v>
+        <v>-421.6047720254137</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6208,13 +6208,13 @@
         <v>318</v>
       </c>
       <c r="B316">
-        <v>41686.2</v>
+        <v>40686.9</v>
       </c>
       <c r="C316">
-        <v>42103.8459180459</v>
+        <v>41679.91591938751</v>
       </c>
       <c r="D316">
-        <v>-417.645918045906</v>
+        <v>-993.0159193875079</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6222,13 +6222,13 @@
         <v>319</v>
       </c>
       <c r="B317">
-        <v>40686.9</v>
+        <v>36468.4</v>
       </c>
       <c r="C317">
-        <v>41670.09505118584</v>
+        <v>41195.08834122407</v>
       </c>
       <c r="D317">
-        <v>-983.1950511858377</v>
+        <v>-4726.688341224064</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6236,13 +6236,13 @@
         <v>320</v>
       </c>
       <c r="B318">
-        <v>36468.4</v>
+        <v>35067.6</v>
       </c>
       <c r="C318">
-        <v>41181.58554972138</v>
+        <v>37140.00001904182</v>
       </c>
       <c r="D318">
-        <v>-4713.185549721376</v>
+        <v>-2072.400019041823</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6250,13 +6250,13 @@
         <v>321</v>
       </c>
       <c r="B319">
-        <v>35067.6</v>
+        <v>36277.5</v>
       </c>
       <c r="C319">
-        <v>37114.1130402954</v>
+        <v>34996.44883405531</v>
       </c>
       <c r="D319">
-        <v>-2046.513040295402</v>
+        <v>1281.051165944693</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6264,13 +6264,13 @@
         <v>322</v>
       </c>
       <c r="B320">
-        <v>36277.5</v>
+        <v>36699.5</v>
       </c>
       <c r="C320">
-        <v>35017.38610670136</v>
+        <v>35692.60178701917</v>
       </c>
       <c r="D320">
-        <v>1260.113893298636</v>
+        <v>1006.898212980828</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6278,13 +6278,13 @@
         <v>323</v>
       </c>
       <c r="B321">
-        <v>36699.5</v>
+        <v>36987.8</v>
       </c>
       <c r="C321">
-        <v>35730.66124069493</v>
+        <v>35815.8924777818</v>
       </c>
       <c r="D321">
-        <v>968.838759305072</v>
+        <v>1171.9075222182</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6292,13 +6292,13 @@
         <v>324</v>
       </c>
       <c r="B322">
-        <v>36987.8</v>
+        <v>36827.6</v>
       </c>
       <c r="C322">
-        <v>35825.89650660782</v>
+        <v>36651.64466064636</v>
       </c>
       <c r="D322">
-        <v>1161.903493392179</v>
+        <v>175.9553393536407</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6306,13 +6306,13 @@
         <v>325</v>
       </c>
       <c r="B323">
-        <v>36827.6</v>
+        <v>37200.5</v>
       </c>
       <c r="C323">
-        <v>36653.91498278844</v>
+        <v>37041.09016525213</v>
       </c>
       <c r="D323">
-        <v>173.6850172115592</v>
+        <v>159.4098347478721</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6320,13 +6320,13 @@
         <v>326</v>
       </c>
       <c r="B324">
-        <v>37200.5</v>
+        <v>37737.9</v>
       </c>
       <c r="C324">
-        <v>37024.30390259737</v>
+        <v>36720.20730309683</v>
       </c>
       <c r="D324">
-        <v>176.1960974026297</v>
+        <v>1017.69269690317</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6334,13 +6334,13 @@
         <v>327</v>
       </c>
       <c r="B325">
-        <v>37737.9</v>
+        <v>38164.9</v>
       </c>
       <c r="C325">
-        <v>36707.14151646604</v>
+        <v>37360.0332308271</v>
       </c>
       <c r="D325">
-        <v>1030.758483533958</v>
+        <v>804.8667691728988</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6348,13 +6348,13 @@
         <v>328</v>
       </c>
       <c r="B326">
-        <v>38164.9</v>
+        <v>37930.1</v>
       </c>
       <c r="C326">
-        <v>37339.06291947284</v>
+        <v>38033.13154949876</v>
       </c>
       <c r="D326">
-        <v>825.8370805271625</v>
+        <v>-103.0315494987663</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6362,13 +6362,13 @@
         <v>329</v>
       </c>
       <c r="B327">
-        <v>37930.1</v>
+        <v>38512.1</v>
       </c>
       <c r="C327">
-        <v>38008.07559136281</v>
+        <v>37849.36995316821</v>
       </c>
       <c r="D327">
-        <v>-77.97559136281052</v>
+        <v>662.7300468317917</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6376,13 +6376,13 @@
         <v>330</v>
       </c>
       <c r="B328">
-        <v>38512.1</v>
+        <v>38719.9</v>
       </c>
       <c r="C328">
-        <v>37825.28906766011</v>
+        <v>38085.37062077085</v>
       </c>
       <c r="D328">
-        <v>686.8109323398894</v>
+        <v>634.5293792291559</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6390,13 +6390,13 @@
         <v>331</v>
       </c>
       <c r="B329">
-        <v>38719.9</v>
+        <v>36903.3</v>
       </c>
       <c r="C329">
-        <v>38067.80635595424</v>
+        <v>38662.41882372581</v>
       </c>
       <c r="D329">
-        <v>652.0936440457663</v>
+        <v>-1759.118823725803</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6404,13 +6404,13 @@
         <v>332</v>
       </c>
       <c r="B330">
-        <v>36903.3</v>
+        <v>37324.4</v>
       </c>
       <c r="C330">
-        <v>38642.08208382718</v>
+        <v>37227.1125248943</v>
       </c>
       <c r="D330">
-        <v>-1738.782083827173</v>
+        <v>97.28747510570247</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6418,13 +6418,13 @@
         <v>333</v>
       </c>
       <c r="B331">
-        <v>37324.4</v>
+        <v>41585.5</v>
       </c>
       <c r="C331">
-        <v>37199.79072477875</v>
+        <v>37011.63318480333</v>
       </c>
       <c r="D331">
-        <v>124.6092752212498</v>
+        <v>4573.86681519667</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6432,13 +6432,13 @@
         <v>334</v>
       </c>
       <c r="B332">
-        <v>41585.5</v>
+        <v>41419</v>
       </c>
       <c r="C332">
-        <v>37013.26724612751</v>
+        <v>40504.46195666021</v>
       </c>
       <c r="D332">
-        <v>4572.232753872493</v>
+        <v>914.538043339795</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6446,13 +6446,13 @@
         <v>335</v>
       </c>
       <c r="B333">
-        <v>41419</v>
+        <v>42419.5</v>
       </c>
       <c r="C333">
-        <v>40511.03366294759</v>
+        <v>41465.50438217266</v>
       </c>
       <c r="D333">
-        <v>907.9663370524067</v>
+        <v>953.9956178273424</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6460,13 +6460,13 @@
         <v>336</v>
       </c>
       <c r="B334">
-        <v>42419.5</v>
+        <v>43867.2</v>
       </c>
       <c r="C334">
-        <v>41433.69254641523</v>
+        <v>42240.00106943669</v>
       </c>
       <c r="D334">
-        <v>985.80745358477</v>
+        <v>1627.198930563303</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6474,13 +6474,13 @@
         <v>337</v>
       </c>
       <c r="B335">
-        <v>43867.2</v>
+        <v>44079.1</v>
       </c>
       <c r="C335">
-        <v>42220.79301276858</v>
+        <v>43605.61326846137</v>
       </c>
       <c r="D335">
-        <v>1646.406987231414</v>
+        <v>473.4867315386291</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6488,13 +6488,13 @@
         <v>338</v>
       </c>
       <c r="B336">
-        <v>44079.1</v>
+        <v>44420</v>
       </c>
       <c r="C336">
-        <v>43582.68798397697</v>
+        <v>44197.29922996403</v>
       </c>
       <c r="D336">
-        <v>496.4120160230304</v>
+        <v>222.7007700359682</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6502,13 +6502,13 @@
         <v>339</v>
       </c>
       <c r="B337">
-        <v>44420</v>
+        <v>43537.5</v>
       </c>
       <c r="C337">
-        <v>44167.41732816279</v>
+        <v>44357.92244556468</v>
       </c>
       <c r="D337">
-        <v>252.5826718372118</v>
+        <v>-820.4224455646763</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6516,13 +6516,13 @@
         <v>340</v>
       </c>
       <c r="B338">
-        <v>43537.5</v>
+        <v>42400.2</v>
       </c>
       <c r="C338">
-        <v>44342.68055876586</v>
+        <v>44129.55193943408</v>
       </c>
       <c r="D338">
-        <v>-805.18055876586</v>
+        <v>-1729.351939434084</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6530,13 +6530,13 @@
         <v>341</v>
       </c>
       <c r="B339">
-        <v>42400.2</v>
+        <v>42241</v>
       </c>
       <c r="C339">
-        <v>44111.43966181949</v>
+        <v>42723.21110062292</v>
       </c>
       <c r="D339">
-        <v>-1711.239661819491</v>
+        <v>-482.2111006229243</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6544,13 +6544,13 @@
         <v>342</v>
       </c>
       <c r="B340">
-        <v>42241</v>
+        <v>42062.6</v>
       </c>
       <c r="C340">
-        <v>42722.68782388815</v>
+        <v>42330.62835424731</v>
       </c>
       <c r="D340">
-        <v>-481.6878238881472</v>
+        <v>-268.0283542473117</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6558,13 +6558,13 @@
         <v>343</v>
       </c>
       <c r="B341">
-        <v>42062.6</v>
+        <v>42563.5</v>
       </c>
       <c r="C341">
-        <v>42348.51624736798</v>
+        <v>42194.91225002776</v>
       </c>
       <c r="D341">
-        <v>-285.9162473679826</v>
+        <v>368.587749972241</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6572,13 +6572,13 @@
         <v>344</v>
       </c>
       <c r="B342">
-        <v>42563.5</v>
+        <v>44563.1</v>
       </c>
       <c r="C342">
-        <v>42215.54808836558</v>
+        <v>42401.81419541466</v>
       </c>
       <c r="D342">
-        <v>347.9519116344163</v>
+        <v>2161.285804585343</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6586,13 +6586,13 @@
         <v>345</v>
       </c>
       <c r="B343">
-        <v>44563.1</v>
+        <v>43873.1</v>
       </c>
       <c r="C343">
-        <v>42421.7621611417</v>
+        <v>44139.00740390777</v>
       </c>
       <c r="D343">
-        <v>2141.337838858301</v>
+        <v>-265.907403907775</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6600,13 +6600,13 @@
         <v>346</v>
       </c>
       <c r="B344">
-        <v>43873.1</v>
+        <v>40543.9</v>
       </c>
       <c r="C344">
-        <v>44153.74844040518</v>
+        <v>43952.11324290658</v>
       </c>
       <c r="D344">
-        <v>-280.6484404051807</v>
+        <v>-3408.213242906575</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6614,13 +6614,13 @@
         <v>347</v>
       </c>
       <c r="B345">
-        <v>40543.9</v>
+        <v>40007.4</v>
       </c>
       <c r="C345">
-        <v>43941.02608121777</v>
+        <v>41273.96373749926</v>
       </c>
       <c r="D345">
-        <v>-3397.126081217772</v>
+        <v>-1266.563737499258</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6628,13 +6628,13 @@
         <v>348</v>
       </c>
       <c r="B346">
-        <v>40007.4</v>
+        <v>40095.8</v>
       </c>
       <c r="C346">
-        <v>41247.51119058477</v>
+        <v>40054.47481968906</v>
       </c>
       <c r="D346">
-        <v>-1240.111190584772</v>
+        <v>41.32518031094514</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6642,13 +6642,13 @@
         <v>349</v>
       </c>
       <c r="B347">
-        <v>40095.8</v>
+        <v>38400</v>
       </c>
       <c r="C347">
-        <v>40065.91444903324</v>
+        <v>40018.69226346718</v>
       </c>
       <c r="D347">
-        <v>29.88555096676282</v>
+        <v>-1618.692263467179</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6656,13 +6656,13 @@
         <v>350</v>
       </c>
       <c r="B348">
-        <v>38400</v>
+        <v>37019.2</v>
       </c>
       <c r="C348">
-        <v>40034.70733273961</v>
+        <v>38633.41438369887</v>
       </c>
       <c r="D348">
-        <v>-1634.707332739606</v>
+        <v>-1614.214383698869</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6670,13 +6670,13 @@
         <v>351</v>
       </c>
       <c r="B349">
-        <v>37019.2</v>
+        <v>38256.3</v>
       </c>
       <c r="C349">
-        <v>38633.44460514886</v>
+        <v>37427.4457423414</v>
       </c>
       <c r="D349">
-        <v>-1614.244605148866</v>
+        <v>828.8542576586042</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6684,13 +6684,13 @@
         <v>352</v>
       </c>
       <c r="B350">
-        <v>38256.3</v>
+        <v>37250.1</v>
       </c>
       <c r="C350">
-        <v>37430.2892209343</v>
+        <v>37723.96972839921</v>
       </c>
       <c r="D350">
-        <v>826.0107790657057</v>
+        <v>-473.8697283992151</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6698,13 +6698,13 @@
         <v>353</v>
       </c>
       <c r="B351">
-        <v>37250.1</v>
+        <v>38340.8</v>
       </c>
       <c r="C351">
-        <v>37743.78056738403</v>
+        <v>37567.33593588547</v>
       </c>
       <c r="D351">
-        <v>-493.6805673840354</v>
+        <v>773.4640641145379</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6712,13 +6712,13 @@
         <v>354</v>
       </c>
       <c r="B352">
-        <v>38340.8</v>
+        <v>39233.5</v>
       </c>
       <c r="C352">
-        <v>37555.61479308168</v>
+        <v>37665.01696084283</v>
       </c>
       <c r="D352">
-        <v>785.1852069183224</v>
+        <v>1568.483039157174</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6726,13 +6726,13 @@
         <v>355</v>
       </c>
       <c r="B353">
-        <v>39233.5</v>
+        <v>39120.2</v>
       </c>
       <c r="C353">
-        <v>37652.20245914857</v>
+        <v>39036.82958937192</v>
       </c>
       <c r="D353">
-        <v>1581.297540851432</v>
+        <v>83.37041062807839</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6740,13 +6740,13 @@
         <v>356</v>
       </c>
       <c r="B354">
-        <v>39120.2</v>
+        <v>37709.1</v>
       </c>
       <c r="C354">
-        <v>39020.27713571326</v>
+        <v>39252.96789796904</v>
       </c>
       <c r="D354">
-        <v>99.92286428673833</v>
+        <v>-1543.867897969038</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6754,13 +6754,13 @@
         <v>357</v>
       </c>
       <c r="B355">
-        <v>37709.1</v>
+        <v>43194.7</v>
       </c>
       <c r="C355">
-        <v>39225.31050967888</v>
+        <v>38037.36580298727</v>
       </c>
       <c r="D355">
-        <v>-1516.21050967888</v>
+        <v>5157.334197012722</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6768,13 +6768,13 @@
         <v>358</v>
       </c>
       <c r="B356">
-        <v>43194.7</v>
+        <v>44427.9</v>
       </c>
       <c r="C356">
-        <v>38002.69646302157</v>
+        <v>42070.00264537998</v>
       </c>
       <c r="D356">
-        <v>5192.003536978431</v>
+        <v>2357.897354620021</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6782,13 +6782,13 @@
         <v>359</v>
       </c>
       <c r="B357">
-        <v>44427.9</v>
+        <v>43922.5</v>
       </c>
       <c r="C357">
-        <v>42064.14385020439</v>
+        <v>44380.08289281913</v>
       </c>
       <c r="D357">
-        <v>2363.756149795612</v>
+        <v>-457.5828928191331</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6796,13 +6796,13 @@
         <v>360</v>
       </c>
       <c r="B358">
-        <v>43922.5</v>
+        <v>42465</v>
       </c>
       <c r="C358">
-        <v>44326.33847743197</v>
+        <v>44308.99194686921</v>
       </c>
       <c r="D358">
-        <v>-403.8384774319711</v>
+        <v>-1843.99194686921</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6810,13 +6810,13 @@
         <v>361</v>
       </c>
       <c r="B359">
-        <v>42465</v>
+        <v>39137.5</v>
       </c>
       <c r="C359">
-        <v>44258.0476155467</v>
+        <v>42835.34249115465</v>
       </c>
       <c r="D359">
-        <v>-1793.047615546704</v>
+        <v>-3697.842491154646</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6824,13 +6824,13 @@
         <v>362</v>
       </c>
       <c r="B360">
-        <v>39137.5</v>
+        <v>39396.4</v>
       </c>
       <c r="C360">
-        <v>42797.10576822169</v>
+        <v>39843.49646987353</v>
       </c>
       <c r="D360">
-        <v>-3659.605768221692</v>
+        <v>-447.0964698735261</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6838,13 +6838,13 @@
         <v>363</v>
       </c>
       <c r="B361">
-        <v>39396.4</v>
+        <v>38416.3</v>
       </c>
       <c r="C361">
-        <v>39813.43208934099</v>
+        <v>39254.7367332282</v>
       </c>
       <c r="D361">
-        <v>-417.032089340988</v>
+        <v>-838.4367332281981</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6852,13 +6852,13 @@
         <v>364</v>
       </c>
       <c r="B362">
-        <v>38416.3</v>
+        <v>38024</v>
       </c>
       <c r="C362">
-        <v>39279.49281207658</v>
+        <v>38624.72327457872</v>
       </c>
       <c r="D362">
-        <v>-863.1928120765806</v>
+        <v>-600.7232745787187</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6866,13 +6866,13 @@
         <v>365</v>
       </c>
       <c r="B363">
-        <v>38024</v>
+        <v>38752.6</v>
       </c>
       <c r="C363">
-        <v>38642.17484957195</v>
+        <v>38118.69477564914</v>
       </c>
       <c r="D363">
-        <v>-618.1748495719512</v>
+        <v>633.9052243508559</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6880,13 +6880,13 @@
         <v>366</v>
       </c>
       <c r="B364">
-        <v>38752.6</v>
+        <v>41965.3</v>
       </c>
       <c r="C364">
-        <v>38140.03261659987</v>
+        <v>38631.10249229576</v>
       </c>
       <c r="D364">
-        <v>612.5673834001282</v>
+        <v>3334.197507704244</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6894,13 +6894,13 @@
         <v>367</v>
       </c>
       <c r="B365">
-        <v>41965.3</v>
+        <v>39435.8</v>
       </c>
       <c r="C365">
-        <v>38653.22533226162</v>
+        <v>41329.94289163232</v>
       </c>
       <c r="D365">
-        <v>3312.074667738387</v>
+        <v>-1894.14289163232</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6908,13 +6908,13 @@
         <v>368</v>
       </c>
       <c r="B366">
-        <v>39435.8</v>
+        <v>38732.1</v>
       </c>
       <c r="C366">
-        <v>41340.62626380098</v>
+        <v>39882.85020974098</v>
       </c>
       <c r="D366">
-        <v>-1904.826263800976</v>
+        <v>-1150.750209740982</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6922,13 +6922,13 @@
         <v>369</v>
       </c>
       <c r="B367">
-        <v>38732.1</v>
+        <v>38785</v>
       </c>
       <c r="C367">
-        <v>39845.53570164737</v>
+        <v>38976.77314634382</v>
       </c>
       <c r="D367">
-        <v>-1113.435701647373</v>
+        <v>-191.7731463438249</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6936,13 +6936,13 @@
         <v>370</v>
       </c>
       <c r="B368">
-        <v>38785</v>
+        <v>37788.4</v>
       </c>
       <c r="C368">
-        <v>38966.05249765841</v>
+        <v>38922.09308002595</v>
       </c>
       <c r="D368">
-        <v>-181.0524976584129</v>
+        <v>-1133.693080025951</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6950,13 +6950,13 @@
         <v>371</v>
       </c>
       <c r="B369">
-        <v>37788.4</v>
+        <v>39689.2</v>
       </c>
       <c r="C369">
-        <v>38922.75530427738</v>
+        <v>38066.27229436801</v>
       </c>
       <c r="D369">
-        <v>-1134.355304277378</v>
+        <v>1622.927705631984</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6964,13 +6964,13 @@
         <v>372</v>
       </c>
       <c r="B370">
-        <v>39689.2</v>
+        <v>39325.4</v>
       </c>
       <c r="C370">
-        <v>38059.62827634145</v>
+        <v>39221.35359063296</v>
       </c>
       <c r="D370">
-        <v>1629.571723658548</v>
+        <v>104.046409367038</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6978,13 +6978,13 @@
         <v>373</v>
       </c>
       <c r="B371">
-        <v>39325.4</v>
+        <v>41124</v>
       </c>
       <c r="C371">
-        <v>39230.02489993456</v>
+        <v>39190.33684280771</v>
       </c>
       <c r="D371">
-        <v>95.37510006543744</v>
+        <v>1933.663157192292</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6992,13 +6992,13 @@
         <v>374</v>
       </c>
       <c r="B372">
-        <v>41124</v>
+        <v>40945.6</v>
       </c>
       <c r="C372">
-        <v>39177.68938188729</v>
+        <v>40734.82731699842</v>
       </c>
       <c r="D372">
-        <v>1946.310618112708</v>
+        <v>210.7726830015818</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7006,13 +7006,13 @@
         <v>375</v>
       </c>
       <c r="B373">
-        <v>40945.6</v>
+        <v>41775.1</v>
       </c>
       <c r="C373">
-        <v>40721.20134242627</v>
+        <v>41030.29010612302</v>
       </c>
       <c r="D373">
-        <v>224.398657573729</v>
+        <v>744.8098938769763</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7020,13 +7020,13 @@
         <v>376</v>
       </c>
       <c r="B374">
-        <v>41775.1</v>
+        <v>42218</v>
       </c>
       <c r="C374">
-        <v>41003.57584635061</v>
+        <v>41596.10422587433</v>
       </c>
       <c r="D374">
-        <v>771.5241536493922</v>
+        <v>621.8957741256745</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7034,13 +7034,13 @@
         <v>377</v>
       </c>
       <c r="B375">
-        <v>42218</v>
+        <v>41289</v>
       </c>
       <c r="C375">
-        <v>41573.92895918369</v>
+        <v>42168.97244784425</v>
       </c>
       <c r="D375">
-        <v>644.0710408163141</v>
+        <v>-879.9724478442513</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7048,13 +7048,13 @@
         <v>378</v>
       </c>
       <c r="B376">
-        <v>41289</v>
+        <v>41014.3</v>
       </c>
       <c r="C376">
-        <v>42147.60372466317</v>
+        <v>41520.26014537309</v>
       </c>
       <c r="D376">
-        <v>-858.6037246631749</v>
+        <v>-505.9601453730866</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7062,13 +7062,13 @@
         <v>379</v>
       </c>
       <c r="B377">
-        <v>41014.3</v>
+        <v>42377.8</v>
       </c>
       <c r="C377">
-        <v>41495.14906690212</v>
+        <v>41069.14329438293</v>
       </c>
       <c r="D377">
-        <v>-480.8490669021121</v>
+        <v>1308.656705617075</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7076,13 +7076,13 @@
         <v>380</v>
       </c>
       <c r="B378">
-        <v>42377.8</v>
+        <v>42910.3</v>
       </c>
       <c r="C378">
-        <v>41060.89601946255</v>
+        <v>42312.68946014831</v>
       </c>
       <c r="D378">
-        <v>1316.903980537449</v>
+        <v>597.6105398516956</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7090,13 +7090,13 @@
         <v>381</v>
       </c>
       <c r="B379">
-        <v>42910.3</v>
+        <v>43989</v>
       </c>
       <c r="C379">
-        <v>42311.999800552</v>
+        <v>42751.66079915376</v>
       </c>
       <c r="D379">
-        <v>598.3001994480001</v>
+        <v>1237.33920084624</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7104,13 +7104,13 @@
         <v>382</v>
       </c>
       <c r="B380">
-        <v>43989</v>
+        <v>44315.5</v>
       </c>
       <c r="C380">
-        <v>42744.65007898721</v>
+        <v>43810.65489882953</v>
       </c>
       <c r="D380">
-        <v>1244.349921012792</v>
+        <v>504.8451011704747</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7118,13 +7118,13 @@
         <v>383</v>
       </c>
       <c r="B381">
-        <v>44315.5</v>
+        <v>44548</v>
       </c>
       <c r="C381">
-        <v>43804.48254909116</v>
+        <v>44470.85581104236</v>
       </c>
       <c r="D381">
-        <v>511.0174509088392</v>
+        <v>77.14418895763811</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7132,13 +7132,13 @@
         <v>384</v>
       </c>
       <c r="B382">
-        <v>44548</v>
+        <v>46855.2</v>
       </c>
       <c r="C382">
-        <v>44449.28064228164</v>
+        <v>44632.44035279282</v>
       </c>
       <c r="D382">
-        <v>98.71935771836434</v>
+        <v>2222.759647207175</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7146,13 +7146,13 @@
         <v>385</v>
       </c>
       <c r="B383">
-        <v>46855.2</v>
+        <v>47137.9</v>
       </c>
       <c r="C383">
-        <v>44620.62339856036</v>
+        <v>46434.79839301665</v>
       </c>
       <c r="D383">
-        <v>2234.576601439636</v>
+        <v>703.1016069833495</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7160,13 +7160,13 @@
         <v>386</v>
       </c>
       <c r="B384">
-        <v>47137.9</v>
+        <v>47440.2</v>
       </c>
       <c r="C384">
-        <v>46431.84145084757</v>
+        <v>47510.11950361021</v>
       </c>
       <c r="D384">
-        <v>706.0585491524325</v>
+        <v>-69.91950361021736</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7174,13 +7174,13 @@
         <v>387</v>
       </c>
       <c r="B385">
-        <v>47440.2</v>
+        <v>47059.3</v>
       </c>
       <c r="C385">
-        <v>47478.10044247151</v>
+        <v>47667.50314524406</v>
       </c>
       <c r="D385">
-        <v>-37.90044247150945</v>
+        <v>-608.2031452440569</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7188,13 +7188,13 @@
         <v>388</v>
       </c>
       <c r="B386">
-        <v>47059.3</v>
+        <v>45524.3</v>
       </c>
       <c r="C386">
-        <v>47652.64375706066</v>
+        <v>47273.15698287805</v>
       </c>
       <c r="D386">
-        <v>-593.343757060662</v>
+        <v>-1748.856982878046</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7202,13 +7202,13 @@
         <v>389</v>
       </c>
       <c r="B387">
-        <v>45524.3</v>
+        <v>46312</v>
       </c>
       <c r="C387">
-        <v>47262.37617813406</v>
+        <v>46067.80486437582</v>
       </c>
       <c r="D387">
-        <v>-1738.076178134055</v>
+        <v>244.1951356241771</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7216,13 +7216,13 @@
         <v>390</v>
       </c>
       <c r="B388">
-        <v>46312</v>
+        <v>45828.6</v>
       </c>
       <c r="C388">
-        <v>46057.23302237317</v>
+        <v>46019.29412109056</v>
       </c>
       <c r="D388">
-        <v>254.7669776268303</v>
+        <v>-190.694121090557</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7230,13 +7230,13 @@
         <v>391</v>
       </c>
       <c r="B389">
-        <v>45828.6</v>
+        <v>46423.4</v>
       </c>
       <c r="C389">
-        <v>46031.61304156511</v>
+        <v>46193.38735702538</v>
       </c>
       <c r="D389">
-        <v>-203.0130415651147</v>
+        <v>230.0126429746233</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7244,13 +7244,13 @@
         <v>392</v>
       </c>
       <c r="B390">
-        <v>46423.4</v>
+        <v>46617.1</v>
       </c>
       <c r="C390">
-        <v>46197.26388848471</v>
+        <v>46518.81834769485</v>
       </c>
       <c r="D390">
-        <v>226.1361115152904</v>
+        <v>98.28165230515151</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7258,13 +7258,13 @@
         <v>393</v>
       </c>
       <c r="B391">
-        <v>46617.1</v>
+        <v>45479.2</v>
       </c>
       <c r="C391">
-        <v>46530.83668386517</v>
+        <v>46400.48087065038</v>
       </c>
       <c r="D391">
-        <v>86.26331613482762</v>
+        <v>-921.2808706503856</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7272,13 +7272,13 @@
         <v>394</v>
       </c>
       <c r="B392">
-        <v>45479.2</v>
+        <v>43179.4</v>
       </c>
       <c r="C392">
-        <v>46403.53697708127</v>
+        <v>45897.69844857327</v>
       </c>
       <c r="D392">
-        <v>-924.3369770812715</v>
+        <v>-2718.298448573267</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7286,13 +7286,13 @@
         <v>395</v>
       </c>
       <c r="B393">
-        <v>43179.4</v>
+        <v>43469.8</v>
       </c>
       <c r="C393">
-        <v>45888.80258786358</v>
+        <v>43727.56194998792</v>
       </c>
       <c r="D393">
-        <v>-2709.40258786358</v>
+        <v>-257.761949987922</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7300,13 +7300,13 @@
         <v>396</v>
       </c>
       <c r="B394">
-        <v>43469.8</v>
+        <v>42282.6</v>
       </c>
       <c r="C394">
-        <v>43716.25400819679</v>
+        <v>43383.25267168652</v>
       </c>
       <c r="D394">
-        <v>-246.4540081967862</v>
+        <v>-1100.652671686526</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7314,13 +7314,13 @@
         <v>397</v>
       </c>
       <c r="B395">
-        <v>42282.6</v>
+        <v>42764</v>
       </c>
       <c r="C395">
-        <v>43399.44451099297</v>
+        <v>42600.41982265684</v>
       </c>
       <c r="D395">
-        <v>-1116.844510992967</v>
+        <v>163.5801773431594</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7328,13 +7328,13 @@
         <v>398</v>
       </c>
       <c r="B396">
-        <v>42764</v>
+        <v>42160</v>
       </c>
       <c r="C396">
-        <v>42600.42492812398</v>
+        <v>42567.43748790625</v>
       </c>
       <c r="D396">
-        <v>163.5750718760246</v>
+        <v>-407.4374879062525</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7342,13 +7342,13 @@
         <v>399</v>
       </c>
       <c r="B397">
-        <v>42160</v>
+        <v>39534.6</v>
       </c>
       <c r="C397">
-        <v>42581.71648977045</v>
+        <v>42308.79163204125</v>
       </c>
       <c r="D397">
-        <v>-421.7164897704497</v>
+        <v>-2774.191632041249</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7356,13 +7356,13 @@
         <v>400</v>
       </c>
       <c r="B398">
-        <v>39534.6</v>
+        <v>40078.7</v>
       </c>
       <c r="C398">
-        <v>42304.8178761201</v>
+        <v>40039.27033071019</v>
       </c>
       <c r="D398">
-        <v>-2770.217876120099</v>
+        <v>39.42966928980604</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7370,13 +7370,13 @@
         <v>401</v>
       </c>
       <c r="B399">
-        <v>40078.7</v>
+        <v>41150</v>
       </c>
       <c r="C399">
-        <v>40019.45633125916</v>
+        <v>39916.42766754757</v>
       </c>
       <c r="D399">
-        <v>59.24366874083353</v>
+        <v>1233.57233245243</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7384,13 +7384,13 @@
         <v>402</v>
       </c>
       <c r="B400">
-        <v>41150</v>
+        <v>39954.9</v>
       </c>
       <c r="C400">
-        <v>39923.90545766009</v>
+        <v>40802.60733594393</v>
       </c>
       <c r="D400">
-        <v>1226.09454233991</v>
+        <v>-847.707335943931</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7398,13 +7398,13 @@
         <v>403</v>
       </c>
       <c r="B401">
-        <v>39954.9</v>
+        <v>40569.9</v>
       </c>
       <c r="C401">
-        <v>40799.00784838494</v>
+        <v>40158.12561110395</v>
       </c>
       <c r="D401">
-        <v>-844.1078483849342</v>
+        <v>411.7743888960467</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7412,13 +7412,13 @@
         <v>404</v>
       </c>
       <c r="B402">
-        <v>40569.9</v>
+        <v>40381</v>
       </c>
       <c r="C402">
-        <v>40132.97654028866</v>
+        <v>40392.06273817446</v>
       </c>
       <c r="D402">
-        <v>436.9234597113464</v>
+        <v>-11.06273817445617</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7426,13 +7426,13 @@
         <v>405</v>
       </c>
       <c r="B403">
-        <v>40381</v>
+        <v>39681.2</v>
       </c>
       <c r="C403">
-        <v>40380.75686459432</v>
+        <v>40314.14277927662</v>
       </c>
       <c r="D403">
-        <v>0.2431354056752753</v>
+        <v>-632.9427792766219</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7440,13 +7440,13 @@
         <v>406</v>
       </c>
       <c r="B404">
-        <v>39681.2</v>
+        <v>40811.3</v>
       </c>
       <c r="C404">
-        <v>40294.52773780708</v>
+        <v>39814.46695103263</v>
       </c>
       <c r="D404">
-        <v>-613.3277378070779</v>
+        <v>996.8330489673681</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7454,13 +7454,13 @@
         <v>407</v>
       </c>
       <c r="B405">
-        <v>40811.3</v>
+        <v>41506.2</v>
       </c>
       <c r="C405">
-        <v>39790.30990266791</v>
+        <v>40299.52250864729</v>
       </c>
       <c r="D405">
-        <v>1020.990097332091</v>
+        <v>1206.677491352704</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7468,13 +7468,13 @@
         <v>408</v>
       </c>
       <c r="B406">
-        <v>41506.2</v>
+        <v>41369.9</v>
       </c>
       <c r="C406">
-        <v>40283.63085118885</v>
+        <v>41356.31306736209</v>
       </c>
       <c r="D406">
-        <v>1222.569148811148</v>
+        <v>13.58693263791065</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7482,13 +7482,13 @@
         <v>409</v>
       </c>
       <c r="B407">
-        <v>41369.9</v>
+        <v>40484.1</v>
       </c>
       <c r="C407">
-        <v>41333.24497337631</v>
+        <v>41460.7491278759</v>
       </c>
       <c r="D407">
-        <v>36.65502662369545</v>
+        <v>-976.6491278758986</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7496,13 +7496,13 @@
         <v>410</v>
       </c>
       <c r="B408">
-        <v>40484.1</v>
+        <v>39715.9</v>
       </c>
       <c r="C408">
-        <v>41430.22113442022</v>
+        <v>40877.12006705656</v>
       </c>
       <c r="D408">
-        <v>-946.1211344202238</v>
+        <v>-1161.220067056558</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7510,13 +7510,13 @@
         <v>411</v>
       </c>
       <c r="B409">
-        <v>39715.9</v>
+        <v>39435.6</v>
       </c>
       <c r="C409">
-        <v>40843.02176342948</v>
+        <v>39804.67561875237</v>
       </c>
       <c r="D409">
-        <v>-1127.121763429481</v>
+        <v>-369.075618752373</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7524,13 +7524,13 @@
         <v>412</v>
       </c>
       <c r="B410">
-        <v>39435.6</v>
+        <v>39467.9</v>
       </c>
       <c r="C410">
-        <v>39786.68039665825</v>
+        <v>39482.9772219052</v>
       </c>
       <c r="D410">
-        <v>-351.0803966582534</v>
+        <v>-15.07722190519416</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7538,13 +7538,13 @@
         <v>413</v>
       </c>
       <c r="B411">
-        <v>39467.9</v>
+        <v>40438.5</v>
       </c>
       <c r="C411">
-        <v>39478.27747668963</v>
+        <v>39416.09399886653</v>
       </c>
       <c r="D411">
-        <v>-10.37747668963129</v>
+        <v>1022.406001133466</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7552,13 +7552,13 @@
         <v>414</v>
       </c>
       <c r="B412">
-        <v>40438.5</v>
+        <v>38121.7</v>
       </c>
       <c r="C412">
-        <v>39416.39328512215</v>
+        <v>39921.68702060089</v>
       </c>
       <c r="D412">
-        <v>1022.106714877853</v>
+        <v>-1799.987020600893</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7566,13 +7566,13 @@
         <v>415</v>
       </c>
       <c r="B413">
-        <v>38121.7</v>
+        <v>39249.9</v>
       </c>
       <c r="C413">
-        <v>39921.38135048762</v>
+        <v>38578.10987036256</v>
       </c>
       <c r="D413">
-        <v>-1799.681350487619</v>
+        <v>671.7901296374403</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7580,13 +7580,13 @@
         <v>416</v>
       </c>
       <c r="B414">
-        <v>39249.9</v>
+        <v>39752.8</v>
       </c>
       <c r="C414">
-        <v>38553.89761678604</v>
+        <v>38910.61795774361</v>
       </c>
       <c r="D414">
-        <v>696.0023832139632</v>
+        <v>842.1820422563906</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7594,13 +7594,13 @@
         <v>417</v>
       </c>
       <c r="B415">
-        <v>39752.8</v>
+        <v>38599.5</v>
       </c>
       <c r="C415">
-        <v>38919.86800157058</v>
+        <v>39655.85101838378</v>
       </c>
       <c r="D415">
-        <v>832.931998429427</v>
+        <v>-1056.351018383779</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7608,13 +7608,13 @@
         <v>418</v>
       </c>
       <c r="B416">
-        <v>38599.5</v>
+        <v>37660.8</v>
       </c>
       <c r="C416">
-        <v>39648.98512498778</v>
+        <v>38765.24318261311</v>
       </c>
       <c r="D416">
-        <v>-1049.485124987783</v>
+        <v>-1104.443182613104</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7622,13 +7622,13 @@
         <v>419</v>
       </c>
       <c r="B417">
-        <v>37660.8</v>
+        <v>38474.1</v>
       </c>
       <c r="C417">
-        <v>38747.66239278999</v>
+        <v>37842.23859327831</v>
       </c>
       <c r="D417">
-        <v>-1086.86239278999</v>
+        <v>631.8614067216913</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7636,13 +7636,13 @@
         <v>420</v>
       </c>
       <c r="B418">
-        <v>38474.1</v>
+        <v>38499.9</v>
       </c>
       <c r="C418">
-        <v>37836.13894737588</v>
+        <v>38198.1075434066</v>
       </c>
       <c r="D418">
-        <v>637.9610526241231</v>
+        <v>301.7924565934009</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7650,13 +7650,13 @@
         <v>421</v>
       </c>
       <c r="B419">
-        <v>38499.9</v>
+        <v>37727.9</v>
       </c>
       <c r="C419">
-        <v>38203.58018934922</v>
+        <v>38493.53273340288</v>
       </c>
       <c r="D419">
-        <v>296.3198106507843</v>
+        <v>-765.6327334028829</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7664,13 +7664,13 @@
         <v>422</v>
       </c>
       <c r="B420">
-        <v>37727.9</v>
+        <v>39682.8</v>
       </c>
       <c r="C420">
-        <v>38486.14483390056</v>
+        <v>37843.17459828735</v>
       </c>
       <c r="D420">
-        <v>-758.2448339005568</v>
+        <v>1839.625401712648</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7678,13 +7678,13 @@
         <v>423</v>
       </c>
       <c r="B421">
-        <v>39682.8</v>
+        <v>36542.6</v>
       </c>
       <c r="C421">
-        <v>37832.24972838885</v>
+        <v>39245.14168721787</v>
       </c>
       <c r="D421">
-        <v>1850.550271611151</v>
+        <v>-2702.541687217868</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7692,13 +7692,13 @@
         <v>424</v>
       </c>
       <c r="B422">
-        <v>36542.6</v>
+        <v>36017.4</v>
       </c>
       <c r="C422">
-        <v>39245.70328641505</v>
+        <v>36979.50652378061</v>
       </c>
       <c r="D422">
-        <v>-2703.103286415055</v>
+        <v>-962.1065237806106</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7706,13 +7706,13 @@
         <v>425</v>
       </c>
       <c r="B423">
-        <v>36017.4</v>
+        <v>35463</v>
       </c>
       <c r="C423">
-        <v>36941.46313528775</v>
+        <v>35903.51958785905</v>
       </c>
       <c r="D423">
-        <v>-924.0631352877463</v>
+        <v>-440.5195878590457</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7720,13 +7720,13 @@
         <v>426</v>
       </c>
       <c r="B424">
-        <v>35463</v>
+        <v>34024.2</v>
       </c>
       <c r="C424">
-        <v>35904.44282203354</v>
+        <v>35340.22372816229</v>
       </c>
       <c r="D424">
-        <v>-441.4428220335394</v>
+        <v>-1316.023728162298</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7734,13 +7734,13 @@
         <v>427</v>
       </c>
       <c r="B425">
-        <v>34024.2</v>
+        <v>30075.5</v>
       </c>
       <c r="C425">
-        <v>35343.71771690427</v>
+        <v>34165.14997982775</v>
       </c>
       <c r="D425">
-        <v>-1319.517716904273</v>
+        <v>-4089.649979827751</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7748,13 +7748,13 @@
         <v>428</v>
       </c>
       <c r="B426">
-        <v>30075.5</v>
+        <v>30999.9</v>
       </c>
       <c r="C426">
-        <v>34163.55081822231</v>
+        <v>30853.95577934661</v>
       </c>
       <c r="D426">
-        <v>-4088.050818222313</v>
+        <v>145.9442206533931</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7762,13 +7762,13 @@
         <v>429</v>
       </c>
       <c r="B427">
-        <v>30999.9</v>
+        <v>28994.1</v>
       </c>
       <c r="C427">
-        <v>30839.3331647616</v>
+        <v>30887.04143156149</v>
       </c>
       <c r="D427">
-        <v>160.5668352384055</v>
+        <v>-1892.941431561492</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7776,13 +7776,13 @@
         <v>430</v>
       </c>
       <c r="B428">
-        <v>28994.1</v>
+        <v>28943.4</v>
       </c>
       <c r="C428">
-        <v>30915.57472740681</v>
+        <v>29234.45209217857</v>
       </c>
       <c r="D428">
-        <v>-1921.47472740681</v>
+        <v>-291.0520921785719</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7790,13 +7790,13 @@
         <v>431</v>
       </c>
       <c r="B429">
-        <v>28943.4</v>
+        <v>29222.6</v>
       </c>
       <c r="C429">
-        <v>29230.7188055111</v>
+        <v>28174.40991900818</v>
       </c>
       <c r="D429">
-        <v>-287.3188055110986</v>
+        <v>1048.190080991822</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7804,13 +7804,13 @@
         <v>432</v>
       </c>
       <c r="B430">
-        <v>29222.6</v>
+        <v>30048.2</v>
       </c>
       <c r="C430">
-        <v>28186.14170015018</v>
+        <v>29302.77941658975</v>
       </c>
       <c r="D430">
-        <v>1036.458299849819</v>
+        <v>745.4205834102504</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7818,13 +7818,13 @@
         <v>433</v>
       </c>
       <c r="B431">
-        <v>30048.2</v>
+        <v>31296.9</v>
       </c>
       <c r="C431">
-        <v>29310.37377530876</v>
+        <v>29608.80048818544</v>
       </c>
       <c r="D431">
-        <v>737.8262246912418</v>
+        <v>1688.099511814558</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7832,13 +7832,13 @@
         <v>434</v>
       </c>
       <c r="B432">
-        <v>31296.9</v>
+        <v>29826.1</v>
       </c>
       <c r="C432">
-        <v>29612.0101996109</v>
+        <v>30775.79233915985</v>
       </c>
       <c r="D432">
-        <v>1684.889800389104</v>
+        <v>-949.6923391598466</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7846,13 +7846,13 @@
         <v>435</v>
       </c>
       <c r="B433">
-        <v>29826.1</v>
+        <v>30408.3</v>
       </c>
       <c r="C433">
-        <v>30767.75617948747</v>
+        <v>29920.79750115614</v>
       </c>
       <c r="D433">
-        <v>-941.656179487476</v>
+        <v>487.5024988438636</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7860,13 +7860,13 @@
         <v>436</v>
       </c>
       <c r="B434">
-        <v>30408.3</v>
+        <v>28664.3</v>
       </c>
       <c r="C434">
-        <v>29887.07178055313</v>
+        <v>30164.16007536797</v>
       </c>
       <c r="D434">
-        <v>521.2282194468717</v>
+        <v>-1499.860075367968</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7874,13 +7874,13 @@
         <v>437</v>
       </c>
       <c r="B435">
-        <v>28664.3</v>
+        <v>30280.7</v>
       </c>
       <c r="C435">
-        <v>30149.58406794538</v>
+        <v>29010.20753960022</v>
       </c>
       <c r="D435">
-        <v>-1485.28406794538</v>
+        <v>1270.492460399782</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7888,13 +7888,13 @@
         <v>438</v>
       </c>
       <c r="B436">
-        <v>30280.7</v>
+        <v>29167.5</v>
       </c>
       <c r="C436">
-        <v>28979.555925398</v>
+        <v>29842.56964181177</v>
       </c>
       <c r="D436">
-        <v>1301.144074602002</v>
+        <v>-675.0696418117732</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7902,13 +7902,13 @@
         <v>439</v>
       </c>
       <c r="B437">
-        <v>29167.5</v>
+        <v>29403.5</v>
       </c>
       <c r="C437">
-        <v>29840.31711777446</v>
+        <v>29314.37125048984</v>
       </c>
       <c r="D437">
-        <v>-672.8171177744625</v>
+        <v>89.12874951015692</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7916,13 +7916,13 @@
         <v>440</v>
       </c>
       <c r="B438">
-        <v>29403.5</v>
+        <v>30268</v>
       </c>
       <c r="C438">
-        <v>29290.78413747124</v>
+        <v>29226.25327743223</v>
       </c>
       <c r="D438">
-        <v>112.7158625287593</v>
+        <v>1041.746722567768</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7930,13 +7930,13 @@
         <v>441</v>
       </c>
       <c r="B439">
-        <v>30268</v>
+        <v>29070</v>
       </c>
       <c r="C439">
-        <v>29223.20203571501</v>
+        <v>29968.16445947798</v>
       </c>
       <c r="D439">
-        <v>1044.797964284986</v>
+        <v>-898.1644594779791</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -7944,13 +7944,13 @@
         <v>442</v>
       </c>
       <c r="B440">
-        <v>29070</v>
+        <v>29631.8</v>
       </c>
       <c r="C440">
-        <v>29964.74825946804</v>
+        <v>29286.03961448721</v>
       </c>
       <c r="D440">
-        <v>-894.7482594680441</v>
+        <v>345.7603855127927</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7958,13 +7958,13 @@
         <v>443</v>
       </c>
       <c r="B441">
-        <v>29631.8</v>
+        <v>29520.3</v>
       </c>
       <c r="C441">
-        <v>29265.94171023075</v>
+        <v>29349.17199170854</v>
       </c>
       <c r="D441">
-        <v>365.858289769254</v>
+        <v>171.1280082914564</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -7972,13 +7972,13 @@
         <v>444</v>
       </c>
       <c r="B442">
-        <v>29520.3</v>
+        <v>29186.9</v>
       </c>
       <c r="C442">
-        <v>29349.25794328827</v>
+        <v>29557.12704331058</v>
       </c>
       <c r="D442">
-        <v>171.0420567117253</v>
+        <v>-370.2270433105805</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7986,13 +7986,13 @@
         <v>445</v>
       </c>
       <c r="B443">
-        <v>29186.9</v>
+        <v>28580</v>
       </c>
       <c r="C443">
-        <v>29550.26511073376</v>
+        <v>28872.45289931323</v>
       </c>
       <c r="D443">
-        <v>-363.3651107337537</v>
+        <v>-292.4528993132262</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8000,13 +8000,13 @@
         <v>446</v>
       </c>
       <c r="B444">
-        <v>28580</v>
+        <v>29020</v>
       </c>
       <c r="C444">
-        <v>28865.65600272864</v>
+        <v>28621.54218148686</v>
       </c>
       <c r="D444">
-        <v>-285.6560027286432</v>
+        <v>398.4578185131395</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8014,13 +8014,13 @@
         <v>447</v>
       </c>
       <c r="B445">
-        <v>29020</v>
+        <v>29450.4</v>
       </c>
       <c r="C445">
-        <v>28616.48836421605</v>
+        <v>28863.93533109433</v>
       </c>
       <c r="D445">
-        <v>403.511635783947</v>
+        <v>586.4646689056754</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8028,13 +8028,13 @@
         <v>448</v>
       </c>
       <c r="B446">
-        <v>29450.4</v>
+        <v>31711.7</v>
       </c>
       <c r="C446">
-        <v>28871.83651260256</v>
+        <v>29257.03799883241</v>
       </c>
       <c r="D446">
-        <v>578.563487397445</v>
+        <v>2454.662001167588</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8042,13 +8042,13 @@
         <v>449</v>
       </c>
       <c r="B447">
-        <v>31711.7</v>
+        <v>31780.9</v>
       </c>
       <c r="C447">
-        <v>29260.30052823865</v>
+        <v>31219.87533016858</v>
       </c>
       <c r="D447">
-        <v>2451.399471761346</v>
+        <v>561.0246698314222</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8056,13 +8056,13 @@
         <v>450</v>
       </c>
       <c r="B448">
-        <v>31780.9</v>
+        <v>29790</v>
       </c>
       <c r="C448">
-        <v>31219.50596741677</v>
+        <v>31820.68175163386</v>
       </c>
       <c r="D448">
-        <v>561.3940325832336</v>
+        <v>-2030.681751633863</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8070,13 +8070,13 @@
         <v>451</v>
       </c>
       <c r="B449">
-        <v>29790</v>
+        <v>30427</v>
       </c>
       <c r="C449">
-        <v>31798.95072706416</v>
+        <v>30178.15362859431</v>
       </c>
       <c r="D449">
-        <v>-2008.950727064159</v>
+        <v>248.8463714056852</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8084,13 +8084,13 @@
         <v>452</v>
       </c>
       <c r="B450">
-        <v>30427</v>
+        <v>29676.4</v>
       </c>
       <c r="C450">
-        <v>30150.04653121139</v>
+        <v>30424.88775501447</v>
       </c>
       <c r="D450">
-        <v>276.953468788608</v>
+        <v>-748.4877550144665</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8098,13 +8098,13 @@
         <v>453</v>
       </c>
       <c r="B451">
-        <v>29676.4</v>
+        <v>29850</v>
       </c>
       <c r="C451">
-        <v>30426.66017841694</v>
+        <v>29773.33377793476</v>
       </c>
       <c r="D451">
-        <v>-750.2601784169419</v>
+        <v>76.66622206523607</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8112,13 +8112,13 @@
         <v>454</v>
       </c>
       <c r="B452">
-        <v>29850</v>
+        <v>29907.6</v>
       </c>
       <c r="C452">
-        <v>29768.8964858626</v>
+        <v>29737.03894456261</v>
       </c>
       <c r="D452">
-        <v>81.103514137405</v>
+        <v>170.5610554373925</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8126,13 +8126,13 @@
         <v>455</v>
       </c>
       <c r="B453">
-        <v>29907.6</v>
+        <v>31356.3</v>
       </c>
       <c r="C453">
-        <v>29747.06872891316</v>
+        <v>29828.95486655939</v>
       </c>
       <c r="D453">
-        <v>160.531271086842</v>
+        <v>1527.345133440609</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8140,13 +8140,13 @@
         <v>456</v>
       </c>
       <c r="B454">
-        <v>31356.3</v>
+        <v>31098.6</v>
       </c>
       <c r="C454">
-        <v>29837.59567253194</v>
+        <v>31054.557349257</v>
       </c>
       <c r="D454">
-        <v>1518.704327468062</v>
+        <v>44.04265074300201</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8154,13 +8154,13 @@
         <v>457</v>
       </c>
       <c r="B455">
-        <v>31098.6</v>
+        <v>30190.8</v>
       </c>
       <c r="C455">
-        <v>31062.64261002812</v>
+        <v>30752.91620730319</v>
       </c>
       <c r="D455">
-        <v>35.957389971878</v>
+        <v>-562.1162073031919</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8168,13 +8168,13 @@
         <v>458</v>
       </c>
       <c r="B456">
-        <v>30190.8</v>
+        <v>30075.3</v>
       </c>
       <c r="C456">
-        <v>30740.99408524413</v>
+        <v>30356.69407838653</v>
       </c>
       <c r="D456">
-        <v>-550.194085244133</v>
+        <v>-281.3940783865291</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8182,13 +8182,13 @@
         <v>459</v>
       </c>
       <c r="B457">
-        <v>30075.3</v>
+        <v>29054.9</v>
       </c>
       <c r="C457">
-        <v>30344.05449573369</v>
+        <v>30142.21730111689</v>
       </c>
       <c r="D457">
-        <v>-268.7544957336941</v>
+        <v>-1087.317301116891</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8196,13 +8196,13 @@
         <v>460</v>
       </c>
       <c r="B458">
-        <v>29054.9</v>
+        <v>28380.2</v>
       </c>
       <c r="C458">
-        <v>30140.7159030502</v>
+        <v>29267.28585155752</v>
       </c>
       <c r="D458">
-        <v>-1085.815903050203</v>
+        <v>-887.0858515575201</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8210,13 +8210,13 @@
         <v>461</v>
       </c>
       <c r="B459">
-        <v>28380.2</v>
+        <v>26569.6</v>
       </c>
       <c r="C459">
-        <v>29261.04269753443</v>
+        <v>28494.31684383911</v>
       </c>
       <c r="D459">
-        <v>-880.8426975344264</v>
+        <v>-1924.716843839116</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8224,13 +8224,13 @@
         <v>462</v>
       </c>
       <c r="B460">
-        <v>26569.6</v>
+        <v>22460.1</v>
       </c>
       <c r="C460">
-        <v>28497.61915575793</v>
+        <v>26911.57199870811</v>
       </c>
       <c r="D460">
-        <v>-1928.019155757927</v>
+        <v>-4451.471998708112</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8238,13 +8238,13 @@
         <v>463</v>
       </c>
       <c r="B461">
-        <v>22460.1</v>
+        <v>22111</v>
       </c>
       <c r="C461">
-        <v>26912.43491380007</v>
+        <v>23237.86189310376</v>
       </c>
       <c r="D461">
-        <v>-4452.334913800067</v>
+        <v>-1126.861893103764</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8252,13 +8252,13 @@
         <v>464</v>
       </c>
       <c r="B462">
-        <v>22111</v>
+        <v>22559.6</v>
       </c>
       <c r="C462">
-        <v>23225.11337146665</v>
+        <v>21907.3474555782</v>
       </c>
       <c r="D462">
-        <v>-1114.113371466647</v>
+        <v>652.2525444217972</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8266,13 +8266,13 @@
         <v>465</v>
       </c>
       <c r="B463">
-        <v>22559.6</v>
+        <v>20366.3</v>
       </c>
       <c r="C463">
-        <v>21941.1943435088</v>
+        <v>21891.62863879808</v>
       </c>
       <c r="D463">
-        <v>618.4056564911989</v>
+        <v>-1525.328638798081</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8280,13 +8280,13 @@
         <v>466</v>
       </c>
       <c r="B464">
-        <v>20366.3</v>
+        <v>20432.9</v>
       </c>
       <c r="C464">
-        <v>21920.38400078503</v>
+        <v>20737.00254039816</v>
       </c>
       <c r="D464">
-        <v>-1554.084000785035</v>
+        <v>-304.1025403981548</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8294,13 +8294,13 @@
         <v>467</v>
       </c>
       <c r="B465">
-        <v>20432.9</v>
+        <v>18950</v>
       </c>
       <c r="C465">
-        <v>20741.99088320392</v>
+        <v>20408.60675355063</v>
       </c>
       <c r="D465">
-        <v>-309.0908832039167</v>
+        <v>-1458.60675355063</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8308,13 +8308,13 @@
         <v>468</v>
       </c>
       <c r="B466">
-        <v>18950</v>
+        <v>20555.5</v>
       </c>
       <c r="C466">
-        <v>20428.96176582486</v>
+        <v>18899.4144158558</v>
       </c>
       <c r="D466">
-        <v>-1478.961765824857</v>
+        <v>1656.085584144195</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8322,13 +8322,13 @@
         <v>469</v>
       </c>
       <c r="B467">
-        <v>20555.5</v>
+        <v>20550</v>
       </c>
       <c r="C467">
-        <v>18893.92762693508</v>
+        <v>19847.55910292728</v>
       </c>
       <c r="D467">
-        <v>1661.572373064922</v>
+        <v>702.4408970727236</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8336,13 +8336,13 @@
         <v>470</v>
       </c>
       <c r="B468">
-        <v>20550</v>
+        <v>20701.9</v>
       </c>
       <c r="C468">
-        <v>19857.79120643732</v>
+        <v>20365.48768455534</v>
       </c>
       <c r="D468">
-        <v>692.2087935626805</v>
+        <v>336.4123154446643</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8350,13 +8350,13 @@
         <v>471</v>
       </c>
       <c r="B469">
-        <v>20701.9</v>
+        <v>19951.3</v>
       </c>
       <c r="C469">
-        <v>20349.92703963592</v>
+        <v>20768.98689577902</v>
       </c>
       <c r="D469">
-        <v>351.9729603640844</v>
+        <v>-817.6868957790175</v>
       </c>
     </row>
   </sheetData>

--- a/data/df_compare.xlsx
+++ b/data/df_compare.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="473">
   <si>
     <t>actual_price</t>
   </si>
@@ -1430,6 +1430,9 @@
   </si>
   <si>
     <t>2022-06-22</t>
+  </si>
+  <si>
+    <t>2022-06-23</t>
   </si>
 </sst>
 </file>
@@ -1787,7 +1790,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D469"/>
+  <dimension ref="A1:D470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8359,6 +8362,20 @@
         <v>-817.6868957790175</v>
       </c>
     </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B470">
+        <v>21086.7</v>
+      </c>
+      <c r="C470">
+        <v>20042.93071764526</v>
+      </c>
+      <c r="D470">
+        <v>1043.769282354744</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/df_compare.xlsx
+++ b/data/df_compare.xlsx
@@ -28,9 +28,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>2021-03-12</t>
-  </si>
-  <si>
     <t>2021-03-13</t>
   </si>
   <si>
@@ -1433,6 +1430,9 @@
   </si>
   <si>
     <t>2022-06-23</t>
+  </si>
+  <si>
+    <t>2022-06-24</t>
   </si>
 </sst>
 </file>
@@ -1815,13 +1815,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>57234</v>
+        <v>61174.9</v>
       </c>
       <c r="C2">
-        <v>57394.56442292337</v>
+        <v>57226.5410589237</v>
       </c>
       <c r="D2">
-        <v>-160.5644229233731</v>
+        <v>3948.358941076302</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1829,13 +1829,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>61174.9</v>
+        <v>59001.1</v>
       </c>
       <c r="C3">
-        <v>57259.32350730352</v>
+        <v>60444.38270114979</v>
       </c>
       <c r="D3">
-        <v>3915.576492696484</v>
+        <v>-1443.282701149794</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1843,13 +1843,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>59001.1</v>
+        <v>55600</v>
       </c>
       <c r="C4">
-        <v>60462.74037026041</v>
+        <v>59964.80169408963</v>
       </c>
       <c r="D4">
-        <v>-1461.640370260408</v>
+        <v>-4364.801694089634</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1857,13 +1857,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>55600</v>
+        <v>56891.1</v>
       </c>
       <c r="C5">
-        <v>59986.67485735155</v>
+        <v>56776.90674065787</v>
       </c>
       <c r="D5">
-        <v>-4386.674857351551</v>
+        <v>114.1932593421297</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1871,13 +1871,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>56891.1</v>
+        <v>58933</v>
       </c>
       <c r="C6">
-        <v>56778.01890820675</v>
+        <v>56069.14629329334</v>
       </c>
       <c r="D6">
-        <v>113.0810917932467</v>
+        <v>2863.853706706665</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1885,13 +1885,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>58933</v>
+        <v>57640.9</v>
       </c>
       <c r="C7">
-        <v>56057.88665354744</v>
+        <v>57932.05909691757</v>
       </c>
       <c r="D7">
-        <v>2875.113346452563</v>
+        <v>-291.1590969175668</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1899,13 +1899,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>57640.9</v>
+        <v>58101.8</v>
       </c>
       <c r="C8">
-        <v>57924.96411108025</v>
+        <v>58266.50142929374</v>
       </c>
       <c r="D8">
-        <v>-284.0641110802462</v>
+        <v>-164.7014292937383</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1913,13 +1913,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>58101.8</v>
+        <v>58091.6</v>
       </c>
       <c r="C9">
-        <v>58263.15479254891</v>
+        <v>58162.53770607099</v>
       </c>
       <c r="D9">
-        <v>-161.3547925489111</v>
+        <v>-70.9377060709885</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1927,13 +1927,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>58091.6</v>
+        <v>57378.4</v>
       </c>
       <c r="C10">
-        <v>58153.02339099444</v>
+        <v>58536.99655159435</v>
       </c>
       <c r="D10">
-        <v>-61.4233909944378</v>
+        <v>-1158.596551594346</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1941,13 +1941,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>57378.4</v>
+        <v>54095.1</v>
       </c>
       <c r="C11">
-        <v>58529.5697118153</v>
+        <v>57428.62870493051</v>
       </c>
       <c r="D11">
-        <v>-1151.169711815302</v>
+        <v>-3333.528704930512</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1955,13 +1955,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>54095.1</v>
+        <v>54351.3</v>
       </c>
       <c r="C12">
-        <v>57428.11955621289</v>
+        <v>55133.92659050896</v>
       </c>
       <c r="D12">
-        <v>-3333.019556212887</v>
+        <v>-782.6265905089531</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1969,13 +1969,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>54351.3</v>
+        <v>52293.8</v>
       </c>
       <c r="C13">
-        <v>55130.64033774828</v>
+        <v>54438.77764294279</v>
       </c>
       <c r="D13">
-        <v>-779.3403377482755</v>
+        <v>-2144.977642942787</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1983,13 +1983,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>52293.8</v>
+        <v>51314.9</v>
       </c>
       <c r="C14">
-        <v>54423.89296783836</v>
+        <v>53297.3059847957</v>
       </c>
       <c r="D14">
-        <v>-2130.092967838355</v>
+        <v>-1982.405984795703</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1997,13 +1997,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>51314.9</v>
+        <v>55062.2</v>
       </c>
       <c r="C15">
-        <v>53282.13073779002</v>
+        <v>51561.85476612096</v>
       </c>
       <c r="D15">
-        <v>-1967.230737790022</v>
+        <v>3500.345233879038</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2011,13 +2011,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>55062.2</v>
+        <v>55852.4</v>
       </c>
       <c r="C16">
-        <v>51549.21070687773</v>
+        <v>54176.22984845174</v>
       </c>
       <c r="D16">
-        <v>3512.989293122271</v>
+        <v>1676.170151548264</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2025,13 +2025,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>55852.4</v>
+        <v>55782</v>
       </c>
       <c r="C17">
-        <v>54162.95551235916</v>
+        <v>55676.47791259593</v>
       </c>
       <c r="D17">
-        <v>1689.444487640845</v>
+        <v>105.5220874040679</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2039,13 +2039,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>55782</v>
+        <v>57624.2</v>
       </c>
       <c r="C18">
-        <v>55687.11972228703</v>
+        <v>55792.67146566539</v>
       </c>
       <c r="D18">
-        <v>94.88027771297493</v>
+        <v>1831.528534334604</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2053,13 +2053,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>57624.2</v>
+        <v>58781</v>
       </c>
       <c r="C19">
-        <v>55810.56294239478</v>
+        <v>57335.63900699682</v>
       </c>
       <c r="D19">
-        <v>1813.637057605214</v>
+        <v>1445.360993003182</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2067,13 +2067,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>58781</v>
+        <v>58786.2</v>
       </c>
       <c r="C20">
-        <v>57355.36118333018</v>
+        <v>58667.8420955975</v>
       </c>
       <c r="D20">
-        <v>1425.638816669816</v>
+        <v>118.3579044024955</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2081,13 +2081,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>58786.2</v>
+        <v>58732.9</v>
       </c>
       <c r="C21">
-        <v>58694.77521267385</v>
+        <v>58741.31687088966</v>
       </c>
       <c r="D21">
-        <v>91.42478732614836</v>
+        <v>-8.416870889654092</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2095,13 +2095,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>58732.9</v>
+        <v>59020.7</v>
       </c>
       <c r="C22">
-        <v>58773.43675435465</v>
+        <v>58880.25959916084</v>
       </c>
       <c r="D22">
-        <v>-40.53675435465266</v>
+        <v>140.4404008391575</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2109,13 +2109,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>59020.7</v>
+        <v>57099</v>
       </c>
       <c r="C23">
-        <v>58904.56904252339</v>
+        <v>59301.57767320579</v>
       </c>
       <c r="D23">
-        <v>116.1309574766055</v>
+        <v>-2202.577673205786</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2123,13 +2123,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>57099</v>
+        <v>58195</v>
       </c>
       <c r="C24">
-        <v>59317.5219866955</v>
+        <v>57821.17999189664</v>
       </c>
       <c r="D24">
-        <v>-2218.521986695501</v>
+        <v>373.8200081033574</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2137,13 +2137,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>58195</v>
+        <v>59120</v>
       </c>
       <c r="C25">
-        <v>57829.41233399289</v>
+        <v>57950.04017893475</v>
       </c>
       <c r="D25">
-        <v>365.5876660071081</v>
+        <v>1169.959821065248</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2151,13 +2151,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>59120</v>
+        <v>58017.1</v>
       </c>
       <c r="C26">
-        <v>57948.09326733503</v>
+        <v>58733.16592613174</v>
       </c>
       <c r="D26">
-        <v>1171.906732664967</v>
+        <v>-716.0659261317414</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2165,13 +2165,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>58017.1</v>
+        <v>55928.5</v>
       </c>
       <c r="C27">
-        <v>58736.73160129788</v>
+        <v>58307.84519392089</v>
       </c>
       <c r="D27">
-        <v>-719.6316012978859</v>
+        <v>-2379.34519392089</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2179,13 +2179,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>55928.5</v>
+        <v>58036.9</v>
       </c>
       <c r="C28">
-        <v>58311.49056516471</v>
+        <v>56537.14072824529</v>
       </c>
       <c r="D28">
-        <v>-2382.990565164713</v>
+        <v>1499.759271754716</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2193,13 +2193,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>58036.9</v>
+        <v>58110</v>
       </c>
       <c r="C29">
-        <v>56535.69421939246</v>
+        <v>57569.2387562372</v>
       </c>
       <c r="D29">
-        <v>1501.205780607539</v>
+        <v>540.7612437627977</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2207,13 +2207,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>58110</v>
+        <v>59775.6</v>
       </c>
       <c r="C30">
-        <v>57558.01495660757</v>
+        <v>58242.73056746041</v>
       </c>
       <c r="D30">
-        <v>551.9850433924294</v>
+        <v>1532.869432539585</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2221,13 +2221,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>59775.6</v>
+        <v>59956</v>
       </c>
       <c r="C31">
-        <v>58243.61351124782</v>
+        <v>59796.33389318385</v>
       </c>
       <c r="D31">
-        <v>1531.986488752176</v>
+        <v>159.6661068161484</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2235,13 +2235,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>59956</v>
+        <v>59823.7</v>
       </c>
       <c r="C32">
-        <v>59798.48645737066</v>
+        <v>60073.05725514647</v>
       </c>
       <c r="D32">
-        <v>157.5135426293418</v>
+        <v>-249.3572551464749</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2249,13 +2249,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>59823.7</v>
+        <v>63587.2</v>
       </c>
       <c r="C33">
-        <v>60081.67895705017</v>
+        <v>60190.96304443403</v>
       </c>
       <c r="D33">
-        <v>-257.9789570501744</v>
+        <v>3396.236955565968</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2263,13 +2263,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>63587.2</v>
+        <v>62969</v>
       </c>
       <c r="C34">
-        <v>60199.64409298127</v>
+        <v>62948.87505829256</v>
       </c>
       <c r="D34">
-        <v>3387.55590701873</v>
+        <v>20.12494170744321</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2277,13 +2277,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>62969</v>
+        <v>63243</v>
       </c>
       <c r="C35">
-        <v>62958.34956239091</v>
+        <v>63289.11626404137</v>
       </c>
       <c r="D35">
-        <v>10.65043760908884</v>
+        <v>-46.11626404136769</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2291,13 +2291,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>63243</v>
+        <v>61455</v>
       </c>
       <c r="C36">
-        <v>63315.61690179072</v>
+        <v>63326.53623501226</v>
       </c>
       <c r="D36">
-        <v>-72.6169017907232</v>
+        <v>-1871.53623501226</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2305,13 +2305,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>61455</v>
+        <v>60085.2</v>
       </c>
       <c r="C37">
-        <v>63343.19344344886</v>
+        <v>61879.84403916841</v>
       </c>
       <c r="D37">
-        <v>-1888.193443448865</v>
+        <v>-1794.644039168415</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2319,13 +2319,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>60085.2</v>
+        <v>56239.8</v>
       </c>
       <c r="C38">
-        <v>61896.46206714778</v>
+        <v>60735.06012310149</v>
       </c>
       <c r="D38">
-        <v>-1811.262067147778</v>
+        <v>-4495.260123101485</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2333,13 +2333,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>56239.8</v>
+        <v>55720</v>
       </c>
       <c r="C39">
-        <v>60733.15150408522</v>
+        <v>56114.21767368718</v>
       </c>
       <c r="D39">
-        <v>-4493.351504085222</v>
+        <v>-394.217673687177</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2347,13 +2347,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>55720</v>
+        <v>56500</v>
       </c>
       <c r="C40">
-        <v>56115.50880929406</v>
+        <v>55857.05681773429</v>
       </c>
       <c r="D40">
-        <v>-395.5088092940568</v>
+        <v>642.9431822657061</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2361,13 +2361,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>56500</v>
+        <v>53815.2</v>
       </c>
       <c r="C41">
-        <v>55833.0626819194</v>
+        <v>55955.12003772365</v>
       </c>
       <c r="D41">
-        <v>666.9373180805997</v>
+        <v>-2139.920037723656</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2375,13 +2375,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>53815.2</v>
+        <v>51730</v>
       </c>
       <c r="C42">
-        <v>55935.17979942291</v>
+        <v>54451.7474066384</v>
       </c>
       <c r="D42">
-        <v>-2119.979799422916</v>
+        <v>-2721.747406638402</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2389,13 +2389,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>51730</v>
+        <v>51178.7</v>
       </c>
       <c r="C43">
-        <v>54435.89877981576</v>
+        <v>52288.05582347958</v>
       </c>
       <c r="D43">
-        <v>-2705.898779815761</v>
+        <v>-1109.355823479578</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2403,13 +2403,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>51178.7</v>
+        <v>50093.4</v>
       </c>
       <c r="C44">
-        <v>52269.12203452128</v>
+        <v>50535.30598991798</v>
       </c>
       <c r="D44">
-        <v>-1090.422034521282</v>
+        <v>-441.9059899179774</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2417,13 +2417,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>50093.4</v>
+        <v>49106.5</v>
       </c>
       <c r="C45">
-        <v>50525.61080673011</v>
+        <v>49948.29963715951</v>
       </c>
       <c r="D45">
-        <v>-432.2108067301087</v>
+        <v>-841.7996371595073</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2431,13 +2431,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>49106.5</v>
+        <v>54051.9</v>
       </c>
       <c r="C46">
-        <v>49938.07981612458</v>
+        <v>48845.96993942562</v>
       </c>
       <c r="D46">
-        <v>-831.5798161245766</v>
+        <v>5205.930060574385</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2445,13 +2445,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>54051.9</v>
+        <v>55078.7</v>
       </c>
       <c r="C47">
-        <v>48840.86803132624</v>
+        <v>52835.50291677756</v>
       </c>
       <c r="D47">
-        <v>5211.031968673757</v>
+        <v>2243.197083222432</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2459,13 +2459,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>55078.7</v>
+        <v>54899.3</v>
       </c>
       <c r="C48">
-        <v>52832.0119411296</v>
+        <v>54786.89047915619</v>
       </c>
       <c r="D48">
-        <v>2246.688058870393</v>
+        <v>112.4095208438084</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2473,13 +2473,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>54899.3</v>
+        <v>53579.6</v>
       </c>
       <c r="C49">
-        <v>54811.31504968117</v>
+        <v>55080.2115619868</v>
       </c>
       <c r="D49">
-        <v>87.98495031883067</v>
+        <v>-1500.6115619868</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2487,13 +2487,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>53579.6</v>
+        <v>57780</v>
       </c>
       <c r="C50">
-        <v>55110.04111171109</v>
+        <v>53719.67317211282</v>
       </c>
       <c r="D50">
-        <v>-1530.441111711094</v>
+        <v>4060.326827887184</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2501,13 +2501,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>57780</v>
+        <v>57859.2</v>
       </c>
       <c r="C51">
-        <v>53749.91851434024</v>
+        <v>56741.02864608332</v>
       </c>
       <c r="D51">
-        <v>4030.081485659757</v>
+        <v>1118.171353916681</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2515,13 +2515,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>57859.2</v>
+        <v>56618.5</v>
       </c>
       <c r="C52">
-        <v>56761.5614734547</v>
+        <v>57946.853684926</v>
       </c>
       <c r="D52">
-        <v>1097.638526545299</v>
+        <v>-1328.353684925998</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2529,13 +2529,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>56618.5</v>
+        <v>57193.5</v>
       </c>
       <c r="C53">
-        <v>57983.21562123139</v>
+        <v>56912.18288221673</v>
       </c>
       <c r="D53">
-        <v>-1364.715621231386</v>
+        <v>281.3171177832701</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2543,13 +2543,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>57193.5</v>
+        <v>53239.4</v>
       </c>
       <c r="C54">
-        <v>56939.71266850852</v>
+        <v>57521.3059459556</v>
       </c>
       <c r="D54">
-        <v>253.7873314914759</v>
+        <v>-4281.905945955594</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2557,13 +2557,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>53239.4</v>
+        <v>57497.1</v>
       </c>
       <c r="C55">
-        <v>57531.21008787269</v>
+        <v>54175.79678929751</v>
       </c>
       <c r="D55">
-        <v>-4291.810087872691</v>
+        <v>3321.303210702485</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2571,13 +2571,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>57497.1</v>
+        <v>56421.1</v>
       </c>
       <c r="C56">
-        <v>54184.01133686793</v>
+        <v>56569.46288467062</v>
       </c>
       <c r="D56">
-        <v>3313.088663132068</v>
+        <v>-148.3628846706197</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2585,13 +2585,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>56421.1</v>
+        <v>57383</v>
       </c>
       <c r="C57">
-        <v>56554.06598231106</v>
+        <v>56719.71412903769</v>
       </c>
       <c r="D57">
-        <v>-132.9659823110633</v>
+        <v>663.2858709623106</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2599,13 +2599,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>57383</v>
+        <v>58953.8</v>
       </c>
       <c r="C58">
-        <v>56722.54974601802</v>
+        <v>57289.63365113002</v>
       </c>
       <c r="D58">
-        <v>660.4502539819805</v>
+        <v>1664.166348869985</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2613,13 +2613,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>58953.8</v>
+        <v>58293.1</v>
       </c>
       <c r="C59">
-        <v>57283.68411745835</v>
+        <v>58741.68264572814</v>
       </c>
       <c r="D59">
-        <v>1670.11588254165</v>
+        <v>-448.5826457281437</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2627,13 +2627,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>58293.1</v>
+        <v>55888.1</v>
       </c>
       <c r="C60">
-        <v>58739.92350113898</v>
+        <v>58201.3767428943</v>
       </c>
       <c r="D60">
-        <v>-446.8235011389843</v>
+        <v>-2313.276742894297</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2641,13 +2641,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>55888.1</v>
+        <v>56747.5</v>
       </c>
       <c r="C61">
-        <v>58208.20571561583</v>
+        <v>56272.24520141137</v>
       </c>
       <c r="D61">
-        <v>-2320.105715615828</v>
+        <v>475.254798588634</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2655,13 +2655,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>56747.5</v>
+        <v>49502.7</v>
       </c>
       <c r="C62">
-        <v>56273.39846375096</v>
+        <v>56356.07031587342</v>
       </c>
       <c r="D62">
-        <v>474.1015362490434</v>
+        <v>-6853.370315873428</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2669,13 +2669,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>49502.7</v>
+        <v>49675.2</v>
       </c>
       <c r="C63">
-        <v>56348.96384693708</v>
+        <v>51210.47119499173</v>
       </c>
       <c r="D63">
-        <v>-6846.263846937087</v>
+        <v>-1535.271194991728</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2683,13 +2683,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>49675.2</v>
+        <v>49899</v>
       </c>
       <c r="C64">
-        <v>51198.44341267672</v>
+        <v>48921.1022990268</v>
       </c>
       <c r="D64">
-        <v>-1523.243412676718</v>
+        <v>977.8977009732043</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2697,13 +2697,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>49899</v>
+        <v>46771.1</v>
       </c>
       <c r="C65">
-        <v>48893.81803406551</v>
+        <v>49954.03424772067</v>
       </c>
       <c r="D65">
-        <v>1005.181965934491</v>
+        <v>-3182.934247720674</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2711,13 +2711,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>46771.1</v>
+        <v>46482.4</v>
       </c>
       <c r="C66">
-        <v>49925.44875806748</v>
+        <v>47525.4169522404</v>
       </c>
       <c r="D66">
-        <v>-3154.348758067477</v>
+        <v>-1043.016952240396</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2725,13 +2725,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>46482.4</v>
+        <v>43551.8</v>
       </c>
       <c r="C67">
-        <v>47503.27448599393</v>
+        <v>46457.4487017564</v>
       </c>
       <c r="D67">
-        <v>-1020.874485993925</v>
+        <v>-2905.648701756392</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2739,13 +2739,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>43551.8</v>
+        <v>42895.2</v>
       </c>
       <c r="C68">
-        <v>46431.22715250854</v>
+        <v>43797.86979554614</v>
       </c>
       <c r="D68">
-        <v>-2879.427152508535</v>
+        <v>-902.6697955461423</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2753,13 +2753,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>42895.2</v>
+        <v>36742.3</v>
       </c>
       <c r="C69">
-        <v>43787.28292445399</v>
+        <v>43239.86645397352</v>
       </c>
       <c r="D69">
-        <v>-892.0829244539927</v>
+        <v>-6497.566453973515</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2767,13 +2767,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>36742.3</v>
+        <v>40614.6</v>
       </c>
       <c r="C70">
-        <v>43219.37555351135</v>
+        <v>36603.9613009202</v>
       </c>
       <c r="D70">
-        <v>-6477.075553511342</v>
+        <v>4010.638699079798</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2781,13 +2781,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>40614.6</v>
+        <v>37331.7</v>
       </c>
       <c r="C71">
-        <v>36611.6754235251</v>
+        <v>39539.7556424753</v>
       </c>
       <c r="D71">
-        <v>4002.924576474899</v>
+        <v>-2208.055642475301</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2795,13 +2795,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>37331.7</v>
+        <v>37468.3</v>
       </c>
       <c r="C72">
-        <v>39512.95701969173</v>
+        <v>37414.63314789391</v>
       </c>
       <c r="D72">
-        <v>-2181.257019691737</v>
+        <v>53.66685210609285</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2809,13 +2809,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>37468.3</v>
+        <v>34718.8</v>
       </c>
       <c r="C73">
-        <v>37416.62695930965</v>
+        <v>37070.06775668473</v>
       </c>
       <c r="D73">
-        <v>51.67304069035163</v>
+        <v>-2351.267756684727</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2823,13 +2823,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>34718.8</v>
+        <v>38833.8</v>
       </c>
       <c r="C74">
-        <v>37062.50612970939</v>
+        <v>34510.63701696455</v>
       </c>
       <c r="D74">
-        <v>-2343.70612970939</v>
+        <v>4323.16298303545</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2837,13 +2837,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>38833.8</v>
+        <v>38388.1</v>
       </c>
       <c r="C75">
-        <v>34515.46025039718</v>
+        <v>37884.79676483537</v>
       </c>
       <c r="D75">
-        <v>4318.339749602819</v>
+        <v>503.3032351646325</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2851,13 +2851,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>38388.1</v>
+        <v>39283.9</v>
       </c>
       <c r="C76">
-        <v>37878.95108085277</v>
+        <v>38198.11388725269</v>
       </c>
       <c r="D76">
-        <v>509.1489191472283</v>
+        <v>1085.786112747308</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2865,13 +2865,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>39283.9</v>
+        <v>38516.4</v>
       </c>
       <c r="C77">
-        <v>38219.8486616239</v>
+        <v>39245.93808208621</v>
       </c>
       <c r="D77">
-        <v>1064.051338376106</v>
+        <v>-729.5380820862119</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2879,13 +2879,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>38516.4</v>
+        <v>35683.9</v>
       </c>
       <c r="C78">
-        <v>39265.52403216195</v>
+        <v>38537.21052097823</v>
       </c>
       <c r="D78">
-        <v>-749.124032161948</v>
+        <v>-2853.31052097823</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2893,13 +2893,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>35683.9</v>
+        <v>34616.6</v>
       </c>
       <c r="C79">
-        <v>38558.83928556181</v>
+        <v>36071.49630229783</v>
       </c>
       <c r="D79">
-        <v>-2874.939285561813</v>
+        <v>-1454.896302297835</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2907,13 +2907,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>34616.6</v>
+        <v>35673.8</v>
       </c>
       <c r="C80">
-        <v>36089.29641756692</v>
+        <v>34830.62174066613</v>
       </c>
       <c r="D80">
-        <v>-1472.69641756692</v>
+        <v>843.1782593338721</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2921,13 +2921,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>35673.8</v>
+        <v>37303.8</v>
       </c>
       <c r="C81">
-        <v>34828.24584920978</v>
+        <v>35152.91902609379</v>
       </c>
       <c r="D81">
-        <v>845.5541507902235</v>
+        <v>2150.880973906213</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2935,13 +2935,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>37303.8</v>
+        <v>36676.3</v>
       </c>
       <c r="C82">
-        <v>35146.03400452767</v>
+        <v>36464.26335753594</v>
       </c>
       <c r="D82">
-        <v>2157.765995472335</v>
+        <v>212.036642464067</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2949,13 +2949,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>36676.3</v>
+        <v>37565.3</v>
       </c>
       <c r="C83">
-        <v>36460.97538544395</v>
+        <v>36624.57276234694</v>
       </c>
       <c r="D83">
-        <v>215.3246145560552</v>
+        <v>940.72723765306</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2963,13 +2963,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>37565.3</v>
+        <v>39196.6</v>
       </c>
       <c r="C84">
-        <v>36628.29645609556</v>
+        <v>37217.10773297978</v>
       </c>
       <c r="D84">
-        <v>937.0035439044441</v>
+        <v>1979.492267020214</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2977,13 +2977,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>39196.6</v>
+        <v>36847.7</v>
       </c>
       <c r="C85">
-        <v>37217.15561164008</v>
+        <v>38704.63174596321</v>
       </c>
       <c r="D85">
-        <v>1979.444388359923</v>
+        <v>-1856.931745963215</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2991,13 +2991,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>36847.7</v>
+        <v>35534.6</v>
       </c>
       <c r="C86">
-        <v>38707.8546468218</v>
+        <v>37046.28161269563</v>
       </c>
       <c r="D86">
-        <v>-1860.1546468218</v>
+        <v>-1511.681612695633</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3005,13 +3005,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>35534.6</v>
+        <v>35789</v>
       </c>
       <c r="C87">
-        <v>37057.54199775116</v>
+        <v>35824.31655197081</v>
       </c>
       <c r="D87">
-        <v>-1522.941997751164</v>
+        <v>-35.31655197081272</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3019,13 +3019,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>35789</v>
+        <v>33587.6</v>
       </c>
       <c r="C88">
-        <v>35819.7190196141</v>
+        <v>35707.4217720663</v>
       </c>
       <c r="D88">
-        <v>-30.71901961410185</v>
+        <v>-2119.821772066301</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3033,13 +3033,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>33587.6</v>
+        <v>33420</v>
       </c>
       <c r="C89">
-        <v>35694.60681689056</v>
+        <v>34127.39705292086</v>
       </c>
       <c r="D89">
-        <v>-2107.006816890564</v>
+        <v>-707.39705292086</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3047,13 +3047,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>33420</v>
+        <v>37396.4</v>
       </c>
       <c r="C90">
-        <v>34112.66693132714</v>
+        <v>32888.4243449831</v>
       </c>
       <c r="D90">
-        <v>-692.6669313271414</v>
+        <v>4507.975655016904</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3061,13 +3061,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>37396.4</v>
+        <v>36678.4</v>
       </c>
       <c r="C91">
-        <v>32874.17939383801</v>
+        <v>36148.49829914901</v>
       </c>
       <c r="D91">
-        <v>4522.220606161987</v>
+        <v>529.9017008509909</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3075,13 +3075,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>36678.4</v>
+        <v>37322.2</v>
       </c>
       <c r="C92">
-        <v>36130.44027822212</v>
+        <v>36837.51107801904</v>
       </c>
       <c r="D92">
-        <v>547.9597217778864</v>
+        <v>484.6889219809527</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3089,13 +3089,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>37322.2</v>
+        <v>35544.9</v>
       </c>
       <c r="C93">
-        <v>36839.15106641018</v>
+        <v>37052.51970787198</v>
       </c>
       <c r="D93">
-        <v>483.0489335898164</v>
+        <v>-1507.619707871978</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3103,13 +3103,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>35544.9</v>
+        <v>39034.6</v>
       </c>
       <c r="C94">
-        <v>37053.29673337284</v>
+        <v>35751.54123080146</v>
       </c>
       <c r="D94">
-        <v>-1508.396733372843</v>
+        <v>3283.058769198535</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3117,13 +3117,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>39034.6</v>
+        <v>40530.8</v>
       </c>
       <c r="C95">
-        <v>35755.81777254352</v>
+        <v>38095.77444476567</v>
       </c>
       <c r="D95">
-        <v>3278.782227456475</v>
+        <v>2435.02555523433</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3131,13 +3131,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>40530.8</v>
+        <v>40166.6</v>
       </c>
       <c r="C96">
-        <v>38089.92662450619</v>
+        <v>40337.91304906789</v>
       </c>
       <c r="D96">
-        <v>2440.873375493815</v>
+        <v>-171.3130490678959</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3145,13 +3145,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>40166.6</v>
+        <v>38337.1</v>
       </c>
       <c r="C97">
-        <v>40349.78068859541</v>
+        <v>40393.72617971376</v>
       </c>
       <c r="D97">
-        <v>-183.1806885954065</v>
+        <v>-2056.626179713763</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3159,13 +3159,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>38337.1</v>
+        <v>38078.2</v>
       </c>
       <c r="C98">
-        <v>40405.71992730701</v>
+        <v>38844.33309097838</v>
       </c>
       <c r="D98">
-        <v>-2068.619927307016</v>
+        <v>-766.1330909783865</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3173,13 +3173,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>38078.2</v>
+        <v>35824</v>
       </c>
       <c r="C99">
-        <v>38847.06326448891</v>
+        <v>38286.74220870872</v>
       </c>
       <c r="D99">
-        <v>-768.8632644889149</v>
+        <v>-2462.742208708718</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3187,13 +3187,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>35824</v>
+        <v>35490.5</v>
       </c>
       <c r="C100">
-        <v>38278.76024362847</v>
+        <v>36201.84027023031</v>
       </c>
       <c r="D100">
-        <v>-2454.760243628465</v>
+        <v>-711.3402702303138</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3201,13 +3201,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>35490.5</v>
+        <v>35595</v>
       </c>
       <c r="C101">
-        <v>36191.00684111449</v>
+        <v>35547.65473379841</v>
       </c>
       <c r="D101">
-        <v>-700.5068411144894</v>
+        <v>47.34526620159158</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3215,13 +3215,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>35595</v>
+        <v>31655.2</v>
       </c>
       <c r="C102">
-        <v>35527.52724713998</v>
+        <v>35147.65382351237</v>
       </c>
       <c r="D102">
-        <v>67.47275286001968</v>
+        <v>-3492.453823512373</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3229,13 +3229,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>31655.2</v>
+        <v>32516.2</v>
       </c>
       <c r="C103">
-        <v>35127.71655657346</v>
+        <v>32436.46248470686</v>
       </c>
       <c r="D103">
-        <v>-3472.516556573461</v>
+        <v>79.73751529313813</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3243,13 +3243,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>32516.2</v>
+        <v>33683.3</v>
       </c>
       <c r="C104">
-        <v>32420.21386241101</v>
+        <v>31746.57999505821</v>
       </c>
       <c r="D104">
-        <v>95.98613758899228</v>
+        <v>1936.720004941788</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3257,13 +3257,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>33683.3</v>
+        <v>34666.6</v>
       </c>
       <c r="C105">
-        <v>31722.38602368659</v>
+        <v>33574.64652188658</v>
       </c>
       <c r="D105">
-        <v>1960.913976313415</v>
+        <v>1091.953478113421</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3271,13 +3271,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>34666.6</v>
+        <v>31583.7</v>
       </c>
       <c r="C106">
-        <v>33553.52177976366</v>
+        <v>34205.40297877588</v>
       </c>
       <c r="D106">
-        <v>1113.078220236341</v>
+        <v>-2621.702978775877</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3285,13 +3285,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>31583.7</v>
+        <v>32277</v>
       </c>
       <c r="C107">
-        <v>34197.52383466097</v>
+        <v>32355.51397714514</v>
       </c>
       <c r="D107">
-        <v>-2613.823834660969</v>
+        <v>-78.51397714513587</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3299,13 +3299,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>32277</v>
+        <v>34675.3</v>
       </c>
       <c r="C108">
-        <v>32354.98997716731</v>
+        <v>31797.30111606876</v>
       </c>
       <c r="D108">
-        <v>-77.9899771673081</v>
+        <v>2877.998883931243</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3313,13 +3313,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>34675.3</v>
+        <v>34472</v>
       </c>
       <c r="C109">
-        <v>31790.46239451569</v>
+        <v>33999.35158899779</v>
       </c>
       <c r="D109">
-        <v>2884.83760548431</v>
+        <v>472.6484110022138</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3327,13 +3327,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>34472</v>
+        <v>35903.3</v>
       </c>
       <c r="C110">
-        <v>33997.97839007538</v>
+        <v>34523.1403469058</v>
       </c>
       <c r="D110">
-        <v>474.0216099246172</v>
+        <v>1380.159653094204</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3341,13 +3341,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>35903.3</v>
+        <v>35046.2</v>
       </c>
       <c r="C111">
-        <v>34538.14476972184</v>
+        <v>35698.20748491946</v>
       </c>
       <c r="D111">
-        <v>1365.155230278164</v>
+        <v>-652.0074849194643</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3355,13 +3355,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>35046.2</v>
+        <v>33532.4</v>
       </c>
       <c r="C112">
-        <v>35708.8994504642</v>
+        <v>35071.44286229115</v>
       </c>
       <c r="D112">
-        <v>-662.6994504642062</v>
+        <v>-1539.04286229115</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3369,13 +3369,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>33532.4</v>
+        <v>33802.9</v>
       </c>
       <c r="C113">
-        <v>35089.86396394001</v>
+        <v>33672.95071847489</v>
       </c>
       <c r="D113">
-        <v>-1557.463963940005</v>
+        <v>129.9492815251069</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3383,13 +3383,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>33802.9</v>
+        <v>34685.4</v>
       </c>
       <c r="C114">
-        <v>33683.40365008669</v>
+        <v>33570.7535275378</v>
       </c>
       <c r="D114">
-        <v>119.4963499133082</v>
+        <v>1114.646472462198</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3397,13 +3397,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>34685.4</v>
+        <v>35305</v>
       </c>
       <c r="C115">
-        <v>33575.52902679209</v>
+        <v>34410.2453809173</v>
       </c>
       <c r="D115">
-        <v>1109.870973207908</v>
+        <v>894.7546190826979</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3411,13 +3411,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>35305</v>
+        <v>33697.6</v>
       </c>
       <c r="C116">
-        <v>34411.68187427209</v>
+        <v>35215.80120892741</v>
       </c>
       <c r="D116">
-        <v>893.3181257279066</v>
+        <v>-1518.201208927414</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3425,13 +3425,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>33697.6</v>
+        <v>34235</v>
       </c>
       <c r="C117">
-        <v>35217.46842248962</v>
+        <v>33909.65732352436</v>
       </c>
       <c r="D117">
-        <v>-1519.868422489621</v>
+        <v>325.3426764756441</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3439,13 +3439,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>34235</v>
+        <v>33885.1</v>
       </c>
       <c r="C118">
-        <v>33914.52234464028</v>
+        <v>34251.20680827534</v>
       </c>
       <c r="D118">
-        <v>320.4776553597185</v>
+        <v>-366.1068082753409</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3453,13 +3453,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>33885.1</v>
+        <v>32882.2</v>
       </c>
       <c r="C119">
-        <v>34246.06795199262</v>
+        <v>34122.69021810056</v>
       </c>
       <c r="D119">
-        <v>-360.9679519926212</v>
+        <v>-1240.49021810056</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3467,13 +3467,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>32882.2</v>
+        <v>33791</v>
       </c>
       <c r="C120">
-        <v>34120.16891490485</v>
+        <v>32934.64320842014</v>
       </c>
       <c r="D120">
-        <v>-1237.96891490485</v>
+        <v>856.3567915798631</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3481,13 +3481,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>33791</v>
+        <v>33522.2</v>
       </c>
       <c r="C121">
-        <v>32934.14898665549</v>
+        <v>33468.33254847286</v>
       </c>
       <c r="D121">
-        <v>856.8510133445088</v>
+        <v>53.86745152714138</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3495,13 +3495,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>33522.2</v>
+        <v>34246.9</v>
       </c>
       <c r="C122">
-        <v>33461.88810870849</v>
+        <v>33533.89011828159</v>
       </c>
       <c r="D122">
-        <v>60.3118912915088</v>
+        <v>713.0098817184116</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3509,13 +3509,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>34246.9</v>
+        <v>33107.3</v>
       </c>
       <c r="C123">
-        <v>33531.76095743661</v>
+        <v>34082.94713101699</v>
       </c>
       <c r="D123">
-        <v>715.1390425633945</v>
+        <v>-975.6471310169873</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3523,13 +3523,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>33107.3</v>
+        <v>32722.9</v>
       </c>
       <c r="C124">
-        <v>34079.94081395734</v>
+        <v>33341.42161432566</v>
       </c>
       <c r="D124">
-        <v>-972.6408139573323</v>
+        <v>-618.5216143256621</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3537,13 +3537,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>32722.9</v>
+        <v>32815.2</v>
       </c>
       <c r="C125">
-        <v>33343.52825112539</v>
+        <v>32706.35745303216</v>
       </c>
       <c r="D125">
-        <v>-620.6282511253885</v>
+        <v>108.8425469678332</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3551,13 +3551,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>32815.2</v>
+        <v>31832.6</v>
       </c>
       <c r="C126">
-        <v>32705.63990163794</v>
+        <v>32546.28093525142</v>
       </c>
       <c r="D126">
-        <v>109.5600983620534</v>
+        <v>-713.6809352514174</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3565,13 +3565,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>31832.6</v>
+        <v>31405.9</v>
       </c>
       <c r="C127">
-        <v>32546.23195789751</v>
+        <v>31935.39361428784</v>
       </c>
       <c r="D127">
-        <v>-713.6319578975163</v>
+        <v>-529.493614287836</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3579,13 +3579,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>31405.9</v>
+        <v>31510</v>
       </c>
       <c r="C128">
-        <v>31936.08594303133</v>
+        <v>31452.42004679475</v>
       </c>
       <c r="D128">
-        <v>-530.185943031327</v>
+        <v>57.57995320524788</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3593,13 +3593,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>31510</v>
+        <v>31780.1</v>
       </c>
       <c r="C129">
-        <v>31450.06239169232</v>
+        <v>31464.61068598065</v>
       </c>
       <c r="D129">
-        <v>59.9376083076786</v>
+        <v>315.4893140193526</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3607,13 +3607,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>31780.1</v>
+        <v>30820.5</v>
       </c>
       <c r="C130">
-        <v>31461.8014147674</v>
+        <v>31707.15281092182</v>
       </c>
       <c r="D130">
-        <v>318.2985852326019</v>
+        <v>-886.6528109218198</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3621,13 +3621,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>30820.5</v>
+        <v>29788.1</v>
       </c>
       <c r="C131">
-        <v>31704.38202347787</v>
+        <v>30910.30019689228</v>
       </c>
       <c r="D131">
-        <v>-883.8820234778686</v>
+        <v>-1122.200196892278</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3635,13 +3635,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>29788.1</v>
+        <v>32125</v>
       </c>
       <c r="C132">
-        <v>30912.2081318101</v>
+        <v>29894.32609727906</v>
       </c>
       <c r="D132">
-        <v>-1124.108131810099</v>
+        <v>2230.673902720941</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3649,13 +3649,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>32125</v>
+        <v>32283.3</v>
       </c>
       <c r="C133">
-        <v>29893.74606812203</v>
+        <v>31604.46814637694</v>
       </c>
       <c r="D133">
-        <v>2231.253931877975</v>
+        <v>678.8318536230618</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3663,13 +3663,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>32283.3</v>
+        <v>33639</v>
       </c>
       <c r="C134">
-        <v>31599.12019812653</v>
+        <v>32203.53711304764</v>
       </c>
       <c r="D134">
-        <v>684.1798018734662</v>
+        <v>1435.462886952359</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3677,13 +3677,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>33639</v>
+        <v>34284.6</v>
       </c>
       <c r="C135">
-        <v>32211.93434709847</v>
+        <v>33251.57607929445</v>
       </c>
       <c r="D135">
-        <v>1427.065652901525</v>
+        <v>1033.023920705549</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3691,13 +3691,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>34284.6</v>
+        <v>35413.6</v>
       </c>
       <c r="C136">
-        <v>33260.27279667137</v>
+        <v>34186.75245636454</v>
       </c>
       <c r="D136">
-        <v>1024.327203328627</v>
+        <v>1226.847543635457</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3705,13 +3705,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>35413.6</v>
+        <v>37274.9</v>
       </c>
       <c r="C137">
-        <v>34201.50302570086</v>
+        <v>35111.63673544326</v>
       </c>
       <c r="D137">
-        <v>1212.096974299136</v>
+        <v>2163.263264556743</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3719,13 +3719,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>37274.9</v>
+        <v>39506.2</v>
       </c>
       <c r="C138">
-        <v>35125.90111355751</v>
+        <v>37673.38530059677</v>
       </c>
       <c r="D138">
-        <v>2148.998886442489</v>
+        <v>1832.814699403229</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3733,13 +3733,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>39506.2</v>
+        <v>40011</v>
       </c>
       <c r="C139">
-        <v>37684.25034039773</v>
+        <v>38953.78565875461</v>
       </c>
       <c r="D139">
-        <v>1821.949659602265</v>
+        <v>1057.214341245388</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3747,13 +3747,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>40011</v>
+        <v>40000</v>
       </c>
       <c r="C140">
-        <v>38972.72174440816</v>
+        <v>40152.44548741367</v>
       </c>
       <c r="D140">
-        <v>1038.278255591838</v>
+        <v>-152.4454874136718</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3761,13 +3761,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>40000</v>
+        <v>42229.6</v>
       </c>
       <c r="C141">
-        <v>40173.30157846611</v>
+        <v>40167.59882302696</v>
       </c>
       <c r="D141">
-        <v>-173.3015784661111</v>
+        <v>2062.001176973041</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3775,13 +3775,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>42229.6</v>
+        <v>41488.5</v>
       </c>
       <c r="C142">
-        <v>40182.61461382094</v>
+        <v>41527.71312024293</v>
       </c>
       <c r="D142">
-        <v>2046.985386179054</v>
+        <v>-39.21312024293002</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3789,13 +3789,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>41488.5</v>
+        <v>39889.1</v>
       </c>
       <c r="C143">
-        <v>41535.4008404302</v>
+        <v>41811.74475001203</v>
       </c>
       <c r="D143">
-        <v>-46.90084043020033</v>
+        <v>-1922.644750012034</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3803,13 +3803,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>39889.1</v>
+        <v>39152.3</v>
       </c>
       <c r="C144">
-        <v>41822.04550484291</v>
+        <v>40558.33099392499</v>
       </c>
       <c r="D144">
-        <v>-1932.945504842915</v>
+        <v>-1406.030993924986</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3817,13 +3817,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>39152.3</v>
+        <v>38163</v>
       </c>
       <c r="C145">
-        <v>40554.81824230312</v>
+        <v>39450.45916105958</v>
       </c>
       <c r="D145">
-        <v>-1402.518242303122</v>
+        <v>-1287.459161059582</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3831,13 +3831,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>38163</v>
+        <v>39749</v>
       </c>
       <c r="C146">
-        <v>39438.74468572249</v>
+        <v>38481.72921397962</v>
       </c>
       <c r="D146">
-        <v>-1275.744685722486</v>
+        <v>1267.270786020381</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3845,13 +3845,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>39749</v>
+        <v>40886.4</v>
       </c>
       <c r="C147">
-        <v>38463.60715223808</v>
+        <v>39316.50234985742</v>
       </c>
       <c r="D147">
-        <v>1285.392847761919</v>
+        <v>1569.897650142586</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3859,13 +3859,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>40886.4</v>
+        <v>42823.9</v>
       </c>
       <c r="C148">
-        <v>39296.95709990826</v>
+        <v>40251.2509921061</v>
       </c>
       <c r="D148">
-        <v>1589.442900091737</v>
+        <v>2572.649007893902</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3873,13 +3873,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>42823.9</v>
+        <v>44610.7</v>
       </c>
       <c r="C149">
-        <v>40242.9544037712</v>
+        <v>42378.13377266788</v>
       </c>
       <c r="D149">
-        <v>2580.945596228798</v>
+        <v>2232.566227332121</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3887,13 +3887,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>44610.7</v>
+        <v>43845.6</v>
       </c>
       <c r="C150">
-        <v>42374.78053536837</v>
+        <v>44308.10565691165</v>
       </c>
       <c r="D150">
-        <v>2235.919464631632</v>
+        <v>-462.5056569116496</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3901,13 +3901,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>43845.6</v>
+        <v>46307.1</v>
       </c>
       <c r="C151">
-        <v>44317.27337957895</v>
+        <v>44265.10279867504</v>
       </c>
       <c r="D151">
-        <v>-471.6733795789551</v>
+        <v>2041.997201324957</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3915,13 +3915,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>46307.1</v>
+        <v>45595.1</v>
       </c>
       <c r="C152">
-        <v>44280.8468065543</v>
+        <v>45732.32199043993</v>
       </c>
       <c r="D152">
-        <v>2026.2531934457</v>
+        <v>-137.2219904399317</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3929,13 +3929,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>45595.1</v>
+        <v>45571.7</v>
       </c>
       <c r="C153">
-        <v>45745.0083865819</v>
+        <v>45857.98916633267</v>
       </c>
       <c r="D153">
-        <v>-149.9083865819048</v>
+        <v>-286.2891663326736</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3943,13 +3943,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>45571.7</v>
+        <v>44401.1</v>
       </c>
       <c r="C154">
-        <v>45878.26242919202</v>
+        <v>46002.77758190734</v>
       </c>
       <c r="D154">
-        <v>-306.5624291920249</v>
+        <v>-1601.677581907345</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3957,13 +3957,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>44401.1</v>
+        <v>47823.3</v>
       </c>
       <c r="C155">
-        <v>46012.54452637702</v>
+        <v>44839.2966098802</v>
       </c>
       <c r="D155">
-        <v>-1611.444526377025</v>
+        <v>2984.003390119804</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3971,13 +3971,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>47823.3</v>
+        <v>47115.2</v>
       </c>
       <c r="C156">
-        <v>44844.01812131604</v>
+        <v>47140.73090160324</v>
       </c>
       <c r="D156">
-        <v>2979.281878683963</v>
+        <v>-25.53090160324064</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3985,13 +3985,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>47115.2</v>
+        <v>47019.3</v>
       </c>
       <c r="C157">
-        <v>47136.25587431484</v>
+        <v>47284.79314417037</v>
       </c>
       <c r="D157">
-        <v>-21.05587431484309</v>
+        <v>-265.4931441703666</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3999,13 +3999,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>47019.3</v>
+        <v>45926.3</v>
       </c>
       <c r="C158">
-        <v>47295.65794297622</v>
+        <v>46918.71277905098</v>
       </c>
       <c r="D158">
-        <v>-276.3579429762176</v>
+        <v>-992.412779050981</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4013,13 +4013,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>45926.3</v>
+        <v>44672.2</v>
       </c>
       <c r="C159">
-        <v>46925.81961281548</v>
+        <v>46495.1441350356</v>
       </c>
       <c r="D159">
-        <v>-999.5196128154785</v>
+        <v>-1822.944135035606</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4027,13 +4027,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>44672.2</v>
+        <v>44714.7</v>
       </c>
       <c r="C160">
-        <v>46495.8505502773</v>
+        <v>45275.13010808904</v>
       </c>
       <c r="D160">
-        <v>-1823.650550277307</v>
+        <v>-560.4301080890436</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4041,13 +4041,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>44714.7</v>
+        <v>46765.3</v>
       </c>
       <c r="C161">
-        <v>45270.81124689998</v>
+        <v>44981.96282671721</v>
       </c>
       <c r="D161">
-        <v>-556.1112468999781</v>
+        <v>1783.337173282795</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4055,13 +4055,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>46765.3</v>
+        <v>49345.4</v>
       </c>
       <c r="C162">
-        <v>44974.2611836156</v>
+        <v>46268.22054873663</v>
       </c>
       <c r="D162">
-        <v>1791.038816384404</v>
+        <v>3077.179451263371</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4069,13 +4069,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>49345.4</v>
+        <v>48865.4</v>
       </c>
       <c r="C163">
-        <v>46262.5630573791</v>
+        <v>48858.4466059008</v>
       </c>
       <c r="D163">
-        <v>3082.836942620903</v>
+        <v>6.953394099204161</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4083,13 +4083,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>48865.4</v>
+        <v>49293.6</v>
       </c>
       <c r="C164">
-        <v>48861.86135926485</v>
+        <v>49119.83750337767</v>
       </c>
       <c r="D164">
-        <v>3.538640735154331</v>
+        <v>173.7624966223302</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4097,13 +4097,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>49293.6</v>
+        <v>49517.3</v>
       </c>
       <c r="C165">
-        <v>49137.0135083379</v>
+        <v>49217.56765280833</v>
       </c>
       <c r="D165">
-        <v>156.5864916620994</v>
+        <v>299.7323471916752</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4111,13 +4111,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>49517.3</v>
+        <v>47725.4</v>
       </c>
       <c r="C166">
-        <v>49230.89967610105</v>
+        <v>49812.30700116287</v>
       </c>
       <c r="D166">
-        <v>286.4003238989535</v>
+        <v>-2086.907001162872</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4125,13 +4125,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>47725.4</v>
+        <v>48991.3</v>
       </c>
       <c r="C167">
-        <v>49827.03178164599</v>
+        <v>48345.45253939269</v>
       </c>
       <c r="D167">
-        <v>-2101.631781645985</v>
+        <v>645.8474606073141</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4139,13 +4139,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>48991.3</v>
+        <v>46848.9</v>
       </c>
       <c r="C168">
-        <v>48359.49425883315</v>
+        <v>48740.71800242635</v>
       </c>
       <c r="D168">
-        <v>631.805741166856</v>
+        <v>-1891.818002426349</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4153,13 +4153,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>46848.9</v>
+        <v>49074.9</v>
       </c>
       <c r="C169">
-        <v>48745.66471452414</v>
+        <v>47389.58205506686</v>
       </c>
       <c r="D169">
-        <v>-1896.764714524143</v>
+        <v>1685.317944933144</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4167,13 +4167,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>49074.9</v>
+        <v>48895.7</v>
       </c>
       <c r="C170">
-        <v>47395.64517459061</v>
+        <v>48522.67843117219</v>
       </c>
       <c r="D170">
-        <v>1679.254825409393</v>
+        <v>373.0215688278113</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4181,13 +4181,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>48895.7</v>
+        <v>48787.7</v>
       </c>
       <c r="C171">
-        <v>48518.29303050486</v>
+        <v>48963.18367097771</v>
       </c>
       <c r="D171">
-        <v>377.4069694951322</v>
+        <v>-175.4836709777155</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4195,13 +4195,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>48787.7</v>
+        <v>46985.7</v>
       </c>
       <c r="C172">
-        <v>48970.52348822157</v>
+        <v>48835.50085267593</v>
       </c>
       <c r="D172">
-        <v>-182.8234882215766</v>
+        <v>-1849.800852675937</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4209,13 +4209,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>46985.7</v>
+        <v>47140</v>
       </c>
       <c r="C173">
-        <v>48841.40538602645</v>
+        <v>47452.66079316087</v>
       </c>
       <c r="D173">
-        <v>-1855.705386026457</v>
+        <v>-312.6607931608742</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4223,13 +4223,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>47140</v>
+        <v>48872.2</v>
       </c>
       <c r="C174">
-        <v>47459.18687442783</v>
+        <v>47335.00678478577</v>
       </c>
       <c r="D174">
-        <v>-319.1868744278327</v>
+        <v>1537.193215214225</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4237,13 +4237,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>48872.2</v>
+        <v>49290.3</v>
       </c>
       <c r="C175">
-        <v>47334.65717416941</v>
+        <v>48425.26642170092</v>
       </c>
       <c r="D175">
-        <v>1537.542825830591</v>
+        <v>865.0335782990878</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4251,13 +4251,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>49290.3</v>
+        <v>50018.6</v>
       </c>
       <c r="C176">
-        <v>48427.95695205379</v>
+        <v>49471.87264867636</v>
       </c>
       <c r="D176">
-        <v>862.3430479462113</v>
+        <v>546.727351323636</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4265,13 +4265,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>50018.6</v>
+        <v>49956.1</v>
       </c>
       <c r="C177">
-        <v>49482.54924534561</v>
+        <v>49944.83366783391</v>
       </c>
       <c r="D177">
-        <v>536.0507546543886</v>
+        <v>11.26633216608752</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4279,13 +4279,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>49956.1</v>
+        <v>51767.9</v>
       </c>
       <c r="C178">
-        <v>49955.83715935011</v>
+        <v>50047.18279266413</v>
       </c>
       <c r="D178">
-        <v>0.2628406498915865</v>
+        <v>1720.717207335874</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4293,13 +4293,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>51767.9</v>
+        <v>52688.3</v>
       </c>
       <c r="C179">
-        <v>50060.92678741534</v>
+        <v>51359.53077301191</v>
       </c>
       <c r="D179">
-        <v>1706.973212584657</v>
+        <v>1328.769226988094</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4307,13 +4307,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>52688.3</v>
+        <v>46882.1</v>
       </c>
       <c r="C180">
-        <v>51371.48300871172</v>
+        <v>52469.00083608963</v>
       </c>
       <c r="D180">
-        <v>1316.816991288288</v>
+        <v>-5586.900836089633</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4321,13 +4321,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>46882.1</v>
+        <v>46073.4</v>
       </c>
       <c r="C181">
-        <v>52490.02541876549</v>
+        <v>47176.31749597256</v>
       </c>
       <c r="D181">
-        <v>-5607.925418765495</v>
+        <v>-1102.917495972557</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4335,13 +4335,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>46073.4</v>
+        <v>46389.6</v>
       </c>
       <c r="C182">
-        <v>47199.71395554414</v>
+        <v>45951.57506972004</v>
       </c>
       <c r="D182">
-        <v>-1126.313955544138</v>
+        <v>438.0249302799566</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4349,13 +4349,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>46389.6</v>
+        <v>44842.2</v>
       </c>
       <c r="C183">
-        <v>45945.0825982813</v>
+        <v>46357.83719517823</v>
       </c>
       <c r="D183">
-        <v>444.5174017187019</v>
+        <v>-1515.637195178235</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4363,13 +4363,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>44842.2</v>
+        <v>45137.4</v>
       </c>
       <c r="C184">
-        <v>46346.75678279286</v>
+        <v>45109.20167271458</v>
       </c>
       <c r="D184">
-        <v>-1504.556782792861</v>
+        <v>28.19832728541951</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4377,13 +4377,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>45137.4</v>
+        <v>46061.3</v>
       </c>
       <c r="C185">
-        <v>45101.34411853997</v>
+        <v>45146.78558342243</v>
       </c>
       <c r="D185">
-        <v>36.05588146002992</v>
+        <v>914.514416577571</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4391,13 +4391,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>46061.3</v>
+        <v>44965.8</v>
       </c>
       <c r="C186">
-        <v>45134.44361198982</v>
+        <v>45766.89677990196</v>
       </c>
       <c r="D186">
-        <v>926.8563880101865</v>
+        <v>-801.0967799019563</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4405,13 +4405,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>44965.8</v>
+        <v>47145.9</v>
       </c>
       <c r="C187">
-        <v>45760.55824774495</v>
+        <v>44947.35008158832</v>
       </c>
       <c r="D187">
-        <v>-794.7582477449469</v>
+        <v>2198.549918411685</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4419,13 +4419,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>47145.9</v>
+        <v>48152.3</v>
       </c>
       <c r="C188">
-        <v>44951.89873244759</v>
+        <v>46549.7680683315</v>
       </c>
       <c r="D188">
-        <v>2194.001267552412</v>
+        <v>1602.531931668505</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4433,13 +4433,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>48152.3</v>
+        <v>47786.9</v>
       </c>
       <c r="C189">
-        <v>46554.68304117527</v>
+        <v>47906.28588761354</v>
       </c>
       <c r="D189">
-        <v>1597.616958824728</v>
+        <v>-119.3858876135419</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4447,13 +4447,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>47786.9</v>
+        <v>47269.7</v>
       </c>
       <c r="C190">
-        <v>47924.30323267361</v>
+        <v>47795.67818167832</v>
       </c>
       <c r="D190">
-        <v>-137.4032326736124</v>
+        <v>-525.9781816783216</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4461,13 +4461,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>47269.7</v>
+        <v>48309.9</v>
       </c>
       <c r="C191">
-        <v>47818.41915524154</v>
+        <v>47375.76073234397</v>
       </c>
       <c r="D191">
-        <v>-548.7191552415461</v>
+        <v>934.1392676560281</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4475,13 +4475,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>48309.9</v>
+        <v>47237.8</v>
       </c>
       <c r="C192">
-        <v>47394.20470990537</v>
+        <v>48137.95545314995</v>
       </c>
       <c r="D192">
-        <v>915.6952900946271</v>
+        <v>-900.1554531499423</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4489,13 +4489,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>47237.8</v>
+        <v>42992.9</v>
       </c>
       <c r="C193">
-        <v>48149.77183891216</v>
+        <v>47413.62283307046</v>
       </c>
       <c r="D193">
-        <v>-911.9718389121554</v>
+        <v>-4420.72283307046</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4503,13 +4503,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>42992.9</v>
+        <v>40710.6</v>
       </c>
       <c r="C194">
-        <v>47428.29716667085</v>
+        <v>43818.88011246576</v>
       </c>
       <c r="D194">
-        <v>-4435.397166670846</v>
+        <v>-3108.280112465764</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4517,13 +4517,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>40710.6</v>
+        <v>43562.8</v>
       </c>
       <c r="C195">
-        <v>43825.8339094331</v>
+        <v>40982.97835603342</v>
       </c>
       <c r="D195">
-        <v>-3115.233909433104</v>
+        <v>2579.821643966585</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4531,13 +4531,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>43562.8</v>
+        <v>44889.8</v>
       </c>
       <c r="C196">
-        <v>40970.93829680313</v>
+        <v>42802.21410932665</v>
       </c>
       <c r="D196">
-        <v>2591.861703196875</v>
+        <v>2087.585890673348</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4545,13 +4545,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>44889.8</v>
+        <v>42833.2</v>
       </c>
       <c r="C197">
-        <v>42780.11754860621</v>
+        <v>44411.86676208756</v>
       </c>
       <c r="D197">
-        <v>2109.68245139379</v>
+        <v>-1578.666762087567</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4559,13 +4559,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>42833.2</v>
+        <v>42710.1</v>
       </c>
       <c r="C198">
-        <v>44409.09310903077</v>
+        <v>42789.19470455317</v>
       </c>
       <c r="D198">
-        <v>-1575.893109030774</v>
+        <v>-79.09470455317205</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4573,13 +4573,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>42710.1</v>
+        <v>43204.6</v>
       </c>
       <c r="C199">
-        <v>42795.82145816062</v>
+        <v>42427.2429564948</v>
       </c>
       <c r="D199">
-        <v>-85.72145816061675</v>
+        <v>777.3570435052025</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4587,13 +4587,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>43204.6</v>
+        <v>42176.3</v>
       </c>
       <c r="C200">
-        <v>42426.41066653159</v>
+        <v>42692.23249169081</v>
       </c>
       <c r="D200">
-        <v>778.1893334684064</v>
+        <v>-515.9324916908081</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4601,13 +4601,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>42176.3</v>
+        <v>41038.4</v>
       </c>
       <c r="C201">
-        <v>42694.20894456597</v>
+        <v>42574.69963216304</v>
       </c>
       <c r="D201">
-        <v>-517.9089445659629</v>
+        <v>-1536.299632163042</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4615,13 +4615,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>41038.4</v>
+        <v>41524.8</v>
       </c>
       <c r="C202">
-        <v>42580.15296334802</v>
+        <v>41300.49411850338</v>
       </c>
       <c r="D202">
-        <v>-1541.752963348023</v>
+        <v>224.3058814966207</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4629,13 +4629,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>41524.8</v>
+        <v>43798.7</v>
       </c>
       <c r="C203">
-        <v>41304.64919539608</v>
+        <v>41466.68659871843</v>
       </c>
       <c r="D203">
-        <v>220.1508046039235</v>
+        <v>2332.013401281569</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4643,13 +4643,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>43798.7</v>
+        <v>48163.7</v>
       </c>
       <c r="C204">
-        <v>41464.2803956377</v>
+        <v>43221.48288357633</v>
       </c>
       <c r="D204">
-        <v>2334.419604362294</v>
+        <v>4942.217116423664</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4657,13 +4657,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>48163.7</v>
+        <v>47662</v>
       </c>
       <c r="C205">
-        <v>43224.59661670588</v>
+        <v>47077.49216347319</v>
       </c>
       <c r="D205">
-        <v>4939.103383294118</v>
+        <v>584.5078365268128</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4671,13 +4671,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>47662</v>
+        <v>48230.2</v>
       </c>
       <c r="C206">
-        <v>47089.91567909461</v>
+        <v>47857.17363930092</v>
       </c>
       <c r="D206">
-        <v>572.0843209053855</v>
+        <v>373.0263606990775</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4685,13 +4685,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>48230.2</v>
+        <v>49243.3</v>
       </c>
       <c r="C207">
-        <v>47888.28514162041</v>
+        <v>48269.51696107615</v>
       </c>
       <c r="D207">
-        <v>341.9148583795904</v>
+        <v>973.7830389238516</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4699,13 +4699,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>49243.3</v>
+        <v>51487</v>
       </c>
       <c r="C208">
-        <v>48291.53999762624</v>
+        <v>48835.70885296309</v>
       </c>
       <c r="D208">
-        <v>951.7600023737614</v>
+        <v>2651.291147036914</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4713,13 +4713,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>51487</v>
+        <v>55350.2</v>
       </c>
       <c r="C209">
-        <v>48858.61203376952</v>
+        <v>51149.19260409757</v>
       </c>
       <c r="D209">
-        <v>2628.387966230483</v>
+        <v>4201.00739590243</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4727,13 +4727,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>55350.2</v>
+        <v>53817.3</v>
       </c>
       <c r="C210">
-        <v>51167.98698853396</v>
+        <v>54469.64678099117</v>
       </c>
       <c r="D210">
-        <v>4182.213011466039</v>
+        <v>-652.3467809911672</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4741,13 +4741,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>53817.3</v>
+        <v>53960.5</v>
       </c>
       <c r="C211">
-        <v>54490.36783694406</v>
+        <v>54303.84047224716</v>
       </c>
       <c r="D211">
-        <v>-673.0678369440575</v>
+        <v>-343.3404722471605</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4755,13 +4755,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>53960.5</v>
+        <v>54960.2</v>
       </c>
       <c r="C212">
-        <v>54331.05489775192</v>
+        <v>54560.02796970381</v>
       </c>
       <c r="D212">
-        <v>-370.5548977519211</v>
+        <v>400.1720302961912</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4769,13 +4769,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>54960.2</v>
+        <v>54677.5</v>
       </c>
       <c r="C213">
-        <v>54563.85398284878</v>
+        <v>54958.04162646984</v>
       </c>
       <c r="D213">
-        <v>396.3460171512124</v>
+        <v>-280.5416264698433</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4783,13 +4783,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>54677.5</v>
+        <v>57499.5</v>
       </c>
       <c r="C214">
-        <v>54958.04169273228</v>
+        <v>55142.75099298966</v>
       </c>
       <c r="D214">
-        <v>-280.5416927322804</v>
+        <v>2356.749007010338</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4797,13 +4797,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>57499.5</v>
+        <v>56010.1</v>
       </c>
       <c r="C215">
-        <v>55139.90980689376</v>
+        <v>57039.41768434897</v>
       </c>
       <c r="D215">
-        <v>2359.59019310624</v>
+        <v>-1029.317684348971</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4811,13 +4811,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>56010.1</v>
+        <v>57381.2</v>
       </c>
       <c r="C216">
-        <v>57031.86013848407</v>
+        <v>56114.03523763467</v>
       </c>
       <c r="D216">
-        <v>-1021.760138484075</v>
+        <v>1267.164762365326</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4825,13 +4825,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>57381.2</v>
+        <v>57377.6</v>
       </c>
       <c r="C217">
-        <v>56117.06280611421</v>
+        <v>56883.32049842406</v>
       </c>
       <c r="D217">
-        <v>1264.137193885792</v>
+        <v>494.2795015759402</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4839,13 +4839,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>57377.6</v>
+        <v>61656.2</v>
       </c>
       <c r="C218">
-        <v>56874.90376146007</v>
+        <v>57699.18794629831</v>
       </c>
       <c r="D218">
-        <v>502.6962385399311</v>
+        <v>3957.012053701692</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4853,13 +4853,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>61656.2</v>
+        <v>60873.4</v>
       </c>
       <c r="C219">
-        <v>57695.18424769168</v>
+        <v>61009.15735598363</v>
       </c>
       <c r="D219">
-        <v>3961.015752308318</v>
+        <v>-135.7573559836237</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4867,13 +4867,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>60873.4</v>
+        <v>61526.5</v>
       </c>
       <c r="C220">
-        <v>61002.49658394462</v>
+        <v>61307.98412091189</v>
       </c>
       <c r="D220">
-        <v>-129.0965839446217</v>
+        <v>218.5158790881105</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4881,13 +4881,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>61526.5</v>
+        <v>62037.7</v>
       </c>
       <c r="C221">
-        <v>61320.00292718003</v>
+        <v>61168.69394548744</v>
       </c>
       <c r="D221">
-        <v>206.4970728199696</v>
+        <v>869.0060545125598</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4895,13 +4895,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>62037.7</v>
+        <v>64284.9</v>
       </c>
       <c r="C222">
-        <v>61177.7863281926</v>
+        <v>61901.02295348744</v>
       </c>
       <c r="D222">
-        <v>859.9136718074005</v>
+        <v>2383.877046512564</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4909,13 +4909,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>64284.9</v>
+        <v>66035.8</v>
       </c>
       <c r="C223">
-        <v>61909.41882744865</v>
+        <v>63865.25727928706</v>
       </c>
       <c r="D223">
-        <v>2375.48117255135</v>
+        <v>2170.54272071294</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4923,13 +4923,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>66035.8</v>
+        <v>62198</v>
       </c>
       <c r="C224">
-        <v>63873.81186865506</v>
+        <v>65945.36601433964</v>
       </c>
       <c r="D224">
-        <v>2161.988131344944</v>
+        <v>-3747.366014339641</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4937,13 +4937,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>62198</v>
+        <v>60687.5</v>
       </c>
       <c r="C225">
-        <v>65958.81497202214</v>
+        <v>61473.10203803019</v>
       </c>
       <c r="D225">
-        <v>-3760.814972022141</v>
+        <v>-785.6020380301925</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4951,13 +4951,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>60687.5</v>
+        <v>61296.9</v>
       </c>
       <c r="C226">
-        <v>61494.00027710205</v>
+        <v>61343.254584974</v>
       </c>
       <c r="D226">
-        <v>-806.5002771020518</v>
+        <v>-46.35458497399668</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4965,13 +4965,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>61296.9</v>
+        <v>60882.5</v>
       </c>
       <c r="C227">
-        <v>61336.84724397835</v>
+        <v>61070.66237458875</v>
       </c>
       <c r="D227">
-        <v>-39.94724397834943</v>
+        <v>-188.1623745887482</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4979,13 +4979,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>60882.5</v>
+        <v>63081.8</v>
       </c>
       <c r="C228">
-        <v>61062.23757954731</v>
+        <v>60770.09698913226</v>
       </c>
       <c r="D228">
-        <v>-179.7375795473054</v>
+        <v>2311.703010867743</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4993,13 +4993,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>63081.8</v>
+        <v>60310.2</v>
       </c>
       <c r="C229">
-        <v>60767.12312853342</v>
+        <v>62728.58944721238</v>
       </c>
       <c r="D229">
-        <v>2314.676871466581</v>
+        <v>-2418.389447212379</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5007,13 +5007,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>60310.2</v>
+        <v>58500.1</v>
       </c>
       <c r="C230">
-        <v>62723.30857110673</v>
+        <v>60945.55691674908</v>
       </c>
       <c r="D230">
-        <v>-2413.108571106728</v>
+        <v>-2445.456916749077</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5021,13 +5021,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>58500.1</v>
+        <v>60613.5</v>
       </c>
       <c r="C231">
-        <v>60951.62220629732</v>
+        <v>59104.62236545197</v>
       </c>
       <c r="D231">
-        <v>-2451.522206297326</v>
+        <v>1508.877634548029</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5035,13 +5035,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>60613.5</v>
+        <v>62246.5</v>
       </c>
       <c r="C232">
-        <v>59101.42365408043</v>
+        <v>60439.11718272147</v>
       </c>
       <c r="D232">
-        <v>1512.076345919573</v>
+        <v>1807.382817278529</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5049,13 +5049,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>62246.5</v>
+        <v>61866.3</v>
       </c>
       <c r="C233">
-        <v>60430.58599168836</v>
+        <v>62008.73020813495</v>
       </c>
       <c r="D233">
-        <v>1815.914008311636</v>
+        <v>-142.4302081349451</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5063,13 +5063,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>61866.3</v>
+        <v>61380.1</v>
       </c>
       <c r="C234">
-        <v>62017.4408093681</v>
+        <v>61819.10071407576</v>
       </c>
       <c r="D234">
-        <v>-151.1408093680948</v>
+        <v>-439.0007140757589</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5077,13 +5077,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>61380.1</v>
+        <v>60954.5</v>
       </c>
       <c r="C235">
-        <v>61838.34622435042</v>
+        <v>61392.5452320764</v>
       </c>
       <c r="D235">
-        <v>-458.2462243504197</v>
+        <v>-438.0452320764016</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5091,13 +5091,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>60954.5</v>
+        <v>63279.7</v>
       </c>
       <c r="C236">
-        <v>61409.24768764971</v>
+        <v>61009.99562170924</v>
       </c>
       <c r="D236">
-        <v>-454.7476876497094</v>
+        <v>2269.704378290757</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5105,13 +5105,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>63279.7</v>
+        <v>62942.9</v>
       </c>
       <c r="C237">
-        <v>61023.70537920378</v>
+        <v>62984.27128031952</v>
       </c>
       <c r="D237">
-        <v>2255.99462079622</v>
+        <v>-41.37128031951579</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5119,13 +5119,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>62942.9</v>
+        <v>61449</v>
       </c>
       <c r="C238">
-        <v>62996.23022721245</v>
+        <v>62704.15126336276</v>
       </c>
       <c r="D238">
-        <v>-53.33022721244924</v>
+        <v>-1255.151263362757</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5133,13 +5133,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>61449</v>
+        <v>61006.2</v>
       </c>
       <c r="C239">
-        <v>62731.50876235287</v>
+        <v>61720.75988817003</v>
       </c>
       <c r="D239">
-        <v>-1282.508762352867</v>
+        <v>-714.559888170028</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5147,13 +5147,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>61006.2</v>
+        <v>61536.3</v>
       </c>
       <c r="C240">
-        <v>61740.79769619359</v>
+        <v>61365.37735886037</v>
       </c>
       <c r="D240">
-        <v>-734.5976961935958</v>
+        <v>170.9226411396376</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5161,13 +5161,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>61536.3</v>
+        <v>63317.8</v>
       </c>
       <c r="C241">
-        <v>61374.11614796438</v>
+        <v>61251.90645104149</v>
       </c>
       <c r="D241">
-        <v>162.183852035625</v>
+        <v>2065.893548958513</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5175,13 +5175,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>63317.8</v>
+        <v>67559.8</v>
       </c>
       <c r="C242">
-        <v>61261.46055968601</v>
+        <v>62919.44706114542</v>
       </c>
       <c r="D242">
-        <v>2056.339440313997</v>
+        <v>4640.352938854587</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5189,13 +5189,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>67559.8</v>
+        <v>66950</v>
       </c>
       <c r="C243">
-        <v>62930.47871207187</v>
+        <v>66737.91351621508</v>
       </c>
       <c r="D243">
-        <v>4629.321287928135</v>
+        <v>212.0864837849222</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5203,13 +5203,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>66950</v>
+        <v>64969</v>
       </c>
       <c r="C244">
-        <v>66754.75770468113</v>
+        <v>67350.5536008226</v>
       </c>
       <c r="D244">
-        <v>195.2422953188652</v>
+        <v>-2381.553600822604</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5217,13 +5217,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>64969</v>
+        <v>64825.4</v>
       </c>
       <c r="C245">
-        <v>67382.33223789686</v>
+        <v>65506.85618976512</v>
       </c>
       <c r="D245">
-        <v>-2413.332237896859</v>
+        <v>-681.456189765122</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5231,13 +5231,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>64825.4</v>
+        <v>64153</v>
       </c>
       <c r="C246">
-        <v>65529.35313973564</v>
+        <v>64958.12268634149</v>
       </c>
       <c r="D246">
-        <v>-703.9531397356404</v>
+        <v>-805.1226863414922</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5245,13 +5245,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>64153</v>
+        <v>64393.1</v>
       </c>
       <c r="C247">
-        <v>64970.04129269317</v>
+        <v>64123.56486233693</v>
       </c>
       <c r="D247">
-        <v>-817.0412926931749</v>
+        <v>269.5351376630642</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5259,13 +5259,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>64393.1</v>
+        <v>65495</v>
       </c>
       <c r="C248">
-        <v>64133.20679658873</v>
+        <v>64375.27802872719</v>
       </c>
       <c r="D248">
-        <v>259.8932034112731</v>
+        <v>1119.721971272811</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5273,13 +5273,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>65495</v>
+        <v>63615.8</v>
       </c>
       <c r="C249">
-        <v>64376.77479737374</v>
+        <v>65128.12628648893</v>
       </c>
       <c r="D249">
-        <v>1118.225202626258</v>
+        <v>-1512.326286488926</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5287,13 +5287,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>63615.8</v>
+        <v>60137.2</v>
       </c>
       <c r="C250">
-        <v>65128.64103437576</v>
+        <v>64236.95611182644</v>
       </c>
       <c r="D250">
-        <v>-1512.841034375757</v>
+        <v>-4099.756111826442</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5301,13 +5301,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>60137.2</v>
+        <v>60367.8</v>
       </c>
       <c r="C251">
-        <v>64237.52494342625</v>
+        <v>60563.86441103325</v>
       </c>
       <c r="D251">
-        <v>-4100.324943426254</v>
+        <v>-196.0644110332505</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5315,13 +5315,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>60367.8</v>
+        <v>56921.7</v>
       </c>
       <c r="C252">
-        <v>60562.54842705029</v>
+        <v>59943.19944527946</v>
       </c>
       <c r="D252">
-        <v>-194.74842705029</v>
+        <v>-3021.499445279464</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5329,13 +5329,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>56921.7</v>
+        <v>58099.6</v>
       </c>
       <c r="C253">
-        <v>59931.50902860495</v>
+        <v>57654.2521042994</v>
       </c>
       <c r="D253">
-        <v>-3009.809028604956</v>
+        <v>445.3478957005937</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5343,13 +5343,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>58099.6</v>
+        <v>59744.2</v>
       </c>
       <c r="C254">
-        <v>57645.07991000827</v>
+        <v>57450.66061511423</v>
       </c>
       <c r="D254">
-        <v>454.5200899917327</v>
+        <v>2293.539384885764</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5357,13 +5357,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>59744.2</v>
+        <v>58646.2</v>
       </c>
       <c r="C255">
-        <v>57434.44830753145</v>
+        <v>59114.34869673356</v>
       </c>
       <c r="D255">
-        <v>2309.751692468548</v>
+        <v>-468.1486967335659</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5371,13 +5371,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>58646.2</v>
+        <v>56295.5</v>
       </c>
       <c r="C256">
-        <v>59108.77527686802</v>
+        <v>58850.64903134486</v>
       </c>
       <c r="D256">
-        <v>-462.575276868025</v>
+        <v>-2555.149031344859</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5385,13 +5385,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>56295.5</v>
+        <v>57571.4</v>
       </c>
       <c r="C257">
-        <v>58857.08835885394</v>
+        <v>56734.01373057789</v>
       </c>
       <c r="D257">
-        <v>-2561.588358853944</v>
+        <v>837.3862694221098</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5399,13 +5399,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>57571.4</v>
+        <v>57203.3</v>
       </c>
       <c r="C258">
-        <v>56740.62043073983</v>
+        <v>56999.26182432813</v>
       </c>
       <c r="D258">
-        <v>830.7795692601721</v>
+        <v>204.0381756718707</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5413,13 +5413,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>57203.3</v>
+        <v>58932.6</v>
       </c>
       <c r="C259">
-        <v>57003.8958298956</v>
+        <v>56925.85558558017</v>
       </c>
       <c r="D259">
-        <v>199.4041701044043</v>
+        <v>2006.744414419831</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5427,13 +5427,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>58932.6</v>
+        <v>53789</v>
       </c>
       <c r="C260">
-        <v>56941.05098682694</v>
+        <v>58521.56924580861</v>
       </c>
       <c r="D260">
-        <v>1991.549013173055</v>
+        <v>-4732.569245808612</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5441,13 +5441,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>53789</v>
+        <v>54784.9</v>
       </c>
       <c r="C261">
-        <v>58535.72226594147</v>
+        <v>54880.42097134638</v>
       </c>
       <c r="D261">
-        <v>-4746.722265941469</v>
+        <v>-95.52097134637734</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5455,13 +5455,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>54784.9</v>
+        <v>57300</v>
       </c>
       <c r="C262">
-        <v>54899.56658420392</v>
+        <v>54465.88109984706</v>
       </c>
       <c r="D262">
-        <v>-114.6665842039147</v>
+        <v>2834.118900152942</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5469,13 +5469,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>57300</v>
+        <v>57830.2</v>
       </c>
       <c r="C263">
-        <v>54462.80386972477</v>
+        <v>56249.88222878927</v>
       </c>
       <c r="D263">
-        <v>2837.196130275232</v>
+        <v>1580.317771210728</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5483,13 +5483,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>57830.2</v>
+        <v>56980.7</v>
       </c>
       <c r="C264">
-        <v>56254.03707287993</v>
+        <v>57776.5241412537</v>
       </c>
       <c r="D264">
-        <v>1576.162927120065</v>
+        <v>-795.8241412537027</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5497,13 +5497,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>56980.7</v>
+        <v>57237.9</v>
       </c>
       <c r="C265">
-        <v>57793.38676167987</v>
+        <v>57208.85867727196</v>
       </c>
       <c r="D265">
-        <v>-812.68676167987</v>
+        <v>29.04132272804418</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5511,13 +5511,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>57237.9</v>
+        <v>56526.4</v>
       </c>
       <c r="C266">
-        <v>57225.45436069777</v>
+        <v>57450.30094388392</v>
       </c>
       <c r="D266">
-        <v>12.44563930223376</v>
+        <v>-923.9009438839203</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5525,13 +5525,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>56526.4</v>
+        <v>53678.6</v>
       </c>
       <c r="C267">
-        <v>57459.69843464947</v>
+        <v>56522.47587556459</v>
       </c>
       <c r="D267">
-        <v>-933.2984346494704</v>
+        <v>-2843.87587556459</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5539,13 +5539,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>53678.6</v>
+        <v>49255.1</v>
       </c>
       <c r="C268">
-        <v>56534.24938737368</v>
+        <v>54046.58606328932</v>
       </c>
       <c r="D268">
-        <v>-2855.649387373684</v>
+        <v>-4791.486063289318</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5553,13 +5553,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>49255.1</v>
+        <v>49443.3</v>
       </c>
       <c r="C269">
-        <v>54051.77156513053</v>
+        <v>47960.92002347275</v>
       </c>
       <c r="D269">
-        <v>-4796.671565130535</v>
+        <v>1482.379976527256</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5567,13 +5567,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>49443.3</v>
+        <v>50564.3</v>
       </c>
       <c r="C270">
-        <v>47961.56458307672</v>
+        <v>48889.91381177638</v>
       </c>
       <c r="D270">
-        <v>1481.735416923286</v>
+        <v>1674.386188223623</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5581,13 +5581,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>50564.3</v>
+        <v>50650.1</v>
       </c>
       <c r="C271">
-        <v>48866.8961001045</v>
+        <v>49620.87932451486</v>
       </c>
       <c r="D271">
-        <v>1697.403899895507</v>
+        <v>1029.220675485143</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5595,13 +5595,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>50650.1</v>
+        <v>50515.1</v>
       </c>
       <c r="C272">
-        <v>49604.82513854827</v>
+        <v>50624.16855392742</v>
       </c>
       <c r="D272">
-        <v>1045.274861451726</v>
+        <v>-109.06855392742</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5609,13 +5609,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>50515.1</v>
+        <v>47581.6</v>
       </c>
       <c r="C273">
-        <v>50616.27176528863</v>
+        <v>50013.69476912144</v>
       </c>
       <c r="D273">
-        <v>-101.1717652886364</v>
+        <v>-2432.094769121446</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5623,13 +5623,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>47581.6</v>
+        <v>47218.3</v>
       </c>
       <c r="C274">
-        <v>50015.60427734064</v>
+        <v>48027.38832577097</v>
       </c>
       <c r="D274">
-        <v>-2434.004277340639</v>
+        <v>-809.0883257709647</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5637,13 +5637,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>47218.3</v>
+        <v>49367.2</v>
       </c>
       <c r="C275">
-        <v>48031.6218526556</v>
+        <v>47560.82743975223</v>
       </c>
       <c r="D275">
-        <v>-813.3218526556011</v>
+        <v>1806.372560247764</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5651,13 +5651,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>49367.2</v>
+        <v>50113.2</v>
       </c>
       <c r="C276">
-        <v>47555.11719133286</v>
+        <v>48597.76095976774</v>
       </c>
       <c r="D276">
-        <v>1812.082808667139</v>
+        <v>1515.439040232261</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5665,13 +5665,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>50113.2</v>
+        <v>46732.2</v>
       </c>
       <c r="C277">
-        <v>48597.82404329933</v>
+        <v>49783.68846414858</v>
       </c>
       <c r="D277">
-        <v>1515.375956700664</v>
+        <v>-3051.488464148584</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5679,13 +5679,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>46732.2</v>
+        <v>48399.2</v>
       </c>
       <c r="C278">
-        <v>49796.41385488192</v>
+        <v>47141.68914197999</v>
       </c>
       <c r="D278">
-        <v>-3064.21385488192</v>
+        <v>1257.510858020003</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5693,13 +5693,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>48399.2</v>
+        <v>48881.3</v>
       </c>
       <c r="C279">
-        <v>47155.42167011267</v>
+        <v>47791.65088413359</v>
       </c>
       <c r="D279">
-        <v>1243.778329887326</v>
+        <v>1089.649115866414</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5707,13 +5707,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>48881.3</v>
+        <v>47631</v>
       </c>
       <c r="C280">
-        <v>47791.92501479568</v>
+        <v>48354.74460351566</v>
       </c>
       <c r="D280">
-        <v>1089.374985204326</v>
+        <v>-723.7446035156609</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5721,13 +5721,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>47631</v>
+        <v>46168.3</v>
       </c>
       <c r="C281">
-        <v>48363.42584851244</v>
+        <v>47919.47297858167</v>
       </c>
       <c r="D281">
-        <v>-732.4258485124446</v>
+        <v>-1751.172978581671</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5735,13 +5735,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>46168.3</v>
+        <v>46864.3</v>
       </c>
       <c r="C282">
-        <v>47929.87894254146</v>
+        <v>46294.73930369262</v>
       </c>
       <c r="D282">
-        <v>-1761.578942541455</v>
+        <v>569.5606963073806</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5749,13 +5749,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>46864.3</v>
+        <v>46688.4</v>
       </c>
       <c r="C283">
-        <v>46300.1945885098</v>
+        <v>46486.48150815681</v>
       </c>
       <c r="D283">
-        <v>564.1054114902072</v>
+        <v>201.9184918431929</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5763,13 +5763,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>46688.4</v>
+        <v>46898.1</v>
       </c>
       <c r="C284">
-        <v>46482.61557993447</v>
+        <v>46848.46627917606</v>
       </c>
       <c r="D284">
-        <v>205.7844200655309</v>
+        <v>49.63372082393471</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5777,13 +5777,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>46898.1</v>
+        <v>48925.9</v>
       </c>
       <c r="C285">
-        <v>46845.37283769279</v>
+        <v>46624.26020561153</v>
       </c>
       <c r="D285">
-        <v>52.72716230720835</v>
+        <v>2301.639794388473</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5791,13 +5791,13 @@
         <v>288</v>
       </c>
       <c r="B286">
-        <v>48925.9</v>
+        <v>48624.9</v>
       </c>
       <c r="C286">
-        <v>46624.96131528312</v>
+        <v>48382.84518003993</v>
       </c>
       <c r="D286">
-        <v>2300.938684716886</v>
+        <v>242.0548199600671</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5805,13 +5805,13 @@
         <v>289</v>
       </c>
       <c r="B287">
-        <v>48624.9</v>
+        <v>50818.8</v>
       </c>
       <c r="C287">
-        <v>48381.74824028136</v>
+        <v>48757.22844698769</v>
       </c>
       <c r="D287">
-        <v>243.1517597186394</v>
+        <v>2061.571553012313</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5819,13 +5819,13 @@
         <v>290</v>
       </c>
       <c r="B288">
-        <v>50818.8</v>
+        <v>50834.3</v>
       </c>
       <c r="C288">
-        <v>48764.33898128397</v>
+        <v>50248.44759342953</v>
       </c>
       <c r="D288">
-        <v>2054.461018716029</v>
+        <v>585.8524065704696</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5833,13 +5833,13 @@
         <v>291</v>
       </c>
       <c r="B289">
-        <v>50834.3</v>
+        <v>50436</v>
       </c>
       <c r="C289">
-        <v>50253.05121063616</v>
+        <v>50994.85436903138</v>
       </c>
       <c r="D289">
-        <v>581.2487893638463</v>
+        <v>-558.8543690313818</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5847,13 +5847,13 @@
         <v>292</v>
       </c>
       <c r="B290">
-        <v>50436</v>
+        <v>50797.3</v>
       </c>
       <c r="C290">
-        <v>51008.29849598109</v>
+        <v>50547.16283546359</v>
       </c>
       <c r="D290">
-        <v>-572.2984959810856</v>
+        <v>250.1371645364125</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5861,13 +5861,13 @@
         <v>293</v>
       </c>
       <c r="B291">
-        <v>50797.3</v>
+        <v>50687.4</v>
       </c>
       <c r="C291">
-        <v>50556.74312842311</v>
+        <v>50557.48357979095</v>
       </c>
       <c r="D291">
-        <v>240.5568715768895</v>
+        <v>129.9164202090542</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5875,13 +5875,13 @@
         <v>294</v>
       </c>
       <c r="B292">
-        <v>50687.4</v>
+        <v>47548.1</v>
       </c>
       <c r="C292">
-        <v>50562.03393512362</v>
+        <v>50959.31743652635</v>
       </c>
       <c r="D292">
-        <v>125.3660648763835</v>
+        <v>-3411.217436526356</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5889,13 +5889,13 @@
         <v>295</v>
       </c>
       <c r="B293">
-        <v>47548.1</v>
+        <v>46473.2</v>
       </c>
       <c r="C293">
-        <v>50959.19945601819</v>
+        <v>48164.07200785534</v>
       </c>
       <c r="D293">
-        <v>-3411.099456018193</v>
+        <v>-1690.872007855345</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5903,13 +5903,13 @@
         <v>296</v>
       </c>
       <c r="B294">
-        <v>46473.2</v>
+        <v>47143.8</v>
       </c>
       <c r="C294">
-        <v>48160.72136070189</v>
+        <v>46660.57975874215</v>
       </c>
       <c r="D294">
-        <v>-1687.521360701896</v>
+        <v>483.2202412578481</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5917,13 +5917,13 @@
         <v>297</v>
       </c>
       <c r="B295">
-        <v>47143.8</v>
+        <v>46150</v>
       </c>
       <c r="C295">
-        <v>46642.76190899604</v>
+        <v>46901.96684728222</v>
       </c>
       <c r="D295">
-        <v>501.0380910039676</v>
+        <v>-751.9668472822232</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5931,13 +5931,13 @@
         <v>298</v>
       </c>
       <c r="B296">
-        <v>46150</v>
+        <v>47738.3</v>
       </c>
       <c r="C296">
-        <v>46880.20651039039</v>
+        <v>46430.04982502104</v>
       </c>
       <c r="D296">
-        <v>-730.2065103903878</v>
+        <v>1308.250174978966</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5945,13 +5945,13 @@
         <v>299</v>
       </c>
       <c r="B297">
-        <v>47738.3</v>
+        <v>47304.6</v>
       </c>
       <c r="C297">
-        <v>46413.47357438417</v>
+        <v>47288.63104487551</v>
       </c>
       <c r="D297">
-        <v>1324.826425615829</v>
+        <v>15.96895512448828</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5959,13 +5959,13 @@
         <v>300</v>
       </c>
       <c r="B298">
-        <v>47304.6</v>
+        <v>46452.6</v>
       </c>
       <c r="C298">
-        <v>47273.00142518559</v>
+        <v>47226.11955047533</v>
       </c>
       <c r="D298">
-        <v>31.59857481440849</v>
+        <v>-773.5195504753283</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5973,13 +5973,13 @@
         <v>301</v>
       </c>
       <c r="B299">
-        <v>46452.6</v>
+        <v>45858.5</v>
       </c>
       <c r="C299">
-        <v>47223.20918821922</v>
+        <v>46437.43494501212</v>
       </c>
       <c r="D299">
-        <v>-770.6091882192195</v>
+        <v>-578.9349450121226</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5987,13 +5987,13 @@
         <v>302</v>
       </c>
       <c r="B300">
-        <v>45858.5</v>
+        <v>43410</v>
       </c>
       <c r="C300">
-        <v>46436.82032826479</v>
+        <v>46067.86548804981</v>
       </c>
       <c r="D300">
-        <v>-578.3203282647883</v>
+        <v>-2657.865488049807</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6001,13 +6001,13 @@
         <v>303</v>
       </c>
       <c r="B301">
-        <v>43410</v>
+        <v>43124.4</v>
       </c>
       <c r="C301">
-        <v>46065.27735525588</v>
+        <v>43905.95705827005</v>
       </c>
       <c r="D301">
-        <v>-2655.277355255879</v>
+        <v>-781.5570582700529</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6015,13 +6015,13 @@
         <v>304</v>
       </c>
       <c r="B302">
-        <v>43124.4</v>
+        <v>41523.6</v>
       </c>
       <c r="C302">
-        <v>43902.15706766979</v>
+        <v>42975.26263963696</v>
       </c>
       <c r="D302">
-        <v>-777.7570676697869</v>
+        <v>-1451.662639636961</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6029,13 +6029,13 @@
         <v>305</v>
       </c>
       <c r="B303">
-        <v>41523.6</v>
+        <v>41693.2</v>
       </c>
       <c r="C303">
-        <v>42968.40410347481</v>
+        <v>41539.51121146759</v>
       </c>
       <c r="D303">
-        <v>-1444.804103474809</v>
+        <v>153.6887885324104</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6043,13 +6043,13 @@
         <v>306</v>
       </c>
       <c r="B304">
-        <v>41693.2</v>
+        <v>41862.9</v>
       </c>
       <c r="C304">
-        <v>41533.96379263414</v>
+        <v>41379.84359754756</v>
       </c>
       <c r="D304">
-        <v>159.2362073658587</v>
+        <v>483.0564024524429</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6057,13 +6057,13 @@
         <v>307</v>
       </c>
       <c r="B305">
-        <v>41862.9</v>
+        <v>41855.3</v>
       </c>
       <c r="C305">
-        <v>41369.23201482953</v>
+        <v>41748.13608313771</v>
       </c>
       <c r="D305">
-        <v>493.6679851704757</v>
+        <v>107.1639168622933</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6071,13 +6071,13 @@
         <v>308</v>
       </c>
       <c r="B306">
-        <v>41855.3</v>
+        <v>42728.8</v>
       </c>
       <c r="C306">
-        <v>41741.77584819726</v>
+        <v>41270.63389372124</v>
       </c>
       <c r="D306">
-        <v>113.5241518027469</v>
+        <v>1458.166106278761</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6085,13 +6085,13 @@
         <v>309</v>
       </c>
       <c r="B307">
-        <v>42728.8</v>
+        <v>43927.8</v>
       </c>
       <c r="C307">
-        <v>41274.07335173228</v>
+        <v>42354.57848024962</v>
       </c>
       <c r="D307">
-        <v>1454.726648267722</v>
+        <v>1573.221519750383</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6099,13 +6099,13 @@
         <v>310</v>
       </c>
       <c r="B308">
-        <v>43927.8</v>
+        <v>42550</v>
       </c>
       <c r="C308">
-        <v>42360.47282772488</v>
+        <v>43597.91834572869</v>
       </c>
       <c r="D308">
-        <v>1567.327172275123</v>
+        <v>-1047.918345728685</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6113,13 +6113,13 @@
         <v>311</v>
       </c>
       <c r="B309">
-        <v>42550</v>
+        <v>43090</v>
       </c>
       <c r="C309">
-        <v>43609.94554833387</v>
+        <v>42856.81975789653</v>
       </c>
       <c r="D309">
-        <v>-1059.945548333868</v>
+        <v>233.1802421034663</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6127,13 +6127,13 @@
         <v>312</v>
       </c>
       <c r="B310">
-        <v>43090</v>
+        <v>43111.5</v>
       </c>
       <c r="C310">
-        <v>42873.59332822243</v>
+        <v>42797.54666786664</v>
       </c>
       <c r="D310">
-        <v>216.4066717775713</v>
+        <v>313.9533321333583</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6141,13 +6141,13 @@
         <v>313</v>
       </c>
       <c r="B311">
-        <v>43111.5</v>
+        <v>43114.5</v>
       </c>
       <c r="C311">
-        <v>42809.12721362789</v>
+        <v>43077.2449163931</v>
       </c>
       <c r="D311">
-        <v>302.3727863721142</v>
+        <v>37.25508360689855</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6155,13 +6155,13 @@
         <v>314</v>
       </c>
       <c r="B312">
-        <v>43114.5</v>
+        <v>42248.1</v>
       </c>
       <c r="C312">
-        <v>43087.46550956654</v>
+        <v>43014.20788955578</v>
       </c>
       <c r="D312">
-        <v>27.03449043346336</v>
+        <v>-766.1078895557803</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6169,13 +6169,13 @@
         <v>315</v>
       </c>
       <c r="B313">
-        <v>42248.1</v>
+        <v>42383</v>
       </c>
       <c r="C313">
-        <v>43022.62295527902</v>
+        <v>42239.54737119711</v>
       </c>
       <c r="D313">
-        <v>-774.5229552790188</v>
+        <v>143.4526288028865</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6183,13 +6183,13 @@
         <v>316</v>
       </c>
       <c r="B314">
-        <v>42383</v>
+        <v>41686.2</v>
       </c>
       <c r="C314">
-        <v>42245.54110335882</v>
+        <v>42106.23392076112</v>
       </c>
       <c r="D314">
-        <v>137.4588966411829</v>
+        <v>-420.033920761125</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6197,13 +6197,13 @@
         <v>317</v>
       </c>
       <c r="B315">
-        <v>41686.2</v>
+        <v>40686.9</v>
       </c>
       <c r="C315">
-        <v>42107.80477202541</v>
+        <v>41678.9569178893</v>
       </c>
       <c r="D315">
-        <v>-421.6047720254137</v>
+        <v>-992.0569178892983</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6211,13 +6211,13 @@
         <v>318</v>
       </c>
       <c r="B316">
-        <v>40686.9</v>
+        <v>36468.4</v>
       </c>
       <c r="C316">
-        <v>41679.91591938751</v>
+        <v>41200.85111705979</v>
       </c>
       <c r="D316">
-        <v>-993.0159193875079</v>
+        <v>-4732.451117059791</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6225,13 +6225,13 @@
         <v>319</v>
       </c>
       <c r="B317">
-        <v>36468.4</v>
+        <v>35067.6</v>
       </c>
       <c r="C317">
-        <v>41195.08834122407</v>
+        <v>37146.70579287136</v>
       </c>
       <c r="D317">
-        <v>-4726.688341224064</v>
+        <v>-2079.105792871364</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6239,13 +6239,13 @@
         <v>320</v>
       </c>
       <c r="B318">
-        <v>35067.6</v>
+        <v>36277.5</v>
       </c>
       <c r="C318">
-        <v>37140.00001904182</v>
+        <v>35017.40485976779</v>
       </c>
       <c r="D318">
-        <v>-2072.400019041823</v>
+        <v>1260.09514023221</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6253,13 +6253,13 @@
         <v>321</v>
       </c>
       <c r="B319">
-        <v>36277.5</v>
+        <v>36699.5</v>
       </c>
       <c r="C319">
-        <v>34996.44883405531</v>
+        <v>35716.49587619049</v>
       </c>
       <c r="D319">
-        <v>1281.051165944693</v>
+        <v>983.0041238095146</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6267,13 +6267,13 @@
         <v>322</v>
       </c>
       <c r="B320">
-        <v>36699.5</v>
+        <v>36987.8</v>
       </c>
       <c r="C320">
-        <v>35692.60178701917</v>
+        <v>35824.70602255847</v>
       </c>
       <c r="D320">
-        <v>1006.898212980828</v>
+        <v>1163.093977441531</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6281,13 +6281,13 @@
         <v>323</v>
       </c>
       <c r="B321">
-        <v>36987.8</v>
+        <v>36827.6</v>
       </c>
       <c r="C321">
-        <v>35815.8924777818</v>
+        <v>36655.69927476614</v>
       </c>
       <c r="D321">
-        <v>1171.9075222182</v>
+        <v>171.9007252338561</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6295,13 +6295,13 @@
         <v>324</v>
       </c>
       <c r="B322">
-        <v>36827.6</v>
+        <v>37200.5</v>
       </c>
       <c r="C322">
-        <v>36651.64466064636</v>
+        <v>37041.10101503096</v>
       </c>
       <c r="D322">
-        <v>175.9553393536407</v>
+        <v>159.3989849690406</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6309,13 +6309,13 @@
         <v>325</v>
       </c>
       <c r="B323">
-        <v>37200.5</v>
+        <v>37737.9</v>
       </c>
       <c r="C323">
-        <v>37041.09016525213</v>
+        <v>36711.71156193683</v>
       </c>
       <c r="D323">
-        <v>159.4098347478721</v>
+        <v>1026.188438063175</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6323,13 +6323,13 @@
         <v>326</v>
       </c>
       <c r="B324">
-        <v>37737.9</v>
+        <v>38164.9</v>
       </c>
       <c r="C324">
-        <v>36720.20730309683</v>
+        <v>37347.23626986553</v>
       </c>
       <c r="D324">
-        <v>1017.69269690317</v>
+        <v>817.6637301344672</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6337,13 +6337,13 @@
         <v>327</v>
       </c>
       <c r="B325">
-        <v>38164.9</v>
+        <v>37930.1</v>
       </c>
       <c r="C325">
-        <v>37360.0332308271</v>
+        <v>38018.93224452695</v>
       </c>
       <c r="D325">
-        <v>804.8667691728988</v>
+        <v>-88.8322445269514</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6351,13 +6351,13 @@
         <v>328</v>
       </c>
       <c r="B326">
-        <v>37930.1</v>
+        <v>38512.1</v>
       </c>
       <c r="C326">
-        <v>38033.13154949876</v>
+        <v>37834.97856972687</v>
       </c>
       <c r="D326">
-        <v>-103.0315494987663</v>
+        <v>677.1214302731314</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6365,13 +6365,13 @@
         <v>329</v>
       </c>
       <c r="B327">
-        <v>38512.1</v>
+        <v>38719.9</v>
       </c>
       <c r="C327">
-        <v>37849.36995316821</v>
+        <v>38074.35987146682</v>
       </c>
       <c r="D327">
-        <v>662.7300468317917</v>
+        <v>645.5401285331827</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6379,13 +6379,13 @@
         <v>330</v>
       </c>
       <c r="B328">
-        <v>38719.9</v>
+        <v>36903.3</v>
       </c>
       <c r="C328">
-        <v>38085.37062077085</v>
+        <v>38652.10119571042</v>
       </c>
       <c r="D328">
-        <v>634.5293792291559</v>
+        <v>-1748.801195710417</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6393,13 +6393,13 @@
         <v>331</v>
       </c>
       <c r="B329">
-        <v>36903.3</v>
+        <v>37324.4</v>
       </c>
       <c r="C329">
-        <v>38662.41882372581</v>
+        <v>37219.46431835578</v>
       </c>
       <c r="D329">
-        <v>-1759.118823725803</v>
+        <v>104.9356816442232</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6407,13 +6407,13 @@
         <v>332</v>
       </c>
       <c r="B330">
-        <v>37324.4</v>
+        <v>41585.5</v>
       </c>
       <c r="C330">
-        <v>37227.1125248943</v>
+        <v>37012.73969225373</v>
       </c>
       <c r="D330">
-        <v>97.28747510570247</v>
+        <v>4572.76030774627</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6421,13 +6421,13 @@
         <v>333</v>
       </c>
       <c r="B331">
-        <v>41585.5</v>
+        <v>41419</v>
       </c>
       <c r="C331">
-        <v>37011.63318480333</v>
+        <v>40508.11784608784</v>
       </c>
       <c r="D331">
-        <v>4573.86681519667</v>
+        <v>910.8821539121564</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6435,13 +6435,13 @@
         <v>334</v>
       </c>
       <c r="B332">
-        <v>41419</v>
+        <v>42419.5</v>
       </c>
       <c r="C332">
-        <v>40504.46195666021</v>
+        <v>41449.44454185772</v>
       </c>
       <c r="D332">
-        <v>914.538043339795</v>
+        <v>970.0554581422766</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6449,13 +6449,13 @@
         <v>335</v>
       </c>
       <c r="B333">
-        <v>42419.5</v>
+        <v>43867.2</v>
       </c>
       <c r="C333">
-        <v>41465.50438217266</v>
+        <v>42229.60576145109</v>
       </c>
       <c r="D333">
-        <v>953.9956178273424</v>
+        <v>1637.594238548903</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6463,13 +6463,13 @@
         <v>336</v>
       </c>
       <c r="B334">
-        <v>43867.2</v>
+        <v>44079.1</v>
       </c>
       <c r="C334">
-        <v>42240.00106943669</v>
+        <v>43594.99378902977</v>
       </c>
       <c r="D334">
-        <v>1627.198930563303</v>
+        <v>484.1062109702252</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6477,13 +6477,13 @@
         <v>337</v>
       </c>
       <c r="B335">
-        <v>44079.1</v>
+        <v>44420</v>
       </c>
       <c r="C335">
-        <v>43605.61326846137</v>
+        <v>44185.86898214312</v>
       </c>
       <c r="D335">
-        <v>473.4867315386291</v>
+        <v>234.131017856882</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6491,13 +6491,13 @@
         <v>338</v>
       </c>
       <c r="B336">
-        <v>44420</v>
+        <v>43537.5</v>
       </c>
       <c r="C336">
-        <v>44197.29922996403</v>
+        <v>44349.09383580298</v>
       </c>
       <c r="D336">
-        <v>222.7007700359682</v>
+        <v>-811.5938358029816</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6505,13 +6505,13 @@
         <v>339</v>
       </c>
       <c r="B337">
-        <v>43537.5</v>
+        <v>42400.2</v>
       </c>
       <c r="C337">
-        <v>44357.92244556468</v>
+        <v>44128.28480407855</v>
       </c>
       <c r="D337">
-        <v>-820.4224455646763</v>
+        <v>-1728.084804078549</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6519,13 +6519,13 @@
         <v>340</v>
       </c>
       <c r="B338">
-        <v>42400.2</v>
+        <v>42241</v>
       </c>
       <c r="C338">
-        <v>44129.55193943408</v>
+        <v>42729.67720047256</v>
       </c>
       <c r="D338">
-        <v>-1729.351939434084</v>
+        <v>-488.6772004725644</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6533,13 +6533,13 @@
         <v>341</v>
       </c>
       <c r="B339">
-        <v>42241</v>
+        <v>42062.6</v>
       </c>
       <c r="C339">
-        <v>42723.21110062292</v>
+        <v>42344.01407723903</v>
       </c>
       <c r="D339">
-        <v>-482.2111006229243</v>
+        <v>-281.414077239031</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6547,13 +6547,13 @@
         <v>342</v>
       </c>
       <c r="B340">
-        <v>42062.6</v>
+        <v>42563.5</v>
       </c>
       <c r="C340">
-        <v>42330.62835424731</v>
+        <v>42210.48243981024</v>
       </c>
       <c r="D340">
-        <v>-268.0283542473117</v>
+        <v>353.0175601897645</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6561,13 +6561,13 @@
         <v>343</v>
       </c>
       <c r="B341">
-        <v>42563.5</v>
+        <v>44563.1</v>
       </c>
       <c r="C341">
-        <v>42194.91225002776</v>
+        <v>42415.50976969086</v>
       </c>
       <c r="D341">
-        <v>368.587749972241</v>
+        <v>2147.590230309135</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6575,13 +6575,13 @@
         <v>344</v>
       </c>
       <c r="B342">
-        <v>44563.1</v>
+        <v>43873.1</v>
       </c>
       <c r="C342">
-        <v>42401.81419541466</v>
+        <v>44149.0612083732</v>
       </c>
       <c r="D342">
-        <v>2161.285804585343</v>
+        <v>-275.961208373199</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6589,13 +6589,13 @@
         <v>345</v>
       </c>
       <c r="B343">
-        <v>43873.1</v>
+        <v>40543.9</v>
       </c>
       <c r="C343">
-        <v>44139.00740390777</v>
+        <v>43949.5121688935</v>
       </c>
       <c r="D343">
-        <v>-265.907403907775</v>
+        <v>-3405.612168893502</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6603,13 +6603,13 @@
         <v>346</v>
       </c>
       <c r="B344">
-        <v>40543.9</v>
+        <v>40007.4</v>
       </c>
       <c r="C344">
-        <v>43952.11324290658</v>
+        <v>41275.06092255196</v>
       </c>
       <c r="D344">
-        <v>-3408.213242906575</v>
+        <v>-1267.660922551957</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6617,13 +6617,13 @@
         <v>347</v>
       </c>
       <c r="B345">
-        <v>40007.4</v>
+        <v>40095.8</v>
       </c>
       <c r="C345">
-        <v>41273.96373749926</v>
+        <v>40065.31017453742</v>
       </c>
       <c r="D345">
-        <v>-1266.563737499258</v>
+        <v>30.48982546258776</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6631,13 +6631,13 @@
         <v>348</v>
       </c>
       <c r="B346">
-        <v>40095.8</v>
+        <v>38400</v>
       </c>
       <c r="C346">
-        <v>40054.47481968906</v>
+        <v>40029.1860813908</v>
       </c>
       <c r="D346">
-        <v>41.32518031094514</v>
+        <v>-1629.186081390799</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6645,13 +6645,13 @@
         <v>349</v>
       </c>
       <c r="B347">
-        <v>38400</v>
+        <v>37019.2</v>
       </c>
       <c r="C347">
-        <v>40018.69226346718</v>
+        <v>38640.32949232499</v>
       </c>
       <c r="D347">
-        <v>-1618.692263467179</v>
+        <v>-1621.129492324995</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6659,13 +6659,13 @@
         <v>350</v>
       </c>
       <c r="B348">
-        <v>37019.2</v>
+        <v>38256.3</v>
       </c>
       <c r="C348">
-        <v>38633.41438369887</v>
+        <v>37440.07115553931</v>
       </c>
       <c r="D348">
-        <v>-1614.214383698869</v>
+        <v>816.2288444606966</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6673,13 +6673,13 @@
         <v>351</v>
       </c>
       <c r="B349">
-        <v>38256.3</v>
+        <v>37250.1</v>
       </c>
       <c r="C349">
-        <v>37427.4457423414</v>
+        <v>37735.68082742643</v>
       </c>
       <c r="D349">
-        <v>828.8542576586042</v>
+        <v>-485.5808274264346</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6687,13 +6687,13 @@
         <v>352</v>
       </c>
       <c r="B350">
-        <v>37250.1</v>
+        <v>38340.8</v>
       </c>
       <c r="C350">
-        <v>37723.96972839921</v>
+        <v>37569.32557683112</v>
       </c>
       <c r="D350">
-        <v>-473.8697283992151</v>
+        <v>771.4744231688819</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6701,13 +6701,13 @@
         <v>353</v>
       </c>
       <c r="B351">
-        <v>38340.8</v>
+        <v>39233.5</v>
       </c>
       <c r="C351">
-        <v>37567.33593588547</v>
+        <v>37661.23221013776</v>
       </c>
       <c r="D351">
-        <v>773.4640641145379</v>
+        <v>1572.267789862235</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6715,13 +6715,13 @@
         <v>354</v>
       </c>
       <c r="B352">
-        <v>39233.5</v>
+        <v>39120.2</v>
       </c>
       <c r="C352">
-        <v>37665.01696084283</v>
+        <v>39027.05473979271</v>
       </c>
       <c r="D352">
-        <v>1568.483039157174</v>
+        <v>93.14526020728226</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6729,13 +6729,13 @@
         <v>355</v>
       </c>
       <c r="B353">
-        <v>39120.2</v>
+        <v>37709.1</v>
       </c>
       <c r="C353">
-        <v>39036.82958937192</v>
+        <v>39239.21082172921</v>
       </c>
       <c r="D353">
-        <v>83.37041062807839</v>
+        <v>-1530.110821729213</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6743,13 +6743,13 @@
         <v>356</v>
       </c>
       <c r="B354">
-        <v>37709.1</v>
+        <v>43194.7</v>
       </c>
       <c r="C354">
-        <v>39252.96789796904</v>
+        <v>38023.60290819197</v>
       </c>
       <c r="D354">
-        <v>-1543.867897969038</v>
+        <v>5171.097091808027</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6757,13 +6757,13 @@
         <v>357</v>
       </c>
       <c r="B355">
-        <v>43194.7</v>
+        <v>44427.9</v>
       </c>
       <c r="C355">
-        <v>38037.36580298727</v>
+        <v>42065.83521168574</v>
       </c>
       <c r="D355">
-        <v>5157.334197012722</v>
+        <v>2362.064788314259</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6771,13 +6771,13 @@
         <v>358</v>
       </c>
       <c r="B356">
-        <v>44427.9</v>
+        <v>43922.5</v>
       </c>
       <c r="C356">
-        <v>42070.00264537998</v>
+        <v>44348.11352606351</v>
       </c>
       <c r="D356">
-        <v>2357.897354620021</v>
+        <v>-425.6135260635056</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6785,13 +6785,13 @@
         <v>359</v>
       </c>
       <c r="B357">
-        <v>43922.5</v>
+        <v>42465</v>
       </c>
       <c r="C357">
-        <v>44380.08289281913</v>
+        <v>44280.41735120988</v>
       </c>
       <c r="D357">
-        <v>-457.5828928191331</v>
+        <v>-1815.417351209879</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6799,13 +6799,13 @@
         <v>360</v>
       </c>
       <c r="B358">
-        <v>42465</v>
+        <v>39137.5</v>
       </c>
       <c r="C358">
-        <v>44308.99194686921</v>
+        <v>42816.06175914104</v>
       </c>
       <c r="D358">
-        <v>-1843.99194686921</v>
+        <v>-3678.561759141041</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6813,13 +6813,13 @@
         <v>361</v>
       </c>
       <c r="B359">
-        <v>39137.5</v>
+        <v>39396.4</v>
       </c>
       <c r="C359">
-        <v>42835.34249115465</v>
+        <v>39836.71637856751</v>
       </c>
       <c r="D359">
-        <v>-3697.842491154646</v>
+        <v>-440.316378567506</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6827,13 +6827,13 @@
         <v>362</v>
       </c>
       <c r="B360">
-        <v>39396.4</v>
+        <v>38416.3</v>
       </c>
       <c r="C360">
-        <v>39843.49646987353</v>
+        <v>39266.11056267831</v>
       </c>
       <c r="D360">
-        <v>-447.0964698735261</v>
+        <v>-849.8105626783072</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6841,13 +6841,13 @@
         <v>363</v>
       </c>
       <c r="B361">
-        <v>38416.3</v>
+        <v>38024</v>
       </c>
       <c r="C361">
-        <v>39254.7367332282</v>
+        <v>38636.85302201434</v>
       </c>
       <c r="D361">
-        <v>-838.4367332281981</v>
+        <v>-612.8530220143439</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6855,13 +6855,13 @@
         <v>364</v>
       </c>
       <c r="B362">
-        <v>38024</v>
+        <v>38752.6</v>
       </c>
       <c r="C362">
-        <v>38624.72327457872</v>
+        <v>38137.5763326117</v>
       </c>
       <c r="D362">
-        <v>-600.7232745787187</v>
+        <v>615.0236673882973</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6869,13 +6869,13 @@
         <v>365</v>
       </c>
       <c r="B363">
-        <v>38752.6</v>
+        <v>41965.3</v>
       </c>
       <c r="C363">
-        <v>38118.69477564914</v>
+        <v>38647.43457874804</v>
       </c>
       <c r="D363">
-        <v>633.9052243508559</v>
+        <v>3317.865421251961</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6883,13 +6883,13 @@
         <v>366</v>
       </c>
       <c r="B364">
-        <v>41965.3</v>
+        <v>39435.8</v>
       </c>
       <c r="C364">
-        <v>38631.10249229576</v>
+        <v>41339.68179903898</v>
       </c>
       <c r="D364">
-        <v>3334.197507704244</v>
+        <v>-1903.88179903898</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6897,13 +6897,13 @@
         <v>367</v>
       </c>
       <c r="B365">
-        <v>39435.8</v>
+        <v>38732.1</v>
       </c>
       <c r="C365">
-        <v>41329.94289163232</v>
+        <v>39872.70111258794</v>
       </c>
       <c r="D365">
-        <v>-1894.14289163232</v>
+        <v>-1140.601112587938</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6911,13 +6911,13 @@
         <v>368</v>
       </c>
       <c r="B366">
-        <v>38732.1</v>
+        <v>38785</v>
       </c>
       <c r="C366">
-        <v>39882.85020974098</v>
+        <v>38975.72166492848</v>
       </c>
       <c r="D366">
-        <v>-1150.750209740982</v>
+        <v>-190.7216649284819</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6925,13 +6925,13 @@
         <v>369</v>
       </c>
       <c r="B367">
-        <v>38785</v>
+        <v>37788.4</v>
       </c>
       <c r="C367">
-        <v>38976.77314634382</v>
+        <v>38924.00780849741</v>
       </c>
       <c r="D367">
-        <v>-191.7731463438249</v>
+        <v>-1135.607808497407</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6939,13 +6939,13 @@
         <v>370</v>
       </c>
       <c r="B368">
-        <v>37788.4</v>
+        <v>39689.2</v>
       </c>
       <c r="C368">
-        <v>38922.09308002595</v>
+        <v>38066.54442029775</v>
       </c>
       <c r="D368">
-        <v>-1133.693080025951</v>
+        <v>1622.655579702245</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6953,13 +6953,13 @@
         <v>371</v>
       </c>
       <c r="B369">
-        <v>39689.2</v>
+        <v>39325.4</v>
       </c>
       <c r="C369">
-        <v>38066.27229436801</v>
+        <v>39224.47236157095</v>
       </c>
       <c r="D369">
-        <v>1622.927705631984</v>
+        <v>100.9276384290497</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6967,13 +6967,13 @@
         <v>372</v>
       </c>
       <c r="B370">
-        <v>39325.4</v>
+        <v>41124</v>
       </c>
       <c r="C370">
-        <v>39221.35359063296</v>
+        <v>39182.89617912285</v>
       </c>
       <c r="D370">
-        <v>104.046409367038</v>
+        <v>1941.10382087715</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6981,13 +6981,13 @@
         <v>373</v>
       </c>
       <c r="B371">
-        <v>41124</v>
+        <v>40945.6</v>
       </c>
       <c r="C371">
-        <v>39190.33684280771</v>
+        <v>40728.98815607172</v>
       </c>
       <c r="D371">
-        <v>1933.663157192292</v>
+        <v>216.61184392828</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6995,13 +6995,13 @@
         <v>374</v>
       </c>
       <c r="B372">
-        <v>40945.6</v>
+        <v>41775.1</v>
       </c>
       <c r="C372">
-        <v>40734.82731699842</v>
+        <v>41015.79313302602</v>
       </c>
       <c r="D372">
-        <v>210.7726830015818</v>
+        <v>759.3068669739805</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7009,13 +7009,13 @@
         <v>375</v>
       </c>
       <c r="B373">
-        <v>41775.1</v>
+        <v>42218</v>
       </c>
       <c r="C373">
-        <v>41030.29010612302</v>
+        <v>41584.16309292582</v>
       </c>
       <c r="D373">
-        <v>744.8098938769763</v>
+        <v>633.8369070741755</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7023,13 +7023,13 @@
         <v>376</v>
       </c>
       <c r="B374">
-        <v>42218</v>
+        <v>41289</v>
       </c>
       <c r="C374">
-        <v>41596.10422587433</v>
+        <v>42154.75785604192</v>
       </c>
       <c r="D374">
-        <v>621.8957741256745</v>
+        <v>-865.7578560419206</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7037,13 +7037,13 @@
         <v>377</v>
       </c>
       <c r="B375">
-        <v>41289</v>
+        <v>41014.3</v>
       </c>
       <c r="C375">
-        <v>42168.97244784425</v>
+        <v>41507.50828264438</v>
       </c>
       <c r="D375">
-        <v>-879.9724478442513</v>
+        <v>-493.2082826443802</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7051,13 +7051,13 @@
         <v>378</v>
       </c>
       <c r="B376">
-        <v>41014.3</v>
+        <v>42377.8</v>
       </c>
       <c r="C376">
-        <v>41520.26014537309</v>
+        <v>41065.20941119679</v>
       </c>
       <c r="D376">
-        <v>-505.9601453730866</v>
+        <v>1312.590588803214</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7065,13 +7065,13 @@
         <v>379</v>
       </c>
       <c r="B377">
-        <v>42377.8</v>
+        <v>42910.3</v>
       </c>
       <c r="C377">
-        <v>41069.14329438293</v>
+        <v>42315.28317319916</v>
       </c>
       <c r="D377">
-        <v>1308.656705617075</v>
+        <v>595.016826800842</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7079,13 +7079,13 @@
         <v>380</v>
       </c>
       <c r="B378">
-        <v>42910.3</v>
+        <v>43989</v>
       </c>
       <c r="C378">
-        <v>42312.68946014831</v>
+        <v>42747.59414231993</v>
       </c>
       <c r="D378">
-        <v>597.6105398516956</v>
+        <v>1241.405857680074</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7093,13 +7093,13 @@
         <v>381</v>
       </c>
       <c r="B379">
-        <v>43989</v>
+        <v>44315.5</v>
       </c>
       <c r="C379">
-        <v>42751.66079915376</v>
+        <v>43807.05120004341</v>
       </c>
       <c r="D379">
-        <v>1237.33920084624</v>
+        <v>508.4487999565899</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7107,13 +7107,13 @@
         <v>382</v>
       </c>
       <c r="B380">
-        <v>44315.5</v>
+        <v>44548</v>
       </c>
       <c r="C380">
-        <v>43810.65489882953</v>
+        <v>44462.8206451899</v>
       </c>
       <c r="D380">
-        <v>504.8451011704747</v>
+        <v>85.17935481009772</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7121,13 +7121,13 @@
         <v>383</v>
       </c>
       <c r="B381">
-        <v>44548</v>
+        <v>46855.2</v>
       </c>
       <c r="C381">
-        <v>44470.85581104236</v>
+        <v>44626.23350502556</v>
       </c>
       <c r="D381">
-        <v>77.14418895763811</v>
+        <v>2228.966494974433</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7135,13 +7135,13 @@
         <v>384</v>
       </c>
       <c r="B382">
-        <v>46855.2</v>
+        <v>47137.9</v>
       </c>
       <c r="C382">
-        <v>44632.44035279282</v>
+        <v>46431.28252262701</v>
       </c>
       <c r="D382">
-        <v>2222.759647207175</v>
+        <v>706.6174773729945</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7149,13 +7149,13 @@
         <v>385</v>
       </c>
       <c r="B383">
-        <v>47137.9</v>
+        <v>47440.2</v>
       </c>
       <c r="C383">
-        <v>46434.79839301665</v>
+        <v>47496.04189378684</v>
       </c>
       <c r="D383">
-        <v>703.1016069833495</v>
+        <v>-55.84189378684096</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7163,13 +7163,13 @@
         <v>386</v>
       </c>
       <c r="B384">
-        <v>47440.2</v>
+        <v>47059.3</v>
       </c>
       <c r="C384">
-        <v>47510.11950361021</v>
+        <v>47659.94125886378</v>
       </c>
       <c r="D384">
-        <v>-69.91950361021736</v>
+        <v>-600.6412588637759</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7177,13 +7177,13 @@
         <v>387</v>
       </c>
       <c r="B385">
-        <v>47059.3</v>
+        <v>45524.3</v>
       </c>
       <c r="C385">
-        <v>47667.50314524406</v>
+        <v>47267.60529512042</v>
       </c>
       <c r="D385">
-        <v>-608.2031452440569</v>
+        <v>-1743.305295120415</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7191,13 +7191,13 @@
         <v>388</v>
       </c>
       <c r="B386">
-        <v>45524.3</v>
+        <v>46312</v>
       </c>
       <c r="C386">
-        <v>47273.15698287805</v>
+        <v>46069.23724958216</v>
       </c>
       <c r="D386">
-        <v>-1748.856982878046</v>
+        <v>242.7627504178381</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7205,13 +7205,13 @@
         <v>389</v>
       </c>
       <c r="B387">
-        <v>46312</v>
+        <v>45828.6</v>
       </c>
       <c r="C387">
-        <v>46067.80486437582</v>
+        <v>46025.90979360603</v>
       </c>
       <c r="D387">
-        <v>244.1951356241771</v>
+        <v>-197.3097936060294</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7219,13 +7219,13 @@
         <v>390</v>
       </c>
       <c r="B388">
-        <v>45828.6</v>
+        <v>46423.4</v>
       </c>
       <c r="C388">
-        <v>46019.29412109056</v>
+        <v>46200.15991012956</v>
       </c>
       <c r="D388">
-        <v>-190.694121090557</v>
+        <v>223.2400898704436</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7233,13 +7233,13 @@
         <v>391</v>
       </c>
       <c r="B389">
-        <v>46423.4</v>
+        <v>46617.1</v>
       </c>
       <c r="C389">
-        <v>46193.38735702538</v>
+        <v>46529.16031049687</v>
       </c>
       <c r="D389">
-        <v>230.0126429746233</v>
+        <v>87.93968950313138</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7247,13 +7247,13 @@
         <v>392</v>
       </c>
       <c r="B390">
-        <v>46617.1</v>
+        <v>45479.2</v>
       </c>
       <c r="C390">
-        <v>46518.81834769485</v>
+        <v>46401.99451695065</v>
       </c>
       <c r="D390">
-        <v>98.28165230515151</v>
+        <v>-922.7945169506565</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7261,13 +7261,13 @@
         <v>393</v>
       </c>
       <c r="B391">
-        <v>45479.2</v>
+        <v>43179.4</v>
       </c>
       <c r="C391">
-        <v>46400.48087065038</v>
+        <v>45899.68212184944</v>
       </c>
       <c r="D391">
-        <v>-921.2808706503856</v>
+        <v>-2720.282121849443</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7275,13 +7275,13 @@
         <v>394</v>
       </c>
       <c r="B392">
-        <v>43179.4</v>
+        <v>43469.8</v>
       </c>
       <c r="C392">
-        <v>45897.69844857327</v>
+        <v>43730.73068912837</v>
       </c>
       <c r="D392">
-        <v>-2718.298448573267</v>
+        <v>-260.9306891283632</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7289,13 +7289,13 @@
         <v>395</v>
       </c>
       <c r="B393">
-        <v>43469.8</v>
+        <v>42282.6</v>
       </c>
       <c r="C393">
-        <v>43727.56194998792</v>
+        <v>43393.19057013828</v>
       </c>
       <c r="D393">
-        <v>-257.761949987922</v>
+        <v>-1110.59057013828</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7303,13 +7303,13 @@
         <v>396</v>
       </c>
       <c r="B394">
-        <v>42282.6</v>
+        <v>42764</v>
       </c>
       <c r="C394">
-        <v>43383.25267168652</v>
+        <v>42607.28843185073</v>
       </c>
       <c r="D394">
-        <v>-1100.652671686526</v>
+        <v>156.7115681492724</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7317,13 +7317,13 @@
         <v>397</v>
       </c>
       <c r="B395">
-        <v>42764</v>
+        <v>42160</v>
       </c>
       <c r="C395">
-        <v>42600.41982265684</v>
+        <v>42574.19426768762</v>
       </c>
       <c r="D395">
-        <v>163.5801773431594</v>
+        <v>-414.1942676876206</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7331,13 +7331,13 @@
         <v>398</v>
       </c>
       <c r="B396">
-        <v>42160</v>
+        <v>39534.6</v>
       </c>
       <c r="C396">
-        <v>42567.43748790625</v>
+        <v>42311.05605510774</v>
       </c>
       <c r="D396">
-        <v>-407.4374879062525</v>
+        <v>-2776.456055107737</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7345,13 +7345,13 @@
         <v>399</v>
       </c>
       <c r="B397">
-        <v>39534.6</v>
+        <v>40078.7</v>
       </c>
       <c r="C397">
-        <v>42308.79163204125</v>
+        <v>40039.99295832808</v>
       </c>
       <c r="D397">
-        <v>-2774.191632041249</v>
+        <v>38.70704167192162</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7359,13 +7359,13 @@
         <v>400</v>
       </c>
       <c r="B398">
-        <v>40078.7</v>
+        <v>41150</v>
       </c>
       <c r="C398">
-        <v>40039.27033071019</v>
+        <v>39922.4137607856</v>
       </c>
       <c r="D398">
-        <v>39.42966928980604</v>
+        <v>1227.586239214404</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7373,13 +7373,13 @@
         <v>401</v>
       </c>
       <c r="B399">
-        <v>41150</v>
+        <v>39954.9</v>
       </c>
       <c r="C399">
-        <v>39916.42766754757</v>
+        <v>40800.32762831548</v>
       </c>
       <c r="D399">
-        <v>1233.57233245243</v>
+        <v>-845.4276283154832</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7387,13 +7387,13 @@
         <v>402</v>
       </c>
       <c r="B400">
-        <v>39954.9</v>
+        <v>40569.9</v>
       </c>
       <c r="C400">
-        <v>40802.60733594393</v>
+        <v>40148.51036085849</v>
       </c>
       <c r="D400">
-        <v>-847.707335943931</v>
+        <v>421.389639141511</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7401,13 +7401,13 @@
         <v>403</v>
       </c>
       <c r="B401">
-        <v>40569.9</v>
+        <v>40381</v>
       </c>
       <c r="C401">
-        <v>40158.12561110395</v>
+        <v>40384.45116560513</v>
       </c>
       <c r="D401">
-        <v>411.7743888960467</v>
+        <v>-3.451165605132701</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7415,13 +7415,13 @@
         <v>404</v>
       </c>
       <c r="B402">
-        <v>40381</v>
+        <v>39681.2</v>
       </c>
       <c r="C402">
-        <v>40392.06273817446</v>
+        <v>40302.24320120129</v>
       </c>
       <c r="D402">
-        <v>-11.06273817445617</v>
+        <v>-621.0432012012898</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7429,13 +7429,13 @@
         <v>405</v>
       </c>
       <c r="B403">
-        <v>39681.2</v>
+        <v>40811.3</v>
       </c>
       <c r="C403">
-        <v>40314.14277927662</v>
+        <v>39802.93259146079</v>
       </c>
       <c r="D403">
-        <v>-632.9427792766219</v>
+        <v>1008.367408539212</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7443,13 +7443,13 @@
         <v>406</v>
       </c>
       <c r="B404">
-        <v>40811.3</v>
+        <v>41506.2</v>
       </c>
       <c r="C404">
-        <v>39814.46695103263</v>
+        <v>40288.61568045145</v>
       </c>
       <c r="D404">
-        <v>996.8330489673681</v>
+        <v>1217.58431954855</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7457,13 +7457,13 @@
         <v>407</v>
       </c>
       <c r="B405">
-        <v>41506.2</v>
+        <v>41369.9</v>
       </c>
       <c r="C405">
-        <v>40299.52250864729</v>
+        <v>41342.33877835929</v>
       </c>
       <c r="D405">
-        <v>1206.677491352704</v>
+        <v>27.56122164070985</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7471,13 +7471,13 @@
         <v>408</v>
       </c>
       <c r="B406">
-        <v>41369.9</v>
+        <v>40484.1</v>
       </c>
       <c r="C406">
-        <v>41356.31306736209</v>
+        <v>41445.36456129895</v>
       </c>
       <c r="D406">
-        <v>13.58693263791065</v>
+        <v>-961.2645612989509</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7485,13 +7485,13 @@
         <v>409</v>
       </c>
       <c r="B407">
-        <v>40484.1</v>
+        <v>39715.9</v>
       </c>
       <c r="C407">
-        <v>41460.7491278759</v>
+        <v>40866.61340323419</v>
       </c>
       <c r="D407">
-        <v>-976.6491278758986</v>
+        <v>-1150.713403234193</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7499,13 +7499,13 @@
         <v>410</v>
       </c>
       <c r="B408">
-        <v>39715.9</v>
+        <v>39435.6</v>
       </c>
       <c r="C408">
-        <v>40877.12006705656</v>
+        <v>39797.56796866341</v>
       </c>
       <c r="D408">
-        <v>-1161.220067056558</v>
+        <v>-361.9679686634117</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7513,13 +7513,13 @@
         <v>411</v>
       </c>
       <c r="B409">
-        <v>39435.6</v>
+        <v>39467.9</v>
       </c>
       <c r="C409">
-        <v>39804.67561875237</v>
+        <v>39481.14400427524</v>
       </c>
       <c r="D409">
-        <v>-369.075618752373</v>
+        <v>-13.24400427523506</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7527,13 +7527,13 @@
         <v>412</v>
       </c>
       <c r="B410">
-        <v>39467.9</v>
+        <v>40438.5</v>
       </c>
       <c r="C410">
-        <v>39482.9772219052</v>
+        <v>39416.64025118394</v>
       </c>
       <c r="D410">
-        <v>-15.07722190519416</v>
+        <v>1021.859748816059</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7541,13 +7541,13 @@
         <v>413</v>
       </c>
       <c r="B411">
-        <v>40438.5</v>
+        <v>38121.7</v>
       </c>
       <c r="C411">
-        <v>39416.09399886653</v>
+        <v>39921.1321569955</v>
       </c>
       <c r="D411">
-        <v>1022.406001133466</v>
+        <v>-1799.432156995506</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7555,13 +7555,13 @@
         <v>414</v>
       </c>
       <c r="B412">
-        <v>38121.7</v>
+        <v>39249.9</v>
       </c>
       <c r="C412">
-        <v>39921.68702060089</v>
+        <v>38575.52768224641</v>
       </c>
       <c r="D412">
-        <v>-1799.987020600893</v>
+        <v>674.372317753594</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7569,13 +7569,13 @@
         <v>415</v>
       </c>
       <c r="B413">
-        <v>39249.9</v>
+        <v>39752.8</v>
       </c>
       <c r="C413">
-        <v>38578.10987036256</v>
+        <v>38916.43412454068</v>
       </c>
       <c r="D413">
-        <v>671.7901296374403</v>
+        <v>836.3658754593198</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7583,13 +7583,13 @@
         <v>416</v>
       </c>
       <c r="B414">
-        <v>39752.8</v>
+        <v>38599.5</v>
       </c>
       <c r="C414">
-        <v>38910.61795774361</v>
+        <v>39654.617958302</v>
       </c>
       <c r="D414">
-        <v>842.1820422563906</v>
+        <v>-1055.117958301998</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7597,13 +7597,13 @@
         <v>417</v>
       </c>
       <c r="B415">
-        <v>38599.5</v>
+        <v>37660.8</v>
       </c>
       <c r="C415">
-        <v>39655.85101838378</v>
+        <v>38760.83488432947</v>
       </c>
       <c r="D415">
-        <v>-1056.351018383779</v>
+        <v>-1100.034884329463</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7611,13 +7611,13 @@
         <v>418</v>
       </c>
       <c r="B416">
-        <v>37660.8</v>
+        <v>38474.1</v>
       </c>
       <c r="C416">
-        <v>38765.24318261311</v>
+        <v>37843.42623781651</v>
       </c>
       <c r="D416">
-        <v>-1104.443182613104</v>
+        <v>630.6737621834836</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7625,13 +7625,13 @@
         <v>419</v>
       </c>
       <c r="B417">
-        <v>38474.1</v>
+        <v>38499.9</v>
       </c>
       <c r="C417">
-        <v>37842.23859327831</v>
+        <v>38201.61244465777</v>
       </c>
       <c r="D417">
-        <v>631.8614067216913</v>
+        <v>298.2875553422273</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7639,13 +7639,13 @@
         <v>420</v>
       </c>
       <c r="B418">
-        <v>38499.9</v>
+        <v>37727.9</v>
       </c>
       <c r="C418">
-        <v>38198.1075434066</v>
+        <v>38492.59066015814</v>
       </c>
       <c r="D418">
-        <v>301.7924565934009</v>
+        <v>-764.6906601581359</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7653,13 +7653,13 @@
         <v>421</v>
       </c>
       <c r="B419">
-        <v>37727.9</v>
+        <v>39682.8</v>
       </c>
       <c r="C419">
-        <v>38493.53273340288</v>
+        <v>37840.44709252505</v>
       </c>
       <c r="D419">
-        <v>-765.6327334028829</v>
+        <v>1842.352907474953</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7667,13 +7667,13 @@
         <v>422</v>
       </c>
       <c r="B420">
-        <v>39682.8</v>
+        <v>36542.6</v>
       </c>
       <c r="C420">
-        <v>37843.17459828735</v>
+        <v>39246.94791574433</v>
       </c>
       <c r="D420">
-        <v>1839.625401712648</v>
+        <v>-2704.347915744329</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7681,13 +7681,13 @@
         <v>423</v>
       </c>
       <c r="B421">
-        <v>36542.6</v>
+        <v>36017.4</v>
       </c>
       <c r="C421">
-        <v>39245.14168721787</v>
+        <v>36971.648587495</v>
       </c>
       <c r="D421">
-        <v>-2702.541687217868</v>
+        <v>-954.2485874949998</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7695,13 +7695,13 @@
         <v>424</v>
       </c>
       <c r="B422">
-        <v>36017.4</v>
+        <v>35463</v>
       </c>
       <c r="C422">
-        <v>36979.50652378061</v>
+        <v>35906.54800678784</v>
       </c>
       <c r="D422">
-        <v>-962.1065237806106</v>
+        <v>-443.5480067878379</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7709,13 +7709,13 @@
         <v>425</v>
       </c>
       <c r="B423">
-        <v>35463</v>
+        <v>34024.2</v>
       </c>
       <c r="C423">
-        <v>35903.51958785905</v>
+        <v>35344.5748686351</v>
       </c>
       <c r="D423">
-        <v>-440.5195878590457</v>
+        <v>-1320.374868635103</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7723,13 +7723,13 @@
         <v>426</v>
       </c>
       <c r="B424">
-        <v>34024.2</v>
+        <v>30075.5</v>
       </c>
       <c r="C424">
-        <v>35340.22372816229</v>
+        <v>34170.72255024247</v>
       </c>
       <c r="D424">
-        <v>-1316.023728162298</v>
+        <v>-4095.22255024247</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7737,13 +7737,13 @@
         <v>427</v>
       </c>
       <c r="B425">
-        <v>30075.5</v>
+        <v>30999.9</v>
       </c>
       <c r="C425">
-        <v>34165.14997982775</v>
+        <v>30863.95787423546</v>
       </c>
       <c r="D425">
-        <v>-4089.649979827751</v>
+        <v>135.9421257645372</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7751,13 +7751,13 @@
         <v>428</v>
       </c>
       <c r="B426">
-        <v>30999.9</v>
+        <v>28994.1</v>
       </c>
       <c r="C426">
-        <v>30853.95577934661</v>
+        <v>30911.37410598807</v>
       </c>
       <c r="D426">
-        <v>145.9442206533931</v>
+        <v>-1917.274105988072</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7765,13 +7765,13 @@
         <v>429</v>
       </c>
       <c r="B427">
-        <v>28994.1</v>
+        <v>28943.4</v>
       </c>
       <c r="C427">
-        <v>30887.04143156149</v>
+        <v>29247.34233418715</v>
       </c>
       <c r="D427">
-        <v>-1892.941431561492</v>
+        <v>-303.9423341871516</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7779,13 +7779,13 @@
         <v>430</v>
       </c>
       <c r="B428">
-        <v>28943.4</v>
+        <v>29222.6</v>
       </c>
       <c r="C428">
-        <v>29234.45209217857</v>
+        <v>28185.31324975233</v>
       </c>
       <c r="D428">
-        <v>-291.0520921785719</v>
+        <v>1037.286750247666</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7793,13 +7793,13 @@
         <v>431</v>
       </c>
       <c r="B429">
-        <v>29222.6</v>
+        <v>30048.2</v>
       </c>
       <c r="C429">
-        <v>28174.40991900818</v>
+        <v>29315.51279854782</v>
       </c>
       <c r="D429">
-        <v>1048.190080991822</v>
+        <v>732.6872014521832</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7807,13 +7807,13 @@
         <v>432</v>
       </c>
       <c r="B430">
-        <v>30048.2</v>
+        <v>31296.9</v>
       </c>
       <c r="C430">
-        <v>29302.77941658975</v>
+        <v>29610.80185409097</v>
       </c>
       <c r="D430">
-        <v>745.4205834102504</v>
+        <v>1686.098145909033</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7821,13 +7821,13 @@
         <v>433</v>
       </c>
       <c r="B431">
-        <v>31296.9</v>
+        <v>29826.1</v>
       </c>
       <c r="C431">
-        <v>29608.80048818544</v>
+        <v>30770.02526485453</v>
       </c>
       <c r="D431">
-        <v>1688.099511814558</v>
+        <v>-943.9252648545298</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7835,13 +7835,13 @@
         <v>434</v>
       </c>
       <c r="B432">
-        <v>29826.1</v>
+        <v>30408.3</v>
       </c>
       <c r="C432">
-        <v>30775.79233915985</v>
+        <v>29904.86824168621</v>
       </c>
       <c r="D432">
-        <v>-949.6923391598466</v>
+        <v>503.4317583137854</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7849,13 +7849,13 @@
         <v>435</v>
       </c>
       <c r="B433">
-        <v>30408.3</v>
+        <v>28664.3</v>
       </c>
       <c r="C433">
-        <v>29920.79750115614</v>
+        <v>30155.00849846545</v>
       </c>
       <c r="D433">
-        <v>487.5024988438636</v>
+        <v>-1490.708498465454</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7863,13 +7863,13 @@
         <v>436</v>
       </c>
       <c r="B434">
-        <v>28664.3</v>
+        <v>30280.7</v>
       </c>
       <c r="C434">
-        <v>30164.16007536797</v>
+        <v>28998.65269982477</v>
       </c>
       <c r="D434">
-        <v>-1499.860075367968</v>
+        <v>1282.047300175229</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7877,13 +7877,13 @@
         <v>437</v>
       </c>
       <c r="B435">
-        <v>30280.7</v>
+        <v>29167.5</v>
       </c>
       <c r="C435">
-        <v>29010.20753960022</v>
+        <v>29840.39338673615</v>
       </c>
       <c r="D435">
-        <v>1270.492460399782</v>
+        <v>-672.8933867361484</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7891,13 +7891,13 @@
         <v>438</v>
       </c>
       <c r="B436">
-        <v>29167.5</v>
+        <v>29403.5</v>
       </c>
       <c r="C436">
-        <v>29842.56964181177</v>
+        <v>29305.77325043466</v>
       </c>
       <c r="D436">
-        <v>-675.0696418117732</v>
+        <v>97.72674956533592</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7905,13 +7905,13 @@
         <v>439</v>
       </c>
       <c r="B437">
-        <v>29403.5</v>
+        <v>30268</v>
       </c>
       <c r="C437">
-        <v>29314.37125048984</v>
+        <v>29224.92172264561</v>
       </c>
       <c r="D437">
-        <v>89.12874951015692</v>
+        <v>1043.078277354391</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7919,13 +7919,13 @@
         <v>440</v>
       </c>
       <c r="B438">
-        <v>30268</v>
+        <v>29070</v>
       </c>
       <c r="C438">
-        <v>29226.25327743223</v>
+        <v>29967.46133140303</v>
       </c>
       <c r="D438">
-        <v>1041.746722567768</v>
+        <v>-897.4613314030285</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7933,13 +7933,13 @@
         <v>441</v>
       </c>
       <c r="B439">
-        <v>29070</v>
+        <v>29631.8</v>
       </c>
       <c r="C439">
-        <v>29968.16445947798</v>
+        <v>29281.76424286694</v>
       </c>
       <c r="D439">
-        <v>-898.1644594779791</v>
+        <v>350.0357571330642</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -7947,13 +7947,13 @@
         <v>442</v>
       </c>
       <c r="B440">
-        <v>29631.8</v>
+        <v>29520.3</v>
       </c>
       <c r="C440">
-        <v>29286.03961448721</v>
+        <v>29350.93644962946</v>
       </c>
       <c r="D440">
-        <v>345.7603855127927</v>
+        <v>169.3635503705409</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7961,13 +7961,13 @@
         <v>443</v>
       </c>
       <c r="B441">
-        <v>29520.3</v>
+        <v>29186.9</v>
       </c>
       <c r="C441">
-        <v>29349.17199170854</v>
+        <v>29556.85373813917</v>
       </c>
       <c r="D441">
-        <v>171.1280082914564</v>
+        <v>-369.9537381391638</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -7975,13 +7975,13 @@
         <v>444</v>
       </c>
       <c r="B442">
-        <v>29186.9</v>
+        <v>28580</v>
       </c>
       <c r="C442">
-        <v>29557.12704331058</v>
+        <v>28872.46177916377</v>
       </c>
       <c r="D442">
-        <v>-370.2270433105805</v>
+        <v>-292.461779163772</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7989,13 +7989,13 @@
         <v>445</v>
       </c>
       <c r="B443">
-        <v>28580</v>
+        <v>29020</v>
       </c>
       <c r="C443">
-        <v>28872.45289931323</v>
+        <v>28623.45782258411</v>
       </c>
       <c r="D443">
-        <v>-292.4528993132262</v>
+        <v>396.5421774158895</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8003,13 +8003,13 @@
         <v>446</v>
       </c>
       <c r="B444">
-        <v>29020</v>
+        <v>29450.4</v>
       </c>
       <c r="C444">
-        <v>28621.54218148686</v>
+        <v>28871.10851586983</v>
       </c>
       <c r="D444">
-        <v>398.4578185131395</v>
+        <v>579.2914841301754</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8017,13 +8017,13 @@
         <v>447</v>
       </c>
       <c r="B445">
-        <v>29450.4</v>
+        <v>31711.7</v>
       </c>
       <c r="C445">
-        <v>28863.93533109433</v>
+        <v>29261.06055295031</v>
       </c>
       <c r="D445">
-        <v>586.4646689056754</v>
+        <v>2450.639447049693</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8031,13 +8031,13 @@
         <v>448</v>
       </c>
       <c r="B446">
-        <v>31711.7</v>
+        <v>31780.9</v>
       </c>
       <c r="C446">
-        <v>29257.03799883241</v>
+        <v>31222.25895965045</v>
       </c>
       <c r="D446">
-        <v>2454.662001167588</v>
+        <v>558.6410403495465</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8045,13 +8045,13 @@
         <v>449</v>
       </c>
       <c r="B447">
-        <v>31780.9</v>
+        <v>29790</v>
       </c>
       <c r="C447">
-        <v>31219.87533016858</v>
+        <v>31812.29754353774</v>
       </c>
       <c r="D447">
-        <v>561.0246698314222</v>
+        <v>-2022.297543537745</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8059,13 +8059,13 @@
         <v>450</v>
       </c>
       <c r="B448">
-        <v>29790</v>
+        <v>30427</v>
       </c>
       <c r="C448">
-        <v>31820.68175163386</v>
+        <v>30171.36007531069</v>
       </c>
       <c r="D448">
-        <v>-2030.681751633863</v>
+        <v>255.6399246893125</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8073,13 +8073,13 @@
         <v>451</v>
       </c>
       <c r="B449">
-        <v>30427</v>
+        <v>29676.4</v>
       </c>
       <c r="C449">
-        <v>30178.15362859431</v>
+        <v>30430.71835355343</v>
       </c>
       <c r="D449">
-        <v>248.8463714056852</v>
+        <v>-754.3183535534263</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8087,13 +8087,13 @@
         <v>452</v>
       </c>
       <c r="B450">
-        <v>29676.4</v>
+        <v>29850</v>
       </c>
       <c r="C450">
-        <v>30424.88775501447</v>
+        <v>29774.79497484208</v>
       </c>
       <c r="D450">
-        <v>-748.4877550144665</v>
+        <v>75.20502515792032</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8101,13 +8101,13 @@
         <v>453</v>
       </c>
       <c r="B451">
-        <v>29850</v>
+        <v>29907.6</v>
       </c>
       <c r="C451">
-        <v>29773.33377793476</v>
+        <v>29743.32586466856</v>
       </c>
       <c r="D451">
-        <v>76.66622206523607</v>
+        <v>164.2741353314414</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8115,13 +8115,13 @@
         <v>454</v>
       </c>
       <c r="B452">
-        <v>29907.6</v>
+        <v>31356.3</v>
       </c>
       <c r="C452">
-        <v>29737.03894456261</v>
+        <v>29835.20745764863</v>
       </c>
       <c r="D452">
-        <v>170.5610554373925</v>
+        <v>1521.092542351365</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8129,13 +8129,13 @@
         <v>455</v>
       </c>
       <c r="B453">
-        <v>31356.3</v>
+        <v>31098.6</v>
       </c>
       <c r="C453">
-        <v>29828.95486655939</v>
+        <v>31061.88351356196</v>
       </c>
       <c r="D453">
-        <v>1527.345133440609</v>
+        <v>36.71648643803928</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8143,13 +8143,13 @@
         <v>456</v>
       </c>
       <c r="B454">
-        <v>31098.6</v>
+        <v>30190.8</v>
       </c>
       <c r="C454">
-        <v>31054.557349257</v>
+        <v>30748.23406398141</v>
       </c>
       <c r="D454">
-        <v>44.04265074300201</v>
+        <v>-557.4340639814072</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8157,13 +8157,13 @@
         <v>457</v>
       </c>
       <c r="B455">
-        <v>30190.8</v>
+        <v>30075.3</v>
       </c>
       <c r="C455">
-        <v>30752.91620730319</v>
+        <v>30355.04209666319</v>
       </c>
       <c r="D455">
-        <v>-562.1162073031919</v>
+        <v>-279.7420966631944</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8171,13 +8171,13 @@
         <v>458</v>
       </c>
       <c r="B456">
-        <v>30075.3</v>
+        <v>29054.9</v>
       </c>
       <c r="C456">
-        <v>30356.69407838653</v>
+        <v>30144.98820724987</v>
       </c>
       <c r="D456">
-        <v>-281.3940783865291</v>
+        <v>-1090.088207249872</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8185,13 +8185,13 @@
         <v>459</v>
       </c>
       <c r="B457">
-        <v>29054.9</v>
+        <v>28380.2</v>
       </c>
       <c r="C457">
-        <v>30142.21730111689</v>
+        <v>29269.45515689155</v>
       </c>
       <c r="D457">
-        <v>-1087.317301116891</v>
+        <v>-889.2551568915478</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8199,13 +8199,13 @@
         <v>460</v>
       </c>
       <c r="B458">
-        <v>28380.2</v>
+        <v>26569.6</v>
       </c>
       <c r="C458">
-        <v>29267.28585155752</v>
+        <v>28501.35485892567</v>
       </c>
       <c r="D458">
-        <v>-887.0858515575201</v>
+        <v>-1931.754858925669</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8213,13 +8213,13 @@
         <v>461</v>
       </c>
       <c r="B459">
-        <v>26569.6</v>
+        <v>22460.1</v>
       </c>
       <c r="C459">
-        <v>28494.31684383911</v>
+        <v>26920.85442105833</v>
       </c>
       <c r="D459">
-        <v>-1924.716843839116</v>
+        <v>-4460.754421058336</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8227,13 +8227,13 @@
         <v>462</v>
       </c>
       <c r="B460">
-        <v>22460.1</v>
+        <v>22111</v>
       </c>
       <c r="C460">
-        <v>26911.57199870811</v>
+        <v>23250.59868526681</v>
       </c>
       <c r="D460">
-        <v>-4451.471998708112</v>
+        <v>-1139.598685266814</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8241,13 +8241,13 @@
         <v>463</v>
       </c>
       <c r="B461">
-        <v>22111</v>
+        <v>22559.6</v>
       </c>
       <c r="C461">
-        <v>23237.86189310376</v>
+        <v>21933.05300706603</v>
       </c>
       <c r="D461">
-        <v>-1126.861893103764</v>
+        <v>626.546992933967</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8255,13 +8255,13 @@
         <v>464</v>
       </c>
       <c r="B462">
-        <v>22559.6</v>
+        <v>20366.3</v>
       </c>
       <c r="C462">
-        <v>21907.3474555782</v>
+        <v>21908.80226306779</v>
       </c>
       <c r="D462">
-        <v>652.2525444217972</v>
+        <v>-1542.502263067789</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8269,13 +8269,13 @@
         <v>465</v>
       </c>
       <c r="B463">
-        <v>20366.3</v>
+        <v>20432.9</v>
       </c>
       <c r="C463">
-        <v>21891.62863879808</v>
+        <v>20751.63849695612</v>
       </c>
       <c r="D463">
-        <v>-1525.328638798081</v>
+        <v>-318.7384969561172</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8283,13 +8283,13 @@
         <v>466</v>
       </c>
       <c r="B464">
-        <v>20432.9</v>
+        <v>18950</v>
       </c>
       <c r="C464">
-        <v>20737.00254039816</v>
+        <v>20424.25302210616</v>
       </c>
       <c r="D464">
-        <v>-304.1025403981548</v>
+        <v>-1474.253022106161</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8297,13 +8297,13 @@
         <v>467</v>
       </c>
       <c r="B465">
-        <v>18950</v>
+        <v>20555.5</v>
       </c>
       <c r="C465">
-        <v>20408.60675355063</v>
+        <v>18903.47690755609</v>
       </c>
       <c r="D465">
-        <v>-1458.60675355063</v>
+        <v>1652.023092443909</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8311,13 +8311,13 @@
         <v>468</v>
       </c>
       <c r="B466">
-        <v>20555.5</v>
+        <v>20550</v>
       </c>
       <c r="C466">
-        <v>18899.4144158558</v>
+        <v>19852.85616442737</v>
       </c>
       <c r="D466">
-        <v>1656.085584144195</v>
+        <v>697.1438355726277</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8325,13 +8325,13 @@
         <v>469</v>
       </c>
       <c r="B467">
-        <v>20550</v>
+        <v>20701.9</v>
       </c>
       <c r="C467">
-        <v>19847.55910292728</v>
+        <v>20356.71500611889</v>
       </c>
       <c r="D467">
-        <v>702.4408970727236</v>
+        <v>345.1849938811138</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8339,13 +8339,13 @@
         <v>470</v>
       </c>
       <c r="B468">
-        <v>20701.9</v>
+        <v>19951.3</v>
       </c>
       <c r="C468">
-        <v>20365.48768455534</v>
+        <v>20760.02075316328</v>
       </c>
       <c r="D468">
-        <v>336.4123154446643</v>
+        <v>-808.7207531632775</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8353,13 +8353,13 @@
         <v>471</v>
       </c>
       <c r="B469">
-        <v>19951.3</v>
+        <v>21086.7</v>
       </c>
       <c r="C469">
-        <v>20768.98689577902</v>
+        <v>20030.06406170668</v>
       </c>
       <c r="D469">
-        <v>-817.6868957790175</v>
+        <v>1056.635938293319</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8367,13 +8367,13 @@
         <v>472</v>
       </c>
       <c r="B470">
-        <v>21086.7</v>
+        <v>21210.7</v>
       </c>
       <c r="C470">
-        <v>20042.93071764526</v>
+        <v>20752.75782782566</v>
       </c>
       <c r="D470">
-        <v>1043.769282354744</v>
+        <v>457.9421721743456</v>
       </c>
     </row>
   </sheetData>

--- a/data/df_compare.xlsx
+++ b/data/df_compare.xlsx
@@ -28,9 +28,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>2021-03-13</t>
-  </si>
-  <si>
     <t>2021-03-14</t>
   </si>
   <si>
@@ -1433,6 +1430,9 @@
   </si>
   <si>
     <t>2022-06-24</t>
+  </si>
+  <si>
+    <t>2022-06-25</t>
   </si>
 </sst>
 </file>
@@ -1815,13 +1815,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>61174.9</v>
+        <v>59001.1</v>
       </c>
       <c r="C2">
-        <v>57226.5410589237</v>
+        <v>60458.99939852078</v>
       </c>
       <c r="D2">
-        <v>3948.358941076302</v>
+        <v>-1457.899398520785</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1829,13 +1829,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>59001.1</v>
+        <v>55600</v>
       </c>
       <c r="C3">
-        <v>60444.38270114979</v>
+        <v>59997.67468049134</v>
       </c>
       <c r="D3">
-        <v>-1443.282701149794</v>
+        <v>-4397.674680491342</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1843,13 +1843,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>55600</v>
+        <v>56891.1</v>
       </c>
       <c r="C4">
-        <v>59964.80169408963</v>
+        <v>56795.22010497424</v>
       </c>
       <c r="D4">
-        <v>-4364.801694089634</v>
+        <v>95.8798950257551</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1857,13 +1857,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>56891.1</v>
+        <v>58933</v>
       </c>
       <c r="C5">
-        <v>56776.90674065787</v>
+        <v>56067.89926548697</v>
       </c>
       <c r="D5">
-        <v>114.1932593421297</v>
+        <v>2865.100734513035</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1871,13 +1871,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>58933</v>
+        <v>57640.9</v>
       </c>
       <c r="C6">
-        <v>56069.14629329334</v>
+        <v>57934.36893320603</v>
       </c>
       <c r="D6">
-        <v>2863.853706706665</v>
+        <v>-293.4689332060298</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1885,13 +1885,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>57640.9</v>
+        <v>58101.8</v>
       </c>
       <c r="C7">
-        <v>57932.05909691757</v>
+        <v>58275.03808444041</v>
       </c>
       <c r="D7">
-        <v>-291.1590969175668</v>
+        <v>-173.2380844404106</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1899,13 +1899,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>58101.8</v>
+        <v>58091.6</v>
       </c>
       <c r="C8">
-        <v>58266.50142929374</v>
+        <v>58161.38995387529</v>
       </c>
       <c r="D8">
-        <v>-164.7014292937383</v>
+        <v>-69.78995387528994</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1913,13 +1913,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>58091.6</v>
+        <v>57378.4</v>
       </c>
       <c r="C9">
-        <v>58162.53770607099</v>
+        <v>58535.73370294787</v>
       </c>
       <c r="D9">
-        <v>-70.9377060709885</v>
+        <v>-1157.333702947864</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1927,13 +1927,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>57378.4</v>
+        <v>54095.1</v>
       </c>
       <c r="C10">
-        <v>58536.99655159435</v>
+        <v>57436.97719081007</v>
       </c>
       <c r="D10">
-        <v>-1158.596551594346</v>
+        <v>-3341.877190810068</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1941,13 +1941,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>54095.1</v>
+        <v>54351.3</v>
       </c>
       <c r="C11">
-        <v>57428.62870493051</v>
+        <v>55143.74673423047</v>
       </c>
       <c r="D11">
-        <v>-3333.528704930512</v>
+        <v>-792.4467342304706</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1955,13 +1955,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>54351.3</v>
+        <v>52293.8</v>
       </c>
       <c r="C12">
-        <v>55133.92659050896</v>
+        <v>54427.53398450393</v>
       </c>
       <c r="D12">
-        <v>-782.6265905089531</v>
+        <v>-2133.733984503924</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1969,13 +1969,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>52293.8</v>
+        <v>51314.9</v>
       </c>
       <c r="C13">
-        <v>54438.77764294279</v>
+        <v>53287.9207196842</v>
       </c>
       <c r="D13">
-        <v>-2144.977642942787</v>
+        <v>-1973.020719684202</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1983,13 +1983,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>51314.9</v>
+        <v>55062.2</v>
       </c>
       <c r="C14">
-        <v>53297.3059847957</v>
+        <v>51550.46064431853</v>
       </c>
       <c r="D14">
-        <v>-1982.405984795703</v>
+        <v>3511.739355681464</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1997,13 +1997,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>55062.2</v>
+        <v>55852.4</v>
       </c>
       <c r="C15">
-        <v>51561.85476612096</v>
+        <v>54154.75759514516</v>
       </c>
       <c r="D15">
-        <v>3500.345233879038</v>
+        <v>1697.642404854843</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2011,13 +2011,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>55852.4</v>
+        <v>55782</v>
       </c>
       <c r="C16">
-        <v>54176.22984845174</v>
+        <v>55682.45159074223</v>
       </c>
       <c r="D16">
-        <v>1676.170151548264</v>
+        <v>99.54840925776807</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2025,13 +2025,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>55782</v>
+        <v>57624.2</v>
       </c>
       <c r="C17">
-        <v>55676.47791259593</v>
+        <v>55806.30745291199</v>
       </c>
       <c r="D17">
-        <v>105.5220874040679</v>
+        <v>1817.892547088006</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2039,13 +2039,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>57624.2</v>
+        <v>58781</v>
       </c>
       <c r="C18">
-        <v>55792.67146566539</v>
+        <v>57346.31200067275</v>
       </c>
       <c r="D18">
-        <v>1831.528534334604</v>
+        <v>1434.687999327245</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2053,13 +2053,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>58781</v>
+        <v>58786.2</v>
       </c>
       <c r="C19">
-        <v>57335.63900699682</v>
+        <v>58687.17608244285</v>
       </c>
       <c r="D19">
-        <v>1445.360993003182</v>
+        <v>99.0239175571478</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2067,13 +2067,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>58786.2</v>
+        <v>58732.9</v>
       </c>
       <c r="C20">
-        <v>58667.8420955975</v>
+        <v>58769.66413878395</v>
       </c>
       <c r="D20">
-        <v>118.3579044024955</v>
+        <v>-36.76413878394669</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2081,13 +2081,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>58732.9</v>
+        <v>59020.7</v>
       </c>
       <c r="C21">
-        <v>58741.31687088966</v>
+        <v>58902.49832653934</v>
       </c>
       <c r="D21">
-        <v>-8.416870889654092</v>
+        <v>118.2016734606586</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2095,13 +2095,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>59020.7</v>
+        <v>57099</v>
       </c>
       <c r="C22">
-        <v>58880.25959916084</v>
+        <v>59314.69258512276</v>
       </c>
       <c r="D22">
-        <v>140.4404008391575</v>
+        <v>-2215.692585122757</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2109,13 +2109,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>57099</v>
+        <v>58195</v>
       </c>
       <c r="C23">
-        <v>59301.57767320579</v>
+        <v>57834.88425327199</v>
       </c>
       <c r="D23">
-        <v>-2202.577673205786</v>
+        <v>360.1157467280136</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2123,13 +2123,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>58195</v>
+        <v>59120</v>
       </c>
       <c r="C24">
-        <v>57821.17999189664</v>
+        <v>57948.76963324357</v>
       </c>
       <c r="D24">
-        <v>373.8200081033574</v>
+        <v>1171.230366756427</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2137,13 +2137,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>59120</v>
+        <v>58017.1</v>
       </c>
       <c r="C25">
-        <v>57950.04017893475</v>
+        <v>58738.28186630121</v>
       </c>
       <c r="D25">
-        <v>1169.959821065248</v>
+        <v>-721.1818663012164</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2151,13 +2151,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>58017.1</v>
+        <v>55928.5</v>
       </c>
       <c r="C26">
-        <v>58733.16592613174</v>
+        <v>58317.54168128561</v>
       </c>
       <c r="D26">
-        <v>-716.0659261317414</v>
+        <v>-2389.041681285613</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2165,13 +2165,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>55928.5</v>
+        <v>58036.9</v>
       </c>
       <c r="C27">
-        <v>58307.84519392089</v>
+        <v>56543.12537061742</v>
       </c>
       <c r="D27">
-        <v>-2379.34519392089</v>
+        <v>1493.774629382584</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2179,13 +2179,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>58036.9</v>
+        <v>58110</v>
       </c>
       <c r="C28">
-        <v>56537.14072824529</v>
+        <v>57557.812852313</v>
       </c>
       <c r="D28">
-        <v>1499.759271754716</v>
+        <v>552.1871476870001</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2193,13 +2193,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>58110</v>
+        <v>59775.6</v>
       </c>
       <c r="C29">
-        <v>57569.2387562372</v>
+        <v>58245.95196317571</v>
       </c>
       <c r="D29">
-        <v>540.7612437627977</v>
+        <v>1529.648036824285</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2207,13 +2207,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>59775.6</v>
+        <v>59956</v>
       </c>
       <c r="C30">
-        <v>58242.73056746041</v>
+        <v>59795.8677253085</v>
       </c>
       <c r="D30">
-        <v>1532.869432539585</v>
+        <v>160.1322746914957</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2221,13 +2221,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>59956</v>
+        <v>59823.7</v>
       </c>
       <c r="C31">
-        <v>59796.33389318385</v>
+        <v>60083.25086737033</v>
       </c>
       <c r="D31">
-        <v>159.6661068161484</v>
+        <v>-259.5508673703298</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2235,13 +2235,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>59823.7</v>
+        <v>63587.2</v>
       </c>
       <c r="C32">
-        <v>60073.05725514647</v>
+        <v>60199.88160291225</v>
       </c>
       <c r="D32">
-        <v>-249.3572551464749</v>
+        <v>3387.318397087744</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2249,13 +2249,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>63587.2</v>
+        <v>62969</v>
       </c>
       <c r="C33">
-        <v>60190.96304443403</v>
+        <v>62949.96269216681</v>
       </c>
       <c r="D33">
-        <v>3396.236955565968</v>
+        <v>19.03730783319043</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2263,13 +2263,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>62969</v>
+        <v>63243</v>
       </c>
       <c r="C34">
-        <v>62948.87505829256</v>
+        <v>63316.05957866948</v>
       </c>
       <c r="D34">
-        <v>20.12494170744321</v>
+        <v>-73.05957866947574</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2277,13 +2277,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>63243</v>
+        <v>61455</v>
       </c>
       <c r="C35">
-        <v>63289.11626404137</v>
+        <v>63343.20153779151</v>
       </c>
       <c r="D35">
-        <v>-46.11626404136769</v>
+        <v>-1888.201537791509</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2291,13 +2291,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>61455</v>
+        <v>60085.2</v>
       </c>
       <c r="C36">
-        <v>63326.53623501226</v>
+        <v>61900.99712299528</v>
       </c>
       <c r="D36">
-        <v>-1871.53623501226</v>
+        <v>-1815.797122995282</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2305,13 +2305,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>60085.2</v>
+        <v>56239.8</v>
       </c>
       <c r="C37">
-        <v>61879.84403916841</v>
+        <v>60739.13145216364</v>
       </c>
       <c r="D37">
-        <v>-1794.644039168415</v>
+        <v>-4499.331452163635</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2319,13 +2319,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>56239.8</v>
+        <v>55720</v>
       </c>
       <c r="C38">
-        <v>60735.06012310149</v>
+        <v>56132.45938944108</v>
       </c>
       <c r="D38">
-        <v>-4495.260123101485</v>
+        <v>-412.4593894410791</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2333,13 +2333,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>55720</v>
+        <v>56500</v>
       </c>
       <c r="C39">
-        <v>56114.21767368718</v>
+        <v>55839.84419777385</v>
       </c>
       <c r="D39">
-        <v>-394.217673687177</v>
+        <v>660.1558022261452</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2347,13 +2347,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>56500</v>
+        <v>53815.2</v>
       </c>
       <c r="C40">
-        <v>55857.05681773429</v>
+        <v>55939.52909338586</v>
       </c>
       <c r="D40">
-        <v>642.9431822657061</v>
+        <v>-2124.329093385866</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2361,13 +2361,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>53815.2</v>
+        <v>51730</v>
       </c>
       <c r="C41">
-        <v>55955.12003772365</v>
+        <v>54446.45804252975</v>
       </c>
       <c r="D41">
-        <v>-2139.920037723656</v>
+        <v>-2716.458042529746</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2375,13 +2375,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>51730</v>
+        <v>51178.7</v>
       </c>
       <c r="C42">
-        <v>54451.7474066384</v>
+        <v>52275.51752730123</v>
       </c>
       <c r="D42">
-        <v>-2721.747406638402</v>
+        <v>-1096.817527301231</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2389,13 +2389,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>51178.7</v>
+        <v>50093.4</v>
       </c>
       <c r="C43">
-        <v>52288.05582347958</v>
+        <v>50527.71560645434</v>
       </c>
       <c r="D43">
-        <v>-1109.355823479578</v>
+        <v>-434.3156064543364</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2403,13 +2403,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>50093.4</v>
+        <v>49106.5</v>
       </c>
       <c r="C44">
-        <v>50535.30598991798</v>
+        <v>49941.56163910609</v>
       </c>
       <c r="D44">
-        <v>-441.9059899179774</v>
+        <v>-835.0616391060903</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2417,13 +2417,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>49106.5</v>
+        <v>54051.9</v>
       </c>
       <c r="C45">
-        <v>49948.29963715951</v>
+        <v>48842.56948140303</v>
       </c>
       <c r="D45">
-        <v>-841.7996371595073</v>
+        <v>5209.330518596973</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2431,13 +2431,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>54051.9</v>
+        <v>55078.7</v>
       </c>
       <c r="C46">
-        <v>48845.96993942562</v>
+        <v>52817.95790464834</v>
       </c>
       <c r="D46">
-        <v>5205.930060574385</v>
+        <v>2260.742095351656</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2445,13 +2445,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>55078.7</v>
+        <v>54899.3</v>
       </c>
       <c r="C47">
-        <v>52835.50291677756</v>
+        <v>54802.48089415922</v>
       </c>
       <c r="D47">
-        <v>2243.197083222432</v>
+        <v>96.81910584078287</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2459,13 +2459,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>54899.3</v>
+        <v>53579.6</v>
       </c>
       <c r="C48">
-        <v>54786.89047915619</v>
+        <v>55102.76828687072</v>
       </c>
       <c r="D48">
-        <v>112.4095208438084</v>
+        <v>-1523.168286870721</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2473,13 +2473,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>53579.6</v>
+        <v>57780</v>
       </c>
       <c r="C49">
-        <v>55080.2115619868</v>
+        <v>53747.5982213808</v>
       </c>
       <c r="D49">
-        <v>-1500.6115619868</v>
+        <v>4032.401778619198</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2487,13 +2487,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>57780</v>
+        <v>57859.2</v>
       </c>
       <c r="C50">
-        <v>53719.67317211282</v>
+        <v>56748.75911260505</v>
       </c>
       <c r="D50">
-        <v>4060.326827887184</v>
+        <v>1110.440887394943</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2501,13 +2501,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>57859.2</v>
+        <v>56618.5</v>
       </c>
       <c r="C51">
-        <v>56741.02864608332</v>
+        <v>57976.92257210203</v>
       </c>
       <c r="D51">
-        <v>1118.171353916681</v>
+        <v>-1358.422572102034</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2515,13 +2515,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>56618.5</v>
+        <v>57193.5</v>
       </c>
       <c r="C52">
-        <v>57946.853684926</v>
+        <v>56939.86387155803</v>
       </c>
       <c r="D52">
-        <v>-1328.353684925998</v>
+        <v>253.636128441969</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2529,13 +2529,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>57193.5</v>
+        <v>53239.4</v>
       </c>
       <c r="C53">
-        <v>56912.18288221673</v>
+        <v>57527.92243039746</v>
       </c>
       <c r="D53">
-        <v>281.3171177832701</v>
+        <v>-4288.522430397461</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2543,13 +2543,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>53239.4</v>
+        <v>57497.1</v>
       </c>
       <c r="C54">
-        <v>57521.3059459556</v>
+        <v>54194.18944766202</v>
       </c>
       <c r="D54">
-        <v>-4281.905945955594</v>
+        <v>3302.910552337977</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2557,13 +2557,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>57497.1</v>
+        <v>56421.1</v>
       </c>
       <c r="C55">
-        <v>54175.79678929751</v>
+        <v>56549.65318790537</v>
       </c>
       <c r="D55">
-        <v>3321.303210702485</v>
+        <v>-128.5531879053669</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2571,13 +2571,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>56421.1</v>
+        <v>57383</v>
       </c>
       <c r="C56">
-        <v>56569.46288467062</v>
+        <v>56729.48904202496</v>
       </c>
       <c r="D56">
-        <v>-148.3628846706197</v>
+        <v>653.5109579750424</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2585,13 +2585,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>57383</v>
+        <v>58953.8</v>
       </c>
       <c r="C57">
-        <v>56719.71412903769</v>
+        <v>57286.31922983089</v>
       </c>
       <c r="D57">
-        <v>663.2858709623106</v>
+        <v>1667.480770169117</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2599,13 +2599,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>58953.8</v>
+        <v>58293.1</v>
       </c>
       <c r="C58">
-        <v>57289.63365113002</v>
+        <v>58740.4771367772</v>
       </c>
       <c r="D58">
-        <v>1664.166348869985</v>
+        <v>-447.377136777206</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2613,13 +2613,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>58293.1</v>
+        <v>55888.1</v>
       </c>
       <c r="C59">
-        <v>58741.68264572814</v>
+        <v>58215.66239244097</v>
       </c>
       <c r="D59">
-        <v>-448.5826457281437</v>
+        <v>-2327.562392440967</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2627,13 +2627,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>55888.1</v>
+        <v>56747.5</v>
       </c>
       <c r="C60">
-        <v>58201.3767428943</v>
+        <v>56286.99570301884</v>
       </c>
       <c r="D60">
-        <v>-2313.276742894297</v>
+        <v>460.504296981162</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2641,13 +2641,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>56747.5</v>
+        <v>49502.7</v>
       </c>
       <c r="C61">
-        <v>56272.24520141137</v>
+        <v>56354.32778865845</v>
       </c>
       <c r="D61">
-        <v>475.254798588634</v>
+        <v>-6851.627788658458</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2655,13 +2655,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>49502.7</v>
+        <v>49675.2</v>
       </c>
       <c r="C62">
-        <v>56356.07031587342</v>
+        <v>51225.33562083701</v>
       </c>
       <c r="D62">
-        <v>-6853.370315873428</v>
+        <v>-1550.135620837013</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2669,13 +2669,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>49675.2</v>
+        <v>49899</v>
       </c>
       <c r="C63">
-        <v>51210.47119499173</v>
+        <v>48900.96544535812</v>
       </c>
       <c r="D63">
-        <v>-1535.271194991728</v>
+        <v>998.034554641883</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2683,13 +2683,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>49899</v>
+        <v>46771.1</v>
       </c>
       <c r="C64">
-        <v>48921.1022990268</v>
+        <v>49929.12056524858</v>
       </c>
       <c r="D64">
-        <v>977.8977009732043</v>
+        <v>-3158.020565248582</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2697,13 +2697,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>46771.1</v>
+        <v>46482.4</v>
       </c>
       <c r="C65">
-        <v>49954.03424772067</v>
+        <v>47513.78113331656</v>
       </c>
       <c r="D65">
-        <v>-3182.934247720674</v>
+        <v>-1031.381133316558</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2711,13 +2711,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>46482.4</v>
+        <v>43551.8</v>
       </c>
       <c r="C66">
-        <v>47525.4169522404</v>
+        <v>46433.8704359859</v>
       </c>
       <c r="D66">
-        <v>-1043.016952240396</v>
+        <v>-2882.070435985894</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2725,13 +2725,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>43551.8</v>
+        <v>42895.2</v>
       </c>
       <c r="C67">
-        <v>46457.4487017564</v>
+        <v>43791.78758527657</v>
       </c>
       <c r="D67">
-        <v>-2905.648701756392</v>
+        <v>-896.5875852765748</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2739,13 +2739,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>42895.2</v>
+        <v>36742.3</v>
       </c>
       <c r="C68">
-        <v>43797.86979554614</v>
+        <v>43215.64414686114</v>
       </c>
       <c r="D68">
-        <v>-902.6697955461423</v>
+        <v>-6473.344146861142</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2753,13 +2753,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>36742.3</v>
+        <v>40614.6</v>
       </c>
       <c r="C69">
-        <v>43239.86645397352</v>
+        <v>36622.49672441465</v>
       </c>
       <c r="D69">
-        <v>-6497.566453973515</v>
+        <v>3992.103275585345</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2767,13 +2767,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>40614.6</v>
+        <v>37331.7</v>
       </c>
       <c r="C70">
-        <v>36603.9613009202</v>
+        <v>39499.32856741479</v>
       </c>
       <c r="D70">
-        <v>4010.638699079798</v>
+        <v>-2167.628567414795</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2781,13 +2781,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>37331.7</v>
+        <v>37468.3</v>
       </c>
       <c r="C71">
-        <v>39539.7556424753</v>
+        <v>37418.54143656783</v>
       </c>
       <c r="D71">
-        <v>-2208.055642475301</v>
+        <v>49.7585634321731</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2795,13 +2795,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>37468.3</v>
+        <v>34718.8</v>
       </c>
       <c r="C72">
-        <v>37414.63314789391</v>
+        <v>37055.61990804605</v>
       </c>
       <c r="D72">
-        <v>53.66685210609285</v>
+        <v>-2336.819908046047</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2809,13 +2809,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>34718.8</v>
+        <v>38833.8</v>
       </c>
       <c r="C73">
-        <v>37070.06775668473</v>
+        <v>34516.35152796398</v>
       </c>
       <c r="D73">
-        <v>-2351.267756684727</v>
+        <v>4317.44847203602</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2823,13 +2823,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>38833.8</v>
+        <v>38388.1</v>
       </c>
       <c r="C74">
-        <v>34510.63701696455</v>
+        <v>37861.751241629</v>
       </c>
       <c r="D74">
-        <v>4323.16298303545</v>
+        <v>526.3487583710012</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2837,13 +2837,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>38388.1</v>
+        <v>39283.9</v>
       </c>
       <c r="C75">
-        <v>37884.79676483537</v>
+        <v>38211.55187610032</v>
       </c>
       <c r="D75">
-        <v>503.3032351646325</v>
+        <v>1072.348123899683</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2851,13 +2851,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>39283.9</v>
+        <v>38516.4</v>
       </c>
       <c r="C76">
-        <v>38198.11388725269</v>
+        <v>39252.32264849554</v>
       </c>
       <c r="D76">
-        <v>1085.786112747308</v>
+        <v>-735.9226484955361</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2865,13 +2865,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>38516.4</v>
+        <v>35683.9</v>
       </c>
       <c r="C77">
-        <v>39245.93808208621</v>
+        <v>38552.18078997741</v>
       </c>
       <c r="D77">
-        <v>-729.5380820862119</v>
+        <v>-2868.280789977412</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2879,13 +2879,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>35683.9</v>
+        <v>34616.6</v>
       </c>
       <c r="C78">
-        <v>38537.21052097823</v>
+        <v>36089.06972676517</v>
       </c>
       <c r="D78">
-        <v>-2853.31052097823</v>
+        <v>-1472.469726765172</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2893,13 +2893,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>34616.6</v>
+        <v>35673.8</v>
       </c>
       <c r="C79">
-        <v>36071.49630229783</v>
+        <v>34826.83450166714</v>
       </c>
       <c r="D79">
-        <v>-1454.896302297835</v>
+        <v>846.9654983328655</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2907,13 +2907,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>35673.8</v>
+        <v>37303.8</v>
       </c>
       <c r="C80">
-        <v>34830.62174066613</v>
+        <v>35142.4746665329</v>
       </c>
       <c r="D80">
-        <v>843.1782593338721</v>
+        <v>2161.325333467103</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2921,13 +2921,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>37303.8</v>
+        <v>36676.3</v>
       </c>
       <c r="C81">
-        <v>35152.91902609379</v>
+        <v>36458.53093070404</v>
       </c>
       <c r="D81">
-        <v>2150.880973906213</v>
+        <v>217.7690692959586</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2935,13 +2935,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>36676.3</v>
+        <v>37565.3</v>
       </c>
       <c r="C82">
-        <v>36464.26335753594</v>
+        <v>36628.98317957458</v>
       </c>
       <c r="D82">
-        <v>212.036642464067</v>
+        <v>936.316820425418</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2949,13 +2949,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>37565.3</v>
+        <v>39196.6</v>
       </c>
       <c r="C83">
-        <v>36624.57276234694</v>
+        <v>37215.87745465907</v>
       </c>
       <c r="D83">
-        <v>940.72723765306</v>
+        <v>1980.722545340926</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2963,13 +2963,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>39196.6</v>
+        <v>36847.7</v>
       </c>
       <c r="C84">
-        <v>37217.10773297978</v>
+        <v>38706.10300722376</v>
       </c>
       <c r="D84">
-        <v>1979.492267020214</v>
+        <v>-1858.403007223766</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2977,13 +2977,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>36847.7</v>
+        <v>35534.6</v>
       </c>
       <c r="C85">
-        <v>38704.63174596321</v>
+        <v>37066.34291068876</v>
       </c>
       <c r="D85">
-        <v>-1856.931745963215</v>
+        <v>-1531.742910688765</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2991,13 +2991,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>35534.6</v>
+        <v>35789</v>
       </c>
       <c r="C86">
-        <v>37046.28161269563</v>
+        <v>35827.11967577085</v>
       </c>
       <c r="D86">
-        <v>-1511.681612695633</v>
+        <v>-38.11967577085306</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3005,13 +3005,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>35789</v>
+        <v>33587.6</v>
       </c>
       <c r="C87">
-        <v>35824.31655197081</v>
+        <v>35699.01404580173</v>
       </c>
       <c r="D87">
-        <v>-35.31655197081272</v>
+        <v>-2111.414045801728</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3019,13 +3019,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>33587.6</v>
+        <v>33420</v>
       </c>
       <c r="C88">
-        <v>35707.4217720663</v>
+        <v>34122.98170672958</v>
       </c>
       <c r="D88">
-        <v>-2119.821772066301</v>
+        <v>-702.9817067295808</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3033,13 +3033,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>33420</v>
+        <v>37396.4</v>
       </c>
       <c r="C89">
-        <v>34127.39705292086</v>
+        <v>32879.55233583272</v>
       </c>
       <c r="D89">
-        <v>-707.39705292086</v>
+        <v>4516.847664167282</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3047,13 +3047,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>37396.4</v>
+        <v>36678.4</v>
       </c>
       <c r="C90">
-        <v>32888.4243449831</v>
+        <v>36129.118781677</v>
       </c>
       <c r="D90">
-        <v>4507.975655016904</v>
+        <v>549.2812183230053</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3061,13 +3061,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>36678.4</v>
+        <v>37322.2</v>
       </c>
       <c r="C91">
-        <v>36148.49829914901</v>
+        <v>36843.7796152146</v>
       </c>
       <c r="D91">
-        <v>529.9017008509909</v>
+        <v>478.4203847853933</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3075,13 +3075,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>37322.2</v>
+        <v>35544.9</v>
       </c>
       <c r="C92">
-        <v>36837.51107801904</v>
+        <v>37054.86603271043</v>
       </c>
       <c r="D92">
-        <v>484.6889219809527</v>
+        <v>-1509.966032710428</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3089,13 +3089,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>35544.9</v>
+        <v>39034.6</v>
       </c>
       <c r="C93">
-        <v>37052.51970787198</v>
+        <v>35763.60401609338</v>
       </c>
       <c r="D93">
-        <v>-1507.619707871978</v>
+        <v>3270.995983906621</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3103,13 +3103,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>39034.6</v>
+        <v>40530.8</v>
       </c>
       <c r="C94">
-        <v>35751.54123080146</v>
+        <v>38088.24076580444</v>
       </c>
       <c r="D94">
-        <v>3283.058769198535</v>
+        <v>2442.559234195563</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3117,13 +3117,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>40530.8</v>
+        <v>40166.6</v>
       </c>
       <c r="C95">
-        <v>38095.77444476567</v>
+        <v>40348.20323707072</v>
       </c>
       <c r="D95">
-        <v>2435.02555523433</v>
+        <v>-181.603237070718</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3131,13 +3131,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>40166.6</v>
+        <v>38337.1</v>
       </c>
       <c r="C96">
-        <v>40337.91304906789</v>
+        <v>40409.58713222224</v>
       </c>
       <c r="D96">
-        <v>-171.3130490678959</v>
+        <v>-2072.487132222239</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3145,13 +3145,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>38337.1</v>
+        <v>38078.2</v>
       </c>
       <c r="C97">
-        <v>40393.72617971376</v>
+        <v>38855.63371016037</v>
       </c>
       <c r="D97">
-        <v>-2056.626179713763</v>
+        <v>-777.4337101603742</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3159,13 +3159,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>38078.2</v>
+        <v>35824</v>
       </c>
       <c r="C98">
-        <v>38844.33309097838</v>
+        <v>38284.02393913425</v>
       </c>
       <c r="D98">
-        <v>-766.1330909783865</v>
+        <v>-2460.023939134247</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3173,13 +3173,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>35824</v>
+        <v>35490.5</v>
       </c>
       <c r="C99">
-        <v>38286.74220870872</v>
+        <v>36203.36338710265</v>
       </c>
       <c r="D99">
-        <v>-2462.742208708718</v>
+        <v>-712.8633871026541</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3187,13 +3187,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>35490.5</v>
+        <v>35595</v>
       </c>
       <c r="C100">
-        <v>36201.84027023031</v>
+        <v>35534.27708877208</v>
       </c>
       <c r="D100">
-        <v>-711.3402702303138</v>
+        <v>60.72291122791648</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3201,13 +3201,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>35595</v>
+        <v>31655.2</v>
       </c>
       <c r="C101">
-        <v>35547.65473379841</v>
+        <v>35135.74977952366</v>
       </c>
       <c r="D101">
-        <v>47.34526620159158</v>
+        <v>-3480.549779523655</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3215,13 +3215,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>31655.2</v>
+        <v>32516.2</v>
       </c>
       <c r="C102">
-        <v>35147.65382351237</v>
+        <v>32434.01936184439</v>
       </c>
       <c r="D102">
-        <v>-3492.453823512373</v>
+        <v>82.1806381556089</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3229,13 +3229,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>32516.2</v>
+        <v>33683.3</v>
       </c>
       <c r="C103">
-        <v>32436.46248470686</v>
+        <v>31726.512459346</v>
       </c>
       <c r="D103">
-        <v>79.73751529313813</v>
+        <v>1956.787540654008</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3243,13 +3243,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>33683.3</v>
+        <v>34666.6</v>
       </c>
       <c r="C104">
-        <v>31746.57999505821</v>
+        <v>33554.5630297156</v>
       </c>
       <c r="D104">
-        <v>1936.720004941788</v>
+        <v>1112.036970284396</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3257,13 +3257,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>34666.6</v>
+        <v>31583.7</v>
       </c>
       <c r="C105">
-        <v>33574.64652188658</v>
+        <v>34199.65843499995</v>
       </c>
       <c r="D105">
-        <v>1091.953478113421</v>
+        <v>-2615.958434999946</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3271,13 +3271,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>31583.7</v>
+        <v>32277</v>
       </c>
       <c r="C106">
-        <v>34205.40297877588</v>
+        <v>32363.56603209528</v>
       </c>
       <c r="D106">
-        <v>-2621.702978775877</v>
+        <v>-86.56603209527748</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3285,13 +3285,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>32277</v>
+        <v>34675.3</v>
       </c>
       <c r="C107">
-        <v>32355.51397714514</v>
+        <v>31790.86020448462</v>
       </c>
       <c r="D107">
-        <v>-78.51397714513587</v>
+        <v>2884.43979551538</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3299,13 +3299,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>34675.3</v>
+        <v>34472</v>
       </c>
       <c r="C108">
-        <v>31797.30111606876</v>
+        <v>33993.15095077806</v>
       </c>
       <c r="D108">
-        <v>2877.998883931243</v>
+        <v>478.8490492219426</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3313,13 +3313,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>34472</v>
+        <v>35903.3</v>
       </c>
       <c r="C109">
-        <v>33999.35158899779</v>
+        <v>34535.67531802096</v>
       </c>
       <c r="D109">
-        <v>472.6484110022138</v>
+        <v>1367.624681979039</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3327,13 +3327,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>35903.3</v>
+        <v>35046.2</v>
       </c>
       <c r="C110">
-        <v>34523.1403469058</v>
+        <v>35703.61369177107</v>
       </c>
       <c r="D110">
-        <v>1380.159653094204</v>
+        <v>-657.4136917710712</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3341,13 +3341,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>35046.2</v>
+        <v>33532.4</v>
       </c>
       <c r="C111">
-        <v>35698.20748491946</v>
+        <v>35089.58435804538</v>
       </c>
       <c r="D111">
-        <v>-652.0074849194643</v>
+        <v>-1557.184358045379</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3355,13 +3355,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>33532.4</v>
+        <v>33802.9</v>
       </c>
       <c r="C112">
-        <v>35071.44286229115</v>
+        <v>33687.0939979856</v>
       </c>
       <c r="D112">
-        <v>-1539.04286229115</v>
+        <v>115.8060020143967</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3369,13 +3369,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>33802.9</v>
+        <v>34685.4</v>
       </c>
       <c r="C113">
-        <v>33672.95071847489</v>
+        <v>33574.77069079284</v>
       </c>
       <c r="D113">
-        <v>129.9492815251069</v>
+        <v>1110.629309207165</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3383,13 +3383,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>34685.4</v>
+        <v>35305</v>
       </c>
       <c r="C114">
-        <v>33570.7535275378</v>
+        <v>34411.4894333002</v>
       </c>
       <c r="D114">
-        <v>1114.646472462198</v>
+        <v>893.5105666997988</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3397,13 +3397,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>35305</v>
+        <v>33697.6</v>
       </c>
       <c r="C115">
-        <v>34410.2453809173</v>
+        <v>35217.64744714809</v>
       </c>
       <c r="D115">
-        <v>894.7546190826979</v>
+        <v>-1520.047447148092</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3411,13 +3411,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>33697.6</v>
+        <v>34235</v>
       </c>
       <c r="C116">
-        <v>35215.80120892741</v>
+        <v>33920.63453981509</v>
       </c>
       <c r="D116">
-        <v>-1518.201208927414</v>
+        <v>314.3654601849121</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3425,13 +3425,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>34235</v>
+        <v>33885.1</v>
       </c>
       <c r="C117">
-        <v>33909.65732352436</v>
+        <v>34247.09129721076</v>
       </c>
       <c r="D117">
-        <v>325.3426764756441</v>
+        <v>-361.9912972107632</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3439,13 +3439,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>33885.1</v>
+        <v>32882.2</v>
       </c>
       <c r="C118">
-        <v>34251.20680827534</v>
+        <v>34122.67985578584</v>
       </c>
       <c r="D118">
-        <v>-366.1068082753409</v>
+        <v>-1240.479855785845</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3453,13 +3453,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>32882.2</v>
+        <v>33791</v>
       </c>
       <c r="C119">
-        <v>34122.69021810056</v>
+        <v>32939.02990842451</v>
       </c>
       <c r="D119">
-        <v>-1240.49021810056</v>
+        <v>851.9700915754947</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3467,13 +3467,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>33791</v>
+        <v>33522.2</v>
       </c>
       <c r="C120">
-        <v>32934.64320842014</v>
+        <v>33463.36852142852</v>
       </c>
       <c r="D120">
-        <v>856.3567915798631</v>
+        <v>58.8314785714756</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3481,13 +3481,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>33522.2</v>
+        <v>34246.9</v>
       </c>
       <c r="C121">
-        <v>33468.33254847286</v>
+        <v>33535.11649848988</v>
       </c>
       <c r="D121">
-        <v>53.86745152714138</v>
+        <v>711.7835015101227</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3495,13 +3495,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>34246.9</v>
+        <v>33107.3</v>
       </c>
       <c r="C122">
-        <v>33533.89011828159</v>
+        <v>34080.68528037125</v>
       </c>
       <c r="D122">
-        <v>713.0098817184116</v>
+        <v>-973.3852803712507</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3509,13 +3509,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>33107.3</v>
+        <v>32722.9</v>
       </c>
       <c r="C123">
-        <v>34082.94713101699</v>
+        <v>33347.94855863825</v>
       </c>
       <c r="D123">
-        <v>-975.6471310169873</v>
+        <v>-625.0485586382492</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3523,13 +3523,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>32722.9</v>
+        <v>32815.2</v>
       </c>
       <c r="C124">
-        <v>33341.42161432566</v>
+        <v>32708.08704264342</v>
       </c>
       <c r="D124">
-        <v>-618.5216143256621</v>
+        <v>107.1129573565813</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3537,13 +3537,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>32815.2</v>
+        <v>31832.6</v>
       </c>
       <c r="C125">
-        <v>32706.35745303216</v>
+        <v>32548.47028732536</v>
       </c>
       <c r="D125">
-        <v>108.8425469678332</v>
+        <v>-715.8702873253606</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3551,13 +3551,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>31832.6</v>
+        <v>31405.9</v>
       </c>
       <c r="C126">
-        <v>32546.28093525142</v>
+        <v>31940.12035297419</v>
       </c>
       <c r="D126">
-        <v>-713.6809352514174</v>
+        <v>-534.2203529741928</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3565,13 +3565,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>31405.9</v>
+        <v>31510</v>
       </c>
       <c r="C127">
-        <v>31935.39361428784</v>
+        <v>31451.73463565056</v>
       </c>
       <c r="D127">
-        <v>-529.493614287836</v>
+        <v>58.26536434943773</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3579,13 +3579,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>31510</v>
+        <v>31780.1</v>
       </c>
       <c r="C128">
-        <v>31452.42004679475</v>
+        <v>31461.45159110622</v>
       </c>
       <c r="D128">
-        <v>57.57995320524788</v>
+        <v>318.6484088937759</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3593,13 +3593,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>31780.1</v>
+        <v>30820.5</v>
       </c>
       <c r="C129">
-        <v>31464.61068598065</v>
+        <v>31704.4865902187</v>
       </c>
       <c r="D129">
-        <v>315.4893140193526</v>
+        <v>-883.9865902187048</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3607,13 +3607,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>30820.5</v>
+        <v>29788.1</v>
       </c>
       <c r="C130">
-        <v>31707.15281092182</v>
+        <v>30914.76352521126</v>
       </c>
       <c r="D130">
-        <v>-886.6528109218198</v>
+        <v>-1126.663525211257</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3621,13 +3621,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>29788.1</v>
+        <v>32125</v>
       </c>
       <c r="C131">
-        <v>30910.30019689228</v>
+        <v>29896.38879665691</v>
       </c>
       <c r="D131">
-        <v>-1122.200196892278</v>
+        <v>2228.611203343095</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3635,13 +3635,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>32125</v>
+        <v>32283.3</v>
       </c>
       <c r="C132">
-        <v>29894.32609727906</v>
+        <v>31594.6304518586</v>
       </c>
       <c r="D132">
-        <v>2230.673902720941</v>
+        <v>688.669548141399</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3649,13 +3649,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>32283.3</v>
+        <v>33639</v>
       </c>
       <c r="C133">
-        <v>31604.46814637694</v>
+        <v>32210.29709383051</v>
       </c>
       <c r="D133">
-        <v>678.8318536230618</v>
+        <v>1428.702906169488</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3663,13 +3663,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>33639</v>
+        <v>34284.6</v>
       </c>
       <c r="C134">
-        <v>32203.53711304764</v>
+        <v>33257.14581434455</v>
       </c>
       <c r="D134">
-        <v>1435.462886952359</v>
+        <v>1027.45418565545</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3677,13 +3677,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>34284.6</v>
+        <v>35413.6</v>
       </c>
       <c r="C135">
-        <v>33251.57607929445</v>
+        <v>34198.34041412367</v>
       </c>
       <c r="D135">
-        <v>1033.023920705549</v>
+        <v>1215.259585876331</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3691,13 +3691,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>35413.6</v>
+        <v>37274.9</v>
       </c>
       <c r="C136">
-        <v>34186.75245636454</v>
+        <v>35123.6791451506</v>
       </c>
       <c r="D13